--- a/Monitoreo DI.xlsx
+++ b/Monitoreo DI.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karen\Dropbox\DI Monitoreo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\DI Monitoreo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6F688E9-EB7D-49EA-AC4E-FD88BEE35F87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22139D27-E435-4300-B34A-8CAA7BD5A432}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="833" xr2:uid="{F0BF9B96-FFF4-4E12-841F-9553B6E1990E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="833" activeTab="9" xr2:uid="{F0BF9B96-FFF4-4E12-841F-9553B6E1990E}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA`S" sheetId="1" r:id="rId1"/>
@@ -108,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5572" uniqueCount="1406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5624" uniqueCount="1418">
   <si>
     <t>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/DATASALUD.svg</t>
   </si>
@@ -3332,9 +3332,6 @@
   </si>
   <si>
     <t>Ministerio de Agricultura</t>
-  </si>
-  <si>
-    <t>Natalia A.</t>
   </si>
   <si>
     <t>https://dataverse.harvard.edu/dataverse/coes_data_repository;jsessionid=e230b79cdc5798e80731f85ff2b4?q=&amp;types=datasets&amp;sort=dateSort&amp;order=desc&amp;page=1</t>
@@ -4068,33 +4065,15 @@
     <t xml:space="preserve">Observación </t>
   </si>
   <si>
-    <t>arreglar tabla incluirle región (esta con numero)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sisteamtización tabla de exploración </t>
-  </si>
-  <si>
-    <t>Hizo las tablas y están listas</t>
-  </si>
-  <si>
     <t>BD Violencia contra la mujer aespera de Respuesta de karen.</t>
   </si>
   <si>
     <t>Indígena: tabla del Censo 2017</t>
   </si>
   <si>
-    <t xml:space="preserve">Averiguar si lo tenemos </t>
-  </si>
-  <si>
     <t>Género: Sistematización de tablas. Finaliza entre hoy y mañana</t>
   </si>
   <si>
-    <t>Se le hizo demasiando grande</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Delito ok. Pendinte las BD descragados por Héctor </t>
-  </si>
-  <si>
     <t>Indígena: revisadas todas las tablas y estarían listas</t>
   </si>
   <si>
@@ -4111,9 +4090,6 @@
   </si>
   <si>
     <t>Preguntar a Patricio por Hondura. Preguntar a karen por BD género.</t>
-  </si>
-  <si>
-    <t>Info Lobby: Muchas tablas, realizar mucho orden</t>
   </si>
   <si>
     <t>Aun no ha empezado</t>
@@ -4945,6 +4921,66 @@
   </si>
   <si>
     <t xml:space="preserve">A través de este mapa interactivo podrás observar los antecedentes de cada uno de los femicidios registrados desde el año 2010 al 2020 a nivel Nacional, accediendo además al estado judicial de cada una de las causas. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demasiada información. Finalizado Conceptos generales de CC y pronto a finalizar Causas de CC. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Falta verificar estado con Christian Castro. </t>
+  </si>
+  <si>
+    <t>Sisteamtización tablas de exploración y explotación geotérmicas</t>
+  </si>
+  <si>
+    <t>Evaluar que se puede hacer con Accidentes (pdf)</t>
+  </si>
+  <si>
+    <t>Averiguar si lo tenemos</t>
+  </si>
+  <si>
+    <t>Monitoreo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No aún </t>
+  </si>
+  <si>
+    <t>Continuar con Honduras</t>
+  </si>
+  <si>
+    <t>Tablas listas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delito ok. Pendinte las BD descargados por Héctor </t>
+  </si>
+  <si>
+    <t>Info Lobby: Muchas información por ordenar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monserrat </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Natalia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">No iniciado aun </t>
+  </si>
+  <si>
+    <t>Silvia Justicia Juvenil: de 70 a 13 tablas</t>
+  </si>
+  <si>
+    <t>Andrés: Protección de Derecho del niño: de 90 a 30</t>
+  </si>
+  <si>
+    <t>Monserrat: Complejo poruqe las variables abaracan todas las áreas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Revisión </t>
+  </si>
+  <si>
+    <t>BD listas en Dropbox del Anuario 2019</t>
+  </si>
+  <si>
+    <t>Inicio Anuarios 2018 - 2010</t>
   </si>
 </sst>
 </file>
@@ -5250,8 +5286,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor rgb="FFFFB7B7"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -5373,7 +5409,7 @@
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="158">
+  <cellXfs count="164">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -5715,55 +5751,6 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="15" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -5802,13 +5789,82 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="15" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="15" fontId="12" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="173">
+  <dxfs count="180">
     <dxf>
       <font>
         <b val="0"/>
@@ -7755,6 +7811,23 @@
       </font>
     </dxf>
     <dxf>
+      <alignment vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <strike val="0"/>
@@ -7773,9 +7846,19 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
+      <alignment vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -8295,10 +8378,15 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Estilo de segmentación de datos 1" pivot="0" table="0" count="2" xr9:uid="{7621B3B5-3284-42E2-9B51-77722CE67511}">
-      <tableStyleElement type="wholeTable" dxfId="172"/>
-      <tableStyleElement type="headerRow" dxfId="171"/>
+      <tableStyleElement type="wholeTable" dxfId="179"/>
+      <tableStyleElement type="headerRow" dxfId="178"/>
     </tableStyle>
   </tableStyles>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFB7B7"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1">
@@ -8950,14 +9038,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1245306</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>15875</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>460375</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>29633</xdr:rowOff>
     </xdr:to>
@@ -8995,8 +9083,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="6769806" y="0"/>
-              <a:ext cx="2509132" cy="942446"/>
+              <a:off x="777875" y="0"/>
+              <a:ext cx="3849688" cy="942446"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -10679,7 +10767,7 @@
 
 <file path=xl/slicers/slicer3.xml><?xml version="1.0" encoding="utf-8"?>
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
-  <slicer name="Responsable" xr10:uid="{41E93CD7-9679-4E61-8DB8-D6EFAD1478CC}" cache="SegmentaciónDeDatos_Responsable" caption="Responsable" columnCount="2" style="Estilo de segmentación de datos 1" rowHeight="241300"/>
+  <slicer name="Responsable" xr10:uid="{41E93CD7-9679-4E61-8DB8-D6EFAD1478CC}" cache="SegmentaciónDeDatos_Responsable" caption="Responsable" columnCount="3" style="SlicerStyleLight4" rowHeight="241300"/>
 </slicers>
 </file>
 
@@ -10721,19 +10809,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6E39FE05-78F7-46B2-A48A-6AE9D75C0EBB}" name="DATAS" displayName="DATAS" ref="B7:K33" totalsRowShown="0" dataDxfId="170">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6E39FE05-78F7-46B2-A48A-6AE9D75C0EBB}" name="DATAS" displayName="DATAS" ref="B7:K33" totalsRowShown="0" dataDxfId="177">
   <autoFilter ref="B7:K33" xr:uid="{A0E2A789-D79F-4DB7-90A3-654E5E441AF8}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{7076C6AD-6717-404D-96C6-53FBA68C1EBC}" name="Data" dataDxfId="169"/>
-    <tableColumn id="2" xr3:uid="{B68EB833-5A56-4B1F-8BF1-E83CF0F5B1BA}" name="id_data" dataDxfId="168"/>
-    <tableColumn id="3" xr3:uid="{B68551BE-AD5B-4ABC-92F3-75214F86D3BC}" name="Estado" dataDxfId="167"/>
-    <tableColumn id="4" xr3:uid="{35F21F0F-CEDD-4627-8F3A-B243E93A29A8}" name="Desarrollo" dataDxfId="166"/>
-    <tableColumn id="5" xr3:uid="{55D616E3-D0F3-464E-B32C-8DF920812CBC}" name="Investigación" dataDxfId="165"/>
-    <tableColumn id="6" xr3:uid="{C1D2156E-87B8-470E-9168-7A6E5AE31CC2}" name="Breve Descripción" dataDxfId="164"/>
-    <tableColumn id="10" xr3:uid="{0091DFF5-4F92-4896-A2A6-03E40B76AE69}" name="Slogan - Cita" dataDxfId="163"/>
-    <tableColumn id="7" xr3:uid="{5B85BAF7-51FC-47E2-B831-0E709569CEC4}" name="Vistas" dataDxfId="162"/>
-    <tableColumn id="8" xr3:uid="{57861CEA-0BDC-4179-9FF2-0E59F48A2157}" name="Repositorio Dropbox" dataDxfId="161"/>
-    <tableColumn id="9" xr3:uid="{0E50183B-22E4-424B-96DD-18AC3480E706}" name="Link Logo" dataDxfId="160"/>
+    <tableColumn id="1" xr3:uid="{7076C6AD-6717-404D-96C6-53FBA68C1EBC}" name="Data" dataDxfId="176"/>
+    <tableColumn id="2" xr3:uid="{B68EB833-5A56-4B1F-8BF1-E83CF0F5B1BA}" name="id_data" dataDxfId="175"/>
+    <tableColumn id="3" xr3:uid="{B68551BE-AD5B-4ABC-92F3-75214F86D3BC}" name="Estado" dataDxfId="174"/>
+    <tableColumn id="4" xr3:uid="{35F21F0F-CEDD-4627-8F3A-B243E93A29A8}" name="Desarrollo" dataDxfId="173"/>
+    <tableColumn id="5" xr3:uid="{55D616E3-D0F3-464E-B32C-8DF920812CBC}" name="Investigación" dataDxfId="172"/>
+    <tableColumn id="6" xr3:uid="{C1D2156E-87B8-470E-9168-7A6E5AE31CC2}" name="Breve Descripción" dataDxfId="171"/>
+    <tableColumn id="10" xr3:uid="{0091DFF5-4F92-4896-A2A6-03E40B76AE69}" name="Slogan - Cita" dataDxfId="170"/>
+    <tableColumn id="7" xr3:uid="{5B85BAF7-51FC-47E2-B831-0E709569CEC4}" name="Vistas" dataDxfId="169"/>
+    <tableColumn id="8" xr3:uid="{57861CEA-0BDC-4179-9FF2-0E59F48A2157}" name="Repositorio Dropbox" dataDxfId="168"/>
+    <tableColumn id="9" xr3:uid="{0E50183B-22E4-424B-96DD-18AC3480E706}" name="Link Logo" dataDxfId="167"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -10774,51 +10862,57 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B0304927-521B-4559-963B-3C591C746F11}" name="PRODUCTOS" displayName="PRODUCTOS" ref="A7:BB95" totalsRowShown="0" headerRowDxfId="159">
-  <autoFilter ref="A7:BB95" xr:uid="{B45D9B6D-7E6E-4374-A7A8-688EAA2C002B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B0304927-521B-4559-963B-3C591C746F11}" name="PRODUCTOS" displayName="PRODUCTOS" ref="A7:BB95" totalsRowShown="0" headerRowDxfId="166">
+  <autoFilter ref="A7:BB95" xr:uid="{B45D9B6D-7E6E-4374-A7A8-688EAA2C002B}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="DATAGÉNERO"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="54">
-    <tableColumn id="1" xr3:uid="{01CFB9DB-FBAD-4A9E-9D8F-5FB3EB42A9EB}" name="id_data" dataDxfId="158" totalsRowDxfId="157">
+    <tableColumn id="1" xr3:uid="{01CFB9DB-FBAD-4A9E-9D8F-5FB3EB42A9EB}" name="id_data" dataDxfId="165" totalsRowDxfId="164">
       <calculatedColumnFormula>+VLOOKUP(D8,'DATA`S'!$B$8:$C$33,2,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="31" xr3:uid="{296D6B07-CE01-4CBF-8413-B4A08E3AF372}" name="id_pais" dataDxfId="156" totalsRowDxfId="155">
+    <tableColumn id="31" xr3:uid="{296D6B07-CE01-4CBF-8413-B4A08E3AF372}" name="id_pais" dataDxfId="163" totalsRowDxfId="162">
       <calculatedColumnFormula>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$11,2,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{07061539-DFF5-4A11-BADD-2A240074A56A}" name="Corr_Producto" dataDxfId="154" totalsRowDxfId="153"/>
-    <tableColumn id="3" xr3:uid="{56D80777-3871-4DBF-8856-DFDA54440D55}" name="Data" dataDxfId="152" totalsRowDxfId="151"/>
-    <tableColumn id="27" xr3:uid="{0BD20D97-CBB4-4212-9EB7-3F3B3FA483E6}" name="País" dataDxfId="150" totalsRowDxfId="149"/>
-    <tableColumn id="4" xr3:uid="{73D49374-8912-4C27-A2AF-E0476A8E9AEE}" name="id_producto" dataDxfId="148">
+    <tableColumn id="2" xr3:uid="{07061539-DFF5-4A11-BADD-2A240074A56A}" name="Corr_Producto" dataDxfId="161" totalsRowDxfId="160"/>
+    <tableColumn id="3" xr3:uid="{56D80777-3871-4DBF-8856-DFDA54440D55}" name="Data" dataDxfId="159" totalsRowDxfId="158"/>
+    <tableColumn id="27" xr3:uid="{0BD20D97-CBB4-4212-9EB7-3F3B3FA483E6}" name="País" dataDxfId="157" totalsRowDxfId="156"/>
+    <tableColumn id="4" xr3:uid="{73D49374-8912-4C27-A2AF-E0476A8E9AEE}" name="id_producto" dataDxfId="155">
       <calculatedColumnFormula>A8&amp;"-"&amp;B8&amp;"-"&amp;C8</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{71534AA1-DF8C-466C-AAA8-87DA9F119341}" name="Producto asociado " dataDxfId="147" totalsRowDxfId="146"/>
-    <tableColumn id="26" xr3:uid="{8B686EE2-348B-48C2-990B-424A8FB284BC}" name="Nombre comercial" dataDxfId="145" totalsRowDxfId="144"/>
-    <tableColumn id="6" xr3:uid="{75779DBD-8A91-4D7A-8A36-000CEDC599B6}" name="Estado" dataDxfId="143" totalsRowDxfId="142"/>
-    <tableColumn id="25" xr3:uid="{E03A0489-5A50-4DA9-A8DF-999E6DC669EA}" name="Avance" dataDxfId="141" totalsRowDxfId="140" dataCellStyle="Porcentaje" totalsRowCellStyle="Porcentaje">
+    <tableColumn id="5" xr3:uid="{71534AA1-DF8C-466C-AAA8-87DA9F119341}" name="Producto asociado " dataDxfId="154" totalsRowDxfId="153"/>
+    <tableColumn id="26" xr3:uid="{8B686EE2-348B-48C2-990B-424A8FB284BC}" name="Nombre comercial" dataDxfId="152" totalsRowDxfId="151"/>
+    <tableColumn id="6" xr3:uid="{75779DBD-8A91-4D7A-8A36-000CEDC599B6}" name="Estado" dataDxfId="150" totalsRowDxfId="149"/>
+    <tableColumn id="25" xr3:uid="{E03A0489-5A50-4DA9-A8DF-999E6DC669EA}" name="Avance" dataDxfId="148" totalsRowDxfId="147" dataCellStyle="Porcentaje" totalsRowCellStyle="Porcentaje">
       <calculatedColumnFormula>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$J$112,4,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{2699BB10-9D24-4629-8F45-4A2526A4D39A}" name="Responsable Desarrollo" dataDxfId="139" totalsRowDxfId="138"/>
-    <tableColumn id="8" xr3:uid="{69F4BEA1-A9B4-4421-A0EE-47BCAF12AAB2}" name="Responsable Información" dataDxfId="137" totalsRowDxfId="136"/>
-    <tableColumn id="10" xr3:uid="{03C8A422-EE9B-494A-A440-9110009A358E}" name="Tecnología" dataDxfId="135" totalsRowDxfId="134">
+    <tableColumn id="7" xr3:uid="{2699BB10-9D24-4629-8F45-4A2526A4D39A}" name="Responsable Desarrollo" dataDxfId="146" totalsRowDxfId="145"/>
+    <tableColumn id="8" xr3:uid="{69F4BEA1-A9B4-4421-A0EE-47BCAF12AAB2}" name="Responsable Información" dataDxfId="144" totalsRowDxfId="143"/>
+    <tableColumn id="10" xr3:uid="{03C8A422-EE9B-494A-A440-9110009A358E}" name="Tecnología" dataDxfId="142" totalsRowDxfId="141">
       <calculatedColumnFormula>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$N$112,8,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{1A081205-19B8-4238-8F9E-1836061C2D4F}" name="Host " dataDxfId="133" totalsRowDxfId="132"/>
-    <tableColumn id="12" xr3:uid="{6BCD6CB8-BA53-40A7-9F90-7EBA78E345DA}" name="Link Odoo" dataDxfId="131" totalsRowDxfId="130"/>
-    <tableColumn id="13" xr3:uid="{502BD7B7-DD01-471A-8E5E-C527F983E20E}" name="Fecha Publicación" dataDxfId="129" totalsRowDxfId="128"/>
-    <tableColumn id="15" xr3:uid="{00014923-35F8-4A24-9B8B-A626BE90EC3E}" name="Escala " dataDxfId="127" totalsRowDxfId="126"/>
-    <tableColumn id="16" xr3:uid="{D32995C9-2CA4-4BD7-A181-0CE6434624DC}" name="Periodo" dataDxfId="125" totalsRowDxfId="124"/>
-    <tableColumn id="17" xr3:uid="{5F683DA7-34DC-43D1-A154-FB5C17AB82E4}" name="Actualizaciones" dataDxfId="123" totalsRowDxfId="122"/>
-    <tableColumn id="18" xr3:uid="{D0F7DA38-1DAE-48DF-8725-440804E511ED}" name="Tipo Producto" dataDxfId="121" totalsRowDxfId="120"/>
-    <tableColumn id="19" xr3:uid="{6345440E-6C11-4DE3-9F30-57AA749130A3}" name="Fuentes " dataDxfId="119" totalsRowDxfId="118"/>
-    <tableColumn id="20" xr3:uid="{06F6F5BE-A8B5-450A-B890-E5272AC160CB}" name="Ref principal " dataDxfId="117" totalsRowDxfId="116"/>
-    <tableColumn id="21" xr3:uid="{F22EE5BC-B966-49EB-A843-F1384A77D7A0}" name="Competencia o material vinculado " dataDxfId="115" totalsRowDxfId="114"/>
+    <tableColumn id="11" xr3:uid="{1A081205-19B8-4238-8F9E-1836061C2D4F}" name="Host " dataDxfId="140" totalsRowDxfId="139"/>
+    <tableColumn id="12" xr3:uid="{6BCD6CB8-BA53-40A7-9F90-7EBA78E345DA}" name="Link Odoo" dataDxfId="138" totalsRowDxfId="137"/>
+    <tableColumn id="13" xr3:uid="{502BD7B7-DD01-471A-8E5E-C527F983E20E}" name="Fecha Publicación" dataDxfId="136" totalsRowDxfId="135"/>
+    <tableColumn id="15" xr3:uid="{00014923-35F8-4A24-9B8B-A626BE90EC3E}" name="Escala " dataDxfId="134" totalsRowDxfId="133"/>
+    <tableColumn id="16" xr3:uid="{D32995C9-2CA4-4BD7-A181-0CE6434624DC}" name="Periodo" dataDxfId="132" totalsRowDxfId="131"/>
+    <tableColumn id="17" xr3:uid="{5F683DA7-34DC-43D1-A154-FB5C17AB82E4}" name="Actualizaciones" dataDxfId="130" totalsRowDxfId="129"/>
+    <tableColumn id="18" xr3:uid="{D0F7DA38-1DAE-48DF-8725-440804E511ED}" name="Tipo Producto" dataDxfId="128" totalsRowDxfId="127"/>
+    <tableColumn id="19" xr3:uid="{6345440E-6C11-4DE3-9F30-57AA749130A3}" name="Fuentes " dataDxfId="126" totalsRowDxfId="125"/>
+    <tableColumn id="20" xr3:uid="{06F6F5BE-A8B5-450A-B890-E5272AC160CB}" name="Ref principal " dataDxfId="124" totalsRowDxfId="123"/>
+    <tableColumn id="21" xr3:uid="{F22EE5BC-B966-49EB-A843-F1384A77D7A0}" name="Competencia o material vinculado " dataDxfId="122" totalsRowDxfId="121"/>
     <tableColumn id="22" xr3:uid="{E445C8DD-86CC-41A9-9E49-D3492783FCB1}" name="Vistas"/>
     <tableColumn id="23" xr3:uid="{DBAFBD3B-B406-46F5-B2E9-B69F6F70645B}" name="Repositorio Dropbox"/>
     <tableColumn id="24" xr3:uid="{629986D1-249B-44FE-82F1-FCA6183BF20E}" name="Link Logo"/>
-    <tableColumn id="28" xr3:uid="{4F7861D7-1E20-4E49-BAAB-9731305CDBE5}" name="Observaciones" dataDxfId="113" totalsRowDxfId="112"/>
-    <tableColumn id="29" xr3:uid="{B82AF5FC-FE01-4F10-8B3A-A6B205199D0A}" name="Miniatura" dataDxfId="111" totalsRowDxfId="110"/>
+    <tableColumn id="28" xr3:uid="{4F7861D7-1E20-4E49-BAAB-9731305CDBE5}" name="Observaciones" dataDxfId="120" totalsRowDxfId="119"/>
+    <tableColumn id="29" xr3:uid="{B82AF5FC-FE01-4F10-8B3A-A6B205199D0A}" name="Miniatura" dataDxfId="118" totalsRowDxfId="117"/>
     <tableColumn id="37" xr3:uid="{447BFD0A-721F-47C8-9615-3D9B196F979F}" name="PORTADA SHOPIFY"/>
     <tableColumn id="38" xr3:uid="{95D4D5AF-6660-4044-A5A8-E516ADA5D063}" name="Párrafo enganche"/>
     <tableColumn id="39" xr3:uid="{2963E916-25CA-4C30-A173-915A5CD940D3}" name="Variante_1"/>
-    <tableColumn id="40" xr3:uid="{50FEFE18-B7AA-4094-B4D1-D7296380363B}" name="Precio_1 (USD)" dataDxfId="109"/>
+    <tableColumn id="40" xr3:uid="{50FEFE18-B7AA-4094-B4D1-D7296380363B}" name="Precio_1 (USD)" dataDxfId="116"/>
     <tableColumn id="41" xr3:uid="{9CECDB40-D2E7-44AF-BA17-FB2CD006F0D3}" name="Variante_2"/>
     <tableColumn id="42" xr3:uid="{449802E5-0F23-40E3-AC14-547C4516D33C}" name="Precio_2 (USD)"/>
     <tableColumn id="43" xr3:uid="{A11B456F-7DEA-431F-9CA5-03E3B83EB3CF}" name="Variante_3"/>
@@ -10831,10 +10925,10 @@
     <tableColumn id="33" xr3:uid="{8277A5C4-DDE4-4268-B9A2-D39560C50C97}" name="CAR_Var1_Disponible"/>
     <tableColumn id="34" xr3:uid="{2EAEC5EE-D01B-4781-A499-32811E9E50DF}" name="CAR_Periodo"/>
     <tableColumn id="35" xr3:uid="{89972549-6CAE-40EF-8DDE-4E5FB11CDCFB}" name="CAR_Proveedor"/>
-    <tableColumn id="36" xr3:uid="{94687206-A22A-469D-92B1-A6635B8A1CB3}" name="CAR_Colección" dataDxfId="108">
+    <tableColumn id="36" xr3:uid="{94687206-A22A-469D-92B1-A6635B8A1CB3}" name="CAR_Colección" dataDxfId="115">
       <calculatedColumnFormula>PRODUCTOS[[#This Row],[Data]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="48" xr3:uid="{431A4A68-8223-41E1-99C1-4F515A267188}" name="ESP_Tecnología" dataDxfId="107">
+    <tableColumn id="48" xr3:uid="{431A4A68-8223-41E1-99C1-4F515A267188}" name="ESP_Tecnología" dataDxfId="114">
       <calculatedColumnFormula>PRODUCTOS[[#This Row],[Tecnología]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="49" xr3:uid="{A570E531-D39D-48A2-BCC8-8E0BA5937958}" name="ESP_Incluye"/>
@@ -10857,7 +10951,7 @@
     <tableColumn id="1" xr3:uid="{69819873-BFDD-4D0F-83ED-7D2504DFDA31}" name="Data"/>
     <tableColumn id="2" xr3:uid="{70760145-B5A6-4F27-A738-A1EBE3D8A954}" name="Producto"/>
     <tableColumn id="3" xr3:uid="{585C0D49-B625-41C4-8893-45B93A4BE8CC}" name="Sección"/>
-    <tableColumn id="4" xr3:uid="{10EF7F87-DEF0-4028-9C31-E3E45FB50589}" name="Tema" dataDxfId="106"/>
+    <tableColumn id="4" xr3:uid="{10EF7F87-DEF0-4028-9C31-E3E45FB50589}" name="Tema" dataDxfId="113"/>
     <tableColumn id="5" xr3:uid="{28D3851F-C206-422F-98B1-973F48082A17}" name="Verificador"/>
     <tableColumn id="6" xr3:uid="{71EF3903-87DB-422F-904D-B86468D3F2A8}" name="Variables"/>
     <tableColumn id="7" xr3:uid="{09ED368A-F77F-44FE-80CB-14C859399091}" name="ID_VAR"/>
@@ -10881,15 +10975,16 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{2A3DFF5F-BB66-464A-9045-49B0328E9E76}" name="Tabla10" displayName="Tabla10" ref="B7:G189" totalsRowShown="0">
-  <autoFilter ref="B7:G189" xr:uid="{54E86758-179E-494E-9D22-024745EA2489}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{AE352613-BE77-4F50-A26C-CDFA69B4E703}" name="Data" dataDxfId="105"/>
-    <tableColumn id="2" xr3:uid="{FB99AEF8-BF89-4789-90CC-B8C3024883BE}" name="Estado"/>
-    <tableColumn id="3" xr3:uid="{B15F5D46-093A-497F-970F-4E17CA63A563}" name="Fecha Actualización " dataDxfId="104"/>
-    <tableColumn id="4" xr3:uid="{7EA45E0E-7020-43C1-AD03-9A178CD7430B}" name="Responsable"/>
-    <tableColumn id="5" xr3:uid="{2AC1CC8A-E5DB-4A3A-BEE8-6538DDAA69E7}" name="Observación "/>
-    <tableColumn id="6" xr3:uid="{C98B1913-4D31-48AA-9995-A47CE0EA1C1E}" name="Acción"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{2A3DFF5F-BB66-464A-9045-49B0328E9E76}" name="Tabla10" displayName="Tabla10" ref="B7:H188" totalsRowShown="0" headerRowDxfId="112" dataDxfId="111">
+  <autoFilter ref="B7:H188" xr:uid="{54E86758-179E-494E-9D22-024745EA2489}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{AE352613-BE77-4F50-A26C-CDFA69B4E703}" name="Data" dataDxfId="110"/>
+    <tableColumn id="2" xr3:uid="{FB99AEF8-BF89-4789-90CC-B8C3024883BE}" name="Estado" dataDxfId="109"/>
+    <tableColumn id="3" xr3:uid="{B15F5D46-093A-497F-970F-4E17CA63A563}" name="Fecha Actualización " dataDxfId="108"/>
+    <tableColumn id="4" xr3:uid="{7EA45E0E-7020-43C1-AD03-9A178CD7430B}" name="Responsable" dataDxfId="107"/>
+    <tableColumn id="5" xr3:uid="{2AC1CC8A-E5DB-4A3A-BEE8-6538DDAA69E7}" name="Observación " dataDxfId="106"/>
+    <tableColumn id="6" xr3:uid="{C98B1913-4D31-48AA-9995-A47CE0EA1C1E}" name="Acción" dataDxfId="105"/>
+    <tableColumn id="7" xr3:uid="{FE3D67C6-9FBF-4881-B186-7BE50BE75AE3}" name="Monitoreo" dataDxfId="104"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -10918,8 +11013,8 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{E94DB916-DE89-4F64-9EF8-AFB72BA8FF61}" name="Tabla14" displayName="Tabla14" ref="A12:I69" totalsRowShown="0" headerRowDxfId="89" dataDxfId="88">
-  <autoFilter ref="A12:I69" xr:uid="{14629A1E-D5D5-412C-8FAB-488411430C85}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{E94DB916-DE89-4F64-9EF8-AFB72BA8FF61}" name="Tabla14" displayName="Tabla14" ref="A12:I73" totalsRowShown="0" headerRowDxfId="89" dataDxfId="88">
+  <autoFilter ref="A12:I73" xr:uid="{14629A1E-D5D5-412C-8FAB-488411430C85}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{7299EEE0-40CF-4EF5-8F0C-C1FFA863E5B5}" name="N°" dataDxfId="87"/>
     <tableColumn id="2" xr3:uid="{9E84EC16-0161-44D0-9CB9-123C0428ADAD}" name="Tema/institución Investigación " dataDxfId="86"/>
@@ -11333,7 +11428,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{167569FB-0D63-486E-90FA-C6B113AE5A31}">
   <dimension ref="B5:K33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
@@ -11371,7 +11466,7 @@
         <v>33</v>
       </c>
       <c r="H7" t="s">
-        <v>1365</v>
+        <v>1357</v>
       </c>
       <c r="I7" s="8" t="s">
         <v>171</v>
@@ -11400,7 +11495,7 @@
         <v>98</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>1376</v>
+        <v>1368</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="3" t="s">
@@ -11430,7 +11525,7 @@
         <v>99</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>1382</v>
+        <v>1374</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="46" t="s">
@@ -11460,7 +11555,7 @@
         <v>123</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>1383</v>
+        <v>1375</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="46" t="s">
@@ -11490,7 +11585,7 @@
         <v>125</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>1367</v>
+        <v>1359</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="46" t="s">
@@ -11505,7 +11600,7 @@
     </row>
     <row r="12" spans="2:11" ht="133.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="1" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>66</v>
@@ -11520,7 +11615,7 @@
         <v>131</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>1385</v>
+        <v>1377</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="46" t="s">
@@ -11550,7 +11645,7 @@
         <v>127</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>1386</v>
+        <v>1378</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="3" t="s">
@@ -11578,7 +11673,7 @@
         <v>95</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>1381</v>
+        <v>1373</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="3" t="s">
@@ -11636,7 +11731,7 @@
         <v>170</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>1384</v>
+        <v>1376</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="3" t="s">
@@ -11663,11 +11758,11 @@
       <c r="F17" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="G17" s="156" t="s">
-        <v>1368</v>
-      </c>
-      <c r="H17" s="153" t="s">
-        <v>1366</v>
+      <c r="G17" s="139" t="s">
+        <v>1360</v>
+      </c>
+      <c r="H17" s="136" t="s">
+        <v>1358</v>
       </c>
       <c r="I17" s="46" t="s">
         <v>179</v>
@@ -11695,7 +11790,7 @@
       <c r="F18" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="G18" s="155"/>
+      <c r="G18" s="138"/>
       <c r="H18" s="1"/>
       <c r="I18" s="46" t="s">
         <v>172</v>
@@ -11723,8 +11818,8 @@
       <c r="F19" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="G19" s="157" t="s">
-        <v>1369</v>
+      <c r="G19" s="140" t="s">
+        <v>1361</v>
       </c>
       <c r="H19" s="7"/>
       <c r="I19" s="46" t="s">
@@ -11833,7 +11928,7 @@
       <c r="F23" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="G23" s="155"/>
+      <c r="G23" s="138"/>
       <c r="H23" s="1"/>
       <c r="I23" s="46" t="s">
         <v>180</v>
@@ -11862,7 +11957,7 @@
         <v>164</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>1388</v>
+        <v>1380</v>
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="3" t="s">
@@ -11891,8 +11986,8 @@
       <c r="F25" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="G25" s="156" t="s">
-        <v>1379</v>
+      <c r="G25" s="139" t="s">
+        <v>1371</v>
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="3" t="s">
@@ -12017,7 +12112,7 @@
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B32" s="1" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>946</v>
@@ -12036,7 +12131,7 @@
     <row r="33" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B33" s="1"/>
       <c r="C33" s="4" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="D33" s="39"/>
       <c r="E33" s="10"/>
@@ -12081,10 +12176,10 @@
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A12:I77"/>
+  <dimension ref="A12:I81"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A64" sqref="A64"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.90625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -12217,7 +12312,7 @@
       </c>
       <c r="H16" s="54"/>
     </row>
-    <row r="17" spans="1:9" s="56" customFormat="1" ht="42.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" s="56" customFormat="1" ht="42.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="56">
         <v>1</v>
       </c>
@@ -12241,7 +12336,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="56" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" s="56" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="56">
         <v>1</v>
       </c>
@@ -12259,13 +12354,13 @@
       </c>
       <c r="F18" s="60"/>
       <c r="G18" s="19" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="H18" s="61" t="s">
-        <v>1077</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" s="56" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="56" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="56">
         <v>1</v>
       </c>
@@ -12283,11 +12378,11 @@
       </c>
       <c r="F19" s="60"/>
       <c r="G19" s="55" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="H19" s="61"/>
     </row>
-    <row r="20" spans="1:9" s="56" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" s="56" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="56">
         <v>1</v>
       </c>
@@ -12305,11 +12400,11 @@
       </c>
       <c r="F20" s="60"/>
       <c r="G20" s="20" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="H20" s="61"/>
     </row>
-    <row r="21" spans="1:9" s="56" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" s="56" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="56">
         <v>1</v>
       </c>
@@ -12327,11 +12422,11 @@
       </c>
       <c r="F21" s="60"/>
       <c r="G21" s="55" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="H21" s="61"/>
     </row>
-    <row r="22" spans="1:9" s="56" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" s="56" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="56">
         <v>1</v>
       </c>
@@ -12349,11 +12444,11 @@
       </c>
       <c r="F22" s="60"/>
       <c r="G22" s="55" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="H22" s="61"/>
     </row>
-    <row r="23" spans="1:9" s="56" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" s="56" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="56">
         <v>1</v>
       </c>
@@ -12371,11 +12466,11 @@
       </c>
       <c r="F23" s="60"/>
       <c r="G23" s="20" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="H23" s="61"/>
     </row>
-    <row r="24" spans="1:9" s="56" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" s="56" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="56">
         <v>1</v>
       </c>
@@ -12392,394 +12487,443 @@
         <v>44146</v>
       </c>
       <c r="F24" s="60"/>
-      <c r="G24" s="53"/>
+      <c r="G24" s="53" t="s">
+        <v>1412</v>
+      </c>
       <c r="H24" s="61"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="47">
-        <v>2</v>
+    <row r="25" spans="1:8" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="56">
+        <v>1</v>
       </c>
       <c r="B25" s="98" t="s">
-        <v>986</v>
-      </c>
-      <c r="C25" s="47" t="s">
+        <v>853</v>
+      </c>
+      <c r="C25" s="56" t="s">
         <v>169</v>
       </c>
-      <c r="D25" s="50">
+      <c r="D25" s="58">
         <v>44111</v>
       </c>
-      <c r="E25" s="51">
-        <v>44113</v>
-      </c>
-      <c r="F25" s="52"/>
+      <c r="E25" s="59">
+        <v>44146</v>
+      </c>
+      <c r="F25" s="60"/>
       <c r="G25" s="53" t="s">
-        <v>987</v>
-      </c>
-      <c r="H25" s="54"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="47">
-        <v>3</v>
+        <v>1413</v>
+      </c>
+      <c r="H25" s="61"/>
+    </row>
+    <row r="26" spans="1:8" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="56">
+        <v>1</v>
       </c>
       <c r="B26" s="98" t="s">
-        <v>736</v>
-      </c>
-      <c r="C26" s="47" t="s">
-        <v>988</v>
-      </c>
-      <c r="D26" s="50">
+        <v>853</v>
+      </c>
+      <c r="C26" s="56" t="s">
+        <v>169</v>
+      </c>
+      <c r="D26" s="58">
         <v>44111</v>
       </c>
-      <c r="E26" s="62"/>
-      <c r="F26" s="63">
-        <v>44113</v>
-      </c>
+      <c r="E26" s="59">
+        <v>44146</v>
+      </c>
+      <c r="F26" s="60"/>
       <c r="G26" s="53" t="s">
-        <v>989</v>
-      </c>
-      <c r="H26" s="64" t="s">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" s="56" customFormat="1" x14ac:dyDescent="0.35">
+        <v>1414</v>
+      </c>
+      <c r="H26" s="61"/>
+    </row>
+    <row r="27" spans="1:8" s="56" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="56">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B27" s="98" t="s">
-        <v>991</v>
+        <v>853</v>
       </c>
       <c r="C27" s="56" t="s">
-        <v>98</v>
+        <v>169</v>
       </c>
       <c r="D27" s="58">
         <v>44111</v>
       </c>
       <c r="E27" s="59">
-        <v>44113</v>
-      </c>
-      <c r="F27" s="65">
-        <v>44113</v>
-      </c>
-      <c r="G27" s="19" t="s">
-        <v>992</v>
-      </c>
-      <c r="H27" s="64" t="s">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" s="56" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+        <v>44147</v>
+      </c>
+      <c r="F27" s="60"/>
+      <c r="G27" s="53" t="s">
+        <v>1416</v>
+      </c>
+      <c r="H27" s="163" t="s">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" s="56" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="56">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B28" s="98" t="s">
-        <v>991</v>
+        <v>853</v>
       </c>
       <c r="C28" s="56" t="s">
-        <v>98</v>
+        <v>169</v>
       </c>
       <c r="D28" s="58">
         <v>44111</v>
       </c>
       <c r="E28" s="59">
+        <v>44148</v>
+      </c>
+      <c r="F28" s="60"/>
+      <c r="G28" s="53" t="s">
+        <v>1417</v>
+      </c>
+      <c r="H28" s="112"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="47">
+        <v>2</v>
+      </c>
+      <c r="B29" s="98" t="s">
+        <v>986</v>
+      </c>
+      <c r="C29" s="47" t="s">
+        <v>169</v>
+      </c>
+      <c r="D29" s="50">
+        <v>44111</v>
+      </c>
+      <c r="E29" s="51">
         <v>44113</v>
       </c>
-      <c r="F28" s="65">
+      <c r="F29" s="52"/>
+      <c r="G29" s="53" t="s">
+        <v>987</v>
+      </c>
+      <c r="H29" s="54"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="47">
+        <v>3</v>
+      </c>
+      <c r="B30" s="98" t="s">
+        <v>736</v>
+      </c>
+      <c r="C30" s="47" t="s">
+        <v>988</v>
+      </c>
+      <c r="D30" s="50">
+        <v>44111</v>
+      </c>
+      <c r="E30" s="62"/>
+      <c r="F30" s="63">
         <v>44113</v>
       </c>
-      <c r="G28" s="55" t="s">
-        <v>993</v>
-      </c>
-      <c r="H28" s="66" t="s">
+      <c r="G30" s="53" t="s">
+        <v>989</v>
+      </c>
+      <c r="H30" s="64" t="s">
         <v>990</v>
       </c>
     </row>
-    <row r="29" spans="1:9" s="56" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="56">
-        <v>5</v>
-      </c>
-      <c r="B29" s="98" t="s">
-        <v>994</v>
-      </c>
-      <c r="C29" s="56" t="s">
-        <v>93</v>
-      </c>
-      <c r="D29" s="58">
-        <v>44126</v>
-      </c>
-      <c r="E29" s="59">
-        <v>44128</v>
-      </c>
-      <c r="F29" s="67"/>
-      <c r="G29" s="19" t="s">
-        <v>995</v>
-      </c>
-      <c r="H29" s="61" t="s">
-        <v>996</v>
-      </c>
-      <c r="I29" s="68" t="s">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" s="56" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="56">
-        <v>5</v>
-      </c>
-      <c r="B30" s="98" t="s">
-        <v>994</v>
-      </c>
-      <c r="C30" s="56" t="s">
-        <v>93</v>
-      </c>
-      <c r="D30" s="58">
-        <v>44126</v>
-      </c>
-      <c r="E30" s="59">
-        <v>44128</v>
-      </c>
-      <c r="F30" s="67"/>
-      <c r="G30" s="53" t="s">
-        <v>998</v>
-      </c>
-      <c r="H30" s="61" t="s">
-        <v>999</v>
-      </c>
-      <c r="I30" s="68" t="s">
-        <v>1219</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" s="56" customFormat="1" ht="24" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" s="56" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A31" s="56">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B31" s="98" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="C31" s="56" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D31" s="58">
-        <v>44126</v>
+        <v>44111</v>
       </c>
       <c r="E31" s="59">
-        <v>44128</v>
-      </c>
-      <c r="F31" s="67"/>
-      <c r="G31" s="56" t="s">
-        <v>1000</v>
-      </c>
-      <c r="H31" s="74" t="s">
-        <v>1018</v>
-      </c>
-      <c r="I31" s="68" t="s">
-        <v>1220</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" s="56" customFormat="1" ht="52" x14ac:dyDescent="0.35">
+        <v>44113</v>
+      </c>
+      <c r="F31" s="65">
+        <v>44113</v>
+      </c>
+      <c r="G31" s="19" t="s">
+        <v>992</v>
+      </c>
+      <c r="H31" s="64" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" s="56" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A32" s="56">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B32" s="98" t="s">
-        <v>1002</v>
+        <v>991</v>
       </c>
       <c r="C32" s="56" t="s">
         <v>98</v>
       </c>
       <c r="D32" s="58">
+        <v>44111</v>
+      </c>
+      <c r="E32" s="59">
         <v>44113</v>
       </c>
-      <c r="E32" s="59">
-        <v>44120</v>
-      </c>
-      <c r="F32" s="60"/>
-      <c r="G32" s="19" t="s">
-        <v>1003</v>
-      </c>
-      <c r="H32" s="69" t="s">
-        <v>1001</v>
-      </c>
-      <c r="I32" s="56" t="s">
-        <v>1222</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" s="56" customFormat="1" ht="39" x14ac:dyDescent="0.35">
+      <c r="F32" s="65">
+        <v>44113</v>
+      </c>
+      <c r="G32" s="55" t="s">
+        <v>993</v>
+      </c>
+      <c r="H32" s="66" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" s="56" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="56">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B33" s="98" t="s">
-        <v>1002</v>
+        <v>994</v>
       </c>
       <c r="C33" s="56" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D33" s="58">
-        <v>44113</v>
-      </c>
-      <c r="E33" s="70">
         <v>44126</v>
       </c>
-      <c r="F33" s="60"/>
-      <c r="G33" s="71" t="s">
-        <v>1004</v>
-      </c>
-      <c r="H33" s="69" t="s">
-        <v>1001</v>
-      </c>
-      <c r="I33" s="56" t="s">
-        <v>1221</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" s="56" customFormat="1" ht="26" x14ac:dyDescent="0.35">
+      <c r="E33" s="59">
+        <v>44128</v>
+      </c>
+      <c r="F33" s="67"/>
+      <c r="G33" s="19" t="s">
+        <v>995</v>
+      </c>
+      <c r="H33" s="61" t="s">
+        <v>996</v>
+      </c>
+      <c r="I33" s="68" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" s="56" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="56">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B34" s="98" t="s">
-        <v>1002</v>
+        <v>994</v>
       </c>
       <c r="C34" s="56" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D34" s="58">
-        <v>44113</v>
-      </c>
-      <c r="E34" s="70">
-        <v>44134</v>
-      </c>
-      <c r="F34" s="60"/>
-      <c r="G34" s="19" t="s">
-        <v>1005</v>
-      </c>
-      <c r="H34" s="61"/>
-    </row>
-    <row r="35" spans="1:9" s="56" customFormat="1" x14ac:dyDescent="0.3">
+        <v>44126</v>
+      </c>
+      <c r="E34" s="59">
+        <v>44128</v>
+      </c>
+      <c r="F34" s="67"/>
+      <c r="G34" s="53" t="s">
+        <v>998</v>
+      </c>
+      <c r="H34" s="61" t="s">
+        <v>999</v>
+      </c>
+      <c r="I34" s="68" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" s="56" customFormat="1" ht="24" x14ac:dyDescent="0.35">
       <c r="A35" s="56">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B35" s="98" t="s">
-        <v>1002</v>
+        <v>994</v>
       </c>
       <c r="C35" s="56" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D35" s="58">
-        <v>44113</v>
-      </c>
-      <c r="E35" s="70">
-        <v>44143</v>
-      </c>
-      <c r="F35" s="60"/>
-      <c r="G35" s="53"/>
-      <c r="H35" s="61"/>
-      <c r="I35" s="56" t="s">
-        <v>1221</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" s="56" customFormat="1" x14ac:dyDescent="0.3">
+        <v>44126</v>
+      </c>
+      <c r="E35" s="59">
+        <v>44128</v>
+      </c>
+      <c r="F35" s="67"/>
+      <c r="G35" s="56" t="s">
+        <v>1000</v>
+      </c>
+      <c r="H35" s="74" t="s">
+        <v>1018</v>
+      </c>
+      <c r="I35" s="68" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" s="56" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A36" s="56">
-        <v>6</v>
-      </c>
-      <c r="B36" s="98"/>
-      <c r="D36" s="58"/>
-      <c r="E36" s="70"/>
-      <c r="F36" s="60"/>
-      <c r="G36" s="53" t="s">
-        <v>1312</v>
-      </c>
-      <c r="H36" s="61"/>
-    </row>
-    <row r="37" spans="1:9" s="56" customFormat="1" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="B36" s="98" t="s">
+        <v>994</v>
+      </c>
+      <c r="C36" s="56" t="s">
+        <v>93</v>
+      </c>
+      <c r="D36" s="58">
+        <v>44126</v>
+      </c>
+      <c r="E36" s="59">
+        <v>44145</v>
+      </c>
+      <c r="F36" s="67"/>
+      <c r="G36" s="55" t="s">
+        <v>1316</v>
+      </c>
+      <c r="H36" s="74"/>
+      <c r="I36" s="68"/>
+    </row>
+    <row r="37" spans="1:9" s="56" customFormat="1" ht="52" x14ac:dyDescent="0.35">
       <c r="A37" s="56">
         <v>6</v>
       </c>
-      <c r="B37" s="98"/>
-      <c r="D37" s="58"/>
-      <c r="E37" s="70"/>
+      <c r="B37" s="98" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C37" s="56" t="s">
+        <v>98</v>
+      </c>
+      <c r="D37" s="58">
+        <v>44113</v>
+      </c>
+      <c r="E37" s="59">
+        <v>44120</v>
+      </c>
       <c r="F37" s="60"/>
-      <c r="G37" s="53" t="s">
-        <v>1313</v>
-      </c>
-      <c r="H37" s="61"/>
-    </row>
-    <row r="38" spans="1:9" s="56" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="98"/>
-      <c r="D38" s="58"/>
-      <c r="E38" s="70"/>
+      <c r="G37" s="19" t="s">
+        <v>1003</v>
+      </c>
+      <c r="H37" s="69" t="s">
+        <v>1001</v>
+      </c>
+      <c r="I37" s="56" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" s="56" customFormat="1" ht="39" x14ac:dyDescent="0.35">
+      <c r="A38" s="56">
+        <v>6</v>
+      </c>
+      <c r="B38" s="98" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C38" s="56" t="s">
+        <v>98</v>
+      </c>
+      <c r="D38" s="58">
+        <v>44113</v>
+      </c>
+      <c r="E38" s="70">
+        <v>44126</v>
+      </c>
       <c r="F38" s="60"/>
-      <c r="G38" s="53"/>
-      <c r="H38" s="61"/>
-    </row>
-    <row r="39" spans="1:9" s="56" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="98"/>
-      <c r="D39" s="58"/>
-      <c r="E39" s="70"/>
+      <c r="G38" s="71" t="s">
+        <v>1004</v>
+      </c>
+      <c r="H38" s="69" t="s">
+        <v>1001</v>
+      </c>
+      <c r="I38" s="56" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" s="56" customFormat="1" ht="26" x14ac:dyDescent="0.35">
+      <c r="A39" s="56">
+        <v>6</v>
+      </c>
+      <c r="B39" s="98" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C39" s="56" t="s">
+        <v>98</v>
+      </c>
+      <c r="D39" s="58">
+        <v>44113</v>
+      </c>
+      <c r="E39" s="70">
+        <v>44134</v>
+      </c>
       <c r="F39" s="60"/>
-      <c r="G39" s="53"/>
+      <c r="G39" s="19" t="s">
+        <v>1005</v>
+      </c>
       <c r="H39" s="61"/>
     </row>
-    <row r="40" spans="1:9" s="56" customFormat="1" ht="26" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" s="56" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="56">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B40" s="98" t="s">
-        <v>1006</v>
+        <v>1002</v>
       </c>
       <c r="C40" s="56" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="D40" s="58">
-        <v>44111</v>
-      </c>
-      <c r="E40" s="59">
         <v>44113</v>
       </c>
-      <c r="F40" s="65"/>
-      <c r="G40" s="19" t="s">
-        <v>1007</v>
-      </c>
+      <c r="E40" s="70">
+        <v>44143</v>
+      </c>
+      <c r="F40" s="60"/>
+      <c r="G40" s="53"/>
       <c r="H40" s="61"/>
-    </row>
-    <row r="41" spans="1:9" s="56" customFormat="1" ht="39" x14ac:dyDescent="0.35">
+      <c r="I40" s="56" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" s="56" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="56">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B41" s="98" t="s">
-        <v>1006</v>
+        <v>1002</v>
       </c>
       <c r="C41" s="56" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="D41" s="58">
-        <v>44111</v>
-      </c>
-      <c r="E41" s="59">
-        <v>44119</v>
-      </c>
-      <c r="F41" s="65"/>
-      <c r="G41" s="19" t="s">
-        <v>1008</v>
-      </c>
-      <c r="H41" s="61" t="s">
-        <v>1009</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" s="56" customFormat="1" ht="26" x14ac:dyDescent="0.35">
+        <v>44113</v>
+      </c>
+      <c r="E41" s="70">
+        <v>44145</v>
+      </c>
+      <c r="F41" s="60"/>
+      <c r="G41" s="53" t="s">
+        <v>1400</v>
+      </c>
+      <c r="H41" s="61"/>
+    </row>
+    <row r="42" spans="1:9" s="56" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A42" s="56">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B42" s="98" t="s">
-        <v>1006</v>
+        <v>1002</v>
       </c>
       <c r="C42" s="56" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="D42" s="58">
-        <v>44111</v>
-      </c>
-      <c r="E42" s="59">
-        <v>44124</v>
-      </c>
-      <c r="F42" s="65"/>
-      <c r="G42" s="19" t="s">
-        <v>1010</v>
+        <v>44113</v>
+      </c>
+      <c r="E42" s="70">
+        <v>44145</v>
+      </c>
+      <c r="F42" s="60"/>
+      <c r="G42" s="162" t="s">
+        <v>1401</v>
       </c>
       <c r="H42" s="61"/>
     </row>
@@ -12797,15 +12941,15 @@
         <v>44111</v>
       </c>
       <c r="E43" s="59">
-        <v>44127</v>
+        <v>44113</v>
       </c>
       <c r="F43" s="65"/>
       <c r="G43" s="19" t="s">
-        <v>1011</v>
+        <v>1007</v>
       </c>
       <c r="H43" s="61"/>
     </row>
-    <row r="44" spans="1:9" s="56" customFormat="1" ht="26" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" s="56" customFormat="1" ht="39" x14ac:dyDescent="0.35">
       <c r="A44" s="56">
         <v>7</v>
       </c>
@@ -12819,15 +12963,17 @@
         <v>44111</v>
       </c>
       <c r="E44" s="59">
-        <v>44132</v>
+        <v>44119</v>
       </c>
       <c r="F44" s="65"/>
       <c r="G44" s="19" t="s">
-        <v>1012</v>
-      </c>
-      <c r="H44" s="61"/>
-    </row>
-    <row r="45" spans="1:9" s="56" customFormat="1" x14ac:dyDescent="0.3">
+        <v>1008</v>
+      </c>
+      <c r="H44" s="61" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" s="56" customFormat="1" ht="26" x14ac:dyDescent="0.35">
       <c r="A45" s="56">
         <v>7</v>
       </c>
@@ -12841,15 +12987,15 @@
         <v>44111</v>
       </c>
       <c r="E45" s="59">
-        <v>44132</v>
+        <v>44124</v>
       </c>
       <c r="F45" s="65"/>
-      <c r="G45" s="53" t="s">
-        <v>1013</v>
+      <c r="G45" s="19" t="s">
+        <v>1010</v>
       </c>
       <c r="H45" s="61"/>
     </row>
-    <row r="46" spans="1:9" s="56" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" s="56" customFormat="1" ht="26" x14ac:dyDescent="0.35">
       <c r="A46" s="56">
         <v>7</v>
       </c>
@@ -12863,175 +13009,173 @@
         <v>44111</v>
       </c>
       <c r="E46" s="59">
+        <v>44127</v>
+      </c>
+      <c r="F46" s="65"/>
+      <c r="G46" s="19" t="s">
+        <v>1011</v>
+      </c>
+      <c r="H46" s="61"/>
+    </row>
+    <row r="47" spans="1:9" s="56" customFormat="1" ht="26" x14ac:dyDescent="0.35">
+      <c r="A47" s="56">
+        <v>7</v>
+      </c>
+      <c r="B47" s="98" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C47" s="56" t="s">
+        <v>107</v>
+      </c>
+      <c r="D47" s="58">
+        <v>44111</v>
+      </c>
+      <c r="E47" s="59">
+        <v>44132</v>
+      </c>
+      <c r="F47" s="65"/>
+      <c r="G47" s="19" t="s">
+        <v>1012</v>
+      </c>
+      <c r="H47" s="61"/>
+    </row>
+    <row r="48" spans="1:9" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="56">
+        <v>7</v>
+      </c>
+      <c r="B48" s="98" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C48" s="56" t="s">
+        <v>107</v>
+      </c>
+      <c r="D48" s="58">
+        <v>44111</v>
+      </c>
+      <c r="E48" s="59">
+        <v>44132</v>
+      </c>
+      <c r="F48" s="65"/>
+      <c r="G48" s="53" t="s">
+        <v>1013</v>
+      </c>
+      <c r="H48" s="61"/>
+    </row>
+    <row r="49" spans="1:8" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="56">
+        <v>7</v>
+      </c>
+      <c r="B49" s="98" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C49" s="56" t="s">
+        <v>107</v>
+      </c>
+      <c r="D49" s="58">
+        <v>44111</v>
+      </c>
+      <c r="E49" s="59">
         <v>44138</v>
       </c>
-      <c r="F46" s="65"/>
-      <c r="G46" s="53" t="s">
+      <c r="F49" s="65"/>
+      <c r="G49" s="53" t="s">
         <v>1040</v>
       </c>
-      <c r="H46" s="84" t="s">
+      <c r="H49" s="84" t="s">
         <v>1041</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A47" s="47">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50" s="47">
         <v>8</v>
       </c>
-      <c r="B47" s="98" t="s">
+      <c r="B50" s="98" t="s">
         <v>1014</v>
       </c>
-      <c r="C47" s="47" t="s">
+      <c r="C50" s="47" t="s">
         <v>106</v>
       </c>
-      <c r="D47" s="50">
+      <c r="D50" s="50">
         <v>44112</v>
       </c>
-      <c r="E47" s="72">
+      <c r="E50" s="72">
         <v>44119</v>
       </c>
-      <c r="F47" s="52"/>
-      <c r="G47" s="71" t="s">
+      <c r="F50" s="52"/>
+      <c r="G50" s="71" t="s">
         <v>1015</v>
       </c>
-      <c r="H47" s="73" t="s">
+      <c r="H50" s="73" t="s">
         <v>1016</v>
       </c>
     </row>
-    <row r="48" spans="1:9" s="56" customFormat="1" ht="26" x14ac:dyDescent="0.35">
-      <c r="A48" s="56">
+    <row r="51" spans="1:8" s="56" customFormat="1" ht="26" x14ac:dyDescent="0.35">
+      <c r="A51" s="56">
         <v>9</v>
       </c>
-      <c r="B48" s="99" t="s">
+      <c r="B51" s="99" t="s">
         <v>1017</v>
       </c>
-      <c r="C48" s="56" t="s">
+      <c r="C51" s="56" t="s">
         <v>95</v>
       </c>
-      <c r="D48" s="58">
+      <c r="D51" s="58">
         <v>44113</v>
       </c>
-      <c r="E48" s="59">
+      <c r="E51" s="59">
         <v>44118</v>
       </c>
-      <c r="F48" s="67"/>
-      <c r="G48" s="19" t="s">
+      <c r="F51" s="67"/>
+      <c r="G51" s="19" t="s">
+        <v>1214</v>
+      </c>
+      <c r="H51" s="74" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" s="56" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+      <c r="A52" s="56">
+        <v>9</v>
+      </c>
+      <c r="B52" s="99" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C52" s="56" t="s">
+        <v>95</v>
+      </c>
+      <c r="D52" s="58">
+        <v>44113</v>
+      </c>
+      <c r="E52" s="59">
+        <v>44118</v>
+      </c>
+      <c r="F52" s="67"/>
+      <c r="G52" s="53" t="s">
+        <v>1213</v>
+      </c>
+      <c r="H52" s="74" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="56">
+        <v>9</v>
+      </c>
+      <c r="B53" s="99" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C53" s="56" t="s">
+        <v>95</v>
+      </c>
+      <c r="D53" s="58">
+        <v>44113</v>
+      </c>
+      <c r="E53" s="59"/>
+      <c r="F53" s="67"/>
+      <c r="G53" s="53" t="s">
         <v>1215</v>
       </c>
-      <c r="H48" s="74" t="s">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" s="56" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A49" s="56">
-        <v>9</v>
-      </c>
-      <c r="B49" s="99" t="s">
-        <v>1017</v>
-      </c>
-      <c r="C49" s="56" t="s">
-        <v>95</v>
-      </c>
-      <c r="D49" s="58">
-        <v>44113</v>
-      </c>
-      <c r="E49" s="59">
-        <v>44118</v>
-      </c>
-      <c r="F49" s="67"/>
-      <c r="G49" s="53" t="s">
-        <v>1214</v>
-      </c>
-      <c r="H49" s="74" t="s">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" s="56" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="56">
-        <v>9</v>
-      </c>
-      <c r="B50" s="99" t="s">
-        <v>1017</v>
-      </c>
-      <c r="C50" s="56" t="s">
-        <v>95</v>
-      </c>
-      <c r="D50" s="58">
-        <v>44113</v>
-      </c>
-      <c r="E50" s="59"/>
-      <c r="F50" s="67"/>
-      <c r="G50" s="53" t="s">
-        <v>1216</v>
-      </c>
-      <c r="H50" s="112"/>
-    </row>
-    <row r="51" spans="1:8" ht="24" x14ac:dyDescent="0.3">
-      <c r="A51" s="47">
-        <v>10</v>
-      </c>
-      <c r="B51" s="98" t="s">
-        <v>1019</v>
-      </c>
-      <c r="C51" s="47" t="s">
-        <v>95</v>
-      </c>
-      <c r="D51" s="50">
-        <v>44119</v>
-      </c>
-      <c r="E51" s="72">
-        <v>44131</v>
-      </c>
-      <c r="F51" s="52"/>
-      <c r="G51" s="71" t="s">
-        <v>1217</v>
-      </c>
-      <c r="H51" s="75" t="s">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="26" x14ac:dyDescent="0.3">
-      <c r="A52" s="47">
-        <v>10</v>
-      </c>
-      <c r="B52" s="98" t="s">
-        <v>1019</v>
-      </c>
-      <c r="C52" s="47" t="s">
-        <v>95</v>
-      </c>
-      <c r="D52" s="50"/>
-      <c r="E52" s="51">
-        <v>44134</v>
-      </c>
-      <c r="F52" s="76"/>
-      <c r="G52" s="55" t="s">
-        <v>1020</v>
-      </c>
-      <c r="H52" s="75" t="s">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="24" x14ac:dyDescent="0.3">
-      <c r="A53" s="47">
-        <v>10</v>
-      </c>
-      <c r="B53" s="98" t="s">
-        <v>1019</v>
-      </c>
-      <c r="C53" s="47" t="s">
-        <v>95</v>
-      </c>
-      <c r="D53" s="50"/>
-      <c r="E53" s="51">
-        <v>44134</v>
-      </c>
-      <c r="F53" s="76"/>
-      <c r="G53" s="53" t="s">
-        <v>1021</v>
-      </c>
-      <c r="H53" s="75" t="s">
-        <v>1018</v>
-      </c>
+      <c r="H53" s="112"/>
     </row>
     <row r="54" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A54" s="47">
@@ -13043,19 +13187,21 @@
       <c r="C54" s="47" t="s">
         <v>95</v>
       </c>
-      <c r="D54" s="50"/>
-      <c r="E54" s="51">
-        <v>44134</v>
-      </c>
-      <c r="F54" s="76"/>
-      <c r="G54" s="53" t="s">
-        <v>1022</v>
+      <c r="D54" s="50">
+        <v>44119</v>
+      </c>
+      <c r="E54" s="72">
+        <v>44131</v>
+      </c>
+      <c r="F54" s="52"/>
+      <c r="G54" s="71" t="s">
+        <v>1216</v>
       </c>
       <c r="H54" s="75" t="s">
         <v>1018</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A55" s="47">
         <v>10</v>
       </c>
@@ -13065,19 +13211,21 @@
       <c r="C55" s="47" t="s">
         <v>95</v>
       </c>
-      <c r="D55" s="50"/>
+      <c r="D55" s="50">
+        <v>44119</v>
+      </c>
       <c r="E55" s="51">
         <v>44134</v>
       </c>
       <c r="F55" s="76"/>
-      <c r="G55" s="77" t="s">
-        <v>1023</v>
+      <c r="G55" s="55" t="s">
+        <v>1020</v>
       </c>
       <c r="H55" s="75" t="s">
         <v>1018</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A56" s="47">
         <v>10</v>
       </c>
@@ -13087,319 +13235,416 @@
       <c r="C56" s="47" t="s">
         <v>95</v>
       </c>
-      <c r="D56" s="50"/>
+      <c r="D56" s="50">
+        <v>44119</v>
+      </c>
       <c r="E56" s="51">
-        <v>44135</v>
+        <v>44134</v>
       </c>
       <c r="F56" s="76"/>
       <c r="G56" s="53" t="s">
-        <v>1024</v>
-      </c>
-      <c r="H56" s="75"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1021</v>
+      </c>
+      <c r="H56" s="75" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A57" s="47">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B57" s="98" t="s">
-        <v>1025</v>
+        <v>1019</v>
       </c>
       <c r="C57" s="47" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D57" s="50">
+        <v>44119</v>
+      </c>
+      <c r="E57" s="51">
         <v>44134</v>
       </c>
-      <c r="E57" s="51">
-        <v>44139</v>
-      </c>
-      <c r="F57" s="52"/>
+      <c r="F57" s="76"/>
       <c r="G57" s="53" t="s">
-        <v>1218</v>
-      </c>
-      <c r="H57" s="54"/>
-    </row>
-    <row r="58" spans="1:8" ht="26" x14ac:dyDescent="0.3">
+        <v>1022</v>
+      </c>
+      <c r="H57" s="75" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A58" s="47">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B58" s="98" t="s">
-        <v>1025</v>
+        <v>1019</v>
       </c>
       <c r="C58" s="47" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D58" s="50">
+        <v>44119</v>
+      </c>
+      <c r="E58" s="51">
         <v>44134</v>
       </c>
-      <c r="E58" s="51">
-        <v>44143</v>
-      </c>
-      <c r="F58" s="52"/>
-      <c r="G58" s="55" t="s">
-        <v>1225</v>
-      </c>
-      <c r="H58" s="54"/>
+      <c r="F58" s="76"/>
+      <c r="G58" s="77" t="s">
+        <v>1023</v>
+      </c>
+      <c r="H58" s="75" t="s">
+        <v>1018</v>
+      </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="47">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B59" s="98" t="s">
-        <v>1025</v>
+        <v>1019</v>
       </c>
       <c r="C59" s="47" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D59" s="50">
-        <v>44134</v>
+        <v>44119</v>
       </c>
       <c r="E59" s="51">
-        <v>44144</v>
-      </c>
-      <c r="F59" s="52"/>
-      <c r="G59" s="55" t="s">
-        <v>1223</v>
-      </c>
-      <c r="H59" s="54"/>
-    </row>
-    <row r="60" spans="1:8" ht="26" x14ac:dyDescent="0.3">
+        <v>44135</v>
+      </c>
+      <c r="F59" s="76"/>
+      <c r="G59" s="53" t="s">
+        <v>1024</v>
+      </c>
+      <c r="H59" s="75"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="47">
         <v>11</v>
       </c>
       <c r="B60" s="98" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C60" s="47" t="s">
+        <v>95</v>
+      </c>
+      <c r="D60" s="50">
+        <v>44119</v>
+      </c>
+      <c r="E60" s="51">
+        <v>44145</v>
+      </c>
+      <c r="F60" s="76"/>
+      <c r="G60" s="53" t="s">
+        <v>1408</v>
+      </c>
+      <c r="H60" s="161"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A61" s="47">
+        <v>11</v>
+      </c>
+      <c r="B61" s="98" t="s">
         <v>1025</v>
       </c>
-      <c r="C60" s="47" t="s">
+      <c r="C61" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="D60" s="50">
+      <c r="D61" s="50">
         <v>44134</v>
       </c>
-      <c r="E60" s="51">
-        <v>44144</v>
-      </c>
-      <c r="F60" s="52"/>
-      <c r="G60" s="55" t="s">
+      <c r="E61" s="51">
+        <v>44139</v>
+      </c>
+      <c r="F61" s="52"/>
+      <c r="G61" s="53" t="s">
+        <v>1217</v>
+      </c>
+      <c r="H61" s="54"/>
+    </row>
+    <row r="62" spans="1:8" ht="26" x14ac:dyDescent="0.3">
+      <c r="A62" s="47">
+        <v>11</v>
+      </c>
+      <c r="B62" s="98" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C62" s="47" t="s">
+        <v>98</v>
+      </c>
+      <c r="D62" s="50">
+        <v>44134</v>
+      </c>
+      <c r="E62" s="51">
+        <v>44143</v>
+      </c>
+      <c r="F62" s="52"/>
+      <c r="G62" s="55" t="s">
         <v>1224</v>
       </c>
-      <c r="H60" s="75" t="s">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" ht="39.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="78">
-        <v>12</v>
-      </c>
-      <c r="B61" s="99" t="s">
-        <v>1026</v>
-      </c>
-      <c r="C61" s="78" t="s">
-        <v>106</v>
-      </c>
-      <c r="D61" s="78"/>
-      <c r="E61" s="80">
-        <v>44119</v>
-      </c>
-      <c r="F61" s="81">
-        <v>44121</v>
-      </c>
-      <c r="G61" s="71" t="s">
-        <v>1027</v>
-      </c>
-      <c r="H61" s="54" t="s">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A62" s="47">
-        <v>13</v>
-      </c>
-      <c r="B62" s="99" t="s">
-        <v>1028</v>
-      </c>
-      <c r="C62" s="47" t="s">
-        <v>106</v>
-      </c>
-      <c r="D62" s="50">
-        <v>44121</v>
-      </c>
-      <c r="E62" s="62"/>
-      <c r="F62" s="52"/>
-      <c r="G62" s="53"/>
       <c r="H62" s="54"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="47">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B63" s="98" t="s">
-        <v>1029</v>
-      </c>
-      <c r="E63" s="62"/>
+        <v>1025</v>
+      </c>
+      <c r="C63" s="47" t="s">
+        <v>98</v>
+      </c>
+      <c r="D63" s="50">
+        <v>44134</v>
+      </c>
+      <c r="E63" s="51">
+        <v>44144</v>
+      </c>
       <c r="F63" s="52"/>
-      <c r="G63" s="53"/>
+      <c r="G63" s="55" t="s">
+        <v>1222</v>
+      </c>
       <c r="H63" s="54"/>
     </row>
-    <row r="64" spans="1:8" ht="24" x14ac:dyDescent="0.3">
-      <c r="A64" s="56">
-        <v>15</v>
+    <row r="64" spans="1:8" ht="26" x14ac:dyDescent="0.3">
+      <c r="A64" s="47">
+        <v>11</v>
       </c>
       <c r="B64" s="98" t="s">
-        <v>1030</v>
+        <v>1025</v>
       </c>
       <c r="C64" s="47" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D64" s="50">
-        <v>44126</v>
+        <v>44134</v>
       </c>
       <c r="E64" s="51">
-        <v>44130</v>
+        <v>44144</v>
       </c>
       <c r="F64" s="52"/>
-      <c r="G64" s="53" t="s">
-        <v>1031</v>
+      <c r="G64" s="55" t="s">
+        <v>1223</v>
       </c>
       <c r="H64" s="75" t="s">
         <v>1018</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A65" s="47">
-        <v>15</v>
-      </c>
-      <c r="B65" s="98" t="s">
-        <v>1030</v>
-      </c>
-      <c r="C65" s="47" t="s">
-        <v>99</v>
-      </c>
-      <c r="D65" s="50">
-        <v>44126</v>
-      </c>
-      <c r="E65" s="51">
-        <v>44130</v>
-      </c>
-      <c r="F65" s="52"/>
-      <c r="G65" s="53" t="s">
-        <v>1032</v>
-      </c>
-      <c r="H65" s="54"/>
+    <row r="65" spans="1:8" ht="39.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="78">
+        <v>12</v>
+      </c>
+      <c r="B65" s="99" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C65" s="78" t="s">
+        <v>106</v>
+      </c>
+      <c r="D65" s="78"/>
+      <c r="E65" s="80">
+        <v>44119</v>
+      </c>
+      <c r="F65" s="81">
+        <v>44121</v>
+      </c>
+      <c r="G65" s="71" t="s">
+        <v>1027</v>
+      </c>
+      <c r="H65" s="54" t="s">
+        <v>999</v>
+      </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="47">
+        <v>13</v>
+      </c>
+      <c r="B66" s="99" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C66" s="47" t="s">
+        <v>106</v>
+      </c>
+      <c r="D66" s="50">
+        <v>44121</v>
+      </c>
+      <c r="E66" s="62"/>
+      <c r="F66" s="52"/>
+      <c r="G66" s="53"/>
+      <c r="H66" s="54"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A67" s="47">
+        <v>14</v>
+      </c>
+      <c r="B67" s="98" t="s">
+        <v>1029</v>
+      </c>
+      <c r="E67" s="62"/>
+      <c r="F67" s="52"/>
+      <c r="G67" s="53"/>
+      <c r="H67" s="54"/>
+    </row>
+    <row r="68" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="A68" s="56">
         <v>15</v>
       </c>
-      <c r="B66" s="98" t="s">
+      <c r="B68" s="98" t="s">
         <v>1030</v>
       </c>
-      <c r="C66" s="47" t="s">
+      <c r="C68" s="47" t="s">
         <v>99</v>
       </c>
-      <c r="D66" s="50">
+      <c r="D68" s="50">
         <v>44126</v>
       </c>
-      <c r="E66" s="51">
+      <c r="E68" s="51">
         <v>44130</v>
       </c>
-      <c r="F66" s="52"/>
-      <c r="G66" s="53" t="s">
+      <c r="F68" s="52"/>
+      <c r="G68" s="53" t="s">
+        <v>1031</v>
+      </c>
+      <c r="H68" s="75" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A69" s="47">
+        <v>15</v>
+      </c>
+      <c r="B69" s="98" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C69" s="47" t="s">
+        <v>99</v>
+      </c>
+      <c r="D69" s="50">
+        <v>44126</v>
+      </c>
+      <c r="E69" s="51">
+        <v>44130</v>
+      </c>
+      <c r="F69" s="52"/>
+      <c r="G69" s="53" t="s">
+        <v>1032</v>
+      </c>
+      <c r="H69" s="54"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A70" s="47">
+        <v>15</v>
+      </c>
+      <c r="B70" s="98" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C70" s="47" t="s">
+        <v>99</v>
+      </c>
+      <c r="D70" s="50">
+        <v>44126</v>
+      </c>
+      <c r="E70" s="51">
+        <v>44130</v>
+      </c>
+      <c r="F70" s="52"/>
+      <c r="G70" s="53" t="s">
         <v>1033</v>
       </c>
-      <c r="H66" s="83" t="s">
+      <c r="H70" s="83" t="s">
         <v>1001</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="26" x14ac:dyDescent="0.3">
-      <c r="A67" s="47">
+    <row r="71" spans="1:8" ht="26" x14ac:dyDescent="0.3">
+      <c r="A71" s="47">
         <v>16</v>
       </c>
-      <c r="B67" s="98" t="s">
+      <c r="B71" s="98" t="s">
         <v>1034</v>
       </c>
-      <c r="C67" s="47" t="s">
+      <c r="C71" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="D67" s="50">
+      <c r="D71" s="50">
         <v>44127</v>
       </c>
-      <c r="E67" s="62"/>
-      <c r="F67" s="63">
+      <c r="E71" s="62"/>
+      <c r="F71" s="63">
         <v>44134</v>
       </c>
-      <c r="G67" s="53" t="s">
+      <c r="G71" s="53" t="s">
         <v>1035</v>
       </c>
-      <c r="H67" s="54"/>
-    </row>
-    <row r="68" spans="1:8" ht="26" x14ac:dyDescent="0.3">
-      <c r="A68" s="47">
+      <c r="H71" s="54"/>
+    </row>
+    <row r="72" spans="1:8" ht="26" x14ac:dyDescent="0.3">
+      <c r="A72" s="47">
         <v>16</v>
       </c>
-      <c r="B68" s="98" t="s">
+      <c r="B72" s="98" t="s">
         <v>1034</v>
       </c>
-      <c r="C68" s="47" t="s">
+      <c r="C72" s="47" t="s">
         <v>1036</v>
       </c>
-      <c r="D68" s="50">
+      <c r="D72" s="50">
         <v>44127</v>
       </c>
-      <c r="E68" s="62"/>
-      <c r="F68" s="63">
+      <c r="E72" s="62"/>
+      <c r="F72" s="63">
         <v>44134</v>
       </c>
-      <c r="G68" s="53" t="s">
+      <c r="G72" s="53" t="s">
         <v>1037</v>
       </c>
-      <c r="H68" s="54"/>
-    </row>
-    <row r="69" spans="1:8" ht="26" x14ac:dyDescent="0.3">
-      <c r="A69" s="47">
+      <c r="H72" s="54"/>
+    </row>
+    <row r="73" spans="1:8" ht="26" x14ac:dyDescent="0.3">
+      <c r="A73" s="47">
         <v>17</v>
       </c>
-      <c r="B69" s="98" t="s">
+      <c r="B73" s="98" t="s">
         <v>1034</v>
       </c>
-      <c r="C69" s="47" t="s">
+      <c r="C73" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="D69" s="50">
+      <c r="D73" s="50">
         <v>44127</v>
       </c>
-      <c r="E69" s="62"/>
-      <c r="F69" s="63">
+      <c r="E73" s="62"/>
+      <c r="F73" s="63">
         <v>44134</v>
       </c>
-      <c r="G69" s="55" t="s">
+      <c r="G73" s="55" t="s">
         <v>1038</v>
       </c>
-      <c r="H69" s="83" t="s">
+      <c r="H73" s="83" t="s">
         <v>1001</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B73" s="94"/>
-      <c r="C73" s="95"/>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B74" s="94"/>
-      <c r="C74" s="95"/>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B75" s="94"/>
-      <c r="C75" s="95"/>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B76" s="94"/>
-      <c r="C76" s="95"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B77" s="94"/>
       <c r="C77" s="95"/>
     </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B78" s="94"/>
+      <c r="C78" s="95"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B79" s="94"/>
+      <c r="C79" s="95"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B80" s="94"/>
+      <c r="C80" s="95"/>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B81" s="94"/>
+      <c r="C81" s="95"/>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -16052,13 +16297,13 @@
         <v>969</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="J7" s="14" t="s">
         <v>92</v>
@@ -16073,7 +16318,7 @@
         <v>203</v>
       </c>
       <c r="N7" s="33" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="O7" s="33" t="s">
         <v>856</v>
@@ -16097,13 +16342,13 @@
         <v>862</v>
       </c>
       <c r="V7" s="116" t="s">
+        <v>1242</v>
+      </c>
+      <c r="W7" s="116" t="s">
         <v>1243</v>
       </c>
-      <c r="W7" s="116" t="s">
+      <c r="X7" s="116" t="s">
         <v>1244</v>
-      </c>
-      <c r="X7" s="116" t="s">
-        <v>1245</v>
       </c>
       <c r="Y7" s="14" t="s">
         <v>35</v>
@@ -16238,7 +16483,7 @@
         <v>Macarena</v>
       </c>
       <c r="N8" s="7" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="O8" s="7"/>
       <c r="P8" s="7" t="s">
@@ -16396,7 +16641,7 @@
       <c r="W9" s="7"/>
       <c r="X9" s="7"/>
       <c r="Y9" s="7" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="Z9" s="7"/>
       <c r="AA9" s="7"/>
@@ -16506,27 +16751,27 @@
       </c>
       <c r="Q10" s="7"/>
       <c r="R10" s="7" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="S10" s="7"/>
       <c r="T10" s="7" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="U10" s="7"/>
       <c r="V10" s="7"/>
       <c r="W10" s="7"/>
       <c r="X10" s="7"/>
       <c r="Y10" s="7" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="Z10" s="7" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="AA10" s="7" t="s">
         <v>193</v>
       </c>
       <c r="AB10" s="7" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="AC10" s="7" t="s">
         <v>878</v>
@@ -16550,7 +16795,7 @@
       <c r="AJ10" s="7"/>
       <c r="AK10" s="7"/>
       <c r="AL10" s="7" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="AM10" s="7" t="s">
         <v>962</v>
@@ -16954,21 +17199,21 @@
       </c>
       <c r="Q14" s="102"/>
       <c r="R14" s="7" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="S14" s="102"/>
       <c r="T14" s="7" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="U14" s="102"/>
       <c r="V14" s="102"/>
       <c r="W14" s="102"/>
       <c r="X14" s="102"/>
       <c r="Y14" s="7" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="Z14" s="7" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="AA14" s="7" t="s">
         <v>193</v>
@@ -17079,7 +17324,7 @@
       </c>
       <c r="Q15" s="102"/>
       <c r="R15" s="7" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="S15" s="102"/>
       <c r="T15" s="7"/>
@@ -17088,10 +17333,10 @@
       <c r="W15" s="7"/>
       <c r="X15" s="7"/>
       <c r="Y15" s="7" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="Z15" s="7" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="AA15" s="7" t="s">
         <v>193</v>
@@ -17513,7 +17758,7 @@
         <v>0</v>
       </c>
       <c r="N19" s="7" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>960</v>
@@ -17523,21 +17768,21 @@
       </c>
       <c r="Q19" s="7"/>
       <c r="R19" s="7" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="S19" s="7"/>
       <c r="T19" s="7" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="U19" s="7"/>
       <c r="V19" s="7"/>
       <c r="W19" s="7"/>
       <c r="X19" s="7"/>
       <c r="Y19" s="7" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="Z19" s="7" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="AA19" s="7" t="s">
         <v>193</v>
@@ -17567,7 +17812,7 @@
         <v>962</v>
       </c>
       <c r="AN19" s="7" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="AO19" s="7" t="s">
         <v>880</v>
@@ -17576,13 +17821,13 @@
         <v>881</v>
       </c>
       <c r="AQ19" s="102" t="s">
+        <v>1161</v>
+      </c>
+      <c r="AR19" s="7">
+        <v>1</v>
+      </c>
+      <c r="AS19" s="7" t="s">
         <v>1162</v>
-      </c>
-      <c r="AR19" s="7">
-        <v>1</v>
-      </c>
-      <c r="AS19" s="7" t="s">
-        <v>1163</v>
       </c>
       <c r="AT19" s="107"/>
       <c r="AW19" s="7"/>
@@ -17739,7 +17984,7 @@
         <v>Silvia</v>
       </c>
       <c r="N21" s="7" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>960</v>
@@ -17749,21 +17994,21 @@
       </c>
       <c r="Q21" s="7"/>
       <c r="R21" s="7" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="S21" s="7"/>
       <c r="T21" s="7" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="U21" s="7"/>
       <c r="V21" s="7"/>
       <c r="W21" s="7"/>
       <c r="X21" s="7"/>
       <c r="Y21" s="7" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="Z21" s="7" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="AA21" s="7" t="s">
         <v>193</v>
@@ -17793,7 +18038,7 @@
         <v>962</v>
       </c>
       <c r="AN21" s="7" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="AO21" s="7" t="s">
         <v>880</v>
@@ -17802,13 +18047,13 @@
         <v>881</v>
       </c>
       <c r="AQ21" s="102" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="AR21" s="7">
         <v>1</v>
       </c>
       <c r="AS21" s="7" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="AT21" s="107"/>
       <c r="AW21" s="7"/>
@@ -17967,7 +18212,7 @@
         <v>Reyes-Monse</v>
       </c>
       <c r="N23" s="7" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>960</v>
@@ -17982,16 +18227,16 @@
       <c r="W23" s="7"/>
       <c r="X23" s="7"/>
       <c r="Y23" s="7" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="Z23" s="7" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="AA23" s="7" t="s">
         <v>193</v>
       </c>
       <c r="AB23" s="7" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="AC23" s="7" t="s">
         <v>878</v>
@@ -18011,7 +18256,7 @@
       <c r="AJ23" s="7"/>
       <c r="AK23" s="7"/>
       <c r="AL23" s="7" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="AM23" s="7" t="s">
         <v>962</v>
@@ -18024,13 +18269,13 @@
         <v>881</v>
       </c>
       <c r="AQ23" s="7" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="AR23" s="7">
         <v>1</v>
       </c>
       <c r="AS23" s="7" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="AT23" s="108" t="s">
         <v>181</v>
@@ -18092,7 +18337,7 @@
         <v>Natalia</v>
       </c>
       <c r="N24" s="7" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="O24" s="7"/>
       <c r="P24" s="7"/>
@@ -19270,7 +19515,7 @@
         <v>Fernanda</v>
       </c>
       <c r="N36" s="7" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="O36" s="7" t="s">
         <v>960</v>
@@ -19280,21 +19525,21 @@
       </c>
       <c r="Q36" s="7"/>
       <c r="R36" s="7" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="S36" s="7"/>
       <c r="T36" s="7" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="U36" s="7"/>
       <c r="V36" s="7"/>
       <c r="W36" s="7"/>
       <c r="X36" s="7"/>
       <c r="Y36" s="7" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="Z36" s="7" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="AA36" s="7" t="s">
         <v>193</v>
@@ -19331,13 +19576,13 @@
         <v>881</v>
       </c>
       <c r="AQ36" s="102" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="AR36" s="7">
         <v>1</v>
       </c>
       <c r="AS36" s="7" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="AT36" s="107"/>
       <c r="AW36" s="7"/>
@@ -19397,7 +19642,7 @@
         <v>Astrid</v>
       </c>
       <c r="N37" s="7" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="O37" s="7" t="s">
         <v>961</v>
@@ -19599,7 +19844,7 @@
         <v>Macarena</v>
       </c>
       <c r="N39" s="7" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>960</v>
@@ -19616,16 +19861,16 @@
       <c r="W39" s="7"/>
       <c r="X39" s="7"/>
       <c r="Y39" s="7" t="s">
+        <v>1151</v>
+      </c>
+      <c r="Z39" s="7" t="s">
         <v>1152</v>
-      </c>
-      <c r="Z39" s="7" t="s">
-        <v>1153</v>
       </c>
       <c r="AA39" s="7" t="s">
         <v>193</v>
       </c>
       <c r="AB39" s="7" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="AC39" s="7" t="s">
         <v>878</v>
@@ -19660,7 +19905,7 @@
         <v>881</v>
       </c>
       <c r="AQ39" s="7" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="AR39" s="7">
         <v>1</v>
@@ -19727,7 +19972,7 @@
       </c>
       <c r="N40" s="7"/>
       <c r="O40" s="7" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="P40" s="7" t="s">
         <v>966</v>
@@ -19745,7 +19990,7 @@
       <c r="W40" s="102"/>
       <c r="X40" s="102"/>
       <c r="Y40" s="7" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="Z40" s="7"/>
       <c r="AA40" s="7"/>
@@ -20241,7 +20486,7 @@
         <v>Reyes-Monse</v>
       </c>
       <c r="N45" s="102" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="O45" s="7" t="s">
         <v>961</v>
@@ -20262,10 +20507,10 @@
       </c>
       <c r="Z45" s="7"/>
       <c r="AA45" s="7" t="s">
+        <v>1124</v>
+      </c>
+      <c r="AB45" s="7" t="s">
         <v>1125</v>
-      </c>
-      <c r="AB45" s="7" t="s">
-        <v>1126</v>
       </c>
       <c r="AC45" s="7" t="s">
         <v>878</v>
@@ -20285,7 +20530,7 @@
       <c r="AJ45" s="7"/>
       <c r="AK45" s="7"/>
       <c r="AL45" s="7" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="AM45" s="7" t="s">
         <v>962</v>
@@ -20302,7 +20547,7 @@
         <v>1</v>
       </c>
       <c r="AS45" s="7" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="AT45" s="107"/>
       <c r="AW45" s="7"/>
@@ -20459,7 +20704,7 @@
         <v>0</v>
       </c>
       <c r="N47" s="7" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="O47" s="7"/>
       <c r="P47" s="7"/>
@@ -21140,7 +21385,7 @@
         <v>No Asignado</v>
       </c>
       <c r="N54" s="102" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="O54" s="7" t="s">
         <v>961</v>
@@ -21159,10 +21404,10 @@
       <c r="Y54" s="102"/>
       <c r="Z54" s="7"/>
       <c r="AA54" s="7" t="s">
+        <v>1124</v>
+      </c>
+      <c r="AB54" s="7" t="s">
         <v>1125</v>
-      </c>
-      <c r="AB54" s="7" t="s">
-        <v>1126</v>
       </c>
       <c r="AC54" s="7" t="s">
         <v>878</v>
@@ -21182,7 +21427,7 @@
       <c r="AJ54" s="7"/>
       <c r="AK54" s="7"/>
       <c r="AL54" s="7" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="AM54" s="7" t="s">
         <v>962</v>
@@ -21199,7 +21444,7 @@
         <v>1</v>
       </c>
       <c r="AS54" s="7" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="AT54" s="107"/>
       <c r="AW54" s="7"/>
@@ -21274,11 +21519,11 @@
       <c r="W55" s="7"/>
       <c r="X55" s="7"/>
       <c r="Y55" s="7" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="Z55" s="7"/>
       <c r="AA55" s="7" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="AB55" s="7"/>
       <c r="AC55" s="7" t="s">
@@ -21299,7 +21544,7 @@
       <c r="AJ55" s="7"/>
       <c r="AK55" s="7"/>
       <c r="AL55" s="7" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="AM55" s="7" t="s">
         <v>962</v>
@@ -21318,7 +21563,7 @@
         <v>1</v>
       </c>
       <c r="AS55" s="7" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="AT55" s="107"/>
       <c r="AW55" s="7"/>
@@ -21378,7 +21623,7 @@
         <v>Fernanda</v>
       </c>
       <c r="N56" s="7" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="O56" s="7" t="s">
         <v>961</v>
@@ -22264,7 +22509,7 @@
       </c>
       <c r="N65" s="7"/>
       <c r="O65" s="7" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="P65" s="7" t="s">
         <v>966</v>
@@ -22282,7 +22527,7 @@
       <c r="W65" s="102"/>
       <c r="X65" s="102"/>
       <c r="Y65" s="7" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="Z65" s="7"/>
       <c r="AA65" s="7"/>
@@ -22324,7 +22569,7 @@
         <v>1</v>
       </c>
       <c r="AS65" s="7" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="AT65" s="107"/>
       <c r="AW65" s="7"/>
@@ -22385,7 +22630,7 @@
       </c>
       <c r="N66" s="7"/>
       <c r="O66" s="7" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="P66" s="7" t="s">
         <v>966</v>
@@ -22403,7 +22648,7 @@
       <c r="W66" s="102"/>
       <c r="X66" s="102"/>
       <c r="Y66" s="7" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="Z66" s="7"/>
       <c r="AA66" s="7"/>
@@ -22504,7 +22749,7 @@
       </c>
       <c r="N67" s="7"/>
       <c r="O67" s="7" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="P67" s="7" t="s">
         <v>966</v>
@@ -22522,7 +22767,7 @@
       <c r="W67" s="102"/>
       <c r="X67" s="102"/>
       <c r="Y67" s="7" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="Z67" s="7"/>
       <c r="AA67" s="7"/>
@@ -22623,7 +22868,7 @@
       </c>
       <c r="N68" s="7"/>
       <c r="O68" s="7" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="P68" s="7" t="s">
         <v>966</v>
@@ -22641,7 +22886,7 @@
       <c r="W68" s="102"/>
       <c r="X68" s="102"/>
       <c r="Y68" s="7" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="Z68" s="7"/>
       <c r="AA68" s="7"/>
@@ -22742,7 +22987,7 @@
       </c>
       <c r="N69" s="7"/>
       <c r="O69" s="7" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="P69" s="7" t="s">
         <v>966</v>
@@ -22760,7 +23005,7 @@
       <c r="W69" s="102"/>
       <c r="X69" s="102"/>
       <c r="Y69" s="7" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="Z69" s="7"/>
       <c r="AA69" s="7"/>
@@ -22861,7 +23106,7 @@
       </c>
       <c r="N70" s="7"/>
       <c r="O70" s="7" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="P70" s="7" t="s">
         <v>966</v>
@@ -22879,7 +23124,7 @@
       <c r="W70" s="102"/>
       <c r="X70" s="102"/>
       <c r="Y70" s="7" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="Z70" s="7"/>
       <c r="AA70" s="7"/>
@@ -22979,7 +23224,7 @@
         <v>Claudia</v>
       </c>
       <c r="N71" s="7" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="O71" s="7"/>
       <c r="P71" s="7"/>
@@ -23078,7 +23323,7 @@
         <v>Claudia</v>
       </c>
       <c r="N72" s="7" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="O72" s="7" t="s">
         <v>965</v>
@@ -23093,7 +23338,7 @@
       <c r="W72" s="7"/>
       <c r="X72" s="7"/>
       <c r="Y72" s="7" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="Z72" s="7"/>
       <c r="AA72" s="7"/>
@@ -23181,7 +23426,7 @@
         <v>Claudia</v>
       </c>
       <c r="N73" s="7" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="O73" s="7" t="s">
         <v>961</v>
@@ -23199,7 +23444,7 @@
       <c r="Z73" s="7"/>
       <c r="AA73" s="7"/>
       <c r="AB73" s="102" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="AC73" s="7" t="s">
         <v>878</v>
@@ -23981,7 +24226,7 @@
       <c r="Z81" s="7"/>
       <c r="AA81" s="7"/>
       <c r="AB81" s="7" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="AC81" s="7" t="s">
         <v>878</v>
@@ -24080,7 +24325,7 @@
       <c r="Z82" s="7"/>
       <c r="AA82" s="7"/>
       <c r="AB82" s="7" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="AC82" s="7" t="s">
         <v>878</v>
@@ -24217,7 +24462,7 @@
         <v>5</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="D12" s="23">
         <v>1</v>
@@ -24261,7 +24506,7 @@
         <v>5</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="D13" s="23">
         <v>2</v>
@@ -24305,7 +24550,7 @@
         <v>5</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="D14" s="23">
         <v>3</v>
@@ -24349,7 +24594,7 @@
         <v>5</v>
       </c>
       <c r="C15" s="109" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="D15" s="23">
         <v>4</v>
@@ -24391,7 +24636,7 @@
         <v>5</v>
       </c>
       <c r="C16" s="126" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="D16" s="23">
         <v>5</v>
@@ -25853,8 +26098,8 @@
       <c r="B50" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="C50" s="147" t="s">
-        <v>1335</v>
+      <c r="C50" s="130" t="s">
+        <v>1327</v>
       </c>
       <c r="D50" s="23">
         <v>6</v>
@@ -25883,7 +26128,7 @@
         <v>99</v>
       </c>
       <c r="M50" s="24" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
       <c r="N50" s="26" t="s">
         <v>754</v>
@@ -25898,7 +26143,7 @@
         <v>13</v>
       </c>
       <c r="C51" s="24" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="D51" s="23">
         <v>7</v>
@@ -25980,11 +26225,11 @@
       </c>
     </row>
     <row r="53" spans="2:16" ht="48" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="148" t="s">
+      <c r="B53" s="131" t="s">
         <v>3</v>
       </c>
       <c r="C53" s="109" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="D53" s="23">
         <v>2</v>
@@ -26013,7 +26258,7 @@
         <v>98</v>
       </c>
       <c r="M53" s="24" t="s">
-        <v>1337</v>
+        <v>1329</v>
       </c>
       <c r="N53" s="26" t="s">
         <v>758</v>
@@ -26927,7 +27172,7 @@
         <v>670</v>
       </c>
       <c r="C78" s="41" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="D78" s="23">
         <v>1</v>
@@ -26958,7 +27203,7 @@
         <v>670</v>
       </c>
       <c r="C79" s="41" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="D79" s="23">
         <v>2</v>
@@ -26984,7 +27229,7 @@
     </row>
     <row r="80" spans="2:16" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B80" s="27" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="C80" s="24" t="s">
         <v>855</v>
@@ -27076,7 +27321,7 @@
         <v>169</v>
       </c>
       <c r="M82" s="24" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="N82" s="26"/>
       <c r="O82" s="28"/>
@@ -27298,7 +27543,7 @@
       <c r="B90" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="C90" s="144" t="s">
+      <c r="C90" s="127" t="s">
         <v>254</v>
       </c>
       <c r="D90" s="23"/>
@@ -27326,7 +27571,7 @@
       <c r="B91" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="C91" s="144" t="s">
+      <c r="C91" s="127" t="s">
         <v>222</v>
       </c>
       <c r="D91" s="23"/>
@@ -27354,7 +27599,7 @@
       <c r="B92" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="C92" s="144" t="s">
+      <c r="C92" s="127" t="s">
         <v>229</v>
       </c>
       <c r="D92" s="23"/>
@@ -27383,7 +27628,7 @@
         <v>5</v>
       </c>
       <c r="C93" s="24" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="D93" s="23"/>
       <c r="E93" s="23"/>
@@ -27415,7 +27660,7 @@
         <v>5</v>
       </c>
       <c r="C94" s="24" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="D94" s="23"/>
       <c r="E94" s="23"/>
@@ -27447,7 +27692,7 @@
         <v>5</v>
       </c>
       <c r="C95" s="24" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="D95" s="23"/>
       <c r="E95" s="23"/>
@@ -27479,7 +27724,7 @@
         <v>5</v>
       </c>
       <c r="C96" s="24" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="D96" s="23"/>
       <c r="E96" s="23"/>
@@ -27511,7 +27756,7 @@
         <v>5</v>
       </c>
       <c r="C97" s="24" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="D97" s="23"/>
       <c r="E97" s="23"/>
@@ -27543,7 +27788,7 @@
         <v>5</v>
       </c>
       <c r="C98" s="24" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="D98" s="23"/>
       <c r="E98" s="23"/>
@@ -27571,11 +27816,11 @@
       <c r="P98" s="40"/>
     </row>
     <row r="99" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B99" s="148" t="s">
+      <c r="B99" s="131" t="s">
         <v>3</v>
       </c>
       <c r="C99" s="109" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="D99" s="23"/>
       <c r="E99" s="23" t="s">
@@ -27607,7 +27852,7 @@
         <v>3</v>
       </c>
       <c r="C100" s="24" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="D100" s="23"/>
       <c r="E100" s="23" t="s">
@@ -27622,7 +27867,7 @@
       </c>
       <c r="H100" s="23"/>
       <c r="I100" s="29" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="J100" s="25">
         <v>1</v>
@@ -27639,7 +27884,7 @@
         <v>6</v>
       </c>
       <c r="C101" s="24" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="D101" s="23"/>
       <c r="E101" s="23"/>
@@ -27671,7 +27916,7 @@
         <v>6</v>
       </c>
       <c r="C102" s="24" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="D102" s="23"/>
       <c r="E102" s="23"/>
@@ -27697,7 +27942,7 @@
         <v>5</v>
       </c>
       <c r="C103" s="24" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="D103" s="23"/>
       <c r="E103" s="23"/>
@@ -27729,7 +27974,7 @@
         <v>5</v>
       </c>
       <c r="C104" s="43" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="D104" s="23"/>
       <c r="E104" s="23"/>
@@ -27761,7 +28006,7 @@
         <v>6</v>
       </c>
       <c r="C105" s="24" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="D105" s="23"/>
       <c r="E105" s="23"/>
@@ -27839,7 +28084,7 @@
         <v>837</v>
       </c>
       <c r="C108" s="24" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="D108" s="23"/>
       <c r="E108" s="23"/>
@@ -27865,7 +28110,7 @@
         <v>837</v>
       </c>
       <c r="C109" s="24" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="D109" s="23"/>
       <c r="E109" s="23"/>
@@ -27891,11 +28136,11 @@
         <v>3</v>
       </c>
       <c r="C110" s="24" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="D110" s="23"/>
       <c r="E110" s="23" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="F110" s="23" t="s">
         <v>751</v>
@@ -27906,7 +28151,7 @@
       </c>
       <c r="H110" s="23"/>
       <c r="I110" s="29" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="J110" s="25">
         <v>1</v>
@@ -27923,7 +28168,7 @@
         <v>3</v>
       </c>
       <c r="C111" s="24" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="D111" s="23"/>
       <c r="E111" s="23" t="s">
@@ -27938,7 +28183,7 @@
       </c>
       <c r="H111" s="23"/>
       <c r="I111" s="29" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="J111" s="25">
         <v>1</v>
@@ -27955,7 +28200,7 @@
         <v>3</v>
       </c>
       <c r="C112" s="24" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="D112" s="23"/>
       <c r="E112" s="23" t="s">
@@ -27970,7 +28215,7 @@
       </c>
       <c r="H112" s="23"/>
       <c r="I112" s="29" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="J112" s="25">
         <v>1</v>
@@ -28021,15 +28266,15 @@
         <v>192</v>
       </c>
       <c r="C4" s="114" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B5" s="17" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="C5" s="115" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.35">
@@ -28037,7 +28282,7 @@
         <v>193</v>
       </c>
       <c r="C6" s="115" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.35">
@@ -28045,7 +28290,7 @@
         <v>767</v>
       </c>
       <c r="C7" s="115" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.35">
@@ -28053,7 +28298,7 @@
         <v>1045</v>
       </c>
       <c r="C8" s="115" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.35">
@@ -28061,21 +28306,21 @@
         <v>840</v>
       </c>
       <c r="C9" s="115" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B10" s="17" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="C10" s="115" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B11" s="17"/>
       <c r="C11" s="115" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
     </row>
   </sheetData>
@@ -28095,7 +28340,7 @@
       <selection activeCell="J19" sqref="J19"/>
       <selection pane="topRight" activeCell="J19" sqref="J19"/>
       <selection pane="bottomLeft" activeCell="J19" sqref="J19"/>
-      <selection pane="bottomRight" activeCell="BB28" sqref="BB28"/>
+      <selection pane="bottomRight" activeCell="G96" sqref="G96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -28143,7 +28388,7 @@
         <v>80</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="C7" s="14" t="s">
         <v>91</v>
@@ -28224,7 +28469,7 @@
         <v>208</v>
       </c>
       <c r="AC7" s="118" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="AD7" s="118" t="s">
         <v>856</v>
@@ -28233,31 +28478,31 @@
         <v>857</v>
       </c>
       <c r="AF7" s="118" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="AG7" s="118" t="s">
         <v>859</v>
       </c>
       <c r="AH7" s="118" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="AI7" s="118" t="s">
         <v>861</v>
       </c>
       <c r="AJ7" s="118" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="AK7" s="119" t="s">
+        <v>1242</v>
+      </c>
+      <c r="AL7" s="119" t="s">
         <v>1243</v>
       </c>
-      <c r="AL7" s="119" t="s">
+      <c r="AM7" s="119" t="s">
         <v>1244</v>
       </c>
-      <c r="AM7" s="119" t="s">
-        <v>1245</v>
-      </c>
       <c r="AN7" s="15" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="AO7" s="118" t="s">
         <v>863</v>
@@ -28302,7 +28547,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="8" spans="1:54" ht="93" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:54" ht="93" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="str">
         <f>+VLOOKUP(D8,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0012</v>
@@ -28328,7 +28573,7 @@
         <v>40</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>205</v>
@@ -28350,7 +28595,7 @@
         <v>POWER BI</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>1374</v>
+        <v>1366</v>
       </c>
       <c r="O8" s="2" t="s">
         <v>199</v>
@@ -28360,13 +28605,13 @@
         <v>194</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="S8" s="2" t="s">
         <v>207</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="U8" s="7" t="s">
         <v>43</v>
@@ -28405,7 +28650,7 @@
       <c r="AL8" s="7"/>
       <c r="AM8" s="7"/>
       <c r="AN8" s="7" t="s">
-        <v>1405</v>
+        <v>1397</v>
       </c>
       <c r="AO8" s="7" t="s">
         <v>959</v>
@@ -28414,7 +28659,7 @@
         <v>193</v>
       </c>
       <c r="AQ8" s="7" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="AR8" s="7" t="s">
         <v>878</v>
@@ -28452,7 +28697,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="9" spans="1:54" ht="115.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:54" ht="115.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="str">
         <f>+VLOOKUP(D9,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0012</v>
@@ -28498,7 +28743,7 @@
         <v>NO DEFINIDO</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>1374</v>
+        <v>1366</v>
       </c>
       <c r="O9" s="2" t="s">
         <v>199</v>
@@ -28528,7 +28773,7 @@
       <c r="AL9" s="7"/>
       <c r="AM9" s="7"/>
       <c r="AN9" s="7" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="AO9" s="7"/>
       <c r="AP9" s="7"/>
@@ -28563,7 +28808,7 @@
       </c>
       <c r="BB9" s="7"/>
     </row>
-    <row r="10" spans="1:54" ht="78" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:54" ht="78" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="str">
         <f>+VLOOKUP(D10,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0012</v>
@@ -28611,7 +28856,7 @@
         <v>GEE</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>1374</v>
+        <v>1366</v>
       </c>
       <c r="O10" s="2" t="s">
         <v>199</v>
@@ -28642,27 +28887,27 @@
       </c>
       <c r="AF10" s="124"/>
       <c r="AG10" s="7" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="AH10" s="7"/>
       <c r="AI10" s="7" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="AJ10" s="7"/>
       <c r="AK10" s="7"/>
       <c r="AL10" s="7"/>
       <c r="AM10" s="7"/>
       <c r="AN10" s="7" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="AO10" s="7" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="AP10" s="7" t="s">
         <v>193</v>
       </c>
       <c r="AQ10" s="7" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="AR10" s="7" t="s">
         <v>878</v>
@@ -28676,7 +28921,7 @@
         <v>GEE</v>
       </c>
       <c r="AU10" s="7" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="AV10" s="7" t="s">
         <v>962</v>
@@ -28695,10 +28940,10 @@
         <v>1</v>
       </c>
       <c r="BB10" s="7" t="s">
-        <v>1354</v>
-      </c>
-    </row>
-    <row r="11" spans="1:54" ht="63" x14ac:dyDescent="0.35">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="11" spans="1:54" ht="63" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="str">
         <f>+VLOOKUP(D11,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0012</v>
@@ -28744,7 +28989,7 @@
         <v>NO DEFINIDO</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>1374</v>
+        <v>1366</v>
       </c>
       <c r="O11" s="2" t="s">
         <v>199</v>
@@ -28811,7 +29056,7 @@
       </c>
       <c r="BB11" s="7"/>
     </row>
-    <row r="12" spans="1:54" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:54" ht="52.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="str">
         <f>+VLOOKUP(D12,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0012</v>
@@ -28857,7 +29102,7 @@
         <v>NO DEFINIDO</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>1374</v>
+        <v>1366</v>
       </c>
       <c r="O12" s="2" t="s">
         <v>199</v>
@@ -28914,7 +29159,7 @@
       <c r="BA12" s="7"/>
       <c r="BB12" s="7"/>
     </row>
-    <row r="13" spans="1:54" ht="63" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:54" ht="63" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="str">
         <f>+VLOOKUP(D13,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0012</v>
@@ -28937,7 +29182,7 @@
         <v>0012-01-00006</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>1335</v>
+        <v>1327</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2" t="s">
@@ -28960,7 +29205,7 @@
         <v>NO DEFINIDO</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>1374</v>
+        <v>1366</v>
       </c>
       <c r="O13" s="2" t="s">
         <v>199</v>
@@ -29063,7 +29308,7 @@
         <v>INFOGRAM</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>1374</v>
+        <v>1366</v>
       </c>
       <c r="O14" s="2" t="s">
         <v>199</v>
@@ -29103,21 +29348,21 @@
       </c>
       <c r="AF14" s="123"/>
       <c r="AG14" s="7" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="AH14" s="102"/>
       <c r="AI14" s="7" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="AJ14" s="102"/>
       <c r="AK14" s="102"/>
       <c r="AL14" s="102"/>
       <c r="AM14" s="102"/>
       <c r="AN14" s="7" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="AO14" s="7" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="AP14" s="7" t="s">
         <v>193</v>
@@ -29143,7 +29388,7 @@
       <c r="BA14" s="7"/>
       <c r="BB14" s="7"/>
     </row>
-    <row r="15" spans="1:54" ht="62.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:54" ht="62.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="str">
         <f>+VLOOKUP(D15,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0022</v>
@@ -29189,7 +29434,7 @@
         <v>INFOGRAM</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>1374</v>
+        <v>1366</v>
       </c>
       <c r="O15" s="2" t="s">
         <v>199</v>
@@ -29227,7 +29472,7 @@
       </c>
       <c r="AF15" s="123"/>
       <c r="AG15" s="7" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="AH15" s="102"/>
       <c r="AI15" s="7"/>
@@ -29236,10 +29481,10 @@
       <c r="AL15" s="7"/>
       <c r="AM15" s="7"/>
       <c r="AN15" s="7" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="AO15" s="7" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="AP15" s="7" t="s">
         <v>193</v>
@@ -29265,7 +29510,7 @@
       <c r="BA15" s="7"/>
       <c r="BB15" s="7"/>
     </row>
-    <row r="16" spans="1:54" ht="55.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:54" ht="55.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="str">
         <f>+VLOOKUP(D16,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0012</v>
@@ -29288,7 +29533,7 @@
         <v>0012-01-00009</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2" t="s">
@@ -29311,7 +29556,7 @@
         <v>NO DEFINIDO</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>1374</v>
+        <v>1366</v>
       </c>
       <c r="O16" s="2" t="s">
         <v>199</v>
@@ -29341,7 +29586,7 @@
       <c r="AL16" s="7"/>
       <c r="AM16" s="7"/>
       <c r="AN16" s="7" t="s">
-        <v>1404</v>
+        <v>1396</v>
       </c>
       <c r="AO16" s="7"/>
       <c r="AP16" s="7"/>
@@ -29366,7 +29611,7 @@
       <c r="BA16" s="7"/>
       <c r="BB16" s="7"/>
     </row>
-    <row r="17" spans="1:54" ht="58" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:54" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="str">
         <f>+VLOOKUP(D17,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0004</v>
@@ -29392,7 +29637,7 @@
         <v>951</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>1360</v>
+        <v>1352</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>161</v>
@@ -29452,10 +29697,10 @@
       <c r="AK17" s="7"/>
       <c r="AL17" s="7"/>
       <c r="AM17" s="7"/>
-      <c r="AN17" s="152"/>
+      <c r="AN17" s="135"/>
       <c r="AO17" s="7"/>
       <c r="AP17" s="7" t="s">
-        <v>1346</v>
+        <v>1338</v>
       </c>
       <c r="AQ17" s="7">
         <v>2017</v>
@@ -29477,18 +29722,18 @@
       <c r="AV17" s="7" t="s">
         <v>962</v>
       </c>
-      <c r="AW17" s="152"/>
+      <c r="AW17" s="135"/>
       <c r="AX17" s="7" t="s">
         <v>880</v>
       </c>
-      <c r="AY17" s="152"/>
-      <c r="AZ17" s="152"/>
+      <c r="AY17" s="135"/>
+      <c r="AZ17" s="135"/>
       <c r="BA17" s="7">
         <v>1</v>
       </c>
-      <c r="BB17" s="152"/>
-    </row>
-    <row r="18" spans="1:54" ht="48" x14ac:dyDescent="0.35">
+      <c r="BB17" s="135"/>
+    </row>
+    <row r="18" spans="1:54" ht="48" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="str">
         <f>+VLOOKUP(D18,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0004</v>
@@ -29567,12 +29812,12 @@
       <c r="AK18" s="7"/>
       <c r="AL18" s="7"/>
       <c r="AM18" s="7"/>
-      <c r="AN18" s="152"/>
+      <c r="AN18" s="135"/>
       <c r="AO18" s="7"/>
       <c r="AP18" s="7" t="s">
-        <v>1346</v>
-      </c>
-      <c r="AQ18" s="152"/>
+        <v>1338</v>
+      </c>
+      <c r="AQ18" s="135"/>
       <c r="AR18" s="7" t="s">
         <v>878</v>
       </c>
@@ -29590,18 +29835,18 @@
       <c r="AV18" s="7" t="s">
         <v>962</v>
       </c>
-      <c r="AW18" s="152"/>
+      <c r="AW18" s="135"/>
       <c r="AX18" s="7" t="s">
         <v>880</v>
       </c>
-      <c r="AY18" s="152"/>
-      <c r="AZ18" s="152"/>
+      <c r="AY18" s="135"/>
+      <c r="AZ18" s="135"/>
       <c r="BA18" s="7">
         <v>1</v>
       </c>
-      <c r="BB18" s="152"/>
-    </row>
-    <row r="19" spans="1:54" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="BB18" s="135"/>
+    </row>
+    <row r="19" spans="1:54" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="str">
         <f>+VLOOKUP(D19,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0011</v>
@@ -29627,7 +29872,7 @@
         <v>841</v>
       </c>
       <c r="H19" s="101" t="s">
-        <v>1358</v>
+        <v>1350</v>
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="44">
@@ -29656,7 +29901,7 @@
       <c r="U19" s="2"/>
       <c r="V19" s="3"/>
       <c r="W19" s="7"/>
-      <c r="X19" s="151" t="s">
+      <c r="X19" s="134" t="s">
         <v>172</v>
       </c>
       <c r="AA19" s="7"/>
@@ -29671,21 +29916,21 @@
       </c>
       <c r="AF19" s="124"/>
       <c r="AG19" s="7" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="AH19" s="7"/>
       <c r="AI19" s="7" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="AJ19" s="7"/>
       <c r="AK19" s="7"/>
       <c r="AL19" s="7"/>
       <c r="AM19" s="7"/>
       <c r="AN19" s="7" t="s">
-        <v>1371</v>
+        <v>1363</v>
       </c>
       <c r="AO19" s="7" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="AP19" s="7" t="s">
         <v>193</v>
@@ -29709,7 +29954,7 @@
         <v>962</v>
       </c>
       <c r="AW19" s="7" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="AX19" s="7" t="s">
         <v>880</v>
@@ -29718,16 +29963,16 @@
         <v>881</v>
       </c>
       <c r="AZ19" s="102" t="s">
+        <v>1161</v>
+      </c>
+      <c r="BA19" s="7">
+        <v>1</v>
+      </c>
+      <c r="BB19" s="7" t="s">
         <v>1162</v>
       </c>
-      <c r="BA19" s="7">
-        <v>1</v>
-      </c>
-      <c r="BB19" s="7" t="s">
-        <v>1163</v>
-      </c>
-    </row>
-    <row r="20" spans="1:54" ht="29" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:54" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="str">
         <f>+VLOOKUP(D20,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0010</v>
@@ -29822,7 +30067,7 @@
       <c r="BA20" s="7"/>
       <c r="BB20" s="7"/>
     </row>
-    <row r="21" spans="1:54" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:54" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="str">
         <f>+VLOOKUP(D21,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0010</v>
@@ -29848,7 +30093,7 @@
         <v>218</v>
       </c>
       <c r="H21" s="101" t="s">
-        <v>1359</v>
+        <v>1351</v>
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="44">
@@ -29877,7 +30122,7 @@
       <c r="U21" s="2"/>
       <c r="V21" s="3"/>
       <c r="W21" s="7"/>
-      <c r="X21" s="151" t="s">
+      <c r="X21" s="134" t="s">
         <v>179</v>
       </c>
       <c r="AA21" s="7"/>
@@ -29894,21 +30139,21 @@
       </c>
       <c r="AF21" s="124"/>
       <c r="AG21" s="7" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="AH21" s="7"/>
       <c r="AI21" s="7" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="AJ21" s="7"/>
       <c r="AK21" s="7"/>
       <c r="AL21" s="7"/>
       <c r="AM21" s="7"/>
       <c r="AN21" s="7" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="AO21" s="7" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="AP21" s="7" t="s">
         <v>193</v>
@@ -29932,7 +30177,7 @@
         <v>962</v>
       </c>
       <c r="AW21" s="7" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="AX21" s="7" t="s">
         <v>880</v>
@@ -29941,16 +30186,16 @@
         <v>881</v>
       </c>
       <c r="AZ21" s="102" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="BA21" s="7">
         <v>1</v>
       </c>
       <c r="BB21" s="7" t="s">
-        <v>1166</v>
-      </c>
-    </row>
-    <row r="22" spans="1:54" ht="80.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="22" spans="1:54" ht="80.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="str">
         <f>+VLOOKUP(D22,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0010</v>
@@ -30026,7 +30271,7 @@
       <c r="AN22" s="102"/>
       <c r="AO22" s="7"/>
       <c r="AP22" s="7"/>
-      <c r="AQ22" s="149"/>
+      <c r="AQ22" s="132"/>
       <c r="AR22" s="7" t="s">
         <v>878</v>
       </c>
@@ -30052,10 +30297,10 @@
         <v>1</v>
       </c>
       <c r="BB22" s="7" t="s">
-        <v>1349</v>
-      </c>
-    </row>
-    <row r="23" spans="1:54" ht="131.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="23" spans="1:54" ht="131.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="42" t="str">
         <f>+VLOOKUP(D23,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0018</v>
@@ -30081,7 +30326,7 @@
         <v>822</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="I23" s="2"/>
       <c r="J23" s="44">
@@ -30117,7 +30362,7 @@
         <v>Evaluación de Programas e Instituciones del servicio público (1997-2000).</v>
       </c>
       <c r="AD23" s="7" t="s">
-        <v>1378</v>
+        <v>1370</v>
       </c>
       <c r="AE23" s="7"/>
       <c r="AF23" s="124"/>
@@ -30129,16 +30374,16 @@
       <c r="AL23" s="7"/>
       <c r="AM23" s="7"/>
       <c r="AN23" s="7" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="AO23" s="7" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="AP23" s="7" t="s">
         <v>193</v>
       </c>
       <c r="AQ23" s="7" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="AR23" s="7" t="s">
         <v>878</v>
@@ -30152,13 +30397,13 @@
         <v>POWER BI</v>
       </c>
       <c r="AU23" s="7" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="AV23" s="7" t="s">
         <v>962</v>
       </c>
       <c r="AW23" s="102" t="s">
-        <v>1380</v>
+        <v>1372</v>
       </c>
       <c r="AX23" s="7" t="s">
         <v>880</v>
@@ -30167,16 +30412,16 @@
         <v>881</v>
       </c>
       <c r="AZ23" s="7" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="BA23" s="7">
         <v>1</v>
       </c>
       <c r="BB23" s="7" t="s">
-        <v>1172</v>
-      </c>
-    </row>
-    <row r="24" spans="1:54" ht="101.5" x14ac:dyDescent="0.35">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="24" spans="1:54" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="str">
         <f>+VLOOKUP(D24,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0002</v>
@@ -30199,10 +30444,10 @@
         <v>0002-01-00017</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>1372</v>
+        <v>1364</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>1373</v>
+        <v>1365</v>
       </c>
       <c r="I24" s="2"/>
       <c r="J24" s="44">
@@ -30231,7 +30476,7 @@
       <c r="U24" s="2"/>
       <c r="V24" s="3"/>
       <c r="W24" s="7"/>
-      <c r="X24" s="151" t="s">
+      <c r="X24" s="134" t="s">
         <v>174</v>
       </c>
       <c r="AA24" s="7"/>
@@ -30274,7 +30519,7 @@
       <c r="BA24" s="7"/>
       <c r="BB24" s="7"/>
     </row>
-    <row r="25" spans="1:54" ht="29" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:54" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="str">
         <f>+VLOOKUP(D25,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0002</v>
@@ -30296,7 +30541,7 @@
         <f t="shared" si="0"/>
         <v>0002-01-00018</v>
       </c>
-      <c r="G25" s="145" t="s">
+      <c r="G25" s="128" t="s">
         <v>224</v>
       </c>
       <c r="H25" s="2"/>
@@ -30367,7 +30612,7 @@
       <c r="BA25" s="7"/>
       <c r="BB25" s="7"/>
     </row>
-    <row r="26" spans="1:54" ht="29" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:54" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="str">
         <f>+VLOOKUP(D26,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0002</v>
@@ -30389,7 +30634,7 @@
         <f t="shared" si="0"/>
         <v>0002-01-00019</v>
       </c>
-      <c r="G26" s="145" t="s">
+      <c r="G26" s="128" t="s">
         <v>254</v>
       </c>
       <c r="H26" s="2"/>
@@ -30440,7 +30685,7 @@
       <c r="AO26" s="7"/>
       <c r="AP26" s="7"/>
       <c r="AQ26" s="7" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="AR26" s="7" t="s">
         <v>878</v>
@@ -30462,7 +30707,7 @@
       <c r="BA26" s="7"/>
       <c r="BB26" s="7"/>
     </row>
-    <row r="27" spans="1:54" ht="29" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:54" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="str">
         <f>+VLOOKUP(D27,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0002</v>
@@ -30484,7 +30729,7 @@
         <f t="shared" si="0"/>
         <v>0002-01-00020</v>
       </c>
-      <c r="G27" s="145" t="s">
+      <c r="G27" s="128" t="s">
         <v>222</v>
       </c>
       <c r="H27" s="2"/>
@@ -30555,7 +30800,7 @@
       <c r="BA27" s="7"/>
       <c r="BB27" s="7"/>
     </row>
-    <row r="28" spans="1:54" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:54" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="str">
         <f>+VLOOKUP(D28,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0002</v>
@@ -30577,7 +30822,7 @@
         <f t="shared" si="0"/>
         <v>0002-01-00021</v>
       </c>
-      <c r="G28" s="145" t="s">
+      <c r="G28" s="128" t="s">
         <v>229</v>
       </c>
       <c r="H28" s="2"/>
@@ -30648,7 +30893,7 @@
       <c r="BA28" s="7"/>
       <c r="BB28" s="7"/>
     </row>
-    <row r="29" spans="1:54" ht="24" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:54" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="str">
         <f>+VLOOKUP(D29,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0002</v>
@@ -30743,7 +30988,7 @@
       <c r="BA29" s="7"/>
       <c r="BB29" s="7"/>
     </row>
-    <row r="30" spans="1:54" ht="29" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:54" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="str">
         <f>+VLOOKUP(D30,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0001</v>
@@ -30836,7 +31081,7 @@
       <c r="BA30" s="7"/>
       <c r="BB30" s="7"/>
     </row>
-    <row r="31" spans="1:54" ht="24" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:54" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="str">
         <f>+VLOOKUP(D31,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0001</v>
@@ -30929,7 +31174,7 @@
       <c r="BA31" s="7"/>
       <c r="BB31" s="7"/>
     </row>
-    <row r="32" spans="1:54" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:54" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="str">
         <f>+VLOOKUP(D32,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0001</v>
@@ -30952,10 +31197,10 @@
         <v>0001-01-00025</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>1363</v>
+        <v>1355</v>
       </c>
       <c r="I32" s="2"/>
       <c r="J32" s="44">
@@ -30984,7 +31229,7 @@
       <c r="U32" s="2"/>
       <c r="V32" s="3"/>
       <c r="W32" s="7"/>
-      <c r="X32" s="151" t="s">
+      <c r="X32" s="134" t="s">
         <v>187</v>
       </c>
       <c r="AA32" s="7"/>
@@ -31008,7 +31253,7 @@
       <c r="AL32" s="7"/>
       <c r="AM32" s="7"/>
       <c r="AN32" s="7" t="s">
-        <v>1403</v>
+        <v>1395</v>
       </c>
       <c r="AO32" s="7"/>
       <c r="AP32" s="7"/>
@@ -31034,10 +31279,10 @@
       <c r="AZ32" s="7"/>
       <c r="BA32" s="7"/>
       <c r="BB32" s="7" t="s">
-        <v>1375</v>
-      </c>
-    </row>
-    <row r="33" spans="1:54" ht="29" x14ac:dyDescent="0.35">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="33" spans="1:54" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" s="42" t="str">
         <f>+VLOOKUP(D33,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0019</v>
@@ -31130,7 +31375,7 @@
       <c r="BA33" s="7"/>
       <c r="BB33" s="7"/>
     </row>
-    <row r="34" spans="1:54" ht="29" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:54" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" s="42" t="str">
         <f>+VLOOKUP(D34,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0019</v>
@@ -31223,7 +31468,7 @@
       <c r="BA34" s="7"/>
       <c r="BB34" s="7"/>
     </row>
-    <row r="35" spans="1:54" ht="24" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:54" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" s="42" t="str">
         <f>+VLOOKUP(D35,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0004</v>
@@ -31320,7 +31565,7 @@
       <c r="BA35" s="7"/>
       <c r="BB35" s="7"/>
     </row>
-    <row r="36" spans="1:54" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:54" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="str">
         <f>+VLOOKUP(D36,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0007</v>
@@ -31346,7 +31591,7 @@
         <v>928</v>
       </c>
       <c r="H36" s="100" t="s">
-        <v>1355</v>
+        <v>1347</v>
       </c>
       <c r="I36" s="2"/>
       <c r="J36" s="44">
@@ -31375,7 +31620,7 @@
       <c r="U36" s="2"/>
       <c r="V36" s="3"/>
       <c r="W36" s="7"/>
-      <c r="X36" s="151" t="s">
+      <c r="X36" s="134" t="s">
         <v>178</v>
       </c>
       <c r="AA36" s="7"/>
@@ -31384,29 +31629,29 @@
         <f>PRODUCTOS[[#This Row],[Nombre comercial]]</f>
         <v>Empresas Registradas en el SII</v>
       </c>
-      <c r="AD36" s="154" t="s">
-        <v>1377</v>
+      <c r="AD36" s="137" t="s">
+        <v>1369</v>
       </c>
       <c r="AE36" s="7" t="s">
         <v>194</v>
       </c>
       <c r="AF36" s="124"/>
       <c r="AG36" s="7" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="AH36" s="7"/>
       <c r="AI36" s="7" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="AJ36" s="7"/>
       <c r="AK36" s="7"/>
       <c r="AL36" s="7"/>
       <c r="AM36" s="7"/>
       <c r="AN36" s="7" t="s">
-        <v>1356</v>
+        <v>1348</v>
       </c>
       <c r="AO36" s="7" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="AP36" s="7" t="s">
         <v>193</v>
@@ -31437,16 +31682,16 @@
         <v>881</v>
       </c>
       <c r="AZ36" s="102" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="BA36" s="7">
         <v>1</v>
       </c>
       <c r="BB36" s="7" t="s">
-        <v>1357</v>
-      </c>
-    </row>
-    <row r="37" spans="1:54" ht="101.5" x14ac:dyDescent="0.35">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="37" spans="1:54" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" s="42" t="str">
         <f>+VLOOKUP(D37,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0004</v>
@@ -31472,7 +31717,7 @@
         <v>953</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="I37" s="2"/>
       <c r="J37" s="44">
@@ -31501,7 +31746,7 @@
       <c r="U37" s="2"/>
       <c r="V37" s="3"/>
       <c r="W37" s="7"/>
-      <c r="X37" s="151" t="s">
+      <c r="X37" s="134" t="s">
         <v>183</v>
       </c>
       <c r="AA37" s="7"/>
@@ -31527,7 +31772,7 @@
       <c r="AN37" s="102"/>
       <c r="AO37" s="7"/>
       <c r="AP37" s="7" t="s">
-        <v>1347</v>
+        <v>1339</v>
       </c>
       <c r="AQ37" s="7">
         <v>2018</v>
@@ -31559,10 +31804,10 @@
         <v>1</v>
       </c>
       <c r="BB37" s="7" t="s">
-        <v>1348</v>
-      </c>
-    </row>
-    <row r="38" spans="1:54" ht="24" x14ac:dyDescent="0.35">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="38" spans="1:54" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" s="42" t="str">
         <f>+VLOOKUP(D38,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0021</v>
@@ -31655,7 +31900,7 @@
       <c r="BA38" s="7"/>
       <c r="BB38" s="7"/>
     </row>
-    <row r="39" spans="1:54" ht="77.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:54" ht="77.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="42" t="str">
         <f>+VLOOKUP(D39,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0012</v>
@@ -31678,10 +31923,10 @@
         <v>0012-01-00032</v>
       </c>
       <c r="G39" s="101" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="I39" s="2"/>
       <c r="J39" s="44">
@@ -31701,7 +31946,7 @@
         <v>POWER BI</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>1374</v>
+        <v>1366</v>
       </c>
       <c r="O39" s="2" t="s">
         <v>199</v>
@@ -31714,7 +31959,7 @@
       <c r="U39" s="2"/>
       <c r="V39" s="3"/>
       <c r="W39" s="7"/>
-      <c r="X39" s="151" t="s">
+      <c r="X39" s="134" t="s">
         <v>173</v>
       </c>
       <c r="AA39" s="7"/>
@@ -31733,21 +31978,21 @@
         <v>0</v>
       </c>
       <c r="AG39" s="7" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="AH39" s="7"/>
       <c r="AI39" s="7" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="AJ39" s="7"/>
       <c r="AK39" s="7"/>
       <c r="AL39" s="7"/>
       <c r="AM39" s="7"/>
       <c r="AN39" s="7" t="s">
-        <v>1389</v>
+        <v>1381</v>
       </c>
       <c r="AO39" s="7" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="AP39" s="7" t="s">
         <v>193</v>
@@ -31782,7 +32027,7 @@
         <v>881</v>
       </c>
       <c r="AZ39" s="7" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="BA39" s="7">
         <v>1</v>
@@ -31791,7 +32036,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="40" spans="1:54" ht="48" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:54" ht="48" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="str">
         <f>+VLOOKUP(D40,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0003</v>
@@ -31814,10 +32059,10 @@
         <v>0003-01-00033</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="I40" s="2"/>
       <c r="J40" s="44">
@@ -31853,7 +32098,7 @@
         <v>AGROSTAT - Producción Agrícola</v>
       </c>
       <c r="AD40" s="7" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="AE40" s="7" t="s">
         <v>966</v>
@@ -31871,7 +32116,7 @@
       <c r="AL40" s="102"/>
       <c r="AM40" s="102"/>
       <c r="AN40" s="7" t="s">
-        <v>1390</v>
+        <v>1382</v>
       </c>
       <c r="AO40" s="7"/>
       <c r="AP40" s="102"/>
@@ -31907,10 +32152,10 @@
         <v>1</v>
       </c>
       <c r="BB40" s="7" t="s">
-        <v>1350</v>
-      </c>
-    </row>
-    <row r="41" spans="1:54" ht="29" x14ac:dyDescent="0.35">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="41" spans="1:54" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="str">
         <f>+VLOOKUP(D41,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0003</v>
@@ -31933,10 +32178,10 @@
         <v>0003-01-00034</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="H41" s="101" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="I41" s="2"/>
       <c r="J41" s="44">
@@ -32005,7 +32250,7 @@
       <c r="BA41" s="7"/>
       <c r="BB41" s="7"/>
     </row>
-    <row r="42" spans="1:54" ht="24" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:54" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="str">
         <f>+VLOOKUP(D42,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0003</v>
@@ -32028,7 +32273,7 @@
         <v>0003-02-00035</v>
       </c>
       <c r="G42" s="100" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>970</v>
@@ -32106,7 +32351,7 @@
       <c r="BA42" s="7"/>
       <c r="BB42" s="7"/>
     </row>
-    <row r="43" spans="1:54" ht="24" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:54" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" s="42" t="str">
         <f>+VLOOKUP(D43,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0014</v>
@@ -32199,7 +32444,7 @@
       <c r="BA43" s="7"/>
       <c r="BB43" s="7"/>
     </row>
-    <row r="44" spans="1:54" ht="24" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:54" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" s="42" t="str">
         <f>+VLOOKUP(D44,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0014</v>
@@ -32292,7 +32537,7 @@
       <c r="BA44" s="7"/>
       <c r="BB44" s="7"/>
     </row>
-    <row r="45" spans="1:54" ht="84" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:54" ht="84" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" s="42" t="str">
         <f>+VLOOKUP(D45,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0009</v>
@@ -32318,7 +32563,7 @@
         <v>769</v>
       </c>
       <c r="H45" s="101" t="s">
-        <v>1339</v>
+        <v>1331</v>
       </c>
       <c r="I45" s="2"/>
       <c r="J45" s="44">
@@ -32368,14 +32613,14 @@
       <c r="AL45" s="7"/>
       <c r="AM45" s="7"/>
       <c r="AN45" s="7" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="AO45" s="7"/>
       <c r="AP45" s="7" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="AQ45" s="7" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="AR45" s="7" t="s">
         <v>878</v>
@@ -32389,7 +32634,7 @@
         <v>ARCGISONLINE</v>
       </c>
       <c r="AU45" s="7" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="AV45" s="7" t="s">
         <v>962</v>
@@ -32406,10 +32651,10 @@
         <v>1</v>
       </c>
       <c r="BB45" s="7" t="s">
-        <v>1128</v>
-      </c>
-    </row>
-    <row r="46" spans="1:54" ht="29" x14ac:dyDescent="0.35">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="46" spans="1:54" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" s="42" t="str">
         <f>+VLOOKUP(D46,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0013</v>
@@ -32502,7 +32747,7 @@
       <c r="BA46" s="7"/>
       <c r="BB46" s="7"/>
     </row>
-    <row r="47" spans="1:54" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:54" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="str">
         <f>+VLOOKUP(D47,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0005</v>
@@ -32515,7 +32760,7 @@
         <v>913</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>193</v>
@@ -32557,7 +32802,7 @@
       <c r="U47" s="2"/>
       <c r="V47" s="3"/>
       <c r="W47" s="7"/>
-      <c r="X47" s="151" t="s">
+      <c r="X47" s="134" t="s">
         <v>177</v>
       </c>
       <c r="AA47" s="7"/>
@@ -32577,7 +32822,7 @@
       <c r="AL47" s="7"/>
       <c r="AM47" s="7"/>
       <c r="AN47" s="7" t="s">
-        <v>1392</v>
+        <v>1384</v>
       </c>
       <c r="AO47" s="7"/>
       <c r="AP47" s="7"/>
@@ -32602,7 +32847,7 @@
       <c r="BA47" s="7"/>
       <c r="BB47" s="7"/>
     </row>
-    <row r="48" spans="1:54" ht="65.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:54" ht="65.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="42" t="str">
         <f>+VLOOKUP(D48,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0009</v>
@@ -32612,7 +32857,7 @@
         <v>01</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>10</v>
@@ -32625,10 +32870,10 @@
         <v>0009-01-00041</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>1340</v>
+        <v>1332</v>
       </c>
       <c r="I48" s="2"/>
       <c r="J48" s="44">
@@ -32678,11 +32923,11 @@
       <c r="AL48" s="7"/>
       <c r="AM48" s="7"/>
       <c r="AN48" s="103" t="s">
-        <v>1344</v>
+        <v>1336</v>
       </c>
       <c r="AO48" s="7"/>
       <c r="AP48" s="7" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="AQ48" s="7">
         <v>2018</v>
@@ -32699,7 +32944,7 @@
         <v>ARCGISONLINE</v>
       </c>
       <c r="AU48" s="7" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="AV48" s="7" t="s">
         <v>962</v>
@@ -32716,10 +32961,10 @@
         <v>1</v>
       </c>
       <c r="BB48" s="7" t="s">
-        <v>1128</v>
-      </c>
-    </row>
-    <row r="49" spans="1:54" ht="61.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="49" spans="1:54" ht="61.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="42" t="str">
         <f>+VLOOKUP(D49,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0009</v>
@@ -32729,7 +32974,7 @@
         <v>01</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>10</v>
@@ -32742,10 +32987,10 @@
         <v>0009-01-00042</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>1341</v>
+        <v>1333</v>
       </c>
       <c r="I49" s="2"/>
       <c r="J49" s="44">
@@ -32795,11 +33040,11 @@
       <c r="AL49" s="7"/>
       <c r="AM49" s="7"/>
       <c r="AN49" s="103" t="s">
-        <v>1345</v>
+        <v>1337</v>
       </c>
       <c r="AO49" s="7"/>
       <c r="AP49" s="7" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="AQ49" s="7">
         <v>2019</v>
@@ -32816,7 +33061,7 @@
         <v>ARCGISONLINE</v>
       </c>
       <c r="AU49" s="7" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="AV49" s="7" t="s">
         <v>962</v>
@@ -32833,10 +33078,10 @@
         <v>1</v>
       </c>
       <c r="BB49" s="7" t="s">
-        <v>1128</v>
-      </c>
-    </row>
-    <row r="50" spans="1:54" ht="60" x14ac:dyDescent="0.35">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="50" spans="1:54" ht="60" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" s="42" t="str">
         <f>+VLOOKUP(D50,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0001</v>
@@ -32846,23 +33091,23 @@
         <v>05</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="F50" s="2" t="str">
         <f t="shared" ref="F50:F51" si="2">A50&amp;"-"&amp;B50&amp;"-"&amp;C50</f>
         <v>0001-05-00043</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="H50" s="101" t="s">
-        <v>1364</v>
+        <v>1356</v>
       </c>
       <c r="I50" s="2"/>
       <c r="J50" s="44">
@@ -32934,10 +33179,10 @@
         <v>1</v>
       </c>
       <c r="BB50" s="7" t="s">
-        <v>1351</v>
-      </c>
-    </row>
-    <row r="51" spans="1:54" ht="60" x14ac:dyDescent="0.35">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="51" spans="1:54" ht="60" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" s="42" t="str">
         <f>+VLOOKUP(D51,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0001</v>
@@ -32947,7 +33192,7 @@
         <v>04</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>3</v>
@@ -32960,10 +33205,10 @@
         <v>0001-04-00044</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="H51" s="101" t="s">
-        <v>1364</v>
+        <v>1356</v>
       </c>
       <c r="I51" s="2"/>
       <c r="J51" s="44">
@@ -33035,10 +33280,10 @@
         <v>1</v>
       </c>
       <c r="BB51" s="7" t="s">
-        <v>1351</v>
-      </c>
-    </row>
-    <row r="52" spans="1:54" ht="24" x14ac:dyDescent="0.35">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="52" spans="1:54" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="str">
         <f>+VLOOKUP(D52,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0019</v>
@@ -33131,7 +33376,7 @@
       <c r="BA52" s="7"/>
       <c r="BB52" s="7"/>
     </row>
-    <row r="53" spans="1:54" ht="24" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:54" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="str">
         <f>+VLOOKUP(D53,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0017</v>
@@ -33154,10 +33399,10 @@
         <v>0017-01-00046</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>1329</v>
+        <v>1321</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>1329</v>
+        <v>1321</v>
       </c>
       <c r="I53" s="2"/>
       <c r="J53" s="44" t="e">
@@ -33226,7 +33471,7 @@
       <c r="BA53" s="7"/>
       <c r="BB53" s="7"/>
     </row>
-    <row r="54" spans="1:54" ht="24" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:54" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" s="42" t="str">
         <f>+VLOOKUP(D54,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0012</v>
@@ -33319,7 +33564,7 @@
       <c r="BA54" s="7"/>
       <c r="BB54" s="7"/>
     </row>
-    <row r="55" spans="1:54" ht="24" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:54" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55" s="42" t="str">
         <f>+VLOOKUP(D55,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0022</v>
@@ -33412,7 +33657,7 @@
       <c r="BA55" s="7"/>
       <c r="BB55" s="7"/>
     </row>
-    <row r="56" spans="1:54" ht="24" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:54" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" s="42" t="str">
         <f>+VLOOKUP(D56,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0023</v>
@@ -33505,7 +33750,7 @@
       <c r="BA56" s="7"/>
       <c r="BB56" s="7"/>
     </row>
-    <row r="57" spans="1:54" ht="24" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:54" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" s="42" t="str">
         <f>+VLOOKUP(D57,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0024</v>
@@ -33598,7 +33843,7 @@
       <c r="BA57" s="7"/>
       <c r="BB57" s="7"/>
     </row>
-    <row r="58" spans="1:54" ht="70.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:54" ht="70.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="42" t="str">
         <f>+VLOOKUP(D58,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0009</v>
@@ -33621,10 +33866,10 @@
         <v>0009-01-00051</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>1342</v>
+        <v>1334</v>
       </c>
       <c r="I58" s="2"/>
       <c r="J58" s="44">
@@ -33653,8 +33898,8 @@
       <c r="U58" s="2"/>
       <c r="V58" s="3"/>
       <c r="W58" s="7"/>
-      <c r="X58" s="151" t="s">
-        <v>1362</v>
+      <c r="X58" s="134" t="s">
+        <v>1354</v>
       </c>
       <c r="AA58" s="7"/>
       <c r="AB58" s="13"/>
@@ -33677,11 +33922,11 @@
       <c r="AL58" s="7"/>
       <c r="AM58" s="7"/>
       <c r="AN58" s="103" t="s">
-        <v>1343</v>
+        <v>1335</v>
       </c>
       <c r="AO58" s="7"/>
       <c r="AP58" s="7" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="AQ58" s="7">
         <v>2017</v>
@@ -33698,7 +33943,7 @@
         <v>ARCGISONLINE</v>
       </c>
       <c r="AU58" s="7" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="AV58" s="7" t="s">
         <v>962</v>
@@ -33715,10 +33960,10 @@
         <v>1</v>
       </c>
       <c r="BB58" s="7" t="s">
-        <v>1128</v>
-      </c>
-    </row>
-    <row r="59" spans="1:54" ht="87" customHeight="1" x14ac:dyDescent="0.35">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="59" spans="1:54" ht="87" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="42" t="str">
         <f>+VLOOKUP(D59,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0009</v>
@@ -33744,7 +33989,7 @@
         <v>773</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="I59" s="2"/>
       <c r="J59" s="44">
@@ -33774,7 +34019,7 @@
       <c r="V59" s="3"/>
       <c r="W59" s="7"/>
       <c r="X59" s="91" t="s">
-        <v>1361</v>
+        <v>1353</v>
       </c>
       <c r="AA59" s="7"/>
       <c r="AB59" s="13"/>
@@ -33797,11 +34042,11 @@
       <c r="AL59" s="7"/>
       <c r="AM59" s="7"/>
       <c r="AN59" s="7" t="s">
-        <v>1393</v>
+        <v>1385</v>
       </c>
       <c r="AO59" s="7"/>
       <c r="AP59" s="7" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="AQ59" s="102"/>
       <c r="AR59" s="7" t="s">
@@ -33816,7 +34061,7 @@
         <v>ARCGISONLINE</v>
       </c>
       <c r="AU59" s="7" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="AV59" s="7" t="s">
         <v>962</v>
@@ -33835,10 +34080,10 @@
         <v>1</v>
       </c>
       <c r="BB59" s="7" t="s">
-        <v>1129</v>
-      </c>
-    </row>
-    <row r="60" spans="1:54" ht="73.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="60" spans="1:54" ht="73.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="42" t="str">
         <f>+VLOOKUP(D60,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0016</v>
@@ -33864,7 +34109,7 @@
         <v>824</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="I60" s="2"/>
       <c r="J60" s="44">
@@ -33893,7 +34138,7 @@
       <c r="U60" s="2"/>
       <c r="V60" s="3"/>
       <c r="W60" s="7"/>
-      <c r="X60" s="151" t="s">
+      <c r="X60" s="134" t="s">
         <v>180</v>
       </c>
       <c r="AA60" s="7"/>
@@ -33902,8 +34147,8 @@
         <f>PRODUCTOS[[#This Row],[Nombre comercial]]</f>
         <v>Evolución Delitos de Mayor Connotación Social (2008-2020)</v>
       </c>
-      <c r="AD60" s="154" t="s">
-        <v>1370</v>
+      <c r="AD60" s="137" t="s">
+        <v>1362</v>
       </c>
       <c r="AE60" s="7" t="s">
         <v>966</v>
@@ -33924,7 +34169,7 @@
       <c r="AO60" s="7"/>
       <c r="AP60" s="7"/>
       <c r="AQ60" s="7" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="AR60" s="7" t="s">
         <v>878</v>
@@ -33951,10 +34196,10 @@
         <v>1</v>
       </c>
       <c r="BB60" s="7" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="61" spans="1:54" ht="24" x14ac:dyDescent="0.35">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="61" spans="1:54" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61" s="42" t="str">
         <f>+VLOOKUP(D61,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0020</v>
@@ -34047,7 +34292,7 @@
       <c r="BA61" s="7"/>
       <c r="BB61" s="7"/>
     </row>
-    <row r="62" spans="1:54" ht="24" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:54" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62" s="42" t="str">
         <f>+VLOOKUP(D62,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0020</v>
@@ -34140,7 +34385,7 @@
       <c r="BA62" s="7"/>
       <c r="BB62" s="7"/>
     </row>
-    <row r="63" spans="1:54" ht="29" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:54" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63" s="42" t="str">
         <f>+VLOOKUP(D63,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0020</v>
@@ -34233,7 +34478,7 @@
       <c r="BA63" s="7"/>
       <c r="BB63" s="7"/>
     </row>
-    <row r="64" spans="1:54" ht="24" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:54" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="str">
         <f>+VLOOKUP(D64,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0020</v>
@@ -34326,7 +34571,7 @@
       <c r="BA64" s="7"/>
       <c r="BB64" s="7"/>
     </row>
-    <row r="65" spans="1:54" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:54" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="str">
         <f>+VLOOKUP(D65,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0006</v>
@@ -34342,7 +34587,7 @@
         <v>7</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="F65" s="2" t="str">
         <f t="shared" si="1"/>
@@ -34352,7 +34597,7 @@
         <v>938</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>1387</v>
+        <v>1379</v>
       </c>
       <c r="I65" s="2"/>
       <c r="J65" s="44">
@@ -34398,7 +34643,7 @@
       <c r="AL65" s="7"/>
       <c r="AM65" s="7"/>
       <c r="AN65" s="7" t="s">
-        <v>1394</v>
+        <v>1386</v>
       </c>
       <c r="AO65" s="7"/>
       <c r="AP65" s="7"/>
@@ -34423,7 +34668,7 @@
       <c r="BA65" s="7"/>
       <c r="BB65" s="7"/>
     </row>
-    <row r="66" spans="1:54" ht="60" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:54" ht="60" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="str">
         <f>+VLOOKUP(D66,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0006</v>
@@ -34439,7 +34684,7 @@
         <v>7</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="F66" s="2" t="str">
         <f t="shared" si="1"/>
@@ -34492,7 +34737,7 @@
       <c r="AL66" s="7"/>
       <c r="AM66" s="7"/>
       <c r="AN66" s="7" t="s">
-        <v>1395</v>
+        <v>1387</v>
       </c>
       <c r="AO66" s="7"/>
       <c r="AP66" s="7"/>
@@ -34517,7 +34762,7 @@
       <c r="BA66" s="7"/>
       <c r="BB66" s="7"/>
     </row>
-    <row r="67" spans="1:54" ht="24" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:54" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="str">
         <f>+VLOOKUP(D67,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0003</v>
@@ -34540,10 +34785,10 @@
         <v>0003-01-00060</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="H67" s="101" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="I67" s="2"/>
       <c r="J67" s="44">
@@ -34612,7 +34857,7 @@
       <c r="BA67" s="7"/>
       <c r="BB67" s="7"/>
     </row>
-    <row r="68" spans="1:54" ht="85" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:54" ht="85" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="str">
         <f>+VLOOKUP(D68,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0003</v>
@@ -34635,10 +34880,10 @@
         <v>0003-01-00061</v>
       </c>
       <c r="G68" s="101" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="I68" s="2"/>
       <c r="J68" s="44">
@@ -34674,7 +34919,7 @@
         <v>AGROGEOMÁTICA - Monitoreo Humedad</v>
       </c>
       <c r="AD68" s="7" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="AE68" s="7"/>
       <c r="AF68" s="124"/>
@@ -34686,7 +34931,7 @@
       <c r="AL68" s="7"/>
       <c r="AM68" s="7"/>
       <c r="AN68" s="7" t="s">
-        <v>1396</v>
+        <v>1388</v>
       </c>
       <c r="AO68" s="7"/>
       <c r="AP68" s="102"/>
@@ -34716,10 +34961,10 @@
         <v>1</v>
       </c>
       <c r="BB68" s="7" t="s">
-        <v>1353</v>
-      </c>
-    </row>
-    <row r="69" spans="1:54" ht="72" x14ac:dyDescent="0.35">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="69" spans="1:54" ht="72" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69" s="42" t="str">
         <f>+VLOOKUP(D69,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0003</v>
@@ -34729,7 +34974,7 @@
         <v>01</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>5</v>
@@ -34742,10 +34987,10 @@
         <v>0003-01-00062</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="I69" s="2"/>
       <c r="J69" s="44">
@@ -34781,7 +35026,7 @@
         <v>AGROSTAT - Producción Pecuaria</v>
       </c>
       <c r="AD69" s="7" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="AE69" s="7" t="s">
         <v>966</v>
@@ -34799,7 +35044,7 @@
       <c r="AL69" s="102"/>
       <c r="AM69" s="102"/>
       <c r="AN69" s="7" t="s">
-        <v>1397</v>
+        <v>1389</v>
       </c>
       <c r="AO69" s="7"/>
       <c r="AP69" s="7"/>
@@ -34835,10 +35080,10 @@
         <v>1</v>
       </c>
       <c r="BB69" s="7" t="s">
-        <v>1130</v>
-      </c>
-    </row>
-    <row r="70" spans="1:54" ht="48" x14ac:dyDescent="0.35">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="70" spans="1:54" ht="48" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70" s="42" t="str">
         <f>+VLOOKUP(D70,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0003</v>
@@ -34848,7 +35093,7 @@
         <v>01</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>5</v>
@@ -34861,10 +35106,10 @@
         <v>0003-01-00063</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="I70" s="2"/>
       <c r="J70" s="44">
@@ -34900,7 +35145,7 @@
         <v>AGROSTAT - Producción Forestal</v>
       </c>
       <c r="AD70" s="7" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="AE70" s="7" t="s">
         <v>966</v>
@@ -34918,7 +35163,7 @@
       <c r="AL70" s="102"/>
       <c r="AM70" s="102"/>
       <c r="AN70" s="7" t="s">
-        <v>1401</v>
+        <v>1393</v>
       </c>
       <c r="AO70" s="7"/>
       <c r="AP70" s="7"/>
@@ -34955,7 +35200,7 @@
       </c>
       <c r="BB70" s="7"/>
     </row>
-    <row r="71" spans="1:54" ht="48" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:54" ht="48" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71" s="42" t="str">
         <f>+VLOOKUP(D71,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0003</v>
@@ -34965,7 +35210,7 @@
         <v>01</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>5</v>
@@ -34978,10 +35223,10 @@
         <v>0003-01-00064</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="I71" s="2"/>
       <c r="J71" s="44">
@@ -35017,7 +35262,7 @@
         <v>AGROSTAT - Ambiental</v>
       </c>
       <c r="AD71" s="7" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="AE71" s="7" t="s">
         <v>966</v>
@@ -35035,7 +35280,7 @@
       <c r="AL71" s="102"/>
       <c r="AM71" s="102"/>
       <c r="AN71" s="7" t="s">
-        <v>1398</v>
+        <v>1390</v>
       </c>
       <c r="AO71" s="7"/>
       <c r="AP71" s="7"/>
@@ -35072,7 +35317,7 @@
       </c>
       <c r="BB71" s="7"/>
     </row>
-    <row r="72" spans="1:54" ht="60" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:54" ht="60" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72" s="42" t="str">
         <f>+VLOOKUP(D72,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0003</v>
@@ -35082,7 +35327,7 @@
         <v>01</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>5</v>
@@ -35095,10 +35340,10 @@
         <v>0003-01-00065</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="I72" s="2"/>
       <c r="J72" s="44">
@@ -35134,7 +35379,7 @@
         <v>AGROSTAT - Economía Agrícola</v>
       </c>
       <c r="AD72" s="7" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="AE72" s="7" t="s">
         <v>966</v>
@@ -35152,7 +35397,7 @@
       <c r="AL72" s="102"/>
       <c r="AM72" s="102"/>
       <c r="AN72" s="7" t="s">
-        <v>1399</v>
+        <v>1391</v>
       </c>
       <c r="AO72" s="7"/>
       <c r="AP72" s="7"/>
@@ -35189,7 +35434,7 @@
       </c>
       <c r="BB72" s="7"/>
     </row>
-    <row r="73" spans="1:54" ht="60" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:54" ht="60" hidden="1" x14ac:dyDescent="0.35">
       <c r="A73" s="42" t="str">
         <f>+VLOOKUP(D73,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0003</v>
@@ -35199,7 +35444,7 @@
         <v>01</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>5</v>
@@ -35212,10 +35457,10 @@
         <v>0003-01-00066</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="I73" s="2"/>
       <c r="J73" s="44">
@@ -35251,7 +35496,7 @@
         <v>AGROSTAT - Economía Pecuaria</v>
       </c>
       <c r="AD73" s="7" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="AE73" s="7" t="s">
         <v>966</v>
@@ -35269,7 +35514,7 @@
       <c r="AL73" s="102"/>
       <c r="AM73" s="102"/>
       <c r="AN73" s="7" t="s">
-        <v>1400</v>
+        <v>1392</v>
       </c>
       <c r="AO73" s="7"/>
       <c r="AP73" s="7"/>
@@ -35306,7 +35551,7 @@
       </c>
       <c r="BB73" s="7"/>
     </row>
-    <row r="74" spans="1:54" ht="60" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:54" ht="60" hidden="1" x14ac:dyDescent="0.35">
       <c r="A74" s="42" t="str">
         <f>+VLOOKUP(D74,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0003</v>
@@ -35316,7 +35561,7 @@
         <v>01</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>5</v>
@@ -35329,10 +35574,10 @@
         <v>0003-01-00067</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="I74" s="2"/>
       <c r="J74" s="44">
@@ -35368,7 +35613,7 @@
         <v>AGROSTAT - Economía Forestal</v>
       </c>
       <c r="AD74" s="7" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="AE74" s="7" t="s">
         <v>966</v>
@@ -35386,7 +35631,7 @@
       <c r="AL74" s="102"/>
       <c r="AM74" s="102"/>
       <c r="AN74" s="7" t="s">
-        <v>1402</v>
+        <v>1394</v>
       </c>
       <c r="AO74" s="7"/>
       <c r="AP74" s="7"/>
@@ -35423,7 +35668,7 @@
       </c>
       <c r="BB74" s="7"/>
     </row>
-    <row r="75" spans="1:54" ht="60" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:54" ht="60" hidden="1" x14ac:dyDescent="0.35">
       <c r="A75" s="42" t="str">
         <f>+VLOOKUP(D75,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0001</v>
@@ -35433,7 +35678,7 @@
         <v>01</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>3</v>
@@ -35446,10 +35691,10 @@
         <v>0001-01-00068</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>1364</v>
+        <v>1356</v>
       </c>
       <c r="I75" s="2"/>
       <c r="J75" s="44">
@@ -35523,10 +35768,10 @@
         <v>1</v>
       </c>
       <c r="BB75" s="7" t="s">
-        <v>1351</v>
-      </c>
-    </row>
-    <row r="76" spans="1:54" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="76" spans="1:54" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="42" t="str">
         <f>+VLOOKUP(D76,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0001</v>
@@ -35536,7 +35781,7 @@
         <v>02</v>
       </c>
       <c r="C76" s="117" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>3</v>
@@ -35619,7 +35864,7 @@
       <c r="BA76" s="7"/>
       <c r="BB76" s="7"/>
     </row>
-    <row r="77" spans="1:54" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:54" ht="32.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="42" t="str">
         <f>+VLOOKUP(D77,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0004</v>
@@ -35629,7 +35874,7 @@
         <v>01</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>6</v>
@@ -35642,10 +35887,10 @@
         <v>0004-01-00070</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="I77" s="2"/>
       <c r="J77" s="44">
@@ -35696,7 +35941,7 @@
       <c r="AO77" s="7"/>
       <c r="AP77" s="7"/>
       <c r="AQ77" s="102" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="AR77" s="7" t="s">
         <v>878</v>
@@ -35718,7 +35963,7 @@
       <c r="BA77" s="7"/>
       <c r="BB77" s="7"/>
     </row>
-    <row r="78" spans="1:54" ht="26" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:54" ht="26" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="42" t="str">
         <f>+VLOOKUP(D78,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0003</v>
@@ -35728,7 +35973,7 @@
         <v>01</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>5</v>
@@ -35741,10 +35986,10 @@
         <v>0003-01-00071</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="I78" s="2"/>
       <c r="J78" s="44">
@@ -35813,7 +36058,7 @@
       <c r="BA78" s="7"/>
       <c r="BB78" s="7"/>
     </row>
-    <row r="79" spans="1:54" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:54" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="42" t="str">
         <f>+VLOOKUP(D79,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0003</v>
@@ -35823,7 +36068,7 @@
         <v>01</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>5</v>
@@ -35836,10 +36081,10 @@
         <v>0003-01-00072</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="I79" s="2"/>
       <c r="J79" s="44">
@@ -35908,7 +36153,7 @@
       <c r="BA79" s="7"/>
       <c r="BB79" s="7"/>
     </row>
-    <row r="80" spans="1:54" ht="24" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:54" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="A80" s="42" t="str">
         <f>+VLOOKUP(D80,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0004</v>
@@ -35918,7 +36163,7 @@
         <v>01</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>6</v>
@@ -35931,10 +36176,10 @@
         <v>0004-01-00073</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="I80" s="2"/>
       <c r="J80" s="44">
@@ -36005,7 +36250,7 @@
       <c r="BA80" s="7"/>
       <c r="BB80" s="7"/>
     </row>
-    <row r="81" spans="1:54" ht="24" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:54" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="A81" s="42" t="str">
         <f>+VLOOKUP(D81,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0004</v>
@@ -36015,7 +36260,7 @@
         <v>01</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>6</v>
@@ -36028,10 +36273,10 @@
         <v>0004-01-00074</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="I81" s="2"/>
       <c r="J81" s="44" t="e">
@@ -36100,7 +36345,7 @@
       <c r="BA81" s="7"/>
       <c r="BB81" s="7"/>
     </row>
-    <row r="82" spans="1:54" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:54" ht="29.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="42" t="str">
         <f>+VLOOKUP(D82,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0004</v>
@@ -36110,7 +36355,7 @@
         <v>01</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>6</v>
@@ -36123,10 +36368,10 @@
         <v>0004-01-00075</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="I82" s="2"/>
       <c r="J82" s="44">
@@ -36195,7 +36440,7 @@
       <c r="BA82" s="7"/>
       <c r="BB82" s="7"/>
     </row>
-    <row r="83" spans="1:54" ht="24" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:54" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="A83" s="42" t="str">
         <f>+VLOOKUP(D83,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0004</v>
@@ -36205,7 +36450,7 @@
         <v>01</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>6</v>
@@ -36292,7 +36537,7 @@
       <c r="BA83" s="7"/>
       <c r="BB83" s="7"/>
     </row>
-    <row r="84" spans="1:54" ht="24" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:54" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="A84" s="42" t="str">
         <f>+VLOOKUP(D84,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0004</v>
@@ -36302,7 +36547,7 @@
         <v>01</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>6</v>
@@ -36387,7 +36632,7 @@
       <c r="BA84" s="7"/>
       <c r="BB84" s="7"/>
     </row>
-    <row r="85" spans="1:54" ht="24" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:54" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="A85" s="42" t="str">
         <f>+VLOOKUP(D85,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0004</v>
@@ -36397,7 +36642,7 @@
         <v>01</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>6</v>
@@ -36410,10 +36655,10 @@
         <v>0004-01-00078</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="I85" s="2"/>
       <c r="J85" s="44" t="e">
@@ -36462,7 +36707,7 @@
       <c r="AO85" s="7"/>
       <c r="AP85" s="7"/>
       <c r="AQ85" s="7" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="AR85" s="7" t="s">
         <v>878</v>
@@ -36484,7 +36729,7 @@
       <c r="BA85" s="7"/>
       <c r="BB85" s="7"/>
     </row>
-    <row r="86" spans="1:54" ht="24" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:54" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="A86" s="42" t="str">
         <f>+VLOOKUP(D86,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0004</v>
@@ -36494,7 +36739,7 @@
         <v>01</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>6</v>
@@ -36507,10 +36752,10 @@
         <v>0004-01-00079</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="I86" s="2"/>
       <c r="J86" s="44" t="e">
@@ -36559,7 +36804,7 @@
       <c r="AO86" s="7"/>
       <c r="AP86" s="7"/>
       <c r="AQ86" s="7" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="AR86" s="7" t="s">
         <v>878</v>
@@ -36581,7 +36826,7 @@
       <c r="BA86" s="7"/>
       <c r="BB86" s="7"/>
     </row>
-    <row r="87" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:54" hidden="1" x14ac:dyDescent="0.35">
       <c r="A87" s="42" t="str">
         <f>+VLOOKUP(D87,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0001</v>
@@ -36591,7 +36836,7 @@
         <v>01</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>3</v>
@@ -36604,7 +36849,7 @@
         <v>0001-01-00080</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="H87" s="2"/>
       <c r="I87" s="2"/>
@@ -36653,7 +36898,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="88" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:54" hidden="1" x14ac:dyDescent="0.35">
       <c r="A88" s="42" t="str">
         <f>+VLOOKUP(D88,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0001</v>
@@ -36663,7 +36908,7 @@
         <v>01</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>3</v>
@@ -36722,7 +36967,7 @@
         <v>POWER BI</v>
       </c>
     </row>
-    <row r="89" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:54" hidden="1" x14ac:dyDescent="0.35">
       <c r="A89" s="42" t="str">
         <f>+VLOOKUP(D89,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0001</v>
@@ -36732,7 +36977,7 @@
         <v>01</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>3</v>
@@ -36791,7 +37036,7 @@
         <v>POWER BI</v>
       </c>
     </row>
-    <row r="90" spans="1:54" ht="60" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:54" ht="60" hidden="1" x14ac:dyDescent="0.35">
       <c r="A90" s="42" t="str">
         <f>+VLOOKUP(D90,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0001</v>
@@ -36801,7 +37046,7 @@
         <v>02</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>3</v>
@@ -36814,10 +37059,10 @@
         <v>0001-02-00083</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>1364</v>
+        <v>1356</v>
       </c>
       <c r="I90" s="2"/>
       <c r="J90" s="44">
@@ -36861,10 +37106,10 @@
         <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
         <v>0</v>
       </c>
-      <c r="AV90" s="151" t="s">
+      <c r="AV90" s="134" t="s">
         <v>962</v>
       </c>
-      <c r="AW90" s="150"/>
+      <c r="AW90" s="133"/>
       <c r="AX90" s="7" t="s">
         <v>880</v>
       </c>
@@ -36872,10 +37117,10 @@
         <v>1</v>
       </c>
       <c r="BB90" s="7" t="s">
-        <v>1351</v>
-      </c>
-    </row>
-    <row r="91" spans="1:54" x14ac:dyDescent="0.35">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="91" spans="1:54" hidden="1" x14ac:dyDescent="0.35">
       <c r="A91" s="42" t="str">
         <f>+VLOOKUP(D91,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0017</v>
@@ -36885,7 +37130,7 @@
         <v>04</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>1330</v>
+        <v>1322</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>670</v>
@@ -36898,10 +37143,10 @@
         <v>0017-04-00084</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>1329</v>
+        <v>1321</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>1329</v>
+        <v>1321</v>
       </c>
       <c r="I91" s="2"/>
       <c r="J91" s="44" t="e">
@@ -36933,16 +37178,16 @@
       <c r="AA91" s="7"/>
       <c r="AB91" s="13"/>
       <c r="AF91" s="125"/>
-      <c r="AS91" s="146" t="str">
+      <c r="AS91" s="129" t="str">
         <f>PRODUCTOS[[#This Row],[Data]]</f>
         <v>DATAELECCIONES</v>
       </c>
-      <c r="AT91" s="146" t="e">
+      <c r="AT91" s="129" t="e">
         <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="92" spans="1:54" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:54" ht="48.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="42" t="str">
         <f>+VLOOKUP(D92,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0018</v>
@@ -36952,7 +37197,7 @@
         <v>01</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>1331</v>
+        <v>1323</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>28</v>
@@ -36998,16 +37243,16 @@
       <c r="AA92" s="7"/>
       <c r="AB92" s="13"/>
       <c r="AF92" s="125"/>
-      <c r="AS92" s="146" t="str">
+      <c r="AS92" s="129" t="str">
         <f>PRODUCTOS[[#This Row],[Data]]</f>
         <v>DATAEVALUACIÓN</v>
       </c>
-      <c r="AT92" s="146" t="str">
+      <c r="AT92" s="129" t="str">
         <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
         <v>POWER BI</v>
       </c>
     </row>
-    <row r="93" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:54" hidden="1" x14ac:dyDescent="0.35">
       <c r="A93" s="42" t="str">
         <f>+VLOOKUP(D93,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0019</v>
@@ -37017,7 +37262,7 @@
         <v>02</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>1332</v>
+        <v>1324</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>837</v>
@@ -37030,7 +37275,7 @@
         <v>0019-02-00086</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="H93" s="2"/>
       <c r="I93" s="2"/>
@@ -37063,16 +37308,16 @@
       <c r="AA93" s="7"/>
       <c r="AB93" s="13"/>
       <c r="AF93" s="125"/>
-      <c r="AS93" s="146" t="str">
+      <c r="AS93" s="129" t="str">
         <f>PRODUCTOS[[#This Row],[Data]]</f>
         <v>DATAPUEBLOS</v>
       </c>
-      <c r="AT93" s="146">
+      <c r="AT93" s="129">
         <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:54" hidden="1" x14ac:dyDescent="0.35">
       <c r="A94" s="42" t="str">
         <f>+VLOOKUP(D94,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0019</v>
@@ -37082,7 +37327,7 @@
         <v>02</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>1333</v>
+        <v>1325</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>837</v>
@@ -37095,7 +37340,7 @@
         <v>0019-02-00087</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>1334</v>
+        <v>1326</v>
       </c>
       <c r="H94" s="2"/>
       <c r="I94" s="2"/>
@@ -37128,16 +37373,16 @@
       <c r="AA94" s="7"/>
       <c r="AB94" s="13"/>
       <c r="AF94" s="125"/>
-      <c r="AS94" s="146" t="str">
+      <c r="AS94" s="129" t="str">
         <f>PRODUCTOS[[#This Row],[Data]]</f>
         <v>DATAPUEBLOS</v>
       </c>
-      <c r="AT94" s="146">
+      <c r="AT94" s="129">
         <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:54" hidden="1" x14ac:dyDescent="0.35">
       <c r="A95" s="42" t="str">
         <f>+VLOOKUP(D95,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0001</v>
@@ -37147,7 +37392,7 @@
         <v>01</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>1338</v>
+        <v>1330</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>3</v>
@@ -37193,11 +37438,11 @@
       <c r="AA95" s="7"/>
       <c r="AB95" s="13"/>
       <c r="AF95" s="125"/>
-      <c r="AS95" s="146" t="str">
+      <c r="AS95" s="129" t="str">
         <f>PRODUCTOS[[#This Row],[Data]]</f>
         <v>DATASALUD</v>
       </c>
-      <c r="AT95" s="146" t="str">
+      <c r="AT95" s="129" t="str">
         <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
         <v>ARCGISONLINE</v>
       </c>
@@ -46519,631 +46764,1060 @@
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
-  <dimension ref="B7:G109"/>
+  <dimension ref="B7:H188"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35:G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="43.36328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.81640625" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="137" customWidth="1"/>
-    <col min="5" max="5" width="24.90625" customWidth="1"/>
-    <col min="6" max="6" width="53.90625" customWidth="1"/>
-    <col min="7" max="7" width="58" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.90625" style="16"/>
+    <col min="2" max="2" width="26.54296875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.1796875" style="16" customWidth="1"/>
+    <col min="4" max="4" width="17.7265625" style="141" customWidth="1"/>
+    <col min="5" max="5" width="24.90625" style="16" customWidth="1"/>
+    <col min="6" max="6" width="53.90625" style="16" customWidth="1"/>
+    <col min="7" max="7" width="38.1796875" style="16" customWidth="1"/>
+    <col min="8" max="8" width="16" style="16" customWidth="1"/>
+    <col min="9" max="16384" width="10.90625" style="16"/>
   </cols>
   <sheetData>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B7" s="8" t="s">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="D7" s="137" t="s">
+      <c r="D7" s="141" t="s">
+        <v>1309</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>972</v>
+      </c>
+      <c r="F7" s="16" t="s">
         <v>1310</v>
       </c>
-      <c r="E7" t="s">
-        <v>972</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="G7" s="16" t="s">
+        <v>977</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B8" s="142" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C8" s="143" t="s">
+        <v>1274</v>
+      </c>
+      <c r="D8" s="144">
+        <v>44139</v>
+      </c>
+      <c r="E8" s="155"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B9" s="145" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C9" s="146" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D9" s="144">
+        <v>44139</v>
+      </c>
+      <c r="E9" s="155"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B10" s="145" t="s">
+        <v>1280</v>
+      </c>
+      <c r="C10" s="146" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D10" s="144">
+        <v>44139</v>
+      </c>
+      <c r="E10" s="155"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B11" s="145" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C11" s="146" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D11" s="144">
+        <v>44139</v>
+      </c>
+      <c r="E11" s="155"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B12" s="145" t="s">
+        <v>1282</v>
+      </c>
+      <c r="C12" s="146" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D12" s="144">
+        <v>44139</v>
+      </c>
+      <c r="E12" s="155"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B13" s="145" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C13" s="146" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D13" s="144">
+        <v>44139</v>
+      </c>
+      <c r="E13" s="155"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B14" s="145" t="s">
+        <v>1284</v>
+      </c>
+      <c r="C14" s="146" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D14" s="147"/>
+      <c r="E14" s="155"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B15" s="145" t="s">
+        <v>1285</v>
+      </c>
+      <c r="C15" s="146" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D15" s="144">
+        <v>44139</v>
+      </c>
+      <c r="E15" s="155"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B16" s="145" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C16" s="148" t="s">
+        <v>1276</v>
+      </c>
+      <c r="D16" s="144">
+        <v>44139</v>
+      </c>
+      <c r="E16" s="155"/>
+    </row>
+    <row r="17" spans="2:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="B17" s="145" t="s">
+        <v>1288</v>
+      </c>
+      <c r="C17" s="154" t="s">
+        <v>161</v>
+      </c>
+      <c r="D17" s="153">
+        <v>44145</v>
+      </c>
+      <c r="E17" s="156" t="s">
+        <v>99</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B18" s="145" t="s">
+        <v>1284</v>
+      </c>
+      <c r="C18" s="149" t="s">
+        <v>1277</v>
+      </c>
+      <c r="D18" s="153">
+        <v>44145</v>
+      </c>
+      <c r="E18" s="156" t="s">
+        <v>93</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B19" s="145" t="s">
+        <v>1289</v>
+      </c>
+      <c r="C19" s="148" t="s">
+        <v>1276</v>
+      </c>
+      <c r="D19" s="153">
+        <v>44145</v>
+      </c>
+      <c r="E19" s="156" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B20" s="145" t="s">
+        <v>1290</v>
+      </c>
+      <c r="C20" s="154" t="s">
+        <v>161</v>
+      </c>
+      <c r="D20" s="153">
+        <v>44145</v>
+      </c>
+      <c r="E20" s="156" t="s">
+        <v>95</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B21" s="145" t="s">
+        <v>1291</v>
+      </c>
+      <c r="C21" s="149" t="s">
+        <v>1277</v>
+      </c>
+      <c r="D21" s="153">
+        <v>44145</v>
+      </c>
+      <c r="E21" s="156" t="s">
+        <v>93</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B22" s="145" t="s">
+        <v>1292</v>
+      </c>
+      <c r="C22" s="160"/>
+      <c r="D22" s="153">
+        <v>44145</v>
+      </c>
+      <c r="E22" s="156" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B23" s="145" t="s">
+        <v>767</v>
+      </c>
+      <c r="C23" s="149" t="s">
+        <v>1277</v>
+      </c>
+      <c r="D23" s="153">
+        <v>44145</v>
+      </c>
+      <c r="E23" s="156" t="s">
+        <v>99</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B24" s="145" t="s">
+        <v>767</v>
+      </c>
+      <c r="C24" s="154" t="s">
+        <v>161</v>
+      </c>
+      <c r="D24" s="153">
+        <v>44145</v>
+      </c>
+      <c r="E24" s="156" t="s">
+        <v>99</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B25" s="145" t="s">
+        <v>767</v>
+      </c>
+      <c r="C25" s="154" t="s">
+        <v>161</v>
+      </c>
+      <c r="D25" s="153">
+        <v>44145</v>
+      </c>
+      <c r="E25" s="156" t="s">
+        <v>99</v>
+      </c>
+      <c r="F25" s="16" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B26" s="145" t="s">
+        <v>1230</v>
+      </c>
+      <c r="C26" s="149" t="s">
+        <v>1277</v>
+      </c>
+      <c r="D26" s="153">
+        <v>44145</v>
+      </c>
+      <c r="E26" s="159" t="s">
+        <v>95</v>
+      </c>
+      <c r="F26" s="16" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B27" s="145" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C27" s="148" t="s">
+        <v>1276</v>
+      </c>
+      <c r="D27" s="144">
+        <v>44145</v>
+      </c>
+      <c r="E27" s="156" t="s">
+        <v>98</v>
+      </c>
+      <c r="F27" s="16" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B28" s="145" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C28" s="149" t="s">
+        <v>1277</v>
+      </c>
+      <c r="D28" s="144">
+        <v>44145</v>
+      </c>
+      <c r="E28" s="156" t="s">
+        <v>98</v>
+      </c>
+      <c r="F28" s="16" t="s">
         <v>1311</v>
       </c>
-      <c r="G7" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B8" s="134" t="s">
-        <v>1279</v>
-      </c>
-      <c r="C8" s="127" t="s">
-        <v>1275</v>
-      </c>
-      <c r="D8" s="138">
-        <v>44139</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B9" s="135" t="s">
-        <v>1280</v>
-      </c>
-      <c r="C9" s="128" t="s">
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B29" s="145" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C29" s="154" t="s">
+        <v>161</v>
+      </c>
+      <c r="D29" s="144">
+        <v>44145</v>
+      </c>
+      <c r="E29" s="156" t="s">
+        <v>98</v>
+      </c>
+      <c r="F29" s="16" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B30" s="145" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C30" s="148" t="s">
         <v>1276</v>
       </c>
-      <c r="D9" s="138">
-        <v>44139</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B10" s="135" t="s">
-        <v>1281</v>
-      </c>
-      <c r="C10" s="128" t="s">
+      <c r="D30" s="144">
+        <v>44145</v>
+      </c>
+      <c r="E30" s="156" t="s">
+        <v>98</v>
+      </c>
+      <c r="F30" s="16" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B31" s="145" t="s">
+        <v>840</v>
+      </c>
+      <c r="C31" s="149" t="s">
+        <v>1277</v>
+      </c>
+      <c r="D31" s="144">
+        <v>44145</v>
+      </c>
+      <c r="E31" s="156" t="s">
+        <v>93</v>
+      </c>
+      <c r="F31" s="16" t="s">
+        <v>1312</v>
+      </c>
+      <c r="G31" s="16" t="s">
+        <v>1402</v>
+      </c>
+      <c r="H31" s="16" t="s">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B32" s="145" t="s">
+        <v>840</v>
+      </c>
+      <c r="C32" s="148" t="s">
         <v>1276</v>
       </c>
-      <c r="D10" s="139"/>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B11" s="135" t="s">
-        <v>1282</v>
-      </c>
-      <c r="C11" s="128" t="s">
-        <v>1276</v>
-      </c>
-      <c r="D11" s="139"/>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B12" s="135" t="s">
-        <v>1283</v>
-      </c>
-      <c r="C12" s="128" t="s">
-        <v>1276</v>
-      </c>
-      <c r="D12" s="139"/>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B13" s="135" t="s">
-        <v>1284</v>
-      </c>
-      <c r="C13" s="128" t="s">
-        <v>1276</v>
-      </c>
-      <c r="D13" s="139"/>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B14" s="135" t="s">
-        <v>1285</v>
-      </c>
-      <c r="C14" s="128" t="s">
-        <v>1276</v>
-      </c>
-      <c r="D14" s="139"/>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B15" s="135" t="s">
-        <v>1286</v>
-      </c>
-      <c r="C15" s="128" t="s">
-        <v>1276</v>
-      </c>
-      <c r="D15" s="139"/>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B16" s="135" t="s">
+      <c r="D32" s="144">
+        <v>44145</v>
+      </c>
+      <c r="E32" s="156" t="s">
+        <v>93</v>
+      </c>
+      <c r="F32" s="16" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="B33" s="150" t="s">
+        <v>840</v>
+      </c>
+      <c r="C33" s="154" t="s">
+        <v>161</v>
+      </c>
+      <c r="D33" s="144">
+        <v>44145</v>
+      </c>
+      <c r="E33" s="157" t="s">
+        <v>825</v>
+      </c>
+      <c r="F33" s="16" t="s">
+        <v>1313</v>
+      </c>
+      <c r="G33" s="14" t="s">
+        <v>1319</v>
+      </c>
+      <c r="H33" s="14" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B34" s="150" t="s">
+        <v>840</v>
+      </c>
+      <c r="C34" s="151" t="s">
+        <v>1277</v>
+      </c>
+      <c r="D34" s="144">
+        <v>44145</v>
+      </c>
+      <c r="E34" s="157" t="s">
+        <v>93</v>
+      </c>
+      <c r="F34" s="16" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="B35" s="152" t="s">
         <v>1287</v>
       </c>
-      <c r="C16" s="129" t="s">
-        <v>1277</v>
-      </c>
-      <c r="D16" s="139"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B17" s="135" t="s">
-        <v>1289</v>
-      </c>
-      <c r="C17" s="130" t="s">
-        <v>1278</v>
-      </c>
-      <c r="D17" s="140"/>
-      <c r="E17" s="131" t="s">
-        <v>99</v>
-      </c>
-      <c r="F17" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B18" s="135" t="s">
-        <v>1285</v>
-      </c>
-      <c r="C18" s="130" t="s">
-        <v>1278</v>
-      </c>
-      <c r="D18" s="140"/>
-      <c r="E18" s="131" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B19" s="135" t="s">
-        <v>1290</v>
-      </c>
-      <c r="C19" s="130" t="s">
-        <v>1278</v>
-      </c>
-      <c r="D19" s="140"/>
-      <c r="E19" s="131" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B20" s="135" t="s">
-        <v>1291</v>
-      </c>
-      <c r="C20" s="130" t="s">
-        <v>1278</v>
-      </c>
-      <c r="D20" s="140"/>
-      <c r="E20" s="132" t="s">
-        <v>95</v>
-      </c>
-      <c r="F20" t="s">
-        <v>1327</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B21" s="135" t="s">
-        <v>1292</v>
-      </c>
-      <c r="C21" s="130" t="s">
-        <v>1278</v>
-      </c>
-      <c r="D21" s="140"/>
-      <c r="E21" s="133" t="s">
-        <v>93</v>
-      </c>
-      <c r="F21" t="s">
-        <v>1323</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B22" s="135" t="s">
+      <c r="C35" s="154" t="s">
+        <v>161</v>
+      </c>
+      <c r="D35" s="144">
+        <v>44145</v>
+      </c>
+      <c r="E35" s="158" t="s">
+        <v>98</v>
+      </c>
+      <c r="F35" s="16" t="s">
+        <v>1400</v>
+      </c>
+      <c r="G35" s="14" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B36" s="152" t="s">
         <v>1293</v>
       </c>
-      <c r="C22" s="130" t="s">
-        <v>1278</v>
-      </c>
-      <c r="D22" s="140"/>
-      <c r="E22" s="132" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B23" s="135" t="s">
-        <v>767</v>
-      </c>
-      <c r="C23" s="130" t="s">
-        <v>1278</v>
-      </c>
-      <c r="D23" s="140"/>
-      <c r="E23" s="133" t="s">
-        <v>99</v>
-      </c>
-      <c r="F23" t="s">
-        <v>1320</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B24" s="135"/>
-      <c r="C24" s="130"/>
-      <c r="D24" s="140"/>
-      <c r="E24" s="133" t="s">
-        <v>99</v>
-      </c>
-      <c r="F24" t="s">
-        <v>1318</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B25" s="135"/>
-      <c r="C25" s="130"/>
-      <c r="D25" s="140"/>
-      <c r="E25" s="133" t="s">
-        <v>99</v>
-      </c>
-      <c r="F25" t="s">
-        <v>1322</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B26" s="135"/>
-      <c r="C26" s="130"/>
-      <c r="D26" s="140"/>
-      <c r="E26" s="133"/>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B27" s="135" t="s">
-        <v>1231</v>
-      </c>
-      <c r="C27" s="130" t="s">
-        <v>1278</v>
-      </c>
-      <c r="D27" s="140"/>
-      <c r="E27" s="132" t="s">
-        <v>95</v>
-      </c>
-      <c r="F27" t="s">
-        <v>1328</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B28" s="135" t="s">
-        <v>1045</v>
-      </c>
-      <c r="C28" s="130" t="s">
-        <v>1278</v>
-      </c>
-      <c r="D28" s="138">
-        <v>44145</v>
-      </c>
-      <c r="E28" s="131" t="s">
-        <v>98</v>
-      </c>
-      <c r="F28" t="s">
-        <v>1314</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B29" s="135"/>
-      <c r="C29" s="130"/>
-      <c r="D29" s="138"/>
-      <c r="E29" s="131" t="s">
-        <v>98</v>
-      </c>
-      <c r="F29" t="s">
-        <v>1315</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B30" s="135"/>
-      <c r="C30" s="130"/>
-      <c r="D30" s="138"/>
-      <c r="E30" s="131"/>
-      <c r="F30" t="s">
-        <v>1318</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B31" s="135"/>
-      <c r="C31" s="130"/>
-      <c r="D31" s="138"/>
-      <c r="E31" s="131"/>
-      <c r="F31" t="s">
-        <v>1321</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B32" s="135"/>
-      <c r="C32" s="130"/>
-      <c r="D32" s="138"/>
-      <c r="E32" s="131"/>
-      <c r="F32" t="s">
-        <v>1316</v>
-      </c>
-      <c r="G32" t="s">
-        <v>1317</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B33" s="135" t="s">
-        <v>840</v>
-      </c>
-      <c r="C33" s="130" t="s">
-        <v>1278</v>
-      </c>
-      <c r="D33" s="140"/>
-      <c r="E33" s="132" t="s">
-        <v>93</v>
-      </c>
-      <c r="F33" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B34" s="141"/>
-      <c r="C34" s="142"/>
-      <c r="D34" s="139"/>
-      <c r="E34" s="143" t="s">
-        <v>825</v>
-      </c>
-      <c r="F34" t="s">
-        <v>1318</v>
-      </c>
-      <c r="G34" t="s">
-        <v>1326</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B35" s="141"/>
-      <c r="C35" s="142"/>
-      <c r="D35" s="139"/>
-      <c r="E35" s="143" t="s">
-        <v>93</v>
-      </c>
-      <c r="F35" t="s">
-        <v>1325</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B36" s="136" t="s">
-        <v>1288</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B37" s="136" t="s">
+      <c r="E36" s="155"/>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B37" s="152" t="s">
         <v>1294</v>
       </c>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B38" s="136" t="s">
+      <c r="E37" s="155"/>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B38" s="152" t="s">
         <v>1295</v>
       </c>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B39" s="136" t="s">
+      <c r="E38" s="155"/>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B39" s="152" t="s">
         <v>1296</v>
       </c>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B40" s="136" t="s">
+      <c r="E39" s="155"/>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B40" s="152" t="s">
         <v>1297</v>
       </c>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B41" s="136" t="s">
+      <c r="E40" s="155"/>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B41" s="152" t="s">
         <v>1298</v>
       </c>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B42" s="136" t="s">
+      <c r="E41" s="155"/>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B42" s="152" t="s">
         <v>1299</v>
       </c>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B43" s="136" t="s">
+      <c r="E42" s="155"/>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B43" s="152" t="s">
         <v>1300</v>
       </c>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B44" s="136" t="s">
+      <c r="E43" s="155"/>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B44" s="152" t="s">
         <v>1301</v>
       </c>
-    </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B45" s="136" t="s">
+      <c r="E44" s="155"/>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B45" s="152" t="s">
         <v>1302</v>
       </c>
-    </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B46" s="136" t="s">
+      <c r="E45" s="155"/>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B46" s="152" t="s">
         <v>1303</v>
       </c>
-    </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B47" s="136" t="s">
+      <c r="E46" s="155"/>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B47" s="152" t="s">
         <v>1304</v>
       </c>
-    </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B48" s="136" t="s">
+      <c r="E47" s="155"/>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B48" s="152" t="s">
         <v>1305</v>
       </c>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B49" s="136" t="s">
+      <c r="E48" s="155"/>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B49" s="152" t="s">
         <v>1306</v>
       </c>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B50" s="136" t="s">
+      <c r="E49" s="155"/>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B50" s="152" t="s">
         <v>1307</v>
       </c>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B51" s="136" t="s">
+      <c r="E50" s="155"/>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B51" s="152" t="s">
         <v>1308</v>
       </c>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B52" s="136" t="s">
-        <v>1309</v>
-      </c>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B53" s="136"/>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B54" s="136"/>
-    </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B55" s="136"/>
-    </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B56" s="136"/>
-    </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B57" s="136"/>
-    </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B58" s="136"/>
-    </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B59" s="136"/>
-    </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B60" s="136"/>
-    </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B61" s="136"/>
-    </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B62" s="136"/>
-    </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B63" s="136"/>
-    </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B64" s="136"/>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B65" s="136"/>
-    </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B66" s="136"/>
-    </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B67" s="136"/>
-    </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B68" s="136"/>
-    </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B69" s="136"/>
-    </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B70" s="136"/>
-    </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B71" s="136"/>
-    </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B72" s="136"/>
-    </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B73" s="136"/>
-    </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B74" s="136"/>
-    </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B75" s="136"/>
-    </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B76" s="136"/>
-    </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B77" s="136"/>
-    </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B78" s="136"/>
-    </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B79" s="136"/>
-    </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B80" s="136"/>
-    </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B81" s="136"/>
-    </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B82" s="136"/>
-    </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B83" s="136"/>
-    </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B84" s="136"/>
-    </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B85" s="136"/>
-    </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B86" s="136"/>
-    </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B87" s="136"/>
-    </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B88" s="136"/>
-    </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B89" s="136"/>
-    </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B90" s="136"/>
-    </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B91" s="136"/>
-    </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B92" s="136"/>
-    </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B93" s="136"/>
-    </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B94" s="136"/>
-    </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B95" s="136"/>
-    </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B96" s="136"/>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B97" s="136"/>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B98" s="136"/>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B99" s="136"/>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B100" s="136"/>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B101" s="136"/>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B102" s="136"/>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B103" s="136"/>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B104" s="136"/>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B105" s="136"/>
-    </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B106" s="136"/>
-    </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B107" s="136"/>
-    </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B108" s="136"/>
-    </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B109" s="136"/>
+      <c r="E51" s="155"/>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B52" s="152"/>
+      <c r="E52" s="155"/>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B53" s="152"/>
+      <c r="E53" s="155"/>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B54" s="152"/>
+      <c r="E54" s="155"/>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B55" s="152"/>
+      <c r="E55" s="155"/>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B56" s="152"/>
+      <c r="E56" s="155"/>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B57" s="152"/>
+      <c r="E57" s="155"/>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B58" s="152"/>
+      <c r="E58" s="155"/>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B59" s="152"/>
+      <c r="E59" s="155"/>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B60" s="152"/>
+      <c r="E60" s="155"/>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B61" s="152"/>
+      <c r="E61" s="155"/>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B62" s="152"/>
+      <c r="E62" s="155"/>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B63" s="152"/>
+      <c r="E63" s="155"/>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B64" s="152"/>
+      <c r="E64" s="155"/>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B65" s="152"/>
+      <c r="E65" s="155"/>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B66" s="152"/>
+      <c r="E66" s="155"/>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B67" s="152"/>
+      <c r="E67" s="155"/>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B68" s="152"/>
+      <c r="E68" s="155"/>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B69" s="152"/>
+      <c r="E69" s="155"/>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B70" s="152"/>
+      <c r="E70" s="155"/>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B71" s="152"/>
+      <c r="E71" s="155"/>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B72" s="152"/>
+      <c r="E72" s="155"/>
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B73" s="152"/>
+      <c r="E73" s="155"/>
+    </row>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B74" s="152"/>
+      <c r="E74" s="155"/>
+    </row>
+    <row r="75" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B75" s="152"/>
+      <c r="E75" s="155"/>
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B76" s="152"/>
+      <c r="E76" s="155"/>
+    </row>
+    <row r="77" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B77" s="152"/>
+      <c r="E77" s="155"/>
+    </row>
+    <row r="78" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B78" s="152"/>
+      <c r="E78" s="155"/>
+    </row>
+    <row r="79" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B79" s="152"/>
+      <c r="E79" s="155"/>
+    </row>
+    <row r="80" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B80" s="152"/>
+      <c r="E80" s="155"/>
+    </row>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B81" s="152"/>
+      <c r="E81" s="155"/>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B82" s="152"/>
+      <c r="E82" s="155"/>
+    </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B83" s="152"/>
+      <c r="E83" s="155"/>
+    </row>
+    <row r="84" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B84" s="152"/>
+      <c r="E84" s="155"/>
+    </row>
+    <row r="85" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B85" s="152"/>
+      <c r="E85" s="155"/>
+    </row>
+    <row r="86" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B86" s="152"/>
+      <c r="E86" s="155"/>
+    </row>
+    <row r="87" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B87" s="152"/>
+      <c r="E87" s="155"/>
+    </row>
+    <row r="88" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B88" s="152"/>
+      <c r="E88" s="155"/>
+    </row>
+    <row r="89" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B89" s="152"/>
+      <c r="E89" s="155"/>
+    </row>
+    <row r="90" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B90" s="152"/>
+      <c r="E90" s="155"/>
+    </row>
+    <row r="91" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B91" s="152"/>
+      <c r="E91" s="155"/>
+    </row>
+    <row r="92" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B92" s="152"/>
+      <c r="E92" s="155"/>
+    </row>
+    <row r="93" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B93" s="152"/>
+      <c r="E93" s="155"/>
+    </row>
+    <row r="94" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B94" s="152"/>
+      <c r="E94" s="155"/>
+    </row>
+    <row r="95" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B95" s="152"/>
+      <c r="E95" s="155"/>
+    </row>
+    <row r="96" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B96" s="152"/>
+      <c r="E96" s="155"/>
+    </row>
+    <row r="97" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B97" s="152"/>
+      <c r="E97" s="155"/>
+    </row>
+    <row r="98" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B98" s="152"/>
+      <c r="E98" s="155"/>
+    </row>
+    <row r="99" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B99" s="152"/>
+      <c r="E99" s="155"/>
+    </row>
+    <row r="100" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B100" s="152"/>
+      <c r="E100" s="155"/>
+    </row>
+    <row r="101" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B101" s="152"/>
+      <c r="E101" s="155"/>
+    </row>
+    <row r="102" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B102" s="152"/>
+      <c r="E102" s="155"/>
+    </row>
+    <row r="103" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B103" s="152"/>
+      <c r="E103" s="155"/>
+    </row>
+    <row r="104" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B104" s="152"/>
+      <c r="E104" s="155"/>
+    </row>
+    <row r="105" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B105" s="152"/>
+      <c r="E105" s="155"/>
+    </row>
+    <row r="106" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B106" s="152"/>
+      <c r="E106" s="155"/>
+    </row>
+    <row r="107" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B107" s="152"/>
+      <c r="E107" s="155"/>
+    </row>
+    <row r="108" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B108" s="152"/>
+      <c r="E108" s="155"/>
+    </row>
+    <row r="109" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="E109" s="155"/>
+    </row>
+    <row r="110" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="E110" s="155"/>
+    </row>
+    <row r="111" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="E111" s="155"/>
+    </row>
+    <row r="112" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="E112" s="155"/>
+    </row>
+    <row r="113" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E113" s="155"/>
+    </row>
+    <row r="114" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E114" s="155"/>
+    </row>
+    <row r="115" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E115" s="155"/>
+    </row>
+    <row r="116" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E116" s="155"/>
+    </row>
+    <row r="117" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E117" s="155"/>
+    </row>
+    <row r="118" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E118" s="155"/>
+    </row>
+    <row r="119" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E119" s="155"/>
+    </row>
+    <row r="120" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E120" s="155"/>
+    </row>
+    <row r="121" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E121" s="155"/>
+    </row>
+    <row r="122" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E122" s="155"/>
+    </row>
+    <row r="123" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E123" s="155"/>
+    </row>
+    <row r="124" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E124" s="155"/>
+    </row>
+    <row r="125" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E125" s="155"/>
+    </row>
+    <row r="126" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E126" s="155"/>
+    </row>
+    <row r="127" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E127" s="155"/>
+    </row>
+    <row r="128" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E128" s="155"/>
+    </row>
+    <row r="129" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E129" s="155"/>
+    </row>
+    <row r="130" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E130" s="155"/>
+    </row>
+    <row r="131" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E131" s="155"/>
+    </row>
+    <row r="132" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E132" s="155"/>
+    </row>
+    <row r="133" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E133" s="155"/>
+    </row>
+    <row r="134" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E134" s="155"/>
+    </row>
+    <row r="135" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E135" s="155"/>
+    </row>
+    <row r="136" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E136" s="155"/>
+    </row>
+    <row r="137" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E137" s="155"/>
+    </row>
+    <row r="138" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E138" s="155"/>
+    </row>
+    <row r="139" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E139" s="155"/>
+    </row>
+    <row r="140" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E140" s="155"/>
+    </row>
+    <row r="141" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E141" s="155"/>
+    </row>
+    <row r="142" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E142" s="155"/>
+    </row>
+    <row r="143" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E143" s="155"/>
+    </row>
+    <row r="144" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E144" s="155"/>
+    </row>
+    <row r="145" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E145" s="155"/>
+    </row>
+    <row r="146" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E146" s="155"/>
+    </row>
+    <row r="147" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E147" s="155"/>
+    </row>
+    <row r="148" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E148" s="155"/>
+    </row>
+    <row r="149" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E149" s="155"/>
+    </row>
+    <row r="150" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E150" s="155"/>
+    </row>
+    <row r="151" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E151" s="155"/>
+    </row>
+    <row r="152" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E152" s="155"/>
+    </row>
+    <row r="153" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E153" s="155"/>
+    </row>
+    <row r="154" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E154" s="155"/>
+    </row>
+    <row r="155" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E155" s="155"/>
+    </row>
+    <row r="156" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E156" s="155"/>
+    </row>
+    <row r="157" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E157" s="155"/>
+    </row>
+    <row r="158" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E158" s="155"/>
+    </row>
+    <row r="159" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E159" s="155"/>
+    </row>
+    <row r="160" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E160" s="155"/>
+    </row>
+    <row r="161" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E161" s="155"/>
+    </row>
+    <row r="162" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E162" s="155"/>
+    </row>
+    <row r="163" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E163" s="155"/>
+    </row>
+    <row r="164" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E164" s="155"/>
+    </row>
+    <row r="165" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E165" s="155"/>
+    </row>
+    <row r="166" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E166" s="155"/>
+    </row>
+    <row r="167" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E167" s="155"/>
+    </row>
+    <row r="168" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E168" s="155"/>
+    </row>
+    <row r="169" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E169" s="155"/>
+    </row>
+    <row r="170" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E170" s="155"/>
+    </row>
+    <row r="171" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E171" s="155"/>
+    </row>
+    <row r="172" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E172" s="155"/>
+    </row>
+    <row r="173" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E173" s="155"/>
+    </row>
+    <row r="174" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E174" s="155"/>
+    </row>
+    <row r="175" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E175" s="155"/>
+    </row>
+    <row r="176" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E176" s="155"/>
+    </row>
+    <row r="177" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E177" s="155"/>
+    </row>
+    <row r="178" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E178" s="155"/>
+    </row>
+    <row r="179" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E179" s="155"/>
+    </row>
+    <row r="180" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E180" s="155"/>
+    </row>
+    <row r="181" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E181" s="155"/>
+    </row>
+    <row r="182" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E182" s="155"/>
+    </row>
+    <row r="183" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E183" s="155"/>
+    </row>
+    <row r="184" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E184" s="155"/>
+    </row>
+    <row r="185" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E185" s="155"/>
+    </row>
+    <row r="186" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E186" s="155"/>
+    </row>
+    <row r="187" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E187" s="155"/>
+    </row>
+    <row r="188" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E188" s="155"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{3A4CF648-6AED-40f4-86FF-DC5316D8AED3}">
       <x14:slicerList xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-        <x14:slicer r:id="rId3"/>
+        <x14:slicer r:id="rId4"/>
       </x14:slicerList>
     </ext>
   </extLst>
@@ -47157,8 +47831,8 @@
   </sheetPr>
   <dimension ref="A9:M47"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView topLeftCell="A28" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.90625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -47214,10 +47888,10 @@
         <v>1045</v>
       </c>
       <c r="L9" s="47" t="s">
+        <v>1078</v>
+      </c>
+      <c r="M9" s="47" t="s">
         <v>1079</v>
-      </c>
-      <c r="M9" s="47" t="s">
-        <v>1080</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
@@ -47234,7 +47908,7 @@
         <v>44111</v>
       </c>
       <c r="E10" s="50" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="G10" s="49" t="s">
         <v>979</v>
@@ -47297,7 +47971,7 @@
         <v>44111</v>
       </c>
       <c r="E13" s="63" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="F13" s="63">
         <v>44113</v>
@@ -47653,7 +48327,7 @@
         <v>1019</v>
       </c>
       <c r="C35" s="47" t="s">
-        <v>1047</v>
+        <v>988</v>
       </c>
       <c r="D35" s="50">
         <v>44119</v>
@@ -47670,7 +48344,7 @@
         <v>1025</v>
       </c>
       <c r="C36" s="47" t="s">
-        <v>1048</v>
+        <v>1036</v>
       </c>
       <c r="D36" s="50">
         <v>44134</v>
@@ -47697,7 +48371,7 @@
         <v>1026</v>
       </c>
       <c r="C38" s="78" t="s">
-        <v>1066</v>
+        <v>1409</v>
       </c>
       <c r="D38" s="78"/>
       <c r="E38" s="78"/>
@@ -47720,7 +48394,7 @@
         <v>1028</v>
       </c>
       <c r="C39" s="47" t="s">
-        <v>1066</v>
+        <v>1409</v>
       </c>
       <c r="D39" s="50">
         <v>44121</v>
@@ -47747,7 +48421,7 @@
         <v>1030</v>
       </c>
       <c r="C41" s="47" t="s">
-        <v>1072</v>
+        <v>1410</v>
       </c>
       <c r="D41" s="50">
         <v>44126</v>
@@ -47764,7 +48438,7 @@
         <v>1034</v>
       </c>
       <c r="C42" s="95" t="s">
-        <v>1048</v>
+        <v>1036</v>
       </c>
       <c r="D42" s="96">
         <v>44127</v>
@@ -47786,13 +48460,13 @@
         <v>34</v>
       </c>
       <c r="B43" s="57" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="L43" s="91" t="s">
+        <v>1072</v>
+      </c>
+      <c r="M43" s="92" t="s">
         <v>1073</v>
-      </c>
-      <c r="M43" s="92" t="s">
-        <v>1074</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="29" x14ac:dyDescent="0.35">
@@ -47800,10 +48474,10 @@
         <v>35</v>
       </c>
       <c r="B44" s="93" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="L44" s="91" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="M44" s="49"/>
     </row>
@@ -47812,7 +48486,16 @@
         <v>36</v>
       </c>
       <c r="B45" s="110" t="s">
-        <v>1208</v>
+        <v>1207</v>
+      </c>
+      <c r="C45" s="47" t="s">
+        <v>104</v>
+      </c>
+      <c r="D45" s="50">
+        <v>44147</v>
+      </c>
+      <c r="E45" s="47" t="s">
+        <v>1411</v>
       </c>
       <c r="L45" s="49"/>
       <c r="M45" s="49"/>
@@ -47822,14 +48505,14 @@
         <v>37</v>
       </c>
       <c r="B46" s="48" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="L46" s="49"/>
       <c r="M46" s="49"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B47" s="48" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="L47" s="49"/>
       <c r="M47" s="49"/>

--- a/Monitoreo DI.xlsx
+++ b/Monitoreo DI.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\DI Monitoreo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karen\Dropbox\DI Monitoreo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F6F67C2-A0C2-48DD-9490-8AB3800EF07B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15AE019C-8C44-4138-8229-4CA189F9E824}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="833" firstSheet="2" activeTab="8" xr2:uid="{F0BF9B96-FFF4-4E12-841F-9553B6E1990E}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="833" activeTab="2" xr2:uid="{F0BF9B96-FFF4-4E12-841F-9553B6E1990E}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA`S" sheetId="1" r:id="rId1"/>
@@ -112,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5759" uniqueCount="1450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5959" uniqueCount="1492">
   <si>
     <t>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/DATASALUD.svg</t>
   </si>
@@ -4115,15 +4115,6 @@
   </si>
   <si>
     <t>Índice de Calidad de Vida Urbana - Detalle 2017</t>
-  </si>
-  <si>
-    <t>Esta herramienta permite conocer el desglose por ámbito del Índice de Calidad de Vida Urbana para el año 2017, incluyendo los siguientes aspectos: condiciones laborales, ambiente de negocios, condiciones socio-culturales, conectividad y movilidad, salud y medio ambiente, vivienda y entorno.</t>
-  </si>
-  <si>
-    <t>Esta herramienta permite conocer el desglose por ámbito del Índice de Calidad de Vida Urbana para el año 2018, incluyendo los siguientes aspectos: condiciones laborales, ambiente de negocios, condiciones socio-culturales, conectividad y movilidad, salud y medio ambiente, vivienda y entorno.</t>
-  </si>
-  <si>
-    <t>Esta herramienta permite conocer el desglose por ámbito del Índice de Calidad de Vida Urbana para el año 2019, incluyendo los siguientes aspectos: condiciones laborales, ambiente de negocios, condiciones socio-culturales, conectividad y movilidad, salud y medio ambiente, vivienda y entorno.</t>
   </si>
   <si>
     <t>Todas las comunas de Chile</t>
@@ -4265,9 +4256,6 @@
   </si>
   <si>
     <t>En Chile se materializan en promedio 588.742 casos policiales vinculados a delitos de alta connotación Social. Esta cifra implica que, en promedio, cada día, se cometen del orden de 1.613 delitos de este tipo, equivalentes a 1,1 delitos por minuto.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monitoreo de  los Instrumentos de Planificación Territorial a nivel nacional, regional y comunal, de acuerdo a su estado, vigencia y fecha de última actualización. Una herramienta clave en perspectiva de la gestión local y el desarrollo de los territorios, ya sea para el sector público o privado. </t>
   </si>
   <si>
     <t>Emisiones de GEI en Chile 1990 - 2016</t>
@@ -5081,6 +5069,348 @@
   </si>
   <si>
     <t>ODECU (vinculado a SERNAC quizás)</t>
+  </si>
+  <si>
+    <t>CAR_Var2_Disponible</t>
+  </si>
+  <si>
+    <t>CAR_Var3_Disponible</t>
+  </si>
+  <si>
+    <t>Todas las regiones de Chile</t>
+  </si>
+  <si>
+    <r>
+      <t>Monitoreo de los</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Instrumentos de Planificación Territorial (IPT)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> a nivel nacional, regional y comunal, de acuerdo a su estado, vigencia y fecha de última actualización. Una herramienta clave en perspectiva de la gestión local y el desarrollo de los territorios, ya sea para el sector público o privado. </t>
+    </r>
+  </si>
+  <si>
+    <t>Incluye actualización en caso que ocurran cambios en los IPT.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sin actualización </t>
+  </si>
+  <si>
+    <t xml:space="preserve">#gobierno #ministerios #salud #hacienda #interior #defensa #agricultura #mineria #servicios #bienesnacionales #desarrollosocial #sernameg #vivienda #medioambiente #transporte #deporte #trabajo #relacionesexteriores #obras #publicas #patrimonio </t>
+  </si>
+  <si>
+    <t>Departamental</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Métricas e índices para la gestión municipal </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>es una herramienta fundamental para evaluar el desempeño del municipio. En ella encontrarás un ranking general, a¿pudiendo también acceder a índices temáticos coo Índice de Participación Ciudadana (IPC), Índice de Servicio Públicos (ISP), Índice de Gestión Financiera (IGF), Índice de Información de la Ciudad (IIC), Índice de Gestión Administrativa (IGA) e Índice de Gestión Estratégica (IGE).</t>
+    </r>
+  </si>
+  <si>
+    <t>Todos los departamentos de Guatemala</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Esta herramienta permite conocer el desglose por ámbito del </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Índice de Calidad de Vida Urbana para el año 2018</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, incluyendo los siguientes aspectos: condiciones laborales, ambiente de negocios, condiciones socio-culturales, conectividad y movilidad, salud y medio ambiente, vivienda y entorno.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Esta herramienta permite conocer el desglose por ámbito del </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Índice de Calidad de Vida Urbana para el año 2019</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, incluyendo los siguientes aspectos: condiciones laborales, ambiente de negocios, condiciones socio-culturales, conectividad y movilidad, salud y medio ambiente, vivienda y entorno.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">La plataforma </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Avance del COVID-19</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> te permitirá hacer un monitoreo constante de la evolución del COVID-19 en el país, identificando contagiados, casos activos, recuperados y fallecidos, a nivel nacional y por distritos. Incluye estadísticas de pruebas realizadas y hospitalizados. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">La plataforma </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Avance del COVID-19</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> te permitirá hacer un monitoreo constante de la evolución del COVID-19 en el país, identificando casos confirmados, recuperados y fallecidos, a nivel nacional, departamental y municipal. Incluye estadísticas de pruebas realizadas y hospitalizados. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Esta herramienta permite conocer el desglose por ámbito del </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Índice de Calidad de Vida Urbana para el año 2017</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, incluyendo los siguientes aspectos: condiciones laborales, ambiente de negocios, condiciones socio-culturales, conectividad y movilidad, salud y medio ambiente, vivienda y entorno.</t>
+    </r>
+  </si>
+  <si>
+    <t>Evolucion de Delitos de Mayor Connotación Social (2008-2020) te permitirá visualizar en una sola plataforma la frecuencia trimestral de estos delitos por tipo, a nivel nacional y regional.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">La plataforma </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Avance del COVID-19</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> te permitirá hacer un monitoreo constante de la evolución del COVID-19 en el país, identificando contagiacos, fallecidos, recuperados y activos, a nivel nacional y regional. Incluye estadísticas de exámenes PCR realizados, hospitalizados, así como camas y ventiladores disponibles.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">La plataforma </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Avance del COVID-19</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> te permitirá hacer un monitoreo constante de la evolución del COVID-19 en el país, identificando casos confirmados, fallecidos, recuperados y activos, a nivel nacional y departamental. Incluye estadísticas de pruebas realizadas y hospitalizados. </t>
+    </r>
+  </si>
+  <si>
+    <t>Ministerio de Salud Publica y Asistencia Social</t>
+  </si>
+  <si>
+    <t>Ministerio de Salud</t>
+  </si>
+  <si>
+    <t>Secretaría de la Salud</t>
+  </si>
+  <si>
+    <t>Mapas, tableros y charts interactivos, glosario.</t>
+  </si>
+  <si>
+    <t>https://dataintelligence.azurewebsites.net/Datacovidgt/</t>
+  </si>
+  <si>
+    <t>https://dataintelligence.azurewebsites.net/Datacovidcl/</t>
+  </si>
+  <si>
+    <t>https://dataintelligence.azurewebsites.net/Datacovidhn/</t>
+  </si>
+  <si>
+    <t>https://dataintelligence.azurewebsites.net/Datacovidpa/</t>
+  </si>
+  <si>
+    <t>DATAIMPACTO</t>
+  </si>
+  <si>
+    <t>Impactos de ETA</t>
+  </si>
+  <si>
+    <t>Tormentas Activas</t>
+  </si>
+  <si>
+    <t>IOTA-Escenario 1</t>
+  </si>
+  <si>
+    <t>IOTA-Escenario 2</t>
+  </si>
+  <si>
+    <t>Trayectorias</t>
+  </si>
+  <si>
+    <t>00089</t>
+  </si>
+  <si>
+    <t>00090</t>
+  </si>
+  <si>
+    <t>00091</t>
+  </si>
+  <si>
+    <t>00092</t>
+  </si>
+  <si>
+    <t>00093</t>
+  </si>
+  <si>
+    <t>Impactos de Eta</t>
+  </si>
+  <si>
+    <t>Iota - Escenario 1</t>
+  </si>
+  <si>
+    <t>Iota - Escenario 2</t>
+  </si>
+  <si>
+    <t>https://app.powerbi.com/view?r=eyJrIjoiYjgzMDc4YWQtMGI0ZC00MTFmLWJlZTgtNTFiOTM0MGViM2FlIiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9</t>
+  </si>
+  <si>
+    <t>https://sud-austral.maps.arcgis.com/apps/View/index.html?appid=83717bd9a9fe4f8b8eec1213d73efcfc&amp;extent=-97.1832,4.6514,-65.5426,21.0419</t>
+  </si>
+  <si>
+    <t>https://sud-austral.maps.arcgis.com/apps/View/index.html?appid=7a9dbf0dfdaf44cb8062b3c99e56dd17&amp;extent=-98.5840,6.5757,-66.9434,22.8355</t>
+  </si>
+  <si>
+    <t>https://sud-austral.maps.arcgis.com/apps/View/index.html?appid=c18471c50597435f9d8d56ce1406677e&amp;extent=-98.5840,6.5757,-66.9434,22.8355</t>
+  </si>
+  <si>
+    <t>https://sud-austral.maps.arcgis.com/apps/View/index.html?appid=8968a78812d644858916532e46c7dec3&amp;extent=-98.9355,6.4229,-67.2949,22.6936</t>
+  </si>
+  <si>
+    <t>https://sud-austral.maps.arcgis.com/apps/MapSeries/index.html?appid=954d3f78abca4e68a74424d7ca86bdc2</t>
   </si>
 </sst>
 </file>
@@ -5221,7 +5551,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="28">
+  <fills count="29">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5384,6 +5714,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="11">
     <border>
@@ -5503,7 +5839,7 @@
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="168">
+  <cellXfs count="179">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -5964,6 +6300,39 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="3" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
@@ -5972,158 +6341,8 @@
   </cellStyles>
   <dxfs count="181">
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -7737,6 +7956,137 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -7945,6 +8295,29 @@
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -8282,10 +8655,6 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -8843,13 +9212,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>7621</xdr:rowOff>
+      <xdr:rowOff>10796</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>768509</xdr:colOff>
+      <xdr:colOff>771684</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>143511</xdr:rowOff>
+      <xdr:rowOff>140336</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
       <mc:Choice Requires="sle15">
@@ -8921,13 +9290,13 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>858996</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>46991</xdr:rowOff>
+      <xdr:rowOff>50166</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>383381</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>161291</xdr:rowOff>
+      <xdr:rowOff>164466</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
       <mc:Choice Requires="sle15">
@@ -8997,13 +9366,13 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>659606</xdr:colOff>
+      <xdr:colOff>656431</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>67311</xdr:rowOff>
+      <xdr:rowOff>64136</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>2103278</xdr:colOff>
+      <xdr:colOff>2106453</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>152401</xdr:rowOff>
     </xdr:to>
@@ -9075,15 +9444,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>2183288</xdr:colOff>
+      <xdr:colOff>2180113</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>29211</xdr:rowOff>
+      <xdr:rowOff>26036</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>618808</xdr:colOff>
+      <xdr:colOff>621983</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>143511</xdr:rowOff>
+      <xdr:rowOff>140336</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
       <mc:Choice Requires="sle15">
@@ -9246,8 +9615,8 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>7936</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+      <mc:Choice Requires="sle15">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="3" name="Fecha Actualización ">
@@ -9270,7 +9639,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -9324,8 +9693,8 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>174625</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+      <mc:Choice Requires="sle15">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="4" name="Tema">
@@ -9348,7 +9717,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -10114,15 +10483,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>8890</xdr:colOff>
+      <xdr:colOff>12065</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>7621</xdr:rowOff>
+      <xdr:rowOff>10796</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1600200</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>143511</xdr:rowOff>
+      <xdr:rowOff>140336</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
       <mc:Choice Requires="sle15">
@@ -10192,15 +10561,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1667510</xdr:colOff>
+      <xdr:colOff>1664335</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>7621</xdr:rowOff>
+      <xdr:rowOff>10796</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>640080</xdr:colOff>
+      <xdr:colOff>636905</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>121921</xdr:rowOff>
+      <xdr:rowOff>125096</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
       <mc:Choice Requires="sle15">
@@ -10272,13 +10641,13 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>7621</xdr:rowOff>
+      <xdr:rowOff>10796</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>105411</xdr:rowOff>
+      <xdr:rowOff>102236</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
       <mc:Choice Requires="sle15">
@@ -10350,11 +10719,11 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>7621</xdr:rowOff>
+      <xdr:rowOff>10796</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
+      <xdr:colOff>406400</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>114301</xdr:rowOff>
     </xdr:to>
@@ -10426,7 +10795,7 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
+      <xdr:colOff>482600</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
@@ -10434,7 +10803,7 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>421005</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>46990</xdr:rowOff>
+      <xdr:rowOff>50165</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
       <mc:Choice Requires="sle15">
@@ -10510,9 +10879,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>1343660</xdr:colOff>
+      <xdr:colOff>1340485</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:rowOff>103505</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
       <mc:Choice Requires="sle15">
@@ -10582,7 +10951,7 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>1459230</xdr:colOff>
+      <xdr:colOff>1456055</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -10660,15 +11029,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
+      <xdr:colOff>482600</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>85091</xdr:rowOff>
+      <xdr:rowOff>88266</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
+      <xdr:colOff>425450</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>161290</xdr:rowOff>
+      <xdr:rowOff>164465</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
       <mc:Choice Requires="sle15">
@@ -11053,7 +11422,7 @@
 
 <file path=xl/slicers/slicer2.xml><?xml version="1.0" encoding="utf-8"?>
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
-  <slicer name="Data" xr10:uid="{DC5B16C7-0AA8-4789-BE46-CC500A0CE2D1}" cache="SegmentaciónDeDatos_Data" caption="Data" startItem="2" columnCount="2" rowHeight="234950"/>
+  <slicer name="Data" xr10:uid="{DC5B16C7-0AA8-4789-BE46-CC500A0CE2D1}" cache="SegmentaciónDeDatos_Data" caption="Data" startItem="6" columnCount="2" rowHeight="234950"/>
   <slicer name="Estado" xr10:uid="{B5CDA16E-1F84-4290-AEF3-96C65DB4DD5A}" cache="SegmentaciónDeDatos_Estado" caption="Estado" columnCount="2" rowHeight="234950"/>
   <slicer name="Responsable Desarrollo" xr10:uid="{5F85B909-3D60-4494-A859-CB65DDAD43F0}" cache="SegmentaciónDeDatos_Responsable_Desarrollo" caption="Responsable Desarrollo" startItem="3" columnCount="3" rowHeight="234950"/>
   <slicer name="Responsable Información" xr10:uid="{1509BA93-0D1C-489B-BEEE-3640ADE75D86}" cache="SegmentaciónDeDatos_Responsable_Información" caption="Responsable Información" startItem="12" columnCount="4" rowHeight="234950"/>
@@ -11125,11 +11494,11 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{07333795-F402-425E-9AC7-1C17203C211E}" name="BORRADOR_PRODUCTOS" displayName="BORRADOR_PRODUCTOS" ref="B11:P112" totalsRowShown="0" headerRowDxfId="26" tableBorderDxfId="25">
-  <autoFilter ref="B11:P112" xr:uid="{488C7ADA-DF10-4033-BE01-B6478A789716}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{07333795-F402-425E-9AC7-1C17203C211E}" name="BORRADOR_PRODUCTOS" displayName="BORRADOR_PRODUCTOS" ref="B11:P117" totalsRowShown="0" headerRowDxfId="17" tableBorderDxfId="16">
+  <autoFilter ref="B11:P117" xr:uid="{488C7ADA-DF10-4033-BE01-B6478A789716}">
     <filterColumn colId="0">
       <filters>
-        <filter val="DATAMUNICIPIO"/>
+        <filter val="DATASALUD"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -11138,78 +11507,72 @@
     <sortCondition ref="D12:D64"/>
   </sortState>
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{229DCB04-6969-4E62-A149-FB9E3CAE5BF4}" name="Data" dataDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{CD34A55D-D0AD-4B52-8194-AFDE7E5C6050}" name="Producto Previos" dataDxfId="23"/>
-    <tableColumn id="3" xr3:uid="{4029C438-04CA-46F0-B968-E3D862055C27}" name="Secuencia (dentro DATA)" dataDxfId="22"/>
-    <tableColumn id="4" xr3:uid="{9842277F-498F-4399-B9E9-AE2739193ABA}" name="País" dataDxfId="21"/>
-    <tableColumn id="5" xr3:uid="{ED853D5F-1B7C-4052-B0FE-5337CC52FC4D}" name="Integrado en PRODUCTOS? [SI/NO]" dataDxfId="20"/>
-    <tableColumn id="15" xr3:uid="{8D63376D-2407-4CF9-A0F9-4552C9649833}" name="id_producto" dataDxfId="19"/>
-    <tableColumn id="6" xr3:uid="{14D31B75-8E88-42FB-BB27-6BB36C1418D0}" name="Prioridad [1-9]" dataDxfId="18"/>
-    <tableColumn id="7" xr3:uid="{679658E8-A980-4528-82C7-F19E24336030}" name="Estado" dataDxfId="17"/>
-    <tableColumn id="8" xr3:uid="{2EF6A42B-DFA0-4FE7-A1E1-2E79F580EB12}" name="Avance [0-100%]" dataDxfId="16" dataCellStyle="Porcentaje"/>
-    <tableColumn id="9" xr3:uid="{40541782-CDD5-4622-B1C1-C97D63A0C9AA}" name="Responsable Desarrollo" dataDxfId="15"/>
-    <tableColumn id="10" xr3:uid="{3B543DE3-BF65-4BD9-9932-28271C56E4C6}" name="Responsable Información" dataDxfId="14"/>
-    <tableColumn id="11" xr3:uid="{DAB3B04F-F977-4413-A23F-4094B552D30E}" name="Tareas/Elementos / Observaciones" dataDxfId="13"/>
-    <tableColumn id="12" xr3:uid="{78859102-313B-47F6-BED8-F613D7B8587E}" name="Tecnología" dataDxfId="12"/>
-    <tableColumn id="13" xr3:uid="{BBACA7B7-AF7E-4714-A44E-1572587CA1A4}" name="Fecha estimada" dataDxfId="11"/>
-    <tableColumn id="14" xr3:uid="{3D3E6850-E86A-4D4E-99C6-7FEB6D12B271}" name="Fecha Actualización [de esta info]" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{229DCB04-6969-4E62-A149-FB9E3CAE5BF4}" name="Data" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{CD34A55D-D0AD-4B52-8194-AFDE7E5C6050}" name="Producto Previos" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{4029C438-04CA-46F0-B968-E3D862055C27}" name="Secuencia (dentro DATA)" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{9842277F-498F-4399-B9E9-AE2739193ABA}" name="País" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{ED853D5F-1B7C-4052-B0FE-5337CC52FC4D}" name="Integrado en PRODUCTOS? [SI/NO]" dataDxfId="11"/>
+    <tableColumn id="15" xr3:uid="{8D63376D-2407-4CF9-A0F9-4552C9649833}" name="id_producto" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{14D31B75-8E88-42FB-BB27-6BB36C1418D0}" name="Prioridad [1-9]" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{679658E8-A980-4528-82C7-F19E24336030}" name="Estado" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{2EF6A42B-DFA0-4FE7-A1E1-2E79F580EB12}" name="Avance [0-100%]" dataDxfId="7" dataCellStyle="Porcentaje"/>
+    <tableColumn id="9" xr3:uid="{40541782-CDD5-4622-B1C1-C97D63A0C9AA}" name="Responsable Desarrollo" dataDxfId="6"/>
+    <tableColumn id="10" xr3:uid="{3B543DE3-BF65-4BD9-9932-28271C56E4C6}" name="Responsable Información" dataDxfId="5"/>
+    <tableColumn id="11" xr3:uid="{DAB3B04F-F977-4413-A23F-4094B552D30E}" name="Tareas/Elementos / Observaciones" dataDxfId="4"/>
+    <tableColumn id="12" xr3:uid="{78859102-313B-47F6-BED8-F613D7B8587E}" name="Tecnología" dataDxfId="3"/>
+    <tableColumn id="13" xr3:uid="{BBACA7B7-AF7E-4714-A44E-1572587CA1A4}" name="Fecha estimada" dataDxfId="2"/>
+    <tableColumn id="14" xr3:uid="{3D3E6850-E86A-4D4E-99C6-7FEB6D12B271}" name="Fecha Actualización [de esta info]" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B0304927-521B-4559-963B-3C591C746F11}" name="PRODUCTOS" displayName="PRODUCTOS" ref="A7:BB95" totalsRowShown="0" headerRowDxfId="167">
-  <autoFilter ref="A7:BB95" xr:uid="{B45D9B6D-7E6E-4374-A7A8-688EAA2C002B}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="DATACLIMÁTICO"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <tableColumns count="54">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B0304927-521B-4559-963B-3C591C746F11}" name="PRODUCTOS" displayName="PRODUCTOS" ref="A7:BD100" totalsRowShown="0" headerRowDxfId="167">
+  <autoFilter ref="A7:BD100" xr:uid="{B45D9B6D-7E6E-4374-A7A8-688EAA2C002B}"/>
+  <tableColumns count="56">
     <tableColumn id="1" xr3:uid="{01CFB9DB-FBAD-4A9E-9D8F-5FB3EB42A9EB}" name="id_data" dataDxfId="166" totalsRowDxfId="165">
       <calculatedColumnFormula>+VLOOKUP(D8,'DATA`S'!$B$8:$C$33,2,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="31" xr3:uid="{296D6B07-CE01-4CBF-8413-B4A08E3AF372}" name="id_pais" dataDxfId="164" totalsRowDxfId="163">
-      <calculatedColumnFormula>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$11,2,0)</calculatedColumnFormula>
+    <tableColumn id="31" xr3:uid="{296D6B07-CE01-4CBF-8413-B4A08E3AF372}" name="id_pais" dataDxfId="0" totalsRowDxfId="164">
+      <calculatedColumnFormula>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$12,2,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{07061539-DFF5-4A11-BADD-2A240074A56A}" name="Corr_Producto" dataDxfId="162" totalsRowDxfId="161"/>
-    <tableColumn id="3" xr3:uid="{56D80777-3871-4DBF-8856-DFDA54440D55}" name="Data" dataDxfId="160" totalsRowDxfId="159"/>
-    <tableColumn id="27" xr3:uid="{0BD20D97-CBB4-4212-9EB7-3F3B3FA483E6}" name="País" dataDxfId="158" totalsRowDxfId="157"/>
-    <tableColumn id="4" xr3:uid="{73D49374-8912-4C27-A2AF-E0476A8E9AEE}" name="id_producto" dataDxfId="156">
+    <tableColumn id="2" xr3:uid="{07061539-DFF5-4A11-BADD-2A240074A56A}" name="Corr_Producto" dataDxfId="163" totalsRowDxfId="162"/>
+    <tableColumn id="3" xr3:uid="{56D80777-3871-4DBF-8856-DFDA54440D55}" name="Data" dataDxfId="161" totalsRowDxfId="160"/>
+    <tableColumn id="27" xr3:uid="{0BD20D97-CBB4-4212-9EB7-3F3B3FA483E6}" name="País" dataDxfId="159" totalsRowDxfId="158"/>
+    <tableColumn id="4" xr3:uid="{73D49374-8912-4C27-A2AF-E0476A8E9AEE}" name="id_producto" dataDxfId="157">
       <calculatedColumnFormula>A8&amp;"-"&amp;B8&amp;"-"&amp;C8</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{71534AA1-DF8C-466C-AAA8-87DA9F119341}" name="Producto asociado " dataDxfId="155" totalsRowDxfId="154"/>
-    <tableColumn id="26" xr3:uid="{8B686EE2-348B-48C2-990B-424A8FB284BC}" name="Nombre comercial" dataDxfId="153" totalsRowDxfId="152"/>
-    <tableColumn id="6" xr3:uid="{75779DBD-8A91-4D7A-8A36-000CEDC599B6}" name="Estado" dataDxfId="151" totalsRowDxfId="150"/>
-    <tableColumn id="25" xr3:uid="{E03A0489-5A50-4DA9-A8DF-999E6DC669EA}" name="Avance" dataDxfId="149" totalsRowDxfId="148" dataCellStyle="Porcentaje" totalsRowCellStyle="Porcentaje">
-      <calculatedColumnFormula>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$J$112,4,0)</calculatedColumnFormula>
+    <tableColumn id="5" xr3:uid="{71534AA1-DF8C-466C-AAA8-87DA9F119341}" name="Producto asociado " dataDxfId="156" totalsRowDxfId="155"/>
+    <tableColumn id="26" xr3:uid="{8B686EE2-348B-48C2-990B-424A8FB284BC}" name="Nombre comercial" dataDxfId="154" totalsRowDxfId="153"/>
+    <tableColumn id="6" xr3:uid="{75779DBD-8A91-4D7A-8A36-000CEDC599B6}" name="Estado" dataDxfId="152" totalsRowDxfId="151"/>
+    <tableColumn id="25" xr3:uid="{E03A0489-5A50-4DA9-A8DF-999E6DC669EA}" name="Avance" dataDxfId="150" totalsRowDxfId="149" dataCellStyle="Porcentaje" totalsRowCellStyle="Porcentaje">
+      <calculatedColumnFormula>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$J$117,4,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{2699BB10-9D24-4629-8F45-4A2526A4D39A}" name="Responsable Desarrollo" dataDxfId="147" totalsRowDxfId="146"/>
-    <tableColumn id="8" xr3:uid="{69F4BEA1-A9B4-4421-A0EE-47BCAF12AAB2}" name="Responsable Información" dataDxfId="145" totalsRowDxfId="144"/>
-    <tableColumn id="10" xr3:uid="{03C8A422-EE9B-494A-A440-9110009A358E}" name="Tecnología" dataDxfId="143" totalsRowDxfId="142">
-      <calculatedColumnFormula>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$N$112,8,0)</calculatedColumnFormula>
+    <tableColumn id="7" xr3:uid="{2699BB10-9D24-4629-8F45-4A2526A4D39A}" name="Responsable Desarrollo" dataDxfId="148" totalsRowDxfId="147"/>
+    <tableColumn id="8" xr3:uid="{69F4BEA1-A9B4-4421-A0EE-47BCAF12AAB2}" name="Responsable Información" dataDxfId="146" totalsRowDxfId="145"/>
+    <tableColumn id="10" xr3:uid="{03C8A422-EE9B-494A-A440-9110009A358E}" name="Tecnología" dataDxfId="144" totalsRowDxfId="143">
+      <calculatedColumnFormula>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$N$117,8,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{1A081205-19B8-4238-8F9E-1836061C2D4F}" name="Host " dataDxfId="141" totalsRowDxfId="140"/>
-    <tableColumn id="12" xr3:uid="{6BCD6CB8-BA53-40A7-9F90-7EBA78E345DA}" name="Link Odoo" dataDxfId="139" totalsRowDxfId="138"/>
-    <tableColumn id="13" xr3:uid="{502BD7B7-DD01-471A-8E5E-C527F983E20E}" name="Fecha Publicación" dataDxfId="137" totalsRowDxfId="136"/>
-    <tableColumn id="15" xr3:uid="{00014923-35F8-4A24-9B8B-A626BE90EC3E}" name="Escala " dataDxfId="135" totalsRowDxfId="134"/>
-    <tableColumn id="16" xr3:uid="{D32995C9-2CA4-4BD7-A181-0CE6434624DC}" name="Periodo" dataDxfId="133" totalsRowDxfId="132"/>
-    <tableColumn id="17" xr3:uid="{5F683DA7-34DC-43D1-A154-FB5C17AB82E4}" name="Actualizaciones" dataDxfId="131" totalsRowDxfId="130"/>
-    <tableColumn id="18" xr3:uid="{D0F7DA38-1DAE-48DF-8725-440804E511ED}" name="Tipo Producto" dataDxfId="129" totalsRowDxfId="128"/>
-    <tableColumn id="19" xr3:uid="{6345440E-6C11-4DE3-9F30-57AA749130A3}" name="Fuentes " dataDxfId="127" totalsRowDxfId="126"/>
-    <tableColumn id="20" xr3:uid="{06F6F5BE-A8B5-450A-B890-E5272AC160CB}" name="Ref principal " dataDxfId="125" totalsRowDxfId="124"/>
-    <tableColumn id="21" xr3:uid="{F22EE5BC-B966-49EB-A843-F1384A77D7A0}" name="Competencia o material vinculado " dataDxfId="123" totalsRowDxfId="122"/>
+    <tableColumn id="11" xr3:uid="{1A081205-19B8-4238-8F9E-1836061C2D4F}" name="Host " dataDxfId="142" totalsRowDxfId="141"/>
+    <tableColumn id="12" xr3:uid="{6BCD6CB8-BA53-40A7-9F90-7EBA78E345DA}" name="Link Odoo" dataDxfId="140" totalsRowDxfId="139"/>
+    <tableColumn id="13" xr3:uid="{502BD7B7-DD01-471A-8E5E-C527F983E20E}" name="Fecha Publicación" dataDxfId="138" totalsRowDxfId="137"/>
+    <tableColumn id="15" xr3:uid="{00014923-35F8-4A24-9B8B-A626BE90EC3E}" name="Escala " dataDxfId="136" totalsRowDxfId="135"/>
+    <tableColumn id="16" xr3:uid="{D32995C9-2CA4-4BD7-A181-0CE6434624DC}" name="Periodo" dataDxfId="134" totalsRowDxfId="133"/>
+    <tableColumn id="17" xr3:uid="{5F683DA7-34DC-43D1-A154-FB5C17AB82E4}" name="Actualizaciones" dataDxfId="132" totalsRowDxfId="131"/>
+    <tableColumn id="18" xr3:uid="{D0F7DA38-1DAE-48DF-8725-440804E511ED}" name="Tipo Producto" dataDxfId="130" totalsRowDxfId="129"/>
+    <tableColumn id="19" xr3:uid="{6345440E-6C11-4DE3-9F30-57AA749130A3}" name="Fuentes " dataDxfId="128" totalsRowDxfId="127"/>
+    <tableColumn id="20" xr3:uid="{06F6F5BE-A8B5-450A-B890-E5272AC160CB}" name="Ref principal " dataDxfId="126" totalsRowDxfId="125"/>
+    <tableColumn id="21" xr3:uid="{F22EE5BC-B966-49EB-A843-F1384A77D7A0}" name="Competencia o material vinculado " dataDxfId="124" totalsRowDxfId="123"/>
     <tableColumn id="22" xr3:uid="{E445C8DD-86CC-41A9-9E49-D3492783FCB1}" name="Vistas"/>
     <tableColumn id="23" xr3:uid="{DBAFBD3B-B406-46F5-B2E9-B69F6F70645B}" name="Repositorio Dropbox"/>
     <tableColumn id="24" xr3:uid="{629986D1-249B-44FE-82F1-FCA6183BF20E}" name="Link Logo"/>
-    <tableColumn id="28" xr3:uid="{4F7861D7-1E20-4E49-BAAB-9731305CDBE5}" name="Observaciones" dataDxfId="121" totalsRowDxfId="120"/>
-    <tableColumn id="29" xr3:uid="{B82AF5FC-FE01-4F10-8B3A-A6B205199D0A}" name="Miniatura" dataDxfId="119" totalsRowDxfId="118"/>
+    <tableColumn id="28" xr3:uid="{4F7861D7-1E20-4E49-BAAB-9731305CDBE5}" name="Observaciones" dataDxfId="122" totalsRowDxfId="121"/>
+    <tableColumn id="29" xr3:uid="{B82AF5FC-FE01-4F10-8B3A-A6B205199D0A}" name="Miniatura" dataDxfId="120" totalsRowDxfId="119"/>
     <tableColumn id="37" xr3:uid="{447BFD0A-721F-47C8-9615-3D9B196F979F}" name="PORTADA SHOPIFY"/>
     <tableColumn id="38" xr3:uid="{95D4D5AF-6660-4044-A5A8-E516ADA5D063}" name="Párrafo enganche"/>
     <tableColumn id="39" xr3:uid="{2963E916-25CA-4C30-A173-915A5CD940D3}" name="Variante_1"/>
-    <tableColumn id="40" xr3:uid="{50FEFE18-B7AA-4094-B4D1-D7296380363B}" name="Precio_1 (USD)" dataDxfId="117"/>
+    <tableColumn id="40" xr3:uid="{50FEFE18-B7AA-4094-B4D1-D7296380363B}" name="Precio_1 (USD)" dataDxfId="118"/>
     <tableColumn id="41" xr3:uid="{9CECDB40-D2E7-44AF-BA17-FB2CD006F0D3}" name="Variante_2"/>
     <tableColumn id="42" xr3:uid="{449802E5-0F23-40E3-AC14-547C4516D33C}" name="Precio_2 (USD)"/>
     <tableColumn id="43" xr3:uid="{A11B456F-7DEA-431F-9CA5-03E3B83EB3CF}" name="Variante_3"/>
@@ -11220,12 +11583,14 @@
     <tableColumn id="30" xr3:uid="{3C2CC3B0-4545-4E5C-B8E5-AAD05CDD3A41}" name="Descripción (Indicar qué permite ver o hacer el producto) 2"/>
     <tableColumn id="32" xr3:uid="{2F0B4ACB-2081-4369-9020-F04ABE62B6AD}" name="CAR_Tipo_Prod"/>
     <tableColumn id="33" xr3:uid="{8277A5C4-DDE4-4268-B9A2-D39560C50C97}" name="CAR_Var1_Disponible"/>
+    <tableColumn id="14" xr3:uid="{8D937ABF-3B4D-40B9-8BBE-860FDDE831DB}" name="CAR_Var2_Disponible"/>
+    <tableColumn id="9" xr3:uid="{A912298A-2AE3-4676-B089-13388A70E0CC}" name="CAR_Var3_Disponible"/>
     <tableColumn id="34" xr3:uid="{2EAEC5EE-D01B-4781-A499-32811E9E50DF}" name="CAR_Periodo"/>
     <tableColumn id="35" xr3:uid="{89972549-6CAE-40EF-8DDE-4E5FB11CDCFB}" name="CAR_Proveedor"/>
-    <tableColumn id="36" xr3:uid="{94687206-A22A-469D-92B1-A6635B8A1CB3}" name="CAR_Colección" dataDxfId="116">
+    <tableColumn id="36" xr3:uid="{94687206-A22A-469D-92B1-A6635B8A1CB3}" name="CAR_Colección" dataDxfId="117">
       <calculatedColumnFormula>PRODUCTOS[[#This Row],[Data]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="48" xr3:uid="{431A4A68-8223-41E1-99C1-4F515A267188}" name="ESP_Tecnología" dataDxfId="115">
+    <tableColumn id="48" xr3:uid="{431A4A68-8223-41E1-99C1-4F515A267188}" name="ESP_Tecnología" dataDxfId="116">
       <calculatedColumnFormula>PRODUCTOS[[#This Row],[Tecnología]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="49" xr3:uid="{A570E531-D39D-48A2-BCC8-8E0BA5937958}" name="ESP_Incluye"/>
@@ -11248,7 +11613,7 @@
     <tableColumn id="1" xr3:uid="{69819873-BFDD-4D0F-83ED-7D2504DFDA31}" name="Data"/>
     <tableColumn id="2" xr3:uid="{70760145-B5A6-4F27-A738-A1EBE3D8A954}" name="Producto"/>
     <tableColumn id="3" xr3:uid="{585C0D49-B625-41C4-8893-45B93A4BE8CC}" name="Sección"/>
-    <tableColumn id="4" xr3:uid="{10EF7F87-DEF0-4028-9C31-E3E45FB50589}" name="Tema" dataDxfId="114"/>
+    <tableColumn id="4" xr3:uid="{10EF7F87-DEF0-4028-9C31-E3E45FB50589}" name="Tema" dataDxfId="115"/>
     <tableColumn id="5" xr3:uid="{28D3851F-C206-422F-98B1-973F48082A17}" name="Verificador"/>
     <tableColumn id="6" xr3:uid="{71EF3903-87DB-422F-904D-B86468D3F2A8}" name="Variables"/>
     <tableColumn id="7" xr3:uid="{09ED368A-F77F-44FE-80CB-14C859399091}" name="ID_VAR"/>
@@ -11272,156 +11637,156 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{2A3DFF5F-BB66-464A-9045-49B0328E9E76}" name="Tabla10" displayName="Tabla10" ref="B7:I208" totalsRowShown="0" headerRowDxfId="113" dataDxfId="112">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{2A3DFF5F-BB66-464A-9045-49B0328E9E76}" name="Tabla10" displayName="Tabla10" ref="B7:I208" totalsRowShown="0" headerRowDxfId="114" dataDxfId="113">
   <autoFilter ref="B7:I208" xr:uid="{54E86758-179E-494E-9D22-024745EA2489}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{AE352613-BE77-4F50-A26C-CDFA69B4E703}" name="Data" dataDxfId="111"/>
-    <tableColumn id="2" xr3:uid="{FB99AEF8-BF89-4789-90CC-B8C3024883BE}" name="Estado" dataDxfId="110"/>
-    <tableColumn id="3" xr3:uid="{B15F5D46-093A-497F-970F-4E17CA63A563}" name="Fecha Actualización " dataDxfId="109"/>
-    <tableColumn id="4" xr3:uid="{7EA45E0E-7020-43C1-AD03-9A178CD7430B}" name="Responsable" dataDxfId="9"/>
-    <tableColumn id="8" xr3:uid="{CD6D1E9C-AD67-41FD-BB45-272D5CED1007}" name="Tema" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{2AC1CC8A-E5DB-4A3A-BEE8-6538DDAA69E7}" name="Observación " dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{C98B1913-4D31-48AA-9995-A47CE0EA1C1E}" name="Acción" dataDxfId="108"/>
-    <tableColumn id="7" xr3:uid="{FE3D67C6-9FBF-4881-B186-7BE50BE75AE3}" name="Monitoreo" dataDxfId="107"/>
+    <tableColumn id="1" xr3:uid="{AE352613-BE77-4F50-A26C-CDFA69B4E703}" name="Data" dataDxfId="112"/>
+    <tableColumn id="2" xr3:uid="{FB99AEF8-BF89-4789-90CC-B8C3024883BE}" name="Estado" dataDxfId="111"/>
+    <tableColumn id="3" xr3:uid="{B15F5D46-093A-497F-970F-4E17CA63A563}" name="Fecha Actualización " dataDxfId="110"/>
+    <tableColumn id="4" xr3:uid="{7EA45E0E-7020-43C1-AD03-9A178CD7430B}" name="Responsable" dataDxfId="109"/>
+    <tableColumn id="8" xr3:uid="{CD6D1E9C-AD67-41FD-BB45-272D5CED1007}" name="Tema" dataDxfId="108"/>
+    <tableColumn id="5" xr3:uid="{2AC1CC8A-E5DB-4A3A-BEE8-6538DDAA69E7}" name="Observación " dataDxfId="107"/>
+    <tableColumn id="6" xr3:uid="{C98B1913-4D31-48AA-9995-A47CE0EA1C1E}" name="Acción" dataDxfId="106"/>
+    <tableColumn id="7" xr3:uid="{FE3D67C6-9FBF-4881-B186-7BE50BE75AE3}" name="Monitoreo" dataDxfId="105"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{F79A991F-1A6F-4232-A4CD-E26026F59FD2}" name="Tabla1" displayName="Tabla1" ref="A9:M51" totalsRowShown="0" headerRowDxfId="106" dataDxfId="105">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{F79A991F-1A6F-4232-A4CD-E26026F59FD2}" name="Tabla1" displayName="Tabla1" ref="A9:M51" totalsRowShown="0" headerRowDxfId="104" dataDxfId="103">
   <autoFilter ref="A9:M51" xr:uid="{2573F5B0-EE83-49B6-AF2E-FA541AB2D0A7}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{01DC2308-9C99-4EEE-82DB-DC6B48F1F8E3}" name="N°" dataDxfId="104"/>
-    <tableColumn id="2" xr3:uid="{F3B4997E-B2A4-4EB5-AF03-1C32EC201E29}" name="Tema Investigación " dataDxfId="103"/>
-    <tableColumn id="3" xr3:uid="{2ED8CCEC-CAF8-463E-AB90-B3689E282F52}" name="Responsables " dataDxfId="102"/>
-    <tableColumn id="5" xr3:uid="{A45DAC7C-0BE8-484E-8902-C84794C6E4E6}" name="Fecha inicio" dataDxfId="101"/>
+    <tableColumn id="1" xr3:uid="{01DC2308-9C99-4EEE-82DB-DC6B48F1F8E3}" name="N°" dataDxfId="102"/>
+    <tableColumn id="2" xr3:uid="{F3B4997E-B2A4-4EB5-AF03-1C32EC201E29}" name="Tema Investigación " dataDxfId="101"/>
+    <tableColumn id="3" xr3:uid="{2ED8CCEC-CAF8-463E-AB90-B3689E282F52}" name="Responsables " dataDxfId="100"/>
+    <tableColumn id="5" xr3:uid="{A45DAC7C-0BE8-484E-8902-C84794C6E4E6}" name="Fecha inicio" dataDxfId="99"/>
     <tableColumn id="4" xr3:uid="{1DFD24D3-150A-4A18-8D2B-471C5E615C4A}" name="Estado"/>
-    <tableColumn id="7" xr3:uid="{A5E888F3-954C-4454-ABBF-0CB322AC2892}" name="Fecha Termino" dataDxfId="100"/>
-    <tableColumn id="8" xr3:uid="{DC2FD273-C50C-4DC5-BCAE-F4707F0CC4FD}" name="Chile" dataDxfId="99"/>
-    <tableColumn id="9" xr3:uid="{DC0F9138-A833-4513-8446-6D9A0BE8DC03}" name="Panamá " dataDxfId="98"/>
-    <tableColumn id="10" xr3:uid="{1C354151-0542-4839-A312-82A4762672B3}" name="Guatemala" dataDxfId="97"/>
-    <tableColumn id="11" xr3:uid="{B44F5A38-555A-4E07-BD14-45F877391CC6}" name="Honduras" dataDxfId="96"/>
-    <tableColumn id="12" xr3:uid="{E43EB3EC-0D6D-42B8-A156-EA2EF365B7B3}" name="El Salvador" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{9ED27B35-B472-416C-B394-C3447A132041}" name="Link 1" dataDxfId="4"/>
-    <tableColumn id="13" xr3:uid="{0813E4B9-E868-4B0E-A181-67DEE49699BC}" name="Link 2" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{A5E888F3-954C-4454-ABBF-0CB322AC2892}" name="Fecha Termino" dataDxfId="98"/>
+    <tableColumn id="8" xr3:uid="{DC2FD273-C50C-4DC5-BCAE-F4707F0CC4FD}" name="Chile" dataDxfId="97"/>
+    <tableColumn id="9" xr3:uid="{DC0F9138-A833-4513-8446-6D9A0BE8DC03}" name="Panamá " dataDxfId="96"/>
+    <tableColumn id="10" xr3:uid="{1C354151-0542-4839-A312-82A4762672B3}" name="Guatemala" dataDxfId="95"/>
+    <tableColumn id="11" xr3:uid="{B44F5A38-555A-4E07-BD14-45F877391CC6}" name="Honduras" dataDxfId="94"/>
+    <tableColumn id="12" xr3:uid="{E43EB3EC-0D6D-42B8-A156-EA2EF365B7B3}" name="El Salvador" dataDxfId="93"/>
+    <tableColumn id="6" xr3:uid="{9ED27B35-B472-416C-B394-C3447A132041}" name="Link 1" dataDxfId="92"/>
+    <tableColumn id="13" xr3:uid="{0813E4B9-E868-4B0E-A181-67DEE49699BC}" name="Link 2" dataDxfId="91"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{E94DB916-DE89-4F64-9EF8-AFB72BA8FF61}" name="Tabla14" displayName="Tabla14" ref="A12:I80" totalsRowShown="0" headerRowDxfId="95" dataDxfId="94">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{E94DB916-DE89-4F64-9EF8-AFB72BA8FF61}" name="Tabla14" displayName="Tabla14" ref="A12:I80" totalsRowShown="0" headerRowDxfId="90" dataDxfId="89">
   <autoFilter ref="A12:I80" xr:uid="{14629A1E-D5D5-412C-8FAB-488411430C85}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{7299EEE0-40CF-4EF5-8F0C-C1FFA863E5B5}" name="N°" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{9E84EC16-0161-44D0-9CB9-123C0428ADAD}" name="Tema/institución Investigación " dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{76853A8B-3945-4590-AB61-F2892D4BDEF9}" name="Responsable" dataDxfId="0"/>
-    <tableColumn id="5" xr3:uid="{F7339DE0-8C86-4469-9258-ED935FDEFA77}" name="Fecha inicio" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{1434B0D6-C669-403A-970D-962B797CA9A9}" name="Fecha avance" dataDxfId="93"/>
-    <tableColumn id="7" xr3:uid="{B968D1D9-84E8-493C-9491-88D890E8453F}" name="Fecha Termino" dataDxfId="92"/>
-    <tableColumn id="8" xr3:uid="{914D3775-FE9D-4F06-9643-2FF0DC094A44}" name="Comentario" dataDxfId="91"/>
-    <tableColumn id="4" xr3:uid="{447DB363-0F58-4053-9903-C5B73E99B8F7}" name="Acción" dataDxfId="90"/>
-    <tableColumn id="9" xr3:uid="{FAD7DF30-EA13-48D4-85BE-33B82685C836}" name="Seguimiento" dataDxfId="89"/>
+    <tableColumn id="1" xr3:uid="{7299EEE0-40CF-4EF5-8F0C-C1FFA863E5B5}" name="N°" dataDxfId="88"/>
+    <tableColumn id="2" xr3:uid="{9E84EC16-0161-44D0-9CB9-123C0428ADAD}" name="Tema/institución Investigación " dataDxfId="87"/>
+    <tableColumn id="3" xr3:uid="{76853A8B-3945-4590-AB61-F2892D4BDEF9}" name="Responsable" dataDxfId="86"/>
+    <tableColumn id="5" xr3:uid="{F7339DE0-8C86-4469-9258-ED935FDEFA77}" name="Fecha inicio" dataDxfId="85"/>
+    <tableColumn id="6" xr3:uid="{1434B0D6-C669-403A-970D-962B797CA9A9}" name="Fecha avance" dataDxfId="84"/>
+    <tableColumn id="7" xr3:uid="{B968D1D9-84E8-493C-9491-88D890E8453F}" name="Fecha Termino" dataDxfId="83"/>
+    <tableColumn id="8" xr3:uid="{914D3775-FE9D-4F06-9643-2FF0DC094A44}" name="Comentario" dataDxfId="82"/>
+    <tableColumn id="4" xr3:uid="{447DB363-0F58-4053-9903-C5B73E99B8F7}" name="Acción" dataDxfId="81"/>
+    <tableColumn id="9" xr3:uid="{FAD7DF30-EA13-48D4-85BE-33B82685C836}" name="Seguimiento" dataDxfId="80"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{065B9CF9-E4C7-46B6-A6AB-AE4727F44BAE}" name="DETALLE_PRODUCTO" displayName="DETALLE_PRODUCTO" ref="B8:L88" totalsRowShown="0" headerRowDxfId="88" dataDxfId="87">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{065B9CF9-E4C7-46B6-A6AB-AE4727F44BAE}" name="DETALLE_PRODUCTO" displayName="DETALLE_PRODUCTO" ref="B8:L88" totalsRowShown="0" headerRowDxfId="79" dataDxfId="78">
   <autoFilter ref="B8:L88" xr:uid="{B19E98DB-D5A2-4B79-98FB-79403A46B576}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{53D02E25-6272-402F-ABD7-44B8E0C71D87}" name="Data" dataDxfId="86"/>
-    <tableColumn id="8" xr3:uid="{EC4D90DB-631D-4228-A704-DD698C8FDA74}" name="id_producto" dataDxfId="85"/>
-    <tableColumn id="2" xr3:uid="{8BB7EEC5-6570-41F8-9A07-5AAEA8522606}" name="Plazo Producto" dataDxfId="84"/>
-    <tableColumn id="3" xr3:uid="{8CB3D480-A20D-43D6-A036-A52F2B756492}" name="Producto" dataDxfId="83"/>
-    <tableColumn id="4" xr3:uid="{A37F897B-BDC4-49DB-9D73-0B585928FBCF}" name="Secciones" dataDxfId="82"/>
-    <tableColumn id="5" xr3:uid="{52913CC1-5A92-42A3-9DE0-3B6AB5FF68D3}" name="Sub-secciones" dataDxfId="81"/>
-    <tableColumn id="6" xr3:uid="{AA418FB7-7169-4105-9A7B-952204D6B07D}" name="Variables" dataDxfId="80"/>
-    <tableColumn id="7" xr3:uid="{9CFF7943-E7AB-407C-A8B2-A61784C0D377}" name="Fuente" dataDxfId="79"/>
-    <tableColumn id="9" xr3:uid="{E0A15B94-D546-4F86-877E-4ECCBE8390C9}" name="Situación Variable" dataDxfId="78"/>
-    <tableColumn id="10" xr3:uid="{766CAFFF-49CC-4F0A-A3FA-AA09276E3B90}" name="Fecha Actualización" dataDxfId="77"/>
-    <tableColumn id="11" xr3:uid="{8FEDBB30-0CE4-44B9-B885-55B24F35F89F}" name="Observaciones" dataDxfId="76"/>
+    <tableColumn id="1" xr3:uid="{53D02E25-6272-402F-ABD7-44B8E0C71D87}" name="Data" dataDxfId="77"/>
+    <tableColumn id="8" xr3:uid="{EC4D90DB-631D-4228-A704-DD698C8FDA74}" name="id_producto" dataDxfId="76"/>
+    <tableColumn id="2" xr3:uid="{8BB7EEC5-6570-41F8-9A07-5AAEA8522606}" name="Plazo Producto" dataDxfId="75"/>
+    <tableColumn id="3" xr3:uid="{8CB3D480-A20D-43D6-A036-A52F2B756492}" name="Producto" dataDxfId="74"/>
+    <tableColumn id="4" xr3:uid="{A37F897B-BDC4-49DB-9D73-0B585928FBCF}" name="Secciones" dataDxfId="73"/>
+    <tableColumn id="5" xr3:uid="{52913CC1-5A92-42A3-9DE0-3B6AB5FF68D3}" name="Sub-secciones" dataDxfId="72"/>
+    <tableColumn id="6" xr3:uid="{AA418FB7-7169-4105-9A7B-952204D6B07D}" name="Variables" dataDxfId="71"/>
+    <tableColumn id="7" xr3:uid="{9CFF7943-E7AB-407C-A8B2-A61784C0D377}" name="Fuente" dataDxfId="70"/>
+    <tableColumn id="9" xr3:uid="{E0A15B94-D546-4F86-877E-4ECCBE8390C9}" name="Situación Variable" dataDxfId="69"/>
+    <tableColumn id="10" xr3:uid="{766CAFFF-49CC-4F0A-A3FA-AA09276E3B90}" name="Fecha Actualización" dataDxfId="68"/>
+    <tableColumn id="11" xr3:uid="{8FEDBB30-0CE4-44B9-B885-55B24F35F89F}" name="Observaciones" dataDxfId="67"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{8903E000-6268-4700-8DED-A61277FDDF6A}" name="SHOPIFY" displayName="SHOPIFY" ref="A7:AX82" totalsRowShown="0" headerRowDxfId="75">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{8903E000-6268-4700-8DED-A61277FDDF6A}" name="SHOPIFY" displayName="SHOPIFY" ref="A7:AX82" totalsRowShown="0" headerRowDxfId="66">
   <autoFilter ref="A7:AX82" xr:uid="{8E7BE500-FD82-4AF8-9786-CF4905281DB3}"/>
   <tableColumns count="50">
-    <tableColumn id="1" xr3:uid="{97B30EC8-C107-4A29-BFE9-64B671A010DD}" name="id_data" dataDxfId="74">
+    <tableColumn id="1" xr3:uid="{97B30EC8-C107-4A29-BFE9-64B671A010DD}" name="id_data" dataDxfId="65">
       <calculatedColumnFormula>PRODUCTOS[[#This Row],[id_data]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{D4210DF6-B71C-4CEA-B273-A001CC99D71D}" name="Corr_Producto" dataDxfId="73"/>
-    <tableColumn id="3" xr3:uid="{3A3C3A45-DC12-420E-B4A9-B6FC4AB09680}" name="Data" dataDxfId="72"/>
-    <tableColumn id="4" xr3:uid="{F589E312-6F04-441B-BD92-57D8AF605B91}" name="id_producto" dataDxfId="71">
+    <tableColumn id="2" xr3:uid="{D4210DF6-B71C-4CEA-B273-A001CC99D71D}" name="Corr_Producto" dataDxfId="64"/>
+    <tableColumn id="3" xr3:uid="{3A3C3A45-DC12-420E-B4A9-B6FC4AB09680}" name="Data" dataDxfId="63"/>
+    <tableColumn id="4" xr3:uid="{F589E312-6F04-441B-BD92-57D8AF605B91}" name="id_producto" dataDxfId="62">
       <calculatedColumnFormula>+A8&amp;"-"&amp;B8</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{8673061C-EC24-4EF4-81F6-F73CCCED37A8}" name="Producto asociado " dataDxfId="70"/>
-    <tableColumn id="32" xr3:uid="{BB6CBD3F-A1DC-4006-8ED6-2EDD0372776F}" name="Nombre comercial" dataDxfId="69">
+    <tableColumn id="5" xr3:uid="{8673061C-EC24-4EF4-81F6-F73CCCED37A8}" name="Producto asociado " dataDxfId="61"/>
+    <tableColumn id="32" xr3:uid="{BB6CBD3F-A1DC-4006-8ED6-2EDD0372776F}" name="Nombre comercial" dataDxfId="60">
       <calculatedColumnFormula>PRODUCTOS[[#This Row],[Nombre comercial]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="47" xr3:uid="{1BF29101-CC46-4386-87BF-FB5000527CC1}" name="Variante" dataDxfId="68">
+    <tableColumn id="47" xr3:uid="{1BF29101-CC46-4386-87BF-FB5000527CC1}" name="Variante" dataDxfId="59">
       <calculatedColumnFormula>#REF!</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="46" xr3:uid="{971E696E-617D-42F5-AD13-6C98573AB151}" name="Corr_variante" dataDxfId="67">
+    <tableColumn id="46" xr3:uid="{971E696E-617D-42F5-AD13-6C98573AB151}" name="Corr_variante" dataDxfId="58">
       <calculatedColumnFormula>#REF!</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{8623108B-5216-4DE8-A078-C2EA5007B662}" name="id_prod_var" dataDxfId="66">
+    <tableColumn id="20" xr3:uid="{8623108B-5216-4DE8-A078-C2EA5007B662}" name="id_prod_var" dataDxfId="57">
       <calculatedColumnFormula>#REF!</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{F158BFCF-29BB-4A21-85DD-EC1A577268A9}" name="Estado" dataDxfId="65"/>
-    <tableColumn id="21" xr3:uid="{F5606F96-2B4C-4028-BAFD-98E68F248BB6}" name="Avance" dataDxfId="64" dataCellStyle="Porcentaje"/>
-    <tableColumn id="7" xr3:uid="{F996455F-A80C-45DE-824E-AA15DC67B89F}" name="Responsable Desarrollo" dataDxfId="63">
+    <tableColumn id="6" xr3:uid="{F158BFCF-29BB-4A21-85DD-EC1A577268A9}" name="Estado" dataDxfId="56"/>
+    <tableColumn id="21" xr3:uid="{F5606F96-2B4C-4028-BAFD-98E68F248BB6}" name="Avance" dataDxfId="55" dataCellStyle="Porcentaje"/>
+    <tableColumn id="7" xr3:uid="{F996455F-A80C-45DE-824E-AA15DC67B89F}" name="Responsable Desarrollo" dataDxfId="54">
       <calculatedColumnFormula>PRODUCTOS[[#This Row],[Responsable Desarrollo]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{8243748E-EFCB-4AEF-AE13-DEB22DE5398A}" name="Responsable Información" dataDxfId="62">
+    <tableColumn id="8" xr3:uid="{8243748E-EFCB-4AEF-AE13-DEB22DE5398A}" name="Responsable Información" dataDxfId="53">
       <calculatedColumnFormula>PRODUCTOS[[#This Row],[Responsable Información]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{1B0EF15B-CCC6-4071-9C39-986D237DCBFD}" name="PORTADA SHOPIFY" dataDxfId="61"/>
-    <tableColumn id="25" xr3:uid="{DE283954-0E54-4788-A6B7-64B3FABE5655}" name="Párrafo enganche" dataDxfId="60"/>
-    <tableColumn id="31" xr3:uid="{69B5166B-7DB7-4B2A-BDDB-51BC1CDC9E13}" name="Variante_1" dataDxfId="59"/>
-    <tableColumn id="30" xr3:uid="{FD2BFBD3-7364-4A40-82AD-5ED8F1EC60C8}" name="Precio_1" dataDxfId="58"/>
-    <tableColumn id="27" xr3:uid="{7BAA5845-FEF8-4AF0-A034-4502EA6425FB}" name="Variante_2" dataDxfId="57"/>
-    <tableColumn id="26" xr3:uid="{055AC0B8-B715-4865-A615-F93F51BDB937}" name="Precio_2" dataDxfId="56"/>
-    <tableColumn id="34" xr3:uid="{E986E95A-C830-4C89-88DC-A69F64460E34}" name="Variante_3" dataDxfId="55"/>
-    <tableColumn id="33" xr3:uid="{15105E85-D580-466D-8DEA-A21111029F6E}" name="Precio_3" dataDxfId="54"/>
-    <tableColumn id="50" xr3:uid="{86C9CDBF-0B44-4420-A48E-6FF93F44FE71}" name="Variable_filtro1" dataDxfId="53"/>
-    <tableColumn id="49" xr3:uid="{29F0FFEC-DA2B-4599-9D83-29AA5C05A4F0}" name="Variable_filtro2" dataDxfId="52"/>
-    <tableColumn id="48" xr3:uid="{4B1206D9-C4A0-496A-A7B2-086AF0122968}" name="Variable_filtro3" dataDxfId="51"/>
-    <tableColumn id="9" xr3:uid="{EE306381-1575-4475-A9CE-5592A93932BB}" name="Descripción (Indicar qué permite ver o hacer el producto) " dataDxfId="50"/>
-    <tableColumn id="35" xr3:uid="{C39FDC20-ABE5-4151-B056-F4B5E12D47DD}" name="CAR_Tipo_Prod" dataDxfId="49"/>
-    <tableColumn id="36" xr3:uid="{C8D4ECC0-DE7A-41BF-A6E9-9964E26F4261}" name="CAR_Var1_Disponible" dataDxfId="48"/>
-    <tableColumn id="39" xr3:uid="{87F44B21-0148-4ECE-9BC5-6D8A4C1030F3}" name="CAR_Periodo" dataDxfId="47"/>
-    <tableColumn id="37" xr3:uid="{DB23C32C-B4CE-4982-8D0A-F32C01C6CF98}" name="CAR_Proveedor" dataDxfId="46"/>
-    <tableColumn id="38" xr3:uid="{887C31F6-B5D9-48A2-AC60-3BBFDA8C2D93}" name="CAR_Colección" dataDxfId="45">
+    <tableColumn id="19" xr3:uid="{1B0EF15B-CCC6-4071-9C39-986D237DCBFD}" name="PORTADA SHOPIFY" dataDxfId="52"/>
+    <tableColumn id="25" xr3:uid="{DE283954-0E54-4788-A6B7-64B3FABE5655}" name="Párrafo enganche" dataDxfId="51"/>
+    <tableColumn id="31" xr3:uid="{69B5166B-7DB7-4B2A-BDDB-51BC1CDC9E13}" name="Variante_1" dataDxfId="50"/>
+    <tableColumn id="30" xr3:uid="{FD2BFBD3-7364-4A40-82AD-5ED8F1EC60C8}" name="Precio_1" dataDxfId="49"/>
+    <tableColumn id="27" xr3:uid="{7BAA5845-FEF8-4AF0-A034-4502EA6425FB}" name="Variante_2" dataDxfId="48"/>
+    <tableColumn id="26" xr3:uid="{055AC0B8-B715-4865-A615-F93F51BDB937}" name="Precio_2" dataDxfId="47"/>
+    <tableColumn id="34" xr3:uid="{E986E95A-C830-4C89-88DC-A69F64460E34}" name="Variante_3" dataDxfId="46"/>
+    <tableColumn id="33" xr3:uid="{15105E85-D580-466D-8DEA-A21111029F6E}" name="Precio_3" dataDxfId="45"/>
+    <tableColumn id="50" xr3:uid="{86C9CDBF-0B44-4420-A48E-6FF93F44FE71}" name="Variable_filtro1" dataDxfId="44"/>
+    <tableColumn id="49" xr3:uid="{29F0FFEC-DA2B-4599-9D83-29AA5C05A4F0}" name="Variable_filtro2" dataDxfId="43"/>
+    <tableColumn id="48" xr3:uid="{4B1206D9-C4A0-496A-A7B2-086AF0122968}" name="Variable_filtro3" dataDxfId="42"/>
+    <tableColumn id="9" xr3:uid="{EE306381-1575-4475-A9CE-5592A93932BB}" name="Descripción (Indicar qué permite ver o hacer el producto) " dataDxfId="41"/>
+    <tableColumn id="35" xr3:uid="{C39FDC20-ABE5-4151-B056-F4B5E12D47DD}" name="CAR_Tipo_Prod" dataDxfId="40"/>
+    <tableColumn id="36" xr3:uid="{C8D4ECC0-DE7A-41BF-A6E9-9964E26F4261}" name="CAR_Var1_Disponible" dataDxfId="39"/>
+    <tableColumn id="39" xr3:uid="{87F44B21-0148-4ECE-9BC5-6D8A4C1030F3}" name="CAR_Periodo" dataDxfId="38"/>
+    <tableColumn id="37" xr3:uid="{DB23C32C-B4CE-4982-8D0A-F32C01C6CF98}" name="CAR_Proveedor" dataDxfId="37"/>
+    <tableColumn id="38" xr3:uid="{887C31F6-B5D9-48A2-AC60-3BBFDA8C2D93}" name="CAR_Colección" dataDxfId="36">
       <calculatedColumnFormula>SHOPIFY[[#This Row],[Data]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{465FFD71-9838-46F8-96D9-04071B46AADF}" name="ESP_Tecnología" dataDxfId="44">
+    <tableColumn id="10" xr3:uid="{465FFD71-9838-46F8-96D9-04071B46AADF}" name="ESP_Tecnología" dataDxfId="35">
       <calculatedColumnFormula>PRODUCTOS[[#This Row],[Tecnología]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{EC2BE421-D8F5-4218-AF58-90E90B893031}" name="Host " dataDxfId="43"/>
-    <tableColumn id="12" xr3:uid="{E79C574B-B7A1-469C-8F8F-2D0CFAE51341}" name="Link Odoo" dataDxfId="42"/>
-    <tableColumn id="13" xr3:uid="{3809FE9C-54F9-4CF7-B339-2E0041642249}" name="Fecha Publicación" dataDxfId="41"/>
-    <tableColumn id="14" xr3:uid="{F596F3F4-DDEC-4196-A3BB-82BA12090401}" name="País" dataDxfId="40"/>
-    <tableColumn id="15" xr3:uid="{8ABA9F49-20E7-4D44-969F-61983CB570CF}" name="Escala " dataDxfId="39"/>
-    <tableColumn id="16" xr3:uid="{96768B2C-E9AB-4A4C-B2EA-54B345E4B2EE}" name="ESP_Periodo" dataDxfId="38"/>
-    <tableColumn id="40" xr3:uid="{B886925D-5342-4EF0-BEC7-231A532CD384}" name="ESP_Incluye" dataDxfId="37"/>
-    <tableColumn id="41" xr3:uid="{3B13D200-0F79-4222-81F3-6523101D8224}" name="ESP_Uso_Disp." dataDxfId="36"/>
-    <tableColumn id="42" xr3:uid="{36761705-B510-456F-B13C-7C1F1691A844}" name="ESP_Fuentes " dataDxfId="35"/>
-    <tableColumn id="43" xr3:uid="{51F4D077-A0BB-4F59-B19A-FA245554DE68}" name="ACC_Recibirás" dataDxfId="34"/>
-    <tableColumn id="44" xr3:uid="{5291A2DA-9FCC-47E6-8092-612F754EE474}" name="ACC_Licencia_uso" dataDxfId="33"/>
-    <tableColumn id="17" xr3:uid="{77D650B5-1F6E-4D9B-91EE-AFD5F57BC1C1}" name="ACC_Actualizaciones" dataDxfId="32"/>
-    <tableColumn id="45" xr3:uid="{9AD5E5EE-A8BD-4739-AE89-A1B8EC4723F5}" name="ACC_N°_usuarios" dataDxfId="31"/>
-    <tableColumn id="18" xr3:uid="{AC3AE441-67FC-4118-9DEB-4484BC70FA5A}" name="Etiquetas" dataDxfId="30"/>
-    <tableColumn id="22" xr3:uid="{0EAB21ED-E5E2-4B44-8E8C-DA03632B81CB}" name="Vistas" dataDxfId="29"/>
+    <tableColumn id="11" xr3:uid="{EC2BE421-D8F5-4218-AF58-90E90B893031}" name="Host " dataDxfId="34"/>
+    <tableColumn id="12" xr3:uid="{E79C574B-B7A1-469C-8F8F-2D0CFAE51341}" name="Link Odoo" dataDxfId="33"/>
+    <tableColumn id="13" xr3:uid="{3809FE9C-54F9-4CF7-B339-2E0041642249}" name="Fecha Publicación" dataDxfId="32"/>
+    <tableColumn id="14" xr3:uid="{F596F3F4-DDEC-4196-A3BB-82BA12090401}" name="País" dataDxfId="31"/>
+    <tableColumn id="15" xr3:uid="{8ABA9F49-20E7-4D44-969F-61983CB570CF}" name="Escala " dataDxfId="30"/>
+    <tableColumn id="16" xr3:uid="{96768B2C-E9AB-4A4C-B2EA-54B345E4B2EE}" name="ESP_Periodo" dataDxfId="29"/>
+    <tableColumn id="40" xr3:uid="{B886925D-5342-4EF0-BEC7-231A532CD384}" name="ESP_Incluye" dataDxfId="28"/>
+    <tableColumn id="41" xr3:uid="{3B13D200-0F79-4222-81F3-6523101D8224}" name="ESP_Uso_Disp." dataDxfId="27"/>
+    <tableColumn id="42" xr3:uid="{36761705-B510-456F-B13C-7C1F1691A844}" name="ESP_Fuentes " dataDxfId="26"/>
+    <tableColumn id="43" xr3:uid="{51F4D077-A0BB-4F59-B19A-FA245554DE68}" name="ACC_Recibirás" dataDxfId="25"/>
+    <tableColumn id="44" xr3:uid="{5291A2DA-9FCC-47E6-8092-612F754EE474}" name="ACC_Licencia_uso" dataDxfId="24"/>
+    <tableColumn id="17" xr3:uid="{77D650B5-1F6E-4D9B-91EE-AFD5F57BC1C1}" name="ACC_Actualizaciones" dataDxfId="23"/>
+    <tableColumn id="45" xr3:uid="{9AD5E5EE-A8BD-4739-AE89-A1B8EC4723F5}" name="ACC_N°_usuarios" dataDxfId="22"/>
+    <tableColumn id="18" xr3:uid="{AC3AE441-67FC-4118-9DEB-4484BC70FA5A}" name="Etiquetas" dataDxfId="21"/>
+    <tableColumn id="22" xr3:uid="{0EAB21ED-E5E2-4B44-8E8C-DA03632B81CB}" name="Vistas" dataDxfId="20"/>
     <tableColumn id="23" xr3:uid="{4146A4AA-B422-4A23-AFC0-891AE3F78FEE}" name="Repositorio Dropbox"/>
     <tableColumn id="24" xr3:uid="{44B7EB22-51ED-4A59-9AAA-14197F95E149}" name="Link Logo"/>
-    <tableColumn id="28" xr3:uid="{4352BE36-B76B-41FB-8592-7009FF2F8409}" name="Observaciones" dataDxfId="28"/>
-    <tableColumn id="29" xr3:uid="{2127F871-F5E7-448D-8C26-8CF290798729}" name="Miniatura" dataDxfId="27"/>
+    <tableColumn id="28" xr3:uid="{4352BE36-B76B-41FB-8592-7009FF2F8409}" name="Observaciones" dataDxfId="19"/>
+    <tableColumn id="29" xr3:uid="{2127F871-F5E7-448D-8C26-8CF290798729}" name="Miniatura" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -11726,8 +12091,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{167569FB-0D63-486E-90FA-C6B113AE5A31}">
   <dimension ref="B5:K33"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView showGridLines="0" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11764,7 +12129,7 @@
         <v>33</v>
       </c>
       <c r="H7" t="s">
-        <v>1349</v>
+        <v>1346</v>
       </c>
       <c r="I7" s="8" t="s">
         <v>171</v>
@@ -11793,7 +12158,7 @@
         <v>98</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>1360</v>
+        <v>1356</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="3" t="s">
@@ -11823,7 +12188,7 @@
         <v>99</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>1366</v>
+        <v>1362</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="46" t="s">
@@ -11853,7 +12218,7 @@
         <v>123</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>1367</v>
+        <v>1363</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="46" t="s">
@@ -11883,7 +12248,7 @@
         <v>125</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>1351</v>
+        <v>1348</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="46" t="s">
@@ -11913,7 +12278,7 @@
         <v>131</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>1369</v>
+        <v>1365</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="46" t="s">
@@ -11943,7 +12308,7 @@
         <v>127</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>1370</v>
+        <v>1366</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="3" t="s">
@@ -11971,7 +12336,7 @@
         <v>95</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>1365</v>
+        <v>1361</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="3" t="s">
@@ -12029,7 +12394,7 @@
         <v>170</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>1368</v>
+        <v>1364</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="3" t="s">
@@ -12057,10 +12422,10 @@
         <v>169</v>
       </c>
       <c r="G17" s="137" t="s">
-        <v>1352</v>
+        <v>1349</v>
       </c>
       <c r="H17" s="134" t="s">
-        <v>1350</v>
+        <v>1347</v>
       </c>
       <c r="I17" s="46" t="s">
         <v>179</v>
@@ -12117,7 +12482,7 @@
         <v>139</v>
       </c>
       <c r="G19" s="138" t="s">
-        <v>1353</v>
+        <v>1350</v>
       </c>
       <c r="H19" s="7"/>
       <c r="I19" s="46" t="s">
@@ -12255,7 +12620,7 @@
         <v>164</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>1372</v>
+        <v>1368</v>
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="3" t="s">
@@ -12285,7 +12650,7 @@
         <v>170</v>
       </c>
       <c r="G25" s="137" t="s">
-        <v>1363</v>
+        <v>1359</v>
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="3" t="s">
@@ -12427,7 +12792,9 @@
       <c r="K32" s="3"/>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B33" s="1"/>
+      <c r="B33" s="1" t="s">
+        <v>1472</v>
+      </c>
       <c r="C33" s="4" t="s">
         <v>1101</v>
       </c>
@@ -12786,7 +13153,7 @@
       </c>
       <c r="F24" s="60"/>
       <c r="G24" s="53" t="s">
-        <v>1401</v>
+        <v>1397</v>
       </c>
       <c r="H24" s="61"/>
     </row>
@@ -12808,7 +13175,7 @@
       </c>
       <c r="F25" s="60"/>
       <c r="G25" s="53" t="s">
-        <v>1402</v>
+        <v>1398</v>
       </c>
       <c r="H25" s="61"/>
     </row>
@@ -12830,7 +13197,7 @@
       </c>
       <c r="F26" s="60"/>
       <c r="G26" s="53" t="s">
-        <v>1403</v>
+        <v>1399</v>
       </c>
       <c r="H26" s="61"/>
     </row>
@@ -12852,10 +13219,10 @@
       </c>
       <c r="F27" s="60"/>
       <c r="G27" s="53" t="s">
-        <v>1405</v>
+        <v>1401</v>
       </c>
       <c r="H27" s="159" t="s">
-        <v>1404</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="28" spans="1:8" s="56" customFormat="1" x14ac:dyDescent="0.3">
@@ -12876,7 +13243,7 @@
       </c>
       <c r="F28" s="60"/>
       <c r="G28" s="53" t="s">
-        <v>1406</v>
+        <v>1402</v>
       </c>
       <c r="H28" s="110"/>
     </row>
@@ -13100,7 +13467,7 @@
       </c>
       <c r="F37" s="67"/>
       <c r="G37" s="110" t="s">
-        <v>1436</v>
+        <v>1432</v>
       </c>
       <c r="H37" s="61"/>
       <c r="I37" s="68"/>
@@ -13123,7 +13490,7 @@
       </c>
       <c r="F38" s="67"/>
       <c r="G38" s="53" t="s">
-        <v>1437</v>
+        <v>1433</v>
       </c>
       <c r="H38" s="110"/>
       <c r="I38" s="68"/>
@@ -13245,7 +13612,7 @@
       </c>
       <c r="F43" s="60"/>
       <c r="G43" s="53" t="s">
-        <v>1392</v>
+        <v>1388</v>
       </c>
       <c r="H43" s="61"/>
     </row>
@@ -13267,7 +13634,7 @@
       </c>
       <c r="F44" s="60"/>
       <c r="G44" s="158" t="s">
-        <v>1393</v>
+        <v>1389</v>
       </c>
       <c r="H44" s="61"/>
     </row>
@@ -13681,7 +14048,7 @@
       </c>
       <c r="F62" s="76"/>
       <c r="G62" s="53" t="s">
-        <v>1398</v>
+        <v>1394</v>
       </c>
       <c r="H62" s="157"/>
     </row>
@@ -13793,7 +14160,7 @@
       </c>
       <c r="F67" s="52"/>
       <c r="G67" s="55" t="s">
-        <v>1447</v>
+        <v>1443</v>
       </c>
       <c r="H67" s="75"/>
     </row>
@@ -13815,7 +14182,7 @@
       </c>
       <c r="F68" s="52"/>
       <c r="G68" s="55" t="s">
-        <v>1448</v>
+        <v>1444</v>
       </c>
       <c r="H68" s="75"/>
     </row>
@@ -14030,7 +14397,7 @@
       </c>
       <c r="F78" s="52"/>
       <c r="G78" s="53" t="s">
-        <v>1442</v>
+        <v>1438</v>
       </c>
       <c r="H78" s="54"/>
     </row>
@@ -14052,7 +14419,7 @@
       </c>
       <c r="F79" s="52"/>
       <c r="G79" s="165" t="s">
-        <v>1443</v>
+        <v>1439</v>
       </c>
       <c r="H79" s="54"/>
     </row>
@@ -14074,7 +14441,7 @@
       </c>
       <c r="F80" s="52"/>
       <c r="G80" s="53" t="s">
-        <v>1444</v>
+        <v>1440</v>
       </c>
       <c r="H80" s="54"/>
     </row>
@@ -19563,7 +19930,7 @@
       </c>
       <c r="K32" s="103">
         <f>PRODUCTOS[[#This Row],[Avance]]</f>
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="L32" s="7" t="str">
         <f>PRODUCTOS[[#This Row],[Responsable Desarrollo]]</f>
@@ -21477,9 +21844,9 @@
         <f>SHOPIFY[[#This Row],[Data]]</f>
         <v>DATASALUD</v>
       </c>
-      <c r="AE50" s="7">
+      <c r="AE50" s="7" t="str">
         <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
-        <v>0</v>
+        <v>POWER BI</v>
       </c>
       <c r="AF50" s="7"/>
       <c r="AG50" s="7"/>
@@ -21574,9 +21941,9 @@
         <f>SHOPIFY[[#This Row],[Data]]</f>
         <v>DATASALUD</v>
       </c>
-      <c r="AE51" s="7">
+      <c r="AE51" s="7" t="str">
         <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
-        <v>0</v>
+        <v>POWER BI</v>
       </c>
       <c r="AF51" s="7"/>
       <c r="AG51" s="7"/>
@@ -24106,9 +24473,9 @@
         <f>SHOPIFY[[#This Row],[Data]]</f>
         <v>DATASALUD</v>
       </c>
-      <c r="AE75" s="7">
+      <c r="AE75" s="7" t="str">
         <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
-        <v>0</v>
+        <v>POWER BI</v>
       </c>
       <c r="AF75" s="7"/>
       <c r="AG75" s="7"/>
@@ -24842,12 +25209,12 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="B11:P112"/>
+  <dimension ref="B11:P117"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="11" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="11" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I8" sqref="I8"/>
-      <selection pane="bottomLeft" activeCell="N101" sqref="N101"/>
+      <selection pane="bottomLeft" activeCell="G116" sqref="G116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -26069,7 +26436,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="39" spans="2:16" ht="24" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:16" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B39" s="27" t="s">
         <v>6</v>
       </c>
@@ -26113,7 +26480,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="B40" s="27" t="s">
         <v>6</v>
       </c>
@@ -26157,7 +26524,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="41" spans="2:16" ht="24" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:16" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B41" s="27" t="s">
         <v>6</v>
       </c>
@@ -26201,7 +26568,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="42" spans="2:16" ht="24" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:16" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B42" s="27" t="s">
         <v>6</v>
       </c>
@@ -26639,7 +27006,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="52" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B52" s="27" t="s">
         <v>3</v>
       </c>
@@ -26683,7 +27050,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="53" spans="2:16" ht="48" hidden="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:16" ht="48" x14ac:dyDescent="0.35">
       <c r="B53" s="129" t="s">
         <v>3</v>
       </c>
@@ -26708,7 +27075,7 @@
         <v>161</v>
       </c>
       <c r="J53" s="25">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="K53" s="24" t="s">
         <v>756</v>
@@ -26727,7 +27094,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="54" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B54" s="27" t="s">
         <v>3</v>
       </c>
@@ -26771,7 +27138,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="55" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B55" s="27" t="s">
         <v>3</v>
       </c>
@@ -26815,7 +27182,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="56" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B56" s="27" t="s">
         <v>3</v>
       </c>
@@ -26859,7 +27226,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="57" spans="2:16" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:16" ht="24" x14ac:dyDescent="0.35">
       <c r="B57" s="27" t="s">
         <v>3</v>
       </c>
@@ -26903,7 +27270,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="58" spans="2:16" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:16" ht="24" x14ac:dyDescent="0.35">
       <c r="B58" s="27" t="s">
         <v>3</v>
       </c>
@@ -28274,7 +28641,7 @@
       <c r="O98" s="40"/>
       <c r="P98" s="40"/>
     </row>
-    <row r="99" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B99" s="129" t="s">
         <v>3</v>
       </c>
@@ -28306,7 +28673,7 @@
       <c r="O99" s="40"/>
       <c r="P99" s="40"/>
     </row>
-    <row r="100" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B100" s="27" t="s">
         <v>3</v>
       </c>
@@ -28334,11 +28701,13 @@
       <c r="K100" s="24"/>
       <c r="L100" s="24"/>
       <c r="M100" s="24"/>
-      <c r="N100" s="26"/>
+      <c r="N100" s="26" t="s">
+        <v>189</v>
+      </c>
       <c r="O100" s="40"/>
       <c r="P100" s="40"/>
     </row>
-    <row r="101" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="B101" s="27" t="s">
         <v>6</v>
       </c>
@@ -28370,7 +28739,7 @@
       <c r="O101" s="40"/>
       <c r="P101" s="40"/>
     </row>
-    <row r="102" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="B102" s="27" t="s">
         <v>6</v>
       </c>
@@ -28460,7 +28829,7 @@
       <c r="O104" s="40"/>
       <c r="P104" s="40"/>
     </row>
-    <row r="105" spans="2:16" ht="24" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:16" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B105" s="27" t="s">
         <v>6</v>
       </c>
@@ -28486,7 +28855,7 @@
       <c r="O105" s="40"/>
       <c r="P105" s="40"/>
     </row>
-    <row r="106" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="B106" s="27" t="s">
         <v>6</v>
       </c>
@@ -28512,7 +28881,7 @@
       <c r="O106" s="40"/>
       <c r="P106" s="40"/>
     </row>
-    <row r="107" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="B107" s="27" t="s">
         <v>6</v>
       </c>
@@ -28590,7 +28959,7 @@
       <c r="O109" s="40"/>
       <c r="P109" s="40"/>
     </row>
-    <row r="110" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B110" s="27" t="s">
         <v>3</v>
       </c>
@@ -28618,11 +28987,13 @@
       <c r="K110" s="24"/>
       <c r="L110" s="24"/>
       <c r="M110" s="24"/>
-      <c r="N110" s="26"/>
+      <c r="N110" s="26" t="s">
+        <v>189</v>
+      </c>
       <c r="O110" s="40"/>
       <c r="P110" s="40"/>
     </row>
-    <row r="111" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B111" s="27" t="s">
         <v>3</v>
       </c>
@@ -28650,11 +29021,13 @@
       <c r="K111" s="24"/>
       <c r="L111" s="24"/>
       <c r="M111" s="24"/>
-      <c r="N111" s="26"/>
+      <c r="N111" s="26" t="s">
+        <v>189</v>
+      </c>
       <c r="O111" s="40"/>
       <c r="P111" s="40"/>
     </row>
-    <row r="112" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B112" s="27" t="s">
         <v>3</v>
       </c>
@@ -28682,9 +29055,161 @@
       <c r="K112" s="24"/>
       <c r="L112" s="24"/>
       <c r="M112" s="24"/>
-      <c r="N112" s="26"/>
+      <c r="N112" s="26" t="s">
+        <v>189</v>
+      </c>
       <c r="O112" s="40"/>
       <c r="P112" s="40"/>
+    </row>
+    <row r="113" spans="2:16" ht="29" x14ac:dyDescent="0.35">
+      <c r="B113" s="27" t="s">
+        <v>1472</v>
+      </c>
+      <c r="C113" s="24" t="s">
+        <v>1473</v>
+      </c>
+      <c r="D113" s="23"/>
+      <c r="E113" s="23" t="s">
+        <v>1232</v>
+      </c>
+      <c r="F113" s="23"/>
+      <c r="G113" s="23" t="str">
+        <f>PRODUCTOS!F96</f>
+        <v>0026-04-00089</v>
+      </c>
+      <c r="H113" s="23"/>
+      <c r="I113" s="29"/>
+      <c r="J113" s="25">
+        <v>1</v>
+      </c>
+      <c r="K113" s="24"/>
+      <c r="L113" s="24"/>
+      <c r="M113" s="24"/>
+      <c r="N113" s="26" t="s">
+        <v>768</v>
+      </c>
+      <c r="O113" s="40"/>
+      <c r="P113" s="40"/>
+    </row>
+    <row r="114" spans="2:16" ht="29" x14ac:dyDescent="0.35">
+      <c r="B114" s="27" t="s">
+        <v>1472</v>
+      </c>
+      <c r="C114" s="24" t="s">
+        <v>1474</v>
+      </c>
+      <c r="D114" s="23"/>
+      <c r="E114" s="23" t="s">
+        <v>1232</v>
+      </c>
+      <c r="F114" s="23"/>
+      <c r="G114" s="23" t="str">
+        <f>PRODUCTOS!F97</f>
+        <v>0026-00-00090</v>
+      </c>
+      <c r="H114" s="23"/>
+      <c r="I114" s="29"/>
+      <c r="J114" s="25">
+        <v>0.8</v>
+      </c>
+      <c r="K114" s="24"/>
+      <c r="L114" s="24"/>
+      <c r="M114" s="24"/>
+      <c r="N114" s="26" t="s">
+        <v>768</v>
+      </c>
+      <c r="O114" s="40"/>
+      <c r="P114" s="40"/>
+    </row>
+    <row r="115" spans="2:16" ht="29" x14ac:dyDescent="0.35">
+      <c r="B115" s="27" t="s">
+        <v>1472</v>
+      </c>
+      <c r="C115" s="24" t="s">
+        <v>1475</v>
+      </c>
+      <c r="D115" s="23"/>
+      <c r="E115" s="23" t="s">
+        <v>1232</v>
+      </c>
+      <c r="F115" s="23"/>
+      <c r="G115" s="23" t="str">
+        <f>PRODUCTOS!F98</f>
+        <v>0026-00-00091</v>
+      </c>
+      <c r="H115" s="23"/>
+      <c r="I115" s="29"/>
+      <c r="J115" s="25">
+        <v>0.8</v>
+      </c>
+      <c r="K115" s="24"/>
+      <c r="L115" s="24"/>
+      <c r="M115" s="24"/>
+      <c r="N115" s="26" t="s">
+        <v>768</v>
+      </c>
+      <c r="O115" s="40"/>
+      <c r="P115" s="40"/>
+    </row>
+    <row r="116" spans="2:16" ht="29" x14ac:dyDescent="0.35">
+      <c r="B116" s="27" t="s">
+        <v>1472</v>
+      </c>
+      <c r="C116" s="24" t="s">
+        <v>1476</v>
+      </c>
+      <c r="D116" s="23"/>
+      <c r="E116" s="23" t="s">
+        <v>1232</v>
+      </c>
+      <c r="F116" s="23"/>
+      <c r="G116" s="23" t="str">
+        <f>PRODUCTOS!F99</f>
+        <v>0026-00-00092</v>
+      </c>
+      <c r="H116" s="23"/>
+      <c r="I116" s="29"/>
+      <c r="J116" s="25">
+        <v>0.8</v>
+      </c>
+      <c r="K116" s="24"/>
+      <c r="L116" s="24"/>
+      <c r="M116" s="24"/>
+      <c r="N116" s="26" t="s">
+        <v>768</v>
+      </c>
+      <c r="O116" s="40"/>
+      <c r="P116" s="40"/>
+    </row>
+    <row r="117" spans="2:16" ht="29" x14ac:dyDescent="0.35">
+      <c r="B117" s="27" t="s">
+        <v>1472</v>
+      </c>
+      <c r="C117" s="24" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D117" s="23"/>
+      <c r="E117" s="23" t="s">
+        <v>1232</v>
+      </c>
+      <c r="F117" s="23"/>
+      <c r="G117" s="23" t="str">
+        <f>PRODUCTOS!F100</f>
+        <v>0026-00-00093</v>
+      </c>
+      <c r="H117" s="23"/>
+      <c r="I117" s="29"/>
+      <c r="J117" s="25">
+        <v>0.8</v>
+      </c>
+      <c r="K117" s="24"/>
+      <c r="L117" s="24"/>
+      <c r="M117" s="24"/>
+      <c r="N117" s="26" t="s">
+        <v>768</v>
+      </c>
+      <c r="O117" s="40"/>
+      <c r="P117" s="40"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B12:P22">
@@ -28792,14 +29317,14 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A7:BB95"/>
+  <dimension ref="A7:BD100"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="7" ySplit="7" topLeftCell="H8" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="7" ySplit="7" topLeftCell="AF8" activePane="bottomRight" state="frozen"/>
       <selection activeCell="J19" sqref="J19"/>
       <selection pane="topRight" activeCell="J19" sqref="J19"/>
       <selection pane="bottomLeft" activeCell="J19" sqref="J19"/>
-      <selection pane="bottomRight" activeCell="G27" sqref="G27"/>
+      <selection pane="bottomRight" activeCell="X8" sqref="X8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -28825,7 +29350,7 @@
     <col min="21" max="21" width="31.36328125" customWidth="1"/>
     <col min="22" max="22" width="23" customWidth="1"/>
     <col min="23" max="23" width="32" customWidth="1"/>
-    <col min="24" max="24" width="25" customWidth="1"/>
+    <col min="24" max="24" width="31.81640625" customWidth="1"/>
     <col min="25" max="25" width="21.453125" customWidth="1"/>
     <col min="26" max="26" width="26.08984375" customWidth="1"/>
     <col min="27" max="27" width="19.453125" customWidth="1"/>
@@ -28834,15 +29359,15 @@
     <col min="30" max="30" width="54" customWidth="1"/>
     <col min="40" max="40" width="45.6328125" customWidth="1"/>
     <col min="41" max="41" width="12.81640625" customWidth="1"/>
-    <col min="42" max="42" width="26.6328125" customWidth="1"/>
-    <col min="45" max="45" width="20.453125" customWidth="1"/>
-    <col min="48" max="48" width="22.36328125" customWidth="1"/>
-    <col min="49" max="49" width="16.1796875" customWidth="1"/>
-    <col min="52" max="52" width="15.1796875" customWidth="1"/>
-    <col min="54" max="54" width="32.6328125" customWidth="1"/>
+    <col min="42" max="44" width="26.6328125" customWidth="1"/>
+    <col min="47" max="47" width="20.453125" customWidth="1"/>
+    <col min="50" max="50" width="22.36328125" customWidth="1"/>
+    <col min="51" max="51" width="16.1796875" customWidth="1"/>
+    <col min="54" max="54" width="15.1796875" customWidth="1"/>
+    <col min="56" max="56" width="32.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="1:54" s="14" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:56" s="14" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="14" t="s">
         <v>80</v>
       </c>
@@ -28970,49 +29495,55 @@
         <v>864</v>
       </c>
       <c r="AQ7" s="116" t="s">
+        <v>1446</v>
+      </c>
+      <c r="AR7" s="116" t="s">
+        <v>1447</v>
+      </c>
+      <c r="AS7" s="116" t="s">
         <v>865</v>
       </c>
-      <c r="AR7" s="116" t="s">
+      <c r="AT7" s="116" t="s">
         <v>866</v>
       </c>
-      <c r="AS7" s="116" t="s">
+      <c r="AU7" s="116" t="s">
         <v>867</v>
       </c>
-      <c r="AT7" s="118" t="s">
+      <c r="AV7" s="118" t="s">
         <v>868</v>
       </c>
-      <c r="AU7" s="118" t="s">
+      <c r="AW7" s="118" t="s">
         <v>870</v>
       </c>
-      <c r="AV7" s="118" t="s">
+      <c r="AX7" s="118" t="s">
         <v>871</v>
       </c>
-      <c r="AW7" s="118" t="s">
+      <c r="AY7" s="118" t="s">
         <v>872</v>
       </c>
-      <c r="AX7" s="119" t="s">
+      <c r="AZ7" s="119" t="s">
         <v>873</v>
       </c>
-      <c r="AY7" s="119" t="s">
+      <c r="BA7" s="119" t="s">
         <v>874</v>
       </c>
-      <c r="AZ7" s="119" t="s">
+      <c r="BB7" s="119" t="s">
         <v>875</v>
       </c>
-      <c r="BA7" s="119" t="s">
+      <c r="BC7" s="119" t="s">
         <v>876</v>
       </c>
-      <c r="BB7" s="120" t="s">
+      <c r="BD7" s="120" t="s">
         <v>877</v>
       </c>
     </row>
-    <row r="8" spans="1:54" ht="93" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:56" ht="93" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="str">
         <f>+VLOOKUP(D8,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0012</v>
       </c>
       <c r="B8" s="2" t="str">
-        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$11,2,0)</f>
+        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$12,2,0)</f>
         <v>01</v>
       </c>
       <c r="C8" s="115" t="s">
@@ -29054,7 +29585,7 @@
         <v>POWER BI</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>1358</v>
+        <v>1354</v>
       </c>
       <c r="O8" s="2" t="s">
         <v>199</v>
@@ -29109,7 +29640,7 @@
       <c r="AL8" s="7"/>
       <c r="AM8" s="7"/>
       <c r="AN8" s="7" t="s">
-        <v>1389</v>
+        <v>1385</v>
       </c>
       <c r="AO8" s="7" t="s">
         <v>959</v>
@@ -29117,52 +29648,54 @@
       <c r="AP8" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="AQ8" s="7" t="s">
+      <c r="AQ8" s="7"/>
+      <c r="AR8" s="7"/>
+      <c r="AS8" s="7" t="s">
         <v>1263</v>
       </c>
-      <c r="AR8" s="7" t="s">
+      <c r="AT8" s="7" t="s">
         <v>878</v>
       </c>
-      <c r="AS8" s="7" t="str">
+      <c r="AU8" s="7" t="str">
         <f>PRODUCTOS[[#This Row],[Data]]</f>
         <v>DATARIESGO</v>
       </c>
-      <c r="AT8" s="7" t="str">
+      <c r="AV8" s="7" t="str">
         <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
         <v>POWER BI</v>
       </c>
-      <c r="AU8" s="7" t="s">
+      <c r="AW8" s="7" t="s">
         <v>879</v>
       </c>
-      <c r="AV8" s="7" t="s">
+      <c r="AX8" s="7" t="s">
         <v>962</v>
       </c>
-      <c r="AW8" s="7" t="s">
+      <c r="AY8" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AX8" s="7" t="s">
+      <c r="AZ8" s="7" t="s">
         <v>880</v>
       </c>
-      <c r="AY8" s="7" t="s">
+      <c r="BA8" s="7" t="s">
         <v>881</v>
       </c>
-      <c r="AZ8" s="7" t="s">
+      <c r="BB8" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="BA8" s="7">
-        <v>1</v>
-      </c>
-      <c r="BB8" s="7" t="s">
+      <c r="BC8" s="7">
+        <v>1</v>
+      </c>
+      <c r="BD8" s="7" t="s">
         <v>882</v>
       </c>
     </row>
-    <row r="9" spans="1:54" ht="115.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:56" ht="115.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="str">
         <f>+VLOOKUP(D9,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0012</v>
       </c>
       <c r="B9" s="2" t="str">
-        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$11,2,0)</f>
+        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$12,2,0)</f>
         <v>01</v>
       </c>
       <c r="C9" s="9" t="s">
@@ -29202,7 +29735,7 @@
         <v>NO DEFINIDO</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>1358</v>
+        <v>1354</v>
       </c>
       <c r="O9" s="2" t="s">
         <v>199</v>
@@ -29237,43 +29770,45 @@
       <c r="AO9" s="7"/>
       <c r="AP9" s="7"/>
       <c r="AQ9" s="7"/>
-      <c r="AR9" s="7" t="s">
+      <c r="AR9" s="7"/>
+      <c r="AS9" s="7"/>
+      <c r="AT9" s="7" t="s">
         <v>878</v>
       </c>
-      <c r="AS9" s="7" t="str">
+      <c r="AU9" s="7" t="str">
         <f>PRODUCTOS[[#This Row],[Data]]</f>
         <v>DATARIESGO</v>
       </c>
-      <c r="AT9" s="7" t="str">
+      <c r="AV9" s="7" t="str">
         <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
         <v>NO DEFINIDO</v>
       </c>
-      <c r="AU9" s="7"/>
-      <c r="AV9" s="7" t="s">
-        <v>962</v>
-      </c>
       <c r="AW9" s="7"/>
       <c r="AX9" s="7" t="s">
+        <v>962</v>
+      </c>
+      <c r="AY9" s="7"/>
+      <c r="AZ9" s="7" t="s">
         <v>880</v>
       </c>
-      <c r="AY9" s="7" t="s">
+      <c r="BA9" s="7" t="s">
         <v>881</v>
       </c>
-      <c r="AZ9" s="7" t="s">
+      <c r="BB9" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="BA9" s="7">
-        <v>1</v>
-      </c>
-      <c r="BB9" s="7"/>
-    </row>
-    <row r="10" spans="1:54" ht="78" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="BC9" s="7">
+        <v>1</v>
+      </c>
+      <c r="BD9" s="7"/>
+    </row>
+    <row r="10" spans="1:56" ht="78" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="str">
         <f>+VLOOKUP(D10,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0012</v>
       </c>
       <c r="B10" s="2" t="str">
-        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$11,2,0)</f>
+        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$12,2,0)</f>
         <v>01</v>
       </c>
       <c r="C10" s="9" t="s">
@@ -29315,7 +29850,7 @@
         <v>GEE</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>1358</v>
+        <v>1354</v>
       </c>
       <c r="O10" s="2" t="s">
         <v>199</v>
@@ -29341,74 +29876,78 @@
       <c r="AD10" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="AE10" s="7" t="s">
+      <c r="AE10" s="19" t="s">
         <v>194</v>
       </c>
-      <c r="AF10" s="122"/>
-      <c r="AG10" s="7" t="s">
+      <c r="AF10" s="168"/>
+      <c r="AG10" s="19" t="s">
         <v>1155</v>
       </c>
-      <c r="AH10" s="7"/>
-      <c r="AI10" s="7" t="s">
+      <c r="AH10" s="169"/>
+      <c r="AI10" s="19" t="s">
         <v>1156</v>
       </c>
-      <c r="AJ10" s="7"/>
-      <c r="AK10" s="7"/>
-      <c r="AL10" s="7"/>
-      <c r="AM10" s="7"/>
+      <c r="AJ10" s="169"/>
+      <c r="AK10" s="170"/>
+      <c r="AL10" s="170"/>
+      <c r="AM10" s="170"/>
       <c r="AN10" s="7" t="s">
         <v>1240</v>
       </c>
-      <c r="AO10" s="7" t="s">
-        <v>1152</v>
-      </c>
-      <c r="AP10" s="7" t="s">
+      <c r="AO10" s="19" t="s">
+        <v>1159</v>
+      </c>
+      <c r="AP10" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="AQ10" s="7" t="s">
+      <c r="AQ10" s="19" t="s">
+        <v>1448</v>
+      </c>
+      <c r="AR10" s="19" t="s">
+        <v>1327</v>
+      </c>
+      <c r="AS10" s="7" t="s">
         <v>1157</v>
       </c>
-      <c r="AR10" s="7" t="s">
+      <c r="AT10" s="7" t="s">
         <v>878</v>
       </c>
-      <c r="AS10" s="7" t="str">
+      <c r="AU10" s="7" t="str">
         <f>PRODUCTOS[[#This Row],[Data]]</f>
         <v>DATARIESGO</v>
       </c>
-      <c r="AT10" s="7" t="str">
+      <c r="AV10" s="7" t="str">
         <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
         <v>GEE</v>
       </c>
-      <c r="AU10" s="7" t="s">
+      <c r="AW10" s="7" t="s">
         <v>1158</v>
       </c>
-      <c r="AV10" s="7" t="s">
+      <c r="AX10" s="7" t="s">
         <v>962</v>
       </c>
-      <c r="AW10" s="100"/>
-      <c r="AX10" s="7" t="s">
+      <c r="AY10" s="100"/>
+      <c r="AZ10" s="7" t="s">
         <v>880</v>
       </c>
-      <c r="AY10" s="7" t="s">
+      <c r="BA10" s="7" t="s">
         <v>881</v>
       </c>
-      <c r="AZ10" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="BA10" s="7">
-        <v>1</v>
-      </c>
-      <c r="BB10" s="7" t="s">
-        <v>1338</v>
-      </c>
-    </row>
-    <row r="11" spans="1:54" ht="63" hidden="1" x14ac:dyDescent="0.35">
+      <c r="BB10" s="100"/>
+      <c r="BC10" s="7">
+        <v>1</v>
+      </c>
+      <c r="BD10" s="7" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="11" spans="1:56" ht="63" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="str">
         <f>+VLOOKUP(D11,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0012</v>
       </c>
       <c r="B11" s="2" t="str">
-        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$11,2,0)</f>
+        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$12,2,0)</f>
         <v>01</v>
       </c>
       <c r="C11" s="9" t="s">
@@ -29448,7 +29987,7 @@
         <v>NO DEFINIDO</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>1358</v>
+        <v>1354</v>
       </c>
       <c r="O11" s="2" t="s">
         <v>199</v>
@@ -29485,43 +30024,45 @@
       <c r="AO11" s="7"/>
       <c r="AP11" s="7"/>
       <c r="AQ11" s="7"/>
-      <c r="AR11" s="7" t="s">
+      <c r="AR11" s="7"/>
+      <c r="AS11" s="7"/>
+      <c r="AT11" s="7" t="s">
         <v>878</v>
       </c>
-      <c r="AS11" s="7" t="str">
+      <c r="AU11" s="7" t="str">
         <f>PRODUCTOS[[#This Row],[Data]]</f>
         <v>DATARIESGO</v>
       </c>
-      <c r="AT11" s="7" t="str">
+      <c r="AV11" s="7" t="str">
         <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
         <v>NO DEFINIDO</v>
       </c>
-      <c r="AU11" s="7"/>
-      <c r="AV11" s="7" t="s">
-        <v>962</v>
-      </c>
       <c r="AW11" s="7"/>
       <c r="AX11" s="7" t="s">
+        <v>962</v>
+      </c>
+      <c r="AY11" s="7"/>
+      <c r="AZ11" s="7" t="s">
         <v>880</v>
       </c>
-      <c r="AY11" s="7" t="s">
+      <c r="BA11" s="7" t="s">
         <v>881</v>
       </c>
-      <c r="AZ11" s="7" t="s">
+      <c r="BB11" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="BA11" s="7">
-        <v>1</v>
-      </c>
-      <c r="BB11" s="7"/>
-    </row>
-    <row r="12" spans="1:54" ht="52.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="BC11" s="7">
+        <v>1</v>
+      </c>
+      <c r="BD11" s="7"/>
+    </row>
+    <row r="12" spans="1:56" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="str">
         <f>+VLOOKUP(D12,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0012</v>
       </c>
       <c r="B12" s="2" t="str">
-        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$11,2,0)</f>
+        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$12,2,0)</f>
         <v>01</v>
       </c>
       <c r="C12" s="9" t="s">
@@ -29561,7 +30102,7 @@
         <v>NO DEFINIDO</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>1358</v>
+        <v>1354</v>
       </c>
       <c r="O12" s="2" t="s">
         <v>199</v>
@@ -29598,33 +30139,35 @@
       <c r="AO12" s="7"/>
       <c r="AP12" s="7"/>
       <c r="AQ12" s="7"/>
-      <c r="AR12" s="7" t="s">
+      <c r="AR12" s="7"/>
+      <c r="AS12" s="7"/>
+      <c r="AT12" s="7" t="s">
         <v>878</v>
       </c>
-      <c r="AS12" s="7" t="str">
+      <c r="AU12" s="7" t="str">
         <f>PRODUCTOS[[#This Row],[Data]]</f>
         <v>DATARIESGO</v>
       </c>
-      <c r="AT12" s="7" t="str">
+      <c r="AV12" s="7" t="str">
         <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
         <v>NO DEFINIDO</v>
       </c>
-      <c r="AU12" s="7"/>
-      <c r="AV12" s="7"/>
       <c r="AW12" s="7"/>
       <c r="AX12" s="7"/>
       <c r="AY12" s="7"/>
       <c r="AZ12" s="7"/>
       <c r="BA12" s="7"/>
       <c r="BB12" s="7"/>
-    </row>
-    <row r="13" spans="1:54" ht="63" hidden="1" x14ac:dyDescent="0.35">
+      <c r="BC12" s="7"/>
+      <c r="BD12" s="7"/>
+    </row>
+    <row r="13" spans="1:56" ht="63" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="str">
         <f>+VLOOKUP(D13,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0012</v>
       </c>
       <c r="B13" s="2" t="str">
-        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$11,2,0)</f>
+        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$12,2,0)</f>
         <v>01</v>
       </c>
       <c r="C13" s="9" t="s">
@@ -29664,7 +30207,7 @@
         <v>NO DEFINIDO</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>1358</v>
+        <v>1354</v>
       </c>
       <c r="O13" s="2" t="s">
         <v>199</v>
@@ -29701,33 +30244,35 @@
       <c r="AO13" s="7"/>
       <c r="AP13" s="7"/>
       <c r="AQ13" s="7"/>
-      <c r="AR13" s="7" t="s">
+      <c r="AR13" s="7"/>
+      <c r="AS13" s="7"/>
+      <c r="AT13" s="7" t="s">
         <v>878</v>
       </c>
-      <c r="AS13" s="7" t="str">
+      <c r="AU13" s="7" t="str">
         <f>PRODUCTOS[[#This Row],[Data]]</f>
         <v>DATARIESGO</v>
       </c>
-      <c r="AT13" s="7" t="str">
+      <c r="AV13" s="7" t="str">
         <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
         <v>NO DEFINIDO</v>
       </c>
-      <c r="AU13" s="7"/>
-      <c r="AV13" s="7"/>
       <c r="AW13" s="7"/>
       <c r="AX13" s="7"/>
       <c r="AY13" s="7"/>
       <c r="AZ13" s="7"/>
       <c r="BA13" s="7"/>
       <c r="BB13" s="7"/>
-    </row>
-    <row r="14" spans="1:54" ht="78" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="BC13" s="7"/>
+      <c r="BD13" s="7"/>
+    </row>
+    <row r="14" spans="1:56" ht="78" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="str">
         <f>+VLOOKUP(D14,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0008</v>
       </c>
       <c r="B14" s="2" t="str">
-        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$11,2,0)</f>
+        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$12,2,0)</f>
         <v>01</v>
       </c>
       <c r="C14" s="9" t="s">
@@ -29767,7 +30312,7 @@
         <v>INFOGRAM</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>1358</v>
+        <v>1354</v>
       </c>
       <c r="O14" s="2" t="s">
         <v>199</v>
@@ -29782,7 +30327,7 @@
       <c r="W14" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="X14" s="7" t="s">
+      <c r="X14" s="46" t="s">
         <v>210</v>
       </c>
       <c r="Y14" s="3" t="s">
@@ -29827,33 +30372,35 @@
         <v>193</v>
       </c>
       <c r="AQ14" s="7"/>
-      <c r="AR14" s="7" t="s">
+      <c r="AR14" s="7"/>
+      <c r="AS14" s="7"/>
+      <c r="AT14" s="7" t="s">
         <v>878</v>
       </c>
-      <c r="AS14" s="7" t="str">
+      <c r="AU14" s="7" t="str">
         <f>PRODUCTOS[[#This Row],[Data]]</f>
         <v>DATAGÉNERO</v>
       </c>
-      <c r="AT14" s="7" t="str">
+      <c r="AV14" s="7" t="str">
         <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
         <v>INFOGRAM</v>
       </c>
-      <c r="AU14" s="7"/>
-      <c r="AV14" s="7"/>
       <c r="AW14" s="7"/>
       <c r="AX14" s="7"/>
       <c r="AY14" s="7"/>
       <c r="AZ14" s="7"/>
       <c r="BA14" s="7"/>
       <c r="BB14" s="7"/>
-    </row>
-    <row r="15" spans="1:54" ht="62.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="BC14" s="7"/>
+      <c r="BD14" s="7"/>
+    </row>
+    <row r="15" spans="1:56" ht="62.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="str">
         <f>+VLOOKUP(D15,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0022</v>
       </c>
       <c r="B15" s="2" t="str">
-        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$11,2,0)</f>
+        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$12,2,0)</f>
         <v>01</v>
       </c>
       <c r="C15" s="9" t="s">
@@ -29893,7 +30440,7 @@
         <v>INFOGRAM</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>1358</v>
+        <v>1354</v>
       </c>
       <c r="O15" s="2" t="s">
         <v>199</v>
@@ -29906,7 +30453,7 @@
       <c r="U15" s="2"/>
       <c r="V15" s="3"/>
       <c r="W15" s="7"/>
-      <c r="X15" s="7" t="s">
+      <c r="X15" s="46" t="s">
         <v>211</v>
       </c>
       <c r="Y15" s="3" t="s">
@@ -29949,33 +30496,35 @@
         <v>193</v>
       </c>
       <c r="AQ15" s="7"/>
-      <c r="AR15" s="7" t="s">
+      <c r="AR15" s="7"/>
+      <c r="AS15" s="7"/>
+      <c r="AT15" s="7" t="s">
         <v>878</v>
       </c>
-      <c r="AS15" s="7" t="str">
+      <c r="AU15" s="7" t="str">
         <f>PRODUCTOS[[#This Row],[Data]]</f>
         <v>DATASOCIAL</v>
       </c>
-      <c r="AT15" s="7" t="str">
+      <c r="AV15" s="7" t="str">
         <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
         <v>INFOGRAM</v>
       </c>
-      <c r="AU15" s="7"/>
-      <c r="AV15" s="7"/>
       <c r="AW15" s="7"/>
       <c r="AX15" s="7"/>
       <c r="AY15" s="7"/>
       <c r="AZ15" s="7"/>
       <c r="BA15" s="7"/>
       <c r="BB15" s="7"/>
-    </row>
-    <row r="16" spans="1:54" ht="55.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="BC15" s="7"/>
+      <c r="BD15" s="7"/>
+    </row>
+    <row r="16" spans="1:56" ht="55.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="str">
         <f>+VLOOKUP(D16,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0012</v>
       </c>
       <c r="B16" s="2" t="str">
-        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$11,2,0)</f>
+        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$12,2,0)</f>
         <v>01</v>
       </c>
       <c r="C16" s="9" t="s">
@@ -30015,7 +30564,7 @@
         <v>NO DEFINIDO</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>1358</v>
+        <v>1354</v>
       </c>
       <c r="O16" s="2" t="s">
         <v>199</v>
@@ -30045,38 +30594,40 @@
       <c r="AL16" s="7"/>
       <c r="AM16" s="7"/>
       <c r="AN16" s="7" t="s">
-        <v>1388</v>
+        <v>1384</v>
       </c>
       <c r="AO16" s="7"/>
       <c r="AP16" s="7"/>
       <c r="AQ16" s="7"/>
-      <c r="AR16" s="7" t="s">
+      <c r="AR16" s="7"/>
+      <c r="AS16" s="7"/>
+      <c r="AT16" s="7" t="s">
         <v>878</v>
       </c>
-      <c r="AS16" s="7" t="str">
+      <c r="AU16" s="7" t="str">
         <f>PRODUCTOS[[#This Row],[Data]]</f>
         <v>DATARIESGO</v>
       </c>
-      <c r="AT16" s="7" t="str">
+      <c r="AV16" s="7" t="str">
         <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
         <v>NO DEFINIDO</v>
       </c>
-      <c r="AU16" s="7"/>
-      <c r="AV16" s="7"/>
       <c r="AW16" s="7"/>
       <c r="AX16" s="7"/>
       <c r="AY16" s="7"/>
       <c r="AZ16" s="7"/>
       <c r="BA16" s="7"/>
       <c r="BB16" s="7"/>
-    </row>
-    <row r="17" spans="1:54" ht="58" hidden="1" x14ac:dyDescent="0.35">
+      <c r="BC16" s="7"/>
+      <c r="BD16" s="7"/>
+    </row>
+    <row r="17" spans="1:56" ht="58" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="str">
         <f>+VLOOKUP(D17,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0004</v>
       </c>
       <c r="B17" s="2" t="str">
-        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$11,2,0)</f>
+        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$12,2,0)</f>
         <v>01</v>
       </c>
       <c r="C17" s="9" t="s">
@@ -30096,7 +30647,7 @@
         <v>951</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>1344</v>
+        <v>1341</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>161</v>
@@ -30159,46 +30710,48 @@
       <c r="AN17" s="133"/>
       <c r="AO17" s="7"/>
       <c r="AP17" s="7" t="s">
-        <v>1330</v>
-      </c>
-      <c r="AQ17" s="7">
+        <v>1327</v>
+      </c>
+      <c r="AQ17" s="7"/>
+      <c r="AR17" s="7"/>
+      <c r="AS17" s="7">
         <v>2017</v>
       </c>
-      <c r="AR17" s="7" t="s">
+      <c r="AT17" s="7" t="s">
         <v>878</v>
       </c>
-      <c r="AS17" s="7" t="str">
+      <c r="AU17" s="7" t="str">
         <f>PRODUCTOS[[#This Row],[Data]]</f>
         <v>DATAMUNICIPIO</v>
       </c>
-      <c r="AT17" s="7" t="str">
+      <c r="AV17" s="7" t="str">
         <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
         <v>ARCGIS-POWER BI</v>
       </c>
-      <c r="AU17" s="7" t="s">
+      <c r="AW17" s="7" t="s">
         <v>879</v>
       </c>
-      <c r="AV17" s="7" t="s">
+      <c r="AX17" s="7" t="s">
         <v>962</v>
       </c>
-      <c r="AW17" s="133"/>
-      <c r="AX17" s="7" t="s">
+      <c r="AY17" s="133"/>
+      <c r="AZ17" s="7" t="s">
         <v>880</v>
       </c>
-      <c r="AY17" s="133"/>
-      <c r="AZ17" s="133"/>
-      <c r="BA17" s="7">
-        <v>1</v>
-      </c>
+      <c r="BA17" s="133"/>
       <c r="BB17" s="133"/>
-    </row>
-    <row r="18" spans="1:54" ht="48" hidden="1" x14ac:dyDescent="0.35">
+      <c r="BC17" s="7">
+        <v>1</v>
+      </c>
+      <c r="BD17" s="133"/>
+    </row>
+    <row r="18" spans="1:56" ht="48" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="str">
         <f>+VLOOKUP(D18,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0004</v>
       </c>
       <c r="B18" s="2" t="str">
-        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$11,2,0)</f>
+        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$12,2,0)</f>
         <v>01</v>
       </c>
       <c r="C18" s="9" t="s">
@@ -30274,44 +30827,46 @@
       <c r="AN18" s="133"/>
       <c r="AO18" s="7"/>
       <c r="AP18" s="7" t="s">
-        <v>1330</v>
-      </c>
-      <c r="AQ18" s="133"/>
-      <c r="AR18" s="7" t="s">
+        <v>1327</v>
+      </c>
+      <c r="AQ18" s="7"/>
+      <c r="AR18" s="7"/>
+      <c r="AS18" s="133"/>
+      <c r="AT18" s="7" t="s">
         <v>878</v>
       </c>
-      <c r="AS18" s="7" t="str">
+      <c r="AU18" s="7" t="str">
         <f>PRODUCTOS[[#This Row],[Data]]</f>
         <v>DATAMUNICIPIO</v>
       </c>
-      <c r="AT18" s="7" t="str">
+      <c r="AV18" s="7" t="str">
         <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
         <v>ARCGIS-POWER BI</v>
       </c>
-      <c r="AU18" s="7" t="s">
+      <c r="AW18" s="7" t="s">
         <v>879</v>
       </c>
-      <c r="AV18" s="7" t="s">
+      <c r="AX18" s="7" t="s">
         <v>962</v>
       </c>
-      <c r="AW18" s="133"/>
-      <c r="AX18" s="7" t="s">
+      <c r="AY18" s="133"/>
+      <c r="AZ18" s="7" t="s">
         <v>880</v>
       </c>
-      <c r="AY18" s="133"/>
-      <c r="AZ18" s="133"/>
-      <c r="BA18" s="7">
-        <v>1</v>
-      </c>
+      <c r="BA18" s="133"/>
       <c r="BB18" s="133"/>
-    </row>
-    <row r="19" spans="1:54" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="BC18" s="7">
+        <v>1</v>
+      </c>
+      <c r="BD18" s="133"/>
+    </row>
+    <row r="19" spans="1:56" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="str">
         <f>+VLOOKUP(D19,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0011</v>
       </c>
       <c r="B19" s="2" t="str">
-        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$11,2,0)</f>
+        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$12,2,0)</f>
         <v>01</v>
       </c>
       <c r="C19" s="9" t="s">
@@ -30331,7 +30886,7 @@
         <v>841</v>
       </c>
       <c r="H19" s="99" t="s">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="44">
@@ -30370,23 +30925,23 @@
         <v>Instrumentos de Planificación Territorial (IPT)</v>
       </c>
       <c r="AD19" s="7"/>
-      <c r="AE19" s="7" t="s">
+      <c r="AE19" s="19" t="s">
         <v>194</v>
       </c>
-      <c r="AF19" s="122"/>
-      <c r="AG19" s="7" t="s">
+      <c r="AF19" s="168"/>
+      <c r="AG19" s="19" t="s">
         <v>1155</v>
       </c>
-      <c r="AH19" s="7"/>
-      <c r="AI19" s="7" t="s">
+      <c r="AH19" s="169"/>
+      <c r="AI19" s="19" t="s">
         <v>1156</v>
       </c>
-      <c r="AJ19" s="7"/>
-      <c r="AK19" s="7"/>
-      <c r="AL19" s="7"/>
-      <c r="AM19" s="7"/>
-      <c r="AN19" s="7" t="s">
-        <v>1355</v>
+      <c r="AJ19" s="169"/>
+      <c r="AK19" s="170"/>
+      <c r="AL19" s="170"/>
+      <c r="AM19" s="170"/>
+      <c r="AN19" s="19" t="s">
+        <v>1449</v>
       </c>
       <c r="AO19" s="7" t="s">
         <v>1159</v>
@@ -30394,50 +30949,56 @@
       <c r="AP19" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="AQ19" s="100"/>
-      <c r="AR19" s="7" t="s">
+      <c r="AQ19" s="19" t="s">
+        <v>1448</v>
+      </c>
+      <c r="AR19" s="19" t="s">
+        <v>1327</v>
+      </c>
+      <c r="AS19" s="100"/>
+      <c r="AT19" s="7" t="s">
         <v>878</v>
       </c>
-      <c r="AS19" s="7" t="str">
+      <c r="AU19" s="7" t="str">
         <f>PRODUCTOS[[#This Row],[Data]]</f>
         <v>DATATERRITORIO</v>
       </c>
-      <c r="AT19" s="100">
+      <c r="AV19" s="100">
         <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
         <v>0</v>
       </c>
-      <c r="AU19" s="7" t="s">
+      <c r="AW19" s="7" t="s">
         <v>879</v>
       </c>
-      <c r="AV19" s="7" t="s">
+      <c r="AX19" s="7" t="s">
         <v>962</v>
       </c>
-      <c r="AW19" s="7" t="s">
+      <c r="AY19" s="7" t="s">
         <v>1160</v>
       </c>
-      <c r="AX19" s="7" t="s">
+      <c r="AZ19" s="7" t="s">
         <v>880</v>
       </c>
-      <c r="AY19" s="7" t="s">
+      <c r="BA19" s="7" t="s">
         <v>881</v>
       </c>
-      <c r="AZ19" s="100" t="s">
-        <v>1161</v>
-      </c>
-      <c r="BA19" s="7">
-        <v>1</v>
-      </c>
-      <c r="BB19" s="7" t="s">
+      <c r="BB19" s="101" t="s">
+        <v>1450</v>
+      </c>
+      <c r="BC19" s="7">
+        <v>1</v>
+      </c>
+      <c r="BD19" s="7" t="s">
         <v>1162</v>
       </c>
     </row>
-    <row r="20" spans="1:54" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:56" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="str">
         <f>+VLOOKUP(D20,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0010</v>
       </c>
       <c r="B20" s="2" t="str">
-        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$11,2,0)</f>
+        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$12,2,0)</f>
         <v>01</v>
       </c>
       <c r="C20" s="9" t="s">
@@ -30506,33 +31067,35 @@
       <c r="AO20" s="7"/>
       <c r="AP20" s="7"/>
       <c r="AQ20" s="7"/>
-      <c r="AR20" s="7" t="s">
+      <c r="AR20" s="7"/>
+      <c r="AS20" s="7"/>
+      <c r="AT20" s="7" t="s">
         <v>878</v>
       </c>
-      <c r="AS20" s="7" t="str">
+      <c r="AU20" s="7" t="str">
         <f>PRODUCTOS[[#This Row],[Data]]</f>
         <v>DATAEDUCACIÓN</v>
       </c>
-      <c r="AT20" s="7" t="str">
+      <c r="AV20" s="7" t="str">
         <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
         <v>ARCGISONLINE</v>
       </c>
-      <c r="AU20" s="7"/>
-      <c r="AV20" s="7"/>
       <c r="AW20" s="7"/>
       <c r="AX20" s="7"/>
       <c r="AY20" s="7"/>
       <c r="AZ20" s="7"/>
       <c r="BA20" s="7"/>
       <c r="BB20" s="7"/>
-    </row>
-    <row r="21" spans="1:54" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="BC20" s="7"/>
+      <c r="BD20" s="7"/>
+    </row>
+    <row r="21" spans="1:56" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="str">
         <f>+VLOOKUP(D21,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0010</v>
       </c>
       <c r="B21" s="2" t="str">
-        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$11,2,0)</f>
+        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$12,2,0)</f>
         <v>01</v>
       </c>
       <c r="C21" s="9" t="s">
@@ -30552,7 +31115,7 @@
         <v>218</v>
       </c>
       <c r="H21" s="99" t="s">
-        <v>1343</v>
+        <v>1340</v>
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="44">
@@ -30593,21 +31156,21 @@
       <c r="AD21" s="7" t="s">
         <v>960</v>
       </c>
-      <c r="AE21" s="7" t="s">
+      <c r="AE21" s="19" t="s">
         <v>194</v>
       </c>
-      <c r="AF21" s="122"/>
-      <c r="AG21" s="7" t="s">
+      <c r="AF21" s="168"/>
+      <c r="AG21" s="19" t="s">
         <v>1155</v>
       </c>
-      <c r="AH21" s="7"/>
-      <c r="AI21" s="7" t="s">
+      <c r="AH21" s="169"/>
+      <c r="AI21" s="19" t="s">
         <v>1156</v>
       </c>
-      <c r="AJ21" s="7"/>
-      <c r="AK21" s="7"/>
-      <c r="AL21" s="7"/>
-      <c r="AM21" s="7"/>
+      <c r="AJ21" s="169"/>
+      <c r="AK21" s="170"/>
+      <c r="AL21" s="170"/>
+      <c r="AM21" s="170"/>
       <c r="AN21" s="7" t="s">
         <v>1163</v>
       </c>
@@ -30617,50 +31180,58 @@
       <c r="AP21" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="AQ21" s="100"/>
-      <c r="AR21" s="7" t="s">
+      <c r="AQ21" s="19" t="s">
+        <v>1448</v>
+      </c>
+      <c r="AR21" s="19" t="s">
+        <v>1327</v>
+      </c>
+      <c r="AS21" s="19">
+        <v>2018</v>
+      </c>
+      <c r="AT21" s="7" t="s">
         <v>878</v>
       </c>
-      <c r="AS21" s="7" t="str">
+      <c r="AU21" s="7" t="str">
         <f>PRODUCTOS[[#This Row],[Data]]</f>
         <v>DATAEDUCACIÓN</v>
       </c>
-      <c r="AT21" s="7" t="str">
+      <c r="AV21" s="7" t="str">
         <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
         <v>POWER BI</v>
       </c>
-      <c r="AU21" s="7" t="s">
+      <c r="AW21" s="7" t="s">
         <v>879</v>
       </c>
-      <c r="AV21" s="7" t="s">
+      <c r="AX21" s="7" t="s">
         <v>962</v>
       </c>
-      <c r="AW21" s="7" t="s">
+      <c r="AY21" s="7" t="s">
         <v>1164</v>
       </c>
-      <c r="AX21" s="7" t="s">
+      <c r="AZ21" s="7" t="s">
         <v>880</v>
       </c>
-      <c r="AY21" s="7" t="s">
+      <c r="BA21" s="7" t="s">
         <v>881</v>
       </c>
-      <c r="AZ21" s="100" t="s">
-        <v>1161</v>
-      </c>
-      <c r="BA21" s="7">
-        <v>1</v>
-      </c>
-      <c r="BB21" s="7" t="s">
+      <c r="BB21" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="BC21" s="7">
+        <v>1</v>
+      </c>
+      <c r="BD21" s="7" t="s">
         <v>1165</v>
       </c>
     </row>
-    <row r="22" spans="1:54" ht="80.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:56" ht="80.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="str">
         <f>+VLOOKUP(D22,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0010</v>
       </c>
       <c r="B22" s="2" t="str">
-        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$11,2,0)</f>
+        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$12,2,0)</f>
         <v>01</v>
       </c>
       <c r="C22" s="9" t="s">
@@ -30730,42 +31301,44 @@
       <c r="AN22" s="100"/>
       <c r="AO22" s="7"/>
       <c r="AP22" s="7"/>
-      <c r="AQ22" s="130"/>
-      <c r="AR22" s="7" t="s">
+      <c r="AQ22" s="7"/>
+      <c r="AR22" s="7"/>
+      <c r="AS22" s="130"/>
+      <c r="AT22" s="7" t="s">
         <v>878</v>
       </c>
-      <c r="AS22" s="7" t="str">
+      <c r="AU22" s="7" t="str">
         <f>PRODUCTOS[[#This Row],[Data]]</f>
         <v>DATAEDUCACIÓN</v>
       </c>
-      <c r="AT22" s="7" t="str">
+      <c r="AV22" s="7" t="str">
         <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
         <v>POWER BI</v>
       </c>
-      <c r="AU22" s="7"/>
-      <c r="AV22" s="7" t="s">
+      <c r="AW22" s="7"/>
+      <c r="AX22" s="7" t="s">
         <v>962</v>
       </c>
-      <c r="AW22" s="100"/>
-      <c r="AX22" s="7" t="s">
+      <c r="AY22" s="100"/>
+      <c r="AZ22" s="7" t="s">
         <v>880</v>
       </c>
-      <c r="AY22" s="100"/>
-      <c r="AZ22" s="100"/>
-      <c r="BA22" s="7">
-        <v>1</v>
-      </c>
-      <c r="BB22" s="7" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="23" spans="1:54" ht="131.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="BA22" s="100"/>
+      <c r="BB22" s="100"/>
+      <c r="BC22" s="7">
+        <v>1</v>
+      </c>
+      <c r="BD22" s="7" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="23" spans="1:56" ht="131.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="42" t="str">
         <f>+VLOOKUP(D23,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0018</v>
       </c>
       <c r="B23" s="42" t="str">
-        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$11,2,0)</f>
+        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$12,2,0)</f>
         <v>01</v>
       </c>
       <c r="C23" s="9" t="s">
@@ -30814,6 +31387,9 @@
       <c r="U23" s="2"/>
       <c r="V23" s="3"/>
       <c r="W23" s="7"/>
+      <c r="X23" s="171" t="s">
+        <v>181</v>
+      </c>
       <c r="AA23" s="7"/>
       <c r="AB23" s="13"/>
       <c r="AC23" s="7" t="str">
@@ -30821,17 +31397,31 @@
         <v>Evaluación de Programas e Instituciones del servicio público (1997-2000).</v>
       </c>
       <c r="AD23" s="7" t="s">
-        <v>1362</v>
-      </c>
-      <c r="AE23" s="7"/>
-      <c r="AF23" s="122"/>
-      <c r="AG23" s="7"/>
-      <c r="AH23" s="7"/>
-      <c r="AI23" s="7"/>
-      <c r="AJ23" s="7"/>
-      <c r="AK23" s="7"/>
-      <c r="AL23" s="7"/>
-      <c r="AM23" s="7"/>
+        <v>1358</v>
+      </c>
+      <c r="AE23" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="AF23" s="168"/>
+      <c r="AG23" s="19" t="s">
+        <v>1270</v>
+      </c>
+      <c r="AH23" s="19" t="s">
+        <v>1270</v>
+      </c>
+      <c r="AI23" s="19" t="s">
+        <v>1270</v>
+      </c>
+      <c r="AJ23" s="19" t="s">
+        <v>1270</v>
+      </c>
+      <c r="AK23" s="170"/>
+      <c r="AL23" s="19" t="s">
+        <v>1270</v>
+      </c>
+      <c r="AM23" s="19" t="s">
+        <v>1270</v>
+      </c>
       <c r="AN23" s="7" t="s">
         <v>1168</v>
       </c>
@@ -30841,52 +31431,58 @@
       <c r="AP23" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="AQ23" s="7" t="s">
+      <c r="AQ23" s="19" t="s">
+        <v>1270</v>
+      </c>
+      <c r="AR23" s="19" t="s">
+        <v>1270</v>
+      </c>
+      <c r="AS23" s="7" t="s">
         <v>1169</v>
       </c>
-      <c r="AR23" s="7" t="s">
+      <c r="AT23" s="7" t="s">
         <v>878</v>
       </c>
-      <c r="AS23" s="7" t="str">
+      <c r="AU23" s="7" t="str">
         <f>PRODUCTOS[[#This Row],[Data]]</f>
         <v>DATAEVALUACIÓN</v>
       </c>
-      <c r="AT23" s="7" t="str">
+      <c r="AV23" s="7" t="str">
         <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
         <v>POWER BI</v>
       </c>
-      <c r="AU23" s="7" t="s">
+      <c r="AW23" s="7" t="s">
         <v>1170</v>
       </c>
-      <c r="AV23" s="7" t="s">
+      <c r="AX23" s="7" t="s">
         <v>962</v>
       </c>
-      <c r="AW23" s="100" t="s">
-        <v>1364</v>
-      </c>
-      <c r="AX23" s="7" t="s">
+      <c r="AY23" s="101" t="s">
+        <v>1360</v>
+      </c>
+      <c r="AZ23" s="7" t="s">
         <v>880</v>
       </c>
-      <c r="AY23" s="7" t="s">
+      <c r="BA23" s="7" t="s">
         <v>881</v>
       </c>
-      <c r="AZ23" s="7" t="s">
-        <v>1161</v>
-      </c>
-      <c r="BA23" s="7">
-        <v>1</v>
-      </c>
       <c r="BB23" s="7" t="s">
-        <v>1171</v>
-      </c>
-    </row>
-    <row r="24" spans="1:54" ht="101.5" x14ac:dyDescent="0.35">
+        <v>1451</v>
+      </c>
+      <c r="BC23" s="7">
+        <v>1</v>
+      </c>
+      <c r="BD23" s="7" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="24" spans="1:56" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="str">
         <f>+VLOOKUP(D24,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0002</v>
       </c>
       <c r="B24" s="2" t="str">
-        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$11,2,0)</f>
+        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$12,2,0)</f>
         <v>01</v>
       </c>
       <c r="C24" s="9" t="s">
@@ -30903,10 +31499,10 @@
         <v>0002-01-00017</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>1356</v>
+        <v>1352</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>1357</v>
+        <v>1353</v>
       </c>
       <c r="I24" s="2"/>
       <c r="J24" s="44">
@@ -30958,33 +31554,35 @@
       <c r="AO24" s="7"/>
       <c r="AP24" s="7"/>
       <c r="AQ24" s="7"/>
-      <c r="AR24" s="7" t="s">
+      <c r="AR24" s="7"/>
+      <c r="AS24" s="7"/>
+      <c r="AT24" s="7" t="s">
         <v>878</v>
       </c>
-      <c r="AS24" s="7" t="str">
+      <c r="AU24" s="7" t="str">
         <f>PRODUCTOS[[#This Row],[Data]]</f>
         <v>DATACLIMÁTICO</v>
       </c>
-      <c r="AT24" s="7" t="str">
+      <c r="AV24" s="7" t="str">
         <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
         <v>POWER BI</v>
       </c>
-      <c r="AU24" s="7"/>
-      <c r="AV24" s="7"/>
       <c r="AW24" s="7"/>
       <c r="AX24" s="7"/>
       <c r="AY24" s="7"/>
       <c r="AZ24" s="7"/>
       <c r="BA24" s="7"/>
       <c r="BB24" s="7"/>
-    </row>
-    <row r="25" spans="1:54" ht="29" x14ac:dyDescent="0.35">
+      <c r="BC24" s="7"/>
+      <c r="BD24" s="7"/>
+    </row>
+    <row r="25" spans="1:56" ht="29" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="str">
         <f>+VLOOKUP(D25,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0002</v>
       </c>
       <c r="B25" s="2" t="str">
-        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$11,2,0)</f>
+        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$12,2,0)</f>
         <v>01</v>
       </c>
       <c r="C25" s="9" t="s">
@@ -31051,33 +31649,35 @@
       <c r="AO25" s="7"/>
       <c r="AP25" s="7"/>
       <c r="AQ25" s="7"/>
-      <c r="AR25" s="7" t="s">
+      <c r="AR25" s="7"/>
+      <c r="AS25" s="7"/>
+      <c r="AT25" s="7" t="s">
         <v>878</v>
       </c>
-      <c r="AS25" s="7" t="str">
+      <c r="AU25" s="7" t="str">
         <f>PRODUCTOS[[#This Row],[Data]]</f>
         <v>DATACLIMÁTICO</v>
       </c>
-      <c r="AT25" s="7">
+      <c r="AV25" s="7">
         <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
         <v>0</v>
       </c>
-      <c r="AU25" s="7"/>
-      <c r="AV25" s="7"/>
       <c r="AW25" s="7"/>
       <c r="AX25" s="7"/>
       <c r="AY25" s="7"/>
       <c r="AZ25" s="7"/>
       <c r="BA25" s="7"/>
       <c r="BB25" s="7"/>
-    </row>
-    <row r="26" spans="1:54" ht="29" x14ac:dyDescent="0.35">
+      <c r="BC25" s="7"/>
+      <c r="BD25" s="7"/>
+    </row>
+    <row r="26" spans="1:56" ht="29" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="str">
         <f>+VLOOKUP(D26,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0002</v>
       </c>
       <c r="B26" s="2" t="str">
-        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$11,2,0)</f>
+        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$12,2,0)</f>
         <v>01</v>
       </c>
       <c r="C26" s="9" t="s">
@@ -31143,36 +31743,38 @@
       <c r="AN26" s="7"/>
       <c r="AO26" s="7"/>
       <c r="AP26" s="7"/>
-      <c r="AQ26" s="7" t="s">
+      <c r="AQ26" s="7"/>
+      <c r="AR26" s="7"/>
+      <c r="AS26" s="7" t="s">
         <v>1271</v>
       </c>
-      <c r="AR26" s="7" t="s">
+      <c r="AT26" s="7" t="s">
         <v>878</v>
       </c>
-      <c r="AS26" s="7" t="str">
+      <c r="AU26" s="7" t="str">
         <f>PRODUCTOS[[#This Row],[Data]]</f>
         <v>DATACLIMÁTICO</v>
       </c>
-      <c r="AT26" s="7">
+      <c r="AV26" s="7">
         <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
         <v>0</v>
       </c>
-      <c r="AU26" s="7"/>
-      <c r="AV26" s="7"/>
       <c r="AW26" s="7"/>
       <c r="AX26" s="7"/>
       <c r="AY26" s="7"/>
       <c r="AZ26" s="7"/>
       <c r="BA26" s="7"/>
       <c r="BB26" s="7"/>
-    </row>
-    <row r="27" spans="1:54" ht="29" x14ac:dyDescent="0.35">
+      <c r="BC26" s="7"/>
+      <c r="BD26" s="7"/>
+    </row>
+    <row r="27" spans="1:56" ht="29" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="str">
         <f>+VLOOKUP(D27,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0002</v>
       </c>
       <c r="B27" s="2" t="str">
-        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$11,2,0)</f>
+        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$12,2,0)</f>
         <v>01</v>
       </c>
       <c r="C27" s="9" t="s">
@@ -31239,33 +31841,35 @@
       <c r="AO27" s="7"/>
       <c r="AP27" s="7"/>
       <c r="AQ27" s="7"/>
-      <c r="AR27" s="7" t="s">
+      <c r="AR27" s="7"/>
+      <c r="AS27" s="7"/>
+      <c r="AT27" s="7" t="s">
         <v>878</v>
       </c>
-      <c r="AS27" s="7" t="str">
+      <c r="AU27" s="7" t="str">
         <f>PRODUCTOS[[#This Row],[Data]]</f>
         <v>DATACLIMÁTICO</v>
       </c>
-      <c r="AT27" s="7">
+      <c r="AV27" s="7">
         <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
         <v>0</v>
       </c>
-      <c r="AU27" s="7"/>
-      <c r="AV27" s="7"/>
       <c r="AW27" s="7"/>
       <c r="AX27" s="7"/>
       <c r="AY27" s="7"/>
       <c r="AZ27" s="7"/>
       <c r="BA27" s="7"/>
       <c r="BB27" s="7"/>
-    </row>
-    <row r="28" spans="1:54" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="BC27" s="7"/>
+      <c r="BD27" s="7"/>
+    </row>
+    <row r="28" spans="1:56" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="str">
         <f>+VLOOKUP(D28,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0002</v>
       </c>
       <c r="B28" s="2" t="str">
-        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$11,2,0)</f>
+        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$12,2,0)</f>
         <v>01</v>
       </c>
       <c r="C28" s="9" t="s">
@@ -31332,33 +31936,35 @@
       <c r="AO28" s="7"/>
       <c r="AP28" s="7"/>
       <c r="AQ28" s="7"/>
-      <c r="AR28" s="7" t="s">
+      <c r="AR28" s="7"/>
+      <c r="AS28" s="7"/>
+      <c r="AT28" s="7" t="s">
         <v>878</v>
       </c>
-      <c r="AS28" s="7" t="str">
+      <c r="AU28" s="7" t="str">
         <f>PRODUCTOS[[#This Row],[Data]]</f>
         <v>DATACLIMÁTICO</v>
       </c>
-      <c r="AT28" s="7">
+      <c r="AV28" s="7">
         <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
         <v>0</v>
       </c>
-      <c r="AU28" s="7"/>
-      <c r="AV28" s="7"/>
       <c r="AW28" s="7"/>
       <c r="AX28" s="7"/>
       <c r="AY28" s="7"/>
       <c r="AZ28" s="7"/>
       <c r="BA28" s="7"/>
       <c r="BB28" s="7"/>
-    </row>
-    <row r="29" spans="1:54" ht="24" x14ac:dyDescent="0.35">
+      <c r="BC28" s="7"/>
+      <c r="BD28" s="7"/>
+    </row>
+    <row r="29" spans="1:56" ht="24" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="str">
         <f>+VLOOKUP(D29,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0002</v>
       </c>
       <c r="B29" s="2" t="str">
-        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$11,2,0)</f>
+        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$12,2,0)</f>
         <v>01</v>
       </c>
       <c r="C29" s="9" t="s">
@@ -31427,33 +32033,35 @@
       <c r="AO29" s="7"/>
       <c r="AP29" s="7"/>
       <c r="AQ29" s="7"/>
-      <c r="AR29" s="7" t="s">
+      <c r="AR29" s="7"/>
+      <c r="AS29" s="7"/>
+      <c r="AT29" s="7" t="s">
         <v>878</v>
       </c>
-      <c r="AS29" s="7" t="str">
+      <c r="AU29" s="7" t="str">
         <f>PRODUCTOS[[#This Row],[Data]]</f>
         <v>DATACLIMÁTICO</v>
       </c>
-      <c r="AT29" s="7" t="str">
+      <c r="AV29" s="7" t="str">
         <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
         <v>GEE</v>
       </c>
-      <c r="AU29" s="7"/>
-      <c r="AV29" s="7"/>
       <c r="AW29" s="7"/>
       <c r="AX29" s="7"/>
       <c r="AY29" s="7"/>
       <c r="AZ29" s="7"/>
       <c r="BA29" s="7"/>
       <c r="BB29" s="7"/>
-    </row>
-    <row r="30" spans="1:54" ht="29" hidden="1" x14ac:dyDescent="0.35">
+      <c r="BC29" s="7"/>
+      <c r="BD29" s="7"/>
+    </row>
+    <row r="30" spans="1:56" ht="29" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="str">
         <f>+VLOOKUP(D30,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0001</v>
       </c>
       <c r="B30" s="2" t="str">
-        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$11,2,0)</f>
+        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$12,2,0)</f>
         <v>01</v>
       </c>
       <c r="C30" s="9" t="s">
@@ -31520,33 +32128,35 @@
       <c r="AO30" s="7"/>
       <c r="AP30" s="7"/>
       <c r="AQ30" s="7"/>
-      <c r="AR30" s="7" t="s">
+      <c r="AR30" s="7"/>
+      <c r="AS30" s="7"/>
+      <c r="AT30" s="7" t="s">
         <v>878</v>
       </c>
-      <c r="AS30" s="7" t="str">
+      <c r="AU30" s="7" t="str">
         <f>PRODUCTOS[[#This Row],[Data]]</f>
         <v>DATASALUD</v>
       </c>
-      <c r="AT30" s="7" t="str">
+      <c r="AV30" s="7" t="str">
         <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
         <v>POWER BI</v>
       </c>
-      <c r="AU30" s="7"/>
-      <c r="AV30" s="7"/>
       <c r="AW30" s="7"/>
       <c r="AX30" s="7"/>
       <c r="AY30" s="7"/>
       <c r="AZ30" s="7"/>
       <c r="BA30" s="7"/>
       <c r="BB30" s="7"/>
-    </row>
-    <row r="31" spans="1:54" ht="24" hidden="1" x14ac:dyDescent="0.35">
+      <c r="BC30" s="7"/>
+      <c r="BD30" s="7"/>
+    </row>
+    <row r="31" spans="1:56" ht="24" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="str">
         <f>+VLOOKUP(D31,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0001</v>
       </c>
       <c r="B31" s="2" t="str">
-        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$11,2,0)</f>
+        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$12,2,0)</f>
         <v>01</v>
       </c>
       <c r="C31" s="9" t="s">
@@ -31613,33 +32223,35 @@
       <c r="AO31" s="7"/>
       <c r="AP31" s="7"/>
       <c r="AQ31" s="7"/>
-      <c r="AR31" s="7" t="s">
+      <c r="AR31" s="7"/>
+      <c r="AS31" s="7"/>
+      <c r="AT31" s="7" t="s">
         <v>878</v>
       </c>
-      <c r="AS31" s="7" t="str">
+      <c r="AU31" s="7" t="str">
         <f>PRODUCTOS[[#This Row],[Data]]</f>
         <v>DATASALUD</v>
       </c>
-      <c r="AT31" s="7" t="str">
+      <c r="AV31" s="7" t="str">
         <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
         <v>POWER BI</v>
       </c>
-      <c r="AU31" s="7"/>
-      <c r="AV31" s="7"/>
       <c r="AW31" s="7"/>
       <c r="AX31" s="7"/>
       <c r="AY31" s="7"/>
       <c r="AZ31" s="7"/>
       <c r="BA31" s="7"/>
       <c r="BB31" s="7"/>
-    </row>
-    <row r="32" spans="1:54" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="BC31" s="7"/>
+      <c r="BD31" s="7"/>
+    </row>
+    <row r="32" spans="1:56" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="str">
         <f>+VLOOKUP(D32,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0001</v>
       </c>
       <c r="B32" s="2" t="str">
-        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$11,2,0)</f>
+        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$12,2,0)</f>
         <v>01</v>
       </c>
       <c r="C32" s="9" t="s">
@@ -31659,12 +32271,12 @@
         <v>1205</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>1347</v>
+        <v>1344</v>
       </c>
       <c r="I32" s="2"/>
       <c r="J32" s="44">
         <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$J$112,4,0)</f>
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="K32" s="2" t="str">
         <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$K$112,5,0)</f>
@@ -31712,42 +32324,44 @@
       <c r="AL32" s="7"/>
       <c r="AM32" s="7"/>
       <c r="AN32" s="7" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="AO32" s="7"/>
       <c r="AP32" s="7"/>
       <c r="AQ32" s="7"/>
-      <c r="AR32" s="7" t="s">
+      <c r="AR32" s="7"/>
+      <c r="AS32" s="7"/>
+      <c r="AT32" s="7" t="s">
         <v>878</v>
       </c>
-      <c r="AS32" s="7" t="str">
+      <c r="AU32" s="7" t="str">
         <f>PRODUCTOS[[#This Row],[Data]]</f>
         <v>DATASALUD</v>
       </c>
-      <c r="AT32" s="7" t="str">
+      <c r="AV32" s="7" t="str">
         <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
         <v>ARCGIS-POWER BI</v>
       </c>
-      <c r="AU32" s="7"/>
-      <c r="AV32" s="7" t="s">
+      <c r="AW32" s="7"/>
+      <c r="AX32" s="7" t="s">
         <v>962</v>
       </c>
-      <c r="AW32" s="7"/>
-      <c r="AX32" s="7"/>
       <c r="AY32" s="7"/>
       <c r="AZ32" s="7"/>
       <c r="BA32" s="7"/>
-      <c r="BB32" s="7" t="s">
-        <v>1359</v>
-      </c>
-    </row>
-    <row r="33" spans="1:54" ht="29" hidden="1" x14ac:dyDescent="0.35">
+      <c r="BB32" s="7"/>
+      <c r="BC32" s="7"/>
+      <c r="BD32" s="7" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="33" spans="1:56" ht="29" x14ac:dyDescent="0.35">
       <c r="A33" s="42" t="str">
         <f>+VLOOKUP(D33,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0019</v>
       </c>
       <c r="B33" s="42" t="str">
-        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$11,2,0)</f>
+        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$12,2,0)</f>
         <v>02</v>
       </c>
       <c r="C33" s="9" t="s">
@@ -31814,33 +32428,35 @@
       <c r="AO33" s="7"/>
       <c r="AP33" s="7"/>
       <c r="AQ33" s="7"/>
-      <c r="AR33" s="7" t="s">
+      <c r="AR33" s="7"/>
+      <c r="AS33" s="7"/>
+      <c r="AT33" s="7" t="s">
         <v>878</v>
       </c>
-      <c r="AS33" s="7" t="str">
+      <c r="AU33" s="7" t="str">
         <f>PRODUCTOS[[#This Row],[Data]]</f>
         <v>DATAPUEBLOS</v>
       </c>
-      <c r="AT33" s="7">
+      <c r="AV33" s="7">
         <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
         <v>0</v>
       </c>
-      <c r="AU33" s="7"/>
-      <c r="AV33" s="7"/>
       <c r="AW33" s="7"/>
       <c r="AX33" s="7"/>
       <c r="AY33" s="7"/>
       <c r="AZ33" s="7"/>
       <c r="BA33" s="7"/>
       <c r="BB33" s="7"/>
-    </row>
-    <row r="34" spans="1:54" ht="29" hidden="1" x14ac:dyDescent="0.35">
+      <c r="BC33" s="7"/>
+      <c r="BD33" s="7"/>
+    </row>
+    <row r="34" spans="1:56" ht="29" x14ac:dyDescent="0.35">
       <c r="A34" s="42" t="str">
         <f>+VLOOKUP(D34,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0019</v>
       </c>
       <c r="B34" s="42" t="str">
-        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$11,2,0)</f>
+        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$12,2,0)</f>
         <v>04</v>
       </c>
       <c r="C34" s="9" t="s">
@@ -31907,33 +32523,35 @@
       <c r="AO34" s="7"/>
       <c r="AP34" s="7"/>
       <c r="AQ34" s="7"/>
-      <c r="AR34" s="7" t="s">
+      <c r="AR34" s="7"/>
+      <c r="AS34" s="7"/>
+      <c r="AT34" s="7" t="s">
         <v>878</v>
       </c>
-      <c r="AS34" s="7" t="str">
+      <c r="AU34" s="7" t="str">
         <f>PRODUCTOS[[#This Row],[Data]]</f>
         <v>DATAPUEBLOS</v>
       </c>
-      <c r="AT34" s="7">
+      <c r="AV34" s="7">
         <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
         <v>0</v>
       </c>
-      <c r="AU34" s="7"/>
-      <c r="AV34" s="7"/>
       <c r="AW34" s="7"/>
       <c r="AX34" s="7"/>
       <c r="AY34" s="7"/>
       <c r="AZ34" s="7"/>
       <c r="BA34" s="7"/>
       <c r="BB34" s="7"/>
-    </row>
-    <row r="35" spans="1:54" ht="24" hidden="1" x14ac:dyDescent="0.35">
+      <c r="BC34" s="7"/>
+      <c r="BD34" s="7"/>
+    </row>
+    <row r="35" spans="1:56" ht="24" x14ac:dyDescent="0.35">
       <c r="A35" s="42" t="str">
         <f>+VLOOKUP(D35,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0004</v>
       </c>
       <c r="B35" s="42" t="str">
-        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$11,2,0)</f>
+        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$12,2,0)</f>
         <v>02</v>
       </c>
       <c r="C35" s="9" t="s">
@@ -32004,33 +32622,35 @@
       <c r="AO35" s="7"/>
       <c r="AP35" s="7"/>
       <c r="AQ35" s="7"/>
-      <c r="AR35" s="7" t="s">
+      <c r="AR35" s="7"/>
+      <c r="AS35" s="7"/>
+      <c r="AT35" s="7" t="s">
         <v>878</v>
       </c>
-      <c r="AS35" s="7" t="str">
+      <c r="AU35" s="7" t="str">
         <f>PRODUCTOS[[#This Row],[Data]]</f>
         <v>DATAMUNICIPIO</v>
       </c>
-      <c r="AT35" s="7" t="str">
+      <c r="AV35" s="7" t="str">
         <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
         <v>ARCGIS-POWER BI</v>
       </c>
-      <c r="AU35" s="7"/>
-      <c r="AV35" s="7"/>
       <c r="AW35" s="7"/>
       <c r="AX35" s="7"/>
       <c r="AY35" s="7"/>
       <c r="AZ35" s="7"/>
       <c r="BA35" s="7"/>
       <c r="BB35" s="7"/>
-    </row>
-    <row r="36" spans="1:54" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="BC35" s="7"/>
+      <c r="BD35" s="7"/>
+    </row>
+    <row r="36" spans="1:56" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="str">
         <f>+VLOOKUP(D36,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0007</v>
       </c>
       <c r="B36" s="2" t="str">
-        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$11,2,0)</f>
+        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$12,2,0)</f>
         <v>01</v>
       </c>
       <c r="C36" s="9" t="s">
@@ -32050,7 +32670,7 @@
         <v>928</v>
       </c>
       <c r="H36" s="98" t="s">
-        <v>1339</v>
+        <v>1336</v>
       </c>
       <c r="I36" s="2"/>
       <c r="J36" s="44">
@@ -32089,25 +32709,25 @@
         <v>Empresas Registradas en el SII</v>
       </c>
       <c r="AD36" s="135" t="s">
-        <v>1361</v>
-      </c>
-      <c r="AE36" s="7" t="s">
+        <v>1357</v>
+      </c>
+      <c r="AE36" s="19" t="s">
         <v>194</v>
       </c>
-      <c r="AF36" s="122"/>
-      <c r="AG36" s="7" t="s">
+      <c r="AF36" s="168"/>
+      <c r="AG36" s="19" t="s">
         <v>1155</v>
       </c>
-      <c r="AH36" s="7"/>
-      <c r="AI36" s="7" t="s">
+      <c r="AH36" s="169"/>
+      <c r="AI36" s="19" t="s">
         <v>1156</v>
       </c>
-      <c r="AJ36" s="7"/>
-      <c r="AK36" s="7"/>
-      <c r="AL36" s="7"/>
-      <c r="AM36" s="7"/>
+      <c r="AJ36" s="169"/>
+      <c r="AK36" s="170"/>
+      <c r="AL36" s="170"/>
+      <c r="AM36" s="170"/>
       <c r="AN36" s="7" t="s">
-        <v>1340</v>
+        <v>1337</v>
       </c>
       <c r="AO36" s="7" t="s">
         <v>1159</v>
@@ -32115,48 +32735,54 @@
       <c r="AP36" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="AQ36" s="100"/>
-      <c r="AR36" s="7" t="s">
+      <c r="AQ36" s="19" t="s">
+        <v>1448</v>
+      </c>
+      <c r="AR36" s="19" t="s">
+        <v>1327</v>
+      </c>
+      <c r="AS36" s="169"/>
+      <c r="AT36" s="7" t="s">
         <v>878</v>
       </c>
-      <c r="AS36" s="7" t="str">
+      <c r="AU36" s="7" t="str">
         <f>PRODUCTOS[[#This Row],[Data]]</f>
         <v>DATAEMPRESA</v>
       </c>
-      <c r="AT36" s="7" t="str">
+      <c r="AV36" s="7" t="str">
         <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
         <v>POWER BI</v>
       </c>
-      <c r="AU36" s="7" t="s">
+      <c r="AW36" s="7" t="s">
         <v>879</v>
       </c>
-      <c r="AV36" s="7" t="s">
+      <c r="AX36" s="7" t="s">
         <v>962</v>
       </c>
-      <c r="AW36" s="100"/>
-      <c r="AX36" s="7" t="s">
+      <c r="AY36" s="100"/>
+      <c r="AZ36" s="7" t="s">
         <v>880</v>
       </c>
-      <c r="AY36" s="7" t="s">
+      <c r="BA36" s="7" t="s">
         <v>881</v>
       </c>
-      <c r="AZ36" s="100" t="s">
+      <c r="BB36" s="100" t="s">
         <v>1161</v>
       </c>
-      <c r="BA36" s="7">
-        <v>1</v>
-      </c>
-      <c r="BB36" s="7" t="s">
-        <v>1341</v>
-      </c>
-    </row>
-    <row r="37" spans="1:54" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="BC36" s="7">
+        <v>1</v>
+      </c>
+      <c r="BD36" s="7" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="37" spans="1:56" ht="104" x14ac:dyDescent="0.35">
       <c r="A37" s="42" t="str">
         <f>+VLOOKUP(D37,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0004</v>
       </c>
       <c r="B37" s="42" t="str">
-        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$11,2,0)</f>
+        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$12,2,0)</f>
         <v>02</v>
       </c>
       <c r="C37" s="9" t="s">
@@ -32217,62 +32843,76 @@
       <c r="AD37" s="7" t="s">
         <v>961</v>
       </c>
-      <c r="AE37" s="7" t="s">
+      <c r="AE37" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="AF37" s="168"/>
+      <c r="AG37" s="19" t="s">
+        <v>1453</v>
+      </c>
+      <c r="AH37" s="169"/>
+      <c r="AI37" s="19" t="s">
         <v>966</v>
       </c>
-      <c r="AF37" s="122"/>
-      <c r="AG37" s="7"/>
-      <c r="AH37" s="7"/>
-      <c r="AI37" s="7"/>
-      <c r="AJ37" s="7"/>
-      <c r="AK37" s="7"/>
-      <c r="AL37" s="7"/>
-      <c r="AM37" s="7"/>
-      <c r="AN37" s="100"/>
-      <c r="AO37" s="7"/>
+      <c r="AJ37" s="169"/>
+      <c r="AK37" s="170"/>
+      <c r="AL37" s="170"/>
+      <c r="AM37" s="170"/>
+      <c r="AN37" s="19" t="s">
+        <v>1454</v>
+      </c>
+      <c r="AO37" s="7" t="s">
+        <v>1152</v>
+      </c>
       <c r="AP37" s="7" t="s">
-        <v>1331</v>
-      </c>
-      <c r="AQ37" s="7">
+        <v>767</v>
+      </c>
+      <c r="AQ37" s="19" t="s">
+        <v>1455</v>
+      </c>
+      <c r="AR37" s="19" t="s">
+        <v>1328</v>
+      </c>
+      <c r="AS37" s="7">
         <v>2018</v>
       </c>
-      <c r="AR37" s="7" t="s">
+      <c r="AT37" s="7" t="s">
         <v>878</v>
       </c>
-      <c r="AS37" s="7" t="str">
+      <c r="AU37" s="7" t="str">
         <f>PRODUCTOS[[#This Row],[Data]]</f>
         <v>DATAMUNICIPIO</v>
       </c>
-      <c r="AT37" s="7" t="str">
+      <c r="AV37" s="7" t="str">
         <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
         <v>POWER BI</v>
       </c>
-      <c r="AU37" s="7" t="s">
+      <c r="AW37" s="7" t="s">
         <v>879</v>
       </c>
-      <c r="AV37" s="7" t="s">
+      <c r="AX37" s="7" t="s">
         <v>962</v>
       </c>
-      <c r="AW37" s="100"/>
-      <c r="AX37" s="7" t="s">
+      <c r="AY37" s="100"/>
+      <c r="AZ37" s="7" t="s">
         <v>880</v>
       </c>
-      <c r="AY37" s="100"/>
-      <c r="AZ37" s="100"/>
-      <c r="BA37" s="7">
-        <v>1</v>
-      </c>
-      <c r="BB37" s="7" t="s">
-        <v>1332</v>
-      </c>
-    </row>
-    <row r="38" spans="1:54" ht="24" hidden="1" x14ac:dyDescent="0.35">
+      <c r="BA37" s="100"/>
+      <c r="BB37" s="100"/>
+      <c r="BC37" s="7">
+        <v>1</v>
+      </c>
+      <c r="BD37" s="7" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="38" spans="1:56" ht="24" x14ac:dyDescent="0.35">
       <c r="A38" s="42" t="str">
         <f>+VLOOKUP(D38,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0021</v>
       </c>
       <c r="B38" s="42" t="str">
-        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$11,2,0)</f>
+        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$12,2,0)</f>
         <v>01</v>
       </c>
       <c r="C38" s="9" t="s">
@@ -32339,33 +32979,35 @@
       <c r="AO38" s="7"/>
       <c r="AP38" s="7"/>
       <c r="AQ38" s="7"/>
-      <c r="AR38" s="7" t="s">
+      <c r="AR38" s="7"/>
+      <c r="AS38" s="7"/>
+      <c r="AT38" s="7" t="s">
         <v>878</v>
       </c>
-      <c r="AS38" s="7" t="str">
+      <c r="AU38" s="7" t="str">
         <f>PRODUCTOS[[#This Row],[Data]]</f>
         <v>DATAODS</v>
       </c>
-      <c r="AT38" s="7">
+      <c r="AV38" s="7">
         <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
         <v>0</v>
       </c>
-      <c r="AU38" s="7"/>
-      <c r="AV38" s="7"/>
       <c r="AW38" s="7"/>
       <c r="AX38" s="7"/>
       <c r="AY38" s="7"/>
       <c r="AZ38" s="7"/>
       <c r="BA38" s="7"/>
       <c r="BB38" s="7"/>
-    </row>
-    <row r="39" spans="1:54" ht="77.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="BC38" s="7"/>
+      <c r="BD38" s="7"/>
+    </row>
+    <row r="39" spans="1:56" ht="77.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="42" t="str">
         <f>+VLOOKUP(D39,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0012</v>
       </c>
       <c r="B39" s="42" t="str">
-        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$11,2,0)</f>
+        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$12,2,0)</f>
         <v>01</v>
       </c>
       <c r="C39" s="9" t="s">
@@ -32405,7 +33047,7 @@
         <v>POWER BI</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>1358</v>
+        <v>1354</v>
       </c>
       <c r="O39" s="2" t="s">
         <v>199</v>
@@ -32430,25 +33072,33 @@
       <c r="AD39" s="7" t="s">
         <v>960</v>
       </c>
-      <c r="AE39" s="7" t="s">
+      <c r="AE39" s="19" t="s">
         <v>194</v>
       </c>
-      <c r="AF39" s="121">
+      <c r="AF39" s="172">
         <v>0</v>
       </c>
-      <c r="AG39" s="7" t="s">
+      <c r="AG39" s="19" t="s">
         <v>1270</v>
       </c>
-      <c r="AH39" s="7"/>
-      <c r="AI39" s="7" t="s">
+      <c r="AH39" s="19" t="s">
         <v>1270</v>
       </c>
-      <c r="AJ39" s="7"/>
-      <c r="AK39" s="7"/>
-      <c r="AL39" s="7"/>
-      <c r="AM39" s="7"/>
+      <c r="AI39" s="19" t="s">
+        <v>1270</v>
+      </c>
+      <c r="AJ39" s="19" t="s">
+        <v>1270</v>
+      </c>
+      <c r="AK39" s="170"/>
+      <c r="AL39" s="19" t="s">
+        <v>1270</v>
+      </c>
+      <c r="AM39" s="19" t="s">
+        <v>1270</v>
+      </c>
       <c r="AN39" s="7" t="s">
-        <v>1373</v>
+        <v>1369</v>
       </c>
       <c r="AO39" s="7" t="s">
         <v>1152</v>
@@ -32456,52 +33106,58 @@
       <c r="AP39" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="AQ39" s="7">
+      <c r="AQ39" s="7" t="s">
+        <v>1270</v>
+      </c>
+      <c r="AR39" s="7" t="s">
+        <v>1270</v>
+      </c>
+      <c r="AS39" s="7">
         <v>2020</v>
       </c>
-      <c r="AR39" s="7" t="s">
+      <c r="AT39" s="7" t="s">
         <v>878</v>
       </c>
-      <c r="AS39" s="7" t="str">
+      <c r="AU39" s="7" t="str">
         <f>PRODUCTOS[[#This Row],[Data]]</f>
         <v>DATARIESGO</v>
       </c>
-      <c r="AT39" s="7" t="str">
+      <c r="AV39" s="7" t="str">
         <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
         <v>POWER BI</v>
       </c>
-      <c r="AU39" s="7" t="s">
+      <c r="AW39" s="7" t="s">
         <v>879</v>
       </c>
-      <c r="AV39" s="7" t="s">
+      <c r="AX39" s="7" t="s">
         <v>962</v>
       </c>
-      <c r="AW39" s="7" t="s">
+      <c r="AY39" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AX39" s="7" t="s">
+      <c r="AZ39" s="7" t="s">
         <v>880</v>
       </c>
-      <c r="AY39" s="7" t="s">
+      <c r="BA39" s="7" t="s">
         <v>881</v>
       </c>
-      <c r="AZ39" s="7" t="s">
+      <c r="BB39" s="7" t="s">
         <v>1154</v>
       </c>
-      <c r="BA39" s="7">
-        <v>1</v>
-      </c>
-      <c r="BB39" s="7" t="s">
+      <c r="BC39" s="7">
+        <v>1</v>
+      </c>
+      <c r="BD39" s="7" t="s">
         <v>882</v>
       </c>
     </row>
-    <row r="40" spans="1:54" ht="48" hidden="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:56" ht="48" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="str">
         <f>+VLOOKUP(D40,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0003</v>
       </c>
       <c r="B40" s="2" t="str">
-        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$11,2,0)</f>
+        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$12,2,0)</f>
         <v>01</v>
       </c>
       <c r="C40" s="9" t="s">
@@ -32571,56 +33227,58 @@
         <v>194</v>
       </c>
       <c r="AJ40" s="100"/>
-      <c r="AK40" s="100"/>
-      <c r="AL40" s="100"/>
-      <c r="AM40" s="100"/>
+      <c r="AK40" s="170"/>
+      <c r="AL40" s="170"/>
+      <c r="AM40" s="170"/>
       <c r="AN40" s="7" t="s">
-        <v>1374</v>
+        <v>1370</v>
       </c>
       <c r="AO40" s="7"/>
       <c r="AP40" s="100"/>
       <c r="AQ40" s="100"/>
-      <c r="AR40" s="7" t="s">
+      <c r="AR40" s="100"/>
+      <c r="AS40" s="100"/>
+      <c r="AT40" s="7" t="s">
         <v>878</v>
       </c>
-      <c r="AS40" s="7" t="str">
+      <c r="AU40" s="7" t="str">
         <f>PRODUCTOS[[#This Row],[Data]]</f>
         <v>DATAAGRO</v>
       </c>
-      <c r="AT40" s="7" t="str">
+      <c r="AV40" s="7" t="str">
         <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
         <v>POWER BI</v>
       </c>
-      <c r="AU40" s="7" t="s">
+      <c r="AW40" s="7" t="s">
         <v>879</v>
       </c>
-      <c r="AV40" s="7" t="s">
+      <c r="AX40" s="7" t="s">
         <v>962</v>
       </c>
-      <c r="AW40" s="100"/>
-      <c r="AX40" s="7" t="s">
+      <c r="AY40" s="100"/>
+      <c r="AZ40" s="7" t="s">
         <v>880</v>
       </c>
-      <c r="AY40" s="7" t="s">
+      <c r="BA40" s="7" t="s">
         <v>881</v>
       </c>
-      <c r="AZ40" s="7" t="s">
+      <c r="BB40" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="BA40" s="7">
-        <v>1</v>
-      </c>
-      <c r="BB40" s="7" t="s">
-        <v>1334</v>
-      </c>
-    </row>
-    <row r="41" spans="1:54" ht="29" hidden="1" x14ac:dyDescent="0.35">
+      <c r="BC40" s="7">
+        <v>1</v>
+      </c>
+      <c r="BD40" s="7" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="41" spans="1:56" ht="29" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="str">
         <f>+VLOOKUP(D41,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0003</v>
       </c>
       <c r="B41" s="2" t="str">
-        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$11,2,0)</f>
+        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$12,2,0)</f>
         <v>01</v>
       </c>
       <c r="C41" s="9" t="s">
@@ -32689,33 +33347,35 @@
       <c r="AO41" s="7"/>
       <c r="AP41" s="7"/>
       <c r="AQ41" s="7"/>
-      <c r="AR41" s="7" t="s">
+      <c r="AR41" s="7"/>
+      <c r="AS41" s="7"/>
+      <c r="AT41" s="7" t="s">
         <v>878</v>
       </c>
-      <c r="AS41" s="7" t="str">
+      <c r="AU41" s="7" t="str">
         <f>PRODUCTOS[[#This Row],[Data]]</f>
         <v>DATAAGRO</v>
       </c>
-      <c r="AT41" s="7" t="str">
+      <c r="AV41" s="7" t="str">
         <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
         <v>GEE</v>
       </c>
-      <c r="AU41" s="7"/>
-      <c r="AV41" s="7"/>
       <c r="AW41" s="7"/>
       <c r="AX41" s="7"/>
       <c r="AY41" s="7"/>
       <c r="AZ41" s="7"/>
       <c r="BA41" s="7"/>
       <c r="BB41" s="7"/>
-    </row>
-    <row r="42" spans="1:54" ht="24" hidden="1" x14ac:dyDescent="0.35">
+      <c r="BC41" s="7"/>
+      <c r="BD41" s="7"/>
+    </row>
+    <row r="42" spans="1:56" ht="24" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="str">
         <f>+VLOOKUP(D42,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0003</v>
       </c>
       <c r="B42" s="2" t="str">
-        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$11,2,0)</f>
+        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$12,2,0)</f>
         <v>02</v>
       </c>
       <c r="C42" s="9" t="s">
@@ -32790,33 +33450,35 @@
       <c r="AO42" s="7"/>
       <c r="AP42" s="7"/>
       <c r="AQ42" s="7"/>
-      <c r="AR42" s="7" t="s">
+      <c r="AR42" s="7"/>
+      <c r="AS42" s="7"/>
+      <c r="AT42" s="7" t="s">
         <v>878</v>
       </c>
-      <c r="AS42" s="7" t="str">
+      <c r="AU42" s="7" t="str">
         <f>PRODUCTOS[[#This Row],[Data]]</f>
         <v>DATAAGRO</v>
       </c>
-      <c r="AT42" s="7" t="str">
+      <c r="AV42" s="7" t="str">
         <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
         <v>POWER BI</v>
       </c>
-      <c r="AU42" s="7"/>
-      <c r="AV42" s="7"/>
       <c r="AW42" s="7"/>
       <c r="AX42" s="7"/>
       <c r="AY42" s="7"/>
       <c r="AZ42" s="7"/>
       <c r="BA42" s="7"/>
       <c r="BB42" s="7"/>
-    </row>
-    <row r="43" spans="1:54" ht="24" hidden="1" x14ac:dyDescent="0.35">
+      <c r="BC42" s="7"/>
+      <c r="BD42" s="7"/>
+    </row>
+    <row r="43" spans="1:56" ht="24" x14ac:dyDescent="0.35">
       <c r="A43" s="42" t="str">
         <f>+VLOOKUP(D43,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0014</v>
       </c>
       <c r="B43" s="42" t="str">
-        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$11,2,0)</f>
+        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$12,2,0)</f>
         <v>01</v>
       </c>
       <c r="C43" s="9" t="s">
@@ -32883,33 +33545,35 @@
       <c r="AO43" s="7"/>
       <c r="AP43" s="7"/>
       <c r="AQ43" s="7"/>
-      <c r="AR43" s="7" t="s">
+      <c r="AR43" s="7"/>
+      <c r="AS43" s="7"/>
+      <c r="AT43" s="7" t="s">
         <v>878</v>
       </c>
-      <c r="AS43" s="7" t="str">
+      <c r="AU43" s="7" t="str">
         <f>PRODUCTOS[[#This Row],[Data]]</f>
         <v>DATATRANSPARENCIA</v>
       </c>
-      <c r="AT43" s="7">
+      <c r="AV43" s="7">
         <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
         <v>0</v>
       </c>
-      <c r="AU43" s="7"/>
-      <c r="AV43" s="7"/>
       <c r="AW43" s="7"/>
       <c r="AX43" s="7"/>
       <c r="AY43" s="7"/>
       <c r="AZ43" s="7"/>
       <c r="BA43" s="7"/>
       <c r="BB43" s="7"/>
-    </row>
-    <row r="44" spans="1:54" ht="24" hidden="1" x14ac:dyDescent="0.35">
+      <c r="BC43" s="7"/>
+      <c r="BD43" s="7"/>
+    </row>
+    <row r="44" spans="1:56" ht="24" x14ac:dyDescent="0.35">
       <c r="A44" s="42" t="str">
         <f>+VLOOKUP(D44,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0014</v>
       </c>
       <c r="B44" s="42" t="str">
-        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$11,2,0)</f>
+        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$12,2,0)</f>
         <v>01</v>
       </c>
       <c r="C44" s="9" t="s">
@@ -32976,33 +33640,35 @@
       <c r="AO44" s="7"/>
       <c r="AP44" s="7"/>
       <c r="AQ44" s="7"/>
-      <c r="AR44" s="7" t="s">
+      <c r="AR44" s="7"/>
+      <c r="AS44" s="7"/>
+      <c r="AT44" s="7" t="s">
         <v>878</v>
       </c>
-      <c r="AS44" s="7" t="str">
+      <c r="AU44" s="7" t="str">
         <f>PRODUCTOS[[#This Row],[Data]]</f>
         <v>DATATRANSPARENCIA</v>
       </c>
-      <c r="AT44" s="7">
+      <c r="AV44" s="7">
         <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
         <v>0</v>
       </c>
-      <c r="AU44" s="7"/>
-      <c r="AV44" s="7"/>
       <c r="AW44" s="7"/>
       <c r="AX44" s="7"/>
       <c r="AY44" s="7"/>
       <c r="AZ44" s="7"/>
       <c r="BA44" s="7"/>
       <c r="BB44" s="7"/>
-    </row>
-    <row r="45" spans="1:54" ht="84" hidden="1" x14ac:dyDescent="0.35">
+      <c r="BC44" s="7"/>
+      <c r="BD44" s="7"/>
+    </row>
+    <row r="45" spans="1:56" ht="84" x14ac:dyDescent="0.35">
       <c r="A45" s="42" t="str">
         <f>+VLOOKUP(D45,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0009</v>
       </c>
       <c r="B45" s="42" t="str">
-        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$11,2,0)</f>
+        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$12,2,0)</f>
         <v>01</v>
       </c>
       <c r="C45" s="9" t="s">
@@ -33051,6 +33717,9 @@
       <c r="U45" s="2"/>
       <c r="V45" s="3"/>
       <c r="W45" s="7"/>
+      <c r="X45" s="91" t="s">
+        <v>1491</v>
+      </c>
       <c r="AA45" s="7"/>
       <c r="AB45" s="13"/>
       <c r="AC45" s="7" t="str">
@@ -33060,66 +33729,88 @@
       <c r="AD45" s="7" t="s">
         <v>961</v>
       </c>
-      <c r="AE45" s="7" t="s">
-        <v>966</v>
-      </c>
-      <c r="AF45" s="121"/>
-      <c r="AG45" s="7"/>
-      <c r="AH45" s="7"/>
-      <c r="AI45" s="7"/>
-      <c r="AJ45" s="7"/>
-      <c r="AK45" s="7"/>
-      <c r="AL45" s="7"/>
-      <c r="AM45" s="7"/>
+      <c r="AE45" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="AF45" s="168"/>
+      <c r="AG45" s="19" t="s">
+        <v>1270</v>
+      </c>
+      <c r="AH45" s="19" t="s">
+        <v>1270</v>
+      </c>
+      <c r="AI45" s="19" t="s">
+        <v>1270</v>
+      </c>
+      <c r="AJ45" s="19" t="s">
+        <v>1270</v>
+      </c>
+      <c r="AK45" s="170"/>
+      <c r="AL45" s="19" t="s">
+        <v>1270</v>
+      </c>
+      <c r="AM45" s="19" t="s">
+        <v>1270</v>
+      </c>
       <c r="AN45" s="7" t="s">
-        <v>1375</v>
-      </c>
-      <c r="AO45" s="7"/>
+        <v>1371</v>
+      </c>
+      <c r="AO45" s="7" t="s">
+        <v>1152</v>
+      </c>
       <c r="AP45" s="7" t="s">
         <v>1124</v>
       </c>
       <c r="AQ45" s="7" t="s">
+        <v>1270</v>
+      </c>
+      <c r="AR45" s="7" t="s">
+        <v>1270</v>
+      </c>
+      <c r="AS45" s="7" t="s">
         <v>1272</v>
       </c>
-      <c r="AR45" s="7" t="s">
+      <c r="AT45" s="7" t="s">
         <v>878</v>
       </c>
-      <c r="AS45" s="7" t="str">
+      <c r="AU45" s="7" t="str">
         <f>PRODUCTOS[[#This Row],[Data]]</f>
         <v>DATAVIVIENDA</v>
       </c>
-      <c r="AT45" s="7" t="str">
+      <c r="AV45" s="7" t="str">
         <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
         <v>ARCGISONLINE</v>
       </c>
-      <c r="AU45" s="7" t="s">
+      <c r="AW45" s="7" t="s">
         <v>1126</v>
       </c>
-      <c r="AV45" s="7" t="s">
+      <c r="AX45" s="7" t="s">
         <v>962</v>
-      </c>
-      <c r="AW45" s="100"/>
-      <c r="AX45" s="7" t="s">
-        <v>880</v>
       </c>
       <c r="AY45" s="100"/>
       <c r="AZ45" s="7" t="s">
+        <v>880</v>
+      </c>
+      <c r="BA45" s="7" t="s">
+        <v>881</v>
+      </c>
+      <c r="BB45" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="BA45" s="7">
-        <v>1</v>
-      </c>
-      <c r="BB45" s="7" t="s">
+      <c r="BC45" s="7">
+        <v>1</v>
+      </c>
+      <c r="BD45" s="7" t="s">
         <v>1127</v>
       </c>
     </row>
-    <row r="46" spans="1:54" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:56" ht="29" x14ac:dyDescent="0.35">
       <c r="A46" s="42" t="str">
         <f>+VLOOKUP(D46,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0013</v>
       </c>
       <c r="B46" s="42" t="str">
-        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$11,2,0)</f>
+        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$12,2,0)</f>
         <v>01</v>
       </c>
       <c r="C46" s="9" t="s">
@@ -33186,33 +33877,35 @@
       <c r="AO46" s="7"/>
       <c r="AP46" s="7"/>
       <c r="AQ46" s="7"/>
-      <c r="AR46" s="7" t="s">
+      <c r="AR46" s="7"/>
+      <c r="AS46" s="7"/>
+      <c r="AT46" s="7" t="s">
         <v>878</v>
       </c>
-      <c r="AS46" s="7" t="str">
+      <c r="AU46" s="7" t="str">
         <f>PRODUCTOS[[#This Row],[Data]]</f>
         <v>DATACLIMA</v>
       </c>
-      <c r="AT46" s="7">
+      <c r="AV46" s="7">
         <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
         <v>0</v>
       </c>
-      <c r="AU46" s="7"/>
-      <c r="AV46" s="7"/>
       <c r="AW46" s="7"/>
       <c r="AX46" s="7"/>
       <c r="AY46" s="7"/>
       <c r="AZ46" s="7"/>
       <c r="BA46" s="7"/>
       <c r="BB46" s="7"/>
-    </row>
-    <row r="47" spans="1:54" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="BC46" s="7"/>
+      <c r="BD46" s="7"/>
+    </row>
+    <row r="47" spans="1:56" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="str">
         <f>+VLOOKUP(D47,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0005</v>
       </c>
       <c r="B47" s="2" t="str">
-        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$11,2,0)</f>
+        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$12,2,0)</f>
         <v>01</v>
       </c>
       <c r="C47" s="9" t="s">
@@ -33281,38 +33974,40 @@
       <c r="AL47" s="7"/>
       <c r="AM47" s="7"/>
       <c r="AN47" s="7" t="s">
-        <v>1376</v>
+        <v>1372</v>
       </c>
       <c r="AO47" s="7"/>
       <c r="AP47" s="7"/>
       <c r="AQ47" s="7"/>
-      <c r="AR47" s="7" t="s">
+      <c r="AR47" s="7"/>
+      <c r="AS47" s="7"/>
+      <c r="AT47" s="7" t="s">
         <v>878</v>
       </c>
-      <c r="AS47" s="7" t="str">
+      <c r="AU47" s="7" t="str">
         <f>PRODUCTOS[[#This Row],[Data]]</f>
         <v>DATASALVAGUARDAS</v>
       </c>
-      <c r="AT47" s="7">
+      <c r="AV47" s="7">
         <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
         <v>0</v>
       </c>
-      <c r="AU47" s="7"/>
-      <c r="AV47" s="7"/>
       <c r="AW47" s="7"/>
       <c r="AX47" s="7"/>
       <c r="AY47" s="7"/>
       <c r="AZ47" s="7"/>
       <c r="BA47" s="7"/>
       <c r="BB47" s="7"/>
-    </row>
-    <row r="48" spans="1:54" ht="65.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="BC47" s="7"/>
+      <c r="BD47" s="7"/>
+    </row>
+    <row r="48" spans="1:56" ht="65.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="42" t="str">
         <f>+VLOOKUP(D48,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0009</v>
       </c>
       <c r="B48" s="42" t="str">
-        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$11,2,0)</f>
+        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$12,2,0)</f>
         <v>01</v>
       </c>
       <c r="C48" s="9" t="s">
@@ -33370,66 +34065,84 @@
       <c r="AD48" s="7" t="s">
         <v>961</v>
       </c>
-      <c r="AE48" s="7" t="s">
+      <c r="AE48" s="19" t="s">
         <v>966</v>
       </c>
-      <c r="AF48" s="121"/>
-      <c r="AG48" s="7"/>
-      <c r="AH48" s="7"/>
-      <c r="AI48" s="7"/>
-      <c r="AJ48" s="7"/>
-      <c r="AK48" s="7"/>
-      <c r="AL48" s="7"/>
-      <c r="AM48" s="7"/>
-      <c r="AN48" s="101" t="s">
-        <v>1328</v>
+      <c r="AF48" s="168"/>
+      <c r="AG48" s="19" t="s">
+        <v>1270</v>
+      </c>
+      <c r="AH48" s="19" t="s">
+        <v>1270</v>
+      </c>
+      <c r="AI48" s="19" t="s">
+        <v>1270</v>
+      </c>
+      <c r="AJ48" s="19" t="s">
+        <v>1270</v>
+      </c>
+      <c r="AK48" s="170"/>
+      <c r="AL48" s="19" t="s">
+        <v>1270</v>
+      </c>
+      <c r="AM48" s="19" t="s">
+        <v>1270</v>
+      </c>
+      <c r="AN48" s="19" t="s">
+        <v>1456</v>
       </c>
       <c r="AO48" s="7"/>
       <c r="AP48" s="7" t="s">
         <v>1124</v>
       </c>
-      <c r="AQ48" s="7">
+      <c r="AQ48" s="19" t="s">
+        <v>1270</v>
+      </c>
+      <c r="AR48" s="19" t="s">
+        <v>1270</v>
+      </c>
+      <c r="AS48" s="7">
         <v>2018</v>
       </c>
-      <c r="AR48" s="7" t="s">
+      <c r="AT48" s="7" t="s">
         <v>878</v>
       </c>
-      <c r="AS48" s="7" t="str">
+      <c r="AU48" s="7" t="str">
         <f>PRODUCTOS[[#This Row],[Data]]</f>
         <v>DATAVIVIENDA</v>
       </c>
-      <c r="AT48" s="7" t="str">
+      <c r="AV48" s="7" t="str">
         <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
         <v>ARCGISONLINE</v>
       </c>
-      <c r="AU48" s="7" t="s">
+      <c r="AW48" s="7" t="s">
         <v>1126</v>
       </c>
-      <c r="AV48" s="7" t="s">
+      <c r="AX48" s="7" t="s">
         <v>962</v>
-      </c>
-      <c r="AW48" s="100"/>
-      <c r="AX48" s="7" t="s">
-        <v>880</v>
       </c>
       <c r="AY48" s="100"/>
       <c r="AZ48" s="7" t="s">
+        <v>880</v>
+      </c>
+      <c r="BA48" s="100"/>
+      <c r="BB48" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="BA48" s="7">
-        <v>1</v>
-      </c>
-      <c r="BB48" s="7" t="s">
+      <c r="BC48" s="7">
+        <v>1</v>
+      </c>
+      <c r="BD48" s="7" t="s">
         <v>1127</v>
       </c>
     </row>
-    <row r="49" spans="1:54" ht="61.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:56" ht="61.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="42" t="str">
         <f>+VLOOKUP(D49,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0009</v>
       </c>
       <c r="B49" s="42" t="str">
-        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$11,2,0)</f>
+        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$12,2,0)</f>
         <v>01</v>
       </c>
       <c r="C49" s="9" t="s">
@@ -33487,66 +34200,84 @@
       <c r="AD49" s="7" t="s">
         <v>961</v>
       </c>
-      <c r="AE49" s="7" t="s">
+      <c r="AE49" s="19" t="s">
         <v>966</v>
       </c>
-      <c r="AF49" s="121"/>
-      <c r="AG49" s="7"/>
-      <c r="AH49" s="7"/>
-      <c r="AI49" s="7"/>
-      <c r="AJ49" s="7"/>
-      <c r="AK49" s="7"/>
-      <c r="AL49" s="7"/>
-      <c r="AM49" s="7"/>
-      <c r="AN49" s="101" t="s">
-        <v>1329</v>
+      <c r="AF49" s="168"/>
+      <c r="AG49" s="19" t="s">
+        <v>1270</v>
+      </c>
+      <c r="AH49" s="19" t="s">
+        <v>1270</v>
+      </c>
+      <c r="AI49" s="19" t="s">
+        <v>1270</v>
+      </c>
+      <c r="AJ49" s="19" t="s">
+        <v>1270</v>
+      </c>
+      <c r="AK49" s="170"/>
+      <c r="AL49" s="19" t="s">
+        <v>1270</v>
+      </c>
+      <c r="AM49" s="19" t="s">
+        <v>1270</v>
+      </c>
+      <c r="AN49" s="19" t="s">
+        <v>1457</v>
       </c>
       <c r="AO49" s="7"/>
       <c r="AP49" s="7" t="s">
         <v>1124</v>
       </c>
-      <c r="AQ49" s="7">
+      <c r="AQ49" s="19" t="s">
+        <v>1270</v>
+      </c>
+      <c r="AR49" s="19" t="s">
+        <v>1270</v>
+      </c>
+      <c r="AS49" s="7">
         <v>2019</v>
       </c>
-      <c r="AR49" s="7" t="s">
+      <c r="AT49" s="7" t="s">
         <v>878</v>
       </c>
-      <c r="AS49" s="7" t="str">
+      <c r="AU49" s="7" t="str">
         <f>PRODUCTOS[[#This Row],[Data]]</f>
         <v>DATAVIVIENDA</v>
       </c>
-      <c r="AT49" s="7" t="str">
+      <c r="AV49" s="7" t="str">
         <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
         <v>ARCGISONLINE</v>
       </c>
-      <c r="AU49" s="7" t="s">
+      <c r="AW49" s="7" t="s">
         <v>1126</v>
       </c>
-      <c r="AV49" s="7" t="s">
+      <c r="AX49" s="7" t="s">
         <v>962</v>
-      </c>
-      <c r="AW49" s="100"/>
-      <c r="AX49" s="7" t="s">
-        <v>880</v>
       </c>
       <c r="AY49" s="100"/>
       <c r="AZ49" s="7" t="s">
+        <v>880</v>
+      </c>
+      <c r="BA49" s="100"/>
+      <c r="BB49" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="BA49" s="7">
-        <v>1</v>
-      </c>
-      <c r="BB49" s="7" t="s">
+      <c r="BC49" s="7">
+        <v>1</v>
+      </c>
+      <c r="BD49" s="7" t="s">
         <v>1127</v>
       </c>
     </row>
-    <row r="50" spans="1:54" ht="60" hidden="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:56" ht="78" x14ac:dyDescent="0.35">
       <c r="A50" s="42" t="str">
         <f>+VLOOKUP(D50,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0001</v>
       </c>
       <c r="B50" s="42" t="str">
-        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$11,2,0)</f>
+        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$12,2,0)</f>
         <v>05</v>
       </c>
       <c r="C50" s="9" t="s">
@@ -33566,7 +34297,7 @@
         <v>1132</v>
       </c>
       <c r="H50" s="99" t="s">
-        <v>1348</v>
+        <v>1345</v>
       </c>
       <c r="I50" s="2"/>
       <c r="J50" s="44">
@@ -33581,9 +34312,9 @@
         <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$L$112,6,0)</f>
         <v>0</v>
       </c>
-      <c r="M50" s="2">
+      <c r="M50" s="2" t="str">
         <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$N$112,8,0)</f>
-        <v>0</v>
+        <v>POWER BI</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -33595,6 +34326,9 @@
       <c r="U50" s="2"/>
       <c r="V50" s="3"/>
       <c r="W50" s="7"/>
+      <c r="X50" s="176" t="s">
+        <v>1471</v>
+      </c>
       <c r="AA50" s="7"/>
       <c r="AB50" s="13"/>
       <c r="AC50" s="7" t="str">
@@ -33602,52 +34336,90 @@
         <v>Avance del COVID-19</v>
       </c>
       <c r="AD50" s="7"/>
-      <c r="AE50" s="7"/>
-      <c r="AF50" s="122"/>
-      <c r="AG50" s="7"/>
-      <c r="AH50" s="7"/>
-      <c r="AI50" s="7"/>
-      <c r="AJ50" s="7"/>
-      <c r="AK50" s="7"/>
-      <c r="AL50" s="7"/>
-      <c r="AM50" s="7"/>
-      <c r="AN50" s="7"/>
-      <c r="AO50" s="7"/>
-      <c r="AP50" s="7"/>
-      <c r="AQ50" s="7"/>
-      <c r="AR50" s="7"/>
-      <c r="AS50" s="102" t="str">
+      <c r="AE50" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="AF50" s="172">
+        <v>0</v>
+      </c>
+      <c r="AG50" s="19" t="s">
+        <v>1270</v>
+      </c>
+      <c r="AH50" s="19" t="s">
+        <v>1270</v>
+      </c>
+      <c r="AI50" s="19" t="s">
+        <v>1270</v>
+      </c>
+      <c r="AJ50" s="19" t="s">
+        <v>1270</v>
+      </c>
+      <c r="AK50" s="170"/>
+      <c r="AL50" s="19" t="s">
+        <v>1270</v>
+      </c>
+      <c r="AM50" s="19" t="s">
+        <v>1270</v>
+      </c>
+      <c r="AN50" s="19" t="s">
+        <v>1458</v>
+      </c>
+      <c r="AO50" s="19" t="s">
+        <v>959</v>
+      </c>
+      <c r="AP50" s="19" t="s">
+        <v>1230</v>
+      </c>
+      <c r="AQ50" s="19" t="s">
+        <v>1270</v>
+      </c>
+      <c r="AR50" s="19" t="s">
+        <v>1270</v>
+      </c>
+      <c r="AS50" s="19">
+        <v>2020</v>
+      </c>
+      <c r="AT50" s="7" t="s">
+        <v>878</v>
+      </c>
+      <c r="AU50" s="102" t="str">
         <f>PRODUCTOS[[#This Row],[Data]]</f>
         <v>DATASALUD</v>
       </c>
-      <c r="AT50" s="102">
+      <c r="AV50" s="102" t="str">
         <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
-        <v>0</v>
-      </c>
-      <c r="AU50" s="7"/>
-      <c r="AV50" s="7" t="s">
+        <v>POWER BI</v>
+      </c>
+      <c r="AW50" s="19" t="s">
+        <v>1467</v>
+      </c>
+      <c r="AX50" s="7" t="s">
         <v>962</v>
       </c>
-      <c r="AW50" s="100"/>
-      <c r="AX50" s="7" t="s">
+      <c r="AY50" s="19" t="s">
+        <v>1465</v>
+      </c>
+      <c r="AZ50" s="7" t="s">
         <v>880</v>
       </c>
-      <c r="AY50" s="100"/>
-      <c r="AZ50" s="100"/>
-      <c r="BA50" s="7">
-        <v>1</v>
-      </c>
-      <c r="BB50" s="7" t="s">
-        <v>1335</v>
-      </c>
-    </row>
-    <row r="51" spans="1:54" ht="60" hidden="1" x14ac:dyDescent="0.35">
+      <c r="BA50" s="101" t="s">
+        <v>881</v>
+      </c>
+      <c r="BB50" s="100"/>
+      <c r="BC50" s="7">
+        <v>1</v>
+      </c>
+      <c r="BD50" s="7" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="51" spans="1:56" ht="78" x14ac:dyDescent="0.35">
       <c r="A51" s="42" t="str">
         <f>+VLOOKUP(D51,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0001</v>
       </c>
       <c r="B51" s="42" t="str">
-        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$11,2,0)</f>
+        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$12,2,0)</f>
         <v>04</v>
       </c>
       <c r="C51" s="9" t="s">
@@ -33667,7 +34439,7 @@
         <v>1132</v>
       </c>
       <c r="H51" s="99" t="s">
-        <v>1348</v>
+        <v>1345</v>
       </c>
       <c r="I51" s="2"/>
       <c r="J51" s="44">
@@ -33682,9 +34454,9 @@
         <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$L$112,6,0)</f>
         <v>0</v>
       </c>
-      <c r="M51" s="2">
+      <c r="M51" s="2" t="str">
         <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$N$112,8,0)</f>
-        <v>0</v>
+        <v>POWER BI</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -33696,6 +34468,9 @@
       <c r="U51" s="2"/>
       <c r="V51" s="3"/>
       <c r="W51" s="7"/>
+      <c r="X51" s="68" t="s">
+        <v>1470</v>
+      </c>
       <c r="AA51" s="7"/>
       <c r="AB51" s="13"/>
       <c r="AC51" s="7" t="str">
@@ -33703,52 +34478,90 @@
         <v>Avance del COVID-19</v>
       </c>
       <c r="AD51" s="7"/>
-      <c r="AE51" s="7"/>
-      <c r="AF51" s="122"/>
-      <c r="AG51" s="7"/>
-      <c r="AH51" s="7"/>
-      <c r="AI51" s="7"/>
-      <c r="AJ51" s="7"/>
-      <c r="AK51" s="7"/>
-      <c r="AL51" s="7"/>
-      <c r="AM51" s="7"/>
-      <c r="AN51" s="7"/>
-      <c r="AO51" s="7"/>
-      <c r="AP51" s="7"/>
-      <c r="AQ51" s="7"/>
-      <c r="AR51" s="7"/>
-      <c r="AS51" s="102" t="str">
+      <c r="AE51" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="AF51" s="172">
+        <v>0</v>
+      </c>
+      <c r="AG51" s="19" t="s">
+        <v>1270</v>
+      </c>
+      <c r="AH51" s="19" t="s">
+        <v>1270</v>
+      </c>
+      <c r="AI51" s="19" t="s">
+        <v>1270</v>
+      </c>
+      <c r="AJ51" s="19" t="s">
+        <v>1270</v>
+      </c>
+      <c r="AK51" s="170"/>
+      <c r="AL51" s="19" t="s">
+        <v>1270</v>
+      </c>
+      <c r="AM51" s="19" t="s">
+        <v>1270</v>
+      </c>
+      <c r="AN51" s="19" t="s">
+        <v>1459</v>
+      </c>
+      <c r="AO51" s="19" t="s">
+        <v>959</v>
+      </c>
+      <c r="AP51" s="19" t="s">
+        <v>840</v>
+      </c>
+      <c r="AQ51" s="19" t="s">
+        <v>1270</v>
+      </c>
+      <c r="AR51" s="19" t="s">
+        <v>1270</v>
+      </c>
+      <c r="AS51" s="19">
+        <v>2020</v>
+      </c>
+      <c r="AT51" s="7" t="s">
+        <v>878</v>
+      </c>
+      <c r="AU51" s="102" t="str">
         <f>PRODUCTOS[[#This Row],[Data]]</f>
         <v>DATASALUD</v>
       </c>
-      <c r="AT51" s="102">
+      <c r="AV51" s="102" t="str">
         <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
-        <v>0</v>
-      </c>
-      <c r="AU51" s="7"/>
-      <c r="AV51" s="7" t="s">
+        <v>POWER BI</v>
+      </c>
+      <c r="AW51" s="19" t="s">
+        <v>1467</v>
+      </c>
+      <c r="AX51" s="7" t="s">
         <v>962</v>
       </c>
-      <c r="AW51" s="100"/>
-      <c r="AX51" s="7" t="s">
+      <c r="AY51" s="19" t="s">
+        <v>1466</v>
+      </c>
+      <c r="AZ51" s="7" t="s">
         <v>880</v>
       </c>
-      <c r="AY51" s="100"/>
-      <c r="AZ51" s="100"/>
-      <c r="BA51" s="7">
-        <v>1</v>
-      </c>
-      <c r="BB51" s="7" t="s">
-        <v>1335</v>
-      </c>
-    </row>
-    <row r="52" spans="1:54" ht="24" hidden="1" x14ac:dyDescent="0.35">
+      <c r="BA51" s="101" t="s">
+        <v>881</v>
+      </c>
+      <c r="BB51" s="100"/>
+      <c r="BC51" s="7">
+        <v>1</v>
+      </c>
+      <c r="BD51" s="7" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="52" spans="1:56" ht="24" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="str">
         <f>+VLOOKUP(D52,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0019</v>
       </c>
       <c r="B52" s="2" t="str">
-        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$11,2,0)</f>
+        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$12,2,0)</f>
         <v>02</v>
       </c>
       <c r="C52" s="9" t="s">
@@ -33815,33 +34628,35 @@
       <c r="AO52" s="7"/>
       <c r="AP52" s="7"/>
       <c r="AQ52" s="7"/>
-      <c r="AR52" s="7" t="s">
+      <c r="AR52" s="7"/>
+      <c r="AS52" s="7"/>
+      <c r="AT52" s="7" t="s">
         <v>878</v>
       </c>
-      <c r="AS52" s="7" t="str">
+      <c r="AU52" s="7" t="str">
         <f>PRODUCTOS[[#This Row],[Data]]</f>
         <v>DATAPUEBLOS</v>
       </c>
-      <c r="AT52" s="7">
+      <c r="AV52" s="7">
         <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
         <v>0</v>
       </c>
-      <c r="AU52" s="7"/>
-      <c r="AV52" s="7"/>
       <c r="AW52" s="7"/>
       <c r="AX52" s="7"/>
       <c r="AY52" s="7"/>
       <c r="AZ52" s="7"/>
       <c r="BA52" s="7"/>
       <c r="BB52" s="7"/>
-    </row>
-    <row r="53" spans="1:54" ht="24" hidden="1" x14ac:dyDescent="0.35">
+      <c r="BC52" s="7"/>
+      <c r="BD52" s="7"/>
+    </row>
+    <row r="53" spans="1:56" ht="24" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="str">
         <f>+VLOOKUP(D53,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0017</v>
       </c>
       <c r="B53" s="2" t="str">
-        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$11,2,0)</f>
+        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$12,2,0)</f>
         <v>01</v>
       </c>
       <c r="C53" s="9" t="s">
@@ -33910,33 +34725,35 @@
       <c r="AO53" s="7"/>
       <c r="AP53" s="7"/>
       <c r="AQ53" s="7"/>
-      <c r="AR53" s="7" t="s">
+      <c r="AR53" s="7"/>
+      <c r="AS53" s="7"/>
+      <c r="AT53" s="7" t="s">
         <v>878</v>
       </c>
-      <c r="AS53" s="7" t="str">
+      <c r="AU53" s="7" t="str">
         <f>PRODUCTOS[[#This Row],[Data]]</f>
         <v>DATAELECCIONES</v>
       </c>
-      <c r="AT53" s="7" t="e">
+      <c r="AV53" s="7" t="e">
         <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
         <v>#N/A</v>
       </c>
-      <c r="AU53" s="7"/>
-      <c r="AV53" s="7"/>
       <c r="AW53" s="7"/>
       <c r="AX53" s="7"/>
       <c r="AY53" s="7"/>
       <c r="AZ53" s="7"/>
       <c r="BA53" s="7"/>
       <c r="BB53" s="7"/>
-    </row>
-    <row r="54" spans="1:54" ht="24" hidden="1" x14ac:dyDescent="0.35">
+      <c r="BC53" s="7"/>
+      <c r="BD53" s="7"/>
+    </row>
+    <row r="54" spans="1:56" ht="24" x14ac:dyDescent="0.35">
       <c r="A54" s="42" t="str">
         <f>+VLOOKUP(D54,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0012</v>
       </c>
       <c r="B54" s="42" t="str">
-        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$11,2,0)</f>
+        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$12,2,0)</f>
         <v>02</v>
       </c>
       <c r="C54" s="9" t="s">
@@ -34003,33 +34820,35 @@
       <c r="AO54" s="7"/>
       <c r="AP54" s="7"/>
       <c r="AQ54" s="7"/>
-      <c r="AR54" s="7" t="s">
+      <c r="AR54" s="7"/>
+      <c r="AS54" s="7"/>
+      <c r="AT54" s="7" t="s">
         <v>878</v>
       </c>
-      <c r="AS54" s="7" t="str">
+      <c r="AU54" s="7" t="str">
         <f>PRODUCTOS[[#This Row],[Data]]</f>
         <v>DATARIESGO</v>
       </c>
-      <c r="AT54" s="7" t="str">
+      <c r="AV54" s="7" t="str">
         <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
         <v>POWER BI</v>
       </c>
-      <c r="AU54" s="7"/>
-      <c r="AV54" s="7"/>
       <c r="AW54" s="7"/>
       <c r="AX54" s="7"/>
       <c r="AY54" s="7"/>
       <c r="AZ54" s="7"/>
       <c r="BA54" s="7"/>
       <c r="BB54" s="7"/>
-    </row>
-    <row r="55" spans="1:54" ht="24" hidden="1" x14ac:dyDescent="0.35">
+      <c r="BC54" s="7"/>
+      <c r="BD54" s="7"/>
+    </row>
+    <row r="55" spans="1:56" ht="24" x14ac:dyDescent="0.35">
       <c r="A55" s="42" t="str">
         <f>+VLOOKUP(D55,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0022</v>
       </c>
       <c r="B55" s="42" t="str">
-        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$11,2,0)</f>
+        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$12,2,0)</f>
         <v>01</v>
       </c>
       <c r="C55" s="9" t="s">
@@ -34096,33 +34915,35 @@
       <c r="AO55" s="7"/>
       <c r="AP55" s="7"/>
       <c r="AQ55" s="7"/>
-      <c r="AR55" s="7" t="s">
+      <c r="AR55" s="7"/>
+      <c r="AS55" s="7"/>
+      <c r="AT55" s="7" t="s">
         <v>878</v>
       </c>
-      <c r="AS55" s="7" t="str">
+      <c r="AU55" s="7" t="str">
         <f>PRODUCTOS[[#This Row],[Data]]</f>
         <v>DATASOCIAL</v>
       </c>
-      <c r="AT55" s="7">
+      <c r="AV55" s="7">
         <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
         <v>0</v>
       </c>
-      <c r="AU55" s="7"/>
-      <c r="AV55" s="7"/>
       <c r="AW55" s="7"/>
       <c r="AX55" s="7"/>
       <c r="AY55" s="7"/>
       <c r="AZ55" s="7"/>
       <c r="BA55" s="7"/>
       <c r="BB55" s="7"/>
-    </row>
-    <row r="56" spans="1:54" ht="24" hidden="1" x14ac:dyDescent="0.35">
+      <c r="BC55" s="7"/>
+      <c r="BD55" s="7"/>
+    </row>
+    <row r="56" spans="1:56" ht="24" x14ac:dyDescent="0.35">
       <c r="A56" s="42" t="str">
         <f>+VLOOKUP(D56,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0023</v>
       </c>
       <c r="B56" s="42" t="str">
-        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$11,2,0)</f>
+        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$12,2,0)</f>
         <v>01</v>
       </c>
       <c r="C56" s="9" t="s">
@@ -34189,33 +35010,35 @@
       <c r="AO56" s="7"/>
       <c r="AP56" s="7"/>
       <c r="AQ56" s="7"/>
-      <c r="AR56" s="7" t="s">
+      <c r="AR56" s="7"/>
+      <c r="AS56" s="7"/>
+      <c r="AT56" s="7" t="s">
         <v>878</v>
       </c>
-      <c r="AS56" s="7" t="str">
+      <c r="AU56" s="7" t="str">
         <f>PRODUCTOS[[#This Row],[Data]]</f>
         <v>DATATAX</v>
       </c>
-      <c r="AT56" s="7" t="str">
+      <c r="AV56" s="7" t="str">
         <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
         <v>POWER BI</v>
       </c>
-      <c r="AU56" s="7"/>
-      <c r="AV56" s="7"/>
       <c r="AW56" s="7"/>
       <c r="AX56" s="7"/>
       <c r="AY56" s="7"/>
       <c r="AZ56" s="7"/>
       <c r="BA56" s="7"/>
       <c r="BB56" s="7"/>
-    </row>
-    <row r="57" spans="1:54" ht="24" hidden="1" x14ac:dyDescent="0.35">
+      <c r="BC56" s="7"/>
+      <c r="BD56" s="7"/>
+    </row>
+    <row r="57" spans="1:56" ht="24" x14ac:dyDescent="0.35">
       <c r="A57" s="42" t="str">
         <f>+VLOOKUP(D57,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0024</v>
       </c>
       <c r="B57" s="42" t="str">
-        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$11,2,0)</f>
+        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$12,2,0)</f>
         <v>01</v>
       </c>
       <c r="C57" s="9" t="s">
@@ -34282,33 +35105,35 @@
       <c r="AO57" s="7"/>
       <c r="AP57" s="7"/>
       <c r="AQ57" s="7"/>
-      <c r="AR57" s="7" t="s">
+      <c r="AR57" s="7"/>
+      <c r="AS57" s="7"/>
+      <c r="AT57" s="7" t="s">
         <v>878</v>
       </c>
-      <c r="AS57" s="7" t="str">
+      <c r="AU57" s="7" t="str">
         <f>PRODUCTOS[[#This Row],[Data]]</f>
         <v>DATATRABAJO</v>
       </c>
-      <c r="AT57" s="7">
+      <c r="AV57" s="7">
         <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
         <v>0</v>
       </c>
-      <c r="AU57" s="7"/>
-      <c r="AV57" s="7"/>
       <c r="AW57" s="7"/>
       <c r="AX57" s="7"/>
       <c r="AY57" s="7"/>
       <c r="AZ57" s="7"/>
       <c r="BA57" s="7"/>
       <c r="BB57" s="7"/>
-    </row>
-    <row r="58" spans="1:54" ht="70.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="BC57" s="7"/>
+      <c r="BD57" s="7"/>
+    </row>
+    <row r="58" spans="1:56" ht="70.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="42" t="str">
         <f>+VLOOKUP(D58,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0009</v>
       </c>
       <c r="B58" s="42" t="str">
-        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$11,2,0)</f>
+        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$12,2,0)</f>
         <v>01</v>
       </c>
       <c r="C58" s="9" t="s">
@@ -34358,7 +35183,7 @@
       <c r="V58" s="3"/>
       <c r="W58" s="7"/>
       <c r="X58" s="132" t="s">
-        <v>1346</v>
+        <v>1343</v>
       </c>
       <c r="AA58" s="7"/>
       <c r="AB58" s="13"/>
@@ -34369,66 +35194,84 @@
       <c r="AD58" s="7" t="s">
         <v>961</v>
       </c>
-      <c r="AE58" s="7" t="s">
+      <c r="AE58" s="19" t="s">
         <v>966</v>
       </c>
-      <c r="AF58" s="121"/>
-      <c r="AG58" s="7"/>
-      <c r="AH58" s="7"/>
-      <c r="AI58" s="7"/>
-      <c r="AJ58" s="7"/>
-      <c r="AK58" s="7"/>
-      <c r="AL58" s="7"/>
-      <c r="AM58" s="7"/>
-      <c r="AN58" s="101" t="s">
-        <v>1327</v>
+      <c r="AF58" s="168"/>
+      <c r="AG58" s="19" t="s">
+        <v>1270</v>
+      </c>
+      <c r="AH58" s="19" t="s">
+        <v>1270</v>
+      </c>
+      <c r="AI58" s="19" t="s">
+        <v>1270</v>
+      </c>
+      <c r="AJ58" s="19" t="s">
+        <v>1270</v>
+      </c>
+      <c r="AK58" s="170"/>
+      <c r="AL58" s="19" t="s">
+        <v>1270</v>
+      </c>
+      <c r="AM58" s="19" t="s">
+        <v>1270</v>
+      </c>
+      <c r="AN58" s="19" t="s">
+        <v>1460</v>
       </c>
       <c r="AO58" s="7"/>
       <c r="AP58" s="7" t="s">
         <v>1124</v>
       </c>
-      <c r="AQ58" s="7">
+      <c r="AQ58" s="19" t="s">
+        <v>1270</v>
+      </c>
+      <c r="AR58" s="19" t="s">
+        <v>1270</v>
+      </c>
+      <c r="AS58" s="19">
         <v>2017</v>
       </c>
-      <c r="AR58" s="7" t="s">
+      <c r="AT58" s="7" t="s">
         <v>878</v>
       </c>
-      <c r="AS58" s="7" t="str">
+      <c r="AU58" s="7" t="str">
         <f>PRODUCTOS[[#This Row],[Data]]</f>
         <v>DATAVIVIENDA</v>
       </c>
-      <c r="AT58" s="7" t="str">
+      <c r="AV58" s="7" t="str">
         <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
         <v>ARCGISONLINE</v>
       </c>
-      <c r="AU58" s="7" t="s">
+      <c r="AW58" s="7" t="s">
         <v>1126</v>
       </c>
-      <c r="AV58" s="7" t="s">
+      <c r="AX58" s="7" t="s">
         <v>962</v>
-      </c>
-      <c r="AW58" s="100"/>
-      <c r="AX58" s="7" t="s">
-        <v>880</v>
       </c>
       <c r="AY58" s="100"/>
       <c r="AZ58" s="7" t="s">
+        <v>880</v>
+      </c>
+      <c r="BA58" s="100"/>
+      <c r="BB58" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="BA58" s="7">
-        <v>1</v>
-      </c>
-      <c r="BB58" s="7" t="s">
+      <c r="BC58" s="7">
+        <v>1</v>
+      </c>
+      <c r="BD58" s="7" t="s">
         <v>1127</v>
       </c>
     </row>
-    <row r="59" spans="1:54" ht="87" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:56" ht="87" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="42" t="str">
         <f>+VLOOKUP(D59,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0009</v>
       </c>
       <c r="B59" s="42" t="str">
-        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$11,2,0)</f>
+        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$12,2,0)</f>
         <v>01</v>
       </c>
       <c r="C59" s="9" t="s">
@@ -34478,7 +35321,7 @@
       <c r="V59" s="3"/>
       <c r="W59" s="7"/>
       <c r="X59" s="91" t="s">
-        <v>1345</v>
+        <v>1342</v>
       </c>
       <c r="AA59" s="7"/>
       <c r="AB59" s="13"/>
@@ -34489,66 +35332,84 @@
       <c r="AD59" s="7" t="s">
         <v>961</v>
       </c>
-      <c r="AE59" s="7" t="s">
+      <c r="AE59" s="19" t="s">
         <v>966</v>
       </c>
-      <c r="AF59" s="121"/>
-      <c r="AG59" s="7"/>
-      <c r="AH59" s="7"/>
-      <c r="AI59" s="7"/>
-      <c r="AJ59" s="7"/>
-      <c r="AK59" s="7"/>
-      <c r="AL59" s="7"/>
-      <c r="AM59" s="7"/>
+      <c r="AF59" s="168"/>
+      <c r="AG59" s="19" t="s">
+        <v>1270</v>
+      </c>
+      <c r="AH59" s="19" t="s">
+        <v>1270</v>
+      </c>
+      <c r="AI59" s="19" t="s">
+        <v>1270</v>
+      </c>
+      <c r="AJ59" s="19" t="s">
+        <v>1270</v>
+      </c>
+      <c r="AK59" s="170"/>
+      <c r="AL59" s="19" t="s">
+        <v>1270</v>
+      </c>
+      <c r="AM59" s="19" t="s">
+        <v>1270</v>
+      </c>
       <c r="AN59" s="7" t="s">
-        <v>1377</v>
+        <v>1373</v>
       </c>
       <c r="AO59" s="7"/>
       <c r="AP59" s="7" t="s">
         <v>1124</v>
       </c>
-      <c r="AQ59" s="100"/>
-      <c r="AR59" s="7" t="s">
+      <c r="AQ59" s="19" t="s">
+        <v>1270</v>
+      </c>
+      <c r="AR59" s="19" t="s">
+        <v>1270</v>
+      </c>
+      <c r="AS59" s="169"/>
+      <c r="AT59" s="7" t="s">
         <v>878</v>
       </c>
-      <c r="AS59" s="7" t="str">
+      <c r="AU59" s="7" t="str">
         <f>PRODUCTOS[[#This Row],[Data]]</f>
         <v>DATAVIVIENDA</v>
       </c>
-      <c r="AT59" s="7" t="str">
+      <c r="AV59" s="7" t="str">
         <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
         <v>ARCGISONLINE</v>
       </c>
-      <c r="AU59" s="7" t="s">
+      <c r="AW59" s="7" t="s">
         <v>1126</v>
       </c>
-      <c r="AV59" s="7" t="s">
+      <c r="AX59" s="7" t="s">
         <v>962</v>
       </c>
-      <c r="AW59" s="100"/>
-      <c r="AX59" s="7" t="s">
+      <c r="AY59" s="100"/>
+      <c r="AZ59" s="7" t="s">
         <v>880</v>
       </c>
-      <c r="AY59" s="101" t="s">
+      <c r="BA59" s="101" t="s">
         <v>881</v>
       </c>
-      <c r="AZ59" s="7" t="s">
+      <c r="BB59" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="BA59" s="7">
-        <v>1</v>
-      </c>
-      <c r="BB59" s="7" t="s">
+      <c r="BC59" s="7">
+        <v>1</v>
+      </c>
+      <c r="BD59" s="7" t="s">
         <v>1128</v>
       </c>
     </row>
-    <row r="60" spans="1:54" ht="73.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:56" ht="73.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="42" t="str">
         <f>+VLOOKUP(D60,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0016</v>
       </c>
       <c r="B60" s="42" t="str">
-        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$11,2,0)</f>
+        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$12,2,0)</f>
         <v>01</v>
       </c>
       <c r="C60" s="9" t="s">
@@ -34607,64 +35468,78 @@
         <v>Evolución Delitos de Mayor Connotación Social (2008-2020)</v>
       </c>
       <c r="AD60" s="135" t="s">
-        <v>1354</v>
-      </c>
-      <c r="AE60" s="7" t="s">
-        <v>966</v>
-      </c>
-      <c r="AF60" s="122"/>
-      <c r="AG60" s="7" t="s">
+        <v>1351</v>
+      </c>
+      <c r="AE60" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="AF60" s="168"/>
+      <c r="AG60" s="19" t="s">
         <v>967</v>
       </c>
-      <c r="AH60" s="7"/>
-      <c r="AI60" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="AJ60" s="7"/>
-      <c r="AK60" s="7"/>
-      <c r="AL60" s="7"/>
-      <c r="AM60" s="7"/>
-      <c r="AN60" s="7"/>
-      <c r="AO60" s="7"/>
-      <c r="AP60" s="7"/>
-      <c r="AQ60" s="7" t="s">
+      <c r="AH60" s="169"/>
+      <c r="AI60" s="19" t="s">
+        <v>1270</v>
+      </c>
+      <c r="AJ60" s="19" t="s">
+        <v>1270</v>
+      </c>
+      <c r="AK60" s="170"/>
+      <c r="AL60" s="170"/>
+      <c r="AM60" s="19" t="s">
+        <v>1270</v>
+      </c>
+      <c r="AN60" s="19" t="s">
+        <v>1461</v>
+      </c>
+      <c r="AO60" s="100"/>
+      <c r="AP60" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="AQ60" s="19" t="s">
+        <v>1448</v>
+      </c>
+      <c r="AR60" s="19" t="s">
+        <v>1270</v>
+      </c>
+      <c r="AS60" s="19" t="s">
         <v>1273</v>
       </c>
-      <c r="AR60" s="7" t="s">
+      <c r="AT60" s="7" t="s">
         <v>878</v>
       </c>
-      <c r="AS60" s="7" t="str">
+      <c r="AU60" s="7" t="str">
         <f>PRODUCTOS[[#This Row],[Data]]</f>
         <v>DATADELITO</v>
       </c>
-      <c r="AT60" s="7" t="str">
+      <c r="AV60" s="7" t="str">
         <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
         <v>POWER BI</v>
       </c>
-      <c r="AU60" s="7"/>
-      <c r="AV60" s="7" t="s">
+      <c r="AW60" s="7"/>
+      <c r="AX60" s="7" t="s">
         <v>962</v>
       </c>
-      <c r="AW60" s="100"/>
-      <c r="AX60" s="7" t="s">
+      <c r="AY60" s="100"/>
+      <c r="AZ60" s="7" t="s">
         <v>880</v>
       </c>
-      <c r="AY60" s="7"/>
-      <c r="AZ60" s="7"/>
-      <c r="BA60" s="7">
-        <v>1</v>
-      </c>
-      <c r="BB60" s="7" t="s">
-        <v>1336</v>
-      </c>
-    </row>
-    <row r="61" spans="1:54" ht="24" hidden="1" x14ac:dyDescent="0.35">
+      <c r="BA60" s="7"/>
+      <c r="BB60" s="7"/>
+      <c r="BC60" s="7">
+        <v>1</v>
+      </c>
+      <c r="BD60" s="7" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="61" spans="1:56" ht="24" x14ac:dyDescent="0.35">
       <c r="A61" s="42" t="str">
         <f>+VLOOKUP(D61,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0020</v>
       </c>
       <c r="B61" s="42" t="str">
-        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$11,2,0)</f>
+        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$12,2,0)</f>
         <v>01</v>
       </c>
       <c r="C61" s="9" t="s">
@@ -34731,33 +35606,35 @@
       <c r="AO61" s="7"/>
       <c r="AP61" s="7"/>
       <c r="AQ61" s="7"/>
-      <c r="AR61" s="7" t="s">
+      <c r="AR61" s="7"/>
+      <c r="AS61" s="7"/>
+      <c r="AT61" s="7" t="s">
         <v>878</v>
       </c>
-      <c r="AS61" s="7" t="str">
+      <c r="AU61" s="7" t="str">
         <f>PRODUCTOS[[#This Row],[Data]]</f>
         <v>DATAEIACC</v>
       </c>
-      <c r="AT61" s="7" t="str">
+      <c r="AV61" s="7" t="str">
         <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
         <v>POWER BI</v>
       </c>
-      <c r="AU61" s="7"/>
-      <c r="AV61" s="7"/>
       <c r="AW61" s="7"/>
       <c r="AX61" s="7"/>
       <c r="AY61" s="7"/>
       <c r="AZ61" s="7"/>
       <c r="BA61" s="7"/>
       <c r="BB61" s="7"/>
-    </row>
-    <row r="62" spans="1:54" ht="24" hidden="1" x14ac:dyDescent="0.35">
+      <c r="BC61" s="7"/>
+      <c r="BD61" s="7"/>
+    </row>
+    <row r="62" spans="1:56" ht="24" x14ac:dyDescent="0.35">
       <c r="A62" s="42" t="str">
         <f>+VLOOKUP(D62,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0020</v>
       </c>
       <c r="B62" s="42" t="str">
-        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$11,2,0)</f>
+        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$12,2,0)</f>
         <v>01</v>
       </c>
       <c r="C62" s="9" t="s">
@@ -34824,33 +35701,35 @@
       <c r="AO62" s="7"/>
       <c r="AP62" s="7"/>
       <c r="AQ62" s="7"/>
-      <c r="AR62" s="7" t="s">
+      <c r="AR62" s="7"/>
+      <c r="AS62" s="7"/>
+      <c r="AT62" s="7" t="s">
         <v>878</v>
       </c>
-      <c r="AS62" s="7" t="str">
+      <c r="AU62" s="7" t="str">
         <f>PRODUCTOS[[#This Row],[Data]]</f>
         <v>DATAEIACC</v>
       </c>
-      <c r="AT62" s="7" t="str">
+      <c r="AV62" s="7" t="str">
         <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
         <v>POWER BI</v>
       </c>
-      <c r="AU62" s="7"/>
-      <c r="AV62" s="7"/>
       <c r="AW62" s="7"/>
       <c r="AX62" s="7"/>
       <c r="AY62" s="7"/>
       <c r="AZ62" s="7"/>
       <c r="BA62" s="7"/>
       <c r="BB62" s="7"/>
-    </row>
-    <row r="63" spans="1:54" ht="29" hidden="1" x14ac:dyDescent="0.35">
+      <c r="BC62" s="7"/>
+      <c r="BD62" s="7"/>
+    </row>
+    <row r="63" spans="1:56" ht="29" x14ac:dyDescent="0.35">
       <c r="A63" s="42" t="str">
         <f>+VLOOKUP(D63,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0020</v>
       </c>
       <c r="B63" s="42" t="str">
-        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$11,2,0)</f>
+        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$12,2,0)</f>
         <v>01</v>
       </c>
       <c r="C63" s="9" t="s">
@@ -34917,33 +35796,35 @@
       <c r="AO63" s="7"/>
       <c r="AP63" s="7"/>
       <c r="AQ63" s="7"/>
-      <c r="AR63" s="7" t="s">
+      <c r="AR63" s="7"/>
+      <c r="AS63" s="7"/>
+      <c r="AT63" s="7" t="s">
         <v>878</v>
       </c>
-      <c r="AS63" s="7" t="str">
+      <c r="AU63" s="7" t="str">
         <f>PRODUCTOS[[#This Row],[Data]]</f>
         <v>DATAEIACC</v>
       </c>
-      <c r="AT63" s="7" t="str">
+      <c r="AV63" s="7" t="str">
         <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
         <v>POWER BI</v>
       </c>
-      <c r="AU63" s="7"/>
-      <c r="AV63" s="7"/>
       <c r="AW63" s="7"/>
       <c r="AX63" s="7"/>
       <c r="AY63" s="7"/>
       <c r="AZ63" s="7"/>
       <c r="BA63" s="7"/>
       <c r="BB63" s="7"/>
-    </row>
-    <row r="64" spans="1:54" ht="24" hidden="1" x14ac:dyDescent="0.35">
+      <c r="BC63" s="7"/>
+      <c r="BD63" s="7"/>
+    </row>
+    <row r="64" spans="1:56" ht="24" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="str">
         <f>+VLOOKUP(D64,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0020</v>
       </c>
       <c r="B64" s="2" t="str">
-        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$11,2,0)</f>
+        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$12,2,0)</f>
         <v>01</v>
       </c>
       <c r="C64" s="9" t="s">
@@ -35010,33 +35891,35 @@
       <c r="AO64" s="7"/>
       <c r="AP64" s="7"/>
       <c r="AQ64" s="7"/>
-      <c r="AR64" s="7" t="s">
+      <c r="AR64" s="7"/>
+      <c r="AS64" s="7"/>
+      <c r="AT64" s="7" t="s">
         <v>878</v>
       </c>
-      <c r="AS64" s="7" t="str">
+      <c r="AU64" s="7" t="str">
         <f>PRODUCTOS[[#This Row],[Data]]</f>
         <v>DATAEIACC</v>
       </c>
-      <c r="AT64" s="7" t="str">
+      <c r="AV64" s="7" t="str">
         <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
         <v>ARCGISONLINE</v>
       </c>
-      <c r="AU64" s="7"/>
-      <c r="AV64" s="7"/>
       <c r="AW64" s="7"/>
       <c r="AX64" s="7"/>
       <c r="AY64" s="7"/>
       <c r="AZ64" s="7"/>
       <c r="BA64" s="7"/>
       <c r="BB64" s="7"/>
-    </row>
-    <row r="65" spans="1:54" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="BC64" s="7"/>
+      <c r="BD64" s="7"/>
+    </row>
+    <row r="65" spans="1:56" ht="51" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="str">
         <f>+VLOOKUP(D65,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0006</v>
       </c>
       <c r="B65" s="2" t="str">
-        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$11,2,0)</f>
+        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$12,2,0)</f>
         <v>00</v>
       </c>
       <c r="C65" s="9" t="s">
@@ -35056,7 +35939,7 @@
         <v>938</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>1371</v>
+        <v>1367</v>
       </c>
       <c r="I65" s="2"/>
       <c r="J65" s="44">
@@ -35102,38 +35985,40 @@
       <c r="AL65" s="7"/>
       <c r="AM65" s="7"/>
       <c r="AN65" s="7" t="s">
-        <v>1378</v>
+        <v>1374</v>
       </c>
       <c r="AO65" s="7"/>
       <c r="AP65" s="7"/>
       <c r="AQ65" s="7"/>
-      <c r="AR65" s="7" t="s">
+      <c r="AR65" s="7"/>
+      <c r="AS65" s="7"/>
+      <c r="AT65" s="7" t="s">
         <v>878</v>
       </c>
-      <c r="AS65" s="7" t="str">
+      <c r="AU65" s="7" t="str">
         <f>PRODUCTOS[[#This Row],[Data]]</f>
         <v>DATAGLOBAL</v>
       </c>
-      <c r="AT65" s="7">
+      <c r="AV65" s="7">
         <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
         <v>0</v>
       </c>
-      <c r="AU65" s="7"/>
-      <c r="AV65" s="7"/>
       <c r="AW65" s="7"/>
       <c r="AX65" s="7"/>
       <c r="AY65" s="7"/>
       <c r="AZ65" s="7"/>
       <c r="BA65" s="7"/>
       <c r="BB65" s="7"/>
-    </row>
-    <row r="66" spans="1:54" ht="60" hidden="1" x14ac:dyDescent="0.35">
+      <c r="BC65" s="7"/>
+      <c r="BD65" s="7"/>
+    </row>
+    <row r="66" spans="1:56" ht="60" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="str">
         <f>+VLOOKUP(D66,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0006</v>
       </c>
       <c r="B66" s="2" t="str">
-        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$11,2,0)</f>
+        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$12,2,0)</f>
         <v>00</v>
       </c>
       <c r="C66" s="9" t="s">
@@ -35196,38 +36081,40 @@
       <c r="AL66" s="7"/>
       <c r="AM66" s="7"/>
       <c r="AN66" s="7" t="s">
-        <v>1379</v>
+        <v>1375</v>
       </c>
       <c r="AO66" s="7"/>
       <c r="AP66" s="7"/>
       <c r="AQ66" s="7"/>
-      <c r="AR66" s="7" t="s">
+      <c r="AR66" s="7"/>
+      <c r="AS66" s="7"/>
+      <c r="AT66" s="7" t="s">
         <v>878</v>
       </c>
-      <c r="AS66" s="7" t="str">
+      <c r="AU66" s="7" t="str">
         <f>PRODUCTOS[[#This Row],[Data]]</f>
         <v>DATAGLOBAL</v>
       </c>
-      <c r="AT66" s="7">
+      <c r="AV66" s="7">
         <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
         <v>0</v>
       </c>
-      <c r="AU66" s="7"/>
-      <c r="AV66" s="7"/>
       <c r="AW66" s="7"/>
       <c r="AX66" s="7"/>
       <c r="AY66" s="7"/>
       <c r="AZ66" s="7"/>
       <c r="BA66" s="7"/>
       <c r="BB66" s="7"/>
-    </row>
-    <row r="67" spans="1:54" ht="24" hidden="1" x14ac:dyDescent="0.35">
+      <c r="BC66" s="7"/>
+      <c r="BD66" s="7"/>
+    </row>
+    <row r="67" spans="1:56" ht="24" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="str">
         <f>+VLOOKUP(D67,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0003</v>
       </c>
       <c r="B67" s="2" t="str">
-        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$11,2,0)</f>
+        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$12,2,0)</f>
         <v>01</v>
       </c>
       <c r="C67" s="9" t="s">
@@ -35296,33 +36183,35 @@
       <c r="AO67" s="7"/>
       <c r="AP67" s="7"/>
       <c r="AQ67" s="7"/>
-      <c r="AR67" s="7" t="s">
+      <c r="AR67" s="7"/>
+      <c r="AS67" s="7"/>
+      <c r="AT67" s="7" t="s">
         <v>878</v>
       </c>
-      <c r="AS67" s="7" t="str">
+      <c r="AU67" s="7" t="str">
         <f>PRODUCTOS[[#This Row],[Data]]</f>
         <v>DATAAGRO</v>
       </c>
-      <c r="AT67" s="7">
+      <c r="AV67" s="7">
         <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
         <v>0</v>
       </c>
-      <c r="AU67" s="7"/>
-      <c r="AV67" s="7"/>
       <c r="AW67" s="7"/>
       <c r="AX67" s="7"/>
       <c r="AY67" s="7"/>
       <c r="AZ67" s="7"/>
       <c r="BA67" s="7"/>
       <c r="BB67" s="7"/>
-    </row>
-    <row r="68" spans="1:54" ht="85" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="BC67" s="7"/>
+      <c r="BD67" s="7"/>
+    </row>
+    <row r="68" spans="1:56" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="str">
         <f>+VLOOKUP(D68,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0003</v>
       </c>
       <c r="B68" s="2" t="str">
-        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$11,2,0)</f>
+        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$12,2,0)</f>
         <v>01</v>
       </c>
       <c r="C68" s="9" t="s">
@@ -35371,6 +36260,7 @@
       <c r="U68" s="2"/>
       <c r="V68" s="3"/>
       <c r="W68" s="7"/>
+      <c r="X68" s="131"/>
       <c r="AA68" s="7"/>
       <c r="AB68" s="38"/>
       <c r="AC68" s="7" t="str">
@@ -35380,56 +36270,64 @@
       <c r="AD68" s="7" t="s">
         <v>1265</v>
       </c>
-      <c r="AE68" s="7"/>
-      <c r="AF68" s="122"/>
-      <c r="AG68" s="7"/>
-      <c r="AH68" s="7"/>
-      <c r="AI68" s="7"/>
-      <c r="AJ68" s="7"/>
-      <c r="AK68" s="7"/>
-      <c r="AL68" s="7"/>
-      <c r="AM68" s="7"/>
+      <c r="AE68" s="19" t="s">
+        <v>966</v>
+      </c>
+      <c r="AF68" s="168"/>
+      <c r="AG68" s="19" t="s">
+        <v>967</v>
+      </c>
+      <c r="AH68" s="169"/>
+      <c r="AI68" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="AJ68" s="169"/>
+      <c r="AK68" s="169"/>
+      <c r="AL68" s="169"/>
+      <c r="AM68" s="169"/>
       <c r="AN68" s="7" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
       <c r="AO68" s="7"/>
       <c r="AP68" s="100"/>
       <c r="AQ68" s="100"/>
-      <c r="AR68" s="7" t="s">
+      <c r="AR68" s="100"/>
+      <c r="AS68" s="100"/>
+      <c r="AT68" s="7" t="s">
         <v>878</v>
       </c>
-      <c r="AS68" s="7" t="str">
+      <c r="AU68" s="7" t="str">
         <f>PRODUCTOS[[#This Row],[Data]]</f>
         <v>DATAAGRO</v>
       </c>
-      <c r="AT68" s="7" t="str">
+      <c r="AV68" s="7" t="str">
         <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
         <v>GEE</v>
       </c>
-      <c r="AU68" s="7"/>
-      <c r="AV68" s="7" t="s">
+      <c r="AW68" s="7"/>
+      <c r="AX68" s="7" t="s">
         <v>963</v>
       </c>
-      <c r="AW68" s="100"/>
-      <c r="AX68" s="7" t="s">
+      <c r="AY68" s="100"/>
+      <c r="AZ68" s="7" t="s">
         <v>880</v>
       </c>
-      <c r="AY68" s="7"/>
-      <c r="AZ68" s="7"/>
-      <c r="BA68" s="7">
-        <v>1</v>
-      </c>
-      <c r="BB68" s="7" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="69" spans="1:54" ht="72" hidden="1" x14ac:dyDescent="0.35">
+      <c r="BA68" s="7"/>
+      <c r="BB68" s="7"/>
+      <c r="BC68" s="7">
+        <v>1</v>
+      </c>
+      <c r="BD68" s="7" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="69" spans="1:56" ht="72" x14ac:dyDescent="0.35">
       <c r="A69" s="42" t="str">
         <f>+VLOOKUP(D69,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0003</v>
       </c>
       <c r="B69" s="42" t="str">
-        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$11,2,0)</f>
+        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$12,2,0)</f>
         <v>01</v>
       </c>
       <c r="C69" s="9" t="s">
@@ -35503,52 +36401,54 @@
       <c r="AL69" s="100"/>
       <c r="AM69" s="100"/>
       <c r="AN69" s="7" t="s">
-        <v>1381</v>
+        <v>1377</v>
       </c>
       <c r="AO69" s="7"/>
       <c r="AP69" s="7"/>
       <c r="AQ69" s="7"/>
-      <c r="AR69" s="7" t="s">
+      <c r="AR69" s="7"/>
+      <c r="AS69" s="7"/>
+      <c r="AT69" s="7" t="s">
         <v>878</v>
       </c>
-      <c r="AS69" s="7" t="str">
+      <c r="AU69" s="7" t="str">
         <f>PRODUCTOS[[#This Row],[Data]]</f>
         <v>DATAAGRO</v>
       </c>
-      <c r="AT69" s="7" t="str">
+      <c r="AV69" s="7" t="str">
         <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
         <v>POWER BI</v>
       </c>
-      <c r="AU69" s="7" t="s">
+      <c r="AW69" s="7" t="s">
         <v>879</v>
       </c>
-      <c r="AV69" s="7" t="s">
+      <c r="AX69" s="7" t="s">
         <v>962</v>
       </c>
-      <c r="AW69" s="100"/>
-      <c r="AX69" s="7" t="s">
+      <c r="AY69" s="100"/>
+      <c r="AZ69" s="7" t="s">
         <v>880</v>
       </c>
-      <c r="AY69" s="7" t="s">
+      <c r="BA69" s="7" t="s">
         <v>881</v>
       </c>
-      <c r="AZ69" s="7" t="s">
+      <c r="BB69" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="BA69" s="7">
-        <v>1</v>
-      </c>
-      <c r="BB69" s="7" t="s">
+      <c r="BC69" s="7">
+        <v>1</v>
+      </c>
+      <c r="BD69" s="7" t="s">
         <v>1129</v>
       </c>
     </row>
-    <row r="70" spans="1:54" ht="48" hidden="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:56" ht="48" x14ac:dyDescent="0.35">
       <c r="A70" s="42" t="str">
         <f>+VLOOKUP(D70,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0003</v>
       </c>
       <c r="B70" s="42" t="str">
-        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$11,2,0)</f>
+        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$12,2,0)</f>
         <v>01</v>
       </c>
       <c r="C70" s="9" t="s">
@@ -35622,50 +36522,52 @@
       <c r="AL70" s="100"/>
       <c r="AM70" s="100"/>
       <c r="AN70" s="7" t="s">
-        <v>1385</v>
+        <v>1381</v>
       </c>
       <c r="AO70" s="7"/>
       <c r="AP70" s="7"/>
       <c r="AQ70" s="7"/>
-      <c r="AR70" s="7" t="s">
+      <c r="AR70" s="7"/>
+      <c r="AS70" s="7"/>
+      <c r="AT70" s="7" t="s">
         <v>878</v>
       </c>
-      <c r="AS70" s="7" t="str">
+      <c r="AU70" s="7" t="str">
         <f>PRODUCTOS[[#This Row],[Data]]</f>
         <v>DATAAGRO</v>
       </c>
-      <c r="AT70" s="7" t="str">
+      <c r="AV70" s="7" t="str">
         <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
         <v>POWER BI</v>
       </c>
-      <c r="AU70" s="7" t="s">
+      <c r="AW70" s="7" t="s">
         <v>879</v>
       </c>
-      <c r="AV70" s="7" t="s">
+      <c r="AX70" s="7" t="s">
         <v>962</v>
       </c>
-      <c r="AW70" s="100"/>
-      <c r="AX70" s="7" t="s">
+      <c r="AY70" s="100"/>
+      <c r="AZ70" s="7" t="s">
         <v>880</v>
       </c>
-      <c r="AY70" s="7" t="s">
+      <c r="BA70" s="7" t="s">
         <v>881</v>
       </c>
-      <c r="AZ70" s="7" t="s">
+      <c r="BB70" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="BA70" s="7">
-        <v>1</v>
-      </c>
-      <c r="BB70" s="7"/>
-    </row>
-    <row r="71" spans="1:54" ht="48" hidden="1" x14ac:dyDescent="0.35">
+      <c r="BC70" s="7">
+        <v>1</v>
+      </c>
+      <c r="BD70" s="7"/>
+    </row>
+    <row r="71" spans="1:56" ht="48" x14ac:dyDescent="0.35">
       <c r="A71" s="42" t="str">
         <f>+VLOOKUP(D71,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0003</v>
       </c>
       <c r="B71" s="42" t="str">
-        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$11,2,0)</f>
+        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$12,2,0)</f>
         <v>01</v>
       </c>
       <c r="C71" s="9" t="s">
@@ -35739,50 +36641,52 @@
       <c r="AL71" s="100"/>
       <c r="AM71" s="100"/>
       <c r="AN71" s="7" t="s">
-        <v>1382</v>
+        <v>1378</v>
       </c>
       <c r="AO71" s="7"/>
       <c r="AP71" s="7"/>
       <c r="AQ71" s="7"/>
-      <c r="AR71" s="7" t="s">
+      <c r="AR71" s="7"/>
+      <c r="AS71" s="7"/>
+      <c r="AT71" s="7" t="s">
         <v>878</v>
       </c>
-      <c r="AS71" s="7" t="str">
+      <c r="AU71" s="7" t="str">
         <f>PRODUCTOS[[#This Row],[Data]]</f>
         <v>DATAAGRO</v>
       </c>
-      <c r="AT71" s="7" t="str">
+      <c r="AV71" s="7" t="str">
         <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
         <v>POWER BI</v>
       </c>
-      <c r="AU71" s="7" t="s">
+      <c r="AW71" s="7" t="s">
         <v>879</v>
       </c>
-      <c r="AV71" s="7" t="s">
+      <c r="AX71" s="7" t="s">
         <v>962</v>
       </c>
-      <c r="AW71" s="100"/>
-      <c r="AX71" s="7" t="s">
+      <c r="AY71" s="100"/>
+      <c r="AZ71" s="7" t="s">
         <v>880</v>
       </c>
-      <c r="AY71" s="7" t="s">
+      <c r="BA71" s="7" t="s">
         <v>881</v>
       </c>
-      <c r="AZ71" s="7" t="s">
+      <c r="BB71" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="BA71" s="7">
-        <v>1</v>
-      </c>
-      <c r="BB71" s="7"/>
-    </row>
-    <row r="72" spans="1:54" ht="60" hidden="1" x14ac:dyDescent="0.35">
+      <c r="BC71" s="7">
+        <v>1</v>
+      </c>
+      <c r="BD71" s="7"/>
+    </row>
+    <row r="72" spans="1:56" ht="60" x14ac:dyDescent="0.35">
       <c r="A72" s="42" t="str">
         <f>+VLOOKUP(D72,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0003</v>
       </c>
       <c r="B72" s="42" t="str">
-        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$11,2,0)</f>
+        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$12,2,0)</f>
         <v>01</v>
       </c>
       <c r="C72" s="9" t="s">
@@ -35856,50 +36760,52 @@
       <c r="AL72" s="100"/>
       <c r="AM72" s="100"/>
       <c r="AN72" s="7" t="s">
-        <v>1383</v>
+        <v>1379</v>
       </c>
       <c r="AO72" s="7"/>
       <c r="AP72" s="7"/>
       <c r="AQ72" s="7"/>
-      <c r="AR72" s="7" t="s">
+      <c r="AR72" s="7"/>
+      <c r="AS72" s="7"/>
+      <c r="AT72" s="7" t="s">
         <v>878</v>
       </c>
-      <c r="AS72" s="7" t="str">
+      <c r="AU72" s="7" t="str">
         <f>PRODUCTOS[[#This Row],[Data]]</f>
         <v>DATAAGRO</v>
       </c>
-      <c r="AT72" s="7" t="str">
+      <c r="AV72" s="7" t="str">
         <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
         <v>POWER BI</v>
       </c>
-      <c r="AU72" s="7" t="s">
+      <c r="AW72" s="7" t="s">
         <v>879</v>
       </c>
-      <c r="AV72" s="7" t="s">
+      <c r="AX72" s="7" t="s">
         <v>962</v>
       </c>
-      <c r="AW72" s="100"/>
-      <c r="AX72" s="7" t="s">
+      <c r="AY72" s="100"/>
+      <c r="AZ72" s="7" t="s">
         <v>880</v>
       </c>
-      <c r="AY72" s="7" t="s">
+      <c r="BA72" s="7" t="s">
         <v>881</v>
       </c>
-      <c r="AZ72" s="7" t="s">
+      <c r="BB72" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="BA72" s="7">
-        <v>1</v>
-      </c>
-      <c r="BB72" s="7"/>
-    </row>
-    <row r="73" spans="1:54" ht="60" hidden="1" x14ac:dyDescent="0.35">
+      <c r="BC72" s="7">
+        <v>1</v>
+      </c>
+      <c r="BD72" s="7"/>
+    </row>
+    <row r="73" spans="1:56" ht="60" x14ac:dyDescent="0.35">
       <c r="A73" s="42" t="str">
         <f>+VLOOKUP(D73,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0003</v>
       </c>
       <c r="B73" s="42" t="str">
-        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$11,2,0)</f>
+        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$12,2,0)</f>
         <v>01</v>
       </c>
       <c r="C73" s="9" t="s">
@@ -35973,50 +36879,52 @@
       <c r="AL73" s="100"/>
       <c r="AM73" s="100"/>
       <c r="AN73" s="7" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
       <c r="AO73" s="7"/>
       <c r="AP73" s="7"/>
       <c r="AQ73" s="7"/>
-      <c r="AR73" s="7" t="s">
+      <c r="AR73" s="7"/>
+      <c r="AS73" s="7"/>
+      <c r="AT73" s="7" t="s">
         <v>878</v>
       </c>
-      <c r="AS73" s="7" t="str">
+      <c r="AU73" s="7" t="str">
         <f>PRODUCTOS[[#This Row],[Data]]</f>
         <v>DATAAGRO</v>
       </c>
-      <c r="AT73" s="7" t="str">
+      <c r="AV73" s="7" t="str">
         <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
         <v>POWER BI</v>
       </c>
-      <c r="AU73" s="7" t="s">
+      <c r="AW73" s="7" t="s">
         <v>879</v>
       </c>
-      <c r="AV73" s="7" t="s">
+      <c r="AX73" s="7" t="s">
         <v>962</v>
       </c>
-      <c r="AW73" s="100"/>
-      <c r="AX73" s="7" t="s">
+      <c r="AY73" s="100"/>
+      <c r="AZ73" s="7" t="s">
         <v>880</v>
       </c>
-      <c r="AY73" s="7" t="s">
+      <c r="BA73" s="7" t="s">
         <v>881</v>
       </c>
-      <c r="AZ73" s="7" t="s">
+      <c r="BB73" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="BA73" s="7">
-        <v>1</v>
-      </c>
-      <c r="BB73" s="7"/>
-    </row>
-    <row r="74" spans="1:54" ht="60" hidden="1" x14ac:dyDescent="0.35">
+      <c r="BC73" s="7">
+        <v>1</v>
+      </c>
+      <c r="BD73" s="7"/>
+    </row>
+    <row r="74" spans="1:56" ht="60" x14ac:dyDescent="0.35">
       <c r="A74" s="42" t="str">
         <f>+VLOOKUP(D74,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0003</v>
       </c>
       <c r="B74" s="42" t="str">
-        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$11,2,0)</f>
+        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$12,2,0)</f>
         <v>01</v>
       </c>
       <c r="C74" s="9" t="s">
@@ -36090,50 +36998,52 @@
       <c r="AL74" s="100"/>
       <c r="AM74" s="100"/>
       <c r="AN74" s="7" t="s">
-        <v>1386</v>
+        <v>1382</v>
       </c>
       <c r="AO74" s="7"/>
       <c r="AP74" s="7"/>
       <c r="AQ74" s="7"/>
-      <c r="AR74" s="7" t="s">
+      <c r="AR74" s="7"/>
+      <c r="AS74" s="7"/>
+      <c r="AT74" s="7" t="s">
         <v>878</v>
       </c>
-      <c r="AS74" s="7" t="str">
+      <c r="AU74" s="7" t="str">
         <f>PRODUCTOS[[#This Row],[Data]]</f>
         <v>DATAAGRO</v>
       </c>
-      <c r="AT74" s="7" t="str">
+      <c r="AV74" s="7" t="str">
         <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
         <v>POWER BI</v>
       </c>
-      <c r="AU74" s="7" t="s">
+      <c r="AW74" s="7" t="s">
         <v>879</v>
       </c>
-      <c r="AV74" s="7" t="s">
+      <c r="AX74" s="7" t="s">
         <v>962</v>
       </c>
-      <c r="AW74" s="100"/>
-      <c r="AX74" s="7" t="s">
+      <c r="AY74" s="100"/>
+      <c r="AZ74" s="7" t="s">
         <v>880</v>
       </c>
-      <c r="AY74" s="7" t="s">
+      <c r="BA74" s="7" t="s">
         <v>881</v>
       </c>
-      <c r="AZ74" s="7" t="s">
+      <c r="BB74" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="BA74" s="7">
-        <v>1</v>
-      </c>
-      <c r="BB74" s="7"/>
-    </row>
-    <row r="75" spans="1:54" ht="60" hidden="1" x14ac:dyDescent="0.35">
+      <c r="BC74" s="7">
+        <v>1</v>
+      </c>
+      <c r="BD74" s="7"/>
+    </row>
+    <row r="75" spans="1:56" ht="78" x14ac:dyDescent="0.35">
       <c r="A75" s="42" t="str">
         <f>+VLOOKUP(D75,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0001</v>
       </c>
       <c r="B75" s="42" t="str">
-        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$11,2,0)</f>
+        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$12,2,0)</f>
         <v>01</v>
       </c>
       <c r="C75" s="9" t="s">
@@ -36153,7 +37063,7 @@
         <v>1132</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>1348</v>
+        <v>1345</v>
       </c>
       <c r="I75" s="2"/>
       <c r="J75" s="44">
@@ -36168,9 +37078,9 @@
         <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$L$112,6,0)</f>
         <v>0</v>
       </c>
-      <c r="M75" s="2">
+      <c r="M75" s="2" t="str">
         <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$N$112,8,0)</f>
-        <v>0</v>
+        <v>POWER BI</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -36182,6 +37092,9 @@
       <c r="U75" s="2"/>
       <c r="V75" s="3"/>
       <c r="W75" s="7"/>
+      <c r="X75" s="68" t="s">
+        <v>1469</v>
+      </c>
       <c r="AA75" s="7"/>
       <c r="AB75" s="13"/>
       <c r="AC75" s="7" t="str">
@@ -36189,54 +37102,90 @@
         <v>Avance del COVID-19</v>
       </c>
       <c r="AD75" s="7"/>
-      <c r="AE75" s="7"/>
-      <c r="AF75" s="122"/>
-      <c r="AG75" s="7"/>
-      <c r="AH75" s="7"/>
-      <c r="AI75" s="7"/>
-      <c r="AJ75" s="7"/>
-      <c r="AK75" s="7"/>
-      <c r="AL75" s="7"/>
-      <c r="AM75" s="7"/>
-      <c r="AN75" s="101"/>
-      <c r="AO75" s="7"/>
-      <c r="AP75" s="7"/>
-      <c r="AQ75" s="7"/>
-      <c r="AR75" s="7" t="s">
+      <c r="AE75" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="AF75" s="172">
+        <v>0</v>
+      </c>
+      <c r="AG75" s="19" t="s">
+        <v>1270</v>
+      </c>
+      <c r="AH75" s="19" t="s">
+        <v>1270</v>
+      </c>
+      <c r="AI75" s="19" t="s">
+        <v>1270</v>
+      </c>
+      <c r="AJ75" s="19" t="s">
+        <v>1270</v>
+      </c>
+      <c r="AK75" s="170"/>
+      <c r="AL75" s="19" t="s">
+        <v>1270</v>
+      </c>
+      <c r="AM75" s="19" t="s">
+        <v>1270</v>
+      </c>
+      <c r="AN75" s="19" t="s">
+        <v>1462</v>
+      </c>
+      <c r="AO75" s="19" t="s">
+        <v>959</v>
+      </c>
+      <c r="AP75" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="AQ75" s="19" t="s">
+        <v>1270</v>
+      </c>
+      <c r="AR75" s="19" t="s">
+        <v>1270</v>
+      </c>
+      <c r="AS75" s="19">
+        <v>2020</v>
+      </c>
+      <c r="AT75" s="7" t="s">
         <v>878</v>
       </c>
-      <c r="AS75" s="102" t="str">
+      <c r="AU75" s="102" t="str">
         <f>PRODUCTOS[[#This Row],[Data]]</f>
         <v>DATASALUD</v>
       </c>
-      <c r="AT75" s="7">
+      <c r="AV75" s="7" t="str">
         <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
-        <v>0</v>
-      </c>
-      <c r="AU75" s="7"/>
-      <c r="AV75" s="7" t="s">
+        <v>POWER BI</v>
+      </c>
+      <c r="AW75" s="19" t="s">
+        <v>1467</v>
+      </c>
+      <c r="AX75" s="7" t="s">
         <v>962</v>
       </c>
-      <c r="AW75" s="100"/>
-      <c r="AX75" s="7" t="s">
+      <c r="AY75" s="19" t="s">
+        <v>1465</v>
+      </c>
+      <c r="AZ75" s="7" t="s">
         <v>880</v>
       </c>
-      <c r="AY75" s="7"/>
-      <c r="AZ75" s="7"/>
-      <c r="BA75" s="7">
-        <v>1</v>
-      </c>
-      <c r="BB75" s="7" t="s">
-        <v>1335</v>
-      </c>
-    </row>
-    <row r="76" spans="1:54" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="BA75" s="7" t="s">
+        <v>881</v>
+      </c>
+      <c r="BB75" s="100"/>
+      <c r="BC75" s="7">
+        <v>1</v>
+      </c>
+      <c r="BD75" s="7" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="76" spans="1:56" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="42" t="str">
         <f>+VLOOKUP(D76,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0001</v>
       </c>
       <c r="B76" s="42" t="str">
-        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$11,2,0)</f>
+        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$12,2,0)</f>
         <v>02</v>
       </c>
       <c r="C76" s="115" t="s">
@@ -36303,33 +37252,35 @@
       <c r="AO76" s="7"/>
       <c r="AP76" s="7"/>
       <c r="AQ76" s="7"/>
-      <c r="AR76" s="7" t="s">
+      <c r="AR76" s="7"/>
+      <c r="AS76" s="7"/>
+      <c r="AT76" s="7" t="s">
         <v>878</v>
       </c>
-      <c r="AS76" s="102" t="str">
+      <c r="AU76" s="102" t="str">
         <f>PRODUCTOS[[#This Row],[Data]]</f>
         <v>DATASALUD</v>
       </c>
-      <c r="AT76" s="7" t="str">
+      <c r="AV76" s="7" t="str">
         <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
         <v>NO DEFINIDO</v>
       </c>
-      <c r="AU76" s="7"/>
-      <c r="AV76" s="7"/>
       <c r="AW76" s="7"/>
       <c r="AX76" s="7"/>
       <c r="AY76" s="7"/>
       <c r="AZ76" s="7"/>
       <c r="BA76" s="7"/>
       <c r="BB76" s="7"/>
-    </row>
-    <row r="77" spans="1:54" ht="32.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="BC76" s="7"/>
+      <c r="BD76" s="7"/>
+    </row>
+    <row r="77" spans="1:56" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="42" t="str">
         <f>+VLOOKUP(D77,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0004</v>
       </c>
       <c r="B77" s="42" t="str">
-        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$11,2,0)</f>
+        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$12,2,0)</f>
         <v>01</v>
       </c>
       <c r="C77" s="9" t="s">
@@ -36378,6 +37329,7 @@
       <c r="U77" s="2"/>
       <c r="V77" s="3"/>
       <c r="W77" s="7"/>
+      <c r="X77" s="131"/>
       <c r="AA77" s="7"/>
       <c r="AB77" s="13"/>
       <c r="AC77" s="7" t="str">
@@ -36399,36 +37351,38 @@
       <c r="AN77" s="100"/>
       <c r="AO77" s="7"/>
       <c r="AP77" s="7"/>
-      <c r="AQ77" s="100" t="s">
+      <c r="AQ77" s="7"/>
+      <c r="AR77" s="7"/>
+      <c r="AS77" s="100" t="s">
         <v>1197</v>
       </c>
-      <c r="AR77" s="7" t="s">
+      <c r="AT77" s="7" t="s">
         <v>878</v>
       </c>
-      <c r="AS77" s="102" t="str">
+      <c r="AU77" s="102" t="str">
         <f>PRODUCTOS[[#This Row],[Data]]</f>
         <v>DATAMUNICIPIO</v>
       </c>
-      <c r="AT77" s="7">
+      <c r="AV77" s="7">
         <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
         <v>0</v>
       </c>
-      <c r="AU77" s="7"/>
-      <c r="AV77" s="7"/>
       <c r="AW77" s="7"/>
       <c r="AX77" s="7"/>
       <c r="AY77" s="7"/>
       <c r="AZ77" s="7"/>
       <c r="BA77" s="7"/>
       <c r="BB77" s="7"/>
-    </row>
-    <row r="78" spans="1:54" ht="26" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="BC77" s="7"/>
+      <c r="BD77" s="7"/>
+    </row>
+    <row r="78" spans="1:56" ht="26" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="42" t="str">
         <f>+VLOOKUP(D78,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0003</v>
       </c>
       <c r="B78" s="42" t="str">
-        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$11,2,0)</f>
+        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$12,2,0)</f>
         <v>01</v>
       </c>
       <c r="C78" s="9" t="s">
@@ -36497,33 +37451,35 @@
       <c r="AO78" s="7"/>
       <c r="AP78" s="7"/>
       <c r="AQ78" s="7"/>
-      <c r="AR78" s="7" t="s">
+      <c r="AR78" s="7"/>
+      <c r="AS78" s="7"/>
+      <c r="AT78" s="7" t="s">
         <v>878</v>
       </c>
-      <c r="AS78" s="102" t="str">
+      <c r="AU78" s="102" t="str">
         <f>PRODUCTOS[[#This Row],[Data]]</f>
         <v>DATAAGRO</v>
       </c>
-      <c r="AT78" s="7" t="str">
+      <c r="AV78" s="7" t="str">
         <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
         <v>GEE</v>
       </c>
-      <c r="AU78" s="7"/>
-      <c r="AV78" s="7"/>
       <c r="AW78" s="7"/>
       <c r="AX78" s="7"/>
       <c r="AY78" s="7"/>
       <c r="AZ78" s="7"/>
       <c r="BA78" s="7"/>
       <c r="BB78" s="7"/>
-    </row>
-    <row r="79" spans="1:54" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="BC78" s="7"/>
+      <c r="BD78" s="7"/>
+    </row>
+    <row r="79" spans="1:56" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="42" t="str">
         <f>+VLOOKUP(D79,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0003</v>
       </c>
       <c r="B79" s="42" t="str">
-        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$11,2,0)</f>
+        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$12,2,0)</f>
         <v>01</v>
       </c>
       <c r="C79" s="9" t="s">
@@ -36592,33 +37548,35 @@
       <c r="AO79" s="7"/>
       <c r="AP79" s="7"/>
       <c r="AQ79" s="7"/>
-      <c r="AR79" s="7" t="s">
+      <c r="AR79" s="7"/>
+      <c r="AS79" s="7"/>
+      <c r="AT79" s="7" t="s">
         <v>878</v>
       </c>
-      <c r="AS79" s="102" t="str">
+      <c r="AU79" s="102" t="str">
         <f>PRODUCTOS[[#This Row],[Data]]</f>
         <v>DATAAGRO</v>
       </c>
-      <c r="AT79" s="7" t="str">
+      <c r="AV79" s="7" t="str">
         <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
         <v>GEE</v>
       </c>
-      <c r="AU79" s="7"/>
-      <c r="AV79" s="7"/>
       <c r="AW79" s="7"/>
       <c r="AX79" s="7"/>
       <c r="AY79" s="7"/>
       <c r="AZ79" s="7"/>
       <c r="BA79" s="7"/>
       <c r="BB79" s="7"/>
-    </row>
-    <row r="80" spans="1:54" ht="24" hidden="1" x14ac:dyDescent="0.35">
+      <c r="BC79" s="7"/>
+      <c r="BD79" s="7"/>
+    </row>
+    <row r="80" spans="1:56" ht="24" x14ac:dyDescent="0.35">
       <c r="A80" s="42" t="str">
         <f>+VLOOKUP(D80,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0004</v>
       </c>
       <c r="B80" s="42" t="str">
-        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$11,2,0)</f>
+        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$12,2,0)</f>
         <v>01</v>
       </c>
       <c r="C80" s="9" t="s">
@@ -36686,36 +37644,38 @@
       <c r="AN80" s="100"/>
       <c r="AO80" s="7"/>
       <c r="AP80" s="7"/>
-      <c r="AQ80" s="7">
+      <c r="AQ80" s="7"/>
+      <c r="AR80" s="7"/>
+      <c r="AS80" s="7">
         <v>2020</v>
       </c>
-      <c r="AR80" s="7" t="s">
+      <c r="AT80" s="7" t="s">
         <v>878</v>
       </c>
-      <c r="AS80" s="102" t="str">
+      <c r="AU80" s="102" t="str">
         <f>PRODUCTOS[[#This Row],[Data]]</f>
         <v>DATAMUNICIPIO</v>
       </c>
-      <c r="AT80" s="7">
+      <c r="AV80" s="7">
         <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
         <v>0</v>
       </c>
-      <c r="AU80" s="7"/>
-      <c r="AV80" s="7"/>
       <c r="AW80" s="7"/>
       <c r="AX80" s="7"/>
       <c r="AY80" s="7"/>
       <c r="AZ80" s="7"/>
       <c r="BA80" s="7"/>
       <c r="BB80" s="7"/>
-    </row>
-    <row r="81" spans="1:54" ht="24" hidden="1" x14ac:dyDescent="0.35">
+      <c r="BC80" s="7"/>
+      <c r="BD80" s="7"/>
+    </row>
+    <row r="81" spans="1:56" ht="24" x14ac:dyDescent="0.35">
       <c r="A81" s="42" t="str">
         <f>+VLOOKUP(D81,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0004</v>
       </c>
       <c r="B81" s="42" t="str">
-        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$11,2,0)</f>
+        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$12,2,0)</f>
         <v>01</v>
       </c>
       <c r="C81" s="9" t="s">
@@ -36783,34 +37743,36 @@
       <c r="AN81" s="100"/>
       <c r="AO81" s="7"/>
       <c r="AP81" s="7"/>
-      <c r="AQ81" s="100"/>
-      <c r="AR81" s="7" t="s">
+      <c r="AQ81" s="7"/>
+      <c r="AR81" s="7"/>
+      <c r="AS81" s="100"/>
+      <c r="AT81" s="7" t="s">
         <v>878</v>
       </c>
-      <c r="AS81" s="102" t="str">
+      <c r="AU81" s="102" t="str">
         <f>PRODUCTOS[[#This Row],[Data]]</f>
         <v>DATAMUNICIPIO</v>
       </c>
-      <c r="AT81" s="7" t="e">
+      <c r="AV81" s="7" t="e">
         <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
         <v>#N/A</v>
       </c>
-      <c r="AU81" s="7"/>
-      <c r="AV81" s="7"/>
       <c r="AW81" s="7"/>
       <c r="AX81" s="7"/>
       <c r="AY81" s="7"/>
       <c r="AZ81" s="7"/>
       <c r="BA81" s="7"/>
       <c r="BB81" s="7"/>
-    </row>
-    <row r="82" spans="1:54" ht="29.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="BC81" s="7"/>
+      <c r="BD81" s="7"/>
+    </row>
+    <row r="82" spans="1:56" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="42" t="str">
         <f>+VLOOKUP(D82,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0004</v>
       </c>
       <c r="B82" s="42" t="str">
-        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$11,2,0)</f>
+        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$12,2,0)</f>
         <v>01</v>
       </c>
       <c r="C82" s="9" t="s">
@@ -36878,34 +37840,36 @@
       <c r="AN82" s="100"/>
       <c r="AO82" s="7"/>
       <c r="AP82" s="7"/>
-      <c r="AQ82" s="100"/>
-      <c r="AR82" s="7" t="s">
+      <c r="AQ82" s="7"/>
+      <c r="AR82" s="7"/>
+      <c r="AS82" s="100"/>
+      <c r="AT82" s="7" t="s">
         <v>878</v>
       </c>
-      <c r="AS82" s="102" t="str">
+      <c r="AU82" s="102" t="str">
         <f>PRODUCTOS[[#This Row],[Data]]</f>
         <v>DATAMUNICIPIO</v>
       </c>
-      <c r="AT82" s="7">
+      <c r="AV82" s="7">
         <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
         <v>0</v>
       </c>
-      <c r="AU82" s="7"/>
-      <c r="AV82" s="7"/>
       <c r="AW82" s="7"/>
       <c r="AX82" s="7"/>
       <c r="AY82" s="7"/>
       <c r="AZ82" s="7"/>
       <c r="BA82" s="7"/>
       <c r="BB82" s="7"/>
-    </row>
-    <row r="83" spans="1:54" ht="24" hidden="1" x14ac:dyDescent="0.35">
+      <c r="BC82" s="7"/>
+      <c r="BD82" s="7"/>
+    </row>
+    <row r="83" spans="1:56" ht="24" x14ac:dyDescent="0.35">
       <c r="A83" s="42" t="str">
         <f>+VLOOKUP(D83,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0004</v>
       </c>
       <c r="B83" s="42" t="str">
-        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$11,2,0)</f>
+        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$12,2,0)</f>
         <v>01</v>
       </c>
       <c r="C83" s="9" t="s">
@@ -36973,36 +37937,38 @@
       <c r="AN83" s="100"/>
       <c r="AO83" s="7"/>
       <c r="AP83" s="7"/>
-      <c r="AQ83" s="7">
+      <c r="AQ83" s="7"/>
+      <c r="AR83" s="7"/>
+      <c r="AS83" s="7">
         <v>2019</v>
       </c>
-      <c r="AR83" s="7" t="s">
+      <c r="AT83" s="7" t="s">
         <v>878</v>
       </c>
-      <c r="AS83" s="102" t="str">
+      <c r="AU83" s="102" t="str">
         <f>PRODUCTOS[[#This Row],[Data]]</f>
         <v>DATAMUNICIPIO</v>
       </c>
-      <c r="AT83" s="7">
+      <c r="AV83" s="7">
         <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
         <v>0</v>
       </c>
-      <c r="AU83" s="7"/>
-      <c r="AV83" s="7"/>
       <c r="AW83" s="7"/>
       <c r="AX83" s="7"/>
       <c r="AY83" s="7"/>
       <c r="AZ83" s="7"/>
       <c r="BA83" s="7"/>
       <c r="BB83" s="7"/>
-    </row>
-    <row r="84" spans="1:54" ht="24" hidden="1" x14ac:dyDescent="0.35">
+      <c r="BC83" s="7"/>
+      <c r="BD83" s="7"/>
+    </row>
+    <row r="84" spans="1:56" ht="24" x14ac:dyDescent="0.35">
       <c r="A84" s="42" t="str">
         <f>+VLOOKUP(D84,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0004</v>
       </c>
       <c r="B84" s="42" t="str">
-        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$11,2,0)</f>
+        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$12,2,0)</f>
         <v>01</v>
       </c>
       <c r="C84" s="9" t="s">
@@ -37070,34 +38036,36 @@
       <c r="AN84" s="100"/>
       <c r="AO84" s="7"/>
       <c r="AP84" s="7"/>
-      <c r="AQ84" s="100"/>
-      <c r="AR84" s="7" t="s">
+      <c r="AQ84" s="7"/>
+      <c r="AR84" s="7"/>
+      <c r="AS84" s="100"/>
+      <c r="AT84" s="7" t="s">
         <v>878</v>
       </c>
-      <c r="AS84" s="102" t="str">
+      <c r="AU84" s="102" t="str">
         <f>PRODUCTOS[[#This Row],[Data]]</f>
         <v>DATAMUNICIPIO</v>
       </c>
-      <c r="AT84" s="7">
+      <c r="AV84" s="7">
         <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
         <v>0</v>
       </c>
-      <c r="AU84" s="7"/>
-      <c r="AV84" s="7"/>
       <c r="AW84" s="7"/>
       <c r="AX84" s="7"/>
       <c r="AY84" s="7"/>
       <c r="AZ84" s="7"/>
       <c r="BA84" s="7"/>
       <c r="BB84" s="7"/>
-    </row>
-    <row r="85" spans="1:54" ht="24" hidden="1" x14ac:dyDescent="0.35">
+      <c r="BC84" s="7"/>
+      <c r="BD84" s="7"/>
+    </row>
+    <row r="85" spans="1:56" ht="24" x14ac:dyDescent="0.35">
       <c r="A85" s="42" t="str">
         <f>+VLOOKUP(D85,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0004</v>
       </c>
       <c r="B85" s="42" t="str">
-        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$11,2,0)</f>
+        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$12,2,0)</f>
         <v>01</v>
       </c>
       <c r="C85" s="9" t="s">
@@ -37165,36 +38133,38 @@
       <c r="AN85" s="100"/>
       <c r="AO85" s="7"/>
       <c r="AP85" s="7"/>
-      <c r="AQ85" s="7" t="s">
+      <c r="AQ85" s="7"/>
+      <c r="AR85" s="7"/>
+      <c r="AS85" s="7" t="s">
         <v>1197</v>
       </c>
-      <c r="AR85" s="7" t="s">
+      <c r="AT85" s="7" t="s">
         <v>878</v>
       </c>
-      <c r="AS85" s="102" t="str">
+      <c r="AU85" s="102" t="str">
         <f>PRODUCTOS[[#This Row],[Data]]</f>
         <v>DATAMUNICIPIO</v>
       </c>
-      <c r="AT85" s="7" t="e">
+      <c r="AV85" s="7" t="e">
         <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
         <v>#N/A</v>
       </c>
-      <c r="AU85" s="7"/>
-      <c r="AV85" s="7"/>
       <c r="AW85" s="7"/>
       <c r="AX85" s="7"/>
       <c r="AY85" s="7"/>
       <c r="AZ85" s="7"/>
       <c r="BA85" s="7"/>
       <c r="BB85" s="7"/>
-    </row>
-    <row r="86" spans="1:54" ht="24" hidden="1" x14ac:dyDescent="0.35">
+      <c r="BC85" s="7"/>
+      <c r="BD85" s="7"/>
+    </row>
+    <row r="86" spans="1:56" ht="24" x14ac:dyDescent="0.35">
       <c r="A86" s="42" t="str">
         <f>+VLOOKUP(D86,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0004</v>
       </c>
       <c r="B86" s="42" t="str">
-        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$11,2,0)</f>
+        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$12,2,0)</f>
         <v>01</v>
       </c>
       <c r="C86" s="9" t="s">
@@ -37262,36 +38232,38 @@
       <c r="AN86" s="100"/>
       <c r="AO86" s="7"/>
       <c r="AP86" s="7"/>
-      <c r="AQ86" s="7" t="s">
+      <c r="AQ86" s="7"/>
+      <c r="AR86" s="7"/>
+      <c r="AS86" s="7" t="s">
         <v>1199</v>
       </c>
-      <c r="AR86" s="7" t="s">
+      <c r="AT86" s="7" t="s">
         <v>878</v>
       </c>
-      <c r="AS86" s="102" t="str">
+      <c r="AU86" s="102" t="str">
         <f>PRODUCTOS[[#This Row],[Data]]</f>
         <v>DATAMUNICIPIO</v>
       </c>
-      <c r="AT86" s="7" t="e">
+      <c r="AV86" s="7" t="e">
         <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
         <v>#N/A</v>
       </c>
-      <c r="AU86" s="7"/>
-      <c r="AV86" s="7"/>
       <c r="AW86" s="7"/>
       <c r="AX86" s="7"/>
       <c r="AY86" s="7"/>
       <c r="AZ86" s="7"/>
       <c r="BA86" s="7"/>
       <c r="BB86" s="7"/>
-    </row>
-    <row r="87" spans="1:54" hidden="1" x14ac:dyDescent="0.35">
+      <c r="BC86" s="7"/>
+      <c r="BD86" s="7"/>
+    </row>
+    <row r="87" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A87" s="42" t="str">
         <f>+VLOOKUP(D87,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0001</v>
       </c>
       <c r="B87" s="42" t="str">
-        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$11,2,0)</f>
+        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$12,2,0)</f>
         <v>01</v>
       </c>
       <c r="C87" s="9" t="s">
@@ -37345,25 +38317,25 @@
         <v>0</v>
       </c>
       <c r="AF87" s="123"/>
-      <c r="AS87" t="str">
+      <c r="AU87" t="str">
         <f>PRODUCTOS[[#This Row],[Data]]</f>
         <v>DATASALUD</v>
       </c>
-      <c r="AT87">
+      <c r="AV87">
         <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
         <v>0</v>
       </c>
-      <c r="AV87" t="s">
+      <c r="AX87" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="88" spans="1:54" hidden="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A88" s="42" t="str">
         <f>+VLOOKUP(D88,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0001</v>
       </c>
       <c r="B88" s="42" t="str">
-        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$11,2,0)</f>
+        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$12,2,0)</f>
         <v>01</v>
       </c>
       <c r="C88" s="9" t="s">
@@ -37417,22 +38389,22 @@
         <v>0</v>
       </c>
       <c r="AF88" s="123"/>
-      <c r="AS88" t="str">
+      <c r="AU88" t="str">
         <f>PRODUCTOS[[#This Row],[Data]]</f>
         <v>DATASALUD</v>
       </c>
-      <c r="AT88" t="str">
+      <c r="AV88" t="str">
         <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
         <v>POWER BI</v>
       </c>
     </row>
-    <row r="89" spans="1:54" hidden="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A89" s="42" t="str">
         <f>+VLOOKUP(D89,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0001</v>
       </c>
       <c r="B89" s="42" t="str">
-        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$11,2,0)</f>
+        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$12,2,0)</f>
         <v>01</v>
       </c>
       <c r="C89" s="9" t="s">
@@ -37486,22 +38458,22 @@
         <v>0</v>
       </c>
       <c r="AF89" s="123"/>
-      <c r="AS89" t="str">
+      <c r="AU89" t="str">
         <f>PRODUCTOS[[#This Row],[Data]]</f>
         <v>DATASALUD</v>
       </c>
-      <c r="AT89" t="str">
+      <c r="AV89" t="str">
         <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
         <v>POWER BI</v>
       </c>
     </row>
-    <row r="90" spans="1:54" ht="60" hidden="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:56" ht="78" x14ac:dyDescent="0.35">
       <c r="A90" s="42" t="str">
         <f>+VLOOKUP(D90,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0001</v>
       </c>
       <c r="B90" s="42" t="str">
-        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$11,2,0)</f>
+        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$12,2,0)</f>
         <v>02</v>
       </c>
       <c r="C90" s="9" t="s">
@@ -37521,7 +38493,7 @@
         <v>1132</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>1348</v>
+        <v>1345</v>
       </c>
       <c r="I90" s="2"/>
       <c r="J90" s="44">
@@ -37536,9 +38508,9 @@
         <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$L$112,6,0)</f>
         <v>0</v>
       </c>
-      <c r="M90" s="2">
+      <c r="M90" s="2" t="str">
         <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$N$112,8,0)</f>
-        <v>0</v>
+        <v>POWER BI</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" s="2"/>
@@ -37550,42 +38522,99 @@
       <c r="U90" s="2"/>
       <c r="V90" s="3"/>
       <c r="W90" s="7"/>
+      <c r="X90" s="68" t="s">
+        <v>1468</v>
+      </c>
       <c r="AA90" s="7"/>
       <c r="AB90" s="13"/>
       <c r="AC90" s="7" t="str">
         <f>PRODUCTOS[[#This Row],[Nombre comercial]]</f>
         <v>Avance del COVID-19</v>
       </c>
-      <c r="AF90" s="123"/>
-      <c r="AS90" t="str">
+      <c r="AE90" s="56" t="s">
+        <v>194</v>
+      </c>
+      <c r="AF90" s="173">
+        <v>0</v>
+      </c>
+      <c r="AG90" s="56" t="s">
+        <v>1270</v>
+      </c>
+      <c r="AH90" s="56" t="s">
+        <v>1270</v>
+      </c>
+      <c r="AI90" s="19" t="s">
+        <v>1270</v>
+      </c>
+      <c r="AJ90" s="56" t="s">
+        <v>1270</v>
+      </c>
+      <c r="AK90" s="174"/>
+      <c r="AL90" s="56" t="s">
+        <v>1270</v>
+      </c>
+      <c r="AM90" s="56" t="s">
+        <v>1270</v>
+      </c>
+      <c r="AN90" s="19" t="s">
+        <v>1463</v>
+      </c>
+      <c r="AO90" s="56" t="s">
+        <v>959</v>
+      </c>
+      <c r="AP90" s="19" t="s">
+        <v>767</v>
+      </c>
+      <c r="AQ90" s="56" t="s">
+        <v>1270</v>
+      </c>
+      <c r="AR90" s="56" t="s">
+        <v>1270</v>
+      </c>
+      <c r="AS90" s="19">
+        <v>2020</v>
+      </c>
+      <c r="AT90" s="19" t="s">
+        <v>878</v>
+      </c>
+      <c r="AU90" s="16" t="str">
         <f>PRODUCTOS[[#This Row],[Data]]</f>
         <v>DATASALUD</v>
       </c>
-      <c r="AT90">
+      <c r="AV90" s="16" t="str">
         <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
-        <v>0</v>
-      </c>
-      <c r="AV90" s="132" t="s">
+        <v>POWER BI</v>
+      </c>
+      <c r="AW90" s="19" t="s">
+        <v>1467</v>
+      </c>
+      <c r="AX90" s="14" t="s">
         <v>962</v>
       </c>
-      <c r="AW90" s="131"/>
-      <c r="AX90" s="7" t="s">
+      <c r="AY90" s="68" t="s">
+        <v>1464</v>
+      </c>
+      <c r="AZ90" s="7" t="s">
         <v>880</v>
       </c>
-      <c r="BA90" s="7">
-        <v>1</v>
-      </c>
-      <c r="BB90" s="7" t="s">
-        <v>1335</v>
-      </c>
-    </row>
-    <row r="91" spans="1:54" hidden="1" x14ac:dyDescent="0.35">
+      <c r="BA90" s="16" t="s">
+        <v>881</v>
+      </c>
+      <c r="BB90" s="175"/>
+      <c r="BC90" s="7">
+        <v>1</v>
+      </c>
+      <c r="BD90" s="7" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="91" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A91" s="42" t="str">
         <f>+VLOOKUP(D91,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0017</v>
       </c>
       <c r="B91" s="42" t="str">
-        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$11,2,0)</f>
+        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$12,2,0)</f>
         <v>04</v>
       </c>
       <c r="C91" s="9" t="s">
@@ -37637,22 +38666,22 @@
       <c r="AA91" s="7"/>
       <c r="AB91" s="13"/>
       <c r="AF91" s="123"/>
-      <c r="AS91" s="127" t="str">
+      <c r="AU91" s="127" t="str">
         <f>PRODUCTOS[[#This Row],[Data]]</f>
         <v>DATAELECCIONES</v>
       </c>
-      <c r="AT91" s="127" t="e">
+      <c r="AV91" s="127" t="e">
         <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="92" spans="1:54" ht="48.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:56" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="42" t="str">
         <f>+VLOOKUP(D92,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0018</v>
       </c>
       <c r="B92" s="42" t="str">
-        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$11,2,0)</f>
+        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$12,2,0)</f>
         <v>01</v>
       </c>
       <c r="C92" s="9" t="s">
@@ -37702,22 +38731,22 @@
       <c r="AA92" s="7"/>
       <c r="AB92" s="13"/>
       <c r="AF92" s="123"/>
-      <c r="AS92" s="127" t="str">
+      <c r="AU92" s="127" t="str">
         <f>PRODUCTOS[[#This Row],[Data]]</f>
         <v>DATAEVALUACIÓN</v>
       </c>
-      <c r="AT92" s="127" t="str">
+      <c r="AV92" s="127" t="str">
         <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
         <v>POWER BI</v>
       </c>
     </row>
-    <row r="93" spans="1:54" hidden="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A93" s="42" t="str">
         <f>+VLOOKUP(D93,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0019</v>
       </c>
       <c r="B93" s="42" t="str">
-        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$11,2,0)</f>
+        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$12,2,0)</f>
         <v>02</v>
       </c>
       <c r="C93" s="9" t="s">
@@ -37767,22 +38796,22 @@
       <c r="AA93" s="7"/>
       <c r="AB93" s="13"/>
       <c r="AF93" s="123"/>
-      <c r="AS93" s="127" t="str">
+      <c r="AU93" s="127" t="str">
         <f>PRODUCTOS[[#This Row],[Data]]</f>
         <v>DATAPUEBLOS</v>
       </c>
-      <c r="AT93" s="127">
+      <c r="AV93" s="127">
         <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:54" hidden="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A94" s="42" t="str">
         <f>+VLOOKUP(D94,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0019</v>
       </c>
       <c r="B94" s="42" t="str">
-        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$11,2,0)</f>
+        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$12,2,0)</f>
         <v>02</v>
       </c>
       <c r="C94" s="9" t="s">
@@ -37832,22 +38861,22 @@
       <c r="AA94" s="7"/>
       <c r="AB94" s="13"/>
       <c r="AF94" s="123"/>
-      <c r="AS94" s="127" t="str">
+      <c r="AU94" s="127" t="str">
         <f>PRODUCTOS[[#This Row],[Data]]</f>
         <v>DATAPUEBLOS</v>
       </c>
-      <c r="AT94" s="127">
+      <c r="AV94" s="127">
         <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:54" hidden="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A95" s="42" t="str">
         <f>+VLOOKUP(D95,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0001</v>
       </c>
       <c r="B95" s="42" t="str">
-        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$11,2,0)</f>
+        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$12,2,0)</f>
         <v>01</v>
       </c>
       <c r="C95" s="9" t="s">
@@ -37894,21 +38923,332 @@
       <c r="U95" s="2"/>
       <c r="V95" s="3"/>
       <c r="W95" s="7"/>
+      <c r="X95" s="132"/>
       <c r="AA95" s="7"/>
       <c r="AB95" s="13"/>
       <c r="AF95" s="123"/>
-      <c r="AS95" s="127" t="str">
+      <c r="AU95" s="127" t="str">
         <f>PRODUCTOS[[#This Row],[Data]]</f>
         <v>DATASALUD</v>
       </c>
-      <c r="AT95" s="127" t="str">
+      <c r="AV95" s="127" t="str">
         <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
         <v>ARCGISONLINE</v>
       </c>
     </row>
+    <row r="96" spans="1:56" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A96" s="42" t="str">
+        <f>+VLOOKUP(D96,'DATA`S'!$B$8:$C$33,2,0)</f>
+        <v>0026</v>
+      </c>
+      <c r="B96" s="42" t="str">
+        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$12,2,0)</f>
+        <v>04</v>
+      </c>
+      <c r="C96" s="9" t="s">
+        <v>1478</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>1472</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>840</v>
+      </c>
+      <c r="F96" s="42" t="str">
+        <f>A96&amp;"-"&amp;B96&amp;"-"&amp;C96</f>
+        <v>0026-04-00089</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>1483</v>
+      </c>
+      <c r="H96" s="2"/>
+      <c r="I96" s="2"/>
+      <c r="J96" s="177">
+        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$J$117,4,0)</f>
+        <v>1</v>
+      </c>
+      <c r="K96" s="2"/>
+      <c r="L96" s="2"/>
+      <c r="M96" s="42" t="str">
+        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$N$117,8,0)</f>
+        <v>ARCGISONLINE</v>
+      </c>
+      <c r="N96" s="2"/>
+      <c r="O96" s="2"/>
+      <c r="P96" s="2"/>
+      <c r="Q96" s="2"/>
+      <c r="R96" s="2"/>
+      <c r="S96" s="2"/>
+      <c r="T96" s="2"/>
+      <c r="U96" s="2"/>
+      <c r="V96" s="3"/>
+      <c r="W96" s="7"/>
+      <c r="X96" s="91" t="s">
+        <v>1486</v>
+      </c>
+      <c r="AA96" s="7"/>
+      <c r="AB96" s="13"/>
+      <c r="AF96" s="123"/>
+      <c r="AU96" s="127" t="str">
+        <f>PRODUCTOS[[#This Row],[Data]]</f>
+        <v>DATAIMPACTO</v>
+      </c>
+      <c r="AV96" s="127" t="str">
+        <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
+        <v>ARCGISONLINE</v>
+      </c>
+    </row>
+    <row r="97" spans="1:48" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A97" s="42" t="str">
+        <f>+VLOOKUP(D97,'DATA`S'!$B$8:$C$33,2,0)</f>
+        <v>0026</v>
+      </c>
+      <c r="B97" s="42" t="str">
+        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$12,2,0)</f>
+        <v>00</v>
+      </c>
+      <c r="C97" s="9" t="s">
+        <v>1479</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>1472</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>1232</v>
+      </c>
+      <c r="F97" s="42" t="str">
+        <f>A97&amp;"-"&amp;B97&amp;"-"&amp;C97</f>
+        <v>0026-00-00090</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>1474</v>
+      </c>
+      <c r="H97" s="2"/>
+      <c r="I97" s="2"/>
+      <c r="J97" s="177">
+        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$J$117,4,0)</f>
+        <v>0.8</v>
+      </c>
+      <c r="K97" s="2"/>
+      <c r="L97" s="2"/>
+      <c r="M97" s="42" t="str">
+        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$N$117,8,0)</f>
+        <v>ARCGISONLINE</v>
+      </c>
+      <c r="N97" s="2"/>
+      <c r="O97" s="2"/>
+      <c r="P97" s="2"/>
+      <c r="Q97" s="2"/>
+      <c r="R97" s="2"/>
+      <c r="S97" s="2"/>
+      <c r="T97" s="2"/>
+      <c r="U97" s="2"/>
+      <c r="V97" s="3"/>
+      <c r="W97" s="7"/>
+      <c r="X97" s="178" t="s">
+        <v>1487</v>
+      </c>
+      <c r="AA97" s="7"/>
+      <c r="AB97" s="13"/>
+      <c r="AF97" s="123"/>
+      <c r="AU97" s="127" t="str">
+        <f>PRODUCTOS[[#This Row],[Data]]</f>
+        <v>DATAIMPACTO</v>
+      </c>
+      <c r="AV97" s="127" t="str">
+        <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
+        <v>ARCGISONLINE</v>
+      </c>
+    </row>
+    <row r="98" spans="1:48" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A98" s="42" t="str">
+        <f>+VLOOKUP(D98,'DATA`S'!$B$8:$C$33,2,0)</f>
+        <v>0026</v>
+      </c>
+      <c r="B98" s="42" t="str">
+        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$12,2,0)</f>
+        <v>00</v>
+      </c>
+      <c r="C98" s="9" t="s">
+        <v>1480</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>1472</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>1232</v>
+      </c>
+      <c r="F98" s="42" t="str">
+        <f>A98&amp;"-"&amp;B98&amp;"-"&amp;C98</f>
+        <v>0026-00-00091</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>1484</v>
+      </c>
+      <c r="H98" s="2"/>
+      <c r="I98" s="2"/>
+      <c r="J98" s="177">
+        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$J$117,4,0)</f>
+        <v>0.8</v>
+      </c>
+      <c r="K98" s="2"/>
+      <c r="L98" s="2"/>
+      <c r="M98" s="42" t="str">
+        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$N$117,8,0)</f>
+        <v>ARCGISONLINE</v>
+      </c>
+      <c r="N98" s="2"/>
+      <c r="O98" s="2"/>
+      <c r="P98" s="2"/>
+      <c r="Q98" s="2"/>
+      <c r="R98" s="2"/>
+      <c r="S98" s="2"/>
+      <c r="T98" s="2"/>
+      <c r="U98" s="2"/>
+      <c r="V98" s="3"/>
+      <c r="W98" s="7"/>
+      <c r="X98" s="178" t="s">
+        <v>1488</v>
+      </c>
+      <c r="AA98" s="7"/>
+      <c r="AB98" s="13"/>
+      <c r="AF98" s="123"/>
+      <c r="AU98" s="127" t="str">
+        <f>PRODUCTOS[[#This Row],[Data]]</f>
+        <v>DATAIMPACTO</v>
+      </c>
+      <c r="AV98" s="127" t="str">
+        <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
+        <v>ARCGISONLINE</v>
+      </c>
+    </row>
+    <row r="99" spans="1:48" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A99" s="42" t="str">
+        <f>+VLOOKUP(D99,'DATA`S'!$B$8:$C$33,2,0)</f>
+        <v>0026</v>
+      </c>
+      <c r="B99" s="42" t="str">
+        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$12,2,0)</f>
+        <v>00</v>
+      </c>
+      <c r="C99" s="9" t="s">
+        <v>1481</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>1472</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>1232</v>
+      </c>
+      <c r="F99" s="42" t="str">
+        <f>A99&amp;"-"&amp;B99&amp;"-"&amp;C99</f>
+        <v>0026-00-00092</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>1485</v>
+      </c>
+      <c r="H99" s="2"/>
+      <c r="I99" s="2"/>
+      <c r="J99" s="177">
+        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$J$117,4,0)</f>
+        <v>0.8</v>
+      </c>
+      <c r="K99" s="2"/>
+      <c r="L99" s="2"/>
+      <c r="M99" s="42" t="str">
+        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$N$117,8,0)</f>
+        <v>ARCGISONLINE</v>
+      </c>
+      <c r="N99" s="2"/>
+      <c r="O99" s="2"/>
+      <c r="P99" s="2"/>
+      <c r="Q99" s="2"/>
+      <c r="R99" s="2"/>
+      <c r="S99" s="2"/>
+      <c r="T99" s="2"/>
+      <c r="U99" s="2"/>
+      <c r="V99" s="3"/>
+      <c r="W99" s="7"/>
+      <c r="X99" s="178" t="s">
+        <v>1489</v>
+      </c>
+      <c r="AA99" s="7"/>
+      <c r="AB99" s="13"/>
+      <c r="AF99" s="123"/>
+      <c r="AU99" s="127" t="str">
+        <f>PRODUCTOS[[#This Row],[Data]]</f>
+        <v>DATAIMPACTO</v>
+      </c>
+      <c r="AV99" s="127" t="str">
+        <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
+        <v>ARCGISONLINE</v>
+      </c>
+    </row>
+    <row r="100" spans="1:48" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A100" s="42" t="str">
+        <f>+VLOOKUP(D100,'DATA`S'!$B$8:$C$33,2,0)</f>
+        <v>0026</v>
+      </c>
+      <c r="B100" s="42" t="str">
+        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$12,2,0)</f>
+        <v>00</v>
+      </c>
+      <c r="C100" s="9" t="s">
+        <v>1482</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>1472</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>1232</v>
+      </c>
+      <c r="F100" s="42" t="str">
+        <f>A100&amp;"-"&amp;B100&amp;"-"&amp;C100</f>
+        <v>0026-00-00093</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>1477</v>
+      </c>
+      <c r="H100" s="2"/>
+      <c r="I100" s="2"/>
+      <c r="J100" s="177">
+        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$J$117,4,0)</f>
+        <v>0.8</v>
+      </c>
+      <c r="K100" s="2"/>
+      <c r="L100" s="2"/>
+      <c r="M100" s="42" t="str">
+        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$N$117,8,0)</f>
+        <v>ARCGISONLINE</v>
+      </c>
+      <c r="N100" s="2"/>
+      <c r="O100" s="2"/>
+      <c r="P100" s="2"/>
+      <c r="Q100" s="2"/>
+      <c r="R100" s="2"/>
+      <c r="S100" s="2"/>
+      <c r="T100" s="2"/>
+      <c r="U100" s="2"/>
+      <c r="V100" s="3"/>
+      <c r="W100" s="7"/>
+      <c r="X100" s="178" t="s">
+        <v>1490</v>
+      </c>
+      <c r="AA100" s="7"/>
+      <c r="AB100" s="13"/>
+      <c r="AF100" s="123"/>
+      <c r="AU100" s="127" t="str">
+        <f>PRODUCTOS[[#This Row],[Data]]</f>
+        <v>DATAIMPACTO</v>
+      </c>
+      <c r="AV100" s="127" t="str">
+        <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
+        <v>ARCGISONLINE</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="J8:J95">
+  <conditionalFormatting sqref="J8:J100">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -37923,17 +39263,26 @@
   <hyperlinks>
     <hyperlink ref="Y17" r:id="rId1" xr:uid="{C77996A8-4894-4105-94AE-98881F48FB59}"/>
     <hyperlink ref="X59" r:id="rId2" xr:uid="{C6F80EAB-EF7C-46B7-B8CB-728C0EE7930D}"/>
+    <hyperlink ref="X50" r:id="rId3" xr:uid="{FEC2D615-4FF7-4E90-A283-B1C3CDAA7BC4}"/>
+    <hyperlink ref="X96" r:id="rId4" xr:uid="{11D5AC93-E69A-4F47-B1CC-D6BCA331A30D}"/>
+    <hyperlink ref="X97" r:id="rId5" xr:uid="{90F085B1-864B-4B7D-B905-9421A6861F74}"/>
+    <hyperlink ref="X98" r:id="rId6" xr:uid="{F8DAC937-C061-4A80-9439-FA37C1836A4B}"/>
+    <hyperlink ref="X99" r:id="rId7" xr:uid="{7AAC8B05-0DAC-4B89-A048-83CC04242E10}"/>
+    <hyperlink ref="X100" r:id="rId8" xr:uid="{825FAE81-06EF-4B98-B047-BE612C8AF321}"/>
+    <hyperlink ref="X45" r:id="rId9" xr:uid="{79B27EEF-4ABC-40FE-8ED1-B26E1C44BBA2}"/>
+    <hyperlink ref="X15" r:id="rId10" xr:uid="{4FDBB138-AC80-4C46-B244-984D17E40563}"/>
+    <hyperlink ref="X14" r:id="rId11" xr:uid="{5ABB8516-2BF9-4C51-B70C-43B49E7C9A68}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId3"/>
-  <drawing r:id="rId4"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId12"/>
+  <drawing r:id="rId13"/>
   <tableParts count="1">
-    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId14"/>
   </tableParts>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{3A4CF648-6AED-40f4-86FF-DC5316D8AED3}">
       <x14:slicerList xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-        <x14:slicer r:id="rId6"/>
+        <x14:slicer r:id="rId15"/>
       </x14:slicerList>
     </ext>
   </extLst>
@@ -47266,7 +48615,7 @@
         <v>977</v>
       </c>
       <c r="I7" s="16" t="s">
-        <v>1395</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.35">
@@ -47384,9 +48733,9 @@
       <c r="E16" s="152"/>
       <c r="F16" s="160"/>
     </row>
-    <row r="17" spans="2:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:7" ht="29" x14ac:dyDescent="0.35">
       <c r="B17" s="143" t="s">
-        <v>1434</v>
+        <v>1430</v>
       </c>
       <c r="C17" s="151" t="s">
         <v>161</v>
@@ -47399,12 +48748,12 @@
       </c>
       <c r="F17" s="161"/>
       <c r="G17" s="14" t="s">
-        <v>1390</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B18" s="143" t="s">
-        <v>1434</v>
+        <v>1430</v>
       </c>
       <c r="C18" s="146" t="s">
         <v>1276</v>
@@ -47417,7 +48766,7 @@
       </c>
       <c r="F18" s="161"/>
       <c r="G18" s="14" t="s">
-        <v>1435</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.35">
@@ -47435,7 +48784,7 @@
       </c>
       <c r="F19" s="161"/>
       <c r="G19" s="16" t="s">
-        <v>1391</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.35">
@@ -47468,7 +48817,7 @@
       </c>
       <c r="F21" s="161"/>
       <c r="G21" s="16" t="s">
-        <v>1398</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="22" spans="2:7" ht="42.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -47504,7 +48853,7 @@
       </c>
       <c r="F23" s="161"/>
       <c r="G23" s="14" t="s">
-        <v>1437</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="24" spans="2:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
@@ -47522,7 +48871,7 @@
       </c>
       <c r="F24" s="161"/>
       <c r="G24" s="14" t="s">
-        <v>1436</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.35">
@@ -47555,7 +48904,7 @@
         <v>159</v>
       </c>
       <c r="G26" s="16" t="s">
-        <v>1438</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.35">
@@ -47572,10 +48921,10 @@
         <v>99</v>
       </c>
       <c r="F27" s="161" t="s">
-        <v>1413</v>
+        <v>1409</v>
       </c>
       <c r="G27" s="16" t="s">
-        <v>1416</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.35">
@@ -47592,10 +48941,10 @@
         <v>99</v>
       </c>
       <c r="F28" s="161" t="s">
-        <v>1429</v>
+        <v>1425</v>
       </c>
       <c r="G28" s="16" t="s">
-        <v>1420</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="29" spans="2:7" ht="43.5" x14ac:dyDescent="0.35">
@@ -47612,10 +48961,10 @@
         <v>99</v>
       </c>
       <c r="F29" s="161" t="s">
-        <v>1429</v>
+        <v>1425</v>
       </c>
       <c r="G29" s="14" t="s">
-        <v>1430</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.35">
@@ -47632,10 +48981,10 @@
         <v>99</v>
       </c>
       <c r="F30" s="161" t="s">
-        <v>1429</v>
+        <v>1425</v>
       </c>
       <c r="G30" s="16" t="s">
-        <v>1431</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.35">
@@ -47652,10 +49001,10 @@
         <v>99</v>
       </c>
       <c r="F31" s="161" t="s">
-        <v>1413</v>
+        <v>1409</v>
       </c>
       <c r="G31" s="16" t="s">
-        <v>1397</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.35">
@@ -47672,10 +49021,10 @@
         <v>99</v>
       </c>
       <c r="F32" s="161" t="s">
-        <v>1413</v>
+        <v>1409</v>
       </c>
       <c r="G32" s="16" t="s">
-        <v>1432</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.35">
@@ -47695,7 +49044,7 @@
         <v>159</v>
       </c>
       <c r="G33" s="16" t="s">
-        <v>1433</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.35">
@@ -47733,7 +49082,7 @@
         <v>159</v>
       </c>
       <c r="G35" s="14" t="s">
-        <v>1440</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.35">
@@ -47753,7 +49102,7 @@
         <v>159</v>
       </c>
       <c r="G36" s="16" t="s">
-        <v>1439</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.35">
@@ -47770,10 +49119,10 @@
         <v>95</v>
       </c>
       <c r="F37" s="160" t="s">
-        <v>1413</v>
+        <v>1409</v>
       </c>
       <c r="G37" s="16" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.35">
@@ -47790,10 +49139,10 @@
         <v>95</v>
       </c>
       <c r="F38" s="160" t="s">
-        <v>1418</v>
+        <v>1414</v>
       </c>
       <c r="G38" s="16" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.35">
@@ -47813,7 +49162,7 @@
         <v>159</v>
       </c>
       <c r="G39" s="16" t="s">
-        <v>1407</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.35">
@@ -47830,10 +49179,10 @@
         <v>98</v>
       </c>
       <c r="F40" s="161" t="s">
-        <v>1413</v>
+        <v>1409</v>
       </c>
       <c r="G40" s="16" t="s">
-        <v>1416</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="41" spans="2:9" ht="34" customHeight="1" x14ac:dyDescent="0.35">
@@ -47853,7 +49202,7 @@
         <v>159</v>
       </c>
       <c r="G41" s="14" t="s">
-        <v>1415</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="42" spans="2:9" ht="34" customHeight="1" x14ac:dyDescent="0.35">
@@ -47873,7 +49222,7 @@
         <v>159</v>
       </c>
       <c r="G42" s="14" t="s">
-        <v>1411</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="43" spans="2:9" ht="29" x14ac:dyDescent="0.35">
@@ -47893,7 +49242,7 @@
         <v>159</v>
       </c>
       <c r="G43" s="14" t="s">
-        <v>1412</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.35">
@@ -47910,10 +49259,10 @@
         <v>98</v>
       </c>
       <c r="F44" s="161" t="s">
-        <v>1413</v>
+        <v>1409</v>
       </c>
       <c r="G44" s="16" t="s">
-        <v>1414</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.35">
@@ -47930,10 +49279,10 @@
         <v>98</v>
       </c>
       <c r="F45" s="161" t="s">
+        <v>1409</v>
+      </c>
+      <c r="G45" s="16" t="s">
         <v>1413</v>
-      </c>
-      <c r="G45" s="16" t="s">
-        <v>1417</v>
       </c>
     </row>
     <row r="46" spans="2:9" ht="29" x14ac:dyDescent="0.35">
@@ -47950,10 +49299,10 @@
         <v>98</v>
       </c>
       <c r="F46" s="161" t="s">
-        <v>1418</v>
+        <v>1414</v>
       </c>
       <c r="G46" s="14" t="s">
-        <v>1419</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.35">
@@ -47970,16 +49319,16 @@
         <v>93</v>
       </c>
       <c r="F47" s="161" t="s">
+        <v>1414</v>
+      </c>
+      <c r="G47" s="16" t="s">
         <v>1418</v>
       </c>
-      <c r="G47" s="16" t="s">
-        <v>1422</v>
-      </c>
       <c r="H47" s="16" t="s">
-        <v>1394</v>
+        <v>1390</v>
       </c>
       <c r="I47" s="16" t="s">
-        <v>1396</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.35">
@@ -47996,10 +49345,10 @@
         <v>93</v>
       </c>
       <c r="F48" s="160" t="s">
-        <v>1418</v>
+        <v>1414</v>
       </c>
       <c r="G48" s="16" t="s">
-        <v>1423</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.35">
@@ -48019,7 +49368,7 @@
         <v>159</v>
       </c>
       <c r="G49" s="16" t="s">
-        <v>1428</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="50" spans="2:9" ht="43.5" x14ac:dyDescent="0.35">
@@ -48039,13 +49388,13 @@
         <v>1060</v>
       </c>
       <c r="G50" s="16" t="s">
-        <v>1426</v>
+        <v>1422</v>
       </c>
       <c r="H50" s="14" t="s">
         <v>1311</v>
       </c>
       <c r="I50" s="14" t="s">
-        <v>1421</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.35">
@@ -48065,7 +49414,7 @@
         <v>159</v>
       </c>
       <c r="G51" s="16" t="s">
-        <v>1427</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.35">
@@ -48085,7 +49434,7 @@
         <v>1060</v>
       </c>
       <c r="G52" s="16" t="s">
-        <v>1424</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.35">
@@ -48105,7 +49454,7 @@
         <v>1060</v>
       </c>
       <c r="G53" s="16" t="s">
-        <v>1432</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.35">
@@ -48122,10 +49471,10 @@
         <v>93</v>
       </c>
       <c r="F54" s="161" t="s">
-        <v>1418</v>
+        <v>1414</v>
       </c>
       <c r="G54" s="16" t="s">
-        <v>1425</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="55" spans="2:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -48143,10 +49492,10 @@
       </c>
       <c r="F55" s="160"/>
       <c r="G55" s="16" t="s">
-        <v>1392</v>
+        <v>1388</v>
       </c>
       <c r="H55" s="14" t="s">
-        <v>1393</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.35">
@@ -48891,7 +50240,7 @@
   </sheetPr>
   <dimension ref="A9:M51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A37" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
@@ -49403,7 +50752,7 @@
         <v>1026</v>
       </c>
       <c r="C38" s="78" t="s">
-        <v>1399</v>
+        <v>1395</v>
       </c>
       <c r="D38" s="78"/>
       <c r="E38" s="78"/>
@@ -49425,7 +50774,7 @@
         <v>1028</v>
       </c>
       <c r="C39" s="47" t="s">
-        <v>1399</v>
+        <v>1395</v>
       </c>
       <c r="D39" s="50">
         <v>44121</v>
@@ -49450,7 +50799,7 @@
         <v>1030</v>
       </c>
       <c r="C41" s="47" t="s">
-        <v>1400</v>
+        <v>1396</v>
       </c>
       <c r="D41" s="50">
         <v>44126</v>
@@ -49546,7 +50895,7 @@
         <v>39</v>
       </c>
       <c r="B48" s="48" t="s">
-        <v>1408</v>
+        <v>1404</v>
       </c>
       <c r="M48" s="49"/>
     </row>
@@ -49555,10 +50904,10 @@
         <v>40</v>
       </c>
       <c r="B49" s="48" t="s">
-        <v>1409</v>
+        <v>1405</v>
       </c>
       <c r="L49" s="165" t="s">
-        <v>1410</v>
+        <v>1406</v>
       </c>
       <c r="M49" s="49"/>
     </row>
@@ -49567,10 +50916,10 @@
         <v>41</v>
       </c>
       <c r="B50" s="48" t="s">
-        <v>1446</v>
+        <v>1442</v>
       </c>
       <c r="L50" s="165" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="M50" s="49"/>
     </row>
@@ -49579,7 +50928,7 @@
         <v>42</v>
       </c>
       <c r="B51" s="48" t="s">
-        <v>1449</v>
+        <v>1445</v>
       </c>
       <c r="M51" s="49"/>
     </row>

--- a/Monitoreo DI.xlsx
+++ b/Monitoreo DI.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karen\Dropbox\DI Monitoreo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\DI Monitoreo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15AE019C-8C44-4138-8229-4CA189F9E824}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C6FAE15-A247-473B-AB26-DF351873D657}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="833" activeTab="2" xr2:uid="{F0BF9B96-FFF4-4E12-841F-9553B6E1990E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="833" activeTab="7" xr2:uid="{F0BF9B96-FFF4-4E12-841F-9553B6E1990E}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA`S" sheetId="1" r:id="rId1"/>
@@ -112,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5959" uniqueCount="1492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6027" uniqueCount="1501">
   <si>
     <t>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/DATASALUD.svg</t>
   </si>
@@ -4945,12 +4945,6 @@
     <t>BD Violencia contra la mujer a espera de Respuesta de karen.</t>
   </si>
   <si>
-    <t>UNICEF (paula)</t>
-  </si>
-  <si>
-    <t>Data DELITO Panamá (fernanda)</t>
-  </si>
-  <si>
     <t>https://ministeriopublico.gob.pa/estadisticas-judiciales/violencia-domestica/</t>
   </si>
   <si>
@@ -5411,6 +5405,75 @@
   </si>
   <si>
     <t>https://sud-austral.maps.arcgis.com/apps/MapSeries/index.html?appid=954d3f78abca4e68a74424d7ca86bdc2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.sbif.cl/sbifweb/servlet/InfoFinanciera?indice=4.1&amp;idCategoria=564&amp;tipocont=0 </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Comisión para el Mercado Financiero </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(andrés ?)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Data DELITO Panamá </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(fernanda)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">UNICEF </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(paula)</t>
+    </r>
+  </si>
+  <si>
+    <t>Ok</t>
+  </si>
+  <si>
+    <t>ver el tema de actualización de información semanal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ok. Descargo violencia domestica y Delitos Sexuales </t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>no hay encuesta ni anteriores ni futuro pero si fuente validada ya que fue compartido por ONU y DIGESTIC. Comenzará a correlacionar la encuestas con los codigos respectivos</t>
+  </si>
+  <si>
+    <t>"Team Honduras" varios pdf</t>
+  </si>
+  <si>
+    <t>"Team Honduras" descraga y sistematización información INE</t>
   </si>
 </sst>
 </file>
@@ -6341,8 +6404,263 @@
   </cellStyles>
   <dxfs count="181">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -8032,265 +8350,6 @@
       </font>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
       <alignment vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -8655,6 +8714,10 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -11494,7 +11557,7 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{07333795-F402-425E-9AC7-1C17203C211E}" name="BORRADOR_PRODUCTOS" displayName="BORRADOR_PRODUCTOS" ref="B11:P117" totalsRowShown="0" headerRowDxfId="17" tableBorderDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{07333795-F402-425E-9AC7-1C17203C211E}" name="BORRADOR_PRODUCTOS" displayName="BORRADOR_PRODUCTOS" ref="B11:P117" totalsRowShown="0" headerRowDxfId="30" tableBorderDxfId="29">
   <autoFilter ref="B11:P117" xr:uid="{488C7ADA-DF10-4033-BE01-B6478A789716}">
     <filterColumn colId="0">
       <filters>
@@ -11507,21 +11570,21 @@
     <sortCondition ref="D12:D64"/>
   </sortState>
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{229DCB04-6969-4E62-A149-FB9E3CAE5BF4}" name="Data" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{CD34A55D-D0AD-4B52-8194-AFDE7E5C6050}" name="Producto Previos" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{4029C438-04CA-46F0-B968-E3D862055C27}" name="Secuencia (dentro DATA)" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{9842277F-498F-4399-B9E9-AE2739193ABA}" name="País" dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{ED853D5F-1B7C-4052-B0FE-5337CC52FC4D}" name="Integrado en PRODUCTOS? [SI/NO]" dataDxfId="11"/>
-    <tableColumn id="15" xr3:uid="{8D63376D-2407-4CF9-A0F9-4552C9649833}" name="id_producto" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{14D31B75-8E88-42FB-BB27-6BB36C1418D0}" name="Prioridad [1-9]" dataDxfId="9"/>
-    <tableColumn id="7" xr3:uid="{679658E8-A980-4528-82C7-F19E24336030}" name="Estado" dataDxfId="8"/>
-    <tableColumn id="8" xr3:uid="{2EF6A42B-DFA0-4FE7-A1E1-2E79F580EB12}" name="Avance [0-100%]" dataDxfId="7" dataCellStyle="Porcentaje"/>
-    <tableColumn id="9" xr3:uid="{40541782-CDD5-4622-B1C1-C97D63A0C9AA}" name="Responsable Desarrollo" dataDxfId="6"/>
-    <tableColumn id="10" xr3:uid="{3B543DE3-BF65-4BD9-9932-28271C56E4C6}" name="Responsable Información" dataDxfId="5"/>
-    <tableColumn id="11" xr3:uid="{DAB3B04F-F977-4413-A23F-4094B552D30E}" name="Tareas/Elementos / Observaciones" dataDxfId="4"/>
-    <tableColumn id="12" xr3:uid="{78859102-313B-47F6-BED8-F613D7B8587E}" name="Tecnología" dataDxfId="3"/>
-    <tableColumn id="13" xr3:uid="{BBACA7B7-AF7E-4714-A44E-1572587CA1A4}" name="Fecha estimada" dataDxfId="2"/>
-    <tableColumn id="14" xr3:uid="{3D3E6850-E86A-4D4E-99C6-7FEB6D12B271}" name="Fecha Actualización [de esta info]" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{229DCB04-6969-4E62-A149-FB9E3CAE5BF4}" name="Data" dataDxfId="28"/>
+    <tableColumn id="2" xr3:uid="{CD34A55D-D0AD-4B52-8194-AFDE7E5C6050}" name="Producto Previos" dataDxfId="27"/>
+    <tableColumn id="3" xr3:uid="{4029C438-04CA-46F0-B968-E3D862055C27}" name="Secuencia (dentro DATA)" dataDxfId="26"/>
+    <tableColumn id="4" xr3:uid="{9842277F-498F-4399-B9E9-AE2739193ABA}" name="País" dataDxfId="25"/>
+    <tableColumn id="5" xr3:uid="{ED853D5F-1B7C-4052-B0FE-5337CC52FC4D}" name="Integrado en PRODUCTOS? [SI/NO]" dataDxfId="24"/>
+    <tableColumn id="15" xr3:uid="{8D63376D-2407-4CF9-A0F9-4552C9649833}" name="id_producto" dataDxfId="23"/>
+    <tableColumn id="6" xr3:uid="{14D31B75-8E88-42FB-BB27-6BB36C1418D0}" name="Prioridad [1-9]" dataDxfId="22"/>
+    <tableColumn id="7" xr3:uid="{679658E8-A980-4528-82C7-F19E24336030}" name="Estado" dataDxfId="21"/>
+    <tableColumn id="8" xr3:uid="{2EF6A42B-DFA0-4FE7-A1E1-2E79F580EB12}" name="Avance [0-100%]" dataDxfId="20" dataCellStyle="Porcentaje"/>
+    <tableColumn id="9" xr3:uid="{40541782-CDD5-4622-B1C1-C97D63A0C9AA}" name="Responsable Desarrollo" dataDxfId="19"/>
+    <tableColumn id="10" xr3:uid="{3B543DE3-BF65-4BD9-9932-28271C56E4C6}" name="Responsable Información" dataDxfId="18"/>
+    <tableColumn id="11" xr3:uid="{DAB3B04F-F977-4413-A23F-4094B552D30E}" name="Tareas/Elementos / Observaciones" dataDxfId="17"/>
+    <tableColumn id="12" xr3:uid="{78859102-313B-47F6-BED8-F613D7B8587E}" name="Tecnología" dataDxfId="16"/>
+    <tableColumn id="13" xr3:uid="{BBACA7B7-AF7E-4714-A44E-1572587CA1A4}" name="Fecha estimada" dataDxfId="15"/>
+    <tableColumn id="14" xr3:uid="{3D3E6850-E86A-4D4E-99C6-7FEB6D12B271}" name="Fecha Actualización [de esta info]" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -11534,45 +11597,45 @@
     <tableColumn id="1" xr3:uid="{01CFB9DB-FBAD-4A9E-9D8F-5FB3EB42A9EB}" name="id_data" dataDxfId="166" totalsRowDxfId="165">
       <calculatedColumnFormula>+VLOOKUP(D8,'DATA`S'!$B$8:$C$33,2,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="31" xr3:uid="{296D6B07-CE01-4CBF-8413-B4A08E3AF372}" name="id_pais" dataDxfId="0" totalsRowDxfId="164">
+    <tableColumn id="31" xr3:uid="{296D6B07-CE01-4CBF-8413-B4A08E3AF372}" name="id_pais" dataDxfId="164" totalsRowDxfId="163">
       <calculatedColumnFormula>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$12,2,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{07061539-DFF5-4A11-BADD-2A240074A56A}" name="Corr_Producto" dataDxfId="163" totalsRowDxfId="162"/>
-    <tableColumn id="3" xr3:uid="{56D80777-3871-4DBF-8856-DFDA54440D55}" name="Data" dataDxfId="161" totalsRowDxfId="160"/>
-    <tableColumn id="27" xr3:uid="{0BD20D97-CBB4-4212-9EB7-3F3B3FA483E6}" name="País" dataDxfId="159" totalsRowDxfId="158"/>
-    <tableColumn id="4" xr3:uid="{73D49374-8912-4C27-A2AF-E0476A8E9AEE}" name="id_producto" dataDxfId="157">
+    <tableColumn id="2" xr3:uid="{07061539-DFF5-4A11-BADD-2A240074A56A}" name="Corr_Producto" dataDxfId="162" totalsRowDxfId="161"/>
+    <tableColumn id="3" xr3:uid="{56D80777-3871-4DBF-8856-DFDA54440D55}" name="Data" dataDxfId="160" totalsRowDxfId="159"/>
+    <tableColumn id="27" xr3:uid="{0BD20D97-CBB4-4212-9EB7-3F3B3FA483E6}" name="País" dataDxfId="158" totalsRowDxfId="157"/>
+    <tableColumn id="4" xr3:uid="{73D49374-8912-4C27-A2AF-E0476A8E9AEE}" name="id_producto" dataDxfId="156">
       <calculatedColumnFormula>A8&amp;"-"&amp;B8&amp;"-"&amp;C8</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{71534AA1-DF8C-466C-AAA8-87DA9F119341}" name="Producto asociado " dataDxfId="156" totalsRowDxfId="155"/>
-    <tableColumn id="26" xr3:uid="{8B686EE2-348B-48C2-990B-424A8FB284BC}" name="Nombre comercial" dataDxfId="154" totalsRowDxfId="153"/>
-    <tableColumn id="6" xr3:uid="{75779DBD-8A91-4D7A-8A36-000CEDC599B6}" name="Estado" dataDxfId="152" totalsRowDxfId="151"/>
-    <tableColumn id="25" xr3:uid="{E03A0489-5A50-4DA9-A8DF-999E6DC669EA}" name="Avance" dataDxfId="150" totalsRowDxfId="149" dataCellStyle="Porcentaje" totalsRowCellStyle="Porcentaje">
+    <tableColumn id="5" xr3:uid="{71534AA1-DF8C-466C-AAA8-87DA9F119341}" name="Producto asociado " dataDxfId="155" totalsRowDxfId="154"/>
+    <tableColumn id="26" xr3:uid="{8B686EE2-348B-48C2-990B-424A8FB284BC}" name="Nombre comercial" dataDxfId="153" totalsRowDxfId="152"/>
+    <tableColumn id="6" xr3:uid="{75779DBD-8A91-4D7A-8A36-000CEDC599B6}" name="Estado" dataDxfId="151" totalsRowDxfId="150"/>
+    <tableColumn id="25" xr3:uid="{E03A0489-5A50-4DA9-A8DF-999E6DC669EA}" name="Avance" dataDxfId="149" totalsRowDxfId="148" dataCellStyle="Porcentaje" totalsRowCellStyle="Porcentaje">
       <calculatedColumnFormula>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$J$117,4,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{2699BB10-9D24-4629-8F45-4A2526A4D39A}" name="Responsable Desarrollo" dataDxfId="148" totalsRowDxfId="147"/>
-    <tableColumn id="8" xr3:uid="{69F4BEA1-A9B4-4421-A0EE-47BCAF12AAB2}" name="Responsable Información" dataDxfId="146" totalsRowDxfId="145"/>
-    <tableColumn id="10" xr3:uid="{03C8A422-EE9B-494A-A440-9110009A358E}" name="Tecnología" dataDxfId="144" totalsRowDxfId="143">
+    <tableColumn id="7" xr3:uid="{2699BB10-9D24-4629-8F45-4A2526A4D39A}" name="Responsable Desarrollo" dataDxfId="147" totalsRowDxfId="146"/>
+    <tableColumn id="8" xr3:uid="{69F4BEA1-A9B4-4421-A0EE-47BCAF12AAB2}" name="Responsable Información" dataDxfId="145" totalsRowDxfId="144"/>
+    <tableColumn id="10" xr3:uid="{03C8A422-EE9B-494A-A440-9110009A358E}" name="Tecnología" dataDxfId="143" totalsRowDxfId="142">
       <calculatedColumnFormula>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$N$117,8,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{1A081205-19B8-4238-8F9E-1836061C2D4F}" name="Host " dataDxfId="142" totalsRowDxfId="141"/>
-    <tableColumn id="12" xr3:uid="{6BCD6CB8-BA53-40A7-9F90-7EBA78E345DA}" name="Link Odoo" dataDxfId="140" totalsRowDxfId="139"/>
-    <tableColumn id="13" xr3:uid="{502BD7B7-DD01-471A-8E5E-C527F983E20E}" name="Fecha Publicación" dataDxfId="138" totalsRowDxfId="137"/>
-    <tableColumn id="15" xr3:uid="{00014923-35F8-4A24-9B8B-A626BE90EC3E}" name="Escala " dataDxfId="136" totalsRowDxfId="135"/>
-    <tableColumn id="16" xr3:uid="{D32995C9-2CA4-4BD7-A181-0CE6434624DC}" name="Periodo" dataDxfId="134" totalsRowDxfId="133"/>
-    <tableColumn id="17" xr3:uid="{5F683DA7-34DC-43D1-A154-FB5C17AB82E4}" name="Actualizaciones" dataDxfId="132" totalsRowDxfId="131"/>
-    <tableColumn id="18" xr3:uid="{D0F7DA38-1DAE-48DF-8725-440804E511ED}" name="Tipo Producto" dataDxfId="130" totalsRowDxfId="129"/>
-    <tableColumn id="19" xr3:uid="{6345440E-6C11-4DE3-9F30-57AA749130A3}" name="Fuentes " dataDxfId="128" totalsRowDxfId="127"/>
-    <tableColumn id="20" xr3:uid="{06F6F5BE-A8B5-450A-B890-E5272AC160CB}" name="Ref principal " dataDxfId="126" totalsRowDxfId="125"/>
-    <tableColumn id="21" xr3:uid="{F22EE5BC-B966-49EB-A843-F1384A77D7A0}" name="Competencia o material vinculado " dataDxfId="124" totalsRowDxfId="123"/>
+    <tableColumn id="11" xr3:uid="{1A081205-19B8-4238-8F9E-1836061C2D4F}" name="Host " dataDxfId="141" totalsRowDxfId="140"/>
+    <tableColumn id="12" xr3:uid="{6BCD6CB8-BA53-40A7-9F90-7EBA78E345DA}" name="Link Odoo" dataDxfId="139" totalsRowDxfId="138"/>
+    <tableColumn id="13" xr3:uid="{502BD7B7-DD01-471A-8E5E-C527F983E20E}" name="Fecha Publicación" dataDxfId="137" totalsRowDxfId="136"/>
+    <tableColumn id="15" xr3:uid="{00014923-35F8-4A24-9B8B-A626BE90EC3E}" name="Escala " dataDxfId="135" totalsRowDxfId="134"/>
+    <tableColumn id="16" xr3:uid="{D32995C9-2CA4-4BD7-A181-0CE6434624DC}" name="Periodo" dataDxfId="133" totalsRowDxfId="132"/>
+    <tableColumn id="17" xr3:uid="{5F683DA7-34DC-43D1-A154-FB5C17AB82E4}" name="Actualizaciones" dataDxfId="131" totalsRowDxfId="130"/>
+    <tableColumn id="18" xr3:uid="{D0F7DA38-1DAE-48DF-8725-440804E511ED}" name="Tipo Producto" dataDxfId="129" totalsRowDxfId="128"/>
+    <tableColumn id="19" xr3:uid="{6345440E-6C11-4DE3-9F30-57AA749130A3}" name="Fuentes " dataDxfId="127" totalsRowDxfId="126"/>
+    <tableColumn id="20" xr3:uid="{06F6F5BE-A8B5-450A-B890-E5272AC160CB}" name="Ref principal " dataDxfId="125" totalsRowDxfId="124"/>
+    <tableColumn id="21" xr3:uid="{F22EE5BC-B966-49EB-A843-F1384A77D7A0}" name="Competencia o material vinculado " dataDxfId="123" totalsRowDxfId="122"/>
     <tableColumn id="22" xr3:uid="{E445C8DD-86CC-41A9-9E49-D3492783FCB1}" name="Vistas"/>
     <tableColumn id="23" xr3:uid="{DBAFBD3B-B406-46F5-B2E9-B69F6F70645B}" name="Repositorio Dropbox"/>
     <tableColumn id="24" xr3:uid="{629986D1-249B-44FE-82F1-FCA6183BF20E}" name="Link Logo"/>
-    <tableColumn id="28" xr3:uid="{4F7861D7-1E20-4E49-BAAB-9731305CDBE5}" name="Observaciones" dataDxfId="122" totalsRowDxfId="121"/>
-    <tableColumn id="29" xr3:uid="{B82AF5FC-FE01-4F10-8B3A-A6B205199D0A}" name="Miniatura" dataDxfId="120" totalsRowDxfId="119"/>
+    <tableColumn id="28" xr3:uid="{4F7861D7-1E20-4E49-BAAB-9731305CDBE5}" name="Observaciones" dataDxfId="121" totalsRowDxfId="120"/>
+    <tableColumn id="29" xr3:uid="{B82AF5FC-FE01-4F10-8B3A-A6B205199D0A}" name="Miniatura" dataDxfId="119" totalsRowDxfId="118"/>
     <tableColumn id="37" xr3:uid="{447BFD0A-721F-47C8-9615-3D9B196F979F}" name="PORTADA SHOPIFY"/>
     <tableColumn id="38" xr3:uid="{95D4D5AF-6660-4044-A5A8-E516ADA5D063}" name="Párrafo enganche"/>
     <tableColumn id="39" xr3:uid="{2963E916-25CA-4C30-A173-915A5CD940D3}" name="Variante_1"/>
-    <tableColumn id="40" xr3:uid="{50FEFE18-B7AA-4094-B4D1-D7296380363B}" name="Precio_1 (USD)" dataDxfId="118"/>
+    <tableColumn id="40" xr3:uid="{50FEFE18-B7AA-4094-B4D1-D7296380363B}" name="Precio_1 (USD)" dataDxfId="117"/>
     <tableColumn id="41" xr3:uid="{9CECDB40-D2E7-44AF-BA17-FB2CD006F0D3}" name="Variante_2"/>
     <tableColumn id="42" xr3:uid="{449802E5-0F23-40E3-AC14-547C4516D33C}" name="Precio_2 (USD)"/>
     <tableColumn id="43" xr3:uid="{A11B456F-7DEA-431F-9CA5-03E3B83EB3CF}" name="Variante_3"/>
@@ -11587,10 +11650,10 @@
     <tableColumn id="9" xr3:uid="{A912298A-2AE3-4676-B089-13388A70E0CC}" name="CAR_Var3_Disponible"/>
     <tableColumn id="34" xr3:uid="{2EAEC5EE-D01B-4781-A499-32811E9E50DF}" name="CAR_Periodo"/>
     <tableColumn id="35" xr3:uid="{89972549-6CAE-40EF-8DDE-4E5FB11CDCFB}" name="CAR_Proveedor"/>
-    <tableColumn id="36" xr3:uid="{94687206-A22A-469D-92B1-A6635B8A1CB3}" name="CAR_Colección" dataDxfId="117">
+    <tableColumn id="36" xr3:uid="{94687206-A22A-469D-92B1-A6635B8A1CB3}" name="CAR_Colección" dataDxfId="116">
       <calculatedColumnFormula>PRODUCTOS[[#This Row],[Data]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="48" xr3:uid="{431A4A68-8223-41E1-99C1-4F515A267188}" name="ESP_Tecnología" dataDxfId="116">
+    <tableColumn id="48" xr3:uid="{431A4A68-8223-41E1-99C1-4F515A267188}" name="ESP_Tecnología" dataDxfId="115">
       <calculatedColumnFormula>PRODUCTOS[[#This Row],[Tecnología]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="49" xr3:uid="{A570E531-D39D-48A2-BCC8-8E0BA5937958}" name="ESP_Incluye"/>
@@ -11613,7 +11676,7 @@
     <tableColumn id="1" xr3:uid="{69819873-BFDD-4D0F-83ED-7D2504DFDA31}" name="Data"/>
     <tableColumn id="2" xr3:uid="{70760145-B5A6-4F27-A738-A1EBE3D8A954}" name="Producto"/>
     <tableColumn id="3" xr3:uid="{585C0D49-B625-41C4-8893-45B93A4BE8CC}" name="Sección"/>
-    <tableColumn id="4" xr3:uid="{10EF7F87-DEF0-4028-9C31-E3E45FB50589}" name="Tema" dataDxfId="115"/>
+    <tableColumn id="4" xr3:uid="{10EF7F87-DEF0-4028-9C31-E3E45FB50589}" name="Tema" dataDxfId="114"/>
     <tableColumn id="5" xr3:uid="{28D3851F-C206-422F-98B1-973F48082A17}" name="Verificador"/>
     <tableColumn id="6" xr3:uid="{71EF3903-87DB-422F-904D-B86468D3F2A8}" name="Variables"/>
     <tableColumn id="7" xr3:uid="{09ED368A-F77F-44FE-80CB-14C859399091}" name="ID_VAR"/>
@@ -11637,156 +11700,156 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{2A3DFF5F-BB66-464A-9045-49B0328E9E76}" name="Tabla10" displayName="Tabla10" ref="B7:I208" totalsRowShown="0" headerRowDxfId="114" dataDxfId="113">
-  <autoFilter ref="B7:I208" xr:uid="{54E86758-179E-494E-9D22-024745EA2489}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{2A3DFF5F-BB66-464A-9045-49B0328E9E76}" name="Tabla10" displayName="Tabla10" ref="B7:I221" totalsRowShown="0" headerRowDxfId="113" dataDxfId="112">
+  <autoFilter ref="B7:I221" xr:uid="{54E86758-179E-494E-9D22-024745EA2489}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{AE352613-BE77-4F50-A26C-CDFA69B4E703}" name="Data" dataDxfId="112"/>
-    <tableColumn id="2" xr3:uid="{FB99AEF8-BF89-4789-90CC-B8C3024883BE}" name="Estado" dataDxfId="111"/>
-    <tableColumn id="3" xr3:uid="{B15F5D46-093A-497F-970F-4E17CA63A563}" name="Fecha Actualización " dataDxfId="110"/>
-    <tableColumn id="4" xr3:uid="{7EA45E0E-7020-43C1-AD03-9A178CD7430B}" name="Responsable" dataDxfId="109"/>
-    <tableColumn id="8" xr3:uid="{CD6D1E9C-AD67-41FD-BB45-272D5CED1007}" name="Tema" dataDxfId="108"/>
-    <tableColumn id="5" xr3:uid="{2AC1CC8A-E5DB-4A3A-BEE8-6538DDAA69E7}" name="Observación " dataDxfId="107"/>
-    <tableColumn id="6" xr3:uid="{C98B1913-4D31-48AA-9995-A47CE0EA1C1E}" name="Acción" dataDxfId="106"/>
-    <tableColumn id="7" xr3:uid="{FE3D67C6-9FBF-4881-B186-7BE50BE75AE3}" name="Monitoreo" dataDxfId="105"/>
+    <tableColumn id="1" xr3:uid="{AE352613-BE77-4F50-A26C-CDFA69B4E703}" name="Data" dataDxfId="111"/>
+    <tableColumn id="2" xr3:uid="{FB99AEF8-BF89-4789-90CC-B8C3024883BE}" name="Estado" dataDxfId="110"/>
+    <tableColumn id="3" xr3:uid="{B15F5D46-093A-497F-970F-4E17CA63A563}" name="Fecha Actualización " dataDxfId="109"/>
+    <tableColumn id="4" xr3:uid="{7EA45E0E-7020-43C1-AD03-9A178CD7430B}" name="Responsable" dataDxfId="108"/>
+    <tableColumn id="8" xr3:uid="{CD6D1E9C-AD67-41FD-BB45-272D5CED1007}" name="Tema" dataDxfId="107"/>
+    <tableColumn id="5" xr3:uid="{2AC1CC8A-E5DB-4A3A-BEE8-6538DDAA69E7}" name="Observación " dataDxfId="106"/>
+    <tableColumn id="6" xr3:uid="{C98B1913-4D31-48AA-9995-A47CE0EA1C1E}" name="Acción" dataDxfId="105"/>
+    <tableColumn id="7" xr3:uid="{FE3D67C6-9FBF-4881-B186-7BE50BE75AE3}" name="Monitoreo" dataDxfId="104"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{F79A991F-1A6F-4232-A4CD-E26026F59FD2}" name="Tabla1" displayName="Tabla1" ref="A9:M51" totalsRowShown="0" headerRowDxfId="104" dataDxfId="103">
-  <autoFilter ref="A9:M51" xr:uid="{2573F5B0-EE83-49B6-AF2E-FA541AB2D0A7}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{F79A991F-1A6F-4232-A4CD-E26026F59FD2}" name="Tabla1" displayName="Tabla1" ref="A9:M52" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+  <autoFilter ref="A9:M52" xr:uid="{2573F5B0-EE83-49B6-AF2E-FA541AB2D0A7}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{01DC2308-9C99-4EEE-82DB-DC6B48F1F8E3}" name="N°" dataDxfId="102"/>
-    <tableColumn id="2" xr3:uid="{F3B4997E-B2A4-4EB5-AF03-1C32EC201E29}" name="Tema Investigación " dataDxfId="101"/>
-    <tableColumn id="3" xr3:uid="{2ED8CCEC-CAF8-463E-AB90-B3689E282F52}" name="Responsables " dataDxfId="100"/>
-    <tableColumn id="5" xr3:uid="{A45DAC7C-0BE8-484E-8902-C84794C6E4E6}" name="Fecha inicio" dataDxfId="99"/>
+    <tableColumn id="1" xr3:uid="{01DC2308-9C99-4EEE-82DB-DC6B48F1F8E3}" name="N°" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{F3B4997E-B2A4-4EB5-AF03-1C32EC201E29}" name="Tema Investigación " dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{2ED8CCEC-CAF8-463E-AB90-B3689E282F52}" name="Responsables " dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{A45DAC7C-0BE8-484E-8902-C84794C6E4E6}" name="Fecha inicio" dataDxfId="8"/>
     <tableColumn id="4" xr3:uid="{1DFD24D3-150A-4A18-8D2B-471C5E615C4A}" name="Estado"/>
-    <tableColumn id="7" xr3:uid="{A5E888F3-954C-4454-ABBF-0CB322AC2892}" name="Fecha Termino" dataDxfId="98"/>
-    <tableColumn id="8" xr3:uid="{DC2FD273-C50C-4DC5-BCAE-F4707F0CC4FD}" name="Chile" dataDxfId="97"/>
-    <tableColumn id="9" xr3:uid="{DC0F9138-A833-4513-8446-6D9A0BE8DC03}" name="Panamá " dataDxfId="96"/>
-    <tableColumn id="10" xr3:uid="{1C354151-0542-4839-A312-82A4762672B3}" name="Guatemala" dataDxfId="95"/>
-    <tableColumn id="11" xr3:uid="{B44F5A38-555A-4E07-BD14-45F877391CC6}" name="Honduras" dataDxfId="94"/>
-    <tableColumn id="12" xr3:uid="{E43EB3EC-0D6D-42B8-A156-EA2EF365B7B3}" name="El Salvador" dataDxfId="93"/>
-    <tableColumn id="6" xr3:uid="{9ED27B35-B472-416C-B394-C3447A132041}" name="Link 1" dataDxfId="92"/>
-    <tableColumn id="13" xr3:uid="{0813E4B9-E868-4B0E-A181-67DEE49699BC}" name="Link 2" dataDxfId="91"/>
+    <tableColumn id="7" xr3:uid="{A5E888F3-954C-4454-ABBF-0CB322AC2892}" name="Fecha Termino" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{DC2FD273-C50C-4DC5-BCAE-F4707F0CC4FD}" name="Chile" dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{DC0F9138-A833-4513-8446-6D9A0BE8DC03}" name="Panamá " dataDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{1C354151-0542-4839-A312-82A4762672B3}" name="Guatemala" dataDxfId="4"/>
+    <tableColumn id="11" xr3:uid="{B44F5A38-555A-4E07-BD14-45F877391CC6}" name="Honduras" dataDxfId="3"/>
+    <tableColumn id="12" xr3:uid="{E43EB3EC-0D6D-42B8-A156-EA2EF365B7B3}" name="El Salvador" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{9ED27B35-B472-416C-B394-C3447A132041}" name="Link 1" dataDxfId="1"/>
+    <tableColumn id="13" xr3:uid="{0813E4B9-E868-4B0E-A181-67DEE49699BC}" name="Link 2" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{E94DB916-DE89-4F64-9EF8-AFB72BA8FF61}" name="Tabla14" displayName="Tabla14" ref="A12:I80" totalsRowShown="0" headerRowDxfId="90" dataDxfId="89">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{E94DB916-DE89-4F64-9EF8-AFB72BA8FF61}" name="Tabla14" displayName="Tabla14" ref="A12:I80" totalsRowShown="0" headerRowDxfId="103" dataDxfId="102">
   <autoFilter ref="A12:I80" xr:uid="{14629A1E-D5D5-412C-8FAB-488411430C85}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{7299EEE0-40CF-4EF5-8F0C-C1FFA863E5B5}" name="N°" dataDxfId="88"/>
-    <tableColumn id="2" xr3:uid="{9E84EC16-0161-44D0-9CB9-123C0428ADAD}" name="Tema/institución Investigación " dataDxfId="87"/>
-    <tableColumn id="3" xr3:uid="{76853A8B-3945-4590-AB61-F2892D4BDEF9}" name="Responsable" dataDxfId="86"/>
-    <tableColumn id="5" xr3:uid="{F7339DE0-8C86-4469-9258-ED935FDEFA77}" name="Fecha inicio" dataDxfId="85"/>
-    <tableColumn id="6" xr3:uid="{1434B0D6-C669-403A-970D-962B797CA9A9}" name="Fecha avance" dataDxfId="84"/>
-    <tableColumn id="7" xr3:uid="{B968D1D9-84E8-493C-9491-88D890E8453F}" name="Fecha Termino" dataDxfId="83"/>
-    <tableColumn id="8" xr3:uid="{914D3775-FE9D-4F06-9643-2FF0DC094A44}" name="Comentario" dataDxfId="82"/>
-    <tableColumn id="4" xr3:uid="{447DB363-0F58-4053-9903-C5B73E99B8F7}" name="Acción" dataDxfId="81"/>
-    <tableColumn id="9" xr3:uid="{FAD7DF30-EA13-48D4-85BE-33B82685C836}" name="Seguimiento" dataDxfId="80"/>
+    <tableColumn id="1" xr3:uid="{7299EEE0-40CF-4EF5-8F0C-C1FFA863E5B5}" name="N°" dataDxfId="101"/>
+    <tableColumn id="2" xr3:uid="{9E84EC16-0161-44D0-9CB9-123C0428ADAD}" name="Tema/institución Investigación " dataDxfId="100"/>
+    <tableColumn id="3" xr3:uid="{76853A8B-3945-4590-AB61-F2892D4BDEF9}" name="Responsable" dataDxfId="99"/>
+    <tableColumn id="5" xr3:uid="{F7339DE0-8C86-4469-9258-ED935FDEFA77}" name="Fecha inicio" dataDxfId="98"/>
+    <tableColumn id="6" xr3:uid="{1434B0D6-C669-403A-970D-962B797CA9A9}" name="Fecha avance" dataDxfId="97"/>
+    <tableColumn id="7" xr3:uid="{B968D1D9-84E8-493C-9491-88D890E8453F}" name="Fecha Termino" dataDxfId="96"/>
+    <tableColumn id="8" xr3:uid="{914D3775-FE9D-4F06-9643-2FF0DC094A44}" name="Comentario" dataDxfId="95"/>
+    <tableColumn id="4" xr3:uid="{447DB363-0F58-4053-9903-C5B73E99B8F7}" name="Acción" dataDxfId="94"/>
+    <tableColumn id="9" xr3:uid="{FAD7DF30-EA13-48D4-85BE-33B82685C836}" name="Seguimiento" dataDxfId="93"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{065B9CF9-E4C7-46B6-A6AB-AE4727F44BAE}" name="DETALLE_PRODUCTO" displayName="DETALLE_PRODUCTO" ref="B8:L88" totalsRowShown="0" headerRowDxfId="79" dataDxfId="78">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{065B9CF9-E4C7-46B6-A6AB-AE4727F44BAE}" name="DETALLE_PRODUCTO" displayName="DETALLE_PRODUCTO" ref="B8:L88" totalsRowShown="0" headerRowDxfId="92" dataDxfId="91">
   <autoFilter ref="B8:L88" xr:uid="{B19E98DB-D5A2-4B79-98FB-79403A46B576}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{53D02E25-6272-402F-ABD7-44B8E0C71D87}" name="Data" dataDxfId="77"/>
-    <tableColumn id="8" xr3:uid="{EC4D90DB-631D-4228-A704-DD698C8FDA74}" name="id_producto" dataDxfId="76"/>
-    <tableColumn id="2" xr3:uid="{8BB7EEC5-6570-41F8-9A07-5AAEA8522606}" name="Plazo Producto" dataDxfId="75"/>
-    <tableColumn id="3" xr3:uid="{8CB3D480-A20D-43D6-A036-A52F2B756492}" name="Producto" dataDxfId="74"/>
-    <tableColumn id="4" xr3:uid="{A37F897B-BDC4-49DB-9D73-0B585928FBCF}" name="Secciones" dataDxfId="73"/>
-    <tableColumn id="5" xr3:uid="{52913CC1-5A92-42A3-9DE0-3B6AB5FF68D3}" name="Sub-secciones" dataDxfId="72"/>
-    <tableColumn id="6" xr3:uid="{AA418FB7-7169-4105-9A7B-952204D6B07D}" name="Variables" dataDxfId="71"/>
-    <tableColumn id="7" xr3:uid="{9CFF7943-E7AB-407C-A8B2-A61784C0D377}" name="Fuente" dataDxfId="70"/>
-    <tableColumn id="9" xr3:uid="{E0A15B94-D546-4F86-877E-4ECCBE8390C9}" name="Situación Variable" dataDxfId="69"/>
-    <tableColumn id="10" xr3:uid="{766CAFFF-49CC-4F0A-A3FA-AA09276E3B90}" name="Fecha Actualización" dataDxfId="68"/>
-    <tableColumn id="11" xr3:uid="{8FEDBB30-0CE4-44B9-B885-55B24F35F89F}" name="Observaciones" dataDxfId="67"/>
+    <tableColumn id="1" xr3:uid="{53D02E25-6272-402F-ABD7-44B8E0C71D87}" name="Data" dataDxfId="90"/>
+    <tableColumn id="8" xr3:uid="{EC4D90DB-631D-4228-A704-DD698C8FDA74}" name="id_producto" dataDxfId="89"/>
+    <tableColumn id="2" xr3:uid="{8BB7EEC5-6570-41F8-9A07-5AAEA8522606}" name="Plazo Producto" dataDxfId="88"/>
+    <tableColumn id="3" xr3:uid="{8CB3D480-A20D-43D6-A036-A52F2B756492}" name="Producto" dataDxfId="87"/>
+    <tableColumn id="4" xr3:uid="{A37F897B-BDC4-49DB-9D73-0B585928FBCF}" name="Secciones" dataDxfId="86"/>
+    <tableColumn id="5" xr3:uid="{52913CC1-5A92-42A3-9DE0-3B6AB5FF68D3}" name="Sub-secciones" dataDxfId="85"/>
+    <tableColumn id="6" xr3:uid="{AA418FB7-7169-4105-9A7B-952204D6B07D}" name="Variables" dataDxfId="84"/>
+    <tableColumn id="7" xr3:uid="{9CFF7943-E7AB-407C-A8B2-A61784C0D377}" name="Fuente" dataDxfId="83"/>
+    <tableColumn id="9" xr3:uid="{E0A15B94-D546-4F86-877E-4ECCBE8390C9}" name="Situación Variable" dataDxfId="82"/>
+    <tableColumn id="10" xr3:uid="{766CAFFF-49CC-4F0A-A3FA-AA09276E3B90}" name="Fecha Actualización" dataDxfId="81"/>
+    <tableColumn id="11" xr3:uid="{8FEDBB30-0CE4-44B9-B885-55B24F35F89F}" name="Observaciones" dataDxfId="80"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{8903E000-6268-4700-8DED-A61277FDDF6A}" name="SHOPIFY" displayName="SHOPIFY" ref="A7:AX82" totalsRowShown="0" headerRowDxfId="66">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{8903E000-6268-4700-8DED-A61277FDDF6A}" name="SHOPIFY" displayName="SHOPIFY" ref="A7:AX82" totalsRowShown="0" headerRowDxfId="79">
   <autoFilter ref="A7:AX82" xr:uid="{8E7BE500-FD82-4AF8-9786-CF4905281DB3}"/>
   <tableColumns count="50">
-    <tableColumn id="1" xr3:uid="{97B30EC8-C107-4A29-BFE9-64B671A010DD}" name="id_data" dataDxfId="65">
+    <tableColumn id="1" xr3:uid="{97B30EC8-C107-4A29-BFE9-64B671A010DD}" name="id_data" dataDxfId="78">
       <calculatedColumnFormula>PRODUCTOS[[#This Row],[id_data]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{D4210DF6-B71C-4CEA-B273-A001CC99D71D}" name="Corr_Producto" dataDxfId="64"/>
-    <tableColumn id="3" xr3:uid="{3A3C3A45-DC12-420E-B4A9-B6FC4AB09680}" name="Data" dataDxfId="63"/>
-    <tableColumn id="4" xr3:uid="{F589E312-6F04-441B-BD92-57D8AF605B91}" name="id_producto" dataDxfId="62">
+    <tableColumn id="2" xr3:uid="{D4210DF6-B71C-4CEA-B273-A001CC99D71D}" name="Corr_Producto" dataDxfId="77"/>
+    <tableColumn id="3" xr3:uid="{3A3C3A45-DC12-420E-B4A9-B6FC4AB09680}" name="Data" dataDxfId="76"/>
+    <tableColumn id="4" xr3:uid="{F589E312-6F04-441B-BD92-57D8AF605B91}" name="id_producto" dataDxfId="75">
       <calculatedColumnFormula>+A8&amp;"-"&amp;B8</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{8673061C-EC24-4EF4-81F6-F73CCCED37A8}" name="Producto asociado " dataDxfId="61"/>
-    <tableColumn id="32" xr3:uid="{BB6CBD3F-A1DC-4006-8ED6-2EDD0372776F}" name="Nombre comercial" dataDxfId="60">
+    <tableColumn id="5" xr3:uid="{8673061C-EC24-4EF4-81F6-F73CCCED37A8}" name="Producto asociado " dataDxfId="74"/>
+    <tableColumn id="32" xr3:uid="{BB6CBD3F-A1DC-4006-8ED6-2EDD0372776F}" name="Nombre comercial" dataDxfId="73">
       <calculatedColumnFormula>PRODUCTOS[[#This Row],[Nombre comercial]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="47" xr3:uid="{1BF29101-CC46-4386-87BF-FB5000527CC1}" name="Variante" dataDxfId="59">
+    <tableColumn id="47" xr3:uid="{1BF29101-CC46-4386-87BF-FB5000527CC1}" name="Variante" dataDxfId="72">
       <calculatedColumnFormula>#REF!</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="46" xr3:uid="{971E696E-617D-42F5-AD13-6C98573AB151}" name="Corr_variante" dataDxfId="58">
+    <tableColumn id="46" xr3:uid="{971E696E-617D-42F5-AD13-6C98573AB151}" name="Corr_variante" dataDxfId="71">
       <calculatedColumnFormula>#REF!</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{8623108B-5216-4DE8-A078-C2EA5007B662}" name="id_prod_var" dataDxfId="57">
+    <tableColumn id="20" xr3:uid="{8623108B-5216-4DE8-A078-C2EA5007B662}" name="id_prod_var" dataDxfId="70">
       <calculatedColumnFormula>#REF!</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{F158BFCF-29BB-4A21-85DD-EC1A577268A9}" name="Estado" dataDxfId="56"/>
-    <tableColumn id="21" xr3:uid="{F5606F96-2B4C-4028-BAFD-98E68F248BB6}" name="Avance" dataDxfId="55" dataCellStyle="Porcentaje"/>
-    <tableColumn id="7" xr3:uid="{F996455F-A80C-45DE-824E-AA15DC67B89F}" name="Responsable Desarrollo" dataDxfId="54">
+    <tableColumn id="6" xr3:uid="{F158BFCF-29BB-4A21-85DD-EC1A577268A9}" name="Estado" dataDxfId="69"/>
+    <tableColumn id="21" xr3:uid="{F5606F96-2B4C-4028-BAFD-98E68F248BB6}" name="Avance" dataDxfId="68" dataCellStyle="Porcentaje"/>
+    <tableColumn id="7" xr3:uid="{F996455F-A80C-45DE-824E-AA15DC67B89F}" name="Responsable Desarrollo" dataDxfId="67">
       <calculatedColumnFormula>PRODUCTOS[[#This Row],[Responsable Desarrollo]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{8243748E-EFCB-4AEF-AE13-DEB22DE5398A}" name="Responsable Información" dataDxfId="53">
+    <tableColumn id="8" xr3:uid="{8243748E-EFCB-4AEF-AE13-DEB22DE5398A}" name="Responsable Información" dataDxfId="66">
       <calculatedColumnFormula>PRODUCTOS[[#This Row],[Responsable Información]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{1B0EF15B-CCC6-4071-9C39-986D237DCBFD}" name="PORTADA SHOPIFY" dataDxfId="52"/>
-    <tableColumn id="25" xr3:uid="{DE283954-0E54-4788-A6B7-64B3FABE5655}" name="Párrafo enganche" dataDxfId="51"/>
-    <tableColumn id="31" xr3:uid="{69B5166B-7DB7-4B2A-BDDB-51BC1CDC9E13}" name="Variante_1" dataDxfId="50"/>
-    <tableColumn id="30" xr3:uid="{FD2BFBD3-7364-4A40-82AD-5ED8F1EC60C8}" name="Precio_1" dataDxfId="49"/>
-    <tableColumn id="27" xr3:uid="{7BAA5845-FEF8-4AF0-A034-4502EA6425FB}" name="Variante_2" dataDxfId="48"/>
-    <tableColumn id="26" xr3:uid="{055AC0B8-B715-4865-A615-F93F51BDB937}" name="Precio_2" dataDxfId="47"/>
-    <tableColumn id="34" xr3:uid="{E986E95A-C830-4C89-88DC-A69F64460E34}" name="Variante_3" dataDxfId="46"/>
-    <tableColumn id="33" xr3:uid="{15105E85-D580-466D-8DEA-A21111029F6E}" name="Precio_3" dataDxfId="45"/>
-    <tableColumn id="50" xr3:uid="{86C9CDBF-0B44-4420-A48E-6FF93F44FE71}" name="Variable_filtro1" dataDxfId="44"/>
-    <tableColumn id="49" xr3:uid="{29F0FFEC-DA2B-4599-9D83-29AA5C05A4F0}" name="Variable_filtro2" dataDxfId="43"/>
-    <tableColumn id="48" xr3:uid="{4B1206D9-C4A0-496A-A7B2-086AF0122968}" name="Variable_filtro3" dataDxfId="42"/>
-    <tableColumn id="9" xr3:uid="{EE306381-1575-4475-A9CE-5592A93932BB}" name="Descripción (Indicar qué permite ver o hacer el producto) " dataDxfId="41"/>
-    <tableColumn id="35" xr3:uid="{C39FDC20-ABE5-4151-B056-F4B5E12D47DD}" name="CAR_Tipo_Prod" dataDxfId="40"/>
-    <tableColumn id="36" xr3:uid="{C8D4ECC0-DE7A-41BF-A6E9-9964E26F4261}" name="CAR_Var1_Disponible" dataDxfId="39"/>
-    <tableColumn id="39" xr3:uid="{87F44B21-0148-4ECE-9BC5-6D8A4C1030F3}" name="CAR_Periodo" dataDxfId="38"/>
-    <tableColumn id="37" xr3:uid="{DB23C32C-B4CE-4982-8D0A-F32C01C6CF98}" name="CAR_Proveedor" dataDxfId="37"/>
-    <tableColumn id="38" xr3:uid="{887C31F6-B5D9-48A2-AC60-3BBFDA8C2D93}" name="CAR_Colección" dataDxfId="36">
+    <tableColumn id="19" xr3:uid="{1B0EF15B-CCC6-4071-9C39-986D237DCBFD}" name="PORTADA SHOPIFY" dataDxfId="65"/>
+    <tableColumn id="25" xr3:uid="{DE283954-0E54-4788-A6B7-64B3FABE5655}" name="Párrafo enganche" dataDxfId="64"/>
+    <tableColumn id="31" xr3:uid="{69B5166B-7DB7-4B2A-BDDB-51BC1CDC9E13}" name="Variante_1" dataDxfId="63"/>
+    <tableColumn id="30" xr3:uid="{FD2BFBD3-7364-4A40-82AD-5ED8F1EC60C8}" name="Precio_1" dataDxfId="62"/>
+    <tableColumn id="27" xr3:uid="{7BAA5845-FEF8-4AF0-A034-4502EA6425FB}" name="Variante_2" dataDxfId="61"/>
+    <tableColumn id="26" xr3:uid="{055AC0B8-B715-4865-A615-F93F51BDB937}" name="Precio_2" dataDxfId="60"/>
+    <tableColumn id="34" xr3:uid="{E986E95A-C830-4C89-88DC-A69F64460E34}" name="Variante_3" dataDxfId="59"/>
+    <tableColumn id="33" xr3:uid="{15105E85-D580-466D-8DEA-A21111029F6E}" name="Precio_3" dataDxfId="58"/>
+    <tableColumn id="50" xr3:uid="{86C9CDBF-0B44-4420-A48E-6FF93F44FE71}" name="Variable_filtro1" dataDxfId="57"/>
+    <tableColumn id="49" xr3:uid="{29F0FFEC-DA2B-4599-9D83-29AA5C05A4F0}" name="Variable_filtro2" dataDxfId="56"/>
+    <tableColumn id="48" xr3:uid="{4B1206D9-C4A0-496A-A7B2-086AF0122968}" name="Variable_filtro3" dataDxfId="55"/>
+    <tableColumn id="9" xr3:uid="{EE306381-1575-4475-A9CE-5592A93932BB}" name="Descripción (Indicar qué permite ver o hacer el producto) " dataDxfId="54"/>
+    <tableColumn id="35" xr3:uid="{C39FDC20-ABE5-4151-B056-F4B5E12D47DD}" name="CAR_Tipo_Prod" dataDxfId="53"/>
+    <tableColumn id="36" xr3:uid="{C8D4ECC0-DE7A-41BF-A6E9-9964E26F4261}" name="CAR_Var1_Disponible" dataDxfId="52"/>
+    <tableColumn id="39" xr3:uid="{87F44B21-0148-4ECE-9BC5-6D8A4C1030F3}" name="CAR_Periodo" dataDxfId="51"/>
+    <tableColumn id="37" xr3:uid="{DB23C32C-B4CE-4982-8D0A-F32C01C6CF98}" name="CAR_Proveedor" dataDxfId="50"/>
+    <tableColumn id="38" xr3:uid="{887C31F6-B5D9-48A2-AC60-3BBFDA8C2D93}" name="CAR_Colección" dataDxfId="49">
       <calculatedColumnFormula>SHOPIFY[[#This Row],[Data]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{465FFD71-9838-46F8-96D9-04071B46AADF}" name="ESP_Tecnología" dataDxfId="35">
+    <tableColumn id="10" xr3:uid="{465FFD71-9838-46F8-96D9-04071B46AADF}" name="ESP_Tecnología" dataDxfId="48">
       <calculatedColumnFormula>PRODUCTOS[[#This Row],[Tecnología]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{EC2BE421-D8F5-4218-AF58-90E90B893031}" name="Host " dataDxfId="34"/>
-    <tableColumn id="12" xr3:uid="{E79C574B-B7A1-469C-8F8F-2D0CFAE51341}" name="Link Odoo" dataDxfId="33"/>
-    <tableColumn id="13" xr3:uid="{3809FE9C-54F9-4CF7-B339-2E0041642249}" name="Fecha Publicación" dataDxfId="32"/>
-    <tableColumn id="14" xr3:uid="{F596F3F4-DDEC-4196-A3BB-82BA12090401}" name="País" dataDxfId="31"/>
-    <tableColumn id="15" xr3:uid="{8ABA9F49-20E7-4D44-969F-61983CB570CF}" name="Escala " dataDxfId="30"/>
-    <tableColumn id="16" xr3:uid="{96768B2C-E9AB-4A4C-B2EA-54B345E4B2EE}" name="ESP_Periodo" dataDxfId="29"/>
-    <tableColumn id="40" xr3:uid="{B886925D-5342-4EF0-BEC7-231A532CD384}" name="ESP_Incluye" dataDxfId="28"/>
-    <tableColumn id="41" xr3:uid="{3B13D200-0F79-4222-81F3-6523101D8224}" name="ESP_Uso_Disp." dataDxfId="27"/>
-    <tableColumn id="42" xr3:uid="{36761705-B510-456F-B13C-7C1F1691A844}" name="ESP_Fuentes " dataDxfId="26"/>
-    <tableColumn id="43" xr3:uid="{51F4D077-A0BB-4F59-B19A-FA245554DE68}" name="ACC_Recibirás" dataDxfId="25"/>
-    <tableColumn id="44" xr3:uid="{5291A2DA-9FCC-47E6-8092-612F754EE474}" name="ACC_Licencia_uso" dataDxfId="24"/>
-    <tableColumn id="17" xr3:uid="{77D650B5-1F6E-4D9B-91EE-AFD5F57BC1C1}" name="ACC_Actualizaciones" dataDxfId="23"/>
-    <tableColumn id="45" xr3:uid="{9AD5E5EE-A8BD-4739-AE89-A1B8EC4723F5}" name="ACC_N°_usuarios" dataDxfId="22"/>
-    <tableColumn id="18" xr3:uid="{AC3AE441-67FC-4118-9DEB-4484BC70FA5A}" name="Etiquetas" dataDxfId="21"/>
-    <tableColumn id="22" xr3:uid="{0EAB21ED-E5E2-4B44-8E8C-DA03632B81CB}" name="Vistas" dataDxfId="20"/>
+    <tableColumn id="11" xr3:uid="{EC2BE421-D8F5-4218-AF58-90E90B893031}" name="Host " dataDxfId="47"/>
+    <tableColumn id="12" xr3:uid="{E79C574B-B7A1-469C-8F8F-2D0CFAE51341}" name="Link Odoo" dataDxfId="46"/>
+    <tableColumn id="13" xr3:uid="{3809FE9C-54F9-4CF7-B339-2E0041642249}" name="Fecha Publicación" dataDxfId="45"/>
+    <tableColumn id="14" xr3:uid="{F596F3F4-DDEC-4196-A3BB-82BA12090401}" name="País" dataDxfId="44"/>
+    <tableColumn id="15" xr3:uid="{8ABA9F49-20E7-4D44-969F-61983CB570CF}" name="Escala " dataDxfId="43"/>
+    <tableColumn id="16" xr3:uid="{96768B2C-E9AB-4A4C-B2EA-54B345E4B2EE}" name="ESP_Periodo" dataDxfId="42"/>
+    <tableColumn id="40" xr3:uid="{B886925D-5342-4EF0-BEC7-231A532CD384}" name="ESP_Incluye" dataDxfId="41"/>
+    <tableColumn id="41" xr3:uid="{3B13D200-0F79-4222-81F3-6523101D8224}" name="ESP_Uso_Disp." dataDxfId="40"/>
+    <tableColumn id="42" xr3:uid="{36761705-B510-456F-B13C-7C1F1691A844}" name="ESP_Fuentes " dataDxfId="39"/>
+    <tableColumn id="43" xr3:uid="{51F4D077-A0BB-4F59-B19A-FA245554DE68}" name="ACC_Recibirás" dataDxfId="38"/>
+    <tableColumn id="44" xr3:uid="{5291A2DA-9FCC-47E6-8092-612F754EE474}" name="ACC_Licencia_uso" dataDxfId="37"/>
+    <tableColumn id="17" xr3:uid="{77D650B5-1F6E-4D9B-91EE-AFD5F57BC1C1}" name="ACC_Actualizaciones" dataDxfId="36"/>
+    <tableColumn id="45" xr3:uid="{9AD5E5EE-A8BD-4739-AE89-A1B8EC4723F5}" name="ACC_N°_usuarios" dataDxfId="35"/>
+    <tableColumn id="18" xr3:uid="{AC3AE441-67FC-4118-9DEB-4484BC70FA5A}" name="Etiquetas" dataDxfId="34"/>
+    <tableColumn id="22" xr3:uid="{0EAB21ED-E5E2-4B44-8E8C-DA03632B81CB}" name="Vistas" dataDxfId="33"/>
     <tableColumn id="23" xr3:uid="{4146A4AA-B422-4A23-AFC0-891AE3F78FEE}" name="Repositorio Dropbox"/>
     <tableColumn id="24" xr3:uid="{44B7EB22-51ED-4A59-9AAA-14197F95E149}" name="Link Logo"/>
-    <tableColumn id="28" xr3:uid="{4352BE36-B76B-41FB-8592-7009FF2F8409}" name="Observaciones" dataDxfId="19"/>
-    <tableColumn id="29" xr3:uid="{2127F871-F5E7-448D-8C26-8CF290798729}" name="Miniatura" dataDxfId="18"/>
+    <tableColumn id="28" xr3:uid="{4352BE36-B76B-41FB-8592-7009FF2F8409}" name="Observaciones" dataDxfId="32"/>
+    <tableColumn id="29" xr3:uid="{2127F871-F5E7-448D-8C26-8CF290798729}" name="Miniatura" dataDxfId="31"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -12793,7 +12856,7 @@
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B33" s="1" t="s">
-        <v>1472</v>
+        <v>1470</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>1101</v>
@@ -13467,7 +13530,7 @@
       </c>
       <c r="F37" s="67"/>
       <c r="G37" s="110" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="H37" s="61"/>
       <c r="I37" s="68"/>
@@ -13490,7 +13553,7 @@
       </c>
       <c r="F38" s="67"/>
       <c r="G38" s="53" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
       <c r="H38" s="110"/>
       <c r="I38" s="68"/>
@@ -14160,7 +14223,7 @@
       </c>
       <c r="F67" s="52"/>
       <c r="G67" s="55" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
       <c r="H67" s="75"/>
     </row>
@@ -14182,7 +14245,7 @@
       </c>
       <c r="F68" s="52"/>
       <c r="G68" s="55" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="H68" s="75"/>
     </row>
@@ -14397,7 +14460,7 @@
       </c>
       <c r="F78" s="52"/>
       <c r="G78" s="53" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
       <c r="H78" s="54"/>
     </row>
@@ -14419,7 +14482,7 @@
       </c>
       <c r="F79" s="52"/>
       <c r="G79" s="165" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
       <c r="H79" s="54"/>
     </row>
@@ -14441,7 +14504,7 @@
       </c>
       <c r="F80" s="52"/>
       <c r="G80" s="53" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
       <c r="H80" s="54"/>
     </row>
@@ -29063,10 +29126,10 @@
     </row>
     <row r="113" spans="2:16" ht="29" x14ac:dyDescent="0.35">
       <c r="B113" s="27" t="s">
-        <v>1472</v>
+        <v>1470</v>
       </c>
       <c r="C113" s="24" t="s">
-        <v>1473</v>
+        <v>1471</v>
       </c>
       <c r="D113" s="23"/>
       <c r="E113" s="23" t="s">
@@ -29093,10 +29156,10 @@
     </row>
     <row r="114" spans="2:16" ht="29" x14ac:dyDescent="0.35">
       <c r="B114" s="27" t="s">
+        <v>1470</v>
+      </c>
+      <c r="C114" s="24" t="s">
         <v>1472</v>
-      </c>
-      <c r="C114" s="24" t="s">
-        <v>1474</v>
       </c>
       <c r="D114" s="23"/>
       <c r="E114" s="23" t="s">
@@ -29123,10 +29186,10 @@
     </row>
     <row r="115" spans="2:16" ht="29" x14ac:dyDescent="0.35">
       <c r="B115" s="27" t="s">
-        <v>1472</v>
+        <v>1470</v>
       </c>
       <c r="C115" s="24" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
       <c r="D115" s="23"/>
       <c r="E115" s="23" t="s">
@@ -29153,10 +29216,10 @@
     </row>
     <row r="116" spans="2:16" ht="29" x14ac:dyDescent="0.35">
       <c r="B116" s="27" t="s">
-        <v>1472</v>
+        <v>1470</v>
       </c>
       <c r="C116" s="24" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="D116" s="23"/>
       <c r="E116" s="23" t="s">
@@ -29183,10 +29246,10 @@
     </row>
     <row r="117" spans="2:16" ht="29" x14ac:dyDescent="0.35">
       <c r="B117" s="27" t="s">
-        <v>1472</v>
+        <v>1470</v>
       </c>
       <c r="C117" s="24" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="D117" s="23"/>
       <c r="E117" s="23" t="s">
@@ -29319,7 +29382,7 @@
   </sheetPr>
   <dimension ref="A7:BD100"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="7" ySplit="7" topLeftCell="AF8" activePane="bottomRight" state="frozen"/>
       <selection activeCell="J19" sqref="J19"/>
       <selection pane="topRight" activeCell="J19" sqref="J19"/>
@@ -29495,10 +29558,10 @@
         <v>864</v>
       </c>
       <c r="AQ7" s="116" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="AR7" s="116" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
       <c r="AS7" s="116" t="s">
         <v>865</v>
@@ -29901,7 +29964,7 @@
         <v>193</v>
       </c>
       <c r="AQ10" s="19" t="s">
-        <v>1448</v>
+        <v>1446</v>
       </c>
       <c r="AR10" s="19" t="s">
         <v>1327</v>
@@ -30860,7 +30923,7 @@
       </c>
       <c r="BD18" s="133"/>
     </row>
-    <row r="19" spans="1:56" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:56" ht="87" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="str">
         <f>+VLOOKUP(D19,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0011</v>
@@ -30941,7 +31004,7 @@
       <c r="AL19" s="170"/>
       <c r="AM19" s="170"/>
       <c r="AN19" s="19" t="s">
-        <v>1449</v>
+        <v>1447</v>
       </c>
       <c r="AO19" s="7" t="s">
         <v>1159</v>
@@ -30950,7 +31013,7 @@
         <v>193</v>
       </c>
       <c r="AQ19" s="19" t="s">
-        <v>1448</v>
+        <v>1446</v>
       </c>
       <c r="AR19" s="19" t="s">
         <v>1327</v>
@@ -30983,7 +31046,7 @@
         <v>881</v>
       </c>
       <c r="BB19" s="101" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="BC19" s="7">
         <v>1</v>
@@ -31089,7 +31152,7 @@
       <c r="BC20" s="7"/>
       <c r="BD20" s="7"/>
     </row>
-    <row r="21" spans="1:56" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:56" ht="87" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="str">
         <f>+VLOOKUP(D21,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0010</v>
@@ -31181,7 +31244,7 @@
         <v>193</v>
       </c>
       <c r="AQ21" s="19" t="s">
-        <v>1448</v>
+        <v>1446</v>
       </c>
       <c r="AR21" s="19" t="s">
         <v>1327</v>
@@ -31467,16 +31530,16 @@
         <v>881</v>
       </c>
       <c r="BB23" s="7" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="BC23" s="7">
         <v>1</v>
       </c>
       <c r="BD23" s="7" t="s">
-        <v>1452</v>
-      </c>
-    </row>
-    <row r="24" spans="1:56" ht="101.5" x14ac:dyDescent="0.35">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="24" spans="1:56" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="str">
         <f>+VLOOKUP(D24,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0002</v>
@@ -32245,7 +32308,7 @@
       <c r="BC31" s="7"/>
       <c r="BD31" s="7"/>
     </row>
-    <row r="32" spans="1:56" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:56" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="str">
         <f>+VLOOKUP(D32,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0001</v>
@@ -32644,7 +32707,7 @@
       <c r="BC35" s="7"/>
       <c r="BD35" s="7"/>
     </row>
-    <row r="36" spans="1:56" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:56" ht="87" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="str">
         <f>+VLOOKUP(D36,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0007</v>
@@ -32736,7 +32799,7 @@
         <v>193</v>
       </c>
       <c r="AQ36" s="19" t="s">
-        <v>1448</v>
+        <v>1446</v>
       </c>
       <c r="AR36" s="19" t="s">
         <v>1327</v>
@@ -32848,7 +32911,7 @@
       </c>
       <c r="AF37" s="168"/>
       <c r="AG37" s="19" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="AH37" s="169"/>
       <c r="AI37" s="19" t="s">
@@ -32859,7 +32922,7 @@
       <c r="AL37" s="170"/>
       <c r="AM37" s="170"/>
       <c r="AN37" s="19" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
       <c r="AO37" s="7" t="s">
         <v>1152</v>
@@ -32868,7 +32931,7 @@
         <v>767</v>
       </c>
       <c r="AQ37" s="19" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="AR37" s="19" t="s">
         <v>1328</v>
@@ -33718,7 +33781,7 @@
       <c r="V45" s="3"/>
       <c r="W45" s="7"/>
       <c r="X45" s="91" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="AA45" s="7"/>
       <c r="AB45" s="13"/>
@@ -33899,7 +33962,7 @@
       <c r="BC46" s="7"/>
       <c r="BD46" s="7"/>
     </row>
-    <row r="47" spans="1:56" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:56" ht="87" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="str">
         <f>+VLOOKUP(D47,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0005</v>
@@ -34089,7 +34152,7 @@
         <v>1270</v>
       </c>
       <c r="AN48" s="19" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="AO48" s="7"/>
       <c r="AP48" s="7" t="s">
@@ -34224,7 +34287,7 @@
         <v>1270</v>
       </c>
       <c r="AN49" s="19" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="AO49" s="7"/>
       <c r="AP49" s="7" t="s">
@@ -34327,7 +34390,7 @@
       <c r="V50" s="3"/>
       <c r="W50" s="7"/>
       <c r="X50" s="176" t="s">
-        <v>1471</v>
+        <v>1469</v>
       </c>
       <c r="AA50" s="7"/>
       <c r="AB50" s="13"/>
@@ -34362,7 +34425,7 @@
         <v>1270</v>
       </c>
       <c r="AN50" s="19" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="AO50" s="19" t="s">
         <v>959</v>
@@ -34391,13 +34454,13 @@
         <v>POWER BI</v>
       </c>
       <c r="AW50" s="19" t="s">
-        <v>1467</v>
+        <v>1465</v>
       </c>
       <c r="AX50" s="7" t="s">
         <v>962</v>
       </c>
       <c r="AY50" s="19" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
       <c r="AZ50" s="7" t="s">
         <v>880</v>
@@ -34469,7 +34532,7 @@
       <c r="V51" s="3"/>
       <c r="W51" s="7"/>
       <c r="X51" s="68" t="s">
-        <v>1470</v>
+        <v>1468</v>
       </c>
       <c r="AA51" s="7"/>
       <c r="AB51" s="13"/>
@@ -34504,7 +34567,7 @@
         <v>1270</v>
       </c>
       <c r="AN51" s="19" t="s">
-        <v>1459</v>
+        <v>1457</v>
       </c>
       <c r="AO51" s="19" t="s">
         <v>959</v>
@@ -34533,13 +34596,13 @@
         <v>POWER BI</v>
       </c>
       <c r="AW51" s="19" t="s">
-        <v>1467</v>
+        <v>1465</v>
       </c>
       <c r="AX51" s="7" t="s">
         <v>962</v>
       </c>
       <c r="AY51" s="19" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
       <c r="AZ51" s="7" t="s">
         <v>880</v>
@@ -35218,7 +35281,7 @@
         <v>1270</v>
       </c>
       <c r="AN58" s="19" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="AO58" s="7"/>
       <c r="AP58" s="7" t="s">
@@ -35490,14 +35553,14 @@
         <v>1270</v>
       </c>
       <c r="AN60" s="19" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
       <c r="AO60" s="100"/>
       <c r="AP60" s="19" t="s">
         <v>193</v>
       </c>
       <c r="AQ60" s="19" t="s">
-        <v>1448</v>
+        <v>1446</v>
       </c>
       <c r="AR60" s="19" t="s">
         <v>1270</v>
@@ -37093,7 +37156,7 @@
       <c r="V75" s="3"/>
       <c r="W75" s="7"/>
       <c r="X75" s="68" t="s">
-        <v>1469</v>
+        <v>1467</v>
       </c>
       <c r="AA75" s="7"/>
       <c r="AB75" s="13"/>
@@ -37128,7 +37191,7 @@
         <v>1270</v>
       </c>
       <c r="AN75" s="19" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
       <c r="AO75" s="19" t="s">
         <v>959</v>
@@ -37157,13 +37220,13 @@
         <v>POWER BI</v>
       </c>
       <c r="AW75" s="19" t="s">
-        <v>1467</v>
+        <v>1465</v>
       </c>
       <c r="AX75" s="7" t="s">
         <v>962</v>
       </c>
       <c r="AY75" s="19" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
       <c r="AZ75" s="7" t="s">
         <v>880</v>
@@ -38523,7 +38586,7 @@
       <c r="V90" s="3"/>
       <c r="W90" s="7"/>
       <c r="X90" s="68" t="s">
-        <v>1468</v>
+        <v>1466</v>
       </c>
       <c r="AA90" s="7"/>
       <c r="AB90" s="13"/>
@@ -38557,7 +38620,7 @@
         <v>1270</v>
       </c>
       <c r="AN90" s="19" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="AO90" s="56" t="s">
         <v>959</v>
@@ -38586,13 +38649,13 @@
         <v>POWER BI</v>
       </c>
       <c r="AW90" s="19" t="s">
-        <v>1467</v>
+        <v>1465</v>
       </c>
       <c r="AX90" s="14" t="s">
         <v>962</v>
       </c>
       <c r="AY90" s="68" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="AZ90" s="7" t="s">
         <v>880</v>
@@ -38627,7 +38690,7 @@
         <v>840</v>
       </c>
       <c r="F91" s="42" t="str">
-        <f>A91&amp;"-"&amp;B91&amp;"-"&amp;C91</f>
+        <f t="shared" ref="F91:F100" si="4">A91&amp;"-"&amp;B91&amp;"-"&amp;C91</f>
         <v>0017-04-00084</v>
       </c>
       <c r="G91" s="2" t="s">
@@ -38694,7 +38757,7 @@
         <v>193</v>
       </c>
       <c r="F92" s="42" t="str">
-        <f>A92&amp;"-"&amp;B92&amp;"-"&amp;C92</f>
+        <f t="shared" si="4"/>
         <v>0018-01-00085</v>
       </c>
       <c r="G92" s="2" t="s">
@@ -38759,7 +38822,7 @@
         <v>767</v>
       </c>
       <c r="F93" s="42" t="str">
-        <f>A93&amp;"-"&amp;B93&amp;"-"&amp;C93</f>
+        <f t="shared" si="4"/>
         <v>0019-02-00086</v>
       </c>
       <c r="G93" s="2" t="s">
@@ -38824,7 +38887,7 @@
         <v>767</v>
       </c>
       <c r="F94" s="42" t="str">
-        <f>A94&amp;"-"&amp;B94&amp;"-"&amp;C94</f>
+        <f t="shared" si="4"/>
         <v>0019-02-00087</v>
       </c>
       <c r="G94" s="2" t="s">
@@ -38889,7 +38952,7 @@
         <v>193</v>
       </c>
       <c r="F95" s="42" t="str">
-        <f>A95&amp;"-"&amp;B95&amp;"-"&amp;C95</f>
+        <f t="shared" si="4"/>
         <v>0001-01-00088</v>
       </c>
       <c r="G95" s="2" t="s">
@@ -38936,7 +38999,7 @@
         <v>ARCGISONLINE</v>
       </c>
     </row>
-    <row r="96" spans="1:56" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:56" ht="87" x14ac:dyDescent="0.35">
       <c r="A96" s="42" t="str">
         <f>+VLOOKUP(D96,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0026</v>
@@ -38946,20 +39009,20 @@
         <v>04</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>1478</v>
+        <v>1476</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>1472</v>
+        <v>1470</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>840</v>
       </c>
       <c r="F96" s="42" t="str">
-        <f>A96&amp;"-"&amp;B96&amp;"-"&amp;C96</f>
+        <f t="shared" si="4"/>
         <v>0026-04-00089</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
       <c r="H96" s="2"/>
       <c r="I96" s="2"/>
@@ -38984,7 +39047,7 @@
       <c r="V96" s="3"/>
       <c r="W96" s="7"/>
       <c r="X96" s="91" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
       <c r="AA96" s="7"/>
       <c r="AB96" s="13"/>
@@ -38998,7 +39061,7 @@
         <v>ARCGISONLINE</v>
       </c>
     </row>
-    <row r="97" spans="1:48" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:48" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A97" s="42" t="str">
         <f>+VLOOKUP(D97,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0026</v>
@@ -39008,20 +39071,20 @@
         <v>00</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>1472</v>
+        <v>1470</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>1232</v>
       </c>
       <c r="F97" s="42" t="str">
-        <f>A97&amp;"-"&amp;B97&amp;"-"&amp;C97</f>
+        <f t="shared" si="4"/>
         <v>0026-00-00090</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>1474</v>
+        <v>1472</v>
       </c>
       <c r="H97" s="2"/>
       <c r="I97" s="2"/>
@@ -39046,7 +39109,7 @@
       <c r="V97" s="3"/>
       <c r="W97" s="7"/>
       <c r="X97" s="178" t="s">
-        <v>1487</v>
+        <v>1485</v>
       </c>
       <c r="AA97" s="7"/>
       <c r="AB97" s="13"/>
@@ -39060,7 +39123,7 @@
         <v>ARCGISONLINE</v>
       </c>
     </row>
-    <row r="98" spans="1:48" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:48" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A98" s="42" t="str">
         <f>+VLOOKUP(D98,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0026</v>
@@ -39070,20 +39133,20 @@
         <v>00</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>1472</v>
+        <v>1470</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>1232</v>
       </c>
       <c r="F98" s="42" t="str">
-        <f>A98&amp;"-"&amp;B98&amp;"-"&amp;C98</f>
+        <f t="shared" si="4"/>
         <v>0026-00-00091</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>1484</v>
+        <v>1482</v>
       </c>
       <c r="H98" s="2"/>
       <c r="I98" s="2"/>
@@ -39108,7 +39171,7 @@
       <c r="V98" s="3"/>
       <c r="W98" s="7"/>
       <c r="X98" s="178" t="s">
-        <v>1488</v>
+        <v>1486</v>
       </c>
       <c r="AA98" s="7"/>
       <c r="AB98" s="13"/>
@@ -39122,7 +39185,7 @@
         <v>ARCGISONLINE</v>
       </c>
     </row>
-    <row r="99" spans="1:48" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:48" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A99" s="42" t="str">
         <f>+VLOOKUP(D99,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0026</v>
@@ -39132,20 +39195,20 @@
         <v>00</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>1472</v>
+        <v>1470</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>1232</v>
       </c>
       <c r="F99" s="42" t="str">
-        <f>A99&amp;"-"&amp;B99&amp;"-"&amp;C99</f>
+        <f t="shared" si="4"/>
         <v>0026-00-00092</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
       <c r="H99" s="2"/>
       <c r="I99" s="2"/>
@@ -39170,7 +39233,7 @@
       <c r="V99" s="3"/>
       <c r="W99" s="7"/>
       <c r="X99" s="178" t="s">
-        <v>1489</v>
+        <v>1487</v>
       </c>
       <c r="AA99" s="7"/>
       <c r="AB99" s="13"/>
@@ -39184,7 +39247,7 @@
         <v>ARCGISONLINE</v>
       </c>
     </row>
-    <row r="100" spans="1:48" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:48" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A100" s="42" t="str">
         <f>+VLOOKUP(D100,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0026</v>
@@ -39194,20 +39257,20 @@
         <v>00</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>1472</v>
+        <v>1470</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>1232</v>
       </c>
       <c r="F100" s="42" t="str">
-        <f>A100&amp;"-"&amp;B100&amp;"-"&amp;C100</f>
+        <f t="shared" si="4"/>
         <v>0026-00-00093</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="H100" s="2"/>
       <c r="I100" s="2"/>
@@ -39232,7 +39295,7 @@
       <c r="V100" s="3"/>
       <c r="W100" s="7"/>
       <c r="X100" s="178" t="s">
-        <v>1490</v>
+        <v>1488</v>
       </c>
       <c r="AA100" s="7"/>
       <c r="AB100" s="13"/>
@@ -48572,10 +48635,10 @@
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
-  <dimension ref="B7:I208"/>
+  <dimension ref="B7:I221"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H68" sqref="H68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -48735,7 +48798,7 @@
     </row>
     <row r="17" spans="2:7" ht="29" x14ac:dyDescent="0.35">
       <c r="B17" s="143" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
       <c r="C17" s="151" t="s">
         <v>161</v>
@@ -48753,7 +48816,7 @@
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B18" s="143" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
       <c r="C18" s="146" t="s">
         <v>1276</v>
@@ -48766,7 +48829,7 @@
       </c>
       <c r="F18" s="161"/>
       <c r="G18" s="14" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.35">
@@ -48853,7 +48916,7 @@
       </c>
       <c r="F23" s="161"/>
       <c r="G23" s="14" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="24" spans="2:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
@@ -48871,7 +48934,7 @@
       </c>
       <c r="F24" s="161"/>
       <c r="G24" s="14" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.35">
@@ -48904,7 +48967,7 @@
         <v>159</v>
       </c>
       <c r="G26" s="16" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.35">
@@ -48921,10 +48984,10 @@
         <v>99</v>
       </c>
       <c r="F27" s="161" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
       <c r="G27" s="16" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.35">
@@ -48941,10 +49004,10 @@
         <v>99</v>
       </c>
       <c r="F28" s="161" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
       <c r="G28" s="16" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="29" spans="2:7" ht="43.5" x14ac:dyDescent="0.35">
@@ -48961,10 +49024,10 @@
         <v>99</v>
       </c>
       <c r="F29" s="161" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
       <c r="G29" s="14" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.35">
@@ -48981,10 +49044,10 @@
         <v>99</v>
       </c>
       <c r="F30" s="161" t="s">
+        <v>1423</v>
+      </c>
+      <c r="G30" s="16" t="s">
         <v>1425</v>
-      </c>
-      <c r="G30" s="16" t="s">
-        <v>1427</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.35">
@@ -49001,7 +49064,7 @@
         <v>99</v>
       </c>
       <c r="F31" s="161" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
       <c r="G31" s="16" t="s">
         <v>1393</v>
@@ -49021,13 +49084,13 @@
         <v>99</v>
       </c>
       <c r="F32" s="161" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
       <c r="G32" s="16" t="s">
-        <v>1428</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.35">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B33" s="143" t="s">
         <v>767</v>
       </c>
@@ -49044,93 +49107,96 @@
         <v>159</v>
       </c>
       <c r="G33" s="16" t="s">
-        <v>1429</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.35">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B34" s="143" t="s">
-        <v>1230</v>
-      </c>
-      <c r="C34" s="147" t="s">
-        <v>1277</v>
+        <v>767</v>
+      </c>
+      <c r="C34" s="146" t="s">
+        <v>1276</v>
       </c>
       <c r="D34" s="150">
-        <v>44145</v>
-      </c>
-      <c r="E34" s="162" t="s">
-        <v>95</v>
-      </c>
-      <c r="F34" s="163"/>
+        <v>44152</v>
+      </c>
+      <c r="E34" s="154" t="s">
+        <v>99</v>
+      </c>
+      <c r="F34" s="161" t="s">
+        <v>1407</v>
+      </c>
       <c r="G34" s="16" t="s">
-        <v>1312</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" ht="29" x14ac:dyDescent="0.35">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B35" s="143" t="s">
-        <v>1230</v>
-      </c>
-      <c r="C35" s="151" t="s">
-        <v>161</v>
+        <v>767</v>
+      </c>
+      <c r="C35" s="146" t="s">
+        <v>1276</v>
       </c>
       <c r="D35" s="150">
-        <v>44148</v>
-      </c>
-      <c r="E35" s="162" t="s">
-        <v>95</v>
+        <v>44152</v>
+      </c>
+      <c r="E35" s="154" t="s">
+        <v>99</v>
       </c>
       <c r="F35" s="161" t="s">
         <v>159</v>
       </c>
-      <c r="G35" s="14" t="s">
-        <v>1436</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="G35" s="16" t="s">
+        <v>1494</v>
+      </c>
+      <c r="H35" s="16" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B36" s="143" t="s">
-        <v>1230</v>
+        <v>767</v>
       </c>
       <c r="C36" s="146" t="s">
         <v>1276</v>
       </c>
       <c r="D36" s="150">
-        <v>44148</v>
-      </c>
-      <c r="E36" s="162" t="s">
-        <v>95</v>
+        <v>44152</v>
+      </c>
+      <c r="E36" s="154" t="s">
+        <v>99</v>
       </c>
       <c r="F36" s="161" t="s">
-        <v>159</v>
+        <v>1423</v>
       </c>
       <c r="G36" s="16" t="s">
-        <v>1435</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.35">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B37" s="143" t="s">
         <v>1230</v>
       </c>
-      <c r="C37" s="146" t="s">
-        <v>1276</v>
+      <c r="C37" s="147" t="s">
+        <v>1277</v>
       </c>
       <c r="D37" s="150">
-        <v>44148</v>
+        <v>44145</v>
       </c>
       <c r="E37" s="162" t="s">
         <v>95</v>
       </c>
-      <c r="F37" s="160" t="s">
-        <v>1409</v>
-      </c>
+      <c r="F37" s="163"/>
       <c r="G37" s="16" t="s">
-        <v>1437</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.35">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" ht="29" x14ac:dyDescent="0.35">
       <c r="B38" s="143" t="s">
         <v>1230</v>
       </c>
-      <c r="C38" s="146" t="s">
-        <v>1276</v>
+      <c r="C38" s="151" t="s">
+        <v>161</v>
       </c>
       <c r="D38" s="150">
         <v>44148</v>
@@ -49138,268 +49204,256 @@
       <c r="E38" s="162" t="s">
         <v>95</v>
       </c>
-      <c r="F38" s="160" t="s">
-        <v>1414</v>
-      </c>
-      <c r="G38" s="16" t="s">
-        <v>1437</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="F38" s="161" t="s">
+        <v>159</v>
+      </c>
+      <c r="G38" s="14" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B39" s="143" t="s">
-        <v>1045</v>
-      </c>
-      <c r="C39" s="147" t="s">
-        <v>1277</v>
-      </c>
-      <c r="D39" s="142">
-        <v>44145</v>
-      </c>
-      <c r="E39" s="153" t="s">
-        <v>98</v>
+        <v>1230</v>
+      </c>
+      <c r="C39" s="146" t="s">
+        <v>1276</v>
+      </c>
+      <c r="D39" s="150">
+        <v>44148</v>
+      </c>
+      <c r="E39" s="162" t="s">
+        <v>95</v>
       </c>
       <c r="F39" s="161" t="s">
         <v>159</v>
       </c>
       <c r="G39" s="16" t="s">
-        <v>1403</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.35">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B40" s="143" t="s">
-        <v>1045</v>
-      </c>
-      <c r="C40" s="151" t="s">
-        <v>161</v>
-      </c>
-      <c r="D40" s="142">
-        <v>44145</v>
-      </c>
-      <c r="E40" s="153" t="s">
-        <v>98</v>
-      </c>
-      <c r="F40" s="161" t="s">
-        <v>1409</v>
+        <v>1230</v>
+      </c>
+      <c r="C40" s="146" t="s">
+        <v>1276</v>
+      </c>
+      <c r="D40" s="150">
+        <v>44148</v>
+      </c>
+      <c r="E40" s="162" t="s">
+        <v>95</v>
+      </c>
+      <c r="F40" s="160" t="s">
+        <v>1407</v>
       </c>
       <c r="G40" s="16" t="s">
-        <v>1412</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B41" s="143" t="s">
-        <v>1045</v>
+        <v>1230</v>
       </c>
       <c r="C41" s="146" t="s">
         <v>1276</v>
       </c>
-      <c r="D41" s="142">
+      <c r="D41" s="150">
         <v>44148</v>
       </c>
-      <c r="E41" s="153" t="s">
-        <v>98</v>
-      </c>
-      <c r="F41" s="161" t="s">
+      <c r="E41" s="162" t="s">
+        <v>95</v>
+      </c>
+      <c r="F41" s="160" t="s">
+        <v>1412</v>
+      </c>
+      <c r="G41" s="16" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B42" s="143" t="s">
+        <v>1230</v>
+      </c>
+      <c r="C42" s="146" t="s">
+        <v>1276</v>
+      </c>
+      <c r="D42" s="142">
+        <v>44152</v>
+      </c>
+      <c r="E42" s="155" t="s">
+        <v>95</v>
+      </c>
+      <c r="F42" s="160" t="s">
         <v>159</v>
       </c>
-      <c r="G41" s="14" t="s">
-        <v>1411</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9" ht="34" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="143" t="s">
-        <v>1045</v>
-      </c>
-      <c r="C42" s="151" t="s">
-        <v>161</v>
-      </c>
-      <c r="D42" s="142">
-        <v>44148</v>
-      </c>
-      <c r="E42" s="153" t="s">
-        <v>98</v>
-      </c>
-      <c r="F42" s="161" t="s">
-        <v>159</v>
-      </c>
-      <c r="G42" s="14" t="s">
+      <c r="G42" s="16" t="s">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B43" s="143" t="s">
+        <v>1230</v>
+      </c>
+      <c r="C43" s="146" t="s">
+        <v>1276</v>
+      </c>
+      <c r="D43" s="142">
+        <v>44152</v>
+      </c>
+      <c r="E43" s="155" t="s">
+        <v>95</v>
+      </c>
+      <c r="F43" s="160" t="s">
         <v>1407</v>
       </c>
-    </row>
-    <row r="43" spans="2:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="B43" s="143" t="s">
-        <v>1045</v>
-      </c>
-      <c r="C43" s="151" t="s">
-        <v>161</v>
-      </c>
-      <c r="D43" s="142">
-        <v>44148</v>
-      </c>
-      <c r="E43" s="153" t="s">
-        <v>98</v>
-      </c>
-      <c r="F43" s="161" t="s">
-        <v>159</v>
-      </c>
-      <c r="G43" s="14" t="s">
-        <v>1408</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="G43" s="16" t="s">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B44" s="143" t="s">
-        <v>1045</v>
+        <v>1230</v>
       </c>
       <c r="C44" s="146" t="s">
         <v>1276</v>
       </c>
       <c r="D44" s="142">
-        <v>44148</v>
-      </c>
-      <c r="E44" s="153" t="s">
-        <v>98</v>
-      </c>
-      <c r="F44" s="161" t="s">
-        <v>1409</v>
+        <v>44152</v>
+      </c>
+      <c r="E44" s="155" t="s">
+        <v>95</v>
+      </c>
+      <c r="F44" s="160" t="s">
+        <v>1412</v>
       </c>
       <c r="G44" s="16" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.35">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B45" s="143" t="s">
         <v>1045</v>
       </c>
-      <c r="C45" s="151" t="s">
-        <v>161</v>
+      <c r="C45" s="147" t="s">
+        <v>1277</v>
       </c>
       <c r="D45" s="142">
-        <v>44148</v>
+        <v>44145</v>
       </c>
       <c r="E45" s="153" t="s">
         <v>98</v>
       </c>
       <c r="F45" s="161" t="s">
-        <v>1409</v>
+        <v>159</v>
       </c>
       <c r="G45" s="16" t="s">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9" ht="29" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B46" s="143" t="s">
         <v>1045</v>
       </c>
-      <c r="C46" s="147" t="s">
-        <v>1277</v>
+      <c r="C46" s="151" t="s">
+        <v>161</v>
       </c>
       <c r="D46" s="142">
-        <v>44148</v>
+        <v>44145</v>
       </c>
       <c r="E46" s="153" t="s">
         <v>98</v>
       </c>
       <c r="F46" s="161" t="s">
-        <v>1414</v>
-      </c>
-      <c r="G46" s="14" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.35">
+        <v>1407</v>
+      </c>
+      <c r="G46" s="16" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" ht="34" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B47" s="143" t="s">
-        <v>840</v>
-      </c>
-      <c r="C47" s="147" t="s">
-        <v>1277</v>
+        <v>1045</v>
+      </c>
+      <c r="C47" s="146" t="s">
+        <v>1276</v>
       </c>
       <c r="D47" s="142">
-        <v>44145</v>
+        <v>44148</v>
       </c>
       <c r="E47" s="153" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="F47" s="161" t="s">
-        <v>1414</v>
-      </c>
-      <c r="G47" s="16" t="s">
-        <v>1418</v>
-      </c>
-      <c r="H47" s="16" t="s">
-        <v>1390</v>
-      </c>
-      <c r="I47" s="16" t="s">
-        <v>1392</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.35">
+        <v>159</v>
+      </c>
+      <c r="G47" s="14" t="s">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" ht="34" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B48" s="143" t="s">
-        <v>840</v>
-      </c>
-      <c r="C48" s="147" t="s">
-        <v>1277</v>
+        <v>1045</v>
+      </c>
+      <c r="C48" s="151" t="s">
+        <v>161</v>
       </c>
       <c r="D48" s="142">
-        <v>44145</v>
+        <v>44148</v>
       </c>
       <c r="E48" s="153" t="s">
-        <v>93</v>
-      </c>
-      <c r="F48" s="160" t="s">
-        <v>1414</v>
-      </c>
-      <c r="G48" s="16" t="s">
-        <v>1419</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B49" s="148" t="s">
-        <v>840</v>
+        <v>98</v>
+      </c>
+      <c r="F48" s="161" t="s">
+        <v>159</v>
+      </c>
+      <c r="G48" s="14" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="B49" s="143" t="s">
+        <v>1045</v>
       </c>
       <c r="C49" s="151" t="s">
         <v>161</v>
       </c>
       <c r="D49" s="142">
-        <v>44145</v>
-      </c>
-      <c r="E49" s="154" t="s">
-        <v>825</v>
+        <v>44148</v>
+      </c>
+      <c r="E49" s="153" t="s">
+        <v>98</v>
       </c>
       <c r="F49" s="161" t="s">
         <v>159</v>
       </c>
-      <c r="G49" s="16" t="s">
-        <v>1424</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B50" s="148" t="s">
-        <v>840</v>
-      </c>
-      <c r="C50" s="151" t="s">
-        <v>161</v>
+      <c r="G49" s="14" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B50" s="143" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C50" s="146" t="s">
+        <v>1276</v>
       </c>
       <c r="D50" s="142">
-        <v>44145</v>
-      </c>
-      <c r="E50" s="154" t="s">
-        <v>93</v>
+        <v>44148</v>
+      </c>
+      <c r="E50" s="153" t="s">
+        <v>98</v>
       </c>
       <c r="F50" s="161" t="s">
-        <v>1060</v>
+        <v>1407</v>
       </c>
       <c r="G50" s="16" t="s">
-        <v>1422</v>
-      </c>
-      <c r="H50" s="14" t="s">
-        <v>1311</v>
-      </c>
-      <c r="I50" s="14" t="s">
-        <v>1417</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B51" s="148" t="s">
-        <v>840</v>
+      <c r="B51" s="143" t="s">
+        <v>1045</v>
       </c>
       <c r="C51" s="151" t="s">
         <v>161</v>
@@ -49407,271 +49461,478 @@
       <c r="D51" s="142">
         <v>44148</v>
       </c>
-      <c r="E51" s="154" t="s">
-        <v>93</v>
+      <c r="E51" s="153" t="s">
+        <v>98</v>
       </c>
       <c r="F51" s="161" t="s">
-        <v>159</v>
+        <v>1407</v>
       </c>
       <c r="G51" s="16" t="s">
-        <v>1423</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B52" s="148" t="s">
-        <v>840</v>
-      </c>
-      <c r="C52" s="151" t="s">
-        <v>161</v>
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="B52" s="143" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C52" s="147" t="s">
+        <v>1277</v>
       </c>
       <c r="D52" s="142">
         <v>44148</v>
       </c>
-      <c r="E52" s="154" t="s">
-        <v>93</v>
+      <c r="E52" s="153" t="s">
+        <v>98</v>
       </c>
       <c r="F52" s="161" t="s">
-        <v>1060</v>
-      </c>
-      <c r="G52" s="16" t="s">
-        <v>1420</v>
+        <v>1412</v>
+      </c>
+      <c r="G52" s="14" t="s">
+        <v>1413</v>
       </c>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B53" s="148" t="s">
-        <v>840</v>
-      </c>
-      <c r="C53" s="151" t="s">
-        <v>161</v>
+      <c r="B53" s="143" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C53" s="146" t="s">
+        <v>1276</v>
       </c>
       <c r="D53" s="142">
-        <v>44148</v>
-      </c>
-      <c r="E53" s="154" t="s">
-        <v>93</v>
+        <v>44152</v>
+      </c>
+      <c r="E53" s="153" t="s">
+        <v>98</v>
       </c>
       <c r="F53" s="161" t="s">
-        <v>1060</v>
-      </c>
-      <c r="G53" s="16" t="s">
-        <v>1428</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B54" s="148" t="s">
-        <v>840</v>
+        <v>159</v>
+      </c>
+      <c r="G53" s="14" t="s">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B54" s="143" t="s">
+        <v>1045</v>
       </c>
       <c r="C54" s="151" t="s">
         <v>161</v>
       </c>
       <c r="D54" s="142">
+        <v>44152</v>
+      </c>
+      <c r="E54" s="153" t="s">
+        <v>98</v>
+      </c>
+      <c r="F54" s="161" t="s">
+        <v>159</v>
+      </c>
+      <c r="G54" s="132" t="s">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B55" s="143" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C55" s="146" t="s">
+        <v>1276</v>
+      </c>
+      <c r="D55" s="142">
+        <v>44152</v>
+      </c>
+      <c r="E55" s="153" t="s">
+        <v>98</v>
+      </c>
+      <c r="F55" s="161" t="s">
+        <v>1407</v>
+      </c>
+      <c r="G55" s="14" t="s">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B56" s="143" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C56" s="146" t="s">
+        <v>1276</v>
+      </c>
+      <c r="D56" s="142">
+        <v>44152</v>
+      </c>
+      <c r="E56" s="153" t="s">
+        <v>98</v>
+      </c>
+      <c r="F56" s="161" t="s">
+        <v>1412</v>
+      </c>
+      <c r="G56" s="14" t="s">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B57" s="143" t="s">
+        <v>840</v>
+      </c>
+      <c r="C57" s="147" t="s">
+        <v>1277</v>
+      </c>
+      <c r="D57" s="142">
+        <v>44145</v>
+      </c>
+      <c r="E57" s="153" t="s">
+        <v>93</v>
+      </c>
+      <c r="F57" s="161" t="s">
+        <v>1412</v>
+      </c>
+      <c r="G57" s="16" t="s">
+        <v>1416</v>
+      </c>
+      <c r="H57" s="16" t="s">
+        <v>1390</v>
+      </c>
+      <c r="I57" s="16" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B58" s="143" t="s">
+        <v>840</v>
+      </c>
+      <c r="C58" s="147" t="s">
+        <v>1277</v>
+      </c>
+      <c r="D58" s="142">
+        <v>44145</v>
+      </c>
+      <c r="E58" s="153" t="s">
+        <v>93</v>
+      </c>
+      <c r="F58" s="160" t="s">
+        <v>1412</v>
+      </c>
+      <c r="G58" s="16" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B59" s="148" t="s">
+        <v>840</v>
+      </c>
+      <c r="C59" s="151" t="s">
+        <v>161</v>
+      </c>
+      <c r="D59" s="142">
+        <v>44145</v>
+      </c>
+      <c r="E59" s="154" t="s">
+        <v>825</v>
+      </c>
+      <c r="F59" s="161" t="s">
+        <v>159</v>
+      </c>
+      <c r="G59" s="16" t="s">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B60" s="148" t="s">
+        <v>840</v>
+      </c>
+      <c r="C60" s="151" t="s">
+        <v>161</v>
+      </c>
+      <c r="D60" s="142">
+        <v>44145</v>
+      </c>
+      <c r="E60" s="154" t="s">
+        <v>93</v>
+      </c>
+      <c r="F60" s="161" t="s">
+        <v>1060</v>
+      </c>
+      <c r="G60" s="16" t="s">
+        <v>1420</v>
+      </c>
+      <c r="H60" s="14" t="s">
+        <v>1311</v>
+      </c>
+      <c r="I60" s="14" t="s">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B61" s="148" t="s">
+        <v>840</v>
+      </c>
+      <c r="C61" s="151" t="s">
+        <v>161</v>
+      </c>
+      <c r="D61" s="142">
         <v>44148</v>
       </c>
-      <c r="E54" s="154" t="s">
+      <c r="E61" s="154" t="s">
         <v>93</v>
       </c>
-      <c r="F54" s="161" t="s">
-        <v>1414</v>
-      </c>
-      <c r="G54" s="16" t="s">
+      <c r="F61" s="161" t="s">
+        <v>159</v>
+      </c>
+      <c r="G61" s="16" t="s">
         <v>1421</v>
       </c>
     </row>
-    <row r="55" spans="2:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="149" t="s">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B62" s="148" t="s">
+        <v>840</v>
+      </c>
+      <c r="C62" s="151" t="s">
+        <v>161</v>
+      </c>
+      <c r="D62" s="142">
+        <v>44148</v>
+      </c>
+      <c r="E62" s="154" t="s">
+        <v>93</v>
+      </c>
+      <c r="F62" s="161" t="s">
+        <v>1060</v>
+      </c>
+      <c r="G62" s="16" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B63" s="148" t="s">
+        <v>840</v>
+      </c>
+      <c r="C63" s="151" t="s">
+        <v>161</v>
+      </c>
+      <c r="D63" s="142">
+        <v>44148</v>
+      </c>
+      <c r="E63" s="154" t="s">
+        <v>93</v>
+      </c>
+      <c r="F63" s="161" t="s">
+        <v>1060</v>
+      </c>
+      <c r="G63" s="16" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B64" s="148" t="s">
+        <v>840</v>
+      </c>
+      <c r="C64" s="151" t="s">
+        <v>161</v>
+      </c>
+      <c r="D64" s="142">
+        <v>44148</v>
+      </c>
+      <c r="E64" s="154" t="s">
+        <v>93</v>
+      </c>
+      <c r="F64" s="161" t="s">
+        <v>1412</v>
+      </c>
+      <c r="G64" s="16" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B65" s="148" t="s">
+        <v>840</v>
+      </c>
+      <c r="C65" s="151" t="s">
+        <v>161</v>
+      </c>
+      <c r="D65" s="142">
+        <v>44152</v>
+      </c>
+      <c r="E65" s="154" t="s">
+        <v>93</v>
+      </c>
+      <c r="F65" s="161" t="s">
+        <v>159</v>
+      </c>
+      <c r="G65" s="16" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B66" s="148" t="s">
+        <v>840</v>
+      </c>
+      <c r="C66" s="151" t="s">
+        <v>161</v>
+      </c>
+      <c r="D66" s="142">
+        <v>44152</v>
+      </c>
+      <c r="E66" s="154" t="s">
+        <v>93</v>
+      </c>
+      <c r="F66" s="161" t="s">
+        <v>1060</v>
+      </c>
+      <c r="G66" s="16" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B67" s="148" t="s">
+        <v>840</v>
+      </c>
+      <c r="C67" s="146" t="s">
+        <v>1276</v>
+      </c>
+      <c r="D67" s="142">
+        <v>44152</v>
+      </c>
+      <c r="E67" s="154" t="s">
+        <v>93</v>
+      </c>
+      <c r="F67" s="161" t="s">
+        <v>1412</v>
+      </c>
+      <c r="G67" s="16" t="s">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B68" s="149" t="s">
         <v>1287</v>
       </c>
-      <c r="C55" s="151" t="s">
+      <c r="C68" s="151" t="s">
         <v>161</v>
       </c>
-      <c r="D55" s="142">
+      <c r="D68" s="142">
         <v>44145</v>
       </c>
-      <c r="E55" s="155" t="s">
+      <c r="E68" s="155" t="s">
         <v>98</v>
       </c>
-      <c r="F55" s="160"/>
-      <c r="G55" s="16" t="s">
+      <c r="F68" s="160"/>
+      <c r="G68" s="16" t="s">
         <v>1388</v>
       </c>
-      <c r="H55" s="14" t="s">
+      <c r="H68" s="14" t="s">
         <v>1389</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B56" s="149" t="s">
+    <row r="69" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B69" s="149" t="s">
         <v>1292</v>
-      </c>
-      <c r="E56" s="152"/>
-      <c r="F56" s="160"/>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B57" s="149" t="s">
-        <v>1293</v>
-      </c>
-      <c r="E57" s="152"/>
-      <c r="F57" s="160"/>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B58" s="149" t="s">
-        <v>1294</v>
-      </c>
-      <c r="E58" s="152"/>
-      <c r="F58" s="160"/>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B59" s="149" t="s">
-        <v>1295</v>
-      </c>
-      <c r="E59" s="152"/>
-      <c r="F59" s="160"/>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B60" s="149" t="s">
-        <v>1296</v>
-      </c>
-      <c r="E60" s="152"/>
-      <c r="F60" s="160"/>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B61" s="149" t="s">
-        <v>1297</v>
-      </c>
-      <c r="E61" s="152"/>
-      <c r="F61" s="160"/>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B62" s="149" t="s">
-        <v>1298</v>
-      </c>
-      <c r="E62" s="152"/>
-      <c r="F62" s="160"/>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B63" s="149" t="s">
-        <v>1299</v>
-      </c>
-      <c r="E63" s="152"/>
-      <c r="F63" s="160"/>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B64" s="149" t="s">
-        <v>1300</v>
-      </c>
-      <c r="E64" s="152"/>
-      <c r="F64" s="160"/>
-    </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B65" s="149" t="s">
-        <v>1301</v>
-      </c>
-      <c r="E65" s="152"/>
-      <c r="F65" s="160"/>
-    </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B66" s="149" t="s">
-        <v>1302</v>
-      </c>
-      <c r="E66" s="152"/>
-      <c r="F66" s="160"/>
-    </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B67" s="149" t="s">
-        <v>1303</v>
-      </c>
-      <c r="E67" s="152"/>
-      <c r="F67" s="160"/>
-    </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B68" s="149" t="s">
-        <v>1304</v>
-      </c>
-      <c r="E68" s="152"/>
-      <c r="F68" s="160"/>
-    </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B69" s="149" t="s">
-        <v>1305</v>
       </c>
       <c r="E69" s="152"/>
       <c r="F69" s="160"/>
     </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B70" s="149" t="s">
-        <v>1306</v>
+        <v>1293</v>
       </c>
       <c r="E70" s="152"/>
       <c r="F70" s="160"/>
     </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B71" s="149" t="s">
-        <v>1307</v>
+        <v>1294</v>
       </c>
       <c r="E71" s="152"/>
       <c r="F71" s="160"/>
     </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B72" s="149"/>
+    <row r="72" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B72" s="149" t="s">
+        <v>1295</v>
+      </c>
       <c r="E72" s="152"/>
       <c r="F72" s="160"/>
     </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B73" s="149"/>
+    <row r="73" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B73" s="149" t="s">
+        <v>1296</v>
+      </c>
       <c r="E73" s="152"/>
       <c r="F73" s="160"/>
     </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B74" s="149"/>
+    <row r="74" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B74" s="149" t="s">
+        <v>1297</v>
+      </c>
       <c r="E74" s="152"/>
       <c r="F74" s="160"/>
     </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B75" s="149"/>
+    <row r="75" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B75" s="149" t="s">
+        <v>1298</v>
+      </c>
       <c r="E75" s="152"/>
       <c r="F75" s="160"/>
     </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B76" s="149"/>
+    <row r="76" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B76" s="149" t="s">
+        <v>1299</v>
+      </c>
       <c r="E76" s="152"/>
       <c r="F76" s="160"/>
     </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B77" s="149"/>
+    <row r="77" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B77" s="149" t="s">
+        <v>1300</v>
+      </c>
       <c r="E77" s="152"/>
       <c r="F77" s="160"/>
     </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B78" s="149"/>
+    <row r="78" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B78" s="149" t="s">
+        <v>1301</v>
+      </c>
       <c r="E78" s="152"/>
       <c r="F78" s="160"/>
     </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B79" s="149"/>
+    <row r="79" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B79" s="149" t="s">
+        <v>1302</v>
+      </c>
       <c r="E79" s="152"/>
       <c r="F79" s="160"/>
     </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B80" s="149"/>
+    <row r="80" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B80" s="149" t="s">
+        <v>1303</v>
+      </c>
       <c r="E80" s="152"/>
       <c r="F80" s="160"/>
     </row>
     <row r="81" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B81" s="149"/>
+      <c r="B81" s="149" t="s">
+        <v>1304</v>
+      </c>
       <c r="E81" s="152"/>
       <c r="F81" s="160"/>
     </row>
     <row r="82" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B82" s="149"/>
+      <c r="B82" s="149" t="s">
+        <v>1305</v>
+      </c>
       <c r="E82" s="152"/>
       <c r="F82" s="160"/>
     </row>
     <row r="83" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B83" s="149"/>
+      <c r="B83" s="149" t="s">
+        <v>1306</v>
+      </c>
       <c r="E83" s="152"/>
       <c r="F83" s="160"/>
     </row>
     <row r="84" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B84" s="149"/>
+      <c r="B84" s="149" t="s">
+        <v>1307</v>
+      </c>
       <c r="E84" s="152"/>
       <c r="F84" s="160"/>
     </row>
@@ -49895,67 +50156,80 @@
       <c r="E128" s="152"/>
       <c r="F128" s="160"/>
     </row>
-    <row r="129" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="129" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B129" s="149"/>
       <c r="E129" s="152"/>
       <c r="F129" s="160"/>
     </row>
-    <row r="130" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="130" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B130" s="149"/>
       <c r="E130" s="152"/>
       <c r="F130" s="160"/>
     </row>
-    <row r="131" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="131" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B131" s="149"/>
       <c r="E131" s="152"/>
       <c r="F131" s="160"/>
     </row>
-    <row r="132" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="132" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B132" s="149"/>
       <c r="E132" s="152"/>
       <c r="F132" s="160"/>
     </row>
-    <row r="133" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="133" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B133" s="149"/>
       <c r="E133" s="152"/>
       <c r="F133" s="160"/>
     </row>
-    <row r="134" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="134" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B134" s="149"/>
       <c r="E134" s="152"/>
       <c r="F134" s="160"/>
     </row>
-    <row r="135" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="135" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B135" s="149"/>
       <c r="E135" s="152"/>
       <c r="F135" s="160"/>
     </row>
-    <row r="136" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="136" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B136" s="149"/>
       <c r="E136" s="152"/>
       <c r="F136" s="160"/>
     </row>
-    <row r="137" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="137" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B137" s="149"/>
       <c r="E137" s="152"/>
       <c r="F137" s="160"/>
     </row>
-    <row r="138" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="138" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B138" s="149"/>
       <c r="E138" s="152"/>
       <c r="F138" s="160"/>
     </row>
-    <row r="139" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="139" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B139" s="149"/>
       <c r="E139" s="152"/>
       <c r="F139" s="160"/>
     </row>
-    <row r="140" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="140" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B140" s="149"/>
       <c r="E140" s="152"/>
       <c r="F140" s="160"/>
     </row>
-    <row r="141" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="141" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B141" s="149"/>
       <c r="E141" s="152"/>
       <c r="F141" s="160"/>
     </row>
-    <row r="142" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="142" spans="2:6" x14ac:dyDescent="0.35">
       <c r="E142" s="152"/>
       <c r="F142" s="160"/>
     </row>
-    <row r="143" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="143" spans="2:6" x14ac:dyDescent="0.35">
       <c r="E143" s="152"/>
       <c r="F143" s="160"/>
     </row>
-    <row r="144" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="144" spans="2:6" x14ac:dyDescent="0.35">
       <c r="E144" s="152"/>
       <c r="F144" s="160"/>
     </row>
@@ -50214,6 +50488,58 @@
     <row r="208" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E208" s="152"/>
       <c r="F208" s="160"/>
+    </row>
+    <row r="209" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E209" s="152"/>
+      <c r="F209" s="160"/>
+    </row>
+    <row r="210" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E210" s="152"/>
+      <c r="F210" s="160"/>
+    </row>
+    <row r="211" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E211" s="152"/>
+      <c r="F211" s="160"/>
+    </row>
+    <row r="212" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E212" s="152"/>
+      <c r="F212" s="160"/>
+    </row>
+    <row r="213" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E213" s="152"/>
+      <c r="F213" s="160"/>
+    </row>
+    <row r="214" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E214" s="152"/>
+      <c r="F214" s="160"/>
+    </row>
+    <row r="215" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E215" s="152"/>
+      <c r="F215" s="160"/>
+    </row>
+    <row r="216" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E216" s="152"/>
+      <c r="F216" s="160"/>
+    </row>
+    <row r="217" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E217" s="152"/>
+      <c r="F217" s="160"/>
+    </row>
+    <row r="218" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E218" s="152"/>
+      <c r="F218" s="160"/>
+    </row>
+    <row r="219" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E219" s="152"/>
+      <c r="F219" s="160"/>
+    </row>
+    <row r="220" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E220" s="152"/>
+      <c r="F220" s="160"/>
+    </row>
+    <row r="221" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E221" s="152"/>
+      <c r="F221" s="160"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -50238,10 +50564,10 @@
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A9:M51"/>
+  <dimension ref="A9:M52"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L57" sqref="L57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.90625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -50895,7 +51221,7 @@
         <v>39</v>
       </c>
       <c r="B48" s="48" t="s">
-        <v>1404</v>
+        <v>1493</v>
       </c>
       <c r="M48" s="49"/>
     </row>
@@ -50904,10 +51230,10 @@
         <v>40</v>
       </c>
       <c r="B49" s="48" t="s">
-        <v>1405</v>
+        <v>1492</v>
       </c>
       <c r="L49" s="165" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
       <c r="M49" s="49"/>
     </row>
@@ -50916,10 +51242,10 @@
         <v>41</v>
       </c>
       <c r="B50" s="48" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
       <c r="L50" s="165" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="M50" s="49"/>
     </row>
@@ -50928,9 +51254,21 @@
         <v>42</v>
       </c>
       <c r="B51" s="48" t="s">
-        <v>1445</v>
+        <v>1443</v>
       </c>
       <c r="M51" s="49"/>
+    </row>
+    <row r="52" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A52" s="47">
+        <v>43</v>
+      </c>
+      <c r="B52" s="48" t="s">
+        <v>1491</v>
+      </c>
+      <c r="L52" s="165" t="s">
+        <v>1490</v>
+      </c>
+      <c r="M52" s="49"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -50939,11 +51277,12 @@
     <hyperlink ref="L44" r:id="rId3" location="tab-01" xr:uid="{930F055B-283C-47C4-B929-E4C07C2C01F6}"/>
     <hyperlink ref="L49" r:id="rId4" xr:uid="{1EB6B8D7-39B8-4773-B983-4C2CD3FB2089}"/>
     <hyperlink ref="L50" r:id="rId5" xr:uid="{47E25F16-2FA4-41D2-8C0E-DC8D901A0CED}"/>
+    <hyperlink ref="L52" r:id="rId6" xr:uid="{9B8166E3-D64F-4190-B88A-364424F077AB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
   <tableParts count="1">
-    <tablePart r:id="rId7"/>
+    <tablePart r:id="rId8"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Monitoreo DI.xlsx
+++ b/Monitoreo DI.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\DI Monitoreo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karen\Dropbox\DI Monitoreo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C6FAE15-A247-473B-AB26-DF351873D657}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D5ADA8D-2959-413A-9291-DB074F119E30}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="833" activeTab="7" xr2:uid="{F0BF9B96-FFF4-4E12-841F-9553B6E1990E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" tabRatio="833" activeTab="2" xr2:uid="{F0BF9B96-FFF4-4E12-841F-9553B6E1990E}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA`S" sheetId="1" r:id="rId1"/>
@@ -6403,265 +6403,6 @@
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="181">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -8350,6 +8091,265 @@
       </font>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
       <alignment vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -9275,13 +9275,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>10796</xdr:rowOff>
+      <xdr:rowOff>7621</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>771684</xdr:colOff>
+      <xdr:colOff>768509</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>140336</xdr:rowOff>
+      <xdr:rowOff>143511</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
       <mc:Choice Requires="sle15">
@@ -9353,13 +9353,13 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>858996</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>50166</xdr:rowOff>
+      <xdr:rowOff>46991</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>383381</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>164466</xdr:rowOff>
+      <xdr:rowOff>161291</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
       <mc:Choice Requires="sle15">
@@ -9429,13 +9429,13 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>656431</xdr:colOff>
+      <xdr:colOff>659606</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>64136</xdr:rowOff>
+      <xdr:rowOff>67311</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>2106453</xdr:colOff>
+      <xdr:colOff>2103278</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>152401</xdr:rowOff>
     </xdr:to>
@@ -9507,15 +9507,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>2180113</xdr:colOff>
+      <xdr:colOff>2183288</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>26036</xdr:rowOff>
+      <xdr:rowOff>29211</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>621983</xdr:colOff>
+      <xdr:colOff>618808</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>140336</xdr:rowOff>
+      <xdr:rowOff>143511</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
       <mc:Choice Requires="sle15">
@@ -11485,7 +11485,7 @@
 
 <file path=xl/slicers/slicer2.xml><?xml version="1.0" encoding="utf-8"?>
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
-  <slicer name="Data" xr10:uid="{DC5B16C7-0AA8-4789-BE46-CC500A0CE2D1}" cache="SegmentaciónDeDatos_Data" caption="Data" startItem="6" columnCount="2" rowHeight="234950"/>
+  <slicer name="Data" xr10:uid="{DC5B16C7-0AA8-4789-BE46-CC500A0CE2D1}" cache="SegmentaciónDeDatos_Data" caption="Data" columnCount="2" rowHeight="234950"/>
   <slicer name="Estado" xr10:uid="{B5CDA16E-1F84-4290-AEF3-96C65DB4DD5A}" cache="SegmentaciónDeDatos_Estado" caption="Estado" columnCount="2" rowHeight="234950"/>
   <slicer name="Responsable Desarrollo" xr10:uid="{5F85B909-3D60-4494-A859-CB65DDAD43F0}" cache="SegmentaciónDeDatos_Responsable_Desarrollo" caption="Responsable Desarrollo" startItem="3" columnCount="3" rowHeight="234950"/>
   <slicer name="Responsable Información" xr10:uid="{1509BA93-0D1C-489B-BEEE-3640ADE75D86}" cache="SegmentaciónDeDatos_Responsable_Información" caption="Responsable Información" startItem="12" columnCount="4" rowHeight="234950"/>
@@ -11557,7 +11557,7 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{07333795-F402-425E-9AC7-1C17203C211E}" name="BORRADOR_PRODUCTOS" displayName="BORRADOR_PRODUCTOS" ref="B11:P117" totalsRowShown="0" headerRowDxfId="30" tableBorderDxfId="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{07333795-F402-425E-9AC7-1C17203C211E}" name="BORRADOR_PRODUCTOS" displayName="BORRADOR_PRODUCTOS" ref="B11:P117" totalsRowShown="0" headerRowDxfId="16" tableBorderDxfId="15">
   <autoFilter ref="B11:P117" xr:uid="{488C7ADA-DF10-4033-BE01-B6478A789716}">
     <filterColumn colId="0">
       <filters>
@@ -11570,21 +11570,21 @@
     <sortCondition ref="D12:D64"/>
   </sortState>
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{229DCB04-6969-4E62-A149-FB9E3CAE5BF4}" name="Data" dataDxfId="28"/>
-    <tableColumn id="2" xr3:uid="{CD34A55D-D0AD-4B52-8194-AFDE7E5C6050}" name="Producto Previos" dataDxfId="27"/>
-    <tableColumn id="3" xr3:uid="{4029C438-04CA-46F0-B968-E3D862055C27}" name="Secuencia (dentro DATA)" dataDxfId="26"/>
-    <tableColumn id="4" xr3:uid="{9842277F-498F-4399-B9E9-AE2739193ABA}" name="País" dataDxfId="25"/>
-    <tableColumn id="5" xr3:uid="{ED853D5F-1B7C-4052-B0FE-5337CC52FC4D}" name="Integrado en PRODUCTOS? [SI/NO]" dataDxfId="24"/>
-    <tableColumn id="15" xr3:uid="{8D63376D-2407-4CF9-A0F9-4552C9649833}" name="id_producto" dataDxfId="23"/>
-    <tableColumn id="6" xr3:uid="{14D31B75-8E88-42FB-BB27-6BB36C1418D0}" name="Prioridad [1-9]" dataDxfId="22"/>
-    <tableColumn id="7" xr3:uid="{679658E8-A980-4528-82C7-F19E24336030}" name="Estado" dataDxfId="21"/>
-    <tableColumn id="8" xr3:uid="{2EF6A42B-DFA0-4FE7-A1E1-2E79F580EB12}" name="Avance [0-100%]" dataDxfId="20" dataCellStyle="Porcentaje"/>
-    <tableColumn id="9" xr3:uid="{40541782-CDD5-4622-B1C1-C97D63A0C9AA}" name="Responsable Desarrollo" dataDxfId="19"/>
-    <tableColumn id="10" xr3:uid="{3B543DE3-BF65-4BD9-9932-28271C56E4C6}" name="Responsable Información" dataDxfId="18"/>
-    <tableColumn id="11" xr3:uid="{DAB3B04F-F977-4413-A23F-4094B552D30E}" name="Tareas/Elementos / Observaciones" dataDxfId="17"/>
-    <tableColumn id="12" xr3:uid="{78859102-313B-47F6-BED8-F613D7B8587E}" name="Tecnología" dataDxfId="16"/>
-    <tableColumn id="13" xr3:uid="{BBACA7B7-AF7E-4714-A44E-1572587CA1A4}" name="Fecha estimada" dataDxfId="15"/>
-    <tableColumn id="14" xr3:uid="{3D3E6850-E86A-4D4E-99C6-7FEB6D12B271}" name="Fecha Actualización [de esta info]" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{229DCB04-6969-4E62-A149-FB9E3CAE5BF4}" name="Data" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{CD34A55D-D0AD-4B52-8194-AFDE7E5C6050}" name="Producto Previos" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{4029C438-04CA-46F0-B968-E3D862055C27}" name="Secuencia (dentro DATA)" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{9842277F-498F-4399-B9E9-AE2739193ABA}" name="País" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{ED853D5F-1B7C-4052-B0FE-5337CC52FC4D}" name="Integrado en PRODUCTOS? [SI/NO]" dataDxfId="10"/>
+    <tableColumn id="15" xr3:uid="{8D63376D-2407-4CF9-A0F9-4552C9649833}" name="id_producto" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{14D31B75-8E88-42FB-BB27-6BB36C1418D0}" name="Prioridad [1-9]" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{679658E8-A980-4528-82C7-F19E24336030}" name="Estado" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{2EF6A42B-DFA0-4FE7-A1E1-2E79F580EB12}" name="Avance [0-100%]" dataDxfId="6" dataCellStyle="Porcentaje"/>
+    <tableColumn id="9" xr3:uid="{40541782-CDD5-4622-B1C1-C97D63A0C9AA}" name="Responsable Desarrollo" dataDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{3B543DE3-BF65-4BD9-9932-28271C56E4C6}" name="Responsable Información" dataDxfId="4"/>
+    <tableColumn id="11" xr3:uid="{DAB3B04F-F977-4413-A23F-4094B552D30E}" name="Tareas/Elementos / Observaciones" dataDxfId="3"/>
+    <tableColumn id="12" xr3:uid="{78859102-313B-47F6-BED8-F613D7B8587E}" name="Tecnología" dataDxfId="2"/>
+    <tableColumn id="13" xr3:uid="{BBACA7B7-AF7E-4714-A44E-1572587CA1A4}" name="Fecha estimada" dataDxfId="1"/>
+    <tableColumn id="14" xr3:uid="{3D3E6850-E86A-4D4E-99C6-7FEB6D12B271}" name="Fecha Actualización [de esta info]" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -11592,7 +11592,24 @@
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B0304927-521B-4559-963B-3C591C746F11}" name="PRODUCTOS" displayName="PRODUCTOS" ref="A7:BD100" totalsRowShown="0" headerRowDxfId="167">
-  <autoFilter ref="A7:BD100" xr:uid="{B45D9B6D-7E6E-4374-A7A8-688EAA2C002B}"/>
+  <autoFilter ref="A7:BD100" xr:uid="{B45D9B6D-7E6E-4374-A7A8-688EAA2C002B}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="DATAAGRO"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="6">
+      <filters>
+        <filter val="AGROSTAT - Estadísticas ambientales"/>
+        <filter val="AGROSTAT - Estadísticas Económicas Agrícolas"/>
+        <filter val="AGROSTAT - Estadísticas Económicas Forestales"/>
+        <filter val="AGROSTAT - Estadísticas Económicas Pecuarias"/>
+        <filter val="AGROSTAT - Estadísticas Productivas Agrícolas"/>
+        <filter val="AGROSTAT - Estadisticas Productivas Forestales"/>
+        <filter val="AGROSTAT - Estadísticas Productivas Pecuarias"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="56">
     <tableColumn id="1" xr3:uid="{01CFB9DB-FBAD-4A9E-9D8F-5FB3EB42A9EB}" name="id_data" dataDxfId="166" totalsRowDxfId="165">
       <calculatedColumnFormula>+VLOOKUP(D8,'DATA`S'!$B$8:$C$33,2,0)</calculatedColumnFormula>
@@ -11717,139 +11734,139 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{F79A991F-1A6F-4232-A4CD-E26026F59FD2}" name="Tabla1" displayName="Tabla1" ref="A9:M52" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{F79A991F-1A6F-4232-A4CD-E26026F59FD2}" name="Tabla1" displayName="Tabla1" ref="A9:M52" totalsRowShown="0" headerRowDxfId="103" dataDxfId="102">
   <autoFilter ref="A9:M52" xr:uid="{2573F5B0-EE83-49B6-AF2E-FA541AB2D0A7}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{01DC2308-9C99-4EEE-82DB-DC6B48F1F8E3}" name="N°" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{F3B4997E-B2A4-4EB5-AF03-1C32EC201E29}" name="Tema Investigación " dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{2ED8CCEC-CAF8-463E-AB90-B3689E282F52}" name="Responsables " dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{A45DAC7C-0BE8-484E-8902-C84794C6E4E6}" name="Fecha inicio" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{01DC2308-9C99-4EEE-82DB-DC6B48F1F8E3}" name="N°" dataDxfId="101"/>
+    <tableColumn id="2" xr3:uid="{F3B4997E-B2A4-4EB5-AF03-1C32EC201E29}" name="Tema Investigación " dataDxfId="100"/>
+    <tableColumn id="3" xr3:uid="{2ED8CCEC-CAF8-463E-AB90-B3689E282F52}" name="Responsables " dataDxfId="99"/>
+    <tableColumn id="5" xr3:uid="{A45DAC7C-0BE8-484E-8902-C84794C6E4E6}" name="Fecha inicio" dataDxfId="98"/>
     <tableColumn id="4" xr3:uid="{1DFD24D3-150A-4A18-8D2B-471C5E615C4A}" name="Estado"/>
-    <tableColumn id="7" xr3:uid="{A5E888F3-954C-4454-ABBF-0CB322AC2892}" name="Fecha Termino" dataDxfId="7"/>
-    <tableColumn id="8" xr3:uid="{DC2FD273-C50C-4DC5-BCAE-F4707F0CC4FD}" name="Chile" dataDxfId="6"/>
-    <tableColumn id="9" xr3:uid="{DC0F9138-A833-4513-8446-6D9A0BE8DC03}" name="Panamá " dataDxfId="5"/>
-    <tableColumn id="10" xr3:uid="{1C354151-0542-4839-A312-82A4762672B3}" name="Guatemala" dataDxfId="4"/>
-    <tableColumn id="11" xr3:uid="{B44F5A38-555A-4E07-BD14-45F877391CC6}" name="Honduras" dataDxfId="3"/>
-    <tableColumn id="12" xr3:uid="{E43EB3EC-0D6D-42B8-A156-EA2EF365B7B3}" name="El Salvador" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{9ED27B35-B472-416C-B394-C3447A132041}" name="Link 1" dataDxfId="1"/>
-    <tableColumn id="13" xr3:uid="{0813E4B9-E868-4B0E-A181-67DEE49699BC}" name="Link 2" dataDxfId="0"/>
+    <tableColumn id="7" xr3:uid="{A5E888F3-954C-4454-ABBF-0CB322AC2892}" name="Fecha Termino" dataDxfId="97"/>
+    <tableColumn id="8" xr3:uid="{DC2FD273-C50C-4DC5-BCAE-F4707F0CC4FD}" name="Chile" dataDxfId="96"/>
+    <tableColumn id="9" xr3:uid="{DC0F9138-A833-4513-8446-6D9A0BE8DC03}" name="Panamá " dataDxfId="95"/>
+    <tableColumn id="10" xr3:uid="{1C354151-0542-4839-A312-82A4762672B3}" name="Guatemala" dataDxfId="94"/>
+    <tableColumn id="11" xr3:uid="{B44F5A38-555A-4E07-BD14-45F877391CC6}" name="Honduras" dataDxfId="93"/>
+    <tableColumn id="12" xr3:uid="{E43EB3EC-0D6D-42B8-A156-EA2EF365B7B3}" name="El Salvador" dataDxfId="92"/>
+    <tableColumn id="6" xr3:uid="{9ED27B35-B472-416C-B394-C3447A132041}" name="Link 1" dataDxfId="91"/>
+    <tableColumn id="13" xr3:uid="{0813E4B9-E868-4B0E-A181-67DEE49699BC}" name="Link 2" dataDxfId="90"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{E94DB916-DE89-4F64-9EF8-AFB72BA8FF61}" name="Tabla14" displayName="Tabla14" ref="A12:I80" totalsRowShown="0" headerRowDxfId="103" dataDxfId="102">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{E94DB916-DE89-4F64-9EF8-AFB72BA8FF61}" name="Tabla14" displayName="Tabla14" ref="A12:I80" totalsRowShown="0" headerRowDxfId="89" dataDxfId="88">
   <autoFilter ref="A12:I80" xr:uid="{14629A1E-D5D5-412C-8FAB-488411430C85}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{7299EEE0-40CF-4EF5-8F0C-C1FFA863E5B5}" name="N°" dataDxfId="101"/>
-    <tableColumn id="2" xr3:uid="{9E84EC16-0161-44D0-9CB9-123C0428ADAD}" name="Tema/institución Investigación " dataDxfId="100"/>
-    <tableColumn id="3" xr3:uid="{76853A8B-3945-4590-AB61-F2892D4BDEF9}" name="Responsable" dataDxfId="99"/>
-    <tableColumn id="5" xr3:uid="{F7339DE0-8C86-4469-9258-ED935FDEFA77}" name="Fecha inicio" dataDxfId="98"/>
-    <tableColumn id="6" xr3:uid="{1434B0D6-C669-403A-970D-962B797CA9A9}" name="Fecha avance" dataDxfId="97"/>
-    <tableColumn id="7" xr3:uid="{B968D1D9-84E8-493C-9491-88D890E8453F}" name="Fecha Termino" dataDxfId="96"/>
-    <tableColumn id="8" xr3:uid="{914D3775-FE9D-4F06-9643-2FF0DC094A44}" name="Comentario" dataDxfId="95"/>
-    <tableColumn id="4" xr3:uid="{447DB363-0F58-4053-9903-C5B73E99B8F7}" name="Acción" dataDxfId="94"/>
-    <tableColumn id="9" xr3:uid="{FAD7DF30-EA13-48D4-85BE-33B82685C836}" name="Seguimiento" dataDxfId="93"/>
+    <tableColumn id="1" xr3:uid="{7299EEE0-40CF-4EF5-8F0C-C1FFA863E5B5}" name="N°" dataDxfId="87"/>
+    <tableColumn id="2" xr3:uid="{9E84EC16-0161-44D0-9CB9-123C0428ADAD}" name="Tema/institución Investigación " dataDxfId="86"/>
+    <tableColumn id="3" xr3:uid="{76853A8B-3945-4590-AB61-F2892D4BDEF9}" name="Responsable" dataDxfId="85"/>
+    <tableColumn id="5" xr3:uid="{F7339DE0-8C86-4469-9258-ED935FDEFA77}" name="Fecha inicio" dataDxfId="84"/>
+    <tableColumn id="6" xr3:uid="{1434B0D6-C669-403A-970D-962B797CA9A9}" name="Fecha avance" dataDxfId="83"/>
+    <tableColumn id="7" xr3:uid="{B968D1D9-84E8-493C-9491-88D890E8453F}" name="Fecha Termino" dataDxfId="82"/>
+    <tableColumn id="8" xr3:uid="{914D3775-FE9D-4F06-9643-2FF0DC094A44}" name="Comentario" dataDxfId="81"/>
+    <tableColumn id="4" xr3:uid="{447DB363-0F58-4053-9903-C5B73E99B8F7}" name="Acción" dataDxfId="80"/>
+    <tableColumn id="9" xr3:uid="{FAD7DF30-EA13-48D4-85BE-33B82685C836}" name="Seguimiento" dataDxfId="79"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{065B9CF9-E4C7-46B6-A6AB-AE4727F44BAE}" name="DETALLE_PRODUCTO" displayName="DETALLE_PRODUCTO" ref="B8:L88" totalsRowShown="0" headerRowDxfId="92" dataDxfId="91">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{065B9CF9-E4C7-46B6-A6AB-AE4727F44BAE}" name="DETALLE_PRODUCTO" displayName="DETALLE_PRODUCTO" ref="B8:L88" totalsRowShown="0" headerRowDxfId="78" dataDxfId="77">
   <autoFilter ref="B8:L88" xr:uid="{B19E98DB-D5A2-4B79-98FB-79403A46B576}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{53D02E25-6272-402F-ABD7-44B8E0C71D87}" name="Data" dataDxfId="90"/>
-    <tableColumn id="8" xr3:uid="{EC4D90DB-631D-4228-A704-DD698C8FDA74}" name="id_producto" dataDxfId="89"/>
-    <tableColumn id="2" xr3:uid="{8BB7EEC5-6570-41F8-9A07-5AAEA8522606}" name="Plazo Producto" dataDxfId="88"/>
-    <tableColumn id="3" xr3:uid="{8CB3D480-A20D-43D6-A036-A52F2B756492}" name="Producto" dataDxfId="87"/>
-    <tableColumn id="4" xr3:uid="{A37F897B-BDC4-49DB-9D73-0B585928FBCF}" name="Secciones" dataDxfId="86"/>
-    <tableColumn id="5" xr3:uid="{52913CC1-5A92-42A3-9DE0-3B6AB5FF68D3}" name="Sub-secciones" dataDxfId="85"/>
-    <tableColumn id="6" xr3:uid="{AA418FB7-7169-4105-9A7B-952204D6B07D}" name="Variables" dataDxfId="84"/>
-    <tableColumn id="7" xr3:uid="{9CFF7943-E7AB-407C-A8B2-A61784C0D377}" name="Fuente" dataDxfId="83"/>
-    <tableColumn id="9" xr3:uid="{E0A15B94-D546-4F86-877E-4ECCBE8390C9}" name="Situación Variable" dataDxfId="82"/>
-    <tableColumn id="10" xr3:uid="{766CAFFF-49CC-4F0A-A3FA-AA09276E3B90}" name="Fecha Actualización" dataDxfId="81"/>
-    <tableColumn id="11" xr3:uid="{8FEDBB30-0CE4-44B9-B885-55B24F35F89F}" name="Observaciones" dataDxfId="80"/>
+    <tableColumn id="1" xr3:uid="{53D02E25-6272-402F-ABD7-44B8E0C71D87}" name="Data" dataDxfId="76"/>
+    <tableColumn id="8" xr3:uid="{EC4D90DB-631D-4228-A704-DD698C8FDA74}" name="id_producto" dataDxfId="75"/>
+    <tableColumn id="2" xr3:uid="{8BB7EEC5-6570-41F8-9A07-5AAEA8522606}" name="Plazo Producto" dataDxfId="74"/>
+    <tableColumn id="3" xr3:uid="{8CB3D480-A20D-43D6-A036-A52F2B756492}" name="Producto" dataDxfId="73"/>
+    <tableColumn id="4" xr3:uid="{A37F897B-BDC4-49DB-9D73-0B585928FBCF}" name="Secciones" dataDxfId="72"/>
+    <tableColumn id="5" xr3:uid="{52913CC1-5A92-42A3-9DE0-3B6AB5FF68D3}" name="Sub-secciones" dataDxfId="71"/>
+    <tableColumn id="6" xr3:uid="{AA418FB7-7169-4105-9A7B-952204D6B07D}" name="Variables" dataDxfId="70"/>
+    <tableColumn id="7" xr3:uid="{9CFF7943-E7AB-407C-A8B2-A61784C0D377}" name="Fuente" dataDxfId="69"/>
+    <tableColumn id="9" xr3:uid="{E0A15B94-D546-4F86-877E-4ECCBE8390C9}" name="Situación Variable" dataDxfId="68"/>
+    <tableColumn id="10" xr3:uid="{766CAFFF-49CC-4F0A-A3FA-AA09276E3B90}" name="Fecha Actualización" dataDxfId="67"/>
+    <tableColumn id="11" xr3:uid="{8FEDBB30-0CE4-44B9-B885-55B24F35F89F}" name="Observaciones" dataDxfId="66"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{8903E000-6268-4700-8DED-A61277FDDF6A}" name="SHOPIFY" displayName="SHOPIFY" ref="A7:AX82" totalsRowShown="0" headerRowDxfId="79">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{8903E000-6268-4700-8DED-A61277FDDF6A}" name="SHOPIFY" displayName="SHOPIFY" ref="A7:AX82" totalsRowShown="0" headerRowDxfId="65">
   <autoFilter ref="A7:AX82" xr:uid="{8E7BE500-FD82-4AF8-9786-CF4905281DB3}"/>
   <tableColumns count="50">
-    <tableColumn id="1" xr3:uid="{97B30EC8-C107-4A29-BFE9-64B671A010DD}" name="id_data" dataDxfId="78">
+    <tableColumn id="1" xr3:uid="{97B30EC8-C107-4A29-BFE9-64B671A010DD}" name="id_data" dataDxfId="64">
       <calculatedColumnFormula>PRODUCTOS[[#This Row],[id_data]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{D4210DF6-B71C-4CEA-B273-A001CC99D71D}" name="Corr_Producto" dataDxfId="77"/>
-    <tableColumn id="3" xr3:uid="{3A3C3A45-DC12-420E-B4A9-B6FC4AB09680}" name="Data" dataDxfId="76"/>
-    <tableColumn id="4" xr3:uid="{F589E312-6F04-441B-BD92-57D8AF605B91}" name="id_producto" dataDxfId="75">
+    <tableColumn id="2" xr3:uid="{D4210DF6-B71C-4CEA-B273-A001CC99D71D}" name="Corr_Producto" dataDxfId="63"/>
+    <tableColumn id="3" xr3:uid="{3A3C3A45-DC12-420E-B4A9-B6FC4AB09680}" name="Data" dataDxfId="62"/>
+    <tableColumn id="4" xr3:uid="{F589E312-6F04-441B-BD92-57D8AF605B91}" name="id_producto" dataDxfId="61">
       <calculatedColumnFormula>+A8&amp;"-"&amp;B8</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{8673061C-EC24-4EF4-81F6-F73CCCED37A8}" name="Producto asociado " dataDxfId="74"/>
-    <tableColumn id="32" xr3:uid="{BB6CBD3F-A1DC-4006-8ED6-2EDD0372776F}" name="Nombre comercial" dataDxfId="73">
+    <tableColumn id="5" xr3:uid="{8673061C-EC24-4EF4-81F6-F73CCCED37A8}" name="Producto asociado " dataDxfId="60"/>
+    <tableColumn id="32" xr3:uid="{BB6CBD3F-A1DC-4006-8ED6-2EDD0372776F}" name="Nombre comercial" dataDxfId="59">
       <calculatedColumnFormula>PRODUCTOS[[#This Row],[Nombre comercial]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="47" xr3:uid="{1BF29101-CC46-4386-87BF-FB5000527CC1}" name="Variante" dataDxfId="72">
+    <tableColumn id="47" xr3:uid="{1BF29101-CC46-4386-87BF-FB5000527CC1}" name="Variante" dataDxfId="58">
       <calculatedColumnFormula>#REF!</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="46" xr3:uid="{971E696E-617D-42F5-AD13-6C98573AB151}" name="Corr_variante" dataDxfId="71">
+    <tableColumn id="46" xr3:uid="{971E696E-617D-42F5-AD13-6C98573AB151}" name="Corr_variante" dataDxfId="57">
       <calculatedColumnFormula>#REF!</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{8623108B-5216-4DE8-A078-C2EA5007B662}" name="id_prod_var" dataDxfId="70">
+    <tableColumn id="20" xr3:uid="{8623108B-5216-4DE8-A078-C2EA5007B662}" name="id_prod_var" dataDxfId="56">
       <calculatedColumnFormula>#REF!</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{F158BFCF-29BB-4A21-85DD-EC1A577268A9}" name="Estado" dataDxfId="69"/>
-    <tableColumn id="21" xr3:uid="{F5606F96-2B4C-4028-BAFD-98E68F248BB6}" name="Avance" dataDxfId="68" dataCellStyle="Porcentaje"/>
-    <tableColumn id="7" xr3:uid="{F996455F-A80C-45DE-824E-AA15DC67B89F}" name="Responsable Desarrollo" dataDxfId="67">
+    <tableColumn id="6" xr3:uid="{F158BFCF-29BB-4A21-85DD-EC1A577268A9}" name="Estado" dataDxfId="55"/>
+    <tableColumn id="21" xr3:uid="{F5606F96-2B4C-4028-BAFD-98E68F248BB6}" name="Avance" dataDxfId="54" dataCellStyle="Porcentaje"/>
+    <tableColumn id="7" xr3:uid="{F996455F-A80C-45DE-824E-AA15DC67B89F}" name="Responsable Desarrollo" dataDxfId="53">
       <calculatedColumnFormula>PRODUCTOS[[#This Row],[Responsable Desarrollo]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{8243748E-EFCB-4AEF-AE13-DEB22DE5398A}" name="Responsable Información" dataDxfId="66">
+    <tableColumn id="8" xr3:uid="{8243748E-EFCB-4AEF-AE13-DEB22DE5398A}" name="Responsable Información" dataDxfId="52">
       <calculatedColumnFormula>PRODUCTOS[[#This Row],[Responsable Información]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{1B0EF15B-CCC6-4071-9C39-986D237DCBFD}" name="PORTADA SHOPIFY" dataDxfId="65"/>
-    <tableColumn id="25" xr3:uid="{DE283954-0E54-4788-A6B7-64B3FABE5655}" name="Párrafo enganche" dataDxfId="64"/>
-    <tableColumn id="31" xr3:uid="{69B5166B-7DB7-4B2A-BDDB-51BC1CDC9E13}" name="Variante_1" dataDxfId="63"/>
-    <tableColumn id="30" xr3:uid="{FD2BFBD3-7364-4A40-82AD-5ED8F1EC60C8}" name="Precio_1" dataDxfId="62"/>
-    <tableColumn id="27" xr3:uid="{7BAA5845-FEF8-4AF0-A034-4502EA6425FB}" name="Variante_2" dataDxfId="61"/>
-    <tableColumn id="26" xr3:uid="{055AC0B8-B715-4865-A615-F93F51BDB937}" name="Precio_2" dataDxfId="60"/>
-    <tableColumn id="34" xr3:uid="{E986E95A-C830-4C89-88DC-A69F64460E34}" name="Variante_3" dataDxfId="59"/>
-    <tableColumn id="33" xr3:uid="{15105E85-D580-466D-8DEA-A21111029F6E}" name="Precio_3" dataDxfId="58"/>
-    <tableColumn id="50" xr3:uid="{86C9CDBF-0B44-4420-A48E-6FF93F44FE71}" name="Variable_filtro1" dataDxfId="57"/>
-    <tableColumn id="49" xr3:uid="{29F0FFEC-DA2B-4599-9D83-29AA5C05A4F0}" name="Variable_filtro2" dataDxfId="56"/>
-    <tableColumn id="48" xr3:uid="{4B1206D9-C4A0-496A-A7B2-086AF0122968}" name="Variable_filtro3" dataDxfId="55"/>
-    <tableColumn id="9" xr3:uid="{EE306381-1575-4475-A9CE-5592A93932BB}" name="Descripción (Indicar qué permite ver o hacer el producto) " dataDxfId="54"/>
-    <tableColumn id="35" xr3:uid="{C39FDC20-ABE5-4151-B056-F4B5E12D47DD}" name="CAR_Tipo_Prod" dataDxfId="53"/>
-    <tableColumn id="36" xr3:uid="{C8D4ECC0-DE7A-41BF-A6E9-9964E26F4261}" name="CAR_Var1_Disponible" dataDxfId="52"/>
-    <tableColumn id="39" xr3:uid="{87F44B21-0148-4ECE-9BC5-6D8A4C1030F3}" name="CAR_Periodo" dataDxfId="51"/>
-    <tableColumn id="37" xr3:uid="{DB23C32C-B4CE-4982-8D0A-F32C01C6CF98}" name="CAR_Proveedor" dataDxfId="50"/>
-    <tableColumn id="38" xr3:uid="{887C31F6-B5D9-48A2-AC60-3BBFDA8C2D93}" name="CAR_Colección" dataDxfId="49">
+    <tableColumn id="19" xr3:uid="{1B0EF15B-CCC6-4071-9C39-986D237DCBFD}" name="PORTADA SHOPIFY" dataDxfId="51"/>
+    <tableColumn id="25" xr3:uid="{DE283954-0E54-4788-A6B7-64B3FABE5655}" name="Párrafo enganche" dataDxfId="50"/>
+    <tableColumn id="31" xr3:uid="{69B5166B-7DB7-4B2A-BDDB-51BC1CDC9E13}" name="Variante_1" dataDxfId="49"/>
+    <tableColumn id="30" xr3:uid="{FD2BFBD3-7364-4A40-82AD-5ED8F1EC60C8}" name="Precio_1" dataDxfId="48"/>
+    <tableColumn id="27" xr3:uid="{7BAA5845-FEF8-4AF0-A034-4502EA6425FB}" name="Variante_2" dataDxfId="47"/>
+    <tableColumn id="26" xr3:uid="{055AC0B8-B715-4865-A615-F93F51BDB937}" name="Precio_2" dataDxfId="46"/>
+    <tableColumn id="34" xr3:uid="{E986E95A-C830-4C89-88DC-A69F64460E34}" name="Variante_3" dataDxfId="45"/>
+    <tableColumn id="33" xr3:uid="{15105E85-D580-466D-8DEA-A21111029F6E}" name="Precio_3" dataDxfId="44"/>
+    <tableColumn id="50" xr3:uid="{86C9CDBF-0B44-4420-A48E-6FF93F44FE71}" name="Variable_filtro1" dataDxfId="43"/>
+    <tableColumn id="49" xr3:uid="{29F0FFEC-DA2B-4599-9D83-29AA5C05A4F0}" name="Variable_filtro2" dataDxfId="42"/>
+    <tableColumn id="48" xr3:uid="{4B1206D9-C4A0-496A-A7B2-086AF0122968}" name="Variable_filtro3" dataDxfId="41"/>
+    <tableColumn id="9" xr3:uid="{EE306381-1575-4475-A9CE-5592A93932BB}" name="Descripción (Indicar qué permite ver o hacer el producto) " dataDxfId="40"/>
+    <tableColumn id="35" xr3:uid="{C39FDC20-ABE5-4151-B056-F4B5E12D47DD}" name="CAR_Tipo_Prod" dataDxfId="39"/>
+    <tableColumn id="36" xr3:uid="{C8D4ECC0-DE7A-41BF-A6E9-9964E26F4261}" name="CAR_Var1_Disponible" dataDxfId="38"/>
+    <tableColumn id="39" xr3:uid="{87F44B21-0148-4ECE-9BC5-6D8A4C1030F3}" name="CAR_Periodo" dataDxfId="37"/>
+    <tableColumn id="37" xr3:uid="{DB23C32C-B4CE-4982-8D0A-F32C01C6CF98}" name="CAR_Proveedor" dataDxfId="36"/>
+    <tableColumn id="38" xr3:uid="{887C31F6-B5D9-48A2-AC60-3BBFDA8C2D93}" name="CAR_Colección" dataDxfId="35">
       <calculatedColumnFormula>SHOPIFY[[#This Row],[Data]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{465FFD71-9838-46F8-96D9-04071B46AADF}" name="ESP_Tecnología" dataDxfId="48">
+    <tableColumn id="10" xr3:uid="{465FFD71-9838-46F8-96D9-04071B46AADF}" name="ESP_Tecnología" dataDxfId="34">
       <calculatedColumnFormula>PRODUCTOS[[#This Row],[Tecnología]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{EC2BE421-D8F5-4218-AF58-90E90B893031}" name="Host " dataDxfId="47"/>
-    <tableColumn id="12" xr3:uid="{E79C574B-B7A1-469C-8F8F-2D0CFAE51341}" name="Link Odoo" dataDxfId="46"/>
-    <tableColumn id="13" xr3:uid="{3809FE9C-54F9-4CF7-B339-2E0041642249}" name="Fecha Publicación" dataDxfId="45"/>
-    <tableColumn id="14" xr3:uid="{F596F3F4-DDEC-4196-A3BB-82BA12090401}" name="País" dataDxfId="44"/>
-    <tableColumn id="15" xr3:uid="{8ABA9F49-20E7-4D44-969F-61983CB570CF}" name="Escala " dataDxfId="43"/>
-    <tableColumn id="16" xr3:uid="{96768B2C-E9AB-4A4C-B2EA-54B345E4B2EE}" name="ESP_Periodo" dataDxfId="42"/>
-    <tableColumn id="40" xr3:uid="{B886925D-5342-4EF0-BEC7-231A532CD384}" name="ESP_Incluye" dataDxfId="41"/>
-    <tableColumn id="41" xr3:uid="{3B13D200-0F79-4222-81F3-6523101D8224}" name="ESP_Uso_Disp." dataDxfId="40"/>
-    <tableColumn id="42" xr3:uid="{36761705-B510-456F-B13C-7C1F1691A844}" name="ESP_Fuentes " dataDxfId="39"/>
-    <tableColumn id="43" xr3:uid="{51F4D077-A0BB-4F59-B19A-FA245554DE68}" name="ACC_Recibirás" dataDxfId="38"/>
-    <tableColumn id="44" xr3:uid="{5291A2DA-9FCC-47E6-8092-612F754EE474}" name="ACC_Licencia_uso" dataDxfId="37"/>
-    <tableColumn id="17" xr3:uid="{77D650B5-1F6E-4D9B-91EE-AFD5F57BC1C1}" name="ACC_Actualizaciones" dataDxfId="36"/>
-    <tableColumn id="45" xr3:uid="{9AD5E5EE-A8BD-4739-AE89-A1B8EC4723F5}" name="ACC_N°_usuarios" dataDxfId="35"/>
-    <tableColumn id="18" xr3:uid="{AC3AE441-67FC-4118-9DEB-4484BC70FA5A}" name="Etiquetas" dataDxfId="34"/>
-    <tableColumn id="22" xr3:uid="{0EAB21ED-E5E2-4B44-8E8C-DA03632B81CB}" name="Vistas" dataDxfId="33"/>
+    <tableColumn id="11" xr3:uid="{EC2BE421-D8F5-4218-AF58-90E90B893031}" name="Host " dataDxfId="33"/>
+    <tableColumn id="12" xr3:uid="{E79C574B-B7A1-469C-8F8F-2D0CFAE51341}" name="Link Odoo" dataDxfId="32"/>
+    <tableColumn id="13" xr3:uid="{3809FE9C-54F9-4CF7-B339-2E0041642249}" name="Fecha Publicación" dataDxfId="31"/>
+    <tableColumn id="14" xr3:uid="{F596F3F4-DDEC-4196-A3BB-82BA12090401}" name="País" dataDxfId="30"/>
+    <tableColumn id="15" xr3:uid="{8ABA9F49-20E7-4D44-969F-61983CB570CF}" name="Escala " dataDxfId="29"/>
+    <tableColumn id="16" xr3:uid="{96768B2C-E9AB-4A4C-B2EA-54B345E4B2EE}" name="ESP_Periodo" dataDxfId="28"/>
+    <tableColumn id="40" xr3:uid="{B886925D-5342-4EF0-BEC7-231A532CD384}" name="ESP_Incluye" dataDxfId="27"/>
+    <tableColumn id="41" xr3:uid="{3B13D200-0F79-4222-81F3-6523101D8224}" name="ESP_Uso_Disp." dataDxfId="26"/>
+    <tableColumn id="42" xr3:uid="{36761705-B510-456F-B13C-7C1F1691A844}" name="ESP_Fuentes " dataDxfId="25"/>
+    <tableColumn id="43" xr3:uid="{51F4D077-A0BB-4F59-B19A-FA245554DE68}" name="ACC_Recibirás" dataDxfId="24"/>
+    <tableColumn id="44" xr3:uid="{5291A2DA-9FCC-47E6-8092-612F754EE474}" name="ACC_Licencia_uso" dataDxfId="23"/>
+    <tableColumn id="17" xr3:uid="{77D650B5-1F6E-4D9B-91EE-AFD5F57BC1C1}" name="ACC_Actualizaciones" dataDxfId="22"/>
+    <tableColumn id="45" xr3:uid="{9AD5E5EE-A8BD-4739-AE89-A1B8EC4723F5}" name="ACC_N°_usuarios" dataDxfId="21"/>
+    <tableColumn id="18" xr3:uid="{AC3AE441-67FC-4118-9DEB-4484BC70FA5A}" name="Etiquetas" dataDxfId="20"/>
+    <tableColumn id="22" xr3:uid="{0EAB21ED-E5E2-4B44-8E8C-DA03632B81CB}" name="Vistas" dataDxfId="19"/>
     <tableColumn id="23" xr3:uid="{4146A4AA-B422-4A23-AFC0-891AE3F78FEE}" name="Repositorio Dropbox"/>
     <tableColumn id="24" xr3:uid="{44B7EB22-51ED-4A59-9AAA-14197F95E149}" name="Link Logo"/>
-    <tableColumn id="28" xr3:uid="{4352BE36-B76B-41FB-8592-7009FF2F8409}" name="Observaciones" dataDxfId="32"/>
-    <tableColumn id="29" xr3:uid="{2127F871-F5E7-448D-8C26-8CF290798729}" name="Miniatura" dataDxfId="31"/>
+    <tableColumn id="28" xr3:uid="{4352BE36-B76B-41FB-8592-7009FF2F8409}" name="Observaciones" dataDxfId="18"/>
+    <tableColumn id="29" xr3:uid="{2127F871-F5E7-448D-8C26-8CF290798729}" name="Miniatura" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -29382,12 +29399,12 @@
   </sheetPr>
   <dimension ref="A7:BD100"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="7" ySplit="7" topLeftCell="AF8" activePane="bottomRight" state="frozen"/>
       <selection activeCell="J19" sqref="J19"/>
       <selection pane="topRight" activeCell="J19" sqref="J19"/>
       <selection pane="bottomLeft" activeCell="J19" sqref="J19"/>
-      <selection pane="bottomRight" activeCell="X8" sqref="X8"/>
+      <selection pane="bottomRight" activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -29600,7 +29617,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="8" spans="1:56" ht="93" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:56" ht="93" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="str">
         <f>+VLOOKUP(D8,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0012</v>
@@ -29752,7 +29769,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="9" spans="1:56" ht="115.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:56" ht="115.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="str">
         <f>+VLOOKUP(D9,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0012</v>
@@ -29865,7 +29882,7 @@
       </c>
       <c r="BD9" s="7"/>
     </row>
-    <row r="10" spans="1:56" ht="78" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:56" ht="78" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="str">
         <f>+VLOOKUP(D10,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0012</v>
@@ -30004,7 +30021,7 @@
         <v>1335</v>
       </c>
     </row>
-    <row r="11" spans="1:56" ht="63" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:56" ht="63" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="str">
         <f>+VLOOKUP(D11,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0012</v>
@@ -30119,7 +30136,7 @@
       </c>
       <c r="BD11" s="7"/>
     </row>
-    <row r="12" spans="1:56" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:56" ht="52.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="str">
         <f>+VLOOKUP(D12,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0012</v>
@@ -30224,7 +30241,7 @@
       <c r="BC12" s="7"/>
       <c r="BD12" s="7"/>
     </row>
-    <row r="13" spans="1:56" ht="63" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:56" ht="63" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="str">
         <f>+VLOOKUP(D13,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0012</v>
@@ -30329,7 +30346,7 @@
       <c r="BC13" s="7"/>
       <c r="BD13" s="7"/>
     </row>
-    <row r="14" spans="1:56" ht="78" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:56" ht="78" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="str">
         <f>+VLOOKUP(D14,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0008</v>
@@ -30457,7 +30474,7 @@
       <c r="BC14" s="7"/>
       <c r="BD14" s="7"/>
     </row>
-    <row r="15" spans="1:56" ht="62.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:56" ht="62.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="str">
         <f>+VLOOKUP(D15,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0022</v>
@@ -30581,7 +30598,7 @@
       <c r="BC15" s="7"/>
       <c r="BD15" s="7"/>
     </row>
-    <row r="16" spans="1:56" ht="55.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:56" ht="55.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="str">
         <f>+VLOOKUP(D16,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0012</v>
@@ -30684,7 +30701,7 @@
       <c r="BC16" s="7"/>
       <c r="BD16" s="7"/>
     </row>
-    <row r="17" spans="1:56" ht="58" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:56" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="str">
         <f>+VLOOKUP(D17,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0004</v>
@@ -30808,7 +30825,7 @@
       </c>
       <c r="BD17" s="133"/>
     </row>
-    <row r="18" spans="1:56" ht="48" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:56" ht="48" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="str">
         <f>+VLOOKUP(D18,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0004</v>
@@ -30923,7 +30940,7 @@
       </c>
       <c r="BD18" s="133"/>
     </row>
-    <row r="19" spans="1:56" ht="87" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:56" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="str">
         <f>+VLOOKUP(D19,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0011</v>
@@ -31055,7 +31072,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="20" spans="1:56" ht="29" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:56" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="str">
         <f>+VLOOKUP(D20,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0010</v>
@@ -31152,7 +31169,7 @@
       <c r="BC20" s="7"/>
       <c r="BD20" s="7"/>
     </row>
-    <row r="21" spans="1:56" ht="87" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:56" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="str">
         <f>+VLOOKUP(D21,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0010</v>
@@ -31288,7 +31305,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="22" spans="1:56" ht="80.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:56" ht="80.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="str">
         <f>+VLOOKUP(D22,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0010</v>
@@ -31395,7 +31412,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="23" spans="1:56" ht="131.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:56" ht="131.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="42" t="str">
         <f>+VLOOKUP(D23,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0018</v>
@@ -31539,7 +31556,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="24" spans="1:56" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:56" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="str">
         <f>+VLOOKUP(D24,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0002</v>
@@ -31639,7 +31656,7 @@
       <c r="BC24" s="7"/>
       <c r="BD24" s="7"/>
     </row>
-    <row r="25" spans="1:56" ht="29" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:56" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="str">
         <f>+VLOOKUP(D25,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0002</v>
@@ -31734,7 +31751,7 @@
       <c r="BC25" s="7"/>
       <c r="BD25" s="7"/>
     </row>
-    <row r="26" spans="1:56" ht="29" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:56" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="str">
         <f>+VLOOKUP(D26,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0002</v>
@@ -31831,7 +31848,7 @@
       <c r="BC26" s="7"/>
       <c r="BD26" s="7"/>
     </row>
-    <row r="27" spans="1:56" ht="29" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:56" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="str">
         <f>+VLOOKUP(D27,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0002</v>
@@ -31926,7 +31943,7 @@
       <c r="BC27" s="7"/>
       <c r="BD27" s="7"/>
     </row>
-    <row r="28" spans="1:56" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:56" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="str">
         <f>+VLOOKUP(D28,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0002</v>
@@ -32021,7 +32038,7 @@
       <c r="BC28" s="7"/>
       <c r="BD28" s="7"/>
     </row>
-    <row r="29" spans="1:56" ht="24" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:56" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="str">
         <f>+VLOOKUP(D29,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0002</v>
@@ -32118,7 +32135,7 @@
       <c r="BC29" s="7"/>
       <c r="BD29" s="7"/>
     </row>
-    <row r="30" spans="1:56" ht="29" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:56" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="str">
         <f>+VLOOKUP(D30,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0001</v>
@@ -32213,7 +32230,7 @@
       <c r="BC30" s="7"/>
       <c r="BD30" s="7"/>
     </row>
-    <row r="31" spans="1:56" ht="24" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:56" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="str">
         <f>+VLOOKUP(D31,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0001</v>
@@ -32308,7 +32325,7 @@
       <c r="BC31" s="7"/>
       <c r="BD31" s="7"/>
     </row>
-    <row r="32" spans="1:56" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:56" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="str">
         <f>+VLOOKUP(D32,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0001</v>
@@ -32418,7 +32435,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="33" spans="1:56" ht="29" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:56" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" s="42" t="str">
         <f>+VLOOKUP(D33,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0019</v>
@@ -32513,7 +32530,7 @@
       <c r="BC33" s="7"/>
       <c r="BD33" s="7"/>
     </row>
-    <row r="34" spans="1:56" ht="29" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:56" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" s="42" t="str">
         <f>+VLOOKUP(D34,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0019</v>
@@ -32608,7 +32625,7 @@
       <c r="BC34" s="7"/>
       <c r="BD34" s="7"/>
     </row>
-    <row r="35" spans="1:56" ht="24" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:56" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" s="42" t="str">
         <f>+VLOOKUP(D35,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0004</v>
@@ -32707,7 +32724,7 @@
       <c r="BC35" s="7"/>
       <c r="BD35" s="7"/>
     </row>
-    <row r="36" spans="1:56" ht="87" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:56" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="str">
         <f>+VLOOKUP(D36,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0007</v>
@@ -32839,7 +32856,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="37" spans="1:56" ht="104" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:56" ht="104" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" s="42" t="str">
         <f>+VLOOKUP(D37,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0004</v>
@@ -32969,7 +32986,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="38" spans="1:56" ht="24" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:56" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" s="42" t="str">
         <f>+VLOOKUP(D38,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0021</v>
@@ -33064,7 +33081,7 @@
       <c r="BC38" s="7"/>
       <c r="BD38" s="7"/>
     </row>
-    <row r="39" spans="1:56" ht="77.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:56" ht="77.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="42" t="str">
         <f>+VLOOKUP(D39,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0012</v>
@@ -33335,7 +33352,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="41" spans="1:56" ht="29" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:56" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="str">
         <f>+VLOOKUP(D41,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0003</v>
@@ -33432,7 +33449,7 @@
       <c r="BC41" s="7"/>
       <c r="BD41" s="7"/>
     </row>
-    <row r="42" spans="1:56" ht="24" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:56" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="str">
         <f>+VLOOKUP(D42,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0003</v>
@@ -33535,7 +33552,7 @@
       <c r="BC42" s="7"/>
       <c r="BD42" s="7"/>
     </row>
-    <row r="43" spans="1:56" ht="24" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:56" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" s="42" t="str">
         <f>+VLOOKUP(D43,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0014</v>
@@ -33630,7 +33647,7 @@
       <c r="BC43" s="7"/>
       <c r="BD43" s="7"/>
     </row>
-    <row r="44" spans="1:56" ht="24" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:56" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" s="42" t="str">
         <f>+VLOOKUP(D44,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0014</v>
@@ -33725,7 +33742,7 @@
       <c r="BC44" s="7"/>
       <c r="BD44" s="7"/>
     </row>
-    <row r="45" spans="1:56" ht="84" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:56" ht="84" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" s="42" t="str">
         <f>+VLOOKUP(D45,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0009</v>
@@ -33867,7 +33884,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="46" spans="1:56" ht="29" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:56" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" s="42" t="str">
         <f>+VLOOKUP(D46,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0013</v>
@@ -33962,7 +33979,7 @@
       <c r="BC46" s="7"/>
       <c r="BD46" s="7"/>
     </row>
-    <row r="47" spans="1:56" ht="87" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:56" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="str">
         <f>+VLOOKUP(D47,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0005</v>
@@ -34064,7 +34081,7 @@
       <c r="BC47" s="7"/>
       <c r="BD47" s="7"/>
     </row>
-    <row r="48" spans="1:56" ht="65.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:56" ht="65.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="42" t="str">
         <f>+VLOOKUP(D48,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0009</v>
@@ -34199,7 +34216,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="49" spans="1:56" ht="61.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:56" ht="61.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="42" t="str">
         <f>+VLOOKUP(D49,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0009</v>
@@ -34334,7 +34351,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="50" spans="1:56" ht="78" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:56" ht="78" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" s="42" t="str">
         <f>+VLOOKUP(D50,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0001</v>
@@ -34476,7 +34493,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="51" spans="1:56" ht="78" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:56" ht="78" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" s="42" t="str">
         <f>+VLOOKUP(D51,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0001</v>
@@ -34618,7 +34635,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="52" spans="1:56" ht="24" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:56" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="str">
         <f>+VLOOKUP(D52,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0019</v>
@@ -34713,7 +34730,7 @@
       <c r="BC52" s="7"/>
       <c r="BD52" s="7"/>
     </row>
-    <row r="53" spans="1:56" ht="24" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:56" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="str">
         <f>+VLOOKUP(D53,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0017</v>
@@ -34810,7 +34827,7 @@
       <c r="BC53" s="7"/>
       <c r="BD53" s="7"/>
     </row>
-    <row r="54" spans="1:56" ht="24" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:56" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" s="42" t="str">
         <f>+VLOOKUP(D54,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0012</v>
@@ -34905,7 +34922,7 @@
       <c r="BC54" s="7"/>
       <c r="BD54" s="7"/>
     </row>
-    <row r="55" spans="1:56" ht="24" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:56" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55" s="42" t="str">
         <f>+VLOOKUP(D55,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0022</v>
@@ -35000,7 +35017,7 @@
       <c r="BC55" s="7"/>
       <c r="BD55" s="7"/>
     </row>
-    <row r="56" spans="1:56" ht="24" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:56" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" s="42" t="str">
         <f>+VLOOKUP(D56,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0023</v>
@@ -35095,7 +35112,7 @@
       <c r="BC56" s="7"/>
       <c r="BD56" s="7"/>
     </row>
-    <row r="57" spans="1:56" ht="24" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:56" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" s="42" t="str">
         <f>+VLOOKUP(D57,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0024</v>
@@ -35190,7 +35207,7 @@
       <c r="BC57" s="7"/>
       <c r="BD57" s="7"/>
     </row>
-    <row r="58" spans="1:56" ht="70.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:56" ht="70.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="42" t="str">
         <f>+VLOOKUP(D58,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0009</v>
@@ -35328,7 +35345,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="59" spans="1:56" ht="87" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:56" ht="87" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="42" t="str">
         <f>+VLOOKUP(D59,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0009</v>
@@ -35466,7 +35483,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="60" spans="1:56" ht="73.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:56" ht="73.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="42" t="str">
         <f>+VLOOKUP(D60,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0016</v>
@@ -35596,7 +35613,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="61" spans="1:56" ht="24" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:56" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61" s="42" t="str">
         <f>+VLOOKUP(D61,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0020</v>
@@ -35691,7 +35708,7 @@
       <c r="BC61" s="7"/>
       <c r="BD61" s="7"/>
     </row>
-    <row r="62" spans="1:56" ht="24" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:56" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62" s="42" t="str">
         <f>+VLOOKUP(D62,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0020</v>
@@ -35786,7 +35803,7 @@
       <c r="BC62" s="7"/>
       <c r="BD62" s="7"/>
     </row>
-    <row r="63" spans="1:56" ht="29" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:56" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63" s="42" t="str">
         <f>+VLOOKUP(D63,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0020</v>
@@ -35881,7 +35898,7 @@
       <c r="BC63" s="7"/>
       <c r="BD63" s="7"/>
     </row>
-    <row r="64" spans="1:56" ht="24" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:56" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="str">
         <f>+VLOOKUP(D64,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0020</v>
@@ -35976,7 +35993,7 @@
       <c r="BC64" s="7"/>
       <c r="BD64" s="7"/>
     </row>
-    <row r="65" spans="1:56" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:56" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="str">
         <f>+VLOOKUP(D65,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0006</v>
@@ -36075,7 +36092,7 @@
       <c r="BC65" s="7"/>
       <c r="BD65" s="7"/>
     </row>
-    <row r="66" spans="1:56" ht="60" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:56" ht="60" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="str">
         <f>+VLOOKUP(D66,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0006</v>
@@ -36171,7 +36188,7 @@
       <c r="BC66" s="7"/>
       <c r="BD66" s="7"/>
     </row>
-    <row r="67" spans="1:56" ht="24" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:56" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="str">
         <f>+VLOOKUP(D67,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0003</v>
@@ -36268,7 +36285,7 @@
       <c r="BC67" s="7"/>
       <c r="BD67" s="7"/>
     </row>
-    <row r="68" spans="1:56" ht="85" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:56" ht="85" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="str">
         <f>+VLOOKUP(D68,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0003</v>
@@ -37100,7 +37117,7 @@
       </c>
       <c r="BD74" s="7"/>
     </row>
-    <row r="75" spans="1:56" ht="78" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:56" ht="78" hidden="1" x14ac:dyDescent="0.35">
       <c r="A75" s="42" t="str">
         <f>+VLOOKUP(D75,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0001</v>
@@ -37242,7 +37259,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="76" spans="1:56" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:56" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="42" t="str">
         <f>+VLOOKUP(D76,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0001</v>
@@ -37337,7 +37354,7 @@
       <c r="BC76" s="7"/>
       <c r="BD76" s="7"/>
     </row>
-    <row r="77" spans="1:56" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:56" ht="32.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="42" t="str">
         <f>+VLOOKUP(D77,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0004</v>
@@ -37439,7 +37456,7 @@
       <c r="BC77" s="7"/>
       <c r="BD77" s="7"/>
     </row>
-    <row r="78" spans="1:56" ht="26" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:56" ht="26" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="42" t="str">
         <f>+VLOOKUP(D78,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0003</v>
@@ -37536,7 +37553,7 @@
       <c r="BC78" s="7"/>
       <c r="BD78" s="7"/>
     </row>
-    <row r="79" spans="1:56" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:56" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="42" t="str">
         <f>+VLOOKUP(D79,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0003</v>
@@ -37633,7 +37650,7 @@
       <c r="BC79" s="7"/>
       <c r="BD79" s="7"/>
     </row>
-    <row r="80" spans="1:56" ht="24" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:56" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="A80" s="42" t="str">
         <f>+VLOOKUP(D80,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0004</v>
@@ -37732,7 +37749,7 @@
       <c r="BC80" s="7"/>
       <c r="BD80" s="7"/>
     </row>
-    <row r="81" spans="1:56" ht="24" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:56" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="A81" s="42" t="str">
         <f>+VLOOKUP(D81,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0004</v>
@@ -37829,7 +37846,7 @@
       <c r="BC81" s="7"/>
       <c r="BD81" s="7"/>
     </row>
-    <row r="82" spans="1:56" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:56" ht="29.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="42" t="str">
         <f>+VLOOKUP(D82,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0004</v>
@@ -37926,7 +37943,7 @@
       <c r="BC82" s="7"/>
       <c r="BD82" s="7"/>
     </row>
-    <row r="83" spans="1:56" ht="24" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:56" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="A83" s="42" t="str">
         <f>+VLOOKUP(D83,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0004</v>
@@ -38025,7 +38042,7 @@
       <c r="BC83" s="7"/>
       <c r="BD83" s="7"/>
     </row>
-    <row r="84" spans="1:56" ht="24" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:56" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="A84" s="42" t="str">
         <f>+VLOOKUP(D84,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0004</v>
@@ -38122,7 +38139,7 @@
       <c r="BC84" s="7"/>
       <c r="BD84" s="7"/>
     </row>
-    <row r="85" spans="1:56" ht="24" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:56" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="A85" s="42" t="str">
         <f>+VLOOKUP(D85,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0004</v>
@@ -38221,7 +38238,7 @@
       <c r="BC85" s="7"/>
       <c r="BD85" s="7"/>
     </row>
-    <row r="86" spans="1:56" ht="24" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:56" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="A86" s="42" t="str">
         <f>+VLOOKUP(D86,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0004</v>
@@ -38320,7 +38337,7 @@
       <c r="BC86" s="7"/>
       <c r="BD86" s="7"/>
     </row>
-    <row r="87" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:56" hidden="1" x14ac:dyDescent="0.35">
       <c r="A87" s="42" t="str">
         <f>+VLOOKUP(D87,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0001</v>
@@ -38392,7 +38409,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="88" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:56" hidden="1" x14ac:dyDescent="0.35">
       <c r="A88" s="42" t="str">
         <f>+VLOOKUP(D88,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0001</v>
@@ -38461,7 +38478,7 @@
         <v>POWER BI</v>
       </c>
     </row>
-    <row r="89" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:56" hidden="1" x14ac:dyDescent="0.35">
       <c r="A89" s="42" t="str">
         <f>+VLOOKUP(D89,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0001</v>
@@ -38530,7 +38547,7 @@
         <v>POWER BI</v>
       </c>
     </row>
-    <row r="90" spans="1:56" ht="78" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:56" ht="78" hidden="1" x14ac:dyDescent="0.35">
       <c r="A90" s="42" t="str">
         <f>+VLOOKUP(D90,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0001</v>
@@ -38671,7 +38688,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="91" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:56" hidden="1" x14ac:dyDescent="0.35">
       <c r="A91" s="42" t="str">
         <f>+VLOOKUP(D91,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0017</v>
@@ -38738,7 +38755,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="92" spans="1:56" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:56" ht="48.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="42" t="str">
         <f>+VLOOKUP(D92,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0018</v>
@@ -38803,7 +38820,7 @@
         <v>POWER BI</v>
       </c>
     </row>
-    <row r="93" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:56" hidden="1" x14ac:dyDescent="0.35">
       <c r="A93" s="42" t="str">
         <f>+VLOOKUP(D93,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0019</v>
@@ -38868,7 +38885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:56" hidden="1" x14ac:dyDescent="0.35">
       <c r="A94" s="42" t="str">
         <f>+VLOOKUP(D94,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0019</v>
@@ -38933,7 +38950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:56" hidden="1" x14ac:dyDescent="0.35">
       <c r="A95" s="42" t="str">
         <f>+VLOOKUP(D95,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0001</v>
@@ -38999,7 +39016,7 @@
         <v>ARCGISONLINE</v>
       </c>
     </row>
-    <row r="96" spans="1:56" ht="87" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:56" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A96" s="42" t="str">
         <f>+VLOOKUP(D96,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0026</v>
@@ -39061,7 +39078,7 @@
         <v>ARCGISONLINE</v>
       </c>
     </row>
-    <row r="97" spans="1:48" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:48" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A97" s="42" t="str">
         <f>+VLOOKUP(D97,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0026</v>
@@ -39123,7 +39140,7 @@
         <v>ARCGISONLINE</v>
       </c>
     </row>
-    <row r="98" spans="1:48" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:48" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A98" s="42" t="str">
         <f>+VLOOKUP(D98,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0026</v>
@@ -39185,7 +39202,7 @@
         <v>ARCGISONLINE</v>
       </c>
     </row>
-    <row r="99" spans="1:48" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:48" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A99" s="42" t="str">
         <f>+VLOOKUP(D99,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0026</v>
@@ -39247,7 +39264,7 @@
         <v>ARCGISONLINE</v>
       </c>
     </row>
-    <row r="100" spans="1:48" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:48" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A100" s="42" t="str">
         <f>+VLOOKUP(D100,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0026</v>
@@ -48637,7 +48654,7 @@
   </sheetPr>
   <dimension ref="B7:I221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A52" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="H68" sqref="H68"/>
     </sheetView>
   </sheetViews>

--- a/Monitoreo DI.xlsx
+++ b/Monitoreo DI.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karen\Dropbox\DI Monitoreo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\DI Monitoreo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D5ADA8D-2959-413A-9291-DB074F119E30}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF323AB0-7055-45EE-9DF8-6FFEF832857E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" tabRatio="833" activeTab="2" xr2:uid="{F0BF9B96-FFF4-4E12-841F-9553B6E1990E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="833" activeTab="10" xr2:uid="{F0BF9B96-FFF4-4E12-841F-9553B6E1990E}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA`S" sheetId="1" r:id="rId1"/>
@@ -112,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6027" uniqueCount="1501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6027" uniqueCount="1502">
   <si>
     <t>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/DATASALUD.svg</t>
   </si>
@@ -5474,6 +5474,9 @@
   </si>
   <si>
     <t>"Team Honduras" descraga y sistematización información INE</t>
+  </si>
+  <si>
+    <t>CENSO</t>
   </si>
 </sst>
 </file>
@@ -11479,16 +11482,16 @@
   <slicer name="Data 1" xr10:uid="{EEF9598E-1665-4372-B7AD-B1274F21649F}" cache="SegmentaciónDeDatos_Data1" caption="Data" startItem="16" columnCount="4" rowHeight="234950"/>
   <slicer name="Estado 1" xr10:uid="{8BC2767C-04C2-47E9-BF8B-55B617D8E9C9}" cache="SegmentaciónDeDatos_Estado1" caption="Estado" columnCount="2" rowHeight="234950"/>
   <slicer name="Desarrollo" xr10:uid="{4E2E4E6C-C6C4-4246-A4DF-62598DD7B619}" cache="SegmentaciónDeDatos_Desarrollo" caption="Desarrollo" columnCount="2" rowHeight="234950"/>
-  <slicer name="Investigación" xr10:uid="{0A144297-93C4-4FD5-89D9-2B54EA895D1E}" cache="SegmentaciónDeDatos_Investigación" caption="Investigación" startItem="8" columnCount="2" rowHeight="234950"/>
+  <slicer name="Investigación" xr10:uid="{0A144297-93C4-4FD5-89D9-2B54EA895D1E}" cache="SegmentaciónDeDatos_Investigación" caption="Investigación" columnCount="2" rowHeight="234950"/>
 </slicers>
 </file>
 
 <file path=xl/slicers/slicer2.xml><?xml version="1.0" encoding="utf-8"?>
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
-  <slicer name="Data" xr10:uid="{DC5B16C7-0AA8-4789-BE46-CC500A0CE2D1}" cache="SegmentaciónDeDatos_Data" caption="Data" columnCount="2" rowHeight="234950"/>
+  <slicer name="Data" xr10:uid="{DC5B16C7-0AA8-4789-BE46-CC500A0CE2D1}" cache="SegmentaciónDeDatos_Data" caption="Data" startItem="10" columnCount="2" rowHeight="234950"/>
   <slicer name="Estado" xr10:uid="{B5CDA16E-1F84-4290-AEF3-96C65DB4DD5A}" cache="SegmentaciónDeDatos_Estado" caption="Estado" columnCount="2" rowHeight="234950"/>
   <slicer name="Responsable Desarrollo" xr10:uid="{5F85B909-3D60-4494-A859-CB65DDAD43F0}" cache="SegmentaciónDeDatos_Responsable_Desarrollo" caption="Responsable Desarrollo" startItem="3" columnCount="3" rowHeight="234950"/>
-  <slicer name="Responsable Información" xr10:uid="{1509BA93-0D1C-489B-BEEE-3640ADE75D86}" cache="SegmentaciónDeDatos_Responsable_Información" caption="Responsable Información" startItem="12" columnCount="4" rowHeight="234950"/>
+  <slicer name="Responsable Información" xr10:uid="{1509BA93-0D1C-489B-BEEE-3640ADE75D86}" cache="SegmentaciónDeDatos_Responsable_Información" caption="Responsable Información" columnCount="4" rowHeight="234950"/>
 </slicers>
 </file>
 
@@ -11593,11 +11596,6 @@
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B0304927-521B-4559-963B-3C591C746F11}" name="PRODUCTOS" displayName="PRODUCTOS" ref="A7:BD100" totalsRowShown="0" headerRowDxfId="167">
   <autoFilter ref="A7:BD100" xr:uid="{B45D9B6D-7E6E-4374-A7A8-688EAA2C002B}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="DATAAGRO"/>
-      </filters>
-    </filterColumn>
     <filterColumn colId="6">
       <filters>
         <filter val="AGROSTAT - Estadísticas ambientales"/>
@@ -11607,6 +11605,11 @@
         <filter val="AGROSTAT - Estadísticas Productivas Agrícolas"/>
         <filter val="AGROSTAT - Estadisticas Productivas Forestales"/>
         <filter val="AGROSTAT - Estadísticas Productivas Pecuarias"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="11">
+      <filters>
+        <filter val="Astrid"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -12171,7 +12174,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{167569FB-0D63-486E-90FA-C6B113AE5A31}">
   <dimension ref="B5:K33"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
@@ -14574,8 +14577,8 @@
   </sheetPr>
   <dimension ref="B8:L88"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A76" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E88" sqref="E88"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A46" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H51" sqref="H51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15599,7 +15602,7 @@
         <v>530</v>
       </c>
       <c r="I39" s="19" t="s">
-        <v>690</v>
+        <v>1501</v>
       </c>
       <c r="J39" s="19" t="s">
         <v>741</v>
@@ -29399,12 +29402,12 @@
   </sheetPr>
   <dimension ref="A7:BD100"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="7" ySplit="7" topLeftCell="AF8" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="7" ySplit="7" topLeftCell="H8" activePane="bottomRight" state="frozen"/>
       <selection activeCell="J19" sqref="J19"/>
       <selection pane="topRight" activeCell="J19" sqref="J19"/>
       <selection pane="bottomLeft" activeCell="J19" sqref="J19"/>
-      <selection pane="bottomRight" activeCell="G28" sqref="G28"/>
+      <selection pane="bottomRight" activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -33231,7 +33234,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="40" spans="1:56" ht="48" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:56" ht="48" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="str">
         <f>+VLOOKUP(D40,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0003</v>
@@ -36401,7 +36404,7 @@
         <v>1334</v>
       </c>
     </row>
-    <row r="69" spans="1:56" ht="72" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:56" ht="72" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69" s="42" t="str">
         <f>+VLOOKUP(D69,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0003</v>
@@ -36522,7 +36525,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="70" spans="1:56" ht="48" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:56" ht="48" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70" s="42" t="str">
         <f>+VLOOKUP(D70,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0003</v>
@@ -36641,7 +36644,7 @@
       </c>
       <c r="BD70" s="7"/>
     </row>
-    <row r="71" spans="1:56" ht="48" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:56" ht="48" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71" s="42" t="str">
         <f>+VLOOKUP(D71,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0003</v>
@@ -36760,7 +36763,7 @@
       </c>
       <c r="BD71" s="7"/>
     </row>
-    <row r="72" spans="1:56" ht="60" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:56" ht="60" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72" s="42" t="str">
         <f>+VLOOKUP(D72,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0003</v>
@@ -36879,7 +36882,7 @@
       </c>
       <c r="BD72" s="7"/>
     </row>
-    <row r="73" spans="1:56" ht="60" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:56" ht="60" hidden="1" x14ac:dyDescent="0.35">
       <c r="A73" s="42" t="str">
         <f>+VLOOKUP(D73,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0003</v>
@@ -36998,7 +37001,7 @@
       </c>
       <c r="BD73" s="7"/>
     </row>
-    <row r="74" spans="1:56" ht="60" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:56" ht="60" hidden="1" x14ac:dyDescent="0.35">
       <c r="A74" s="42" t="str">
         <f>+VLOOKUP(D74,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0003</v>
@@ -39408,8 +39411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{193BC1C9-A7B2-4609-9A72-8F077292DA6C}">
   <dimension ref="B3:H445"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="A100" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D123" sqref="D123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Monitoreo DI.xlsx
+++ b/Monitoreo DI.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\DI Monitoreo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karen\Dropbox\DI Monitoreo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF323AB0-7055-45EE-9DF8-6FFEF832857E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AFAB537-7790-42BB-9B57-89FE8195E927}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="833" activeTab="10" xr2:uid="{F0BF9B96-FFF4-4E12-841F-9553B6E1990E}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="833" activeTab="2" xr2:uid="{F0BF9B96-FFF4-4E12-841F-9553B6E1990E}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA`S" sheetId="1" r:id="rId1"/>
@@ -112,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6027" uniqueCount="1502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5991" uniqueCount="1487">
   <si>
     <t>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/DATASALUD.svg</t>
   </si>
@@ -5350,58 +5350,7 @@
     <t>DATAIMPACTO</t>
   </si>
   <si>
-    <t>Impactos de ETA</t>
-  </si>
-  <si>
-    <t>Tormentas Activas</t>
-  </si>
-  <si>
-    <t>IOTA-Escenario 1</t>
-  </si>
-  <si>
-    <t>IOTA-Escenario 2</t>
-  </si>
-  <si>
-    <t>Trayectorias</t>
-  </si>
-  <si>
     <t>00089</t>
-  </si>
-  <si>
-    <t>00090</t>
-  </si>
-  <si>
-    <t>00091</t>
-  </si>
-  <si>
-    <t>00092</t>
-  </si>
-  <si>
-    <t>00093</t>
-  </si>
-  <si>
-    <t>Impactos de Eta</t>
-  </si>
-  <si>
-    <t>Iota - Escenario 1</t>
-  </si>
-  <si>
-    <t>Iota - Escenario 2</t>
-  </si>
-  <si>
-    <t>https://app.powerbi.com/view?r=eyJrIjoiYjgzMDc4YWQtMGI0ZC00MTFmLWJlZTgtNTFiOTM0MGViM2FlIiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9</t>
-  </si>
-  <si>
-    <t>https://sud-austral.maps.arcgis.com/apps/View/index.html?appid=83717bd9a9fe4f8b8eec1213d73efcfc&amp;extent=-97.1832,4.6514,-65.5426,21.0419</t>
-  </si>
-  <si>
-    <t>https://sud-austral.maps.arcgis.com/apps/View/index.html?appid=7a9dbf0dfdaf44cb8062b3c99e56dd17&amp;extent=-98.5840,6.5757,-66.9434,22.8355</t>
-  </si>
-  <si>
-    <t>https://sud-austral.maps.arcgis.com/apps/View/index.html?appid=c18471c50597435f9d8d56ce1406677e&amp;extent=-98.5840,6.5757,-66.9434,22.8355</t>
-  </si>
-  <si>
-    <t>https://sud-austral.maps.arcgis.com/apps/View/index.html?appid=8968a78812d644858916532e46c7dec3&amp;extent=-98.9355,6.4229,-67.2949,22.6936</t>
   </si>
   <si>
     <t>https://sud-austral.maps.arcgis.com/apps/MapSeries/index.html?appid=954d3f78abca4e68a74424d7ca86bdc2</t>
@@ -5477,6 +5426,12 @@
   </si>
   <si>
     <t>CENSO</t>
+  </si>
+  <si>
+    <t>Huracanes</t>
+  </si>
+  <si>
+    <t>https://serviciodashboard.azurewebsites.net/pagina/dashboardDataimpactofree</t>
   </si>
 </sst>
 </file>
@@ -5905,7 +5860,7 @@
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="179">
+  <cellXfs count="178">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -6395,9 +6350,6 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -11594,25 +11546,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B0304927-521B-4559-963B-3C591C746F11}" name="PRODUCTOS" displayName="PRODUCTOS" ref="A7:BD100" totalsRowShown="0" headerRowDxfId="167">
-  <autoFilter ref="A7:BD100" xr:uid="{B45D9B6D-7E6E-4374-A7A8-688EAA2C002B}">
-    <filterColumn colId="6">
-      <filters>
-        <filter val="AGROSTAT - Estadísticas ambientales"/>
-        <filter val="AGROSTAT - Estadísticas Económicas Agrícolas"/>
-        <filter val="AGROSTAT - Estadísticas Económicas Forestales"/>
-        <filter val="AGROSTAT - Estadísticas Económicas Pecuarias"/>
-        <filter val="AGROSTAT - Estadísticas Productivas Agrícolas"/>
-        <filter val="AGROSTAT - Estadisticas Productivas Forestales"/>
-        <filter val="AGROSTAT - Estadísticas Productivas Pecuarias"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="11">
-      <filters>
-        <filter val="Astrid"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B0304927-521B-4559-963B-3C591C746F11}" name="PRODUCTOS" displayName="PRODUCTOS" ref="A7:BD96" totalsRowShown="0" headerRowDxfId="167">
+  <autoFilter ref="A7:BD96" xr:uid="{B45D9B6D-7E6E-4374-A7A8-688EAA2C002B}"/>
   <tableColumns count="56">
     <tableColumn id="1" xr3:uid="{01CFB9DB-FBAD-4A9E-9D8F-5FB3EB42A9EB}" name="id_data" dataDxfId="166" totalsRowDxfId="165">
       <calculatedColumnFormula>+VLOOKUP(D8,'DATA`S'!$B$8:$C$33,2,0)</calculatedColumnFormula>
@@ -14577,7 +14512,7 @@
   </sheetPr>
   <dimension ref="B8:L88"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A46" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A49" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="H51" sqref="H51"/>
     </sheetView>
   </sheetViews>
@@ -15602,7 +15537,7 @@
         <v>530</v>
       </c>
       <c r="I39" s="19" t="s">
-        <v>1501</v>
+        <v>1484</v>
       </c>
       <c r="J39" s="19" t="s">
         <v>741</v>
@@ -25297,7 +25232,7 @@
     <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="11" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I8" sqref="I8"/>
-      <selection pane="bottomLeft" activeCell="G116" sqref="G116"/>
+      <selection pane="bottomLeft" activeCell="E118" sqref="E118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -29149,7 +29084,7 @@
         <v>1470</v>
       </c>
       <c r="C113" s="24" t="s">
-        <v>1471</v>
+        <v>1485</v>
       </c>
       <c r="D113" s="23"/>
       <c r="E113" s="23" t="s">
@@ -29174,123 +29109,71 @@
       <c r="O113" s="40"/>
       <c r="P113" s="40"/>
     </row>
-    <row r="114" spans="2:16" ht="29" x14ac:dyDescent="0.35">
-      <c r="B114" s="27" t="s">
-        <v>1470</v>
-      </c>
-      <c r="C114" s="24" t="s">
-        <v>1472</v>
-      </c>
+    <row r="114" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B114" s="27"/>
+      <c r="C114" s="24"/>
       <c r="D114" s="23"/>
-      <c r="E114" s="23" t="s">
-        <v>1232</v>
-      </c>
+      <c r="E114" s="23"/>
       <c r="F114" s="23"/>
-      <c r="G114" s="23" t="str">
-        <f>PRODUCTOS!F97</f>
-        <v>0026-00-00090</v>
-      </c>
+      <c r="G114" s="23"/>
       <c r="H114" s="23"/>
       <c r="I114" s="29"/>
-      <c r="J114" s="25">
-        <v>0.8</v>
-      </c>
+      <c r="J114" s="25"/>
       <c r="K114" s="24"/>
       <c r="L114" s="24"/>
       <c r="M114" s="24"/>
-      <c r="N114" s="26" t="s">
-        <v>768</v>
-      </c>
+      <c r="N114" s="26"/>
       <c r="O114" s="40"/>
       <c r="P114" s="40"/>
     </row>
-    <row r="115" spans="2:16" ht="29" x14ac:dyDescent="0.35">
-      <c r="B115" s="27" t="s">
-        <v>1470</v>
-      </c>
-      <c r="C115" s="24" t="s">
-        <v>1473</v>
-      </c>
+    <row r="115" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B115" s="27"/>
+      <c r="C115" s="24"/>
       <c r="D115" s="23"/>
-      <c r="E115" s="23" t="s">
-        <v>1232</v>
-      </c>
+      <c r="E115" s="23"/>
       <c r="F115" s="23"/>
-      <c r="G115" s="23" t="str">
-        <f>PRODUCTOS!F98</f>
-        <v>0026-00-00091</v>
-      </c>
+      <c r="G115" s="23"/>
       <c r="H115" s="23"/>
       <c r="I115" s="29"/>
-      <c r="J115" s="25">
-        <v>0.8</v>
-      </c>
+      <c r="J115" s="25"/>
       <c r="K115" s="24"/>
       <c r="L115" s="24"/>
       <c r="M115" s="24"/>
-      <c r="N115" s="26" t="s">
-        <v>768</v>
-      </c>
+      <c r="N115" s="26"/>
       <c r="O115" s="40"/>
       <c r="P115" s="40"/>
     </row>
-    <row r="116" spans="2:16" ht="29" x14ac:dyDescent="0.35">
-      <c r="B116" s="27" t="s">
-        <v>1470</v>
-      </c>
-      <c r="C116" s="24" t="s">
-        <v>1474</v>
-      </c>
+    <row r="116" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B116" s="27"/>
+      <c r="C116" s="24"/>
       <c r="D116" s="23"/>
-      <c r="E116" s="23" t="s">
-        <v>1232</v>
-      </c>
+      <c r="E116" s="23"/>
       <c r="F116" s="23"/>
-      <c r="G116" s="23" t="str">
-        <f>PRODUCTOS!F99</f>
-        <v>0026-00-00092</v>
-      </c>
+      <c r="G116" s="23"/>
       <c r="H116" s="23"/>
       <c r="I116" s="29"/>
-      <c r="J116" s="25">
-        <v>0.8</v>
-      </c>
+      <c r="J116" s="25"/>
       <c r="K116" s="24"/>
       <c r="L116" s="24"/>
       <c r="M116" s="24"/>
-      <c r="N116" s="26" t="s">
-        <v>768</v>
-      </c>
+      <c r="N116" s="26"/>
       <c r="O116" s="40"/>
       <c r="P116" s="40"/>
     </row>
-    <row r="117" spans="2:16" ht="29" x14ac:dyDescent="0.35">
-      <c r="B117" s="27" t="s">
-        <v>1470</v>
-      </c>
-      <c r="C117" s="24" t="s">
-        <v>1475</v>
-      </c>
+    <row r="117" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B117" s="27"/>
+      <c r="C117" s="24"/>
       <c r="D117" s="23"/>
-      <c r="E117" s="23" t="s">
-        <v>1232</v>
-      </c>
+      <c r="E117" s="23"/>
       <c r="F117" s="23"/>
-      <c r="G117" s="23" t="str">
-        <f>PRODUCTOS!F100</f>
-        <v>0026-00-00093</v>
-      </c>
+      <c r="G117" s="23"/>
       <c r="H117" s="23"/>
       <c r="I117" s="29"/>
-      <c r="J117" s="25">
-        <v>0.8</v>
-      </c>
+      <c r="J117" s="25"/>
       <c r="K117" s="24"/>
       <c r="L117" s="24"/>
       <c r="M117" s="24"/>
-      <c r="N117" s="26" t="s">
-        <v>768</v>
-      </c>
+      <c r="N117" s="26"/>
       <c r="O117" s="40"/>
       <c r="P117" s="40"/>
     </row>
@@ -29400,14 +29283,14 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A7:BD100"/>
+  <dimension ref="A7:BD96"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="7" ySplit="7" topLeftCell="H8" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="7" ySplit="7" topLeftCell="H35" activePane="bottomRight" state="frozen"/>
       <selection activeCell="J19" sqref="J19"/>
       <selection pane="topRight" activeCell="J19" sqref="J19"/>
       <selection pane="bottomLeft" activeCell="J19" sqref="J19"/>
-      <selection pane="bottomRight" activeCell="K4" sqref="K4"/>
+      <selection pane="bottomRight" activeCell="Q39" sqref="Q39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -29620,7 +29503,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="8" spans="1:56" ht="93" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:56" ht="93" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="str">
         <f>+VLOOKUP(D8,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0012</v>
@@ -29772,7 +29655,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="9" spans="1:56" ht="115.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:56" ht="115.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="str">
         <f>+VLOOKUP(D9,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0012</v>
@@ -29885,7 +29768,7 @@
       </c>
       <c r="BD9" s="7"/>
     </row>
-    <row r="10" spans="1:56" ht="78" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:56" ht="78" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="str">
         <f>+VLOOKUP(D10,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0012</v>
@@ -30024,7 +29907,7 @@
         <v>1335</v>
       </c>
     </row>
-    <row r="11" spans="1:56" ht="63" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:56" ht="63" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="str">
         <f>+VLOOKUP(D11,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0012</v>
@@ -30139,7 +30022,7 @@
       </c>
       <c r="BD11" s="7"/>
     </row>
-    <row r="12" spans="1:56" ht="52.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:56" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="str">
         <f>+VLOOKUP(D12,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0012</v>
@@ -30244,7 +30127,7 @@
       <c r="BC12" s="7"/>
       <c r="BD12" s="7"/>
     </row>
-    <row r="13" spans="1:56" ht="63" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:56" ht="63" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="str">
         <f>+VLOOKUP(D13,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0012</v>
@@ -30349,7 +30232,7 @@
       <c r="BC13" s="7"/>
       <c r="BD13" s="7"/>
     </row>
-    <row r="14" spans="1:56" ht="78" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:56" ht="78" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="str">
         <f>+VLOOKUP(D14,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0008</v>
@@ -30477,7 +30360,7 @@
       <c r="BC14" s="7"/>
       <c r="BD14" s="7"/>
     </row>
-    <row r="15" spans="1:56" ht="62.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:56" ht="62.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="str">
         <f>+VLOOKUP(D15,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0022</v>
@@ -30601,7 +30484,7 @@
       <c r="BC15" s="7"/>
       <c r="BD15" s="7"/>
     </row>
-    <row r="16" spans="1:56" ht="55.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:56" ht="55.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="str">
         <f>+VLOOKUP(D16,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0012</v>
@@ -30704,7 +30587,7 @@
       <c r="BC16" s="7"/>
       <c r="BD16" s="7"/>
     </row>
-    <row r="17" spans="1:56" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:56" ht="58" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="str">
         <f>+VLOOKUP(D17,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0004</v>
@@ -30828,7 +30711,7 @@
       </c>
       <c r="BD17" s="133"/>
     </row>
-    <row r="18" spans="1:56" ht="48" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:56" ht="48" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="str">
         <f>+VLOOKUP(D18,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0004</v>
@@ -30943,7 +30826,7 @@
       </c>
       <c r="BD18" s="133"/>
     </row>
-    <row r="19" spans="1:56" ht="87" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:56" ht="87" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="str">
         <f>+VLOOKUP(D19,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0011</v>
@@ -31075,7 +30958,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="20" spans="1:56" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:56" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="str">
         <f>+VLOOKUP(D20,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0010</v>
@@ -31172,7 +31055,7 @@
       <c r="BC20" s="7"/>
       <c r="BD20" s="7"/>
     </row>
-    <row r="21" spans="1:56" ht="87" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:56" ht="87" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="str">
         <f>+VLOOKUP(D21,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0010</v>
@@ -31308,7 +31191,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="22" spans="1:56" ht="80.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:56" ht="80.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="str">
         <f>+VLOOKUP(D22,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0010</v>
@@ -31415,7 +31298,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="23" spans="1:56" ht="131.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:56" ht="131.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="42" t="str">
         <f>+VLOOKUP(D23,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0018</v>
@@ -31559,7 +31442,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="24" spans="1:56" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:56" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="str">
         <f>+VLOOKUP(D24,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0002</v>
@@ -31659,7 +31542,7 @@
       <c r="BC24" s="7"/>
       <c r="BD24" s="7"/>
     </row>
-    <row r="25" spans="1:56" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:56" ht="29" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="str">
         <f>+VLOOKUP(D25,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0002</v>
@@ -31754,7 +31637,7 @@
       <c r="BC25" s="7"/>
       <c r="BD25" s="7"/>
     </row>
-    <row r="26" spans="1:56" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:56" ht="29" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="str">
         <f>+VLOOKUP(D26,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0002</v>
@@ -31851,7 +31734,7 @@
       <c r="BC26" s="7"/>
       <c r="BD26" s="7"/>
     </row>
-    <row r="27" spans="1:56" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:56" ht="29" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="str">
         <f>+VLOOKUP(D27,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0002</v>
@@ -31946,7 +31829,7 @@
       <c r="BC27" s="7"/>
       <c r="BD27" s="7"/>
     </row>
-    <row r="28" spans="1:56" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:56" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="str">
         <f>+VLOOKUP(D28,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0002</v>
@@ -32041,7 +31924,7 @@
       <c r="BC28" s="7"/>
       <c r="BD28" s="7"/>
     </row>
-    <row r="29" spans="1:56" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:56" ht="24" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="str">
         <f>+VLOOKUP(D29,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0002</v>
@@ -32138,7 +32021,7 @@
       <c r="BC29" s="7"/>
       <c r="BD29" s="7"/>
     </row>
-    <row r="30" spans="1:56" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:56" ht="29" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="str">
         <f>+VLOOKUP(D30,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0001</v>
@@ -32233,7 +32116,7 @@
       <c r="BC30" s="7"/>
       <c r="BD30" s="7"/>
     </row>
-    <row r="31" spans="1:56" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:56" ht="24" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="str">
         <f>+VLOOKUP(D31,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0001</v>
@@ -32328,7 +32211,7 @@
       <c r="BC31" s="7"/>
       <c r="BD31" s="7"/>
     </row>
-    <row r="32" spans="1:56" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:56" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="str">
         <f>+VLOOKUP(D32,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0001</v>
@@ -32438,7 +32321,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="33" spans="1:56" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:56" ht="29" x14ac:dyDescent="0.35">
       <c r="A33" s="42" t="str">
         <f>+VLOOKUP(D33,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0019</v>
@@ -32533,7 +32416,7 @@
       <c r="BC33" s="7"/>
       <c r="BD33" s="7"/>
     </row>
-    <row r="34" spans="1:56" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:56" ht="29" x14ac:dyDescent="0.35">
       <c r="A34" s="42" t="str">
         <f>+VLOOKUP(D34,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0019</v>
@@ -32628,7 +32511,7 @@
       <c r="BC34" s="7"/>
       <c r="BD34" s="7"/>
     </row>
-    <row r="35" spans="1:56" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:56" ht="24" x14ac:dyDescent="0.35">
       <c r="A35" s="42" t="str">
         <f>+VLOOKUP(D35,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0004</v>
@@ -32727,7 +32610,7 @@
       <c r="BC35" s="7"/>
       <c r="BD35" s="7"/>
     </row>
-    <row r="36" spans="1:56" ht="87" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:56" ht="87" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="str">
         <f>+VLOOKUP(D36,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0007</v>
@@ -32859,7 +32742,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="37" spans="1:56" ht="104" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:56" ht="104" x14ac:dyDescent="0.35">
       <c r="A37" s="42" t="str">
         <f>+VLOOKUP(D37,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0004</v>
@@ -32989,7 +32872,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="38" spans="1:56" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:56" ht="24" x14ac:dyDescent="0.35">
       <c r="A38" s="42" t="str">
         <f>+VLOOKUP(D38,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0021</v>
@@ -33084,7 +32967,7 @@
       <c r="BC38" s="7"/>
       <c r="BD38" s="7"/>
     </row>
-    <row r="39" spans="1:56" ht="77.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:56" ht="77.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="42" t="str">
         <f>+VLOOKUP(D39,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0012</v>
@@ -33234,7 +33117,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="40" spans="1:56" ht="48" hidden="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:56" ht="48" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="str">
         <f>+VLOOKUP(D40,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0003</v>
@@ -33355,7 +33238,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="41" spans="1:56" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:56" ht="29" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="str">
         <f>+VLOOKUP(D41,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0003</v>
@@ -33452,7 +33335,7 @@
       <c r="BC41" s="7"/>
       <c r="BD41" s="7"/>
     </row>
-    <row r="42" spans="1:56" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:56" ht="24" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="str">
         <f>+VLOOKUP(D42,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0003</v>
@@ -33555,7 +33438,7 @@
       <c r="BC42" s="7"/>
       <c r="BD42" s="7"/>
     </row>
-    <row r="43" spans="1:56" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:56" ht="24" x14ac:dyDescent="0.35">
       <c r="A43" s="42" t="str">
         <f>+VLOOKUP(D43,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0014</v>
@@ -33650,7 +33533,7 @@
       <c r="BC43" s="7"/>
       <c r="BD43" s="7"/>
     </row>
-    <row r="44" spans="1:56" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:56" ht="24" x14ac:dyDescent="0.35">
       <c r="A44" s="42" t="str">
         <f>+VLOOKUP(D44,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0014</v>
@@ -33745,7 +33628,7 @@
       <c r="BC44" s="7"/>
       <c r="BD44" s="7"/>
     </row>
-    <row r="45" spans="1:56" ht="84" hidden="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:56" ht="84" x14ac:dyDescent="0.35">
       <c r="A45" s="42" t="str">
         <f>+VLOOKUP(D45,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0009</v>
@@ -33801,7 +33684,7 @@
       <c r="V45" s="3"/>
       <c r="W45" s="7"/>
       <c r="X45" s="91" t="s">
-        <v>1489</v>
+        <v>1472</v>
       </c>
       <c r="AA45" s="7"/>
       <c r="AB45" s="13"/>
@@ -33887,7 +33770,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="46" spans="1:56" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:56" ht="29" x14ac:dyDescent="0.35">
       <c r="A46" s="42" t="str">
         <f>+VLOOKUP(D46,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0013</v>
@@ -33982,7 +33865,7 @@
       <c r="BC46" s="7"/>
       <c r="BD46" s="7"/>
     </row>
-    <row r="47" spans="1:56" ht="87" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:56" ht="87" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="str">
         <f>+VLOOKUP(D47,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0005</v>
@@ -34084,7 +33967,7 @@
       <c r="BC47" s="7"/>
       <c r="BD47" s="7"/>
     </row>
-    <row r="48" spans="1:56" ht="65.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:56" ht="65.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="42" t="str">
         <f>+VLOOKUP(D48,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0009</v>
@@ -34219,7 +34102,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="49" spans="1:56" ht="61.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:56" ht="61.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="42" t="str">
         <f>+VLOOKUP(D49,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0009</v>
@@ -34354,7 +34237,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="50" spans="1:56" ht="78" hidden="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:56" ht="78" x14ac:dyDescent="0.35">
       <c r="A50" s="42" t="str">
         <f>+VLOOKUP(D50,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0001</v>
@@ -34496,7 +34379,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="51" spans="1:56" ht="78" hidden="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:56" ht="78" x14ac:dyDescent="0.35">
       <c r="A51" s="42" t="str">
         <f>+VLOOKUP(D51,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0001</v>
@@ -34638,7 +34521,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="52" spans="1:56" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:56" ht="24" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="str">
         <f>+VLOOKUP(D52,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0019</v>
@@ -34733,7 +34616,7 @@
       <c r="BC52" s="7"/>
       <c r="BD52" s="7"/>
     </row>
-    <row r="53" spans="1:56" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:56" ht="24" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="str">
         <f>+VLOOKUP(D53,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0017</v>
@@ -34830,7 +34713,7 @@
       <c r="BC53" s="7"/>
       <c r="BD53" s="7"/>
     </row>
-    <row r="54" spans="1:56" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:56" ht="24" x14ac:dyDescent="0.35">
       <c r="A54" s="42" t="str">
         <f>+VLOOKUP(D54,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0012</v>
@@ -34925,7 +34808,7 @@
       <c r="BC54" s="7"/>
       <c r="BD54" s="7"/>
     </row>
-    <row r="55" spans="1:56" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:56" ht="24" x14ac:dyDescent="0.35">
       <c r="A55" s="42" t="str">
         <f>+VLOOKUP(D55,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0022</v>
@@ -35020,7 +34903,7 @@
       <c r="BC55" s="7"/>
       <c r="BD55" s="7"/>
     </row>
-    <row r="56" spans="1:56" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:56" ht="24" x14ac:dyDescent="0.35">
       <c r="A56" s="42" t="str">
         <f>+VLOOKUP(D56,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0023</v>
@@ -35115,7 +34998,7 @@
       <c r="BC56" s="7"/>
       <c r="BD56" s="7"/>
     </row>
-    <row r="57" spans="1:56" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:56" ht="24" x14ac:dyDescent="0.35">
       <c r="A57" s="42" t="str">
         <f>+VLOOKUP(D57,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0024</v>
@@ -35210,7 +35093,7 @@
       <c r="BC57" s="7"/>
       <c r="BD57" s="7"/>
     </row>
-    <row r="58" spans="1:56" ht="70.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:56" ht="70.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="42" t="str">
         <f>+VLOOKUP(D58,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0009</v>
@@ -35348,7 +35231,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="59" spans="1:56" ht="87" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:56" ht="87" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="42" t="str">
         <f>+VLOOKUP(D59,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0009</v>
@@ -35486,7 +35369,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="60" spans="1:56" ht="73.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:56" ht="73.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="42" t="str">
         <f>+VLOOKUP(D60,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0016</v>
@@ -35616,7 +35499,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="61" spans="1:56" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:56" ht="24" x14ac:dyDescent="0.35">
       <c r="A61" s="42" t="str">
         <f>+VLOOKUP(D61,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0020</v>
@@ -35711,7 +35594,7 @@
       <c r="BC61" s="7"/>
       <c r="BD61" s="7"/>
     </row>
-    <row r="62" spans="1:56" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:56" ht="24" x14ac:dyDescent="0.35">
       <c r="A62" s="42" t="str">
         <f>+VLOOKUP(D62,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0020</v>
@@ -35806,7 +35689,7 @@
       <c r="BC62" s="7"/>
       <c r="BD62" s="7"/>
     </row>
-    <row r="63" spans="1:56" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:56" ht="29" x14ac:dyDescent="0.35">
       <c r="A63" s="42" t="str">
         <f>+VLOOKUP(D63,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0020</v>
@@ -35901,7 +35784,7 @@
       <c r="BC63" s="7"/>
       <c r="BD63" s="7"/>
     </row>
-    <row r="64" spans="1:56" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:56" ht="24" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="str">
         <f>+VLOOKUP(D64,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0020</v>
@@ -35996,7 +35879,7 @@
       <c r="BC64" s="7"/>
       <c r="BD64" s="7"/>
     </row>
-    <row r="65" spans="1:56" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:56" ht="51" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="str">
         <f>+VLOOKUP(D65,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0006</v>
@@ -36095,7 +35978,7 @@
       <c r="BC65" s="7"/>
       <c r="BD65" s="7"/>
     </row>
-    <row r="66" spans="1:56" ht="60" hidden="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:56" ht="60" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="str">
         <f>+VLOOKUP(D66,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0006</v>
@@ -36191,7 +36074,7 @@
       <c r="BC66" s="7"/>
       <c r="BD66" s="7"/>
     </row>
-    <row r="67" spans="1:56" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:56" ht="24" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="str">
         <f>+VLOOKUP(D67,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0003</v>
@@ -36288,7 +36171,7 @@
       <c r="BC67" s="7"/>
       <c r="BD67" s="7"/>
     </row>
-    <row r="68" spans="1:56" ht="85" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:56" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="str">
         <f>+VLOOKUP(D68,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0003</v>
@@ -36404,7 +36287,7 @@
         <v>1334</v>
       </c>
     </row>
-    <row r="69" spans="1:56" ht="72" hidden="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:56" ht="72" x14ac:dyDescent="0.35">
       <c r="A69" s="42" t="str">
         <f>+VLOOKUP(D69,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0003</v>
@@ -36525,7 +36408,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="70" spans="1:56" ht="48" hidden="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:56" ht="48" x14ac:dyDescent="0.35">
       <c r="A70" s="42" t="str">
         <f>+VLOOKUP(D70,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0003</v>
@@ -36644,7 +36527,7 @@
       </c>
       <c r="BD70" s="7"/>
     </row>
-    <row r="71" spans="1:56" ht="48" hidden="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:56" ht="48" x14ac:dyDescent="0.35">
       <c r="A71" s="42" t="str">
         <f>+VLOOKUP(D71,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0003</v>
@@ -36763,7 +36646,7 @@
       </c>
       <c r="BD71" s="7"/>
     </row>
-    <row r="72" spans="1:56" ht="60" hidden="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:56" ht="60" x14ac:dyDescent="0.35">
       <c r="A72" s="42" t="str">
         <f>+VLOOKUP(D72,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0003</v>
@@ -36882,7 +36765,7 @@
       </c>
       <c r="BD72" s="7"/>
     </row>
-    <row r="73" spans="1:56" ht="60" hidden="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:56" ht="60" x14ac:dyDescent="0.35">
       <c r="A73" s="42" t="str">
         <f>+VLOOKUP(D73,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0003</v>
@@ -37001,7 +36884,7 @@
       </c>
       <c r="BD73" s="7"/>
     </row>
-    <row r="74" spans="1:56" ht="60" hidden="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:56" ht="60" x14ac:dyDescent="0.35">
       <c r="A74" s="42" t="str">
         <f>+VLOOKUP(D74,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0003</v>
@@ -37120,7 +37003,7 @@
       </c>
       <c r="BD74" s="7"/>
     </row>
-    <row r="75" spans="1:56" ht="78" hidden="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:56" ht="78" x14ac:dyDescent="0.35">
       <c r="A75" s="42" t="str">
         <f>+VLOOKUP(D75,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0001</v>
@@ -37262,7 +37145,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="76" spans="1:56" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:56" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="42" t="str">
         <f>+VLOOKUP(D76,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0001</v>
@@ -37357,7 +37240,7 @@
       <c r="BC76" s="7"/>
       <c r="BD76" s="7"/>
     </row>
-    <row r="77" spans="1:56" ht="32.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:56" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="42" t="str">
         <f>+VLOOKUP(D77,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0004</v>
@@ -37459,7 +37342,7 @@
       <c r="BC77" s="7"/>
       <c r="BD77" s="7"/>
     </row>
-    <row r="78" spans="1:56" ht="26" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:56" ht="26" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="42" t="str">
         <f>+VLOOKUP(D78,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0003</v>
@@ -37556,7 +37439,7 @@
       <c r="BC78" s="7"/>
       <c r="BD78" s="7"/>
     </row>
-    <row r="79" spans="1:56" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:56" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="42" t="str">
         <f>+VLOOKUP(D79,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0003</v>
@@ -37653,7 +37536,7 @@
       <c r="BC79" s="7"/>
       <c r="BD79" s="7"/>
     </row>
-    <row r="80" spans="1:56" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:56" ht="24" x14ac:dyDescent="0.35">
       <c r="A80" s="42" t="str">
         <f>+VLOOKUP(D80,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0004</v>
@@ -37752,7 +37635,7 @@
       <c r="BC80" s="7"/>
       <c r="BD80" s="7"/>
     </row>
-    <row r="81" spans="1:56" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:56" ht="24" x14ac:dyDescent="0.35">
       <c r="A81" s="42" t="str">
         <f>+VLOOKUP(D81,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0004</v>
@@ -37849,7 +37732,7 @@
       <c r="BC81" s="7"/>
       <c r="BD81" s="7"/>
     </row>
-    <row r="82" spans="1:56" ht="29.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:56" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="42" t="str">
         <f>+VLOOKUP(D82,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0004</v>
@@ -37946,7 +37829,7 @@
       <c r="BC82" s="7"/>
       <c r="BD82" s="7"/>
     </row>
-    <row r="83" spans="1:56" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:56" ht="24" x14ac:dyDescent="0.35">
       <c r="A83" s="42" t="str">
         <f>+VLOOKUP(D83,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0004</v>
@@ -38045,7 +37928,7 @@
       <c r="BC83" s="7"/>
       <c r="BD83" s="7"/>
     </row>
-    <row r="84" spans="1:56" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:56" ht="24" x14ac:dyDescent="0.35">
       <c r="A84" s="42" t="str">
         <f>+VLOOKUP(D84,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0004</v>
@@ -38142,7 +38025,7 @@
       <c r="BC84" s="7"/>
       <c r="BD84" s="7"/>
     </row>
-    <row r="85" spans="1:56" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:56" ht="24" x14ac:dyDescent="0.35">
       <c r="A85" s="42" t="str">
         <f>+VLOOKUP(D85,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0004</v>
@@ -38241,7 +38124,7 @@
       <c r="BC85" s="7"/>
       <c r="BD85" s="7"/>
     </row>
-    <row r="86" spans="1:56" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:56" ht="24" x14ac:dyDescent="0.35">
       <c r="A86" s="42" t="str">
         <f>+VLOOKUP(D86,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0004</v>
@@ -38340,7 +38223,7 @@
       <c r="BC86" s="7"/>
       <c r="BD86" s="7"/>
     </row>
-    <row r="87" spans="1:56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A87" s="42" t="str">
         <f>+VLOOKUP(D87,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0001</v>
@@ -38412,7 +38295,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="88" spans="1:56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A88" s="42" t="str">
         <f>+VLOOKUP(D88,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0001</v>
@@ -38481,7 +38364,7 @@
         <v>POWER BI</v>
       </c>
     </row>
-    <row r="89" spans="1:56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A89" s="42" t="str">
         <f>+VLOOKUP(D89,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0001</v>
@@ -38550,7 +38433,7 @@
         <v>POWER BI</v>
       </c>
     </row>
-    <row r="90" spans="1:56" ht="78" hidden="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:56" ht="78" x14ac:dyDescent="0.35">
       <c r="A90" s="42" t="str">
         <f>+VLOOKUP(D90,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0001</v>
@@ -38691,7 +38574,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="91" spans="1:56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A91" s="42" t="str">
         <f>+VLOOKUP(D91,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0017</v>
@@ -38710,7 +38593,7 @@
         <v>840</v>
       </c>
       <c r="F91" s="42" t="str">
-        <f t="shared" ref="F91:F100" si="4">A91&amp;"-"&amp;B91&amp;"-"&amp;C91</f>
+        <f t="shared" ref="F91:F96" si="4">A91&amp;"-"&amp;B91&amp;"-"&amp;C91</f>
         <v>0017-04-00084</v>
       </c>
       <c r="G91" s="2" t="s">
@@ -38758,7 +38641,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="92" spans="1:56" ht="48.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:56" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="42" t="str">
         <f>+VLOOKUP(D92,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0018</v>
@@ -38823,7 +38706,7 @@
         <v>POWER BI</v>
       </c>
     </row>
-    <row r="93" spans="1:56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A93" s="42" t="str">
         <f>+VLOOKUP(D93,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0019</v>
@@ -38888,7 +38771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A94" s="42" t="str">
         <f>+VLOOKUP(D94,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0019</v>
@@ -38953,7 +38836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A95" s="42" t="str">
         <f>+VLOOKUP(D95,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0001</v>
@@ -39019,7 +38902,7 @@
         <v>ARCGISONLINE</v>
       </c>
     </row>
-    <row r="96" spans="1:56" ht="87" hidden="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A96" s="42" t="str">
         <f>+VLOOKUP(D96,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0026</v>
@@ -39029,7 +38912,7 @@
         <v>04</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>1476</v>
+        <v>1471</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>1470</v>
@@ -39042,7 +38925,7 @@
         <v>0026-04-00089</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>1481</v>
+        <v>1485</v>
       </c>
       <c r="H96" s="2"/>
       <c r="I96" s="2"/>
@@ -39067,7 +38950,7 @@
       <c r="V96" s="3"/>
       <c r="W96" s="7"/>
       <c r="X96" s="91" t="s">
-        <v>1484</v>
+        <v>1486</v>
       </c>
       <c r="AA96" s="7"/>
       <c r="AB96" s="13"/>
@@ -39081,258 +38964,10 @@
         <v>ARCGISONLINE</v>
       </c>
     </row>
-    <row r="97" spans="1:48" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="42" t="str">
-        <f>+VLOOKUP(D97,'DATA`S'!$B$8:$C$33,2,0)</f>
-        <v>0026</v>
-      </c>
-      <c r="B97" s="42" t="str">
-        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$12,2,0)</f>
-        <v>00</v>
-      </c>
-      <c r="C97" s="9" t="s">
-        <v>1477</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>1470</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>1232</v>
-      </c>
-      <c r="F97" s="42" t="str">
-        <f t="shared" si="4"/>
-        <v>0026-00-00090</v>
-      </c>
-      <c r="G97" s="2" t="s">
-        <v>1472</v>
-      </c>
-      <c r="H97" s="2"/>
-      <c r="I97" s="2"/>
-      <c r="J97" s="177">
-        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$J$117,4,0)</f>
-        <v>0.8</v>
-      </c>
-      <c r="K97" s="2"/>
-      <c r="L97" s="2"/>
-      <c r="M97" s="42" t="str">
-        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$N$117,8,0)</f>
-        <v>ARCGISONLINE</v>
-      </c>
-      <c r="N97" s="2"/>
-      <c r="O97" s="2"/>
-      <c r="P97" s="2"/>
-      <c r="Q97" s="2"/>
-      <c r="R97" s="2"/>
-      <c r="S97" s="2"/>
-      <c r="T97" s="2"/>
-      <c r="U97" s="2"/>
-      <c r="V97" s="3"/>
-      <c r="W97" s="7"/>
-      <c r="X97" s="178" t="s">
-        <v>1485</v>
-      </c>
-      <c r="AA97" s="7"/>
-      <c r="AB97" s="13"/>
-      <c r="AF97" s="123"/>
-      <c r="AU97" s="127" t="str">
-        <f>PRODUCTOS[[#This Row],[Data]]</f>
-        <v>DATAIMPACTO</v>
-      </c>
-      <c r="AV97" s="127" t="str">
-        <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
-        <v>ARCGISONLINE</v>
-      </c>
-    </row>
-    <row r="98" spans="1:48" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A98" s="42" t="str">
-        <f>+VLOOKUP(D98,'DATA`S'!$B$8:$C$33,2,0)</f>
-        <v>0026</v>
-      </c>
-      <c r="B98" s="42" t="str">
-        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$12,2,0)</f>
-        <v>00</v>
-      </c>
-      <c r="C98" s="9" t="s">
-        <v>1478</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>1470</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>1232</v>
-      </c>
-      <c r="F98" s="42" t="str">
-        <f t="shared" si="4"/>
-        <v>0026-00-00091</v>
-      </c>
-      <c r="G98" s="2" t="s">
-        <v>1482</v>
-      </c>
-      <c r="H98" s="2"/>
-      <c r="I98" s="2"/>
-      <c r="J98" s="177">
-        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$J$117,4,0)</f>
-        <v>0.8</v>
-      </c>
-      <c r="K98" s="2"/>
-      <c r="L98" s="2"/>
-      <c r="M98" s="42" t="str">
-        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$N$117,8,0)</f>
-        <v>ARCGISONLINE</v>
-      </c>
-      <c r="N98" s="2"/>
-      <c r="O98" s="2"/>
-      <c r="P98" s="2"/>
-      <c r="Q98" s="2"/>
-      <c r="R98" s="2"/>
-      <c r="S98" s="2"/>
-      <c r="T98" s="2"/>
-      <c r="U98" s="2"/>
-      <c r="V98" s="3"/>
-      <c r="W98" s="7"/>
-      <c r="X98" s="178" t="s">
-        <v>1486</v>
-      </c>
-      <c r="AA98" s="7"/>
-      <c r="AB98" s="13"/>
-      <c r="AF98" s="123"/>
-      <c r="AU98" s="127" t="str">
-        <f>PRODUCTOS[[#This Row],[Data]]</f>
-        <v>DATAIMPACTO</v>
-      </c>
-      <c r="AV98" s="127" t="str">
-        <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
-        <v>ARCGISONLINE</v>
-      </c>
-    </row>
-    <row r="99" spans="1:48" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A99" s="42" t="str">
-        <f>+VLOOKUP(D99,'DATA`S'!$B$8:$C$33,2,0)</f>
-        <v>0026</v>
-      </c>
-      <c r="B99" s="42" t="str">
-        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$12,2,0)</f>
-        <v>00</v>
-      </c>
-      <c r="C99" s="9" t="s">
-        <v>1479</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>1470</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>1232</v>
-      </c>
-      <c r="F99" s="42" t="str">
-        <f t="shared" si="4"/>
-        <v>0026-00-00092</v>
-      </c>
-      <c r="G99" s="2" t="s">
-        <v>1483</v>
-      </c>
-      <c r="H99" s="2"/>
-      <c r="I99" s="2"/>
-      <c r="J99" s="177">
-        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$J$117,4,0)</f>
-        <v>0.8</v>
-      </c>
-      <c r="K99" s="2"/>
-      <c r="L99" s="2"/>
-      <c r="M99" s="42" t="str">
-        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$N$117,8,0)</f>
-        <v>ARCGISONLINE</v>
-      </c>
-      <c r="N99" s="2"/>
-      <c r="O99" s="2"/>
-      <c r="P99" s="2"/>
-      <c r="Q99" s="2"/>
-      <c r="R99" s="2"/>
-      <c r="S99" s="2"/>
-      <c r="T99" s="2"/>
-      <c r="U99" s="2"/>
-      <c r="V99" s="3"/>
-      <c r="W99" s="7"/>
-      <c r="X99" s="178" t="s">
-        <v>1487</v>
-      </c>
-      <c r="AA99" s="7"/>
-      <c r="AB99" s="13"/>
-      <c r="AF99" s="123"/>
-      <c r="AU99" s="127" t="str">
-        <f>PRODUCTOS[[#This Row],[Data]]</f>
-        <v>DATAIMPACTO</v>
-      </c>
-      <c r="AV99" s="127" t="str">
-        <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
-        <v>ARCGISONLINE</v>
-      </c>
-    </row>
-    <row r="100" spans="1:48" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A100" s="42" t="str">
-        <f>+VLOOKUP(D100,'DATA`S'!$B$8:$C$33,2,0)</f>
-        <v>0026</v>
-      </c>
-      <c r="B100" s="42" t="str">
-        <f>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$12,2,0)</f>
-        <v>00</v>
-      </c>
-      <c r="C100" s="9" t="s">
-        <v>1480</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>1470</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>1232</v>
-      </c>
-      <c r="F100" s="42" t="str">
-        <f t="shared" si="4"/>
-        <v>0026-00-00093</v>
-      </c>
-      <c r="G100" s="2" t="s">
-        <v>1475</v>
-      </c>
-      <c r="H100" s="2"/>
-      <c r="I100" s="2"/>
-      <c r="J100" s="177">
-        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$J$117,4,0)</f>
-        <v>0.8</v>
-      </c>
-      <c r="K100" s="2"/>
-      <c r="L100" s="2"/>
-      <c r="M100" s="42" t="str">
-        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$N$117,8,0)</f>
-        <v>ARCGISONLINE</v>
-      </c>
-      <c r="N100" s="2"/>
-      <c r="O100" s="2"/>
-      <c r="P100" s="2"/>
-      <c r="Q100" s="2"/>
-      <c r="R100" s="2"/>
-      <c r="S100" s="2"/>
-      <c r="T100" s="2"/>
-      <c r="U100" s="2"/>
-      <c r="V100" s="3"/>
-      <c r="W100" s="7"/>
-      <c r="X100" s="178" t="s">
-        <v>1488</v>
-      </c>
-      <c r="AA100" s="7"/>
-      <c r="AB100" s="13"/>
-      <c r="AF100" s="123"/>
-      <c r="AU100" s="127" t="str">
-        <f>PRODUCTOS[[#This Row],[Data]]</f>
-        <v>DATAIMPACTO</v>
-      </c>
-      <c r="AV100" s="127" t="str">
-        <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
-        <v>ARCGISONLINE</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="J8:J100">
-    <cfRule type="colorScale" priority="4">
+  <conditionalFormatting sqref="J8:J96">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -39347,25 +38982,20 @@
     <hyperlink ref="Y17" r:id="rId1" xr:uid="{C77996A8-4894-4105-94AE-98881F48FB59}"/>
     <hyperlink ref="X59" r:id="rId2" xr:uid="{C6F80EAB-EF7C-46B7-B8CB-728C0EE7930D}"/>
     <hyperlink ref="X50" r:id="rId3" xr:uid="{FEC2D615-4FF7-4E90-A283-B1C3CDAA7BC4}"/>
-    <hyperlink ref="X96" r:id="rId4" xr:uid="{11D5AC93-E69A-4F47-B1CC-D6BCA331A30D}"/>
-    <hyperlink ref="X97" r:id="rId5" xr:uid="{90F085B1-864B-4B7D-B905-9421A6861F74}"/>
-    <hyperlink ref="X98" r:id="rId6" xr:uid="{F8DAC937-C061-4A80-9439-FA37C1836A4B}"/>
-    <hyperlink ref="X99" r:id="rId7" xr:uid="{7AAC8B05-0DAC-4B89-A048-83CC04242E10}"/>
-    <hyperlink ref="X100" r:id="rId8" xr:uid="{825FAE81-06EF-4B98-B047-BE612C8AF321}"/>
-    <hyperlink ref="X45" r:id="rId9" xr:uid="{79B27EEF-4ABC-40FE-8ED1-B26E1C44BBA2}"/>
-    <hyperlink ref="X15" r:id="rId10" xr:uid="{4FDBB138-AC80-4C46-B244-984D17E40563}"/>
-    <hyperlink ref="X14" r:id="rId11" xr:uid="{5ABB8516-2BF9-4C51-B70C-43B49E7C9A68}"/>
+    <hyperlink ref="X45" r:id="rId4" xr:uid="{79B27EEF-4ABC-40FE-8ED1-B26E1C44BBA2}"/>
+    <hyperlink ref="X15" r:id="rId5" xr:uid="{4FDBB138-AC80-4C46-B244-984D17E40563}"/>
+    <hyperlink ref="X14" r:id="rId6" xr:uid="{5ABB8516-2BF9-4C51-B70C-43B49E7C9A68}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId12"/>
-  <drawing r:id="rId13"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId7"/>
+  <drawing r:id="rId8"/>
   <tableParts count="1">
-    <tablePart r:id="rId14"/>
+    <tablePart r:id="rId9"/>
   </tableParts>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{3A4CF648-6AED-40f4-86FF-DC5316D8AED3}">
       <x14:slicerList xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-        <x14:slicer r:id="rId15"/>
+        <x14:slicer r:id="rId10"/>
       </x14:slicerList>
     </ext>
   </extLst>
@@ -49147,7 +48777,7 @@
         <v>1407</v>
       </c>
       <c r="G34" s="16" t="s">
-        <v>1494</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.35">
@@ -49167,10 +48797,10 @@
         <v>159</v>
       </c>
       <c r="G35" s="16" t="s">
-        <v>1494</v>
+        <v>1477</v>
       </c>
       <c r="H35" s="16" t="s">
-        <v>1495</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.35">
@@ -49190,7 +48820,7 @@
         <v>1423</v>
       </c>
       <c r="G36" s="16" t="s">
-        <v>1494</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.35">
@@ -49308,7 +48938,7 @@
         <v>159</v>
       </c>
       <c r="G42" s="16" t="s">
-        <v>1496</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.35">
@@ -49328,7 +48958,7 @@
         <v>1407</v>
       </c>
       <c r="G43" s="16" t="s">
-        <v>1497</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.35">
@@ -49348,7 +48978,7 @@
         <v>1412</v>
       </c>
       <c r="G44" s="16" t="s">
-        <v>1497</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.35">
@@ -49528,7 +49158,7 @@
         <v>159</v>
       </c>
       <c r="G53" s="14" t="s">
-        <v>1497</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="54" spans="2:9" ht="43.5" x14ac:dyDescent="0.35">
@@ -49548,7 +49178,7 @@
         <v>159</v>
       </c>
       <c r="G54" s="132" t="s">
-        <v>1498</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.35">
@@ -49568,7 +49198,7 @@
         <v>1407</v>
       </c>
       <c r="G55" s="14" t="s">
-        <v>1497</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.35">
@@ -49588,7 +49218,7 @@
         <v>1412</v>
       </c>
       <c r="G56" s="14" t="s">
-        <v>1497</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.35">
@@ -49780,7 +49410,7 @@
         <v>159</v>
       </c>
       <c r="G65" s="16" t="s">
-        <v>1499</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.35">
@@ -49800,7 +49430,7 @@
         <v>1060</v>
       </c>
       <c r="G66" s="16" t="s">
-        <v>1500</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.35">
@@ -49820,7 +49450,7 @@
         <v>1412</v>
       </c>
       <c r="G67" s="16" t="s">
-        <v>1497</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="68" spans="2:8" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -51241,7 +50871,7 @@
         <v>39</v>
       </c>
       <c r="B48" s="48" t="s">
-        <v>1493</v>
+        <v>1476</v>
       </c>
       <c r="M48" s="49"/>
     </row>
@@ -51250,7 +50880,7 @@
         <v>40</v>
       </c>
       <c r="B49" s="48" t="s">
-        <v>1492</v>
+        <v>1475</v>
       </c>
       <c r="L49" s="165" t="s">
         <v>1404</v>
@@ -51283,10 +50913,10 @@
         <v>43</v>
       </c>
       <c r="B52" s="48" t="s">
-        <v>1491</v>
+        <v>1474</v>
       </c>
       <c r="L52" s="165" t="s">
-        <v>1490</v>
+        <v>1473</v>
       </c>
       <c r="M52" s="49"/>
     </row>

--- a/Monitoreo DI.xlsx
+++ b/Monitoreo DI.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karen\Dropbox\DI Monitoreo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\DI Monitoreo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AFAB537-7790-42BB-9B57-89FE8195E927}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9F06BE7-29DC-479A-B2FA-851581313004}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="833" activeTab="2" xr2:uid="{F0BF9B96-FFF4-4E12-841F-9553B6E1990E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="833" activeTab="8" xr2:uid="{F0BF9B96-FFF4-4E12-841F-9553B6E1990E}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA`S" sheetId="1" r:id="rId1"/>
@@ -112,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5991" uniqueCount="1487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5998" uniqueCount="1494">
   <si>
     <t>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/DATASALUD.svg</t>
   </si>
@@ -5433,6 +5433,162 @@
   <si>
     <t>https://serviciodashboard.azurewebsites.net/pagina/dashboardDataimpactofree</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">La violencia y los delitos nos influyen a todos. Aunque nos gustaría que no existieran, todos podemos ser víctimas en algún momento de nuestras vidas. En </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Data Delito</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> encontrarás productos que te permitirán ver la evolución de los delitos en los últimos años, para comprender de mejor manera esta compleja problemática.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>En América Latina los pueblos originarios representan en promedio el</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> X%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> de la población total. A su vez, esta población forma parte de los 455 pueblos originarios que aún existen en la actualidad. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Data Pueblos</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> posee productos que presentan información detallada sobre los pueblos originarios de Latinoamérca. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Las tormentas tropicales y huracanes nos golpean cada vez con más fuerza a causa de los cambios que está experimentando nuestro planeta. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Data Impacto</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> te permitirá monitorear las trayectorias de tormentas y huracanes, presentando información adicional sobre los impactos ambientales y sociales que se generan a consecuencia de su paso por el terrtorio.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">El territorio nos conecta, es el medio donde la sociedad habita y lleva a cabo todas sus actividades. Por esta razón, es fundamental contar con instrumentos que faciliten un desarrollo ordenado y planificado. En </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Data Territorio</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> encontrarás productos que te permitirán acceder a información sobre los principales Instrumentos de Planificación Territorial y su evolución en el tiempo.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">El clima se define por la evolución histórica, durante al menos 3 décadas, de una serie de condiciones de la atmósfera que influyen y caracterizan un determinado lugar, el cual a su vez mediante diferentes factores modifica, acentúa o limita los elementos del clima. En </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Data Clima </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>podrás encontrar productos que presentan información histórica y monitorean en tiempo real variables meteorológicas  tales como temperatura, presión atmosférica, viento, humedad, precipitación y nubosidad.</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.cmfeduca.cl/educa/600/w3-propertyvalue-28774.html?indice=1.2.S&amp;idPublicacion=4000000000000116&amp;idCategoria=10</t>
+  </si>
+  <si>
+    <t>DATA BANCO (carolina)</t>
+  </si>
 </sst>
 </file>
 
@@ -5442,7 +5598,7 @@
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
     <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5567,6 +5723,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF4472C4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -6225,9 +6388,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -6349,6 +6509,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -8911,15 +9074,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>48895</xdr:colOff>
+      <xdr:colOff>45720</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>50165</xdr:rowOff>
+      <xdr:rowOff>46990</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1115876</xdr:colOff>
+      <xdr:colOff>1112701</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>239394</xdr:rowOff>
+      <xdr:rowOff>236219</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
       <mc:Choice Requires="sle15">
@@ -8989,13 +9152,13 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1170486</xdr:colOff>
+      <xdr:colOff>1173661</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>27306</xdr:rowOff>
+      <xdr:rowOff>30481</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>162107</xdr:colOff>
+      <xdr:colOff>158932</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>304801</xdr:rowOff>
     </xdr:to>
@@ -9067,15 +9230,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>216717</xdr:colOff>
+      <xdr:colOff>219892</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>26036</xdr:rowOff>
+      <xdr:rowOff>29211</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>3060065</xdr:colOff>
+      <xdr:colOff>3056890</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>294006</xdr:rowOff>
+      <xdr:rowOff>297181</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
       <mc:Choice Requires="sle15">
@@ -9147,13 +9310,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>3124200</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>27306</xdr:rowOff>
+      <xdr:rowOff>30481</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1628049</xdr:colOff>
+      <xdr:colOff>1631224</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>277496</xdr:rowOff>
+      <xdr:rowOff>274321</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
       <mc:Choice Requires="sle15">
@@ -11440,7 +11603,7 @@
 
 <file path=xl/slicers/slicer2.xml><?xml version="1.0" encoding="utf-8"?>
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
-  <slicer name="Data" xr10:uid="{DC5B16C7-0AA8-4789-BE46-CC500A0CE2D1}" cache="SegmentaciónDeDatos_Data" caption="Data" startItem="10" columnCount="2" rowHeight="234950"/>
+  <slicer name="Data" xr10:uid="{DC5B16C7-0AA8-4789-BE46-CC500A0CE2D1}" cache="SegmentaciónDeDatos_Data" caption="Data" columnCount="2" rowHeight="234950"/>
   <slicer name="Estado" xr10:uid="{B5CDA16E-1F84-4290-AEF3-96C65DB4DD5A}" cache="SegmentaciónDeDatos_Estado" caption="Estado" columnCount="2" rowHeight="234950"/>
   <slicer name="Responsable Desarrollo" xr10:uid="{5F85B909-3D60-4494-A859-CB65DDAD43F0}" cache="SegmentaciónDeDatos_Responsable_Desarrollo" caption="Responsable Desarrollo" startItem="3" columnCount="3" rowHeight="234950"/>
   <slicer name="Responsable Información" xr10:uid="{1509BA93-0D1C-489B-BEEE-3640ADE75D86}" cache="SegmentaciónDeDatos_Responsable_Información" caption="Responsable Información" columnCount="4" rowHeight="234950"/>
@@ -11547,7 +11710,13 @@
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B0304927-521B-4559-963B-3C591C746F11}" name="PRODUCTOS" displayName="PRODUCTOS" ref="A7:BD96" totalsRowShown="0" headerRowDxfId="167">
-  <autoFilter ref="A7:BD96" xr:uid="{B45D9B6D-7E6E-4374-A7A8-688EAA2C002B}"/>
+  <autoFilter ref="A7:BD96" xr:uid="{B45D9B6D-7E6E-4374-A7A8-688EAA2C002B}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="DATACLIMA"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="56">
     <tableColumn id="1" xr3:uid="{01CFB9DB-FBAD-4A9E-9D8F-5FB3EB42A9EB}" name="id_data" dataDxfId="166" totalsRowDxfId="165">
       <calculatedColumnFormula>+VLOOKUP(D8,'DATA`S'!$B$8:$C$33,2,0)</calculatedColumnFormula>
@@ -11672,8 +11841,8 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{F79A991F-1A6F-4232-A4CD-E26026F59FD2}" name="Tabla1" displayName="Tabla1" ref="A9:M52" totalsRowShown="0" headerRowDxfId="103" dataDxfId="102">
-  <autoFilter ref="A9:M52" xr:uid="{2573F5B0-EE83-49B6-AF2E-FA541AB2D0A7}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{F79A991F-1A6F-4232-A4CD-E26026F59FD2}" name="Tabla1" displayName="Tabla1" ref="A9:M53" totalsRowShown="0" headerRowDxfId="103" dataDxfId="102">
+  <autoFilter ref="A9:M53" xr:uid="{2573F5B0-EE83-49B6-AF2E-FA541AB2D0A7}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{01DC2308-9C99-4EEE-82DB-DC6B48F1F8E3}" name="N°" dataDxfId="101"/>
     <tableColumn id="2" xr3:uid="{F3B4997E-B2A4-4EB5-AF03-1C32EC201E29}" name="Tema Investigación " dataDxfId="100"/>
@@ -12109,8 +12278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{167569FB-0D63-486E-90FA-C6B113AE5A31}">
   <dimension ref="B5:K33"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView showGridLines="0" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12439,7 +12608,7 @@
       <c r="F17" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="G17" s="137" t="s">
+      <c r="G17" s="136" t="s">
         <v>1349</v>
       </c>
       <c r="H17" s="134" t="s">
@@ -12455,7 +12624,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="2:11" ht="87" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="B18" s="1" t="s">
         <v>12</v>
       </c>
@@ -12471,7 +12640,9 @@
       <c r="F18" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="G18" s="136"/>
+      <c r="G18" s="177" t="s">
+        <v>1490</v>
+      </c>
       <c r="H18" s="1"/>
       <c r="I18" s="46" t="s">
         <v>172</v>
@@ -12499,7 +12670,7 @@
       <c r="F19" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="G19" s="138" t="s">
+      <c r="G19" s="137" t="s">
         <v>1350</v>
       </c>
       <c r="H19" s="7"/>
@@ -12513,7 +12684,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:11" ht="131.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="1" t="s">
         <v>14</v>
       </c>
@@ -12529,7 +12700,9 @@
       <c r="F20" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="G20" s="1"/>
+      <c r="G20" s="2" t="s">
+        <v>1491</v>
+      </c>
       <c r="H20" s="1"/>
       <c r="I20" s="3" t="s">
         <v>176</v>
@@ -12609,7 +12782,9 @@
       <c r="F23" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="G23" s="136"/>
+      <c r="G23" s="177" t="s">
+        <v>1487</v>
+      </c>
       <c r="H23" s="1"/>
       <c r="I23" s="46" t="s">
         <v>180</v>
@@ -12667,7 +12842,7 @@
       <c r="F25" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="G25" s="137" t="s">
+      <c r="G25" s="136" t="s">
         <v>1359</v>
       </c>
       <c r="H25" s="1"/>
@@ -12681,7 +12856,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="2:11" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:11" ht="87" x14ac:dyDescent="0.35">
       <c r="B26" s="1" t="s">
         <v>837</v>
       </c>
@@ -12696,6 +12871,9 @@
       </c>
       <c r="F26" s="6" t="s">
         <v>125</v>
+      </c>
+      <c r="G26" s="132" t="s">
+        <v>1488</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>176</v>
@@ -12809,7 +12987,7 @@
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:11" ht="87" x14ac:dyDescent="0.35">
       <c r="B33" s="1" t="s">
         <v>1470</v>
       </c>
@@ -12819,7 +12997,9 @@
       <c r="D33" s="39"/>
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
-      <c r="G33" s="1"/>
+      <c r="G33" s="132" t="s">
+        <v>1489</v>
+      </c>
       <c r="H33" s="1"/>
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
@@ -12911,7 +13091,7 @@
       <c r="A13" s="47">
         <v>1</v>
       </c>
-      <c r="B13" s="167" t="s">
+      <c r="B13" s="166" t="s">
         <v>853</v>
       </c>
       <c r="C13" s="53" t="s">
@@ -12933,7 +13113,7 @@
       <c r="A14" s="47">
         <v>1</v>
       </c>
-      <c r="B14" s="167" t="s">
+      <c r="B14" s="166" t="s">
         <v>853</v>
       </c>
       <c r="C14" s="53" t="s">
@@ -12955,7 +13135,7 @@
       <c r="A15" s="47">
         <v>1</v>
       </c>
-      <c r="B15" s="167" t="s">
+      <c r="B15" s="166" t="s">
         <v>853</v>
       </c>
       <c r="C15" s="53" t="s">
@@ -12977,7 +13157,7 @@
       <c r="A16" s="47">
         <v>1</v>
       </c>
-      <c r="B16" s="167" t="s">
+      <c r="B16" s="166" t="s">
         <v>853</v>
       </c>
       <c r="C16" s="53" t="s">
@@ -12999,7 +13179,7 @@
       <c r="A17" s="56">
         <v>1</v>
       </c>
-      <c r="B17" s="167" t="s">
+      <c r="B17" s="166" t="s">
         <v>853</v>
       </c>
       <c r="C17" s="53" t="s">
@@ -13023,7 +13203,7 @@
       <c r="A18" s="56">
         <v>1</v>
       </c>
-      <c r="B18" s="167" t="s">
+      <c r="B18" s="166" t="s">
         <v>853</v>
       </c>
       <c r="C18" s="53" t="s">
@@ -13047,7 +13227,7 @@
       <c r="A19" s="56">
         <v>1</v>
       </c>
-      <c r="B19" s="167" t="s">
+      <c r="B19" s="166" t="s">
         <v>853</v>
       </c>
       <c r="C19" s="53" t="s">
@@ -13069,7 +13249,7 @@
       <c r="A20" s="56">
         <v>1</v>
       </c>
-      <c r="B20" s="167" t="s">
+      <c r="B20" s="166" t="s">
         <v>853</v>
       </c>
       <c r="C20" s="53" t="s">
@@ -13091,7 +13271,7 @@
       <c r="A21" s="56">
         <v>1</v>
       </c>
-      <c r="B21" s="167" t="s">
+      <c r="B21" s="166" t="s">
         <v>853</v>
       </c>
       <c r="C21" s="53" t="s">
@@ -13113,7 +13293,7 @@
       <c r="A22" s="56">
         <v>1</v>
       </c>
-      <c r="B22" s="167" t="s">
+      <c r="B22" s="166" t="s">
         <v>853</v>
       </c>
       <c r="C22" s="53" t="s">
@@ -13135,7 +13315,7 @@
       <c r="A23" s="56">
         <v>1</v>
       </c>
-      <c r="B23" s="167" t="s">
+      <c r="B23" s="166" t="s">
         <v>853</v>
       </c>
       <c r="C23" s="53" t="s">
@@ -13157,7 +13337,7 @@
       <c r="A24" s="56">
         <v>1</v>
       </c>
-      <c r="B24" s="167" t="s">
+      <c r="B24" s="166" t="s">
         <v>853</v>
       </c>
       <c r="C24" s="53" t="s">
@@ -13179,7 +13359,7 @@
       <c r="A25" s="56">
         <v>1</v>
       </c>
-      <c r="B25" s="167" t="s">
+      <c r="B25" s="166" t="s">
         <v>853</v>
       </c>
       <c r="C25" s="53" t="s">
@@ -13201,7 +13381,7 @@
       <c r="A26" s="56">
         <v>1</v>
       </c>
-      <c r="B26" s="167" t="s">
+      <c r="B26" s="166" t="s">
         <v>853</v>
       </c>
       <c r="C26" s="53" t="s">
@@ -13223,7 +13403,7 @@
       <c r="A27" s="56">
         <v>1</v>
       </c>
-      <c r="B27" s="167" t="s">
+      <c r="B27" s="166" t="s">
         <v>853</v>
       </c>
       <c r="C27" s="53" t="s">
@@ -13239,7 +13419,7 @@
       <c r="G27" s="53" t="s">
         <v>1401</v>
       </c>
-      <c r="H27" s="159" t="s">
+      <c r="H27" s="158" t="s">
         <v>1400</v>
       </c>
     </row>
@@ -13247,7 +13427,7 @@
       <c r="A28" s="56">
         <v>1</v>
       </c>
-      <c r="B28" s="167" t="s">
+      <c r="B28" s="166" t="s">
         <v>853</v>
       </c>
       <c r="C28" s="53" t="s">
@@ -13269,7 +13449,7 @@
       <c r="A29" s="47">
         <v>2</v>
       </c>
-      <c r="B29" s="167" t="s">
+      <c r="B29" s="166" t="s">
         <v>986</v>
       </c>
       <c r="C29" s="53" t="s">
@@ -13291,7 +13471,7 @@
       <c r="A30" s="47">
         <v>3</v>
       </c>
-      <c r="B30" s="167" t="s">
+      <c r="B30" s="166" t="s">
         <v>736</v>
       </c>
       <c r="C30" s="53" t="s">
@@ -13315,7 +13495,7 @@
       <c r="A31" s="56">
         <v>4</v>
       </c>
-      <c r="B31" s="167" t="s">
+      <c r="B31" s="166" t="s">
         <v>991</v>
       </c>
       <c r="C31" s="53" t="s">
@@ -13341,7 +13521,7 @@
       <c r="A32" s="56">
         <v>4</v>
       </c>
-      <c r="B32" s="167" t="s">
+      <c r="B32" s="166" t="s">
         <v>991</v>
       </c>
       <c r="C32" s="53" t="s">
@@ -13367,7 +13547,7 @@
       <c r="A33" s="56">
         <v>5</v>
       </c>
-      <c r="B33" s="167" t="s">
+      <c r="B33" s="166" t="s">
         <v>994</v>
       </c>
       <c r="C33" s="53" t="s">
@@ -13394,7 +13574,7 @@
       <c r="A34" s="56">
         <v>5</v>
       </c>
-      <c r="B34" s="167" t="s">
+      <c r="B34" s="166" t="s">
         <v>994</v>
       </c>
       <c r="C34" s="53" t="s">
@@ -13421,7 +13601,7 @@
       <c r="A35" s="56">
         <v>5</v>
       </c>
-      <c r="B35" s="167" t="s">
+      <c r="B35" s="166" t="s">
         <v>994</v>
       </c>
       <c r="C35" s="53" t="s">
@@ -13448,7 +13628,7 @@
       <c r="A36" s="56">
         <v>5</v>
       </c>
-      <c r="B36" s="167" t="s">
+      <c r="B36" s="166" t="s">
         <v>994</v>
       </c>
       <c r="C36" s="53" t="s">
@@ -13471,7 +13651,7 @@
       <c r="A37" s="56">
         <v>5</v>
       </c>
-      <c r="B37" s="167" t="s">
+      <c r="B37" s="166" t="s">
         <v>994</v>
       </c>
       <c r="C37" s="53" t="s">
@@ -13494,7 +13674,7 @@
       <c r="A38" s="56">
         <v>5</v>
       </c>
-      <c r="B38" s="167" t="s">
+      <c r="B38" s="166" t="s">
         <v>994</v>
       </c>
       <c r="C38" s="53" t="s">
@@ -13517,7 +13697,7 @@
       <c r="A39" s="56">
         <v>6</v>
       </c>
-      <c r="B39" s="167" t="s">
+      <c r="B39" s="166" t="s">
         <v>1002</v>
       </c>
       <c r="C39" s="53" t="s">
@@ -13544,7 +13724,7 @@
       <c r="A40" s="56">
         <v>6</v>
       </c>
-      <c r="B40" s="167" t="s">
+      <c r="B40" s="166" t="s">
         <v>1002</v>
       </c>
       <c r="C40" s="53" t="s">
@@ -13571,7 +13751,7 @@
       <c r="A41" s="56">
         <v>6</v>
       </c>
-      <c r="B41" s="167" t="s">
+      <c r="B41" s="166" t="s">
         <v>1002</v>
       </c>
       <c r="C41" s="53" t="s">
@@ -13593,7 +13773,7 @@
       <c r="A42" s="56">
         <v>6</v>
       </c>
-      <c r="B42" s="167" t="s">
+      <c r="B42" s="166" t="s">
         <v>1002</v>
       </c>
       <c r="C42" s="53" t="s">
@@ -13616,7 +13796,7 @@
       <c r="A43" s="56">
         <v>6</v>
       </c>
-      <c r="B43" s="167" t="s">
+      <c r="B43" s="166" t="s">
         <v>1002</v>
       </c>
       <c r="C43" s="53" t="s">
@@ -13638,7 +13818,7 @@
       <c r="A44" s="56">
         <v>6</v>
       </c>
-      <c r="B44" s="167" t="s">
+      <c r="B44" s="166" t="s">
         <v>1002</v>
       </c>
       <c r="C44" s="53" t="s">
@@ -13651,7 +13831,7 @@
         <v>44145</v>
       </c>
       <c r="F44" s="60"/>
-      <c r="G44" s="158" t="s">
+      <c r="G44" s="157" t="s">
         <v>1389</v>
       </c>
       <c r="H44" s="61"/>
@@ -13660,7 +13840,7 @@
       <c r="A45" s="56">
         <v>7</v>
       </c>
-      <c r="B45" s="167" t="s">
+      <c r="B45" s="166" t="s">
         <v>1006</v>
       </c>
       <c r="C45" s="53" t="s">
@@ -13682,7 +13862,7 @@
       <c r="A46" s="56">
         <v>7</v>
       </c>
-      <c r="B46" s="167" t="s">
+      <c r="B46" s="166" t="s">
         <v>1006</v>
       </c>
       <c r="C46" s="53" t="s">
@@ -13706,7 +13886,7 @@
       <c r="A47" s="56">
         <v>7</v>
       </c>
-      <c r="B47" s="167" t="s">
+      <c r="B47" s="166" t="s">
         <v>1006</v>
       </c>
       <c r="C47" s="53" t="s">
@@ -13728,7 +13908,7 @@
       <c r="A48" s="56">
         <v>7</v>
       </c>
-      <c r="B48" s="167" t="s">
+      <c r="B48" s="166" t="s">
         <v>1006</v>
       </c>
       <c r="C48" s="53" t="s">
@@ -13750,7 +13930,7 @@
       <c r="A49" s="56">
         <v>7</v>
       </c>
-      <c r="B49" s="167" t="s">
+      <c r="B49" s="166" t="s">
         <v>1006</v>
       </c>
       <c r="C49" s="53" t="s">
@@ -13772,7 +13952,7 @@
       <c r="A50" s="56">
         <v>7</v>
       </c>
-      <c r="B50" s="167" t="s">
+      <c r="B50" s="166" t="s">
         <v>1006</v>
       </c>
       <c r="C50" s="53" t="s">
@@ -13794,7 +13974,7 @@
       <c r="A51" s="56">
         <v>7</v>
       </c>
-      <c r="B51" s="167" t="s">
+      <c r="B51" s="166" t="s">
         <v>1006</v>
       </c>
       <c r="C51" s="53" t="s">
@@ -13818,7 +13998,7 @@
       <c r="A52" s="47">
         <v>8</v>
       </c>
-      <c r="B52" s="167" t="s">
+      <c r="B52" s="166" t="s">
         <v>1014</v>
       </c>
       <c r="C52" s="53" t="s">
@@ -13842,7 +14022,7 @@
       <c r="A53" s="56">
         <v>9</v>
       </c>
-      <c r="B53" s="167" t="s">
+      <c r="B53" s="166" t="s">
         <v>1017</v>
       </c>
       <c r="C53" s="53" t="s">
@@ -13866,7 +14046,7 @@
       <c r="A54" s="56">
         <v>9</v>
       </c>
-      <c r="B54" s="167" t="s">
+      <c r="B54" s="166" t="s">
         <v>1017</v>
       </c>
       <c r="C54" s="53" t="s">
@@ -13890,7 +14070,7 @@
       <c r="A55" s="56">
         <v>9</v>
       </c>
-      <c r="B55" s="167" t="s">
+      <c r="B55" s="166" t="s">
         <v>1017</v>
       </c>
       <c r="C55" s="53" t="s">
@@ -13910,7 +14090,7 @@
       <c r="A56" s="47">
         <v>10</v>
       </c>
-      <c r="B56" s="167" t="s">
+      <c r="B56" s="166" t="s">
         <v>1019</v>
       </c>
       <c r="C56" s="53" t="s">
@@ -13934,7 +14114,7 @@
       <c r="A57" s="47">
         <v>10</v>
       </c>
-      <c r="B57" s="167" t="s">
+      <c r="B57" s="166" t="s">
         <v>1019</v>
       </c>
       <c r="C57" s="53" t="s">
@@ -13958,7 +14138,7 @@
       <c r="A58" s="47">
         <v>10</v>
       </c>
-      <c r="B58" s="167" t="s">
+      <c r="B58" s="166" t="s">
         <v>1019</v>
       </c>
       <c r="C58" s="53" t="s">
@@ -13982,7 +14162,7 @@
       <c r="A59" s="47">
         <v>10</v>
       </c>
-      <c r="B59" s="167" t="s">
+      <c r="B59" s="166" t="s">
         <v>1019</v>
       </c>
       <c r="C59" s="53" t="s">
@@ -14006,7 +14186,7 @@
       <c r="A60" s="47">
         <v>10</v>
       </c>
-      <c r="B60" s="167" t="s">
+      <c r="B60" s="166" t="s">
         <v>1019</v>
       </c>
       <c r="C60" s="53" t="s">
@@ -14030,7 +14210,7 @@
       <c r="A61" s="47">
         <v>10</v>
       </c>
-      <c r="B61" s="167" t="s">
+      <c r="B61" s="166" t="s">
         <v>1019</v>
       </c>
       <c r="C61" s="53" t="s">
@@ -14052,7 +14232,7 @@
       <c r="A62" s="47">
         <v>11</v>
       </c>
-      <c r="B62" s="167" t="s">
+      <c r="B62" s="166" t="s">
         <v>1019</v>
       </c>
       <c r="C62" s="53" t="s">
@@ -14068,13 +14248,13 @@
       <c r="G62" s="53" t="s">
         <v>1394</v>
       </c>
-      <c r="H62" s="157"/>
+      <c r="H62" s="156"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="47">
         <v>11</v>
       </c>
-      <c r="B63" s="167" t="s">
+      <c r="B63" s="166" t="s">
         <v>1025</v>
       </c>
       <c r="C63" s="53" t="s">
@@ -14096,7 +14276,7 @@
       <c r="A64" s="78">
         <v>11</v>
       </c>
-      <c r="B64" s="167" t="s">
+      <c r="B64" s="166" t="s">
         <v>1025</v>
       </c>
       <c r="C64" s="53" t="s">
@@ -14118,7 +14298,7 @@
       <c r="A65" s="47">
         <v>11</v>
       </c>
-      <c r="B65" s="167" t="s">
+      <c r="B65" s="166" t="s">
         <v>1025</v>
       </c>
       <c r="C65" s="53" t="s">
@@ -14140,7 +14320,7 @@
       <c r="A66" s="78">
         <v>11</v>
       </c>
-      <c r="B66" s="167" t="s">
+      <c r="B66" s="166" t="s">
         <v>1025</v>
       </c>
       <c r="C66" s="53" t="s">
@@ -14164,7 +14344,7 @@
       <c r="A67" s="47">
         <v>11</v>
       </c>
-      <c r="B67" s="167" t="s">
+      <c r="B67" s="166" t="s">
         <v>1025</v>
       </c>
       <c r="C67" s="53" t="s">
@@ -14186,7 +14366,7 @@
       <c r="A68" s="47">
         <v>11</v>
       </c>
-      <c r="B68" s="167" t="s">
+      <c r="B68" s="166" t="s">
         <v>1025</v>
       </c>
       <c r="C68" s="53" t="s">
@@ -14208,7 +14388,7 @@
       <c r="A69" s="78">
         <v>12</v>
       </c>
-      <c r="B69" s="167" t="s">
+      <c r="B69" s="166" t="s">
         <v>1026</v>
       </c>
       <c r="C69" s="53" t="s">
@@ -14232,7 +14412,7 @@
       <c r="A70" s="47">
         <v>13</v>
       </c>
-      <c r="B70" s="167" t="s">
+      <c r="B70" s="166" t="s">
         <v>1028</v>
       </c>
       <c r="C70" s="53" t="s">
@@ -14250,7 +14430,7 @@
       <c r="A71" s="47">
         <v>14</v>
       </c>
-      <c r="B71" s="167" t="s">
+      <c r="B71" s="166" t="s">
         <v>1029</v>
       </c>
       <c r="C71" s="53"/>
@@ -14263,7 +14443,7 @@
       <c r="A72" s="56">
         <v>15</v>
       </c>
-      <c r="B72" s="167" t="s">
+      <c r="B72" s="166" t="s">
         <v>1030</v>
       </c>
       <c r="C72" s="53" t="s">
@@ -14287,7 +14467,7 @@
       <c r="A73" s="47">
         <v>15</v>
       </c>
-      <c r="B73" s="167" t="s">
+      <c r="B73" s="166" t="s">
         <v>1030</v>
       </c>
       <c r="C73" s="53" t="s">
@@ -14309,7 +14489,7 @@
       <c r="A74" s="47">
         <v>15</v>
       </c>
-      <c r="B74" s="167" t="s">
+      <c r="B74" s="166" t="s">
         <v>1030</v>
       </c>
       <c r="C74" s="53" t="s">
@@ -14322,7 +14502,7 @@
         <v>44130</v>
       </c>
       <c r="F74" s="52"/>
-      <c r="G74" s="165" t="s">
+      <c r="G74" s="164" t="s">
         <v>1033</v>
       </c>
       <c r="H74" s="83" t="s">
@@ -14333,7 +14513,7 @@
       <c r="A75" s="47">
         <v>16</v>
       </c>
-      <c r="B75" s="167" t="s">
+      <c r="B75" s="166" t="s">
         <v>1034</v>
       </c>
       <c r="C75" s="53" t="s">
@@ -14355,7 +14535,7 @@
       <c r="A76" s="47">
         <v>16</v>
       </c>
-      <c r="B76" s="167" t="s">
+      <c r="B76" s="166" t="s">
         <v>1034</v>
       </c>
       <c r="C76" s="53" t="s">
@@ -14377,7 +14557,7 @@
       <c r="A77" s="47">
         <v>17</v>
       </c>
-      <c r="B77" s="167" t="s">
+      <c r="B77" s="166" t="s">
         <v>1034</v>
       </c>
       <c r="C77" s="53" t="s">
@@ -14401,7 +14581,7 @@
       <c r="A78" s="47">
         <v>18</v>
       </c>
-      <c r="B78" s="167" t="s">
+      <c r="B78" s="166" t="s">
         <v>1207</v>
       </c>
       <c r="C78" s="53" t="s">
@@ -14423,7 +14603,7 @@
       <c r="A79" s="47">
         <v>18</v>
       </c>
-      <c r="B79" s="167" t="s">
+      <c r="B79" s="166" t="s">
         <v>1207</v>
       </c>
       <c r="C79" s="53" t="s">
@@ -14436,7 +14616,7 @@
         <v>44149</v>
       </c>
       <c r="F79" s="52"/>
-      <c r="G79" s="165" t="s">
+      <c r="G79" s="164" t="s">
         <v>1437</v>
       </c>
       <c r="H79" s="54"/>
@@ -14445,7 +14625,7 @@
       <c r="A80" s="47">
         <v>18</v>
       </c>
-      <c r="B80" s="167" t="s">
+      <c r="B80" s="166" t="s">
         <v>1207</v>
       </c>
       <c r="C80" s="53" t="s">
@@ -29285,12 +29465,12 @@
   </sheetPr>
   <dimension ref="A7:BD96"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="7" ySplit="7" topLeftCell="H35" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="7" ySplit="7" topLeftCell="H8" activePane="bottomRight" state="frozen"/>
       <selection activeCell="J19" sqref="J19"/>
       <selection pane="topRight" activeCell="J19" sqref="J19"/>
       <selection pane="bottomLeft" activeCell="J19" sqref="J19"/>
-      <selection pane="bottomRight" activeCell="Q39" sqref="Q39"/>
+      <selection pane="bottomRight" activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -29503,7 +29683,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="8" spans="1:56" ht="93" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:56" ht="93" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="str">
         <f>+VLOOKUP(D8,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0012</v>
@@ -29655,7 +29835,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="9" spans="1:56" ht="115.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:56" ht="115.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="str">
         <f>+VLOOKUP(D9,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0012</v>
@@ -29768,7 +29948,7 @@
       </c>
       <c r="BD9" s="7"/>
     </row>
-    <row r="10" spans="1:56" ht="78" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:56" ht="78" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="str">
         <f>+VLOOKUP(D10,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0012</v>
@@ -29845,18 +30025,18 @@
       <c r="AE10" s="19" t="s">
         <v>194</v>
       </c>
-      <c r="AF10" s="168"/>
+      <c r="AF10" s="167"/>
       <c r="AG10" s="19" t="s">
         <v>1155</v>
       </c>
-      <c r="AH10" s="169"/>
+      <c r="AH10" s="168"/>
       <c r="AI10" s="19" t="s">
         <v>1156</v>
       </c>
-      <c r="AJ10" s="169"/>
-      <c r="AK10" s="170"/>
-      <c r="AL10" s="170"/>
-      <c r="AM10" s="170"/>
+      <c r="AJ10" s="168"/>
+      <c r="AK10" s="169"/>
+      <c r="AL10" s="169"/>
+      <c r="AM10" s="169"/>
       <c r="AN10" s="7" t="s">
         <v>1240</v>
       </c>
@@ -29907,7 +30087,7 @@
         <v>1335</v>
       </c>
     </row>
-    <row r="11" spans="1:56" ht="63" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:56" ht="63" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="str">
         <f>+VLOOKUP(D11,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0012</v>
@@ -30022,7 +30202,7 @@
       </c>
       <c r="BD11" s="7"/>
     </row>
-    <row r="12" spans="1:56" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:56" ht="52.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="str">
         <f>+VLOOKUP(D12,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0012</v>
@@ -30127,7 +30307,7 @@
       <c r="BC12" s="7"/>
       <c r="BD12" s="7"/>
     </row>
-    <row r="13" spans="1:56" ht="63" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:56" ht="63" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="str">
         <f>+VLOOKUP(D13,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0012</v>
@@ -30232,7 +30412,7 @@
       <c r="BC13" s="7"/>
       <c r="BD13" s="7"/>
     </row>
-    <row r="14" spans="1:56" ht="78" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:56" ht="78" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="str">
         <f>+VLOOKUP(D14,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0008</v>
@@ -30360,7 +30540,7 @@
       <c r="BC14" s="7"/>
       <c r="BD14" s="7"/>
     </row>
-    <row r="15" spans="1:56" ht="62.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:56" ht="62.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="str">
         <f>+VLOOKUP(D15,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0022</v>
@@ -30484,7 +30664,7 @@
       <c r="BC15" s="7"/>
       <c r="BD15" s="7"/>
     </row>
-    <row r="16" spans="1:56" ht="55.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:56" ht="55.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="str">
         <f>+VLOOKUP(D16,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0012</v>
@@ -30587,7 +30767,7 @@
       <c r="BC16" s="7"/>
       <c r="BD16" s="7"/>
     </row>
-    <row r="17" spans="1:56" ht="58" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:56" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="str">
         <f>+VLOOKUP(D17,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0004</v>
@@ -30711,7 +30891,7 @@
       </c>
       <c r="BD17" s="133"/>
     </row>
-    <row r="18" spans="1:56" ht="48" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:56" ht="48" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="str">
         <f>+VLOOKUP(D18,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0004</v>
@@ -30826,7 +31006,7 @@
       </c>
       <c r="BD18" s="133"/>
     </row>
-    <row r="19" spans="1:56" ht="87" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:56" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="str">
         <f>+VLOOKUP(D19,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0011</v>
@@ -30894,18 +31074,18 @@
       <c r="AE19" s="19" t="s">
         <v>194</v>
       </c>
-      <c r="AF19" s="168"/>
+      <c r="AF19" s="167"/>
       <c r="AG19" s="19" t="s">
         <v>1155</v>
       </c>
-      <c r="AH19" s="169"/>
+      <c r="AH19" s="168"/>
       <c r="AI19" s="19" t="s">
         <v>1156</v>
       </c>
-      <c r="AJ19" s="169"/>
-      <c r="AK19" s="170"/>
-      <c r="AL19" s="170"/>
-      <c r="AM19" s="170"/>
+      <c r="AJ19" s="168"/>
+      <c r="AK19" s="169"/>
+      <c r="AL19" s="169"/>
+      <c r="AM19" s="169"/>
       <c r="AN19" s="19" t="s">
         <v>1447</v>
       </c>
@@ -30958,7 +31138,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="20" spans="1:56" ht="29" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:56" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="str">
         <f>+VLOOKUP(D20,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0010</v>
@@ -31055,7 +31235,7 @@
       <c r="BC20" s="7"/>
       <c r="BD20" s="7"/>
     </row>
-    <row r="21" spans="1:56" ht="87" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:56" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="str">
         <f>+VLOOKUP(D21,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0010</v>
@@ -31125,18 +31305,18 @@
       <c r="AE21" s="19" t="s">
         <v>194</v>
       </c>
-      <c r="AF21" s="168"/>
+      <c r="AF21" s="167"/>
       <c r="AG21" s="19" t="s">
         <v>1155</v>
       </c>
-      <c r="AH21" s="169"/>
+      <c r="AH21" s="168"/>
       <c r="AI21" s="19" t="s">
         <v>1156</v>
       </c>
-      <c r="AJ21" s="169"/>
-      <c r="AK21" s="170"/>
-      <c r="AL21" s="170"/>
-      <c r="AM21" s="170"/>
+      <c r="AJ21" s="168"/>
+      <c r="AK21" s="169"/>
+      <c r="AL21" s="169"/>
+      <c r="AM21" s="169"/>
       <c r="AN21" s="7" t="s">
         <v>1163</v>
       </c>
@@ -31191,7 +31371,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="22" spans="1:56" ht="80.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:56" ht="80.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="str">
         <f>+VLOOKUP(D22,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0010</v>
@@ -31298,7 +31478,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="23" spans="1:56" ht="131.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:56" ht="131.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="42" t="str">
         <f>+VLOOKUP(D23,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0018</v>
@@ -31353,7 +31533,7 @@
       <c r="U23" s="2"/>
       <c r="V23" s="3"/>
       <c r="W23" s="7"/>
-      <c r="X23" s="171" t="s">
+      <c r="X23" s="170" t="s">
         <v>181</v>
       </c>
       <c r="AA23" s="7"/>
@@ -31368,7 +31548,7 @@
       <c r="AE23" s="19" t="s">
         <v>194</v>
       </c>
-      <c r="AF23" s="168"/>
+      <c r="AF23" s="167"/>
       <c r="AG23" s="19" t="s">
         <v>1270</v>
       </c>
@@ -31381,7 +31561,7 @@
       <c r="AJ23" s="19" t="s">
         <v>1270</v>
       </c>
-      <c r="AK23" s="170"/>
+      <c r="AK23" s="169"/>
       <c r="AL23" s="19" t="s">
         <v>1270</v>
       </c>
@@ -31442,7 +31622,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="24" spans="1:56" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:56" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="str">
         <f>+VLOOKUP(D24,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0002</v>
@@ -31542,7 +31722,7 @@
       <c r="BC24" s="7"/>
       <c r="BD24" s="7"/>
     </row>
-    <row r="25" spans="1:56" ht="29" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:56" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="str">
         <f>+VLOOKUP(D25,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0002</v>
@@ -31637,7 +31817,7 @@
       <c r="BC25" s="7"/>
       <c r="BD25" s="7"/>
     </row>
-    <row r="26" spans="1:56" ht="29" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:56" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="str">
         <f>+VLOOKUP(D26,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0002</v>
@@ -31734,7 +31914,7 @@
       <c r="BC26" s="7"/>
       <c r="BD26" s="7"/>
     </row>
-    <row r="27" spans="1:56" ht="29" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:56" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="str">
         <f>+VLOOKUP(D27,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0002</v>
@@ -31829,7 +32009,7 @@
       <c r="BC27" s="7"/>
       <c r="BD27" s="7"/>
     </row>
-    <row r="28" spans="1:56" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:56" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="str">
         <f>+VLOOKUP(D28,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0002</v>
@@ -31924,7 +32104,7 @@
       <c r="BC28" s="7"/>
       <c r="BD28" s="7"/>
     </row>
-    <row r="29" spans="1:56" ht="24" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:56" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="str">
         <f>+VLOOKUP(D29,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0002</v>
@@ -32021,7 +32201,7 @@
       <c r="BC29" s="7"/>
       <c r="BD29" s="7"/>
     </row>
-    <row r="30" spans="1:56" ht="29" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:56" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="str">
         <f>+VLOOKUP(D30,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0001</v>
@@ -32116,7 +32296,7 @@
       <c r="BC30" s="7"/>
       <c r="BD30" s="7"/>
     </row>
-    <row r="31" spans="1:56" ht="24" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:56" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="str">
         <f>+VLOOKUP(D31,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0001</v>
@@ -32211,7 +32391,7 @@
       <c r="BC31" s="7"/>
       <c r="BD31" s="7"/>
     </row>
-    <row r="32" spans="1:56" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:56" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="str">
         <f>+VLOOKUP(D32,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0001</v>
@@ -32321,7 +32501,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="33" spans="1:56" ht="29" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:56" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" s="42" t="str">
         <f>+VLOOKUP(D33,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0019</v>
@@ -32416,7 +32596,7 @@
       <c r="BC33" s="7"/>
       <c r="BD33" s="7"/>
     </row>
-    <row r="34" spans="1:56" ht="29" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:56" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" s="42" t="str">
         <f>+VLOOKUP(D34,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0019</v>
@@ -32511,7 +32691,7 @@
       <c r="BC34" s="7"/>
       <c r="BD34" s="7"/>
     </row>
-    <row r="35" spans="1:56" ht="24" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:56" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" s="42" t="str">
         <f>+VLOOKUP(D35,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0004</v>
@@ -32610,7 +32790,7 @@
       <c r="BC35" s="7"/>
       <c r="BD35" s="7"/>
     </row>
-    <row r="36" spans="1:56" ht="87" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:56" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="str">
         <f>+VLOOKUP(D36,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0007</v>
@@ -32680,18 +32860,18 @@
       <c r="AE36" s="19" t="s">
         <v>194</v>
       </c>
-      <c r="AF36" s="168"/>
+      <c r="AF36" s="167"/>
       <c r="AG36" s="19" t="s">
         <v>1155</v>
       </c>
-      <c r="AH36" s="169"/>
+      <c r="AH36" s="168"/>
       <c r="AI36" s="19" t="s">
         <v>1156</v>
       </c>
-      <c r="AJ36" s="169"/>
-      <c r="AK36" s="170"/>
-      <c r="AL36" s="170"/>
-      <c r="AM36" s="170"/>
+      <c r="AJ36" s="168"/>
+      <c r="AK36" s="169"/>
+      <c r="AL36" s="169"/>
+      <c r="AM36" s="169"/>
       <c r="AN36" s="7" t="s">
         <v>1337</v>
       </c>
@@ -32707,7 +32887,7 @@
       <c r="AR36" s="19" t="s">
         <v>1327</v>
       </c>
-      <c r="AS36" s="169"/>
+      <c r="AS36" s="168"/>
       <c r="AT36" s="7" t="s">
         <v>878</v>
       </c>
@@ -32742,7 +32922,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="37" spans="1:56" ht="104" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:56" ht="104" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" s="42" t="str">
         <f>+VLOOKUP(D37,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0004</v>
@@ -32812,18 +32992,18 @@
       <c r="AE37" s="19" t="s">
         <v>194</v>
       </c>
-      <c r="AF37" s="168"/>
+      <c r="AF37" s="167"/>
       <c r="AG37" s="19" t="s">
         <v>1451</v>
       </c>
-      <c r="AH37" s="169"/>
+      <c r="AH37" s="168"/>
       <c r="AI37" s="19" t="s">
         <v>966</v>
       </c>
-      <c r="AJ37" s="169"/>
-      <c r="AK37" s="170"/>
-      <c r="AL37" s="170"/>
-      <c r="AM37" s="170"/>
+      <c r="AJ37" s="168"/>
+      <c r="AK37" s="169"/>
+      <c r="AL37" s="169"/>
+      <c r="AM37" s="169"/>
       <c r="AN37" s="19" t="s">
         <v>1452</v>
       </c>
@@ -32872,7 +33052,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="38" spans="1:56" ht="24" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:56" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" s="42" t="str">
         <f>+VLOOKUP(D38,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0021</v>
@@ -32967,7 +33147,7 @@
       <c r="BC38" s="7"/>
       <c r="BD38" s="7"/>
     </row>
-    <row r="39" spans="1:56" ht="77.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:56" ht="77.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="42" t="str">
         <f>+VLOOKUP(D39,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0012</v>
@@ -33041,7 +33221,7 @@
       <c r="AE39" s="19" t="s">
         <v>194</v>
       </c>
-      <c r="AF39" s="172">
+      <c r="AF39" s="171">
         <v>0</v>
       </c>
       <c r="AG39" s="19" t="s">
@@ -33056,7 +33236,7 @@
       <c r="AJ39" s="19" t="s">
         <v>1270</v>
       </c>
-      <c r="AK39" s="170"/>
+      <c r="AK39" s="169"/>
       <c r="AL39" s="19" t="s">
         <v>1270</v>
       </c>
@@ -33117,7 +33297,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="40" spans="1:56" ht="48" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:56" ht="48" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="str">
         <f>+VLOOKUP(D40,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0003</v>
@@ -33193,9 +33373,9 @@
         <v>194</v>
       </c>
       <c r="AJ40" s="100"/>
-      <c r="AK40" s="170"/>
-      <c r="AL40" s="170"/>
-      <c r="AM40" s="170"/>
+      <c r="AK40" s="169"/>
+      <c r="AL40" s="169"/>
+      <c r="AM40" s="169"/>
       <c r="AN40" s="7" t="s">
         <v>1370</v>
       </c>
@@ -33238,7 +33418,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="41" spans="1:56" ht="29" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:56" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="str">
         <f>+VLOOKUP(D41,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0003</v>
@@ -33335,7 +33515,7 @@
       <c r="BC41" s="7"/>
       <c r="BD41" s="7"/>
     </row>
-    <row r="42" spans="1:56" ht="24" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:56" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="str">
         <f>+VLOOKUP(D42,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0003</v>
@@ -33438,7 +33618,7 @@
       <c r="BC42" s="7"/>
       <c r="BD42" s="7"/>
     </row>
-    <row r="43" spans="1:56" ht="24" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:56" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" s="42" t="str">
         <f>+VLOOKUP(D43,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0014</v>
@@ -33533,7 +33713,7 @@
       <c r="BC43" s="7"/>
       <c r="BD43" s="7"/>
     </row>
-    <row r="44" spans="1:56" ht="24" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:56" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" s="42" t="str">
         <f>+VLOOKUP(D44,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0014</v>
@@ -33628,7 +33808,7 @@
       <c r="BC44" s="7"/>
       <c r="BD44" s="7"/>
     </row>
-    <row r="45" spans="1:56" ht="84" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:56" ht="84" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" s="42" t="str">
         <f>+VLOOKUP(D45,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0009</v>
@@ -33698,7 +33878,7 @@
       <c r="AE45" s="19" t="s">
         <v>194</v>
       </c>
-      <c r="AF45" s="168"/>
+      <c r="AF45" s="167"/>
       <c r="AG45" s="19" t="s">
         <v>1270</v>
       </c>
@@ -33711,7 +33891,7 @@
       <c r="AJ45" s="19" t="s">
         <v>1270</v>
       </c>
-      <c r="AK45" s="170"/>
+      <c r="AK45" s="169"/>
       <c r="AL45" s="19" t="s">
         <v>1270</v>
       </c>
@@ -33865,7 +34045,7 @@
       <c r="BC46" s="7"/>
       <c r="BD46" s="7"/>
     </row>
-    <row r="47" spans="1:56" ht="87" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:56" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="str">
         <f>+VLOOKUP(D47,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0005</v>
@@ -33967,7 +34147,7 @@
       <c r="BC47" s="7"/>
       <c r="BD47" s="7"/>
     </row>
-    <row r="48" spans="1:56" ht="65.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:56" ht="65.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="42" t="str">
         <f>+VLOOKUP(D48,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0009</v>
@@ -34034,7 +34214,7 @@
       <c r="AE48" s="19" t="s">
         <v>966</v>
       </c>
-      <c r="AF48" s="168"/>
+      <c r="AF48" s="167"/>
       <c r="AG48" s="19" t="s">
         <v>1270</v>
       </c>
@@ -34047,7 +34227,7 @@
       <c r="AJ48" s="19" t="s">
         <v>1270</v>
       </c>
-      <c r="AK48" s="170"/>
+      <c r="AK48" s="169"/>
       <c r="AL48" s="19" t="s">
         <v>1270</v>
       </c>
@@ -34102,7 +34282,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="49" spans="1:56" ht="61.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:56" ht="61.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="42" t="str">
         <f>+VLOOKUP(D49,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0009</v>
@@ -34169,7 +34349,7 @@
       <c r="AE49" s="19" t="s">
         <v>966</v>
       </c>
-      <c r="AF49" s="168"/>
+      <c r="AF49" s="167"/>
       <c r="AG49" s="19" t="s">
         <v>1270</v>
       </c>
@@ -34182,7 +34362,7 @@
       <c r="AJ49" s="19" t="s">
         <v>1270</v>
       </c>
-      <c r="AK49" s="170"/>
+      <c r="AK49" s="169"/>
       <c r="AL49" s="19" t="s">
         <v>1270</v>
       </c>
@@ -34237,7 +34417,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="50" spans="1:56" ht="78" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:56" ht="78" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" s="42" t="str">
         <f>+VLOOKUP(D50,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0001</v>
@@ -34292,7 +34472,7 @@
       <c r="U50" s="2"/>
       <c r="V50" s="3"/>
       <c r="W50" s="7"/>
-      <c r="X50" s="176" t="s">
+      <c r="X50" s="175" t="s">
         <v>1469</v>
       </c>
       <c r="AA50" s="7"/>
@@ -34305,7 +34485,7 @@
       <c r="AE50" s="19" t="s">
         <v>194</v>
       </c>
-      <c r="AF50" s="172">
+      <c r="AF50" s="171">
         <v>0</v>
       </c>
       <c r="AG50" s="19" t="s">
@@ -34320,7 +34500,7 @@
       <c r="AJ50" s="19" t="s">
         <v>1270</v>
       </c>
-      <c r="AK50" s="170"/>
+      <c r="AK50" s="169"/>
       <c r="AL50" s="19" t="s">
         <v>1270</v>
       </c>
@@ -34379,7 +34559,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="51" spans="1:56" ht="78" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:56" ht="78" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" s="42" t="str">
         <f>+VLOOKUP(D51,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0001</v>
@@ -34447,7 +34627,7 @@
       <c r="AE51" s="19" t="s">
         <v>194</v>
       </c>
-      <c r="AF51" s="172">
+      <c r="AF51" s="171">
         <v>0</v>
       </c>
       <c r="AG51" s="19" t="s">
@@ -34462,7 +34642,7 @@
       <c r="AJ51" s="19" t="s">
         <v>1270</v>
       </c>
-      <c r="AK51" s="170"/>
+      <c r="AK51" s="169"/>
       <c r="AL51" s="19" t="s">
         <v>1270</v>
       </c>
@@ -34521,7 +34701,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="52" spans="1:56" ht="24" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:56" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="str">
         <f>+VLOOKUP(D52,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0019</v>
@@ -34616,7 +34796,7 @@
       <c r="BC52" s="7"/>
       <c r="BD52" s="7"/>
     </row>
-    <row r="53" spans="1:56" ht="24" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:56" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="str">
         <f>+VLOOKUP(D53,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0017</v>
@@ -34713,7 +34893,7 @@
       <c r="BC53" s="7"/>
       <c r="BD53" s="7"/>
     </row>
-    <row r="54" spans="1:56" ht="24" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:56" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" s="42" t="str">
         <f>+VLOOKUP(D54,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0012</v>
@@ -34808,7 +34988,7 @@
       <c r="BC54" s="7"/>
       <c r="BD54" s="7"/>
     </row>
-    <row r="55" spans="1:56" ht="24" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:56" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55" s="42" t="str">
         <f>+VLOOKUP(D55,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0022</v>
@@ -34903,7 +35083,7 @@
       <c r="BC55" s="7"/>
       <c r="BD55" s="7"/>
     </row>
-    <row r="56" spans="1:56" ht="24" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:56" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" s="42" t="str">
         <f>+VLOOKUP(D56,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0023</v>
@@ -34998,7 +35178,7 @@
       <c r="BC56" s="7"/>
       <c r="BD56" s="7"/>
     </row>
-    <row r="57" spans="1:56" ht="24" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:56" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" s="42" t="str">
         <f>+VLOOKUP(D57,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0024</v>
@@ -35093,7 +35273,7 @@
       <c r="BC57" s="7"/>
       <c r="BD57" s="7"/>
     </row>
-    <row r="58" spans="1:56" ht="70.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:56" ht="70.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="42" t="str">
         <f>+VLOOKUP(D58,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0009</v>
@@ -35163,7 +35343,7 @@
       <c r="AE58" s="19" t="s">
         <v>966</v>
       </c>
-      <c r="AF58" s="168"/>
+      <c r="AF58" s="167"/>
       <c r="AG58" s="19" t="s">
         <v>1270</v>
       </c>
@@ -35176,7 +35356,7 @@
       <c r="AJ58" s="19" t="s">
         <v>1270</v>
       </c>
-      <c r="AK58" s="170"/>
+      <c r="AK58" s="169"/>
       <c r="AL58" s="19" t="s">
         <v>1270</v>
       </c>
@@ -35231,7 +35411,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="59" spans="1:56" ht="87" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:56" ht="87" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="42" t="str">
         <f>+VLOOKUP(D59,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0009</v>
@@ -35301,7 +35481,7 @@
       <c r="AE59" s="19" t="s">
         <v>966</v>
       </c>
-      <c r="AF59" s="168"/>
+      <c r="AF59" s="167"/>
       <c r="AG59" s="19" t="s">
         <v>1270</v>
       </c>
@@ -35314,7 +35494,7 @@
       <c r="AJ59" s="19" t="s">
         <v>1270</v>
       </c>
-      <c r="AK59" s="170"/>
+      <c r="AK59" s="169"/>
       <c r="AL59" s="19" t="s">
         <v>1270</v>
       </c>
@@ -35334,7 +35514,7 @@
       <c r="AR59" s="19" t="s">
         <v>1270</v>
       </c>
-      <c r="AS59" s="169"/>
+      <c r="AS59" s="168"/>
       <c r="AT59" s="7" t="s">
         <v>878</v>
       </c>
@@ -35369,7 +35549,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="60" spans="1:56" ht="73.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:56" ht="73.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="42" t="str">
         <f>+VLOOKUP(D60,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0016</v>
@@ -35439,19 +35619,19 @@
       <c r="AE60" s="19" t="s">
         <v>194</v>
       </c>
-      <c r="AF60" s="168"/>
+      <c r="AF60" s="167"/>
       <c r="AG60" s="19" t="s">
         <v>967</v>
       </c>
-      <c r="AH60" s="169"/>
+      <c r="AH60" s="168"/>
       <c r="AI60" s="19" t="s">
         <v>1270</v>
       </c>
       <c r="AJ60" s="19" t="s">
         <v>1270</v>
       </c>
-      <c r="AK60" s="170"/>
-      <c r="AL60" s="170"/>
+      <c r="AK60" s="169"/>
+      <c r="AL60" s="169"/>
       <c r="AM60" s="19" t="s">
         <v>1270</v>
       </c>
@@ -35499,7 +35679,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="61" spans="1:56" ht="24" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:56" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61" s="42" t="str">
         <f>+VLOOKUP(D61,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0020</v>
@@ -35594,7 +35774,7 @@
       <c r="BC61" s="7"/>
       <c r="BD61" s="7"/>
     </row>
-    <row r="62" spans="1:56" ht="24" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:56" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62" s="42" t="str">
         <f>+VLOOKUP(D62,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0020</v>
@@ -35689,7 +35869,7 @@
       <c r="BC62" s="7"/>
       <c r="BD62" s="7"/>
     </row>
-    <row r="63" spans="1:56" ht="29" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:56" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63" s="42" t="str">
         <f>+VLOOKUP(D63,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0020</v>
@@ -35784,7 +35964,7 @@
       <c r="BC63" s="7"/>
       <c r="BD63" s="7"/>
     </row>
-    <row r="64" spans="1:56" ht="24" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:56" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="str">
         <f>+VLOOKUP(D64,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0020</v>
@@ -35879,7 +36059,7 @@
       <c r="BC64" s="7"/>
       <c r="BD64" s="7"/>
     </row>
-    <row r="65" spans="1:56" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:56" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="str">
         <f>+VLOOKUP(D65,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0006</v>
@@ -35978,7 +36158,7 @@
       <c r="BC65" s="7"/>
       <c r="BD65" s="7"/>
     </row>
-    <row r="66" spans="1:56" ht="60" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:56" ht="60" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="str">
         <f>+VLOOKUP(D66,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0006</v>
@@ -36074,7 +36254,7 @@
       <c r="BC66" s="7"/>
       <c r="BD66" s="7"/>
     </row>
-    <row r="67" spans="1:56" ht="24" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:56" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="str">
         <f>+VLOOKUP(D67,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0003</v>
@@ -36171,7 +36351,7 @@
       <c r="BC67" s="7"/>
       <c r="BD67" s="7"/>
     </row>
-    <row r="68" spans="1:56" ht="85" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:56" ht="85" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="str">
         <f>+VLOOKUP(D68,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0003</v>
@@ -36239,18 +36419,18 @@
       <c r="AE68" s="19" t="s">
         <v>966</v>
       </c>
-      <c r="AF68" s="168"/>
+      <c r="AF68" s="167"/>
       <c r="AG68" s="19" t="s">
         <v>967</v>
       </c>
-      <c r="AH68" s="169"/>
+      <c r="AH68" s="168"/>
       <c r="AI68" s="19" t="s">
         <v>194</v>
       </c>
-      <c r="AJ68" s="169"/>
-      <c r="AK68" s="169"/>
-      <c r="AL68" s="169"/>
-      <c r="AM68" s="169"/>
+      <c r="AJ68" s="168"/>
+      <c r="AK68" s="168"/>
+      <c r="AL68" s="168"/>
+      <c r="AM68" s="168"/>
       <c r="AN68" s="7" t="s">
         <v>1376</v>
       </c>
@@ -36287,7 +36467,7 @@
         <v>1334</v>
       </c>
     </row>
-    <row r="69" spans="1:56" ht="72" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:56" ht="72" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69" s="42" t="str">
         <f>+VLOOKUP(D69,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0003</v>
@@ -36408,7 +36588,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="70" spans="1:56" ht="48" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:56" ht="48" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70" s="42" t="str">
         <f>+VLOOKUP(D70,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0003</v>
@@ -36527,7 +36707,7 @@
       </c>
       <c r="BD70" s="7"/>
     </row>
-    <row r="71" spans="1:56" ht="48" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:56" ht="48" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71" s="42" t="str">
         <f>+VLOOKUP(D71,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0003</v>
@@ -36646,7 +36826,7 @@
       </c>
       <c r="BD71" s="7"/>
     </row>
-    <row r="72" spans="1:56" ht="60" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:56" ht="60" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72" s="42" t="str">
         <f>+VLOOKUP(D72,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0003</v>
@@ -36765,7 +36945,7 @@
       </c>
       <c r="BD72" s="7"/>
     </row>
-    <row r="73" spans="1:56" ht="60" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:56" ht="60" hidden="1" x14ac:dyDescent="0.35">
       <c r="A73" s="42" t="str">
         <f>+VLOOKUP(D73,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0003</v>
@@ -36884,7 +37064,7 @@
       </c>
       <c r="BD73" s="7"/>
     </row>
-    <row r="74" spans="1:56" ht="60" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:56" ht="60" hidden="1" x14ac:dyDescent="0.35">
       <c r="A74" s="42" t="str">
         <f>+VLOOKUP(D74,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0003</v>
@@ -37003,7 +37183,7 @@
       </c>
       <c r="BD74" s="7"/>
     </row>
-    <row r="75" spans="1:56" ht="78" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:56" ht="78" hidden="1" x14ac:dyDescent="0.35">
       <c r="A75" s="42" t="str">
         <f>+VLOOKUP(D75,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0001</v>
@@ -37071,7 +37251,7 @@
       <c r="AE75" s="19" t="s">
         <v>194</v>
       </c>
-      <c r="AF75" s="172">
+      <c r="AF75" s="171">
         <v>0</v>
       </c>
       <c r="AG75" s="19" t="s">
@@ -37086,7 +37266,7 @@
       <c r="AJ75" s="19" t="s">
         <v>1270</v>
       </c>
-      <c r="AK75" s="170"/>
+      <c r="AK75" s="169"/>
       <c r="AL75" s="19" t="s">
         <v>1270</v>
       </c>
@@ -37145,7 +37325,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="76" spans="1:56" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:56" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="42" t="str">
         <f>+VLOOKUP(D76,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0001</v>
@@ -37240,7 +37420,7 @@
       <c r="BC76" s="7"/>
       <c r="BD76" s="7"/>
     </row>
-    <row r="77" spans="1:56" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:56" ht="32.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="42" t="str">
         <f>+VLOOKUP(D77,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0004</v>
@@ -37342,7 +37522,7 @@
       <c r="BC77" s="7"/>
       <c r="BD77" s="7"/>
     </row>
-    <row r="78" spans="1:56" ht="26" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:56" ht="26" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="42" t="str">
         <f>+VLOOKUP(D78,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0003</v>
@@ -37439,7 +37619,7 @@
       <c r="BC78" s="7"/>
       <c r="BD78" s="7"/>
     </row>
-    <row r="79" spans="1:56" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:56" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="42" t="str">
         <f>+VLOOKUP(D79,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0003</v>
@@ -37536,7 +37716,7 @@
       <c r="BC79" s="7"/>
       <c r="BD79" s="7"/>
     </row>
-    <row r="80" spans="1:56" ht="24" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:56" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="A80" s="42" t="str">
         <f>+VLOOKUP(D80,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0004</v>
@@ -37635,7 +37815,7 @@
       <c r="BC80" s="7"/>
       <c r="BD80" s="7"/>
     </row>
-    <row r="81" spans="1:56" ht="24" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:56" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="A81" s="42" t="str">
         <f>+VLOOKUP(D81,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0004</v>
@@ -37732,7 +37912,7 @@
       <c r="BC81" s="7"/>
       <c r="BD81" s="7"/>
     </row>
-    <row r="82" spans="1:56" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:56" ht="29.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="42" t="str">
         <f>+VLOOKUP(D82,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0004</v>
@@ -37829,7 +38009,7 @@
       <c r="BC82" s="7"/>
       <c r="BD82" s="7"/>
     </row>
-    <row r="83" spans="1:56" ht="24" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:56" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="A83" s="42" t="str">
         <f>+VLOOKUP(D83,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0004</v>
@@ -37928,7 +38108,7 @@
       <c r="BC83" s="7"/>
       <c r="BD83" s="7"/>
     </row>
-    <row r="84" spans="1:56" ht="24" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:56" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="A84" s="42" t="str">
         <f>+VLOOKUP(D84,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0004</v>
@@ -38025,7 +38205,7 @@
       <c r="BC84" s="7"/>
       <c r="BD84" s="7"/>
     </row>
-    <row r="85" spans="1:56" ht="24" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:56" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="A85" s="42" t="str">
         <f>+VLOOKUP(D85,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0004</v>
@@ -38124,7 +38304,7 @@
       <c r="BC85" s="7"/>
       <c r="BD85" s="7"/>
     </row>
-    <row r="86" spans="1:56" ht="24" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:56" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="A86" s="42" t="str">
         <f>+VLOOKUP(D86,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0004</v>
@@ -38223,7 +38403,7 @@
       <c r="BC86" s="7"/>
       <c r="BD86" s="7"/>
     </row>
-    <row r="87" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:56" hidden="1" x14ac:dyDescent="0.35">
       <c r="A87" s="42" t="str">
         <f>+VLOOKUP(D87,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0001</v>
@@ -38295,7 +38475,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="88" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:56" hidden="1" x14ac:dyDescent="0.35">
       <c r="A88" s="42" t="str">
         <f>+VLOOKUP(D88,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0001</v>
@@ -38364,7 +38544,7 @@
         <v>POWER BI</v>
       </c>
     </row>
-    <row r="89" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:56" hidden="1" x14ac:dyDescent="0.35">
       <c r="A89" s="42" t="str">
         <f>+VLOOKUP(D89,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0001</v>
@@ -38433,7 +38613,7 @@
         <v>POWER BI</v>
       </c>
     </row>
-    <row r="90" spans="1:56" ht="78" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:56" ht="78" hidden="1" x14ac:dyDescent="0.35">
       <c r="A90" s="42" t="str">
         <f>+VLOOKUP(D90,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0001</v>
@@ -38500,7 +38680,7 @@
       <c r="AE90" s="56" t="s">
         <v>194</v>
       </c>
-      <c r="AF90" s="173">
+      <c r="AF90" s="172">
         <v>0</v>
       </c>
       <c r="AG90" s="56" t="s">
@@ -38515,7 +38695,7 @@
       <c r="AJ90" s="56" t="s">
         <v>1270</v>
       </c>
-      <c r="AK90" s="174"/>
+      <c r="AK90" s="173"/>
       <c r="AL90" s="56" t="s">
         <v>1270</v>
       </c>
@@ -38566,7 +38746,7 @@
       <c r="BA90" s="16" t="s">
         <v>881</v>
       </c>
-      <c r="BB90" s="175"/>
+      <c r="BB90" s="174"/>
       <c r="BC90" s="7">
         <v>1</v>
       </c>
@@ -38574,7 +38754,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="91" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:56" hidden="1" x14ac:dyDescent="0.35">
       <c r="A91" s="42" t="str">
         <f>+VLOOKUP(D91,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0017</v>
@@ -38641,7 +38821,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="92" spans="1:56" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:56" ht="48.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="42" t="str">
         <f>+VLOOKUP(D92,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0018</v>
@@ -38706,7 +38886,7 @@
         <v>POWER BI</v>
       </c>
     </row>
-    <row r="93" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:56" hidden="1" x14ac:dyDescent="0.35">
       <c r="A93" s="42" t="str">
         <f>+VLOOKUP(D93,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0019</v>
@@ -38771,7 +38951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:56" hidden="1" x14ac:dyDescent="0.35">
       <c r="A94" s="42" t="str">
         <f>+VLOOKUP(D94,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0019</v>
@@ -38836,7 +39016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:56" hidden="1" x14ac:dyDescent="0.35">
       <c r="A95" s="42" t="str">
         <f>+VLOOKUP(D95,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0001</v>
@@ -38902,7 +39082,7 @@
         <v>ARCGISONLINE</v>
       </c>
     </row>
-    <row r="96" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:56" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A96" s="42" t="str">
         <f>+VLOOKUP(D96,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0026</v>
@@ -38929,7 +39109,7 @@
       </c>
       <c r="H96" s="2"/>
       <c r="I96" s="2"/>
-      <c r="J96" s="177">
+      <c r="J96" s="176">
         <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$J$117,4,0)</f>
         <v>1</v>
       </c>
@@ -48296,7 +48476,7 @@
     <col min="1" max="1" width="4.90625" style="16" customWidth="1"/>
     <col min="2" max="2" width="26.54296875" style="1" customWidth="1"/>
     <col min="3" max="3" width="22.1796875" style="16" customWidth="1"/>
-    <col min="4" max="4" width="17.7265625" style="139" customWidth="1"/>
+    <col min="4" max="4" width="17.7265625" style="138" customWidth="1"/>
     <col min="5" max="5" width="24.90625" style="16" customWidth="1"/>
     <col min="6" max="6" width="10.7265625" style="16" customWidth="1"/>
     <col min="7" max="7" width="56.6328125" style="16" customWidth="1"/>
@@ -48312,7 +48492,7 @@
       <c r="C7" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="D7" s="139" t="s">
+      <c r="D7" s="138" t="s">
         <v>1308</v>
       </c>
       <c r="E7" s="16" t="s">
@@ -48332,288 +48512,288 @@
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B8" s="140" t="s">
+      <c r="B8" s="139" t="s">
         <v>1278</v>
       </c>
-      <c r="C8" s="141" t="s">
+      <c r="C8" s="140" t="s">
         <v>1274</v>
       </c>
-      <c r="D8" s="142">
+      <c r="D8" s="141">
         <v>44139</v>
       </c>
-      <c r="E8" s="152"/>
-      <c r="F8" s="160"/>
+      <c r="E8" s="151"/>
+      <c r="F8" s="159"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B9" s="143" t="s">
+      <c r="B9" s="142" t="s">
         <v>1279</v>
       </c>
-      <c r="C9" s="144" t="s">
+      <c r="C9" s="143" t="s">
         <v>1275</v>
       </c>
-      <c r="D9" s="142">
+      <c r="D9" s="141">
         <v>44139</v>
       </c>
-      <c r="E9" s="152"/>
-      <c r="F9" s="160"/>
+      <c r="E9" s="151"/>
+      <c r="F9" s="159"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B10" s="143" t="s">
+      <c r="B10" s="142" t="s">
         <v>1280</v>
       </c>
-      <c r="C10" s="144" t="s">
+      <c r="C10" s="143" t="s">
         <v>1275</v>
       </c>
-      <c r="D10" s="142">
+      <c r="D10" s="141">
         <v>44139</v>
       </c>
-      <c r="E10" s="152"/>
-      <c r="F10" s="160"/>
+      <c r="E10" s="151"/>
+      <c r="F10" s="159"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B11" s="143" t="s">
+      <c r="B11" s="142" t="s">
         <v>1281</v>
       </c>
-      <c r="C11" s="144" t="s">
+      <c r="C11" s="143" t="s">
         <v>1275</v>
       </c>
-      <c r="D11" s="142">
+      <c r="D11" s="141">
         <v>44139</v>
       </c>
-      <c r="E11" s="152"/>
-      <c r="F11" s="160"/>
+      <c r="E11" s="151"/>
+      <c r="F11" s="159"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B12" s="143" t="s">
+      <c r="B12" s="142" t="s">
         <v>1282</v>
       </c>
-      <c r="C12" s="144" t="s">
+      <c r="C12" s="143" t="s">
         <v>1275</v>
       </c>
-      <c r="D12" s="142">
+      <c r="D12" s="141">
         <v>44139</v>
       </c>
-      <c r="E12" s="152"/>
-      <c r="F12" s="160"/>
+      <c r="E12" s="151"/>
+      <c r="F12" s="159"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B13" s="143" t="s">
+      <c r="B13" s="142" t="s">
         <v>1283</v>
       </c>
-      <c r="C13" s="144" t="s">
+      <c r="C13" s="143" t="s">
         <v>1275</v>
       </c>
-      <c r="D13" s="142">
+      <c r="D13" s="141">
         <v>44139</v>
       </c>
-      <c r="E13" s="152"/>
-      <c r="F13" s="160"/>
+      <c r="E13" s="151"/>
+      <c r="F13" s="159"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B14" s="143" t="s">
+      <c r="B14" s="142" t="s">
         <v>1284</v>
       </c>
-      <c r="C14" s="144" t="s">
+      <c r="C14" s="143" t="s">
         <v>1275</v>
       </c>
-      <c r="D14" s="145"/>
-      <c r="E14" s="152"/>
-      <c r="F14" s="160"/>
+      <c r="D14" s="144"/>
+      <c r="E14" s="151"/>
+      <c r="F14" s="159"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B15" s="143" t="s">
+      <c r="B15" s="142" t="s">
         <v>1285</v>
       </c>
-      <c r="C15" s="144" t="s">
+      <c r="C15" s="143" t="s">
         <v>1275</v>
       </c>
-      <c r="D15" s="142">
+      <c r="D15" s="141">
         <v>44139</v>
       </c>
-      <c r="E15" s="152"/>
-      <c r="F15" s="160"/>
+      <c r="E15" s="151"/>
+      <c r="F15" s="159"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B16" s="143" t="s">
+      <c r="B16" s="142" t="s">
         <v>1286</v>
       </c>
-      <c r="C16" s="146" t="s">
+      <c r="C16" s="145" t="s">
         <v>1276</v>
       </c>
-      <c r="D16" s="142">
+      <c r="D16" s="141">
         <v>44139</v>
       </c>
-      <c r="E16" s="152"/>
-      <c r="F16" s="160"/>
+      <c r="E16" s="151"/>
+      <c r="F16" s="159"/>
     </row>
     <row r="17" spans="2:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="B17" s="143" t="s">
+      <c r="B17" s="142" t="s">
         <v>1428</v>
       </c>
-      <c r="C17" s="151" t="s">
+      <c r="C17" s="150" t="s">
         <v>161</v>
       </c>
-      <c r="D17" s="150">
+      <c r="D17" s="149">
         <v>44145</v>
       </c>
-      <c r="E17" s="153" t="s">
+      <c r="E17" s="152" t="s">
         <v>99</v>
       </c>
-      <c r="F17" s="161"/>
+      <c r="F17" s="160"/>
       <c r="G17" s="14" t="s">
         <v>1386</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B18" s="143" t="s">
+      <c r="B18" s="142" t="s">
         <v>1428</v>
       </c>
-      <c r="C18" s="146" t="s">
+      <c r="C18" s="145" t="s">
         <v>1276</v>
       </c>
-      <c r="D18" s="150">
+      <c r="D18" s="149">
         <v>44148</v>
       </c>
-      <c r="E18" s="153" t="s">
+      <c r="E18" s="152" t="s">
         <v>99</v>
       </c>
-      <c r="F18" s="161"/>
+      <c r="F18" s="160"/>
       <c r="G18" s="14" t="s">
         <v>1429</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B19" s="143" t="s">
+      <c r="B19" s="142" t="s">
         <v>1284</v>
       </c>
-      <c r="C19" s="147" t="s">
+      <c r="C19" s="146" t="s">
         <v>1277</v>
       </c>
-      <c r="D19" s="150">
+      <c r="D19" s="149">
         <v>44145</v>
       </c>
-      <c r="E19" s="153" t="s">
+      <c r="E19" s="152" t="s">
         <v>93</v>
       </c>
-      <c r="F19" s="161"/>
+      <c r="F19" s="160"/>
       <c r="G19" s="16" t="s">
         <v>1387</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B20" s="143" t="s">
+      <c r="B20" s="142" t="s">
         <v>1288</v>
       </c>
-      <c r="C20" s="146" t="s">
+      <c r="C20" s="145" t="s">
         <v>1276</v>
       </c>
-      <c r="D20" s="150">
+      <c r="D20" s="149">
         <v>44145</v>
       </c>
-      <c r="E20" s="153" t="s">
+      <c r="E20" s="152" t="s">
         <v>95</v>
       </c>
-      <c r="F20" s="161"/>
+      <c r="F20" s="160"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B21" s="143" t="s">
+      <c r="B21" s="142" t="s">
         <v>1289</v>
       </c>
-      <c r="C21" s="151" t="s">
+      <c r="C21" s="150" t="s">
         <v>161</v>
       </c>
-      <c r="D21" s="150">
+      <c r="D21" s="149">
         <v>44145</v>
       </c>
-      <c r="E21" s="153" t="s">
+      <c r="E21" s="152" t="s">
         <v>95</v>
       </c>
-      <c r="F21" s="161"/>
+      <c r="F21" s="160"/>
       <c r="G21" s="16" t="s">
         <v>1394</v>
       </c>
     </row>
     <row r="22" spans="2:7" ht="42.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="143" t="s">
+      <c r="B22" s="142" t="s">
         <v>1290</v>
       </c>
-      <c r="C22" s="147" t="s">
+      <c r="C22" s="146" t="s">
         <v>1277</v>
       </c>
-      <c r="D22" s="150">
+      <c r="D22" s="149">
         <v>44145</v>
       </c>
-      <c r="E22" s="153" t="s">
+      <c r="E22" s="152" t="s">
         <v>93</v>
       </c>
-      <c r="F22" s="161"/>
+      <c r="F22" s="160"/>
       <c r="G22" s="14" t="s">
         <v>1310</v>
       </c>
     </row>
     <row r="23" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="143" t="s">
+      <c r="B23" s="142" t="s">
         <v>1290</v>
       </c>
-      <c r="C23" s="151" t="s">
+      <c r="C23" s="150" t="s">
         <v>161</v>
       </c>
-      <c r="D23" s="150">
+      <c r="D23" s="149">
         <v>44148</v>
       </c>
-      <c r="E23" s="153" t="s">
+      <c r="E23" s="152" t="s">
         <v>93</v>
       </c>
-      <c r="F23" s="161"/>
+      <c r="F23" s="160"/>
       <c r="G23" s="14" t="s">
         <v>1431</v>
       </c>
     </row>
     <row r="24" spans="2:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="143" t="s">
+      <c r="B24" s="142" t="s">
         <v>1290</v>
       </c>
-      <c r="C24" s="151" t="s">
+      <c r="C24" s="150" t="s">
         <v>161</v>
       </c>
-      <c r="D24" s="150">
+      <c r="D24" s="149">
         <v>44148</v>
       </c>
-      <c r="E24" s="153" t="s">
+      <c r="E24" s="152" t="s">
         <v>93</v>
       </c>
-      <c r="F24" s="161"/>
+      <c r="F24" s="160"/>
       <c r="G24" s="14" t="s">
         <v>1430</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B25" s="143" t="s">
+      <c r="B25" s="142" t="s">
         <v>1291</v>
       </c>
-      <c r="C25" s="156"/>
-      <c r="D25" s="150">
+      <c r="C25" s="155"/>
+      <c r="D25" s="149">
         <v>44145</v>
       </c>
-      <c r="E25" s="153" t="s">
+      <c r="E25" s="152" t="s">
         <v>95</v>
       </c>
-      <c r="F25" s="161"/>
+      <c r="F25" s="160"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B26" s="143" t="s">
+      <c r="B26" s="142" t="s">
         <v>767</v>
       </c>
-      <c r="C26" s="147" t="s">
+      <c r="C26" s="146" t="s">
         <v>1277</v>
       </c>
-      <c r="D26" s="150">
+      <c r="D26" s="149">
         <v>44145</v>
       </c>
-      <c r="E26" s="153" t="s">
+      <c r="E26" s="152" t="s">
         <v>99</v>
       </c>
-      <c r="F26" s="161" t="s">
+      <c r="F26" s="160" t="s">
         <v>159</v>
       </c>
       <c r="G26" s="16" t="s">
@@ -48621,19 +48801,19 @@
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B27" s="143" t="s">
+      <c r="B27" s="142" t="s">
         <v>767</v>
       </c>
-      <c r="C27" s="151" t="s">
+      <c r="C27" s="150" t="s">
         <v>161</v>
       </c>
-      <c r="D27" s="150">
+      <c r="D27" s="149">
         <v>44145</v>
       </c>
-      <c r="E27" s="153" t="s">
+      <c r="E27" s="152" t="s">
         <v>99</v>
       </c>
-      <c r="F27" s="161" t="s">
+      <c r="F27" s="160" t="s">
         <v>1407</v>
       </c>
       <c r="G27" s="16" t="s">
@@ -48641,19 +48821,19 @@
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B28" s="143" t="s">
+      <c r="B28" s="142" t="s">
         <v>767</v>
       </c>
-      <c r="C28" s="151" t="s">
+      <c r="C28" s="150" t="s">
         <v>161</v>
       </c>
-      <c r="D28" s="150">
+      <c r="D28" s="149">
         <v>44145</v>
       </c>
-      <c r="E28" s="153" t="s">
+      <c r="E28" s="152" t="s">
         <v>99</v>
       </c>
-      <c r="F28" s="161" t="s">
+      <c r="F28" s="160" t="s">
         <v>1423</v>
       </c>
       <c r="G28" s="16" t="s">
@@ -48661,19 +48841,19 @@
       </c>
     </row>
     <row r="29" spans="2:7" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B29" s="143" t="s">
+      <c r="B29" s="142" t="s">
         <v>767</v>
       </c>
-      <c r="C29" s="164" t="s">
+      <c r="C29" s="163" t="s">
         <v>161</v>
       </c>
-      <c r="D29" s="150">
+      <c r="D29" s="149">
         <v>44148</v>
       </c>
-      <c r="E29" s="154" t="s">
+      <c r="E29" s="153" t="s">
         <v>99</v>
       </c>
-      <c r="F29" s="161" t="s">
+      <c r="F29" s="160" t="s">
         <v>1423</v>
       </c>
       <c r="G29" s="14" t="s">
@@ -48681,19 +48861,19 @@
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B30" s="143" t="s">
+      <c r="B30" s="142" t="s">
         <v>767</v>
       </c>
-      <c r="C30" s="146" t="s">
+      <c r="C30" s="145" t="s">
         <v>1276</v>
       </c>
-      <c r="D30" s="150">
+      <c r="D30" s="149">
         <v>44148</v>
       </c>
-      <c r="E30" s="154" t="s">
+      <c r="E30" s="153" t="s">
         <v>99</v>
       </c>
-      <c r="F30" s="161" t="s">
+      <c r="F30" s="160" t="s">
         <v>1423</v>
       </c>
       <c r="G30" s="16" t="s">
@@ -48701,19 +48881,19 @@
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B31" s="143" t="s">
+      <c r="B31" s="142" t="s">
         <v>767</v>
       </c>
-      <c r="C31" s="146" t="s">
+      <c r="C31" s="145" t="s">
         <v>1276</v>
       </c>
-      <c r="D31" s="150">
+      <c r="D31" s="149">
         <v>44148</v>
       </c>
-      <c r="E31" s="154" t="s">
+      <c r="E31" s="153" t="s">
         <v>99</v>
       </c>
-      <c r="F31" s="161" t="s">
+      <c r="F31" s="160" t="s">
         <v>1407</v>
       </c>
       <c r="G31" s="16" t="s">
@@ -48721,19 +48901,19 @@
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B32" s="143" t="s">
+      <c r="B32" s="142" t="s">
         <v>767</v>
       </c>
-      <c r="C32" s="151" t="s">
+      <c r="C32" s="150" t="s">
         <v>161</v>
       </c>
-      <c r="D32" s="150">
+      <c r="D32" s="149">
         <v>44148</v>
       </c>
-      <c r="E32" s="154" t="s">
+      <c r="E32" s="153" t="s">
         <v>99</v>
       </c>
-      <c r="F32" s="161" t="s">
+      <c r="F32" s="160" t="s">
         <v>1407</v>
       </c>
       <c r="G32" s="16" t="s">
@@ -48741,19 +48921,19 @@
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B33" s="143" t="s">
+      <c r="B33" s="142" t="s">
         <v>767</v>
       </c>
-      <c r="C33" s="147" t="s">
+      <c r="C33" s="146" t="s">
         <v>1277</v>
       </c>
-      <c r="D33" s="150">
+      <c r="D33" s="149">
         <v>44148</v>
       </c>
-      <c r="E33" s="154" t="s">
+      <c r="E33" s="153" t="s">
         <v>99</v>
       </c>
-      <c r="F33" s="161" t="s">
+      <c r="F33" s="160" t="s">
         <v>159</v>
       </c>
       <c r="G33" s="16" t="s">
@@ -48761,19 +48941,19 @@
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B34" s="143" t="s">
+      <c r="B34" s="142" t="s">
         <v>767</v>
       </c>
-      <c r="C34" s="146" t="s">
+      <c r="C34" s="145" t="s">
         <v>1276</v>
       </c>
-      <c r="D34" s="150">
+      <c r="D34" s="149">
         <v>44152</v>
       </c>
-      <c r="E34" s="154" t="s">
+      <c r="E34" s="153" t="s">
         <v>99</v>
       </c>
-      <c r="F34" s="161" t="s">
+      <c r="F34" s="160" t="s">
         <v>1407</v>
       </c>
       <c r="G34" s="16" t="s">
@@ -48781,19 +48961,19 @@
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B35" s="143" t="s">
+      <c r="B35" s="142" t="s">
         <v>767</v>
       </c>
-      <c r="C35" s="146" t="s">
+      <c r="C35" s="145" t="s">
         <v>1276</v>
       </c>
-      <c r="D35" s="150">
+      <c r="D35" s="149">
         <v>44152</v>
       </c>
-      <c r="E35" s="154" t="s">
+      <c r="E35" s="153" t="s">
         <v>99</v>
       </c>
-      <c r="F35" s="161" t="s">
+      <c r="F35" s="160" t="s">
         <v>159</v>
       </c>
       <c r="G35" s="16" t="s">
@@ -48804,19 +48984,19 @@
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B36" s="143" t="s">
+      <c r="B36" s="142" t="s">
         <v>767</v>
       </c>
-      <c r="C36" s="146" t="s">
+      <c r="C36" s="145" t="s">
         <v>1276</v>
       </c>
-      <c r="D36" s="150">
+      <c r="D36" s="149">
         <v>44152</v>
       </c>
-      <c r="E36" s="154" t="s">
+      <c r="E36" s="153" t="s">
         <v>99</v>
       </c>
-      <c r="F36" s="161" t="s">
+      <c r="F36" s="160" t="s">
         <v>1423</v>
       </c>
       <c r="G36" s="16" t="s">
@@ -48824,37 +49004,37 @@
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B37" s="143" t="s">
+      <c r="B37" s="142" t="s">
         <v>1230</v>
       </c>
-      <c r="C37" s="147" t="s">
+      <c r="C37" s="146" t="s">
         <v>1277</v>
       </c>
-      <c r="D37" s="150">
+      <c r="D37" s="149">
         <v>44145</v>
       </c>
-      <c r="E37" s="162" t="s">
+      <c r="E37" s="161" t="s">
         <v>95</v>
       </c>
-      <c r="F37" s="163"/>
+      <c r="F37" s="162"/>
       <c r="G37" s="16" t="s">
         <v>1312</v>
       </c>
     </row>
     <row r="38" spans="2:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="B38" s="143" t="s">
+      <c r="B38" s="142" t="s">
         <v>1230</v>
       </c>
-      <c r="C38" s="151" t="s">
+      <c r="C38" s="150" t="s">
         <v>161</v>
       </c>
-      <c r="D38" s="150">
+      <c r="D38" s="149">
         <v>44148</v>
       </c>
-      <c r="E38" s="162" t="s">
+      <c r="E38" s="161" t="s">
         <v>95</v>
       </c>
-      <c r="F38" s="161" t="s">
+      <c r="F38" s="160" t="s">
         <v>159</v>
       </c>
       <c r="G38" s="14" t="s">
@@ -48862,19 +49042,19 @@
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B39" s="143" t="s">
+      <c r="B39" s="142" t="s">
         <v>1230</v>
       </c>
-      <c r="C39" s="146" t="s">
+      <c r="C39" s="145" t="s">
         <v>1276</v>
       </c>
-      <c r="D39" s="150">
+      <c r="D39" s="149">
         <v>44148</v>
       </c>
-      <c r="E39" s="162" t="s">
+      <c r="E39" s="161" t="s">
         <v>95</v>
       </c>
-      <c r="F39" s="161" t="s">
+      <c r="F39" s="160" t="s">
         <v>159</v>
       </c>
       <c r="G39" s="16" t="s">
@@ -48882,19 +49062,19 @@
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B40" s="143" t="s">
+      <c r="B40" s="142" t="s">
         <v>1230</v>
       </c>
-      <c r="C40" s="146" t="s">
+      <c r="C40" s="145" t="s">
         <v>1276</v>
       </c>
-      <c r="D40" s="150">
+      <c r="D40" s="149">
         <v>44148</v>
       </c>
-      <c r="E40" s="162" t="s">
+      <c r="E40" s="161" t="s">
         <v>95</v>
       </c>
-      <c r="F40" s="160" t="s">
+      <c r="F40" s="159" t="s">
         <v>1407</v>
       </c>
       <c r="G40" s="16" t="s">
@@ -48902,19 +49082,19 @@
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B41" s="143" t="s">
+      <c r="B41" s="142" t="s">
         <v>1230</v>
       </c>
-      <c r="C41" s="146" t="s">
+      <c r="C41" s="145" t="s">
         <v>1276</v>
       </c>
-      <c r="D41" s="150">
+      <c r="D41" s="149">
         <v>44148</v>
       </c>
-      <c r="E41" s="162" t="s">
+      <c r="E41" s="161" t="s">
         <v>95</v>
       </c>
-      <c r="F41" s="160" t="s">
+      <c r="F41" s="159" t="s">
         <v>1412</v>
       </c>
       <c r="G41" s="16" t="s">
@@ -48922,19 +49102,19 @@
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B42" s="143" t="s">
+      <c r="B42" s="142" t="s">
         <v>1230</v>
       </c>
-      <c r="C42" s="146" t="s">
+      <c r="C42" s="145" t="s">
         <v>1276</v>
       </c>
-      <c r="D42" s="142">
+      <c r="D42" s="141">
         <v>44152</v>
       </c>
-      <c r="E42" s="155" t="s">
+      <c r="E42" s="154" t="s">
         <v>95</v>
       </c>
-      <c r="F42" s="160" t="s">
+      <c r="F42" s="159" t="s">
         <v>159</v>
       </c>
       <c r="G42" s="16" t="s">
@@ -48942,19 +49122,19 @@
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B43" s="143" t="s">
+      <c r="B43" s="142" t="s">
         <v>1230</v>
       </c>
-      <c r="C43" s="146" t="s">
+      <c r="C43" s="145" t="s">
         <v>1276</v>
       </c>
-      <c r="D43" s="142">
+      <c r="D43" s="141">
         <v>44152</v>
       </c>
-      <c r="E43" s="155" t="s">
+      <c r="E43" s="154" t="s">
         <v>95</v>
       </c>
-      <c r="F43" s="160" t="s">
+      <c r="F43" s="159" t="s">
         <v>1407</v>
       </c>
       <c r="G43" s="16" t="s">
@@ -48962,19 +49142,19 @@
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B44" s="143" t="s">
+      <c r="B44" s="142" t="s">
         <v>1230</v>
       </c>
-      <c r="C44" s="146" t="s">
+      <c r="C44" s="145" t="s">
         <v>1276</v>
       </c>
-      <c r="D44" s="142">
+      <c r="D44" s="141">
         <v>44152</v>
       </c>
-      <c r="E44" s="155" t="s">
+      <c r="E44" s="154" t="s">
         <v>95</v>
       </c>
-      <c r="F44" s="160" t="s">
+      <c r="F44" s="159" t="s">
         <v>1412</v>
       </c>
       <c r="G44" s="16" t="s">
@@ -48982,19 +49162,19 @@
       </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B45" s="143" t="s">
+      <c r="B45" s="142" t="s">
         <v>1045</v>
       </c>
-      <c r="C45" s="147" t="s">
+      <c r="C45" s="146" t="s">
         <v>1277</v>
       </c>
-      <c r="D45" s="142">
+      <c r="D45" s="141">
         <v>44145</v>
       </c>
-      <c r="E45" s="153" t="s">
+      <c r="E45" s="152" t="s">
         <v>98</v>
       </c>
-      <c r="F45" s="161" t="s">
+      <c r="F45" s="160" t="s">
         <v>159</v>
       </c>
       <c r="G45" s="16" t="s">
@@ -49002,19 +49182,19 @@
       </c>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B46" s="143" t="s">
+      <c r="B46" s="142" t="s">
         <v>1045</v>
       </c>
-      <c r="C46" s="151" t="s">
+      <c r="C46" s="150" t="s">
         <v>161</v>
       </c>
-      <c r="D46" s="142">
+      <c r="D46" s="141">
         <v>44145</v>
       </c>
-      <c r="E46" s="153" t="s">
+      <c r="E46" s="152" t="s">
         <v>98</v>
       </c>
-      <c r="F46" s="161" t="s">
+      <c r="F46" s="160" t="s">
         <v>1407</v>
       </c>
       <c r="G46" s="16" t="s">
@@ -49022,19 +49202,19 @@
       </c>
     </row>
     <row r="47" spans="2:8" ht="34" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="143" t="s">
+      <c r="B47" s="142" t="s">
         <v>1045</v>
       </c>
-      <c r="C47" s="146" t="s">
+      <c r="C47" s="145" t="s">
         <v>1276</v>
       </c>
-      <c r="D47" s="142">
+      <c r="D47" s="141">
         <v>44148</v>
       </c>
-      <c r="E47" s="153" t="s">
+      <c r="E47" s="152" t="s">
         <v>98</v>
       </c>
-      <c r="F47" s="161" t="s">
+      <c r="F47" s="160" t="s">
         <v>159</v>
       </c>
       <c r="G47" s="14" t="s">
@@ -49042,19 +49222,19 @@
       </c>
     </row>
     <row r="48" spans="2:8" ht="34" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="143" t="s">
+      <c r="B48" s="142" t="s">
         <v>1045</v>
       </c>
-      <c r="C48" s="151" t="s">
+      <c r="C48" s="150" t="s">
         <v>161</v>
       </c>
-      <c r="D48" s="142">
+      <c r="D48" s="141">
         <v>44148</v>
       </c>
-      <c r="E48" s="153" t="s">
+      <c r="E48" s="152" t="s">
         <v>98</v>
       </c>
-      <c r="F48" s="161" t="s">
+      <c r="F48" s="160" t="s">
         <v>159</v>
       </c>
       <c r="G48" s="14" t="s">
@@ -49062,19 +49242,19 @@
       </c>
     </row>
     <row r="49" spans="2:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="B49" s="143" t="s">
+      <c r="B49" s="142" t="s">
         <v>1045</v>
       </c>
-      <c r="C49" s="151" t="s">
+      <c r="C49" s="150" t="s">
         <v>161</v>
       </c>
-      <c r="D49" s="142">
+      <c r="D49" s="141">
         <v>44148</v>
       </c>
-      <c r="E49" s="153" t="s">
+      <c r="E49" s="152" t="s">
         <v>98</v>
       </c>
-      <c r="F49" s="161" t="s">
+      <c r="F49" s="160" t="s">
         <v>159</v>
       </c>
       <c r="G49" s="14" t="s">
@@ -49082,19 +49262,19 @@
       </c>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B50" s="143" t="s">
+      <c r="B50" s="142" t="s">
         <v>1045</v>
       </c>
-      <c r="C50" s="146" t="s">
+      <c r="C50" s="145" t="s">
         <v>1276</v>
       </c>
-      <c r="D50" s="142">
+      <c r="D50" s="141">
         <v>44148</v>
       </c>
-      <c r="E50" s="153" t="s">
+      <c r="E50" s="152" t="s">
         <v>98</v>
       </c>
-      <c r="F50" s="161" t="s">
+      <c r="F50" s="160" t="s">
         <v>1407</v>
       </c>
       <c r="G50" s="16" t="s">
@@ -49102,19 +49282,19 @@
       </c>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B51" s="143" t="s">
+      <c r="B51" s="142" t="s">
         <v>1045</v>
       </c>
-      <c r="C51" s="151" t="s">
+      <c r="C51" s="150" t="s">
         <v>161</v>
       </c>
-      <c r="D51" s="142">
+      <c r="D51" s="141">
         <v>44148</v>
       </c>
-      <c r="E51" s="153" t="s">
+      <c r="E51" s="152" t="s">
         <v>98</v>
       </c>
-      <c r="F51" s="161" t="s">
+      <c r="F51" s="160" t="s">
         <v>1407</v>
       </c>
       <c r="G51" s="16" t="s">
@@ -49122,19 +49302,19 @@
       </c>
     </row>
     <row r="52" spans="2:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="B52" s="143" t="s">
+      <c r="B52" s="142" t="s">
         <v>1045</v>
       </c>
-      <c r="C52" s="147" t="s">
+      <c r="C52" s="146" t="s">
         <v>1277</v>
       </c>
-      <c r="D52" s="142">
+      <c r="D52" s="141">
         <v>44148</v>
       </c>
-      <c r="E52" s="153" t="s">
+      <c r="E52" s="152" t="s">
         <v>98</v>
       </c>
-      <c r="F52" s="161" t="s">
+      <c r="F52" s="160" t="s">
         <v>1412</v>
       </c>
       <c r="G52" s="14" t="s">
@@ -49142,19 +49322,19 @@
       </c>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B53" s="143" t="s">
+      <c r="B53" s="142" t="s">
         <v>1045</v>
       </c>
-      <c r="C53" s="146" t="s">
+      <c r="C53" s="145" t="s">
         <v>1276</v>
       </c>
-      <c r="D53" s="142">
+      <c r="D53" s="141">
         <v>44152</v>
       </c>
-      <c r="E53" s="153" t="s">
+      <c r="E53" s="152" t="s">
         <v>98</v>
       </c>
-      <c r="F53" s="161" t="s">
+      <c r="F53" s="160" t="s">
         <v>159</v>
       </c>
       <c r="G53" s="14" t="s">
@@ -49162,19 +49342,19 @@
       </c>
     </row>
     <row r="54" spans="2:9" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B54" s="143" t="s">
+      <c r="B54" s="142" t="s">
         <v>1045</v>
       </c>
-      <c r="C54" s="151" t="s">
+      <c r="C54" s="150" t="s">
         <v>161</v>
       </c>
-      <c r="D54" s="142">
+      <c r="D54" s="141">
         <v>44152</v>
       </c>
-      <c r="E54" s="153" t="s">
+      <c r="E54" s="152" t="s">
         <v>98</v>
       </c>
-      <c r="F54" s="161" t="s">
+      <c r="F54" s="160" t="s">
         <v>159</v>
       </c>
       <c r="G54" s="132" t="s">
@@ -49182,19 +49362,19 @@
       </c>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B55" s="143" t="s">
+      <c r="B55" s="142" t="s">
         <v>1045</v>
       </c>
-      <c r="C55" s="146" t="s">
+      <c r="C55" s="145" t="s">
         <v>1276</v>
       </c>
-      <c r="D55" s="142">
+      <c r="D55" s="141">
         <v>44152</v>
       </c>
-      <c r="E55" s="153" t="s">
+      <c r="E55" s="152" t="s">
         <v>98</v>
       </c>
-      <c r="F55" s="161" t="s">
+      <c r="F55" s="160" t="s">
         <v>1407</v>
       </c>
       <c r="G55" s="14" t="s">
@@ -49202,19 +49382,19 @@
       </c>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B56" s="143" t="s">
+      <c r="B56" s="142" t="s">
         <v>1045</v>
       </c>
-      <c r="C56" s="146" t="s">
+      <c r="C56" s="145" t="s">
         <v>1276</v>
       </c>
-      <c r="D56" s="142">
+      <c r="D56" s="141">
         <v>44152</v>
       </c>
-      <c r="E56" s="153" t="s">
+      <c r="E56" s="152" t="s">
         <v>98</v>
       </c>
-      <c r="F56" s="161" t="s">
+      <c r="F56" s="160" t="s">
         <v>1412</v>
       </c>
       <c r="G56" s="14" t="s">
@@ -49222,19 +49402,19 @@
       </c>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B57" s="143" t="s">
+      <c r="B57" s="142" t="s">
         <v>840</v>
       </c>
-      <c r="C57" s="147" t="s">
+      <c r="C57" s="146" t="s">
         <v>1277</v>
       </c>
-      <c r="D57" s="142">
+      <c r="D57" s="141">
         <v>44145</v>
       </c>
-      <c r="E57" s="153" t="s">
+      <c r="E57" s="152" t="s">
         <v>93</v>
       </c>
-      <c r="F57" s="161" t="s">
+      <c r="F57" s="160" t="s">
         <v>1412</v>
       </c>
       <c r="G57" s="16" t="s">
@@ -49248,19 +49428,19 @@
       </c>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B58" s="143" t="s">
+      <c r="B58" s="142" t="s">
         <v>840</v>
       </c>
-      <c r="C58" s="147" t="s">
+      <c r="C58" s="146" t="s">
         <v>1277</v>
       </c>
-      <c r="D58" s="142">
+      <c r="D58" s="141">
         <v>44145</v>
       </c>
-      <c r="E58" s="153" t="s">
+      <c r="E58" s="152" t="s">
         <v>93</v>
       </c>
-      <c r="F58" s="160" t="s">
+      <c r="F58" s="159" t="s">
         <v>1412</v>
       </c>
       <c r="G58" s="16" t="s">
@@ -49268,19 +49448,19 @@
       </c>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B59" s="148" t="s">
+      <c r="B59" s="147" t="s">
         <v>840</v>
       </c>
-      <c r="C59" s="151" t="s">
+      <c r="C59" s="150" t="s">
         <v>161</v>
       </c>
-      <c r="D59" s="142">
+      <c r="D59" s="141">
         <v>44145</v>
       </c>
-      <c r="E59" s="154" t="s">
+      <c r="E59" s="153" t="s">
         <v>825</v>
       </c>
-      <c r="F59" s="161" t="s">
+      <c r="F59" s="160" t="s">
         <v>159</v>
       </c>
       <c r="G59" s="16" t="s">
@@ -49288,19 +49468,19 @@
       </c>
     </row>
     <row r="60" spans="2:9" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B60" s="148" t="s">
+      <c r="B60" s="147" t="s">
         <v>840</v>
       </c>
-      <c r="C60" s="151" t="s">
+      <c r="C60" s="150" t="s">
         <v>161</v>
       </c>
-      <c r="D60" s="142">
+      <c r="D60" s="141">
         <v>44145</v>
       </c>
-      <c r="E60" s="154" t="s">
+      <c r="E60" s="153" t="s">
         <v>93</v>
       </c>
-      <c r="F60" s="161" t="s">
+      <c r="F60" s="160" t="s">
         <v>1060</v>
       </c>
       <c r="G60" s="16" t="s">
@@ -49314,19 +49494,19 @@
       </c>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B61" s="148" t="s">
+      <c r="B61" s="147" t="s">
         <v>840</v>
       </c>
-      <c r="C61" s="151" t="s">
+      <c r="C61" s="150" t="s">
         <v>161</v>
       </c>
-      <c r="D61" s="142">
+      <c r="D61" s="141">
         <v>44148</v>
       </c>
-      <c r="E61" s="154" t="s">
+      <c r="E61" s="153" t="s">
         <v>93</v>
       </c>
-      <c r="F61" s="161" t="s">
+      <c r="F61" s="160" t="s">
         <v>159</v>
       </c>
       <c r="G61" s="16" t="s">
@@ -49334,19 +49514,19 @@
       </c>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B62" s="148" t="s">
+      <c r="B62" s="147" t="s">
         <v>840</v>
       </c>
-      <c r="C62" s="151" t="s">
+      <c r="C62" s="150" t="s">
         <v>161</v>
       </c>
-      <c r="D62" s="142">
+      <c r="D62" s="141">
         <v>44148</v>
       </c>
-      <c r="E62" s="154" t="s">
+      <c r="E62" s="153" t="s">
         <v>93</v>
       </c>
-      <c r="F62" s="161" t="s">
+      <c r="F62" s="160" t="s">
         <v>1060</v>
       </c>
       <c r="G62" s="16" t="s">
@@ -49354,19 +49534,19 @@
       </c>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B63" s="148" t="s">
+      <c r="B63" s="147" t="s">
         <v>840</v>
       </c>
-      <c r="C63" s="151" t="s">
+      <c r="C63" s="150" t="s">
         <v>161</v>
       </c>
-      <c r="D63" s="142">
+      <c r="D63" s="141">
         <v>44148</v>
       </c>
-      <c r="E63" s="154" t="s">
+      <c r="E63" s="153" t="s">
         <v>93</v>
       </c>
-      <c r="F63" s="161" t="s">
+      <c r="F63" s="160" t="s">
         <v>1060</v>
       </c>
       <c r="G63" s="16" t="s">
@@ -49374,19 +49554,19 @@
       </c>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B64" s="148" t="s">
+      <c r="B64" s="147" t="s">
         <v>840</v>
       </c>
-      <c r="C64" s="151" t="s">
+      <c r="C64" s="150" t="s">
         <v>161</v>
       </c>
-      <c r="D64" s="142">
+      <c r="D64" s="141">
         <v>44148</v>
       </c>
-      <c r="E64" s="154" t="s">
+      <c r="E64" s="153" t="s">
         <v>93</v>
       </c>
-      <c r="F64" s="161" t="s">
+      <c r="F64" s="160" t="s">
         <v>1412</v>
       </c>
       <c r="G64" s="16" t="s">
@@ -49394,19 +49574,19 @@
       </c>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B65" s="148" t="s">
+      <c r="B65" s="147" t="s">
         <v>840</v>
       </c>
-      <c r="C65" s="151" t="s">
+      <c r="C65" s="150" t="s">
         <v>161</v>
       </c>
-      <c r="D65" s="142">
+      <c r="D65" s="141">
         <v>44152</v>
       </c>
-      <c r="E65" s="154" t="s">
+      <c r="E65" s="153" t="s">
         <v>93</v>
       </c>
-      <c r="F65" s="161" t="s">
+      <c r="F65" s="160" t="s">
         <v>159</v>
       </c>
       <c r="G65" s="16" t="s">
@@ -49414,19 +49594,19 @@
       </c>
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B66" s="148" t="s">
+      <c r="B66" s="147" t="s">
         <v>840</v>
       </c>
-      <c r="C66" s="151" t="s">
+      <c r="C66" s="150" t="s">
         <v>161</v>
       </c>
-      <c r="D66" s="142">
+      <c r="D66" s="141">
         <v>44152</v>
       </c>
-      <c r="E66" s="154" t="s">
+      <c r="E66" s="153" t="s">
         <v>93</v>
       </c>
-      <c r="F66" s="161" t="s">
+      <c r="F66" s="160" t="s">
         <v>1060</v>
       </c>
       <c r="G66" s="16" t="s">
@@ -49434,19 +49614,19 @@
       </c>
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B67" s="148" t="s">
+      <c r="B67" s="147" t="s">
         <v>840</v>
       </c>
-      <c r="C67" s="146" t="s">
+      <c r="C67" s="145" t="s">
         <v>1276</v>
       </c>
-      <c r="D67" s="142">
+      <c r="D67" s="141">
         <v>44152</v>
       </c>
-      <c r="E67" s="154" t="s">
+      <c r="E67" s="153" t="s">
         <v>93</v>
       </c>
-      <c r="F67" s="161" t="s">
+      <c r="F67" s="160" t="s">
         <v>1412</v>
       </c>
       <c r="G67" s="16" t="s">
@@ -49454,19 +49634,19 @@
       </c>
     </row>
     <row r="68" spans="2:8" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="149" t="s">
+      <c r="B68" s="148" t="s">
         <v>1287</v>
       </c>
-      <c r="C68" s="151" t="s">
+      <c r="C68" s="150" t="s">
         <v>161</v>
       </c>
-      <c r="D68" s="142">
+      <c r="D68" s="141">
         <v>44145</v>
       </c>
-      <c r="E68" s="155" t="s">
+      <c r="E68" s="154" t="s">
         <v>98</v>
       </c>
-      <c r="F68" s="160"/>
+      <c r="F68" s="159"/>
       <c r="G68" s="16" t="s">
         <v>1388</v>
       </c>
@@ -49475,721 +49655,721 @@
       </c>
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B69" s="149" t="s">
+      <c r="B69" s="148" t="s">
         <v>1292</v>
       </c>
-      <c r="E69" s="152"/>
-      <c r="F69" s="160"/>
+      <c r="E69" s="151"/>
+      <c r="F69" s="159"/>
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B70" s="149" t="s">
+      <c r="B70" s="148" t="s">
         <v>1293</v>
       </c>
-      <c r="E70" s="152"/>
-      <c r="F70" s="160"/>
+      <c r="E70" s="151"/>
+      <c r="F70" s="159"/>
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B71" s="149" t="s">
+      <c r="B71" s="148" t="s">
         <v>1294</v>
       </c>
-      <c r="E71" s="152"/>
-      <c r="F71" s="160"/>
+      <c r="E71" s="151"/>
+      <c r="F71" s="159"/>
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B72" s="149" t="s">
+      <c r="B72" s="148" t="s">
         <v>1295</v>
       </c>
-      <c r="E72" s="152"/>
-      <c r="F72" s="160"/>
+      <c r="E72" s="151"/>
+      <c r="F72" s="159"/>
     </row>
     <row r="73" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B73" s="149" t="s">
+      <c r="B73" s="148" t="s">
         <v>1296</v>
       </c>
-      <c r="E73" s="152"/>
-      <c r="F73" s="160"/>
+      <c r="E73" s="151"/>
+      <c r="F73" s="159"/>
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B74" s="149" t="s">
+      <c r="B74" s="148" t="s">
         <v>1297</v>
       </c>
-      <c r="E74" s="152"/>
-      <c r="F74" s="160"/>
+      <c r="E74" s="151"/>
+      <c r="F74" s="159"/>
     </row>
     <row r="75" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B75" s="149" t="s">
+      <c r="B75" s="148" t="s">
         <v>1298</v>
       </c>
-      <c r="E75" s="152"/>
-      <c r="F75" s="160"/>
+      <c r="E75" s="151"/>
+      <c r="F75" s="159"/>
     </row>
     <row r="76" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B76" s="149" t="s">
+      <c r="B76" s="148" t="s">
         <v>1299</v>
       </c>
-      <c r="E76" s="152"/>
-      <c r="F76" s="160"/>
+      <c r="E76" s="151"/>
+      <c r="F76" s="159"/>
     </row>
     <row r="77" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B77" s="149" t="s">
+      <c r="B77" s="148" t="s">
         <v>1300</v>
       </c>
-      <c r="E77" s="152"/>
-      <c r="F77" s="160"/>
+      <c r="E77" s="151"/>
+      <c r="F77" s="159"/>
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B78" s="149" t="s">
+      <c r="B78" s="148" t="s">
         <v>1301</v>
       </c>
-      <c r="E78" s="152"/>
-      <c r="F78" s="160"/>
+      <c r="E78" s="151"/>
+      <c r="F78" s="159"/>
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B79" s="149" t="s">
+      <c r="B79" s="148" t="s">
         <v>1302</v>
       </c>
-      <c r="E79" s="152"/>
-      <c r="F79" s="160"/>
+      <c r="E79" s="151"/>
+      <c r="F79" s="159"/>
     </row>
     <row r="80" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B80" s="149" t="s">
+      <c r="B80" s="148" t="s">
         <v>1303</v>
       </c>
-      <c r="E80" s="152"/>
-      <c r="F80" s="160"/>
+      <c r="E80" s="151"/>
+      <c r="F80" s="159"/>
     </row>
     <row r="81" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B81" s="149" t="s">
+      <c r="B81" s="148" t="s">
         <v>1304</v>
       </c>
-      <c r="E81" s="152"/>
-      <c r="F81" s="160"/>
+      <c r="E81" s="151"/>
+      <c r="F81" s="159"/>
     </row>
     <row r="82" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B82" s="149" t="s">
+      <c r="B82" s="148" t="s">
         <v>1305</v>
       </c>
-      <c r="E82" s="152"/>
-      <c r="F82" s="160"/>
+      <c r="E82" s="151"/>
+      <c r="F82" s="159"/>
     </row>
     <row r="83" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B83" s="149" t="s">
+      <c r="B83" s="148" t="s">
         <v>1306</v>
       </c>
-      <c r="E83" s="152"/>
-      <c r="F83" s="160"/>
+      <c r="E83" s="151"/>
+      <c r="F83" s="159"/>
     </row>
     <row r="84" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B84" s="149" t="s">
+      <c r="B84" s="148" t="s">
         <v>1307</v>
       </c>
-      <c r="E84" s="152"/>
-      <c r="F84" s="160"/>
+      <c r="E84" s="151"/>
+      <c r="F84" s="159"/>
     </row>
     <row r="85" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B85" s="149"/>
-      <c r="E85" s="152"/>
-      <c r="F85" s="160"/>
+      <c r="B85" s="148"/>
+      <c r="E85" s="151"/>
+      <c r="F85" s="159"/>
     </row>
     <row r="86" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B86" s="149"/>
-      <c r="E86" s="152"/>
-      <c r="F86" s="160"/>
+      <c r="B86" s="148"/>
+      <c r="E86" s="151"/>
+      <c r="F86" s="159"/>
     </row>
     <row r="87" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B87" s="149"/>
-      <c r="E87" s="152"/>
-      <c r="F87" s="160"/>
+      <c r="B87" s="148"/>
+      <c r="E87" s="151"/>
+      <c r="F87" s="159"/>
     </row>
     <row r="88" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B88" s="149"/>
-      <c r="E88" s="152"/>
-      <c r="F88" s="160"/>
+      <c r="B88" s="148"/>
+      <c r="E88" s="151"/>
+      <c r="F88" s="159"/>
     </row>
     <row r="89" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B89" s="149"/>
-      <c r="E89" s="152"/>
-      <c r="F89" s="160"/>
+      <c r="B89" s="148"/>
+      <c r="E89" s="151"/>
+      <c r="F89" s="159"/>
     </row>
     <row r="90" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B90" s="149"/>
-      <c r="E90" s="152"/>
-      <c r="F90" s="160"/>
+      <c r="B90" s="148"/>
+      <c r="E90" s="151"/>
+      <c r="F90" s="159"/>
     </row>
     <row r="91" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B91" s="149"/>
-      <c r="E91" s="152"/>
-      <c r="F91" s="160"/>
+      <c r="B91" s="148"/>
+      <c r="E91" s="151"/>
+      <c r="F91" s="159"/>
     </row>
     <row r="92" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B92" s="149"/>
-      <c r="E92" s="152"/>
-      <c r="F92" s="160"/>
+      <c r="B92" s="148"/>
+      <c r="E92" s="151"/>
+      <c r="F92" s="159"/>
     </row>
     <row r="93" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B93" s="149"/>
-      <c r="E93" s="152"/>
-      <c r="F93" s="160"/>
+      <c r="B93" s="148"/>
+      <c r="E93" s="151"/>
+      <c r="F93" s="159"/>
     </row>
     <row r="94" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B94" s="149"/>
-      <c r="E94" s="152"/>
-      <c r="F94" s="160"/>
+      <c r="B94" s="148"/>
+      <c r="E94" s="151"/>
+      <c r="F94" s="159"/>
     </row>
     <row r="95" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B95" s="149"/>
-      <c r="E95" s="152"/>
-      <c r="F95" s="160"/>
+      <c r="B95" s="148"/>
+      <c r="E95" s="151"/>
+      <c r="F95" s="159"/>
     </row>
     <row r="96" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B96" s="149"/>
-      <c r="E96" s="152"/>
-      <c r="F96" s="160"/>
+      <c r="B96" s="148"/>
+      <c r="E96" s="151"/>
+      <c r="F96" s="159"/>
     </row>
     <row r="97" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B97" s="149"/>
-      <c r="E97" s="152"/>
-      <c r="F97" s="160"/>
+      <c r="B97" s="148"/>
+      <c r="E97" s="151"/>
+      <c r="F97" s="159"/>
     </row>
     <row r="98" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B98" s="149"/>
-      <c r="E98" s="152"/>
-      <c r="F98" s="160"/>
+      <c r="B98" s="148"/>
+      <c r="E98" s="151"/>
+      <c r="F98" s="159"/>
     </row>
     <row r="99" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B99" s="149"/>
-      <c r="E99" s="152"/>
-      <c r="F99" s="160"/>
+      <c r="B99" s="148"/>
+      <c r="E99" s="151"/>
+      <c r="F99" s="159"/>
     </row>
     <row r="100" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B100" s="149"/>
-      <c r="E100" s="152"/>
-      <c r="F100" s="160"/>
+      <c r="B100" s="148"/>
+      <c r="E100" s="151"/>
+      <c r="F100" s="159"/>
     </row>
     <row r="101" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B101" s="149"/>
-      <c r="E101" s="152"/>
-      <c r="F101" s="160"/>
+      <c r="B101" s="148"/>
+      <c r="E101" s="151"/>
+      <c r="F101" s="159"/>
     </row>
     <row r="102" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B102" s="149"/>
-      <c r="E102" s="152"/>
-      <c r="F102" s="160"/>
+      <c r="B102" s="148"/>
+      <c r="E102" s="151"/>
+      <c r="F102" s="159"/>
     </row>
     <row r="103" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B103" s="149"/>
-      <c r="E103" s="152"/>
-      <c r="F103" s="160"/>
+      <c r="B103" s="148"/>
+      <c r="E103" s="151"/>
+      <c r="F103" s="159"/>
     </row>
     <row r="104" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B104" s="149"/>
-      <c r="E104" s="152"/>
-      <c r="F104" s="160"/>
+      <c r="B104" s="148"/>
+      <c r="E104" s="151"/>
+      <c r="F104" s="159"/>
     </row>
     <row r="105" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B105" s="149"/>
-      <c r="E105" s="152"/>
-      <c r="F105" s="160"/>
+      <c r="B105" s="148"/>
+      <c r="E105" s="151"/>
+      <c r="F105" s="159"/>
     </row>
     <row r="106" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B106" s="149"/>
-      <c r="E106" s="152"/>
-      <c r="F106" s="160"/>
+      <c r="B106" s="148"/>
+      <c r="E106" s="151"/>
+      <c r="F106" s="159"/>
     </row>
     <row r="107" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B107" s="149"/>
-      <c r="E107" s="152"/>
-      <c r="F107" s="160"/>
+      <c r="B107" s="148"/>
+      <c r="E107" s="151"/>
+      <c r="F107" s="159"/>
     </row>
     <row r="108" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B108" s="149"/>
-      <c r="E108" s="152"/>
-      <c r="F108" s="160"/>
+      <c r="B108" s="148"/>
+      <c r="E108" s="151"/>
+      <c r="F108" s="159"/>
     </row>
     <row r="109" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B109" s="149"/>
-      <c r="E109" s="152"/>
-      <c r="F109" s="160"/>
+      <c r="B109" s="148"/>
+      <c r="E109" s="151"/>
+      <c r="F109" s="159"/>
     </row>
     <row r="110" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B110" s="149"/>
-      <c r="E110" s="152"/>
-      <c r="F110" s="160"/>
+      <c r="B110" s="148"/>
+      <c r="E110" s="151"/>
+      <c r="F110" s="159"/>
     </row>
     <row r="111" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B111" s="149"/>
-      <c r="E111" s="152"/>
-      <c r="F111" s="160"/>
+      <c r="B111" s="148"/>
+      <c r="E111" s="151"/>
+      <c r="F111" s="159"/>
     </row>
     <row r="112" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B112" s="149"/>
-      <c r="E112" s="152"/>
-      <c r="F112" s="160"/>
+      <c r="B112" s="148"/>
+      <c r="E112" s="151"/>
+      <c r="F112" s="159"/>
     </row>
     <row r="113" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B113" s="149"/>
-      <c r="E113" s="152"/>
-      <c r="F113" s="160"/>
+      <c r="B113" s="148"/>
+      <c r="E113" s="151"/>
+      <c r="F113" s="159"/>
     </row>
     <row r="114" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B114" s="149"/>
-      <c r="E114" s="152"/>
-      <c r="F114" s="160"/>
+      <c r="B114" s="148"/>
+      <c r="E114" s="151"/>
+      <c r="F114" s="159"/>
     </row>
     <row r="115" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B115" s="149"/>
-      <c r="E115" s="152"/>
-      <c r="F115" s="160"/>
+      <c r="B115" s="148"/>
+      <c r="E115" s="151"/>
+      <c r="F115" s="159"/>
     </row>
     <row r="116" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B116" s="149"/>
-      <c r="E116" s="152"/>
-      <c r="F116" s="160"/>
+      <c r="B116" s="148"/>
+      <c r="E116" s="151"/>
+      <c r="F116" s="159"/>
     </row>
     <row r="117" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B117" s="149"/>
-      <c r="E117" s="152"/>
-      <c r="F117" s="160"/>
+      <c r="B117" s="148"/>
+      <c r="E117" s="151"/>
+      <c r="F117" s="159"/>
     </row>
     <row r="118" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B118" s="149"/>
-      <c r="E118" s="152"/>
-      <c r="F118" s="160"/>
+      <c r="B118" s="148"/>
+      <c r="E118" s="151"/>
+      <c r="F118" s="159"/>
     </row>
     <row r="119" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B119" s="149"/>
-      <c r="E119" s="152"/>
-      <c r="F119" s="160"/>
+      <c r="B119" s="148"/>
+      <c r="E119" s="151"/>
+      <c r="F119" s="159"/>
     </row>
     <row r="120" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B120" s="149"/>
-      <c r="E120" s="152"/>
-      <c r="F120" s="160"/>
+      <c r="B120" s="148"/>
+      <c r="E120" s="151"/>
+      <c r="F120" s="159"/>
     </row>
     <row r="121" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B121" s="149"/>
-      <c r="E121" s="152"/>
-      <c r="F121" s="160"/>
+      <c r="B121" s="148"/>
+      <c r="E121" s="151"/>
+      <c r="F121" s="159"/>
     </row>
     <row r="122" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B122" s="149"/>
-      <c r="E122" s="152"/>
-      <c r="F122" s="160"/>
+      <c r="B122" s="148"/>
+      <c r="E122" s="151"/>
+      <c r="F122" s="159"/>
     </row>
     <row r="123" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B123" s="149"/>
-      <c r="E123" s="152"/>
-      <c r="F123" s="160"/>
+      <c r="B123" s="148"/>
+      <c r="E123" s="151"/>
+      <c r="F123" s="159"/>
     </row>
     <row r="124" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B124" s="149"/>
-      <c r="E124" s="152"/>
-      <c r="F124" s="160"/>
+      <c r="B124" s="148"/>
+      <c r="E124" s="151"/>
+      <c r="F124" s="159"/>
     </row>
     <row r="125" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B125" s="149"/>
-      <c r="E125" s="152"/>
-      <c r="F125" s="160"/>
+      <c r="B125" s="148"/>
+      <c r="E125" s="151"/>
+      <c r="F125" s="159"/>
     </row>
     <row r="126" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B126" s="149"/>
-      <c r="E126" s="152"/>
-      <c r="F126" s="160"/>
+      <c r="B126" s="148"/>
+      <c r="E126" s="151"/>
+      <c r="F126" s="159"/>
     </row>
     <row r="127" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B127" s="149"/>
-      <c r="E127" s="152"/>
-      <c r="F127" s="160"/>
+      <c r="B127" s="148"/>
+      <c r="E127" s="151"/>
+      <c r="F127" s="159"/>
     </row>
     <row r="128" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B128" s="149"/>
-      <c r="E128" s="152"/>
-      <c r="F128" s="160"/>
+      <c r="B128" s="148"/>
+      <c r="E128" s="151"/>
+      <c r="F128" s="159"/>
     </row>
     <row r="129" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B129" s="149"/>
-      <c r="E129" s="152"/>
-      <c r="F129" s="160"/>
+      <c r="B129" s="148"/>
+      <c r="E129" s="151"/>
+      <c r="F129" s="159"/>
     </row>
     <row r="130" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B130" s="149"/>
-      <c r="E130" s="152"/>
-      <c r="F130" s="160"/>
+      <c r="B130" s="148"/>
+      <c r="E130" s="151"/>
+      <c r="F130" s="159"/>
     </row>
     <row r="131" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B131" s="149"/>
-      <c r="E131" s="152"/>
-      <c r="F131" s="160"/>
+      <c r="B131" s="148"/>
+      <c r="E131" s="151"/>
+      <c r="F131" s="159"/>
     </row>
     <row r="132" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B132" s="149"/>
-      <c r="E132" s="152"/>
-      <c r="F132" s="160"/>
+      <c r="B132" s="148"/>
+      <c r="E132" s="151"/>
+      <c r="F132" s="159"/>
     </row>
     <row r="133" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B133" s="149"/>
-      <c r="E133" s="152"/>
-      <c r="F133" s="160"/>
+      <c r="B133" s="148"/>
+      <c r="E133" s="151"/>
+      <c r="F133" s="159"/>
     </row>
     <row r="134" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B134" s="149"/>
-      <c r="E134" s="152"/>
-      <c r="F134" s="160"/>
+      <c r="B134" s="148"/>
+      <c r="E134" s="151"/>
+      <c r="F134" s="159"/>
     </row>
     <row r="135" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B135" s="149"/>
-      <c r="E135" s="152"/>
-      <c r="F135" s="160"/>
+      <c r="B135" s="148"/>
+      <c r="E135" s="151"/>
+      <c r="F135" s="159"/>
     </row>
     <row r="136" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B136" s="149"/>
-      <c r="E136" s="152"/>
-      <c r="F136" s="160"/>
+      <c r="B136" s="148"/>
+      <c r="E136" s="151"/>
+      <c r="F136" s="159"/>
     </row>
     <row r="137" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B137" s="149"/>
-      <c r="E137" s="152"/>
-      <c r="F137" s="160"/>
+      <c r="B137" s="148"/>
+      <c r="E137" s="151"/>
+      <c r="F137" s="159"/>
     </row>
     <row r="138" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B138" s="149"/>
-      <c r="E138" s="152"/>
-      <c r="F138" s="160"/>
+      <c r="B138" s="148"/>
+      <c r="E138" s="151"/>
+      <c r="F138" s="159"/>
     </row>
     <row r="139" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B139" s="149"/>
-      <c r="E139" s="152"/>
-      <c r="F139" s="160"/>
+      <c r="B139" s="148"/>
+      <c r="E139" s="151"/>
+      <c r="F139" s="159"/>
     </row>
     <row r="140" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B140" s="149"/>
-      <c r="E140" s="152"/>
-      <c r="F140" s="160"/>
+      <c r="B140" s="148"/>
+      <c r="E140" s="151"/>
+      <c r="F140" s="159"/>
     </row>
     <row r="141" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B141" s="149"/>
-      <c r="E141" s="152"/>
-      <c r="F141" s="160"/>
+      <c r="B141" s="148"/>
+      <c r="E141" s="151"/>
+      <c r="F141" s="159"/>
     </row>
     <row r="142" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="E142" s="152"/>
-      <c r="F142" s="160"/>
+      <c r="E142" s="151"/>
+      <c r="F142" s="159"/>
     </row>
     <row r="143" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="E143" s="152"/>
-      <c r="F143" s="160"/>
+      <c r="E143" s="151"/>
+      <c r="F143" s="159"/>
     </row>
     <row r="144" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="E144" s="152"/>
-      <c r="F144" s="160"/>
+      <c r="E144" s="151"/>
+      <c r="F144" s="159"/>
     </row>
     <row r="145" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E145" s="152"/>
-      <c r="F145" s="160"/>
+      <c r="E145" s="151"/>
+      <c r="F145" s="159"/>
     </row>
     <row r="146" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E146" s="152"/>
-      <c r="F146" s="160"/>
+      <c r="E146" s="151"/>
+      <c r="F146" s="159"/>
     </row>
     <row r="147" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E147" s="152"/>
-      <c r="F147" s="160"/>
+      <c r="E147" s="151"/>
+      <c r="F147" s="159"/>
     </row>
     <row r="148" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E148" s="152"/>
-      <c r="F148" s="160"/>
+      <c r="E148" s="151"/>
+      <c r="F148" s="159"/>
     </row>
     <row r="149" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E149" s="152"/>
-      <c r="F149" s="160"/>
+      <c r="E149" s="151"/>
+      <c r="F149" s="159"/>
     </row>
     <row r="150" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E150" s="152"/>
-      <c r="F150" s="160"/>
+      <c r="E150" s="151"/>
+      <c r="F150" s="159"/>
     </row>
     <row r="151" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E151" s="152"/>
-      <c r="F151" s="160"/>
+      <c r="E151" s="151"/>
+      <c r="F151" s="159"/>
     </row>
     <row r="152" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E152" s="152"/>
-      <c r="F152" s="160"/>
+      <c r="E152" s="151"/>
+      <c r="F152" s="159"/>
     </row>
     <row r="153" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E153" s="152"/>
-      <c r="F153" s="160"/>
+      <c r="E153" s="151"/>
+      <c r="F153" s="159"/>
     </row>
     <row r="154" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E154" s="152"/>
-      <c r="F154" s="160"/>
+      <c r="E154" s="151"/>
+      <c r="F154" s="159"/>
     </row>
     <row r="155" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E155" s="152"/>
-      <c r="F155" s="160"/>
+      <c r="E155" s="151"/>
+      <c r="F155" s="159"/>
     </row>
     <row r="156" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E156" s="152"/>
-      <c r="F156" s="160"/>
+      <c r="E156" s="151"/>
+      <c r="F156" s="159"/>
     </row>
     <row r="157" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E157" s="152"/>
-      <c r="F157" s="160"/>
+      <c r="E157" s="151"/>
+      <c r="F157" s="159"/>
     </row>
     <row r="158" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E158" s="152"/>
-      <c r="F158" s="160"/>
+      <c r="E158" s="151"/>
+      <c r="F158" s="159"/>
     </row>
     <row r="159" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E159" s="152"/>
-      <c r="F159" s="160"/>
+      <c r="E159" s="151"/>
+      <c r="F159" s="159"/>
     </row>
     <row r="160" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E160" s="152"/>
-      <c r="F160" s="160"/>
+      <c r="E160" s="151"/>
+      <c r="F160" s="159"/>
     </row>
     <row r="161" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E161" s="152"/>
-      <c r="F161" s="160"/>
+      <c r="E161" s="151"/>
+      <c r="F161" s="159"/>
     </row>
     <row r="162" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E162" s="152"/>
-      <c r="F162" s="160"/>
+      <c r="E162" s="151"/>
+      <c r="F162" s="159"/>
     </row>
     <row r="163" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E163" s="152"/>
-      <c r="F163" s="160"/>
+      <c r="E163" s="151"/>
+      <c r="F163" s="159"/>
     </row>
     <row r="164" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E164" s="152"/>
-      <c r="F164" s="160"/>
+      <c r="E164" s="151"/>
+      <c r="F164" s="159"/>
     </row>
     <row r="165" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E165" s="152"/>
-      <c r="F165" s="160"/>
+      <c r="E165" s="151"/>
+      <c r="F165" s="159"/>
     </row>
     <row r="166" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E166" s="152"/>
-      <c r="F166" s="160"/>
+      <c r="E166" s="151"/>
+      <c r="F166" s="159"/>
     </row>
     <row r="167" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E167" s="152"/>
-      <c r="F167" s="160"/>
+      <c r="E167" s="151"/>
+      <c r="F167" s="159"/>
     </row>
     <row r="168" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E168" s="152"/>
-      <c r="F168" s="160"/>
+      <c r="E168" s="151"/>
+      <c r="F168" s="159"/>
     </row>
     <row r="169" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E169" s="152"/>
-      <c r="F169" s="160"/>
+      <c r="E169" s="151"/>
+      <c r="F169" s="159"/>
     </row>
     <row r="170" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E170" s="152"/>
-      <c r="F170" s="160"/>
+      <c r="E170" s="151"/>
+      <c r="F170" s="159"/>
     </row>
     <row r="171" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E171" s="152"/>
-      <c r="F171" s="160"/>
+      <c r="E171" s="151"/>
+      <c r="F171" s="159"/>
     </row>
     <row r="172" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E172" s="152"/>
-      <c r="F172" s="160"/>
+      <c r="E172" s="151"/>
+      <c r="F172" s="159"/>
     </row>
     <row r="173" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E173" s="152"/>
-      <c r="F173" s="160"/>
+      <c r="E173" s="151"/>
+      <c r="F173" s="159"/>
     </row>
     <row r="174" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E174" s="152"/>
-      <c r="F174" s="160"/>
+      <c r="E174" s="151"/>
+      <c r="F174" s="159"/>
     </row>
     <row r="175" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E175" s="152"/>
-      <c r="F175" s="160"/>
+      <c r="E175" s="151"/>
+      <c r="F175" s="159"/>
     </row>
     <row r="176" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E176" s="152"/>
-      <c r="F176" s="160"/>
+      <c r="E176" s="151"/>
+      <c r="F176" s="159"/>
     </row>
     <row r="177" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E177" s="152"/>
-      <c r="F177" s="160"/>
+      <c r="E177" s="151"/>
+      <c r="F177" s="159"/>
     </row>
     <row r="178" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E178" s="152"/>
-      <c r="F178" s="160"/>
+      <c r="E178" s="151"/>
+      <c r="F178" s="159"/>
     </row>
     <row r="179" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E179" s="152"/>
-      <c r="F179" s="160"/>
+      <c r="E179" s="151"/>
+      <c r="F179" s="159"/>
     </row>
     <row r="180" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E180" s="152"/>
-      <c r="F180" s="160"/>
+      <c r="E180" s="151"/>
+      <c r="F180" s="159"/>
     </row>
     <row r="181" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E181" s="152"/>
-      <c r="F181" s="160"/>
+      <c r="E181" s="151"/>
+      <c r="F181" s="159"/>
     </row>
     <row r="182" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E182" s="152"/>
-      <c r="F182" s="160"/>
+      <c r="E182" s="151"/>
+      <c r="F182" s="159"/>
     </row>
     <row r="183" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E183" s="152"/>
-      <c r="F183" s="160"/>
+      <c r="E183" s="151"/>
+      <c r="F183" s="159"/>
     </row>
     <row r="184" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E184" s="152"/>
-      <c r="F184" s="160"/>
+      <c r="E184" s="151"/>
+      <c r="F184" s="159"/>
     </row>
     <row r="185" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E185" s="152"/>
-      <c r="F185" s="160"/>
+      <c r="E185" s="151"/>
+      <c r="F185" s="159"/>
     </row>
     <row r="186" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E186" s="152"/>
-      <c r="F186" s="160"/>
+      <c r="E186" s="151"/>
+      <c r="F186" s="159"/>
     </row>
     <row r="187" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E187" s="152"/>
-      <c r="F187" s="160"/>
+      <c r="E187" s="151"/>
+      <c r="F187" s="159"/>
     </row>
     <row r="188" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E188" s="152"/>
-      <c r="F188" s="160"/>
+      <c r="E188" s="151"/>
+      <c r="F188" s="159"/>
     </row>
     <row r="189" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E189" s="152"/>
-      <c r="F189" s="160"/>
+      <c r="E189" s="151"/>
+      <c r="F189" s="159"/>
     </row>
     <row r="190" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E190" s="152"/>
-      <c r="F190" s="160"/>
+      <c r="E190" s="151"/>
+      <c r="F190" s="159"/>
     </row>
     <row r="191" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E191" s="152"/>
-      <c r="F191" s="160"/>
+      <c r="E191" s="151"/>
+      <c r="F191" s="159"/>
     </row>
     <row r="192" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E192" s="152"/>
-      <c r="F192" s="160"/>
+      <c r="E192" s="151"/>
+      <c r="F192" s="159"/>
     </row>
     <row r="193" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E193" s="152"/>
-      <c r="F193" s="160"/>
+      <c r="E193" s="151"/>
+      <c r="F193" s="159"/>
     </row>
     <row r="194" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E194" s="152"/>
-      <c r="F194" s="160"/>
+      <c r="E194" s="151"/>
+      <c r="F194" s="159"/>
     </row>
     <row r="195" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E195" s="152"/>
-      <c r="F195" s="160"/>
+      <c r="E195" s="151"/>
+      <c r="F195" s="159"/>
     </row>
     <row r="196" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E196" s="152"/>
-      <c r="F196" s="160"/>
+      <c r="E196" s="151"/>
+      <c r="F196" s="159"/>
     </row>
     <row r="197" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E197" s="152"/>
-      <c r="F197" s="160"/>
+      <c r="E197" s="151"/>
+      <c r="F197" s="159"/>
     </row>
     <row r="198" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E198" s="152"/>
-      <c r="F198" s="160"/>
+      <c r="E198" s="151"/>
+      <c r="F198" s="159"/>
     </row>
     <row r="199" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E199" s="152"/>
-      <c r="F199" s="160"/>
+      <c r="E199" s="151"/>
+      <c r="F199" s="159"/>
     </row>
     <row r="200" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E200" s="152"/>
-      <c r="F200" s="160"/>
+      <c r="E200" s="151"/>
+      <c r="F200" s="159"/>
     </row>
     <row r="201" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E201" s="152"/>
-      <c r="F201" s="160"/>
+      <c r="E201" s="151"/>
+      <c r="F201" s="159"/>
     </row>
     <row r="202" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E202" s="152"/>
-      <c r="F202" s="160"/>
+      <c r="E202" s="151"/>
+      <c r="F202" s="159"/>
     </row>
     <row r="203" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E203" s="152"/>
-      <c r="F203" s="160"/>
+      <c r="E203" s="151"/>
+      <c r="F203" s="159"/>
     </row>
     <row r="204" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E204" s="152"/>
-      <c r="F204" s="160"/>
+      <c r="E204" s="151"/>
+      <c r="F204" s="159"/>
     </row>
     <row r="205" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E205" s="152"/>
-      <c r="F205" s="160"/>
+      <c r="E205" s="151"/>
+      <c r="F205" s="159"/>
     </row>
     <row r="206" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E206" s="152"/>
-      <c r="F206" s="160"/>
+      <c r="E206" s="151"/>
+      <c r="F206" s="159"/>
     </row>
     <row r="207" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E207" s="152"/>
-      <c r="F207" s="160"/>
+      <c r="E207" s="151"/>
+      <c r="F207" s="159"/>
     </row>
     <row r="208" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E208" s="152"/>
-      <c r="F208" s="160"/>
+      <c r="E208" s="151"/>
+      <c r="F208" s="159"/>
     </row>
     <row r="209" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E209" s="152"/>
-      <c r="F209" s="160"/>
+      <c r="E209" s="151"/>
+      <c r="F209" s="159"/>
     </row>
     <row r="210" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E210" s="152"/>
-      <c r="F210" s="160"/>
+      <c r="E210" s="151"/>
+      <c r="F210" s="159"/>
     </row>
     <row r="211" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E211" s="152"/>
-      <c r="F211" s="160"/>
+      <c r="E211" s="151"/>
+      <c r="F211" s="159"/>
     </row>
     <row r="212" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E212" s="152"/>
-      <c r="F212" s="160"/>
+      <c r="E212" s="151"/>
+      <c r="F212" s="159"/>
     </row>
     <row r="213" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E213" s="152"/>
-      <c r="F213" s="160"/>
+      <c r="E213" s="151"/>
+      <c r="F213" s="159"/>
     </row>
     <row r="214" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E214" s="152"/>
-      <c r="F214" s="160"/>
+      <c r="E214" s="151"/>
+      <c r="F214" s="159"/>
     </row>
     <row r="215" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E215" s="152"/>
-      <c r="F215" s="160"/>
+      <c r="E215" s="151"/>
+      <c r="F215" s="159"/>
     </row>
     <row r="216" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E216" s="152"/>
-      <c r="F216" s="160"/>
+      <c r="E216" s="151"/>
+      <c r="F216" s="159"/>
     </row>
     <row r="217" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E217" s="152"/>
-      <c r="F217" s="160"/>
+      <c r="E217" s="151"/>
+      <c r="F217" s="159"/>
     </row>
     <row r="218" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E218" s="152"/>
-      <c r="F218" s="160"/>
+      <c r="E218" s="151"/>
+      <c r="F218" s="159"/>
     </row>
     <row r="219" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E219" s="152"/>
-      <c r="F219" s="160"/>
+      <c r="E219" s="151"/>
+      <c r="F219" s="159"/>
     </row>
     <row r="220" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E220" s="152"/>
-      <c r="F220" s="160"/>
+      <c r="E220" s="151"/>
+      <c r="F220" s="159"/>
     </row>
     <row r="221" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E221" s="152"/>
-      <c r="F221" s="160"/>
+      <c r="E221" s="151"/>
+      <c r="F221" s="159"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -50214,10 +50394,10 @@
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A9:M52"/>
+  <dimension ref="A9:M53"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L57" sqref="L57"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.90625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -50814,7 +50994,7 @@
       <c r="B43" s="57" t="s">
         <v>1075</v>
       </c>
-      <c r="L43" s="166" t="s">
+      <c r="L43" s="165" t="s">
         <v>1072</v>
       </c>
       <c r="M43" s="92" t="s">
@@ -50828,7 +51008,7 @@
       <c r="B44" s="93" t="s">
         <v>1080</v>
       </c>
-      <c r="L44" s="166" t="s">
+      <c r="L44" s="165" t="s">
         <v>1074</v>
       </c>
       <c r="M44" s="49"/>
@@ -50882,7 +51062,7 @@
       <c r="B49" s="48" t="s">
         <v>1475</v>
       </c>
-      <c r="L49" s="165" t="s">
+      <c r="L49" s="164" t="s">
         <v>1404</v>
       </c>
       <c r="M49" s="49"/>
@@ -50894,7 +51074,7 @@
       <c r="B50" s="48" t="s">
         <v>1440</v>
       </c>
-      <c r="L50" s="165" t="s">
+      <c r="L50" s="164" t="s">
         <v>1439</v>
       </c>
       <c r="M50" s="49"/>
@@ -50915,10 +51095,22 @@
       <c r="B52" s="48" t="s">
         <v>1474</v>
       </c>
-      <c r="L52" s="165" t="s">
+      <c r="L52" s="164" t="s">
         <v>1473</v>
       </c>
       <c r="M52" s="49"/>
+    </row>
+    <row r="53" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A53" s="47">
+        <v>44</v>
+      </c>
+      <c r="B53" s="48" t="s">
+        <v>1493</v>
+      </c>
+      <c r="L53" s="164" t="s">
+        <v>1492</v>
+      </c>
+      <c r="M53" s="49"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -50928,11 +51120,12 @@
     <hyperlink ref="L49" r:id="rId4" xr:uid="{1EB6B8D7-39B8-4773-B983-4C2CD3FB2089}"/>
     <hyperlink ref="L50" r:id="rId5" xr:uid="{47E25F16-2FA4-41D2-8C0E-DC8D901A0CED}"/>
     <hyperlink ref="L52" r:id="rId6" xr:uid="{9B8166E3-D64F-4190-B88A-364424F077AB}"/>
+    <hyperlink ref="L53" r:id="rId7" xr:uid="{4B6D8A4E-994B-4444-8D03-74F91016BBE9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId7"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
   <tableParts count="1">
-    <tablePart r:id="rId8"/>
+    <tablePart r:id="rId9"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Monitoreo DI.xlsx
+++ b/Monitoreo DI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\DI Monitoreo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9F06BE7-29DC-479A-B2FA-851581313004}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E75297F3-C8CB-4C3B-AC3E-8D3A79E06B87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="833" activeTab="8" xr2:uid="{F0BF9B96-FFF4-4E12-841F-9553B6E1990E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="833" activeTab="9" xr2:uid="{F0BF9B96-FFF4-4E12-841F-9553B6E1990E}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA`S" sheetId="1" r:id="rId1"/>
@@ -112,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5998" uniqueCount="1494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6025" uniqueCount="1507">
   <si>
     <t>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/DATASALUD.svg</t>
   </si>
@@ -4207,32 +4207,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">En </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Data Educación</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> encontrarás información respecto a la calidad de la educación en el país, desde la mirada del conocimiento adquirido y también desde los aspectos sociales y emocionales, que determinan una sana convivencia. </t>
-    </r>
-  </si>
-  <si>
-    <r>
       <rPr>
         <b/>
         <sz val="10"/>
@@ -4300,32 +4274,6 @@
   </si>
   <si>
     <t>Desde el año 1997 al 2020 se han evaluado 621 programas e instituciones, que abarcan 24 ministerios y 98 servicios públicos. ¿Cómo se evalúan estos programas? ¿Qué reaultados se obtuvieron? ¿Cuál es su impacto? Estos son algunos de los aspectos que podrás encontrar en este producto.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">En </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Data Evaluación</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> encontrarás productos que te permitirán tener información respecto a programas e instituciones del sector público, sus evaluaciones, presupuestos, vigencia y ámbitos de aplicación, porque todos merecemos conocer los resultados obtenidos por dichos programas e instituciones que funcionan con recursos públicos.</t>
-    </r>
   </si>
   <si>
     <t>Dirección de Presupuestos, Ministerio de Hacienda, Gobierno de Chile (DIPRES)</t>
@@ -5059,9 +5007,6 @@
     <t>Los informes de calidad de productos no se elaboran por alguna razon relacionadas con quejas o similar. Se hará un listado de los informes que hay pensando en un futuro DATA CALIDAD. La idea es poder exponer cuáles son lso productos con estudio y se puede vincular con algunas otras variables según el producto o establecer ranking de calidad.</t>
   </si>
   <si>
-    <t xml:space="preserve">Hay información vbinculada a la Asociación de consumidores de Chile: presentan muchos proyectos sa los fondos concursables </t>
-  </si>
-  <si>
     <t>ODECU (vinculado a SERNAC quizás)</t>
   </si>
   <si>
@@ -5461,52 +5406,6 @@
   </si>
   <si>
     <r>
-      <t>En América Latina los pueblos originarios representan en promedio el</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> X%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> de la población total. A su vez, esta población forma parte de los 455 pueblos originarios que aún existen en la actualidad. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Data Pueblos</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> posee productos que presentan información detallada sobre los pueblos originarios de Latinoamérca. </t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">Las tormentas tropicales y huracanes nos golpean cada vez con más fuerza a causa de los cambios que está experimentando nuestro planeta. </t>
     </r>
     <r>
@@ -5589,6 +5488,260 @@
   <si>
     <t>DATA BANCO (carolina)</t>
   </si>
+  <si>
+    <r>
+      <t>En América Latina los pueblos indígenas, representan el</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 8,3%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> de la población total de la región. A su vez, esta población forma parte de los 826 pueblos indígenas que han sido contabilizados en la actualidad. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Data Pueblos</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> posee productos que presentan información detallada sobre los pueblos indígenas de Latinoamérica. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">El acceso a la información pública es vital para mantener una sana democracia, promover la confianza de la ciudadanía y fomentar la probidad de los funcionarios públicos. En </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Data Transparencia </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>podrás acceder a productos que contienen información sobre fiscalizaciones a entidades públicas y funcionarios públicos con relación a lobby y probidad, así como también sobre el acceso de la población a la información pública.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Las mujeres representan la mitad de la población mundial, no obstante, históricamente han debido luchar por la igualdad de derechos de mujeres y hombres. Esto sin duda ha repercutido en la posición que las mujeres ocupan hoy en la sociedad y en la forma que muchos hombres se relacionan con ellas. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Data Género </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>reúne productos con información acerca de la participación de las mujeres en el ámbitos público o privado, la violencia que se ejerce contra ellas, entre otras temáticas atingentes a esta materia.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Los recursos hídricos son elementos esenciales para la vida humana, condicionando sus diversas actividades, desde el aseguramiento del agua para consumo humano, producción o industria, hasta la gestión de riesgos como inundaciones y sequías. En </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Data Hidro </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>encontrarás herramientas de gestión y de apoyo a la toma de decisiones en aspectos relacionados al agua y su gestión inteligente basada en datos. Incluye herramientas de apoyo a la planificación y toma de decisiones, así como también herramientas analíticas de utilidad para municipios, ONGs y el sector privado.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">El gasto fiscal nos incumbe a todos, dado que se financia mediante nuestros impuestos. En </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Data Evaluación</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> encontrarás productos que te permitirán tener información respecto a programas e instituciones del sector público, sus evaluaciones, presupuestos, vigencia y ámbitos de aplicación, porque todos merecemos conocer los resultados obtenidos por los programas e instituciones que funcionan con recursos públicos.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">En un contexto de crisis climática como la que estamos viviendo, se hace necesario incorporar la vulnerabilidad climática que poseen los territorios en el análisis que se realiza a los proyectos de inversión que son evaluados en cuanto a su impacto ambiental. En </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Data EIACC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> encontrarás productos que te permitirán identificar la existencia de objetos de protección en zonas de emplazamiento de proyectos, visualizando además la vulnerabilidad climática que dichas zonas poseen. Herramientas fundamentales para desarrolladores de proyectos y líneas base que involucren evaluaciones de impacto ambiental.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">La educación de niños y jóvenes siempre es un tema relevante en la sociedad, tanto para las autoridades como para los padres. Para los últimos, la elección de un colegio se transforma en un proceso estresante si no se cuenta con la información necesaria. Por su parte, las autoridades municipales y de cada establecimiento educacional requieren estar actualizados de manera rápida y eficiente para el desarrollo de estrategias de trabajo y competitividad.  En </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Data Educación</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> encontrarás productos con información respecto a la calidad de la educación en el país, desde la mirada del conocimiento adquirido y también desde los aspectos sociales y emocionales, que determinan una sana convivencia.  </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Los Objetivos de Desarrollo Sostenible (ODS) nacen en 2015 como parte de la Agenda 2030 para el Desarrollo Sostenible y constituyen un llamamiento universal a la acción para poner fin a la pobreza, proteger el planeta y mejorar las vidas y las perspectivas de las personas en todo el mundo . Si bien actualmente se está avanzando en muchos países, a nivel general todavía no se alcanza ni la velocidad, ni la escala necesaria para lograr los 17 Objetivos. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Data ODS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> nace de la necesidad de contar con herramientas dinámicas que permitan monitorear el avance de los países en el cumplimiento de los ODS.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Anuario 2018 3/4 avanceen orden y sistematización. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hay información vinculada a la Asociación de consumidores de Chile: presentan muchos proyectos a los fondos concursables </t>
+  </si>
+  <si>
+    <t>Existe MUCHISIMA información en SERNAC. Evaluar a futuro otros productos y apoyo en la investigación.</t>
+  </si>
+  <si>
+    <t>Propuesta de abordaje del DATA en 3 áreas independientes: Portal Tranparencia, InfoLobby, Info Probidad.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prioridad Portal Transparencia por contingencia política. </t>
+  </si>
+  <si>
+    <t>Priorización de BD a sistematizar</t>
+  </si>
+  <si>
+    <t>Revisión información descargada por informáticos. Vincuación con la descragada por paula y diseño de posible DATA.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Revisión información descargada por informáticos. Orden de títulos de tablas y entender todo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Listo </t>
+  </si>
 </sst>
 </file>
 
@@ -5598,7 +5751,7 @@
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
     <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5723,13 +5876,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF4472C4"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -6023,7 +6169,7 @@
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="178">
+  <cellXfs count="179">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -6388,9 +6534,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -6513,6 +6656,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -9053,6 +9202,7 @@
   </tableStyles>
   <colors>
     <mruColors>
+      <color rgb="FF4472C4"/>
       <color rgb="FFFFB7B7"/>
     </mruColors>
   </colors>
@@ -9393,13 +9543,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>7621</xdr:rowOff>
+      <xdr:rowOff>10796</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>768509</xdr:colOff>
+      <xdr:colOff>771684</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>143511</xdr:rowOff>
+      <xdr:rowOff>140336</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
       <mc:Choice Requires="sle15">
@@ -9471,13 +9621,13 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>858996</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>46991</xdr:rowOff>
+      <xdr:rowOff>50166</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>383381</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>161291</xdr:rowOff>
+      <xdr:rowOff>164466</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
       <mc:Choice Requires="sle15">
@@ -9547,13 +9697,13 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>659606</xdr:colOff>
+      <xdr:colOff>656431</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>67311</xdr:rowOff>
+      <xdr:rowOff>64136</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>2103278</xdr:colOff>
+      <xdr:colOff>2106453</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>152401</xdr:rowOff>
     </xdr:to>
@@ -9625,15 +9775,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>2183288</xdr:colOff>
+      <xdr:colOff>2180113</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>29211</xdr:rowOff>
+      <xdr:rowOff>26036</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>618808</xdr:colOff>
+      <xdr:colOff>621983</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>143511</xdr:rowOff>
+      <xdr:rowOff>140336</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
       <mc:Choice Requires="sle15">
@@ -11603,7 +11753,7 @@
 
 <file path=xl/slicers/slicer2.xml><?xml version="1.0" encoding="utf-8"?>
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
-  <slicer name="Data" xr10:uid="{DC5B16C7-0AA8-4789-BE46-CC500A0CE2D1}" cache="SegmentaciónDeDatos_Data" caption="Data" columnCount="2" rowHeight="234950"/>
+  <slicer name="Data" xr10:uid="{DC5B16C7-0AA8-4789-BE46-CC500A0CE2D1}" cache="SegmentaciónDeDatos_Data" caption="Data" startItem="12" columnCount="2" rowHeight="234950"/>
   <slicer name="Estado" xr10:uid="{B5CDA16E-1F84-4290-AEF3-96C65DB4DD5A}" cache="SegmentaciónDeDatos_Estado" caption="Estado" columnCount="2" rowHeight="234950"/>
   <slicer name="Responsable Desarrollo" xr10:uid="{5F85B909-3D60-4494-A859-CB65DDAD43F0}" cache="SegmentaciónDeDatos_Responsable_Desarrollo" caption="Responsable Desarrollo" startItem="3" columnCount="3" rowHeight="234950"/>
   <slicer name="Responsable Información" xr10:uid="{1509BA93-0D1C-489B-BEEE-3640ADE75D86}" cache="SegmentaciónDeDatos_Responsable_Información" caption="Responsable Información" columnCount="4" rowHeight="234950"/>
@@ -11644,7 +11794,7 @@
 
 <file path=xl/slicers/slicer7.xml><?xml version="1.0" encoding="utf-8"?>
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
-  <slicer name="Data 2" xr10:uid="{80951101-2A2B-4B15-9E33-78D3A7E8B5B0}" cache="SegmentaciónDeDatos_Data2" caption="Data" startItem="10" columnCount="2" style="SlicerStyleDark5" rowHeight="234950"/>
+  <slicer name="Data 2" xr10:uid="{80951101-2A2B-4B15-9E33-78D3A7E8B5B0}" cache="SegmentaciónDeDatos_Data2" caption="Data" columnCount="2" style="SlicerStyleDark5" rowHeight="234950"/>
   <slicer name="País" xr10:uid="{75A217B5-277A-4B68-8268-AEA4271B985B}" cache="SegmentaciónDeDatos_País" caption="País" style="SlicerStyleDark5" rowHeight="234950"/>
   <slicer name="Estado 2" xr10:uid="{271E2C58-B673-4F76-A62E-46B7337EB1E5}" cache="SegmentaciónDeDatos_Estado2" caption="Estado" style="SlicerStyleDark6" rowHeight="234950"/>
   <slicer name="Avance [0-100%]" xr10:uid="{3E416F9C-0DF4-4E82-9BCC-0ABC5F831734}" cache="SegmentaciónDeDatos_Avance__0_100" caption="Avance [0-100%]" columnCount="3" style="SlicerStyleDark5" rowHeight="234950"/>
@@ -11710,13 +11860,7 @@
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B0304927-521B-4559-963B-3C591C746F11}" name="PRODUCTOS" displayName="PRODUCTOS" ref="A7:BD96" totalsRowShown="0" headerRowDxfId="167">
-  <autoFilter ref="A7:BD96" xr:uid="{B45D9B6D-7E6E-4374-A7A8-688EAA2C002B}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="DATACLIMA"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A7:BD96" xr:uid="{B45D9B6D-7E6E-4374-A7A8-688EAA2C002B}"/>
   <tableColumns count="56">
     <tableColumn id="1" xr3:uid="{01CFB9DB-FBAD-4A9E-9D8F-5FB3EB42A9EB}" name="id_data" dataDxfId="166" totalsRowDxfId="165">
       <calculatedColumnFormula>+VLOOKUP(D8,'DATA`S'!$B$8:$C$33,2,0)</calculatedColumnFormula>
@@ -11863,8 +12007,8 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{E94DB916-DE89-4F64-9EF8-AFB72BA8FF61}" name="Tabla14" displayName="Tabla14" ref="A12:I80" totalsRowShown="0" headerRowDxfId="89" dataDxfId="88">
-  <autoFilter ref="A12:I80" xr:uid="{14629A1E-D5D5-412C-8FAB-488411430C85}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{E94DB916-DE89-4F64-9EF8-AFB72BA8FF61}" name="Tabla14" displayName="Tabla14" ref="A12:I89" totalsRowShown="0" headerRowDxfId="89" dataDxfId="88">
+  <autoFilter ref="A12:I89" xr:uid="{14629A1E-D5D5-412C-8FAB-488411430C85}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{7299EEE0-40CF-4EF5-8F0C-C1FFA863E5B5}" name="N°" dataDxfId="87"/>
     <tableColumn id="2" xr3:uid="{9E84EC16-0161-44D0-9CB9-123C0428ADAD}" name="Tema/institución Investigación " dataDxfId="86"/>
@@ -12278,8 +12422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{167569FB-0D63-486E-90FA-C6B113AE5A31}">
   <dimension ref="B5:K33"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView showGridLines="0" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12345,7 +12489,7 @@
         <v>98</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="3" t="s">
@@ -12375,7 +12519,7 @@
         <v>99</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="46" t="s">
@@ -12405,7 +12549,7 @@
         <v>123</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="46" t="s">
@@ -12465,7 +12609,7 @@
         <v>131</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="46" t="s">
@@ -12495,7 +12639,7 @@
         <v>127</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="3" t="s">
@@ -12523,7 +12667,7 @@
         <v>95</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="3" t="s">
@@ -12536,7 +12680,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="2:11" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:11" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B15" s="1" t="s">
         <v>9</v>
       </c>
@@ -12552,7 +12696,9 @@
       <c r="F15" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="G15" s="1"/>
+      <c r="G15" s="2" t="s">
+        <v>1492</v>
+      </c>
       <c r="H15" s="1"/>
       <c r="I15" s="3" t="s">
         <v>176</v>
@@ -12581,7 +12727,7 @@
         <v>170</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="3" t="s">
@@ -12592,7 +12738,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="2:11" ht="75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:11" ht="185.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="1" t="s">
         <v>11</v>
       </c>
@@ -12608,8 +12754,8 @@
       <c r="F17" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="G17" s="136" t="s">
-        <v>1349</v>
+      <c r="G17" s="99" t="s">
+        <v>1496</v>
       </c>
       <c r="H17" s="134" t="s">
         <v>1347</v>
@@ -12640,8 +12786,8 @@
       <c r="F18" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="G18" s="177" t="s">
-        <v>1490</v>
+      <c r="G18" s="176" t="s">
+        <v>1486</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="46" t="s">
@@ -12670,8 +12816,8 @@
       <c r="F19" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="G19" s="137" t="s">
-        <v>1350</v>
+      <c r="G19" s="136" t="s">
+        <v>1349</v>
       </c>
       <c r="H19" s="7"/>
       <c r="I19" s="46" t="s">
@@ -12701,7 +12847,7 @@
         <v>129</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>1491</v>
+        <v>1487</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="3" t="s">
@@ -12712,7 +12858,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:11" ht="119" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="1" t="s">
         <v>15</v>
       </c>
@@ -12728,7 +12874,9 @@
       <c r="F21" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="G21" s="1"/>
+      <c r="G21" s="2" t="s">
+        <v>1491</v>
+      </c>
       <c r="H21" s="1"/>
       <c r="I21" s="3" t="s">
         <v>176</v>
@@ -12738,7 +12886,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="22" spans="2:11" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:11" ht="157" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="1" t="s">
         <v>16</v>
       </c>
@@ -12754,7 +12902,9 @@
       <c r="F22" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="G22" s="1"/>
+      <c r="G22" s="2" t="s">
+        <v>1493</v>
+      </c>
       <c r="H22" s="1"/>
       <c r="I22" s="3" t="s">
         <v>176</v>
@@ -12782,8 +12932,8 @@
       <c r="F23" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="G23" s="177" t="s">
-        <v>1487</v>
+      <c r="G23" s="176" t="s">
+        <v>1484</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="46" t="s">
@@ -12813,7 +12963,7 @@
         <v>164</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="3" t="s">
@@ -12842,8 +12992,8 @@
       <c r="F25" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="G25" s="136" t="s">
-        <v>1359</v>
+      <c r="G25" s="99" t="s">
+        <v>1494</v>
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="3" t="s">
@@ -12873,7 +13023,7 @@
         <v>125</v>
       </c>
       <c r="G26" s="132" t="s">
-        <v>1488</v>
+        <v>1490</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>176</v>
@@ -12885,7 +13035,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:11" ht="166" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="1" t="s">
         <v>930</v>
       </c>
@@ -12897,13 +13047,15 @@
       <c r="F27" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="G27" s="1"/>
+      <c r="G27" s="2" t="s">
+        <v>1495</v>
+      </c>
       <c r="H27" s="1"/>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:11" ht="159.5" x14ac:dyDescent="0.35">
       <c r="B28" s="1" t="s">
         <v>838</v>
       </c>
@@ -12915,8 +13067,10 @@
       <c r="F28" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
+      <c r="G28" s="2" t="s">
+        <v>1497</v>
+      </c>
+      <c r="H28" s="134"/>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
@@ -12987,9 +13141,9 @@
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
     </row>
-    <row r="33" spans="2:11" ht="87" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:11" ht="102.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B33" s="1" t="s">
-        <v>1470</v>
+        <v>1467</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>1101</v>
@@ -12998,7 +13152,7 @@
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
       <c r="G33" s="132" t="s">
-        <v>1489</v>
+        <v>1485</v>
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="3"/>
@@ -13039,10 +13193,10 @@
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A12:I85"/>
+  <dimension ref="A12:I94"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:C80"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A69" sqref="A69:XFD69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.90625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -13091,7 +13245,7 @@
       <c r="A13" s="47">
         <v>1</v>
       </c>
-      <c r="B13" s="166" t="s">
+      <c r="B13" s="165" t="s">
         <v>853</v>
       </c>
       <c r="C13" s="53" t="s">
@@ -13113,7 +13267,7 @@
       <c r="A14" s="47">
         <v>1</v>
       </c>
-      <c r="B14" s="166" t="s">
+      <c r="B14" s="165" t="s">
         <v>853</v>
       </c>
       <c r="C14" s="53" t="s">
@@ -13135,7 +13289,7 @@
       <c r="A15" s="47">
         <v>1</v>
       </c>
-      <c r="B15" s="166" t="s">
+      <c r="B15" s="165" t="s">
         <v>853</v>
       </c>
       <c r="C15" s="53" t="s">
@@ -13157,7 +13311,7 @@
       <c r="A16" s="47">
         <v>1</v>
       </c>
-      <c r="B16" s="166" t="s">
+      <c r="B16" s="165" t="s">
         <v>853</v>
       </c>
       <c r="C16" s="53" t="s">
@@ -13179,7 +13333,7 @@
       <c r="A17" s="56">
         <v>1</v>
       </c>
-      <c r="B17" s="166" t="s">
+      <c r="B17" s="165" t="s">
         <v>853</v>
       </c>
       <c r="C17" s="53" t="s">
@@ -13203,7 +13357,7 @@
       <c r="A18" s="56">
         <v>1</v>
       </c>
-      <c r="B18" s="166" t="s">
+      <c r="B18" s="165" t="s">
         <v>853</v>
       </c>
       <c r="C18" s="53" t="s">
@@ -13227,7 +13381,7 @@
       <c r="A19" s="56">
         <v>1</v>
       </c>
-      <c r="B19" s="166" t="s">
+      <c r="B19" s="165" t="s">
         <v>853</v>
       </c>
       <c r="C19" s="53" t="s">
@@ -13249,7 +13403,7 @@
       <c r="A20" s="56">
         <v>1</v>
       </c>
-      <c r="B20" s="166" t="s">
+      <c r="B20" s="165" t="s">
         <v>853</v>
       </c>
       <c r="C20" s="53" t="s">
@@ -13271,7 +13425,7 @@
       <c r="A21" s="56">
         <v>1</v>
       </c>
-      <c r="B21" s="166" t="s">
+      <c r="B21" s="165" t="s">
         <v>853</v>
       </c>
       <c r="C21" s="53" t="s">
@@ -13293,7 +13447,7 @@
       <c r="A22" s="56">
         <v>1</v>
       </c>
-      <c r="B22" s="166" t="s">
+      <c r="B22" s="165" t="s">
         <v>853</v>
       </c>
       <c r="C22" s="53" t="s">
@@ -13315,7 +13469,7 @@
       <c r="A23" s="56">
         <v>1</v>
       </c>
-      <c r="B23" s="166" t="s">
+      <c r="B23" s="165" t="s">
         <v>853</v>
       </c>
       <c r="C23" s="53" t="s">
@@ -13337,7 +13491,7 @@
       <c r="A24" s="56">
         <v>1</v>
       </c>
-      <c r="B24" s="166" t="s">
+      <c r="B24" s="165" t="s">
         <v>853</v>
       </c>
       <c r="C24" s="53" t="s">
@@ -13351,7 +13505,7 @@
       </c>
       <c r="F24" s="60"/>
       <c r="G24" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="H24" s="61"/>
     </row>
@@ -13359,7 +13513,7 @@
       <c r="A25" s="56">
         <v>1</v>
       </c>
-      <c r="B25" s="166" t="s">
+      <c r="B25" s="165" t="s">
         <v>853</v>
       </c>
       <c r="C25" s="53" t="s">
@@ -13373,7 +13527,7 @@
       </c>
       <c r="F25" s="60"/>
       <c r="G25" s="53" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="H25" s="61"/>
     </row>
@@ -13381,7 +13535,7 @@
       <c r="A26" s="56">
         <v>1</v>
       </c>
-      <c r="B26" s="166" t="s">
+      <c r="B26" s="165" t="s">
         <v>853</v>
       </c>
       <c r="C26" s="53" t="s">
@@ -13395,7 +13549,7 @@
       </c>
       <c r="F26" s="60"/>
       <c r="G26" s="53" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="H26" s="61"/>
     </row>
@@ -13403,7 +13557,7 @@
       <c r="A27" s="56">
         <v>1</v>
       </c>
-      <c r="B27" s="166" t="s">
+      <c r="B27" s="165" t="s">
         <v>853</v>
       </c>
       <c r="C27" s="53" t="s">
@@ -13417,17 +13571,17 @@
       </c>
       <c r="F27" s="60"/>
       <c r="G27" s="53" t="s">
-        <v>1401</v>
-      </c>
-      <c r="H27" s="158" t="s">
-        <v>1400</v>
+        <v>1399</v>
+      </c>
+      <c r="H27" s="157" t="s">
+        <v>1398</v>
       </c>
     </row>
     <row r="28" spans="1:8" s="56" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="56">
         <v>1</v>
       </c>
-      <c r="B28" s="166" t="s">
+      <c r="B28" s="165" t="s">
         <v>853</v>
       </c>
       <c r="C28" s="53" t="s">
@@ -13441,167 +13595,146 @@
       </c>
       <c r="F28" s="60"/>
       <c r="G28" s="53" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="H28" s="110"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="47">
-        <v>2</v>
-      </c>
-      <c r="B29" s="166" t="s">
-        <v>986</v>
+    <row r="29" spans="1:8" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="56">
+        <v>1</v>
+      </c>
+      <c r="B29" s="165" t="s">
+        <v>853</v>
       </c>
       <c r="C29" s="53" t="s">
         <v>169</v>
       </c>
-      <c r="D29" s="50">
+      <c r="D29" s="58">
         <v>44111</v>
       </c>
-      <c r="E29" s="51">
+      <c r="E29" s="59">
+        <v>44159</v>
+      </c>
+      <c r="F29" s="60"/>
+      <c r="G29" s="53" t="s">
+        <v>1498</v>
+      </c>
+      <c r="H29" s="110"/>
+    </row>
+    <row r="30" spans="1:8" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="165"/>
+      <c r="C30" s="53"/>
+      <c r="D30" s="58"/>
+      <c r="E30" s="59">
+        <v>44162</v>
+      </c>
+      <c r="F30" s="60"/>
+      <c r="G30" s="53"/>
+      <c r="H30" s="110"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="47">
+        <v>2</v>
+      </c>
+      <c r="B31" s="165" t="s">
+        <v>986</v>
+      </c>
+      <c r="C31" s="53" t="s">
+        <v>169</v>
+      </c>
+      <c r="D31" s="50">
+        <v>44111</v>
+      </c>
+      <c r="E31" s="51">
         <v>44113</v>
       </c>
-      <c r="F29" s="52"/>
-      <c r="G29" s="53" t="s">
+      <c r="F31" s="52"/>
+      <c r="G31" s="53" t="s">
         <v>987</v>
       </c>
-      <c r="H29" s="54"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="47">
+      <c r="H31" s="54"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="47">
         <v>3</v>
       </c>
-      <c r="B30" s="166" t="s">
+      <c r="B32" s="165" t="s">
         <v>736</v>
       </c>
-      <c r="C30" s="53" t="s">
+      <c r="C32" s="53" t="s">
         <v>988</v>
       </c>
-      <c r="D30" s="50">
+      <c r="D32" s="50">
         <v>44111</v>
       </c>
-      <c r="E30" s="62"/>
-      <c r="F30" s="63">
+      <c r="E32" s="62"/>
+      <c r="F32" s="63">
         <v>44113</v>
       </c>
-      <c r="G30" s="53" t="s">
+      <c r="G32" s="53" t="s">
         <v>989</v>
       </c>
-      <c r="H30" s="64" t="s">
+      <c r="H32" s="64" t="s">
         <v>990</v>
       </c>
     </row>
-    <row r="31" spans="1:8" s="56" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="56">
+    <row r="33" spans="1:9" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="56">
         <v>4</v>
       </c>
-      <c r="B31" s="166" t="s">
+      <c r="B33" s="165" t="s">
         <v>991</v>
       </c>
-      <c r="C31" s="53" t="s">
+      <c r="C33" s="53" t="s">
         <v>98</v>
       </c>
-      <c r="D31" s="58">
+      <c r="D33" s="58">
         <v>44111</v>
       </c>
-      <c r="E31" s="59">
+      <c r="E33" s="59">
         <v>44113</v>
       </c>
-      <c r="F31" s="65">
+      <c r="F33" s="65">
         <v>44113</v>
       </c>
-      <c r="G31" s="19" t="s">
+      <c r="G33" s="19" t="s">
         <v>992</v>
       </c>
-      <c r="H31" s="64" t="s">
+      <c r="H33" s="64" t="s">
         <v>990</v>
       </c>
     </row>
-    <row r="32" spans="1:8" s="56" customFormat="1" ht="26" x14ac:dyDescent="0.3">
-      <c r="A32" s="56">
+    <row r="34" spans="1:9" s="56" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+      <c r="A34" s="56">
         <v>4</v>
       </c>
-      <c r="B32" s="166" t="s">
+      <c r="B34" s="165" t="s">
         <v>991</v>
       </c>
-      <c r="C32" s="53" t="s">
+      <c r="C34" s="53" t="s">
         <v>98</v>
       </c>
-      <c r="D32" s="58">
+      <c r="D34" s="58">
         <v>44111</v>
       </c>
-      <c r="E32" s="59">
+      <c r="E34" s="59">
         <v>44113</v>
       </c>
-      <c r="F32" s="65">
+      <c r="F34" s="65">
         <v>44113</v>
       </c>
-      <c r="G32" s="55" t="s">
+      <c r="G34" s="55" t="s">
         <v>993</v>
       </c>
-      <c r="H32" s="66" t="s">
+      <c r="H34" s="66" t="s">
         <v>990</v>
       </c>
     </row>
-    <row r="33" spans="1:9" s="56" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="56">
-        <v>5</v>
-      </c>
-      <c r="B33" s="166" t="s">
-        <v>994</v>
-      </c>
-      <c r="C33" s="53" t="s">
-        <v>93</v>
-      </c>
-      <c r="D33" s="58">
-        <v>44126</v>
-      </c>
-      <c r="E33" s="59">
-        <v>44128</v>
-      </c>
-      <c r="F33" s="67"/>
-      <c r="G33" s="19" t="s">
-        <v>995</v>
-      </c>
-      <c r="H33" s="61" t="s">
-        <v>996</v>
-      </c>
-      <c r="I33" s="68" t="s">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" s="56" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="56">
-        <v>5</v>
-      </c>
-      <c r="B34" s="166" t="s">
-        <v>994</v>
-      </c>
-      <c r="C34" s="53" t="s">
-        <v>93</v>
-      </c>
-      <c r="D34" s="58">
-        <v>44126</v>
-      </c>
-      <c r="E34" s="59">
-        <v>44128</v>
-      </c>
-      <c r="F34" s="67"/>
-      <c r="G34" s="53" t="s">
-        <v>998</v>
-      </c>
-      <c r="H34" s="61" t="s">
-        <v>999</v>
-      </c>
-      <c r="I34" s="68" t="s">
-        <v>1218</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" s="56" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" s="56" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="56">
         <v>5</v>
       </c>
-      <c r="B35" s="166" t="s">
+      <c r="B35" s="165" t="s">
         <v>994</v>
       </c>
       <c r="C35" s="53" t="s">
@@ -13614,21 +13747,21 @@
         <v>44128</v>
       </c>
       <c r="F35" s="67"/>
-      <c r="G35" s="56" t="s">
-        <v>1000</v>
-      </c>
-      <c r="H35" s="74" t="s">
-        <v>1018</v>
+      <c r="G35" s="19" t="s">
+        <v>995</v>
+      </c>
+      <c r="H35" s="61" t="s">
+        <v>996</v>
       </c>
       <c r="I35" s="68" t="s">
-        <v>1219</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" s="56" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" s="56" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="56">
         <v>5</v>
       </c>
-      <c r="B36" s="166" t="s">
+      <c r="B36" s="165" t="s">
         <v>994</v>
       </c>
       <c r="C36" s="53" t="s">
@@ -13638,20 +13771,24 @@
         <v>44126</v>
       </c>
       <c r="E36" s="59">
-        <v>44145</v>
+        <v>44128</v>
       </c>
       <c r="F36" s="67"/>
-      <c r="G36" s="55" t="s">
-        <v>1310</v>
-      </c>
-      <c r="H36" s="74"/>
-      <c r="I36" s="68"/>
-    </row>
-    <row r="37" spans="1:9" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G36" s="53" t="s">
+        <v>998</v>
+      </c>
+      <c r="H36" s="61" t="s">
+        <v>999</v>
+      </c>
+      <c r="I36" s="68" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" s="56" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="A37" s="56">
         <v>5</v>
       </c>
-      <c r="B37" s="166" t="s">
+      <c r="B37" s="165" t="s">
         <v>994</v>
       </c>
       <c r="C37" s="53" t="s">
@@ -13661,20 +13798,24 @@
         <v>44126</v>
       </c>
       <c r="E37" s="59">
-        <v>44148</v>
+        <v>44128</v>
       </c>
       <c r="F37" s="67"/>
-      <c r="G37" s="110" t="s">
-        <v>1430</v>
-      </c>
-      <c r="H37" s="61"/>
-      <c r="I37" s="68"/>
-    </row>
-    <row r="38" spans="1:9" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G37" s="56" t="s">
+        <v>1000</v>
+      </c>
+      <c r="H37" s="74" t="s">
+        <v>1018</v>
+      </c>
+      <c r="I37" s="68" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" s="56" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A38" s="56">
         <v>5</v>
       </c>
-      <c r="B38" s="166" t="s">
+      <c r="B38" s="165" t="s">
         <v>994</v>
       </c>
       <c r="C38" s="53" t="s">
@@ -13684,74 +13825,66 @@
         <v>44126</v>
       </c>
       <c r="E38" s="59">
+        <v>44145</v>
+      </c>
+      <c r="F38" s="67"/>
+      <c r="G38" s="55" t="s">
+        <v>1310</v>
+      </c>
+      <c r="H38" s="74"/>
+      <c r="I38" s="68"/>
+    </row>
+    <row r="39" spans="1:9" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="56">
+        <v>5</v>
+      </c>
+      <c r="B39" s="165" t="s">
+        <v>994</v>
+      </c>
+      <c r="C39" s="53" t="s">
+        <v>93</v>
+      </c>
+      <c r="D39" s="58">
+        <v>44126</v>
+      </c>
+      <c r="E39" s="59">
         <v>44148</v>
       </c>
-      <c r="F38" s="67"/>
-      <c r="G38" s="53" t="s">
-        <v>1431</v>
-      </c>
-      <c r="H38" s="110"/>
-      <c r="I38" s="68"/>
-    </row>
-    <row r="39" spans="1:9" s="56" customFormat="1" ht="52" x14ac:dyDescent="0.3">
-      <c r="A39" s="56">
-        <v>6</v>
-      </c>
-      <c r="B39" s="166" t="s">
-        <v>1002</v>
-      </c>
-      <c r="C39" s="53" t="s">
-        <v>98</v>
-      </c>
-      <c r="D39" s="58">
-        <v>44113</v>
-      </c>
-      <c r="E39" s="59">
-        <v>44120</v>
-      </c>
-      <c r="F39" s="60"/>
-      <c r="G39" s="19" t="s">
-        <v>1003</v>
-      </c>
-      <c r="H39" s="69" t="s">
-        <v>1001</v>
-      </c>
-      <c r="I39" s="56" t="s">
-        <v>1221</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" s="56" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+      <c r="F39" s="67"/>
+      <c r="G39" s="110" t="s">
+        <v>1428</v>
+      </c>
+      <c r="H39" s="61"/>
+      <c r="I39" s="68"/>
+    </row>
+    <row r="40" spans="1:9" s="56" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="56">
-        <v>6</v>
-      </c>
-      <c r="B40" s="166" t="s">
-        <v>1002</v>
+        <v>5</v>
+      </c>
+      <c r="B40" s="165" t="s">
+        <v>994</v>
       </c>
       <c r="C40" s="53" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D40" s="58">
-        <v>44113</v>
-      </c>
-      <c r="E40" s="70">
         <v>44126</v>
       </c>
-      <c r="F40" s="60"/>
-      <c r="G40" s="71" t="s">
-        <v>1004</v>
-      </c>
-      <c r="H40" s="69" t="s">
-        <v>1001</v>
-      </c>
-      <c r="I40" s="56" t="s">
-        <v>1220</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" s="56" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+      <c r="E40" s="59">
+        <v>44148</v>
+      </c>
+      <c r="F40" s="67"/>
+      <c r="G40" s="53" t="s">
+        <v>1429</v>
+      </c>
+      <c r="H40" s="110"/>
+      <c r="I40" s="68"/>
+    </row>
+    <row r="41" spans="1:9" s="56" customFormat="1" ht="52" x14ac:dyDescent="0.3">
       <c r="A41" s="56">
         <v>6</v>
       </c>
-      <c r="B41" s="166" t="s">
+      <c r="B41" s="165" t="s">
         <v>1002</v>
       </c>
       <c r="C41" s="53" t="s">
@@ -13760,20 +13893,25 @@
       <c r="D41" s="58">
         <v>44113</v>
       </c>
-      <c r="E41" s="70">
-        <v>44134</v>
+      <c r="E41" s="59">
+        <v>44120</v>
       </c>
       <c r="F41" s="60"/>
       <c r="G41" s="19" t="s">
-        <v>1005</v>
-      </c>
-      <c r="H41" s="61"/>
-    </row>
-    <row r="42" spans="1:9" s="56" customFormat="1" x14ac:dyDescent="0.3">
+        <v>1003</v>
+      </c>
+      <c r="H41" s="69" t="s">
+        <v>1001</v>
+      </c>
+      <c r="I41" s="56" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" s="56" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A42" s="56">
         <v>6</v>
       </c>
-      <c r="B42" s="166" t="s">
+      <c r="B42" s="165" t="s">
         <v>1002</v>
       </c>
       <c r="C42" s="53" t="s">
@@ -13783,20 +13921,24 @@
         <v>44113</v>
       </c>
       <c r="E42" s="70">
-        <v>44143</v>
+        <v>44126</v>
       </c>
       <c r="F42" s="60"/>
-      <c r="G42" s="53"/>
-      <c r="H42" s="61"/>
+      <c r="G42" s="71" t="s">
+        <v>1004</v>
+      </c>
+      <c r="H42" s="69" t="s">
+        <v>1001</v>
+      </c>
       <c r="I42" s="56" t="s">
         <v>1220</v>
       </c>
     </row>
-    <row r="43" spans="1:9" s="56" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" s="56" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A43" s="56">
         <v>6</v>
       </c>
-      <c r="B43" s="166" t="s">
+      <c r="B43" s="165" t="s">
         <v>1002</v>
       </c>
       <c r="C43" s="53" t="s">
@@ -13806,11 +13948,11 @@
         <v>44113</v>
       </c>
       <c r="E43" s="70">
-        <v>44145</v>
+        <v>44134</v>
       </c>
       <c r="F43" s="60"/>
-      <c r="G43" s="53" t="s">
-        <v>1388</v>
+      <c r="G43" s="19" t="s">
+        <v>1005</v>
       </c>
       <c r="H43" s="61"/>
     </row>
@@ -13818,7 +13960,7 @@
       <c r="A44" s="56">
         <v>6</v>
       </c>
-      <c r="B44" s="166" t="s">
+      <c r="B44" s="165" t="s">
         <v>1002</v>
       </c>
       <c r="C44" s="53" t="s">
@@ -13828,65 +13970,64 @@
         <v>44113</v>
       </c>
       <c r="E44" s="70">
+        <v>44143</v>
+      </c>
+      <c r="F44" s="60"/>
+      <c r="G44" s="53"/>
+      <c r="H44" s="61"/>
+      <c r="I44" s="56" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="56">
+        <v>6</v>
+      </c>
+      <c r="B45" s="165" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C45" s="53" t="s">
+        <v>98</v>
+      </c>
+      <c r="D45" s="58">
+        <v>44113</v>
+      </c>
+      <c r="E45" s="70">
         <v>44145</v>
       </c>
-      <c r="F44" s="60"/>
-      <c r="G44" s="157" t="s">
-        <v>1389</v>
-      </c>
-      <c r="H44" s="61"/>
-    </row>
-    <row r="45" spans="1:9" s="56" customFormat="1" ht="26" x14ac:dyDescent="0.3">
-      <c r="A45" s="56">
-        <v>7</v>
-      </c>
-      <c r="B45" s="166" t="s">
-        <v>1006</v>
-      </c>
-      <c r="C45" s="53" t="s">
-        <v>107</v>
-      </c>
-      <c r="D45" s="58">
-        <v>44111</v>
-      </c>
-      <c r="E45" s="59">
+      <c r="F45" s="60"/>
+      <c r="G45" s="53" t="s">
+        <v>1386</v>
+      </c>
+      <c r="H45" s="61"/>
+    </row>
+    <row r="46" spans="1:9" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="56">
+        <v>6</v>
+      </c>
+      <c r="B46" s="165" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C46" s="53" t="s">
+        <v>98</v>
+      </c>
+      <c r="D46" s="58">
         <v>44113</v>
       </c>
-      <c r="F45" s="65"/>
-      <c r="G45" s="19" t="s">
-        <v>1007</v>
-      </c>
-      <c r="H45" s="61"/>
-    </row>
-    <row r="46" spans="1:9" s="56" customFormat="1" ht="39" x14ac:dyDescent="0.3">
-      <c r="A46" s="56">
-        <v>7</v>
-      </c>
-      <c r="B46" s="166" t="s">
-        <v>1006</v>
-      </c>
-      <c r="C46" s="53" t="s">
-        <v>107</v>
-      </c>
-      <c r="D46" s="58">
-        <v>44111</v>
-      </c>
-      <c r="E46" s="59">
-        <v>44119</v>
-      </c>
-      <c r="F46" s="65"/>
-      <c r="G46" s="19" t="s">
-        <v>1008</v>
-      </c>
-      <c r="H46" s="61" t="s">
-        <v>1009</v>
-      </c>
+      <c r="E46" s="70">
+        <v>44145</v>
+      </c>
+      <c r="F46" s="60"/>
+      <c r="G46" s="156" t="s">
+        <v>1387</v>
+      </c>
+      <c r="H46" s="61"/>
     </row>
     <row r="47" spans="1:9" s="56" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A47" s="56">
         <v>7</v>
       </c>
-      <c r="B47" s="166" t="s">
+      <c r="B47" s="165" t="s">
         <v>1006</v>
       </c>
       <c r="C47" s="53" t="s">
@@ -13896,19 +14037,19 @@
         <v>44111</v>
       </c>
       <c r="E47" s="59">
-        <v>44124</v>
+        <v>44113</v>
       </c>
       <c r="F47" s="65"/>
       <c r="G47" s="19" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="H47" s="61"/>
     </row>
-    <row r="48" spans="1:9" s="56" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" s="56" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A48" s="56">
         <v>7</v>
       </c>
-      <c r="B48" s="166" t="s">
+      <c r="B48" s="165" t="s">
         <v>1006</v>
       </c>
       <c r="C48" s="53" t="s">
@@ -13918,19 +14059,21 @@
         <v>44111</v>
       </c>
       <c r="E48" s="59">
-        <v>44127</v>
+        <v>44119</v>
       </c>
       <c r="F48" s="65"/>
       <c r="G48" s="19" t="s">
-        <v>1011</v>
-      </c>
-      <c r="H48" s="61"/>
-    </row>
-    <row r="49" spans="1:8" s="56" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+        <v>1008</v>
+      </c>
+      <c r="H48" s="61" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" s="56" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A49" s="56">
         <v>7</v>
       </c>
-      <c r="B49" s="166" t="s">
+      <c r="B49" s="165" t="s">
         <v>1006</v>
       </c>
       <c r="C49" s="53" t="s">
@@ -13940,19 +14083,19 @@
         <v>44111</v>
       </c>
       <c r="E49" s="59">
-        <v>44132</v>
+        <v>44124</v>
       </c>
       <c r="F49" s="65"/>
       <c r="G49" s="19" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="H49" s="61"/>
     </row>
-    <row r="50" spans="1:8" s="56" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" s="56" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A50" s="56">
         <v>7</v>
       </c>
-      <c r="B50" s="166" t="s">
+      <c r="B50" s="165" t="s">
         <v>1006</v>
       </c>
       <c r="C50" s="53" t="s">
@@ -13962,19 +14105,19 @@
         <v>44111</v>
       </c>
       <c r="E50" s="59">
-        <v>44132</v>
+        <v>44127</v>
       </c>
       <c r="F50" s="65"/>
-      <c r="G50" s="53" t="s">
-        <v>1013</v>
+      <c r="G50" s="19" t="s">
+        <v>1011</v>
       </c>
       <c r="H50" s="61"/>
     </row>
-    <row r="51" spans="1:8" s="56" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" s="56" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A51" s="56">
         <v>7</v>
       </c>
-      <c r="B51" s="166" t="s">
+      <c r="B51" s="165" t="s">
         <v>1006</v>
       </c>
       <c r="C51" s="53" t="s">
@@ -13984,93 +14127,89 @@
         <v>44111</v>
       </c>
       <c r="E51" s="59">
+        <v>44132</v>
+      </c>
+      <c r="F51" s="65"/>
+      <c r="G51" s="19" t="s">
+        <v>1012</v>
+      </c>
+      <c r="H51" s="61"/>
+    </row>
+    <row r="52" spans="1:9" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="56">
+        <v>7</v>
+      </c>
+      <c r="B52" s="165" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C52" s="53" t="s">
+        <v>107</v>
+      </c>
+      <c r="D52" s="58">
+        <v>44111</v>
+      </c>
+      <c r="E52" s="59">
+        <v>44132</v>
+      </c>
+      <c r="F52" s="65"/>
+      <c r="G52" s="53" t="s">
+        <v>1013</v>
+      </c>
+      <c r="H52" s="61"/>
+    </row>
+    <row r="53" spans="1:9" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="56">
+        <v>7</v>
+      </c>
+      <c r="B53" s="165" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C53" s="53" t="s">
+        <v>107</v>
+      </c>
+      <c r="D53" s="58">
+        <v>44111</v>
+      </c>
+      <c r="E53" s="59">
         <v>44138</v>
       </c>
-      <c r="F51" s="65"/>
-      <c r="G51" s="53" t="s">
+      <c r="F53" s="65"/>
+      <c r="G53" s="53" t="s">
         <v>1040</v>
       </c>
-      <c r="H51" s="84" t="s">
+      <c r="H53" s="84" t="s">
         <v>1041</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A52" s="47">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A54" s="47">
         <v>8</v>
       </c>
-      <c r="B52" s="166" t="s">
+      <c r="B54" s="165" t="s">
         <v>1014</v>
       </c>
-      <c r="C52" s="53" t="s">
+      <c r="C54" s="53" t="s">
         <v>106</v>
       </c>
-      <c r="D52" s="50">
+      <c r="D54" s="50">
         <v>44112</v>
       </c>
-      <c r="E52" s="72">
+      <c r="E54" s="72">
         <v>44119</v>
       </c>
-      <c r="F52" s="52"/>
-      <c r="G52" s="71" t="s">
+      <c r="F54" s="52"/>
+      <c r="G54" s="71" t="s">
         <v>1015</v>
       </c>
-      <c r="H52" s="73" t="s">
+      <c r="H54" s="73" t="s">
         <v>1016</v>
       </c>
     </row>
-    <row r="53" spans="1:8" s="56" customFormat="1" ht="26" x14ac:dyDescent="0.3">
-      <c r="A53" s="56">
-        <v>9</v>
-      </c>
-      <c r="B53" s="166" t="s">
-        <v>1017</v>
-      </c>
-      <c r="C53" s="53" t="s">
-        <v>95</v>
-      </c>
-      <c r="D53" s="58">
-        <v>44113</v>
-      </c>
-      <c r="E53" s="59">
-        <v>44118</v>
-      </c>
-      <c r="F53" s="67"/>
-      <c r="G53" s="19" t="s">
-        <v>1214</v>
-      </c>
-      <c r="H53" s="74" t="s">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" s="56" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A54" s="56">
-        <v>9</v>
-      </c>
-      <c r="B54" s="166" t="s">
-        <v>1017</v>
-      </c>
-      <c r="C54" s="53" t="s">
-        <v>95</v>
-      </c>
-      <c r="D54" s="58">
-        <v>44113</v>
-      </c>
-      <c r="E54" s="59">
-        <v>44118</v>
-      </c>
-      <c r="F54" s="67"/>
-      <c r="G54" s="53" t="s">
-        <v>1213</v>
-      </c>
-      <c r="H54" s="74" t="s">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" s="56" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" s="56" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A55" s="56">
         <v>9</v>
       </c>
-      <c r="B55" s="166" t="s">
+      <c r="B55" s="165" t="s">
         <v>1017</v>
       </c>
       <c r="C55" s="53" t="s">
@@ -14079,66 +14218,66 @@
       <c r="D55" s="58">
         <v>44113</v>
       </c>
-      <c r="E55" s="59"/>
+      <c r="E55" s="59">
+        <v>44118</v>
+      </c>
       <c r="F55" s="67"/>
-      <c r="G55" s="53" t="s">
-        <v>1215</v>
-      </c>
-      <c r="H55" s="110"/>
-    </row>
-    <row r="56" spans="1:8" ht="24" x14ac:dyDescent="0.3">
-      <c r="A56" s="47">
-        <v>10</v>
-      </c>
-      <c r="B56" s="166" t="s">
-        <v>1019</v>
+      <c r="G55" s="19" t="s">
+        <v>1214</v>
+      </c>
+      <c r="H55" s="74" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" s="56" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+      <c r="A56" s="56">
+        <v>9</v>
+      </c>
+      <c r="B56" s="165" t="s">
+        <v>1017</v>
       </c>
       <c r="C56" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="D56" s="50">
-        <v>44119</v>
-      </c>
-      <c r="E56" s="72">
-        <v>44131</v>
-      </c>
-      <c r="F56" s="52"/>
-      <c r="G56" s="71" t="s">
-        <v>1216</v>
-      </c>
-      <c r="H56" s="75" t="s">
+      <c r="D56" s="58">
+        <v>44113</v>
+      </c>
+      <c r="E56" s="59">
+        <v>44118</v>
+      </c>
+      <c r="F56" s="67"/>
+      <c r="G56" s="53" t="s">
+        <v>1213</v>
+      </c>
+      <c r="H56" s="74" t="s">
         <v>1018</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="26" x14ac:dyDescent="0.3">
-      <c r="A57" s="47">
-        <v>10</v>
-      </c>
-      <c r="B57" s="166" t="s">
-        <v>1019</v>
+    <row r="57" spans="1:9" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="56">
+        <v>9</v>
+      </c>
+      <c r="B57" s="165" t="s">
+        <v>1017</v>
       </c>
       <c r="C57" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="D57" s="50">
-        <v>44119</v>
-      </c>
-      <c r="E57" s="51">
-        <v>44134</v>
-      </c>
-      <c r="F57" s="76"/>
-      <c r="G57" s="55" t="s">
-        <v>1020</v>
-      </c>
-      <c r="H57" s="75" t="s">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="D57" s="58">
+        <v>44113</v>
+      </c>
+      <c r="E57" s="59"/>
+      <c r="F57" s="67"/>
+      <c r="G57" s="53" t="s">
+        <v>1215</v>
+      </c>
+      <c r="H57" s="110"/>
+    </row>
+    <row r="58" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A58" s="47">
         <v>10</v>
       </c>
-      <c r="B58" s="166" t="s">
+      <c r="B58" s="165" t="s">
         <v>1019</v>
       </c>
       <c r="C58" s="53" t="s">
@@ -14147,22 +14286,22 @@
       <c r="D58" s="50">
         <v>44119</v>
       </c>
-      <c r="E58" s="51">
-        <v>44134</v>
-      </c>
-      <c r="F58" s="76"/>
-      <c r="G58" s="53" t="s">
-        <v>1021</v>
+      <c r="E58" s="72">
+        <v>44131</v>
+      </c>
+      <c r="F58" s="52"/>
+      <c r="G58" s="71" t="s">
+        <v>1216</v>
       </c>
       <c r="H58" s="75" t="s">
         <v>1018</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" ht="26" x14ac:dyDescent="0.3">
       <c r="A59" s="47">
         <v>10</v>
       </c>
-      <c r="B59" s="166" t="s">
+      <c r="B59" s="165" t="s">
         <v>1019</v>
       </c>
       <c r="C59" s="53" t="s">
@@ -14175,18 +14314,18 @@
         <v>44134</v>
       </c>
       <c r="F59" s="76"/>
-      <c r="G59" s="53" t="s">
-        <v>1022</v>
+      <c r="G59" s="55" t="s">
+        <v>1020</v>
       </c>
       <c r="H59" s="75" t="s">
         <v>1018</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A60" s="47">
         <v>10</v>
       </c>
-      <c r="B60" s="166" t="s">
+      <c r="B60" s="165" t="s">
         <v>1019</v>
       </c>
       <c r="C60" s="53" t="s">
@@ -14199,18 +14338,18 @@
         <v>44134</v>
       </c>
       <c r="F60" s="76"/>
-      <c r="G60" s="77" t="s">
-        <v>1023</v>
+      <c r="G60" s="53" t="s">
+        <v>1021</v>
       </c>
       <c r="H60" s="75" t="s">
         <v>1018</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A61" s="47">
         <v>10</v>
       </c>
-      <c r="B61" s="166" t="s">
+      <c r="B61" s="165" t="s">
         <v>1019</v>
       </c>
       <c r="C61" s="53" t="s">
@@ -14220,19 +14359,24 @@
         <v>44119</v>
       </c>
       <c r="E61" s="51">
-        <v>44135</v>
+        <v>44134</v>
       </c>
       <c r="F61" s="76"/>
       <c r="G61" s="53" t="s">
-        <v>1024</v>
-      </c>
-      <c r="H61" s="75"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1022</v>
+      </c>
+      <c r="H61" s="75" t="s">
+        <v>1018</v>
+      </c>
+      <c r="I61" s="47" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A62" s="47">
-        <v>11</v>
-      </c>
-      <c r="B62" s="166" t="s">
+        <v>10</v>
+      </c>
+      <c r="B62" s="165" t="s">
         <v>1019</v>
       </c>
       <c r="C62" s="53" t="s">
@@ -14242,432 +14386,618 @@
         <v>44119</v>
       </c>
       <c r="E62" s="51">
+        <v>44134</v>
+      </c>
+      <c r="F62" s="76"/>
+      <c r="G62" s="77" t="s">
+        <v>1023</v>
+      </c>
+      <c r="H62" s="75" t="s">
+        <v>1018</v>
+      </c>
+      <c r="I62" s="47" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A63" s="47">
+        <v>10</v>
+      </c>
+      <c r="B63" s="165" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C63" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="D63" s="50">
+        <v>44119</v>
+      </c>
+      <c r="E63" s="51">
+        <v>44135</v>
+      </c>
+      <c r="F63" s="76"/>
+      <c r="G63" s="53" t="s">
+        <v>1024</v>
+      </c>
+      <c r="H63" s="75"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A64" s="47">
+        <v>11</v>
+      </c>
+      <c r="B64" s="165" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C64" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="D64" s="50">
+        <v>44119</v>
+      </c>
+      <c r="E64" s="51">
         <v>44145</v>
       </c>
-      <c r="F62" s="76"/>
-      <c r="G62" s="53" t="s">
-        <v>1394</v>
-      </c>
-      <c r="H62" s="156"/>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A63" s="47">
-        <v>11</v>
-      </c>
-      <c r="B63" s="166" t="s">
-        <v>1025</v>
-      </c>
-      <c r="C63" s="53" t="s">
-        <v>98</v>
-      </c>
-      <c r="D63" s="50">
-        <v>44134</v>
-      </c>
-      <c r="E63" s="51">
-        <v>44139</v>
-      </c>
-      <c r="F63" s="52"/>
-      <c r="G63" s="53" t="s">
-        <v>1217</v>
-      </c>
-      <c r="H63" s="54"/>
-    </row>
-    <row r="64" spans="1:8" ht="26" x14ac:dyDescent="0.3">
-      <c r="A64" s="78">
-        <v>11</v>
-      </c>
-      <c r="B64" s="166" t="s">
-        <v>1025</v>
-      </c>
-      <c r="C64" s="53" t="s">
-        <v>98</v>
-      </c>
-      <c r="D64" s="50">
-        <v>44134</v>
-      </c>
-      <c r="E64" s="51">
-        <v>44143</v>
-      </c>
-      <c r="F64" s="52"/>
-      <c r="G64" s="55" t="s">
-        <v>1224</v>
-      </c>
-      <c r="H64" s="54"/>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F64" s="76"/>
+      <c r="G64" s="53" t="s">
+        <v>1392</v>
+      </c>
+      <c r="H64" s="155"/>
+    </row>
+    <row r="65" spans="1:9" ht="26" x14ac:dyDescent="0.3">
       <c r="A65" s="47">
         <v>11</v>
       </c>
-      <c r="B65" s="166" t="s">
-        <v>1025</v>
+      <c r="B65" s="165" t="s">
+        <v>1019</v>
       </c>
       <c r="C65" s="53" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D65" s="50">
-        <v>44134</v>
+        <v>44119</v>
       </c>
       <c r="E65" s="51">
-        <v>44144</v>
-      </c>
-      <c r="F65" s="52"/>
+        <v>44160</v>
+      </c>
+      <c r="F65" s="76"/>
       <c r="G65" s="55" t="s">
-        <v>1222</v>
-      </c>
-      <c r="H65" s="54"/>
-    </row>
-    <row r="66" spans="1:8" ht="26" x14ac:dyDescent="0.3">
-      <c r="A66" s="78">
+        <v>1501</v>
+      </c>
+      <c r="H65" s="155"/>
+    </row>
+    <row r="66" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="A66" s="47">
         <v>11</v>
       </c>
-      <c r="B66" s="166" t="s">
-        <v>1025</v>
+      <c r="B66" s="165" t="s">
+        <v>1019</v>
       </c>
       <c r="C66" s="53" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D66" s="50">
-        <v>44134</v>
+        <v>44119</v>
       </c>
       <c r="E66" s="51">
-        <v>44144</v>
-      </c>
-      <c r="F66" s="52"/>
+        <v>44160</v>
+      </c>
+      <c r="F66" s="76"/>
       <c r="G66" s="55" t="s">
-        <v>1223</v>
-      </c>
-      <c r="H66" s="75" t="s">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="65" x14ac:dyDescent="0.3">
+        <v>1502</v>
+      </c>
+      <c r="H66" s="155" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="26" x14ac:dyDescent="0.3">
       <c r="A67" s="47">
         <v>11</v>
       </c>
-      <c r="B67" s="166" t="s">
+      <c r="B67" s="165" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C67" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="D67" s="50">
+        <v>44119</v>
+      </c>
+      <c r="E67" s="51">
+        <v>44160</v>
+      </c>
+      <c r="F67" s="76"/>
+      <c r="G67" s="55" t="s">
+        <v>1505</v>
+      </c>
+      <c r="H67" s="155"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B68" s="165"/>
+      <c r="C68" s="53"/>
+      <c r="D68" s="50"/>
+      <c r="E68" s="51">
+        <v>44162</v>
+      </c>
+      <c r="F68" s="76"/>
+      <c r="G68" s="53"/>
+      <c r="H68" s="155"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A69" s="47">
+        <v>11</v>
+      </c>
+      <c r="B69" s="165" t="s">
         <v>1025</v>
       </c>
-      <c r="C67" s="53" t="s">
+      <c r="C69" s="53" t="s">
         <v>98</v>
       </c>
-      <c r="D67" s="50">
+      <c r="D69" s="50">
         <v>44134</v>
       </c>
-      <c r="E67" s="51">
-        <v>44148</v>
-      </c>
-      <c r="F67" s="52"/>
-      <c r="G67" s="55" t="s">
-        <v>1441</v>
-      </c>
-      <c r="H67" s="75"/>
-    </row>
-    <row r="68" spans="1:8" ht="26" x14ac:dyDescent="0.3">
-      <c r="A68" s="47">
+      <c r="E69" s="51">
+        <v>44139</v>
+      </c>
+      <c r="F69" s="52"/>
+      <c r="G69" s="53" t="s">
+        <v>1217</v>
+      </c>
+      <c r="H69" s="54"/>
+    </row>
+    <row r="70" spans="1:9" ht="26" x14ac:dyDescent="0.3">
+      <c r="A70" s="78">
         <v>11</v>
       </c>
-      <c r="B68" s="166" t="s">
+      <c r="B70" s="165" t="s">
         <v>1025</v>
       </c>
-      <c r="C68" s="53" t="s">
+      <c r="C70" s="53" t="s">
         <v>98</v>
       </c>
-      <c r="D68" s="50">
+      <c r="D70" s="50">
         <v>44134</v>
       </c>
-      <c r="E68" s="51">
-        <v>44148</v>
-      </c>
-      <c r="F68" s="52"/>
-      <c r="G68" s="55" t="s">
-        <v>1442</v>
-      </c>
-      <c r="H68" s="75"/>
-    </row>
-    <row r="69" spans="1:8" ht="39.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="78">
-        <v>12</v>
-      </c>
-      <c r="B69" s="166" t="s">
-        <v>1026</v>
-      </c>
-      <c r="C69" s="53" t="s">
-        <v>106</v>
-      </c>
-      <c r="D69" s="78"/>
-      <c r="E69" s="80">
-        <v>44119</v>
-      </c>
-      <c r="F69" s="81">
-        <v>44121</v>
-      </c>
-      <c r="G69" s="71" t="s">
-        <v>1027</v>
-      </c>
-      <c r="H69" s="54" t="s">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A70" s="47">
-        <v>13</v>
-      </c>
-      <c r="B70" s="166" t="s">
-        <v>1028</v>
-      </c>
-      <c r="C70" s="53" t="s">
-        <v>106</v>
-      </c>
-      <c r="D70" s="50">
-        <v>44121</v>
-      </c>
-      <c r="E70" s="62"/>
+      <c r="E70" s="51">
+        <v>44143</v>
+      </c>
       <c r="F70" s="52"/>
-      <c r="G70" s="53"/>
+      <c r="G70" s="55" t="s">
+        <v>1224</v>
+      </c>
       <c r="H70" s="54"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" s="47">
-        <v>14</v>
-      </c>
-      <c r="B71" s="166" t="s">
-        <v>1029</v>
-      </c>
-      <c r="C71" s="53"/>
-      <c r="E71" s="62"/>
+        <v>11</v>
+      </c>
+      <c r="B71" s="165" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C71" s="53" t="s">
+        <v>98</v>
+      </c>
+      <c r="D71" s="50">
+        <v>44134</v>
+      </c>
+      <c r="E71" s="51">
+        <v>44144</v>
+      </c>
       <c r="F71" s="52"/>
-      <c r="G71" s="53"/>
+      <c r="G71" s="55" t="s">
+        <v>1222</v>
+      </c>
       <c r="H71" s="54"/>
     </row>
-    <row r="72" spans="1:8" ht="24" x14ac:dyDescent="0.3">
-      <c r="A72" s="56">
-        <v>15</v>
-      </c>
-      <c r="B72" s="166" t="s">
-        <v>1030</v>
+    <row r="72" spans="1:9" ht="26" x14ac:dyDescent="0.3">
+      <c r="A72" s="78">
+        <v>11</v>
+      </c>
+      <c r="B72" s="165" t="s">
+        <v>1025</v>
       </c>
       <c r="C72" s="53" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D72" s="50">
-        <v>44126</v>
+        <v>44134</v>
       </c>
       <c r="E72" s="51">
-        <v>44130</v>
+        <v>44144</v>
       </c>
       <c r="F72" s="52"/>
-      <c r="G72" s="53" t="s">
-        <v>1031</v>
+      <c r="G72" s="55" t="s">
+        <v>1223</v>
       </c>
       <c r="H72" s="75" t="s">
         <v>1018</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I72" s="47" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="65" x14ac:dyDescent="0.3">
       <c r="A73" s="47">
-        <v>15</v>
-      </c>
-      <c r="B73" s="166" t="s">
-        <v>1030</v>
+        <v>11</v>
+      </c>
+      <c r="B73" s="165" t="s">
+        <v>1025</v>
       </c>
       <c r="C73" s="53" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D73" s="50">
-        <v>44126</v>
+        <v>44134</v>
       </c>
       <c r="E73" s="51">
-        <v>44130</v>
+        <v>44148</v>
       </c>
       <c r="F73" s="52"/>
-      <c r="G73" s="53" t="s">
-        <v>1032</v>
-      </c>
-      <c r="H73" s="54"/>
-    </row>
-    <row r="74" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="G73" s="55" t="s">
+        <v>1439</v>
+      </c>
+      <c r="H73" s="155"/>
+    </row>
+    <row r="74" spans="1:9" ht="26" x14ac:dyDescent="0.3">
       <c r="A74" s="47">
-        <v>15</v>
-      </c>
-      <c r="B74" s="166" t="s">
-        <v>1030</v>
+        <v>11</v>
+      </c>
+      <c r="B74" s="165" t="s">
+        <v>1025</v>
       </c>
       <c r="C74" s="53" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D74" s="50">
-        <v>44126</v>
+        <v>44134</v>
       </c>
       <c r="E74" s="51">
-        <v>44130</v>
+        <v>44148</v>
       </c>
       <c r="F74" s="52"/>
-      <c r="G74" s="164" t="s">
-        <v>1033</v>
-      </c>
-      <c r="H74" s="83" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" ht="26" x14ac:dyDescent="0.3">
+      <c r="G74" s="177" t="s">
+        <v>1499</v>
+      </c>
+      <c r="H74" s="155"/>
+    </row>
+    <row r="75" spans="1:9" ht="26" x14ac:dyDescent="0.3">
       <c r="A75" s="47">
-        <v>16</v>
-      </c>
-      <c r="B75" s="166" t="s">
-        <v>1034</v>
+        <v>11</v>
+      </c>
+      <c r="B75" s="165" t="s">
+        <v>1025</v>
       </c>
       <c r="C75" s="53" t="s">
         <v>98</v>
       </c>
       <c r="D75" s="50">
+        <v>44134</v>
+      </c>
+      <c r="E75" s="51">
+        <v>44160</v>
+      </c>
+      <c r="F75" s="52"/>
+      <c r="G75" s="55" t="s">
+        <v>1504</v>
+      </c>
+      <c r="H75" s="155"/>
+    </row>
+    <row r="76" spans="1:9" ht="26" x14ac:dyDescent="0.3">
+      <c r="A76" s="47">
+        <v>11</v>
+      </c>
+      <c r="B76" s="165" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C76" s="53" t="s">
+        <v>98</v>
+      </c>
+      <c r="D76" s="50">
+        <v>44134</v>
+      </c>
+      <c r="E76" s="51">
+        <v>44160</v>
+      </c>
+      <c r="F76" s="52"/>
+      <c r="G76" s="177" t="s">
+        <v>1500</v>
+      </c>
+      <c r="H76" s="155"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B77" s="165"/>
+      <c r="C77" s="53"/>
+      <c r="D77" s="50"/>
+      <c r="E77" s="51">
+        <v>44165</v>
+      </c>
+      <c r="F77" s="52"/>
+      <c r="G77" s="178"/>
+      <c r="H77" s="155"/>
+    </row>
+    <row r="78" spans="1:9" ht="39.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="78">
+        <v>12</v>
+      </c>
+      <c r="B78" s="165" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C78" s="53" t="s">
+        <v>106</v>
+      </c>
+      <c r="D78" s="78"/>
+      <c r="E78" s="80">
+        <v>44119</v>
+      </c>
+      <c r="F78" s="81">
+        <v>44121</v>
+      </c>
+      <c r="G78" s="71" t="s">
+        <v>1027</v>
+      </c>
+      <c r="H78" s="54" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A79" s="47">
+        <v>13</v>
+      </c>
+      <c r="B79" s="165" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C79" s="53" t="s">
+        <v>106</v>
+      </c>
+      <c r="D79" s="50">
+        <v>44121</v>
+      </c>
+      <c r="E79" s="62"/>
+      <c r="F79" s="52"/>
+      <c r="G79" s="53"/>
+      <c r="H79" s="54"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A80" s="47">
+        <v>14</v>
+      </c>
+      <c r="B80" s="165" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C80" s="53"/>
+      <c r="E80" s="62"/>
+      <c r="F80" s="52"/>
+      <c r="G80" s="53"/>
+      <c r="H80" s="54"/>
+    </row>
+    <row r="81" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="A81" s="56">
+        <v>15</v>
+      </c>
+      <c r="B81" s="165" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C81" s="53" t="s">
+        <v>99</v>
+      </c>
+      <c r="D81" s="50">
+        <v>44126</v>
+      </c>
+      <c r="E81" s="51">
+        <v>44130</v>
+      </c>
+      <c r="F81" s="52"/>
+      <c r="G81" s="53" t="s">
+        <v>1031</v>
+      </c>
+      <c r="H81" s="75" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A82" s="47">
+        <v>15</v>
+      </c>
+      <c r="B82" s="165" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C82" s="53" t="s">
+        <v>99</v>
+      </c>
+      <c r="D82" s="50">
+        <v>44126</v>
+      </c>
+      <c r="E82" s="51">
+        <v>44130</v>
+      </c>
+      <c r="F82" s="52"/>
+      <c r="G82" s="53" t="s">
+        <v>1032</v>
+      </c>
+      <c r="H82" s="54"/>
+    </row>
+    <row r="83" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A83" s="47">
+        <v>15</v>
+      </c>
+      <c r="B83" s="165" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C83" s="53" t="s">
+        <v>99</v>
+      </c>
+      <c r="D83" s="50">
+        <v>44126</v>
+      </c>
+      <c r="E83" s="51">
+        <v>44130</v>
+      </c>
+      <c r="F83" s="52"/>
+      <c r="G83" s="163" t="s">
+        <v>1033</v>
+      </c>
+      <c r="H83" s="83" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="26" x14ac:dyDescent="0.3">
+      <c r="A84" s="47">
+        <v>16</v>
+      </c>
+      <c r="B84" s="165" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C84" s="53" t="s">
+        <v>98</v>
+      </c>
+      <c r="D84" s="50">
         <v>44127</v>
       </c>
-      <c r="E75" s="62"/>
-      <c r="F75" s="63">
+      <c r="E84" s="62"/>
+      <c r="F84" s="63">
         <v>44134</v>
       </c>
-      <c r="G75" s="53" t="s">
+      <c r="G84" s="53" t="s">
         <v>1035</v>
       </c>
-      <c r="H75" s="54"/>
-    </row>
-    <row r="76" spans="1:8" ht="26" x14ac:dyDescent="0.3">
-      <c r="A76" s="47">
+      <c r="H84" s="54"/>
+    </row>
+    <row r="85" spans="1:8" ht="26" x14ac:dyDescent="0.3">
+      <c r="A85" s="47">
         <v>16</v>
       </c>
-      <c r="B76" s="166" t="s">
+      <c r="B85" s="165" t="s">
         <v>1034</v>
       </c>
-      <c r="C76" s="53" t="s">
+      <c r="C85" s="53" t="s">
         <v>1036</v>
       </c>
-      <c r="D76" s="50">
+      <c r="D85" s="50">
         <v>44127</v>
       </c>
-      <c r="E76" s="62"/>
-      <c r="F76" s="63">
+      <c r="E85" s="62"/>
+      <c r="F85" s="63">
         <v>44134</v>
       </c>
-      <c r="G76" s="53" t="s">
+      <c r="G85" s="53" t="s">
         <v>1037</v>
       </c>
-      <c r="H76" s="54"/>
-    </row>
-    <row r="77" spans="1:8" ht="26" x14ac:dyDescent="0.3">
-      <c r="A77" s="47">
+      <c r="H85" s="54"/>
+    </row>
+    <row r="86" spans="1:8" ht="26" x14ac:dyDescent="0.3">
+      <c r="A86" s="47">
         <v>17</v>
       </c>
-      <c r="B77" s="166" t="s">
+      <c r="B86" s="165" t="s">
         <v>1034</v>
       </c>
-      <c r="C77" s="53" t="s">
+      <c r="C86" s="53" t="s">
         <v>98</v>
       </c>
-      <c r="D77" s="50">
+      <c r="D86" s="50">
         <v>44127</v>
       </c>
-      <c r="E77" s="62"/>
-      <c r="F77" s="63">
+      <c r="E86" s="62"/>
+      <c r="F86" s="63">
         <v>44134</v>
       </c>
-      <c r="G77" s="55" t="s">
+      <c r="G86" s="55" t="s">
         <v>1038</v>
       </c>
-      <c r="H77" s="83" t="s">
+      <c r="H86" s="83" t="s">
         <v>1001</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="26" x14ac:dyDescent="0.3">
-      <c r="A78" s="47">
+    <row r="87" spans="1:8" ht="26" x14ac:dyDescent="0.3">
+      <c r="A87" s="47">
         <v>18</v>
       </c>
-      <c r="B78" s="166" t="s">
+      <c r="B87" s="165" t="s">
         <v>1207</v>
       </c>
-      <c r="C78" s="53" t="s">
+      <c r="C87" s="53" t="s">
         <v>104</v>
       </c>
-      <c r="D78" s="50">
+      <c r="D87" s="50">
         <v>44147</v>
       </c>
-      <c r="E78" s="50">
+      <c r="E87" s="50">
         <v>44149</v>
       </c>
-      <c r="F78" s="52"/>
-      <c r="G78" s="53" t="s">
+      <c r="F87" s="52"/>
+      <c r="G87" s="53" t="s">
+        <v>1434</v>
+      </c>
+      <c r="H87" s="54"/>
+    </row>
+    <row r="88" spans="1:8" ht="26.5" x14ac:dyDescent="0.35">
+      <c r="A88" s="47">
+        <v>18</v>
+      </c>
+      <c r="B88" s="165" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C88" s="53" t="s">
+        <v>104</v>
+      </c>
+      <c r="D88" s="50">
+        <v>44147</v>
+      </c>
+      <c r="E88" s="50">
+        <v>44149</v>
+      </c>
+      <c r="F88" s="52"/>
+      <c r="G88" s="163" t="s">
+        <v>1435</v>
+      </c>
+      <c r="H88" s="54"/>
+    </row>
+    <row r="89" spans="1:8" ht="26" x14ac:dyDescent="0.3">
+      <c r="A89" s="47">
+        <v>18</v>
+      </c>
+      <c r="B89" s="165" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C89" s="53" t="s">
+        <v>104</v>
+      </c>
+      <c r="D89" s="50">
+        <v>44147</v>
+      </c>
+      <c r="E89" s="50">
+        <v>44149</v>
+      </c>
+      <c r="F89" s="52"/>
+      <c r="G89" s="53" t="s">
         <v>1436</v>
       </c>
-      <c r="H78" s="54"/>
-    </row>
-    <row r="79" spans="1:8" ht="26.5" x14ac:dyDescent="0.35">
-      <c r="A79" s="47">
-        <v>18</v>
-      </c>
-      <c r="B79" s="166" t="s">
-        <v>1207</v>
-      </c>
-      <c r="C79" s="53" t="s">
-        <v>104</v>
-      </c>
-      <c r="D79" s="50">
-        <v>44147</v>
-      </c>
-      <c r="E79" s="50">
-        <v>44149</v>
-      </c>
-      <c r="F79" s="52"/>
-      <c r="G79" s="164" t="s">
-        <v>1437</v>
-      </c>
-      <c r="H79" s="54"/>
-    </row>
-    <row r="80" spans="1:8" ht="26" x14ac:dyDescent="0.3">
-      <c r="A80" s="47">
-        <v>18</v>
-      </c>
-      <c r="B80" s="166" t="s">
-        <v>1207</v>
-      </c>
-      <c r="C80" s="53" t="s">
-        <v>104</v>
-      </c>
-      <c r="D80" s="50">
-        <v>44147</v>
-      </c>
-      <c r="E80" s="50">
-        <v>44149</v>
-      </c>
-      <c r="F80" s="52"/>
-      <c r="G80" s="53" t="s">
-        <v>1438</v>
-      </c>
-      <c r="H80" s="54"/>
-    </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B81" s="94"/>
-      <c r="C81" s="95"/>
-    </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B82" s="94"/>
-      <c r="C82" s="95"/>
-    </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B83" s="94"/>
-      <c r="C83" s="95"/>
-    </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B84" s="94"/>
-      <c r="C84" s="95"/>
-    </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B85" s="94"/>
-      <c r="C85" s="95"/>
+      <c r="H89" s="54"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B90" s="94"/>
+      <c r="C90" s="95"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B91" s="94"/>
+      <c r="C91" s="95"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B92" s="94"/>
+      <c r="C92" s="95"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B93" s="94"/>
+      <c r="C93" s="95"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B94" s="94"/>
+      <c r="C94" s="95"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G79" r:id="rId1" xr:uid="{DFB074CA-CC8F-41A9-8DF1-2639D1856184}"/>
-    <hyperlink ref="G74" r:id="rId2" xr:uid="{05A2BA4A-338B-4D70-AC2B-871852F50142}"/>
+    <hyperlink ref="G88" r:id="rId1" xr:uid="{DFB074CA-CC8F-41A9-8DF1-2639D1856184}"/>
+    <hyperlink ref="G83" r:id="rId2" xr:uid="{05A2BA4A-338B-4D70-AC2B-871852F50142}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -15717,7 +16047,7 @@
         <v>530</v>
       </c>
       <c r="I39" s="19" t="s">
-        <v>1484</v>
+        <v>1481</v>
       </c>
       <c r="J39" s="19" t="s">
         <v>741</v>
@@ -25410,7 +25740,7 @@
   <dimension ref="B11:P117"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="11" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="11" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I8" sqref="I8"/>
       <selection pane="bottomLeft" activeCell="E118" sqref="E118"/>
     </sheetView>
@@ -29261,10 +29591,10 @@
     </row>
     <row r="113" spans="2:16" ht="29" x14ac:dyDescent="0.35">
       <c r="B113" s="27" t="s">
-        <v>1470</v>
+        <v>1467</v>
       </c>
       <c r="C113" s="24" t="s">
-        <v>1485</v>
+        <v>1482</v>
       </c>
       <c r="D113" s="23"/>
       <c r="E113" s="23" t="s">
@@ -29470,7 +29800,7 @@
       <selection activeCell="J19" sqref="J19"/>
       <selection pane="topRight" activeCell="J19" sqref="J19"/>
       <selection pane="bottomLeft" activeCell="J19" sqref="J19"/>
-      <selection pane="bottomRight" activeCell="H11" sqref="H11"/>
+      <selection pane="bottomRight" activeCell="F125" sqref="F125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -29641,10 +29971,10 @@
         <v>864</v>
       </c>
       <c r="AQ7" s="116" t="s">
-        <v>1444</v>
+        <v>1441</v>
       </c>
       <c r="AR7" s="116" t="s">
-        <v>1445</v>
+        <v>1442</v>
       </c>
       <c r="AS7" s="116" t="s">
         <v>865</v>
@@ -29683,7 +30013,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="8" spans="1:56" ht="93" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:56" ht="93" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="str">
         <f>+VLOOKUP(D8,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0012</v>
@@ -29731,7 +30061,7 @@
         <v>POWER BI</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="O8" s="2" t="s">
         <v>199</v>
@@ -29786,7 +30116,7 @@
       <c r="AL8" s="7"/>
       <c r="AM8" s="7"/>
       <c r="AN8" s="7" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="AO8" s="7" t="s">
         <v>959</v>
@@ -29835,7 +30165,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="9" spans="1:56" ht="115.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:56" ht="115.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="str">
         <f>+VLOOKUP(D9,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0012</v>
@@ -29881,7 +30211,7 @@
         <v>NO DEFINIDO</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="O9" s="2" t="s">
         <v>199</v>
@@ -29948,7 +30278,7 @@
       </c>
       <c r="BD9" s="7"/>
     </row>
-    <row r="10" spans="1:56" ht="78" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:56" ht="78" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="str">
         <f>+VLOOKUP(D10,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0012</v>
@@ -29996,7 +30326,7 @@
         <v>GEE</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="O10" s="2" t="s">
         <v>199</v>
@@ -30025,18 +30355,18 @@
       <c r="AE10" s="19" t="s">
         <v>194</v>
       </c>
-      <c r="AF10" s="167"/>
+      <c r="AF10" s="166"/>
       <c r="AG10" s="19" t="s">
         <v>1155</v>
       </c>
-      <c r="AH10" s="168"/>
+      <c r="AH10" s="167"/>
       <c r="AI10" s="19" t="s">
         <v>1156</v>
       </c>
-      <c r="AJ10" s="168"/>
-      <c r="AK10" s="169"/>
-      <c r="AL10" s="169"/>
-      <c r="AM10" s="169"/>
+      <c r="AJ10" s="167"/>
+      <c r="AK10" s="168"/>
+      <c r="AL10" s="168"/>
+      <c r="AM10" s="168"/>
       <c r="AN10" s="7" t="s">
         <v>1240</v>
       </c>
@@ -30047,7 +30377,7 @@
         <v>193</v>
       </c>
       <c r="AQ10" s="19" t="s">
-        <v>1446</v>
+        <v>1443</v>
       </c>
       <c r="AR10" s="19" t="s">
         <v>1327</v>
@@ -30087,7 +30417,7 @@
         <v>1335</v>
       </c>
     </row>
-    <row r="11" spans="1:56" ht="63" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:56" ht="63" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="str">
         <f>+VLOOKUP(D11,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0012</v>
@@ -30133,7 +30463,7 @@
         <v>NO DEFINIDO</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="O11" s="2" t="s">
         <v>199</v>
@@ -30202,7 +30532,7 @@
       </c>
       <c r="BD11" s="7"/>
     </row>
-    <row r="12" spans="1:56" ht="52.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:56" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="str">
         <f>+VLOOKUP(D12,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0012</v>
@@ -30248,7 +30578,7 @@
         <v>NO DEFINIDO</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="O12" s="2" t="s">
         <v>199</v>
@@ -30307,7 +30637,7 @@
       <c r="BC12" s="7"/>
       <c r="BD12" s="7"/>
     </row>
-    <row r="13" spans="1:56" ht="63" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:56" ht="63" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="str">
         <f>+VLOOKUP(D13,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0012</v>
@@ -30353,7 +30683,7 @@
         <v>NO DEFINIDO</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="O13" s="2" t="s">
         <v>199</v>
@@ -30412,7 +30742,7 @@
       <c r="BC13" s="7"/>
       <c r="BD13" s="7"/>
     </row>
-    <row r="14" spans="1:56" ht="78" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:56" ht="78" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="str">
         <f>+VLOOKUP(D14,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0008</v>
@@ -30458,7 +30788,7 @@
         <v>INFOGRAM</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="O14" s="2" t="s">
         <v>199</v>
@@ -30540,7 +30870,7 @@
       <c r="BC14" s="7"/>
       <c r="BD14" s="7"/>
     </row>
-    <row r="15" spans="1:56" ht="62.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:56" ht="62.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="str">
         <f>+VLOOKUP(D15,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0022</v>
@@ -30586,7 +30916,7 @@
         <v>INFOGRAM</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="O15" s="2" t="s">
         <v>199</v>
@@ -30664,7 +30994,7 @@
       <c r="BC15" s="7"/>
       <c r="BD15" s="7"/>
     </row>
-    <row r="16" spans="1:56" ht="55.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:56" ht="55.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="str">
         <f>+VLOOKUP(D16,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0012</v>
@@ -30710,7 +31040,7 @@
         <v>NO DEFINIDO</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="O16" s="2" t="s">
         <v>199</v>
@@ -30740,7 +31070,7 @@
       <c r="AL16" s="7"/>
       <c r="AM16" s="7"/>
       <c r="AN16" s="7" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
       <c r="AO16" s="7"/>
       <c r="AP16" s="7"/>
@@ -30767,7 +31097,7 @@
       <c r="BC16" s="7"/>
       <c r="BD16" s="7"/>
     </row>
-    <row r="17" spans="1:56" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:56" ht="58" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="str">
         <f>+VLOOKUP(D17,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0004</v>
@@ -30891,7 +31221,7 @@
       </c>
       <c r="BD17" s="133"/>
     </row>
-    <row r="18" spans="1:56" ht="48" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:56" ht="48" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="str">
         <f>+VLOOKUP(D18,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0004</v>
@@ -31006,7 +31336,7 @@
       </c>
       <c r="BD18" s="133"/>
     </row>
-    <row r="19" spans="1:56" ht="87" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:56" ht="87" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="str">
         <f>+VLOOKUP(D19,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0011</v>
@@ -31074,20 +31404,20 @@
       <c r="AE19" s="19" t="s">
         <v>194</v>
       </c>
-      <c r="AF19" s="167"/>
+      <c r="AF19" s="166"/>
       <c r="AG19" s="19" t="s">
         <v>1155</v>
       </c>
-      <c r="AH19" s="168"/>
+      <c r="AH19" s="167"/>
       <c r="AI19" s="19" t="s">
         <v>1156</v>
       </c>
-      <c r="AJ19" s="168"/>
-      <c r="AK19" s="169"/>
-      <c r="AL19" s="169"/>
-      <c r="AM19" s="169"/>
+      <c r="AJ19" s="167"/>
+      <c r="AK19" s="168"/>
+      <c r="AL19" s="168"/>
+      <c r="AM19" s="168"/>
       <c r="AN19" s="19" t="s">
-        <v>1447</v>
+        <v>1444</v>
       </c>
       <c r="AO19" s="7" t="s">
         <v>1159</v>
@@ -31096,7 +31426,7 @@
         <v>193</v>
       </c>
       <c r="AQ19" s="19" t="s">
-        <v>1446</v>
+        <v>1443</v>
       </c>
       <c r="AR19" s="19" t="s">
         <v>1327</v>
@@ -31129,7 +31459,7 @@
         <v>881</v>
       </c>
       <c r="BB19" s="101" t="s">
-        <v>1448</v>
+        <v>1445</v>
       </c>
       <c r="BC19" s="7">
         <v>1</v>
@@ -31138,7 +31468,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="20" spans="1:56" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:56" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="str">
         <f>+VLOOKUP(D20,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0010</v>
@@ -31235,7 +31565,7 @@
       <c r="BC20" s="7"/>
       <c r="BD20" s="7"/>
     </row>
-    <row r="21" spans="1:56" ht="87" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:56" ht="87" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="str">
         <f>+VLOOKUP(D21,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0010</v>
@@ -31305,18 +31635,18 @@
       <c r="AE21" s="19" t="s">
         <v>194</v>
       </c>
-      <c r="AF21" s="167"/>
+      <c r="AF21" s="166"/>
       <c r="AG21" s="19" t="s">
         <v>1155</v>
       </c>
-      <c r="AH21" s="168"/>
+      <c r="AH21" s="167"/>
       <c r="AI21" s="19" t="s">
         <v>1156</v>
       </c>
-      <c r="AJ21" s="168"/>
-      <c r="AK21" s="169"/>
-      <c r="AL21" s="169"/>
-      <c r="AM21" s="169"/>
+      <c r="AJ21" s="167"/>
+      <c r="AK21" s="168"/>
+      <c r="AL21" s="168"/>
+      <c r="AM21" s="168"/>
       <c r="AN21" s="7" t="s">
         <v>1163</v>
       </c>
@@ -31327,7 +31657,7 @@
         <v>193</v>
       </c>
       <c r="AQ21" s="19" t="s">
-        <v>1446</v>
+        <v>1443</v>
       </c>
       <c r="AR21" s="19" t="s">
         <v>1327</v>
@@ -31371,7 +31701,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="22" spans="1:56" ht="80.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:56" ht="80.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="str">
         <f>+VLOOKUP(D22,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0010</v>
@@ -31478,7 +31808,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="23" spans="1:56" ht="131.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:56" ht="131.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="42" t="str">
         <f>+VLOOKUP(D23,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0018</v>
@@ -31533,7 +31863,7 @@
       <c r="U23" s="2"/>
       <c r="V23" s="3"/>
       <c r="W23" s="7"/>
-      <c r="X23" s="170" t="s">
+      <c r="X23" s="169" t="s">
         <v>181</v>
       </c>
       <c r="AA23" s="7"/>
@@ -31543,12 +31873,12 @@
         <v>Evaluación de Programas e Instituciones del servicio público (1997-2000).</v>
       </c>
       <c r="AD23" s="7" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="AE23" s="19" t="s">
         <v>194</v>
       </c>
-      <c r="AF23" s="167"/>
+      <c r="AF23" s="166"/>
       <c r="AG23" s="19" t="s">
         <v>1270</v>
       </c>
@@ -31561,7 +31891,7 @@
       <c r="AJ23" s="19" t="s">
         <v>1270</v>
       </c>
-      <c r="AK23" s="169"/>
+      <c r="AK23" s="168"/>
       <c r="AL23" s="19" t="s">
         <v>1270</v>
       </c>
@@ -31604,7 +31934,7 @@
         <v>962</v>
       </c>
       <c r="AY23" s="101" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
       <c r="AZ23" s="7" t="s">
         <v>880</v>
@@ -31613,16 +31943,16 @@
         <v>881</v>
       </c>
       <c r="BB23" s="7" t="s">
-        <v>1449</v>
+        <v>1446</v>
       </c>
       <c r="BC23" s="7">
         <v>1</v>
       </c>
       <c r="BD23" s="7" t="s">
-        <v>1450</v>
-      </c>
-    </row>
-    <row r="24" spans="1:56" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="24" spans="1:56" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="str">
         <f>+VLOOKUP(D24,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0002</v>
@@ -31645,10 +31975,10 @@
         <v>0002-01-00017</v>
       </c>
       <c r="G24" s="2" t="s">
+        <v>1351</v>
+      </c>
+      <c r="H24" s="2" t="s">
         <v>1352</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>1353</v>
       </c>
       <c r="I24" s="2"/>
       <c r="J24" s="44">
@@ -31722,7 +32052,7 @@
       <c r="BC24" s="7"/>
       <c r="BD24" s="7"/>
     </row>
-    <row r="25" spans="1:56" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:56" ht="29" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="str">
         <f>+VLOOKUP(D25,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0002</v>
@@ -31817,7 +32147,7 @@
       <c r="BC25" s="7"/>
       <c r="BD25" s="7"/>
     </row>
-    <row r="26" spans="1:56" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:56" ht="29" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="str">
         <f>+VLOOKUP(D26,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0002</v>
@@ -31914,7 +32244,7 @@
       <c r="BC26" s="7"/>
       <c r="BD26" s="7"/>
     </row>
-    <row r="27" spans="1:56" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:56" ht="29" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="str">
         <f>+VLOOKUP(D27,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0002</v>
@@ -32009,7 +32339,7 @@
       <c r="BC27" s="7"/>
       <c r="BD27" s="7"/>
     </row>
-    <row r="28" spans="1:56" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:56" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="str">
         <f>+VLOOKUP(D28,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0002</v>
@@ -32104,7 +32434,7 @@
       <c r="BC28" s="7"/>
       <c r="BD28" s="7"/>
     </row>
-    <row r="29" spans="1:56" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:56" ht="24" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="str">
         <f>+VLOOKUP(D29,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0002</v>
@@ -32201,7 +32531,7 @@
       <c r="BC29" s="7"/>
       <c r="BD29" s="7"/>
     </row>
-    <row r="30" spans="1:56" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:56" ht="29" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="str">
         <f>+VLOOKUP(D30,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0001</v>
@@ -32296,7 +32626,7 @@
       <c r="BC30" s="7"/>
       <c r="BD30" s="7"/>
     </row>
-    <row r="31" spans="1:56" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:56" ht="24" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="str">
         <f>+VLOOKUP(D31,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0001</v>
@@ -32391,7 +32721,7 @@
       <c r="BC31" s="7"/>
       <c r="BD31" s="7"/>
     </row>
-    <row r="32" spans="1:56" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:56" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="str">
         <f>+VLOOKUP(D32,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0001</v>
@@ -32470,7 +32800,7 @@
       <c r="AL32" s="7"/>
       <c r="AM32" s="7"/>
       <c r="AN32" s="7" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
       <c r="AO32" s="7"/>
       <c r="AP32" s="7"/>
@@ -32498,10 +32828,10 @@
       <c r="BB32" s="7"/>
       <c r="BC32" s="7"/>
       <c r="BD32" s="7" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="33" spans="1:56" ht="29" hidden="1" x14ac:dyDescent="0.35">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="33" spans="1:56" ht="29" x14ac:dyDescent="0.35">
       <c r="A33" s="42" t="str">
         <f>+VLOOKUP(D33,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0019</v>
@@ -32596,7 +32926,7 @@
       <c r="BC33" s="7"/>
       <c r="BD33" s="7"/>
     </row>
-    <row r="34" spans="1:56" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:56" ht="29" x14ac:dyDescent="0.35">
       <c r="A34" s="42" t="str">
         <f>+VLOOKUP(D34,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0019</v>
@@ -32691,7 +33021,7 @@
       <c r="BC34" s="7"/>
       <c r="BD34" s="7"/>
     </row>
-    <row r="35" spans="1:56" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:56" ht="24" x14ac:dyDescent="0.35">
       <c r="A35" s="42" t="str">
         <f>+VLOOKUP(D35,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0004</v>
@@ -32790,7 +33120,7 @@
       <c r="BC35" s="7"/>
       <c r="BD35" s="7"/>
     </row>
-    <row r="36" spans="1:56" ht="87" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:56" ht="87" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="str">
         <f>+VLOOKUP(D36,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0007</v>
@@ -32855,23 +33185,23 @@
         <v>Empresas Registradas en el SII</v>
       </c>
       <c r="AD36" s="135" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="AE36" s="19" t="s">
         <v>194</v>
       </c>
-      <c r="AF36" s="167"/>
+      <c r="AF36" s="166"/>
       <c r="AG36" s="19" t="s">
         <v>1155</v>
       </c>
-      <c r="AH36" s="168"/>
+      <c r="AH36" s="167"/>
       <c r="AI36" s="19" t="s">
         <v>1156</v>
       </c>
-      <c r="AJ36" s="168"/>
-      <c r="AK36" s="169"/>
-      <c r="AL36" s="169"/>
-      <c r="AM36" s="169"/>
+      <c r="AJ36" s="167"/>
+      <c r="AK36" s="168"/>
+      <c r="AL36" s="168"/>
+      <c r="AM36" s="168"/>
       <c r="AN36" s="7" t="s">
         <v>1337</v>
       </c>
@@ -32882,12 +33212,12 @@
         <v>193</v>
       </c>
       <c r="AQ36" s="19" t="s">
-        <v>1446</v>
+        <v>1443</v>
       </c>
       <c r="AR36" s="19" t="s">
         <v>1327</v>
       </c>
-      <c r="AS36" s="168"/>
+      <c r="AS36" s="167"/>
       <c r="AT36" s="7" t="s">
         <v>878</v>
       </c>
@@ -32922,7 +33252,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="37" spans="1:56" ht="104" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:56" ht="104" x14ac:dyDescent="0.35">
       <c r="A37" s="42" t="str">
         <f>+VLOOKUP(D37,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0004</v>
@@ -32992,20 +33322,20 @@
       <c r="AE37" s="19" t="s">
         <v>194</v>
       </c>
-      <c r="AF37" s="167"/>
+      <c r="AF37" s="166"/>
       <c r="AG37" s="19" t="s">
-        <v>1451</v>
-      </c>
-      <c r="AH37" s="168"/>
+        <v>1448</v>
+      </c>
+      <c r="AH37" s="167"/>
       <c r="AI37" s="19" t="s">
         <v>966</v>
       </c>
-      <c r="AJ37" s="168"/>
-      <c r="AK37" s="169"/>
-      <c r="AL37" s="169"/>
-      <c r="AM37" s="169"/>
+      <c r="AJ37" s="167"/>
+      <c r="AK37" s="168"/>
+      <c r="AL37" s="168"/>
+      <c r="AM37" s="168"/>
       <c r="AN37" s="19" t="s">
-        <v>1452</v>
+        <v>1449</v>
       </c>
       <c r="AO37" s="7" t="s">
         <v>1152</v>
@@ -33014,7 +33344,7 @@
         <v>767</v>
       </c>
       <c r="AQ37" s="19" t="s">
-        <v>1453</v>
+        <v>1450</v>
       </c>
       <c r="AR37" s="19" t="s">
         <v>1328</v>
@@ -33052,7 +33382,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="38" spans="1:56" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:56" ht="24" x14ac:dyDescent="0.35">
       <c r="A38" s="42" t="str">
         <f>+VLOOKUP(D38,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0021</v>
@@ -33147,7 +33477,7 @@
       <c r="BC38" s="7"/>
       <c r="BD38" s="7"/>
     </row>
-    <row r="39" spans="1:56" ht="77.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:56" ht="77.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="42" t="str">
         <f>+VLOOKUP(D39,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0012</v>
@@ -33193,7 +33523,7 @@
         <v>POWER BI</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="O39" s="2" t="s">
         <v>199</v>
@@ -33221,7 +33551,7 @@
       <c r="AE39" s="19" t="s">
         <v>194</v>
       </c>
-      <c r="AF39" s="171">
+      <c r="AF39" s="170">
         <v>0</v>
       </c>
       <c r="AG39" s="19" t="s">
@@ -33236,7 +33566,7 @@
       <c r="AJ39" s="19" t="s">
         <v>1270</v>
       </c>
-      <c r="AK39" s="169"/>
+      <c r="AK39" s="168"/>
       <c r="AL39" s="19" t="s">
         <v>1270</v>
       </c>
@@ -33244,7 +33574,7 @@
         <v>1270</v>
       </c>
       <c r="AN39" s="7" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="AO39" s="7" t="s">
         <v>1152</v>
@@ -33297,7 +33627,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="40" spans="1:56" ht="48" hidden="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:56" ht="48" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="str">
         <f>+VLOOKUP(D40,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0003</v>
@@ -33373,11 +33703,11 @@
         <v>194</v>
       </c>
       <c r="AJ40" s="100"/>
-      <c r="AK40" s="169"/>
-      <c r="AL40" s="169"/>
-      <c r="AM40" s="169"/>
+      <c r="AK40" s="168"/>
+      <c r="AL40" s="168"/>
+      <c r="AM40" s="168"/>
       <c r="AN40" s="7" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="AO40" s="7"/>
       <c r="AP40" s="100"/>
@@ -33418,7 +33748,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="41" spans="1:56" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:56" ht="29" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="str">
         <f>+VLOOKUP(D41,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0003</v>
@@ -33515,7 +33845,7 @@
       <c r="BC41" s="7"/>
       <c r="BD41" s="7"/>
     </row>
-    <row r="42" spans="1:56" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:56" ht="24" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="str">
         <f>+VLOOKUP(D42,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0003</v>
@@ -33618,7 +33948,7 @@
       <c r="BC42" s="7"/>
       <c r="BD42" s="7"/>
     </row>
-    <row r="43" spans="1:56" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:56" ht="24" x14ac:dyDescent="0.35">
       <c r="A43" s="42" t="str">
         <f>+VLOOKUP(D43,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0014</v>
@@ -33713,7 +34043,7 @@
       <c r="BC43" s="7"/>
       <c r="BD43" s="7"/>
     </row>
-    <row r="44" spans="1:56" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:56" ht="24" x14ac:dyDescent="0.35">
       <c r="A44" s="42" t="str">
         <f>+VLOOKUP(D44,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0014</v>
@@ -33808,7 +34138,7 @@
       <c r="BC44" s="7"/>
       <c r="BD44" s="7"/>
     </row>
-    <row r="45" spans="1:56" ht="84" hidden="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:56" ht="84" x14ac:dyDescent="0.35">
       <c r="A45" s="42" t="str">
         <f>+VLOOKUP(D45,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0009</v>
@@ -33864,7 +34194,7 @@
       <c r="V45" s="3"/>
       <c r="W45" s="7"/>
       <c r="X45" s="91" t="s">
-        <v>1472</v>
+        <v>1469</v>
       </c>
       <c r="AA45" s="7"/>
       <c r="AB45" s="13"/>
@@ -33878,7 +34208,7 @@
       <c r="AE45" s="19" t="s">
         <v>194</v>
       </c>
-      <c r="AF45" s="167"/>
+      <c r="AF45" s="166"/>
       <c r="AG45" s="19" t="s">
         <v>1270</v>
       </c>
@@ -33891,7 +34221,7 @@
       <c r="AJ45" s="19" t="s">
         <v>1270</v>
       </c>
-      <c r="AK45" s="169"/>
+      <c r="AK45" s="168"/>
       <c r="AL45" s="19" t="s">
         <v>1270</v>
       </c>
@@ -33899,7 +34229,7 @@
         <v>1270</v>
       </c>
       <c r="AN45" s="7" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="AO45" s="7" t="s">
         <v>1152</v>
@@ -34045,7 +34375,7 @@
       <c r="BC46" s="7"/>
       <c r="BD46" s="7"/>
     </row>
-    <row r="47" spans="1:56" ht="87" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:56" ht="87" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="str">
         <f>+VLOOKUP(D47,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0005</v>
@@ -34120,7 +34450,7 @@
       <c r="AL47" s="7"/>
       <c r="AM47" s="7"/>
       <c r="AN47" s="7" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="AO47" s="7"/>
       <c r="AP47" s="7"/>
@@ -34147,7 +34477,7 @@
       <c r="BC47" s="7"/>
       <c r="BD47" s="7"/>
     </row>
-    <row r="48" spans="1:56" ht="65.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:56" ht="65.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="42" t="str">
         <f>+VLOOKUP(D48,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0009</v>
@@ -34214,7 +34544,7 @@
       <c r="AE48" s="19" t="s">
         <v>966</v>
       </c>
-      <c r="AF48" s="167"/>
+      <c r="AF48" s="166"/>
       <c r="AG48" s="19" t="s">
         <v>1270</v>
       </c>
@@ -34227,7 +34557,7 @@
       <c r="AJ48" s="19" t="s">
         <v>1270</v>
       </c>
-      <c r="AK48" s="169"/>
+      <c r="AK48" s="168"/>
       <c r="AL48" s="19" t="s">
         <v>1270</v>
       </c>
@@ -34235,7 +34565,7 @@
         <v>1270</v>
       </c>
       <c r="AN48" s="19" t="s">
-        <v>1454</v>
+        <v>1451</v>
       </c>
       <c r="AO48" s="7"/>
       <c r="AP48" s="7" t="s">
@@ -34282,7 +34612,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="49" spans="1:56" ht="61.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:56" ht="61.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="42" t="str">
         <f>+VLOOKUP(D49,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0009</v>
@@ -34349,7 +34679,7 @@
       <c r="AE49" s="19" t="s">
         <v>966</v>
       </c>
-      <c r="AF49" s="167"/>
+      <c r="AF49" s="166"/>
       <c r="AG49" s="19" t="s">
         <v>1270</v>
       </c>
@@ -34362,7 +34692,7 @@
       <c r="AJ49" s="19" t="s">
         <v>1270</v>
       </c>
-      <c r="AK49" s="169"/>
+      <c r="AK49" s="168"/>
       <c r="AL49" s="19" t="s">
         <v>1270</v>
       </c>
@@ -34370,7 +34700,7 @@
         <v>1270</v>
       </c>
       <c r="AN49" s="19" t="s">
-        <v>1455</v>
+        <v>1452</v>
       </c>
       <c r="AO49" s="7"/>
       <c r="AP49" s="7" t="s">
@@ -34417,7 +34747,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="50" spans="1:56" ht="78" hidden="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:56" ht="78" x14ac:dyDescent="0.35">
       <c r="A50" s="42" t="str">
         <f>+VLOOKUP(D50,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0001</v>
@@ -34472,8 +34802,8 @@
       <c r="U50" s="2"/>
       <c r="V50" s="3"/>
       <c r="W50" s="7"/>
-      <c r="X50" s="175" t="s">
-        <v>1469</v>
+      <c r="X50" s="174" t="s">
+        <v>1466</v>
       </c>
       <c r="AA50" s="7"/>
       <c r="AB50" s="13"/>
@@ -34485,7 +34815,7 @@
       <c r="AE50" s="19" t="s">
         <v>194</v>
       </c>
-      <c r="AF50" s="171">
+      <c r="AF50" s="170">
         <v>0</v>
       </c>
       <c r="AG50" s="19" t="s">
@@ -34500,7 +34830,7 @@
       <c r="AJ50" s="19" t="s">
         <v>1270</v>
       </c>
-      <c r="AK50" s="169"/>
+      <c r="AK50" s="168"/>
       <c r="AL50" s="19" t="s">
         <v>1270</v>
       </c>
@@ -34508,7 +34838,7 @@
         <v>1270</v>
       </c>
       <c r="AN50" s="19" t="s">
-        <v>1456</v>
+        <v>1453</v>
       </c>
       <c r="AO50" s="19" t="s">
         <v>959</v>
@@ -34537,13 +34867,13 @@
         <v>POWER BI</v>
       </c>
       <c r="AW50" s="19" t="s">
-        <v>1465</v>
+        <v>1462</v>
       </c>
       <c r="AX50" s="7" t="s">
         <v>962</v>
       </c>
       <c r="AY50" s="19" t="s">
-        <v>1463</v>
+        <v>1460</v>
       </c>
       <c r="AZ50" s="7" t="s">
         <v>880</v>
@@ -34559,7 +34889,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="51" spans="1:56" ht="78" hidden="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:56" ht="78" x14ac:dyDescent="0.35">
       <c r="A51" s="42" t="str">
         <f>+VLOOKUP(D51,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0001</v>
@@ -34615,7 +34945,7 @@
       <c r="V51" s="3"/>
       <c r="W51" s="7"/>
       <c r="X51" s="68" t="s">
-        <v>1468</v>
+        <v>1465</v>
       </c>
       <c r="AA51" s="7"/>
       <c r="AB51" s="13"/>
@@ -34627,7 +34957,7 @@
       <c r="AE51" s="19" t="s">
         <v>194</v>
       </c>
-      <c r="AF51" s="171">
+      <c r="AF51" s="170">
         <v>0</v>
       </c>
       <c r="AG51" s="19" t="s">
@@ -34642,7 +34972,7 @@
       <c r="AJ51" s="19" t="s">
         <v>1270</v>
       </c>
-      <c r="AK51" s="169"/>
+      <c r="AK51" s="168"/>
       <c r="AL51" s="19" t="s">
         <v>1270</v>
       </c>
@@ -34650,7 +34980,7 @@
         <v>1270</v>
       </c>
       <c r="AN51" s="19" t="s">
-        <v>1457</v>
+        <v>1454</v>
       </c>
       <c r="AO51" s="19" t="s">
         <v>959</v>
@@ -34679,13 +35009,13 @@
         <v>POWER BI</v>
       </c>
       <c r="AW51" s="19" t="s">
-        <v>1465</v>
+        <v>1462</v>
       </c>
       <c r="AX51" s="7" t="s">
         <v>962</v>
       </c>
       <c r="AY51" s="19" t="s">
-        <v>1464</v>
+        <v>1461</v>
       </c>
       <c r="AZ51" s="7" t="s">
         <v>880</v>
@@ -34701,7 +35031,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="52" spans="1:56" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:56" ht="24" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="str">
         <f>+VLOOKUP(D52,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0019</v>
@@ -34796,7 +35126,7 @@
       <c r="BC52" s="7"/>
       <c r="BD52" s="7"/>
     </row>
-    <row r="53" spans="1:56" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:56" ht="24" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="str">
         <f>+VLOOKUP(D53,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0017</v>
@@ -34893,7 +35223,7 @@
       <c r="BC53" s="7"/>
       <c r="BD53" s="7"/>
     </row>
-    <row r="54" spans="1:56" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:56" ht="24" x14ac:dyDescent="0.35">
       <c r="A54" s="42" t="str">
         <f>+VLOOKUP(D54,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0012</v>
@@ -34988,7 +35318,7 @@
       <c r="BC54" s="7"/>
       <c r="BD54" s="7"/>
     </row>
-    <row r="55" spans="1:56" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:56" ht="24" x14ac:dyDescent="0.35">
       <c r="A55" s="42" t="str">
         <f>+VLOOKUP(D55,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0022</v>
@@ -35083,7 +35413,7 @@
       <c r="BC55" s="7"/>
       <c r="BD55" s="7"/>
     </row>
-    <row r="56" spans="1:56" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:56" ht="24" x14ac:dyDescent="0.35">
       <c r="A56" s="42" t="str">
         <f>+VLOOKUP(D56,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0023</v>
@@ -35178,7 +35508,7 @@
       <c r="BC56" s="7"/>
       <c r="BD56" s="7"/>
     </row>
-    <row r="57" spans="1:56" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:56" ht="24" x14ac:dyDescent="0.35">
       <c r="A57" s="42" t="str">
         <f>+VLOOKUP(D57,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0024</v>
@@ -35273,7 +35603,7 @@
       <c r="BC57" s="7"/>
       <c r="BD57" s="7"/>
     </row>
-    <row r="58" spans="1:56" ht="70.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:56" ht="70.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="42" t="str">
         <f>+VLOOKUP(D58,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0009</v>
@@ -35343,7 +35673,7 @@
       <c r="AE58" s="19" t="s">
         <v>966</v>
       </c>
-      <c r="AF58" s="167"/>
+      <c r="AF58" s="166"/>
       <c r="AG58" s="19" t="s">
         <v>1270</v>
       </c>
@@ -35356,7 +35686,7 @@
       <c r="AJ58" s="19" t="s">
         <v>1270</v>
       </c>
-      <c r="AK58" s="169"/>
+      <c r="AK58" s="168"/>
       <c r="AL58" s="19" t="s">
         <v>1270</v>
       </c>
@@ -35364,7 +35694,7 @@
         <v>1270</v>
       </c>
       <c r="AN58" s="19" t="s">
-        <v>1458</v>
+        <v>1455</v>
       </c>
       <c r="AO58" s="7"/>
       <c r="AP58" s="7" t="s">
@@ -35411,7 +35741,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="59" spans="1:56" ht="87" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:56" ht="87" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="42" t="str">
         <f>+VLOOKUP(D59,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0009</v>
@@ -35481,7 +35811,7 @@
       <c r="AE59" s="19" t="s">
         <v>966</v>
       </c>
-      <c r="AF59" s="167"/>
+      <c r="AF59" s="166"/>
       <c r="AG59" s="19" t="s">
         <v>1270</v>
       </c>
@@ -35494,7 +35824,7 @@
       <c r="AJ59" s="19" t="s">
         <v>1270</v>
       </c>
-      <c r="AK59" s="169"/>
+      <c r="AK59" s="168"/>
       <c r="AL59" s="19" t="s">
         <v>1270</v>
       </c>
@@ -35502,7 +35832,7 @@
         <v>1270</v>
       </c>
       <c r="AN59" s="7" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="AO59" s="7"/>
       <c r="AP59" s="7" t="s">
@@ -35514,7 +35844,7 @@
       <c r="AR59" s="19" t="s">
         <v>1270</v>
       </c>
-      <c r="AS59" s="168"/>
+      <c r="AS59" s="167"/>
       <c r="AT59" s="7" t="s">
         <v>878</v>
       </c>
@@ -35549,7 +35879,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="60" spans="1:56" ht="73.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:56" ht="73.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="42" t="str">
         <f>+VLOOKUP(D60,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0016</v>
@@ -35614,36 +35944,36 @@
         <v>Evolución Delitos de Mayor Connotación Social (2008-2020)</v>
       </c>
       <c r="AD60" s="135" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="AE60" s="19" t="s">
         <v>194</v>
       </c>
-      <c r="AF60" s="167"/>
+      <c r="AF60" s="166"/>
       <c r="AG60" s="19" t="s">
         <v>967</v>
       </c>
-      <c r="AH60" s="168"/>
+      <c r="AH60" s="167"/>
       <c r="AI60" s="19" t="s">
         <v>1270</v>
       </c>
       <c r="AJ60" s="19" t="s">
         <v>1270</v>
       </c>
-      <c r="AK60" s="169"/>
-      <c r="AL60" s="169"/>
+      <c r="AK60" s="168"/>
+      <c r="AL60" s="168"/>
       <c r="AM60" s="19" t="s">
         <v>1270</v>
       </c>
       <c r="AN60" s="19" t="s">
-        <v>1459</v>
+        <v>1456</v>
       </c>
       <c r="AO60" s="100"/>
       <c r="AP60" s="19" t="s">
         <v>193</v>
       </c>
       <c r="AQ60" s="19" t="s">
-        <v>1446</v>
+        <v>1443</v>
       </c>
       <c r="AR60" s="19" t="s">
         <v>1270</v>
@@ -35679,7 +36009,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="61" spans="1:56" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:56" ht="24" x14ac:dyDescent="0.35">
       <c r="A61" s="42" t="str">
         <f>+VLOOKUP(D61,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0020</v>
@@ -35774,7 +36104,7 @@
       <c r="BC61" s="7"/>
       <c r="BD61" s="7"/>
     </row>
-    <row r="62" spans="1:56" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:56" ht="24" x14ac:dyDescent="0.35">
       <c r="A62" s="42" t="str">
         <f>+VLOOKUP(D62,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0020</v>
@@ -35869,7 +36199,7 @@
       <c r="BC62" s="7"/>
       <c r="BD62" s="7"/>
     </row>
-    <row r="63" spans="1:56" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:56" ht="29" x14ac:dyDescent="0.35">
       <c r="A63" s="42" t="str">
         <f>+VLOOKUP(D63,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0020</v>
@@ -35964,7 +36294,7 @@
       <c r="BC63" s="7"/>
       <c r="BD63" s="7"/>
     </row>
-    <row r="64" spans="1:56" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:56" ht="24" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="str">
         <f>+VLOOKUP(D64,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0020</v>
@@ -36059,7 +36389,7 @@
       <c r="BC64" s="7"/>
       <c r="BD64" s="7"/>
     </row>
-    <row r="65" spans="1:56" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:56" ht="51" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="str">
         <f>+VLOOKUP(D65,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0006</v>
@@ -36085,7 +36415,7 @@
         <v>938</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="I65" s="2"/>
       <c r="J65" s="44">
@@ -36131,7 +36461,7 @@
       <c r="AL65" s="7"/>
       <c r="AM65" s="7"/>
       <c r="AN65" s="7" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="AO65" s="7"/>
       <c r="AP65" s="7"/>
@@ -36158,7 +36488,7 @@
       <c r="BC65" s="7"/>
       <c r="BD65" s="7"/>
     </row>
-    <row r="66" spans="1:56" ht="60" hidden="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:56" ht="60" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="str">
         <f>+VLOOKUP(D66,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0006</v>
@@ -36227,7 +36557,7 @@
       <c r="AL66" s="7"/>
       <c r="AM66" s="7"/>
       <c r="AN66" s="7" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="AO66" s="7"/>
       <c r="AP66" s="7"/>
@@ -36254,7 +36584,7 @@
       <c r="BC66" s="7"/>
       <c r="BD66" s="7"/>
     </row>
-    <row r="67" spans="1:56" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:56" ht="24" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="str">
         <f>+VLOOKUP(D67,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0003</v>
@@ -36351,7 +36681,7 @@
       <c r="BC67" s="7"/>
       <c r="BD67" s="7"/>
     </row>
-    <row r="68" spans="1:56" ht="85" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:56" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="str">
         <f>+VLOOKUP(D68,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0003</v>
@@ -36419,20 +36749,20 @@
       <c r="AE68" s="19" t="s">
         <v>966</v>
       </c>
-      <c r="AF68" s="167"/>
+      <c r="AF68" s="166"/>
       <c r="AG68" s="19" t="s">
         <v>967</v>
       </c>
-      <c r="AH68" s="168"/>
+      <c r="AH68" s="167"/>
       <c r="AI68" s="19" t="s">
         <v>194</v>
       </c>
-      <c r="AJ68" s="168"/>
-      <c r="AK68" s="168"/>
-      <c r="AL68" s="168"/>
-      <c r="AM68" s="168"/>
+      <c r="AJ68" s="167"/>
+      <c r="AK68" s="167"/>
+      <c r="AL68" s="167"/>
+      <c r="AM68" s="167"/>
       <c r="AN68" s="7" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="AO68" s="7"/>
       <c r="AP68" s="100"/>
@@ -36467,7 +36797,7 @@
         <v>1334</v>
       </c>
     </row>
-    <row r="69" spans="1:56" ht="72" hidden="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:56" ht="72" x14ac:dyDescent="0.35">
       <c r="A69" s="42" t="str">
         <f>+VLOOKUP(D69,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0003</v>
@@ -36547,7 +36877,7 @@
       <c r="AL69" s="100"/>
       <c r="AM69" s="100"/>
       <c r="AN69" s="7" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
       <c r="AO69" s="7"/>
       <c r="AP69" s="7"/>
@@ -36588,7 +36918,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="70" spans="1:56" ht="48" hidden="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:56" ht="48" x14ac:dyDescent="0.35">
       <c r="A70" s="42" t="str">
         <f>+VLOOKUP(D70,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0003</v>
@@ -36668,7 +36998,7 @@
       <c r="AL70" s="100"/>
       <c r="AM70" s="100"/>
       <c r="AN70" s="7" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="AO70" s="7"/>
       <c r="AP70" s="7"/>
@@ -36707,7 +37037,7 @@
       </c>
       <c r="BD70" s="7"/>
     </row>
-    <row r="71" spans="1:56" ht="48" hidden="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:56" ht="48" x14ac:dyDescent="0.35">
       <c r="A71" s="42" t="str">
         <f>+VLOOKUP(D71,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0003</v>
@@ -36787,7 +37117,7 @@
       <c r="AL71" s="100"/>
       <c r="AM71" s="100"/>
       <c r="AN71" s="7" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="AO71" s="7"/>
       <c r="AP71" s="7"/>
@@ -36826,7 +37156,7 @@
       </c>
       <c r="BD71" s="7"/>
     </row>
-    <row r="72" spans="1:56" ht="60" hidden="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:56" ht="60" x14ac:dyDescent="0.35">
       <c r="A72" s="42" t="str">
         <f>+VLOOKUP(D72,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0003</v>
@@ -36906,7 +37236,7 @@
       <c r="AL72" s="100"/>
       <c r="AM72" s="100"/>
       <c r="AN72" s="7" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="AO72" s="7"/>
       <c r="AP72" s="7"/>
@@ -36945,7 +37275,7 @@
       </c>
       <c r="BD72" s="7"/>
     </row>
-    <row r="73" spans="1:56" ht="60" hidden="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:56" ht="60" x14ac:dyDescent="0.35">
       <c r="A73" s="42" t="str">
         <f>+VLOOKUP(D73,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0003</v>
@@ -37025,7 +37355,7 @@
       <c r="AL73" s="100"/>
       <c r="AM73" s="100"/>
       <c r="AN73" s="7" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="AO73" s="7"/>
       <c r="AP73" s="7"/>
@@ -37064,7 +37394,7 @@
       </c>
       <c r="BD73" s="7"/>
     </row>
-    <row r="74" spans="1:56" ht="60" hidden="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:56" ht="60" x14ac:dyDescent="0.35">
       <c r="A74" s="42" t="str">
         <f>+VLOOKUP(D74,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0003</v>
@@ -37144,7 +37474,7 @@
       <c r="AL74" s="100"/>
       <c r="AM74" s="100"/>
       <c r="AN74" s="7" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
       <c r="AO74" s="7"/>
       <c r="AP74" s="7"/>
@@ -37183,7 +37513,7 @@
       </c>
       <c r="BD74" s="7"/>
     </row>
-    <row r="75" spans="1:56" ht="78" hidden="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:56" ht="78" x14ac:dyDescent="0.35">
       <c r="A75" s="42" t="str">
         <f>+VLOOKUP(D75,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0001</v>
@@ -37239,7 +37569,7 @@
       <c r="V75" s="3"/>
       <c r="W75" s="7"/>
       <c r="X75" s="68" t="s">
-        <v>1467</v>
+        <v>1464</v>
       </c>
       <c r="AA75" s="7"/>
       <c r="AB75" s="13"/>
@@ -37251,7 +37581,7 @@
       <c r="AE75" s="19" t="s">
         <v>194</v>
       </c>
-      <c r="AF75" s="171">
+      <c r="AF75" s="170">
         <v>0</v>
       </c>
       <c r="AG75" s="19" t="s">
@@ -37266,7 +37596,7 @@
       <c r="AJ75" s="19" t="s">
         <v>1270</v>
       </c>
-      <c r="AK75" s="169"/>
+      <c r="AK75" s="168"/>
       <c r="AL75" s="19" t="s">
         <v>1270</v>
       </c>
@@ -37274,7 +37604,7 @@
         <v>1270</v>
       </c>
       <c r="AN75" s="19" t="s">
-        <v>1460</v>
+        <v>1457</v>
       </c>
       <c r="AO75" s="19" t="s">
         <v>959</v>
@@ -37303,13 +37633,13 @@
         <v>POWER BI</v>
       </c>
       <c r="AW75" s="19" t="s">
-        <v>1465</v>
+        <v>1462</v>
       </c>
       <c r="AX75" s="7" t="s">
         <v>962</v>
       </c>
       <c r="AY75" s="19" t="s">
-        <v>1463</v>
+        <v>1460</v>
       </c>
       <c r="AZ75" s="7" t="s">
         <v>880</v>
@@ -37325,7 +37655,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="76" spans="1:56" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:56" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="42" t="str">
         <f>+VLOOKUP(D76,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0001</v>
@@ -37420,7 +37750,7 @@
       <c r="BC76" s="7"/>
       <c r="BD76" s="7"/>
     </row>
-    <row r="77" spans="1:56" ht="32.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:56" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="42" t="str">
         <f>+VLOOKUP(D77,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0004</v>
@@ -37522,7 +37852,7 @@
       <c r="BC77" s="7"/>
       <c r="BD77" s="7"/>
     </row>
-    <row r="78" spans="1:56" ht="26" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:56" ht="26" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="42" t="str">
         <f>+VLOOKUP(D78,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0003</v>
@@ -37619,7 +37949,7 @@
       <c r="BC78" s="7"/>
       <c r="BD78" s="7"/>
     </row>
-    <row r="79" spans="1:56" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:56" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="42" t="str">
         <f>+VLOOKUP(D79,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0003</v>
@@ -37716,7 +38046,7 @@
       <c r="BC79" s="7"/>
       <c r="BD79" s="7"/>
     </row>
-    <row r="80" spans="1:56" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:56" ht="24" x14ac:dyDescent="0.35">
       <c r="A80" s="42" t="str">
         <f>+VLOOKUP(D80,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0004</v>
@@ -37815,7 +38145,7 @@
       <c r="BC80" s="7"/>
       <c r="BD80" s="7"/>
     </row>
-    <row r="81" spans="1:56" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:56" ht="24" x14ac:dyDescent="0.35">
       <c r="A81" s="42" t="str">
         <f>+VLOOKUP(D81,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0004</v>
@@ -37912,7 +38242,7 @@
       <c r="BC81" s="7"/>
       <c r="BD81" s="7"/>
     </row>
-    <row r="82" spans="1:56" ht="29.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:56" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="42" t="str">
         <f>+VLOOKUP(D82,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0004</v>
@@ -38009,7 +38339,7 @@
       <c r="BC82" s="7"/>
       <c r="BD82" s="7"/>
     </row>
-    <row r="83" spans="1:56" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:56" ht="24" x14ac:dyDescent="0.35">
       <c r="A83" s="42" t="str">
         <f>+VLOOKUP(D83,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0004</v>
@@ -38108,7 +38438,7 @@
       <c r="BC83" s="7"/>
       <c r="BD83" s="7"/>
     </row>
-    <row r="84" spans="1:56" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:56" ht="24" x14ac:dyDescent="0.35">
       <c r="A84" s="42" t="str">
         <f>+VLOOKUP(D84,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0004</v>
@@ -38205,7 +38535,7 @@
       <c r="BC84" s="7"/>
       <c r="BD84" s="7"/>
     </row>
-    <row r="85" spans="1:56" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:56" ht="24" x14ac:dyDescent="0.35">
       <c r="A85" s="42" t="str">
         <f>+VLOOKUP(D85,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0004</v>
@@ -38304,7 +38634,7 @@
       <c r="BC85" s="7"/>
       <c r="BD85" s="7"/>
     </row>
-    <row r="86" spans="1:56" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:56" ht="24" x14ac:dyDescent="0.35">
       <c r="A86" s="42" t="str">
         <f>+VLOOKUP(D86,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0004</v>
@@ -38403,7 +38733,7 @@
       <c r="BC86" s="7"/>
       <c r="BD86" s="7"/>
     </row>
-    <row r="87" spans="1:56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A87" s="42" t="str">
         <f>+VLOOKUP(D87,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0001</v>
@@ -38475,7 +38805,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="88" spans="1:56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A88" s="42" t="str">
         <f>+VLOOKUP(D88,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0001</v>
@@ -38544,7 +38874,7 @@
         <v>POWER BI</v>
       </c>
     </row>
-    <row r="89" spans="1:56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A89" s="42" t="str">
         <f>+VLOOKUP(D89,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0001</v>
@@ -38613,7 +38943,7 @@
         <v>POWER BI</v>
       </c>
     </row>
-    <row r="90" spans="1:56" ht="78" hidden="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:56" ht="78" x14ac:dyDescent="0.35">
       <c r="A90" s="42" t="str">
         <f>+VLOOKUP(D90,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0001</v>
@@ -38669,7 +38999,7 @@
       <c r="V90" s="3"/>
       <c r="W90" s="7"/>
       <c r="X90" s="68" t="s">
-        <v>1466</v>
+        <v>1463</v>
       </c>
       <c r="AA90" s="7"/>
       <c r="AB90" s="13"/>
@@ -38680,7 +39010,7 @@
       <c r="AE90" s="56" t="s">
         <v>194</v>
       </c>
-      <c r="AF90" s="172">
+      <c r="AF90" s="171">
         <v>0</v>
       </c>
       <c r="AG90" s="56" t="s">
@@ -38695,7 +39025,7 @@
       <c r="AJ90" s="56" t="s">
         <v>1270</v>
       </c>
-      <c r="AK90" s="173"/>
+      <c r="AK90" s="172"/>
       <c r="AL90" s="56" t="s">
         <v>1270</v>
       </c>
@@ -38703,7 +39033,7 @@
         <v>1270</v>
       </c>
       <c r="AN90" s="19" t="s">
-        <v>1461</v>
+        <v>1458</v>
       </c>
       <c r="AO90" s="56" t="s">
         <v>959</v>
@@ -38732,13 +39062,13 @@
         <v>POWER BI</v>
       </c>
       <c r="AW90" s="19" t="s">
-        <v>1465</v>
+        <v>1462</v>
       </c>
       <c r="AX90" s="14" t="s">
         <v>962</v>
       </c>
       <c r="AY90" s="68" t="s">
-        <v>1462</v>
+        <v>1459</v>
       </c>
       <c r="AZ90" s="7" t="s">
         <v>880</v>
@@ -38746,7 +39076,7 @@
       <c r="BA90" s="16" t="s">
         <v>881</v>
       </c>
-      <c r="BB90" s="174"/>
+      <c r="BB90" s="173"/>
       <c r="BC90" s="7">
         <v>1</v>
       </c>
@@ -38754,7 +39084,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="91" spans="1:56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A91" s="42" t="str">
         <f>+VLOOKUP(D91,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0017</v>
@@ -38821,7 +39151,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="92" spans="1:56" ht="48.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:56" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="42" t="str">
         <f>+VLOOKUP(D92,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0018</v>
@@ -38886,7 +39216,7 @@
         <v>POWER BI</v>
       </c>
     </row>
-    <row r="93" spans="1:56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A93" s="42" t="str">
         <f>+VLOOKUP(D93,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0019</v>
@@ -38951,7 +39281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A94" s="42" t="str">
         <f>+VLOOKUP(D94,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0019</v>
@@ -39016,7 +39346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A95" s="42" t="str">
         <f>+VLOOKUP(D95,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0001</v>
@@ -39082,7 +39412,7 @@
         <v>ARCGISONLINE</v>
       </c>
     </row>
-    <row r="96" spans="1:56" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:56" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A96" s="42" t="str">
         <f>+VLOOKUP(D96,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0026</v>
@@ -39092,10 +39422,10 @@
         <v>04</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>1470</v>
+        <v>1467</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>840</v>
@@ -39105,11 +39435,11 @@
         <v>0026-04-00089</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>1485</v>
+        <v>1482</v>
       </c>
       <c r="H96" s="2"/>
       <c r="I96" s="2"/>
-      <c r="J96" s="176">
+      <c r="J96" s="175">
         <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$J$117,4,0)</f>
         <v>1</v>
       </c>
@@ -39130,7 +39460,7 @@
       <c r="V96" s="3"/>
       <c r="W96" s="7"/>
       <c r="X96" s="91" t="s">
-        <v>1486</v>
+        <v>1483</v>
       </c>
       <c r="AA96" s="7"/>
       <c r="AB96" s="13"/>
@@ -48476,7 +48806,7 @@
     <col min="1" max="1" width="4.90625" style="16" customWidth="1"/>
     <col min="2" max="2" width="26.54296875" style="1" customWidth="1"/>
     <col min="3" max="3" width="22.1796875" style="16" customWidth="1"/>
-    <col min="4" max="4" width="17.7265625" style="138" customWidth="1"/>
+    <col min="4" max="4" width="17.7265625" style="137" customWidth="1"/>
     <col min="5" max="5" width="24.90625" style="16" customWidth="1"/>
     <col min="6" max="6" width="10.7265625" style="16" customWidth="1"/>
     <col min="7" max="7" width="56.6328125" style="16" customWidth="1"/>
@@ -48492,7 +48822,7 @@
       <c r="C7" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="D7" s="138" t="s">
+      <c r="D7" s="137" t="s">
         <v>1308</v>
       </c>
       <c r="E7" s="16" t="s">
@@ -48508,1868 +48838,1868 @@
         <v>977</v>
       </c>
       <c r="I7" s="16" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B8" s="139" t="s">
+      <c r="B8" s="138" t="s">
         <v>1278</v>
       </c>
-      <c r="C8" s="140" t="s">
+      <c r="C8" s="139" t="s">
         <v>1274</v>
       </c>
-      <c r="D8" s="141">
+      <c r="D8" s="140">
         <v>44139</v>
       </c>
-      <c r="E8" s="151"/>
-      <c r="F8" s="159"/>
+      <c r="E8" s="150"/>
+      <c r="F8" s="158"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B9" s="142" t="s">
+      <c r="B9" s="141" t="s">
         <v>1279</v>
       </c>
-      <c r="C9" s="143" t="s">
+      <c r="C9" s="142" t="s">
         <v>1275</v>
       </c>
-      <c r="D9" s="141">
+      <c r="D9" s="140">
         <v>44139</v>
       </c>
-      <c r="E9" s="151"/>
-      <c r="F9" s="159"/>
+      <c r="E9" s="150"/>
+      <c r="F9" s="158"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B10" s="142" t="s">
+      <c r="B10" s="141" t="s">
         <v>1280</v>
       </c>
-      <c r="C10" s="143" t="s">
+      <c r="C10" s="142" t="s">
         <v>1275</v>
       </c>
-      <c r="D10" s="141">
+      <c r="D10" s="140">
         <v>44139</v>
       </c>
-      <c r="E10" s="151"/>
-      <c r="F10" s="159"/>
+      <c r="E10" s="150"/>
+      <c r="F10" s="158"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B11" s="142" t="s">
+      <c r="B11" s="141" t="s">
         <v>1281</v>
       </c>
-      <c r="C11" s="143" t="s">
+      <c r="C11" s="142" t="s">
         <v>1275</v>
       </c>
-      <c r="D11" s="141">
+      <c r="D11" s="140">
         <v>44139</v>
       </c>
-      <c r="E11" s="151"/>
-      <c r="F11" s="159"/>
+      <c r="E11" s="150"/>
+      <c r="F11" s="158"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B12" s="142" t="s">
+      <c r="B12" s="141" t="s">
         <v>1282</v>
       </c>
-      <c r="C12" s="143" t="s">
+      <c r="C12" s="142" t="s">
         <v>1275</v>
       </c>
-      <c r="D12" s="141">
+      <c r="D12" s="140">
         <v>44139</v>
       </c>
-      <c r="E12" s="151"/>
-      <c r="F12" s="159"/>
+      <c r="E12" s="150"/>
+      <c r="F12" s="158"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B13" s="142" t="s">
+      <c r="B13" s="141" t="s">
         <v>1283</v>
       </c>
-      <c r="C13" s="143" t="s">
+      <c r="C13" s="142" t="s">
         <v>1275</v>
       </c>
-      <c r="D13" s="141">
+      <c r="D13" s="140">
         <v>44139</v>
       </c>
-      <c r="E13" s="151"/>
-      <c r="F13" s="159"/>
+      <c r="E13" s="150"/>
+      <c r="F13" s="158"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B14" s="142" t="s">
+      <c r="B14" s="141" t="s">
         <v>1284</v>
       </c>
-      <c r="C14" s="143" t="s">
+      <c r="C14" s="142" t="s">
         <v>1275</v>
       </c>
-      <c r="D14" s="144"/>
-      <c r="E14" s="151"/>
-      <c r="F14" s="159"/>
+      <c r="D14" s="143"/>
+      <c r="E14" s="150"/>
+      <c r="F14" s="158"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B15" s="142" t="s">
+      <c r="B15" s="141" t="s">
         <v>1285</v>
       </c>
-      <c r="C15" s="143" t="s">
+      <c r="C15" s="142" t="s">
         <v>1275</v>
       </c>
-      <c r="D15" s="141">
+      <c r="D15" s="140">
         <v>44139</v>
       </c>
-      <c r="E15" s="151"/>
-      <c r="F15" s="159"/>
+      <c r="E15" s="150"/>
+      <c r="F15" s="158"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B16" s="142" t="s">
+      <c r="B16" s="141" t="s">
         <v>1286</v>
       </c>
-      <c r="C16" s="145" t="s">
+      <c r="C16" s="144" t="s">
         <v>1276</v>
       </c>
-      <c r="D16" s="141">
+      <c r="D16" s="140">
         <v>44139</v>
       </c>
-      <c r="E16" s="151"/>
-      <c r="F16" s="159"/>
+      <c r="E16" s="150"/>
+      <c r="F16" s="158"/>
     </row>
     <row r="17" spans="2:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="B17" s="142" t="s">
-        <v>1428</v>
-      </c>
-      <c r="C17" s="150" t="s">
+      <c r="B17" s="141" t="s">
+        <v>1426</v>
+      </c>
+      <c r="C17" s="149" t="s">
         <v>161</v>
       </c>
-      <c r="D17" s="149">
+      <c r="D17" s="148">
         <v>44145</v>
       </c>
-      <c r="E17" s="152" t="s">
+      <c r="E17" s="151" t="s">
         <v>99</v>
       </c>
-      <c r="F17" s="160"/>
+      <c r="F17" s="159"/>
       <c r="G17" s="14" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B18" s="142" t="s">
-        <v>1428</v>
-      </c>
-      <c r="C18" s="145" t="s">
+      <c r="B18" s="141" t="s">
+        <v>1426</v>
+      </c>
+      <c r="C18" s="144" t="s">
         <v>1276</v>
       </c>
-      <c r="D18" s="149">
+      <c r="D18" s="148">
         <v>44148</v>
       </c>
-      <c r="E18" s="152" t="s">
+      <c r="E18" s="151" t="s">
         <v>99</v>
       </c>
-      <c r="F18" s="160"/>
+      <c r="F18" s="159"/>
       <c r="G18" s="14" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B19" s="142" t="s">
+      <c r="B19" s="141" t="s">
         <v>1284</v>
       </c>
-      <c r="C19" s="146" t="s">
+      <c r="C19" s="145" t="s">
         <v>1277</v>
       </c>
-      <c r="D19" s="149">
+      <c r="D19" s="148">
         <v>44145</v>
       </c>
-      <c r="E19" s="152" t="s">
+      <c r="E19" s="151" t="s">
         <v>93</v>
       </c>
-      <c r="F19" s="160"/>
+      <c r="F19" s="159"/>
       <c r="G19" s="16" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B20" s="142" t="s">
+      <c r="B20" s="141" t="s">
         <v>1288</v>
       </c>
-      <c r="C20" s="145" t="s">
+      <c r="C20" s="144" t="s">
         <v>1276</v>
       </c>
-      <c r="D20" s="149">
+      <c r="D20" s="148">
         <v>44145</v>
       </c>
-      <c r="E20" s="152" t="s">
+      <c r="E20" s="151" t="s">
         <v>95</v>
       </c>
-      <c r="F20" s="160"/>
+      <c r="F20" s="159"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B21" s="142" t="s">
+      <c r="B21" s="141" t="s">
         <v>1289</v>
       </c>
-      <c r="C21" s="150" t="s">
+      <c r="C21" s="149" t="s">
         <v>161</v>
       </c>
-      <c r="D21" s="149">
+      <c r="D21" s="148">
         <v>44145</v>
       </c>
-      <c r="E21" s="152" t="s">
+      <c r="E21" s="151" t="s">
         <v>95</v>
       </c>
-      <c r="F21" s="160"/>
+      <c r="F21" s="159"/>
       <c r="G21" s="16" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="22" spans="2:7" ht="42.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="142" t="s">
+      <c r="B22" s="141" t="s">
         <v>1290</v>
       </c>
-      <c r="C22" s="146" t="s">
+      <c r="C22" s="145" t="s">
         <v>1277</v>
       </c>
-      <c r="D22" s="149">
+      <c r="D22" s="148">
         <v>44145</v>
       </c>
-      <c r="E22" s="152" t="s">
+      <c r="E22" s="151" t="s">
         <v>93</v>
       </c>
-      <c r="F22" s="160"/>
+      <c r="F22" s="159"/>
       <c r="G22" s="14" t="s">
         <v>1310</v>
       </c>
     </row>
     <row r="23" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="142" t="s">
+      <c r="B23" s="141" t="s">
         <v>1290</v>
       </c>
-      <c r="C23" s="150" t="s">
+      <c r="C23" s="149" t="s">
         <v>161</v>
       </c>
-      <c r="D23" s="149">
+      <c r="D23" s="148">
         <v>44148</v>
       </c>
-      <c r="E23" s="152" t="s">
+      <c r="E23" s="151" t="s">
         <v>93</v>
       </c>
-      <c r="F23" s="160"/>
+      <c r="F23" s="159"/>
       <c r="G23" s="14" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="24" spans="2:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="142" t="s">
+      <c r="B24" s="141" t="s">
         <v>1290</v>
       </c>
-      <c r="C24" s="150" t="s">
+      <c r="C24" s="149" t="s">
         <v>161</v>
       </c>
-      <c r="D24" s="149">
+      <c r="D24" s="148">
         <v>44148</v>
       </c>
-      <c r="E24" s="152" t="s">
+      <c r="E24" s="151" t="s">
         <v>93</v>
       </c>
-      <c r="F24" s="160"/>
+      <c r="F24" s="159"/>
       <c r="G24" s="14" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B25" s="141" t="s">
+        <v>1291</v>
+      </c>
+      <c r="C25" s="154"/>
+      <c r="D25" s="148">
+        <v>44145</v>
+      </c>
+      <c r="E25" s="151" t="s">
+        <v>95</v>
+      </c>
+      <c r="F25" s="159"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B26" s="141" t="s">
+        <v>767</v>
+      </c>
+      <c r="C26" s="145" t="s">
+        <v>1277</v>
+      </c>
+      <c r="D26" s="148">
+        <v>44145</v>
+      </c>
+      <c r="E26" s="151" t="s">
+        <v>99</v>
+      </c>
+      <c r="F26" s="159" t="s">
+        <v>159</v>
+      </c>
+      <c r="G26" s="16" t="s">
         <v>1430</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B25" s="142" t="s">
-        <v>1291</v>
-      </c>
-      <c r="C25" s="155"/>
-      <c r="D25" s="149">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B27" s="141" t="s">
+        <v>767</v>
+      </c>
+      <c r="C27" s="149" t="s">
+        <v>161</v>
+      </c>
+      <c r="D27" s="148">
         <v>44145</v>
       </c>
-      <c r="E25" s="152" t="s">
+      <c r="E27" s="151" t="s">
+        <v>99</v>
+      </c>
+      <c r="F27" s="159" t="s">
+        <v>1405</v>
+      </c>
+      <c r="G27" s="16" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B28" s="141" t="s">
+        <v>767</v>
+      </c>
+      <c r="C28" s="149" t="s">
+        <v>161</v>
+      </c>
+      <c r="D28" s="148">
+        <v>44145</v>
+      </c>
+      <c r="E28" s="151" t="s">
+        <v>99</v>
+      </c>
+      <c r="F28" s="159" t="s">
+        <v>1421</v>
+      </c>
+      <c r="G28" s="16" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B29" s="141" t="s">
+        <v>767</v>
+      </c>
+      <c r="C29" s="162" t="s">
+        <v>161</v>
+      </c>
+      <c r="D29" s="148">
+        <v>44148</v>
+      </c>
+      <c r="E29" s="152" t="s">
+        <v>99</v>
+      </c>
+      <c r="F29" s="159" t="s">
+        <v>1421</v>
+      </c>
+      <c r="G29" s="14" t="s">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B30" s="141" t="s">
+        <v>767</v>
+      </c>
+      <c r="C30" s="144" t="s">
+        <v>1276</v>
+      </c>
+      <c r="D30" s="148">
+        <v>44148</v>
+      </c>
+      <c r="E30" s="152" t="s">
+        <v>99</v>
+      </c>
+      <c r="F30" s="159" t="s">
+        <v>1421</v>
+      </c>
+      <c r="G30" s="16" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B31" s="141" t="s">
+        <v>767</v>
+      </c>
+      <c r="C31" s="144" t="s">
+        <v>1276</v>
+      </c>
+      <c r="D31" s="148">
+        <v>44148</v>
+      </c>
+      <c r="E31" s="152" t="s">
+        <v>99</v>
+      </c>
+      <c r="F31" s="159" t="s">
+        <v>1405</v>
+      </c>
+      <c r="G31" s="16" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B32" s="141" t="s">
+        <v>767</v>
+      </c>
+      <c r="C32" s="149" t="s">
+        <v>161</v>
+      </c>
+      <c r="D32" s="148">
+        <v>44148</v>
+      </c>
+      <c r="E32" s="152" t="s">
+        <v>99</v>
+      </c>
+      <c r="F32" s="159" t="s">
+        <v>1405</v>
+      </c>
+      <c r="G32" s="16" t="s">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B33" s="141" t="s">
+        <v>767</v>
+      </c>
+      <c r="C33" s="145" t="s">
+        <v>1277</v>
+      </c>
+      <c r="D33" s="148">
+        <v>44148</v>
+      </c>
+      <c r="E33" s="152" t="s">
+        <v>99</v>
+      </c>
+      <c r="F33" s="159" t="s">
+        <v>159</v>
+      </c>
+      <c r="G33" s="16" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B34" s="141" t="s">
+        <v>767</v>
+      </c>
+      <c r="C34" s="144" t="s">
+        <v>1276</v>
+      </c>
+      <c r="D34" s="148">
+        <v>44152</v>
+      </c>
+      <c r="E34" s="152" t="s">
+        <v>99</v>
+      </c>
+      <c r="F34" s="159" t="s">
+        <v>1405</v>
+      </c>
+      <c r="G34" s="16" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B35" s="141" t="s">
+        <v>767</v>
+      </c>
+      <c r="C35" s="144" t="s">
+        <v>1276</v>
+      </c>
+      <c r="D35" s="148">
+        <v>44152</v>
+      </c>
+      <c r="E35" s="152" t="s">
+        <v>99</v>
+      </c>
+      <c r="F35" s="159" t="s">
+        <v>159</v>
+      </c>
+      <c r="G35" s="16" t="s">
+        <v>1474</v>
+      </c>
+      <c r="H35" s="16" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B36" s="141" t="s">
+        <v>767</v>
+      </c>
+      <c r="C36" s="144" t="s">
+        <v>1276</v>
+      </c>
+      <c r="D36" s="148">
+        <v>44152</v>
+      </c>
+      <c r="E36" s="152" t="s">
+        <v>99</v>
+      </c>
+      <c r="F36" s="159" t="s">
+        <v>1421</v>
+      </c>
+      <c r="G36" s="16" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B37" s="141" t="s">
+        <v>1230</v>
+      </c>
+      <c r="C37" s="145" t="s">
+        <v>1277</v>
+      </c>
+      <c r="D37" s="148">
+        <v>44145</v>
+      </c>
+      <c r="E37" s="160" t="s">
         <v>95</v>
       </c>
-      <c r="F25" s="160"/>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B26" s="142" t="s">
-        <v>767</v>
-      </c>
-      <c r="C26" s="146" t="s">
-        <v>1277</v>
-      </c>
-      <c r="D26" s="149">
-        <v>44145</v>
-      </c>
-      <c r="E26" s="152" t="s">
-        <v>99</v>
-      </c>
-      <c r="F26" s="160" t="s">
-        <v>159</v>
-      </c>
-      <c r="G26" s="16" t="s">
-        <v>1432</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B27" s="142" t="s">
-        <v>767</v>
-      </c>
-      <c r="C27" s="150" t="s">
-        <v>161</v>
-      </c>
-      <c r="D27" s="149">
-        <v>44145</v>
-      </c>
-      <c r="E27" s="152" t="s">
-        <v>99</v>
-      </c>
-      <c r="F27" s="160" t="s">
-        <v>1407</v>
-      </c>
-      <c r="G27" s="16" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B28" s="142" t="s">
-        <v>767</v>
-      </c>
-      <c r="C28" s="150" t="s">
-        <v>161</v>
-      </c>
-      <c r="D28" s="149">
-        <v>44145</v>
-      </c>
-      <c r="E28" s="152" t="s">
-        <v>99</v>
-      </c>
-      <c r="F28" s="160" t="s">
-        <v>1423</v>
-      </c>
-      <c r="G28" s="16" t="s">
-        <v>1414</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B29" s="142" t="s">
-        <v>767</v>
-      </c>
-      <c r="C29" s="163" t="s">
-        <v>161</v>
-      </c>
-      <c r="D29" s="149">
-        <v>44148</v>
-      </c>
-      <c r="E29" s="153" t="s">
-        <v>99</v>
-      </c>
-      <c r="F29" s="160" t="s">
-        <v>1423</v>
-      </c>
-      <c r="G29" s="14" t="s">
-        <v>1424</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B30" s="142" t="s">
-        <v>767</v>
-      </c>
-      <c r="C30" s="145" t="s">
-        <v>1276</v>
-      </c>
-      <c r="D30" s="149">
-        <v>44148</v>
-      </c>
-      <c r="E30" s="153" t="s">
-        <v>99</v>
-      </c>
-      <c r="F30" s="160" t="s">
-        <v>1423</v>
-      </c>
-      <c r="G30" s="16" t="s">
-        <v>1425</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B31" s="142" t="s">
-        <v>767</v>
-      </c>
-      <c r="C31" s="145" t="s">
-        <v>1276</v>
-      </c>
-      <c r="D31" s="149">
-        <v>44148</v>
-      </c>
-      <c r="E31" s="153" t="s">
-        <v>99</v>
-      </c>
-      <c r="F31" s="160" t="s">
-        <v>1407</v>
-      </c>
-      <c r="G31" s="16" t="s">
-        <v>1393</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B32" s="142" t="s">
-        <v>767</v>
-      </c>
-      <c r="C32" s="150" t="s">
-        <v>161</v>
-      </c>
-      <c r="D32" s="149">
-        <v>44148</v>
-      </c>
-      <c r="E32" s="153" t="s">
-        <v>99</v>
-      </c>
-      <c r="F32" s="160" t="s">
-        <v>1407</v>
-      </c>
-      <c r="G32" s="16" t="s">
-        <v>1426</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B33" s="142" t="s">
-        <v>767</v>
-      </c>
-      <c r="C33" s="146" t="s">
-        <v>1277</v>
-      </c>
-      <c r="D33" s="149">
-        <v>44148</v>
-      </c>
-      <c r="E33" s="153" t="s">
-        <v>99</v>
-      </c>
-      <c r="F33" s="160" t="s">
-        <v>159</v>
-      </c>
-      <c r="G33" s="16" t="s">
-        <v>1427</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B34" s="142" t="s">
-        <v>767</v>
-      </c>
-      <c r="C34" s="145" t="s">
-        <v>1276</v>
-      </c>
-      <c r="D34" s="149">
-        <v>44152</v>
-      </c>
-      <c r="E34" s="153" t="s">
-        <v>99</v>
-      </c>
-      <c r="F34" s="160" t="s">
-        <v>1407</v>
-      </c>
-      <c r="G34" s="16" t="s">
-        <v>1477</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B35" s="142" t="s">
-        <v>767</v>
-      </c>
-      <c r="C35" s="145" t="s">
-        <v>1276</v>
-      </c>
-      <c r="D35" s="149">
-        <v>44152</v>
-      </c>
-      <c r="E35" s="153" t="s">
-        <v>99</v>
-      </c>
-      <c r="F35" s="160" t="s">
-        <v>159</v>
-      </c>
-      <c r="G35" s="16" t="s">
-        <v>1477</v>
-      </c>
-      <c r="H35" s="16" t="s">
-        <v>1478</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B36" s="142" t="s">
-        <v>767</v>
-      </c>
-      <c r="C36" s="145" t="s">
-        <v>1276</v>
-      </c>
-      <c r="D36" s="149">
-        <v>44152</v>
-      </c>
-      <c r="E36" s="153" t="s">
-        <v>99</v>
-      </c>
-      <c r="F36" s="160" t="s">
-        <v>1423</v>
-      </c>
-      <c r="G36" s="16" t="s">
-        <v>1477</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B37" s="142" t="s">
-        <v>1230</v>
-      </c>
-      <c r="C37" s="146" t="s">
-        <v>1277</v>
-      </c>
-      <c r="D37" s="149">
-        <v>44145</v>
-      </c>
-      <c r="E37" s="161" t="s">
-        <v>95</v>
-      </c>
-      <c r="F37" s="162"/>
+      <c r="F37" s="161"/>
       <c r="G37" s="16" t="s">
         <v>1312</v>
       </c>
     </row>
     <row r="38" spans="2:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="B38" s="142" t="s">
+      <c r="B38" s="141" t="s">
         <v>1230</v>
       </c>
-      <c r="C38" s="150" t="s">
+      <c r="C38" s="149" t="s">
         <v>161</v>
       </c>
-      <c r="D38" s="149">
+      <c r="D38" s="148">
         <v>44148</v>
       </c>
-      <c r="E38" s="161" t="s">
+      <c r="E38" s="160" t="s">
         <v>95</v>
       </c>
-      <c r="F38" s="160" t="s">
+      <c r="F38" s="159" t="s">
         <v>159</v>
       </c>
       <c r="G38" s="14" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B39" s="142" t="s">
+      <c r="B39" s="141" t="s">
         <v>1230</v>
       </c>
-      <c r="C39" s="145" t="s">
+      <c r="C39" s="144" t="s">
         <v>1276</v>
       </c>
-      <c r="D39" s="149">
+      <c r="D39" s="148">
         <v>44148</v>
       </c>
-      <c r="E39" s="161" t="s">
+      <c r="E39" s="160" t="s">
         <v>95</v>
       </c>
-      <c r="F39" s="160" t="s">
+      <c r="F39" s="159" t="s">
         <v>159</v>
       </c>
       <c r="G39" s="16" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B40" s="141" t="s">
+        <v>1230</v>
+      </c>
+      <c r="C40" s="144" t="s">
+        <v>1276</v>
+      </c>
+      <c r="D40" s="148">
+        <v>44148</v>
+      </c>
+      <c r="E40" s="160" t="s">
+        <v>95</v>
+      </c>
+      <c r="F40" s="158" t="s">
+        <v>1405</v>
+      </c>
+      <c r="G40" s="16" t="s">
         <v>1433</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B40" s="142" t="s">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B41" s="141" t="s">
         <v>1230</v>
       </c>
-      <c r="C40" s="145" t="s">
+      <c r="C41" s="144" t="s">
         <v>1276</v>
       </c>
-      <c r="D40" s="149">
+      <c r="D41" s="148">
         <v>44148</v>
       </c>
-      <c r="E40" s="161" t="s">
+      <c r="E41" s="160" t="s">
         <v>95</v>
       </c>
-      <c r="F40" s="159" t="s">
+      <c r="F41" s="158" t="s">
+        <v>1410</v>
+      </c>
+      <c r="G41" s="16" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B42" s="141" t="s">
+        <v>1230</v>
+      </c>
+      <c r="C42" s="144" t="s">
+        <v>1276</v>
+      </c>
+      <c r="D42" s="140">
+        <v>44152</v>
+      </c>
+      <c r="E42" s="153" t="s">
+        <v>95</v>
+      </c>
+      <c r="F42" s="158" t="s">
+        <v>159</v>
+      </c>
+      <c r="G42" s="16" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B43" s="141" t="s">
+        <v>1230</v>
+      </c>
+      <c r="C43" s="144" t="s">
+        <v>1276</v>
+      </c>
+      <c r="D43" s="140">
+        <v>44152</v>
+      </c>
+      <c r="E43" s="153" t="s">
+        <v>95</v>
+      </c>
+      <c r="F43" s="158" t="s">
+        <v>1405</v>
+      </c>
+      <c r="G43" s="16" t="s">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B44" s="141" t="s">
+        <v>1230</v>
+      </c>
+      <c r="C44" s="144" t="s">
+        <v>1276</v>
+      </c>
+      <c r="D44" s="140">
+        <v>44152</v>
+      </c>
+      <c r="E44" s="153" t="s">
+        <v>95</v>
+      </c>
+      <c r="F44" s="158" t="s">
+        <v>1410</v>
+      </c>
+      <c r="G44" s="16" t="s">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B45" s="141" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C45" s="145" t="s">
+        <v>1277</v>
+      </c>
+      <c r="D45" s="140">
+        <v>44145</v>
+      </c>
+      <c r="E45" s="151" t="s">
+        <v>98</v>
+      </c>
+      <c r="F45" s="159" t="s">
+        <v>159</v>
+      </c>
+      <c r="G45" s="16" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B46" s="141" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C46" s="149" t="s">
+        <v>161</v>
+      </c>
+      <c r="D46" s="140">
+        <v>44145</v>
+      </c>
+      <c r="E46" s="151" t="s">
+        <v>98</v>
+      </c>
+      <c r="F46" s="159" t="s">
+        <v>1405</v>
+      </c>
+      <c r="G46" s="16" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B47" s="141" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C47" s="144" t="s">
+        <v>1276</v>
+      </c>
+      <c r="D47" s="140">
+        <v>44148</v>
+      </c>
+      <c r="E47" s="151" t="s">
+        <v>98</v>
+      </c>
+      <c r="F47" s="159" t="s">
+        <v>159</v>
+      </c>
+      <c r="G47" s="14" t="s">
         <v>1407</v>
       </c>
-      <c r="G40" s="16" t="s">
-        <v>1435</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B41" s="142" t="s">
-        <v>1230</v>
-      </c>
-      <c r="C41" s="145" t="s">
+    </row>
+    <row r="48" spans="2:8" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B48" s="141" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C48" s="149" t="s">
+        <v>161</v>
+      </c>
+      <c r="D48" s="140">
+        <v>44148</v>
+      </c>
+      <c r="E48" s="151" t="s">
+        <v>98</v>
+      </c>
+      <c r="F48" s="159" t="s">
+        <v>159</v>
+      </c>
+      <c r="G48" s="14" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="B49" s="141" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C49" s="149" t="s">
+        <v>161</v>
+      </c>
+      <c r="D49" s="140">
+        <v>44148</v>
+      </c>
+      <c r="E49" s="151" t="s">
+        <v>98</v>
+      </c>
+      <c r="F49" s="159" t="s">
+        <v>159</v>
+      </c>
+      <c r="G49" s="14" t="s">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B50" s="141" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C50" s="144" t="s">
         <v>1276</v>
       </c>
-      <c r="D41" s="149">
+      <c r="D50" s="140">
         <v>44148</v>
       </c>
-      <c r="E41" s="161" t="s">
-        <v>95</v>
-      </c>
-      <c r="F41" s="159" t="s">
-        <v>1412</v>
-      </c>
-      <c r="G41" s="16" t="s">
-        <v>1435</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B42" s="142" t="s">
-        <v>1230</v>
-      </c>
-      <c r="C42" s="145" t="s">
+      <c r="E50" s="151" t="s">
+        <v>98</v>
+      </c>
+      <c r="F50" s="159" t="s">
+        <v>1405</v>
+      </c>
+      <c r="G50" s="16" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B51" s="141" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C51" s="149" t="s">
+        <v>161</v>
+      </c>
+      <c r="D51" s="140">
+        <v>44148</v>
+      </c>
+      <c r="E51" s="151" t="s">
+        <v>98</v>
+      </c>
+      <c r="F51" s="159" t="s">
+        <v>1405</v>
+      </c>
+      <c r="G51" s="16" t="s">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="B52" s="141" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C52" s="145" t="s">
+        <v>1277</v>
+      </c>
+      <c r="D52" s="140">
+        <v>44148</v>
+      </c>
+      <c r="E52" s="151" t="s">
+        <v>98</v>
+      </c>
+      <c r="F52" s="159" t="s">
+        <v>1410</v>
+      </c>
+      <c r="G52" s="14" t="s">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B53" s="141" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C53" s="144" t="s">
         <v>1276</v>
       </c>
-      <c r="D42" s="141">
+      <c r="D53" s="140">
         <v>44152</v>
       </c>
-      <c r="E42" s="154" t="s">
-        <v>95</v>
-      </c>
-      <c r="F42" s="159" t="s">
+      <c r="E53" s="151" t="s">
+        <v>98</v>
+      </c>
+      <c r="F53" s="159" t="s">
         <v>159</v>
       </c>
-      <c r="G42" s="16" t="s">
-        <v>1479</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B43" s="142" t="s">
-        <v>1230</v>
-      </c>
-      <c r="C43" s="145" t="s">
+      <c r="G53" s="14" t="s">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B54" s="141" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C54" s="149" t="s">
+        <v>161</v>
+      </c>
+      <c r="D54" s="140">
+        <v>44152</v>
+      </c>
+      <c r="E54" s="151" t="s">
+        <v>98</v>
+      </c>
+      <c r="F54" s="159" t="s">
+        <v>159</v>
+      </c>
+      <c r="G54" s="132" t="s">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B55" s="141" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C55" s="144" t="s">
         <v>1276</v>
       </c>
-      <c r="D43" s="141">
+      <c r="D55" s="140">
         <v>44152</v>
       </c>
-      <c r="E43" s="154" t="s">
-        <v>95</v>
-      </c>
-      <c r="F43" s="159" t="s">
-        <v>1407</v>
-      </c>
-      <c r="G43" s="16" t="s">
-        <v>1480</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B44" s="142" t="s">
-        <v>1230</v>
-      </c>
-      <c r="C44" s="145" t="s">
+      <c r="E55" s="151" t="s">
+        <v>98</v>
+      </c>
+      <c r="F55" s="159" t="s">
+        <v>1405</v>
+      </c>
+      <c r="G55" s="14" t="s">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B56" s="141" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C56" s="144" t="s">
         <v>1276</v>
       </c>
-      <c r="D44" s="141">
+      <c r="D56" s="140">
         <v>44152</v>
       </c>
-      <c r="E44" s="154" t="s">
-        <v>95</v>
-      </c>
-      <c r="F44" s="159" t="s">
-        <v>1412</v>
-      </c>
-      <c r="G44" s="16" t="s">
-        <v>1480</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B45" s="142" t="s">
-        <v>1045</v>
-      </c>
-      <c r="C45" s="146" t="s">
+      <c r="E56" s="151" t="s">
+        <v>98</v>
+      </c>
+      <c r="F56" s="159" t="s">
+        <v>1410</v>
+      </c>
+      <c r="G56" s="14" t="s">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B57" s="141" t="s">
+        <v>840</v>
+      </c>
+      <c r="C57" s="145" t="s">
         <v>1277</v>
       </c>
-      <c r="D45" s="141">
+      <c r="D57" s="140">
         <v>44145</v>
       </c>
-      <c r="E45" s="152" t="s">
-        <v>98</v>
-      </c>
-      <c r="F45" s="160" t="s">
+      <c r="E57" s="151" t="s">
+        <v>93</v>
+      </c>
+      <c r="F57" s="159" t="s">
+        <v>1410</v>
+      </c>
+      <c r="G57" s="16" t="s">
+        <v>1414</v>
+      </c>
+      <c r="H57" s="16" t="s">
+        <v>1388</v>
+      </c>
+      <c r="I57" s="16" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B58" s="141" t="s">
+        <v>840</v>
+      </c>
+      <c r="C58" s="145" t="s">
+        <v>1277</v>
+      </c>
+      <c r="D58" s="140">
+        <v>44145</v>
+      </c>
+      <c r="E58" s="151" t="s">
+        <v>93</v>
+      </c>
+      <c r="F58" s="158" t="s">
+        <v>1410</v>
+      </c>
+      <c r="G58" s="16" t="s">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B59" s="146" t="s">
+        <v>840</v>
+      </c>
+      <c r="C59" s="149" t="s">
+        <v>161</v>
+      </c>
+      <c r="D59" s="140">
+        <v>44145</v>
+      </c>
+      <c r="E59" s="152" t="s">
+        <v>825</v>
+      </c>
+      <c r="F59" s="159" t="s">
         <v>159</v>
       </c>
-      <c r="G45" s="16" t="s">
-        <v>1403</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B46" s="142" t="s">
-        <v>1045</v>
-      </c>
-      <c r="C46" s="150" t="s">
+      <c r="G59" s="16" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B60" s="146" t="s">
+        <v>840</v>
+      </c>
+      <c r="C60" s="149" t="s">
         <v>161</v>
       </c>
-      <c r="D46" s="141">
+      <c r="D60" s="140">
         <v>44145</v>
       </c>
-      <c r="E46" s="152" t="s">
-        <v>98</v>
-      </c>
-      <c r="F46" s="160" t="s">
-        <v>1407</v>
-      </c>
-      <c r="G46" s="16" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8" ht="34" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="142" t="s">
-        <v>1045</v>
-      </c>
-      <c r="C47" s="145" t="s">
-        <v>1276</v>
-      </c>
-      <c r="D47" s="141">
-        <v>44148</v>
-      </c>
-      <c r="E47" s="152" t="s">
-        <v>98</v>
-      </c>
-      <c r="F47" s="160" t="s">
-        <v>159</v>
-      </c>
-      <c r="G47" s="14" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="48" spans="2:8" ht="34" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="142" t="s">
-        <v>1045</v>
-      </c>
-      <c r="C48" s="150" t="s">
-        <v>161</v>
-      </c>
-      <c r="D48" s="141">
-        <v>44148</v>
-      </c>
-      <c r="E48" s="152" t="s">
-        <v>98</v>
-      </c>
-      <c r="F48" s="160" t="s">
-        <v>159</v>
-      </c>
-      <c r="G48" s="14" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="B49" s="142" t="s">
-        <v>1045</v>
-      </c>
-      <c r="C49" s="150" t="s">
-        <v>161</v>
-      </c>
-      <c r="D49" s="141">
-        <v>44148</v>
-      </c>
-      <c r="E49" s="152" t="s">
-        <v>98</v>
-      </c>
-      <c r="F49" s="160" t="s">
-        <v>159</v>
-      </c>
-      <c r="G49" s="14" t="s">
-        <v>1406</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B50" s="142" t="s">
-        <v>1045</v>
-      </c>
-      <c r="C50" s="145" t="s">
-        <v>1276</v>
-      </c>
-      <c r="D50" s="141">
-        <v>44148</v>
-      </c>
-      <c r="E50" s="152" t="s">
-        <v>98</v>
-      </c>
-      <c r="F50" s="160" t="s">
-        <v>1407</v>
-      </c>
-      <c r="G50" s="16" t="s">
-        <v>1408</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B51" s="142" t="s">
-        <v>1045</v>
-      </c>
-      <c r="C51" s="150" t="s">
-        <v>161</v>
-      </c>
-      <c r="D51" s="141">
-        <v>44148</v>
-      </c>
-      <c r="E51" s="152" t="s">
-        <v>98</v>
-      </c>
-      <c r="F51" s="160" t="s">
-        <v>1407</v>
-      </c>
-      <c r="G51" s="16" t="s">
-        <v>1411</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="B52" s="142" t="s">
-        <v>1045</v>
-      </c>
-      <c r="C52" s="146" t="s">
-        <v>1277</v>
-      </c>
-      <c r="D52" s="141">
-        <v>44148</v>
-      </c>
-      <c r="E52" s="152" t="s">
-        <v>98</v>
-      </c>
-      <c r="F52" s="160" t="s">
-        <v>1412</v>
-      </c>
-      <c r="G52" s="14" t="s">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B53" s="142" t="s">
-        <v>1045</v>
-      </c>
-      <c r="C53" s="145" t="s">
-        <v>1276</v>
-      </c>
-      <c r="D53" s="141">
-        <v>44152</v>
-      </c>
-      <c r="E53" s="152" t="s">
-        <v>98</v>
-      </c>
-      <c r="F53" s="160" t="s">
-        <v>159</v>
-      </c>
-      <c r="G53" s="14" t="s">
-        <v>1480</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B54" s="142" t="s">
-        <v>1045</v>
-      </c>
-      <c r="C54" s="150" t="s">
-        <v>161</v>
-      </c>
-      <c r="D54" s="141">
-        <v>44152</v>
-      </c>
-      <c r="E54" s="152" t="s">
-        <v>98</v>
-      </c>
-      <c r="F54" s="160" t="s">
-        <v>159</v>
-      </c>
-      <c r="G54" s="132" t="s">
-        <v>1481</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B55" s="142" t="s">
-        <v>1045</v>
-      </c>
-      <c r="C55" s="145" t="s">
-        <v>1276</v>
-      </c>
-      <c r="D55" s="141">
-        <v>44152</v>
-      </c>
-      <c r="E55" s="152" t="s">
-        <v>98</v>
-      </c>
-      <c r="F55" s="160" t="s">
-        <v>1407</v>
-      </c>
-      <c r="G55" s="14" t="s">
-        <v>1480</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B56" s="142" t="s">
-        <v>1045</v>
-      </c>
-      <c r="C56" s="145" t="s">
-        <v>1276</v>
-      </c>
-      <c r="D56" s="141">
-        <v>44152</v>
-      </c>
-      <c r="E56" s="152" t="s">
-        <v>98</v>
-      </c>
-      <c r="F56" s="160" t="s">
-        <v>1412</v>
-      </c>
-      <c r="G56" s="14" t="s">
-        <v>1480</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B57" s="142" t="s">
-        <v>840</v>
-      </c>
-      <c r="C57" s="146" t="s">
-        <v>1277</v>
-      </c>
-      <c r="D57" s="141">
-        <v>44145</v>
-      </c>
-      <c r="E57" s="152" t="s">
+      <c r="E60" s="152" t="s">
         <v>93</v>
       </c>
-      <c r="F57" s="160" t="s">
-        <v>1412</v>
-      </c>
-      <c r="G57" s="16" t="s">
-        <v>1416</v>
-      </c>
-      <c r="H57" s="16" t="s">
-        <v>1390</v>
-      </c>
-      <c r="I57" s="16" t="s">
-        <v>1392</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B58" s="142" t="s">
-        <v>840</v>
-      </c>
-      <c r="C58" s="146" t="s">
-        <v>1277</v>
-      </c>
-      <c r="D58" s="141">
-        <v>44145</v>
-      </c>
-      <c r="E58" s="152" t="s">
-        <v>93</v>
-      </c>
-      <c r="F58" s="159" t="s">
-        <v>1412</v>
-      </c>
-      <c r="G58" s="16" t="s">
-        <v>1417</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B59" s="147" t="s">
-        <v>840</v>
-      </c>
-      <c r="C59" s="150" t="s">
-        <v>161</v>
-      </c>
-      <c r="D59" s="141">
-        <v>44145</v>
-      </c>
-      <c r="E59" s="153" t="s">
-        <v>825</v>
-      </c>
-      <c r="F59" s="160" t="s">
-        <v>159</v>
-      </c>
-      <c r="G59" s="16" t="s">
-        <v>1422</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B60" s="147" t="s">
-        <v>840</v>
-      </c>
-      <c r="C60" s="150" t="s">
-        <v>161</v>
-      </c>
-      <c r="D60" s="141">
-        <v>44145</v>
-      </c>
-      <c r="E60" s="153" t="s">
-        <v>93</v>
-      </c>
-      <c r="F60" s="160" t="s">
+      <c r="F60" s="159" t="s">
         <v>1060</v>
       </c>
       <c r="G60" s="16" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
       <c r="H60" s="14" t="s">
         <v>1311</v>
       </c>
       <c r="I60" s="14" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B61" s="147" t="s">
+      <c r="B61" s="146" t="s">
         <v>840</v>
       </c>
-      <c r="C61" s="150" t="s">
+      <c r="C61" s="149" t="s">
         <v>161</v>
       </c>
-      <c r="D61" s="141">
+      <c r="D61" s="140">
         <v>44148</v>
       </c>
-      <c r="E61" s="153" t="s">
+      <c r="E61" s="152" t="s">
         <v>93</v>
       </c>
-      <c r="F61" s="160" t="s">
+      <c r="F61" s="159" t="s">
         <v>159</v>
       </c>
       <c r="G61" s="16" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B62" s="147" t="s">
+      <c r="B62" s="146" t="s">
         <v>840</v>
       </c>
-      <c r="C62" s="150" t="s">
+      <c r="C62" s="149" t="s">
         <v>161</v>
       </c>
-      <c r="D62" s="141">
+      <c r="D62" s="140">
         <v>44148</v>
       </c>
-      <c r="E62" s="153" t="s">
+      <c r="E62" s="152" t="s">
         <v>93</v>
       </c>
-      <c r="F62" s="160" t="s">
+      <c r="F62" s="159" t="s">
         <v>1060</v>
       </c>
       <c r="G62" s="16" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B63" s="147" t="s">
+      <c r="B63" s="146" t="s">
         <v>840</v>
       </c>
-      <c r="C63" s="150" t="s">
+      <c r="C63" s="149" t="s">
         <v>161</v>
       </c>
-      <c r="D63" s="141">
+      <c r="D63" s="140">
         <v>44148</v>
       </c>
-      <c r="E63" s="153" t="s">
+      <c r="E63" s="152" t="s">
         <v>93</v>
       </c>
-      <c r="F63" s="160" t="s">
+      <c r="F63" s="159" t="s">
         <v>1060</v>
       </c>
       <c r="G63" s="16" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B64" s="147" t="s">
+      <c r="B64" s="146" t="s">
         <v>840</v>
       </c>
-      <c r="C64" s="150" t="s">
+      <c r="C64" s="149" t="s">
         <v>161</v>
       </c>
-      <c r="D64" s="141">
+      <c r="D64" s="140">
         <v>44148</v>
       </c>
-      <c r="E64" s="153" t="s">
+      <c r="E64" s="152" t="s">
         <v>93</v>
       </c>
-      <c r="F64" s="160" t="s">
-        <v>1412</v>
+      <c r="F64" s="159" t="s">
+        <v>1410</v>
       </c>
       <c r="G64" s="16" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B65" s="147" t="s">
+      <c r="B65" s="146" t="s">
         <v>840</v>
       </c>
-      <c r="C65" s="150" t="s">
+      <c r="C65" s="149" t="s">
         <v>161</v>
       </c>
-      <c r="D65" s="141">
+      <c r="D65" s="140">
         <v>44152</v>
       </c>
-      <c r="E65" s="153" t="s">
+      <c r="E65" s="152" t="s">
         <v>93</v>
       </c>
-      <c r="F65" s="160" t="s">
+      <c r="F65" s="159" t="s">
         <v>159</v>
       </c>
       <c r="G65" s="16" t="s">
-        <v>1482</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B66" s="147" t="s">
+      <c r="B66" s="146" t="s">
         <v>840</v>
       </c>
-      <c r="C66" s="150" t="s">
+      <c r="C66" s="149" t="s">
         <v>161</v>
       </c>
-      <c r="D66" s="141">
+      <c r="D66" s="140">
         <v>44152</v>
       </c>
-      <c r="E66" s="153" t="s">
+      <c r="E66" s="152" t="s">
         <v>93</v>
       </c>
-      <c r="F66" s="160" t="s">
+      <c r="F66" s="159" t="s">
         <v>1060</v>
       </c>
       <c r="G66" s="16" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B67" s="147" t="s">
+      <c r="B67" s="146" t="s">
         <v>840</v>
       </c>
-      <c r="C67" s="145" t="s">
+      <c r="C67" s="144" t="s">
         <v>1276</v>
       </c>
-      <c r="D67" s="141">
+      <c r="D67" s="140">
         <v>44152</v>
       </c>
-      <c r="E67" s="153" t="s">
+      <c r="E67" s="152" t="s">
         <v>93</v>
       </c>
-      <c r="F67" s="160" t="s">
-        <v>1412</v>
+      <c r="F67" s="159" t="s">
+        <v>1410</v>
       </c>
       <c r="G67" s="16" t="s">
-        <v>1480</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="68" spans="2:8" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="148" t="s">
+      <c r="B68" s="147" t="s">
         <v>1287</v>
       </c>
-      <c r="C68" s="150" t="s">
+      <c r="C68" s="149" t="s">
         <v>161</v>
       </c>
-      <c r="D68" s="141">
+      <c r="D68" s="140">
         <v>44145</v>
       </c>
-      <c r="E68" s="154" t="s">
+      <c r="E68" s="153" t="s">
         <v>98</v>
       </c>
-      <c r="F68" s="159"/>
+      <c r="F68" s="158"/>
       <c r="G68" s="16" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
       <c r="H68" s="14" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B69" s="148" t="s">
+      <c r="B69" s="147" t="s">
         <v>1292</v>
       </c>
-      <c r="E69" s="151"/>
-      <c r="F69" s="159"/>
+      <c r="E69" s="150"/>
+      <c r="F69" s="158"/>
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B70" s="148" t="s">
+      <c r="B70" s="147" t="s">
         <v>1293</v>
       </c>
-      <c r="E70" s="151"/>
-      <c r="F70" s="159"/>
+      <c r="E70" s="150"/>
+      <c r="F70" s="158"/>
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B71" s="148" t="s">
+      <c r="B71" s="147" t="s">
         <v>1294</v>
       </c>
-      <c r="E71" s="151"/>
-      <c r="F71" s="159"/>
+      <c r="E71" s="150"/>
+      <c r="F71" s="158"/>
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B72" s="148" t="s">
+      <c r="B72" s="147" t="s">
         <v>1295</v>
       </c>
-      <c r="E72" s="151"/>
-      <c r="F72" s="159"/>
+      <c r="E72" s="150"/>
+      <c r="F72" s="158"/>
     </row>
     <row r="73" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B73" s="148" t="s">
+      <c r="B73" s="147" t="s">
         <v>1296</v>
       </c>
-      <c r="E73" s="151"/>
-      <c r="F73" s="159"/>
+      <c r="E73" s="150"/>
+      <c r="F73" s="158"/>
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B74" s="148" t="s">
+      <c r="B74" s="147" t="s">
         <v>1297</v>
       </c>
-      <c r="E74" s="151"/>
-      <c r="F74" s="159"/>
+      <c r="E74" s="150"/>
+      <c r="F74" s="158"/>
     </row>
     <row r="75" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B75" s="148" t="s">
+      <c r="B75" s="147" t="s">
         <v>1298</v>
       </c>
-      <c r="E75" s="151"/>
-      <c r="F75" s="159"/>
+      <c r="E75" s="150"/>
+      <c r="F75" s="158"/>
     </row>
     <row r="76" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B76" s="148" t="s">
+      <c r="B76" s="147" t="s">
         <v>1299</v>
       </c>
-      <c r="E76" s="151"/>
-      <c r="F76" s="159"/>
+      <c r="E76" s="150"/>
+      <c r="F76" s="158"/>
     </row>
     <row r="77" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B77" s="148" t="s">
+      <c r="B77" s="147" t="s">
         <v>1300</v>
       </c>
-      <c r="E77" s="151"/>
-      <c r="F77" s="159"/>
+      <c r="E77" s="150"/>
+      <c r="F77" s="158"/>
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B78" s="148" t="s">
+      <c r="B78" s="147" t="s">
         <v>1301</v>
       </c>
-      <c r="E78" s="151"/>
-      <c r="F78" s="159"/>
+      <c r="E78" s="150"/>
+      <c r="F78" s="158"/>
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B79" s="148" t="s">
+      <c r="B79" s="147" t="s">
         <v>1302</v>
       </c>
-      <c r="E79" s="151"/>
-      <c r="F79" s="159"/>
+      <c r="E79" s="150"/>
+      <c r="F79" s="158"/>
     </row>
     <row r="80" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B80" s="148" t="s">
+      <c r="B80" s="147" t="s">
         <v>1303</v>
       </c>
-      <c r="E80" s="151"/>
-      <c r="F80" s="159"/>
+      <c r="E80" s="150"/>
+      <c r="F80" s="158"/>
     </row>
     <row r="81" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B81" s="148" t="s">
+      <c r="B81" s="147" t="s">
         <v>1304</v>
       </c>
-      <c r="E81" s="151"/>
-      <c r="F81" s="159"/>
+      <c r="E81" s="150"/>
+      <c r="F81" s="158"/>
     </row>
     <row r="82" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B82" s="148" t="s">
+      <c r="B82" s="147" t="s">
         <v>1305</v>
       </c>
-      <c r="E82" s="151"/>
-      <c r="F82" s="159"/>
+      <c r="E82" s="150"/>
+      <c r="F82" s="158"/>
     </row>
     <row r="83" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B83" s="148" t="s">
+      <c r="B83" s="147" t="s">
         <v>1306</v>
       </c>
-      <c r="E83" s="151"/>
-      <c r="F83" s="159"/>
+      <c r="E83" s="150"/>
+      <c r="F83" s="158"/>
     </row>
     <row r="84" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B84" s="148" t="s">
+      <c r="B84" s="147" t="s">
         <v>1307</v>
       </c>
-      <c r="E84" s="151"/>
-      <c r="F84" s="159"/>
+      <c r="E84" s="150"/>
+      <c r="F84" s="158"/>
     </row>
     <row r="85" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B85" s="148"/>
-      <c r="E85" s="151"/>
-      <c r="F85" s="159"/>
+      <c r="B85" s="147"/>
+      <c r="E85" s="150"/>
+      <c r="F85" s="158"/>
     </row>
     <row r="86" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B86" s="148"/>
-      <c r="E86" s="151"/>
-      <c r="F86" s="159"/>
+      <c r="B86" s="147"/>
+      <c r="E86" s="150"/>
+      <c r="F86" s="158"/>
     </row>
     <row r="87" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B87" s="148"/>
-      <c r="E87" s="151"/>
-      <c r="F87" s="159"/>
+      <c r="B87" s="147"/>
+      <c r="E87" s="150"/>
+      <c r="F87" s="158"/>
     </row>
     <row r="88" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B88" s="148"/>
-      <c r="E88" s="151"/>
-      <c r="F88" s="159"/>
+      <c r="B88" s="147"/>
+      <c r="E88" s="150"/>
+      <c r="F88" s="158"/>
     </row>
     <row r="89" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B89" s="148"/>
-      <c r="E89" s="151"/>
-      <c r="F89" s="159"/>
+      <c r="B89" s="147"/>
+      <c r="E89" s="150"/>
+      <c r="F89" s="158"/>
     </row>
     <row r="90" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B90" s="148"/>
-      <c r="E90" s="151"/>
-      <c r="F90" s="159"/>
+      <c r="B90" s="147"/>
+      <c r="E90" s="150"/>
+      <c r="F90" s="158"/>
     </row>
     <row r="91" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B91" s="148"/>
-      <c r="E91" s="151"/>
-      <c r="F91" s="159"/>
+      <c r="B91" s="147"/>
+      <c r="E91" s="150"/>
+      <c r="F91" s="158"/>
     </row>
     <row r="92" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B92" s="148"/>
-      <c r="E92" s="151"/>
-      <c r="F92" s="159"/>
+      <c r="B92" s="147"/>
+      <c r="E92" s="150"/>
+      <c r="F92" s="158"/>
     </row>
     <row r="93" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B93" s="148"/>
-      <c r="E93" s="151"/>
-      <c r="F93" s="159"/>
+      <c r="B93" s="147"/>
+      <c r="E93" s="150"/>
+      <c r="F93" s="158"/>
     </row>
     <row r="94" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B94" s="148"/>
-      <c r="E94" s="151"/>
-      <c r="F94" s="159"/>
+      <c r="B94" s="147"/>
+      <c r="E94" s="150"/>
+      <c r="F94" s="158"/>
     </row>
     <row r="95" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B95" s="148"/>
-      <c r="E95" s="151"/>
-      <c r="F95" s="159"/>
+      <c r="B95" s="147"/>
+      <c r="E95" s="150"/>
+      <c r="F95" s="158"/>
     </row>
     <row r="96" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B96" s="148"/>
-      <c r="E96" s="151"/>
-      <c r="F96" s="159"/>
+      <c r="B96" s="147"/>
+      <c r="E96" s="150"/>
+      <c r="F96" s="158"/>
     </row>
     <row r="97" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B97" s="148"/>
-      <c r="E97" s="151"/>
-      <c r="F97" s="159"/>
+      <c r="B97" s="147"/>
+      <c r="E97" s="150"/>
+      <c r="F97" s="158"/>
     </row>
     <row r="98" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B98" s="148"/>
-      <c r="E98" s="151"/>
-      <c r="F98" s="159"/>
+      <c r="B98" s="147"/>
+      <c r="E98" s="150"/>
+      <c r="F98" s="158"/>
     </row>
     <row r="99" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B99" s="148"/>
-      <c r="E99" s="151"/>
-      <c r="F99" s="159"/>
+      <c r="B99" s="147"/>
+      <c r="E99" s="150"/>
+      <c r="F99" s="158"/>
     </row>
     <row r="100" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B100" s="148"/>
-      <c r="E100" s="151"/>
-      <c r="F100" s="159"/>
+      <c r="B100" s="147"/>
+      <c r="E100" s="150"/>
+      <c r="F100" s="158"/>
     </row>
     <row r="101" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B101" s="148"/>
-      <c r="E101" s="151"/>
-      <c r="F101" s="159"/>
+      <c r="B101" s="147"/>
+      <c r="E101" s="150"/>
+      <c r="F101" s="158"/>
     </row>
     <row r="102" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B102" s="148"/>
-      <c r="E102" s="151"/>
-      <c r="F102" s="159"/>
+      <c r="B102" s="147"/>
+      <c r="E102" s="150"/>
+      <c r="F102" s="158"/>
     </row>
     <row r="103" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B103" s="148"/>
-      <c r="E103" s="151"/>
-      <c r="F103" s="159"/>
+      <c r="B103" s="147"/>
+      <c r="E103" s="150"/>
+      <c r="F103" s="158"/>
     </row>
     <row r="104" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B104" s="148"/>
-      <c r="E104" s="151"/>
-      <c r="F104" s="159"/>
+      <c r="B104" s="147"/>
+      <c r="E104" s="150"/>
+      <c r="F104" s="158"/>
     </row>
     <row r="105" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B105" s="148"/>
-      <c r="E105" s="151"/>
-      <c r="F105" s="159"/>
+      <c r="B105" s="147"/>
+      <c r="E105" s="150"/>
+      <c r="F105" s="158"/>
     </row>
     <row r="106" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B106" s="148"/>
-      <c r="E106" s="151"/>
-      <c r="F106" s="159"/>
+      <c r="B106" s="147"/>
+      <c r="E106" s="150"/>
+      <c r="F106" s="158"/>
     </row>
     <row r="107" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B107" s="148"/>
-      <c r="E107" s="151"/>
-      <c r="F107" s="159"/>
+      <c r="B107" s="147"/>
+      <c r="E107" s="150"/>
+      <c r="F107" s="158"/>
     </row>
     <row r="108" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B108" s="148"/>
-      <c r="E108" s="151"/>
-      <c r="F108" s="159"/>
+      <c r="B108" s="147"/>
+      <c r="E108" s="150"/>
+      <c r="F108" s="158"/>
     </row>
     <row r="109" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B109" s="148"/>
-      <c r="E109" s="151"/>
-      <c r="F109" s="159"/>
+      <c r="B109" s="147"/>
+      <c r="E109" s="150"/>
+      <c r="F109" s="158"/>
     </row>
     <row r="110" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B110" s="148"/>
-      <c r="E110" s="151"/>
-      <c r="F110" s="159"/>
+      <c r="B110" s="147"/>
+      <c r="E110" s="150"/>
+      <c r="F110" s="158"/>
     </row>
     <row r="111" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B111" s="148"/>
-      <c r="E111" s="151"/>
-      <c r="F111" s="159"/>
+      <c r="B111" s="147"/>
+      <c r="E111" s="150"/>
+      <c r="F111" s="158"/>
     </row>
     <row r="112" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B112" s="148"/>
-      <c r="E112" s="151"/>
-      <c r="F112" s="159"/>
+      <c r="B112" s="147"/>
+      <c r="E112" s="150"/>
+      <c r="F112" s="158"/>
     </row>
     <row r="113" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B113" s="148"/>
-      <c r="E113" s="151"/>
-      <c r="F113" s="159"/>
+      <c r="B113" s="147"/>
+      <c r="E113" s="150"/>
+      <c r="F113" s="158"/>
     </row>
     <row r="114" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B114" s="148"/>
-      <c r="E114" s="151"/>
-      <c r="F114" s="159"/>
+      <c r="B114" s="147"/>
+      <c r="E114" s="150"/>
+      <c r="F114" s="158"/>
     </row>
     <row r="115" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B115" s="148"/>
-      <c r="E115" s="151"/>
-      <c r="F115" s="159"/>
+      <c r="B115" s="147"/>
+      <c r="E115" s="150"/>
+      <c r="F115" s="158"/>
     </row>
     <row r="116" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B116" s="148"/>
-      <c r="E116" s="151"/>
-      <c r="F116" s="159"/>
+      <c r="B116" s="147"/>
+      <c r="E116" s="150"/>
+      <c r="F116" s="158"/>
     </row>
     <row r="117" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B117" s="148"/>
-      <c r="E117" s="151"/>
-      <c r="F117" s="159"/>
+      <c r="B117" s="147"/>
+      <c r="E117" s="150"/>
+      <c r="F117" s="158"/>
     </row>
     <row r="118" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B118" s="148"/>
-      <c r="E118" s="151"/>
-      <c r="F118" s="159"/>
+      <c r="B118" s="147"/>
+      <c r="E118" s="150"/>
+      <c r="F118" s="158"/>
     </row>
     <row r="119" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B119" s="148"/>
-      <c r="E119" s="151"/>
-      <c r="F119" s="159"/>
+      <c r="B119" s="147"/>
+      <c r="E119" s="150"/>
+      <c r="F119" s="158"/>
     </row>
     <row r="120" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B120" s="148"/>
-      <c r="E120" s="151"/>
-      <c r="F120" s="159"/>
+      <c r="B120" s="147"/>
+      <c r="E120" s="150"/>
+      <c r="F120" s="158"/>
     </row>
     <row r="121" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B121" s="148"/>
-      <c r="E121" s="151"/>
-      <c r="F121" s="159"/>
+      <c r="B121" s="147"/>
+      <c r="E121" s="150"/>
+      <c r="F121" s="158"/>
     </row>
     <row r="122" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B122" s="148"/>
-      <c r="E122" s="151"/>
-      <c r="F122" s="159"/>
+      <c r="B122" s="147"/>
+      <c r="E122" s="150"/>
+      <c r="F122" s="158"/>
     </row>
     <row r="123" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B123" s="148"/>
-      <c r="E123" s="151"/>
-      <c r="F123" s="159"/>
+      <c r="B123" s="147"/>
+      <c r="E123" s="150"/>
+      <c r="F123" s="158"/>
     </row>
     <row r="124" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B124" s="148"/>
-      <c r="E124" s="151"/>
-      <c r="F124" s="159"/>
+      <c r="B124" s="147"/>
+      <c r="E124" s="150"/>
+      <c r="F124" s="158"/>
     </row>
     <row r="125" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B125" s="148"/>
-      <c r="E125" s="151"/>
-      <c r="F125" s="159"/>
+      <c r="B125" s="147"/>
+      <c r="E125" s="150"/>
+      <c r="F125" s="158"/>
     </row>
     <row r="126" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B126" s="148"/>
-      <c r="E126" s="151"/>
-      <c r="F126" s="159"/>
+      <c r="B126" s="147"/>
+      <c r="E126" s="150"/>
+      <c r="F126" s="158"/>
     </row>
     <row r="127" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B127" s="148"/>
-      <c r="E127" s="151"/>
-      <c r="F127" s="159"/>
+      <c r="B127" s="147"/>
+      <c r="E127" s="150"/>
+      <c r="F127" s="158"/>
     </row>
     <row r="128" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B128" s="148"/>
-      <c r="E128" s="151"/>
-      <c r="F128" s="159"/>
+      <c r="B128" s="147"/>
+      <c r="E128" s="150"/>
+      <c r="F128" s="158"/>
     </row>
     <row r="129" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B129" s="148"/>
-      <c r="E129" s="151"/>
-      <c r="F129" s="159"/>
+      <c r="B129" s="147"/>
+      <c r="E129" s="150"/>
+      <c r="F129" s="158"/>
     </row>
     <row r="130" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B130" s="148"/>
-      <c r="E130" s="151"/>
-      <c r="F130" s="159"/>
+      <c r="B130" s="147"/>
+      <c r="E130" s="150"/>
+      <c r="F130" s="158"/>
     </row>
     <row r="131" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B131" s="148"/>
-      <c r="E131" s="151"/>
-      <c r="F131" s="159"/>
+      <c r="B131" s="147"/>
+      <c r="E131" s="150"/>
+      <c r="F131" s="158"/>
     </row>
     <row r="132" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B132" s="148"/>
-      <c r="E132" s="151"/>
-      <c r="F132" s="159"/>
+      <c r="B132" s="147"/>
+      <c r="E132" s="150"/>
+      <c r="F132" s="158"/>
     </row>
     <row r="133" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B133" s="148"/>
-      <c r="E133" s="151"/>
-      <c r="F133" s="159"/>
+      <c r="B133" s="147"/>
+      <c r="E133" s="150"/>
+      <c r="F133" s="158"/>
     </row>
     <row r="134" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B134" s="148"/>
-      <c r="E134" s="151"/>
-      <c r="F134" s="159"/>
+      <c r="B134" s="147"/>
+      <c r="E134" s="150"/>
+      <c r="F134" s="158"/>
     </row>
     <row r="135" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B135" s="148"/>
-      <c r="E135" s="151"/>
-      <c r="F135" s="159"/>
+      <c r="B135" s="147"/>
+      <c r="E135" s="150"/>
+      <c r="F135" s="158"/>
     </row>
     <row r="136" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B136" s="148"/>
-      <c r="E136" s="151"/>
-      <c r="F136" s="159"/>
+      <c r="B136" s="147"/>
+      <c r="E136" s="150"/>
+      <c r="F136" s="158"/>
     </row>
     <row r="137" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B137" s="148"/>
-      <c r="E137" s="151"/>
-      <c r="F137" s="159"/>
+      <c r="B137" s="147"/>
+      <c r="E137" s="150"/>
+      <c r="F137" s="158"/>
     </row>
     <row r="138" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B138" s="148"/>
-      <c r="E138" s="151"/>
-      <c r="F138" s="159"/>
+      <c r="B138" s="147"/>
+      <c r="E138" s="150"/>
+      <c r="F138" s="158"/>
     </row>
     <row r="139" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B139" s="148"/>
-      <c r="E139" s="151"/>
-      <c r="F139" s="159"/>
+      <c r="B139" s="147"/>
+      <c r="E139" s="150"/>
+      <c r="F139" s="158"/>
     </row>
     <row r="140" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B140" s="148"/>
-      <c r="E140" s="151"/>
-      <c r="F140" s="159"/>
+      <c r="B140" s="147"/>
+      <c r="E140" s="150"/>
+      <c r="F140" s="158"/>
     </row>
     <row r="141" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B141" s="148"/>
-      <c r="E141" s="151"/>
-      <c r="F141" s="159"/>
+      <c r="B141" s="147"/>
+      <c r="E141" s="150"/>
+      <c r="F141" s="158"/>
     </row>
     <row r="142" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="E142" s="151"/>
-      <c r="F142" s="159"/>
+      <c r="E142" s="150"/>
+      <c r="F142" s="158"/>
     </row>
     <row r="143" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="E143" s="151"/>
-      <c r="F143" s="159"/>
+      <c r="E143" s="150"/>
+      <c r="F143" s="158"/>
     </row>
     <row r="144" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="E144" s="151"/>
-      <c r="F144" s="159"/>
+      <c r="E144" s="150"/>
+      <c r="F144" s="158"/>
     </row>
     <row r="145" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E145" s="151"/>
-      <c r="F145" s="159"/>
+      <c r="E145" s="150"/>
+      <c r="F145" s="158"/>
     </row>
     <row r="146" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E146" s="151"/>
-      <c r="F146" s="159"/>
+      <c r="E146" s="150"/>
+      <c r="F146" s="158"/>
     </row>
     <row r="147" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E147" s="151"/>
-      <c r="F147" s="159"/>
+      <c r="E147" s="150"/>
+      <c r="F147" s="158"/>
     </row>
     <row r="148" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E148" s="151"/>
-      <c r="F148" s="159"/>
+      <c r="E148" s="150"/>
+      <c r="F148" s="158"/>
     </row>
     <row r="149" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E149" s="151"/>
-      <c r="F149" s="159"/>
+      <c r="E149" s="150"/>
+      <c r="F149" s="158"/>
     </row>
     <row r="150" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E150" s="151"/>
-      <c r="F150" s="159"/>
+      <c r="E150" s="150"/>
+      <c r="F150" s="158"/>
     </row>
     <row r="151" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E151" s="151"/>
-      <c r="F151" s="159"/>
+      <c r="E151" s="150"/>
+      <c r="F151" s="158"/>
     </row>
     <row r="152" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E152" s="151"/>
-      <c r="F152" s="159"/>
+      <c r="E152" s="150"/>
+      <c r="F152" s="158"/>
     </row>
     <row r="153" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E153" s="151"/>
-      <c r="F153" s="159"/>
+      <c r="E153" s="150"/>
+      <c r="F153" s="158"/>
     </row>
     <row r="154" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E154" s="151"/>
-      <c r="F154" s="159"/>
+      <c r="E154" s="150"/>
+      <c r="F154" s="158"/>
     </row>
     <row r="155" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E155" s="151"/>
-      <c r="F155" s="159"/>
+      <c r="E155" s="150"/>
+      <c r="F155" s="158"/>
     </row>
     <row r="156" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E156" s="151"/>
-      <c r="F156" s="159"/>
+      <c r="E156" s="150"/>
+      <c r="F156" s="158"/>
     </row>
     <row r="157" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E157" s="151"/>
-      <c r="F157" s="159"/>
+      <c r="E157" s="150"/>
+      <c r="F157" s="158"/>
     </row>
     <row r="158" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E158" s="151"/>
-      <c r="F158" s="159"/>
+      <c r="E158" s="150"/>
+      <c r="F158" s="158"/>
     </row>
     <row r="159" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E159" s="151"/>
-      <c r="F159" s="159"/>
+      <c r="E159" s="150"/>
+      <c r="F159" s="158"/>
     </row>
     <row r="160" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E160" s="151"/>
-      <c r="F160" s="159"/>
+      <c r="E160" s="150"/>
+      <c r="F160" s="158"/>
     </row>
     <row r="161" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E161" s="151"/>
-      <c r="F161" s="159"/>
+      <c r="E161" s="150"/>
+      <c r="F161" s="158"/>
     </row>
     <row r="162" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E162" s="151"/>
-      <c r="F162" s="159"/>
+      <c r="E162" s="150"/>
+      <c r="F162" s="158"/>
     </row>
     <row r="163" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E163" s="151"/>
-      <c r="F163" s="159"/>
+      <c r="E163" s="150"/>
+      <c r="F163" s="158"/>
     </row>
     <row r="164" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E164" s="151"/>
-      <c r="F164" s="159"/>
+      <c r="E164" s="150"/>
+      <c r="F164" s="158"/>
     </row>
     <row r="165" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E165" s="151"/>
-      <c r="F165" s="159"/>
+      <c r="E165" s="150"/>
+      <c r="F165" s="158"/>
     </row>
     <row r="166" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E166" s="151"/>
-      <c r="F166" s="159"/>
+      <c r="E166" s="150"/>
+      <c r="F166" s="158"/>
     </row>
     <row r="167" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E167" s="151"/>
-      <c r="F167" s="159"/>
+      <c r="E167" s="150"/>
+      <c r="F167" s="158"/>
     </row>
     <row r="168" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E168" s="151"/>
-      <c r="F168" s="159"/>
+      <c r="E168" s="150"/>
+      <c r="F168" s="158"/>
     </row>
     <row r="169" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E169" s="151"/>
-      <c r="F169" s="159"/>
+      <c r="E169" s="150"/>
+      <c r="F169" s="158"/>
     </row>
     <row r="170" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E170" s="151"/>
-      <c r="F170" s="159"/>
+      <c r="E170" s="150"/>
+      <c r="F170" s="158"/>
     </row>
     <row r="171" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E171" s="151"/>
-      <c r="F171" s="159"/>
+      <c r="E171" s="150"/>
+      <c r="F171" s="158"/>
     </row>
     <row r="172" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E172" s="151"/>
-      <c r="F172" s="159"/>
+      <c r="E172" s="150"/>
+      <c r="F172" s="158"/>
     </row>
     <row r="173" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E173" s="151"/>
-      <c r="F173" s="159"/>
+      <c r="E173" s="150"/>
+      <c r="F173" s="158"/>
     </row>
     <row r="174" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E174" s="151"/>
-      <c r="F174" s="159"/>
+      <c r="E174" s="150"/>
+      <c r="F174" s="158"/>
     </row>
     <row r="175" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E175" s="151"/>
-      <c r="F175" s="159"/>
+      <c r="E175" s="150"/>
+      <c r="F175" s="158"/>
     </row>
     <row r="176" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E176" s="151"/>
-      <c r="F176" s="159"/>
+      <c r="E176" s="150"/>
+      <c r="F176" s="158"/>
     </row>
     <row r="177" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E177" s="151"/>
-      <c r="F177" s="159"/>
+      <c r="E177" s="150"/>
+      <c r="F177" s="158"/>
     </row>
     <row r="178" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E178" s="151"/>
-      <c r="F178" s="159"/>
+      <c r="E178" s="150"/>
+      <c r="F178" s="158"/>
     </row>
     <row r="179" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E179" s="151"/>
-      <c r="F179" s="159"/>
+      <c r="E179" s="150"/>
+      <c r="F179" s="158"/>
     </row>
     <row r="180" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E180" s="151"/>
-      <c r="F180" s="159"/>
+      <c r="E180" s="150"/>
+      <c r="F180" s="158"/>
     </row>
     <row r="181" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E181" s="151"/>
-      <c r="F181" s="159"/>
+      <c r="E181" s="150"/>
+      <c r="F181" s="158"/>
     </row>
     <row r="182" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E182" s="151"/>
-      <c r="F182" s="159"/>
+      <c r="E182" s="150"/>
+      <c r="F182" s="158"/>
     </row>
     <row r="183" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E183" s="151"/>
-      <c r="F183" s="159"/>
+      <c r="E183" s="150"/>
+      <c r="F183" s="158"/>
     </row>
     <row r="184" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E184" s="151"/>
-      <c r="F184" s="159"/>
+      <c r="E184" s="150"/>
+      <c r="F184" s="158"/>
     </row>
     <row r="185" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E185" s="151"/>
-      <c r="F185" s="159"/>
+      <c r="E185" s="150"/>
+      <c r="F185" s="158"/>
     </row>
     <row r="186" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E186" s="151"/>
-      <c r="F186" s="159"/>
+      <c r="E186" s="150"/>
+      <c r="F186" s="158"/>
     </row>
     <row r="187" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E187" s="151"/>
-      <c r="F187" s="159"/>
+      <c r="E187" s="150"/>
+      <c r="F187" s="158"/>
     </row>
     <row r="188" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E188" s="151"/>
-      <c r="F188" s="159"/>
+      <c r="E188" s="150"/>
+      <c r="F188" s="158"/>
     </row>
     <row r="189" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E189" s="151"/>
-      <c r="F189" s="159"/>
+      <c r="E189" s="150"/>
+      <c r="F189" s="158"/>
     </row>
     <row r="190" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E190" s="151"/>
-      <c r="F190" s="159"/>
+      <c r="E190" s="150"/>
+      <c r="F190" s="158"/>
     </row>
     <row r="191" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E191" s="151"/>
-      <c r="F191" s="159"/>
+      <c r="E191" s="150"/>
+      <c r="F191" s="158"/>
     </row>
     <row r="192" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E192" s="151"/>
-      <c r="F192" s="159"/>
+      <c r="E192" s="150"/>
+      <c r="F192" s="158"/>
     </row>
     <row r="193" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E193" s="151"/>
-      <c r="F193" s="159"/>
+      <c r="E193" s="150"/>
+      <c r="F193" s="158"/>
     </row>
     <row r="194" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E194" s="151"/>
-      <c r="F194" s="159"/>
+      <c r="E194" s="150"/>
+      <c r="F194" s="158"/>
     </row>
     <row r="195" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E195" s="151"/>
-      <c r="F195" s="159"/>
+      <c r="E195" s="150"/>
+      <c r="F195" s="158"/>
     </row>
     <row r="196" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E196" s="151"/>
-      <c r="F196" s="159"/>
+      <c r="E196" s="150"/>
+      <c r="F196" s="158"/>
     </row>
     <row r="197" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E197" s="151"/>
-      <c r="F197" s="159"/>
+      <c r="E197" s="150"/>
+      <c r="F197" s="158"/>
     </row>
     <row r="198" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E198" s="151"/>
-      <c r="F198" s="159"/>
+      <c r="E198" s="150"/>
+      <c r="F198" s="158"/>
     </row>
     <row r="199" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E199" s="151"/>
-      <c r="F199" s="159"/>
+      <c r="E199" s="150"/>
+      <c r="F199" s="158"/>
     </row>
     <row r="200" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E200" s="151"/>
-      <c r="F200" s="159"/>
+      <c r="E200" s="150"/>
+      <c r="F200" s="158"/>
     </row>
     <row r="201" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E201" s="151"/>
-      <c r="F201" s="159"/>
+      <c r="E201" s="150"/>
+      <c r="F201" s="158"/>
     </row>
     <row r="202" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E202" s="151"/>
-      <c r="F202" s="159"/>
+      <c r="E202" s="150"/>
+      <c r="F202" s="158"/>
     </row>
     <row r="203" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E203" s="151"/>
-      <c r="F203" s="159"/>
+      <c r="E203" s="150"/>
+      <c r="F203" s="158"/>
     </row>
     <row r="204" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E204" s="151"/>
-      <c r="F204" s="159"/>
+      <c r="E204" s="150"/>
+      <c r="F204" s="158"/>
     </row>
     <row r="205" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E205" s="151"/>
-      <c r="F205" s="159"/>
+      <c r="E205" s="150"/>
+      <c r="F205" s="158"/>
     </row>
     <row r="206" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E206" s="151"/>
-      <c r="F206" s="159"/>
+      <c r="E206" s="150"/>
+      <c r="F206" s="158"/>
     </row>
     <row r="207" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E207" s="151"/>
-      <c r="F207" s="159"/>
+      <c r="E207" s="150"/>
+      <c r="F207" s="158"/>
     </row>
     <row r="208" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E208" s="151"/>
-      <c r="F208" s="159"/>
+      <c r="E208" s="150"/>
+      <c r="F208" s="158"/>
     </row>
     <row r="209" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E209" s="151"/>
-      <c r="F209" s="159"/>
+      <c r="E209" s="150"/>
+      <c r="F209" s="158"/>
     </row>
     <row r="210" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E210" s="151"/>
-      <c r="F210" s="159"/>
+      <c r="E210" s="150"/>
+      <c r="F210" s="158"/>
     </row>
     <row r="211" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E211" s="151"/>
-      <c r="F211" s="159"/>
+      <c r="E211" s="150"/>
+      <c r="F211" s="158"/>
     </row>
     <row r="212" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E212" s="151"/>
-      <c r="F212" s="159"/>
+      <c r="E212" s="150"/>
+      <c r="F212" s="158"/>
     </row>
     <row r="213" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E213" s="151"/>
-      <c r="F213" s="159"/>
+      <c r="E213" s="150"/>
+      <c r="F213" s="158"/>
     </row>
     <row r="214" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E214" s="151"/>
-      <c r="F214" s="159"/>
+      <c r="E214" s="150"/>
+      <c r="F214" s="158"/>
     </row>
     <row r="215" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E215" s="151"/>
-      <c r="F215" s="159"/>
+      <c r="E215" s="150"/>
+      <c r="F215" s="158"/>
     </row>
     <row r="216" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E216" s="151"/>
-      <c r="F216" s="159"/>
+      <c r="E216" s="150"/>
+      <c r="F216" s="158"/>
     </row>
     <row r="217" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E217" s="151"/>
-      <c r="F217" s="159"/>
+      <c r="E217" s="150"/>
+      <c r="F217" s="158"/>
     </row>
     <row r="218" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E218" s="151"/>
-      <c r="F218" s="159"/>
+      <c r="E218" s="150"/>
+      <c r="F218" s="158"/>
     </row>
     <row r="219" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E219" s="151"/>
-      <c r="F219" s="159"/>
+      <c r="E219" s="150"/>
+      <c r="F219" s="158"/>
     </row>
     <row r="220" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E220" s="151"/>
-      <c r="F220" s="159"/>
+      <c r="E220" s="150"/>
+      <c r="F220" s="158"/>
     </row>
     <row r="221" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E221" s="151"/>
-      <c r="F221" s="159"/>
+      <c r="E221" s="150"/>
+      <c r="F221" s="158"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -50396,7 +50726,7 @@
   </sheetPr>
   <dimension ref="A9:M53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A37" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
@@ -50908,7 +51238,7 @@
         <v>1026</v>
       </c>
       <c r="C38" s="78" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
       <c r="D38" s="78"/>
       <c r="E38" s="78"/>
@@ -50930,7 +51260,7 @@
         <v>1028</v>
       </c>
       <c r="C39" s="47" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
       <c r="D39" s="50">
         <v>44121</v>
@@ -50955,7 +51285,7 @@
         <v>1030</v>
       </c>
       <c r="C41" s="47" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="D41" s="50">
         <v>44126</v>
@@ -50994,7 +51324,7 @@
       <c r="B43" s="57" t="s">
         <v>1075</v>
       </c>
-      <c r="L43" s="165" t="s">
+      <c r="L43" s="164" t="s">
         <v>1072</v>
       </c>
       <c r="M43" s="92" t="s">
@@ -51008,7 +51338,7 @@
       <c r="B44" s="93" t="s">
         <v>1080</v>
       </c>
-      <c r="L44" s="165" t="s">
+      <c r="L44" s="164" t="s">
         <v>1074</v>
       </c>
       <c r="M44" s="49"/>
@@ -51051,7 +51381,7 @@
         <v>39</v>
       </c>
       <c r="B48" s="48" t="s">
-        <v>1476</v>
+        <v>1473</v>
       </c>
       <c r="M48" s="49"/>
     </row>
@@ -51060,10 +51390,10 @@
         <v>40</v>
       </c>
       <c r="B49" s="48" t="s">
-        <v>1475</v>
-      </c>
-      <c r="L49" s="164" t="s">
-        <v>1404</v>
+        <v>1472</v>
+      </c>
+      <c r="L49" s="163" t="s">
+        <v>1402</v>
       </c>
       <c r="M49" s="49"/>
     </row>
@@ -51072,10 +51402,10 @@
         <v>41</v>
       </c>
       <c r="B50" s="48" t="s">
-        <v>1440</v>
-      </c>
-      <c r="L50" s="164" t="s">
-        <v>1439</v>
+        <v>1438</v>
+      </c>
+      <c r="L50" s="163" t="s">
+        <v>1437</v>
       </c>
       <c r="M50" s="49"/>
     </row>
@@ -51084,7 +51414,7 @@
         <v>42</v>
       </c>
       <c r="B51" s="48" t="s">
-        <v>1443</v>
+        <v>1440</v>
       </c>
       <c r="M51" s="49"/>
     </row>
@@ -51093,10 +51423,10 @@
         <v>43</v>
       </c>
       <c r="B52" s="48" t="s">
-        <v>1474</v>
-      </c>
-      <c r="L52" s="164" t="s">
-        <v>1473</v>
+        <v>1471</v>
+      </c>
+      <c r="L52" s="163" t="s">
+        <v>1470</v>
       </c>
       <c r="M52" s="49"/>
     </row>
@@ -51105,10 +51435,10 @@
         <v>44</v>
       </c>
       <c r="B53" s="48" t="s">
-        <v>1493</v>
-      </c>
-      <c r="L53" s="164" t="s">
-        <v>1492</v>
+        <v>1489</v>
+      </c>
+      <c r="L53" s="163" t="s">
+        <v>1488</v>
       </c>
       <c r="M53" s="49"/>
     </row>

--- a/Monitoreo DI.xlsx
+++ b/Monitoreo DI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karen\Dropbox\DI Monitoreo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87C3A331-9D8A-4CC2-810D-B9AE9414D0A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC7AB5C2-2B94-45CD-AC18-90BBE0F9B58C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" tabRatio="833" firstSheet="2" activeTab="2" xr2:uid="{F0BF9B96-FFF4-4E12-841F-9553B6E1990E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" tabRatio="833" firstSheet="2" activeTab="12" xr2:uid="{F0BF9B96-FFF4-4E12-841F-9553B6E1990E}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA`S" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,6 @@
     <definedName name="SegmentaciónDeDatos_Responsable_Información2">#N/A</definedName>
     <definedName name="SegmentaciónDeDatos_Responsables2">#N/A</definedName>
     <definedName name="SegmentaciónDeDatos_Secciones">#N/A</definedName>
-    <definedName name="SegmentaciónDeDatos_Tecnología">#N/A</definedName>
     <definedName name="SegmentaciónDeDatos_Tema">#N/A</definedName>
     <definedName name="SegmentaciónDeDatos_Tema_institución_Investigación">#N/A</definedName>
     <definedName name="SegmentaciónDeDatos_Variables">#N/A</definedName>
@@ -92,7 +91,6 @@
         <x14:slicerCache r:id="rId38"/>
         <x14:slicerCache r:id="rId39"/>
         <x14:slicerCache r:id="rId40"/>
-        <x14:slicerCache r:id="rId41"/>
       </x15:slicerCaches>
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -112,7 +110,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6097" uniqueCount="1511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6034" uniqueCount="1515">
   <si>
     <t>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/DATASALUD.svg</t>
   </si>
@@ -4115,9 +4113,6 @@
   </si>
   <si>
     <t>#educacion #calidad #evolucion #años #mapas #niños #niñas #adolescentes #formación #escuela #colegios #publicos #privados #urbanos #rurales #establecimientos #desempeño</t>
-  </si>
-  <si>
-    <t>#estadisticas #agricolas #agraria #produccion #rendimiento #superficie #cultivo #plantacion</t>
   </si>
   <si>
     <t xml:space="preserve">#coronavirus #covid19 #contagiados #recuperados #fallecidos #activos #pandemia #respiradores #ventiladores #disponibles #noticias #casos #numero #PCR #hospitalizados #R0 </t>
@@ -4454,29 +4449,6 @@
   </si>
   <si>
     <t xml:space="preserve">Mapas y tableros interactivos permiten realizar una observación de los femicidios registrados a lo largo de 2020 de acuerdo a los antecedentes del caso, descripción del hecho y estatus de las causas. La visualización está planificada para poder llevar un monitoreo territorial de acuerdo a cada caso presentado. </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>AGROSTAT - Producción Agrícola</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> reune estadísticas del mundo agrícola, relacionadas principalmente al rendimiento y superficie ocupada por tipo de cultivo, pudiendo ser analizadas a distintos niveles, ya sea nacional, regional o comunal.</t>
-    </r>
   </si>
   <si>
     <r>
@@ -5749,10 +5721,48 @@
     <t>Tenemos ranking de Municipios elaborado por GIS en 2018 y Censo 2018. Revisión Astrid-Karen</t>
   </si>
   <si>
-    <t>Columna1</t>
-  </si>
-  <si>
-    <t>Tecnología2</t>
+    <t xml:space="preserve">BD </t>
+  </si>
+  <si>
+    <t>Plataforma</t>
+  </si>
+  <si>
+    <t>Control Calidad</t>
+  </si>
+  <si>
+    <t>Shopify</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AGROSTAT - Producción Agrícola</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> reúne estadísticas del mundo agrícola, relacionadas principalmente al rendimiento y superficie ocupada por tipo de cultivo, pudiendo ser analizadas a distintos niveles, ya sea nacional, regional o comunal.</t>
+    </r>
+  </si>
+  <si>
+    <t>#estadisticas #agricolas #agraria #produccion #rendimiento #superficie #cultivo #plantacion #anuales #perennes #cereales #berries</t>
+  </si>
+  <si>
+    <t>DATACOMERCIO</t>
+  </si>
+  <si>
+    <t>0027</t>
   </si>
 </sst>
 </file>
@@ -5893,7 +5903,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="29">
+  <fills count="30">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6062,6 +6072,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="11">
     <border>
@@ -6181,7 +6197,7 @@
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="179">
+  <cellXfs count="182">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -6675,75 +6691,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="183">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="8"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="8"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="8"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="8"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="186">
     <dxf>
       <font>
         <b val="0"/>
@@ -6819,13 +6782,13 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="10"/>
+        <sz val="9"/>
         <color theme="1"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color theme="8"/>
@@ -6857,6 +6820,161 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="8"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="8"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="8"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="8"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="8"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="8"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="8"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="8"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="8"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="8"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color theme="8"/>
@@ -9270,8 +9388,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Estilo de segmentación de datos 1" pivot="0" table="0" count="2" xr9:uid="{7621B3B5-3284-42E2-9B51-77722CE67511}">
-      <tableStyleElement type="wholeTable" dxfId="182"/>
-      <tableStyleElement type="headerRow" dxfId="181"/>
+      <tableStyleElement type="wholeTable" dxfId="185"/>
+      <tableStyleElement type="headerRow" dxfId="184"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -11284,7 +11402,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>300672</xdr:colOff>
+      <xdr:colOff>294322</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>103505</xdr:rowOff>
     </xdr:to>
@@ -11324,84 +11442,6 @@
             <a:xfrm>
               <a:off x="9281160" y="0"/>
               <a:ext cx="2552700" cy="1752600"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:prstClr val="white"/>
-            </a:solidFill>
-            <a:ln w="1">
-              <a:solidFill>
-                <a:prstClr val="green"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="es-ES" sz="1100"/>
-                <a:t>Esta forma representa una segmentación de tabla. Las segmentaciones de tabla no se admiten en esta versión de Excel.
-Si la forma se modificó en una versión anterior de Excel o si el libro se guardó en Excel 2007 o en una versión anterior, no se podrá usar la segmentación.</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>416242</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>2114232</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
-      <mc:Choice Requires="sle15">
-        <xdr:graphicFrame macro="">
-          <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="8" name="Tecnología">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1AC7A50-4FEC-4851-AEA4-32D92826AD22}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvGraphicFramePr/>
-          </xdr:nvGraphicFramePr>
-          <xdr:xfrm>
-            <a:off x="0" y="0"/>
-            <a:ext cx="0" cy="0"/>
-          </xdr:xfrm>
-          <a:graphic>
-            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
-              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Tecnología"/>
-            </a:graphicData>
-          </a:graphic>
-        </xdr:graphicFrame>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="0" name=""/>
-            <xdr:cNvSpPr>
-              <a:spLocks noTextEdit="1"/>
-            </xdr:cNvSpPr>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="11955780" y="0"/>
-              <a:ext cx="1668780" cy="1760220"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -11621,10 +11661,10 @@
 </file>
 
 <file path=xl/slicerCaches/slicerCache18.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaciónDeDatos_Tecnología" xr10:uid="{9250B644-B10F-424B-A709-2C4BB47575D5}" sourceName="Tecnología2">
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaciónDeDatos_Integrado_en_PRODUCTOS?__SI_NO" xr10:uid="{A00E06B6-1281-4839-A50C-9BE2AC964430}" sourceName="Integrado en PRODUCTOS? [SI/NO]">
   <extLst>
     <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{2F2917AC-EB37-4324-AD4E-5DD8C200BD13}">
-      <x15:tableSlicerCache tableId="6" column="12"/>
+      <x15:tableSlicerCache tableId="6" column="5"/>
     </x:ext>
     <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{470722E0-AACD-4C17-9CDC-17EF765DBC7E}">
       <x15:slicerCacheHideItemsWithNoData/>
@@ -11634,13 +11674,10 @@
 </file>
 
 <file path=xl/slicerCaches/slicerCache19.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaciónDeDatos_Integrado_en_PRODUCTOS?__SI_NO" xr10:uid="{A00E06B6-1281-4839-A50C-9BE2AC964430}" sourceName="Integrado en PRODUCTOS? [SI/NO]">
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaciónDeDatos_Data3" xr10:uid="{7E4532BB-7600-4F31-8152-CFDF8CCF29EF}" sourceName="Data">
   <extLst>
     <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{2F2917AC-EB37-4324-AD4E-5DD8C200BD13}">
-      <x15:tableSlicerCache tableId="6" column="5"/>
-    </x:ext>
-    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{470722E0-AACD-4C17-9CDC-17EF765DBC7E}">
-      <x15:slicerCacheHideItemsWithNoData/>
+      <x15:tableSlicerCache tableId="7" column="3"/>
     </x:ext>
   </extLst>
 </slicerCacheDefinition>
@@ -11657,16 +11694,6 @@
 </file>
 
 <file path=xl/slicerCaches/slicerCache20.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaciónDeDatos_Data3" xr10:uid="{7E4532BB-7600-4F31-8152-CFDF8CCF29EF}" sourceName="Data">
-  <extLst>
-    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{2F2917AC-EB37-4324-AD4E-5DD8C200BD13}">
-      <x15:tableSlicerCache tableId="7" column="3"/>
-    </x:ext>
-  </extLst>
-</slicerCacheDefinition>
-</file>
-
-<file path=xl/slicerCaches/slicerCache21.xml><?xml version="1.0" encoding="utf-8"?>
 <slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaciónDeDatos_Estado3" xr10:uid="{31B576CF-E2C1-49B3-8A56-840B48F569C1}" sourceName="Estado">
   <extLst>
     <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{2F2917AC-EB37-4324-AD4E-5DD8C200BD13}">
@@ -11676,7 +11703,7 @@
 </slicerCacheDefinition>
 </file>
 
-<file path=xl/slicerCaches/slicerCache22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/slicerCaches/slicerCache21.xml><?xml version="1.0" encoding="utf-8"?>
 <slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaciónDeDatos_Responsable_Desarrollo2" xr10:uid="{D1619E34-26E0-42C7-809F-2911BF1CBE80}" sourceName="Responsable Desarrollo">
   <extLst>
     <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{2F2917AC-EB37-4324-AD4E-5DD8C200BD13}">
@@ -11686,7 +11713,7 @@
 </slicerCacheDefinition>
 </file>
 
-<file path=xl/slicerCaches/slicerCache23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/slicerCaches/slicerCache22.xml><?xml version="1.0" encoding="utf-8"?>
 <slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaciónDeDatos_Responsable_Información2" xr10:uid="{69D2D79F-86BA-401C-A594-D1B5389B9A8C}" sourceName="Responsable Información">
   <extLst>
     <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{2F2917AC-EB37-4324-AD4E-5DD8C200BD13}">
@@ -11696,7 +11723,7 @@
 </slicerCacheDefinition>
 </file>
 
-<file path=xl/slicerCaches/slicerCache24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/slicerCaches/slicerCache23.xml><?xml version="1.0" encoding="utf-8"?>
 <slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaciónDeDatos_Responsables2" xr10:uid="{E3F3EEE2-9043-4EA5-A4A3-74B33A3784B9}" sourceName="Responsable">
   <extLst>
     <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{2F2917AC-EB37-4324-AD4E-5DD8C200BD13}">
@@ -11706,7 +11733,7 @@
 </slicerCacheDefinition>
 </file>
 
-<file path=xl/slicerCaches/slicerCache25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/slicerCaches/slicerCache24.xml><?xml version="1.0" encoding="utf-8"?>
 <slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaciónDeDatos_Tema_institución_Investigación" xr10:uid="{E77F1692-7F3B-4451-A815-119889A4395E}" sourceName="Tema/institución Investigación ">
   <extLst>
     <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{2F2917AC-EB37-4324-AD4E-5DD8C200BD13}">
@@ -11716,7 +11743,7 @@
 </slicerCacheDefinition>
 </file>
 
-<file path=xl/slicerCaches/slicerCache26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/slicerCaches/slicerCache25.xml><?xml version="1.0" encoding="utf-8"?>
 <slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaciónDeDatos_Responsable" xr10:uid="{CDAB62DC-A789-4CE5-B45D-53D475F4D19C}" sourceName="Responsable">
   <extLst>
     <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{2F2917AC-EB37-4324-AD4E-5DD8C200BD13}">
@@ -11726,7 +11753,7 @@
 </slicerCacheDefinition>
 </file>
 
-<file path=xl/slicerCaches/slicerCache27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/slicerCaches/slicerCache26.xml><?xml version="1.0" encoding="utf-8"?>
 <slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaciónDeDatos_Fecha_Actualización" xr10:uid="{C53EC399-5DDA-412D-A21A-A40A1C1E2FA7}" sourceName="Fecha Actualización ">
   <extLst>
     <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{2F2917AC-EB37-4324-AD4E-5DD8C200BD13}">
@@ -11736,7 +11763,7 @@
 </slicerCacheDefinition>
 </file>
 
-<file path=xl/slicerCaches/slicerCache28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/slicerCaches/slicerCache27.xml><?xml version="1.0" encoding="utf-8"?>
 <slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaciónDeDatos_Tema" xr10:uid="{26A06245-A14E-4AAE-A738-1799FF0AA5E7}" sourceName="Tema">
   <extLst>
     <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{2F2917AC-EB37-4324-AD4E-5DD8C200BD13}">
@@ -11874,112 +11901,114 @@
   <slicer name="Avance [0-100%]" xr10:uid="{3E416F9C-0DF4-4E82-9BCC-0ABC5F831734}" cache="SegmentaciónDeDatos_Avance__0_100" caption="Avance [0-100%]" columnCount="3" style="SlicerStyleDark5" rowHeight="234950"/>
   <slicer name="Responsable Desarrollo 1" xr10:uid="{D5BDA138-167B-403A-8EB0-C899F7A5A811}" cache="SegmentaciónDeDatos_Responsable_Desarrollo1" caption="Responsable Desarrollo" columnCount="2" style="SlicerStyleDark5" rowHeight="234950"/>
   <slicer name="Responsable Información 1" xr10:uid="{788EF61F-CA92-4343-B67F-817D3F5036A3}" cache="SegmentaciónDeDatos_Responsable_Información1" caption="Responsable Información" columnCount="2" style="SlicerStyleDark5" rowHeight="234950"/>
-  <slicer name="Tecnología" xr10:uid="{07EDCA14-040A-418C-A4AB-031F08913191}" cache="SegmentaciónDeDatos_Tecnología" caption="Tecnología2" style="SlicerStyleDark5" rowHeight="234950"/>
   <slicer name="Integrado en PRODUCTOS? [SI/NO]" xr10:uid="{4AA89A44-1A9F-4D88-8436-FCF152C952AF}" cache="SegmentaciónDeDatos_Integrado_en_PRODUCTOS?__SI_NO" caption="Integrado en PRODUCTOS? [SI/NO]" columnCount="2" style="SlicerStyleDark2" rowHeight="234950"/>
 </slicers>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6E39FE05-78F7-46B2-A48A-6AE9D75C0EBB}" name="DATAS" displayName="DATAS" ref="B7:K33" totalsRowShown="0" dataDxfId="180">
-  <autoFilter ref="B7:K33" xr:uid="{A0E2A789-D79F-4DB7-90A3-654E5E441AF8}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6E39FE05-78F7-46B2-A48A-6AE9D75C0EBB}" name="DATAS" displayName="DATAS" ref="B7:K34" totalsRowShown="0" dataDxfId="183">
+  <autoFilter ref="B7:K34" xr:uid="{A0E2A789-D79F-4DB7-90A3-654E5E441AF8}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{7076C6AD-6717-404D-96C6-53FBA68C1EBC}" name="Data" dataDxfId="179"/>
-    <tableColumn id="2" xr3:uid="{B68EB833-5A56-4B1F-8BF1-E83CF0F5B1BA}" name="id_data" dataDxfId="178"/>
-    <tableColumn id="3" xr3:uid="{B68551BE-AD5B-4ABC-92F3-75214F86D3BC}" name="Estado" dataDxfId="177"/>
-    <tableColumn id="4" xr3:uid="{35F21F0F-CEDD-4627-8F3A-B243E93A29A8}" name="Desarrollo" dataDxfId="176"/>
-    <tableColumn id="5" xr3:uid="{55D616E3-D0F3-464E-B32C-8DF920812CBC}" name="Investigación" dataDxfId="175"/>
-    <tableColumn id="6" xr3:uid="{C1D2156E-87B8-470E-9168-7A6E5AE31CC2}" name="Breve Descripción" dataDxfId="174"/>
-    <tableColumn id="10" xr3:uid="{0091DFF5-4F92-4896-A2A6-03E40B76AE69}" name="Slogan - Cita" dataDxfId="173"/>
-    <tableColumn id="7" xr3:uid="{5B85BAF7-51FC-47E2-B831-0E709569CEC4}" name="Vistas" dataDxfId="172"/>
-    <tableColumn id="8" xr3:uid="{57861CEA-0BDC-4179-9FF2-0E59F48A2157}" name="Repositorio Dropbox" dataDxfId="171"/>
-    <tableColumn id="9" xr3:uid="{0E50183B-22E4-424B-96DD-18AC3480E706}" name="Link Logo" dataDxfId="170"/>
+    <tableColumn id="1" xr3:uid="{7076C6AD-6717-404D-96C6-53FBA68C1EBC}" name="Data" dataDxfId="182"/>
+    <tableColumn id="2" xr3:uid="{B68EB833-5A56-4B1F-8BF1-E83CF0F5B1BA}" name="id_data" dataDxfId="181"/>
+    <tableColumn id="3" xr3:uid="{B68551BE-AD5B-4ABC-92F3-75214F86D3BC}" name="Estado" dataDxfId="180"/>
+    <tableColumn id="4" xr3:uid="{35F21F0F-CEDD-4627-8F3A-B243E93A29A8}" name="Desarrollo" dataDxfId="179"/>
+    <tableColumn id="5" xr3:uid="{55D616E3-D0F3-464E-B32C-8DF920812CBC}" name="Investigación" dataDxfId="178"/>
+    <tableColumn id="6" xr3:uid="{C1D2156E-87B8-470E-9168-7A6E5AE31CC2}" name="Breve Descripción" dataDxfId="177"/>
+    <tableColumn id="10" xr3:uid="{0091DFF5-4F92-4896-A2A6-03E40B76AE69}" name="Slogan - Cita" dataDxfId="176"/>
+    <tableColumn id="7" xr3:uid="{5B85BAF7-51FC-47E2-B831-0E709569CEC4}" name="Vistas" dataDxfId="175"/>
+    <tableColumn id="8" xr3:uid="{57861CEA-0BDC-4179-9FF2-0E59F48A2157}" name="Repositorio Dropbox" dataDxfId="174"/>
+    <tableColumn id="9" xr3:uid="{0E50183B-22E4-424B-96DD-18AC3480E706}" name="Link Logo" dataDxfId="173"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{07333795-F402-425E-9AC7-1C17203C211E}" name="BORRADOR_PRODUCTOS" displayName="BORRADOR_PRODUCTOS" ref="B11:R117" totalsRowShown="0" headerRowDxfId="18" tableBorderDxfId="17">
-  <autoFilter ref="B11:R117" xr:uid="{488C7ADA-DF10-4033-BE01-B6478A789716}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{07333795-F402-425E-9AC7-1C17203C211E}" name="BORRADOR_PRODUCTOS" displayName="BORRADOR_PRODUCTOS" ref="B11:U117" totalsRowShown="0" headerRowDxfId="21" tableBorderDxfId="20">
+  <autoFilter ref="B11:U117" xr:uid="{488C7ADA-DF10-4033-BE01-B6478A789716}">
     <filterColumn colId="8">
       <filters>
         <filter val="100%"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B12:R64">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B12:U64">
     <sortCondition ref="B12:B64"/>
     <sortCondition ref="D12:D64"/>
   </sortState>
-  <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{229DCB04-6969-4E62-A149-FB9E3CAE5BF4}" name="Data" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{CD34A55D-D0AD-4B52-8194-AFDE7E5C6050}" name="Producto Previos" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{4029C438-04CA-46F0-B968-E3D862055C27}" name="Secuencia (dentro DATA)" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{9842277F-498F-4399-B9E9-AE2739193ABA}" name="País" dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{ED853D5F-1B7C-4052-B0FE-5337CC52FC4D}" name="Integrado en PRODUCTOS? [SI/NO]" dataDxfId="12"/>
-    <tableColumn id="15" xr3:uid="{8D63376D-2407-4CF9-A0F9-4552C9649833}" name="id_producto" dataDxfId="11"/>
-    <tableColumn id="6" xr3:uid="{14D31B75-8E88-42FB-BB27-6BB36C1418D0}" name="Prioridad [1-9]" dataDxfId="10"/>
-    <tableColumn id="7" xr3:uid="{679658E8-A980-4528-82C7-F19E24336030}" name="Estado" dataDxfId="9"/>
-    <tableColumn id="8" xr3:uid="{2EF6A42B-DFA0-4FE7-A1E1-2E79F580EB12}" name="Avance [0-100%]" dataDxfId="8" dataCellStyle="Porcentaje"/>
-    <tableColumn id="9" xr3:uid="{40541782-CDD5-4622-B1C1-C97D63A0C9AA}" name="Responsable Desarrollo" dataDxfId="7"/>
-    <tableColumn id="10" xr3:uid="{3B543DE3-BF65-4BD9-9932-28271C56E4C6}" name="Responsable Información" dataDxfId="6"/>
-    <tableColumn id="16" xr3:uid="{394FD602-B6E0-4BBA-A4D5-D38FD9373C7C}" name="Tecnología" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{DAB3B04F-F977-4413-A23F-4094B552D30E}" name="Tareas/Elementos / Observaciones" dataDxfId="5"/>
-    <tableColumn id="17" xr3:uid="{7A213F94-93FA-435F-9C96-175D8DD787F5}" name="Columna1" dataDxfId="0"/>
-    <tableColumn id="12" xr3:uid="{78859102-313B-47F6-BED8-F613D7B8587E}" name="Tecnología2" dataDxfId="4"/>
-    <tableColumn id="13" xr3:uid="{BBACA7B7-AF7E-4714-A44E-1572587CA1A4}" name="Fecha estimada" dataDxfId="3"/>
-    <tableColumn id="14" xr3:uid="{3D3E6850-E86A-4D4E-99C6-7FEB6D12B271}" name="Fecha Actualización [de esta info]" dataDxfId="2"/>
+  <tableColumns count="20">
+    <tableColumn id="1" xr3:uid="{229DCB04-6969-4E62-A149-FB9E3CAE5BF4}" name="Data" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{CD34A55D-D0AD-4B52-8194-AFDE7E5C6050}" name="Producto Previos" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{4029C438-04CA-46F0-B968-E3D862055C27}" name="Secuencia (dentro DATA)" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{9842277F-498F-4399-B9E9-AE2739193ABA}" name="País" dataDxfId="16"/>
+    <tableColumn id="5" xr3:uid="{ED853D5F-1B7C-4052-B0FE-5337CC52FC4D}" name="Integrado en PRODUCTOS? [SI/NO]" dataDxfId="15"/>
+    <tableColumn id="15" xr3:uid="{8D63376D-2407-4CF9-A0F9-4552C9649833}" name="id_producto" dataDxfId="14"/>
+    <tableColumn id="6" xr3:uid="{14D31B75-8E88-42FB-BB27-6BB36C1418D0}" name="Prioridad [1-9]" dataDxfId="13"/>
+    <tableColumn id="7" xr3:uid="{679658E8-A980-4528-82C7-F19E24336030}" name="Estado" dataDxfId="12"/>
+    <tableColumn id="8" xr3:uid="{2EF6A42B-DFA0-4FE7-A1E1-2E79F580EB12}" name="Avance [0-100%]" dataDxfId="11" dataCellStyle="Porcentaje"/>
+    <tableColumn id="9" xr3:uid="{40541782-CDD5-4622-B1C1-C97D63A0C9AA}" name="Responsable Desarrollo" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{3B543DE3-BF65-4BD9-9932-28271C56E4C6}" name="Responsable Información" dataDxfId="9"/>
+    <tableColumn id="16" xr3:uid="{394FD602-B6E0-4BBA-A4D5-D38FD9373C7C}" name="Tecnología" dataDxfId="8"/>
+    <tableColumn id="11" xr3:uid="{DAB3B04F-F977-4413-A23F-4094B552D30E}" name="Tareas/Elementos / Observaciones" dataDxfId="7"/>
+    <tableColumn id="17" xr3:uid="{7A213F94-93FA-435F-9C96-175D8DD787F5}" name="BD " dataDxfId="6"/>
+    <tableColumn id="18" xr3:uid="{59E5F4A3-0FF3-4774-967F-4A177D031C00}" name="Plataforma" dataDxfId="5"/>
+    <tableColumn id="19" xr3:uid="{36C4BF2F-DF1D-4D05-A90F-79F125B03FD2}" name="Control Calidad" dataDxfId="4"/>
+    <tableColumn id="21" xr3:uid="{3BE542C7-8C82-454D-A6C1-7F2AAB4343DE}" name="Odoo" dataDxfId="3"/>
+    <tableColumn id="20" xr3:uid="{C1FC94FF-E933-4906-94F4-ED73D29773EE}" name="Shopify" dataDxfId="2"/>
+    <tableColumn id="13" xr3:uid="{BBACA7B7-AF7E-4714-A44E-1572587CA1A4}" name="Fecha estimada" dataDxfId="1"/>
+    <tableColumn id="14" xr3:uid="{3D3E6850-E86A-4D4E-99C6-7FEB6D12B271}" name="Fecha Actualización [de esta info]" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B0304927-521B-4559-963B-3C591C746F11}" name="PRODUCTOS" displayName="PRODUCTOS" ref="A7:BD96" totalsRowShown="0" headerRowDxfId="169">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B0304927-521B-4559-963B-3C591C746F11}" name="PRODUCTOS" displayName="PRODUCTOS" ref="A7:BD96" totalsRowShown="0" headerRowDxfId="172">
   <autoFilter ref="A7:BD96" xr:uid="{B45D9B6D-7E6E-4374-A7A8-688EAA2C002B}"/>
   <tableColumns count="56">
-    <tableColumn id="1" xr3:uid="{01CFB9DB-FBAD-4A9E-9D8F-5FB3EB42A9EB}" name="id_data" dataDxfId="168" totalsRowDxfId="167">
-      <calculatedColumnFormula>+VLOOKUP(D8,'DATA`S'!$B$8:$C$33,2,0)</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{01CFB9DB-FBAD-4A9E-9D8F-5FB3EB42A9EB}" name="id_data" dataDxfId="171" totalsRowDxfId="170">
+      <calculatedColumnFormula>+VLOOKUP(D8,'DATA`S'!$B$8:$C$34,2,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="31" xr3:uid="{296D6B07-CE01-4CBF-8413-B4A08E3AF372}" name="id_pais" dataDxfId="166" totalsRowDxfId="165">
+    <tableColumn id="31" xr3:uid="{296D6B07-CE01-4CBF-8413-B4A08E3AF372}" name="id_pais" dataDxfId="169" totalsRowDxfId="168">
       <calculatedColumnFormula>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$12,2,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{07061539-DFF5-4A11-BADD-2A240074A56A}" name="Corr_Producto" dataDxfId="164" totalsRowDxfId="163"/>
-    <tableColumn id="3" xr3:uid="{56D80777-3871-4DBF-8856-DFDA54440D55}" name="Data" dataDxfId="162" totalsRowDxfId="161"/>
-    <tableColumn id="27" xr3:uid="{0BD20D97-CBB4-4212-9EB7-3F3B3FA483E6}" name="País" dataDxfId="160" totalsRowDxfId="159"/>
-    <tableColumn id="4" xr3:uid="{73D49374-8912-4C27-A2AF-E0476A8E9AEE}" name="id_producto" dataDxfId="158">
+    <tableColumn id="2" xr3:uid="{07061539-DFF5-4A11-BADD-2A240074A56A}" name="Corr_Producto" dataDxfId="167" totalsRowDxfId="166"/>
+    <tableColumn id="3" xr3:uid="{56D80777-3871-4DBF-8856-DFDA54440D55}" name="Data" dataDxfId="165" totalsRowDxfId="164"/>
+    <tableColumn id="27" xr3:uid="{0BD20D97-CBB4-4212-9EB7-3F3B3FA483E6}" name="País" dataDxfId="163" totalsRowDxfId="162"/>
+    <tableColumn id="4" xr3:uid="{73D49374-8912-4C27-A2AF-E0476A8E9AEE}" name="id_producto" dataDxfId="161">
       <calculatedColumnFormula>A8&amp;"-"&amp;B8&amp;"-"&amp;C8</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{71534AA1-DF8C-466C-AAA8-87DA9F119341}" name="Producto asociado " dataDxfId="157" totalsRowDxfId="156"/>
-    <tableColumn id="26" xr3:uid="{8B686EE2-348B-48C2-990B-424A8FB284BC}" name="Nombre comercial" dataDxfId="155" totalsRowDxfId="154"/>
-    <tableColumn id="6" xr3:uid="{75779DBD-8A91-4D7A-8A36-000CEDC599B6}" name="Estado" dataDxfId="153" totalsRowDxfId="152"/>
-    <tableColumn id="25" xr3:uid="{E03A0489-5A50-4DA9-A8DF-999E6DC669EA}" name="Avance" dataDxfId="151" totalsRowDxfId="150" dataCellStyle="Porcentaje" totalsRowCellStyle="Porcentaje">
+    <tableColumn id="5" xr3:uid="{71534AA1-DF8C-466C-AAA8-87DA9F119341}" name="Producto asociado " dataDxfId="160" totalsRowDxfId="159"/>
+    <tableColumn id="26" xr3:uid="{8B686EE2-348B-48C2-990B-424A8FB284BC}" name="Nombre comercial" dataDxfId="158" totalsRowDxfId="157"/>
+    <tableColumn id="6" xr3:uid="{75779DBD-8A91-4D7A-8A36-000CEDC599B6}" name="Estado" dataDxfId="156" totalsRowDxfId="155"/>
+    <tableColumn id="25" xr3:uid="{E03A0489-5A50-4DA9-A8DF-999E6DC669EA}" name="Avance" dataDxfId="154" totalsRowDxfId="153" dataCellStyle="Porcentaje" totalsRowCellStyle="Porcentaje">
       <calculatedColumnFormula>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$J$117,4,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{2699BB10-9D24-4629-8F45-4A2526A4D39A}" name="Responsable Desarrollo" dataDxfId="149" totalsRowDxfId="148"/>
-    <tableColumn id="8" xr3:uid="{69F4BEA1-A9B4-4421-A0EE-47BCAF12AAB2}" name="Responsable Información" dataDxfId="147" totalsRowDxfId="146"/>
-    <tableColumn id="10" xr3:uid="{03C8A422-EE9B-494A-A440-9110009A358E}" name="Tecnología" dataDxfId="145" totalsRowDxfId="144">
-      <calculatedColumnFormula>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$P$112,7,0)</calculatedColumnFormula>
+    <tableColumn id="7" xr3:uid="{2699BB10-9D24-4629-8F45-4A2526A4D39A}" name="Responsable Desarrollo" dataDxfId="152" totalsRowDxfId="151"/>
+    <tableColumn id="8" xr3:uid="{69F4BEA1-A9B4-4421-A0EE-47BCAF12AAB2}" name="Responsable Información" dataDxfId="150" totalsRowDxfId="149"/>
+    <tableColumn id="10" xr3:uid="{03C8A422-EE9B-494A-A440-9110009A358E}" name="Tecnología" dataDxfId="148" totalsRowDxfId="147">
+      <calculatedColumnFormula>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$S$112,7,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{1A081205-19B8-4238-8F9E-1836061C2D4F}" name="Host " dataDxfId="143" totalsRowDxfId="142"/>
-    <tableColumn id="12" xr3:uid="{6BCD6CB8-BA53-40A7-9F90-7EBA78E345DA}" name="Link Odoo" dataDxfId="141" totalsRowDxfId="140"/>
-    <tableColumn id="13" xr3:uid="{502BD7B7-DD01-471A-8E5E-C527F983E20E}" name="Fecha Publicación" dataDxfId="139" totalsRowDxfId="138"/>
-    <tableColumn id="15" xr3:uid="{00014923-35F8-4A24-9B8B-A626BE90EC3E}" name="Escala " dataDxfId="137" totalsRowDxfId="136"/>
-    <tableColumn id="16" xr3:uid="{D32995C9-2CA4-4BD7-A181-0CE6434624DC}" name="Periodo" dataDxfId="135" totalsRowDxfId="134"/>
-    <tableColumn id="17" xr3:uid="{5F683DA7-34DC-43D1-A154-FB5C17AB82E4}" name="Actualizaciones" dataDxfId="133" totalsRowDxfId="132"/>
-    <tableColumn id="18" xr3:uid="{D0F7DA38-1DAE-48DF-8725-440804E511ED}" name="Tipo Producto" dataDxfId="131" totalsRowDxfId="130"/>
-    <tableColumn id="19" xr3:uid="{6345440E-6C11-4DE3-9F30-57AA749130A3}" name="Fuentes " dataDxfId="129" totalsRowDxfId="128"/>
-    <tableColumn id="20" xr3:uid="{06F6F5BE-A8B5-450A-B890-E5272AC160CB}" name="Ref principal " dataDxfId="127" totalsRowDxfId="126"/>
-    <tableColumn id="21" xr3:uid="{F22EE5BC-B966-49EB-A843-F1384A77D7A0}" name="Competencia o material vinculado " dataDxfId="125" totalsRowDxfId="124"/>
+    <tableColumn id="11" xr3:uid="{1A081205-19B8-4238-8F9E-1836061C2D4F}" name="Host " dataDxfId="146" totalsRowDxfId="145"/>
+    <tableColumn id="12" xr3:uid="{6BCD6CB8-BA53-40A7-9F90-7EBA78E345DA}" name="Link Odoo" dataDxfId="144" totalsRowDxfId="143"/>
+    <tableColumn id="13" xr3:uid="{502BD7B7-DD01-471A-8E5E-C527F983E20E}" name="Fecha Publicación" dataDxfId="142" totalsRowDxfId="141"/>
+    <tableColumn id="15" xr3:uid="{00014923-35F8-4A24-9B8B-A626BE90EC3E}" name="Escala " dataDxfId="140" totalsRowDxfId="139"/>
+    <tableColumn id="16" xr3:uid="{D32995C9-2CA4-4BD7-A181-0CE6434624DC}" name="Periodo" dataDxfId="138" totalsRowDxfId="137"/>
+    <tableColumn id="17" xr3:uid="{5F683DA7-34DC-43D1-A154-FB5C17AB82E4}" name="Actualizaciones" dataDxfId="136" totalsRowDxfId="135"/>
+    <tableColumn id="18" xr3:uid="{D0F7DA38-1DAE-48DF-8725-440804E511ED}" name="Tipo Producto" dataDxfId="134" totalsRowDxfId="133"/>
+    <tableColumn id="19" xr3:uid="{6345440E-6C11-4DE3-9F30-57AA749130A3}" name="Fuentes " dataDxfId="132" totalsRowDxfId="131"/>
+    <tableColumn id="20" xr3:uid="{06F6F5BE-A8B5-450A-B890-E5272AC160CB}" name="Ref principal " dataDxfId="130" totalsRowDxfId="129"/>
+    <tableColumn id="21" xr3:uid="{F22EE5BC-B966-49EB-A843-F1384A77D7A0}" name="Competencia o material vinculado " dataDxfId="128" totalsRowDxfId="127"/>
     <tableColumn id="22" xr3:uid="{E445C8DD-86CC-41A9-9E49-D3492783FCB1}" name="Vistas"/>
     <tableColumn id="23" xr3:uid="{DBAFBD3B-B406-46F5-B2E9-B69F6F70645B}" name="Repositorio Dropbox"/>
     <tableColumn id="24" xr3:uid="{629986D1-249B-44FE-82F1-FCA6183BF20E}" name="Link Logo"/>
-    <tableColumn id="28" xr3:uid="{4F7861D7-1E20-4E49-BAAB-9731305CDBE5}" name="Observaciones" dataDxfId="123" totalsRowDxfId="122"/>
-    <tableColumn id="29" xr3:uid="{B82AF5FC-FE01-4F10-8B3A-A6B205199D0A}" name="Miniatura" dataDxfId="121" totalsRowDxfId="120"/>
+    <tableColumn id="28" xr3:uid="{4F7861D7-1E20-4E49-BAAB-9731305CDBE5}" name="Observaciones" dataDxfId="126" totalsRowDxfId="125"/>
+    <tableColumn id="29" xr3:uid="{B82AF5FC-FE01-4F10-8B3A-A6B205199D0A}" name="Miniatura" dataDxfId="124" totalsRowDxfId="123"/>
     <tableColumn id="37" xr3:uid="{447BFD0A-721F-47C8-9615-3D9B196F979F}" name="PORTADA SHOPIFY"/>
     <tableColumn id="38" xr3:uid="{95D4D5AF-6660-4044-A5A8-E516ADA5D063}" name="Párrafo enganche"/>
     <tableColumn id="39" xr3:uid="{2963E916-25CA-4C30-A173-915A5CD940D3}" name="Variante_1"/>
-    <tableColumn id="40" xr3:uid="{50FEFE18-B7AA-4094-B4D1-D7296380363B}" name="Precio_1 (USD)" dataDxfId="119"/>
+    <tableColumn id="40" xr3:uid="{50FEFE18-B7AA-4094-B4D1-D7296380363B}" name="Precio_1 (USD)" dataDxfId="122"/>
     <tableColumn id="41" xr3:uid="{9CECDB40-D2E7-44AF-BA17-FB2CD006F0D3}" name="Variante_2"/>
     <tableColumn id="42" xr3:uid="{449802E5-0F23-40E3-AC14-547C4516D33C}" name="Precio_2 (USD)"/>
     <tableColumn id="43" xr3:uid="{A11B456F-7DEA-431F-9CA5-03E3B83EB3CF}" name="Variante_3"/>
@@ -11994,10 +12023,10 @@
     <tableColumn id="9" xr3:uid="{A912298A-2AE3-4676-B089-13388A70E0CC}" name="CAR_Var3_Disponible"/>
     <tableColumn id="34" xr3:uid="{2EAEC5EE-D01B-4781-A499-32811E9E50DF}" name="CAR_Periodo"/>
     <tableColumn id="35" xr3:uid="{89972549-6CAE-40EF-8DDE-4E5FB11CDCFB}" name="CAR_Proveedor"/>
-    <tableColumn id="36" xr3:uid="{94687206-A22A-469D-92B1-A6635B8A1CB3}" name="CAR_Colección" dataDxfId="118">
+    <tableColumn id="36" xr3:uid="{94687206-A22A-469D-92B1-A6635B8A1CB3}" name="CAR_Colección" dataDxfId="121">
       <calculatedColumnFormula>PRODUCTOS[[#This Row],[Data]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="48" xr3:uid="{431A4A68-8223-41E1-99C1-4F515A267188}" name="ESP_Tecnología" dataDxfId="117">
+    <tableColumn id="48" xr3:uid="{431A4A68-8223-41E1-99C1-4F515A267188}" name="ESP_Tecnología" dataDxfId="120">
       <calculatedColumnFormula>PRODUCTOS[[#This Row],[Tecnología]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="49" xr3:uid="{A570E531-D39D-48A2-BCC8-8E0BA5937958}" name="ESP_Incluye"/>
@@ -12020,7 +12049,7 @@
     <tableColumn id="1" xr3:uid="{69819873-BFDD-4D0F-83ED-7D2504DFDA31}" name="Data"/>
     <tableColumn id="2" xr3:uid="{70760145-B5A6-4F27-A738-A1EBE3D8A954}" name="Producto"/>
     <tableColumn id="3" xr3:uid="{585C0D49-B625-41C4-8893-45B93A4BE8CC}" name="Sección"/>
-    <tableColumn id="4" xr3:uid="{10EF7F87-DEF0-4028-9C31-E3E45FB50589}" name="Tema" dataDxfId="116"/>
+    <tableColumn id="4" xr3:uid="{10EF7F87-DEF0-4028-9C31-E3E45FB50589}" name="Tema" dataDxfId="119"/>
     <tableColumn id="5" xr3:uid="{28D3851F-C206-422F-98B1-973F48082A17}" name="Verificador"/>
     <tableColumn id="6" xr3:uid="{71EF3903-87DB-422F-904D-B86468D3F2A8}" name="Variables"/>
     <tableColumn id="7" xr3:uid="{09ED368A-F77F-44FE-80CB-14C859399091}" name="ID_VAR"/>
@@ -12044,156 +12073,156 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{2A3DFF5F-BB66-464A-9045-49B0328E9E76}" name="Tabla10" displayName="Tabla10" ref="B7:I221" totalsRowShown="0" headerRowDxfId="115" dataDxfId="114">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{2A3DFF5F-BB66-464A-9045-49B0328E9E76}" name="Tabla10" displayName="Tabla10" ref="B7:I221" totalsRowShown="0" headerRowDxfId="118" dataDxfId="117">
   <autoFilter ref="B7:I221" xr:uid="{54E86758-179E-494E-9D22-024745EA2489}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{AE352613-BE77-4F50-A26C-CDFA69B4E703}" name="Data" dataDxfId="113"/>
-    <tableColumn id="2" xr3:uid="{FB99AEF8-BF89-4789-90CC-B8C3024883BE}" name="Estado" dataDxfId="112"/>
-    <tableColumn id="3" xr3:uid="{B15F5D46-093A-497F-970F-4E17CA63A563}" name="Fecha Actualización " dataDxfId="111"/>
-    <tableColumn id="4" xr3:uid="{7EA45E0E-7020-43C1-AD03-9A178CD7430B}" name="Responsable" dataDxfId="110"/>
-    <tableColumn id="8" xr3:uid="{CD6D1E9C-AD67-41FD-BB45-272D5CED1007}" name="Tema" dataDxfId="109"/>
-    <tableColumn id="5" xr3:uid="{2AC1CC8A-E5DB-4A3A-BEE8-6538DDAA69E7}" name="Observación " dataDxfId="108"/>
-    <tableColumn id="6" xr3:uid="{C98B1913-4D31-48AA-9995-A47CE0EA1C1E}" name="Acción" dataDxfId="107"/>
-    <tableColumn id="7" xr3:uid="{FE3D67C6-9FBF-4881-B186-7BE50BE75AE3}" name="Monitoreo" dataDxfId="106"/>
+    <tableColumn id="1" xr3:uid="{AE352613-BE77-4F50-A26C-CDFA69B4E703}" name="Data" dataDxfId="116"/>
+    <tableColumn id="2" xr3:uid="{FB99AEF8-BF89-4789-90CC-B8C3024883BE}" name="Estado" dataDxfId="115"/>
+    <tableColumn id="3" xr3:uid="{B15F5D46-093A-497F-970F-4E17CA63A563}" name="Fecha Actualización " dataDxfId="114"/>
+    <tableColumn id="4" xr3:uid="{7EA45E0E-7020-43C1-AD03-9A178CD7430B}" name="Responsable" dataDxfId="113"/>
+    <tableColumn id="8" xr3:uid="{CD6D1E9C-AD67-41FD-BB45-272D5CED1007}" name="Tema" dataDxfId="112"/>
+    <tableColumn id="5" xr3:uid="{2AC1CC8A-E5DB-4A3A-BEE8-6538DDAA69E7}" name="Observación " dataDxfId="111"/>
+    <tableColumn id="6" xr3:uid="{C98B1913-4D31-48AA-9995-A47CE0EA1C1E}" name="Acción" dataDxfId="110"/>
+    <tableColumn id="7" xr3:uid="{FE3D67C6-9FBF-4881-B186-7BE50BE75AE3}" name="Monitoreo" dataDxfId="109"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{F79A991F-1A6F-4232-A4CD-E26026F59FD2}" name="Tabla1" displayName="Tabla1" ref="A9:M53" totalsRowShown="0" headerRowDxfId="105" dataDxfId="104">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{F79A991F-1A6F-4232-A4CD-E26026F59FD2}" name="Tabla1" displayName="Tabla1" ref="A9:M53" totalsRowShown="0" headerRowDxfId="108" dataDxfId="107">
   <autoFilter ref="A9:M53" xr:uid="{2573F5B0-EE83-49B6-AF2E-FA541AB2D0A7}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{01DC2308-9C99-4EEE-82DB-DC6B48F1F8E3}" name="N°" dataDxfId="103"/>
-    <tableColumn id="2" xr3:uid="{F3B4997E-B2A4-4EB5-AF03-1C32EC201E29}" name="Tema Investigación " dataDxfId="102"/>
-    <tableColumn id="3" xr3:uid="{2ED8CCEC-CAF8-463E-AB90-B3689E282F52}" name="Responsables " dataDxfId="101"/>
-    <tableColumn id="5" xr3:uid="{A45DAC7C-0BE8-484E-8902-C84794C6E4E6}" name="Fecha inicio" dataDxfId="100"/>
+    <tableColumn id="1" xr3:uid="{01DC2308-9C99-4EEE-82DB-DC6B48F1F8E3}" name="N°" dataDxfId="106"/>
+    <tableColumn id="2" xr3:uid="{F3B4997E-B2A4-4EB5-AF03-1C32EC201E29}" name="Tema Investigación " dataDxfId="105"/>
+    <tableColumn id="3" xr3:uid="{2ED8CCEC-CAF8-463E-AB90-B3689E282F52}" name="Responsables " dataDxfId="104"/>
+    <tableColumn id="5" xr3:uid="{A45DAC7C-0BE8-484E-8902-C84794C6E4E6}" name="Fecha inicio" dataDxfId="103"/>
     <tableColumn id="4" xr3:uid="{1DFD24D3-150A-4A18-8D2B-471C5E615C4A}" name="Estado"/>
-    <tableColumn id="7" xr3:uid="{A5E888F3-954C-4454-ABBF-0CB322AC2892}" name="Fecha Termino" dataDxfId="99"/>
-    <tableColumn id="8" xr3:uid="{DC2FD273-C50C-4DC5-BCAE-F4707F0CC4FD}" name="Chile" dataDxfId="98"/>
-    <tableColumn id="9" xr3:uid="{DC0F9138-A833-4513-8446-6D9A0BE8DC03}" name="Panamá " dataDxfId="97"/>
-    <tableColumn id="10" xr3:uid="{1C354151-0542-4839-A312-82A4762672B3}" name="Guatemala" dataDxfId="96"/>
-    <tableColumn id="11" xr3:uid="{B44F5A38-555A-4E07-BD14-45F877391CC6}" name="Honduras" dataDxfId="95"/>
-    <tableColumn id="12" xr3:uid="{E43EB3EC-0D6D-42B8-A156-EA2EF365B7B3}" name="El Salvador" dataDxfId="94"/>
-    <tableColumn id="6" xr3:uid="{9ED27B35-B472-416C-B394-C3447A132041}" name="Link 1" dataDxfId="93"/>
-    <tableColumn id="13" xr3:uid="{0813E4B9-E868-4B0E-A181-67DEE49699BC}" name="Link 2" dataDxfId="92"/>
+    <tableColumn id="7" xr3:uid="{A5E888F3-954C-4454-ABBF-0CB322AC2892}" name="Fecha Termino" dataDxfId="102"/>
+    <tableColumn id="8" xr3:uid="{DC2FD273-C50C-4DC5-BCAE-F4707F0CC4FD}" name="Chile" dataDxfId="101"/>
+    <tableColumn id="9" xr3:uid="{DC0F9138-A833-4513-8446-6D9A0BE8DC03}" name="Panamá " dataDxfId="100"/>
+    <tableColumn id="10" xr3:uid="{1C354151-0542-4839-A312-82A4762672B3}" name="Guatemala" dataDxfId="99"/>
+    <tableColumn id="11" xr3:uid="{B44F5A38-555A-4E07-BD14-45F877391CC6}" name="Honduras" dataDxfId="98"/>
+    <tableColumn id="12" xr3:uid="{E43EB3EC-0D6D-42B8-A156-EA2EF365B7B3}" name="El Salvador" dataDxfId="97"/>
+    <tableColumn id="6" xr3:uid="{9ED27B35-B472-416C-B394-C3447A132041}" name="Link 1" dataDxfId="96"/>
+    <tableColumn id="13" xr3:uid="{0813E4B9-E868-4B0E-A181-67DEE49699BC}" name="Link 2" dataDxfId="95"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{E94DB916-DE89-4F64-9EF8-AFB72BA8FF61}" name="Tabla14" displayName="Tabla14" ref="A12:I89" totalsRowShown="0" headerRowDxfId="91" dataDxfId="90">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{E94DB916-DE89-4F64-9EF8-AFB72BA8FF61}" name="Tabla14" displayName="Tabla14" ref="A12:I89" totalsRowShown="0" headerRowDxfId="94" dataDxfId="93">
   <autoFilter ref="A12:I89" xr:uid="{14629A1E-D5D5-412C-8FAB-488411430C85}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{7299EEE0-40CF-4EF5-8F0C-C1FFA863E5B5}" name="N°" dataDxfId="89"/>
-    <tableColumn id="2" xr3:uid="{9E84EC16-0161-44D0-9CB9-123C0428ADAD}" name="Tema/institución Investigación " dataDxfId="88"/>
-    <tableColumn id="3" xr3:uid="{76853A8B-3945-4590-AB61-F2892D4BDEF9}" name="Responsable" dataDxfId="87"/>
-    <tableColumn id="5" xr3:uid="{F7339DE0-8C86-4469-9258-ED935FDEFA77}" name="Fecha inicio" dataDxfId="86"/>
-    <tableColumn id="6" xr3:uid="{1434B0D6-C669-403A-970D-962B797CA9A9}" name="Fecha avance" dataDxfId="85"/>
-    <tableColumn id="7" xr3:uid="{B968D1D9-84E8-493C-9491-88D890E8453F}" name="Fecha Termino" dataDxfId="84"/>
-    <tableColumn id="8" xr3:uid="{914D3775-FE9D-4F06-9643-2FF0DC094A44}" name="Comentario" dataDxfId="83"/>
-    <tableColumn id="4" xr3:uid="{447DB363-0F58-4053-9903-C5B73E99B8F7}" name="Acción" dataDxfId="82"/>
-    <tableColumn id="9" xr3:uid="{FAD7DF30-EA13-48D4-85BE-33B82685C836}" name="Seguimiento" dataDxfId="81"/>
+    <tableColumn id="1" xr3:uid="{7299EEE0-40CF-4EF5-8F0C-C1FFA863E5B5}" name="N°" dataDxfId="92"/>
+    <tableColumn id="2" xr3:uid="{9E84EC16-0161-44D0-9CB9-123C0428ADAD}" name="Tema/institución Investigación " dataDxfId="91"/>
+    <tableColumn id="3" xr3:uid="{76853A8B-3945-4590-AB61-F2892D4BDEF9}" name="Responsable" dataDxfId="90"/>
+    <tableColumn id="5" xr3:uid="{F7339DE0-8C86-4469-9258-ED935FDEFA77}" name="Fecha inicio" dataDxfId="89"/>
+    <tableColumn id="6" xr3:uid="{1434B0D6-C669-403A-970D-962B797CA9A9}" name="Fecha avance" dataDxfId="88"/>
+    <tableColumn id="7" xr3:uid="{B968D1D9-84E8-493C-9491-88D890E8453F}" name="Fecha Termino" dataDxfId="87"/>
+    <tableColumn id="8" xr3:uid="{914D3775-FE9D-4F06-9643-2FF0DC094A44}" name="Comentario" dataDxfId="86"/>
+    <tableColumn id="4" xr3:uid="{447DB363-0F58-4053-9903-C5B73E99B8F7}" name="Acción" dataDxfId="85"/>
+    <tableColumn id="9" xr3:uid="{FAD7DF30-EA13-48D4-85BE-33B82685C836}" name="Seguimiento" dataDxfId="84"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{065B9CF9-E4C7-46B6-A6AB-AE4727F44BAE}" name="DETALLE_PRODUCTO" displayName="DETALLE_PRODUCTO" ref="B8:L88" totalsRowShown="0" headerRowDxfId="80" dataDxfId="79">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{065B9CF9-E4C7-46B6-A6AB-AE4727F44BAE}" name="DETALLE_PRODUCTO" displayName="DETALLE_PRODUCTO" ref="B8:L88" totalsRowShown="0" headerRowDxfId="83" dataDxfId="82">
   <autoFilter ref="B8:L88" xr:uid="{B19E98DB-D5A2-4B79-98FB-79403A46B576}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{53D02E25-6272-402F-ABD7-44B8E0C71D87}" name="Data" dataDxfId="78"/>
-    <tableColumn id="8" xr3:uid="{EC4D90DB-631D-4228-A704-DD698C8FDA74}" name="id_producto" dataDxfId="77"/>
-    <tableColumn id="2" xr3:uid="{8BB7EEC5-6570-41F8-9A07-5AAEA8522606}" name="Plazo Producto" dataDxfId="76"/>
-    <tableColumn id="3" xr3:uid="{8CB3D480-A20D-43D6-A036-A52F2B756492}" name="Producto" dataDxfId="75"/>
-    <tableColumn id="4" xr3:uid="{A37F897B-BDC4-49DB-9D73-0B585928FBCF}" name="Secciones" dataDxfId="74"/>
-    <tableColumn id="5" xr3:uid="{52913CC1-5A92-42A3-9DE0-3B6AB5FF68D3}" name="Sub-secciones" dataDxfId="73"/>
-    <tableColumn id="6" xr3:uid="{AA418FB7-7169-4105-9A7B-952204D6B07D}" name="Variables" dataDxfId="72"/>
-    <tableColumn id="7" xr3:uid="{9CFF7943-E7AB-407C-A8B2-A61784C0D377}" name="Fuente" dataDxfId="71"/>
-    <tableColumn id="9" xr3:uid="{E0A15B94-D546-4F86-877E-4ECCBE8390C9}" name="Situación Variable" dataDxfId="70"/>
-    <tableColumn id="10" xr3:uid="{766CAFFF-49CC-4F0A-A3FA-AA09276E3B90}" name="Fecha Actualización" dataDxfId="69"/>
-    <tableColumn id="11" xr3:uid="{8FEDBB30-0CE4-44B9-B885-55B24F35F89F}" name="Observaciones" dataDxfId="68"/>
+    <tableColumn id="1" xr3:uid="{53D02E25-6272-402F-ABD7-44B8E0C71D87}" name="Data" dataDxfId="81"/>
+    <tableColumn id="8" xr3:uid="{EC4D90DB-631D-4228-A704-DD698C8FDA74}" name="id_producto" dataDxfId="80"/>
+    <tableColumn id="2" xr3:uid="{8BB7EEC5-6570-41F8-9A07-5AAEA8522606}" name="Plazo Producto" dataDxfId="79"/>
+    <tableColumn id="3" xr3:uid="{8CB3D480-A20D-43D6-A036-A52F2B756492}" name="Producto" dataDxfId="78"/>
+    <tableColumn id="4" xr3:uid="{A37F897B-BDC4-49DB-9D73-0B585928FBCF}" name="Secciones" dataDxfId="77"/>
+    <tableColumn id="5" xr3:uid="{52913CC1-5A92-42A3-9DE0-3B6AB5FF68D3}" name="Sub-secciones" dataDxfId="76"/>
+    <tableColumn id="6" xr3:uid="{AA418FB7-7169-4105-9A7B-952204D6B07D}" name="Variables" dataDxfId="75"/>
+    <tableColumn id="7" xr3:uid="{9CFF7943-E7AB-407C-A8B2-A61784C0D377}" name="Fuente" dataDxfId="74"/>
+    <tableColumn id="9" xr3:uid="{E0A15B94-D546-4F86-877E-4ECCBE8390C9}" name="Situación Variable" dataDxfId="73"/>
+    <tableColumn id="10" xr3:uid="{766CAFFF-49CC-4F0A-A3FA-AA09276E3B90}" name="Fecha Actualización" dataDxfId="72"/>
+    <tableColumn id="11" xr3:uid="{8FEDBB30-0CE4-44B9-B885-55B24F35F89F}" name="Observaciones" dataDxfId="71"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{8903E000-6268-4700-8DED-A61277FDDF6A}" name="SHOPIFY" displayName="SHOPIFY" ref="A7:AX82" totalsRowShown="0" headerRowDxfId="67">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{8903E000-6268-4700-8DED-A61277FDDF6A}" name="SHOPIFY" displayName="SHOPIFY" ref="A7:AX82" totalsRowShown="0" headerRowDxfId="70">
   <autoFilter ref="A7:AX82" xr:uid="{8E7BE500-FD82-4AF8-9786-CF4905281DB3}"/>
   <tableColumns count="50">
-    <tableColumn id="1" xr3:uid="{97B30EC8-C107-4A29-BFE9-64B671A010DD}" name="id_data" dataDxfId="66">
+    <tableColumn id="1" xr3:uid="{97B30EC8-C107-4A29-BFE9-64B671A010DD}" name="id_data" dataDxfId="69">
       <calculatedColumnFormula>PRODUCTOS[[#This Row],[id_data]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{D4210DF6-B71C-4CEA-B273-A001CC99D71D}" name="Corr_Producto" dataDxfId="65"/>
-    <tableColumn id="3" xr3:uid="{3A3C3A45-DC12-420E-B4A9-B6FC4AB09680}" name="Data" dataDxfId="64"/>
-    <tableColumn id="4" xr3:uid="{F589E312-6F04-441B-BD92-57D8AF605B91}" name="id_producto" dataDxfId="63">
+    <tableColumn id="2" xr3:uid="{D4210DF6-B71C-4CEA-B273-A001CC99D71D}" name="Corr_Producto" dataDxfId="68"/>
+    <tableColumn id="3" xr3:uid="{3A3C3A45-DC12-420E-B4A9-B6FC4AB09680}" name="Data" dataDxfId="67"/>
+    <tableColumn id="4" xr3:uid="{F589E312-6F04-441B-BD92-57D8AF605B91}" name="id_producto" dataDxfId="66">
       <calculatedColumnFormula>+A8&amp;"-"&amp;B8</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{8673061C-EC24-4EF4-81F6-F73CCCED37A8}" name="Producto asociado " dataDxfId="62"/>
-    <tableColumn id="32" xr3:uid="{BB6CBD3F-A1DC-4006-8ED6-2EDD0372776F}" name="Nombre comercial" dataDxfId="61">
+    <tableColumn id="5" xr3:uid="{8673061C-EC24-4EF4-81F6-F73CCCED37A8}" name="Producto asociado " dataDxfId="65"/>
+    <tableColumn id="32" xr3:uid="{BB6CBD3F-A1DC-4006-8ED6-2EDD0372776F}" name="Nombre comercial" dataDxfId="64">
       <calculatedColumnFormula>PRODUCTOS[[#This Row],[Nombre comercial]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="47" xr3:uid="{1BF29101-CC46-4386-87BF-FB5000527CC1}" name="Variante" dataDxfId="60">
+    <tableColumn id="47" xr3:uid="{1BF29101-CC46-4386-87BF-FB5000527CC1}" name="Variante" dataDxfId="63">
       <calculatedColumnFormula>#REF!</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="46" xr3:uid="{971E696E-617D-42F5-AD13-6C98573AB151}" name="Corr_variante" dataDxfId="59">
+    <tableColumn id="46" xr3:uid="{971E696E-617D-42F5-AD13-6C98573AB151}" name="Corr_variante" dataDxfId="62">
       <calculatedColumnFormula>#REF!</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{8623108B-5216-4DE8-A078-C2EA5007B662}" name="id_prod_var" dataDxfId="58">
+    <tableColumn id="20" xr3:uid="{8623108B-5216-4DE8-A078-C2EA5007B662}" name="id_prod_var" dataDxfId="61">
       <calculatedColumnFormula>#REF!</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{F158BFCF-29BB-4A21-85DD-EC1A577268A9}" name="Estado" dataDxfId="57"/>
-    <tableColumn id="21" xr3:uid="{F5606F96-2B4C-4028-BAFD-98E68F248BB6}" name="Avance" dataDxfId="56" dataCellStyle="Porcentaje"/>
-    <tableColumn id="7" xr3:uid="{F996455F-A80C-45DE-824E-AA15DC67B89F}" name="Responsable Desarrollo" dataDxfId="55">
+    <tableColumn id="6" xr3:uid="{F158BFCF-29BB-4A21-85DD-EC1A577268A9}" name="Estado" dataDxfId="60"/>
+    <tableColumn id="21" xr3:uid="{F5606F96-2B4C-4028-BAFD-98E68F248BB6}" name="Avance" dataDxfId="59" dataCellStyle="Porcentaje"/>
+    <tableColumn id="7" xr3:uid="{F996455F-A80C-45DE-824E-AA15DC67B89F}" name="Responsable Desarrollo" dataDxfId="58">
       <calculatedColumnFormula>PRODUCTOS[[#This Row],[Responsable Desarrollo]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{8243748E-EFCB-4AEF-AE13-DEB22DE5398A}" name="Responsable Información" dataDxfId="54">
+    <tableColumn id="8" xr3:uid="{8243748E-EFCB-4AEF-AE13-DEB22DE5398A}" name="Responsable Información" dataDxfId="57">
       <calculatedColumnFormula>PRODUCTOS[[#This Row],[Responsable Información]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{1B0EF15B-CCC6-4071-9C39-986D237DCBFD}" name="PORTADA SHOPIFY" dataDxfId="53"/>
-    <tableColumn id="25" xr3:uid="{DE283954-0E54-4788-A6B7-64B3FABE5655}" name="Párrafo enganche" dataDxfId="52"/>
-    <tableColumn id="31" xr3:uid="{69B5166B-7DB7-4B2A-BDDB-51BC1CDC9E13}" name="Variante_1" dataDxfId="51"/>
-    <tableColumn id="30" xr3:uid="{FD2BFBD3-7364-4A40-82AD-5ED8F1EC60C8}" name="Precio_1" dataDxfId="50"/>
-    <tableColumn id="27" xr3:uid="{7BAA5845-FEF8-4AF0-A034-4502EA6425FB}" name="Variante_2" dataDxfId="49"/>
-    <tableColumn id="26" xr3:uid="{055AC0B8-B715-4865-A615-F93F51BDB937}" name="Precio_2" dataDxfId="48"/>
-    <tableColumn id="34" xr3:uid="{E986E95A-C830-4C89-88DC-A69F64460E34}" name="Variante_3" dataDxfId="47"/>
-    <tableColumn id="33" xr3:uid="{15105E85-D580-466D-8DEA-A21111029F6E}" name="Precio_3" dataDxfId="46"/>
-    <tableColumn id="50" xr3:uid="{86C9CDBF-0B44-4420-A48E-6FF93F44FE71}" name="Variable_filtro1" dataDxfId="45"/>
-    <tableColumn id="49" xr3:uid="{29F0FFEC-DA2B-4599-9D83-29AA5C05A4F0}" name="Variable_filtro2" dataDxfId="44"/>
-    <tableColumn id="48" xr3:uid="{4B1206D9-C4A0-496A-A7B2-086AF0122968}" name="Variable_filtro3" dataDxfId="43"/>
-    <tableColumn id="9" xr3:uid="{EE306381-1575-4475-A9CE-5592A93932BB}" name="Descripción (Indicar qué permite ver o hacer el producto) " dataDxfId="42"/>
-    <tableColumn id="35" xr3:uid="{C39FDC20-ABE5-4151-B056-F4B5E12D47DD}" name="CAR_Tipo_Prod" dataDxfId="41"/>
-    <tableColumn id="36" xr3:uid="{C8D4ECC0-DE7A-41BF-A6E9-9964E26F4261}" name="CAR_Var1_Disponible" dataDxfId="40"/>
-    <tableColumn id="39" xr3:uid="{87F44B21-0148-4ECE-9BC5-6D8A4C1030F3}" name="CAR_Periodo" dataDxfId="39"/>
-    <tableColumn id="37" xr3:uid="{DB23C32C-B4CE-4982-8D0A-F32C01C6CF98}" name="CAR_Proveedor" dataDxfId="38"/>
-    <tableColumn id="38" xr3:uid="{887C31F6-B5D9-48A2-AC60-3BBFDA8C2D93}" name="CAR_Colección" dataDxfId="37">
+    <tableColumn id="19" xr3:uid="{1B0EF15B-CCC6-4071-9C39-986D237DCBFD}" name="PORTADA SHOPIFY" dataDxfId="56"/>
+    <tableColumn id="25" xr3:uid="{DE283954-0E54-4788-A6B7-64B3FABE5655}" name="Párrafo enganche" dataDxfId="55"/>
+    <tableColumn id="31" xr3:uid="{69B5166B-7DB7-4B2A-BDDB-51BC1CDC9E13}" name="Variante_1" dataDxfId="54"/>
+    <tableColumn id="30" xr3:uid="{FD2BFBD3-7364-4A40-82AD-5ED8F1EC60C8}" name="Precio_1" dataDxfId="53"/>
+    <tableColumn id="27" xr3:uid="{7BAA5845-FEF8-4AF0-A034-4502EA6425FB}" name="Variante_2" dataDxfId="52"/>
+    <tableColumn id="26" xr3:uid="{055AC0B8-B715-4865-A615-F93F51BDB937}" name="Precio_2" dataDxfId="51"/>
+    <tableColumn id="34" xr3:uid="{E986E95A-C830-4C89-88DC-A69F64460E34}" name="Variante_3" dataDxfId="50"/>
+    <tableColumn id="33" xr3:uid="{15105E85-D580-466D-8DEA-A21111029F6E}" name="Precio_3" dataDxfId="49"/>
+    <tableColumn id="50" xr3:uid="{86C9CDBF-0B44-4420-A48E-6FF93F44FE71}" name="Variable_filtro1" dataDxfId="48"/>
+    <tableColumn id="49" xr3:uid="{29F0FFEC-DA2B-4599-9D83-29AA5C05A4F0}" name="Variable_filtro2" dataDxfId="47"/>
+    <tableColumn id="48" xr3:uid="{4B1206D9-C4A0-496A-A7B2-086AF0122968}" name="Variable_filtro3" dataDxfId="46"/>
+    <tableColumn id="9" xr3:uid="{EE306381-1575-4475-A9CE-5592A93932BB}" name="Descripción (Indicar qué permite ver o hacer el producto) " dataDxfId="45"/>
+    <tableColumn id="35" xr3:uid="{C39FDC20-ABE5-4151-B056-F4B5E12D47DD}" name="CAR_Tipo_Prod" dataDxfId="44"/>
+    <tableColumn id="36" xr3:uid="{C8D4ECC0-DE7A-41BF-A6E9-9964E26F4261}" name="CAR_Var1_Disponible" dataDxfId="43"/>
+    <tableColumn id="39" xr3:uid="{87F44B21-0148-4ECE-9BC5-6D8A4C1030F3}" name="CAR_Periodo" dataDxfId="42"/>
+    <tableColumn id="37" xr3:uid="{DB23C32C-B4CE-4982-8D0A-F32C01C6CF98}" name="CAR_Proveedor" dataDxfId="41"/>
+    <tableColumn id="38" xr3:uid="{887C31F6-B5D9-48A2-AC60-3BBFDA8C2D93}" name="CAR_Colección" dataDxfId="40">
       <calculatedColumnFormula>SHOPIFY[[#This Row],[Data]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{465FFD71-9838-46F8-96D9-04071B46AADF}" name="ESP_Tecnología" dataDxfId="36">
+    <tableColumn id="10" xr3:uid="{465FFD71-9838-46F8-96D9-04071B46AADF}" name="ESP_Tecnología" dataDxfId="39">
       <calculatedColumnFormula>PRODUCTOS[[#This Row],[Tecnología]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{EC2BE421-D8F5-4218-AF58-90E90B893031}" name="Host " dataDxfId="35"/>
-    <tableColumn id="12" xr3:uid="{E79C574B-B7A1-469C-8F8F-2D0CFAE51341}" name="Link Odoo" dataDxfId="34"/>
-    <tableColumn id="13" xr3:uid="{3809FE9C-54F9-4CF7-B339-2E0041642249}" name="Fecha Publicación" dataDxfId="33"/>
-    <tableColumn id="14" xr3:uid="{F596F3F4-DDEC-4196-A3BB-82BA12090401}" name="País" dataDxfId="32"/>
-    <tableColumn id="15" xr3:uid="{8ABA9F49-20E7-4D44-969F-61983CB570CF}" name="Escala " dataDxfId="31"/>
-    <tableColumn id="16" xr3:uid="{96768B2C-E9AB-4A4C-B2EA-54B345E4B2EE}" name="ESP_Periodo" dataDxfId="30"/>
-    <tableColumn id="40" xr3:uid="{B886925D-5342-4EF0-BEC7-231A532CD384}" name="ESP_Incluye" dataDxfId="29"/>
-    <tableColumn id="41" xr3:uid="{3B13D200-0F79-4222-81F3-6523101D8224}" name="ESP_Uso_Disp." dataDxfId="28"/>
-    <tableColumn id="42" xr3:uid="{36761705-B510-456F-B13C-7C1F1691A844}" name="ESP_Fuentes " dataDxfId="27"/>
-    <tableColumn id="43" xr3:uid="{51F4D077-A0BB-4F59-B19A-FA245554DE68}" name="ACC_Recibirás" dataDxfId="26"/>
-    <tableColumn id="44" xr3:uid="{5291A2DA-9FCC-47E6-8092-612F754EE474}" name="ACC_Licencia_uso" dataDxfId="25"/>
-    <tableColumn id="17" xr3:uid="{77D650B5-1F6E-4D9B-91EE-AFD5F57BC1C1}" name="ACC_Actualizaciones" dataDxfId="24"/>
-    <tableColumn id="45" xr3:uid="{9AD5E5EE-A8BD-4739-AE89-A1B8EC4723F5}" name="ACC_N°_usuarios" dataDxfId="23"/>
-    <tableColumn id="18" xr3:uid="{AC3AE441-67FC-4118-9DEB-4484BC70FA5A}" name="Etiquetas" dataDxfId="22"/>
-    <tableColumn id="22" xr3:uid="{0EAB21ED-E5E2-4B44-8E8C-DA03632B81CB}" name="Vistas" dataDxfId="21"/>
+    <tableColumn id="11" xr3:uid="{EC2BE421-D8F5-4218-AF58-90E90B893031}" name="Host " dataDxfId="38"/>
+    <tableColumn id="12" xr3:uid="{E79C574B-B7A1-469C-8F8F-2D0CFAE51341}" name="Link Odoo" dataDxfId="37"/>
+    <tableColumn id="13" xr3:uid="{3809FE9C-54F9-4CF7-B339-2E0041642249}" name="Fecha Publicación" dataDxfId="36"/>
+    <tableColumn id="14" xr3:uid="{F596F3F4-DDEC-4196-A3BB-82BA12090401}" name="País" dataDxfId="35"/>
+    <tableColumn id="15" xr3:uid="{8ABA9F49-20E7-4D44-969F-61983CB570CF}" name="Escala " dataDxfId="34"/>
+    <tableColumn id="16" xr3:uid="{96768B2C-E9AB-4A4C-B2EA-54B345E4B2EE}" name="ESP_Periodo" dataDxfId="33"/>
+    <tableColumn id="40" xr3:uid="{B886925D-5342-4EF0-BEC7-231A532CD384}" name="ESP_Incluye" dataDxfId="32"/>
+    <tableColumn id="41" xr3:uid="{3B13D200-0F79-4222-81F3-6523101D8224}" name="ESP_Uso_Disp." dataDxfId="31"/>
+    <tableColumn id="42" xr3:uid="{36761705-B510-456F-B13C-7C1F1691A844}" name="ESP_Fuentes " dataDxfId="30"/>
+    <tableColumn id="43" xr3:uid="{51F4D077-A0BB-4F59-B19A-FA245554DE68}" name="ACC_Recibirás" dataDxfId="29"/>
+    <tableColumn id="44" xr3:uid="{5291A2DA-9FCC-47E6-8092-612F754EE474}" name="ACC_Licencia_uso" dataDxfId="28"/>
+    <tableColumn id="17" xr3:uid="{77D650B5-1F6E-4D9B-91EE-AFD5F57BC1C1}" name="ACC_Actualizaciones" dataDxfId="27"/>
+    <tableColumn id="45" xr3:uid="{9AD5E5EE-A8BD-4739-AE89-A1B8EC4723F5}" name="ACC_N°_usuarios" dataDxfId="26"/>
+    <tableColumn id="18" xr3:uid="{AC3AE441-67FC-4118-9DEB-4484BC70FA5A}" name="Etiquetas" dataDxfId="25"/>
+    <tableColumn id="22" xr3:uid="{0EAB21ED-E5E2-4B44-8E8C-DA03632B81CB}" name="Vistas" dataDxfId="24"/>
     <tableColumn id="23" xr3:uid="{4146A4AA-B422-4A23-AFC0-891AE3F78FEE}" name="Repositorio Dropbox"/>
     <tableColumn id="24" xr3:uid="{44B7EB22-51ED-4A59-9AAA-14197F95E149}" name="Link Logo"/>
-    <tableColumn id="28" xr3:uid="{4352BE36-B76B-41FB-8592-7009FF2F8409}" name="Observaciones" dataDxfId="20"/>
-    <tableColumn id="29" xr3:uid="{2127F871-F5E7-448D-8C26-8CF290798729}" name="Miniatura" dataDxfId="19"/>
+    <tableColumn id="28" xr3:uid="{4352BE36-B76B-41FB-8592-7009FF2F8409}" name="Observaciones" dataDxfId="23"/>
+    <tableColumn id="29" xr3:uid="{2127F871-F5E7-448D-8C26-8CF290798729}" name="Miniatura" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -12496,10 +12525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{167569FB-0D63-486E-90FA-C6B113AE5A31}">
-  <dimension ref="B5:K33"/>
+  <dimension ref="B5:K34"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView showGridLines="0" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12536,7 +12565,7 @@
         <v>33</v>
       </c>
       <c r="H7" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="I7" s="8" t="s">
         <v>171</v>
@@ -12565,7 +12594,7 @@
         <v>98</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="3" t="s">
@@ -12595,7 +12624,7 @@
         <v>99</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="46" t="s">
@@ -12625,7 +12654,7 @@
         <v>123</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="46" t="s">
@@ -12655,7 +12684,7 @@
         <v>125</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="46" t="s">
@@ -12685,7 +12714,7 @@
         <v>131</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="46" t="s">
@@ -12715,7 +12744,7 @@
         <v>127</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="3" t="s">
@@ -12743,7 +12772,7 @@
         <v>95</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="3" t="s">
@@ -12773,7 +12802,7 @@
         <v>164</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>1488</v>
+        <v>1486</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="3" t="s">
@@ -12803,7 +12832,7 @@
         <v>170</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="3" t="s">
@@ -12831,10 +12860,10 @@
         <v>169</v>
       </c>
       <c r="G17" s="99" t="s">
-        <v>1492</v>
+        <v>1490</v>
       </c>
       <c r="H17" s="134" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="I17" s="46" t="s">
         <v>179</v>
@@ -12863,7 +12892,7 @@
         <v>95</v>
       </c>
       <c r="G18" s="176" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="46" t="s">
@@ -12893,7 +12922,7 @@
         <v>139</v>
       </c>
       <c r="G19" s="136" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="H19" s="7"/>
       <c r="I19" s="46" t="s">
@@ -12923,7 +12952,7 @@
         <v>129</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="3" t="s">
@@ -12951,7 +12980,7 @@
         <v>164</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>1487</v>
+        <v>1485</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="3" t="s">
@@ -12979,7 +13008,7 @@
         <v>165</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>1489</v>
+        <v>1487</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="3" t="s">
@@ -13009,7 +13038,7 @@
         <v>93</v>
       </c>
       <c r="G23" s="176" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="46" t="s">
@@ -13039,7 +13068,7 @@
         <v>164</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="3" t="s">
@@ -13069,7 +13098,7 @@
         <v>170</v>
       </c>
       <c r="G25" s="99" t="s">
-        <v>1490</v>
+        <v>1488</v>
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="3" t="s">
@@ -13099,7 +13128,7 @@
         <v>125</v>
       </c>
       <c r="G26" s="132" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>176</v>
@@ -13124,7 +13153,7 @@
         <v>127</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="3"/>
@@ -13144,7 +13173,7 @@
         <v>127</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>1493</v>
+        <v>1491</v>
       </c>
       <c r="H28" s="134"/>
       <c r="I28" s="3"/>
@@ -13168,10 +13197,10 @@
       <c r="K29" s="3"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="180" t="s">
         <v>830</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="181" t="s">
         <v>941</v>
       </c>
       <c r="D30" s="39"/>
@@ -13184,10 +13213,10 @@
       <c r="K30" s="3"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="180" t="s">
         <v>848</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="181" t="s">
         <v>942</v>
       </c>
       <c r="D31" s="39"/>
@@ -13200,10 +13229,10 @@
       <c r="K31" s="3"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="180" t="s">
         <v>1099</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="181" t="s">
         <v>943</v>
       </c>
       <c r="D32" s="39" t="s">
@@ -13219,7 +13248,7 @@
     </row>
     <row r="33" spans="2:11" ht="102.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B33" s="1" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>1098</v>
@@ -13228,12 +13257,28 @@
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
       <c r="G33" s="132" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B34" s="180" t="s">
+        <v>1513</v>
+      </c>
+      <c r="C34" s="181" t="s">
+        <v>1514</v>
+      </c>
+      <c r="D34" s="39"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -13581,7 +13626,7 @@
       </c>
       <c r="F24" s="60"/>
       <c r="G24" s="53" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="H24" s="61"/>
     </row>
@@ -13603,7 +13648,7 @@
       </c>
       <c r="F25" s="60"/>
       <c r="G25" s="53" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="H25" s="61"/>
     </row>
@@ -13625,7 +13670,7 @@
       </c>
       <c r="F26" s="60"/>
       <c r="G26" s="53" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="H26" s="61"/>
     </row>
@@ -13647,10 +13692,10 @@
       </c>
       <c r="F27" s="60"/>
       <c r="G27" s="53" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
       <c r="H27" s="157" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="28" spans="1:8" s="56" customFormat="1" x14ac:dyDescent="0.3">
@@ -13671,7 +13716,7 @@
       </c>
       <c r="F28" s="60"/>
       <c r="G28" s="53" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="H28" s="110"/>
     </row>
@@ -13693,7 +13738,7 @@
       </c>
       <c r="F29" s="60"/>
       <c r="G29" s="53" t="s">
-        <v>1494</v>
+        <v>1492</v>
       </c>
       <c r="H29" s="110"/>
     </row>
@@ -13928,7 +13973,7 @@
       </c>
       <c r="F39" s="67"/>
       <c r="G39" s="110" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="H39" s="61"/>
       <c r="I39" s="68"/>
@@ -13951,7 +13996,7 @@
       </c>
       <c r="F40" s="67"/>
       <c r="G40" s="53" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
       <c r="H40" s="110"/>
       <c r="I40" s="68"/>
@@ -14073,7 +14118,7 @@
       </c>
       <c r="F45" s="60"/>
       <c r="G45" s="53" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
       <c r="H45" s="61"/>
     </row>
@@ -14095,7 +14140,7 @@
       </c>
       <c r="F46" s="60"/>
       <c r="G46" s="156" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
       <c r="H46" s="61"/>
     </row>
@@ -14445,7 +14490,7 @@
         <v>1015</v>
       </c>
       <c r="I61" s="47" t="s">
-        <v>1502</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="24" x14ac:dyDescent="0.3">
@@ -14472,7 +14517,7 @@
         <v>1015</v>
       </c>
       <c r="I62" s="47" t="s">
-        <v>1502</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
@@ -14515,7 +14560,7 @@
       </c>
       <c r="F64" s="76"/>
       <c r="G64" s="53" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
       <c r="H64" s="155"/>
     </row>
@@ -14537,7 +14582,7 @@
       </c>
       <c r="F65" s="76"/>
       <c r="G65" s="55" t="s">
-        <v>1497</v>
+        <v>1495</v>
       </c>
       <c r="H65" s="155"/>
     </row>
@@ -14559,10 +14604,10 @@
       </c>
       <c r="F66" s="76"/>
       <c r="G66" s="55" t="s">
-        <v>1498</v>
+        <v>1496</v>
       </c>
       <c r="H66" s="155" t="s">
-        <v>1499</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="26" x14ac:dyDescent="0.3">
@@ -14583,7 +14628,7 @@
       </c>
       <c r="F67" s="76"/>
       <c r="G67" s="55" t="s">
-        <v>1501</v>
+        <v>1499</v>
       </c>
       <c r="H67" s="155"/>
     </row>
@@ -14688,7 +14733,7 @@
         <v>1015</v>
       </c>
       <c r="I72" s="47" t="s">
-        <v>1502</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="65" x14ac:dyDescent="0.3">
@@ -14709,7 +14754,7 @@
       </c>
       <c r="F73" s="52"/>
       <c r="G73" s="55" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
       <c r="H73" s="155"/>
     </row>
@@ -14731,7 +14776,7 @@
       </c>
       <c r="F74" s="52"/>
       <c r="G74" s="177" t="s">
-        <v>1495</v>
+        <v>1493</v>
       </c>
       <c r="H74" s="155"/>
     </row>
@@ -14753,7 +14798,7 @@
       </c>
       <c r="F75" s="52"/>
       <c r="G75" s="55" t="s">
-        <v>1500</v>
+        <v>1498</v>
       </c>
       <c r="H75" s="155"/>
     </row>
@@ -14775,7 +14820,7 @@
       </c>
       <c r="F76" s="52"/>
       <c r="G76" s="177" t="s">
-        <v>1496</v>
+        <v>1494</v>
       </c>
       <c r="H76" s="155"/>
     </row>
@@ -15001,7 +15046,7 @@
       </c>
       <c r="F87" s="52"/>
       <c r="G87" s="53" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
       <c r="H87" s="54"/>
     </row>
@@ -15023,7 +15068,7 @@
       </c>
       <c r="F88" s="52"/>
       <c r="G88" s="163" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
       <c r="H88" s="54"/>
     </row>
@@ -15045,7 +15090,7 @@
       </c>
       <c r="F89" s="52"/>
       <c r="G89" s="53" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="H89" s="54"/>
     </row>
@@ -16123,7 +16168,7 @@
         <v>530</v>
       </c>
       <c r="I39" s="19" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="J39" s="19" t="s">
         <v>741</v>
@@ -22123,7 +22168,7 @@
       </c>
       <c r="K47" s="103">
         <f>PRODUCTOS[[#This Row],[Avance]]</f>
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="L47" s="7">
         <f>PRODUCTOS[[#This Row],[Responsable Desarrollo]]</f>
@@ -25813,12 +25858,12 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="B11:R117"/>
+  <dimension ref="B11:U117"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="11" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I8" sqref="I8"/>
-      <selection pane="bottomLeft" activeCell="M17" sqref="M17"/>
+      <selection pane="bottomLeft" activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -25835,13 +25880,14 @@
     <col min="11" max="11" width="12.81640625" customWidth="1"/>
     <col min="12" max="12" width="12.453125" customWidth="1"/>
     <col min="13" max="13" width="14.90625" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="35.90625" customWidth="1"/>
-    <col min="16" max="16" width="14.90625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.1796875" customWidth="1"/>
-    <col min="18" max="18" width="12.08984375" customWidth="1"/>
+    <col min="14" max="14" width="35.90625" customWidth="1"/>
+    <col min="15" max="15" width="7.54296875" customWidth="1"/>
+    <col min="16" max="19" width="10.453125" customWidth="1"/>
+    <col min="20" max="20" width="9.1796875" customWidth="1"/>
+    <col min="21" max="21" width="12.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="11" spans="2:18" ht="39" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:21" ht="39" x14ac:dyDescent="0.35">
       <c r="B11" s="30" t="s">
         <v>31</v>
       </c>
@@ -25881,20 +25927,29 @@
       <c r="N11" s="30" t="s">
         <v>747</v>
       </c>
-      <c r="O11" s="32" t="s">
+      <c r="O11" s="179" t="s">
+        <v>1507</v>
+      </c>
+      <c r="P11" s="179" t="s">
+        <v>1508</v>
+      </c>
+      <c r="Q11" s="179" t="s">
         <v>1509</v>
       </c>
-      <c r="P11" s="32" t="s">
+      <c r="R11" s="179" t="s">
+        <v>1348</v>
+      </c>
+      <c r="S11" s="179" t="s">
         <v>1510</v>
       </c>
-      <c r="Q11" s="32" t="s">
+      <c r="T11" s="32" t="s">
         <v>748</v>
       </c>
-      <c r="R11" s="32" t="s">
+      <c r="U11" s="32" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="12" spans="2:18" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:21" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B12" s="27" t="s">
         <v>5</v>
       </c>
@@ -25934,15 +25989,16 @@
         <v>801</v>
       </c>
       <c r="O12" s="24"/>
-      <c r="P12" s="26" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q12" s="28"/>
-      <c r="R12" s="28">
+      <c r="P12" s="24"/>
+      <c r="Q12" s="24"/>
+      <c r="R12" s="24"/>
+      <c r="S12" s="24"/>
+      <c r="T12" s="28"/>
+      <c r="U12" s="28">
         <v>44133</v>
       </c>
     </row>
-    <row r="13" spans="2:18" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:21" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B13" s="27" t="s">
         <v>5</v>
       </c>
@@ -25982,15 +26038,16 @@
         <v>801</v>
       </c>
       <c r="O13" s="24"/>
-      <c r="P13" s="26" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q13" s="28"/>
-      <c r="R13" s="28">
+      <c r="P13" s="24"/>
+      <c r="Q13" s="24"/>
+      <c r="R13" s="24"/>
+      <c r="S13" s="24"/>
+      <c r="T13" s="28"/>
+      <c r="U13" s="28">
         <v>44133</v>
       </c>
     </row>
-    <row r="14" spans="2:18" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:21" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B14" s="27" t="s">
         <v>5</v>
       </c>
@@ -26030,15 +26087,16 @@
         <v>801</v>
       </c>
       <c r="O14" s="24"/>
-      <c r="P14" s="26" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q14" s="28"/>
-      <c r="R14" s="28">
+      <c r="P14" s="24"/>
+      <c r="Q14" s="24"/>
+      <c r="R14" s="24"/>
+      <c r="S14" s="24"/>
+      <c r="T14" s="28"/>
+      <c r="U14" s="28">
         <v>44133</v>
       </c>
     </row>
-    <row r="15" spans="2:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="B15" s="27" t="s">
         <v>5</v>
       </c>
@@ -26076,15 +26134,16 @@
         <v>800</v>
       </c>
       <c r="O15" s="24"/>
-      <c r="P15" s="26" t="s">
-        <v>753</v>
-      </c>
-      <c r="Q15" s="28"/>
-      <c r="R15" s="28">
+      <c r="P15" s="24"/>
+      <c r="Q15" s="24"/>
+      <c r="R15" s="24"/>
+      <c r="S15" s="24"/>
+      <c r="T15" s="28"/>
+      <c r="U15" s="28">
         <v>44133</v>
       </c>
     </row>
-    <row r="16" spans="2:18" ht="20.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:21" ht="20.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="27" t="s">
         <v>5</v>
       </c>
@@ -26124,15 +26183,16 @@
         <v>802</v>
       </c>
       <c r="O16" s="24"/>
-      <c r="P16" s="26" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q16" s="28"/>
-      <c r="R16" s="28">
+      <c r="P16" s="24"/>
+      <c r="Q16" s="24"/>
+      <c r="R16" s="24"/>
+      <c r="S16" s="24"/>
+      <c r="T16" s="28"/>
+      <c r="U16" s="28">
         <v>44133</v>
       </c>
     </row>
-    <row r="17" spans="2:18" ht="24" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:21" ht="24" x14ac:dyDescent="0.35">
       <c r="B17" s="27" t="s">
         <v>4</v>
       </c>
@@ -26169,18 +26229,19 @@
         <v>189</v>
       </c>
       <c r="N17" s="24" t="s">
-        <v>1505</v>
+        <v>1503</v>
       </c>
       <c r="O17" s="24"/>
-      <c r="P17" s="26" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q17" s="28"/>
-      <c r="R17" s="28">
+      <c r="P17" s="24"/>
+      <c r="Q17" s="24"/>
+      <c r="R17" s="24"/>
+      <c r="S17" s="24"/>
+      <c r="T17" s="28"/>
+      <c r="U17" s="28">
         <v>44160</v>
       </c>
     </row>
-    <row r="18" spans="2:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="B18" s="27" t="s">
         <v>4</v>
       </c>
@@ -26217,15 +26278,16 @@
         <v>803</v>
       </c>
       <c r="O18" s="24"/>
-      <c r="P18" s="26" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q18" s="28"/>
-      <c r="R18" s="28">
+      <c r="P18" s="24"/>
+      <c r="Q18" s="24"/>
+      <c r="R18" s="24"/>
+      <c r="S18" s="24"/>
+      <c r="T18" s="28"/>
+      <c r="U18" s="28">
         <v>44133</v>
       </c>
     </row>
-    <row r="19" spans="2:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="B19" s="27" t="s">
         <v>4</v>
       </c>
@@ -26262,15 +26324,16 @@
         <v>804</v>
       </c>
       <c r="O19" s="24"/>
-      <c r="P19" s="26" t="s">
-        <v>753</v>
-      </c>
-      <c r="Q19" s="28"/>
-      <c r="R19" s="28">
+      <c r="P19" s="24"/>
+      <c r="Q19" s="24"/>
+      <c r="R19" s="24"/>
+      <c r="S19" s="24"/>
+      <c r="T19" s="28"/>
+      <c r="U19" s="28">
         <v>44133</v>
       </c>
     </row>
-    <row r="20" spans="2:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="B20" s="27" t="s">
         <v>4</v>
       </c>
@@ -26310,15 +26373,16 @@
         <v>805</v>
       </c>
       <c r="O20" s="24"/>
-      <c r="P20" s="26" t="s">
-        <v>753</v>
-      </c>
-      <c r="Q20" s="28"/>
-      <c r="R20" s="28">
+      <c r="P20" s="24"/>
+      <c r="Q20" s="24"/>
+      <c r="R20" s="24"/>
+      <c r="S20" s="24"/>
+      <c r="T20" s="28"/>
+      <c r="U20" s="28">
         <v>44133</v>
       </c>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B21" s="27" t="s">
         <v>18</v>
       </c>
@@ -26358,15 +26422,16 @@
         <v>823</v>
       </c>
       <c r="O21" s="24"/>
-      <c r="P21" s="26" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q21" s="28"/>
-      <c r="R21" s="28">
+      <c r="P21" s="24"/>
+      <c r="Q21" s="24"/>
+      <c r="R21" s="24"/>
+      <c r="S21" s="24"/>
+      <c r="T21" s="28"/>
+      <c r="U21" s="28">
         <v>44133</v>
       </c>
     </row>
-    <row r="22" spans="2:18" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:21" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B22" s="27" t="s">
         <v>18</v>
       </c>
@@ -26403,15 +26468,16 @@
         <v>826</v>
       </c>
       <c r="O22" s="24"/>
-      <c r="P22" s="26" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q22" s="28"/>
-      <c r="R22" s="28">
+      <c r="P22" s="24"/>
+      <c r="Q22" s="24"/>
+      <c r="R22" s="24"/>
+      <c r="S22" s="24"/>
+      <c r="T22" s="28"/>
+      <c r="U22" s="28">
         <v>44133</v>
       </c>
     </row>
-    <row r="23" spans="2:18" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:21" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B23" s="27" t="s">
         <v>18</v>
       </c>
@@ -26448,15 +26514,16 @@
         <v>824</v>
       </c>
       <c r="O23" s="24"/>
-      <c r="P23" s="26" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q23" s="28"/>
-      <c r="R23" s="28">
+      <c r="P23" s="24"/>
+      <c r="Q23" s="24"/>
+      <c r="R23" s="24"/>
+      <c r="S23" s="24"/>
+      <c r="T23" s="28"/>
+      <c r="U23" s="28">
         <v>44133</v>
       </c>
     </row>
-    <row r="24" spans="2:18" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:21" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B24" s="27" t="s">
         <v>18</v>
       </c>
@@ -26493,15 +26560,16 @@
         <v>829</v>
       </c>
       <c r="O24" s="24"/>
-      <c r="P24" s="26" t="s">
-        <v>768</v>
-      </c>
-      <c r="Q24" s="28"/>
-      <c r="R24" s="28">
+      <c r="P24" s="24"/>
+      <c r="Q24" s="24"/>
+      <c r="R24" s="24"/>
+      <c r="S24" s="24"/>
+      <c r="T24" s="28"/>
+      <c r="U24" s="28">
         <v>44133</v>
       </c>
     </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B25" s="27" t="s">
         <v>11</v>
       </c>
@@ -26541,15 +26609,16 @@
         <v>799</v>
       </c>
       <c r="O25" s="24"/>
-      <c r="P25" s="26" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q25" s="28"/>
-      <c r="R25" s="28">
+      <c r="P25" s="24"/>
+      <c r="Q25" s="24"/>
+      <c r="R25" s="24"/>
+      <c r="S25" s="24"/>
+      <c r="T25" s="28"/>
+      <c r="U25" s="28">
         <v>44160</v>
       </c>
     </row>
-    <row r="26" spans="2:18" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:21" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B26" s="27" t="s">
         <v>11</v>
       </c>
@@ -26589,15 +26658,16 @@
         <v>798</v>
       </c>
       <c r="O26" s="24"/>
-      <c r="P26" s="26" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q26" s="28"/>
-      <c r="R26" s="28">
+      <c r="P26" s="24"/>
+      <c r="Q26" s="24"/>
+      <c r="R26" s="24"/>
+      <c r="S26" s="24"/>
+      <c r="T26" s="28"/>
+      <c r="U26" s="28">
         <v>44133</v>
       </c>
     </row>
-    <row r="27" spans="2:18" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:21" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B27" s="27" t="s">
         <v>11</v>
       </c>
@@ -26637,15 +26707,16 @@
         <v>797</v>
       </c>
       <c r="O27" s="24"/>
-      <c r="P27" s="26" t="s">
-        <v>768</v>
-      </c>
-      <c r="Q27" s="28"/>
-      <c r="R27" s="28">
+      <c r="P27" s="24"/>
+      <c r="Q27" s="24"/>
+      <c r="R27" s="24"/>
+      <c r="S27" s="24"/>
+      <c r="T27" s="28"/>
+      <c r="U27" s="28">
         <v>44133</v>
       </c>
     </row>
-    <row r="28" spans="2:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="B28" s="27" t="s">
         <v>11</v>
       </c>
@@ -26682,15 +26753,16 @@
         <v>795</v>
       </c>
       <c r="O28" s="24"/>
-      <c r="P28" s="26" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q28" s="28"/>
-      <c r="R28" s="28">
+      <c r="P28" s="24"/>
+      <c r="Q28" s="24"/>
+      <c r="R28" s="24"/>
+      <c r="S28" s="24"/>
+      <c r="T28" s="28"/>
+      <c r="U28" s="28">
         <v>44133</v>
       </c>
     </row>
-    <row r="29" spans="2:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="B29" s="27" t="s">
         <v>11</v>
       </c>
@@ -26727,15 +26799,16 @@
         <v>795</v>
       </c>
       <c r="O29" s="24"/>
-      <c r="P29" s="26" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q29" s="28"/>
-      <c r="R29" s="28">
+      <c r="P29" s="24"/>
+      <c r="Q29" s="24"/>
+      <c r="R29" s="24"/>
+      <c r="S29" s="24"/>
+      <c r="T29" s="28"/>
+      <c r="U29" s="28">
         <v>44133</v>
       </c>
     </row>
-    <row r="30" spans="2:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="B30" s="27" t="s">
         <v>11</v>
       </c>
@@ -26772,15 +26845,16 @@
         <v>796</v>
       </c>
       <c r="O30" s="24"/>
-      <c r="P30" s="26" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q30" s="28"/>
-      <c r="R30" s="28">
+      <c r="P30" s="24"/>
+      <c r="Q30" s="24"/>
+      <c r="R30" s="24"/>
+      <c r="S30" s="24"/>
+      <c r="T30" s="28"/>
+      <c r="U30" s="28">
         <v>44133</v>
       </c>
     </row>
-    <row r="31" spans="2:18" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:21" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B31" s="27" t="s">
         <v>9</v>
       </c>
@@ -26820,15 +26894,16 @@
         <v>755</v>
       </c>
       <c r="O31" s="24"/>
-      <c r="P31" s="26" t="s">
-        <v>757</v>
-      </c>
-      <c r="Q31" s="28"/>
-      <c r="R31" s="28">
+      <c r="P31" s="24"/>
+      <c r="Q31" s="24"/>
+      <c r="R31" s="24"/>
+      <c r="S31" s="24"/>
+      <c r="T31" s="28"/>
+      <c r="U31" s="28">
         <v>44133</v>
       </c>
     </row>
-    <row r="32" spans="2:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="B32" s="27" t="s">
         <v>849</v>
       </c>
@@ -26868,15 +26943,16 @@
         <v>785</v>
       </c>
       <c r="O32" s="24"/>
-      <c r="P32" s="26" t="s">
-        <v>757</v>
-      </c>
-      <c r="Q32" s="28"/>
-      <c r="R32" s="28">
+      <c r="P32" s="24"/>
+      <c r="Q32" s="24"/>
+      <c r="R32" s="24"/>
+      <c r="S32" s="24"/>
+      <c r="T32" s="28"/>
+      <c r="U32" s="28">
         <v>44133</v>
       </c>
     </row>
-    <row r="33" spans="2:18" ht="36" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:21" ht="36" x14ac:dyDescent="0.35">
       <c r="B33" s="27" t="s">
         <v>8</v>
       </c>
@@ -26913,18 +26989,19 @@
         <v>189</v>
       </c>
       <c r="N33" s="24" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
       <c r="O33" s="24"/>
-      <c r="P33" s="26" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q33" s="28"/>
-      <c r="R33" s="28">
+      <c r="P33" s="24"/>
+      <c r="Q33" s="24"/>
+      <c r="R33" s="24"/>
+      <c r="S33" s="24"/>
+      <c r="T33" s="28"/>
+      <c r="U33" s="28">
         <v>44160</v>
       </c>
     </row>
-    <row r="34" spans="2:18" ht="36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:21" ht="36" hidden="1" x14ac:dyDescent="0.35">
       <c r="B34" s="27" t="s">
         <v>8</v>
       </c>
@@ -26961,15 +27038,16 @@
         <v>811</v>
       </c>
       <c r="O34" s="24"/>
-      <c r="P34" s="26" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q34" s="28"/>
-      <c r="R34" s="28">
+      <c r="P34" s="24"/>
+      <c r="Q34" s="24"/>
+      <c r="R34" s="24"/>
+      <c r="S34" s="24"/>
+      <c r="T34" s="28"/>
+      <c r="U34" s="28">
         <v>44133</v>
       </c>
     </row>
-    <row r="35" spans="2:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="B35" s="27" t="s">
         <v>8</v>
       </c>
@@ -27006,15 +27084,16 @@
         <v>812</v>
       </c>
       <c r="O35" s="24"/>
-      <c r="P35" s="26" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q35" s="28"/>
-      <c r="R35" s="28">
+      <c r="P35" s="24"/>
+      <c r="Q35" s="24"/>
+      <c r="R35" s="24"/>
+      <c r="S35" s="24"/>
+      <c r="T35" s="28"/>
+      <c r="U35" s="28">
         <v>44133</v>
       </c>
     </row>
-    <row r="36" spans="2:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="B36" s="27" t="s">
         <v>8</v>
       </c>
@@ -27051,15 +27130,16 @@
         <v>813</v>
       </c>
       <c r="O36" s="24"/>
-      <c r="P36" s="26" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q36" s="28"/>
-      <c r="R36" s="28">
+      <c r="P36" s="24"/>
+      <c r="Q36" s="24"/>
+      <c r="R36" s="24"/>
+      <c r="S36" s="24"/>
+      <c r="T36" s="28"/>
+      <c r="U36" s="28">
         <v>44133</v>
       </c>
     </row>
-    <row r="37" spans="2:18" ht="24" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:21" ht="24" x14ac:dyDescent="0.35">
       <c r="B37" s="27" t="s">
         <v>28</v>
       </c>
@@ -27099,15 +27179,16 @@
         <v>793</v>
       </c>
       <c r="O37" s="24"/>
-      <c r="P37" s="26" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q37" s="28"/>
-      <c r="R37" s="28">
+      <c r="P37" s="24"/>
+      <c r="Q37" s="24"/>
+      <c r="R37" s="24"/>
+      <c r="S37" s="24"/>
+      <c r="T37" s="28"/>
+      <c r="U37" s="28">
         <v>44160</v>
       </c>
     </row>
-    <row r="38" spans="2:18" ht="36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:21" ht="36" hidden="1" x14ac:dyDescent="0.35">
       <c r="B38" s="27" t="s">
         <v>28</v>
       </c>
@@ -27147,15 +27228,16 @@
         <v>818</v>
       </c>
       <c r="O38" s="24"/>
-      <c r="P38" s="26" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q38" s="28"/>
-      <c r="R38" s="28">
+      <c r="P38" s="24"/>
+      <c r="Q38" s="24"/>
+      <c r="R38" s="24"/>
+      <c r="S38" s="24"/>
+      <c r="T38" s="28"/>
+      <c r="U38" s="28">
         <v>44133</v>
       </c>
     </row>
-    <row r="39" spans="2:18" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:21" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B39" s="27" t="s">
         <v>6</v>
       </c>
@@ -27195,15 +27277,16 @@
         <v>786</v>
       </c>
       <c r="O39" s="24"/>
-      <c r="P39" s="26" t="s">
-        <v>758</v>
-      </c>
-      <c r="Q39" s="28"/>
-      <c r="R39" s="28">
+      <c r="P39" s="24"/>
+      <c r="Q39" s="24"/>
+      <c r="R39" s="24"/>
+      <c r="S39" s="24"/>
+      <c r="T39" s="28"/>
+      <c r="U39" s="28">
         <v>44133</v>
       </c>
     </row>
-    <row r="40" spans="2:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="B40" s="27" t="s">
         <v>6</v>
       </c>
@@ -27243,15 +27326,16 @@
         <v>833</v>
       </c>
       <c r="O40" s="24"/>
-      <c r="P40" s="26" t="s">
-        <v>758</v>
-      </c>
-      <c r="Q40" s="28"/>
-      <c r="R40" s="28">
+      <c r="P40" s="24"/>
+      <c r="Q40" s="24"/>
+      <c r="R40" s="24"/>
+      <c r="S40" s="24"/>
+      <c r="T40" s="28"/>
+      <c r="U40" s="28">
         <v>44133</v>
       </c>
     </row>
-    <row r="41" spans="2:18" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:21" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B41" s="27" t="s">
         <v>6</v>
       </c>
@@ -27291,15 +27375,16 @@
         <v>786</v>
       </c>
       <c r="O41" s="24"/>
-      <c r="P41" s="26" t="s">
-        <v>758</v>
-      </c>
-      <c r="Q41" s="28"/>
-      <c r="R41" s="28">
+      <c r="P41" s="24"/>
+      <c r="Q41" s="24"/>
+      <c r="R41" s="24"/>
+      <c r="S41" s="24"/>
+      <c r="T41" s="28"/>
+      <c r="U41" s="28">
         <v>44133</v>
       </c>
     </row>
-    <row r="42" spans="2:18" ht="24" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:21" ht="24" x14ac:dyDescent="0.35">
       <c r="B42" s="27" t="s">
         <v>6</v>
       </c>
@@ -27336,18 +27421,19 @@
         <v>189</v>
       </c>
       <c r="N42" s="24" t="s">
-        <v>1508</v>
+        <v>1506</v>
       </c>
       <c r="O42" s="24"/>
-      <c r="P42" s="26" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q42" s="28"/>
-      <c r="R42" s="28">
+      <c r="P42" s="24"/>
+      <c r="Q42" s="24"/>
+      <c r="R42" s="24"/>
+      <c r="S42" s="24"/>
+      <c r="T42" s="28"/>
+      <c r="U42" s="28">
         <v>44133</v>
       </c>
     </row>
-    <row r="43" spans="2:18" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:21" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B43" s="27" t="s">
         <v>13</v>
       </c>
@@ -27387,15 +27473,16 @@
         <v>810</v>
       </c>
       <c r="O43" s="24"/>
-      <c r="P43" s="26" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q43" s="28"/>
-      <c r="R43" s="28">
+      <c r="P43" s="24"/>
+      <c r="Q43" s="24"/>
+      <c r="R43" s="24"/>
+      <c r="S43" s="24"/>
+      <c r="T43" s="28"/>
+      <c r="U43" s="28">
         <v>44133</v>
       </c>
     </row>
-    <row r="44" spans="2:18" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:21" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B44" s="27" t="s">
         <v>13</v>
       </c>
@@ -27435,15 +27522,16 @@
         <v>809</v>
       </c>
       <c r="O44" s="24"/>
-      <c r="P44" s="26" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q44" s="28"/>
-      <c r="R44" s="28">
+      <c r="P44" s="24"/>
+      <c r="Q44" s="24"/>
+      <c r="R44" s="24"/>
+      <c r="S44" s="24"/>
+      <c r="T44" s="28"/>
+      <c r="U44" s="28">
         <v>44133</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B45" s="27" t="s">
         <v>13</v>
       </c>
@@ -27483,15 +27571,16 @@
         <v>808</v>
       </c>
       <c r="O45" s="24"/>
-      <c r="P45" s="26" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q45" s="28"/>
-      <c r="R45" s="28">
+      <c r="P45" s="24"/>
+      <c r="Q45" s="24"/>
+      <c r="R45" s="24"/>
+      <c r="S45" s="24"/>
+      <c r="T45" s="28"/>
+      <c r="U45" s="28">
         <v>44133</v>
       </c>
     </row>
-    <row r="46" spans="2:18" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:21" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B46" s="27" t="s">
         <v>13</v>
       </c>
@@ -27531,15 +27620,16 @@
         <v>787</v>
       </c>
       <c r="O46" s="24"/>
-      <c r="P46" s="26" t="s">
-        <v>753</v>
-      </c>
-      <c r="Q46" s="28"/>
-      <c r="R46" s="28">
+      <c r="P46" s="24"/>
+      <c r="Q46" s="24"/>
+      <c r="R46" s="24"/>
+      <c r="S46" s="24"/>
+      <c r="T46" s="28"/>
+      <c r="U46" s="28">
         <v>44133</v>
       </c>
     </row>
-    <row r="47" spans="2:18" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:21" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B47" s="27" t="s">
         <v>13</v>
       </c>
@@ -27579,15 +27669,16 @@
         <v>789</v>
       </c>
       <c r="O47" s="24"/>
-      <c r="P47" s="26" t="s">
-        <v>754</v>
-      </c>
-      <c r="Q47" s="28"/>
-      <c r="R47" s="28">
+      <c r="P47" s="24"/>
+      <c r="Q47" s="24"/>
+      <c r="R47" s="24"/>
+      <c r="S47" s="24"/>
+      <c r="T47" s="28"/>
+      <c r="U47" s="28">
         <v>44133</v>
       </c>
     </row>
-    <row r="48" spans="2:18" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:21" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B48" s="27" t="s">
         <v>13</v>
       </c>
@@ -27627,15 +27718,16 @@
         <v>788</v>
       </c>
       <c r="O48" s="24"/>
-      <c r="P48" s="26" t="s">
-        <v>754</v>
-      </c>
-      <c r="Q48" s="28"/>
-      <c r="R48" s="28">
+      <c r="P48" s="24"/>
+      <c r="Q48" s="24"/>
+      <c r="R48" s="24"/>
+      <c r="S48" s="24"/>
+      <c r="T48" s="28"/>
+      <c r="U48" s="28">
         <v>44133</v>
       </c>
     </row>
-    <row r="49" spans="2:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="B49" s="27" t="s">
         <v>13</v>
       </c>
@@ -27675,15 +27767,16 @@
         <v>789</v>
       </c>
       <c r="O49" s="24"/>
-      <c r="P49" s="26" t="s">
-        <v>754</v>
-      </c>
-      <c r="Q49" s="28"/>
-      <c r="R49" s="28">
+      <c r="P49" s="24"/>
+      <c r="Q49" s="24"/>
+      <c r="R49" s="24"/>
+      <c r="S49" s="24"/>
+      <c r="T49" s="28"/>
+      <c r="U49" s="28">
         <v>44133</v>
       </c>
     </row>
-    <row r="50" spans="2:18" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:21" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B50" s="27" t="s">
         <v>13</v>
       </c>
@@ -27723,15 +27816,16 @@
         <v>1317</v>
       </c>
       <c r="O50" s="24"/>
-      <c r="P50" s="26" t="s">
-        <v>754</v>
-      </c>
-      <c r="Q50" s="28"/>
-      <c r="R50" s="28">
+      <c r="P50" s="24"/>
+      <c r="Q50" s="24"/>
+      <c r="R50" s="24"/>
+      <c r="S50" s="24"/>
+      <c r="T50" s="28"/>
+      <c r="U50" s="28">
         <v>44133</v>
       </c>
     </row>
-    <row r="51" spans="2:18" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:21" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B51" s="27" t="s">
         <v>13</v>
       </c>
@@ -27769,15 +27863,16 @@
       </c>
       <c r="N51" s="24"/>
       <c r="O51" s="24"/>
-      <c r="P51" s="26" t="s">
-        <v>754</v>
-      </c>
-      <c r="Q51" s="28"/>
-      <c r="R51" s="28">
+      <c r="P51" s="24"/>
+      <c r="Q51" s="24"/>
+      <c r="R51" s="24"/>
+      <c r="S51" s="24"/>
+      <c r="T51" s="28"/>
+      <c r="U51" s="28">
         <v>44133</v>
       </c>
     </row>
-    <row r="52" spans="2:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="B52" s="27" t="s">
         <v>3</v>
       </c>
@@ -27817,15 +27912,16 @@
         <v>761</v>
       </c>
       <c r="O52" s="24"/>
-      <c r="P52" s="26" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q52" s="28"/>
-      <c r="R52" s="28">
+      <c r="P52" s="24"/>
+      <c r="Q52" s="24"/>
+      <c r="R52" s="24"/>
+      <c r="S52" s="24"/>
+      <c r="T52" s="28"/>
+      <c r="U52" s="28">
         <v>44133</v>
       </c>
     </row>
-    <row r="53" spans="2:18" ht="48" hidden="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:21" ht="48" hidden="1" x14ac:dyDescent="0.35">
       <c r="B53" s="129" t="s">
         <v>3</v>
       </c>
@@ -27862,18 +27958,19 @@
         <v>758</v>
       </c>
       <c r="N53" s="24" t="s">
-        <v>1507</v>
+        <v>1505</v>
       </c>
       <c r="O53" s="24"/>
-      <c r="P53" s="26" t="s">
-        <v>758</v>
-      </c>
-      <c r="Q53" s="28"/>
-      <c r="R53" s="28">
+      <c r="P53" s="24"/>
+      <c r="Q53" s="24"/>
+      <c r="R53" s="24"/>
+      <c r="S53" s="24"/>
+      <c r="T53" s="28"/>
+      <c r="U53" s="28">
         <v>44160</v>
       </c>
     </row>
-    <row r="54" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B54" s="27" t="s">
         <v>3</v>
       </c>
@@ -27910,18 +28007,19 @@
         <v>189</v>
       </c>
       <c r="N54" s="24" t="s">
-        <v>1504</v>
+        <v>1502</v>
       </c>
       <c r="O54" s="24"/>
-      <c r="P54" s="26" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q54" s="28"/>
-      <c r="R54" s="28">
+      <c r="P54" s="24"/>
+      <c r="Q54" s="24"/>
+      <c r="R54" s="24"/>
+      <c r="S54" s="24"/>
+      <c r="T54" s="28"/>
+      <c r="U54" s="28">
         <v>44133</v>
       </c>
     </row>
-    <row r="55" spans="2:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="B55" s="27" t="s">
         <v>3</v>
       </c>
@@ -27961,15 +28059,16 @@
         <v>790</v>
       </c>
       <c r="O55" s="24"/>
-      <c r="P55" s="26" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q55" s="28"/>
-      <c r="R55" s="28">
+      <c r="P55" s="24"/>
+      <c r="Q55" s="24"/>
+      <c r="R55" s="24"/>
+      <c r="S55" s="24"/>
+      <c r="T55" s="28"/>
+      <c r="U55" s="28">
         <v>44133</v>
       </c>
     </row>
-    <row r="56" spans="2:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="B56" s="27" t="s">
         <v>3</v>
       </c>
@@ -28009,15 +28108,16 @@
         <v>790</v>
       </c>
       <c r="O56" s="24"/>
-      <c r="P56" s="26" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q56" s="28"/>
-      <c r="R56" s="28">
+      <c r="P56" s="24"/>
+      <c r="Q56" s="24"/>
+      <c r="R56" s="24"/>
+      <c r="S56" s="24"/>
+      <c r="T56" s="28"/>
+      <c r="U56" s="28">
         <v>44133</v>
       </c>
     </row>
-    <row r="57" spans="2:18" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:21" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B57" s="27" t="s">
         <v>3</v>
       </c>
@@ -28057,15 +28157,16 @@
         <v>791</v>
       </c>
       <c r="O57" s="24"/>
-      <c r="P57" s="26" t="s">
-        <v>768</v>
-      </c>
-      <c r="Q57" s="28"/>
-      <c r="R57" s="28">
+      <c r="P57" s="24"/>
+      <c r="Q57" s="24"/>
+      <c r="R57" s="24"/>
+      <c r="S57" s="24"/>
+      <c r="T57" s="28"/>
+      <c r="U57" s="28">
         <v>44133</v>
       </c>
     </row>
-    <row r="58" spans="2:18" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:21" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B58" s="27" t="s">
         <v>3</v>
       </c>
@@ -28105,15 +28206,16 @@
         <v>792</v>
       </c>
       <c r="O58" s="24"/>
-      <c r="P58" s="26" t="s">
-        <v>754</v>
-      </c>
-      <c r="Q58" s="28"/>
-      <c r="R58" s="28">
+      <c r="P58" s="24"/>
+      <c r="Q58" s="24"/>
+      <c r="R58" s="24"/>
+      <c r="S58" s="24"/>
+      <c r="T58" s="28"/>
+      <c r="U58" s="28">
         <v>44133</v>
       </c>
     </row>
-    <row r="59" spans="2:18" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:21" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B59" s="27" t="s">
         <v>830</v>
       </c>
@@ -28153,15 +28255,16 @@
         <v>832</v>
       </c>
       <c r="O59" s="24"/>
-      <c r="P59" s="26" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q59" s="28"/>
-      <c r="R59" s="28">
+      <c r="P59" s="24"/>
+      <c r="Q59" s="24"/>
+      <c r="R59" s="24"/>
+      <c r="S59" s="24"/>
+      <c r="T59" s="28"/>
+      <c r="U59" s="28">
         <v>44133</v>
       </c>
     </row>
-    <row r="60" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B60" s="27" t="s">
         <v>10</v>
       </c>
@@ -28201,15 +28304,16 @@
         <v>793</v>
       </c>
       <c r="O60" s="24"/>
-      <c r="P60" s="26" t="s">
-        <v>768</v>
-      </c>
-      <c r="Q60" s="28"/>
-      <c r="R60" s="28">
+      <c r="P60" s="24"/>
+      <c r="Q60" s="24"/>
+      <c r="R60" s="24"/>
+      <c r="S60" s="24"/>
+      <c r="T60" s="28"/>
+      <c r="U60" s="28">
         <v>44133</v>
       </c>
     </row>
-    <row r="61" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B61" s="27" t="s">
         <v>10</v>
       </c>
@@ -28249,15 +28353,16 @@
         <v>793</v>
       </c>
       <c r="O61" s="24"/>
-      <c r="P61" s="26" t="s">
-        <v>768</v>
-      </c>
-      <c r="Q61" s="28"/>
-      <c r="R61" s="28">
+      <c r="P61" s="24"/>
+      <c r="Q61" s="24"/>
+      <c r="R61" s="24"/>
+      <c r="S61" s="24"/>
+      <c r="T61" s="28"/>
+      <c r="U61" s="28">
         <v>44133</v>
       </c>
     </row>
-    <row r="62" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B62" s="27" t="s">
         <v>10</v>
       </c>
@@ -28297,15 +28402,16 @@
         <v>793</v>
       </c>
       <c r="O62" s="24"/>
-      <c r="P62" s="26" t="s">
-        <v>768</v>
-      </c>
-      <c r="Q62" s="28"/>
-      <c r="R62" s="28">
+      <c r="P62" s="24"/>
+      <c r="Q62" s="24"/>
+      <c r="R62" s="24"/>
+      <c r="S62" s="24"/>
+      <c r="T62" s="28"/>
+      <c r="U62" s="28">
         <v>44133</v>
       </c>
     </row>
-    <row r="63" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B63" s="27" t="s">
         <v>10</v>
       </c>
@@ -28345,15 +28451,16 @@
         <v>793</v>
       </c>
       <c r="O63" s="24"/>
-      <c r="P63" s="26" t="s">
-        <v>768</v>
-      </c>
-      <c r="Q63" s="28"/>
-      <c r="R63" s="28">
+      <c r="P63" s="24"/>
+      <c r="Q63" s="24"/>
+      <c r="R63" s="24"/>
+      <c r="S63" s="24"/>
+      <c r="T63" s="28"/>
+      <c r="U63" s="28">
         <v>44133</v>
       </c>
     </row>
-    <row r="64" spans="2:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="B64" s="27" t="s">
         <v>10</v>
       </c>
@@ -28393,15 +28500,16 @@
         <v>794</v>
       </c>
       <c r="O64" s="24"/>
-      <c r="P64" s="26" t="s">
-        <v>768</v>
-      </c>
-      <c r="Q64" s="28"/>
-      <c r="R64" s="28">
+      <c r="P64" s="24"/>
+      <c r="Q64" s="24"/>
+      <c r="R64" s="24"/>
+      <c r="S64" s="24"/>
+      <c r="T64" s="28"/>
+      <c r="U64" s="28">
         <v>44133</v>
       </c>
     </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B65" s="27" t="s">
         <v>12</v>
       </c>
@@ -28433,11 +28541,14 @@
       <c r="M65" s="26"/>
       <c r="N65" s="24"/>
       <c r="O65" s="24"/>
-      <c r="P65" s="26"/>
-      <c r="Q65" s="28"/>
-      <c r="R65" s="28"/>
-    </row>
-    <row r="66" spans="2:18" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P65" s="24"/>
+      <c r="Q65" s="24"/>
+      <c r="R65" s="24"/>
+      <c r="S65" s="24"/>
+      <c r="T65" s="28"/>
+      <c r="U65" s="28"/>
+    </row>
+    <row r="66" spans="2:21" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B66" s="27" t="s">
         <v>12</v>
       </c>
@@ -28464,11 +28575,14 @@
       <c r="M66" s="26"/>
       <c r="N66" s="24"/>
       <c r="O66" s="24"/>
-      <c r="P66" s="26"/>
-      <c r="Q66" s="28"/>
-      <c r="R66" s="28"/>
-    </row>
-    <row r="67" spans="2:18" hidden="1" x14ac:dyDescent="0.35">
+      <c r="P66" s="24"/>
+      <c r="Q66" s="24"/>
+      <c r="R66" s="24"/>
+      <c r="S66" s="24"/>
+      <c r="T66" s="28"/>
+      <c r="U66" s="28"/>
+    </row>
+    <row r="67" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="B67" s="27" t="s">
         <v>15</v>
       </c>
@@ -28498,11 +28612,14 @@
       <c r="M67" s="26"/>
       <c r="N67" s="24"/>
       <c r="O67" s="24"/>
-      <c r="P67" s="26"/>
-      <c r="Q67" s="28"/>
-      <c r="R67" s="28"/>
-    </row>
-    <row r="68" spans="2:18" hidden="1" x14ac:dyDescent="0.35">
+      <c r="P67" s="24"/>
+      <c r="Q67" s="24"/>
+      <c r="R67" s="24"/>
+      <c r="S67" s="24"/>
+      <c r="T67" s="28"/>
+      <c r="U67" s="28"/>
+    </row>
+    <row r="68" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="B68" s="27" t="s">
         <v>15</v>
       </c>
@@ -28532,11 +28649,14 @@
       <c r="M68" s="26"/>
       <c r="N68" s="24"/>
       <c r="O68" s="24"/>
-      <c r="P68" s="26"/>
-      <c r="Q68" s="28"/>
-      <c r="R68" s="28"/>
-    </row>
-    <row r="69" spans="2:18" hidden="1" x14ac:dyDescent="0.35">
+      <c r="P68" s="24"/>
+      <c r="Q68" s="24"/>
+      <c r="R68" s="24"/>
+      <c r="S68" s="24"/>
+      <c r="T68" s="28"/>
+      <c r="U68" s="28"/>
+    </row>
+    <row r="69" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="B69" s="27" t="s">
         <v>9</v>
       </c>
@@ -28563,11 +28683,14 @@
       <c r="M69" s="26"/>
       <c r="N69" s="24"/>
       <c r="O69" s="24"/>
-      <c r="P69" s="26"/>
-      <c r="Q69" s="28"/>
-      <c r="R69" s="28"/>
-    </row>
-    <row r="70" spans="2:18" hidden="1" x14ac:dyDescent="0.35">
+      <c r="P69" s="24"/>
+      <c r="Q69" s="24"/>
+      <c r="R69" s="24"/>
+      <c r="S69" s="24"/>
+      <c r="T69" s="28"/>
+      <c r="U69" s="28"/>
+    </row>
+    <row r="70" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="B70" s="27" t="s">
         <v>9</v>
       </c>
@@ -28594,11 +28717,14 @@
       <c r="M70" s="26"/>
       <c r="N70" s="24"/>
       <c r="O70" s="24"/>
-      <c r="P70" s="26"/>
-      <c r="Q70" s="28"/>
-      <c r="R70" s="28"/>
-    </row>
-    <row r="71" spans="2:18" hidden="1" x14ac:dyDescent="0.35">
+      <c r="P70" s="24"/>
+      <c r="Q70" s="24"/>
+      <c r="R70" s="24"/>
+      <c r="S70" s="24"/>
+      <c r="T70" s="28"/>
+      <c r="U70" s="28"/>
+    </row>
+    <row r="71" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="B71" s="27" t="s">
         <v>9</v>
       </c>
@@ -28625,11 +28751,14 @@
       <c r="M71" s="26"/>
       <c r="N71" s="24"/>
       <c r="O71" s="24"/>
-      <c r="P71" s="26"/>
-      <c r="Q71" s="28"/>
-      <c r="R71" s="28"/>
-    </row>
-    <row r="72" spans="2:18" hidden="1" x14ac:dyDescent="0.35">
+      <c r="P71" s="24"/>
+      <c r="Q71" s="24"/>
+      <c r="R71" s="24"/>
+      <c r="S71" s="24"/>
+      <c r="T71" s="28"/>
+      <c r="U71" s="28"/>
+    </row>
+    <row r="72" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="B72" s="27" t="s">
         <v>834</v>
       </c>
@@ -28659,11 +28788,14 @@
       <c r="M72" s="26"/>
       <c r="N72" s="24"/>
       <c r="O72" s="24"/>
-      <c r="P72" s="26"/>
-      <c r="Q72" s="28"/>
-      <c r="R72" s="28"/>
-    </row>
-    <row r="73" spans="2:18" hidden="1" x14ac:dyDescent="0.35">
+      <c r="P72" s="24"/>
+      <c r="Q72" s="24"/>
+      <c r="R72" s="24"/>
+      <c r="S72" s="24"/>
+      <c r="T72" s="28"/>
+      <c r="U72" s="28"/>
+    </row>
+    <row r="73" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="B73" s="27" t="s">
         <v>834</v>
       </c>
@@ -28693,11 +28825,14 @@
       <c r="M73" s="26"/>
       <c r="N73" s="24"/>
       <c r="O73" s="24"/>
-      <c r="P73" s="26"/>
-      <c r="Q73" s="28"/>
-      <c r="R73" s="28"/>
-    </row>
-    <row r="74" spans="2:18" ht="24" hidden="1" x14ac:dyDescent="0.35">
+      <c r="P73" s="24"/>
+      <c r="Q73" s="24"/>
+      <c r="R73" s="24"/>
+      <c r="S73" s="24"/>
+      <c r="T73" s="28"/>
+      <c r="U73" s="28"/>
+    </row>
+    <row r="74" spans="2:21" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B74" s="27" t="s">
         <v>7</v>
       </c>
@@ -28731,11 +28866,14 @@
         <v>845</v>
       </c>
       <c r="O74" s="24"/>
-      <c r="P74" s="26"/>
-      <c r="Q74" s="28"/>
-      <c r="R74" s="28"/>
-    </row>
-    <row r="75" spans="2:18" ht="24" hidden="1" x14ac:dyDescent="0.35">
+      <c r="P74" s="24"/>
+      <c r="Q74" s="24"/>
+      <c r="R74" s="24"/>
+      <c r="S74" s="24"/>
+      <c r="T74" s="28"/>
+      <c r="U74" s="28"/>
+    </row>
+    <row r="75" spans="2:21" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B75" s="27" t="s">
         <v>7</v>
       </c>
@@ -28769,11 +28907,14 @@
         <v>846</v>
       </c>
       <c r="O75" s="24"/>
-      <c r="P75" s="26"/>
-      <c r="Q75" s="28"/>
-      <c r="R75" s="28"/>
-    </row>
-    <row r="76" spans="2:18" hidden="1" x14ac:dyDescent="0.35">
+      <c r="P75" s="24"/>
+      <c r="Q75" s="24"/>
+      <c r="R75" s="24"/>
+      <c r="S75" s="24"/>
+      <c r="T75" s="28"/>
+      <c r="U75" s="28"/>
+    </row>
+    <row r="76" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="B76" s="27" t="s">
         <v>835</v>
       </c>
@@ -28805,11 +28946,14 @@
       <c r="M76" s="26"/>
       <c r="N76" s="24"/>
       <c r="O76" s="24"/>
-      <c r="P76" s="26"/>
-      <c r="Q76" s="28"/>
-      <c r="R76" s="28"/>
-    </row>
-    <row r="77" spans="2:18" hidden="1" x14ac:dyDescent="0.35">
+      <c r="P76" s="24"/>
+      <c r="Q76" s="24"/>
+      <c r="R76" s="24"/>
+      <c r="S76" s="24"/>
+      <c r="T76" s="28"/>
+      <c r="U76" s="28"/>
+    </row>
+    <row r="77" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="B77" s="27" t="s">
         <v>835</v>
       </c>
@@ -28838,11 +28982,14 @@
       <c r="M77" s="26"/>
       <c r="N77" s="24"/>
       <c r="O77" s="24"/>
-      <c r="P77" s="26"/>
-      <c r="Q77" s="28"/>
-      <c r="R77" s="28"/>
-    </row>
-    <row r="78" spans="2:18" hidden="1" x14ac:dyDescent="0.35">
+      <c r="P77" s="24"/>
+      <c r="Q77" s="24"/>
+      <c r="R77" s="24"/>
+      <c r="S77" s="24"/>
+      <c r="T77" s="28"/>
+      <c r="U77" s="28"/>
+    </row>
+    <row r="78" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="B78" s="27" t="s">
         <v>670</v>
       </c>
@@ -28871,11 +29018,14 @@
       <c r="M78" s="26"/>
       <c r="N78" s="24"/>
       <c r="O78" s="24"/>
-      <c r="P78" s="26"/>
-      <c r="Q78" s="28"/>
-      <c r="R78" s="28"/>
-    </row>
-    <row r="79" spans="2:18" hidden="1" x14ac:dyDescent="0.35">
+      <c r="P78" s="24"/>
+      <c r="Q78" s="24"/>
+      <c r="R78" s="24"/>
+      <c r="S78" s="24"/>
+      <c r="T78" s="28"/>
+      <c r="U78" s="28"/>
+    </row>
+    <row r="79" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="B79" s="27" t="s">
         <v>670</v>
       </c>
@@ -28902,11 +29052,14 @@
       <c r="M79" s="26"/>
       <c r="N79" s="24"/>
       <c r="O79" s="24"/>
-      <c r="P79" s="26"/>
-      <c r="Q79" s="28"/>
-      <c r="R79" s="28"/>
-    </row>
-    <row r="80" spans="2:18" ht="24" hidden="1" x14ac:dyDescent="0.35">
+      <c r="P79" s="24"/>
+      <c r="Q79" s="24"/>
+      <c r="R79" s="24"/>
+      <c r="S79" s="24"/>
+      <c r="T79" s="28"/>
+      <c r="U79" s="28"/>
+    </row>
+    <row r="80" spans="2:21" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B80" s="27" t="s">
         <v>1097</v>
       </c>
@@ -28930,17 +29083,22 @@
       <c r="I80" s="29" t="s">
         <v>161</v>
       </c>
-      <c r="J80" s="25"/>
+      <c r="J80" s="25">
+        <v>0.7</v>
+      </c>
       <c r="K80" s="24"/>
       <c r="L80" s="24"/>
       <c r="M80" s="26"/>
       <c r="N80" s="24"/>
       <c r="O80" s="24"/>
-      <c r="P80" s="26"/>
-      <c r="Q80" s="28"/>
-      <c r="R80" s="28"/>
-    </row>
-    <row r="81" spans="2:18" hidden="1" x14ac:dyDescent="0.35">
+      <c r="P80" s="24"/>
+      <c r="Q80" s="24"/>
+      <c r="R80" s="24"/>
+      <c r="S80" s="24"/>
+      <c r="T80" s="28"/>
+      <c r="U80" s="28"/>
+    </row>
+    <row r="81" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="B81" s="27" t="s">
         <v>848</v>
       </c>
@@ -28970,11 +29128,14 @@
       <c r="M81" s="26"/>
       <c r="N81" s="24"/>
       <c r="O81" s="24"/>
-      <c r="P81" s="26"/>
-      <c r="Q81" s="28"/>
-      <c r="R81" s="28"/>
-    </row>
-    <row r="82" spans="2:18" hidden="1" x14ac:dyDescent="0.35">
+      <c r="P81" s="24"/>
+      <c r="Q81" s="24"/>
+      <c r="R81" s="24"/>
+      <c r="S81" s="24"/>
+      <c r="T81" s="28"/>
+      <c r="U81" s="28"/>
+    </row>
+    <row r="82" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="B82" s="27" t="s">
         <v>849</v>
       </c>
@@ -29008,11 +29169,14 @@
         <v>1096</v>
       </c>
       <c r="O82" s="24"/>
-      <c r="P82" s="26"/>
-      <c r="Q82" s="28"/>
-      <c r="R82" s="28"/>
-    </row>
-    <row r="83" spans="2:18" hidden="1" x14ac:dyDescent="0.35">
+      <c r="P82" s="24"/>
+      <c r="Q82" s="24"/>
+      <c r="R82" s="24"/>
+      <c r="S82" s="24"/>
+      <c r="T82" s="28"/>
+      <c r="U82" s="28"/>
+    </row>
+    <row r="83" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="B83" s="27" t="s">
         <v>927</v>
       </c>
@@ -29042,13 +29206,14 @@
       </c>
       <c r="N83" s="24"/>
       <c r="O83" s="24"/>
-      <c r="P83" s="26" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q83" s="40"/>
-      <c r="R83" s="40"/>
-    </row>
-    <row r="84" spans="2:18" hidden="1" x14ac:dyDescent="0.35">
+      <c r="P83" s="24"/>
+      <c r="Q83" s="24"/>
+      <c r="R83" s="24"/>
+      <c r="S83" s="24"/>
+      <c r="T83" s="40"/>
+      <c r="U83" s="40"/>
+    </row>
+    <row r="84" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="B84" s="27" t="s">
         <v>927</v>
       </c>
@@ -29078,13 +29243,14 @@
       </c>
       <c r="N84" s="24"/>
       <c r="O84" s="24"/>
-      <c r="P84" s="26" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q84" s="40"/>
-      <c r="R84" s="40"/>
-    </row>
-    <row r="85" spans="2:18" ht="28" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P84" s="24"/>
+      <c r="Q84" s="24"/>
+      <c r="R84" s="24"/>
+      <c r="S84" s="24"/>
+      <c r="T84" s="40"/>
+      <c r="U84" s="40"/>
+    </row>
+    <row r="85" spans="2:21" ht="28" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B85" s="27" t="s">
         <v>927</v>
       </c>
@@ -29114,13 +29280,14 @@
       </c>
       <c r="N85" s="24"/>
       <c r="O85" s="24"/>
-      <c r="P85" s="26" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q85" s="40"/>
-      <c r="R85" s="40"/>
-    </row>
-    <row r="86" spans="2:18" hidden="1" x14ac:dyDescent="0.35">
+      <c r="P85" s="24"/>
+      <c r="Q85" s="24"/>
+      <c r="R85" s="24"/>
+      <c r="S85" s="24"/>
+      <c r="T85" s="40"/>
+      <c r="U85" s="40"/>
+    </row>
+    <row r="86" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="B86" s="27" t="s">
         <v>927</v>
       </c>
@@ -29150,13 +29317,14 @@
       </c>
       <c r="N86" s="24"/>
       <c r="O86" s="24"/>
-      <c r="P86" s="26" t="s">
-        <v>768</v>
-      </c>
-      <c r="Q86" s="40"/>
-      <c r="R86" s="40"/>
-    </row>
-    <row r="87" spans="2:18" hidden="1" x14ac:dyDescent="0.35">
+      <c r="P86" s="24"/>
+      <c r="Q86" s="24"/>
+      <c r="R86" s="24"/>
+      <c r="S86" s="24"/>
+      <c r="T86" s="40"/>
+      <c r="U86" s="40"/>
+    </row>
+    <row r="87" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="B87" s="27" t="s">
         <v>834</v>
       </c>
@@ -29184,11 +29352,14 @@
       <c r="M87" s="26"/>
       <c r="N87" s="24"/>
       <c r="O87" s="24"/>
-      <c r="P87" s="26"/>
-      <c r="Q87" s="40"/>
-      <c r="R87" s="40"/>
-    </row>
-    <row r="88" spans="2:18" hidden="1" x14ac:dyDescent="0.35">
+      <c r="P87" s="24"/>
+      <c r="Q87" s="24"/>
+      <c r="R87" s="24"/>
+      <c r="S87" s="24"/>
+      <c r="T87" s="40"/>
+      <c r="U87" s="40"/>
+    </row>
+    <row r="88" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="B88" s="27" t="s">
         <v>14</v>
       </c>
@@ -29212,11 +29383,14 @@
       <c r="M88" s="26"/>
       <c r="N88" s="24"/>
       <c r="O88" s="24"/>
-      <c r="P88" s="26"/>
-      <c r="Q88" s="40"/>
-      <c r="R88" s="40"/>
-    </row>
-    <row r="89" spans="2:18" ht="24" hidden="1" x14ac:dyDescent="0.35">
+      <c r="P88" s="24"/>
+      <c r="Q88" s="24"/>
+      <c r="R88" s="24"/>
+      <c r="S88" s="24"/>
+      <c r="T88" s="40"/>
+      <c r="U88" s="40"/>
+    </row>
+    <row r="89" spans="2:21" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B89" s="27" t="s">
         <v>4</v>
       </c>
@@ -29242,11 +29416,14 @@
       <c r="M89" s="26"/>
       <c r="N89" s="24"/>
       <c r="O89" s="24"/>
-      <c r="P89" s="26"/>
-      <c r="Q89" s="40"/>
-      <c r="R89" s="40"/>
-    </row>
-    <row r="90" spans="2:18" ht="24" hidden="1" x14ac:dyDescent="0.35">
+      <c r="P89" s="24"/>
+      <c r="Q89" s="24"/>
+      <c r="R89" s="24"/>
+      <c r="S89" s="24"/>
+      <c r="T89" s="40"/>
+      <c r="U89" s="40"/>
+    </row>
+    <row r="90" spans="2:21" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B90" s="27" t="s">
         <v>4</v>
       </c>
@@ -29272,11 +29449,14 @@
       <c r="M90" s="26"/>
       <c r="N90" s="24"/>
       <c r="O90" s="24"/>
-      <c r="P90" s="26"/>
-      <c r="Q90" s="40"/>
-      <c r="R90" s="40"/>
-    </row>
-    <row r="91" spans="2:18" ht="24" hidden="1" x14ac:dyDescent="0.35">
+      <c r="P90" s="24"/>
+      <c r="Q90" s="24"/>
+      <c r="R90" s="24"/>
+      <c r="S90" s="24"/>
+      <c r="T90" s="40"/>
+      <c r="U90" s="40"/>
+    </row>
+    <row r="91" spans="2:21" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B91" s="27" t="s">
         <v>4</v>
       </c>
@@ -29302,11 +29482,14 @@
       <c r="M91" s="26"/>
       <c r="N91" s="24"/>
       <c r="O91" s="24"/>
-      <c r="P91" s="26"/>
-      <c r="Q91" s="40"/>
-      <c r="R91" s="40"/>
-    </row>
-    <row r="92" spans="2:18" ht="24" hidden="1" x14ac:dyDescent="0.35">
+      <c r="P91" s="24"/>
+      <c r="Q91" s="24"/>
+      <c r="R91" s="24"/>
+      <c r="S91" s="24"/>
+      <c r="T91" s="40"/>
+      <c r="U91" s="40"/>
+    </row>
+    <row r="92" spans="2:21" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B92" s="27" t="s">
         <v>4</v>
       </c>
@@ -29332,11 +29515,14 @@
       <c r="M92" s="26"/>
       <c r="N92" s="24"/>
       <c r="O92" s="24"/>
-      <c r="P92" s="26"/>
-      <c r="Q92" s="40"/>
-      <c r="R92" s="40"/>
-    </row>
-    <row r="93" spans="2:18" ht="24" hidden="1" x14ac:dyDescent="0.35">
+      <c r="P92" s="24"/>
+      <c r="Q92" s="24"/>
+      <c r="R92" s="24"/>
+      <c r="S92" s="24"/>
+      <c r="T92" s="40"/>
+      <c r="U92" s="40"/>
+    </row>
+    <row r="93" spans="2:21" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B93" s="27" t="s">
         <v>5</v>
       </c>
@@ -29366,13 +29552,14 @@
       </c>
       <c r="N93" s="24"/>
       <c r="O93" s="24"/>
-      <c r="P93" s="26" t="s">
-        <v>753</v>
-      </c>
-      <c r="Q93" s="40"/>
-      <c r="R93" s="40"/>
-    </row>
-    <row r="94" spans="2:18" hidden="1" x14ac:dyDescent="0.35">
+      <c r="P93" s="24"/>
+      <c r="Q93" s="24"/>
+      <c r="R93" s="24"/>
+      <c r="S93" s="24"/>
+      <c r="T93" s="40"/>
+      <c r="U93" s="40"/>
+    </row>
+    <row r="94" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="B94" s="27" t="s">
         <v>5</v>
       </c>
@@ -29402,11 +29589,14 @@
       <c r="M94" s="26"/>
       <c r="N94" s="24"/>
       <c r="O94" s="24"/>
-      <c r="P94" s="26"/>
-      <c r="Q94" s="40"/>
-      <c r="R94" s="40"/>
-    </row>
-    <row r="95" spans="2:18" hidden="1" x14ac:dyDescent="0.35">
+      <c r="P94" s="24"/>
+      <c r="Q94" s="24"/>
+      <c r="R94" s="24"/>
+      <c r="S94" s="24"/>
+      <c r="T94" s="40"/>
+      <c r="U94" s="40"/>
+    </row>
+    <row r="95" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="B95" s="27" t="s">
         <v>5</v>
       </c>
@@ -29436,13 +29626,14 @@
       </c>
       <c r="N95" s="24"/>
       <c r="O95" s="24"/>
-      <c r="P95" s="26" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q95" s="40"/>
-      <c r="R95" s="40"/>
-    </row>
-    <row r="96" spans="2:18" ht="24" hidden="1" x14ac:dyDescent="0.35">
+      <c r="P95" s="24"/>
+      <c r="Q95" s="24"/>
+      <c r="R95" s="24"/>
+      <c r="S95" s="24"/>
+      <c r="T95" s="40"/>
+      <c r="U95" s="40"/>
+    </row>
+    <row r="96" spans="2:21" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B96" s="27" t="s">
         <v>5</v>
       </c>
@@ -29472,13 +29663,14 @@
       </c>
       <c r="N96" s="24"/>
       <c r="O96" s="24"/>
-      <c r="P96" s="26" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q96" s="40"/>
-      <c r="R96" s="40"/>
-    </row>
-    <row r="97" spans="2:18" ht="24" hidden="1" x14ac:dyDescent="0.35">
+      <c r="P96" s="24"/>
+      <c r="Q96" s="24"/>
+      <c r="R96" s="24"/>
+      <c r="S96" s="24"/>
+      <c r="T96" s="40"/>
+      <c r="U96" s="40"/>
+    </row>
+    <row r="97" spans="2:21" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B97" s="27" t="s">
         <v>5</v>
       </c>
@@ -29508,13 +29700,14 @@
       </c>
       <c r="N97" s="24"/>
       <c r="O97" s="24"/>
-      <c r="P97" s="26" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q97" s="40"/>
-      <c r="R97" s="40"/>
-    </row>
-    <row r="98" spans="2:18" ht="24" hidden="1" x14ac:dyDescent="0.35">
+      <c r="P97" s="24"/>
+      <c r="Q97" s="24"/>
+      <c r="R97" s="24"/>
+      <c r="S97" s="24"/>
+      <c r="T97" s="40"/>
+      <c r="U97" s="40"/>
+    </row>
+    <row r="98" spans="2:21" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B98" s="27" t="s">
         <v>5</v>
       </c>
@@ -29544,13 +29737,14 @@
       </c>
       <c r="N98" s="24"/>
       <c r="O98" s="24"/>
-      <c r="P98" s="26" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q98" s="40"/>
-      <c r="R98" s="40"/>
-    </row>
-    <row r="99" spans="2:18" hidden="1" x14ac:dyDescent="0.35">
+      <c r="P98" s="24"/>
+      <c r="Q98" s="24"/>
+      <c r="R98" s="24"/>
+      <c r="S98" s="24"/>
+      <c r="T98" s="40"/>
+      <c r="U98" s="40"/>
+    </row>
+    <row r="99" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="B99" s="129" t="s">
         <v>3</v>
       </c>
@@ -29580,11 +29774,14 @@
       <c r="M99" s="26"/>
       <c r="N99" s="24"/>
       <c r="O99" s="24"/>
-      <c r="P99" s="26"/>
-      <c r="Q99" s="40"/>
-      <c r="R99" s="40"/>
-    </row>
-    <row r="100" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P99" s="24"/>
+      <c r="Q99" s="24"/>
+      <c r="R99" s="24"/>
+      <c r="S99" s="24"/>
+      <c r="T99" s="40"/>
+      <c r="U99" s="40"/>
+    </row>
+    <row r="100" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B100" s="27" t="s">
         <v>3</v>
       </c>
@@ -29616,13 +29813,14 @@
       </c>
       <c r="N100" s="24"/>
       <c r="O100" s="24"/>
-      <c r="P100" s="26" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q100" s="40"/>
-      <c r="R100" s="40"/>
-    </row>
-    <row r="101" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P100" s="24"/>
+      <c r="Q100" s="24"/>
+      <c r="R100" s="24"/>
+      <c r="S100" s="24"/>
+      <c r="T100" s="40"/>
+      <c r="U100" s="40"/>
+    </row>
+    <row r="101" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B101" s="27" t="s">
         <v>6</v>
       </c>
@@ -29652,11 +29850,14 @@
       <c r="M101" s="26"/>
       <c r="N101" s="24"/>
       <c r="O101" s="24"/>
-      <c r="P101" s="26"/>
-      <c r="Q101" s="40"/>
-      <c r="R101" s="40"/>
-    </row>
-    <row r="102" spans="2:18" hidden="1" x14ac:dyDescent="0.35">
+      <c r="P101" s="24"/>
+      <c r="Q101" s="24"/>
+      <c r="R101" s="24"/>
+      <c r="S101" s="24"/>
+      <c r="T101" s="40"/>
+      <c r="U101" s="40"/>
+    </row>
+    <row r="102" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="B102" s="27" t="s">
         <v>6</v>
       </c>
@@ -29680,11 +29881,14 @@
       <c r="M102" s="26"/>
       <c r="N102" s="24"/>
       <c r="O102" s="24"/>
-      <c r="P102" s="26"/>
-      <c r="Q102" s="40"/>
-      <c r="R102" s="40"/>
-    </row>
-    <row r="103" spans="2:18" hidden="1" x14ac:dyDescent="0.35">
+      <c r="P102" s="24"/>
+      <c r="Q102" s="24"/>
+      <c r="R102" s="24"/>
+      <c r="S102" s="24"/>
+      <c r="T102" s="40"/>
+      <c r="U102" s="40"/>
+    </row>
+    <row r="103" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="B103" s="27" t="s">
         <v>5</v>
       </c>
@@ -29714,13 +29918,14 @@
       </c>
       <c r="N103" s="24"/>
       <c r="O103" s="24"/>
-      <c r="P103" s="26" t="s">
-        <v>753</v>
-      </c>
-      <c r="Q103" s="40"/>
-      <c r="R103" s="40"/>
-    </row>
-    <row r="104" spans="2:18" hidden="1" x14ac:dyDescent="0.35">
+      <c r="P103" s="24"/>
+      <c r="Q103" s="24"/>
+      <c r="R103" s="24"/>
+      <c r="S103" s="24"/>
+      <c r="T103" s="40"/>
+      <c r="U103" s="40"/>
+    </row>
+    <row r="104" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="B104" s="27" t="s">
         <v>5</v>
       </c>
@@ -29750,13 +29955,14 @@
       </c>
       <c r="N104" s="24"/>
       <c r="O104" s="24"/>
-      <c r="P104" s="26" t="s">
-        <v>753</v>
-      </c>
-      <c r="Q104" s="40"/>
-      <c r="R104" s="40"/>
-    </row>
-    <row r="105" spans="2:18" ht="24" hidden="1" x14ac:dyDescent="0.35">
+      <c r="P104" s="24"/>
+      <c r="Q104" s="24"/>
+      <c r="R104" s="24"/>
+      <c r="S104" s="24"/>
+      <c r="T104" s="40"/>
+      <c r="U104" s="40"/>
+    </row>
+    <row r="105" spans="2:21" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B105" s="27" t="s">
         <v>6</v>
       </c>
@@ -29780,11 +29986,14 @@
       <c r="M105" s="26"/>
       <c r="N105" s="24"/>
       <c r="O105" s="24"/>
-      <c r="P105" s="26"/>
-      <c r="Q105" s="40"/>
-      <c r="R105" s="40"/>
-    </row>
-    <row r="106" spans="2:18" hidden="1" x14ac:dyDescent="0.35">
+      <c r="P105" s="24"/>
+      <c r="Q105" s="24"/>
+      <c r="R105" s="24"/>
+      <c r="S105" s="24"/>
+      <c r="T105" s="40"/>
+      <c r="U105" s="40"/>
+    </row>
+    <row r="106" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="B106" s="27" t="s">
         <v>6</v>
       </c>
@@ -29808,11 +30017,14 @@
       <c r="M106" s="26"/>
       <c r="N106" s="24"/>
       <c r="O106" s="24"/>
-      <c r="P106" s="26"/>
-      <c r="Q106" s="40"/>
-      <c r="R106" s="40"/>
-    </row>
-    <row r="107" spans="2:18" hidden="1" x14ac:dyDescent="0.35">
+      <c r="P106" s="24"/>
+      <c r="Q106" s="24"/>
+      <c r="R106" s="24"/>
+      <c r="S106" s="24"/>
+      <c r="T106" s="40"/>
+      <c r="U106" s="40"/>
+    </row>
+    <row r="107" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="B107" s="27" t="s">
         <v>6</v>
       </c>
@@ -29836,11 +30048,14 @@
       <c r="M107" s="26"/>
       <c r="N107" s="24"/>
       <c r="O107" s="24"/>
-      <c r="P107" s="26"/>
-      <c r="Q107" s="40"/>
-      <c r="R107" s="40"/>
-    </row>
-    <row r="108" spans="2:18" hidden="1" x14ac:dyDescent="0.35">
+      <c r="P107" s="24"/>
+      <c r="Q107" s="24"/>
+      <c r="R107" s="24"/>
+      <c r="S107" s="24"/>
+      <c r="T107" s="40"/>
+      <c r="U107" s="40"/>
+    </row>
+    <row r="108" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="B108" s="27" t="s">
         <v>834</v>
       </c>
@@ -29858,17 +30073,22 @@
       </c>
       <c r="H108" s="23"/>
       <c r="I108" s="29"/>
-      <c r="J108" s="25"/>
+      <c r="J108" s="25">
+        <v>0.9</v>
+      </c>
       <c r="K108" s="24"/>
       <c r="L108" s="24"/>
       <c r="M108" s="26"/>
       <c r="N108" s="24"/>
       <c r="O108" s="24"/>
-      <c r="P108" s="26"/>
-      <c r="Q108" s="40"/>
-      <c r="R108" s="40"/>
-    </row>
-    <row r="109" spans="2:18" hidden="1" x14ac:dyDescent="0.35">
+      <c r="P108" s="24"/>
+      <c r="Q108" s="24"/>
+      <c r="R108" s="24"/>
+      <c r="S108" s="24"/>
+      <c r="T108" s="40"/>
+      <c r="U108" s="40"/>
+    </row>
+    <row r="109" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="B109" s="27" t="s">
         <v>834</v>
       </c>
@@ -29886,17 +30106,22 @@
       </c>
       <c r="H109" s="23"/>
       <c r="I109" s="29"/>
-      <c r="J109" s="25"/>
+      <c r="J109" s="25">
+        <v>0.9</v>
+      </c>
       <c r="K109" s="24"/>
       <c r="L109" s="24"/>
       <c r="M109" s="26"/>
       <c r="N109" s="24"/>
       <c r="O109" s="24"/>
-      <c r="P109" s="26"/>
-      <c r="Q109" s="40"/>
-      <c r="R109" s="40"/>
-    </row>
-    <row r="110" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P109" s="24"/>
+      <c r="Q109" s="24"/>
+      <c r="R109" s="24"/>
+      <c r="S109" s="24"/>
+      <c r="T109" s="40"/>
+      <c r="U109" s="40"/>
+    </row>
+    <row r="110" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B110" s="27" t="s">
         <v>3</v>
       </c>
@@ -29928,13 +30153,14 @@
       </c>
       <c r="N110" s="24"/>
       <c r="O110" s="24"/>
-      <c r="P110" s="26" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q110" s="40"/>
-      <c r="R110" s="40"/>
-    </row>
-    <row r="111" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P110" s="24"/>
+      <c r="Q110" s="24"/>
+      <c r="R110" s="24"/>
+      <c r="S110" s="24"/>
+      <c r="T110" s="40"/>
+      <c r="U110" s="40"/>
+    </row>
+    <row r="111" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B111" s="27" t="s">
         <v>3</v>
       </c>
@@ -29966,13 +30192,14 @@
       </c>
       <c r="N111" s="24"/>
       <c r="O111" s="24"/>
-      <c r="P111" s="26" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q111" s="40"/>
-      <c r="R111" s="40"/>
-    </row>
-    <row r="112" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P111" s="24"/>
+      <c r="Q111" s="24"/>
+      <c r="R111" s="24"/>
+      <c r="S111" s="24"/>
+      <c r="T111" s="40"/>
+      <c r="U111" s="40"/>
+    </row>
+    <row r="112" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B112" s="27" t="s">
         <v>3</v>
       </c>
@@ -30004,24 +30231,27 @@
       </c>
       <c r="N112" s="24"/>
       <c r="O112" s="24"/>
-      <c r="P112" s="26" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q112" s="40"/>
-      <c r="R112" s="40"/>
-    </row>
-    <row r="113" spans="2:18" ht="29" x14ac:dyDescent="0.35">
+      <c r="P112" s="24"/>
+      <c r="Q112" s="24"/>
+      <c r="R112" s="24"/>
+      <c r="S112" s="24"/>
+      <c r="T112" s="40"/>
+      <c r="U112" s="40"/>
+    </row>
+    <row r="113" spans="2:21" ht="29" x14ac:dyDescent="0.35">
       <c r="B113" s="27" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="C113" s="24" t="s">
-        <v>1478</v>
+        <v>1476</v>
       </c>
       <c r="D113" s="23"/>
       <c r="E113" s="23" t="s">
         <v>1229</v>
       </c>
-      <c r="F113" s="23"/>
+      <c r="F113" s="23" t="s">
+        <v>751</v>
+      </c>
       <c r="G113" s="23" t="str">
         <f>PRODUCTOS!F96</f>
         <v>0026-04-00089</v>
@@ -30038,13 +30268,14 @@
       </c>
       <c r="N113" s="24"/>
       <c r="O113" s="24"/>
-      <c r="P113" s="26" t="s">
-        <v>768</v>
-      </c>
-      <c r="Q113" s="40"/>
-      <c r="R113" s="40"/>
-    </row>
-    <row r="114" spans="2:18" hidden="1" x14ac:dyDescent="0.35">
+      <c r="P113" s="24"/>
+      <c r="Q113" s="24"/>
+      <c r="R113" s="24"/>
+      <c r="S113" s="24"/>
+      <c r="T113" s="40"/>
+      <c r="U113" s="40"/>
+    </row>
+    <row r="114" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="B114" s="27"/>
       <c r="C114" s="24"/>
       <c r="D114" s="23"/>
@@ -30059,11 +30290,14 @@
       <c r="M114" s="26"/>
       <c r="N114" s="24"/>
       <c r="O114" s="24"/>
-      <c r="P114" s="26"/>
-      <c r="Q114" s="40"/>
-      <c r="R114" s="40"/>
-    </row>
-    <row r="115" spans="2:18" hidden="1" x14ac:dyDescent="0.35">
+      <c r="P114" s="24"/>
+      <c r="Q114" s="24"/>
+      <c r="R114" s="24"/>
+      <c r="S114" s="24"/>
+      <c r="T114" s="40"/>
+      <c r="U114" s="40"/>
+    </row>
+    <row r="115" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="B115" s="27"/>
       <c r="C115" s="24"/>
       <c r="D115" s="23"/>
@@ -30078,11 +30312,14 @@
       <c r="M115" s="26"/>
       <c r="N115" s="24"/>
       <c r="O115" s="24"/>
-      <c r="P115" s="26"/>
-      <c r="Q115" s="40"/>
-      <c r="R115" s="40"/>
-    </row>
-    <row r="116" spans="2:18" hidden="1" x14ac:dyDescent="0.35">
+      <c r="P115" s="24"/>
+      <c r="Q115" s="24"/>
+      <c r="R115" s="24"/>
+      <c r="S115" s="24"/>
+      <c r="T115" s="40"/>
+      <c r="U115" s="40"/>
+    </row>
+    <row r="116" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="B116" s="27"/>
       <c r="C116" s="24"/>
       <c r="D116" s="23"/>
@@ -30097,11 +30334,14 @@
       <c r="M116" s="26"/>
       <c r="N116" s="24"/>
       <c r="O116" s="24"/>
-      <c r="P116" s="26"/>
-      <c r="Q116" s="40"/>
-      <c r="R116" s="40"/>
-    </row>
-    <row r="117" spans="2:18" hidden="1" x14ac:dyDescent="0.35">
+      <c r="P116" s="24"/>
+      <c r="Q116" s="24"/>
+      <c r="R116" s="24"/>
+      <c r="S116" s="24"/>
+      <c r="T116" s="40"/>
+      <c r="U116" s="40"/>
+    </row>
+    <row r="117" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="B117" s="27"/>
       <c r="C117" s="24"/>
       <c r="D117" s="23"/>
@@ -30116,12 +30356,15 @@
       <c r="M117" s="26"/>
       <c r="N117" s="24"/>
       <c r="O117" s="24"/>
-      <c r="P117" s="26"/>
-      <c r="Q117" s="40"/>
-      <c r="R117" s="40"/>
+      <c r="P117" s="24"/>
+      <c r="Q117" s="24"/>
+      <c r="R117" s="24"/>
+      <c r="S117" s="24"/>
+      <c r="T117" s="40"/>
+      <c r="U117" s="40"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B12:R22">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B12:U22">
     <sortCondition ref="B12:B22"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -30228,12 +30471,12 @@
   </sheetPr>
   <dimension ref="A7:BD96"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="7" ySplit="7" topLeftCell="AR8" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="7" ySplit="7" topLeftCell="H26" activePane="bottomRight" state="frozen"/>
       <selection activeCell="J19" sqref="J19"/>
       <selection pane="topRight" activeCell="J19" sqref="J19"/>
       <selection pane="bottomLeft" activeCell="J19" sqref="J19"/>
-      <selection pane="bottomRight" activeCell="M8" sqref="M8:M96"/>
+      <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -30404,10 +30647,10 @@
         <v>861</v>
       </c>
       <c r="AQ7" s="116" t="s">
-        <v>1437</v>
+        <v>1435</v>
       </c>
       <c r="AR7" s="116" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
       <c r="AS7" s="116" t="s">
         <v>862</v>
@@ -30490,11 +30733,11 @@
         <v>Macarena</v>
       </c>
       <c r="M8" s="2" t="str">
-        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$P$112,7,0)</f>
+        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$S$112,7,0)</f>
         <v>POWER BI</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="O8" s="2" t="s">
         <v>199</v>
@@ -30549,7 +30792,7 @@
       <c r="AL8" s="7"/>
       <c r="AM8" s="7"/>
       <c r="AN8" s="7" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="AO8" s="7" t="s">
         <v>956</v>
@@ -30640,11 +30883,11 @@
         <v>Reyes</v>
       </c>
       <c r="M9" s="2" t="str">
-        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$P$112,7,0)</f>
+        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$S$112,7,0)</f>
         <v>NO DEFINIDO</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="O9" s="2" t="s">
         <v>199</v>
@@ -30755,11 +30998,11 @@
         <v>Efraín</v>
       </c>
       <c r="M10" s="2" t="str">
-        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$P$112,7,0)</f>
+        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$S$112,7,0)</f>
         <v>GEE</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="O10" s="2" t="s">
         <v>199</v>
@@ -30810,7 +31053,7 @@
         <v>193</v>
       </c>
       <c r="AQ10" s="19" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
       <c r="AR10" s="19" t="s">
         <v>1323</v>
@@ -30847,7 +31090,7 @@
         <v>1</v>
       </c>
       <c r="BD10" s="7" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="11" spans="1:56" ht="63" x14ac:dyDescent="0.35">
@@ -30892,11 +31135,11 @@
         <v>Macarena</v>
       </c>
       <c r="M11" s="2" t="str">
-        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$P$112,7,0)</f>
+        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$S$112,7,0)</f>
         <v>NO DEFINIDO</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="O11" s="2" t="s">
         <v>199</v>
@@ -31007,11 +31250,11 @@
         <v>Macarena</v>
       </c>
       <c r="M12" s="2" t="str">
-        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$P$112,7,0)</f>
+        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$S$112,7,0)</f>
         <v>NO DEFINIDO</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="O12" s="2" t="s">
         <v>199</v>
@@ -31112,11 +31355,11 @@
         <v>Natalia</v>
       </c>
       <c r="M13" s="2" t="str">
-        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$P$112,7,0)</f>
+        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$S$112,7,0)</f>
         <v>NO DEFINIDO</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="O13" s="2" t="s">
         <v>199</v>
@@ -31217,11 +31460,11 @@
         <v>Natalia</v>
       </c>
       <c r="M14" s="2" t="str">
-        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$P$112,7,0)</f>
+        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$S$112,7,0)</f>
         <v>INFOGRAM</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="O14" s="2" t="s">
         <v>199</v>
@@ -31345,11 +31588,11 @@
         <v>Silvia</v>
       </c>
       <c r="M15" s="2" t="str">
-        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$P$112,7,0)</f>
+        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$S$112,7,0)</f>
         <v>INFOGRAM</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="O15" s="2" t="s">
         <v>199</v>
@@ -31469,11 +31712,11 @@
         <v>No Asignado</v>
       </c>
       <c r="M16" s="2" t="str">
-        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$P$112,7,0)</f>
+        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$S$112,7,0)</f>
         <v>NO DEFINIDO</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="O16" s="2" t="s">
         <v>199</v>
@@ -31503,7 +31746,7 @@
       <c r="AL16" s="7"/>
       <c r="AM16" s="7"/>
       <c r="AN16" s="7" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="AO16" s="7"/>
       <c r="AP16" s="7"/>
@@ -31530,7 +31773,7 @@
       <c r="BC16" s="7"/>
       <c r="BD16" s="7"/>
     </row>
-    <row r="17" spans="1:56" ht="96" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:56" ht="58" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="str">
         <f>+VLOOKUP(D17,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0004</v>
@@ -31556,7 +31799,7 @@
         <v>948</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>161</v>
@@ -31574,7 +31817,7 @@
         <v>Astrid</v>
       </c>
       <c r="M17" s="2" t="str">
-        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$P$112,7,0)</f>
+        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$S$112,7,0)</f>
         <v>ARCGIS-POWER BI</v>
       </c>
       <c r="N17" s="2"/>
@@ -31654,7 +31897,7 @@
       </c>
       <c r="BD17" s="133"/>
     </row>
-    <row r="18" spans="1:56" ht="96" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:56" ht="48" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="str">
         <f>+VLOOKUP(D18,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0004</v>
@@ -31696,7 +31939,7 @@
         <v>Astrid</v>
       </c>
       <c r="M18" s="2" t="str">
-        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$P$112,7,0)</f>
+        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$S$112,7,0)</f>
         <v>ARCGIS-POWER BI</v>
       </c>
       <c r="N18" s="2"/>
@@ -31795,7 +32038,7 @@
         <v>838</v>
       </c>
       <c r="H19" s="99" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="44">
@@ -31811,7 +32054,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="2">
-        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$P$112,7,0)</f>
+        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$S$112,7,0)</f>
         <v>0</v>
       </c>
       <c r="N19" s="2"/>
@@ -31850,7 +32093,7 @@
       <c r="AL19" s="168"/>
       <c r="AM19" s="168"/>
       <c r="AN19" s="19" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
       <c r="AO19" s="7" t="s">
         <v>1156</v>
@@ -31859,7 +32102,7 @@
         <v>193</v>
       </c>
       <c r="AQ19" s="19" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
       <c r="AR19" s="19" t="s">
         <v>1323</v>
@@ -31892,7 +32135,7 @@
         <v>878</v>
       </c>
       <c r="BB19" s="101" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="BC19" s="7">
         <v>1</v>
@@ -31901,7 +32144,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="20" spans="1:56" ht="84" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:56" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="str">
         <f>+VLOOKUP(D20,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0010</v>
@@ -31943,7 +32186,7 @@
         <v>Silvia</v>
       </c>
       <c r="M20" s="2" t="str">
-        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$P$112,7,0)</f>
+        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$S$112,7,0)</f>
         <v>ARCGISONLINE</v>
       </c>
       <c r="N20" s="2"/>
@@ -32024,7 +32267,7 @@
         <v>218</v>
       </c>
       <c r="H21" s="99" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="44">
@@ -32040,7 +32283,7 @@
         <v>Silvia</v>
       </c>
       <c r="M21" s="2" t="str">
-        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$P$112,7,0)</f>
+        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$S$112,7,0)</f>
         <v>POWER BI</v>
       </c>
       <c r="N21" s="2"/>
@@ -32090,7 +32333,7 @@
         <v>193</v>
       </c>
       <c r="AQ21" s="19" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
       <c r="AR21" s="19" t="s">
         <v>1323</v>
@@ -32176,7 +32419,7 @@
         <v>Silvia</v>
       </c>
       <c r="M22" s="2" t="str">
-        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$P$112,7,0)</f>
+        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$S$112,7,0)</f>
         <v>POWER BI</v>
       </c>
       <c r="N22" s="2"/>
@@ -32283,7 +32526,7 @@
         <v>Reyes-Monse</v>
       </c>
       <c r="M23" s="2" t="str">
-        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$P$112,7,0)</f>
+        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$S$112,7,0)</f>
         <v>POWER BI</v>
       </c>
       <c r="N23" s="2"/>
@@ -32306,7 +32549,7 @@
         <v>Evaluación de Programas e Instituciones del servicio público (1997-2000).</v>
       </c>
       <c r="AD23" s="7" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="AE23" s="19" t="s">
         <v>194</v>
@@ -32367,7 +32610,7 @@
         <v>959</v>
       </c>
       <c r="AY23" s="101" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="AZ23" s="7" t="s">
         <v>877</v>
@@ -32376,13 +32619,13 @@
         <v>878</v>
       </c>
       <c r="BB23" s="7" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
       <c r="BC23" s="7">
         <v>1</v>
       </c>
       <c r="BD23" s="7" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="24" spans="1:56" ht="72.5" x14ac:dyDescent="0.35">
@@ -32408,10 +32651,10 @@
         <v>0002-01-00017</v>
       </c>
       <c r="G24" s="2" t="s">
+        <v>1346</v>
+      </c>
+      <c r="H24" s="2" t="s">
         <v>1347</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>1348</v>
       </c>
       <c r="I24" s="2"/>
       <c r="J24" s="44">
@@ -32427,7 +32670,7 @@
         <v>Natalia</v>
       </c>
       <c r="M24" s="2" t="str">
-        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$P$112,7,0)</f>
+        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$S$112,7,0)</f>
         <v>POWER BI</v>
       </c>
       <c r="N24" s="2"/>
@@ -32525,7 +32768,7 @@
         <v>Natalia</v>
       </c>
       <c r="M25" s="2">
-        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$P$112,7,0)</f>
+        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$S$112,7,0)</f>
         <v>0</v>
       </c>
       <c r="N25" s="2"/>
@@ -32620,7 +32863,7 @@
         <v>Natalia</v>
       </c>
       <c r="M26" s="2">
-        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$P$112,7,0)</f>
+        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$S$112,7,0)</f>
         <v>0</v>
       </c>
       <c r="N26" s="2"/>
@@ -32717,7 +32960,7 @@
         <v>Natalia</v>
       </c>
       <c r="M27" s="2">
-        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$P$112,7,0)</f>
+        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$S$112,7,0)</f>
         <v>0</v>
       </c>
       <c r="N27" s="2"/>
@@ -32812,7 +33055,7 @@
         <v>Natalia</v>
       </c>
       <c r="M28" s="2">
-        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$P$112,7,0)</f>
+        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$S$112,7,0)</f>
         <v>0</v>
       </c>
       <c r="N28" s="2"/>
@@ -32867,7 +33110,7 @@
       <c r="BC28" s="7"/>
       <c r="BD28" s="7"/>
     </row>
-    <row r="29" spans="1:56" ht="36" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:56" ht="24" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="str">
         <f>+VLOOKUP(D29,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0002</v>
@@ -32909,7 +33152,7 @@
         <v>Efraín</v>
       </c>
       <c r="M29" s="2" t="str">
-        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$P$112,7,0)</f>
+        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$S$112,7,0)</f>
         <v>GEE</v>
       </c>
       <c r="N29" s="2"/>
@@ -33004,7 +33247,7 @@
         <v>Carolina</v>
       </c>
       <c r="M30" s="2" t="str">
-        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$P$112,7,0)</f>
+        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$S$112,7,0)</f>
         <v>POWER BI</v>
       </c>
       <c r="N30" s="2"/>
@@ -33018,7 +33261,7 @@
       <c r="V30" s="3"/>
       <c r="W30" s="7"/>
       <c r="X30" s="132" t="s">
-        <v>1503</v>
+        <v>1501</v>
       </c>
       <c r="AA30" s="7"/>
       <c r="AB30" s="38"/>
@@ -33062,7 +33305,7 @@
       <c r="BC30" s="7"/>
       <c r="BD30" s="7"/>
     </row>
-    <row r="31" spans="1:56" ht="48" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:56" ht="24" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="str">
         <f>+VLOOKUP(D31,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0001</v>
@@ -33102,7 +33345,7 @@
         <v>Carolina</v>
       </c>
       <c r="M31" s="2" t="str">
-        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$P$112,7,0)</f>
+        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$S$112,7,0)</f>
         <v>POWER BI</v>
       </c>
       <c r="N31" s="2"/>
@@ -33157,7 +33400,7 @@
       <c r="BC31" s="7"/>
       <c r="BD31" s="7"/>
     </row>
-    <row r="32" spans="1:56" ht="192" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:56" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="str">
         <f>+VLOOKUP(D32,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0001</v>
@@ -33183,7 +33426,7 @@
         <v>1202</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="I32" s="2"/>
       <c r="J32" s="44">
@@ -33199,7 +33442,7 @@
         <v>Carolina</v>
       </c>
       <c r="M32" s="2" t="str">
-        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$P$112,7,0)</f>
+        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$S$112,7,0)</f>
         <v>ARCGIS-POWER BI</v>
       </c>
       <c r="N32" s="2"/>
@@ -33236,7 +33479,7 @@
       <c r="AL32" s="7"/>
       <c r="AM32" s="7"/>
       <c r="AN32" s="7" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
       <c r="AO32" s="7"/>
       <c r="AP32" s="7"/>
@@ -33264,7 +33507,7 @@
       <c r="BB32" s="7"/>
       <c r="BC32" s="7"/>
       <c r="BD32" s="7" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="33" spans="1:56" ht="29" x14ac:dyDescent="0.35">
@@ -33307,7 +33550,7 @@
         <v>0</v>
       </c>
       <c r="M33" s="2">
-        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$P$112,7,0)</f>
+        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$S$112,7,0)</f>
         <v>0</v>
       </c>
       <c r="N33" s="2"/>
@@ -33402,7 +33645,7 @@
         <v>0</v>
       </c>
       <c r="M34" s="2">
-        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$P$112,7,0)</f>
+        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$S$112,7,0)</f>
         <v>0</v>
       </c>
       <c r="N34" s="2"/>
@@ -33457,7 +33700,7 @@
       <c r="BC34" s="7"/>
       <c r="BD34" s="7"/>
     </row>
-    <row r="35" spans="1:56" ht="48" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:56" ht="24" x14ac:dyDescent="0.35">
       <c r="A35" s="42" t="str">
         <f>+VLOOKUP(D35,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0004</v>
@@ -33497,7 +33740,7 @@
         <v>Astrid</v>
       </c>
       <c r="M35" s="2" t="str">
-        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$P$112,7,0)</f>
+        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$S$112,7,0)</f>
         <v>ARCGIS-POWER BI</v>
       </c>
       <c r="N35" s="2"/>
@@ -33556,7 +33799,7 @@
       <c r="BC35" s="7"/>
       <c r="BD35" s="7"/>
     </row>
-    <row r="36" spans="1:56" ht="132" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:56" ht="87" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="str">
         <f>+VLOOKUP(D36,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0007</v>
@@ -33582,7 +33825,7 @@
         <v>925</v>
       </c>
       <c r="H36" s="98" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="I36" s="2"/>
       <c r="J36" s="44">
@@ -33598,7 +33841,7 @@
         <v>Fernanda</v>
       </c>
       <c r="M36" s="2" t="str">
-        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$P$112,7,0)</f>
+        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$S$112,7,0)</f>
         <v>POWER BI</v>
       </c>
       <c r="N36" s="2"/>
@@ -33621,7 +33864,7 @@
         <v>Empresas Registradas en el SII</v>
       </c>
       <c r="AD36" s="135" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="AE36" s="19" t="s">
         <v>194</v>
@@ -33639,7 +33882,7 @@
       <c r="AL36" s="168"/>
       <c r="AM36" s="168"/>
       <c r="AN36" s="7" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="AO36" s="7" t="s">
         <v>1156</v>
@@ -33648,7 +33891,7 @@
         <v>193</v>
       </c>
       <c r="AQ36" s="19" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
       <c r="AR36" s="19" t="s">
         <v>1323</v>
@@ -33685,7 +33928,7 @@
         <v>1</v>
       </c>
       <c r="BD36" s="7" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="37" spans="1:56" ht="104" x14ac:dyDescent="0.35">
@@ -33730,7 +33973,7 @@
         <v>Astrid</v>
       </c>
       <c r="M37" s="2" t="str">
-        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$P$112,7,0)</f>
+        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$S$112,7,0)</f>
         <v>POWER BI</v>
       </c>
       <c r="N37" s="2"/>
@@ -33760,7 +34003,7 @@
       </c>
       <c r="AF37" s="166"/>
       <c r="AG37" s="19" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="AH37" s="167"/>
       <c r="AI37" s="19" t="s">
@@ -33771,7 +34014,7 @@
       <c r="AL37" s="168"/>
       <c r="AM37" s="168"/>
       <c r="AN37" s="19" t="s">
-        <v>1445</v>
+        <v>1443</v>
       </c>
       <c r="AO37" s="7" t="s">
         <v>1149</v>
@@ -33780,7 +34023,7 @@
         <v>767</v>
       </c>
       <c r="AQ37" s="19" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="AR37" s="19" t="s">
         <v>1324</v>
@@ -33858,7 +34101,7 @@
         <v>Karen</v>
       </c>
       <c r="M38" s="2">
-        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$P$112,7,0)</f>
+        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$S$112,7,0)</f>
         <v>0</v>
       </c>
       <c r="N38" s="2"/>
@@ -33955,11 +34198,11 @@
         <v>Macarena</v>
       </c>
       <c r="M39" s="2" t="str">
-        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$P$112,7,0)</f>
+        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$S$112,7,0)</f>
         <v>POWER BI</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="O39" s="2" t="s">
         <v>199</v>
@@ -34010,7 +34253,7 @@
         <v>1267</v>
       </c>
       <c r="AN39" s="7" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="AO39" s="7" t="s">
         <v>1149</v>
@@ -34063,7 +34306,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="40" spans="1:56" ht="72" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:56" ht="61" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="str">
         <f>+VLOOKUP(D40,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0003</v>
@@ -34105,7 +34348,7 @@
         <v>Claudia</v>
       </c>
       <c r="M40" s="2" t="str">
-        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$P$112,7,0)</f>
+        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$S$112,7,0)</f>
         <v>POWER BI</v>
       </c>
       <c r="N40" s="2"/>
@@ -34143,7 +34386,7 @@
       <c r="AL40" s="168"/>
       <c r="AM40" s="168"/>
       <c r="AN40" s="7" t="s">
-        <v>1364</v>
+        <v>1511</v>
       </c>
       <c r="AO40" s="7"/>
       <c r="AP40" s="100"/>
@@ -34181,7 +34424,7 @@
         <v>1</v>
       </c>
       <c r="BD40" s="7" t="s">
-        <v>1327</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="41" spans="1:56" ht="29" x14ac:dyDescent="0.35">
@@ -34226,7 +34469,7 @@
         <v>Claudia</v>
       </c>
       <c r="M41" s="2" t="str">
-        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$P$112,7,0)</f>
+        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$S$112,7,0)</f>
         <v>GEE</v>
       </c>
       <c r="N41" s="2"/>
@@ -34281,7 +34524,7 @@
       <c r="BC41" s="7"/>
       <c r="BD41" s="7"/>
     </row>
-    <row r="42" spans="1:56" ht="60" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:56" ht="24" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="str">
         <f>+VLOOKUP(D42,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0003</v>
@@ -34323,7 +34566,7 @@
         <v>Claudia</v>
       </c>
       <c r="M42" s="2" t="str">
-        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$P$112,7,0)</f>
+        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$S$112,7,0)</f>
         <v>POWER BI</v>
       </c>
       <c r="N42" s="2"/>
@@ -34424,7 +34667,7 @@
         <v>0</v>
       </c>
       <c r="M43" s="2">
-        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$P$112,7,0)</f>
+        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$S$112,7,0)</f>
         <v>0</v>
       </c>
       <c r="N43" s="2"/>
@@ -34519,7 +34762,7 @@
         <v>0</v>
       </c>
       <c r="M44" s="2">
-        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$P$112,7,0)</f>
+        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$S$112,7,0)</f>
         <v>0</v>
       </c>
       <c r="N44" s="2"/>
@@ -34616,7 +34859,7 @@
         <v>Reyes-Monse</v>
       </c>
       <c r="M45" s="2" t="str">
-        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$P$112,7,0)</f>
+        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$S$112,7,0)</f>
         <v>ARCGISONLINE</v>
       </c>
       <c r="N45" s="2"/>
@@ -34630,7 +34873,7 @@
       <c r="V45" s="3"/>
       <c r="W45" s="7"/>
       <c r="X45" s="91" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
       <c r="AA45" s="7"/>
       <c r="AB45" s="13"/>
@@ -34665,7 +34908,7 @@
         <v>1267</v>
       </c>
       <c r="AN45" s="7" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="AO45" s="7" t="s">
         <v>1149</v>
@@ -34756,7 +34999,7 @@
         <v>0</v>
       </c>
       <c r="M46" s="2">
-        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$P$112,7,0)</f>
+        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$S$112,7,0)</f>
         <v>0</v>
       </c>
       <c r="N46" s="2"/>
@@ -34842,7 +35085,7 @@
       <c r="I47" s="2"/>
       <c r="J47" s="44">
         <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$J$112,4,0)</f>
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="K47" s="2">
         <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$K$112,5,0)</f>
@@ -34853,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="M47" s="2">
-        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$P$112,7,0)</f>
+        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$S$112,7,0)</f>
         <v>0</v>
       </c>
       <c r="N47" s="2"/>
@@ -34886,7 +35129,7 @@
       <c r="AL47" s="7"/>
       <c r="AM47" s="7"/>
       <c r="AN47" s="7" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="AO47" s="7"/>
       <c r="AP47" s="7"/>
@@ -34915,7 +35158,7 @@
     </row>
     <row r="48" spans="1:56" ht="65.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="42" t="str">
-        <f>+VLOOKUP(D48,'DATA`S'!$B$8:$C$33,2,0)</f>
+        <f>+VLOOKUP(D48,'DATA`S'!$B$8:$C$34,2,0)</f>
         <v>0009</v>
       </c>
       <c r="B48" s="42" t="str">
@@ -34955,7 +35198,7 @@
         <v>Reyes-Monse</v>
       </c>
       <c r="M48" s="2" t="str">
-        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$P$112,7,0)</f>
+        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$S$112,7,0)</f>
         <v>ARCGISONLINE</v>
       </c>
       <c r="N48" s="2"/>
@@ -35001,7 +35244,7 @@
         <v>1267</v>
       </c>
       <c r="AN48" s="19" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
       <c r="AO48" s="7"/>
       <c r="AP48" s="7" t="s">
@@ -35050,7 +35293,7 @@
     </row>
     <row r="49" spans="1:56" ht="61.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="42" t="str">
-        <f>+VLOOKUP(D49,'DATA`S'!$B$8:$C$33,2,0)</f>
+        <f>+VLOOKUP(D49,'DATA`S'!$B$8:$C$34,2,0)</f>
         <v>0009</v>
       </c>
       <c r="B49" s="42" t="str">
@@ -35090,7 +35333,7 @@
         <v>Reyes-Monse</v>
       </c>
       <c r="M49" s="2" t="str">
-        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$P$112,7,0)</f>
+        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$S$112,7,0)</f>
         <v>ARCGISONLINE</v>
       </c>
       <c r="N49" s="2"/>
@@ -35136,7 +35379,7 @@
         <v>1267</v>
       </c>
       <c r="AN49" s="19" t="s">
-        <v>1448</v>
+        <v>1446</v>
       </c>
       <c r="AO49" s="7"/>
       <c r="AP49" s="7" t="s">
@@ -35185,7 +35428,7 @@
     </row>
     <row r="50" spans="1:56" ht="78" x14ac:dyDescent="0.35">
       <c r="A50" s="42" t="str">
-        <f>+VLOOKUP(D50,'DATA`S'!$B$8:$C$33,2,0)</f>
+        <f>+VLOOKUP(D50,'DATA`S'!$B$8:$C$34,2,0)</f>
         <v>0001</v>
       </c>
       <c r="B50" s="42" t="str">
@@ -35209,7 +35452,7 @@
         <v>1129</v>
       </c>
       <c r="H50" s="99" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="I50" s="2"/>
       <c r="J50" s="44">
@@ -35225,7 +35468,7 @@
         <v>0</v>
       </c>
       <c r="M50" s="2" t="str">
-        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$P$112,7,0)</f>
+        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$S$112,7,0)</f>
         <v>POWER BI</v>
       </c>
       <c r="N50" s="2"/>
@@ -35239,7 +35482,7 @@
       <c r="V50" s="3"/>
       <c r="W50" s="7"/>
       <c r="X50" s="174" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
       <c r="AA50" s="7"/>
       <c r="AB50" s="13"/>
@@ -35274,7 +35517,7 @@
         <v>1267</v>
       </c>
       <c r="AN50" s="19" t="s">
-        <v>1449</v>
+        <v>1447</v>
       </c>
       <c r="AO50" s="19" t="s">
         <v>956</v>
@@ -35303,13 +35546,13 @@
         <v>POWER BI</v>
       </c>
       <c r="AW50" s="19" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="AX50" s="7" t="s">
         <v>959</v>
       </c>
       <c r="AY50" s="19" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="AZ50" s="7" t="s">
         <v>877</v>
@@ -35322,12 +35565,12 @@
         <v>1</v>
       </c>
       <c r="BD50" s="7" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="51" spans="1:56" ht="78" x14ac:dyDescent="0.35">
       <c r="A51" s="42" t="str">
-        <f>+VLOOKUP(D51,'DATA`S'!$B$8:$C$33,2,0)</f>
+        <f>+VLOOKUP(D51,'DATA`S'!$B$8:$C$34,2,0)</f>
         <v>0001</v>
       </c>
       <c r="B51" s="42" t="str">
@@ -35351,7 +35594,7 @@
         <v>1129</v>
       </c>
       <c r="H51" s="99" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="I51" s="2"/>
       <c r="J51" s="44">
@@ -35367,7 +35610,7 @@
         <v>0</v>
       </c>
       <c r="M51" s="2" t="str">
-        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$P$112,7,0)</f>
+        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$S$112,7,0)</f>
         <v>POWER BI</v>
       </c>
       <c r="N51" s="2"/>
@@ -35381,7 +35624,7 @@
       <c r="V51" s="3"/>
       <c r="W51" s="7"/>
       <c r="X51" s="68" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
       <c r="AA51" s="7"/>
       <c r="AB51" s="13"/>
@@ -35416,7 +35659,7 @@
         <v>1267</v>
       </c>
       <c r="AN51" s="19" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="AO51" s="19" t="s">
         <v>956</v>
@@ -35445,13 +35688,13 @@
         <v>POWER BI</v>
       </c>
       <c r="AW51" s="19" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="AX51" s="7" t="s">
         <v>959</v>
       </c>
       <c r="AY51" s="19" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="AZ51" s="7" t="s">
         <v>877</v>
@@ -35464,7 +35707,7 @@
         <v>1</v>
       </c>
       <c r="BD51" s="7" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="52" spans="1:56" ht="24" x14ac:dyDescent="0.35">
@@ -35507,7 +35750,7 @@
         <v>Ma. Victoria</v>
       </c>
       <c r="M52" s="2">
-        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$P$112,7,0)</f>
+        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$S$112,7,0)</f>
         <v>0</v>
       </c>
       <c r="N52" s="2"/>
@@ -35604,7 +35847,7 @@
         <v>#N/A</v>
       </c>
       <c r="M53" s="2" t="e">
-        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$P$112,7,0)</f>
+        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$S$112,7,0)</f>
         <v>#N/A</v>
       </c>
       <c r="N53" s="2"/>
@@ -35659,7 +35902,7 @@
       <c r="BC53" s="7"/>
       <c r="BD53" s="7"/>
     </row>
-    <row r="54" spans="1:56" ht="84" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:56" ht="24" x14ac:dyDescent="0.35">
       <c r="A54" s="42" t="str">
         <f>+VLOOKUP(D54,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0012</v>
@@ -35699,7 +35942,7 @@
         <v>No Asignado</v>
       </c>
       <c r="M54" s="2" t="str">
-        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$P$112,7,0)</f>
+        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$S$112,7,0)</f>
         <v>POWER BI</v>
       </c>
       <c r="N54" s="2"/>
@@ -35754,7 +35997,7 @@
       <c r="BC54" s="7"/>
       <c r="BD54" s="7"/>
     </row>
-    <row r="55" spans="1:56" ht="36" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:56" ht="24" x14ac:dyDescent="0.35">
       <c r="A55" s="42" t="str">
         <f>+VLOOKUP(D55,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0022</v>
@@ -35794,7 +36037,7 @@
         <v>Silvia</v>
       </c>
       <c r="M55" s="2">
-        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$P$112,7,0)</f>
+        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$S$112,7,0)</f>
         <v>0</v>
       </c>
       <c r="N55" s="2"/>
@@ -35849,7 +36092,7 @@
       <c r="BC55" s="7"/>
       <c r="BD55" s="7"/>
     </row>
-    <row r="56" spans="1:56" ht="60" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:56" ht="24" x14ac:dyDescent="0.35">
       <c r="A56" s="42" t="str">
         <f>+VLOOKUP(D56,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0023</v>
@@ -35889,7 +36132,7 @@
         <v>Fernanda</v>
       </c>
       <c r="M56" s="2" t="str">
-        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$P$112,7,0)</f>
+        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$S$112,7,0)</f>
         <v>POWER BI</v>
       </c>
       <c r="N56" s="2"/>
@@ -35984,7 +36227,7 @@
         <v>0</v>
       </c>
       <c r="M57" s="2">
-        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$P$112,7,0)</f>
+        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$S$112,7,0)</f>
         <v>0</v>
       </c>
       <c r="N57" s="2"/>
@@ -36081,7 +36324,7 @@
         <v>Reyes-Monse</v>
       </c>
       <c r="M58" s="2" t="str">
-        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$P$112,7,0)</f>
+        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$S$112,7,0)</f>
         <v>ARCGISONLINE</v>
       </c>
       <c r="N58" s="2"/>
@@ -36095,7 +36338,7 @@
       <c r="V58" s="3"/>
       <c r="W58" s="7"/>
       <c r="X58" s="132" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="AA58" s="7"/>
       <c r="AB58" s="13"/>
@@ -36130,7 +36373,7 @@
         <v>1267</v>
       </c>
       <c r="AN58" s="19" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="AO58" s="7"/>
       <c r="AP58" s="7" t="s">
@@ -36219,7 +36462,7 @@
         <v>Reyes-Monse</v>
       </c>
       <c r="M59" s="2" t="str">
-        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$P$112,7,0)</f>
+        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$S$112,7,0)</f>
         <v>ARCGISONLINE</v>
       </c>
       <c r="N59" s="2"/>
@@ -36233,7 +36476,7 @@
       <c r="V59" s="3"/>
       <c r="W59" s="7"/>
       <c r="X59" s="91" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="AA59" s="7"/>
       <c r="AB59" s="13"/>
@@ -36268,7 +36511,7 @@
         <v>1267</v>
       </c>
       <c r="AN59" s="7" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="AO59" s="7"/>
       <c r="AP59" s="7" t="s">
@@ -36357,7 +36600,7 @@
         <v xml:space="preserve">Paula </v>
       </c>
       <c r="M60" s="2" t="str">
-        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$P$112,7,0)</f>
+        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$S$112,7,0)</f>
         <v>POWER BI</v>
       </c>
       <c r="N60" s="2"/>
@@ -36380,7 +36623,7 @@
         <v>Evolución Delitos de Mayor Connotación Social (2008-2020)</v>
       </c>
       <c r="AD60" s="135" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="AE60" s="19" t="s">
         <v>194</v>
@@ -36402,14 +36645,14 @@
         <v>1267</v>
       </c>
       <c r="AN60" s="19" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AO60" s="100"/>
       <c r="AP60" s="19" t="s">
         <v>193</v>
       </c>
       <c r="AQ60" s="19" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
       <c r="AR60" s="19" t="s">
         <v>1267</v>
@@ -36442,7 +36685,7 @@
         <v>1</v>
       </c>
       <c r="BD60" s="7" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="61" spans="1:56" ht="24" x14ac:dyDescent="0.35">
@@ -36485,7 +36728,7 @@
         <v>Karen</v>
       </c>
       <c r="M61" s="2" t="str">
-        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$P$112,7,0)</f>
+        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$S$112,7,0)</f>
         <v>POWER BI</v>
       </c>
       <c r="N61" s="2"/>
@@ -36580,7 +36823,7 @@
         <v>Karen</v>
       </c>
       <c r="M62" s="2" t="str">
-        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$P$112,7,0)</f>
+        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$S$112,7,0)</f>
         <v>POWER BI</v>
       </c>
       <c r="N62" s="2"/>
@@ -36675,7 +36918,7 @@
         <v>Karen</v>
       </c>
       <c r="M63" s="2" t="str">
-        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$P$112,7,0)</f>
+        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$S$112,7,0)</f>
         <v>POWER BI</v>
       </c>
       <c r="N63" s="2"/>
@@ -36770,7 +37013,7 @@
         <v>Karen</v>
       </c>
       <c r="M64" s="2" t="str">
-        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$P$112,7,0)</f>
+        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$S$112,7,0)</f>
         <v>ARCGISONLINE</v>
       </c>
       <c r="N64" s="2"/>
@@ -36851,7 +37094,7 @@
         <v>935</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="I65" s="2"/>
       <c r="J65" s="44">
@@ -36867,7 +37110,7 @@
         <v>Karen-MVC</v>
       </c>
       <c r="M65" s="2">
-        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$P$112,7,0)</f>
+        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$S$112,7,0)</f>
         <v>0</v>
       </c>
       <c r="N65" s="2"/>
@@ -36897,7 +37140,7 @@
       <c r="AL65" s="7"/>
       <c r="AM65" s="7"/>
       <c r="AN65" s="7" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
       <c r="AO65" s="7"/>
       <c r="AP65" s="7"/>
@@ -36964,7 +37207,7 @@
         <v>Karen-MVC</v>
       </c>
       <c r="M66" s="2">
-        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$P$112,7,0)</f>
+        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$S$112,7,0)</f>
         <v>0</v>
       </c>
       <c r="N66" s="2"/>
@@ -36993,7 +37236,7 @@
       <c r="AL66" s="7"/>
       <c r="AM66" s="7"/>
       <c r="AN66" s="7" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="AO66" s="7"/>
       <c r="AP66" s="7"/>
@@ -37062,7 +37305,7 @@
         <v>Claudia</v>
       </c>
       <c r="M67" s="2">
-        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$P$112,7,0)</f>
+        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$S$112,7,0)</f>
         <v>0</v>
       </c>
       <c r="N67" s="2"/>
@@ -37159,7 +37402,7 @@
         <v>Claudia</v>
       </c>
       <c r="M68" s="2" t="str">
-        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$P$112,7,0)</f>
+        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$S$112,7,0)</f>
         <v>GEE</v>
       </c>
       <c r="N68" s="2"/>
@@ -37198,7 +37441,7 @@
       <c r="AL68" s="167"/>
       <c r="AM68" s="167"/>
       <c r="AN68" s="7" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="AO68" s="7"/>
       <c r="AP68" s="100"/>
@@ -37230,7 +37473,7 @@
         <v>1</v>
       </c>
       <c r="BD68" s="7" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="69" spans="1:56" ht="72" x14ac:dyDescent="0.35">
@@ -37275,7 +37518,7 @@
         <v>Claudia</v>
       </c>
       <c r="M69" s="2" t="str">
-        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$P$112,7,0)</f>
+        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$S$112,7,0)</f>
         <v>POWER BI</v>
       </c>
       <c r="N69" s="2"/>
@@ -37313,7 +37556,7 @@
       <c r="AL69" s="100"/>
       <c r="AM69" s="100"/>
       <c r="AN69" s="7" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="AO69" s="7"/>
       <c r="AP69" s="7"/>
@@ -37354,7 +37597,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="70" spans="1:56" ht="72" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:56" ht="48" x14ac:dyDescent="0.35">
       <c r="A70" s="42" t="str">
         <f>+VLOOKUP(D70,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0003</v>
@@ -37396,7 +37639,7 @@
         <v>Claudia</v>
       </c>
       <c r="M70" s="2" t="str">
-        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$P$112,7,0)</f>
+        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$S$112,7,0)</f>
         <v>POWER BI</v>
       </c>
       <c r="N70" s="2"/>
@@ -37434,7 +37677,7 @@
       <c r="AL70" s="100"/>
       <c r="AM70" s="100"/>
       <c r="AN70" s="7" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="AO70" s="7"/>
       <c r="AP70" s="7"/>
@@ -37515,7 +37758,7 @@
         <v>Claudia</v>
       </c>
       <c r="M71" s="2" t="str">
-        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$P$112,7,0)</f>
+        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$S$112,7,0)</f>
         <v>POWER BI</v>
       </c>
       <c r="N71" s="2"/>
@@ -37553,7 +37796,7 @@
       <c r="AL71" s="100"/>
       <c r="AM71" s="100"/>
       <c r="AN71" s="7" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="AO71" s="7"/>
       <c r="AP71" s="7"/>
@@ -37634,7 +37877,7 @@
         <v>Claudia</v>
       </c>
       <c r="M72" s="2" t="str">
-        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$P$112,7,0)</f>
+        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$S$112,7,0)</f>
         <v>POWER BI</v>
       </c>
       <c r="N72" s="2"/>
@@ -37672,7 +37915,7 @@
       <c r="AL72" s="100"/>
       <c r="AM72" s="100"/>
       <c r="AN72" s="7" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="AO72" s="7"/>
       <c r="AP72" s="7"/>
@@ -37753,7 +37996,7 @@
         <v>Claudia</v>
       </c>
       <c r="M73" s="2" t="str">
-        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$P$112,7,0)</f>
+        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$S$112,7,0)</f>
         <v>POWER BI</v>
       </c>
       <c r="N73" s="2"/>
@@ -37791,7 +38034,7 @@
       <c r="AL73" s="100"/>
       <c r="AM73" s="100"/>
       <c r="AN73" s="7" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="AO73" s="7"/>
       <c r="AP73" s="7"/>
@@ -37872,7 +38115,7 @@
         <v>Claudia</v>
       </c>
       <c r="M74" s="2" t="str">
-        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$P$112,7,0)</f>
+        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$S$112,7,0)</f>
         <v>POWER BI</v>
       </c>
       <c r="N74" s="2"/>
@@ -37910,7 +38153,7 @@
       <c r="AL74" s="100"/>
       <c r="AM74" s="100"/>
       <c r="AN74" s="7" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="AO74" s="7"/>
       <c r="AP74" s="7"/>
@@ -37975,7 +38218,7 @@
         <v>1129</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="I75" s="2"/>
       <c r="J75" s="44">
@@ -37991,7 +38234,7 @@
         <v>0</v>
       </c>
       <c r="M75" s="2" t="str">
-        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$P$112,7,0)</f>
+        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$S$112,7,0)</f>
         <v>POWER BI</v>
       </c>
       <c r="N75" s="2"/>
@@ -38005,7 +38248,7 @@
       <c r="V75" s="3"/>
       <c r="W75" s="7"/>
       <c r="X75" s="68" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="AA75" s="7"/>
       <c r="AB75" s="13"/>
@@ -38040,7 +38283,7 @@
         <v>1267</v>
       </c>
       <c r="AN75" s="19" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="AO75" s="19" t="s">
         <v>956</v>
@@ -38069,13 +38312,13 @@
         <v>POWER BI</v>
       </c>
       <c r="AW75" s="19" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="AX75" s="7" t="s">
         <v>959</v>
       </c>
       <c r="AY75" s="19" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="AZ75" s="7" t="s">
         <v>877</v>
@@ -38088,7 +38331,7 @@
         <v>1</v>
       </c>
       <c r="BD75" s="7" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="76" spans="1:56" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -38131,7 +38374,7 @@
         <v>Patricio</v>
       </c>
       <c r="M76" s="2" t="str">
-        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$P$112,7,0)</f>
+        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$S$112,7,0)</f>
         <v>NO DEFINIDO</v>
       </c>
       <c r="N76" s="2"/>
@@ -38228,7 +38471,7 @@
         <v>0</v>
       </c>
       <c r="M77" s="2">
-        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$P$112,7,0)</f>
+        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$S$112,7,0)</f>
         <v>0</v>
       </c>
       <c r="N77" s="2"/>
@@ -38330,7 +38573,7 @@
         <v>Claudia</v>
       </c>
       <c r="M78" s="2" t="str">
-        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$P$112,7,0)</f>
+        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$S$112,7,0)</f>
         <v>GEE</v>
       </c>
       <c r="N78" s="2"/>
@@ -38427,7 +38670,7 @@
         <v>Claudia</v>
       </c>
       <c r="M79" s="2" t="str">
-        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$P$112,7,0)</f>
+        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$S$112,7,0)</f>
         <v>GEE</v>
       </c>
       <c r="N79" s="2"/>
@@ -38484,7 +38727,7 @@
     </row>
     <row r="80" spans="1:56" ht="24" x14ac:dyDescent="0.35">
       <c r="A80" s="42" t="str">
-        <f>+VLOOKUP(D80,'DATA`S'!$B$8:$C$33,2,0)</f>
+        <f>+VLOOKUP(D80,'DATA`S'!$B$8:$C$34,2,0)</f>
         <v>0004</v>
       </c>
       <c r="B80" s="42" t="str">
@@ -38524,7 +38767,7 @@
         <v>0</v>
       </c>
       <c r="M80" s="2">
-        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$P$112,7,0)</f>
+        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$S$112,7,0)</f>
         <v>0</v>
       </c>
       <c r="N80" s="2"/>
@@ -38583,7 +38826,7 @@
     </row>
     <row r="81" spans="1:56" ht="24" x14ac:dyDescent="0.35">
       <c r="A81" s="42" t="str">
-        <f>+VLOOKUP(D81,'DATA`S'!$B$8:$C$33,2,0)</f>
+        <f>+VLOOKUP(D81,'DATA`S'!$B$8:$C$34,2,0)</f>
         <v>0004</v>
       </c>
       <c r="B81" s="42" t="str">
@@ -38623,7 +38866,7 @@
         <v>#N/A</v>
       </c>
       <c r="M81" s="2" t="e">
-        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$P$112,7,0)</f>
+        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$S$112,7,0)</f>
         <v>#N/A</v>
       </c>
       <c r="N81" s="2"/>
@@ -38680,7 +38923,7 @@
     </row>
     <row r="82" spans="1:56" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="42" t="str">
-        <f>+VLOOKUP(D82,'DATA`S'!$B$8:$C$33,2,0)</f>
+        <f>+VLOOKUP(D82,'DATA`S'!$B$8:$C$34,2,0)</f>
         <v>0004</v>
       </c>
       <c r="B82" s="42" t="str">
@@ -38720,7 +38963,7 @@
         <v>0</v>
       </c>
       <c r="M82" s="2">
-        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$P$112,7,0)</f>
+        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$S$112,7,0)</f>
         <v>0</v>
       </c>
       <c r="N82" s="2"/>
@@ -38777,7 +39020,7 @@
     </row>
     <row r="83" spans="1:56" ht="24" x14ac:dyDescent="0.35">
       <c r="A83" s="42" t="str">
-        <f>+VLOOKUP(D83,'DATA`S'!$B$8:$C$33,2,0)</f>
+        <f>+VLOOKUP(D83,'DATA`S'!$B$8:$C$34,2,0)</f>
         <v>0004</v>
       </c>
       <c r="B83" s="42" t="str">
@@ -38817,7 +39060,7 @@
         <v>0</v>
       </c>
       <c r="M83" s="2">
-        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$P$112,7,0)</f>
+        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$S$112,7,0)</f>
         <v>0</v>
       </c>
       <c r="N83" s="2"/>
@@ -38876,7 +39119,7 @@
     </row>
     <row r="84" spans="1:56" ht="24" x14ac:dyDescent="0.35">
       <c r="A84" s="42" t="str">
-        <f>+VLOOKUP(D84,'DATA`S'!$B$8:$C$33,2,0)</f>
+        <f>+VLOOKUP(D84,'DATA`S'!$B$8:$C$34,2,0)</f>
         <v>0004</v>
       </c>
       <c r="B84" s="42" t="str">
@@ -38916,7 +39159,7 @@
         <v>0</v>
       </c>
       <c r="M84" s="2">
-        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$P$112,7,0)</f>
+        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$S$112,7,0)</f>
         <v>0</v>
       </c>
       <c r="N84" s="2"/>
@@ -38973,7 +39216,7 @@
     </row>
     <row r="85" spans="1:56" ht="24" x14ac:dyDescent="0.35">
       <c r="A85" s="42" t="str">
-        <f>+VLOOKUP(D85,'DATA`S'!$B$8:$C$33,2,0)</f>
+        <f>+VLOOKUP(D85,'DATA`S'!$B$8:$C$34,2,0)</f>
         <v>0004</v>
       </c>
       <c r="B85" s="42" t="str">
@@ -39013,7 +39256,7 @@
         <v>#N/A</v>
       </c>
       <c r="M85" s="2" t="e">
-        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$P$112,7,0)</f>
+        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$S$112,7,0)</f>
         <v>#N/A</v>
       </c>
       <c r="N85" s="2"/>
@@ -39072,7 +39315,7 @@
     </row>
     <row r="86" spans="1:56" ht="24" x14ac:dyDescent="0.35">
       <c r="A86" s="42" t="str">
-        <f>+VLOOKUP(D86,'DATA`S'!$B$8:$C$33,2,0)</f>
+        <f>+VLOOKUP(D86,'DATA`S'!$B$8:$C$34,2,0)</f>
         <v>0004</v>
       </c>
       <c r="B86" s="42" t="str">
@@ -39112,7 +39355,7 @@
         <v>#N/A</v>
       </c>
       <c r="M86" s="2" t="e">
-        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$P$112,7,0)</f>
+        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$S$112,7,0)</f>
         <v>#N/A</v>
       </c>
       <c r="N86" s="2"/>
@@ -39171,7 +39414,7 @@
     </row>
     <row r="87" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A87" s="42" t="str">
-        <f>+VLOOKUP(D87,'DATA`S'!$B$8:$C$33,2,0)</f>
+        <f>+VLOOKUP(D87,'DATA`S'!$B$8:$C$34,2,0)</f>
         <v>0001</v>
       </c>
       <c r="B87" s="42" t="str">
@@ -39209,7 +39452,7 @@
         <v>0</v>
       </c>
       <c r="M87" s="2">
-        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$P$112,7,0)</f>
+        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$S$112,7,0)</f>
         <v>0</v>
       </c>
       <c r="N87" s="2"/>
@@ -39243,7 +39486,7 @@
     </row>
     <row r="88" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A88" s="42" t="str">
-        <f>+VLOOKUP(D88,'DATA`S'!$B$8:$C$33,2,0)</f>
+        <f>+VLOOKUP(D88,'DATA`S'!$B$8:$C$34,2,0)</f>
         <v>0001</v>
       </c>
       <c r="B88" s="42" t="str">
@@ -39281,7 +39524,7 @@
         <v>Carolina</v>
       </c>
       <c r="M88" s="2" t="str">
-        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$P$112,7,0)</f>
+        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$S$112,7,0)</f>
         <v>POWER BI</v>
       </c>
       <c r="N88" s="2"/>
@@ -39312,7 +39555,7 @@
     </row>
     <row r="89" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A89" s="42" t="str">
-        <f>+VLOOKUP(D89,'DATA`S'!$B$8:$C$33,2,0)</f>
+        <f>+VLOOKUP(D89,'DATA`S'!$B$8:$C$34,2,0)</f>
         <v>0001</v>
       </c>
       <c r="B89" s="42" t="str">
@@ -39350,7 +39593,7 @@
         <v>Carolina</v>
       </c>
       <c r="M89" s="2" t="str">
-        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$P$112,7,0)</f>
+        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$S$112,7,0)</f>
         <v>POWER BI</v>
       </c>
       <c r="N89" s="2"/>
@@ -39381,7 +39624,7 @@
     </row>
     <row r="90" spans="1:56" ht="78" x14ac:dyDescent="0.35">
       <c r="A90" s="42" t="str">
-        <f>+VLOOKUP(D90,'DATA`S'!$B$8:$C$33,2,0)</f>
+        <f>+VLOOKUP(D90,'DATA`S'!$B$8:$C$34,2,0)</f>
         <v>0001</v>
       </c>
       <c r="B90" s="42" t="str">
@@ -39405,7 +39648,7 @@
         <v>1129</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="I90" s="2"/>
       <c r="J90" s="44">
@@ -39421,7 +39664,7 @@
         <v>0</v>
       </c>
       <c r="M90" s="2" t="str">
-        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$P$112,7,0)</f>
+        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$S$112,7,0)</f>
         <v>POWER BI</v>
       </c>
       <c r="N90" s="2"/>
@@ -39435,7 +39678,7 @@
       <c r="V90" s="3"/>
       <c r="W90" s="7"/>
       <c r="X90" s="68" t="s">
-        <v>1459</v>
+        <v>1457</v>
       </c>
       <c r="AA90" s="7"/>
       <c r="AB90" s="13"/>
@@ -39469,7 +39712,7 @@
         <v>1267</v>
       </c>
       <c r="AN90" s="19" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
       <c r="AO90" s="56" t="s">
         <v>956</v>
@@ -39498,13 +39741,13 @@
         <v>POWER BI</v>
       </c>
       <c r="AW90" s="19" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="AX90" s="14" t="s">
         <v>959</v>
       </c>
       <c r="AY90" s="68" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="AZ90" s="7" t="s">
         <v>877</v>
@@ -39517,12 +39760,12 @@
         <v>1</v>
       </c>
       <c r="BD90" s="7" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="91" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A91" s="42" t="str">
-        <f>+VLOOKUP(D91,'DATA`S'!$B$8:$C$33,2,0)</f>
+        <f>+VLOOKUP(D91,'DATA`S'!$B$8:$C$34,2,0)</f>
         <v>0017</v>
       </c>
       <c r="B91" s="42" t="str">
@@ -39562,7 +39805,7 @@
         <v>#N/A</v>
       </c>
       <c r="M91" s="2" t="e">
-        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$P$112,7,0)</f>
+        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$S$112,7,0)</f>
         <v>#N/A</v>
       </c>
       <c r="N91" s="2"/>
@@ -39589,7 +39832,7 @@
     </row>
     <row r="92" spans="1:56" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="42" t="str">
-        <f>+VLOOKUP(D92,'DATA`S'!$B$8:$C$33,2,0)</f>
+        <f>+VLOOKUP(D92,'DATA`S'!$B$8:$C$34,2,0)</f>
         <v>0018</v>
       </c>
       <c r="B92" s="42" t="str">
@@ -39627,7 +39870,7 @@
         <v>Reyes-Monse</v>
       </c>
       <c r="M92" s="2" t="str">
-        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$P$112,7,0)</f>
+        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$S$112,7,0)</f>
         <v>POWER BI</v>
       </c>
       <c r="N92" s="2"/>
@@ -39654,7 +39897,7 @@
     </row>
     <row r="93" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A93" s="42" t="str">
-        <f>+VLOOKUP(D93,'DATA`S'!$B$8:$C$33,2,0)</f>
+        <f>+VLOOKUP(D93,'DATA`S'!$B$8:$C$34,2,0)</f>
         <v>0019</v>
       </c>
       <c r="B93" s="42" t="str">
@@ -39681,7 +39924,7 @@
       <c r="I93" s="2"/>
       <c r="J93" s="44">
         <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$J$112,4,0)</f>
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="K93" s="2">
         <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$K$112,5,0)</f>
@@ -39692,7 +39935,7 @@
         <v>0</v>
       </c>
       <c r="M93" s="2">
-        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$P$112,7,0)</f>
+        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$S$112,7,0)</f>
         <v>0</v>
       </c>
       <c r="N93" s="2"/>
@@ -39719,7 +39962,7 @@
     </row>
     <row r="94" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A94" s="42" t="str">
-        <f>+VLOOKUP(D94,'DATA`S'!$B$8:$C$33,2,0)</f>
+        <f>+VLOOKUP(D94,'DATA`S'!$B$8:$C$34,2,0)</f>
         <v>0019</v>
       </c>
       <c r="B94" s="42" t="str">
@@ -39746,7 +39989,7 @@
       <c r="I94" s="2"/>
       <c r="J94" s="44">
         <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$J$112,4,0)</f>
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="K94" s="2">
         <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$K$112,5,0)</f>
@@ -39757,7 +40000,7 @@
         <v>0</v>
       </c>
       <c r="M94" s="2">
-        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$P$112,7,0)</f>
+        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$S$112,7,0)</f>
         <v>0</v>
       </c>
       <c r="N94" s="2"/>
@@ -39784,7 +40027,7 @@
     </row>
     <row r="95" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A95" s="42" t="str">
-        <f>+VLOOKUP(D95,'DATA`S'!$B$8:$C$33,2,0)</f>
+        <f>+VLOOKUP(D95,'DATA`S'!$B$8:$C$34,2,0)</f>
         <v>0001</v>
       </c>
       <c r="B95" s="42" t="str">
@@ -39822,7 +40065,7 @@
         <v>Carolina</v>
       </c>
       <c r="M95" s="2" t="str">
-        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$P$112,7,0)</f>
+        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$S$112,7,0)</f>
         <v>ARCGISONLINE</v>
       </c>
       <c r="N95" s="2"/>
@@ -39850,7 +40093,7 @@
     </row>
     <row r="96" spans="1:56" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A96" s="42" t="str">
-        <f>+VLOOKUP(D96,'DATA`S'!$B$8:$C$33,2,0)</f>
+        <f>+VLOOKUP(D96,'DATA`S'!$B$8:$C$34,2,0)</f>
         <v>0026</v>
       </c>
       <c r="B96" s="42" t="str">
@@ -39858,10 +40101,10 @@
         <v>04</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>837</v>
@@ -39871,7 +40114,7 @@
         <v>0026-04-00089</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>1478</v>
+        <v>1476</v>
       </c>
       <c r="H96" s="2"/>
       <c r="I96" s="2"/>
@@ -39882,7 +40125,7 @@
       <c r="K96" s="2"/>
       <c r="L96" s="2"/>
       <c r="M96" s="2" t="e">
-        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$P$112,7,0)</f>
+        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$S$112,7,0)</f>
         <v>#N/A</v>
       </c>
       <c r="N96" s="2"/>
@@ -39896,7 +40139,7 @@
       <c r="V96" s="3"/>
       <c r="W96" s="7"/>
       <c r="X96" s="91" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
       <c r="AA96" s="7"/>
       <c r="AB96" s="13"/>
@@ -49275,7 +49518,7 @@
         <v>974</v>
       </c>
       <c r="I7" s="16" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.35">
@@ -49395,7 +49638,7 @@
     </row>
     <row r="17" spans="2:7" ht="29" x14ac:dyDescent="0.35">
       <c r="B17" s="141" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
       <c r="C17" s="149" t="s">
         <v>161</v>
@@ -49408,12 +49651,12 @@
       </c>
       <c r="F17" s="159"/>
       <c r="G17" s="14" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B18" s="141" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
       <c r="C18" s="144" t="s">
         <v>1273</v>
@@ -49426,7 +49669,7 @@
       </c>
       <c r="F18" s="159"/>
       <c r="G18" s="14" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.35">
@@ -49444,7 +49687,7 @@
       </c>
       <c r="F19" s="159"/>
       <c r="G19" s="16" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.35">
@@ -49477,7 +49720,7 @@
       </c>
       <c r="F21" s="159"/>
       <c r="G21" s="16" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="22" spans="2:7" ht="42.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -49513,7 +49756,7 @@
       </c>
       <c r="F23" s="159"/>
       <c r="G23" s="14" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="24" spans="2:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
@@ -49531,7 +49774,7 @@
       </c>
       <c r="F24" s="159"/>
       <c r="G24" s="14" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.35">
@@ -49564,7 +49807,7 @@
         <v>159</v>
       </c>
       <c r="G26" s="16" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.35">
@@ -49581,10 +49824,10 @@
         <v>99</v>
       </c>
       <c r="F27" s="159" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="G27" s="16" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.35">
@@ -49601,10 +49844,10 @@
         <v>99</v>
       </c>
       <c r="F28" s="159" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
       <c r="G28" s="16" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="29" spans="2:7" ht="43.5" x14ac:dyDescent="0.35">
@@ -49621,10 +49864,10 @@
         <v>99</v>
       </c>
       <c r="F29" s="159" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
       <c r="G29" s="14" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.35">
@@ -49641,10 +49884,10 @@
         <v>99</v>
       </c>
       <c r="F30" s="159" t="s">
+        <v>1415</v>
+      </c>
+      <c r="G30" s="16" t="s">
         <v>1417</v>
-      </c>
-      <c r="G30" s="16" t="s">
-        <v>1419</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.35">
@@ -49661,10 +49904,10 @@
         <v>99</v>
       </c>
       <c r="F31" s="159" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="G31" s="16" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.35">
@@ -49681,10 +49924,10 @@
         <v>99</v>
       </c>
       <c r="F32" s="159" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="G32" s="16" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.35">
@@ -49704,7 +49947,7 @@
         <v>159</v>
       </c>
       <c r="G33" s="16" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.35">
@@ -49721,10 +49964,10 @@
         <v>99</v>
       </c>
       <c r="F34" s="159" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="G34" s="16" t="s">
-        <v>1470</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.35">
@@ -49744,10 +49987,10 @@
         <v>159</v>
       </c>
       <c r="G35" s="16" t="s">
-        <v>1470</v>
+        <v>1468</v>
       </c>
       <c r="H35" s="16" t="s">
-        <v>1471</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.35">
@@ -49764,10 +50007,10 @@
         <v>99</v>
       </c>
       <c r="F36" s="159" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
       <c r="G36" s="16" t="s">
-        <v>1470</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.35">
@@ -49805,7 +50048,7 @@
         <v>159</v>
       </c>
       <c r="G38" s="14" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.35">
@@ -49825,7 +50068,7 @@
         <v>159</v>
       </c>
       <c r="G39" s="16" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.35">
@@ -49842,10 +50085,10 @@
         <v>95</v>
       </c>
       <c r="F40" s="158" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="G40" s="16" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.35">
@@ -49862,10 +50105,10 @@
         <v>95</v>
       </c>
       <c r="F41" s="158" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
       <c r="G41" s="16" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.35">
@@ -49885,7 +50128,7 @@
         <v>159</v>
       </c>
       <c r="G42" s="16" t="s">
-        <v>1472</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.35">
@@ -49902,10 +50145,10 @@
         <v>95</v>
       </c>
       <c r="F43" s="158" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="G43" s="16" t="s">
-        <v>1473</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.35">
@@ -49922,10 +50165,10 @@
         <v>95</v>
       </c>
       <c r="F44" s="158" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
       <c r="G44" s="16" t="s">
-        <v>1473</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.35">
@@ -49945,7 +50188,7 @@
         <v>159</v>
       </c>
       <c r="G45" s="16" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.35">
@@ -49962,10 +50205,10 @@
         <v>98</v>
       </c>
       <c r="F46" s="159" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="G46" s="16" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="47" spans="2:8" ht="34" customHeight="1" x14ac:dyDescent="0.35">
@@ -49985,7 +50228,7 @@
         <v>159</v>
       </c>
       <c r="G47" s="14" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="48" spans="2:8" ht="34" customHeight="1" x14ac:dyDescent="0.35">
@@ -50005,7 +50248,7 @@
         <v>159</v>
       </c>
       <c r="G48" s="14" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="49" spans="2:9" ht="29" x14ac:dyDescent="0.35">
@@ -50025,7 +50268,7 @@
         <v>159</v>
       </c>
       <c r="G49" s="14" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.35">
@@ -50042,10 +50285,10 @@
         <v>98</v>
       </c>
       <c r="F50" s="159" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="G50" s="16" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.35">
@@ -50062,10 +50305,10 @@
         <v>98</v>
       </c>
       <c r="F51" s="159" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="G51" s="16" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="52" spans="2:9" ht="29" x14ac:dyDescent="0.35">
@@ -50082,10 +50325,10 @@
         <v>98</v>
       </c>
       <c r="F52" s="159" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
       <c r="G52" s="14" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.35">
@@ -50105,7 +50348,7 @@
         <v>159</v>
       </c>
       <c r="G53" s="14" t="s">
-        <v>1473</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="54" spans="2:9" ht="43.5" x14ac:dyDescent="0.35">
@@ -50125,7 +50368,7 @@
         <v>159</v>
       </c>
       <c r="G54" s="132" t="s">
-        <v>1474</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.35">
@@ -50142,10 +50385,10 @@
         <v>98</v>
       </c>
       <c r="F55" s="159" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="G55" s="14" t="s">
-        <v>1473</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.35">
@@ -50162,10 +50405,10 @@
         <v>98</v>
       </c>
       <c r="F56" s="159" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
       <c r="G56" s="14" t="s">
-        <v>1473</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.35">
@@ -50182,16 +50425,16 @@
         <v>93</v>
       </c>
       <c r="F57" s="159" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
       <c r="G57" s="16" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
       <c r="H57" s="16" t="s">
+        <v>1382</v>
+      </c>
+      <c r="I57" s="16" t="s">
         <v>1384</v>
-      </c>
-      <c r="I57" s="16" t="s">
-        <v>1386</v>
       </c>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.35">
@@ -50208,10 +50451,10 @@
         <v>93</v>
       </c>
       <c r="F58" s="158" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
       <c r="G58" s="16" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.35">
@@ -50231,7 +50474,7 @@
         <v>159</v>
       </c>
       <c r="G59" s="16" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="60" spans="2:9" ht="43.5" x14ac:dyDescent="0.35">
@@ -50251,13 +50494,13 @@
         <v>1057</v>
       </c>
       <c r="G60" s="16" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
       <c r="H60" s="14" t="s">
         <v>1308</v>
       </c>
       <c r="I60" s="14" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.35">
@@ -50277,7 +50520,7 @@
         <v>159</v>
       </c>
       <c r="G61" s="16" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.35">
@@ -50297,7 +50540,7 @@
         <v>1057</v>
       </c>
       <c r="G62" s="16" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.35">
@@ -50317,7 +50560,7 @@
         <v>1057</v>
       </c>
       <c r="G63" s="16" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.35">
@@ -50334,10 +50577,10 @@
         <v>93</v>
       </c>
       <c r="F64" s="159" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
       <c r="G64" s="16" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.35">
@@ -50357,7 +50600,7 @@
         <v>159</v>
       </c>
       <c r="G65" s="16" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.35">
@@ -50377,7 +50620,7 @@
         <v>1057</v>
       </c>
       <c r="G66" s="16" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.35">
@@ -50394,10 +50637,10 @@
         <v>93</v>
       </c>
       <c r="F67" s="159" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
       <c r="G67" s="16" t="s">
-        <v>1473</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="68" spans="2:8" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -50415,10 +50658,10 @@
       </c>
       <c r="F68" s="158"/>
       <c r="G68" s="16" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
       <c r="H68" s="14" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.35">
@@ -51675,7 +51918,7 @@
         <v>1023</v>
       </c>
       <c r="C38" s="78" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="D38" s="78"/>
       <c r="E38" s="78"/>
@@ -51697,7 +51940,7 @@
         <v>1025</v>
       </c>
       <c r="C39" s="47" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="D39" s="50">
         <v>44121</v>
@@ -51722,7 +51965,7 @@
         <v>1027</v>
       </c>
       <c r="C41" s="47" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="D41" s="50">
         <v>44126</v>
@@ -51818,7 +52061,7 @@
         <v>39</v>
       </c>
       <c r="B48" s="48" t="s">
-        <v>1469</v>
+        <v>1467</v>
       </c>
       <c r="M48" s="49"/>
     </row>
@@ -51827,10 +52070,10 @@
         <v>40</v>
       </c>
       <c r="B49" s="48" t="s">
-        <v>1468</v>
+        <v>1466</v>
       </c>
       <c r="L49" s="163" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="M49" s="49"/>
     </row>
@@ -51839,10 +52082,10 @@
         <v>41</v>
       </c>
       <c r="B50" s="48" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="L50" s="163" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
       <c r="M50" s="49"/>
     </row>
@@ -51851,7 +52094,7 @@
         <v>42</v>
       </c>
       <c r="B51" s="48" t="s">
-        <v>1436</v>
+        <v>1434</v>
       </c>
       <c r="M51" s="49"/>
     </row>
@@ -51860,10 +52103,10 @@
         <v>43</v>
       </c>
       <c r="B52" s="48" t="s">
-        <v>1467</v>
+        <v>1465</v>
       </c>
       <c r="L52" s="163" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
       <c r="M52" s="49"/>
     </row>
@@ -51872,10 +52115,10 @@
         <v>44</v>
       </c>
       <c r="B53" s="48" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
       <c r="L53" s="163" t="s">
-        <v>1484</v>
+        <v>1482</v>
       </c>
       <c r="M53" s="49"/>
     </row>

--- a/Monitoreo DI.xlsx
+++ b/Monitoreo DI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karen\Dropbox\DI Monitoreo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC7AB5C2-2B94-45CD-AC18-90BBE0F9B58C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74C5DD5D-DAC4-4382-B880-B06CEE7EFE3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" tabRatio="833" firstSheet="2" activeTab="12" xr2:uid="{F0BF9B96-FFF4-4E12-841F-9553B6E1990E}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="833" firstSheet="2" activeTab="2" xr2:uid="{F0BF9B96-FFF4-4E12-841F-9553B6E1990E}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA`S" sheetId="1" r:id="rId1"/>
@@ -110,7 +110,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6034" uniqueCount="1515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6040" uniqueCount="1522">
   <si>
     <t>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/DATASALUD.svg</t>
   </si>
@@ -4449,351 +4449,6 @@
   </si>
   <si>
     <t xml:space="preserve">Mapas y tableros interactivos permiten realizar una observación de los femicidios registrados a lo largo de 2020 de acuerdo a los antecedentes del caso, descripción del hecho y estatus de las causas. La visualización está planificada para poder llevar un monitoreo territorial de acuerdo a cada caso presentado. </t>
-  </si>
-  <si>
-    <r>
-      <t>El</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Índice de Calidad de Vida Urbana</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> mide y compara en términos relativos la calidad de vida urbana de comunas y ciudades en Chile, a partir de un conjunto de variables referidas a seis dimensiones que expresan el estado de situación en la provisión de bienes y servicios públicos y privados a la población residente y sus correspondientes impactos socio-territoriales de ciudades intermedias como metropolitanas. Indice con rango (0,100)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>La herramienta</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Salvaguardas de la Cooperación Internacional </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>presenta de manera amigable información relativa a las salvaguardas de los distintos organismos internacionales, identificando las distintas temáticas que cada una de ellas aborda, ya sea que estén vinculadas a variables ambientales, sociales o culturales. La información se presenta de manera amigable, facilitando la toma de decisiones en materia de salvaguardas.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">La herramienta </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Calidad de Viviendas Urbanas </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>es una plataforma de fácil uso que permite visualizar de manera espacial estadísticas de número de hogares, número de viviendas, porcentaje de hacinamiento y porcentaje de viviendas que requieren mejoras. La información está disponible a nnivel comunal, para las principales zonas urbanas del país.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">En la plataforma </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Organismos Intergubernamentales (OIG) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>encontrarás un perfil de los distintos organismos y su trayectoria en cuanto a proyectos financiados en diferentes países.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Cooperación internacional </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>es una herramienta que te permite identificar los fondos de cooperación internacional que ofrecen los organismos intergubernamentales por categoría de proyecto, facilitando la evaluación y diseño estratégico de los proyectos que buscan apoyo de fondos internacionales para ser desarrollados.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>AGROGEOMÁTICA - Monitoreo de humedad</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> es una herramienta que te permitirá gestionar de mejor manera el agua, planificando mejor su uso y anticipando escenarios de escasez hídrica. Todo de manera fácil y práctica, mediante una aplicación móvil que te permitirá tener información precisa en terreno al alcance de tu mano.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">AGROSTAT - Producción Pecuaria </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>reune estadísticas del mundo pecuario, relacionadas a la producción bovina, avícola y porcina. Presenta detalles en cuanto a número de cabezas, razas, número de criaderos, entre otros. Incluye también estadísticas productivas de la industria láctea menor. Tdoo esto puede ser analizado a nivel naciona, regiional o comunal.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>AGROSTAT - Ambiental</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> presenta estadísticas detalladas sobre cambio de uso de suelo e incendios en relación al sector silvoagropecuario, las cuales pueden ser analizadas a nivel nacional, regional o comunal.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>En</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> AGROSTAT - Economía Agrícola </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ponemos a disposición estadísticas económicas relacionadas al mundo agrícola, tales como empleos, precios, exportaciones e importaciones, siendo posible realizar análisis a diferentes escalas (nacional, regional o comunal).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">En </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>AGROSTAT - Economía Pecuaria</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ponemos a disposición estadísticas económicas relacionadas al mundo pecuario, tales como empleos por tipo de industria, precios, exportaciones e importaciones, siendo posible realizar análisis a diferentes escalas (nacional, regional o comunal).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>AGROSTAT - Producción Forestal</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> reune estadísticas del mundo forestal, relacionadas a las superficies de plantaciones forestales y la producción que existe, por tipo de producto maderero, ya sea a nivel nacional, regional o comunal.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">En </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>AGROSTAT - Economía Forestal</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ponemos a disposición estadísticas económicas relacionadas al mundo forestal, tales como ocupación general y de la industria primaria, precios, exportaciones e importaciones, siendo posible realizar análisis a diferentes escalas (nacional, regional o comunal).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Emergencias de salud</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> entrega la ubicación de centros de atención de urgencia y farmacias, a nivel comunal</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Este mapa presenta una observación respecto al crecimiento poblacional del país</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>en relación a la oferta hídrica disponible. ¿Cuál es el estado actual? ¿Qué podríamos proyectar?</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">A través de este mapa interactivo podrás observar los antecedentes de cada uno de los femicidios registrados desde el año 2010 al 2020 a nivel Nacional, accediendo además al estado judicial de cada una de las causas. </t>
@@ -5733,10 +5388,117 @@
     <t>Shopify</t>
   </si>
   <si>
+    <t>#estadisticas #agricolas #agraria #produccion #rendimiento #superficie #cultivo #plantacion #anuales #perennes #cereales #berries</t>
+  </si>
+  <si>
+    <t>DATACOMERCIO</t>
+  </si>
+  <si>
+    <t>0027</t>
+  </si>
+  <si>
+    <t>https://app.powerbi.com/view?r=eyJrIjoiYzNmMDRjMjctYmQwZC00M2Y1LWIwYjgtOTVmODQyMTliNzM4IiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9</t>
+  </si>
+  <si>
+    <t>https://app.powerbi.com/view?r=eyJrIjoiOGU0YzQ2NTctOGVkMS00OGVmLWJmMTItMDNhNTgxM2YzMTM5IiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9</t>
+  </si>
+  <si>
+    <t>https://app.powerbi.com/view?r=eyJrIjoiNGQxMDhkNzgtZDEwZi00YmMyLWJmYzAtMzNiNmQ3OTk5MGVhIiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Este mapa permitirá observar la tasa de desempleo de acuerdo a todas las regiones del país y la repercusión de la crisis económica que vive el país de acuerdo a los principales sectores económicos. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Además se podrá comparar de acuerdo a la situación en que nos econtrábamos en 2019 a nivel comparativo, junto con proyecciones para el cierre de este año de acuerdo a los proyectos de reactivación económica por parte del Gobierno. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Este mapa presenta una observación respecto al crecimiento poblacional del país</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>en relación a la oferta hídrica disponible. ¿Cuál es el estado actual? ¿Qué podríamos proyectar?</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
-        <sz val="9"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Emergencias de salud</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> entrega la ubicación de centros de atención de urgencia y farmacias, a nivel comunal</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">En </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Pueblos Indígenas y Comunidades Lingüisticas de Guatemala</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> podrás encontrar información georreferenciada detallada sobre los pueblos Maya, Xinca, Garífuna, Afrodescendientes, Ladinos o Extranjeros, presentada a nivel nacional, departamental y municipal. Además, la plataforma presenta información acerca de las 22 comunidades lingüisticas de Guatemala, específicamente sobre la población que posee estos idiomas como idioma materno y la que los puede leer y escribir, todo a nivel nacional, departamental y municipal. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -5746,7 +5508,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="9"/>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -5756,13 +5518,347 @@
     </r>
   </si>
   <si>
-    <t>#estadisticas #agricolas #agraria #produccion #rendimiento #superficie #cultivo #plantacion #anuales #perennes #cereales #berries</t>
-  </si>
-  <si>
-    <t>DATACOMERCIO</t>
-  </si>
-  <si>
-    <t>0027</t>
+    <r>
+      <t>El</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Índice de Calidad de Vida Urbana</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> mide y compara en términos relativos la calidad de vida urbana de comunas y ciudades en Chile, a partir de un conjunto de variables referidas a seis dimensiones que expresan el estado de situación en la provisión de bienes y servicios públicos y privados a la población residente y sus correspondientes impactos socio-territoriales de ciudades intermedias como metropolitanas. Indice con rango (0,100)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>La herramienta</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Salvaguardas de la Cooperación Internacional </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>presenta de manera amigable información relativa a las salvaguardas de los distintos organismos internacionales, identificando las distintas temáticas que cada una de ellas aborda, ya sea que estén vinculadas a variables ambientales, sociales o culturales. La información se presenta de manera amigable, facilitando la toma de decisiones en materia de salvaguardas.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">La herramienta </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Calidad de Viviendas Urbanas </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>es una plataforma de fácil uso que permite visualizar de manera espacial estadísticas de número de hogares, número de viviendas, porcentaje de hacinamiento y porcentaje de viviendas que requieren mejoras. La información está disponible a nnivel comunal, para las principales zonas urbanas del país.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">En la plataforma </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Organismos Intergubernamentales (OIG) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>encontrarás un perfil de los distintos organismos y su trayectoria en cuanto a proyectos financiados en diferentes países.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Cooperación internacional </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>es una herramienta que te permite identificar los fondos de cooperación internacional que ofrecen los organismos intergubernamentales por categoría de proyecto, facilitando la evaluación y diseño estratégico de los proyectos que buscan apoyo de fondos internacionales para ser desarrollados.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AGROGEOMÁTICA - Monitoreo de humedad</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> es una herramienta que te permitirá gestionar de mejor manera el agua, planificando mejor su uso y anticipando escenarios de escasez hídrica. Todo de manera fácil y práctica, mediante una aplicación móvil que te permitirá tener información precisa en terreno al alcance de tu mano.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">AGROSTAT - Producción Pecuaria </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>reune estadísticas del mundo pecuario, relacionadas a la producción bovina, avícola y porcina. Presenta detalles en cuanto a número de cabezas, razas, número de criaderos, entre otros. Incluye también estadísticas productivas de la industria láctea menor. Tdoo esto puede ser analizado a nivel naciona, regiional o comunal.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AGROSTAT - Producción Forestal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> reune estadísticas del mundo forestal, relacionadas a las superficies de plantaciones forestales y la producción que existe, por tipo de producto maderero, ya sea a nivel nacional, regional o comunal.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AGROSTAT - Ambiental</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> presenta estadísticas detalladas sobre cambio de uso de suelo e incendios en relación al sector silvoagropecuario, las cuales pueden ser analizadas a nivel nacional, regional o comunal.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>En</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> AGROSTAT - Economía Agrícola </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ponemos a disposición estadísticas económicas relacionadas al mundo agrícola, tales como empleos, precios, exportaciones e importaciones, siendo posible realizar análisis a diferentes escalas (nacional, regional o comunal).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">En </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AGROSTAT - Economía Pecuaria</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ponemos a disposición estadísticas económicas relacionadas al mundo pecuario, tales como empleos por tipo de industria, precios, exportaciones e importaciones, siendo posible realizar análisis a diferentes escalas (nacional, regional o comunal).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">En </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AGROSTAT - Economía Forestal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ponemos a disposición estadísticas económicas relacionadas al mundo forestal, tales como ocupación general y de la industria primaria, precios, exportaciones e importaciones, siendo posible realizar análisis a diferentes escalas (nacional, regional o comunal).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Pueblos de Guatemala</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> es una plataforma que reúne las principales estadísticas de los pueblos Maya, Xinca, Garífuna, Afrodescendientes, Ladinos y Extranjeros, a nivel nacional, departamental y municipal. Mediante tableros y gráficos interactivos se accede a información sobre su población según sexo y edad, así como la ubicación espacial donde se encuentran.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Comunidad Lingüística de Guatemala</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> es un producto que posee 22 variantes, una por cada comunidad lingüística . En cada plataforma individual se presenta información demográfica, población que lee y escribe el idioma, así como aquella que lo reconoce como idioma materno, junto con mapas comparativos de su representación geográfica, permitiendo una completa visualización para quienes buscan mayor detalle por comunidad.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -5773,7 +5869,7 @@
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
     <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5898,6 +5994,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF4472C4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -6197,7 +6300,7 @@
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="182">
+  <cellXfs count="183">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -6700,13 +6803,29 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="186">
+  <dxfs count="187">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -9388,8 +9507,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Estilo de segmentación de datos 1" pivot="0" table="0" count="2" xr9:uid="{7621B3B5-3284-42E2-9B51-77722CE67511}">
-      <tableStyleElement type="wholeTable" dxfId="185"/>
-      <tableStyleElement type="headerRow" dxfId="184"/>
+      <tableStyleElement type="wholeTable" dxfId="186"/>
+      <tableStyleElement type="headerRow" dxfId="185"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -9735,13 +9854,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>10796</xdr:rowOff>
+      <xdr:rowOff>7621</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>771684</xdr:colOff>
+      <xdr:colOff>768509</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>140336</xdr:rowOff>
+      <xdr:rowOff>143511</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
       <mc:Choice Requires="sle15">
@@ -9813,13 +9932,13 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>858996</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>50166</xdr:rowOff>
+      <xdr:rowOff>46991</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>383381</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>164466</xdr:rowOff>
+      <xdr:rowOff>161291</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
       <mc:Choice Requires="sle15">
@@ -9889,13 +10008,13 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>656431</xdr:colOff>
+      <xdr:colOff>659606</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>64136</xdr:rowOff>
+      <xdr:rowOff>67311</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>2106453</xdr:colOff>
+      <xdr:colOff>2103278</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>152401</xdr:rowOff>
     </xdr:to>
@@ -9967,15 +10086,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>2180113</xdr:colOff>
+      <xdr:colOff>2183288</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>26036</xdr:rowOff>
+      <xdr:rowOff>29211</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>621983</xdr:colOff>
+      <xdr:colOff>618808</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>140336</xdr:rowOff>
+      <xdr:rowOff>143511</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
       <mc:Choice Requires="sle15">
@@ -11895,7 +12014,7 @@
 
 <file path=xl/slicers/slicer7.xml><?xml version="1.0" encoding="utf-8"?>
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
-  <slicer name="Data 2" xr10:uid="{80951101-2A2B-4B15-9E33-78D3A7E8B5B0}" cache="SegmentaciónDeDatos_Data2" caption="Data" columnCount="2" style="SlicerStyleDark5" rowHeight="234950"/>
+  <slicer name="Data 2" xr10:uid="{80951101-2A2B-4B15-9E33-78D3A7E8B5B0}" cache="SegmentaciónDeDatos_Data2" caption="Data" startItem="6" columnCount="2" style="SlicerStyleDark5" rowHeight="234950"/>
   <slicer name="País" xr10:uid="{75A217B5-277A-4B68-8268-AEA4271B985B}" cache="SegmentaciónDeDatos_País" caption="País" style="SlicerStyleDark5" rowHeight="234950"/>
   <slicer name="Estado 2" xr10:uid="{271E2C58-B673-4F76-A62E-46B7337EB1E5}" cache="SegmentaciónDeDatos_Estado2" caption="Estado" style="SlicerStyleDark6" rowHeight="234950"/>
   <slicer name="Avance [0-100%]" xr10:uid="{3E416F9C-0DF4-4E82-9BCC-0ABC5F831734}" cache="SegmentaciónDeDatos_Avance__0_100" caption="Avance [0-100%]" columnCount="3" style="SlicerStyleDark5" rowHeight="234950"/>
@@ -11906,30 +12025,30 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6E39FE05-78F7-46B2-A48A-6AE9D75C0EBB}" name="DATAS" displayName="DATAS" ref="B7:K34" totalsRowShown="0" dataDxfId="183">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6E39FE05-78F7-46B2-A48A-6AE9D75C0EBB}" name="DATAS" displayName="DATAS" ref="B7:K34" totalsRowShown="0" dataDxfId="184">
   <autoFilter ref="B7:K34" xr:uid="{A0E2A789-D79F-4DB7-90A3-654E5E441AF8}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{7076C6AD-6717-404D-96C6-53FBA68C1EBC}" name="Data" dataDxfId="182"/>
-    <tableColumn id="2" xr3:uid="{B68EB833-5A56-4B1F-8BF1-E83CF0F5B1BA}" name="id_data" dataDxfId="181"/>
-    <tableColumn id="3" xr3:uid="{B68551BE-AD5B-4ABC-92F3-75214F86D3BC}" name="Estado" dataDxfId="180"/>
-    <tableColumn id="4" xr3:uid="{35F21F0F-CEDD-4627-8F3A-B243E93A29A8}" name="Desarrollo" dataDxfId="179"/>
-    <tableColumn id="5" xr3:uid="{55D616E3-D0F3-464E-B32C-8DF920812CBC}" name="Investigación" dataDxfId="178"/>
-    <tableColumn id="6" xr3:uid="{C1D2156E-87B8-470E-9168-7A6E5AE31CC2}" name="Breve Descripción" dataDxfId="177"/>
-    <tableColumn id="10" xr3:uid="{0091DFF5-4F92-4896-A2A6-03E40B76AE69}" name="Slogan - Cita" dataDxfId="176"/>
-    <tableColumn id="7" xr3:uid="{5B85BAF7-51FC-47E2-B831-0E709569CEC4}" name="Vistas" dataDxfId="175"/>
-    <tableColumn id="8" xr3:uid="{57861CEA-0BDC-4179-9FF2-0E59F48A2157}" name="Repositorio Dropbox" dataDxfId="174"/>
-    <tableColumn id="9" xr3:uid="{0E50183B-22E4-424B-96DD-18AC3480E706}" name="Link Logo" dataDxfId="173"/>
+    <tableColumn id="1" xr3:uid="{7076C6AD-6717-404D-96C6-53FBA68C1EBC}" name="Data" dataDxfId="183"/>
+    <tableColumn id="2" xr3:uid="{B68EB833-5A56-4B1F-8BF1-E83CF0F5B1BA}" name="id_data" dataDxfId="182"/>
+    <tableColumn id="3" xr3:uid="{B68551BE-AD5B-4ABC-92F3-75214F86D3BC}" name="Estado" dataDxfId="181"/>
+    <tableColumn id="4" xr3:uid="{35F21F0F-CEDD-4627-8F3A-B243E93A29A8}" name="Desarrollo" dataDxfId="180"/>
+    <tableColumn id="5" xr3:uid="{55D616E3-D0F3-464E-B32C-8DF920812CBC}" name="Investigación" dataDxfId="179"/>
+    <tableColumn id="6" xr3:uid="{C1D2156E-87B8-470E-9168-7A6E5AE31CC2}" name="Breve Descripción" dataDxfId="178"/>
+    <tableColumn id="10" xr3:uid="{0091DFF5-4F92-4896-A2A6-03E40B76AE69}" name="Slogan - Cita" dataDxfId="177"/>
+    <tableColumn id="7" xr3:uid="{5B85BAF7-51FC-47E2-B831-0E709569CEC4}" name="Vistas" dataDxfId="176"/>
+    <tableColumn id="8" xr3:uid="{57861CEA-0BDC-4179-9FF2-0E59F48A2157}" name="Repositorio Dropbox" dataDxfId="175"/>
+    <tableColumn id="9" xr3:uid="{0E50183B-22E4-424B-96DD-18AC3480E706}" name="Link Logo" dataDxfId="174"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{07333795-F402-425E-9AC7-1C17203C211E}" name="BORRADOR_PRODUCTOS" displayName="BORRADOR_PRODUCTOS" ref="B11:U117" totalsRowShown="0" headerRowDxfId="21" tableBorderDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{07333795-F402-425E-9AC7-1C17203C211E}" name="BORRADOR_PRODUCTOS" displayName="BORRADOR_PRODUCTOS" ref="B11:U117" totalsRowShown="0" headerRowDxfId="22" tableBorderDxfId="21">
   <autoFilter ref="B11:U117" xr:uid="{488C7ADA-DF10-4033-BE01-B6478A789716}">
-    <filterColumn colId="8">
+    <filterColumn colId="0">
       <filters>
-        <filter val="100%"/>
+        <filter val="DATAMUNICIPIO"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -11938,77 +12057,77 @@
     <sortCondition ref="D12:D64"/>
   </sortState>
   <tableColumns count="20">
-    <tableColumn id="1" xr3:uid="{229DCB04-6969-4E62-A149-FB9E3CAE5BF4}" name="Data" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{CD34A55D-D0AD-4B52-8194-AFDE7E5C6050}" name="Producto Previos" dataDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{4029C438-04CA-46F0-B968-E3D862055C27}" name="Secuencia (dentro DATA)" dataDxfId="17"/>
-    <tableColumn id="4" xr3:uid="{9842277F-498F-4399-B9E9-AE2739193ABA}" name="País" dataDxfId="16"/>
-    <tableColumn id="5" xr3:uid="{ED853D5F-1B7C-4052-B0FE-5337CC52FC4D}" name="Integrado en PRODUCTOS? [SI/NO]" dataDxfId="15"/>
-    <tableColumn id="15" xr3:uid="{8D63376D-2407-4CF9-A0F9-4552C9649833}" name="id_producto" dataDxfId="14"/>
-    <tableColumn id="6" xr3:uid="{14D31B75-8E88-42FB-BB27-6BB36C1418D0}" name="Prioridad [1-9]" dataDxfId="13"/>
-    <tableColumn id="7" xr3:uid="{679658E8-A980-4528-82C7-F19E24336030}" name="Estado" dataDxfId="12"/>
-    <tableColumn id="8" xr3:uid="{2EF6A42B-DFA0-4FE7-A1E1-2E79F580EB12}" name="Avance [0-100%]" dataDxfId="11" dataCellStyle="Porcentaje"/>
-    <tableColumn id="9" xr3:uid="{40541782-CDD5-4622-B1C1-C97D63A0C9AA}" name="Responsable Desarrollo" dataDxfId="10"/>
-    <tableColumn id="10" xr3:uid="{3B543DE3-BF65-4BD9-9932-28271C56E4C6}" name="Responsable Información" dataDxfId="9"/>
-    <tableColumn id="16" xr3:uid="{394FD602-B6E0-4BBA-A4D5-D38FD9373C7C}" name="Tecnología" dataDxfId="8"/>
-    <tableColumn id="11" xr3:uid="{DAB3B04F-F977-4413-A23F-4094B552D30E}" name="Tareas/Elementos / Observaciones" dataDxfId="7"/>
-    <tableColumn id="17" xr3:uid="{7A213F94-93FA-435F-9C96-175D8DD787F5}" name="BD " dataDxfId="6"/>
-    <tableColumn id="18" xr3:uid="{59E5F4A3-0FF3-4774-967F-4A177D031C00}" name="Plataforma" dataDxfId="5"/>
-    <tableColumn id="19" xr3:uid="{36C4BF2F-DF1D-4D05-A90F-79F125B03FD2}" name="Control Calidad" dataDxfId="4"/>
-    <tableColumn id="21" xr3:uid="{3BE542C7-8C82-454D-A6C1-7F2AAB4343DE}" name="Odoo" dataDxfId="3"/>
-    <tableColumn id="20" xr3:uid="{C1FC94FF-E933-4906-94F4-ED73D29773EE}" name="Shopify" dataDxfId="2"/>
-    <tableColumn id="13" xr3:uid="{BBACA7B7-AF7E-4714-A44E-1572587CA1A4}" name="Fecha estimada" dataDxfId="1"/>
-    <tableColumn id="14" xr3:uid="{3D3E6850-E86A-4D4E-99C6-7FEB6D12B271}" name="Fecha Actualización [de esta info]" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{229DCB04-6969-4E62-A149-FB9E3CAE5BF4}" name="Data" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{CD34A55D-D0AD-4B52-8194-AFDE7E5C6050}" name="Producto Previos" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{4029C438-04CA-46F0-B968-E3D862055C27}" name="Secuencia (dentro DATA)" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{9842277F-498F-4399-B9E9-AE2739193ABA}" name="País" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{ED853D5F-1B7C-4052-B0FE-5337CC52FC4D}" name="Integrado en PRODUCTOS? [SI/NO]" dataDxfId="16"/>
+    <tableColumn id="15" xr3:uid="{8D63376D-2407-4CF9-A0F9-4552C9649833}" name="id_producto" dataDxfId="15"/>
+    <tableColumn id="6" xr3:uid="{14D31B75-8E88-42FB-BB27-6BB36C1418D0}" name="Prioridad [1-9]" dataDxfId="14"/>
+    <tableColumn id="7" xr3:uid="{679658E8-A980-4528-82C7-F19E24336030}" name="Estado" dataDxfId="13"/>
+    <tableColumn id="8" xr3:uid="{2EF6A42B-DFA0-4FE7-A1E1-2E79F580EB12}" name="Avance [0-100%]" dataDxfId="12" dataCellStyle="Porcentaje"/>
+    <tableColumn id="9" xr3:uid="{40541782-CDD5-4622-B1C1-C97D63A0C9AA}" name="Responsable Desarrollo" dataDxfId="11"/>
+    <tableColumn id="10" xr3:uid="{3B543DE3-BF65-4BD9-9932-28271C56E4C6}" name="Responsable Información" dataDxfId="10"/>
+    <tableColumn id="16" xr3:uid="{394FD602-B6E0-4BBA-A4D5-D38FD9373C7C}" name="Tecnología" dataDxfId="9"/>
+    <tableColumn id="11" xr3:uid="{DAB3B04F-F977-4413-A23F-4094B552D30E}" name="Tareas/Elementos / Observaciones" dataDxfId="8"/>
+    <tableColumn id="17" xr3:uid="{7A213F94-93FA-435F-9C96-175D8DD787F5}" name="BD " dataDxfId="7"/>
+    <tableColumn id="18" xr3:uid="{59E5F4A3-0FF3-4774-967F-4A177D031C00}" name="Plataforma" dataDxfId="6"/>
+    <tableColumn id="19" xr3:uid="{36C4BF2F-DF1D-4D05-A90F-79F125B03FD2}" name="Control Calidad" dataDxfId="5"/>
+    <tableColumn id="21" xr3:uid="{3BE542C7-8C82-454D-A6C1-7F2AAB4343DE}" name="Odoo" dataDxfId="4"/>
+    <tableColumn id="20" xr3:uid="{C1FC94FF-E933-4906-94F4-ED73D29773EE}" name="Shopify" dataDxfId="3"/>
+    <tableColumn id="13" xr3:uid="{BBACA7B7-AF7E-4714-A44E-1572587CA1A4}" name="Fecha estimada" dataDxfId="2"/>
+    <tableColumn id="14" xr3:uid="{3D3E6850-E86A-4D4E-99C6-7FEB6D12B271}" name="Fecha Actualización [de esta info]" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B0304927-521B-4559-963B-3C591C746F11}" name="PRODUCTOS" displayName="PRODUCTOS" ref="A7:BD96" totalsRowShown="0" headerRowDxfId="172">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B0304927-521B-4559-963B-3C591C746F11}" name="PRODUCTOS" displayName="PRODUCTOS" ref="A7:BD96" totalsRowShown="0" headerRowDxfId="173">
   <autoFilter ref="A7:BD96" xr:uid="{B45D9B6D-7E6E-4374-A7A8-688EAA2C002B}"/>
   <tableColumns count="56">
-    <tableColumn id="1" xr3:uid="{01CFB9DB-FBAD-4A9E-9D8F-5FB3EB42A9EB}" name="id_data" dataDxfId="171" totalsRowDxfId="170">
+    <tableColumn id="1" xr3:uid="{01CFB9DB-FBAD-4A9E-9D8F-5FB3EB42A9EB}" name="id_data" dataDxfId="172" totalsRowDxfId="171">
       <calculatedColumnFormula>+VLOOKUP(D8,'DATA`S'!$B$8:$C$34,2,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="31" xr3:uid="{296D6B07-CE01-4CBF-8413-B4A08E3AF372}" name="id_pais" dataDxfId="169" totalsRowDxfId="168">
+    <tableColumn id="31" xr3:uid="{296D6B07-CE01-4CBF-8413-B4A08E3AF372}" name="id_pais" dataDxfId="170" totalsRowDxfId="169">
       <calculatedColumnFormula>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$12,2,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{07061539-DFF5-4A11-BADD-2A240074A56A}" name="Corr_Producto" dataDxfId="167" totalsRowDxfId="166"/>
-    <tableColumn id="3" xr3:uid="{56D80777-3871-4DBF-8856-DFDA54440D55}" name="Data" dataDxfId="165" totalsRowDxfId="164"/>
-    <tableColumn id="27" xr3:uid="{0BD20D97-CBB4-4212-9EB7-3F3B3FA483E6}" name="País" dataDxfId="163" totalsRowDxfId="162"/>
-    <tableColumn id="4" xr3:uid="{73D49374-8912-4C27-A2AF-E0476A8E9AEE}" name="id_producto" dataDxfId="161">
+    <tableColumn id="2" xr3:uid="{07061539-DFF5-4A11-BADD-2A240074A56A}" name="Corr_Producto" dataDxfId="168" totalsRowDxfId="167"/>
+    <tableColumn id="3" xr3:uid="{56D80777-3871-4DBF-8856-DFDA54440D55}" name="Data" dataDxfId="166" totalsRowDxfId="165"/>
+    <tableColumn id="27" xr3:uid="{0BD20D97-CBB4-4212-9EB7-3F3B3FA483E6}" name="País" dataDxfId="164" totalsRowDxfId="163"/>
+    <tableColumn id="4" xr3:uid="{73D49374-8912-4C27-A2AF-E0476A8E9AEE}" name="id_producto" dataDxfId="162">
       <calculatedColumnFormula>A8&amp;"-"&amp;B8&amp;"-"&amp;C8</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{71534AA1-DF8C-466C-AAA8-87DA9F119341}" name="Producto asociado " dataDxfId="160" totalsRowDxfId="159"/>
-    <tableColumn id="26" xr3:uid="{8B686EE2-348B-48C2-990B-424A8FB284BC}" name="Nombre comercial" dataDxfId="158" totalsRowDxfId="157"/>
-    <tableColumn id="6" xr3:uid="{75779DBD-8A91-4D7A-8A36-000CEDC599B6}" name="Estado" dataDxfId="156" totalsRowDxfId="155"/>
-    <tableColumn id="25" xr3:uid="{E03A0489-5A50-4DA9-A8DF-999E6DC669EA}" name="Avance" dataDxfId="154" totalsRowDxfId="153" dataCellStyle="Porcentaje" totalsRowCellStyle="Porcentaje">
+    <tableColumn id="5" xr3:uid="{71534AA1-DF8C-466C-AAA8-87DA9F119341}" name="Producto asociado " dataDxfId="161" totalsRowDxfId="160"/>
+    <tableColumn id="26" xr3:uid="{8B686EE2-348B-48C2-990B-424A8FB284BC}" name="Nombre comercial" dataDxfId="159" totalsRowDxfId="158"/>
+    <tableColumn id="6" xr3:uid="{75779DBD-8A91-4D7A-8A36-000CEDC599B6}" name="Estado" dataDxfId="157" totalsRowDxfId="156"/>
+    <tableColumn id="25" xr3:uid="{E03A0489-5A50-4DA9-A8DF-999E6DC669EA}" name="Avance" dataDxfId="155" totalsRowDxfId="154" dataCellStyle="Porcentaje" totalsRowCellStyle="Porcentaje">
       <calculatedColumnFormula>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$J$117,4,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{2699BB10-9D24-4629-8F45-4A2526A4D39A}" name="Responsable Desarrollo" dataDxfId="152" totalsRowDxfId="151"/>
-    <tableColumn id="8" xr3:uid="{69F4BEA1-A9B4-4421-A0EE-47BCAF12AAB2}" name="Responsable Información" dataDxfId="150" totalsRowDxfId="149"/>
-    <tableColumn id="10" xr3:uid="{03C8A422-EE9B-494A-A440-9110009A358E}" name="Tecnología" dataDxfId="148" totalsRowDxfId="147">
+    <tableColumn id="7" xr3:uid="{2699BB10-9D24-4629-8F45-4A2526A4D39A}" name="Responsable Desarrollo" dataDxfId="153" totalsRowDxfId="152"/>
+    <tableColumn id="8" xr3:uid="{69F4BEA1-A9B4-4421-A0EE-47BCAF12AAB2}" name="Responsable Información" dataDxfId="151" totalsRowDxfId="150"/>
+    <tableColumn id="10" xr3:uid="{03C8A422-EE9B-494A-A440-9110009A358E}" name="Tecnología" dataDxfId="149" totalsRowDxfId="148">
       <calculatedColumnFormula>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$S$112,7,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{1A081205-19B8-4238-8F9E-1836061C2D4F}" name="Host " dataDxfId="146" totalsRowDxfId="145"/>
-    <tableColumn id="12" xr3:uid="{6BCD6CB8-BA53-40A7-9F90-7EBA78E345DA}" name="Link Odoo" dataDxfId="144" totalsRowDxfId="143"/>
-    <tableColumn id="13" xr3:uid="{502BD7B7-DD01-471A-8E5E-C527F983E20E}" name="Fecha Publicación" dataDxfId="142" totalsRowDxfId="141"/>
-    <tableColumn id="15" xr3:uid="{00014923-35F8-4A24-9B8B-A626BE90EC3E}" name="Escala " dataDxfId="140" totalsRowDxfId="139"/>
-    <tableColumn id="16" xr3:uid="{D32995C9-2CA4-4BD7-A181-0CE6434624DC}" name="Periodo" dataDxfId="138" totalsRowDxfId="137"/>
-    <tableColumn id="17" xr3:uid="{5F683DA7-34DC-43D1-A154-FB5C17AB82E4}" name="Actualizaciones" dataDxfId="136" totalsRowDxfId="135"/>
-    <tableColumn id="18" xr3:uid="{D0F7DA38-1DAE-48DF-8725-440804E511ED}" name="Tipo Producto" dataDxfId="134" totalsRowDxfId="133"/>
-    <tableColumn id="19" xr3:uid="{6345440E-6C11-4DE3-9F30-57AA749130A3}" name="Fuentes " dataDxfId="132" totalsRowDxfId="131"/>
-    <tableColumn id="20" xr3:uid="{06F6F5BE-A8B5-450A-B890-E5272AC160CB}" name="Ref principal " dataDxfId="130" totalsRowDxfId="129"/>
-    <tableColumn id="21" xr3:uid="{F22EE5BC-B966-49EB-A843-F1384A77D7A0}" name="Competencia o material vinculado " dataDxfId="128" totalsRowDxfId="127"/>
+    <tableColumn id="11" xr3:uid="{1A081205-19B8-4238-8F9E-1836061C2D4F}" name="Host " dataDxfId="147" totalsRowDxfId="146"/>
+    <tableColumn id="12" xr3:uid="{6BCD6CB8-BA53-40A7-9F90-7EBA78E345DA}" name="Link Odoo" dataDxfId="145" totalsRowDxfId="144"/>
+    <tableColumn id="13" xr3:uid="{502BD7B7-DD01-471A-8E5E-C527F983E20E}" name="Fecha Publicación" dataDxfId="143" totalsRowDxfId="142"/>
+    <tableColumn id="15" xr3:uid="{00014923-35F8-4A24-9B8B-A626BE90EC3E}" name="Escala " dataDxfId="141" totalsRowDxfId="140"/>
+    <tableColumn id="16" xr3:uid="{D32995C9-2CA4-4BD7-A181-0CE6434624DC}" name="Periodo" dataDxfId="139" totalsRowDxfId="138"/>
+    <tableColumn id="17" xr3:uid="{5F683DA7-34DC-43D1-A154-FB5C17AB82E4}" name="Actualizaciones" dataDxfId="137" totalsRowDxfId="136"/>
+    <tableColumn id="18" xr3:uid="{D0F7DA38-1DAE-48DF-8725-440804E511ED}" name="Tipo Producto" dataDxfId="135" totalsRowDxfId="134"/>
+    <tableColumn id="19" xr3:uid="{6345440E-6C11-4DE3-9F30-57AA749130A3}" name="Fuentes " dataDxfId="133" totalsRowDxfId="132"/>
+    <tableColumn id="20" xr3:uid="{06F6F5BE-A8B5-450A-B890-E5272AC160CB}" name="Ref principal " dataDxfId="131" totalsRowDxfId="130"/>
+    <tableColumn id="21" xr3:uid="{F22EE5BC-B966-49EB-A843-F1384A77D7A0}" name="Competencia o material vinculado " dataDxfId="129" totalsRowDxfId="128"/>
     <tableColumn id="22" xr3:uid="{E445C8DD-86CC-41A9-9E49-D3492783FCB1}" name="Vistas"/>
     <tableColumn id="23" xr3:uid="{DBAFBD3B-B406-46F5-B2E9-B69F6F70645B}" name="Repositorio Dropbox"/>
     <tableColumn id="24" xr3:uid="{629986D1-249B-44FE-82F1-FCA6183BF20E}" name="Link Logo"/>
-    <tableColumn id="28" xr3:uid="{4F7861D7-1E20-4E49-BAAB-9731305CDBE5}" name="Observaciones" dataDxfId="126" totalsRowDxfId="125"/>
-    <tableColumn id="29" xr3:uid="{B82AF5FC-FE01-4F10-8B3A-A6B205199D0A}" name="Miniatura" dataDxfId="124" totalsRowDxfId="123"/>
+    <tableColumn id="28" xr3:uid="{4F7861D7-1E20-4E49-BAAB-9731305CDBE5}" name="Observaciones" dataDxfId="127" totalsRowDxfId="126"/>
+    <tableColumn id="29" xr3:uid="{B82AF5FC-FE01-4F10-8B3A-A6B205199D0A}" name="Miniatura" dataDxfId="125" totalsRowDxfId="124"/>
     <tableColumn id="37" xr3:uid="{447BFD0A-721F-47C8-9615-3D9B196F979F}" name="PORTADA SHOPIFY"/>
     <tableColumn id="38" xr3:uid="{95D4D5AF-6660-4044-A5A8-E516ADA5D063}" name="Párrafo enganche"/>
     <tableColumn id="39" xr3:uid="{2963E916-25CA-4C30-A173-915A5CD940D3}" name="Variante_1"/>
-    <tableColumn id="40" xr3:uid="{50FEFE18-B7AA-4094-B4D1-D7296380363B}" name="Precio_1 (USD)" dataDxfId="122"/>
+    <tableColumn id="40" xr3:uid="{50FEFE18-B7AA-4094-B4D1-D7296380363B}" name="Precio_1 (USD)" dataDxfId="123"/>
     <tableColumn id="41" xr3:uid="{9CECDB40-D2E7-44AF-BA17-FB2CD006F0D3}" name="Variante_2"/>
     <tableColumn id="42" xr3:uid="{449802E5-0F23-40E3-AC14-547C4516D33C}" name="Precio_2 (USD)"/>
     <tableColumn id="43" xr3:uid="{A11B456F-7DEA-431F-9CA5-03E3B83EB3CF}" name="Variante_3"/>
@@ -12016,17 +12135,17 @@
     <tableColumn id="45" xr3:uid="{BC545BB3-5EA2-4491-9699-2DCF67AFDBD1}" name="Variable_filtro1"/>
     <tableColumn id="46" xr3:uid="{1BCBD3DF-B9B9-4135-B455-2CFAF2B188C1}" name="Variable_filtro2"/>
     <tableColumn id="47" xr3:uid="{02D860F3-1C9D-4DCC-B854-0E0B78380C60}" name="Variable_filtro3"/>
-    <tableColumn id="30" xr3:uid="{3C2CC3B0-4545-4E5C-B8E5-AAD05CDD3A41}" name="Descripción (Indicar qué permite ver o hacer el producto) 2"/>
+    <tableColumn id="30" xr3:uid="{3C2CC3B0-4545-4E5C-B8E5-AAD05CDD3A41}" name="Descripción (Indicar qué permite ver o hacer el producto) 2" dataDxfId="0"/>
     <tableColumn id="32" xr3:uid="{2F0B4ACB-2081-4369-9020-F04ABE62B6AD}" name="CAR_Tipo_Prod"/>
     <tableColumn id="33" xr3:uid="{8277A5C4-DDE4-4268-B9A2-D39560C50C97}" name="CAR_Var1_Disponible"/>
     <tableColumn id="14" xr3:uid="{8D937ABF-3B4D-40B9-8BBE-860FDDE831DB}" name="CAR_Var2_Disponible"/>
     <tableColumn id="9" xr3:uid="{A912298A-2AE3-4676-B089-13388A70E0CC}" name="CAR_Var3_Disponible"/>
     <tableColumn id="34" xr3:uid="{2EAEC5EE-D01B-4781-A499-32811E9E50DF}" name="CAR_Periodo"/>
     <tableColumn id="35" xr3:uid="{89972549-6CAE-40EF-8DDE-4E5FB11CDCFB}" name="CAR_Proveedor"/>
-    <tableColumn id="36" xr3:uid="{94687206-A22A-469D-92B1-A6635B8A1CB3}" name="CAR_Colección" dataDxfId="121">
+    <tableColumn id="36" xr3:uid="{94687206-A22A-469D-92B1-A6635B8A1CB3}" name="CAR_Colección" dataDxfId="122">
       <calculatedColumnFormula>PRODUCTOS[[#This Row],[Data]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="48" xr3:uid="{431A4A68-8223-41E1-99C1-4F515A267188}" name="ESP_Tecnología" dataDxfId="120">
+    <tableColumn id="48" xr3:uid="{431A4A68-8223-41E1-99C1-4F515A267188}" name="ESP_Tecnología" dataDxfId="121">
       <calculatedColumnFormula>PRODUCTOS[[#This Row],[Tecnología]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="49" xr3:uid="{A570E531-D39D-48A2-BCC8-8E0BA5937958}" name="ESP_Incluye"/>
@@ -12049,7 +12168,7 @@
     <tableColumn id="1" xr3:uid="{69819873-BFDD-4D0F-83ED-7D2504DFDA31}" name="Data"/>
     <tableColumn id="2" xr3:uid="{70760145-B5A6-4F27-A738-A1EBE3D8A954}" name="Producto"/>
     <tableColumn id="3" xr3:uid="{585C0D49-B625-41C4-8893-45B93A4BE8CC}" name="Sección"/>
-    <tableColumn id="4" xr3:uid="{10EF7F87-DEF0-4028-9C31-E3E45FB50589}" name="Tema" dataDxfId="119"/>
+    <tableColumn id="4" xr3:uid="{10EF7F87-DEF0-4028-9C31-E3E45FB50589}" name="Tema" dataDxfId="120"/>
     <tableColumn id="5" xr3:uid="{28D3851F-C206-422F-98B1-973F48082A17}" name="Verificador"/>
     <tableColumn id="6" xr3:uid="{71EF3903-87DB-422F-904D-B86468D3F2A8}" name="Variables"/>
     <tableColumn id="7" xr3:uid="{09ED368A-F77F-44FE-80CB-14C859399091}" name="ID_VAR"/>
@@ -12073,156 +12192,156 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{2A3DFF5F-BB66-464A-9045-49B0328E9E76}" name="Tabla10" displayName="Tabla10" ref="B7:I221" totalsRowShown="0" headerRowDxfId="118" dataDxfId="117">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{2A3DFF5F-BB66-464A-9045-49B0328E9E76}" name="Tabla10" displayName="Tabla10" ref="B7:I221" totalsRowShown="0" headerRowDxfId="119" dataDxfId="118">
   <autoFilter ref="B7:I221" xr:uid="{54E86758-179E-494E-9D22-024745EA2489}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{AE352613-BE77-4F50-A26C-CDFA69B4E703}" name="Data" dataDxfId="116"/>
-    <tableColumn id="2" xr3:uid="{FB99AEF8-BF89-4789-90CC-B8C3024883BE}" name="Estado" dataDxfId="115"/>
-    <tableColumn id="3" xr3:uid="{B15F5D46-093A-497F-970F-4E17CA63A563}" name="Fecha Actualización " dataDxfId="114"/>
-    <tableColumn id="4" xr3:uid="{7EA45E0E-7020-43C1-AD03-9A178CD7430B}" name="Responsable" dataDxfId="113"/>
-    <tableColumn id="8" xr3:uid="{CD6D1E9C-AD67-41FD-BB45-272D5CED1007}" name="Tema" dataDxfId="112"/>
-    <tableColumn id="5" xr3:uid="{2AC1CC8A-E5DB-4A3A-BEE8-6538DDAA69E7}" name="Observación " dataDxfId="111"/>
-    <tableColumn id="6" xr3:uid="{C98B1913-4D31-48AA-9995-A47CE0EA1C1E}" name="Acción" dataDxfId="110"/>
-    <tableColumn id="7" xr3:uid="{FE3D67C6-9FBF-4881-B186-7BE50BE75AE3}" name="Monitoreo" dataDxfId="109"/>
+    <tableColumn id="1" xr3:uid="{AE352613-BE77-4F50-A26C-CDFA69B4E703}" name="Data" dataDxfId="117"/>
+    <tableColumn id="2" xr3:uid="{FB99AEF8-BF89-4789-90CC-B8C3024883BE}" name="Estado" dataDxfId="116"/>
+    <tableColumn id="3" xr3:uid="{B15F5D46-093A-497F-970F-4E17CA63A563}" name="Fecha Actualización " dataDxfId="115"/>
+    <tableColumn id="4" xr3:uid="{7EA45E0E-7020-43C1-AD03-9A178CD7430B}" name="Responsable" dataDxfId="114"/>
+    <tableColumn id="8" xr3:uid="{CD6D1E9C-AD67-41FD-BB45-272D5CED1007}" name="Tema" dataDxfId="113"/>
+    <tableColumn id="5" xr3:uid="{2AC1CC8A-E5DB-4A3A-BEE8-6538DDAA69E7}" name="Observación " dataDxfId="112"/>
+    <tableColumn id="6" xr3:uid="{C98B1913-4D31-48AA-9995-A47CE0EA1C1E}" name="Acción" dataDxfId="111"/>
+    <tableColumn id="7" xr3:uid="{FE3D67C6-9FBF-4881-B186-7BE50BE75AE3}" name="Monitoreo" dataDxfId="110"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{F79A991F-1A6F-4232-A4CD-E26026F59FD2}" name="Tabla1" displayName="Tabla1" ref="A9:M53" totalsRowShown="0" headerRowDxfId="108" dataDxfId="107">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{F79A991F-1A6F-4232-A4CD-E26026F59FD2}" name="Tabla1" displayName="Tabla1" ref="A9:M53" totalsRowShown="0" headerRowDxfId="109" dataDxfId="108">
   <autoFilter ref="A9:M53" xr:uid="{2573F5B0-EE83-49B6-AF2E-FA541AB2D0A7}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{01DC2308-9C99-4EEE-82DB-DC6B48F1F8E3}" name="N°" dataDxfId="106"/>
-    <tableColumn id="2" xr3:uid="{F3B4997E-B2A4-4EB5-AF03-1C32EC201E29}" name="Tema Investigación " dataDxfId="105"/>
-    <tableColumn id="3" xr3:uid="{2ED8CCEC-CAF8-463E-AB90-B3689E282F52}" name="Responsables " dataDxfId="104"/>
-    <tableColumn id="5" xr3:uid="{A45DAC7C-0BE8-484E-8902-C84794C6E4E6}" name="Fecha inicio" dataDxfId="103"/>
+    <tableColumn id="1" xr3:uid="{01DC2308-9C99-4EEE-82DB-DC6B48F1F8E3}" name="N°" dataDxfId="107"/>
+    <tableColumn id="2" xr3:uid="{F3B4997E-B2A4-4EB5-AF03-1C32EC201E29}" name="Tema Investigación " dataDxfId="106"/>
+    <tableColumn id="3" xr3:uid="{2ED8CCEC-CAF8-463E-AB90-B3689E282F52}" name="Responsables " dataDxfId="105"/>
+    <tableColumn id="5" xr3:uid="{A45DAC7C-0BE8-484E-8902-C84794C6E4E6}" name="Fecha inicio" dataDxfId="104"/>
     <tableColumn id="4" xr3:uid="{1DFD24D3-150A-4A18-8D2B-471C5E615C4A}" name="Estado"/>
-    <tableColumn id="7" xr3:uid="{A5E888F3-954C-4454-ABBF-0CB322AC2892}" name="Fecha Termino" dataDxfId="102"/>
-    <tableColumn id="8" xr3:uid="{DC2FD273-C50C-4DC5-BCAE-F4707F0CC4FD}" name="Chile" dataDxfId="101"/>
-    <tableColumn id="9" xr3:uid="{DC0F9138-A833-4513-8446-6D9A0BE8DC03}" name="Panamá " dataDxfId="100"/>
-    <tableColumn id="10" xr3:uid="{1C354151-0542-4839-A312-82A4762672B3}" name="Guatemala" dataDxfId="99"/>
-    <tableColumn id="11" xr3:uid="{B44F5A38-555A-4E07-BD14-45F877391CC6}" name="Honduras" dataDxfId="98"/>
-    <tableColumn id="12" xr3:uid="{E43EB3EC-0D6D-42B8-A156-EA2EF365B7B3}" name="El Salvador" dataDxfId="97"/>
-    <tableColumn id="6" xr3:uid="{9ED27B35-B472-416C-B394-C3447A132041}" name="Link 1" dataDxfId="96"/>
-    <tableColumn id="13" xr3:uid="{0813E4B9-E868-4B0E-A181-67DEE49699BC}" name="Link 2" dataDxfId="95"/>
+    <tableColumn id="7" xr3:uid="{A5E888F3-954C-4454-ABBF-0CB322AC2892}" name="Fecha Termino" dataDxfId="103"/>
+    <tableColumn id="8" xr3:uid="{DC2FD273-C50C-4DC5-BCAE-F4707F0CC4FD}" name="Chile" dataDxfId="102"/>
+    <tableColumn id="9" xr3:uid="{DC0F9138-A833-4513-8446-6D9A0BE8DC03}" name="Panamá " dataDxfId="101"/>
+    <tableColumn id="10" xr3:uid="{1C354151-0542-4839-A312-82A4762672B3}" name="Guatemala" dataDxfId="100"/>
+    <tableColumn id="11" xr3:uid="{B44F5A38-555A-4E07-BD14-45F877391CC6}" name="Honduras" dataDxfId="99"/>
+    <tableColumn id="12" xr3:uid="{E43EB3EC-0D6D-42B8-A156-EA2EF365B7B3}" name="El Salvador" dataDxfId="98"/>
+    <tableColumn id="6" xr3:uid="{9ED27B35-B472-416C-B394-C3447A132041}" name="Link 1" dataDxfId="97"/>
+    <tableColumn id="13" xr3:uid="{0813E4B9-E868-4B0E-A181-67DEE49699BC}" name="Link 2" dataDxfId="96"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{E94DB916-DE89-4F64-9EF8-AFB72BA8FF61}" name="Tabla14" displayName="Tabla14" ref="A12:I89" totalsRowShown="0" headerRowDxfId="94" dataDxfId="93">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{E94DB916-DE89-4F64-9EF8-AFB72BA8FF61}" name="Tabla14" displayName="Tabla14" ref="A12:I89" totalsRowShown="0" headerRowDxfId="95" dataDxfId="94">
   <autoFilter ref="A12:I89" xr:uid="{14629A1E-D5D5-412C-8FAB-488411430C85}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{7299EEE0-40CF-4EF5-8F0C-C1FFA863E5B5}" name="N°" dataDxfId="92"/>
-    <tableColumn id="2" xr3:uid="{9E84EC16-0161-44D0-9CB9-123C0428ADAD}" name="Tema/institución Investigación " dataDxfId="91"/>
-    <tableColumn id="3" xr3:uid="{76853A8B-3945-4590-AB61-F2892D4BDEF9}" name="Responsable" dataDxfId="90"/>
-    <tableColumn id="5" xr3:uid="{F7339DE0-8C86-4469-9258-ED935FDEFA77}" name="Fecha inicio" dataDxfId="89"/>
-    <tableColumn id="6" xr3:uid="{1434B0D6-C669-403A-970D-962B797CA9A9}" name="Fecha avance" dataDxfId="88"/>
-    <tableColumn id="7" xr3:uid="{B968D1D9-84E8-493C-9491-88D890E8453F}" name="Fecha Termino" dataDxfId="87"/>
-    <tableColumn id="8" xr3:uid="{914D3775-FE9D-4F06-9643-2FF0DC094A44}" name="Comentario" dataDxfId="86"/>
-    <tableColumn id="4" xr3:uid="{447DB363-0F58-4053-9903-C5B73E99B8F7}" name="Acción" dataDxfId="85"/>
-    <tableColumn id="9" xr3:uid="{FAD7DF30-EA13-48D4-85BE-33B82685C836}" name="Seguimiento" dataDxfId="84"/>
+    <tableColumn id="1" xr3:uid="{7299EEE0-40CF-4EF5-8F0C-C1FFA863E5B5}" name="N°" dataDxfId="93"/>
+    <tableColumn id="2" xr3:uid="{9E84EC16-0161-44D0-9CB9-123C0428ADAD}" name="Tema/institución Investigación " dataDxfId="92"/>
+    <tableColumn id="3" xr3:uid="{76853A8B-3945-4590-AB61-F2892D4BDEF9}" name="Responsable" dataDxfId="91"/>
+    <tableColumn id="5" xr3:uid="{F7339DE0-8C86-4469-9258-ED935FDEFA77}" name="Fecha inicio" dataDxfId="90"/>
+    <tableColumn id="6" xr3:uid="{1434B0D6-C669-403A-970D-962B797CA9A9}" name="Fecha avance" dataDxfId="89"/>
+    <tableColumn id="7" xr3:uid="{B968D1D9-84E8-493C-9491-88D890E8453F}" name="Fecha Termino" dataDxfId="88"/>
+    <tableColumn id="8" xr3:uid="{914D3775-FE9D-4F06-9643-2FF0DC094A44}" name="Comentario" dataDxfId="87"/>
+    <tableColumn id="4" xr3:uid="{447DB363-0F58-4053-9903-C5B73E99B8F7}" name="Acción" dataDxfId="86"/>
+    <tableColumn id="9" xr3:uid="{FAD7DF30-EA13-48D4-85BE-33B82685C836}" name="Seguimiento" dataDxfId="85"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{065B9CF9-E4C7-46B6-A6AB-AE4727F44BAE}" name="DETALLE_PRODUCTO" displayName="DETALLE_PRODUCTO" ref="B8:L88" totalsRowShown="0" headerRowDxfId="83" dataDxfId="82">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{065B9CF9-E4C7-46B6-A6AB-AE4727F44BAE}" name="DETALLE_PRODUCTO" displayName="DETALLE_PRODUCTO" ref="B8:L88" totalsRowShown="0" headerRowDxfId="84" dataDxfId="83">
   <autoFilter ref="B8:L88" xr:uid="{B19E98DB-D5A2-4B79-98FB-79403A46B576}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{53D02E25-6272-402F-ABD7-44B8E0C71D87}" name="Data" dataDxfId="81"/>
-    <tableColumn id="8" xr3:uid="{EC4D90DB-631D-4228-A704-DD698C8FDA74}" name="id_producto" dataDxfId="80"/>
-    <tableColumn id="2" xr3:uid="{8BB7EEC5-6570-41F8-9A07-5AAEA8522606}" name="Plazo Producto" dataDxfId="79"/>
-    <tableColumn id="3" xr3:uid="{8CB3D480-A20D-43D6-A036-A52F2B756492}" name="Producto" dataDxfId="78"/>
-    <tableColumn id="4" xr3:uid="{A37F897B-BDC4-49DB-9D73-0B585928FBCF}" name="Secciones" dataDxfId="77"/>
-    <tableColumn id="5" xr3:uid="{52913CC1-5A92-42A3-9DE0-3B6AB5FF68D3}" name="Sub-secciones" dataDxfId="76"/>
-    <tableColumn id="6" xr3:uid="{AA418FB7-7169-4105-9A7B-952204D6B07D}" name="Variables" dataDxfId="75"/>
-    <tableColumn id="7" xr3:uid="{9CFF7943-E7AB-407C-A8B2-A61784C0D377}" name="Fuente" dataDxfId="74"/>
-    <tableColumn id="9" xr3:uid="{E0A15B94-D546-4F86-877E-4ECCBE8390C9}" name="Situación Variable" dataDxfId="73"/>
-    <tableColumn id="10" xr3:uid="{766CAFFF-49CC-4F0A-A3FA-AA09276E3B90}" name="Fecha Actualización" dataDxfId="72"/>
-    <tableColumn id="11" xr3:uid="{8FEDBB30-0CE4-44B9-B885-55B24F35F89F}" name="Observaciones" dataDxfId="71"/>
+    <tableColumn id="1" xr3:uid="{53D02E25-6272-402F-ABD7-44B8E0C71D87}" name="Data" dataDxfId="82"/>
+    <tableColumn id="8" xr3:uid="{EC4D90DB-631D-4228-A704-DD698C8FDA74}" name="id_producto" dataDxfId="81"/>
+    <tableColumn id="2" xr3:uid="{8BB7EEC5-6570-41F8-9A07-5AAEA8522606}" name="Plazo Producto" dataDxfId="80"/>
+    <tableColumn id="3" xr3:uid="{8CB3D480-A20D-43D6-A036-A52F2B756492}" name="Producto" dataDxfId="79"/>
+    <tableColumn id="4" xr3:uid="{A37F897B-BDC4-49DB-9D73-0B585928FBCF}" name="Secciones" dataDxfId="78"/>
+    <tableColumn id="5" xr3:uid="{52913CC1-5A92-42A3-9DE0-3B6AB5FF68D3}" name="Sub-secciones" dataDxfId="77"/>
+    <tableColumn id="6" xr3:uid="{AA418FB7-7169-4105-9A7B-952204D6B07D}" name="Variables" dataDxfId="76"/>
+    <tableColumn id="7" xr3:uid="{9CFF7943-E7AB-407C-A8B2-A61784C0D377}" name="Fuente" dataDxfId="75"/>
+    <tableColumn id="9" xr3:uid="{E0A15B94-D546-4F86-877E-4ECCBE8390C9}" name="Situación Variable" dataDxfId="74"/>
+    <tableColumn id="10" xr3:uid="{766CAFFF-49CC-4F0A-A3FA-AA09276E3B90}" name="Fecha Actualización" dataDxfId="73"/>
+    <tableColumn id="11" xr3:uid="{8FEDBB30-0CE4-44B9-B885-55B24F35F89F}" name="Observaciones" dataDxfId="72"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{8903E000-6268-4700-8DED-A61277FDDF6A}" name="SHOPIFY" displayName="SHOPIFY" ref="A7:AX82" totalsRowShown="0" headerRowDxfId="70">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{8903E000-6268-4700-8DED-A61277FDDF6A}" name="SHOPIFY" displayName="SHOPIFY" ref="A7:AX82" totalsRowShown="0" headerRowDxfId="71">
   <autoFilter ref="A7:AX82" xr:uid="{8E7BE500-FD82-4AF8-9786-CF4905281DB3}"/>
   <tableColumns count="50">
-    <tableColumn id="1" xr3:uid="{97B30EC8-C107-4A29-BFE9-64B671A010DD}" name="id_data" dataDxfId="69">
+    <tableColumn id="1" xr3:uid="{97B30EC8-C107-4A29-BFE9-64B671A010DD}" name="id_data" dataDxfId="70">
       <calculatedColumnFormula>PRODUCTOS[[#This Row],[id_data]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{D4210DF6-B71C-4CEA-B273-A001CC99D71D}" name="Corr_Producto" dataDxfId="68"/>
-    <tableColumn id="3" xr3:uid="{3A3C3A45-DC12-420E-B4A9-B6FC4AB09680}" name="Data" dataDxfId="67"/>
-    <tableColumn id="4" xr3:uid="{F589E312-6F04-441B-BD92-57D8AF605B91}" name="id_producto" dataDxfId="66">
+    <tableColumn id="2" xr3:uid="{D4210DF6-B71C-4CEA-B273-A001CC99D71D}" name="Corr_Producto" dataDxfId="69"/>
+    <tableColumn id="3" xr3:uid="{3A3C3A45-DC12-420E-B4A9-B6FC4AB09680}" name="Data" dataDxfId="68"/>
+    <tableColumn id="4" xr3:uid="{F589E312-6F04-441B-BD92-57D8AF605B91}" name="id_producto" dataDxfId="67">
       <calculatedColumnFormula>+A8&amp;"-"&amp;B8</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{8673061C-EC24-4EF4-81F6-F73CCCED37A8}" name="Producto asociado " dataDxfId="65"/>
-    <tableColumn id="32" xr3:uid="{BB6CBD3F-A1DC-4006-8ED6-2EDD0372776F}" name="Nombre comercial" dataDxfId="64">
+    <tableColumn id="5" xr3:uid="{8673061C-EC24-4EF4-81F6-F73CCCED37A8}" name="Producto asociado " dataDxfId="66"/>
+    <tableColumn id="32" xr3:uid="{BB6CBD3F-A1DC-4006-8ED6-2EDD0372776F}" name="Nombre comercial" dataDxfId="65">
       <calculatedColumnFormula>PRODUCTOS[[#This Row],[Nombre comercial]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="47" xr3:uid="{1BF29101-CC46-4386-87BF-FB5000527CC1}" name="Variante" dataDxfId="63">
+    <tableColumn id="47" xr3:uid="{1BF29101-CC46-4386-87BF-FB5000527CC1}" name="Variante" dataDxfId="64">
       <calculatedColumnFormula>#REF!</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="46" xr3:uid="{971E696E-617D-42F5-AD13-6C98573AB151}" name="Corr_variante" dataDxfId="62">
+    <tableColumn id="46" xr3:uid="{971E696E-617D-42F5-AD13-6C98573AB151}" name="Corr_variante" dataDxfId="63">
       <calculatedColumnFormula>#REF!</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{8623108B-5216-4DE8-A078-C2EA5007B662}" name="id_prod_var" dataDxfId="61">
+    <tableColumn id="20" xr3:uid="{8623108B-5216-4DE8-A078-C2EA5007B662}" name="id_prod_var" dataDxfId="62">
       <calculatedColumnFormula>#REF!</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{F158BFCF-29BB-4A21-85DD-EC1A577268A9}" name="Estado" dataDxfId="60"/>
-    <tableColumn id="21" xr3:uid="{F5606F96-2B4C-4028-BAFD-98E68F248BB6}" name="Avance" dataDxfId="59" dataCellStyle="Porcentaje"/>
-    <tableColumn id="7" xr3:uid="{F996455F-A80C-45DE-824E-AA15DC67B89F}" name="Responsable Desarrollo" dataDxfId="58">
+    <tableColumn id="6" xr3:uid="{F158BFCF-29BB-4A21-85DD-EC1A577268A9}" name="Estado" dataDxfId="61"/>
+    <tableColumn id="21" xr3:uid="{F5606F96-2B4C-4028-BAFD-98E68F248BB6}" name="Avance" dataDxfId="60" dataCellStyle="Porcentaje"/>
+    <tableColumn id="7" xr3:uid="{F996455F-A80C-45DE-824E-AA15DC67B89F}" name="Responsable Desarrollo" dataDxfId="59">
       <calculatedColumnFormula>PRODUCTOS[[#This Row],[Responsable Desarrollo]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{8243748E-EFCB-4AEF-AE13-DEB22DE5398A}" name="Responsable Información" dataDxfId="57">
+    <tableColumn id="8" xr3:uid="{8243748E-EFCB-4AEF-AE13-DEB22DE5398A}" name="Responsable Información" dataDxfId="58">
       <calculatedColumnFormula>PRODUCTOS[[#This Row],[Responsable Información]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{1B0EF15B-CCC6-4071-9C39-986D237DCBFD}" name="PORTADA SHOPIFY" dataDxfId="56"/>
-    <tableColumn id="25" xr3:uid="{DE283954-0E54-4788-A6B7-64B3FABE5655}" name="Párrafo enganche" dataDxfId="55"/>
-    <tableColumn id="31" xr3:uid="{69B5166B-7DB7-4B2A-BDDB-51BC1CDC9E13}" name="Variante_1" dataDxfId="54"/>
-    <tableColumn id="30" xr3:uid="{FD2BFBD3-7364-4A40-82AD-5ED8F1EC60C8}" name="Precio_1" dataDxfId="53"/>
-    <tableColumn id="27" xr3:uid="{7BAA5845-FEF8-4AF0-A034-4502EA6425FB}" name="Variante_2" dataDxfId="52"/>
-    <tableColumn id="26" xr3:uid="{055AC0B8-B715-4865-A615-F93F51BDB937}" name="Precio_2" dataDxfId="51"/>
-    <tableColumn id="34" xr3:uid="{E986E95A-C830-4C89-88DC-A69F64460E34}" name="Variante_3" dataDxfId="50"/>
-    <tableColumn id="33" xr3:uid="{15105E85-D580-466D-8DEA-A21111029F6E}" name="Precio_3" dataDxfId="49"/>
-    <tableColumn id="50" xr3:uid="{86C9CDBF-0B44-4420-A48E-6FF93F44FE71}" name="Variable_filtro1" dataDxfId="48"/>
-    <tableColumn id="49" xr3:uid="{29F0FFEC-DA2B-4599-9D83-29AA5C05A4F0}" name="Variable_filtro2" dataDxfId="47"/>
-    <tableColumn id="48" xr3:uid="{4B1206D9-C4A0-496A-A7B2-086AF0122968}" name="Variable_filtro3" dataDxfId="46"/>
-    <tableColumn id="9" xr3:uid="{EE306381-1575-4475-A9CE-5592A93932BB}" name="Descripción (Indicar qué permite ver o hacer el producto) " dataDxfId="45"/>
-    <tableColumn id="35" xr3:uid="{C39FDC20-ABE5-4151-B056-F4B5E12D47DD}" name="CAR_Tipo_Prod" dataDxfId="44"/>
-    <tableColumn id="36" xr3:uid="{C8D4ECC0-DE7A-41BF-A6E9-9964E26F4261}" name="CAR_Var1_Disponible" dataDxfId="43"/>
-    <tableColumn id="39" xr3:uid="{87F44B21-0148-4ECE-9BC5-6D8A4C1030F3}" name="CAR_Periodo" dataDxfId="42"/>
-    <tableColumn id="37" xr3:uid="{DB23C32C-B4CE-4982-8D0A-F32C01C6CF98}" name="CAR_Proveedor" dataDxfId="41"/>
-    <tableColumn id="38" xr3:uid="{887C31F6-B5D9-48A2-AC60-3BBFDA8C2D93}" name="CAR_Colección" dataDxfId="40">
+    <tableColumn id="19" xr3:uid="{1B0EF15B-CCC6-4071-9C39-986D237DCBFD}" name="PORTADA SHOPIFY" dataDxfId="57"/>
+    <tableColumn id="25" xr3:uid="{DE283954-0E54-4788-A6B7-64B3FABE5655}" name="Párrafo enganche" dataDxfId="56"/>
+    <tableColumn id="31" xr3:uid="{69B5166B-7DB7-4B2A-BDDB-51BC1CDC9E13}" name="Variante_1" dataDxfId="55"/>
+    <tableColumn id="30" xr3:uid="{FD2BFBD3-7364-4A40-82AD-5ED8F1EC60C8}" name="Precio_1" dataDxfId="54"/>
+    <tableColumn id="27" xr3:uid="{7BAA5845-FEF8-4AF0-A034-4502EA6425FB}" name="Variante_2" dataDxfId="53"/>
+    <tableColumn id="26" xr3:uid="{055AC0B8-B715-4865-A615-F93F51BDB937}" name="Precio_2" dataDxfId="52"/>
+    <tableColumn id="34" xr3:uid="{E986E95A-C830-4C89-88DC-A69F64460E34}" name="Variante_3" dataDxfId="51"/>
+    <tableColumn id="33" xr3:uid="{15105E85-D580-466D-8DEA-A21111029F6E}" name="Precio_3" dataDxfId="50"/>
+    <tableColumn id="50" xr3:uid="{86C9CDBF-0B44-4420-A48E-6FF93F44FE71}" name="Variable_filtro1" dataDxfId="49"/>
+    <tableColumn id="49" xr3:uid="{29F0FFEC-DA2B-4599-9D83-29AA5C05A4F0}" name="Variable_filtro2" dataDxfId="48"/>
+    <tableColumn id="48" xr3:uid="{4B1206D9-C4A0-496A-A7B2-086AF0122968}" name="Variable_filtro3" dataDxfId="47"/>
+    <tableColumn id="9" xr3:uid="{EE306381-1575-4475-A9CE-5592A93932BB}" name="Descripción (Indicar qué permite ver o hacer el producto) " dataDxfId="46"/>
+    <tableColumn id="35" xr3:uid="{C39FDC20-ABE5-4151-B056-F4B5E12D47DD}" name="CAR_Tipo_Prod" dataDxfId="45"/>
+    <tableColumn id="36" xr3:uid="{C8D4ECC0-DE7A-41BF-A6E9-9964E26F4261}" name="CAR_Var1_Disponible" dataDxfId="44"/>
+    <tableColumn id="39" xr3:uid="{87F44B21-0148-4ECE-9BC5-6D8A4C1030F3}" name="CAR_Periodo" dataDxfId="43"/>
+    <tableColumn id="37" xr3:uid="{DB23C32C-B4CE-4982-8D0A-F32C01C6CF98}" name="CAR_Proveedor" dataDxfId="42"/>
+    <tableColumn id="38" xr3:uid="{887C31F6-B5D9-48A2-AC60-3BBFDA8C2D93}" name="CAR_Colección" dataDxfId="41">
       <calculatedColumnFormula>SHOPIFY[[#This Row],[Data]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{465FFD71-9838-46F8-96D9-04071B46AADF}" name="ESP_Tecnología" dataDxfId="39">
+    <tableColumn id="10" xr3:uid="{465FFD71-9838-46F8-96D9-04071B46AADF}" name="ESP_Tecnología" dataDxfId="40">
       <calculatedColumnFormula>PRODUCTOS[[#This Row],[Tecnología]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{EC2BE421-D8F5-4218-AF58-90E90B893031}" name="Host " dataDxfId="38"/>
-    <tableColumn id="12" xr3:uid="{E79C574B-B7A1-469C-8F8F-2D0CFAE51341}" name="Link Odoo" dataDxfId="37"/>
-    <tableColumn id="13" xr3:uid="{3809FE9C-54F9-4CF7-B339-2E0041642249}" name="Fecha Publicación" dataDxfId="36"/>
-    <tableColumn id="14" xr3:uid="{F596F3F4-DDEC-4196-A3BB-82BA12090401}" name="País" dataDxfId="35"/>
-    <tableColumn id="15" xr3:uid="{8ABA9F49-20E7-4D44-969F-61983CB570CF}" name="Escala " dataDxfId="34"/>
-    <tableColumn id="16" xr3:uid="{96768B2C-E9AB-4A4C-B2EA-54B345E4B2EE}" name="ESP_Periodo" dataDxfId="33"/>
-    <tableColumn id="40" xr3:uid="{B886925D-5342-4EF0-BEC7-231A532CD384}" name="ESP_Incluye" dataDxfId="32"/>
-    <tableColumn id="41" xr3:uid="{3B13D200-0F79-4222-81F3-6523101D8224}" name="ESP_Uso_Disp." dataDxfId="31"/>
-    <tableColumn id="42" xr3:uid="{36761705-B510-456F-B13C-7C1F1691A844}" name="ESP_Fuentes " dataDxfId="30"/>
-    <tableColumn id="43" xr3:uid="{51F4D077-A0BB-4F59-B19A-FA245554DE68}" name="ACC_Recibirás" dataDxfId="29"/>
-    <tableColumn id="44" xr3:uid="{5291A2DA-9FCC-47E6-8092-612F754EE474}" name="ACC_Licencia_uso" dataDxfId="28"/>
-    <tableColumn id="17" xr3:uid="{77D650B5-1F6E-4D9B-91EE-AFD5F57BC1C1}" name="ACC_Actualizaciones" dataDxfId="27"/>
-    <tableColumn id="45" xr3:uid="{9AD5E5EE-A8BD-4739-AE89-A1B8EC4723F5}" name="ACC_N°_usuarios" dataDxfId="26"/>
-    <tableColumn id="18" xr3:uid="{AC3AE441-67FC-4118-9DEB-4484BC70FA5A}" name="Etiquetas" dataDxfId="25"/>
-    <tableColumn id="22" xr3:uid="{0EAB21ED-E5E2-4B44-8E8C-DA03632B81CB}" name="Vistas" dataDxfId="24"/>
+    <tableColumn id="11" xr3:uid="{EC2BE421-D8F5-4218-AF58-90E90B893031}" name="Host " dataDxfId="39"/>
+    <tableColumn id="12" xr3:uid="{E79C574B-B7A1-469C-8F8F-2D0CFAE51341}" name="Link Odoo" dataDxfId="38"/>
+    <tableColumn id="13" xr3:uid="{3809FE9C-54F9-4CF7-B339-2E0041642249}" name="Fecha Publicación" dataDxfId="37"/>
+    <tableColumn id="14" xr3:uid="{F596F3F4-DDEC-4196-A3BB-82BA12090401}" name="País" dataDxfId="36"/>
+    <tableColumn id="15" xr3:uid="{8ABA9F49-20E7-4D44-969F-61983CB570CF}" name="Escala " dataDxfId="35"/>
+    <tableColumn id="16" xr3:uid="{96768B2C-E9AB-4A4C-B2EA-54B345E4B2EE}" name="ESP_Periodo" dataDxfId="34"/>
+    <tableColumn id="40" xr3:uid="{B886925D-5342-4EF0-BEC7-231A532CD384}" name="ESP_Incluye" dataDxfId="33"/>
+    <tableColumn id="41" xr3:uid="{3B13D200-0F79-4222-81F3-6523101D8224}" name="ESP_Uso_Disp." dataDxfId="32"/>
+    <tableColumn id="42" xr3:uid="{36761705-B510-456F-B13C-7C1F1691A844}" name="ESP_Fuentes " dataDxfId="31"/>
+    <tableColumn id="43" xr3:uid="{51F4D077-A0BB-4F59-B19A-FA245554DE68}" name="ACC_Recibirás" dataDxfId="30"/>
+    <tableColumn id="44" xr3:uid="{5291A2DA-9FCC-47E6-8092-612F754EE474}" name="ACC_Licencia_uso" dataDxfId="29"/>
+    <tableColumn id="17" xr3:uid="{77D650B5-1F6E-4D9B-91EE-AFD5F57BC1C1}" name="ACC_Actualizaciones" dataDxfId="28"/>
+    <tableColumn id="45" xr3:uid="{9AD5E5EE-A8BD-4739-AE89-A1B8EC4723F5}" name="ACC_N°_usuarios" dataDxfId="27"/>
+    <tableColumn id="18" xr3:uid="{AC3AE441-67FC-4118-9DEB-4484BC70FA5A}" name="Etiquetas" dataDxfId="26"/>
+    <tableColumn id="22" xr3:uid="{0EAB21ED-E5E2-4B44-8E8C-DA03632B81CB}" name="Vistas" dataDxfId="25"/>
     <tableColumn id="23" xr3:uid="{4146A4AA-B422-4A23-AFC0-891AE3F78FEE}" name="Repositorio Dropbox"/>
     <tableColumn id="24" xr3:uid="{44B7EB22-51ED-4A59-9AAA-14197F95E149}" name="Link Logo"/>
-    <tableColumn id="28" xr3:uid="{4352BE36-B76B-41FB-8592-7009FF2F8409}" name="Observaciones" dataDxfId="23"/>
-    <tableColumn id="29" xr3:uid="{2127F871-F5E7-448D-8C26-8CF290798729}" name="Miniatura" dataDxfId="22"/>
+    <tableColumn id="28" xr3:uid="{4352BE36-B76B-41FB-8592-7009FF2F8409}" name="Observaciones" dataDxfId="24"/>
+    <tableColumn id="29" xr3:uid="{2127F871-F5E7-448D-8C26-8CF290798729}" name="Miniatura" dataDxfId="23"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -12802,7 +12921,7 @@
         <v>164</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>1486</v>
+        <v>1472</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="3" t="s">
@@ -12860,7 +12979,7 @@
         <v>169</v>
       </c>
       <c r="G17" s="99" t="s">
-        <v>1490</v>
+        <v>1476</v>
       </c>
       <c r="H17" s="134" t="s">
         <v>1342</v>
@@ -12892,7 +13011,7 @@
         <v>95</v>
       </c>
       <c r="G18" s="176" t="s">
-        <v>1480</v>
+        <v>1466</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="46" t="s">
@@ -12952,7 +13071,7 @@
         <v>129</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>1481</v>
+        <v>1467</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="3" t="s">
@@ -12980,7 +13099,7 @@
         <v>164</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>1485</v>
+        <v>1471</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="3" t="s">
@@ -13008,7 +13127,7 @@
         <v>165</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>1487</v>
+        <v>1473</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="3" t="s">
@@ -13038,7 +13157,7 @@
         <v>93</v>
       </c>
       <c r="G23" s="176" t="s">
-        <v>1478</v>
+        <v>1464</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="46" t="s">
@@ -13098,7 +13217,7 @@
         <v>170</v>
       </c>
       <c r="G25" s="99" t="s">
-        <v>1488</v>
+        <v>1474</v>
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="3" t="s">
@@ -13128,7 +13247,7 @@
         <v>125</v>
       </c>
       <c r="G26" s="132" t="s">
-        <v>1484</v>
+        <v>1470</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>176</v>
@@ -13153,7 +13272,7 @@
         <v>127</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>1489</v>
+        <v>1475</v>
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="3"/>
@@ -13173,7 +13292,7 @@
         <v>127</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>1491</v>
+        <v>1477</v>
       </c>
       <c r="H28" s="134"/>
       <c r="I28" s="3"/>
@@ -13248,7 +13367,7 @@
     </row>
     <row r="33" spans="2:11" ht="102.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B33" s="1" t="s">
-        <v>1461</v>
+        <v>1447</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>1098</v>
@@ -13257,7 +13376,7 @@
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
       <c r="G33" s="132" t="s">
-        <v>1479</v>
+        <v>1465</v>
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="3"/>
@@ -13266,10 +13385,10 @@
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B34" s="180" t="s">
-        <v>1513</v>
+        <v>1498</v>
       </c>
       <c r="C34" s="181" t="s">
-        <v>1514</v>
+        <v>1499</v>
       </c>
       <c r="D34" s="39"/>
       <c r="E34" s="10"/>
@@ -13626,7 +13745,7 @@
       </c>
       <c r="F24" s="60"/>
       <c r="G24" s="53" t="s">
-        <v>1389</v>
+        <v>1375</v>
       </c>
       <c r="H24" s="61"/>
     </row>
@@ -13648,7 +13767,7 @@
       </c>
       <c r="F25" s="60"/>
       <c r="G25" s="53" t="s">
-        <v>1390</v>
+        <v>1376</v>
       </c>
       <c r="H25" s="61"/>
     </row>
@@ -13670,7 +13789,7 @@
       </c>
       <c r="F26" s="60"/>
       <c r="G26" s="53" t="s">
-        <v>1391</v>
+        <v>1377</v>
       </c>
       <c r="H26" s="61"/>
     </row>
@@ -13692,10 +13811,10 @@
       </c>
       <c r="F27" s="60"/>
       <c r="G27" s="53" t="s">
-        <v>1393</v>
+        <v>1379</v>
       </c>
       <c r="H27" s="157" t="s">
-        <v>1392</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="28" spans="1:8" s="56" customFormat="1" x14ac:dyDescent="0.3">
@@ -13716,7 +13835,7 @@
       </c>
       <c r="F28" s="60"/>
       <c r="G28" s="53" t="s">
-        <v>1394</v>
+        <v>1380</v>
       </c>
       <c r="H28" s="110"/>
     </row>
@@ -13738,7 +13857,7 @@
       </c>
       <c r="F29" s="60"/>
       <c r="G29" s="53" t="s">
-        <v>1492</v>
+        <v>1478</v>
       </c>
       <c r="H29" s="110"/>
     </row>
@@ -13973,7 +14092,7 @@
       </c>
       <c r="F39" s="67"/>
       <c r="G39" s="110" t="s">
-        <v>1422</v>
+        <v>1408</v>
       </c>
       <c r="H39" s="61"/>
       <c r="I39" s="68"/>
@@ -13996,7 +14115,7 @@
       </c>
       <c r="F40" s="67"/>
       <c r="G40" s="53" t="s">
-        <v>1423</v>
+        <v>1409</v>
       </c>
       <c r="H40" s="110"/>
       <c r="I40" s="68"/>
@@ -14118,7 +14237,7 @@
       </c>
       <c r="F45" s="60"/>
       <c r="G45" s="53" t="s">
-        <v>1380</v>
+        <v>1366</v>
       </c>
       <c r="H45" s="61"/>
     </row>
@@ -14140,7 +14259,7 @@
       </c>
       <c r="F46" s="60"/>
       <c r="G46" s="156" t="s">
-        <v>1381</v>
+        <v>1367</v>
       </c>
       <c r="H46" s="61"/>
     </row>
@@ -14490,7 +14609,7 @@
         <v>1015</v>
       </c>
       <c r="I61" s="47" t="s">
-        <v>1500</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="24" x14ac:dyDescent="0.3">
@@ -14517,7 +14636,7 @@
         <v>1015</v>
       </c>
       <c r="I62" s="47" t="s">
-        <v>1500</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
@@ -14560,7 +14679,7 @@
       </c>
       <c r="F64" s="76"/>
       <c r="G64" s="53" t="s">
-        <v>1386</v>
+        <v>1372</v>
       </c>
       <c r="H64" s="155"/>
     </row>
@@ -14582,7 +14701,7 @@
       </c>
       <c r="F65" s="76"/>
       <c r="G65" s="55" t="s">
-        <v>1495</v>
+        <v>1481</v>
       </c>
       <c r="H65" s="155"/>
     </row>
@@ -14604,10 +14723,10 @@
       </c>
       <c r="F66" s="76"/>
       <c r="G66" s="55" t="s">
-        <v>1496</v>
+        <v>1482</v>
       </c>
       <c r="H66" s="155" t="s">
-        <v>1497</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="26" x14ac:dyDescent="0.3">
@@ -14628,7 +14747,7 @@
       </c>
       <c r="F67" s="76"/>
       <c r="G67" s="55" t="s">
-        <v>1499</v>
+        <v>1485</v>
       </c>
       <c r="H67" s="155"/>
     </row>
@@ -14733,7 +14852,7 @@
         <v>1015</v>
       </c>
       <c r="I72" s="47" t="s">
-        <v>1500</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="65" x14ac:dyDescent="0.3">
@@ -14754,7 +14873,7 @@
       </c>
       <c r="F73" s="52"/>
       <c r="G73" s="55" t="s">
-        <v>1433</v>
+        <v>1419</v>
       </c>
       <c r="H73" s="155"/>
     </row>
@@ -14776,7 +14895,7 @@
       </c>
       <c r="F74" s="52"/>
       <c r="G74" s="177" t="s">
-        <v>1493</v>
+        <v>1479</v>
       </c>
       <c r="H74" s="155"/>
     </row>
@@ -14798,7 +14917,7 @@
       </c>
       <c r="F75" s="52"/>
       <c r="G75" s="55" t="s">
-        <v>1498</v>
+        <v>1484</v>
       </c>
       <c r="H75" s="155"/>
     </row>
@@ -14820,7 +14939,7 @@
       </c>
       <c r="F76" s="52"/>
       <c r="G76" s="177" t="s">
-        <v>1494</v>
+        <v>1480</v>
       </c>
       <c r="H76" s="155"/>
     </row>
@@ -15046,7 +15165,7 @@
       </c>
       <c r="F87" s="52"/>
       <c r="G87" s="53" t="s">
-        <v>1428</v>
+        <v>1414</v>
       </c>
       <c r="H87" s="54"/>
     </row>
@@ -15068,7 +15187,7 @@
       </c>
       <c r="F88" s="52"/>
       <c r="G88" s="163" t="s">
-        <v>1429</v>
+        <v>1415</v>
       </c>
       <c r="H88" s="54"/>
     </row>
@@ -15090,7 +15209,7 @@
       </c>
       <c r="F89" s="52"/>
       <c r="G89" s="53" t="s">
-        <v>1430</v>
+        <v>1416</v>
       </c>
       <c r="H89" s="54"/>
     </row>
@@ -16168,7 +16287,7 @@
         <v>530</v>
       </c>
       <c r="I39" s="19" t="s">
-        <v>1475</v>
+        <v>1461</v>
       </c>
       <c r="J39" s="19" t="s">
         <v>741</v>
@@ -25860,10 +25979,10 @@
   </sheetPr>
   <dimension ref="B11:U117"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="11" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I8" sqref="I8"/>
-      <selection pane="bottomLeft" activeCell="N17" sqref="N17"/>
+      <selection pane="bottomLeft" activeCell="I102" sqref="I102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -25928,19 +26047,19 @@
         <v>747</v>
       </c>
       <c r="O11" s="179" t="s">
-        <v>1507</v>
+        <v>1493</v>
       </c>
       <c r="P11" s="179" t="s">
-        <v>1508</v>
+        <v>1494</v>
       </c>
       <c r="Q11" s="179" t="s">
-        <v>1509</v>
+        <v>1495</v>
       </c>
       <c r="R11" s="179" t="s">
         <v>1348</v>
       </c>
       <c r="S11" s="179" t="s">
-        <v>1510</v>
+        <v>1496</v>
       </c>
       <c r="T11" s="32" t="s">
         <v>748</v>
@@ -26192,7 +26311,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="17" spans="2:21" ht="24" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:21" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B17" s="27" t="s">
         <v>4</v>
       </c>
@@ -26229,7 +26348,7 @@
         <v>189</v>
       </c>
       <c r="N17" s="24" t="s">
-        <v>1503</v>
+        <v>1489</v>
       </c>
       <c r="O17" s="24"/>
       <c r="P17" s="24"/>
@@ -26382,7 +26501,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="B21" s="27" t="s">
         <v>18</v>
       </c>
@@ -26569,7 +26688,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="25" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="B25" s="27" t="s">
         <v>11</v>
       </c>
@@ -26952,7 +27071,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="33" spans="2:21" ht="36" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:21" ht="36" hidden="1" x14ac:dyDescent="0.35">
       <c r="B33" s="27" t="s">
         <v>8</v>
       </c>
@@ -26989,7 +27108,7 @@
         <v>189</v>
       </c>
       <c r="N33" s="24" t="s">
-        <v>1504</v>
+        <v>1490</v>
       </c>
       <c r="O33" s="24"/>
       <c r="P33" s="24"/>
@@ -27139,7 +27258,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="37" spans="2:21" ht="24" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:21" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B37" s="27" t="s">
         <v>28</v>
       </c>
@@ -27237,7 +27356,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="39" spans="2:21" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:21" ht="24" x14ac:dyDescent="0.35">
       <c r="B39" s="27" t="s">
         <v>6</v>
       </c>
@@ -27286,7 +27405,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="40" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B40" s="27" t="s">
         <v>6</v>
       </c>
@@ -27335,7 +27454,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="41" spans="2:21" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:21" ht="24" x14ac:dyDescent="0.35">
       <c r="B41" s="27" t="s">
         <v>6</v>
       </c>
@@ -27421,7 +27540,7 @@
         <v>189</v>
       </c>
       <c r="N42" s="24" t="s">
-        <v>1506</v>
+        <v>1492</v>
       </c>
       <c r="O42" s="24"/>
       <c r="P42" s="24"/>
@@ -27531,7 +27650,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="B45" s="27" t="s">
         <v>13</v>
       </c>
@@ -27958,7 +28077,7 @@
         <v>758</v>
       </c>
       <c r="N53" s="24" t="s">
-        <v>1505</v>
+        <v>1491</v>
       </c>
       <c r="O53" s="24"/>
       <c r="P53" s="24"/>
@@ -27970,7 +28089,7 @@
         <v>44160</v>
       </c>
     </row>
-    <row r="54" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="B54" s="27" t="s">
         <v>3</v>
       </c>
@@ -28007,7 +28126,7 @@
         <v>189</v>
       </c>
       <c r="N54" s="24" t="s">
-        <v>1502</v>
+        <v>1488</v>
       </c>
       <c r="O54" s="24"/>
       <c r="P54" s="24"/>
@@ -28264,7 +28383,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="60" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="B60" s="27" t="s">
         <v>10</v>
       </c>
@@ -28313,7 +28432,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="61" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="B61" s="27" t="s">
         <v>10</v>
       </c>
@@ -28362,7 +28481,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="62" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="B62" s="27" t="s">
         <v>10</v>
       </c>
@@ -28411,7 +28530,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="63" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="B63" s="27" t="s">
         <v>10</v>
       </c>
@@ -28509,7 +28628,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="B65" s="27" t="s">
         <v>12</v>
       </c>
@@ -29781,7 +29900,7 @@
       <c r="T99" s="40"/>
       <c r="U99" s="40"/>
     </row>
-    <row r="100" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="B100" s="27" t="s">
         <v>3</v>
       </c>
@@ -29857,7 +29976,7 @@
       <c r="T101" s="40"/>
       <c r="U101" s="40"/>
     </row>
-    <row r="102" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B102" s="27" t="s">
         <v>6</v>
       </c>
@@ -29962,7 +30081,7 @@
       <c r="T104" s="40"/>
       <c r="U104" s="40"/>
     </row>
-    <row r="105" spans="2:21" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:21" ht="24" x14ac:dyDescent="0.35">
       <c r="B105" s="27" t="s">
         <v>6</v>
       </c>
@@ -29993,7 +30112,7 @@
       <c r="T105" s="40"/>
       <c r="U105" s="40"/>
     </row>
-    <row r="106" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B106" s="27" t="s">
         <v>6</v>
       </c>
@@ -30024,7 +30143,7 @@
       <c r="T106" s="40"/>
       <c r="U106" s="40"/>
     </row>
-    <row r="107" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B107" s="27" t="s">
         <v>6</v>
       </c>
@@ -30121,7 +30240,7 @@
       <c r="T109" s="40"/>
       <c r="U109" s="40"/>
     </row>
-    <row r="110" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="B110" s="27" t="s">
         <v>3</v>
       </c>
@@ -30160,7 +30279,7 @@
       <c r="T110" s="40"/>
       <c r="U110" s="40"/>
     </row>
-    <row r="111" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="B111" s="27" t="s">
         <v>3</v>
       </c>
@@ -30199,7 +30318,7 @@
       <c r="T111" s="40"/>
       <c r="U111" s="40"/>
     </row>
-    <row r="112" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="B112" s="27" t="s">
         <v>3</v>
       </c>
@@ -30238,12 +30357,12 @@
       <c r="T112" s="40"/>
       <c r="U112" s="40"/>
     </row>
-    <row r="113" spans="2:21" ht="29" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="B113" s="27" t="s">
-        <v>1461</v>
+        <v>1447</v>
       </c>
       <c r="C113" s="24" t="s">
-        <v>1476</v>
+        <v>1462</v>
       </c>
       <c r="D113" s="23"/>
       <c r="E113" s="23" t="s">
@@ -30471,12 +30590,12 @@
   </sheetPr>
   <dimension ref="A7:BD96"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="7" ySplit="7" topLeftCell="H26" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="7" ySplit="7" topLeftCell="AG83" activePane="bottomRight" state="frozen"/>
       <selection activeCell="J19" sqref="J19"/>
       <selection pane="topRight" activeCell="J19" sqref="J19"/>
       <selection pane="bottomLeft" activeCell="J19" sqref="J19"/>
-      <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
+      <selection pane="bottomRight" activeCell="AN94" sqref="AN94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -30647,10 +30766,10 @@
         <v>861</v>
       </c>
       <c r="AQ7" s="116" t="s">
-        <v>1435</v>
+        <v>1421</v>
       </c>
       <c r="AR7" s="116" t="s">
-        <v>1436</v>
+        <v>1422</v>
       </c>
       <c r="AS7" s="116" t="s">
         <v>862</v>
@@ -30791,8 +30910,8 @@
       <c r="AK8" s="7"/>
       <c r="AL8" s="7"/>
       <c r="AM8" s="7"/>
-      <c r="AN8" s="7" t="s">
-        <v>1377</v>
+      <c r="AN8" s="19" t="s">
+        <v>1363</v>
       </c>
       <c r="AO8" s="7" t="s">
         <v>956</v>
@@ -30916,8 +31035,8 @@
       <c r="AK9" s="7"/>
       <c r="AL9" s="7"/>
       <c r="AM9" s="7"/>
-      <c r="AN9" s="7" t="s">
-        <v>1201</v>
+      <c r="AN9" s="19" t="s">
+        <v>1503</v>
       </c>
       <c r="AO9" s="7"/>
       <c r="AP9" s="7"/>
@@ -31043,7 +31162,7 @@
       <c r="AK10" s="168"/>
       <c r="AL10" s="168"/>
       <c r="AM10" s="168"/>
-      <c r="AN10" s="7" t="s">
+      <c r="AN10" s="19" t="s">
         <v>1237</v>
       </c>
       <c r="AO10" s="19" t="s">
@@ -31053,7 +31172,7 @@
         <v>193</v>
       </c>
       <c r="AQ10" s="19" t="s">
-        <v>1437</v>
+        <v>1423</v>
       </c>
       <c r="AR10" s="19" t="s">
         <v>1323</v>
@@ -31170,7 +31289,7 @@
       <c r="AK11" s="7"/>
       <c r="AL11" s="7"/>
       <c r="AM11" s="7"/>
-      <c r="AN11" s="7" t="s">
+      <c r="AN11" s="19" t="s">
         <v>51</v>
       </c>
       <c r="AO11" s="7"/>
@@ -31285,7 +31404,7 @@
       <c r="AK12" s="7"/>
       <c r="AL12" s="7"/>
       <c r="AM12" s="7"/>
-      <c r="AN12" s="7" t="s">
+      <c r="AN12" s="19" t="s">
         <v>55</v>
       </c>
       <c r="AO12" s="7"/>
@@ -31390,7 +31509,7 @@
       <c r="AK13" s="7"/>
       <c r="AL13" s="7"/>
       <c r="AM13" s="7"/>
-      <c r="AN13" s="7" t="s">
+      <c r="AN13" s="19" t="s">
         <v>57</v>
       </c>
       <c r="AO13" s="7"/>
@@ -31514,7 +31633,7 @@
       <c r="AK14" s="100"/>
       <c r="AL14" s="100"/>
       <c r="AM14" s="100"/>
-      <c r="AN14" s="7" t="s">
+      <c r="AN14" s="19" t="s">
         <v>1171</v>
       </c>
       <c r="AO14" s="7" t="s">
@@ -31546,7 +31665,7 @@
       <c r="BC14" s="7"/>
       <c r="BD14" s="7"/>
     </row>
-    <row r="15" spans="1:56" ht="62.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="str">
         <f>+VLOOKUP(D15,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0022</v>
@@ -31638,7 +31757,7 @@
       <c r="AK15" s="7"/>
       <c r="AL15" s="7"/>
       <c r="AM15" s="7"/>
-      <c r="AN15" s="7" t="s">
+      <c r="AN15" s="19" t="s">
         <v>1170</v>
       </c>
       <c r="AO15" s="7" t="s">
@@ -31745,8 +31864,8 @@
       <c r="AK16" s="7"/>
       <c r="AL16" s="7"/>
       <c r="AM16" s="7"/>
-      <c r="AN16" s="7" t="s">
-        <v>1376</v>
+      <c r="AN16" s="19" t="s">
+        <v>1504</v>
       </c>
       <c r="AO16" s="7"/>
       <c r="AP16" s="7"/>
@@ -31859,7 +31978,7 @@
       <c r="AK17" s="7"/>
       <c r="AL17" s="7"/>
       <c r="AM17" s="7"/>
-      <c r="AN17" s="133"/>
+      <c r="AN17" s="182"/>
       <c r="AO17" s="7"/>
       <c r="AP17" s="7" t="s">
         <v>1323</v>
@@ -31976,7 +32095,7 @@
       <c r="AK18" s="7"/>
       <c r="AL18" s="7"/>
       <c r="AM18" s="7"/>
-      <c r="AN18" s="133"/>
+      <c r="AN18" s="182"/>
       <c r="AO18" s="7"/>
       <c r="AP18" s="7" t="s">
         <v>1323</v>
@@ -32067,7 +32186,7 @@
       <c r="U19" s="2"/>
       <c r="V19" s="3"/>
       <c r="W19" s="7"/>
-      <c r="X19" s="132" t="s">
+      <c r="X19" s="91" t="s">
         <v>172</v>
       </c>
       <c r="AA19" s="7"/>
@@ -32093,7 +32212,7 @@
       <c r="AL19" s="168"/>
       <c r="AM19" s="168"/>
       <c r="AN19" s="19" t="s">
-        <v>1438</v>
+        <v>1424</v>
       </c>
       <c r="AO19" s="7" t="s">
         <v>1156</v>
@@ -32102,7 +32221,7 @@
         <v>193</v>
       </c>
       <c r="AQ19" s="19" t="s">
-        <v>1437</v>
+        <v>1423</v>
       </c>
       <c r="AR19" s="19" t="s">
         <v>1323</v>
@@ -32135,7 +32254,7 @@
         <v>878</v>
       </c>
       <c r="BB19" s="101" t="s">
-        <v>1439</v>
+        <v>1425</v>
       </c>
       <c r="BC19" s="7">
         <v>1</v>
@@ -32215,7 +32334,7 @@
       <c r="AK20" s="7"/>
       <c r="AL20" s="7"/>
       <c r="AM20" s="7"/>
-      <c r="AN20" s="7"/>
+      <c r="AN20" s="19"/>
       <c r="AO20" s="7"/>
       <c r="AP20" s="7"/>
       <c r="AQ20" s="7"/>
@@ -32241,7 +32360,7 @@
       <c r="BC20" s="7"/>
       <c r="BD20" s="7"/>
     </row>
-    <row r="21" spans="1:56" ht="87" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:56" ht="95.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="str">
         <f>+VLOOKUP(D21,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0010</v>
@@ -32323,7 +32442,7 @@
       <c r="AK21" s="168"/>
       <c r="AL21" s="168"/>
       <c r="AM21" s="168"/>
-      <c r="AN21" s="7" t="s">
+      <c r="AN21" s="19" t="s">
         <v>1160</v>
       </c>
       <c r="AO21" s="7" t="s">
@@ -32333,7 +32452,7 @@
         <v>193</v>
       </c>
       <c r="AQ21" s="19" t="s">
-        <v>1437</v>
+        <v>1423</v>
       </c>
       <c r="AR21" s="19" t="s">
         <v>1323</v>
@@ -32450,7 +32569,7 @@
       <c r="AK22" s="7"/>
       <c r="AL22" s="7"/>
       <c r="AM22" s="7"/>
-      <c r="AN22" s="100"/>
+      <c r="AN22" s="167"/>
       <c r="AO22" s="7"/>
       <c r="AP22" s="7"/>
       <c r="AQ22" s="7"/>
@@ -32574,7 +32693,7 @@
       <c r="AM23" s="19" t="s">
         <v>1267</v>
       </c>
-      <c r="AN23" s="7" t="s">
+      <c r="AN23" s="19" t="s">
         <v>1165</v>
       </c>
       <c r="AO23" s="7" t="s">
@@ -32619,13 +32738,13 @@
         <v>878</v>
       </c>
       <c r="BB23" s="7" t="s">
-        <v>1440</v>
+        <v>1426</v>
       </c>
       <c r="BC23" s="7">
         <v>1</v>
       </c>
       <c r="BD23" s="7" t="s">
-        <v>1441</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="24" spans="1:56" ht="72.5" x14ac:dyDescent="0.35">
@@ -32702,7 +32821,7 @@
       <c r="AK24" s="7"/>
       <c r="AL24" s="7"/>
       <c r="AM24" s="7"/>
-      <c r="AN24" s="7"/>
+      <c r="AN24" s="19"/>
       <c r="AO24" s="7"/>
       <c r="AP24" s="7"/>
       <c r="AQ24" s="7"/>
@@ -32797,7 +32916,7 @@
       <c r="AK25" s="7"/>
       <c r="AL25" s="7"/>
       <c r="AM25" s="7"/>
-      <c r="AN25" s="7"/>
+      <c r="AN25" s="19"/>
       <c r="AO25" s="7"/>
       <c r="AP25" s="7"/>
       <c r="AQ25" s="7"/>
@@ -32892,7 +33011,7 @@
       <c r="AK26" s="7"/>
       <c r="AL26" s="7"/>
       <c r="AM26" s="7"/>
-      <c r="AN26" s="7"/>
+      <c r="AN26" s="19"/>
       <c r="AO26" s="7"/>
       <c r="AP26" s="7"/>
       <c r="AQ26" s="7"/>
@@ -32989,7 +33108,7 @@
       <c r="AK27" s="7"/>
       <c r="AL27" s="7"/>
       <c r="AM27" s="7"/>
-      <c r="AN27" s="7"/>
+      <c r="AN27" s="19"/>
       <c r="AO27" s="7"/>
       <c r="AP27" s="7"/>
       <c r="AQ27" s="7"/>
@@ -33084,7 +33203,7 @@
       <c r="AK28" s="7"/>
       <c r="AL28" s="7"/>
       <c r="AM28" s="7"/>
-      <c r="AN28" s="7"/>
+      <c r="AN28" s="19"/>
       <c r="AO28" s="7"/>
       <c r="AP28" s="7"/>
       <c r="AQ28" s="7"/>
@@ -33181,7 +33300,7 @@
       <c r="AK29" s="7"/>
       <c r="AL29" s="7"/>
       <c r="AM29" s="7"/>
-      <c r="AN29" s="7"/>
+      <c r="AN29" s="19"/>
       <c r="AO29" s="7"/>
       <c r="AP29" s="7"/>
       <c r="AQ29" s="7"/>
@@ -33260,8 +33379,8 @@
       <c r="U30" s="2"/>
       <c r="V30" s="3"/>
       <c r="W30" s="7"/>
-      <c r="X30" s="132" t="s">
-        <v>1501</v>
+      <c r="X30" s="91" t="s">
+        <v>1487</v>
       </c>
       <c r="AA30" s="7"/>
       <c r="AB30" s="38"/>
@@ -33279,7 +33398,7 @@
       <c r="AK30" s="7"/>
       <c r="AL30" s="7"/>
       <c r="AM30" s="7"/>
-      <c r="AN30" s="7"/>
+      <c r="AN30" s="19"/>
       <c r="AO30" s="7"/>
       <c r="AP30" s="7"/>
       <c r="AQ30" s="7"/>
@@ -33374,7 +33493,7 @@
       <c r="AK31" s="7"/>
       <c r="AL31" s="7"/>
       <c r="AM31" s="7"/>
-      <c r="AN31" s="7"/>
+      <c r="AN31" s="19"/>
       <c r="AO31" s="7"/>
       <c r="AP31" s="7"/>
       <c r="AQ31" s="7"/>
@@ -33478,8 +33597,8 @@
       <c r="AK32" s="7"/>
       <c r="AL32" s="7"/>
       <c r="AM32" s="7"/>
-      <c r="AN32" s="7" t="s">
-        <v>1375</v>
+      <c r="AN32" s="19" t="s">
+        <v>1505</v>
       </c>
       <c r="AO32" s="7"/>
       <c r="AP32" s="7"/>
@@ -33510,7 +33629,7 @@
         <v>1349</v>
       </c>
     </row>
-    <row r="33" spans="1:56" ht="29" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:56" ht="143" x14ac:dyDescent="0.35">
       <c r="A33" s="42" t="str">
         <f>+VLOOKUP(D33,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0019</v>
@@ -33563,6 +33682,9 @@
       <c r="U33" s="2"/>
       <c r="V33" s="3"/>
       <c r="W33" s="7"/>
+      <c r="X33" s="91" t="s">
+        <v>1501</v>
+      </c>
       <c r="AA33" s="7"/>
       <c r="AB33" s="13"/>
       <c r="AC33" s="7">
@@ -33579,7 +33701,9 @@
       <c r="AK33" s="7"/>
       <c r="AL33" s="7"/>
       <c r="AM33" s="7"/>
-      <c r="AN33" s="7"/>
+      <c r="AN33" s="19" t="s">
+        <v>1506</v>
+      </c>
       <c r="AO33" s="7"/>
       <c r="AP33" s="7"/>
       <c r="AQ33" s="7"/>
@@ -33674,7 +33798,7 @@
       <c r="AK34" s="7"/>
       <c r="AL34" s="7"/>
       <c r="AM34" s="7"/>
-      <c r="AN34" s="7"/>
+      <c r="AN34" s="19"/>
       <c r="AO34" s="7"/>
       <c r="AP34" s="7"/>
       <c r="AQ34" s="7"/>
@@ -33773,7 +33897,7 @@
       <c r="AK35" s="7"/>
       <c r="AL35" s="7"/>
       <c r="AM35" s="7"/>
-      <c r="AN35" s="100"/>
+      <c r="AN35" s="167"/>
       <c r="AO35" s="7"/>
       <c r="AP35" s="7"/>
       <c r="AQ35" s="7"/>
@@ -33881,7 +34005,7 @@
       <c r="AK36" s="168"/>
       <c r="AL36" s="168"/>
       <c r="AM36" s="168"/>
-      <c r="AN36" s="7" t="s">
+      <c r="AN36" s="19" t="s">
         <v>1332</v>
       </c>
       <c r="AO36" s="7" t="s">
@@ -33891,7 +34015,7 @@
         <v>193</v>
       </c>
       <c r="AQ36" s="19" t="s">
-        <v>1437</v>
+        <v>1423</v>
       </c>
       <c r="AR36" s="19" t="s">
         <v>1323</v>
@@ -34003,7 +34127,7 @@
       </c>
       <c r="AF37" s="166"/>
       <c r="AG37" s="19" t="s">
-        <v>1442</v>
+        <v>1428</v>
       </c>
       <c r="AH37" s="167"/>
       <c r="AI37" s="19" t="s">
@@ -34014,7 +34138,7 @@
       <c r="AL37" s="168"/>
       <c r="AM37" s="168"/>
       <c r="AN37" s="19" t="s">
-        <v>1443</v>
+        <v>1429</v>
       </c>
       <c r="AO37" s="7" t="s">
         <v>1149</v>
@@ -34023,7 +34147,7 @@
         <v>767</v>
       </c>
       <c r="AQ37" s="19" t="s">
-        <v>1444</v>
+        <v>1430</v>
       </c>
       <c r="AR37" s="19" t="s">
         <v>1324</v>
@@ -34130,7 +34254,7 @@
       <c r="AK38" s="7"/>
       <c r="AL38" s="7"/>
       <c r="AM38" s="7"/>
-      <c r="AN38" s="7"/>
+      <c r="AN38" s="19"/>
       <c r="AO38" s="7"/>
       <c r="AP38" s="7"/>
       <c r="AQ38" s="7"/>
@@ -34252,7 +34376,7 @@
       <c r="AM39" s="19" t="s">
         <v>1267</v>
       </c>
-      <c r="AN39" s="7" t="s">
+      <c r="AN39" s="19" t="s">
         <v>1362</v>
       </c>
       <c r="AO39" s="7" t="s">
@@ -34385,8 +34509,8 @@
       <c r="AK40" s="168"/>
       <c r="AL40" s="168"/>
       <c r="AM40" s="168"/>
-      <c r="AN40" s="7" t="s">
-        <v>1511</v>
+      <c r="AN40" s="19" t="s">
+        <v>1507</v>
       </c>
       <c r="AO40" s="7"/>
       <c r="AP40" s="100"/>
@@ -34424,7 +34548,7 @@
         <v>1</v>
       </c>
       <c r="BD40" s="7" t="s">
-        <v>1512</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="41" spans="1:56" ht="29" x14ac:dyDescent="0.35">
@@ -34498,7 +34622,7 @@
       <c r="AK41" s="7"/>
       <c r="AL41" s="7"/>
       <c r="AM41" s="7"/>
-      <c r="AN41" s="7"/>
+      <c r="AN41" s="19"/>
       <c r="AO41" s="7"/>
       <c r="AP41" s="7"/>
       <c r="AQ41" s="7"/>
@@ -34601,7 +34725,7 @@
       <c r="AK42" s="7"/>
       <c r="AL42" s="7"/>
       <c r="AM42" s="7"/>
-      <c r="AN42" s="7"/>
+      <c r="AN42" s="19"/>
       <c r="AO42" s="7"/>
       <c r="AP42" s="7"/>
       <c r="AQ42" s="7"/>
@@ -34696,7 +34820,7 @@
       <c r="AK43" s="7"/>
       <c r="AL43" s="7"/>
       <c r="AM43" s="7"/>
-      <c r="AN43" s="7"/>
+      <c r="AN43" s="19"/>
       <c r="AO43" s="7"/>
       <c r="AP43" s="7"/>
       <c r="AQ43" s="7"/>
@@ -34791,7 +34915,7 @@
       <c r="AK44" s="7"/>
       <c r="AL44" s="7"/>
       <c r="AM44" s="7"/>
-      <c r="AN44" s="7"/>
+      <c r="AN44" s="19"/>
       <c r="AO44" s="7"/>
       <c r="AP44" s="7"/>
       <c r="AQ44" s="7"/>
@@ -34817,7 +34941,7 @@
       <c r="BC44" s="7"/>
       <c r="BD44" s="7"/>
     </row>
-    <row r="45" spans="1:56" ht="84" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:56" ht="104" x14ac:dyDescent="0.35">
       <c r="A45" s="42" t="str">
         <f>+VLOOKUP(D45,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0009</v>
@@ -34873,7 +34997,7 @@
       <c r="V45" s="3"/>
       <c r="W45" s="7"/>
       <c r="X45" s="91" t="s">
-        <v>1463</v>
+        <v>1449</v>
       </c>
       <c r="AA45" s="7"/>
       <c r="AB45" s="13"/>
@@ -34907,8 +35031,8 @@
       <c r="AM45" s="19" t="s">
         <v>1267</v>
       </c>
-      <c r="AN45" s="7" t="s">
-        <v>1363</v>
+      <c r="AN45" s="19" t="s">
+        <v>1508</v>
       </c>
       <c r="AO45" s="7" t="s">
         <v>1149</v>
@@ -35028,7 +35152,7 @@
       <c r="AK46" s="7"/>
       <c r="AL46" s="7"/>
       <c r="AM46" s="7"/>
-      <c r="AN46" s="7"/>
+      <c r="AN46" s="19"/>
       <c r="AO46" s="7"/>
       <c r="AP46" s="7"/>
       <c r="AQ46" s="7"/>
@@ -35054,7 +35178,7 @@
       <c r="BC46" s="7"/>
       <c r="BD46" s="7"/>
     </row>
-    <row r="47" spans="1:56" ht="87" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:56" ht="104" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="str">
         <f>+VLOOKUP(D47,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0005</v>
@@ -35128,8 +35252,8 @@
       <c r="AK47" s="7"/>
       <c r="AL47" s="7"/>
       <c r="AM47" s="7"/>
-      <c r="AN47" s="7" t="s">
-        <v>1364</v>
+      <c r="AN47" s="19" t="s">
+        <v>1509</v>
       </c>
       <c r="AO47" s="7"/>
       <c r="AP47" s="7"/>
@@ -35244,7 +35368,7 @@
         <v>1267</v>
       </c>
       <c r="AN48" s="19" t="s">
-        <v>1445</v>
+        <v>1431</v>
       </c>
       <c r="AO48" s="7"/>
       <c r="AP48" s="7" t="s">
@@ -35379,7 +35503,7 @@
         <v>1267</v>
       </c>
       <c r="AN49" s="19" t="s">
-        <v>1446</v>
+        <v>1432</v>
       </c>
       <c r="AO49" s="7"/>
       <c r="AP49" s="7" t="s">
@@ -35482,7 +35606,7 @@
       <c r="V50" s="3"/>
       <c r="W50" s="7"/>
       <c r="X50" s="174" t="s">
-        <v>1460</v>
+        <v>1446</v>
       </c>
       <c r="AA50" s="7"/>
       <c r="AB50" s="13"/>
@@ -35517,7 +35641,7 @@
         <v>1267</v>
       </c>
       <c r="AN50" s="19" t="s">
-        <v>1447</v>
+        <v>1433</v>
       </c>
       <c r="AO50" s="19" t="s">
         <v>956</v>
@@ -35546,13 +35670,13 @@
         <v>POWER BI</v>
       </c>
       <c r="AW50" s="19" t="s">
-        <v>1456</v>
+        <v>1442</v>
       </c>
       <c r="AX50" s="7" t="s">
         <v>959</v>
       </c>
       <c r="AY50" s="19" t="s">
-        <v>1454</v>
+        <v>1440</v>
       </c>
       <c r="AZ50" s="7" t="s">
         <v>877</v>
@@ -35624,7 +35748,7 @@
       <c r="V51" s="3"/>
       <c r="W51" s="7"/>
       <c r="X51" s="68" t="s">
-        <v>1459</v>
+        <v>1445</v>
       </c>
       <c r="AA51" s="7"/>
       <c r="AB51" s="13"/>
@@ -35659,7 +35783,7 @@
         <v>1267</v>
       </c>
       <c r="AN51" s="19" t="s">
-        <v>1448</v>
+        <v>1434</v>
       </c>
       <c r="AO51" s="19" t="s">
         <v>956</v>
@@ -35688,13 +35812,13 @@
         <v>POWER BI</v>
       </c>
       <c r="AW51" s="19" t="s">
-        <v>1456</v>
+        <v>1442</v>
       </c>
       <c r="AX51" s="7" t="s">
         <v>959</v>
       </c>
       <c r="AY51" s="19" t="s">
-        <v>1455</v>
+        <v>1441</v>
       </c>
       <c r="AZ51" s="7" t="s">
         <v>877</v>
@@ -35779,7 +35903,7 @@
       <c r="AK52" s="7"/>
       <c r="AL52" s="7"/>
       <c r="AM52" s="7"/>
-      <c r="AN52" s="7"/>
+      <c r="AN52" s="19"/>
       <c r="AO52" s="7"/>
       <c r="AP52" s="7"/>
       <c r="AQ52" s="7"/>
@@ -35876,7 +36000,7 @@
       <c r="AK53" s="7"/>
       <c r="AL53" s="7"/>
       <c r="AM53" s="7"/>
-      <c r="AN53" s="7"/>
+      <c r="AN53" s="19"/>
       <c r="AO53" s="7"/>
       <c r="AP53" s="7"/>
       <c r="AQ53" s="7"/>
@@ -35971,7 +36095,7 @@
       <c r="AK54" s="7"/>
       <c r="AL54" s="7"/>
       <c r="AM54" s="7"/>
-      <c r="AN54" s="7"/>
+      <c r="AN54" s="19"/>
       <c r="AO54" s="7"/>
       <c r="AP54" s="7"/>
       <c r="AQ54" s="7"/>
@@ -36066,7 +36190,7 @@
       <c r="AK55" s="7"/>
       <c r="AL55" s="7"/>
       <c r="AM55" s="7"/>
-      <c r="AN55" s="7"/>
+      <c r="AN55" s="19"/>
       <c r="AO55" s="7"/>
       <c r="AP55" s="7"/>
       <c r="AQ55" s="7"/>
@@ -36161,7 +36285,7 @@
       <c r="AK56" s="7"/>
       <c r="AL56" s="7"/>
       <c r="AM56" s="7"/>
-      <c r="AN56" s="7"/>
+      <c r="AN56" s="19"/>
       <c r="AO56" s="7"/>
       <c r="AP56" s="7"/>
       <c r="AQ56" s="7"/>
@@ -36256,7 +36380,7 @@
       <c r="AK57" s="7"/>
       <c r="AL57" s="7"/>
       <c r="AM57" s="7"/>
-      <c r="AN57" s="7"/>
+      <c r="AN57" s="19"/>
       <c r="AO57" s="7"/>
       <c r="AP57" s="7"/>
       <c r="AQ57" s="7"/>
@@ -36337,7 +36461,7 @@
       <c r="U58" s="2"/>
       <c r="V58" s="3"/>
       <c r="W58" s="7"/>
-      <c r="X58" s="132" t="s">
+      <c r="X58" s="91" t="s">
         <v>1338</v>
       </c>
       <c r="AA58" s="7"/>
@@ -36373,7 +36497,7 @@
         <v>1267</v>
       </c>
       <c r="AN58" s="19" t="s">
-        <v>1449</v>
+        <v>1435</v>
       </c>
       <c r="AO58" s="7"/>
       <c r="AP58" s="7" t="s">
@@ -36510,8 +36634,8 @@
       <c r="AM59" s="19" t="s">
         <v>1267</v>
       </c>
-      <c r="AN59" s="7" t="s">
-        <v>1365</v>
+      <c r="AN59" s="19" t="s">
+        <v>1510</v>
       </c>
       <c r="AO59" s="7"/>
       <c r="AP59" s="7" t="s">
@@ -36613,7 +36737,7 @@
       <c r="U60" s="2"/>
       <c r="V60" s="3"/>
       <c r="W60" s="7"/>
-      <c r="X60" s="132" t="s">
+      <c r="X60" s="91" t="s">
         <v>180</v>
       </c>
       <c r="AA60" s="7"/>
@@ -36645,14 +36769,14 @@
         <v>1267</v>
       </c>
       <c r="AN60" s="19" t="s">
-        <v>1450</v>
+        <v>1436</v>
       </c>
       <c r="AO60" s="100"/>
       <c r="AP60" s="19" t="s">
         <v>193</v>
       </c>
       <c r="AQ60" s="19" t="s">
-        <v>1437</v>
+        <v>1423</v>
       </c>
       <c r="AR60" s="19" t="s">
         <v>1267</v>
@@ -36757,7 +36881,7 @@
       <c r="AK61" s="7"/>
       <c r="AL61" s="7"/>
       <c r="AM61" s="7"/>
-      <c r="AN61" s="7"/>
+      <c r="AN61" s="19"/>
       <c r="AO61" s="7"/>
       <c r="AP61" s="7"/>
       <c r="AQ61" s="7"/>
@@ -36852,7 +36976,7 @@
       <c r="AK62" s="7"/>
       <c r="AL62" s="7"/>
       <c r="AM62" s="7"/>
-      <c r="AN62" s="7"/>
+      <c r="AN62" s="19"/>
       <c r="AO62" s="7"/>
       <c r="AP62" s="7"/>
       <c r="AQ62" s="7"/>
@@ -36947,7 +37071,7 @@
       <c r="AK63" s="7"/>
       <c r="AL63" s="7"/>
       <c r="AM63" s="7"/>
-      <c r="AN63" s="7"/>
+      <c r="AN63" s="19"/>
       <c r="AO63" s="7"/>
       <c r="AP63" s="7"/>
       <c r="AQ63" s="7"/>
@@ -37042,7 +37166,7 @@
       <c r="AK64" s="7"/>
       <c r="AL64" s="7"/>
       <c r="AM64" s="7"/>
-      <c r="AN64" s="7"/>
+      <c r="AN64" s="19"/>
       <c r="AO64" s="7"/>
       <c r="AP64" s="7"/>
       <c r="AQ64" s="7"/>
@@ -37139,8 +37263,8 @@
       <c r="AK65" s="7"/>
       <c r="AL65" s="7"/>
       <c r="AM65" s="7"/>
-      <c r="AN65" s="7" t="s">
-        <v>1366</v>
+      <c r="AN65" s="19" t="s">
+        <v>1511</v>
       </c>
       <c r="AO65" s="7"/>
       <c r="AP65" s="7"/>
@@ -37167,7 +37291,7 @@
       <c r="BC65" s="7"/>
       <c r="BD65" s="7"/>
     </row>
-    <row r="66" spans="1:56" ht="60" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:56" ht="91" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="str">
         <f>+VLOOKUP(D66,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0006</v>
@@ -37235,8 +37359,8 @@
       <c r="AK66" s="7"/>
       <c r="AL66" s="7"/>
       <c r="AM66" s="7"/>
-      <c r="AN66" s="7" t="s">
-        <v>1367</v>
+      <c r="AN66" s="19" t="s">
+        <v>1512</v>
       </c>
       <c r="AO66" s="7"/>
       <c r="AP66" s="7"/>
@@ -37334,7 +37458,7 @@
       <c r="AK67" s="7"/>
       <c r="AL67" s="7"/>
       <c r="AM67" s="7"/>
-      <c r="AN67" s="7"/>
+      <c r="AN67" s="19"/>
       <c r="AO67" s="7"/>
       <c r="AP67" s="7"/>
       <c r="AQ67" s="7"/>
@@ -37440,8 +37564,8 @@
       <c r="AK68" s="167"/>
       <c r="AL68" s="167"/>
       <c r="AM68" s="167"/>
-      <c r="AN68" s="7" t="s">
-        <v>1368</v>
+      <c r="AN68" s="19" t="s">
+        <v>1513</v>
       </c>
       <c r="AO68" s="7"/>
       <c r="AP68" s="100"/>
@@ -37476,7 +37600,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="69" spans="1:56" ht="72" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:56" ht="91" x14ac:dyDescent="0.35">
       <c r="A69" s="42" t="str">
         <f>+VLOOKUP(D69,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0003</v>
@@ -37555,8 +37679,8 @@
       <c r="AK69" s="100"/>
       <c r="AL69" s="100"/>
       <c r="AM69" s="100"/>
-      <c r="AN69" s="7" t="s">
-        <v>1369</v>
+      <c r="AN69" s="19" t="s">
+        <v>1514</v>
       </c>
       <c r="AO69" s="7"/>
       <c r="AP69" s="7"/>
@@ -37597,7 +37721,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="70" spans="1:56" ht="48" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:56" ht="65" x14ac:dyDescent="0.35">
       <c r="A70" s="42" t="str">
         <f>+VLOOKUP(D70,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0003</v>
@@ -37676,8 +37800,8 @@
       <c r="AK70" s="100"/>
       <c r="AL70" s="100"/>
       <c r="AM70" s="100"/>
-      <c r="AN70" s="7" t="s">
-        <v>1373</v>
+      <c r="AN70" s="19" t="s">
+        <v>1515</v>
       </c>
       <c r="AO70" s="7"/>
       <c r="AP70" s="7"/>
@@ -37716,7 +37840,7 @@
       </c>
       <c r="BD70" s="7"/>
     </row>
-    <row r="71" spans="1:56" ht="48" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:56" ht="52" x14ac:dyDescent="0.35">
       <c r="A71" s="42" t="str">
         <f>+VLOOKUP(D71,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0003</v>
@@ -37795,8 +37919,8 @@
       <c r="AK71" s="100"/>
       <c r="AL71" s="100"/>
       <c r="AM71" s="100"/>
-      <c r="AN71" s="7" t="s">
-        <v>1370</v>
+      <c r="AN71" s="19" t="s">
+        <v>1516</v>
       </c>
       <c r="AO71" s="7"/>
       <c r="AP71" s="7"/>
@@ -37835,7 +37959,7 @@
       </c>
       <c r="BD71" s="7"/>
     </row>
-    <row r="72" spans="1:56" ht="60" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:56" ht="65" x14ac:dyDescent="0.35">
       <c r="A72" s="42" t="str">
         <f>+VLOOKUP(D72,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0003</v>
@@ -37914,8 +38038,8 @@
       <c r="AK72" s="100"/>
       <c r="AL72" s="100"/>
       <c r="AM72" s="100"/>
-      <c r="AN72" s="7" t="s">
-        <v>1371</v>
+      <c r="AN72" s="19" t="s">
+        <v>1517</v>
       </c>
       <c r="AO72" s="7"/>
       <c r="AP72" s="7"/>
@@ -37954,7 +38078,7 @@
       </c>
       <c r="BD72" s="7"/>
     </row>
-    <row r="73" spans="1:56" ht="60" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:56" ht="78" x14ac:dyDescent="0.35">
       <c r="A73" s="42" t="str">
         <f>+VLOOKUP(D73,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0003</v>
@@ -38033,8 +38157,8 @@
       <c r="AK73" s="100"/>
       <c r="AL73" s="100"/>
       <c r="AM73" s="100"/>
-      <c r="AN73" s="7" t="s">
-        <v>1372</v>
+      <c r="AN73" s="19" t="s">
+        <v>1518</v>
       </c>
       <c r="AO73" s="7"/>
       <c r="AP73" s="7"/>
@@ -38073,7 +38197,7 @@
       </c>
       <c r="BD73" s="7"/>
     </row>
-    <row r="74" spans="1:56" ht="60" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:56" ht="78" x14ac:dyDescent="0.35">
       <c r="A74" s="42" t="str">
         <f>+VLOOKUP(D74,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0003</v>
@@ -38152,8 +38276,8 @@
       <c r="AK74" s="100"/>
       <c r="AL74" s="100"/>
       <c r="AM74" s="100"/>
-      <c r="AN74" s="7" t="s">
-        <v>1374</v>
+      <c r="AN74" s="19" t="s">
+        <v>1519</v>
       </c>
       <c r="AO74" s="7"/>
       <c r="AP74" s="7"/>
@@ -38248,7 +38372,7 @@
       <c r="V75" s="3"/>
       <c r="W75" s="7"/>
       <c r="X75" s="68" t="s">
-        <v>1458</v>
+        <v>1444</v>
       </c>
       <c r="AA75" s="7"/>
       <c r="AB75" s="13"/>
@@ -38283,7 +38407,7 @@
         <v>1267</v>
       </c>
       <c r="AN75" s="19" t="s">
-        <v>1451</v>
+        <v>1437</v>
       </c>
       <c r="AO75" s="19" t="s">
         <v>956</v>
@@ -38312,13 +38436,13 @@
         <v>POWER BI</v>
       </c>
       <c r="AW75" s="19" t="s">
-        <v>1456</v>
+        <v>1442</v>
       </c>
       <c r="AX75" s="7" t="s">
         <v>959</v>
       </c>
       <c r="AY75" s="19" t="s">
-        <v>1454</v>
+        <v>1440</v>
       </c>
       <c r="AZ75" s="7" t="s">
         <v>877</v>
@@ -38403,7 +38527,7 @@
       <c r="AK76" s="7"/>
       <c r="AL76" s="7"/>
       <c r="AM76" s="7"/>
-      <c r="AN76" s="7"/>
+      <c r="AN76" s="19"/>
       <c r="AO76" s="7"/>
       <c r="AP76" s="7"/>
       <c r="AQ76" s="7"/>
@@ -38503,7 +38627,7 @@
       <c r="AK77" s="7"/>
       <c r="AL77" s="7"/>
       <c r="AM77" s="7"/>
-      <c r="AN77" s="100"/>
+      <c r="AN77" s="167"/>
       <c r="AO77" s="7"/>
       <c r="AP77" s="7"/>
       <c r="AQ77" s="7"/>
@@ -38602,7 +38726,7 @@
       <c r="AK78" s="7"/>
       <c r="AL78" s="7"/>
       <c r="AM78" s="7"/>
-      <c r="AN78" s="7"/>
+      <c r="AN78" s="19"/>
       <c r="AO78" s="7"/>
       <c r="AP78" s="7"/>
       <c r="AQ78" s="7"/>
@@ -38699,7 +38823,7 @@
       <c r="AK79" s="7"/>
       <c r="AL79" s="7"/>
       <c r="AM79" s="7"/>
-      <c r="AN79" s="7"/>
+      <c r="AN79" s="19"/>
       <c r="AO79" s="7"/>
       <c r="AP79" s="7"/>
       <c r="AQ79" s="7"/>
@@ -38796,7 +38920,7 @@
       <c r="AK80" s="7"/>
       <c r="AL80" s="7"/>
       <c r="AM80" s="7"/>
-      <c r="AN80" s="100"/>
+      <c r="AN80" s="167"/>
       <c r="AO80" s="7"/>
       <c r="AP80" s="7"/>
       <c r="AQ80" s="7"/>
@@ -38895,7 +39019,7 @@
       <c r="AK81" s="7"/>
       <c r="AL81" s="7"/>
       <c r="AM81" s="7"/>
-      <c r="AN81" s="100"/>
+      <c r="AN81" s="167"/>
       <c r="AO81" s="7"/>
       <c r="AP81" s="7"/>
       <c r="AQ81" s="7"/>
@@ -38992,7 +39116,7 @@
       <c r="AK82" s="7"/>
       <c r="AL82" s="7"/>
       <c r="AM82" s="7"/>
-      <c r="AN82" s="100"/>
+      <c r="AN82" s="167"/>
       <c r="AO82" s="7"/>
       <c r="AP82" s="7"/>
       <c r="AQ82" s="7"/>
@@ -39089,7 +39213,7 @@
       <c r="AK83" s="7"/>
       <c r="AL83" s="7"/>
       <c r="AM83" s="7"/>
-      <c r="AN83" s="100"/>
+      <c r="AN83" s="167"/>
       <c r="AO83" s="7"/>
       <c r="AP83" s="7"/>
       <c r="AQ83" s="7"/>
@@ -39188,7 +39312,7 @@
       <c r="AK84" s="7"/>
       <c r="AL84" s="7"/>
       <c r="AM84" s="7"/>
-      <c r="AN84" s="100"/>
+      <c r="AN84" s="167"/>
       <c r="AO84" s="7"/>
       <c r="AP84" s="7"/>
       <c r="AQ84" s="7"/>
@@ -39285,7 +39409,7 @@
       <c r="AK85" s="7"/>
       <c r="AL85" s="7"/>
       <c r="AM85" s="7"/>
-      <c r="AN85" s="100"/>
+      <c r="AN85" s="167"/>
       <c r="AO85" s="7"/>
       <c r="AP85" s="7"/>
       <c r="AQ85" s="7"/>
@@ -39384,7 +39508,7 @@
       <c r="AK86" s="7"/>
       <c r="AL86" s="7"/>
       <c r="AM86" s="7"/>
-      <c r="AN86" s="100"/>
+      <c r="AN86" s="167"/>
       <c r="AO86" s="7"/>
       <c r="AP86" s="7"/>
       <c r="AQ86" s="7"/>
@@ -39472,6 +39596,7 @@
         <v>0</v>
       </c>
       <c r="AF87" s="123"/>
+      <c r="AN87" s="47"/>
       <c r="AU87" t="str">
         <f>PRODUCTOS[[#This Row],[Data]]</f>
         <v>DATASALUD</v>
@@ -39544,6 +39669,7 @@
         <v>0</v>
       </c>
       <c r="AF88" s="123"/>
+      <c r="AN88" s="47"/>
       <c r="AU88" t="str">
         <f>PRODUCTOS[[#This Row],[Data]]</f>
         <v>DATASALUD</v>
@@ -39613,6 +39739,7 @@
         <v>0</v>
       </c>
       <c r="AF89" s="123"/>
+      <c r="AN89" s="47"/>
       <c r="AU89" t="str">
         <f>PRODUCTOS[[#This Row],[Data]]</f>
         <v>DATASALUD</v>
@@ -39678,7 +39805,7 @@
       <c r="V90" s="3"/>
       <c r="W90" s="7"/>
       <c r="X90" s="68" t="s">
-        <v>1457</v>
+        <v>1443</v>
       </c>
       <c r="AA90" s="7"/>
       <c r="AB90" s="13"/>
@@ -39712,7 +39839,7 @@
         <v>1267</v>
       </c>
       <c r="AN90" s="19" t="s">
-        <v>1452</v>
+        <v>1438</v>
       </c>
       <c r="AO90" s="56" t="s">
         <v>956</v>
@@ -39741,13 +39868,13 @@
         <v>POWER BI</v>
       </c>
       <c r="AW90" s="19" t="s">
-        <v>1456</v>
+        <v>1442</v>
       </c>
       <c r="AX90" s="14" t="s">
         <v>959</v>
       </c>
       <c r="AY90" s="68" t="s">
-        <v>1453</v>
+        <v>1439</v>
       </c>
       <c r="AZ90" s="7" t="s">
         <v>877</v>
@@ -39821,6 +39948,7 @@
       <c r="AA91" s="7"/>
       <c r="AB91" s="13"/>
       <c r="AF91" s="123"/>
+      <c r="AN91" s="47"/>
       <c r="AU91" s="127" t="str">
         <f>PRODUCTOS[[#This Row],[Data]]</f>
         <v>DATAELECCIONES</v>
@@ -39886,6 +40014,7 @@
       <c r="AA92" s="7"/>
       <c r="AB92" s="13"/>
       <c r="AF92" s="123"/>
+      <c r="AN92" s="47"/>
       <c r="AU92" s="127" t="str">
         <f>PRODUCTOS[[#This Row],[Data]]</f>
         <v>DATAEVALUACIÓN</v>
@@ -39895,7 +40024,7 @@
         <v>POWER BI</v>
       </c>
     </row>
-    <row r="93" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:56" ht="111.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" s="42" t="str">
         <f>+VLOOKUP(D93,'DATA`S'!$B$8:$C$34,2,0)</f>
         <v>0019</v>
@@ -39948,9 +40077,15 @@
       <c r="U93" s="2"/>
       <c r="V93" s="3"/>
       <c r="W93" s="7"/>
+      <c r="X93" s="91" t="s">
+        <v>1500</v>
+      </c>
       <c r="AA93" s="7"/>
       <c r="AB93" s="13"/>
       <c r="AF93" s="123"/>
+      <c r="AN93" s="169" t="s">
+        <v>1520</v>
+      </c>
       <c r="AU93" s="127" t="str">
         <f>PRODUCTOS[[#This Row],[Data]]</f>
         <v>DATAPUEBLOS</v>
@@ -39960,7 +40095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:56" ht="126" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" s="42" t="str">
         <f>+VLOOKUP(D94,'DATA`S'!$B$8:$C$34,2,0)</f>
         <v>0019</v>
@@ -40013,9 +40148,15 @@
       <c r="U94" s="2"/>
       <c r="V94" s="3"/>
       <c r="W94" s="7"/>
+      <c r="X94" s="91" t="s">
+        <v>1502</v>
+      </c>
       <c r="AA94" s="7"/>
       <c r="AB94" s="13"/>
       <c r="AF94" s="123"/>
+      <c r="AN94" s="169" t="s">
+        <v>1521</v>
+      </c>
       <c r="AU94" s="127" t="str">
         <f>PRODUCTOS[[#This Row],[Data]]</f>
         <v>DATAPUEBLOS</v>
@@ -40082,6 +40223,7 @@
       <c r="AA95" s="7"/>
       <c r="AB95" s="13"/>
       <c r="AF95" s="123"/>
+      <c r="AN95" s="47"/>
       <c r="AU95" s="127" t="str">
         <f>PRODUCTOS[[#This Row],[Data]]</f>
         <v>DATASALUD</v>
@@ -40101,10 +40243,10 @@
         <v>04</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>1462</v>
+        <v>1448</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>1461</v>
+        <v>1447</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>837</v>
@@ -40114,7 +40256,7 @@
         <v>0026-04-00089</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>1476</v>
+        <v>1462</v>
       </c>
       <c r="H96" s="2"/>
       <c r="I96" s="2"/>
@@ -40139,11 +40281,12 @@
       <c r="V96" s="3"/>
       <c r="W96" s="7"/>
       <c r="X96" s="91" t="s">
-        <v>1477</v>
+        <v>1463</v>
       </c>
       <c r="AA96" s="7"/>
       <c r="AB96" s="13"/>
       <c r="AF96" s="123"/>
+      <c r="AN96" s="47"/>
       <c r="AU96" s="127" t="str">
         <f>PRODUCTOS[[#This Row],[Data]]</f>
         <v>DATAIMPACTO</v>
@@ -40175,17 +40318,24 @@
     <hyperlink ref="X15" r:id="rId5" xr:uid="{4FDBB138-AC80-4C46-B244-984D17E40563}"/>
     <hyperlink ref="X14" r:id="rId6" xr:uid="{5ABB8516-2BF9-4C51-B70C-43B49E7C9A68}"/>
     <hyperlink ref="X24" r:id="rId7" xr:uid="{2892B233-551D-4BB7-9781-0E2196F22533}"/>
+    <hyperlink ref="X58" r:id="rId8" xr:uid="{238C0432-096F-4E81-9BA0-FE5278973F1A}"/>
+    <hyperlink ref="X60" r:id="rId9" xr:uid="{D39AD730-2E9F-43DC-8461-232454E67AB9}"/>
+    <hyperlink ref="X19" r:id="rId10" xr:uid="{B15ECF38-0BA7-4CD6-9892-578315CCBF8F}"/>
+    <hyperlink ref="X30" r:id="rId11" xr:uid="{364E8BB3-40C4-4000-A0D5-1C15140D0CB0}"/>
+    <hyperlink ref="X93" r:id="rId12" xr:uid="{87ABBE0E-9417-4AE3-AC82-32043ECEF989}"/>
+    <hyperlink ref="X33" r:id="rId13" xr:uid="{843A2FFB-AEEC-4DED-9E7A-31BA1338BF8F}"/>
+    <hyperlink ref="X94" r:id="rId14" xr:uid="{77742FF8-5327-453A-9CD9-80E458A84A27}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId8"/>
-  <drawing r:id="rId9"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId15"/>
+  <drawing r:id="rId16"/>
   <tableParts count="1">
-    <tablePart r:id="rId10"/>
+    <tablePart r:id="rId17"/>
   </tableParts>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{3A4CF648-6AED-40f4-86FF-DC5316D8AED3}">
       <x14:slicerList xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-        <x14:slicer r:id="rId11"/>
+        <x14:slicer r:id="rId18"/>
       </x14:slicerList>
     </ext>
   </extLst>
@@ -49518,7 +49668,7 @@
         <v>974</v>
       </c>
       <c r="I7" s="16" t="s">
-        <v>1383</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.35">
@@ -49638,7 +49788,7 @@
     </row>
     <row r="17" spans="2:7" ht="29" x14ac:dyDescent="0.35">
       <c r="B17" s="141" t="s">
-        <v>1420</v>
+        <v>1406</v>
       </c>
       <c r="C17" s="149" t="s">
         <v>161</v>
@@ -49651,12 +49801,12 @@
       </c>
       <c r="F17" s="159"/>
       <c r="G17" s="14" t="s">
-        <v>1378</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B18" s="141" t="s">
-        <v>1420</v>
+        <v>1406</v>
       </c>
       <c r="C18" s="144" t="s">
         <v>1273</v>
@@ -49669,7 +49819,7 @@
       </c>
       <c r="F18" s="159"/>
       <c r="G18" s="14" t="s">
-        <v>1421</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.35">
@@ -49687,7 +49837,7 @@
       </c>
       <c r="F19" s="159"/>
       <c r="G19" s="16" t="s">
-        <v>1379</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.35">
@@ -49720,7 +49870,7 @@
       </c>
       <c r="F21" s="159"/>
       <c r="G21" s="16" t="s">
-        <v>1386</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="22" spans="2:7" ht="42.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -49756,7 +49906,7 @@
       </c>
       <c r="F23" s="159"/>
       <c r="G23" s="14" t="s">
-        <v>1423</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="24" spans="2:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
@@ -49774,7 +49924,7 @@
       </c>
       <c r="F24" s="159"/>
       <c r="G24" s="14" t="s">
-        <v>1422</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.35">
@@ -49807,7 +49957,7 @@
         <v>159</v>
       </c>
       <c r="G26" s="16" t="s">
-        <v>1424</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.35">
@@ -49824,10 +49974,10 @@
         <v>99</v>
       </c>
       <c r="F27" s="159" t="s">
-        <v>1399</v>
+        <v>1385</v>
       </c>
       <c r="G27" s="16" t="s">
-        <v>1402</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.35">
@@ -49844,10 +49994,10 @@
         <v>99</v>
       </c>
       <c r="F28" s="159" t="s">
-        <v>1415</v>
+        <v>1401</v>
       </c>
       <c r="G28" s="16" t="s">
-        <v>1406</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="29" spans="2:7" ht="43.5" x14ac:dyDescent="0.35">
@@ -49864,10 +50014,10 @@
         <v>99</v>
       </c>
       <c r="F29" s="159" t="s">
-        <v>1415</v>
+        <v>1401</v>
       </c>
       <c r="G29" s="14" t="s">
-        <v>1416</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.35">
@@ -49884,10 +50034,10 @@
         <v>99</v>
       </c>
       <c r="F30" s="159" t="s">
-        <v>1415</v>
+        <v>1401</v>
       </c>
       <c r="G30" s="16" t="s">
-        <v>1417</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.35">
@@ -49904,10 +50054,10 @@
         <v>99</v>
       </c>
       <c r="F31" s="159" t="s">
-        <v>1399</v>
+        <v>1385</v>
       </c>
       <c r="G31" s="16" t="s">
-        <v>1385</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.35">
@@ -49924,10 +50074,10 @@
         <v>99</v>
       </c>
       <c r="F32" s="159" t="s">
-        <v>1399</v>
+        <v>1385</v>
       </c>
       <c r="G32" s="16" t="s">
-        <v>1418</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.35">
@@ -49947,7 +50097,7 @@
         <v>159</v>
       </c>
       <c r="G33" s="16" t="s">
-        <v>1419</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.35">
@@ -49964,10 +50114,10 @@
         <v>99</v>
       </c>
       <c r="F34" s="159" t="s">
-        <v>1399</v>
+        <v>1385</v>
       </c>
       <c r="G34" s="16" t="s">
-        <v>1468</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.35">
@@ -49987,10 +50137,10 @@
         <v>159</v>
       </c>
       <c r="G35" s="16" t="s">
-        <v>1468</v>
+        <v>1454</v>
       </c>
       <c r="H35" s="16" t="s">
-        <v>1469</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.35">
@@ -50007,10 +50157,10 @@
         <v>99</v>
       </c>
       <c r="F36" s="159" t="s">
-        <v>1415</v>
+        <v>1401</v>
       </c>
       <c r="G36" s="16" t="s">
-        <v>1468</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.35">
@@ -50048,7 +50198,7 @@
         <v>159</v>
       </c>
       <c r="G38" s="14" t="s">
-        <v>1426</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.35">
@@ -50068,7 +50218,7 @@
         <v>159</v>
       </c>
       <c r="G39" s="16" t="s">
-        <v>1425</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.35">
@@ -50085,10 +50235,10 @@
         <v>95</v>
       </c>
       <c r="F40" s="158" t="s">
-        <v>1399</v>
+        <v>1385</v>
       </c>
       <c r="G40" s="16" t="s">
-        <v>1427</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.35">
@@ -50105,10 +50255,10 @@
         <v>95</v>
       </c>
       <c r="F41" s="158" t="s">
-        <v>1404</v>
+        <v>1390</v>
       </c>
       <c r="G41" s="16" t="s">
-        <v>1427</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.35">
@@ -50128,7 +50278,7 @@
         <v>159</v>
       </c>
       <c r="G42" s="16" t="s">
-        <v>1470</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.35">
@@ -50145,10 +50295,10 @@
         <v>95</v>
       </c>
       <c r="F43" s="158" t="s">
-        <v>1399</v>
+        <v>1385</v>
       </c>
       <c r="G43" s="16" t="s">
-        <v>1471</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.35">
@@ -50165,10 +50315,10 @@
         <v>95</v>
       </c>
       <c r="F44" s="158" t="s">
-        <v>1404</v>
+        <v>1390</v>
       </c>
       <c r="G44" s="16" t="s">
-        <v>1471</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.35">
@@ -50188,7 +50338,7 @@
         <v>159</v>
       </c>
       <c r="G45" s="16" t="s">
-        <v>1395</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.35">
@@ -50205,10 +50355,10 @@
         <v>98</v>
       </c>
       <c r="F46" s="159" t="s">
-        <v>1399</v>
+        <v>1385</v>
       </c>
       <c r="G46" s="16" t="s">
-        <v>1402</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="47" spans="2:8" ht="34" customHeight="1" x14ac:dyDescent="0.35">
@@ -50228,7 +50378,7 @@
         <v>159</v>
       </c>
       <c r="G47" s="14" t="s">
-        <v>1401</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="48" spans="2:8" ht="34" customHeight="1" x14ac:dyDescent="0.35">
@@ -50248,7 +50398,7 @@
         <v>159</v>
       </c>
       <c r="G48" s="14" t="s">
-        <v>1397</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="49" spans="2:9" ht="29" x14ac:dyDescent="0.35">
@@ -50268,7 +50418,7 @@
         <v>159</v>
       </c>
       <c r="G49" s="14" t="s">
-        <v>1398</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.35">
@@ -50285,10 +50435,10 @@
         <v>98</v>
       </c>
       <c r="F50" s="159" t="s">
-        <v>1399</v>
+        <v>1385</v>
       </c>
       <c r="G50" s="16" t="s">
-        <v>1400</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.35">
@@ -50305,10 +50455,10 @@
         <v>98</v>
       </c>
       <c r="F51" s="159" t="s">
-        <v>1399</v>
+        <v>1385</v>
       </c>
       <c r="G51" s="16" t="s">
-        <v>1403</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="52" spans="2:9" ht="29" x14ac:dyDescent="0.35">
@@ -50325,10 +50475,10 @@
         <v>98</v>
       </c>
       <c r="F52" s="159" t="s">
-        <v>1404</v>
+        <v>1390</v>
       </c>
       <c r="G52" s="14" t="s">
-        <v>1405</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.35">
@@ -50348,7 +50498,7 @@
         <v>159</v>
       </c>
       <c r="G53" s="14" t="s">
-        <v>1471</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="54" spans="2:9" ht="43.5" x14ac:dyDescent="0.35">
@@ -50368,7 +50518,7 @@
         <v>159</v>
       </c>
       <c r="G54" s="132" t="s">
-        <v>1472</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.35">
@@ -50385,10 +50535,10 @@
         <v>98</v>
       </c>
       <c r="F55" s="159" t="s">
-        <v>1399</v>
+        <v>1385</v>
       </c>
       <c r="G55" s="14" t="s">
-        <v>1471</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.35">
@@ -50405,10 +50555,10 @@
         <v>98</v>
       </c>
       <c r="F56" s="159" t="s">
-        <v>1404</v>
+        <v>1390</v>
       </c>
       <c r="G56" s="14" t="s">
-        <v>1471</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.35">
@@ -50425,16 +50575,16 @@
         <v>93</v>
       </c>
       <c r="F57" s="159" t="s">
-        <v>1404</v>
+        <v>1390</v>
       </c>
       <c r="G57" s="16" t="s">
-        <v>1408</v>
+        <v>1394</v>
       </c>
       <c r="H57" s="16" t="s">
-        <v>1382</v>
+        <v>1368</v>
       </c>
       <c r="I57" s="16" t="s">
-        <v>1384</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.35">
@@ -50451,10 +50601,10 @@
         <v>93</v>
       </c>
       <c r="F58" s="158" t="s">
-        <v>1404</v>
+        <v>1390</v>
       </c>
       <c r="G58" s="16" t="s">
-        <v>1409</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.35">
@@ -50474,7 +50624,7 @@
         <v>159</v>
       </c>
       <c r="G59" s="16" t="s">
-        <v>1414</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="60" spans="2:9" ht="43.5" x14ac:dyDescent="0.35">
@@ -50494,13 +50644,13 @@
         <v>1057</v>
       </c>
       <c r="G60" s="16" t="s">
-        <v>1412</v>
+        <v>1398</v>
       </c>
       <c r="H60" s="14" t="s">
         <v>1308</v>
       </c>
       <c r="I60" s="14" t="s">
-        <v>1407</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.35">
@@ -50520,7 +50670,7 @@
         <v>159</v>
       </c>
       <c r="G61" s="16" t="s">
-        <v>1413</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.35">
@@ -50540,7 +50690,7 @@
         <v>1057</v>
       </c>
       <c r="G62" s="16" t="s">
-        <v>1410</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.35">
@@ -50560,7 +50710,7 @@
         <v>1057</v>
       </c>
       <c r="G63" s="16" t="s">
-        <v>1418</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.35">
@@ -50577,10 +50727,10 @@
         <v>93</v>
       </c>
       <c r="F64" s="159" t="s">
-        <v>1404</v>
+        <v>1390</v>
       </c>
       <c r="G64" s="16" t="s">
-        <v>1411</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.35">
@@ -50600,7 +50750,7 @@
         <v>159</v>
       </c>
       <c r="G65" s="16" t="s">
-        <v>1473</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.35">
@@ -50620,7 +50770,7 @@
         <v>1057</v>
       </c>
       <c r="G66" s="16" t="s">
-        <v>1474</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.35">
@@ -50637,10 +50787,10 @@
         <v>93</v>
       </c>
       <c r="F67" s="159" t="s">
-        <v>1404</v>
+        <v>1390</v>
       </c>
       <c r="G67" s="16" t="s">
-        <v>1471</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="68" spans="2:8" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -50658,10 +50808,10 @@
       </c>
       <c r="F68" s="158"/>
       <c r="G68" s="16" t="s">
-        <v>1380</v>
+        <v>1366</v>
       </c>
       <c r="H68" s="14" t="s">
-        <v>1381</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.35">
@@ -51918,7 +52068,7 @@
         <v>1023</v>
       </c>
       <c r="C38" s="78" t="s">
-        <v>1387</v>
+        <v>1373</v>
       </c>
       <c r="D38" s="78"/>
       <c r="E38" s="78"/>
@@ -51940,7 +52090,7 @@
         <v>1025</v>
       </c>
       <c r="C39" s="47" t="s">
-        <v>1387</v>
+        <v>1373</v>
       </c>
       <c r="D39" s="50">
         <v>44121</v>
@@ -51965,7 +52115,7 @@
         <v>1027</v>
       </c>
       <c r="C41" s="47" t="s">
-        <v>1388</v>
+        <v>1374</v>
       </c>
       <c r="D41" s="50">
         <v>44126</v>
@@ -52061,7 +52211,7 @@
         <v>39</v>
       </c>
       <c r="B48" s="48" t="s">
-        <v>1467</v>
+        <v>1453</v>
       </c>
       <c r="M48" s="49"/>
     </row>
@@ -52070,10 +52220,10 @@
         <v>40</v>
       </c>
       <c r="B49" s="48" t="s">
-        <v>1466</v>
+        <v>1452</v>
       </c>
       <c r="L49" s="163" t="s">
-        <v>1396</v>
+        <v>1382</v>
       </c>
       <c r="M49" s="49"/>
     </row>
@@ -52082,10 +52232,10 @@
         <v>41</v>
       </c>
       <c r="B50" s="48" t="s">
-        <v>1432</v>
+        <v>1418</v>
       </c>
       <c r="L50" s="163" t="s">
-        <v>1431</v>
+        <v>1417</v>
       </c>
       <c r="M50" s="49"/>
     </row>
@@ -52094,7 +52244,7 @@
         <v>42</v>
       </c>
       <c r="B51" s="48" t="s">
-        <v>1434</v>
+        <v>1420</v>
       </c>
       <c r="M51" s="49"/>
     </row>
@@ -52103,10 +52253,10 @@
         <v>43</v>
       </c>
       <c r="B52" s="48" t="s">
-        <v>1465</v>
+        <v>1451</v>
       </c>
       <c r="L52" s="163" t="s">
-        <v>1464</v>
+        <v>1450</v>
       </c>
       <c r="M52" s="49"/>
     </row>
@@ -52115,10 +52265,10 @@
         <v>44</v>
       </c>
       <c r="B53" s="48" t="s">
-        <v>1483</v>
+        <v>1469</v>
       </c>
       <c r="L53" s="163" t="s">
-        <v>1482</v>
+        <v>1468</v>
       </c>
       <c r="M53" s="49"/>
     </row>

--- a/Monitoreo DI.xlsx
+++ b/Monitoreo DI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karen\Dropbox\DI Monitoreo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74C5DD5D-DAC4-4382-B880-B06CEE7EFE3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1387099-4A7F-432B-8065-9F9E8A06BED6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="833" firstSheet="2" activeTab="2" xr2:uid="{F0BF9B96-FFF4-4E12-841F-9553B6E1990E}"/>
   </bookViews>
@@ -110,7 +110,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6040" uniqueCount="1522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6095" uniqueCount="1533">
   <si>
     <t>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/DATASALUD.svg</t>
   </si>
@@ -5857,8 +5857,104 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> es un producto que posee 22 variantes, una por cada comunidad lingüística . En cada plataforma individual se presenta información demográfica, población que lee y escribe el idioma, así como aquella que lo reconoce como idioma materno, junto con mapas comparativos de su representación geográfica, permitiendo una completa visualización para quienes buscan mayor detalle por comunidad.</t>
+      <t xml:space="preserve"> es un producto que posee 22 variantes, una por cada comunidad lingüística. En cada plataforma individual se presenta información demográfica, población que lee y escribe el idioma, así como aquella que lo reconoce como idioma materno. Todo esto junto a mapas que permiten tener una completa y comparativa visualización de su representación geográfica, herramienta ideal para quienes buscan mayor detalle por comunidad.</t>
     </r>
+  </si>
+  <si>
+    <t>Censo 2018</t>
+  </si>
+  <si>
+    <t>Sin actualización</t>
+  </si>
+  <si>
+    <t>#pueblos #indigenas #comunidades #lingüisticas #maya #xinca #garifuna #afrodescendiente #ladino #extranjero #población #idioma #lengua #materno #lee #escribe #hombre #mujer</t>
+  </si>
+  <si>
+    <t>#pueblos #indigenas #maya #xinca #garifuna #afrodescendiente #ladino #extranjero #población #porcentaje #hombre #mujer #sexo #edad #ubicacion #espacial #distribucion</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Impactos del Huracán ETA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> es una herramienta dinámica que permite visualizar los impactos del paso del Huracán ETA por el Valle de Sula en Honduras. Dentro de la información presentada se encuentran: las áreas inundadas, viviendas, red vial, población y usos del suelo impactados, lo cual se desglosa por municipio y aldea. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Emisiones de GEI (1990-2016)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> presenta un detallada visualización de las emisiones de gases de efecto invernadero históricas en Chile, ya sea por tipo de gas (CO2, CH4, N2O, HFCs SF6) o por sector (Energía, Procesos industriales, Agricultura, UTCUTS, Residuos). Los tableros interactivos permiten la comparación de los años 1990 y 2016, identificando además las emisiones netas y per cápita. Asimismo, relaciona estas cifras a factores influyentes como PIB, población, intensidad de la energía y la internsidad el carbono, a fin de reflejar las relaciones existentes. </t>
+    </r>
+  </si>
+  <si>
+    <t>1990-2016</t>
+  </si>
+  <si>
+    <t>Evolución del cáncer cervicouterino (2011-2018)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">En la plataforma </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Avance del Cáncer Cervicouterino (2011-2018)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> podrás encontrar información sobre la evolución de esta enfermdad en Chile entre los años 2011 y 2018. Tableros interactivos permiten conocer información sobre realización de exámenes, positividad y estadios de la enfermdad, a nivel nacional o regional, acompañado de mapas que permiten entender su distribución geográfica.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">#cancer #cervicouterino #HPV #adenocarcinoma #epidermoide #neoplasia #inatraepitetial #casos #positivos #examenes #PAP #distribucion #resultados #establecimiento #salud #positividad </t>
+  </si>
+  <si>
+    <t>#GEI #gases #efecto #invernadero #CH4 #CO2 #HFC #N2O #SF6 #energia #procesos #industriales #agricultura #UTCUTS #residuos #sector #inventario #proceso #gas #PIB #poblacion #percapita #intensidad #energia #carbono</t>
   </si>
 </sst>
 </file>
@@ -9854,13 +9950,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>7621</xdr:rowOff>
+      <xdr:rowOff>10796</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>768509</xdr:colOff>
+      <xdr:colOff>771684</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>143511</xdr:rowOff>
+      <xdr:rowOff>140336</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
       <mc:Choice Requires="sle15">
@@ -9932,13 +10028,13 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>858996</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>46991</xdr:rowOff>
+      <xdr:rowOff>50166</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>383381</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>161291</xdr:rowOff>
+      <xdr:rowOff>164466</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
       <mc:Choice Requires="sle15">
@@ -10008,13 +10104,13 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>659606</xdr:colOff>
+      <xdr:colOff>656431</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>67311</xdr:rowOff>
+      <xdr:rowOff>64136</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>2103278</xdr:colOff>
+      <xdr:colOff>2106453</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>152401</xdr:rowOff>
     </xdr:to>
@@ -10086,15 +10182,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>2183288</xdr:colOff>
+      <xdr:colOff>2180113</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>29211</xdr:rowOff>
+      <xdr:rowOff>26036</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>618808</xdr:colOff>
+      <xdr:colOff>621983</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>143511</xdr:rowOff>
+      <xdr:rowOff>140336</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
       <mc:Choice Requires="sle15">
@@ -11973,7 +12069,7 @@
 
 <file path=xl/slicers/slicer2.xml><?xml version="1.0" encoding="utf-8"?>
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
-  <slicer name="Data" xr10:uid="{DC5B16C7-0AA8-4789-BE46-CC500A0CE2D1}" cache="SegmentaciónDeDatos_Data" caption="Data" columnCount="2" rowHeight="234950"/>
+  <slicer name="Data" xr10:uid="{DC5B16C7-0AA8-4789-BE46-CC500A0CE2D1}" cache="SegmentaciónDeDatos_Data" caption="Data" startItem="2" columnCount="2" rowHeight="234950"/>
   <slicer name="Estado" xr10:uid="{B5CDA16E-1F84-4290-AEF3-96C65DB4DD5A}" cache="SegmentaciónDeDatos_Estado" caption="Estado" columnCount="2" rowHeight="234950"/>
   <slicer name="Responsable Desarrollo" xr10:uid="{5F85B909-3D60-4494-A859-CB65DDAD43F0}" cache="SegmentaciónDeDatos_Responsable_Desarrollo" caption="Responsable Desarrollo" startItem="3" columnCount="3" rowHeight="234950"/>
   <slicer name="Responsable Información" xr10:uid="{1509BA93-0D1C-489B-BEEE-3640ADE75D86}" cache="SegmentaciónDeDatos_Responsable_Información" caption="Responsable Información" columnCount="4" rowHeight="234950"/>
@@ -12084,7 +12180,13 @@
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B0304927-521B-4559-963B-3C591C746F11}" name="PRODUCTOS" displayName="PRODUCTOS" ref="A7:BD96" totalsRowShown="0" headerRowDxfId="173">
-  <autoFilter ref="A7:BD96" xr:uid="{B45D9B6D-7E6E-4374-A7A8-688EAA2C002B}"/>
+  <autoFilter ref="A7:BD96" xr:uid="{B45D9B6D-7E6E-4374-A7A8-688EAA2C002B}">
+    <filterColumn colId="23">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="56">
     <tableColumn id="1" xr3:uid="{01CFB9DB-FBAD-4A9E-9D8F-5FB3EB42A9EB}" name="id_data" dataDxfId="172" totalsRowDxfId="171">
       <calculatedColumnFormula>+VLOOKUP(D8,'DATA`S'!$B$8:$C$34,2,0)</calculatedColumnFormula>
@@ -20482,9 +20584,9 @@
         <f>PRODUCTOS[[#This Row],[Producto asociado ]]</f>
         <v>Enfremedades: HPV Cáncer Cervicouterino</v>
       </c>
-      <c r="F30" s="7">
+      <c r="F30" s="7" t="str">
         <f>PRODUCTOS[[#This Row],[Nombre comercial]]</f>
-        <v>0</v>
+        <v>Evolución del cáncer cervicouterino (2011-2018)</v>
       </c>
       <c r="G30" s="7" t="e">
         <f>#REF!</f>
@@ -30588,14 +30690,14 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A7:BD96"/>
+  <dimension ref="A7:BD97"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="7" ySplit="7" topLeftCell="AG83" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="7" topLeftCell="AQ19" activePane="bottomRight" state="frozen"/>
       <selection activeCell="J19" sqref="J19"/>
       <selection pane="topRight" activeCell="J19" sqref="J19"/>
       <selection pane="bottomLeft" activeCell="J19" sqref="J19"/>
-      <selection pane="bottomRight" activeCell="AN94" sqref="AN94"/>
+      <selection pane="bottomRight" activeCell="BD30" sqref="BD30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -30808,7 +30910,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="8" spans="1:56" ht="93" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:56" ht="93" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="str">
         <f>+VLOOKUP(D8,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0012</v>
@@ -30960,7 +31062,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="9" spans="1:56" ht="115.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:56" ht="115.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="str">
         <f>+VLOOKUP(D9,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0012</v>
@@ -31073,7 +31175,7 @@
       </c>
       <c r="BD9" s="7"/>
     </row>
-    <row r="10" spans="1:56" ht="78" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:56" ht="78" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="str">
         <f>+VLOOKUP(D10,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0012</v>
@@ -31212,7 +31314,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="11" spans="1:56" ht="63" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:56" ht="63" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="str">
         <f>+VLOOKUP(D11,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0012</v>
@@ -31327,7 +31429,7 @@
       </c>
       <c r="BD11" s="7"/>
     </row>
-    <row r="12" spans="1:56" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:56" ht="52.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="str">
         <f>+VLOOKUP(D12,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0012</v>
@@ -31432,7 +31534,7 @@
       <c r="BC12" s="7"/>
       <c r="BD12" s="7"/>
     </row>
-    <row r="13" spans="1:56" ht="63" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:56" ht="63" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="str">
         <f>+VLOOKUP(D13,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0012</v>
@@ -31789,7 +31891,7 @@
       <c r="BC15" s="7"/>
       <c r="BD15" s="7"/>
     </row>
-    <row r="16" spans="1:56" ht="55.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:56" ht="55.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="str">
         <f>+VLOOKUP(D16,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0012</v>
@@ -31892,7 +31994,7 @@
       <c r="BC16" s="7"/>
       <c r="BD16" s="7"/>
     </row>
-    <row r="17" spans="1:56" ht="58" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:56" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="str">
         <f>+VLOOKUP(D17,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0004</v>
@@ -32016,7 +32118,7 @@
       </c>
       <c r="BD17" s="133"/>
     </row>
-    <row r="18" spans="1:56" ht="48" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:56" ht="48" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="str">
         <f>+VLOOKUP(D18,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0004</v>
@@ -32263,7 +32365,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="20" spans="1:56" ht="29" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:56" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="str">
         <f>+VLOOKUP(D20,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0010</v>
@@ -32496,7 +32598,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="22" spans="1:56" ht="80.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:56" ht="80.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="str">
         <f>+VLOOKUP(D22,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0010</v>
@@ -32747,7 +32849,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="24" spans="1:56" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:56" ht="143" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="str">
         <f>+VLOOKUP(D24,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0002</v>
@@ -32812,16 +32914,32 @@
         <v>Emisiones de GEI (1990-2016)</v>
       </c>
       <c r="AD24" s="7"/>
-      <c r="AE24" s="7"/>
-      <c r="AF24" s="122"/>
-      <c r="AG24" s="7"/>
-      <c r="AH24" s="7"/>
-      <c r="AI24" s="7"/>
-      <c r="AJ24" s="7"/>
-      <c r="AK24" s="7"/>
-      <c r="AL24" s="7"/>
-      <c r="AM24" s="7"/>
-      <c r="AN24" s="19"/>
+      <c r="AE24" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="AF24" s="166"/>
+      <c r="AG24" s="19" t="s">
+        <v>1267</v>
+      </c>
+      <c r="AH24" s="19" t="s">
+        <v>1267</v>
+      </c>
+      <c r="AI24" s="19" t="s">
+        <v>1267</v>
+      </c>
+      <c r="AJ24" s="19" t="s">
+        <v>1267</v>
+      </c>
+      <c r="AK24" s="168"/>
+      <c r="AL24" s="19" t="s">
+        <v>1267</v>
+      </c>
+      <c r="AM24" s="19" t="s">
+        <v>1267</v>
+      </c>
+      <c r="AN24" s="19" t="s">
+        <v>1527</v>
+      </c>
       <c r="AO24" s="7"/>
       <c r="AP24" s="7"/>
       <c r="AQ24" s="7"/>
@@ -32845,9 +32963,11 @@
       <c r="BA24" s="7"/>
       <c r="BB24" s="7"/>
       <c r="BC24" s="7"/>
-      <c r="BD24" s="7"/>
-    </row>
-    <row r="25" spans="1:56" ht="29" x14ac:dyDescent="0.35">
+      <c r="BD24" s="7" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="25" spans="1:56" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="str">
         <f>+VLOOKUP(D25,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0002</v>
@@ -32942,7 +33062,7 @@
       <c r="BC25" s="7"/>
       <c r="BD25" s="7"/>
     </row>
-    <row r="26" spans="1:56" ht="29" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:56" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="str">
         <f>+VLOOKUP(D26,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0002</v>
@@ -33039,7 +33159,7 @@
       <c r="BC26" s="7"/>
       <c r="BD26" s="7"/>
     </row>
-    <row r="27" spans="1:56" ht="29" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:56" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="str">
         <f>+VLOOKUP(D27,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0002</v>
@@ -33134,7 +33254,7 @@
       <c r="BC27" s="7"/>
       <c r="BD27" s="7"/>
     </row>
-    <row r="28" spans="1:56" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:56" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="str">
         <f>+VLOOKUP(D28,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0002</v>
@@ -33229,7 +33349,7 @@
       <c r="BC28" s="7"/>
       <c r="BD28" s="7"/>
     </row>
-    <row r="29" spans="1:56" ht="24" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:56" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="str">
         <f>+VLOOKUP(D29,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0002</v>
@@ -33326,7 +33446,7 @@
       <c r="BC29" s="7"/>
       <c r="BD29" s="7"/>
     </row>
-    <row r="30" spans="1:56" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:56" ht="104" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="str">
         <f>+VLOOKUP(D30,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0001</v>
@@ -33351,7 +33471,9 @@
       <c r="G30" s="99" t="s">
         <v>762</v>
       </c>
-      <c r="H30" s="99"/>
+      <c r="H30" s="99" t="s">
+        <v>1529</v>
+      </c>
       <c r="I30" s="2"/>
       <c r="J30" s="44">
         <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$J$112,4,0)</f>
@@ -33384,26 +33506,46 @@
       </c>
       <c r="AA30" s="7"/>
       <c r="AB30" s="38"/>
-      <c r="AC30" s="7">
+      <c r="AC30" s="7" t="str">
         <f>PRODUCTOS[[#This Row],[Nombre comercial]]</f>
-        <v>0</v>
+        <v>Evolución del cáncer cervicouterino (2011-2018)</v>
       </c>
       <c r="AD30" s="7"/>
-      <c r="AE30" s="7"/>
-      <c r="AF30" s="122"/>
-      <c r="AG30" s="7"/>
-      <c r="AH30" s="7"/>
-      <c r="AI30" s="7"/>
-      <c r="AJ30" s="7"/>
-      <c r="AK30" s="7"/>
-      <c r="AL30" s="7"/>
-      <c r="AM30" s="7"/>
-      <c r="AN30" s="19"/>
+      <c r="AE30" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="AF30" s="166"/>
+      <c r="AG30" s="7" t="s">
+        <v>1152</v>
+      </c>
+      <c r="AH30" s="166"/>
+      <c r="AI30" s="19" t="s">
+        <v>1267</v>
+      </c>
+      <c r="AJ30" s="7" t="s">
+        <v>1267</v>
+      </c>
+      <c r="AK30" s="168"/>
+      <c r="AL30" s="168"/>
+      <c r="AM30" s="19" t="s">
+        <v>1267</v>
+      </c>
+      <c r="AN30" s="19" t="s">
+        <v>1530</v>
+      </c>
       <c r="AO30" s="7"/>
-      <c r="AP30" s="7"/>
-      <c r="AQ30" s="7"/>
-      <c r="AR30" s="7"/>
-      <c r="AS30" s="7"/>
+      <c r="AP30" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="AQ30" s="7" t="s">
+        <v>1267</v>
+      </c>
+      <c r="AR30" s="7" t="s">
+        <v>1267</v>
+      </c>
+      <c r="AS30" s="7" t="s">
+        <v>1528</v>
+      </c>
       <c r="AT30" s="7" t="s">
         <v>875</v>
       </c>
@@ -33422,9 +33564,11 @@
       <c r="BA30" s="7"/>
       <c r="BB30" s="7"/>
       <c r="BC30" s="7"/>
-      <c r="BD30" s="7"/>
-    </row>
-    <row r="31" spans="1:56" ht="24" x14ac:dyDescent="0.35">
+      <c r="BD30" s="7" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="31" spans="1:56" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="str">
         <f>+VLOOKUP(D31,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0001</v>
@@ -33692,7 +33836,9 @@
         <v>0</v>
       </c>
       <c r="AD33" s="7"/>
-      <c r="AE33" s="7"/>
+      <c r="AE33" s="7" t="s">
+        <v>194</v>
+      </c>
       <c r="AF33" s="122"/>
       <c r="AG33" s="7"/>
       <c r="AH33" s="7"/>
@@ -33708,7 +33854,9 @@
       <c r="AP33" s="7"/>
       <c r="AQ33" s="7"/>
       <c r="AR33" s="7"/>
-      <c r="AS33" s="7"/>
+      <c r="AS33" s="7">
+        <v>2018</v>
+      </c>
       <c r="AT33" s="7" t="s">
         <v>875</v>
       </c>
@@ -33720,16 +33868,32 @@
         <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
         <v>0</v>
       </c>
-      <c r="AW33" s="7"/>
-      <c r="AX33" s="7"/>
-      <c r="AY33" s="7"/>
-      <c r="AZ33" s="7"/>
-      <c r="BA33" s="7"/>
-      <c r="BB33" s="7"/>
-      <c r="BC33" s="7"/>
-      <c r="BD33" s="7"/>
-    </row>
-    <row r="34" spans="1:56" ht="29" x14ac:dyDescent="0.35">
+      <c r="AW33" s="7" t="s">
+        <v>1442</v>
+      </c>
+      <c r="AX33" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="AY33" s="7" t="s">
+        <v>1522</v>
+      </c>
+      <c r="AZ33" s="7" t="s">
+        <v>877</v>
+      </c>
+      <c r="BA33" s="7" t="s">
+        <v>878</v>
+      </c>
+      <c r="BB33" s="7" t="s">
+        <v>1523</v>
+      </c>
+      <c r="BC33" s="7">
+        <v>1</v>
+      </c>
+      <c r="BD33" s="7" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="34" spans="1:56" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" s="42" t="str">
         <f>+VLOOKUP(D34,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0019</v>
@@ -33824,7 +33988,7 @@
       <c r="BC34" s="7"/>
       <c r="BD34" s="7"/>
     </row>
-    <row r="35" spans="1:56" ht="24" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:56" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" s="42" t="str">
         <f>+VLOOKUP(D35,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0004</v>
@@ -34185,7 +34349,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="38" spans="1:56" ht="24" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:56" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" s="42" t="str">
         <f>+VLOOKUP(D38,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0021</v>
@@ -34339,7 +34503,7 @@
       <c r="U39" s="2"/>
       <c r="V39" s="3"/>
       <c r="W39" s="7"/>
-      <c r="X39" s="132" t="s">
+      <c r="X39" s="91" t="s">
         <v>173</v>
       </c>
       <c r="AA39" s="7"/>
@@ -34430,7 +34594,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="40" spans="1:56" ht="61" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:56" ht="61" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="str">
         <f>+VLOOKUP(D40,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0003</v>
@@ -34551,7 +34715,7 @@
         <v>1497</v>
       </c>
     </row>
-    <row r="41" spans="1:56" ht="29" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:56" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="str">
         <f>+VLOOKUP(D41,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0003</v>
@@ -34648,7 +34812,7 @@
       <c r="BC41" s="7"/>
       <c r="BD41" s="7"/>
     </row>
-    <row r="42" spans="1:56" ht="24" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:56" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="str">
         <f>+VLOOKUP(D42,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0003</v>
@@ -34751,7 +34915,7 @@
       <c r="BC42" s="7"/>
       <c r="BD42" s="7"/>
     </row>
-    <row r="43" spans="1:56" ht="24" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:56" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" s="42" t="str">
         <f>+VLOOKUP(D43,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0014</v>
@@ -34846,7 +35010,7 @@
       <c r="BC43" s="7"/>
       <c r="BD43" s="7"/>
     </row>
-    <row r="44" spans="1:56" ht="24" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:56" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" s="42" t="str">
         <f>+VLOOKUP(D44,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0014</v>
@@ -35083,7 +35247,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="46" spans="1:56" ht="29" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:56" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" s="42" t="str">
         <f>+VLOOKUP(D46,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0013</v>
@@ -35280,7 +35444,7 @@
       <c r="BC47" s="7"/>
       <c r="BD47" s="7"/>
     </row>
-    <row r="48" spans="1:56" ht="65.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:56" ht="65.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="42" t="str">
         <f>+VLOOKUP(D48,'DATA`S'!$B$8:$C$34,2,0)</f>
         <v>0009</v>
@@ -35415,7 +35579,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="49" spans="1:56" ht="61.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:56" ht="61.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="42" t="str">
         <f>+VLOOKUP(D49,'DATA`S'!$B$8:$C$34,2,0)</f>
         <v>0009</v>
@@ -35834,7 +35998,7 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="52" spans="1:56" ht="24" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:56" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="str">
         <f>+VLOOKUP(D52,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0019</v>
@@ -35929,7 +36093,7 @@
       <c r="BC52" s="7"/>
       <c r="BD52" s="7"/>
     </row>
-    <row r="53" spans="1:56" ht="24" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:56" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="str">
         <f>+VLOOKUP(D53,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0017</v>
@@ -36026,7 +36190,7 @@
       <c r="BC53" s="7"/>
       <c r="BD53" s="7"/>
     </row>
-    <row r="54" spans="1:56" ht="24" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:56" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" s="42" t="str">
         <f>+VLOOKUP(D54,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0012</v>
@@ -36121,7 +36285,7 @@
       <c r="BC54" s="7"/>
       <c r="BD54" s="7"/>
     </row>
-    <row r="55" spans="1:56" ht="24" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:56" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55" s="42" t="str">
         <f>+VLOOKUP(D55,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0022</v>
@@ -36216,7 +36380,7 @@
       <c r="BC55" s="7"/>
       <c r="BD55" s="7"/>
     </row>
-    <row r="56" spans="1:56" ht="24" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:56" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" s="42" t="str">
         <f>+VLOOKUP(D56,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0023</v>
@@ -36311,7 +36475,7 @@
       <c r="BC56" s="7"/>
       <c r="BD56" s="7"/>
     </row>
-    <row r="57" spans="1:56" ht="24" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:56" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" s="42" t="str">
         <f>+VLOOKUP(D57,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0024</v>
@@ -36812,7 +36976,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="61" spans="1:56" ht="24" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:56" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61" s="42" t="str">
         <f>+VLOOKUP(D61,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0020</v>
@@ -36907,7 +37071,7 @@
       <c r="BC61" s="7"/>
       <c r="BD61" s="7"/>
     </row>
-    <row r="62" spans="1:56" ht="24" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:56" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62" s="42" t="str">
         <f>+VLOOKUP(D62,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0020</v>
@@ -37002,7 +37166,7 @@
       <c r="BC62" s="7"/>
       <c r="BD62" s="7"/>
     </row>
-    <row r="63" spans="1:56" ht="29" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:56" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63" s="42" t="str">
         <f>+VLOOKUP(D63,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0020</v>
@@ -37097,7 +37261,7 @@
       <c r="BC63" s="7"/>
       <c r="BD63" s="7"/>
     </row>
-    <row r="64" spans="1:56" ht="24" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:56" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="str">
         <f>+VLOOKUP(D64,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0020</v>
@@ -37192,7 +37356,7 @@
       <c r="BC64" s="7"/>
       <c r="BD64" s="7"/>
     </row>
-    <row r="65" spans="1:56" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:56" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="str">
         <f>+VLOOKUP(D65,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0006</v>
@@ -37291,7 +37455,7 @@
       <c r="BC65" s="7"/>
       <c r="BD65" s="7"/>
     </row>
-    <row r="66" spans="1:56" ht="91" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:56" ht="91" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="str">
         <f>+VLOOKUP(D66,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0006</v>
@@ -37387,7 +37551,7 @@
       <c r="BC66" s="7"/>
       <c r="BD66" s="7"/>
     </row>
-    <row r="67" spans="1:56" ht="24" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:56" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="str">
         <f>+VLOOKUP(D67,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0003</v>
@@ -37484,7 +37648,7 @@
       <c r="BC67" s="7"/>
       <c r="BD67" s="7"/>
     </row>
-    <row r="68" spans="1:56" ht="85" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:56" ht="85" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="str">
         <f>+VLOOKUP(D68,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0003</v>
@@ -37600,7 +37764,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="69" spans="1:56" ht="91" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:56" ht="91" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69" s="42" t="str">
         <f>+VLOOKUP(D69,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0003</v>
@@ -37721,7 +37885,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="70" spans="1:56" ht="65" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:56" ht="65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70" s="42" t="str">
         <f>+VLOOKUP(D70,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0003</v>
@@ -37840,7 +38004,7 @@
       </c>
       <c r="BD70" s="7"/>
     </row>
-    <row r="71" spans="1:56" ht="52" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:56" ht="52" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71" s="42" t="str">
         <f>+VLOOKUP(D71,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0003</v>
@@ -37959,7 +38123,7 @@
       </c>
       <c r="BD71" s="7"/>
     </row>
-    <row r="72" spans="1:56" ht="65" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:56" ht="65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72" s="42" t="str">
         <f>+VLOOKUP(D72,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0003</v>
@@ -38078,7 +38242,7 @@
       </c>
       <c r="BD72" s="7"/>
     </row>
-    <row r="73" spans="1:56" ht="78" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:56" ht="78" hidden="1" x14ac:dyDescent="0.35">
       <c r="A73" s="42" t="str">
         <f>+VLOOKUP(D73,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0003</v>
@@ -38197,7 +38361,7 @@
       </c>
       <c r="BD73" s="7"/>
     </row>
-    <row r="74" spans="1:56" ht="78" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:56" ht="78" hidden="1" x14ac:dyDescent="0.35">
       <c r="A74" s="42" t="str">
         <f>+VLOOKUP(D74,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0003</v>
@@ -38458,7 +38622,7 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="76" spans="1:56" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:56" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="42" t="str">
         <f>+VLOOKUP(D76,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0001</v>
@@ -38553,7 +38717,7 @@
       <c r="BC76" s="7"/>
       <c r="BD76" s="7"/>
     </row>
-    <row r="77" spans="1:56" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:56" ht="32.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="42" t="str">
         <f>+VLOOKUP(D77,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0004</v>
@@ -38655,7 +38819,7 @@
       <c r="BC77" s="7"/>
       <c r="BD77" s="7"/>
     </row>
-    <row r="78" spans="1:56" ht="26" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:56" ht="26" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="42" t="str">
         <f>+VLOOKUP(D78,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0003</v>
@@ -38752,7 +38916,7 @@
       <c r="BC78" s="7"/>
       <c r="BD78" s="7"/>
     </row>
-    <row r="79" spans="1:56" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:56" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="42" t="str">
         <f>+VLOOKUP(D79,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0003</v>
@@ -38849,7 +39013,7 @@
       <c r="BC79" s="7"/>
       <c r="BD79" s="7"/>
     </row>
-    <row r="80" spans="1:56" ht="24" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:56" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="A80" s="42" t="str">
         <f>+VLOOKUP(D80,'DATA`S'!$B$8:$C$34,2,0)</f>
         <v>0004</v>
@@ -38948,7 +39112,7 @@
       <c r="BC80" s="7"/>
       <c r="BD80" s="7"/>
     </row>
-    <row r="81" spans="1:56" ht="24" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:56" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="A81" s="42" t="str">
         <f>+VLOOKUP(D81,'DATA`S'!$B$8:$C$34,2,0)</f>
         <v>0004</v>
@@ -39045,7 +39209,7 @@
       <c r="BC81" s="7"/>
       <c r="BD81" s="7"/>
     </row>
-    <row r="82" spans="1:56" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:56" ht="29.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="42" t="str">
         <f>+VLOOKUP(D82,'DATA`S'!$B$8:$C$34,2,0)</f>
         <v>0004</v>
@@ -39142,7 +39306,7 @@
       <c r="BC82" s="7"/>
       <c r="BD82" s="7"/>
     </row>
-    <row r="83" spans="1:56" ht="24" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:56" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="A83" s="42" t="str">
         <f>+VLOOKUP(D83,'DATA`S'!$B$8:$C$34,2,0)</f>
         <v>0004</v>
@@ -39241,7 +39405,7 @@
       <c r="BC83" s="7"/>
       <c r="BD83" s="7"/>
     </row>
-    <row r="84" spans="1:56" ht="24" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:56" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="A84" s="42" t="str">
         <f>+VLOOKUP(D84,'DATA`S'!$B$8:$C$34,2,0)</f>
         <v>0004</v>
@@ -39338,7 +39502,7 @@
       <c r="BC84" s="7"/>
       <c r="BD84" s="7"/>
     </row>
-    <row r="85" spans="1:56" ht="24" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:56" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="A85" s="42" t="str">
         <f>+VLOOKUP(D85,'DATA`S'!$B$8:$C$34,2,0)</f>
         <v>0004</v>
@@ -39437,7 +39601,7 @@
       <c r="BC85" s="7"/>
       <c r="BD85" s="7"/>
     </row>
-    <row r="86" spans="1:56" ht="24" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:56" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="A86" s="42" t="str">
         <f>+VLOOKUP(D86,'DATA`S'!$B$8:$C$34,2,0)</f>
         <v>0004</v>
@@ -39536,7 +39700,7 @@
       <c r="BC86" s="7"/>
       <c r="BD86" s="7"/>
     </row>
-    <row r="87" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:56" ht="24.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A87" s="42" t="str">
         <f>+VLOOKUP(D87,'DATA`S'!$B$8:$C$34,2,0)</f>
         <v>0001</v>
@@ -39597,6 +39761,9 @@
       </c>
       <c r="AF87" s="123"/>
       <c r="AN87" s="47"/>
+      <c r="AT87" s="54" t="s">
+        <v>875</v>
+      </c>
       <c r="AU87" t="str">
         <f>PRODUCTOS[[#This Row],[Data]]</f>
         <v>DATASALUD</v>
@@ -39609,7 +39776,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="88" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:56" ht="24.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A88" s="42" t="str">
         <f>+VLOOKUP(D88,'DATA`S'!$B$8:$C$34,2,0)</f>
         <v>0001</v>
@@ -39670,6 +39837,9 @@
       </c>
       <c r="AF88" s="123"/>
       <c r="AN88" s="47"/>
+      <c r="AT88" s="54" t="s">
+        <v>875</v>
+      </c>
       <c r="AU88" t="str">
         <f>PRODUCTOS[[#This Row],[Data]]</f>
         <v>DATASALUD</v>
@@ -39679,7 +39849,7 @@
         <v>POWER BI</v>
       </c>
     </row>
-    <row r="89" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:56" ht="24.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A89" s="42" t="str">
         <f>+VLOOKUP(D89,'DATA`S'!$B$8:$C$34,2,0)</f>
         <v>0001</v>
@@ -39740,6 +39910,9 @@
       </c>
       <c r="AF89" s="123"/>
       <c r="AN89" s="47"/>
+      <c r="AT89" s="54" t="s">
+        <v>875</v>
+      </c>
       <c r="AU89" t="str">
         <f>PRODUCTOS[[#This Row],[Data]]</f>
         <v>DATASALUD</v>
@@ -39856,7 +40029,7 @@
       <c r="AS90" s="19">
         <v>2020</v>
       </c>
-      <c r="AT90" s="19" t="s">
+      <c r="AT90" s="7" t="s">
         <v>875</v>
       </c>
       <c r="AU90" s="16" t="str">
@@ -39890,7 +40063,7 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="91" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:56" ht="24.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A91" s="42" t="str">
         <f>+VLOOKUP(D91,'DATA`S'!$B$8:$C$34,2,0)</f>
         <v>0017</v>
@@ -39949,6 +40122,9 @@
       <c r="AB91" s="13"/>
       <c r="AF91" s="123"/>
       <c r="AN91" s="47"/>
+      <c r="AT91" s="54" t="s">
+        <v>875</v>
+      </c>
       <c r="AU91" s="127" t="str">
         <f>PRODUCTOS[[#This Row],[Data]]</f>
         <v>DATAELECCIONES</v>
@@ -39958,7 +40134,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="92" spans="1:56" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:56" ht="48.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="42" t="str">
         <f>+VLOOKUP(D92,'DATA`S'!$B$8:$C$34,2,0)</f>
         <v>0018</v>
@@ -40015,6 +40191,9 @@
       <c r="AB92" s="13"/>
       <c r="AF92" s="123"/>
       <c r="AN92" s="47"/>
+      <c r="AT92" s="54" t="s">
+        <v>875</v>
+      </c>
       <c r="AU92" s="127" t="str">
         <f>PRODUCTOS[[#This Row],[Data]]</f>
         <v>DATAEVALUACIÓN</v>
@@ -40082,10 +40261,19 @@
       </c>
       <c r="AA93" s="7"/>
       <c r="AB93" s="13"/>
+      <c r="AE93" t="s">
+        <v>194</v>
+      </c>
       <c r="AF93" s="123"/>
       <c r="AN93" s="169" t="s">
         <v>1520</v>
       </c>
+      <c r="AS93" s="105">
+        <v>2018</v>
+      </c>
+      <c r="AT93" s="54" t="s">
+        <v>875</v>
+      </c>
       <c r="AU93" s="127" t="str">
         <f>PRODUCTOS[[#This Row],[Data]]</f>
         <v>DATAPUEBLOS</v>
@@ -40094,8 +40282,32 @@
         <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:56" ht="126" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AW93" s="132" t="s">
+        <v>1442</v>
+      </c>
+      <c r="AX93" s="132" t="s">
+        <v>959</v>
+      </c>
+      <c r="AY93" t="s">
+        <v>1522</v>
+      </c>
+      <c r="AZ93" t="s">
+        <v>877</v>
+      </c>
+      <c r="BA93" t="s">
+        <v>878</v>
+      </c>
+      <c r="BB93" t="s">
+        <v>1523</v>
+      </c>
+      <c r="BC93">
+        <v>1</v>
+      </c>
+      <c r="BD93" s="7" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="94" spans="1:56" ht="138" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" s="42" t="str">
         <f>+VLOOKUP(D94,'DATA`S'!$B$8:$C$34,2,0)</f>
         <v>0019</v>
@@ -40153,10 +40365,19 @@
       </c>
       <c r="AA94" s="7"/>
       <c r="AB94" s="13"/>
+      <c r="AE94" t="s">
+        <v>194</v>
+      </c>
       <c r="AF94" s="123"/>
       <c r="AN94" s="169" t="s">
         <v>1521</v>
       </c>
+      <c r="AS94" s="105">
+        <v>2018</v>
+      </c>
+      <c r="AT94" s="54" t="s">
+        <v>875</v>
+      </c>
       <c r="AU94" s="127" t="str">
         <f>PRODUCTOS[[#This Row],[Data]]</f>
         <v>DATAPUEBLOS</v>
@@ -40165,8 +40386,29 @@
         <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:56" x14ac:dyDescent="0.35">
+      <c r="AW94" s="132" t="s">
+        <v>1442</v>
+      </c>
+      <c r="AX94" s="132" t="s">
+        <v>959</v>
+      </c>
+      <c r="AY94" t="s">
+        <v>1522</v>
+      </c>
+      <c r="AZ94" t="s">
+        <v>877</v>
+      </c>
+      <c r="BA94" t="s">
+        <v>878</v>
+      </c>
+      <c r="BB94" t="s">
+        <v>1523</v>
+      </c>
+      <c r="BC94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:56" ht="24.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A95" s="42" t="str">
         <f>+VLOOKUP(D95,'DATA`S'!$B$8:$C$34,2,0)</f>
         <v>0001</v>
@@ -40224,6 +40466,9 @@
       <c r="AB95" s="13"/>
       <c r="AF95" s="123"/>
       <c r="AN95" s="47"/>
+      <c r="AT95" s="54" t="s">
+        <v>875</v>
+      </c>
       <c r="AU95" s="127" t="str">
         <f>PRODUCTOS[[#This Row],[Data]]</f>
         <v>DATASALUD</v>
@@ -40233,7 +40478,7 @@
         <v>ARCGISONLINE</v>
       </c>
     </row>
-    <row r="96" spans="1:56" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:56" ht="78.5" x14ac:dyDescent="0.35">
       <c r="A96" s="42" t="str">
         <f>+VLOOKUP(D96,'DATA`S'!$B$8:$C$34,2,0)</f>
         <v>0026</v>
@@ -40285,8 +40530,16 @@
       </c>
       <c r="AA96" s="7"/>
       <c r="AB96" s="13"/>
+      <c r="AE96" t="s">
+        <v>194</v>
+      </c>
       <c r="AF96" s="123"/>
-      <c r="AN96" s="47"/>
+      <c r="AN96" s="169" t="s">
+        <v>1526</v>
+      </c>
+      <c r="AT96" s="54" t="s">
+        <v>875</v>
+      </c>
       <c r="AU96" s="127" t="str">
         <f>PRODUCTOS[[#This Row],[Data]]</f>
         <v>DATAIMPACTO</v>
@@ -40295,6 +40548,9 @@
         <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
         <v>#N/A</v>
       </c>
+    </row>
+    <row r="97" spans="45:45" x14ac:dyDescent="0.35">
+      <c r="AS97" s="105"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -40325,17 +40581,19 @@
     <hyperlink ref="X93" r:id="rId12" xr:uid="{87ABBE0E-9417-4AE3-AC82-32043ECEF989}"/>
     <hyperlink ref="X33" r:id="rId13" xr:uid="{843A2FFB-AEEC-4DED-9E7A-31BA1338BF8F}"/>
     <hyperlink ref="X94" r:id="rId14" xr:uid="{77742FF8-5327-453A-9CD9-80E458A84A27}"/>
+    <hyperlink ref="X39" r:id="rId15" xr:uid="{255925B6-7E34-4336-A75D-C074D3A1D27B}"/>
+    <hyperlink ref="X96" r:id="rId16" xr:uid="{A352ED19-187F-4EFF-BB03-E756D80A606E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId15"/>
-  <drawing r:id="rId16"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId17"/>
+  <drawing r:id="rId18"/>
   <tableParts count="1">
-    <tablePart r:id="rId17"/>
+    <tablePart r:id="rId19"/>
   </tableParts>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{3A4CF648-6AED-40f4-86FF-DC5316D8AED3}">
       <x14:slicerList xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-        <x14:slicer r:id="rId18"/>
+        <x14:slicer r:id="rId20"/>
       </x14:slicerList>
     </ext>
   </extLst>

--- a/Monitoreo DI.xlsx
+++ b/Monitoreo DI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karen\Dropbox\DI Monitoreo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1387099-4A7F-432B-8065-9F9E8A06BED6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D245B528-519F-417C-859F-01A39133D821}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="833" firstSheet="2" activeTab="2" xr2:uid="{F0BF9B96-FFF4-4E12-841F-9553B6E1990E}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="833" firstSheet="2" activeTab="12" xr2:uid="{F0BF9B96-FFF4-4E12-841F-9553B6E1990E}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA`S" sheetId="1" r:id="rId1"/>
@@ -110,7 +110,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6095" uniqueCount="1533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6198" uniqueCount="1540">
   <si>
     <t>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/DATASALUD.svg</t>
   </si>
@@ -5955,6 +5955,27 @@
   </si>
   <si>
     <t>#GEI #gases #efecto #invernadero #CH4 #CO2 #HFC #N2O #SF6 #energia #procesos #industriales #agricultura #UTCUTS #residuos #sector #inventario #proceso #gas #PIB #poblacion #percapita #intensidad #energia #carbono</t>
+  </si>
+  <si>
+    <t>Semanal</t>
+  </si>
+  <si>
+    <t>Ministerio de Salud - Chile</t>
+  </si>
+  <si>
+    <t>Lista</t>
+  </si>
+  <si>
+    <t>En proceso</t>
+  </si>
+  <si>
+    <t>Revisión Astrid-Karen-M.Victoria</t>
+  </si>
+  <si>
+    <t>Parada</t>
+  </si>
+  <si>
+    <t>En pausa</t>
   </si>
 </sst>
 </file>
@@ -6909,19 +6930,6 @@
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="187">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -9093,6 +9101,19 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
@@ -12110,7 +12131,7 @@
 
 <file path=xl/slicers/slicer7.xml><?xml version="1.0" encoding="utf-8"?>
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
-  <slicer name="Data 2" xr10:uid="{80951101-2A2B-4B15-9E33-78D3A7E8B5B0}" cache="SegmentaciónDeDatos_Data2" caption="Data" startItem="6" columnCount="2" style="SlicerStyleDark5" rowHeight="234950"/>
+  <slicer name="Data 2" xr10:uid="{80951101-2A2B-4B15-9E33-78D3A7E8B5B0}" cache="SegmentaciónDeDatos_Data2" caption="Data" columnCount="2" style="SlicerStyleDark5" rowHeight="234950"/>
   <slicer name="País" xr10:uid="{75A217B5-277A-4B68-8268-AEA4271B985B}" cache="SegmentaciónDeDatos_País" caption="País" style="SlicerStyleDark5" rowHeight="234950"/>
   <slicer name="Estado 2" xr10:uid="{271E2C58-B673-4F76-A62E-46B7337EB1E5}" cache="SegmentaciónDeDatos_Estado2" caption="Estado" style="SlicerStyleDark6" rowHeight="234950"/>
   <slicer name="Avance [0-100%]" xr10:uid="{3E416F9C-0DF4-4E82-9BCC-0ABC5F831734}" cache="SegmentaciónDeDatos_Avance__0_100" caption="Avance [0-100%]" columnCount="3" style="SlicerStyleDark5" rowHeight="234950"/>
@@ -12140,12 +12161,10 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{07333795-F402-425E-9AC7-1C17203C211E}" name="BORRADOR_PRODUCTOS" displayName="BORRADOR_PRODUCTOS" ref="B11:U117" totalsRowShown="0" headerRowDxfId="22" tableBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{07333795-F402-425E-9AC7-1C17203C211E}" name="BORRADOR_PRODUCTOS" displayName="BORRADOR_PRODUCTOS" ref="B11:U117" totalsRowShown="0" headerRowDxfId="21" tableBorderDxfId="20">
   <autoFilter ref="B11:U117" xr:uid="{488C7ADA-DF10-4033-BE01-B6478A789716}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="DATAMUNICIPIO"/>
-      </filters>
+    <filterColumn colId="8">
+      <filters blank="1"/>
     </filterColumn>
   </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B12:U64">
@@ -12153,26 +12172,26 @@
     <sortCondition ref="D12:D64"/>
   </sortState>
   <tableColumns count="20">
-    <tableColumn id="1" xr3:uid="{229DCB04-6969-4E62-A149-FB9E3CAE5BF4}" name="Data" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{CD34A55D-D0AD-4B52-8194-AFDE7E5C6050}" name="Producto Previos" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{4029C438-04CA-46F0-B968-E3D862055C27}" name="Secuencia (dentro DATA)" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{9842277F-498F-4399-B9E9-AE2739193ABA}" name="País" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{ED853D5F-1B7C-4052-B0FE-5337CC52FC4D}" name="Integrado en PRODUCTOS? [SI/NO]" dataDxfId="16"/>
-    <tableColumn id="15" xr3:uid="{8D63376D-2407-4CF9-A0F9-4552C9649833}" name="id_producto" dataDxfId="15"/>
-    <tableColumn id="6" xr3:uid="{14D31B75-8E88-42FB-BB27-6BB36C1418D0}" name="Prioridad [1-9]" dataDxfId="14"/>
-    <tableColumn id="7" xr3:uid="{679658E8-A980-4528-82C7-F19E24336030}" name="Estado" dataDxfId="13"/>
-    <tableColumn id="8" xr3:uid="{2EF6A42B-DFA0-4FE7-A1E1-2E79F580EB12}" name="Avance [0-100%]" dataDxfId="12" dataCellStyle="Porcentaje"/>
-    <tableColumn id="9" xr3:uid="{40541782-CDD5-4622-B1C1-C97D63A0C9AA}" name="Responsable Desarrollo" dataDxfId="11"/>
-    <tableColumn id="10" xr3:uid="{3B543DE3-BF65-4BD9-9932-28271C56E4C6}" name="Responsable Información" dataDxfId="10"/>
-    <tableColumn id="16" xr3:uid="{394FD602-B6E0-4BBA-A4D5-D38FD9373C7C}" name="Tecnología" dataDxfId="9"/>
-    <tableColumn id="11" xr3:uid="{DAB3B04F-F977-4413-A23F-4094B552D30E}" name="Tareas/Elementos / Observaciones" dataDxfId="8"/>
-    <tableColumn id="17" xr3:uid="{7A213F94-93FA-435F-9C96-175D8DD787F5}" name="BD " dataDxfId="7"/>
-    <tableColumn id="18" xr3:uid="{59E5F4A3-0FF3-4774-967F-4A177D031C00}" name="Plataforma" dataDxfId="6"/>
-    <tableColumn id="19" xr3:uid="{36C4BF2F-DF1D-4D05-A90F-79F125B03FD2}" name="Control Calidad" dataDxfId="5"/>
-    <tableColumn id="21" xr3:uid="{3BE542C7-8C82-454D-A6C1-7F2AAB4343DE}" name="Odoo" dataDxfId="4"/>
-    <tableColumn id="20" xr3:uid="{C1FC94FF-E933-4906-94F4-ED73D29773EE}" name="Shopify" dataDxfId="3"/>
-    <tableColumn id="13" xr3:uid="{BBACA7B7-AF7E-4714-A44E-1572587CA1A4}" name="Fecha estimada" dataDxfId="2"/>
-    <tableColumn id="14" xr3:uid="{3D3E6850-E86A-4D4E-99C6-7FEB6D12B271}" name="Fecha Actualización [de esta info]" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{229DCB04-6969-4E62-A149-FB9E3CAE5BF4}" name="Data" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{CD34A55D-D0AD-4B52-8194-AFDE7E5C6050}" name="Producto Previos" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{4029C438-04CA-46F0-B968-E3D862055C27}" name="Secuencia (dentro DATA)" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{9842277F-498F-4399-B9E9-AE2739193ABA}" name="País" dataDxfId="16"/>
+    <tableColumn id="5" xr3:uid="{ED853D5F-1B7C-4052-B0FE-5337CC52FC4D}" name="Integrado en PRODUCTOS? [SI/NO]" dataDxfId="15"/>
+    <tableColumn id="15" xr3:uid="{8D63376D-2407-4CF9-A0F9-4552C9649833}" name="id_producto" dataDxfId="14"/>
+    <tableColumn id="6" xr3:uid="{14D31B75-8E88-42FB-BB27-6BB36C1418D0}" name="Prioridad [1-9]" dataDxfId="13"/>
+    <tableColumn id="7" xr3:uid="{679658E8-A980-4528-82C7-F19E24336030}" name="Estado" dataDxfId="12"/>
+    <tableColumn id="8" xr3:uid="{2EF6A42B-DFA0-4FE7-A1E1-2E79F580EB12}" name="Avance [0-100%]" dataDxfId="11" dataCellStyle="Porcentaje"/>
+    <tableColumn id="9" xr3:uid="{40541782-CDD5-4622-B1C1-C97D63A0C9AA}" name="Responsable Desarrollo" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{3B543DE3-BF65-4BD9-9932-28271C56E4C6}" name="Responsable Información" dataDxfId="9"/>
+    <tableColumn id="16" xr3:uid="{394FD602-B6E0-4BBA-A4D5-D38FD9373C7C}" name="Tecnología" dataDxfId="8"/>
+    <tableColumn id="11" xr3:uid="{DAB3B04F-F977-4413-A23F-4094B552D30E}" name="Tareas/Elementos / Observaciones" dataDxfId="7"/>
+    <tableColumn id="17" xr3:uid="{7A213F94-93FA-435F-9C96-175D8DD787F5}" name="BD " dataDxfId="6"/>
+    <tableColumn id="18" xr3:uid="{59E5F4A3-0FF3-4774-967F-4A177D031C00}" name="Plataforma" dataDxfId="5"/>
+    <tableColumn id="19" xr3:uid="{36C4BF2F-DF1D-4D05-A90F-79F125B03FD2}" name="Control Calidad" dataDxfId="4"/>
+    <tableColumn id="21" xr3:uid="{3BE542C7-8C82-454D-A6C1-7F2AAB4343DE}" name="Odoo" dataDxfId="3"/>
+    <tableColumn id="20" xr3:uid="{C1FC94FF-E933-4906-94F4-ED73D29773EE}" name="Shopify" dataDxfId="2"/>
+    <tableColumn id="13" xr3:uid="{BBACA7B7-AF7E-4714-A44E-1572587CA1A4}" name="Fecha estimada" dataDxfId="1"/>
+    <tableColumn id="14" xr3:uid="{3D3E6850-E86A-4D4E-99C6-7FEB6D12B271}" name="Fecha Actualización [de esta info]" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -12237,17 +12256,17 @@
     <tableColumn id="45" xr3:uid="{BC545BB3-5EA2-4491-9699-2DCF67AFDBD1}" name="Variable_filtro1"/>
     <tableColumn id="46" xr3:uid="{1BCBD3DF-B9B9-4135-B455-2CFAF2B188C1}" name="Variable_filtro2"/>
     <tableColumn id="47" xr3:uid="{02D860F3-1C9D-4DCC-B854-0E0B78380C60}" name="Variable_filtro3"/>
-    <tableColumn id="30" xr3:uid="{3C2CC3B0-4545-4E5C-B8E5-AAD05CDD3A41}" name="Descripción (Indicar qué permite ver o hacer el producto) 2" dataDxfId="0"/>
+    <tableColumn id="30" xr3:uid="{3C2CC3B0-4545-4E5C-B8E5-AAD05CDD3A41}" name="Descripción (Indicar qué permite ver o hacer el producto) 2" dataDxfId="122"/>
     <tableColumn id="32" xr3:uid="{2F0B4ACB-2081-4369-9020-F04ABE62B6AD}" name="CAR_Tipo_Prod"/>
     <tableColumn id="33" xr3:uid="{8277A5C4-DDE4-4268-B9A2-D39560C50C97}" name="CAR_Var1_Disponible"/>
     <tableColumn id="14" xr3:uid="{8D937ABF-3B4D-40B9-8BBE-860FDDE831DB}" name="CAR_Var2_Disponible"/>
     <tableColumn id="9" xr3:uid="{A912298A-2AE3-4676-B089-13388A70E0CC}" name="CAR_Var3_Disponible"/>
     <tableColumn id="34" xr3:uid="{2EAEC5EE-D01B-4781-A499-32811E9E50DF}" name="CAR_Periodo"/>
     <tableColumn id="35" xr3:uid="{89972549-6CAE-40EF-8DDE-4E5FB11CDCFB}" name="CAR_Proveedor"/>
-    <tableColumn id="36" xr3:uid="{94687206-A22A-469D-92B1-A6635B8A1CB3}" name="CAR_Colección" dataDxfId="122">
+    <tableColumn id="36" xr3:uid="{94687206-A22A-469D-92B1-A6635B8A1CB3}" name="CAR_Colección" dataDxfId="121">
       <calculatedColumnFormula>PRODUCTOS[[#This Row],[Data]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="48" xr3:uid="{431A4A68-8223-41E1-99C1-4F515A267188}" name="ESP_Tecnología" dataDxfId="121">
+    <tableColumn id="48" xr3:uid="{431A4A68-8223-41E1-99C1-4F515A267188}" name="ESP_Tecnología" dataDxfId="120">
       <calculatedColumnFormula>PRODUCTOS[[#This Row],[Tecnología]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="49" xr3:uid="{A570E531-D39D-48A2-BCC8-8E0BA5937958}" name="ESP_Incluye"/>
@@ -12270,7 +12289,7 @@
     <tableColumn id="1" xr3:uid="{69819873-BFDD-4D0F-83ED-7D2504DFDA31}" name="Data"/>
     <tableColumn id="2" xr3:uid="{70760145-B5A6-4F27-A738-A1EBE3D8A954}" name="Producto"/>
     <tableColumn id="3" xr3:uid="{585C0D49-B625-41C4-8893-45B93A4BE8CC}" name="Sección"/>
-    <tableColumn id="4" xr3:uid="{10EF7F87-DEF0-4028-9C31-E3E45FB50589}" name="Tema" dataDxfId="120"/>
+    <tableColumn id="4" xr3:uid="{10EF7F87-DEF0-4028-9C31-E3E45FB50589}" name="Tema" dataDxfId="119"/>
     <tableColumn id="5" xr3:uid="{28D3851F-C206-422F-98B1-973F48082A17}" name="Verificador"/>
     <tableColumn id="6" xr3:uid="{71EF3903-87DB-422F-904D-B86468D3F2A8}" name="Variables"/>
     <tableColumn id="7" xr3:uid="{09ED368A-F77F-44FE-80CB-14C859399091}" name="ID_VAR"/>
@@ -12294,156 +12313,156 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{2A3DFF5F-BB66-464A-9045-49B0328E9E76}" name="Tabla10" displayName="Tabla10" ref="B7:I221" totalsRowShown="0" headerRowDxfId="119" dataDxfId="118">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{2A3DFF5F-BB66-464A-9045-49B0328E9E76}" name="Tabla10" displayName="Tabla10" ref="B7:I221" totalsRowShown="0" headerRowDxfId="118" dataDxfId="117">
   <autoFilter ref="B7:I221" xr:uid="{54E86758-179E-494E-9D22-024745EA2489}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{AE352613-BE77-4F50-A26C-CDFA69B4E703}" name="Data" dataDxfId="117"/>
-    <tableColumn id="2" xr3:uid="{FB99AEF8-BF89-4789-90CC-B8C3024883BE}" name="Estado" dataDxfId="116"/>
-    <tableColumn id="3" xr3:uid="{B15F5D46-093A-497F-970F-4E17CA63A563}" name="Fecha Actualización " dataDxfId="115"/>
-    <tableColumn id="4" xr3:uid="{7EA45E0E-7020-43C1-AD03-9A178CD7430B}" name="Responsable" dataDxfId="114"/>
-    <tableColumn id="8" xr3:uid="{CD6D1E9C-AD67-41FD-BB45-272D5CED1007}" name="Tema" dataDxfId="113"/>
-    <tableColumn id="5" xr3:uid="{2AC1CC8A-E5DB-4A3A-BEE8-6538DDAA69E7}" name="Observación " dataDxfId="112"/>
-    <tableColumn id="6" xr3:uid="{C98B1913-4D31-48AA-9995-A47CE0EA1C1E}" name="Acción" dataDxfId="111"/>
-    <tableColumn id="7" xr3:uid="{FE3D67C6-9FBF-4881-B186-7BE50BE75AE3}" name="Monitoreo" dataDxfId="110"/>
+    <tableColumn id="1" xr3:uid="{AE352613-BE77-4F50-A26C-CDFA69B4E703}" name="Data" dataDxfId="116"/>
+    <tableColumn id="2" xr3:uid="{FB99AEF8-BF89-4789-90CC-B8C3024883BE}" name="Estado" dataDxfId="115"/>
+    <tableColumn id="3" xr3:uid="{B15F5D46-093A-497F-970F-4E17CA63A563}" name="Fecha Actualización " dataDxfId="114"/>
+    <tableColumn id="4" xr3:uid="{7EA45E0E-7020-43C1-AD03-9A178CD7430B}" name="Responsable" dataDxfId="113"/>
+    <tableColumn id="8" xr3:uid="{CD6D1E9C-AD67-41FD-BB45-272D5CED1007}" name="Tema" dataDxfId="112"/>
+    <tableColumn id="5" xr3:uid="{2AC1CC8A-E5DB-4A3A-BEE8-6538DDAA69E7}" name="Observación " dataDxfId="111"/>
+    <tableColumn id="6" xr3:uid="{C98B1913-4D31-48AA-9995-A47CE0EA1C1E}" name="Acción" dataDxfId="110"/>
+    <tableColumn id="7" xr3:uid="{FE3D67C6-9FBF-4881-B186-7BE50BE75AE3}" name="Monitoreo" dataDxfId="109"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{F79A991F-1A6F-4232-A4CD-E26026F59FD2}" name="Tabla1" displayName="Tabla1" ref="A9:M53" totalsRowShown="0" headerRowDxfId="109" dataDxfId="108">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{F79A991F-1A6F-4232-A4CD-E26026F59FD2}" name="Tabla1" displayName="Tabla1" ref="A9:M53" totalsRowShown="0" headerRowDxfId="108" dataDxfId="107">
   <autoFilter ref="A9:M53" xr:uid="{2573F5B0-EE83-49B6-AF2E-FA541AB2D0A7}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{01DC2308-9C99-4EEE-82DB-DC6B48F1F8E3}" name="N°" dataDxfId="107"/>
-    <tableColumn id="2" xr3:uid="{F3B4997E-B2A4-4EB5-AF03-1C32EC201E29}" name="Tema Investigación " dataDxfId="106"/>
-    <tableColumn id="3" xr3:uid="{2ED8CCEC-CAF8-463E-AB90-B3689E282F52}" name="Responsables " dataDxfId="105"/>
-    <tableColumn id="5" xr3:uid="{A45DAC7C-0BE8-484E-8902-C84794C6E4E6}" name="Fecha inicio" dataDxfId="104"/>
+    <tableColumn id="1" xr3:uid="{01DC2308-9C99-4EEE-82DB-DC6B48F1F8E3}" name="N°" dataDxfId="106"/>
+    <tableColumn id="2" xr3:uid="{F3B4997E-B2A4-4EB5-AF03-1C32EC201E29}" name="Tema Investigación " dataDxfId="105"/>
+    <tableColumn id="3" xr3:uid="{2ED8CCEC-CAF8-463E-AB90-B3689E282F52}" name="Responsables " dataDxfId="104"/>
+    <tableColumn id="5" xr3:uid="{A45DAC7C-0BE8-484E-8902-C84794C6E4E6}" name="Fecha inicio" dataDxfId="103"/>
     <tableColumn id="4" xr3:uid="{1DFD24D3-150A-4A18-8D2B-471C5E615C4A}" name="Estado"/>
-    <tableColumn id="7" xr3:uid="{A5E888F3-954C-4454-ABBF-0CB322AC2892}" name="Fecha Termino" dataDxfId="103"/>
-    <tableColumn id="8" xr3:uid="{DC2FD273-C50C-4DC5-BCAE-F4707F0CC4FD}" name="Chile" dataDxfId="102"/>
-    <tableColumn id="9" xr3:uid="{DC0F9138-A833-4513-8446-6D9A0BE8DC03}" name="Panamá " dataDxfId="101"/>
-    <tableColumn id="10" xr3:uid="{1C354151-0542-4839-A312-82A4762672B3}" name="Guatemala" dataDxfId="100"/>
-    <tableColumn id="11" xr3:uid="{B44F5A38-555A-4E07-BD14-45F877391CC6}" name="Honduras" dataDxfId="99"/>
-    <tableColumn id="12" xr3:uid="{E43EB3EC-0D6D-42B8-A156-EA2EF365B7B3}" name="El Salvador" dataDxfId="98"/>
-    <tableColumn id="6" xr3:uid="{9ED27B35-B472-416C-B394-C3447A132041}" name="Link 1" dataDxfId="97"/>
-    <tableColumn id="13" xr3:uid="{0813E4B9-E868-4B0E-A181-67DEE49699BC}" name="Link 2" dataDxfId="96"/>
+    <tableColumn id="7" xr3:uid="{A5E888F3-954C-4454-ABBF-0CB322AC2892}" name="Fecha Termino" dataDxfId="102"/>
+    <tableColumn id="8" xr3:uid="{DC2FD273-C50C-4DC5-BCAE-F4707F0CC4FD}" name="Chile" dataDxfId="101"/>
+    <tableColumn id="9" xr3:uid="{DC0F9138-A833-4513-8446-6D9A0BE8DC03}" name="Panamá " dataDxfId="100"/>
+    <tableColumn id="10" xr3:uid="{1C354151-0542-4839-A312-82A4762672B3}" name="Guatemala" dataDxfId="99"/>
+    <tableColumn id="11" xr3:uid="{B44F5A38-555A-4E07-BD14-45F877391CC6}" name="Honduras" dataDxfId="98"/>
+    <tableColumn id="12" xr3:uid="{E43EB3EC-0D6D-42B8-A156-EA2EF365B7B3}" name="El Salvador" dataDxfId="97"/>
+    <tableColumn id="6" xr3:uid="{9ED27B35-B472-416C-B394-C3447A132041}" name="Link 1" dataDxfId="96"/>
+    <tableColumn id="13" xr3:uid="{0813E4B9-E868-4B0E-A181-67DEE49699BC}" name="Link 2" dataDxfId="95"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{E94DB916-DE89-4F64-9EF8-AFB72BA8FF61}" name="Tabla14" displayName="Tabla14" ref="A12:I89" totalsRowShown="0" headerRowDxfId="95" dataDxfId="94">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{E94DB916-DE89-4F64-9EF8-AFB72BA8FF61}" name="Tabla14" displayName="Tabla14" ref="A12:I89" totalsRowShown="0" headerRowDxfId="94" dataDxfId="93">
   <autoFilter ref="A12:I89" xr:uid="{14629A1E-D5D5-412C-8FAB-488411430C85}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{7299EEE0-40CF-4EF5-8F0C-C1FFA863E5B5}" name="N°" dataDxfId="93"/>
-    <tableColumn id="2" xr3:uid="{9E84EC16-0161-44D0-9CB9-123C0428ADAD}" name="Tema/institución Investigación " dataDxfId="92"/>
-    <tableColumn id="3" xr3:uid="{76853A8B-3945-4590-AB61-F2892D4BDEF9}" name="Responsable" dataDxfId="91"/>
-    <tableColumn id="5" xr3:uid="{F7339DE0-8C86-4469-9258-ED935FDEFA77}" name="Fecha inicio" dataDxfId="90"/>
-    <tableColumn id="6" xr3:uid="{1434B0D6-C669-403A-970D-962B797CA9A9}" name="Fecha avance" dataDxfId="89"/>
-    <tableColumn id="7" xr3:uid="{B968D1D9-84E8-493C-9491-88D890E8453F}" name="Fecha Termino" dataDxfId="88"/>
-    <tableColumn id="8" xr3:uid="{914D3775-FE9D-4F06-9643-2FF0DC094A44}" name="Comentario" dataDxfId="87"/>
-    <tableColumn id="4" xr3:uid="{447DB363-0F58-4053-9903-C5B73E99B8F7}" name="Acción" dataDxfId="86"/>
-    <tableColumn id="9" xr3:uid="{FAD7DF30-EA13-48D4-85BE-33B82685C836}" name="Seguimiento" dataDxfId="85"/>
+    <tableColumn id="1" xr3:uid="{7299EEE0-40CF-4EF5-8F0C-C1FFA863E5B5}" name="N°" dataDxfId="92"/>
+    <tableColumn id="2" xr3:uid="{9E84EC16-0161-44D0-9CB9-123C0428ADAD}" name="Tema/institución Investigación " dataDxfId="91"/>
+    <tableColumn id="3" xr3:uid="{76853A8B-3945-4590-AB61-F2892D4BDEF9}" name="Responsable" dataDxfId="90"/>
+    <tableColumn id="5" xr3:uid="{F7339DE0-8C86-4469-9258-ED935FDEFA77}" name="Fecha inicio" dataDxfId="89"/>
+    <tableColumn id="6" xr3:uid="{1434B0D6-C669-403A-970D-962B797CA9A9}" name="Fecha avance" dataDxfId="88"/>
+    <tableColumn id="7" xr3:uid="{B968D1D9-84E8-493C-9491-88D890E8453F}" name="Fecha Termino" dataDxfId="87"/>
+    <tableColumn id="8" xr3:uid="{914D3775-FE9D-4F06-9643-2FF0DC094A44}" name="Comentario" dataDxfId="86"/>
+    <tableColumn id="4" xr3:uid="{447DB363-0F58-4053-9903-C5B73E99B8F7}" name="Acción" dataDxfId="85"/>
+    <tableColumn id="9" xr3:uid="{FAD7DF30-EA13-48D4-85BE-33B82685C836}" name="Seguimiento" dataDxfId="84"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{065B9CF9-E4C7-46B6-A6AB-AE4727F44BAE}" name="DETALLE_PRODUCTO" displayName="DETALLE_PRODUCTO" ref="B8:L88" totalsRowShown="0" headerRowDxfId="84" dataDxfId="83">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{065B9CF9-E4C7-46B6-A6AB-AE4727F44BAE}" name="DETALLE_PRODUCTO" displayName="DETALLE_PRODUCTO" ref="B8:L88" totalsRowShown="0" headerRowDxfId="83" dataDxfId="82">
   <autoFilter ref="B8:L88" xr:uid="{B19E98DB-D5A2-4B79-98FB-79403A46B576}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{53D02E25-6272-402F-ABD7-44B8E0C71D87}" name="Data" dataDxfId="82"/>
-    <tableColumn id="8" xr3:uid="{EC4D90DB-631D-4228-A704-DD698C8FDA74}" name="id_producto" dataDxfId="81"/>
-    <tableColumn id="2" xr3:uid="{8BB7EEC5-6570-41F8-9A07-5AAEA8522606}" name="Plazo Producto" dataDxfId="80"/>
-    <tableColumn id="3" xr3:uid="{8CB3D480-A20D-43D6-A036-A52F2B756492}" name="Producto" dataDxfId="79"/>
-    <tableColumn id="4" xr3:uid="{A37F897B-BDC4-49DB-9D73-0B585928FBCF}" name="Secciones" dataDxfId="78"/>
-    <tableColumn id="5" xr3:uid="{52913CC1-5A92-42A3-9DE0-3B6AB5FF68D3}" name="Sub-secciones" dataDxfId="77"/>
-    <tableColumn id="6" xr3:uid="{AA418FB7-7169-4105-9A7B-952204D6B07D}" name="Variables" dataDxfId="76"/>
-    <tableColumn id="7" xr3:uid="{9CFF7943-E7AB-407C-A8B2-A61784C0D377}" name="Fuente" dataDxfId="75"/>
-    <tableColumn id="9" xr3:uid="{E0A15B94-D546-4F86-877E-4ECCBE8390C9}" name="Situación Variable" dataDxfId="74"/>
-    <tableColumn id="10" xr3:uid="{766CAFFF-49CC-4F0A-A3FA-AA09276E3B90}" name="Fecha Actualización" dataDxfId="73"/>
-    <tableColumn id="11" xr3:uid="{8FEDBB30-0CE4-44B9-B885-55B24F35F89F}" name="Observaciones" dataDxfId="72"/>
+    <tableColumn id="1" xr3:uid="{53D02E25-6272-402F-ABD7-44B8E0C71D87}" name="Data" dataDxfId="81"/>
+    <tableColumn id="8" xr3:uid="{EC4D90DB-631D-4228-A704-DD698C8FDA74}" name="id_producto" dataDxfId="80"/>
+    <tableColumn id="2" xr3:uid="{8BB7EEC5-6570-41F8-9A07-5AAEA8522606}" name="Plazo Producto" dataDxfId="79"/>
+    <tableColumn id="3" xr3:uid="{8CB3D480-A20D-43D6-A036-A52F2B756492}" name="Producto" dataDxfId="78"/>
+    <tableColumn id="4" xr3:uid="{A37F897B-BDC4-49DB-9D73-0B585928FBCF}" name="Secciones" dataDxfId="77"/>
+    <tableColumn id="5" xr3:uid="{52913CC1-5A92-42A3-9DE0-3B6AB5FF68D3}" name="Sub-secciones" dataDxfId="76"/>
+    <tableColumn id="6" xr3:uid="{AA418FB7-7169-4105-9A7B-952204D6B07D}" name="Variables" dataDxfId="75"/>
+    <tableColumn id="7" xr3:uid="{9CFF7943-E7AB-407C-A8B2-A61784C0D377}" name="Fuente" dataDxfId="74"/>
+    <tableColumn id="9" xr3:uid="{E0A15B94-D546-4F86-877E-4ECCBE8390C9}" name="Situación Variable" dataDxfId="73"/>
+    <tableColumn id="10" xr3:uid="{766CAFFF-49CC-4F0A-A3FA-AA09276E3B90}" name="Fecha Actualización" dataDxfId="72"/>
+    <tableColumn id="11" xr3:uid="{8FEDBB30-0CE4-44B9-B885-55B24F35F89F}" name="Observaciones" dataDxfId="71"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{8903E000-6268-4700-8DED-A61277FDDF6A}" name="SHOPIFY" displayName="SHOPIFY" ref="A7:AX82" totalsRowShown="0" headerRowDxfId="71">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{8903E000-6268-4700-8DED-A61277FDDF6A}" name="SHOPIFY" displayName="SHOPIFY" ref="A7:AX82" totalsRowShown="0" headerRowDxfId="70">
   <autoFilter ref="A7:AX82" xr:uid="{8E7BE500-FD82-4AF8-9786-CF4905281DB3}"/>
   <tableColumns count="50">
-    <tableColumn id="1" xr3:uid="{97B30EC8-C107-4A29-BFE9-64B671A010DD}" name="id_data" dataDxfId="70">
+    <tableColumn id="1" xr3:uid="{97B30EC8-C107-4A29-BFE9-64B671A010DD}" name="id_data" dataDxfId="69">
       <calculatedColumnFormula>PRODUCTOS[[#This Row],[id_data]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{D4210DF6-B71C-4CEA-B273-A001CC99D71D}" name="Corr_Producto" dataDxfId="69"/>
-    <tableColumn id="3" xr3:uid="{3A3C3A45-DC12-420E-B4A9-B6FC4AB09680}" name="Data" dataDxfId="68"/>
-    <tableColumn id="4" xr3:uid="{F589E312-6F04-441B-BD92-57D8AF605B91}" name="id_producto" dataDxfId="67">
+    <tableColumn id="2" xr3:uid="{D4210DF6-B71C-4CEA-B273-A001CC99D71D}" name="Corr_Producto" dataDxfId="68"/>
+    <tableColumn id="3" xr3:uid="{3A3C3A45-DC12-420E-B4A9-B6FC4AB09680}" name="Data" dataDxfId="67"/>
+    <tableColumn id="4" xr3:uid="{F589E312-6F04-441B-BD92-57D8AF605B91}" name="id_producto" dataDxfId="66">
       <calculatedColumnFormula>+A8&amp;"-"&amp;B8</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{8673061C-EC24-4EF4-81F6-F73CCCED37A8}" name="Producto asociado " dataDxfId="66"/>
-    <tableColumn id="32" xr3:uid="{BB6CBD3F-A1DC-4006-8ED6-2EDD0372776F}" name="Nombre comercial" dataDxfId="65">
+    <tableColumn id="5" xr3:uid="{8673061C-EC24-4EF4-81F6-F73CCCED37A8}" name="Producto asociado " dataDxfId="65"/>
+    <tableColumn id="32" xr3:uid="{BB6CBD3F-A1DC-4006-8ED6-2EDD0372776F}" name="Nombre comercial" dataDxfId="64">
       <calculatedColumnFormula>PRODUCTOS[[#This Row],[Nombre comercial]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="47" xr3:uid="{1BF29101-CC46-4386-87BF-FB5000527CC1}" name="Variante" dataDxfId="64">
+    <tableColumn id="47" xr3:uid="{1BF29101-CC46-4386-87BF-FB5000527CC1}" name="Variante" dataDxfId="63">
       <calculatedColumnFormula>#REF!</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="46" xr3:uid="{971E696E-617D-42F5-AD13-6C98573AB151}" name="Corr_variante" dataDxfId="63">
+    <tableColumn id="46" xr3:uid="{971E696E-617D-42F5-AD13-6C98573AB151}" name="Corr_variante" dataDxfId="62">
       <calculatedColumnFormula>#REF!</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{8623108B-5216-4DE8-A078-C2EA5007B662}" name="id_prod_var" dataDxfId="62">
+    <tableColumn id="20" xr3:uid="{8623108B-5216-4DE8-A078-C2EA5007B662}" name="id_prod_var" dataDxfId="61">
       <calculatedColumnFormula>#REF!</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{F158BFCF-29BB-4A21-85DD-EC1A577268A9}" name="Estado" dataDxfId="61"/>
-    <tableColumn id="21" xr3:uid="{F5606F96-2B4C-4028-BAFD-98E68F248BB6}" name="Avance" dataDxfId="60" dataCellStyle="Porcentaje"/>
-    <tableColumn id="7" xr3:uid="{F996455F-A80C-45DE-824E-AA15DC67B89F}" name="Responsable Desarrollo" dataDxfId="59">
+    <tableColumn id="6" xr3:uid="{F158BFCF-29BB-4A21-85DD-EC1A577268A9}" name="Estado" dataDxfId="60"/>
+    <tableColumn id="21" xr3:uid="{F5606F96-2B4C-4028-BAFD-98E68F248BB6}" name="Avance" dataDxfId="59" dataCellStyle="Porcentaje"/>
+    <tableColumn id="7" xr3:uid="{F996455F-A80C-45DE-824E-AA15DC67B89F}" name="Responsable Desarrollo" dataDxfId="58">
       <calculatedColumnFormula>PRODUCTOS[[#This Row],[Responsable Desarrollo]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{8243748E-EFCB-4AEF-AE13-DEB22DE5398A}" name="Responsable Información" dataDxfId="58">
+    <tableColumn id="8" xr3:uid="{8243748E-EFCB-4AEF-AE13-DEB22DE5398A}" name="Responsable Información" dataDxfId="57">
       <calculatedColumnFormula>PRODUCTOS[[#This Row],[Responsable Información]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{1B0EF15B-CCC6-4071-9C39-986D237DCBFD}" name="PORTADA SHOPIFY" dataDxfId="57"/>
-    <tableColumn id="25" xr3:uid="{DE283954-0E54-4788-A6B7-64B3FABE5655}" name="Párrafo enganche" dataDxfId="56"/>
-    <tableColumn id="31" xr3:uid="{69B5166B-7DB7-4B2A-BDDB-51BC1CDC9E13}" name="Variante_1" dataDxfId="55"/>
-    <tableColumn id="30" xr3:uid="{FD2BFBD3-7364-4A40-82AD-5ED8F1EC60C8}" name="Precio_1" dataDxfId="54"/>
-    <tableColumn id="27" xr3:uid="{7BAA5845-FEF8-4AF0-A034-4502EA6425FB}" name="Variante_2" dataDxfId="53"/>
-    <tableColumn id="26" xr3:uid="{055AC0B8-B715-4865-A615-F93F51BDB937}" name="Precio_2" dataDxfId="52"/>
-    <tableColumn id="34" xr3:uid="{E986E95A-C830-4C89-88DC-A69F64460E34}" name="Variante_3" dataDxfId="51"/>
-    <tableColumn id="33" xr3:uid="{15105E85-D580-466D-8DEA-A21111029F6E}" name="Precio_3" dataDxfId="50"/>
-    <tableColumn id="50" xr3:uid="{86C9CDBF-0B44-4420-A48E-6FF93F44FE71}" name="Variable_filtro1" dataDxfId="49"/>
-    <tableColumn id="49" xr3:uid="{29F0FFEC-DA2B-4599-9D83-29AA5C05A4F0}" name="Variable_filtro2" dataDxfId="48"/>
-    <tableColumn id="48" xr3:uid="{4B1206D9-C4A0-496A-A7B2-086AF0122968}" name="Variable_filtro3" dataDxfId="47"/>
-    <tableColumn id="9" xr3:uid="{EE306381-1575-4475-A9CE-5592A93932BB}" name="Descripción (Indicar qué permite ver o hacer el producto) " dataDxfId="46"/>
-    <tableColumn id="35" xr3:uid="{C39FDC20-ABE5-4151-B056-F4B5E12D47DD}" name="CAR_Tipo_Prod" dataDxfId="45"/>
-    <tableColumn id="36" xr3:uid="{C8D4ECC0-DE7A-41BF-A6E9-9964E26F4261}" name="CAR_Var1_Disponible" dataDxfId="44"/>
-    <tableColumn id="39" xr3:uid="{87F44B21-0148-4ECE-9BC5-6D8A4C1030F3}" name="CAR_Periodo" dataDxfId="43"/>
-    <tableColumn id="37" xr3:uid="{DB23C32C-B4CE-4982-8D0A-F32C01C6CF98}" name="CAR_Proveedor" dataDxfId="42"/>
-    <tableColumn id="38" xr3:uid="{887C31F6-B5D9-48A2-AC60-3BBFDA8C2D93}" name="CAR_Colección" dataDxfId="41">
+    <tableColumn id="19" xr3:uid="{1B0EF15B-CCC6-4071-9C39-986D237DCBFD}" name="PORTADA SHOPIFY" dataDxfId="56"/>
+    <tableColumn id="25" xr3:uid="{DE283954-0E54-4788-A6B7-64B3FABE5655}" name="Párrafo enganche" dataDxfId="55"/>
+    <tableColumn id="31" xr3:uid="{69B5166B-7DB7-4B2A-BDDB-51BC1CDC9E13}" name="Variante_1" dataDxfId="54"/>
+    <tableColumn id="30" xr3:uid="{FD2BFBD3-7364-4A40-82AD-5ED8F1EC60C8}" name="Precio_1" dataDxfId="53"/>
+    <tableColumn id="27" xr3:uid="{7BAA5845-FEF8-4AF0-A034-4502EA6425FB}" name="Variante_2" dataDxfId="52"/>
+    <tableColumn id="26" xr3:uid="{055AC0B8-B715-4865-A615-F93F51BDB937}" name="Precio_2" dataDxfId="51"/>
+    <tableColumn id="34" xr3:uid="{E986E95A-C830-4C89-88DC-A69F64460E34}" name="Variante_3" dataDxfId="50"/>
+    <tableColumn id="33" xr3:uid="{15105E85-D580-466D-8DEA-A21111029F6E}" name="Precio_3" dataDxfId="49"/>
+    <tableColumn id="50" xr3:uid="{86C9CDBF-0B44-4420-A48E-6FF93F44FE71}" name="Variable_filtro1" dataDxfId="48"/>
+    <tableColumn id="49" xr3:uid="{29F0FFEC-DA2B-4599-9D83-29AA5C05A4F0}" name="Variable_filtro2" dataDxfId="47"/>
+    <tableColumn id="48" xr3:uid="{4B1206D9-C4A0-496A-A7B2-086AF0122968}" name="Variable_filtro3" dataDxfId="46"/>
+    <tableColumn id="9" xr3:uid="{EE306381-1575-4475-A9CE-5592A93932BB}" name="Descripción (Indicar qué permite ver o hacer el producto) " dataDxfId="45"/>
+    <tableColumn id="35" xr3:uid="{C39FDC20-ABE5-4151-B056-F4B5E12D47DD}" name="CAR_Tipo_Prod" dataDxfId="44"/>
+    <tableColumn id="36" xr3:uid="{C8D4ECC0-DE7A-41BF-A6E9-9964E26F4261}" name="CAR_Var1_Disponible" dataDxfId="43"/>
+    <tableColumn id="39" xr3:uid="{87F44B21-0148-4ECE-9BC5-6D8A4C1030F3}" name="CAR_Periodo" dataDxfId="42"/>
+    <tableColumn id="37" xr3:uid="{DB23C32C-B4CE-4982-8D0A-F32C01C6CF98}" name="CAR_Proveedor" dataDxfId="41"/>
+    <tableColumn id="38" xr3:uid="{887C31F6-B5D9-48A2-AC60-3BBFDA8C2D93}" name="CAR_Colección" dataDxfId="40">
       <calculatedColumnFormula>SHOPIFY[[#This Row],[Data]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{465FFD71-9838-46F8-96D9-04071B46AADF}" name="ESP_Tecnología" dataDxfId="40">
+    <tableColumn id="10" xr3:uid="{465FFD71-9838-46F8-96D9-04071B46AADF}" name="ESP_Tecnología" dataDxfId="39">
       <calculatedColumnFormula>PRODUCTOS[[#This Row],[Tecnología]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{EC2BE421-D8F5-4218-AF58-90E90B893031}" name="Host " dataDxfId="39"/>
-    <tableColumn id="12" xr3:uid="{E79C574B-B7A1-469C-8F8F-2D0CFAE51341}" name="Link Odoo" dataDxfId="38"/>
-    <tableColumn id="13" xr3:uid="{3809FE9C-54F9-4CF7-B339-2E0041642249}" name="Fecha Publicación" dataDxfId="37"/>
-    <tableColumn id="14" xr3:uid="{F596F3F4-DDEC-4196-A3BB-82BA12090401}" name="País" dataDxfId="36"/>
-    <tableColumn id="15" xr3:uid="{8ABA9F49-20E7-4D44-969F-61983CB570CF}" name="Escala " dataDxfId="35"/>
-    <tableColumn id="16" xr3:uid="{96768B2C-E9AB-4A4C-B2EA-54B345E4B2EE}" name="ESP_Periodo" dataDxfId="34"/>
-    <tableColumn id="40" xr3:uid="{B886925D-5342-4EF0-BEC7-231A532CD384}" name="ESP_Incluye" dataDxfId="33"/>
-    <tableColumn id="41" xr3:uid="{3B13D200-0F79-4222-81F3-6523101D8224}" name="ESP_Uso_Disp." dataDxfId="32"/>
-    <tableColumn id="42" xr3:uid="{36761705-B510-456F-B13C-7C1F1691A844}" name="ESP_Fuentes " dataDxfId="31"/>
-    <tableColumn id="43" xr3:uid="{51F4D077-A0BB-4F59-B19A-FA245554DE68}" name="ACC_Recibirás" dataDxfId="30"/>
-    <tableColumn id="44" xr3:uid="{5291A2DA-9FCC-47E6-8092-612F754EE474}" name="ACC_Licencia_uso" dataDxfId="29"/>
-    <tableColumn id="17" xr3:uid="{77D650B5-1F6E-4D9B-91EE-AFD5F57BC1C1}" name="ACC_Actualizaciones" dataDxfId="28"/>
-    <tableColumn id="45" xr3:uid="{9AD5E5EE-A8BD-4739-AE89-A1B8EC4723F5}" name="ACC_N°_usuarios" dataDxfId="27"/>
-    <tableColumn id="18" xr3:uid="{AC3AE441-67FC-4118-9DEB-4484BC70FA5A}" name="Etiquetas" dataDxfId="26"/>
-    <tableColumn id="22" xr3:uid="{0EAB21ED-E5E2-4B44-8E8C-DA03632B81CB}" name="Vistas" dataDxfId="25"/>
+    <tableColumn id="11" xr3:uid="{EC2BE421-D8F5-4218-AF58-90E90B893031}" name="Host " dataDxfId="38"/>
+    <tableColumn id="12" xr3:uid="{E79C574B-B7A1-469C-8F8F-2D0CFAE51341}" name="Link Odoo" dataDxfId="37"/>
+    <tableColumn id="13" xr3:uid="{3809FE9C-54F9-4CF7-B339-2E0041642249}" name="Fecha Publicación" dataDxfId="36"/>
+    <tableColumn id="14" xr3:uid="{F596F3F4-DDEC-4196-A3BB-82BA12090401}" name="País" dataDxfId="35"/>
+    <tableColumn id="15" xr3:uid="{8ABA9F49-20E7-4D44-969F-61983CB570CF}" name="Escala " dataDxfId="34"/>
+    <tableColumn id="16" xr3:uid="{96768B2C-E9AB-4A4C-B2EA-54B345E4B2EE}" name="ESP_Periodo" dataDxfId="33"/>
+    <tableColumn id="40" xr3:uid="{B886925D-5342-4EF0-BEC7-231A532CD384}" name="ESP_Incluye" dataDxfId="32"/>
+    <tableColumn id="41" xr3:uid="{3B13D200-0F79-4222-81F3-6523101D8224}" name="ESP_Uso_Disp." dataDxfId="31"/>
+    <tableColumn id="42" xr3:uid="{36761705-B510-456F-B13C-7C1F1691A844}" name="ESP_Fuentes " dataDxfId="30"/>
+    <tableColumn id="43" xr3:uid="{51F4D077-A0BB-4F59-B19A-FA245554DE68}" name="ACC_Recibirás" dataDxfId="29"/>
+    <tableColumn id="44" xr3:uid="{5291A2DA-9FCC-47E6-8092-612F754EE474}" name="ACC_Licencia_uso" dataDxfId="28"/>
+    <tableColumn id="17" xr3:uid="{77D650B5-1F6E-4D9B-91EE-AFD5F57BC1C1}" name="ACC_Actualizaciones" dataDxfId="27"/>
+    <tableColumn id="45" xr3:uid="{9AD5E5EE-A8BD-4739-AE89-A1B8EC4723F5}" name="ACC_N°_usuarios" dataDxfId="26"/>
+    <tableColumn id="18" xr3:uid="{AC3AE441-67FC-4118-9DEB-4484BC70FA5A}" name="Etiquetas" dataDxfId="25"/>
+    <tableColumn id="22" xr3:uid="{0EAB21ED-E5E2-4B44-8E8C-DA03632B81CB}" name="Vistas" dataDxfId="24"/>
     <tableColumn id="23" xr3:uid="{4146A4AA-B422-4A23-AFC0-891AE3F78FEE}" name="Repositorio Dropbox"/>
     <tableColumn id="24" xr3:uid="{44B7EB22-51ED-4A59-9AAA-14197F95E149}" name="Link Logo"/>
-    <tableColumn id="28" xr3:uid="{4352BE36-B76B-41FB-8592-7009FF2F8409}" name="Observaciones" dataDxfId="24"/>
-    <tableColumn id="29" xr3:uid="{2127F871-F5E7-448D-8C26-8CF290798729}" name="Miniatura" dataDxfId="23"/>
+    <tableColumn id="28" xr3:uid="{4352BE36-B76B-41FB-8592-7009FF2F8409}" name="Observaciones" dataDxfId="23"/>
+    <tableColumn id="29" xr3:uid="{2127F871-F5E7-448D-8C26-8CF290798729}" name="Miniatura" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -20905,7 +20924,7 @@
       </c>
       <c r="K33" s="103">
         <f>PRODUCTOS[[#This Row],[Avance]]</f>
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="L33" s="7">
         <f>PRODUCTOS[[#This Row],[Responsable Desarrollo]]</f>
@@ -20937,9 +20956,9 @@
         <f>SHOPIFY[[#This Row],[Data]]</f>
         <v>DATAPUEBLOS</v>
       </c>
-      <c r="AE33" s="7">
+      <c r="AE33" s="7" t="str">
         <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
-        <v>0</v>
+        <v>POWER BI</v>
       </c>
       <c r="AF33" s="7"/>
       <c r="AG33" s="7"/>
@@ -25806,9 +25825,9 @@
         <f>PRODUCTOS[[#This Row],[Responsable Desarrollo]]</f>
         <v>0</v>
       </c>
-      <c r="M80" s="7">
+      <c r="M80" s="7" t="str">
         <f>PRODUCTOS[[#This Row],[Responsable Información]]</f>
-        <v>0</v>
+        <v>Astrid</v>
       </c>
       <c r="N80" s="7"/>
       <c r="O80" s="7"/>
@@ -25832,9 +25851,9 @@
         <f>SHOPIFY[[#This Row],[Data]]</f>
         <v>DATAMUNICIPIO</v>
       </c>
-      <c r="AE80" s="7">
+      <c r="AE80" s="7" t="str">
         <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
-        <v>0</v>
+        <v>POWER BI</v>
       </c>
       <c r="AF80" s="7"/>
       <c r="AG80" s="7"/>
@@ -26002,9 +26021,9 @@
         <f>PRODUCTOS[[#This Row],[Responsable Desarrollo]]</f>
         <v>0</v>
       </c>
-      <c r="M82" s="7">
+      <c r="M82" s="7" t="str">
         <f>PRODUCTOS[[#This Row],[Responsable Información]]</f>
-        <v>0</v>
+        <v>Astrid</v>
       </c>
       <c r="N82" s="7"/>
       <c r="O82" s="7"/>
@@ -26030,9 +26049,9 @@
         <f>SHOPIFY[[#This Row],[Data]]</f>
         <v>DATAMUNICIPIO</v>
       </c>
-      <c r="AE82" s="7">
+      <c r="AE82" s="7" t="str">
         <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
-        <v>0</v>
+        <v>POWER BI</v>
       </c>
       <c r="AF82" s="7"/>
       <c r="AG82" s="7"/>
@@ -26081,10 +26100,10 @@
   </sheetPr>
   <dimension ref="B11:U117"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="11" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I8" sqref="I8"/>
-      <selection pane="bottomLeft" activeCell="I102" sqref="I102"/>
+      <selection pane="bottomLeft" activeCell="I87" sqref="I87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -26210,7 +26229,9 @@
         <v>801</v>
       </c>
       <c r="O12" s="24"/>
-      <c r="P12" s="24"/>
+      <c r="P12" s="24" t="s">
+        <v>1536</v>
+      </c>
       <c r="Q12" s="24"/>
       <c r="R12" s="24"/>
       <c r="S12" s="24"/>
@@ -26355,7 +26376,9 @@
         <v>800</v>
       </c>
       <c r="O15" s="24"/>
-      <c r="P15" s="24"/>
+      <c r="P15" s="24" t="s">
+        <v>1536</v>
+      </c>
       <c r="Q15" s="24"/>
       <c r="R15" s="24"/>
       <c r="S15" s="24"/>
@@ -26454,7 +26477,9 @@
       </c>
       <c r="O17" s="24"/>
       <c r="P17" s="24"/>
-      <c r="Q17" s="24"/>
+      <c r="Q17" s="24" t="s">
+        <v>1536</v>
+      </c>
       <c r="R17" s="24"/>
       <c r="S17" s="24"/>
       <c r="T17" s="28"/>
@@ -26644,7 +26669,9 @@
       </c>
       <c r="O21" s="24"/>
       <c r="P21" s="24"/>
-      <c r="Q21" s="24"/>
+      <c r="Q21" s="24" t="s">
+        <v>1536</v>
+      </c>
       <c r="R21" s="24"/>
       <c r="S21" s="24"/>
       <c r="T21" s="28"/>
@@ -26831,7 +26858,9 @@
       </c>
       <c r="O25" s="24"/>
       <c r="P25" s="24"/>
-      <c r="Q25" s="24"/>
+      <c r="Q25" s="24" t="s">
+        <v>1536</v>
+      </c>
       <c r="R25" s="24"/>
       <c r="S25" s="24"/>
       <c r="T25" s="28"/>
@@ -26879,7 +26908,9 @@
         <v>798</v>
       </c>
       <c r="O26" s="24"/>
-      <c r="P26" s="24"/>
+      <c r="P26" s="24" t="s">
+        <v>1536</v>
+      </c>
       <c r="Q26" s="24"/>
       <c r="R26" s="24"/>
       <c r="S26" s="24"/>
@@ -27214,7 +27245,9 @@
       </c>
       <c r="O33" s="24"/>
       <c r="P33" s="24"/>
-      <c r="Q33" s="24"/>
+      <c r="Q33" s="24" t="s">
+        <v>1536</v>
+      </c>
       <c r="R33" s="24"/>
       <c r="S33" s="24"/>
       <c r="T33" s="28"/>
@@ -27401,7 +27434,9 @@
       </c>
       <c r="O37" s="24"/>
       <c r="P37" s="24"/>
-      <c r="Q37" s="24"/>
+      <c r="Q37" s="24" t="s">
+        <v>1536</v>
+      </c>
       <c r="R37" s="24"/>
       <c r="S37" s="24"/>
       <c r="T37" s="28"/>
@@ -27458,7 +27493,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="39" spans="2:21" ht="24" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:21" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B39" s="27" t="s">
         <v>6</v>
       </c>
@@ -27507,7 +27542,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="B40" s="27" t="s">
         <v>6</v>
       </c>
@@ -27556,7 +27591,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="41" spans="2:21" ht="24" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:21" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B41" s="27" t="s">
         <v>6</v>
       </c>
@@ -27605,7 +27640,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="42" spans="2:21" ht="24" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:21" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B42" s="27" t="s">
         <v>6</v>
       </c>
@@ -27646,7 +27681,9 @@
       </c>
       <c r="O42" s="24"/>
       <c r="P42" s="24"/>
-      <c r="Q42" s="24"/>
+      <c r="Q42" s="24" t="s">
+        <v>1536</v>
+      </c>
       <c r="R42" s="24"/>
       <c r="S42" s="24"/>
       <c r="T42" s="28"/>
@@ -27793,7 +27830,9 @@
       </c>
       <c r="O45" s="24"/>
       <c r="P45" s="24"/>
-      <c r="Q45" s="24"/>
+      <c r="Q45" s="24" t="s">
+        <v>1536</v>
+      </c>
       <c r="R45" s="24"/>
       <c r="S45" s="24"/>
       <c r="T45" s="28"/>
@@ -27840,8 +27879,12 @@
       <c r="N46" s="24" t="s">
         <v>787</v>
       </c>
-      <c r="O46" s="24"/>
-      <c r="P46" s="24"/>
+      <c r="O46" s="24" t="s">
+        <v>1535</v>
+      </c>
+      <c r="P46" s="24" t="s">
+        <v>1536</v>
+      </c>
       <c r="Q46" s="24"/>
       <c r="R46" s="24"/>
       <c r="S46" s="24"/>
@@ -28181,9 +28224,15 @@
       <c r="N53" s="24" t="s">
         <v>1491</v>
       </c>
-      <c r="O53" s="24"/>
-      <c r="P53" s="24"/>
-      <c r="Q53" s="24"/>
+      <c r="O53" s="24" t="s">
+        <v>1535</v>
+      </c>
+      <c r="P53" s="24" t="s">
+        <v>1535</v>
+      </c>
+      <c r="Q53" s="24" t="s">
+        <v>1536</v>
+      </c>
       <c r="R53" s="24"/>
       <c r="S53" s="24"/>
       <c r="T53" s="28"/>
@@ -28232,7 +28281,9 @@
       </c>
       <c r="O54" s="24"/>
       <c r="P54" s="24"/>
-      <c r="Q54" s="24"/>
+      <c r="Q54" s="24" t="s">
+        <v>1536</v>
+      </c>
       <c r="R54" s="24"/>
       <c r="S54" s="24"/>
       <c r="T54" s="28"/>
@@ -28526,7 +28577,9 @@
       </c>
       <c r="O60" s="24"/>
       <c r="P60" s="24"/>
-      <c r="Q60" s="24"/>
+      <c r="Q60" s="24" t="s">
+        <v>1536</v>
+      </c>
       <c r="R60" s="24"/>
       <c r="S60" s="24"/>
       <c r="T60" s="28"/>
@@ -28575,7 +28628,9 @@
       </c>
       <c r="O61" s="24"/>
       <c r="P61" s="24"/>
-      <c r="Q61" s="24"/>
+      <c r="Q61" s="24" t="s">
+        <v>1536</v>
+      </c>
       <c r="R61" s="24"/>
       <c r="S61" s="24"/>
       <c r="T61" s="28"/>
@@ -28624,7 +28679,9 @@
       </c>
       <c r="O62" s="24"/>
       <c r="P62" s="24"/>
-      <c r="Q62" s="24"/>
+      <c r="Q62" s="24" t="s">
+        <v>1536</v>
+      </c>
       <c r="R62" s="24"/>
       <c r="S62" s="24"/>
       <c r="T62" s="28"/>
@@ -28673,7 +28730,9 @@
       </c>
       <c r="O63" s="24"/>
       <c r="P63" s="24"/>
-      <c r="Q63" s="24"/>
+      <c r="Q63" s="24" t="s">
+        <v>1536</v>
+      </c>
       <c r="R63" s="24"/>
       <c r="S63" s="24"/>
       <c r="T63" s="28"/>
@@ -28720,8 +28779,12 @@
       <c r="N64" s="24" t="s">
         <v>794</v>
       </c>
-      <c r="O64" s="24"/>
-      <c r="P64" s="24"/>
+      <c r="O64" s="24" t="s">
+        <v>1535</v>
+      </c>
+      <c r="P64" s="24" t="s">
+        <v>1538</v>
+      </c>
       <c r="Q64" s="24"/>
       <c r="R64" s="24"/>
       <c r="S64" s="24"/>
@@ -28763,13 +28826,15 @@
       <c r="N65" s="24"/>
       <c r="O65" s="24"/>
       <c r="P65" s="24"/>
-      <c r="Q65" s="24"/>
+      <c r="Q65" s="24" t="s">
+        <v>1536</v>
+      </c>
       <c r="R65" s="24"/>
       <c r="S65" s="24"/>
       <c r="T65" s="28"/>
       <c r="U65" s="28"/>
     </row>
-    <row r="66" spans="2:21" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:21" ht="42" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B66" s="27" t="s">
         <v>12</v>
       </c>
@@ -28803,7 +28868,7 @@
       <c r="T66" s="28"/>
       <c r="U66" s="28"/>
     </row>
-    <row r="67" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B67" s="27" t="s">
         <v>15</v>
       </c>
@@ -28840,7 +28905,7 @@
       <c r="T67" s="28"/>
       <c r="U67" s="28"/>
     </row>
-    <row r="68" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B68" s="27" t="s">
         <v>15</v>
       </c>
@@ -28877,7 +28942,7 @@
       <c r="T68" s="28"/>
       <c r="U68" s="28"/>
     </row>
-    <row r="69" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B69" s="27" t="s">
         <v>9</v>
       </c>
@@ -28911,7 +28976,7 @@
       <c r="T69" s="28"/>
       <c r="U69" s="28"/>
     </row>
-    <row r="70" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B70" s="27" t="s">
         <v>9</v>
       </c>
@@ -28945,7 +29010,7 @@
       <c r="T70" s="28"/>
       <c r="U70" s="28"/>
     </row>
-    <row r="71" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B71" s="27" t="s">
         <v>9</v>
       </c>
@@ -29003,20 +29068,32 @@
       <c r="I72" s="29" t="s">
         <v>161</v>
       </c>
-      <c r="J72" s="25"/>
+      <c r="J72" s="25">
+        <v>0.9</v>
+      </c>
       <c r="K72" s="24"/>
       <c r="L72" s="24"/>
-      <c r="M72" s="26"/>
-      <c r="N72" s="24"/>
-      <c r="O72" s="24"/>
-      <c r="P72" s="24"/>
-      <c r="Q72" s="24"/>
+      <c r="M72" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="N72" s="24" t="s">
+        <v>1537</v>
+      </c>
+      <c r="O72" s="24" t="s">
+        <v>1535</v>
+      </c>
+      <c r="P72" s="24" t="s">
+        <v>1535</v>
+      </c>
+      <c r="Q72" s="24" t="s">
+        <v>1536</v>
+      </c>
       <c r="R72" s="24"/>
       <c r="S72" s="24"/>
       <c r="T72" s="28"/>
       <c r="U72" s="28"/>
     </row>
-    <row r="73" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B73" s="27" t="s">
         <v>834</v>
       </c>
@@ -29053,7 +29130,7 @@
       <c r="T73" s="28"/>
       <c r="U73" s="28"/>
     </row>
-    <row r="74" spans="2:21" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:21" ht="24" x14ac:dyDescent="0.35">
       <c r="B74" s="27" t="s">
         <v>7</v>
       </c>
@@ -29094,7 +29171,7 @@
       <c r="T74" s="28"/>
       <c r="U74" s="28"/>
     </row>
-    <row r="75" spans="2:21" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:21" ht="24" x14ac:dyDescent="0.35">
       <c r="B75" s="27" t="s">
         <v>7</v>
       </c>
@@ -29159,7 +29236,9 @@
       <c r="I76" s="29" t="s">
         <v>161</v>
       </c>
-      <c r="J76" s="25"/>
+      <c r="J76" s="25">
+        <v>0</v>
+      </c>
       <c r="K76" s="24"/>
       <c r="L76" s="24" t="s">
         <v>127</v>
@@ -29195,7 +29274,9 @@
       <c r="I77" s="29" t="s">
         <v>162</v>
       </c>
-      <c r="J77" s="25"/>
+      <c r="J77" s="25">
+        <v>0</v>
+      </c>
       <c r="K77" s="24"/>
       <c r="L77" s="24" t="s">
         <v>127</v>
@@ -29210,7 +29291,7 @@
       <c r="T77" s="28"/>
       <c r="U77" s="28"/>
     </row>
-    <row r="78" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B78" s="27" t="s">
         <v>670</v>
       </c>
@@ -29246,7 +29327,7 @@
       <c r="T78" s="28"/>
       <c r="U78" s="28"/>
     </row>
-    <row r="79" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B79" s="27" t="s">
         <v>670</v>
       </c>
@@ -29311,15 +29392,21 @@
       <c r="L80" s="24"/>
       <c r="M80" s="26"/>
       <c r="N80" s="24"/>
-      <c r="O80" s="24"/>
-      <c r="P80" s="24"/>
-      <c r="Q80" s="24"/>
+      <c r="O80" s="24" t="s">
+        <v>1535</v>
+      </c>
+      <c r="P80" s="24" t="s">
+        <v>1536</v>
+      </c>
+      <c r="Q80" s="24" t="s">
+        <v>1536</v>
+      </c>
       <c r="R80" s="24"/>
       <c r="S80" s="24"/>
       <c r="T80" s="28"/>
       <c r="U80" s="28"/>
     </row>
-    <row r="81" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B81" s="27" t="s">
         <v>848</v>
       </c>
@@ -29356,7 +29443,7 @@
       <c r="T81" s="28"/>
       <c r="U81" s="28"/>
     </row>
-    <row r="82" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B82" s="27" t="s">
         <v>849</v>
       </c>
@@ -29416,8 +29503,12 @@
         <v>0020-01-00054</v>
       </c>
       <c r="H83" s="23"/>
-      <c r="I83" s="29"/>
-      <c r="J83" s="25"/>
+      <c r="I83" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="J83" s="25">
+        <v>0</v>
+      </c>
       <c r="K83" s="24"/>
       <c r="L83" s="24" t="s">
         <v>127</v>
@@ -29453,8 +29544,12 @@
         <v>0020-01-00055</v>
       </c>
       <c r="H84" s="23"/>
-      <c r="I84" s="29"/>
-      <c r="J84" s="25"/>
+      <c r="I84" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="J84" s="25">
+        <v>0</v>
+      </c>
       <c r="K84" s="24"/>
       <c r="L84" s="24" t="s">
         <v>127</v>
@@ -29490,8 +29585,12 @@
         <v>0020-01-00056</v>
       </c>
       <c r="H85" s="23"/>
-      <c r="I85" s="29"/>
-      <c r="J85" s="25"/>
+      <c r="I85" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="J85" s="25">
+        <v>0</v>
+      </c>
       <c r="K85" s="24"/>
       <c r="L85" s="24" t="s">
         <v>127</v>
@@ -29527,8 +29626,12 @@
         <v>0020-01-00057</v>
       </c>
       <c r="H86" s="23"/>
-      <c r="I86" s="29"/>
-      <c r="J86" s="25"/>
+      <c r="I86" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="J86" s="25">
+        <v>0</v>
+      </c>
       <c r="K86" s="24"/>
       <c r="L86" s="24" t="s">
         <v>127</v>
@@ -29545,7 +29648,7 @@
       <c r="T86" s="40"/>
       <c r="U86" s="40"/>
     </row>
-    <row r="87" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B87" s="27" t="s">
         <v>834</v>
       </c>
@@ -29580,7 +29683,7 @@
       <c r="T87" s="40"/>
       <c r="U87" s="40"/>
     </row>
-    <row r="88" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B88" s="27" t="s">
         <v>14</v>
       </c>
@@ -29611,7 +29714,7 @@
       <c r="T88" s="40"/>
       <c r="U88" s="40"/>
     </row>
-    <row r="89" spans="2:21" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:21" ht="24" x14ac:dyDescent="0.35">
       <c r="B89" s="27" t="s">
         <v>4</v>
       </c>
@@ -29644,7 +29747,7 @@
       <c r="T89" s="40"/>
       <c r="U89" s="40"/>
     </row>
-    <row r="90" spans="2:21" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:21" ht="24" x14ac:dyDescent="0.35">
       <c r="B90" s="27" t="s">
         <v>4</v>
       </c>
@@ -29652,7 +29755,9 @@
         <v>254</v>
       </c>
       <c r="D90" s="23"/>
-      <c r="E90" s="23"/>
+      <c r="E90" s="23" t="s">
+        <v>193</v>
+      </c>
       <c r="F90" s="23" t="s">
         <v>751</v>
       </c>
@@ -29677,7 +29782,7 @@
       <c r="T90" s="40"/>
       <c r="U90" s="40"/>
     </row>
-    <row r="91" spans="2:21" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:21" ht="24" x14ac:dyDescent="0.35">
       <c r="B91" s="27" t="s">
         <v>4</v>
       </c>
@@ -29685,7 +29790,9 @@
         <v>222</v>
       </c>
       <c r="D91" s="23"/>
-      <c r="E91" s="23"/>
+      <c r="E91" s="23" t="s">
+        <v>836</v>
+      </c>
       <c r="F91" s="23" t="s">
         <v>751</v>
       </c>
@@ -29710,7 +29817,7 @@
       <c r="T91" s="40"/>
       <c r="U91" s="40"/>
     </row>
-    <row r="92" spans="2:21" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:21" ht="24" x14ac:dyDescent="0.35">
       <c r="B92" s="27" t="s">
         <v>4</v>
       </c>
@@ -29743,7 +29850,7 @@
       <c r="T92" s="40"/>
       <c r="U92" s="40"/>
     </row>
-    <row r="93" spans="2:21" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:21" ht="24" x14ac:dyDescent="0.35">
       <c r="B93" s="27" t="s">
         <v>5</v>
       </c>
@@ -29751,7 +29858,9 @@
         <v>1172</v>
       </c>
       <c r="D93" s="23"/>
-      <c r="E93" s="23"/>
+      <c r="E93" s="23" t="s">
+        <v>193</v>
+      </c>
       <c r="F93" s="23" t="s">
         <v>751</v>
       </c>
@@ -29817,7 +29926,7 @@
       <c r="T94" s="40"/>
       <c r="U94" s="40"/>
     </row>
-    <row r="95" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B95" s="27" t="s">
         <v>5</v>
       </c>
@@ -29825,7 +29934,9 @@
         <v>1081</v>
       </c>
       <c r="D95" s="23"/>
-      <c r="E95" s="23"/>
+      <c r="E95" s="23" t="s">
+        <v>193</v>
+      </c>
       <c r="F95" s="23" t="s">
         <v>751</v>
       </c>
@@ -29854,7 +29965,7 @@
       <c r="T95" s="40"/>
       <c r="U95" s="40"/>
     </row>
-    <row r="96" spans="2:21" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:21" ht="24" x14ac:dyDescent="0.35">
       <c r="B96" s="27" t="s">
         <v>5</v>
       </c>
@@ -29862,7 +29973,9 @@
         <v>1085</v>
       </c>
       <c r="D96" s="23"/>
-      <c r="E96" s="23"/>
+      <c r="E96" s="23" t="s">
+        <v>193</v>
+      </c>
       <c r="F96" s="23" t="s">
         <v>751</v>
       </c>
@@ -29891,7 +30004,7 @@
       <c r="T96" s="40"/>
       <c r="U96" s="40"/>
     </row>
-    <row r="97" spans="2:21" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:21" ht="24" x14ac:dyDescent="0.35">
       <c r="B97" s="27" t="s">
         <v>5</v>
       </c>
@@ -29899,7 +30012,9 @@
         <v>1086</v>
       </c>
       <c r="D97" s="23"/>
-      <c r="E97" s="23"/>
+      <c r="E97" s="23" t="s">
+        <v>193</v>
+      </c>
       <c r="F97" s="23" t="s">
         <v>751</v>
       </c>
@@ -29928,7 +30043,7 @@
       <c r="T97" s="40"/>
       <c r="U97" s="40"/>
     </row>
-    <row r="98" spans="2:21" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:21" ht="24" x14ac:dyDescent="0.35">
       <c r="B98" s="27" t="s">
         <v>5</v>
       </c>
@@ -29936,7 +30051,9 @@
         <v>1087</v>
       </c>
       <c r="D98" s="23"/>
-      <c r="E98" s="23"/>
+      <c r="E98" s="23" t="s">
+        <v>193</v>
+      </c>
       <c r="F98" s="23" t="s">
         <v>751</v>
       </c>
@@ -30035,13 +30152,15 @@
       <c r="N100" s="24"/>
       <c r="O100" s="24"/>
       <c r="P100" s="24"/>
-      <c r="Q100" s="24"/>
+      <c r="Q100" s="24" t="s">
+        <v>1143</v>
+      </c>
       <c r="R100" s="24"/>
       <c r="S100" s="24"/>
       <c r="T100" s="40"/>
       <c r="U100" s="40"/>
     </row>
-    <row r="101" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="B101" s="27" t="s">
         <v>6</v>
       </c>
@@ -30086,7 +30205,9 @@
         <v>1180</v>
       </c>
       <c r="D102" s="23"/>
-      <c r="E102" s="23"/>
+      <c r="E102" s="23" t="s">
+        <v>193</v>
+      </c>
       <c r="F102" s="23" t="s">
         <v>751</v>
       </c>
@@ -30095,11 +30216,17 @@
         <v>0004-01-00073</v>
       </c>
       <c r="H102" s="23"/>
-      <c r="I102" s="29"/>
+      <c r="I102" s="29" t="s">
+        <v>1539</v>
+      </c>
       <c r="J102" s="25"/>
       <c r="K102" s="24"/>
-      <c r="L102" s="24"/>
-      <c r="M102" s="26"/>
+      <c r="L102" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="M102" s="26" t="s">
+        <v>189</v>
+      </c>
       <c r="N102" s="24"/>
       <c r="O102" s="24"/>
       <c r="P102" s="24"/>
@@ -30109,7 +30236,7 @@
       <c r="T102" s="40"/>
       <c r="U102" s="40"/>
     </row>
-    <row r="103" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B103" s="27" t="s">
         <v>5</v>
       </c>
@@ -30117,7 +30244,9 @@
         <v>1174</v>
       </c>
       <c r="D103" s="23"/>
-      <c r="E103" s="23"/>
+      <c r="E103" s="23" t="s">
+        <v>193</v>
+      </c>
       <c r="F103" s="23" t="s">
         <v>751</v>
       </c>
@@ -30146,7 +30275,7 @@
       <c r="T103" s="40"/>
       <c r="U103" s="40"/>
     </row>
-    <row r="104" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B104" s="27" t="s">
         <v>5</v>
       </c>
@@ -30154,7 +30283,9 @@
         <v>1175</v>
       </c>
       <c r="D104" s="23"/>
-      <c r="E104" s="23"/>
+      <c r="E104" s="23" t="s">
+        <v>193</v>
+      </c>
       <c r="F104" s="23" t="s">
         <v>751</v>
       </c>
@@ -30191,7 +30322,9 @@
         <v>1187</v>
       </c>
       <c r="D105" s="23"/>
-      <c r="E105" s="23"/>
+      <c r="E105" s="23" t="s">
+        <v>193</v>
+      </c>
       <c r="F105" s="23" t="s">
         <v>751</v>
       </c>
@@ -30200,11 +30333,17 @@
         <v>0004-01-00075</v>
       </c>
       <c r="H105" s="23"/>
-      <c r="I105" s="29"/>
+      <c r="I105" s="29" t="s">
+        <v>1539</v>
+      </c>
       <c r="J105" s="25"/>
       <c r="K105" s="24"/>
-      <c r="L105" s="24"/>
-      <c r="M105" s="26"/>
+      <c r="L105" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="M105" s="26" t="s">
+        <v>189</v>
+      </c>
       <c r="N105" s="24"/>
       <c r="O105" s="24"/>
       <c r="P105" s="24"/>
@@ -30222,7 +30361,9 @@
         <v>350</v>
       </c>
       <c r="D106" s="23"/>
-      <c r="E106" s="23"/>
+      <c r="E106" s="23" t="s">
+        <v>193</v>
+      </c>
       <c r="F106" s="23" t="s">
         <v>751</v>
       </c>
@@ -30231,11 +30372,17 @@
         <v>0004-01-00076</v>
       </c>
       <c r="H106" s="23"/>
-      <c r="I106" s="29"/>
+      <c r="I106" s="29" t="s">
+        <v>1539</v>
+      </c>
       <c r="J106" s="25"/>
       <c r="K106" s="24"/>
-      <c r="L106" s="24"/>
-      <c r="M106" s="26"/>
+      <c r="L106" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="M106" s="26" t="s">
+        <v>189</v>
+      </c>
       <c r="N106" s="24"/>
       <c r="O106" s="24"/>
       <c r="P106" s="24"/>
@@ -30253,7 +30400,9 @@
         <v>729</v>
       </c>
       <c r="D107" s="23"/>
-      <c r="E107" s="23"/>
+      <c r="E107" s="23" t="s">
+        <v>193</v>
+      </c>
       <c r="F107" s="23" t="s">
         <v>751</v>
       </c>
@@ -30262,11 +30411,17 @@
         <v>0004-01-00077</v>
       </c>
       <c r="H107" s="23"/>
-      <c r="I107" s="29"/>
+      <c r="I107" s="29" t="s">
+        <v>1539</v>
+      </c>
       <c r="J107" s="25"/>
       <c r="K107" s="24"/>
-      <c r="L107" s="24"/>
-      <c r="M107" s="26"/>
+      <c r="L107" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="M107" s="26" t="s">
+        <v>189</v>
+      </c>
       <c r="N107" s="24"/>
       <c r="O107" s="24"/>
       <c r="P107" s="24"/>
@@ -30284,7 +30439,9 @@
         <v>1199</v>
       </c>
       <c r="D108" s="23"/>
-      <c r="E108" s="23"/>
+      <c r="E108" s="23" t="s">
+        <v>767</v>
+      </c>
       <c r="F108" s="23" t="s">
         <v>751</v>
       </c>
@@ -30293,17 +30450,29 @@
         <v>0019-02-00086</v>
       </c>
       <c r="H108" s="23"/>
-      <c r="I108" s="29"/>
+      <c r="I108" s="29" t="s">
+        <v>161</v>
+      </c>
       <c r="J108" s="25">
         <v>0.9</v>
       </c>
       <c r="K108" s="24"/>
       <c r="L108" s="24"/>
-      <c r="M108" s="26"/>
-      <c r="N108" s="24"/>
-      <c r="O108" s="24"/>
-      <c r="P108" s="24"/>
-      <c r="Q108" s="24"/>
+      <c r="M108" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="N108" s="24" t="s">
+        <v>1537</v>
+      </c>
+      <c r="O108" s="24" t="s">
+        <v>1535</v>
+      </c>
+      <c r="P108" s="24" t="s">
+        <v>1535</v>
+      </c>
+      <c r="Q108" s="24" t="s">
+        <v>1536</v>
+      </c>
       <c r="R108" s="24"/>
       <c r="S108" s="24"/>
       <c r="T108" s="40"/>
@@ -30317,7 +30486,9 @@
         <v>1200</v>
       </c>
       <c r="D109" s="23"/>
-      <c r="E109" s="23"/>
+      <c r="E109" s="23" t="s">
+        <v>767</v>
+      </c>
       <c r="F109" s="23" t="s">
         <v>751</v>
       </c>
@@ -30326,17 +30497,29 @@
         <v>0019-02-00087</v>
       </c>
       <c r="H109" s="23"/>
-      <c r="I109" s="29"/>
+      <c r="I109" s="29" t="s">
+        <v>161</v>
+      </c>
       <c r="J109" s="25">
         <v>0.9</v>
       </c>
       <c r="K109" s="24"/>
       <c r="L109" s="24"/>
-      <c r="M109" s="26"/>
-      <c r="N109" s="24"/>
-      <c r="O109" s="24"/>
-      <c r="P109" s="24"/>
-      <c r="Q109" s="24"/>
+      <c r="M109" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="N109" s="24" t="s">
+        <v>1537</v>
+      </c>
+      <c r="O109" s="24" t="s">
+        <v>1535</v>
+      </c>
+      <c r="P109" s="24" t="s">
+        <v>1535</v>
+      </c>
+      <c r="Q109" s="24" t="s">
+        <v>1536</v>
+      </c>
       <c r="R109" s="24"/>
       <c r="S109" s="24"/>
       <c r="T109" s="40"/>
@@ -30375,7 +30558,9 @@
       <c r="N110" s="24"/>
       <c r="O110" s="24"/>
       <c r="P110" s="24"/>
-      <c r="Q110" s="24"/>
+      <c r="Q110" s="24" t="s">
+        <v>1143</v>
+      </c>
       <c r="R110" s="24"/>
       <c r="S110" s="24"/>
       <c r="T110" s="40"/>
@@ -30414,7 +30599,9 @@
       <c r="N111" s="24"/>
       <c r="O111" s="24"/>
       <c r="P111" s="24"/>
-      <c r="Q111" s="24"/>
+      <c r="Q111" s="24" t="s">
+        <v>1143</v>
+      </c>
       <c r="R111" s="24"/>
       <c r="S111" s="24"/>
       <c r="T111" s="40"/>
@@ -30453,7 +30640,9 @@
       <c r="N112" s="24"/>
       <c r="O112" s="24"/>
       <c r="P112" s="24"/>
-      <c r="Q112" s="24"/>
+      <c r="Q112" s="24" t="s">
+        <v>1143</v>
+      </c>
       <c r="R112" s="24"/>
       <c r="S112" s="24"/>
       <c r="T112" s="40"/>
@@ -30490,13 +30679,15 @@
       <c r="N113" s="24"/>
       <c r="O113" s="24"/>
       <c r="P113" s="24"/>
-      <c r="Q113" s="24"/>
+      <c r="Q113" s="24" t="s">
+        <v>1536</v>
+      </c>
       <c r="R113" s="24"/>
       <c r="S113" s="24"/>
       <c r="T113" s="40"/>
       <c r="U113" s="40"/>
     </row>
-    <row r="114" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B114" s="27"/>
       <c r="C114" s="24"/>
       <c r="D114" s="23"/>
@@ -30518,7 +30709,7 @@
       <c r="T114" s="40"/>
       <c r="U114" s="40"/>
     </row>
-    <row r="115" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B115" s="27"/>
       <c r="C115" s="24"/>
       <c r="D115" s="23"/>
@@ -30540,7 +30731,7 @@
       <c r="T115" s="40"/>
       <c r="U115" s="40"/>
     </row>
-    <row r="116" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B116" s="27"/>
       <c r="C116" s="24"/>
       <c r="D116" s="23"/>
@@ -30562,7 +30753,7 @@
       <c r="T116" s="40"/>
       <c r="U116" s="40"/>
     </row>
-    <row r="117" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B117" s="27"/>
       <c r="C117" s="24"/>
       <c r="D117" s="23"/>
@@ -30692,12 +30883,12 @@
   </sheetPr>
   <dimension ref="A7:BD97"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="7" ySplit="7" topLeftCell="AQ19" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="7" ySplit="7" topLeftCell="W23" activePane="bottomRight" state="frozen"/>
       <selection activeCell="J19" sqref="J19"/>
       <selection pane="topRight" activeCell="J19" sqref="J19"/>
       <selection pane="bottomLeft" activeCell="J19" sqref="J19"/>
-      <selection pane="bottomRight" activeCell="BD30" sqref="BD30"/>
+      <selection pane="bottomRight" activeCell="X33" sqref="X33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -32941,10 +33132,18 @@
         <v>1527</v>
       </c>
       <c r="AO24" s="7"/>
-      <c r="AP24" s="7"/>
-      <c r="AQ24" s="7"/>
-      <c r="AR24" s="7"/>
-      <c r="AS24" s="7"/>
+      <c r="AP24" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="AQ24" s="7" t="s">
+        <v>1267</v>
+      </c>
+      <c r="AR24" s="7" t="s">
+        <v>1267</v>
+      </c>
+      <c r="AS24" s="7" t="s">
+        <v>1528</v>
+      </c>
       <c r="AT24" s="7" t="s">
         <v>875</v>
       </c>
@@ -32956,13 +33155,25 @@
         <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
         <v>POWER BI</v>
       </c>
-      <c r="AW24" s="7"/>
-      <c r="AX24" s="7"/>
+      <c r="AW24" s="7" t="s">
+        <v>1167</v>
+      </c>
+      <c r="AX24" s="7" t="s">
+        <v>959</v>
+      </c>
       <c r="AY24" s="7"/>
-      <c r="AZ24" s="7"/>
-      <c r="BA24" s="7"/>
-      <c r="BB24" s="7"/>
-      <c r="BC24" s="7"/>
+      <c r="AZ24" s="7" t="s">
+        <v>877</v>
+      </c>
+      <c r="BA24" s="7" t="s">
+        <v>878</v>
+      </c>
+      <c r="BB24" s="7" t="s">
+        <v>1523</v>
+      </c>
+      <c r="BC24" s="7">
+        <v>1</v>
+      </c>
       <c r="BD24" s="7" t="s">
         <v>1532</v>
       </c>
@@ -33538,7 +33749,7 @@
         <v>193</v>
       </c>
       <c r="AQ30" s="7" t="s">
-        <v>1267</v>
+        <v>1423</v>
       </c>
       <c r="AR30" s="7" t="s">
         <v>1267</v>
@@ -33557,13 +33768,25 @@
         <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
         <v>POWER BI</v>
       </c>
-      <c r="AW30" s="7"/>
-      <c r="AX30" s="7"/>
+      <c r="AW30" s="7" t="s">
+        <v>1442</v>
+      </c>
+      <c r="AX30" s="7" t="s">
+        <v>959</v>
+      </c>
       <c r="AY30" s="7"/>
-      <c r="AZ30" s="7"/>
-      <c r="BA30" s="7"/>
-      <c r="BB30" s="7"/>
-      <c r="BC30" s="7"/>
+      <c r="AZ30" s="7" t="s">
+        <v>877</v>
+      </c>
+      <c r="BA30" s="7" t="s">
+        <v>878</v>
+      </c>
+      <c r="BB30" s="7" t="s">
+        <v>1523</v>
+      </c>
+      <c r="BC30" s="7">
+        <v>1</v>
+      </c>
       <c r="BD30" s="7" t="s">
         <v>1531</v>
       </c>
@@ -33745,10 +33968,18 @@
         <v>1505</v>
       </c>
       <c r="AO32" s="7"/>
-      <c r="AP32" s="7"/>
-      <c r="AQ32" s="7"/>
-      <c r="AR32" s="7"/>
-      <c r="AS32" s="7"/>
+      <c r="AP32" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="AQ32" s="7" t="s">
+        <v>1423</v>
+      </c>
+      <c r="AR32" s="7" t="s">
+        <v>1323</v>
+      </c>
+      <c r="AS32" s="7">
+        <v>2020</v>
+      </c>
       <c r="AT32" s="7" t="s">
         <v>875</v>
       </c>
@@ -33760,15 +33991,27 @@
         <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
         <v>ARCGIS-POWER BI</v>
       </c>
-      <c r="AW32" s="7"/>
+      <c r="AW32" s="7" t="s">
+        <v>1442</v>
+      </c>
       <c r="AX32" s="7" t="s">
         <v>959</v>
       </c>
-      <c r="AY32" s="7"/>
-      <c r="AZ32" s="7"/>
-      <c r="BA32" s="7"/>
-      <c r="BB32" s="7"/>
-      <c r="BC32" s="7"/>
+      <c r="AY32" s="7" t="s">
+        <v>1534</v>
+      </c>
+      <c r="AZ32" s="7" t="s">
+        <v>877</v>
+      </c>
+      <c r="BA32" s="7" t="s">
+        <v>878</v>
+      </c>
+      <c r="BB32" s="7" t="s">
+        <v>1533</v>
+      </c>
+      <c r="BC32" s="7">
+        <v>1</v>
+      </c>
       <c r="BD32" s="7" t="s">
         <v>1349</v>
       </c>
@@ -33802,7 +34045,7 @@
       <c r="I33" s="2"/>
       <c r="J33" s="44">
         <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$J$112,4,0)</f>
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="K33" s="2">
         <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$K$112,5,0)</f>
@@ -33812,9 +34055,9 @@
         <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$L$112,6,0)</f>
         <v>0</v>
       </c>
-      <c r="M33" s="2">
+      <c r="M33" s="2" t="str">
         <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$S$112,7,0)</f>
-        <v>0</v>
+        <v>POWER BI</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -33851,8 +34094,12 @@
         <v>1506</v>
       </c>
       <c r="AO33" s="7"/>
-      <c r="AP33" s="7"/>
-      <c r="AQ33" s="7"/>
+      <c r="AP33" s="7" t="s">
+        <v>767</v>
+      </c>
+      <c r="AQ33" s="7" t="s">
+        <v>1430</v>
+      </c>
       <c r="AR33" s="7"/>
       <c r="AS33" s="7">
         <v>2018</v>
@@ -33864,9 +34111,9 @@
         <f>PRODUCTOS[[#This Row],[Data]]</f>
         <v>DATAPUEBLOS</v>
       </c>
-      <c r="AV33" s="7">
+      <c r="AV33" s="7" t="str">
         <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
-        <v>0</v>
+        <v>POWER BI</v>
       </c>
       <c r="AW33" s="7" t="s">
         <v>1442</v>
@@ -39050,13 +39297,13 @@
         <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$K$112,5,0)</f>
         <v>0</v>
       </c>
-      <c r="L80" s="2">
+      <c r="L80" s="2" t="str">
         <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$L$112,6,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M80" s="2">
+        <v>Astrid</v>
+      </c>
+      <c r="M80" s="2" t="str">
         <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$S$112,7,0)</f>
-        <v>0</v>
+        <v>POWER BI</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -39099,9 +39346,9 @@
         <f>PRODUCTOS[[#This Row],[Data]]</f>
         <v>DATAMUNICIPIO</v>
       </c>
-      <c r="AV80" s="7">
+      <c r="AV80" s="7" t="str">
         <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
-        <v>0</v>
+        <v>POWER BI</v>
       </c>
       <c r="AW80" s="7"/>
       <c r="AX80" s="7"/>
@@ -39246,13 +39493,13 @@
         <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$K$112,5,0)</f>
         <v>0</v>
       </c>
-      <c r="L82" s="2">
+      <c r="L82" s="2" t="str">
         <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$L$112,6,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M82" s="2">
+        <v>Astrid</v>
+      </c>
+      <c r="M82" s="2" t="str">
         <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$S$112,7,0)</f>
-        <v>0</v>
+        <v>POWER BI</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" s="2"/>
@@ -39293,9 +39540,9 @@
         <f>PRODUCTOS[[#This Row],[Data]]</f>
         <v>DATAMUNICIPIO</v>
       </c>
-      <c r="AV82" s="7">
+      <c r="AV82" s="7" t="str">
         <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
-        <v>0</v>
+        <v>POWER BI</v>
       </c>
       <c r="AW82" s="7"/>
       <c r="AX82" s="7"/>
@@ -39343,13 +39590,13 @@
         <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$K$112,5,0)</f>
         <v>0</v>
       </c>
-      <c r="L83" s="2">
+      <c r="L83" s="2" t="str">
         <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$L$112,6,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M83" s="2">
+        <v>Astrid</v>
+      </c>
+      <c r="M83" s="2" t="str">
         <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$S$112,7,0)</f>
-        <v>0</v>
+        <v>POWER BI</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" s="2"/>
@@ -39392,9 +39639,9 @@
         <f>PRODUCTOS[[#This Row],[Data]]</f>
         <v>DATAMUNICIPIO</v>
       </c>
-      <c r="AV83" s="7">
+      <c r="AV83" s="7" t="str">
         <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
-        <v>0</v>
+        <v>POWER BI</v>
       </c>
       <c r="AW83" s="7"/>
       <c r="AX83" s="7"/>
@@ -39442,13 +39689,13 @@
         <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$K$112,5,0)</f>
         <v>0</v>
       </c>
-      <c r="L84" s="2">
+      <c r="L84" s="2" t="str">
         <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$L$112,6,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M84" s="2">
+        <v>Astrid</v>
+      </c>
+      <c r="M84" s="2" t="str">
         <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$S$112,7,0)</f>
-        <v>0</v>
+        <v>POWER BI</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" s="2"/>
@@ -39489,9 +39736,9 @@
         <f>PRODUCTOS[[#This Row],[Data]]</f>
         <v>DATAMUNICIPIO</v>
       </c>
-      <c r="AV84" s="7">
+      <c r="AV84" s="7" t="str">
         <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
-        <v>0</v>
+        <v>POWER BI</v>
       </c>
       <c r="AW84" s="7"/>
       <c r="AX84" s="7"/>
@@ -40242,9 +40489,9 @@
         <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$L$112,6,0)</f>
         <v>0</v>
       </c>
-      <c r="M93" s="2">
+      <c r="M93" s="2" t="str">
         <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$S$112,7,0)</f>
-        <v>0</v>
+        <v>POWER BI</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" s="2"/>
@@ -40278,9 +40525,9 @@
         <f>PRODUCTOS[[#This Row],[Data]]</f>
         <v>DATAPUEBLOS</v>
       </c>
-      <c r="AV93" s="127">
+      <c r="AV93" s="127" t="str">
         <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
-        <v>0</v>
+        <v>POWER BI</v>
       </c>
       <c r="AW93" s="132" t="s">
         <v>1442</v>
@@ -40346,9 +40593,9 @@
         <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$L$112,6,0)</f>
         <v>0</v>
       </c>
-      <c r="M94" s="2">
+      <c r="M94" s="2" t="str">
         <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$S$112,7,0)</f>
-        <v>0</v>
+        <v>POWER BI</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" s="2"/>
@@ -40382,9 +40629,9 @@
         <f>PRODUCTOS[[#This Row],[Data]]</f>
         <v>DATAPUEBLOS</v>
       </c>
-      <c r="AV94" s="127">
+      <c r="AV94" s="127" t="str">
         <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
-        <v>0</v>
+        <v>POWER BI</v>
       </c>
       <c r="AW94" s="132" t="s">
         <v>1442</v>

--- a/Monitoreo DI.xlsx
+++ b/Monitoreo DI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karen\Dropbox\DI Monitoreo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D245B528-519F-417C-859F-01A39133D821}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD692ADF-D417-4360-A4B3-F97D64105C25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="833" firstSheet="2" activeTab="12" xr2:uid="{F0BF9B96-FFF4-4E12-841F-9553B6E1990E}"/>
   </bookViews>

--- a/Monitoreo DI.xlsx
+++ b/Monitoreo DI.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karen\Dropbox\DI Monitoreo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\DI Monitoreo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9893B0BE-BFEA-476E-86E2-9E3021CD2077}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5527AA07-0BDE-4E84-BCC5-DB24618E866A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="833" firstSheet="1" activeTab="2" xr2:uid="{F0BF9B96-FFF4-4E12-841F-9553B6E1990E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="833" firstSheet="2" activeTab="2" xr2:uid="{F0BF9B96-FFF4-4E12-841F-9553B6E1990E}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA`S" sheetId="1" r:id="rId1"/>
@@ -124,7 +124,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6368" uniqueCount="1572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6375" uniqueCount="1575">
   <si>
     <t>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/DATASALUD.svg</t>
   </si>
@@ -6126,6 +6126,15 @@
   </si>
   <si>
     <t>#violencia #genero #mujeres #femicidios #numerdo #acumulado #victimas #femicida #relacion #categoria #tipificacion #penal #antecedentes #causa</t>
+  </si>
+  <si>
+    <t>Decición de incoprorar las tablas resumenes de Vigentes de todos los años</t>
+  </si>
+  <si>
+    <t>Iniciando el 2017</t>
+  </si>
+  <si>
+    <t>Apoyo en la estructuración del producto</t>
   </si>
 </sst>
 </file>
@@ -6573,7 +6582,7 @@
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="190">
+  <cellXfs count="191">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -7099,6 +7108,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -10154,7 +10166,7 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>771684</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>429078</xdr:rowOff>
+      <xdr:rowOff>422728</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
       <mc:Choice Requires="sle15">
@@ -12883,7 +12895,7 @@
 
 <file path=xl/slicers/slicer2.xml><?xml version="1.0" encoding="utf-8"?>
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
-  <slicer name="Data" xr10:uid="{DC5B16C7-0AA8-4789-BE46-CC500A0CE2D1}" cache="SegmentaciónDeDatos_Data" caption="Data" startItem="8" columnCount="2" rowHeight="234950"/>
+  <slicer name="Data" xr10:uid="{DC5B16C7-0AA8-4789-BE46-CC500A0CE2D1}" cache="SegmentaciónDeDatos_Data" caption="Data" columnCount="2" rowHeight="234950"/>
   <slicer name="Estado" xr10:uid="{B5CDA16E-1F84-4290-AEF3-96C65DB4DD5A}" cache="SegmentaciónDeDatos_Estado" caption="Estado" columnCount="2" rowHeight="234950"/>
   <slicer name="Responsable Desarrollo" xr10:uid="{5F85B909-3D60-4494-A859-CB65DDAD43F0}" cache="SegmentaciónDeDatos_Responsable_Desarrollo" caption="Responsable Desarrollo" columnCount="3" rowHeight="234950"/>
   <slicer name="Responsable Información" xr10:uid="{1509BA93-0D1C-489B-BEEE-3640ADE75D86}" cache="SegmentaciónDeDatos_Responsable_Información" caption="Responsable Información" columnCount="4" rowHeight="234950"/>
@@ -12926,7 +12938,7 @@
 
 <file path=xl/slicers/slicer7.xml><?xml version="1.0" encoding="utf-8"?>
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
-  <slicer name="Data 2" xr10:uid="{80951101-2A2B-4B15-9E33-78D3A7E8B5B0}" cache="SegmentaciónDeDatos_Data2" caption="Data" startItem="10" columnCount="2" style="SlicerStyleDark5" rowHeight="234950"/>
+  <slicer name="Data 2" xr10:uid="{80951101-2A2B-4B15-9E33-78D3A7E8B5B0}" cache="SegmentaciónDeDatos_Data2" caption="Data" columnCount="2" style="SlicerStyleDark5" rowHeight="234950"/>
   <slicer name="País" xr10:uid="{75A217B5-277A-4B68-8268-AEA4271B985B}" cache="SegmentaciónDeDatos_País" caption="País" style="SlicerStyleDark5" rowHeight="234950"/>
   <slicer name="Estado 2" xr10:uid="{271E2C58-B673-4F76-A62E-46B7337EB1E5}" cache="SegmentaciónDeDatos_Estado2" caption="Estado" style="SlicerStyleDark6" rowHeight="234950"/>
   <slicer name="Avance [0-100%]" xr10:uid="{3E416F9C-0DF4-4E82-9BCC-0ABC5F831734}" cache="SegmentaciónDeDatos_Avance__0_100" caption="Avance [0-100%]" columnCount="3" style="SlicerStyleDark5" rowHeight="234950"/>
@@ -12965,7 +12977,7 @@
   <autoFilter ref="B11:U117" xr:uid="{488C7ADA-DF10-4033-BE01-B6478A789716}">
     <filterColumn colId="0">
       <filters>
-        <filter val="DATARIESGO"/>
+        <filter val="DATAAGRO"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -13004,12 +13016,7 @@
   <autoFilter ref="A7:BE96" xr:uid="{B45D9B6D-7E6E-4374-A7A8-688EAA2C002B}">
     <filterColumn colId="3">
       <filters>
-        <filter val="DATARIESGO"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="8">
-      <filters>
-        <filter val="Publicado"/>
+        <filter val="DATAAGRO"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -13162,8 +13169,8 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{E94DB916-DE89-4F64-9EF8-AFB72BA8FF61}" name="Tabla14" displayName="Tabla14" ref="A12:I89" totalsRowShown="0" headerRowDxfId="94" dataDxfId="93">
-  <autoFilter ref="A12:I89" xr:uid="{14629A1E-D5D5-412C-8FAB-488411430C85}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{E94DB916-DE89-4F64-9EF8-AFB72BA8FF61}" name="Tabla14" displayName="Tabla14" ref="A12:I91" totalsRowShown="0" headerRowDxfId="94" dataDxfId="93">
+  <autoFilter ref="A12:I91" xr:uid="{14629A1E-D5D5-412C-8FAB-488411430C85}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{7299EEE0-40CF-4EF5-8F0C-C1FFA863E5B5}" name="N°" dataDxfId="92"/>
     <tableColumn id="2" xr3:uid="{9E84EC16-0161-44D0-9CB9-123C0428ADAD}" name="Tema/institución Investigación " dataDxfId="91"/>
@@ -14364,10 +14371,10 @@
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A12:I94"/>
+  <dimension ref="A12:I96"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.90625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -14793,169 +14800,161 @@
       <c r="H29" s="110"/>
     </row>
     <row r="30" spans="1:8" s="56" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="164"/>
-      <c r="C30" s="53"/>
-      <c r="D30" s="58"/>
+      <c r="A30" s="56">
+        <v>1</v>
+      </c>
+      <c r="B30" s="164" t="s">
+        <v>848</v>
+      </c>
+      <c r="C30" s="53" t="s">
+        <v>169</v>
+      </c>
+      <c r="D30" s="58">
+        <v>44111</v>
+      </c>
       <c r="E30" s="59">
-        <v>44162</v>
+        <v>44167</v>
       </c>
       <c r="F30" s="60"/>
-      <c r="G30" s="53"/>
+      <c r="G30" s="53" t="s">
+        <v>1572</v>
+      </c>
       <c r="H30" s="110"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="47">
+    <row r="31" spans="1:8" s="56" customFormat="1" ht="36" x14ac:dyDescent="0.35">
+      <c r="A31" s="56">
+        <v>1</v>
+      </c>
+      <c r="B31" s="190" t="s">
+        <v>848</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="D31" s="58">
+        <v>44111</v>
+      </c>
+      <c r="E31" s="59">
+        <v>44167</v>
+      </c>
+      <c r="F31" s="60"/>
+      <c r="G31" s="20" t="s">
+        <v>1573</v>
+      </c>
+      <c r="H31" s="110" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="164"/>
+      <c r="C32" s="53"/>
+      <c r="D32" s="58"/>
+      <c r="E32" s="59">
+        <v>44168</v>
+      </c>
+      <c r="F32" s="60"/>
+      <c r="G32" s="53"/>
+      <c r="H32" s="110"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="47">
         <v>2</v>
       </c>
-      <c r="B31" s="164" t="s">
+      <c r="B33" s="164" t="s">
         <v>980</v>
       </c>
-      <c r="C31" s="53" t="s">
+      <c r="C33" s="53" t="s">
         <v>169</v>
       </c>
-      <c r="D31" s="50">
+      <c r="D33" s="50">
         <v>44111</v>
       </c>
-      <c r="E31" s="51">
+      <c r="E33" s="51">
         <v>44113</v>
       </c>
-      <c r="F31" s="52"/>
-      <c r="G31" s="53" t="s">
+      <c r="F33" s="52"/>
+      <c r="G33" s="53" t="s">
         <v>981</v>
       </c>
-      <c r="H31" s="54"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="47">
+      <c r="H33" s="54"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="47">
         <v>3</v>
       </c>
-      <c r="B32" s="164" t="s">
+      <c r="B34" s="164" t="s">
         <v>734</v>
       </c>
-      <c r="C32" s="53" t="s">
+      <c r="C34" s="53" t="s">
         <v>982</v>
       </c>
-      <c r="D32" s="50">
+      <c r="D34" s="50">
         <v>44111</v>
       </c>
-      <c r="E32" s="62"/>
-      <c r="F32" s="63">
+      <c r="E34" s="62"/>
+      <c r="F34" s="63">
         <v>44113</v>
       </c>
-      <c r="G32" s="53" t="s">
+      <c r="G34" s="53" t="s">
         <v>983</v>
       </c>
-      <c r="H32" s="64" t="s">
+      <c r="H34" s="64" t="s">
         <v>984</v>
       </c>
     </row>
-    <row r="33" spans="1:9" s="56" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="56">
+    <row r="35" spans="1:9" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="56">
         <v>4</v>
       </c>
-      <c r="B33" s="164" t="s">
+      <c r="B35" s="164" t="s">
         <v>985</v>
       </c>
-      <c r="C33" s="53" t="s">
+      <c r="C35" s="53" t="s">
         <v>98</v>
       </c>
-      <c r="D33" s="58">
+      <c r="D35" s="58">
         <v>44111</v>
       </c>
-      <c r="E33" s="59">
+      <c r="E35" s="59">
         <v>44113</v>
       </c>
-      <c r="F33" s="65">
+      <c r="F35" s="65">
         <v>44113</v>
       </c>
-      <c r="G33" s="19" t="s">
+      <c r="G35" s="19" t="s">
         <v>986</v>
       </c>
-      <c r="H33" s="64" t="s">
+      <c r="H35" s="64" t="s">
         <v>984</v>
       </c>
     </row>
-    <row r="34" spans="1:9" s="56" customFormat="1" ht="26" x14ac:dyDescent="0.3">
-      <c r="A34" s="56">
+    <row r="36" spans="1:9" s="56" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+      <c r="A36" s="56">
         <v>4</v>
       </c>
-      <c r="B34" s="164" t="s">
+      <c r="B36" s="164" t="s">
         <v>985</v>
       </c>
-      <c r="C34" s="53" t="s">
+      <c r="C36" s="53" t="s">
         <v>98</v>
       </c>
-      <c r="D34" s="58">
+      <c r="D36" s="58">
         <v>44111</v>
       </c>
-      <c r="E34" s="59">
+      <c r="E36" s="59">
         <v>44113</v>
       </c>
-      <c r="F34" s="65">
+      <c r="F36" s="65">
         <v>44113</v>
       </c>
-      <c r="G34" s="55" t="s">
+      <c r="G36" s="55" t="s">
         <v>987</v>
       </c>
-      <c r="H34" s="66" t="s">
+      <c r="H36" s="66" t="s">
         <v>984</v>
       </c>
     </row>
-    <row r="35" spans="1:9" s="56" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="56">
-        <v>5</v>
-      </c>
-      <c r="B35" s="164" t="s">
-        <v>988</v>
-      </c>
-      <c r="C35" s="53" t="s">
-        <v>93</v>
-      </c>
-      <c r="D35" s="58">
-        <v>44126</v>
-      </c>
-      <c r="E35" s="59">
-        <v>44128</v>
-      </c>
-      <c r="F35" s="67"/>
-      <c r="G35" s="19" t="s">
-        <v>989</v>
-      </c>
-      <c r="H35" s="61" t="s">
-        <v>990</v>
-      </c>
-      <c r="I35" s="68" t="s">
-        <v>991</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" s="56" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="56">
-        <v>5</v>
-      </c>
-      <c r="B36" s="164" t="s">
-        <v>988</v>
-      </c>
-      <c r="C36" s="53" t="s">
-        <v>93</v>
-      </c>
-      <c r="D36" s="58">
-        <v>44126</v>
-      </c>
-      <c r="E36" s="59">
-        <v>44128</v>
-      </c>
-      <c r="F36" s="67"/>
-      <c r="G36" s="53" t="s">
-        <v>992</v>
-      </c>
-      <c r="H36" s="61" t="s">
-        <v>993</v>
-      </c>
-      <c r="I36" s="68" t="s">
-        <v>1212</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" s="56" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" s="56" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="56">
         <v>5</v>
       </c>
@@ -14972,17 +14971,17 @@
         <v>44128</v>
       </c>
       <c r="F37" s="67"/>
-      <c r="G37" s="56" t="s">
-        <v>994</v>
-      </c>
-      <c r="H37" s="74" t="s">
-        <v>1012</v>
+      <c r="G37" s="19" t="s">
+        <v>989</v>
+      </c>
+      <c r="H37" s="61" t="s">
+        <v>990</v>
       </c>
       <c r="I37" s="68" t="s">
-        <v>1213</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" s="56" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" s="56" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="56">
         <v>5</v>
       </c>
@@ -14996,16 +14995,20 @@
         <v>44126</v>
       </c>
       <c r="E38" s="59">
-        <v>44145</v>
+        <v>44128</v>
       </c>
       <c r="F38" s="67"/>
-      <c r="G38" s="55" t="s">
-        <v>1303</v>
-      </c>
-      <c r="H38" s="74"/>
-      <c r="I38" s="68"/>
-    </row>
-    <row r="39" spans="1:9" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G38" s="53" t="s">
+        <v>992</v>
+      </c>
+      <c r="H38" s="61" t="s">
+        <v>993</v>
+      </c>
+      <c r="I38" s="68" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" s="56" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="A39" s="56">
         <v>5</v>
       </c>
@@ -15019,16 +15022,20 @@
         <v>44126</v>
       </c>
       <c r="E39" s="59">
-        <v>44148</v>
+        <v>44128</v>
       </c>
       <c r="F39" s="67"/>
-      <c r="G39" s="110" t="s">
-        <v>1395</v>
-      </c>
-      <c r="H39" s="61"/>
-      <c r="I39" s="68"/>
-    </row>
-    <row r="40" spans="1:9" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G39" s="56" t="s">
+        <v>994</v>
+      </c>
+      <c r="H39" s="74" t="s">
+        <v>1012</v>
+      </c>
+      <c r="I39" s="68" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" s="56" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A40" s="56">
         <v>5</v>
       </c>
@@ -15042,70 +15049,62 @@
         <v>44126</v>
       </c>
       <c r="E40" s="59">
+        <v>44145</v>
+      </c>
+      <c r="F40" s="67"/>
+      <c r="G40" s="55" t="s">
+        <v>1303</v>
+      </c>
+      <c r="H40" s="74"/>
+      <c r="I40" s="68"/>
+    </row>
+    <row r="41" spans="1:9" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="56">
+        <v>5</v>
+      </c>
+      <c r="B41" s="164" t="s">
+        <v>988</v>
+      </c>
+      <c r="C41" s="53" t="s">
+        <v>93</v>
+      </c>
+      <c r="D41" s="58">
+        <v>44126</v>
+      </c>
+      <c r="E41" s="59">
         <v>44148</v>
       </c>
-      <c r="F40" s="67"/>
-      <c r="G40" s="53" t="s">
+      <c r="F41" s="67"/>
+      <c r="G41" s="110" t="s">
+        <v>1395</v>
+      </c>
+      <c r="H41" s="61"/>
+      <c r="I41" s="68"/>
+    </row>
+    <row r="42" spans="1:9" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="56">
+        <v>5</v>
+      </c>
+      <c r="B42" s="164" t="s">
+        <v>988</v>
+      </c>
+      <c r="C42" s="53" t="s">
+        <v>93</v>
+      </c>
+      <c r="D42" s="58">
+        <v>44126</v>
+      </c>
+      <c r="E42" s="59">
+        <v>44148</v>
+      </c>
+      <c r="F42" s="67"/>
+      <c r="G42" s="53" t="s">
         <v>1396</v>
       </c>
-      <c r="H40" s="110"/>
-      <c r="I40" s="68"/>
-    </row>
-    <row r="41" spans="1:9" s="56" customFormat="1" ht="52" x14ac:dyDescent="0.3">
-      <c r="A41" s="56">
-        <v>6</v>
-      </c>
-      <c r="B41" s="164" t="s">
-        <v>996</v>
-      </c>
-      <c r="C41" s="53" t="s">
-        <v>98</v>
-      </c>
-      <c r="D41" s="58">
-        <v>44113</v>
-      </c>
-      <c r="E41" s="59">
-        <v>44120</v>
-      </c>
-      <c r="F41" s="60"/>
-      <c r="G41" s="19" t="s">
-        <v>997</v>
-      </c>
-      <c r="H41" s="69" t="s">
-        <v>995</v>
-      </c>
-      <c r="I41" s="56" t="s">
-        <v>1215</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" s="56" customFormat="1" ht="39" x14ac:dyDescent="0.3">
-      <c r="A42" s="56">
-        <v>6</v>
-      </c>
-      <c r="B42" s="164" t="s">
-        <v>996</v>
-      </c>
-      <c r="C42" s="53" t="s">
-        <v>98</v>
-      </c>
-      <c r="D42" s="58">
-        <v>44113</v>
-      </c>
-      <c r="E42" s="70">
-        <v>44126</v>
-      </c>
-      <c r="F42" s="60"/>
-      <c r="G42" s="71" t="s">
-        <v>998</v>
-      </c>
-      <c r="H42" s="69" t="s">
-        <v>995</v>
-      </c>
-      <c r="I42" s="56" t="s">
-        <v>1214</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" s="56" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+      <c r="H42" s="110"/>
+      <c r="I42" s="68"/>
+    </row>
+    <row r="43" spans="1:9" s="56" customFormat="1" ht="52" x14ac:dyDescent="0.3">
       <c r="A43" s="56">
         <v>6</v>
       </c>
@@ -15118,16 +15117,21 @@
       <c r="D43" s="58">
         <v>44113</v>
       </c>
-      <c r="E43" s="70">
-        <v>44134</v>
+      <c r="E43" s="59">
+        <v>44120</v>
       </c>
       <c r="F43" s="60"/>
       <c r="G43" s="19" t="s">
-        <v>999</v>
-      </c>
-      <c r="H43" s="61"/>
-    </row>
-    <row r="44" spans="1:9" s="56" customFormat="1" x14ac:dyDescent="0.3">
+        <v>997</v>
+      </c>
+      <c r="H43" s="69" t="s">
+        <v>995</v>
+      </c>
+      <c r="I43" s="56" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" s="56" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A44" s="56">
         <v>6</v>
       </c>
@@ -15141,16 +15145,20 @@
         <v>44113</v>
       </c>
       <c r="E44" s="70">
-        <v>44143</v>
+        <v>44126</v>
       </c>
       <c r="F44" s="60"/>
-      <c r="G44" s="53"/>
-      <c r="H44" s="61"/>
+      <c r="G44" s="71" t="s">
+        <v>998</v>
+      </c>
+      <c r="H44" s="69" t="s">
+        <v>995</v>
+      </c>
       <c r="I44" s="56" t="s">
         <v>1214</v>
       </c>
     </row>
-    <row r="45" spans="1:9" s="56" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" s="56" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A45" s="56">
         <v>6</v>
       </c>
@@ -15164,11 +15172,11 @@
         <v>44113</v>
       </c>
       <c r="E45" s="70">
-        <v>44145</v>
+        <v>44134</v>
       </c>
       <c r="F45" s="60"/>
-      <c r="G45" s="53" t="s">
-        <v>1353</v>
+      <c r="G45" s="19" t="s">
+        <v>999</v>
       </c>
       <c r="H45" s="61"/>
     </row>
@@ -15186,59 +15194,58 @@
         <v>44113</v>
       </c>
       <c r="E46" s="70">
+        <v>44143</v>
+      </c>
+      <c r="F46" s="60"/>
+      <c r="G46" s="53"/>
+      <c r="H46" s="61"/>
+      <c r="I46" s="56" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="56">
+        <v>6</v>
+      </c>
+      <c r="B47" s="164" t="s">
+        <v>996</v>
+      </c>
+      <c r="C47" s="53" t="s">
+        <v>98</v>
+      </c>
+      <c r="D47" s="58">
+        <v>44113</v>
+      </c>
+      <c r="E47" s="70">
         <v>44145</v>
       </c>
-      <c r="F46" s="60"/>
-      <c r="G46" s="155" t="s">
+      <c r="F47" s="60"/>
+      <c r="G47" s="53" t="s">
+        <v>1353</v>
+      </c>
+      <c r="H47" s="61"/>
+    </row>
+    <row r="48" spans="1:9" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="56">
+        <v>6</v>
+      </c>
+      <c r="B48" s="164" t="s">
+        <v>996</v>
+      </c>
+      <c r="C48" s="53" t="s">
+        <v>98</v>
+      </c>
+      <c r="D48" s="58">
+        <v>44113</v>
+      </c>
+      <c r="E48" s="70">
+        <v>44145</v>
+      </c>
+      <c r="F48" s="60"/>
+      <c r="G48" s="155" t="s">
         <v>1354</v>
       </c>
-      <c r="H46" s="61"/>
-    </row>
-    <row r="47" spans="1:9" s="56" customFormat="1" ht="26" x14ac:dyDescent="0.3">
-      <c r="A47" s="56">
-        <v>7</v>
-      </c>
-      <c r="B47" s="164" t="s">
-        <v>1000</v>
-      </c>
-      <c r="C47" s="53" t="s">
-        <v>107</v>
-      </c>
-      <c r="D47" s="58">
-        <v>44111</v>
-      </c>
-      <c r="E47" s="59">
-        <v>44113</v>
-      </c>
-      <c r="F47" s="65"/>
-      <c r="G47" s="19" t="s">
-        <v>1001</v>
-      </c>
-      <c r="H47" s="61"/>
-    </row>
-    <row r="48" spans="1:9" s="56" customFormat="1" ht="39" x14ac:dyDescent="0.3">
-      <c r="A48" s="56">
-        <v>7</v>
-      </c>
-      <c r="B48" s="164" t="s">
-        <v>1000</v>
-      </c>
-      <c r="C48" s="53" t="s">
-        <v>107</v>
-      </c>
-      <c r="D48" s="58">
-        <v>44111</v>
-      </c>
-      <c r="E48" s="59">
-        <v>44119</v>
-      </c>
-      <c r="F48" s="65"/>
-      <c r="G48" s="19" t="s">
-        <v>1002</v>
-      </c>
-      <c r="H48" s="61" t="s">
-        <v>1003</v>
-      </c>
+      <c r="H48" s="61"/>
     </row>
     <row r="49" spans="1:9" s="56" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A49" s="56">
@@ -15254,15 +15261,15 @@
         <v>44111</v>
       </c>
       <c r="E49" s="59">
-        <v>44124</v>
+        <v>44113</v>
       </c>
       <c r="F49" s="65"/>
       <c r="G49" s="19" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="H49" s="61"/>
     </row>
-    <row r="50" spans="1:9" s="56" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" s="56" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A50" s="56">
         <v>7</v>
       </c>
@@ -15276,13 +15283,15 @@
         <v>44111</v>
       </c>
       <c r="E50" s="59">
-        <v>44127</v>
+        <v>44119</v>
       </c>
       <c r="F50" s="65"/>
       <c r="G50" s="19" t="s">
-        <v>1005</v>
-      </c>
-      <c r="H50" s="61"/>
+        <v>1002</v>
+      </c>
+      <c r="H50" s="61" t="s">
+        <v>1003</v>
+      </c>
     </row>
     <row r="51" spans="1:9" s="56" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A51" s="56">
@@ -15298,15 +15307,15 @@
         <v>44111</v>
       </c>
       <c r="E51" s="59">
-        <v>44132</v>
+        <v>44124</v>
       </c>
       <c r="F51" s="65"/>
       <c r="G51" s="19" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="H51" s="61"/>
     </row>
-    <row r="52" spans="1:9" s="56" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" s="56" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A52" s="56">
         <v>7</v>
       </c>
@@ -15320,15 +15329,15 @@
         <v>44111</v>
       </c>
       <c r="E52" s="59">
-        <v>44132</v>
+        <v>44127</v>
       </c>
       <c r="F52" s="65"/>
-      <c r="G52" s="53" t="s">
-        <v>1007</v>
+      <c r="G52" s="19" t="s">
+        <v>1005</v>
       </c>
       <c r="H52" s="61"/>
     </row>
-    <row r="53" spans="1:9" s="56" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" s="56" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A53" s="56">
         <v>7</v>
       </c>
@@ -15342,89 +15351,85 @@
         <v>44111</v>
       </c>
       <c r="E53" s="59">
+        <v>44132</v>
+      </c>
+      <c r="F53" s="65"/>
+      <c r="G53" s="19" t="s">
+        <v>1006</v>
+      </c>
+      <c r="H53" s="61"/>
+    </row>
+    <row r="54" spans="1:9" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="56">
+        <v>7</v>
+      </c>
+      <c r="B54" s="164" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C54" s="53" t="s">
+        <v>107</v>
+      </c>
+      <c r="D54" s="58">
+        <v>44111</v>
+      </c>
+      <c r="E54" s="59">
+        <v>44132</v>
+      </c>
+      <c r="F54" s="65"/>
+      <c r="G54" s="53" t="s">
+        <v>1007</v>
+      </c>
+      <c r="H54" s="61"/>
+    </row>
+    <row r="55" spans="1:9" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="56">
+        <v>7</v>
+      </c>
+      <c r="B55" s="164" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C55" s="53" t="s">
+        <v>107</v>
+      </c>
+      <c r="D55" s="58">
+        <v>44111</v>
+      </c>
+      <c r="E55" s="59">
         <v>44138</v>
       </c>
-      <c r="F53" s="65"/>
-      <c r="G53" s="53" t="s">
+      <c r="F55" s="65"/>
+      <c r="G55" s="53" t="s">
         <v>1034</v>
       </c>
-      <c r="H53" s="84" t="s">
+      <c r="H55" s="84" t="s">
         <v>1035</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A54" s="47">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A56" s="47">
         <v>8</v>
       </c>
-      <c r="B54" s="164" t="s">
+      <c r="B56" s="164" t="s">
         <v>1008</v>
       </c>
-      <c r="C54" s="53" t="s">
+      <c r="C56" s="53" t="s">
         <v>106</v>
       </c>
-      <c r="D54" s="50">
+      <c r="D56" s="50">
         <v>44112</v>
       </c>
-      <c r="E54" s="72">
+      <c r="E56" s="72">
         <v>44119</v>
       </c>
-      <c r="F54" s="52"/>
-      <c r="G54" s="71" t="s">
+      <c r="F56" s="52"/>
+      <c r="G56" s="71" t="s">
         <v>1009</v>
       </c>
-      <c r="H54" s="73" t="s">
+      <c r="H56" s="73" t="s">
         <v>1010</v>
       </c>
     </row>
-    <row r="55" spans="1:9" s="56" customFormat="1" ht="26" x14ac:dyDescent="0.3">
-      <c r="A55" s="56">
-        <v>9</v>
-      </c>
-      <c r="B55" s="164" t="s">
-        <v>1011</v>
-      </c>
-      <c r="C55" s="53" t="s">
-        <v>95</v>
-      </c>
-      <c r="D55" s="58">
-        <v>44113</v>
-      </c>
-      <c r="E55" s="59">
-        <v>44118</v>
-      </c>
-      <c r="F55" s="67"/>
-      <c r="G55" s="19" t="s">
-        <v>1208</v>
-      </c>
-      <c r="H55" s="74" t="s">
-        <v>1012</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" s="56" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A56" s="56">
-        <v>9</v>
-      </c>
-      <c r="B56" s="164" t="s">
-        <v>1011</v>
-      </c>
-      <c r="C56" s="53" t="s">
-        <v>95</v>
-      </c>
-      <c r="D56" s="58">
-        <v>44113</v>
-      </c>
-      <c r="E56" s="59">
-        <v>44118</v>
-      </c>
-      <c r="F56" s="67"/>
-      <c r="G56" s="53" t="s">
-        <v>1207</v>
-      </c>
-      <c r="H56" s="74" t="s">
-        <v>1012</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" s="56" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" s="56" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A57" s="56">
         <v>9</v>
       </c>
@@ -15437,60 +15442,60 @@
       <c r="D57" s="58">
         <v>44113</v>
       </c>
-      <c r="E57" s="59"/>
+      <c r="E57" s="59">
+        <v>44118</v>
+      </c>
       <c r="F57" s="67"/>
-      <c r="G57" s="53" t="s">
-        <v>1209</v>
-      </c>
-      <c r="H57" s="110"/>
-    </row>
-    <row r="58" spans="1:9" ht="24" x14ac:dyDescent="0.3">
-      <c r="A58" s="47">
-        <v>10</v>
+      <c r="G57" s="19" t="s">
+        <v>1208</v>
+      </c>
+      <c r="H57" s="74" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" s="56" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+      <c r="A58" s="56">
+        <v>9</v>
       </c>
       <c r="B58" s="164" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="C58" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="D58" s="50">
-        <v>44119</v>
-      </c>
-      <c r="E58" s="72">
-        <v>44131</v>
-      </c>
-      <c r="F58" s="52"/>
-      <c r="G58" s="71" t="s">
-        <v>1210</v>
-      </c>
-      <c r="H58" s="75" t="s">
+      <c r="D58" s="58">
+        <v>44113</v>
+      </c>
+      <c r="E58" s="59">
+        <v>44118</v>
+      </c>
+      <c r="F58" s="67"/>
+      <c r="G58" s="53" t="s">
+        <v>1207</v>
+      </c>
+      <c r="H58" s="74" t="s">
         <v>1012</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="26" x14ac:dyDescent="0.3">
-      <c r="A59" s="47">
-        <v>10</v>
+    <row r="59" spans="1:9" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="56">
+        <v>9</v>
       </c>
       <c r="B59" s="164" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="C59" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="D59" s="50">
-        <v>44119</v>
-      </c>
-      <c r="E59" s="51">
-        <v>44134</v>
-      </c>
-      <c r="F59" s="76"/>
-      <c r="G59" s="55" t="s">
-        <v>1014</v>
-      </c>
-      <c r="H59" s="75" t="s">
-        <v>1012</v>
-      </c>
+      <c r="D59" s="58">
+        <v>44113</v>
+      </c>
+      <c r="E59" s="59"/>
+      <c r="F59" s="67"/>
+      <c r="G59" s="53" t="s">
+        <v>1209</v>
+      </c>
+      <c r="H59" s="110"/>
     </row>
     <row r="60" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A60" s="47">
@@ -15505,18 +15510,18 @@
       <c r="D60" s="50">
         <v>44119</v>
       </c>
-      <c r="E60" s="51">
-        <v>44134</v>
-      </c>
-      <c r="F60" s="76"/>
-      <c r="G60" s="53" t="s">
-        <v>1015</v>
+      <c r="E60" s="72">
+        <v>44131</v>
+      </c>
+      <c r="F60" s="52"/>
+      <c r="G60" s="71" t="s">
+        <v>1210</v>
       </c>
       <c r="H60" s="75" t="s">
         <v>1012</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" ht="26" x14ac:dyDescent="0.3">
       <c r="A61" s="47">
         <v>10</v>
       </c>
@@ -15533,14 +15538,11 @@
         <v>44134</v>
       </c>
       <c r="F61" s="76"/>
-      <c r="G61" s="53" t="s">
-        <v>1016</v>
+      <c r="G61" s="55" t="s">
+        <v>1014</v>
       </c>
       <c r="H61" s="75" t="s">
         <v>1012</v>
-      </c>
-      <c r="I61" s="47" t="s">
-        <v>1472</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="24" x14ac:dyDescent="0.3">
@@ -15560,17 +15562,14 @@
         <v>44134</v>
       </c>
       <c r="F62" s="76"/>
-      <c r="G62" s="77" t="s">
-        <v>1017</v>
+      <c r="G62" s="53" t="s">
+        <v>1015</v>
       </c>
       <c r="H62" s="75" t="s">
         <v>1012</v>
       </c>
-      <c r="I62" s="47" t="s">
-        <v>1472</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A63" s="47">
         <v>10</v>
       </c>
@@ -15584,17 +15583,22 @@
         <v>44119</v>
       </c>
       <c r="E63" s="51">
-        <v>44135</v>
+        <v>44134</v>
       </c>
       <c r="F63" s="76"/>
       <c r="G63" s="53" t="s">
-        <v>1018</v>
-      </c>
-      <c r="H63" s="75"/>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1016</v>
+      </c>
+      <c r="H63" s="75" t="s">
+        <v>1012</v>
+      </c>
+      <c r="I63" s="47" t="s">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A64" s="47">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B64" s="164" t="s">
         <v>1013</v>
@@ -15606,17 +15610,22 @@
         <v>44119</v>
       </c>
       <c r="E64" s="51">
-        <v>44145</v>
+        <v>44134</v>
       </c>
       <c r="F64" s="76"/>
-      <c r="G64" s="53" t="s">
-        <v>1359</v>
-      </c>
-      <c r="H64" s="154"/>
-    </row>
-    <row r="65" spans="1:9" ht="26" x14ac:dyDescent="0.3">
+      <c r="G64" s="77" t="s">
+        <v>1017</v>
+      </c>
+      <c r="H64" s="75" t="s">
+        <v>1012</v>
+      </c>
+      <c r="I64" s="47" t="s">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="47">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B65" s="164" t="s">
         <v>1013</v>
@@ -15628,15 +15637,15 @@
         <v>44119</v>
       </c>
       <c r="E65" s="51">
-        <v>44160</v>
+        <v>44135</v>
       </c>
       <c r="F65" s="76"/>
-      <c r="G65" s="55" t="s">
-        <v>1467</v>
-      </c>
-      <c r="H65" s="154"/>
-    </row>
-    <row r="66" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="G65" s="53" t="s">
+        <v>1018</v>
+      </c>
+      <c r="H65" s="75"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="47">
         <v>11</v>
       </c>
@@ -15650,15 +15659,13 @@
         <v>44119</v>
       </c>
       <c r="E66" s="51">
-        <v>44160</v>
+        <v>44145</v>
       </c>
       <c r="F66" s="76"/>
-      <c r="G66" s="55" t="s">
-        <v>1468</v>
-      </c>
-      <c r="H66" s="154" t="s">
-        <v>1469</v>
-      </c>
+      <c r="G66" s="53" t="s">
+        <v>1359</v>
+      </c>
+      <c r="H66" s="154"/>
     </row>
     <row r="67" spans="1:9" ht="26" x14ac:dyDescent="0.3">
       <c r="A67" s="47">
@@ -15678,64 +15685,66 @@
       </c>
       <c r="F67" s="76"/>
       <c r="G67" s="55" t="s">
-        <v>1471</v>
+        <v>1467</v>
       </c>
       <c r="H67" s="154"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B68" s="164"/>
-      <c r="C68" s="53"/>
-      <c r="D68" s="50"/>
+    <row r="68" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="A68" s="47">
+        <v>11</v>
+      </c>
+      <c r="B68" s="164" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C68" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="D68" s="50">
+        <v>44119</v>
+      </c>
       <c r="E68" s="51">
-        <v>44162</v>
+        <v>44160</v>
       </c>
       <c r="F68" s="76"/>
-      <c r="G68" s="53"/>
-      <c r="H68" s="154"/>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G68" s="55" t="s">
+        <v>1468</v>
+      </c>
+      <c r="H68" s="154" t="s">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="26" x14ac:dyDescent="0.3">
       <c r="A69" s="47">
         <v>11</v>
       </c>
       <c r="B69" s="164" t="s">
-        <v>1019</v>
+        <v>1013</v>
       </c>
       <c r="C69" s="53" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D69" s="50">
-        <v>44134</v>
+        <v>44119</v>
       </c>
       <c r="E69" s="51">
-        <v>44139</v>
-      </c>
-      <c r="F69" s="52"/>
-      <c r="G69" s="53" t="s">
-        <v>1211</v>
-      </c>
-      <c r="H69" s="54"/>
-    </row>
-    <row r="70" spans="1:9" ht="26" x14ac:dyDescent="0.3">
-      <c r="A70" s="78">
-        <v>11</v>
-      </c>
-      <c r="B70" s="164" t="s">
-        <v>1019</v>
-      </c>
-      <c r="C70" s="53" t="s">
-        <v>98</v>
-      </c>
-      <c r="D70" s="50">
-        <v>44134</v>
-      </c>
+        <v>44160</v>
+      </c>
+      <c r="F69" s="76"/>
+      <c r="G69" s="55" t="s">
+        <v>1471</v>
+      </c>
+      <c r="H69" s="154"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B70" s="164"/>
+      <c r="C70" s="53"/>
+      <c r="D70" s="50"/>
       <c r="E70" s="51">
-        <v>44143</v>
-      </c>
-      <c r="F70" s="52"/>
-      <c r="G70" s="55" t="s">
-        <v>1218</v>
-      </c>
-      <c r="H70" s="54"/>
+        <v>44162</v>
+      </c>
+      <c r="F70" s="76"/>
+      <c r="G70" s="53"/>
+      <c r="H70" s="154"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" s="47">
@@ -15751,11 +15760,11 @@
         <v>44134</v>
       </c>
       <c r="E71" s="51">
-        <v>44144</v>
+        <v>44139</v>
       </c>
       <c r="F71" s="52"/>
-      <c r="G71" s="55" t="s">
-        <v>1216</v>
+      <c r="G71" s="53" t="s">
+        <v>1211</v>
       </c>
       <c r="H71" s="54"/>
     </row>
@@ -15773,20 +15782,15 @@
         <v>44134</v>
       </c>
       <c r="E72" s="51">
-        <v>44144</v>
+        <v>44143</v>
       </c>
       <c r="F72" s="52"/>
       <c r="G72" s="55" t="s">
-        <v>1217</v>
-      </c>
-      <c r="H72" s="75" t="s">
-        <v>1012</v>
-      </c>
-      <c r="I72" s="47" t="s">
-        <v>1472</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" ht="65" x14ac:dyDescent="0.3">
+        <v>1218</v>
+      </c>
+      <c r="H72" s="54"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" s="47">
         <v>11</v>
       </c>
@@ -15800,16 +15804,16 @@
         <v>44134</v>
       </c>
       <c r="E73" s="51">
-        <v>44148</v>
+        <v>44144</v>
       </c>
       <c r="F73" s="52"/>
       <c r="G73" s="55" t="s">
-        <v>1406</v>
-      </c>
-      <c r="H73" s="154"/>
+        <v>1216</v>
+      </c>
+      <c r="H73" s="54"/>
     </row>
     <row r="74" spans="1:9" ht="26" x14ac:dyDescent="0.3">
-      <c r="A74" s="47">
+      <c r="A74" s="78">
         <v>11</v>
       </c>
       <c r="B74" s="164" t="s">
@@ -15822,15 +15826,20 @@
         <v>44134</v>
       </c>
       <c r="E74" s="51">
-        <v>44148</v>
+        <v>44144</v>
       </c>
       <c r="F74" s="52"/>
-      <c r="G74" s="176" t="s">
-        <v>1465</v>
-      </c>
-      <c r="H74" s="154"/>
-    </row>
-    <row r="75" spans="1:9" ht="26" x14ac:dyDescent="0.3">
+      <c r="G74" s="55" t="s">
+        <v>1217</v>
+      </c>
+      <c r="H74" s="75" t="s">
+        <v>1012</v>
+      </c>
+      <c r="I74" s="47" t="s">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="65" x14ac:dyDescent="0.3">
       <c r="A75" s="47">
         <v>11</v>
       </c>
@@ -15844,11 +15853,11 @@
         <v>44134</v>
       </c>
       <c r="E75" s="51">
-        <v>44160</v>
+        <v>44148</v>
       </c>
       <c r="F75" s="52"/>
       <c r="G75" s="55" t="s">
-        <v>1470</v>
+        <v>1406</v>
       </c>
       <c r="H75" s="154"/>
     </row>
@@ -15866,128 +15875,126 @@
         <v>44134</v>
       </c>
       <c r="E76" s="51">
-        <v>44160</v>
+        <v>44148</v>
       </c>
       <c r="F76" s="52"/>
       <c r="G76" s="176" t="s">
+        <v>1465</v>
+      </c>
+      <c r="H76" s="154"/>
+    </row>
+    <row r="77" spans="1:9" ht="26" x14ac:dyDescent="0.3">
+      <c r="A77" s="47">
+        <v>11</v>
+      </c>
+      <c r="B77" s="164" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C77" s="53" t="s">
+        <v>98</v>
+      </c>
+      <c r="D77" s="50">
+        <v>44134</v>
+      </c>
+      <c r="E77" s="51">
+        <v>44160</v>
+      </c>
+      <c r="F77" s="52"/>
+      <c r="G77" s="55" t="s">
+        <v>1470</v>
+      </c>
+      <c r="H77" s="154"/>
+    </row>
+    <row r="78" spans="1:9" ht="26" x14ac:dyDescent="0.3">
+      <c r="A78" s="47">
+        <v>11</v>
+      </c>
+      <c r="B78" s="164" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C78" s="53" t="s">
+        <v>98</v>
+      </c>
+      <c r="D78" s="50">
+        <v>44134</v>
+      </c>
+      <c r="E78" s="51">
+        <v>44160</v>
+      </c>
+      <c r="F78" s="52"/>
+      <c r="G78" s="176" t="s">
         <v>1466</v>
       </c>
-      <c r="H76" s="154"/>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B77" s="164"/>
-      <c r="C77" s="53"/>
-      <c r="D77" s="50"/>
-      <c r="E77" s="51">
+      <c r="H78" s="154"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B79" s="164"/>
+      <c r="C79" s="53"/>
+      <c r="D79" s="50"/>
+      <c r="E79" s="51">
         <v>44165</v>
       </c>
-      <c r="F77" s="52"/>
-      <c r="G77" s="177"/>
-      <c r="H77" s="154"/>
-    </row>
-    <row r="78" spans="1:9" ht="39.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="78">
+      <c r="F79" s="52"/>
+      <c r="G79" s="177"/>
+      <c r="H79" s="154"/>
+    </row>
+    <row r="80" spans="1:9" ht="39.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="78">
         <v>12</v>
       </c>
-      <c r="B78" s="164" t="s">
+      <c r="B80" s="164" t="s">
         <v>1020</v>
       </c>
-      <c r="C78" s="53" t="s">
+      <c r="C80" s="53" t="s">
         <v>106</v>
       </c>
-      <c r="D78" s="78"/>
-      <c r="E78" s="80">
+      <c r="D80" s="78"/>
+      <c r="E80" s="80">
         <v>44119</v>
       </c>
-      <c r="F78" s="81">
+      <c r="F80" s="81">
         <v>44121</v>
       </c>
-      <c r="G78" s="71" t="s">
+      <c r="G80" s="71" t="s">
         <v>1021</v>
       </c>
-      <c r="H78" s="54" t="s">
+      <c r="H80" s="54" t="s">
         <v>993</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A79" s="47">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A81" s="47">
         <v>13</v>
       </c>
-      <c r="B79" s="164" t="s">
+      <c r="B81" s="164" t="s">
         <v>1022</v>
       </c>
-      <c r="C79" s="53" t="s">
+      <c r="C81" s="53" t="s">
         <v>106</v>
       </c>
-      <c r="D79" s="50">
+      <c r="D81" s="50">
         <v>44121</v>
       </c>
-      <c r="E79" s="62"/>
-      <c r="F79" s="52"/>
-      <c r="G79" s="53"/>
-      <c r="H79" s="54"/>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A80" s="47">
-        <v>14</v>
-      </c>
-      <c r="B80" s="164" t="s">
-        <v>1023</v>
-      </c>
-      <c r="C80" s="53"/>
-      <c r="E80" s="62"/>
-      <c r="F80" s="52"/>
-      <c r="G80" s="53"/>
-      <c r="H80" s="54"/>
-    </row>
-    <row r="81" spans="1:8" ht="24" x14ac:dyDescent="0.3">
-      <c r="A81" s="56">
-        <v>15</v>
-      </c>
-      <c r="B81" s="164" t="s">
-        <v>1024</v>
-      </c>
-      <c r="C81" s="53" t="s">
-        <v>99</v>
-      </c>
-      <c r="D81" s="50">
-        <v>44126</v>
-      </c>
-      <c r="E81" s="51">
-        <v>44130</v>
-      </c>
+      <c r="E81" s="62"/>
       <c r="F81" s="52"/>
-      <c r="G81" s="53" t="s">
-        <v>1025</v>
-      </c>
-      <c r="H81" s="75" t="s">
-        <v>1012</v>
-      </c>
+      <c r="G81" s="53"/>
+      <c r="H81" s="54"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="47">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B82" s="164" t="s">
-        <v>1024</v>
-      </c>
-      <c r="C82" s="53" t="s">
-        <v>99</v>
-      </c>
-      <c r="D82" s="50">
-        <v>44126</v>
-      </c>
-      <c r="E82" s="51">
-        <v>44130</v>
-      </c>
+        <v>1023</v>
+      </c>
+      <c r="C82" s="53"/>
+      <c r="E82" s="62"/>
       <c r="F82" s="52"/>
-      <c r="G82" s="53" t="s">
-        <v>1026</v>
-      </c>
+      <c r="G82" s="53"/>
       <c r="H82" s="54"/>
     </row>
-    <row r="83" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A83" s="47">
+    <row r="83" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="A83" s="56">
         <v>15</v>
       </c>
       <c r="B83" s="164" t="s">
@@ -16003,60 +16010,62 @@
         <v>44130</v>
       </c>
       <c r="F83" s="52"/>
-      <c r="G83" s="162" t="s">
+      <c r="G83" s="53" t="s">
+        <v>1025</v>
+      </c>
+      <c r="H83" s="75" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A84" s="47">
+        <v>15</v>
+      </c>
+      <c r="B84" s="164" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C84" s="53" t="s">
+        <v>99</v>
+      </c>
+      <c r="D84" s="50">
+        <v>44126</v>
+      </c>
+      <c r="E84" s="51">
+        <v>44130</v>
+      </c>
+      <c r="F84" s="52"/>
+      <c r="G84" s="53" t="s">
+        <v>1026</v>
+      </c>
+      <c r="H84" s="54"/>
+    </row>
+    <row r="85" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A85" s="47">
+        <v>15</v>
+      </c>
+      <c r="B85" s="164" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C85" s="53" t="s">
+        <v>99</v>
+      </c>
+      <c r="D85" s="50">
+        <v>44126</v>
+      </c>
+      <c r="E85" s="51">
+        <v>44130</v>
+      </c>
+      <c r="F85" s="52"/>
+      <c r="G85" s="162" t="s">
         <v>1027</v>
       </c>
-      <c r="H83" s="83" t="s">
+      <c r="H85" s="83" t="s">
         <v>995</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" ht="26" x14ac:dyDescent="0.3">
-      <c r="A84" s="47">
-        <v>16</v>
-      </c>
-      <c r="B84" s="164" t="s">
-        <v>1028</v>
-      </c>
-      <c r="C84" s="53" t="s">
-        <v>98</v>
-      </c>
-      <c r="D84" s="50">
-        <v>44127</v>
-      </c>
-      <c r="E84" s="62"/>
-      <c r="F84" s="63">
-        <v>44134</v>
-      </c>
-      <c r="G84" s="53" t="s">
-        <v>1029</v>
-      </c>
-      <c r="H84" s="54"/>
-    </row>
-    <row r="85" spans="1:8" ht="26" x14ac:dyDescent="0.3">
-      <c r="A85" s="47">
-        <v>16</v>
-      </c>
-      <c r="B85" s="164" t="s">
-        <v>1028</v>
-      </c>
-      <c r="C85" s="53" t="s">
-        <v>1030</v>
-      </c>
-      <c r="D85" s="50">
-        <v>44127</v>
-      </c>
-      <c r="E85" s="62"/>
-      <c r="F85" s="63">
-        <v>44134</v>
-      </c>
-      <c r="G85" s="53" t="s">
-        <v>1031</v>
-      </c>
-      <c r="H85" s="54"/>
     </row>
     <row r="86" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A86" s="47">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B86" s="164" t="s">
         <v>1028</v>
@@ -16071,56 +16080,56 @@
       <c r="F86" s="63">
         <v>44134</v>
       </c>
-      <c r="G86" s="55" t="s">
-        <v>1032</v>
-      </c>
-      <c r="H86" s="83" t="s">
-        <v>995</v>
-      </c>
+      <c r="G86" s="53" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H86" s="54"/>
     </row>
     <row r="87" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A87" s="47">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B87" s="164" t="s">
-        <v>1201</v>
+        <v>1028</v>
       </c>
       <c r="C87" s="53" t="s">
-        <v>104</v>
+        <v>1030</v>
       </c>
       <c r="D87" s="50">
-        <v>44147</v>
-      </c>
-      <c r="E87" s="50">
-        <v>44149</v>
-      </c>
-      <c r="F87" s="52"/>
+        <v>44127</v>
+      </c>
+      <c r="E87" s="62"/>
+      <c r="F87" s="63">
+        <v>44134</v>
+      </c>
       <c r="G87" s="53" t="s">
-        <v>1401</v>
+        <v>1031</v>
       </c>
       <c r="H87" s="54"/>
     </row>
-    <row r="88" spans="1:8" ht="26.5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A88" s="47">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B88" s="164" t="s">
-        <v>1201</v>
+        <v>1028</v>
       </c>
       <c r="C88" s="53" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D88" s="50">
-        <v>44147</v>
-      </c>
-      <c r="E88" s="50">
-        <v>44149</v>
-      </c>
-      <c r="F88" s="52"/>
-      <c r="G88" s="162" t="s">
-        <v>1402</v>
-      </c>
-      <c r="H88" s="54"/>
+        <v>44127</v>
+      </c>
+      <c r="E88" s="62"/>
+      <c r="F88" s="63">
+        <v>44134</v>
+      </c>
+      <c r="G88" s="55" t="s">
+        <v>1032</v>
+      </c>
+      <c r="H88" s="83" t="s">
+        <v>995</v>
+      </c>
     </row>
     <row r="89" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A89" s="47">
@@ -16140,17 +16149,53 @@
       </c>
       <c r="F89" s="52"/>
       <c r="G89" s="53" t="s">
+        <v>1401</v>
+      </c>
+      <c r="H89" s="54"/>
+    </row>
+    <row r="90" spans="1:8" ht="26.5" x14ac:dyDescent="0.35">
+      <c r="A90" s="47">
+        <v>18</v>
+      </c>
+      <c r="B90" s="164" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C90" s="53" t="s">
+        <v>104</v>
+      </c>
+      <c r="D90" s="50">
+        <v>44147</v>
+      </c>
+      <c r="E90" s="50">
+        <v>44149</v>
+      </c>
+      <c r="F90" s="52"/>
+      <c r="G90" s="162" t="s">
+        <v>1402</v>
+      </c>
+      <c r="H90" s="54"/>
+    </row>
+    <row r="91" spans="1:8" ht="26" x14ac:dyDescent="0.3">
+      <c r="A91" s="47">
+        <v>18</v>
+      </c>
+      <c r="B91" s="164" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C91" s="53" t="s">
+        <v>104</v>
+      </c>
+      <c r="D91" s="50">
+        <v>44147</v>
+      </c>
+      <c r="E91" s="50">
+        <v>44149</v>
+      </c>
+      <c r="F91" s="52"/>
+      <c r="G91" s="53" t="s">
         <v>1403</v>
       </c>
-      <c r="H89" s="54"/>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B90" s="94"/>
-      <c r="C90" s="95"/>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B91" s="94"/>
-      <c r="C91" s="95"/>
+      <c r="H91" s="54"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B92" s="94"/>
@@ -16164,11 +16209,19 @@
       <c r="B94" s="94"/>
       <c r="C94" s="95"/>
     </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B95" s="94"/>
+      <c r="C95" s="95"/>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B96" s="94"/>
+      <c r="C96" s="95"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G88" r:id="rId1" xr:uid="{DFB074CA-CC8F-41A9-8DF1-2639D1856184}"/>
-    <hyperlink ref="G83" r:id="rId2" xr:uid="{05A2BA4A-338B-4D70-AC2B-871852F50142}"/>
+    <hyperlink ref="G90" r:id="rId1" xr:uid="{DFB074CA-CC8F-41A9-8DF1-2639D1856184}"/>
+    <hyperlink ref="G85" r:id="rId2" xr:uid="{05A2BA4A-338B-4D70-AC2B-871852F50142}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -26999,7 +27052,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="12" spans="2:21" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:21" ht="24" x14ac:dyDescent="0.35">
       <c r="B12" s="27" t="s">
         <v>5</v>
       </c>
@@ -27050,7 +27103,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="13" spans="2:21" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:21" ht="24" x14ac:dyDescent="0.35">
       <c r="B13" s="27" t="s">
         <v>5</v>
       </c>
@@ -27099,7 +27152,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="14" spans="2:21" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:21" ht="24" x14ac:dyDescent="0.35">
       <c r="B14" s="27" t="s">
         <v>5</v>
       </c>
@@ -27148,7 +27201,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="15" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B15" s="27" t="s">
         <v>5</v>
       </c>
@@ -27197,7 +27250,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="16" spans="2:21" ht="20.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:21" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="27" t="s">
         <v>5</v>
       </c>
@@ -28555,7 +28608,7 @@
         <v>44167</v>
       </c>
     </row>
-    <row r="43" spans="2:21" ht="24" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:21" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B43" s="27" t="s">
         <v>13</v>
       </c>
@@ -28606,7 +28659,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="44" spans="2:21" ht="24" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:21" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B44" s="27" t="s">
         <v>13</v>
       </c>
@@ -28655,7 +28708,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="B45" s="27" t="s">
         <v>13</v>
       </c>
@@ -28710,7 +28763,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="46" spans="2:21" ht="24" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:21" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B46" s="27" t="s">
         <v>13</v>
       </c>
@@ -28763,7 +28816,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="47" spans="2:21" ht="24" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:21" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B47" s="27" t="s">
         <v>13</v>
       </c>
@@ -28812,7 +28865,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="48" spans="2:21" ht="24" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:21" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B48" s="27" t="s">
         <v>13</v>
       </c>
@@ -28861,7 +28914,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="49" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="B49" s="27" t="s">
         <v>13</v>
       </c>
@@ -28910,7 +28963,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="50" spans="2:21" ht="24" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:21" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B50" s="27" t="s">
         <v>13</v>
       </c>
@@ -28959,7 +29012,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="51" spans="2:21" ht="24" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:21" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B51" s="27" t="s">
         <v>13</v>
       </c>
@@ -30772,7 +30825,7 @@
       <c r="T92" s="40"/>
       <c r="U92" s="40"/>
     </row>
-    <row r="93" spans="2:21" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:21" ht="24" x14ac:dyDescent="0.35">
       <c r="B93" s="27" t="s">
         <v>5</v>
       </c>
@@ -30811,7 +30864,7 @@
       <c r="T93" s="40"/>
       <c r="U93" s="40"/>
     </row>
-    <row r="94" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B94" s="27" t="s">
         <v>5</v>
       </c>
@@ -30850,7 +30903,7 @@
       <c r="T94" s="40"/>
       <c r="U94" s="40"/>
     </row>
-    <row r="95" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B95" s="27" t="s">
         <v>5</v>
       </c>
@@ -30889,7 +30942,7 @@
       <c r="T95" s="40"/>
       <c r="U95" s="40"/>
     </row>
-    <row r="96" spans="2:21" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:21" ht="24" x14ac:dyDescent="0.35">
       <c r="B96" s="27" t="s">
         <v>5</v>
       </c>
@@ -30928,7 +30981,7 @@
       <c r="T96" s="40"/>
       <c r="U96" s="40"/>
     </row>
-    <row r="97" spans="2:21" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:21" ht="24" x14ac:dyDescent="0.35">
       <c r="B97" s="27" t="s">
         <v>5</v>
       </c>
@@ -30967,7 +31020,7 @@
       <c r="T97" s="40"/>
       <c r="U97" s="40"/>
     </row>
-    <row r="98" spans="2:21" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:21" ht="24" x14ac:dyDescent="0.35">
       <c r="B98" s="27" t="s">
         <v>5</v>
       </c>
@@ -31174,7 +31227,7 @@
       <c r="T102" s="40"/>
       <c r="U102" s="40"/>
     </row>
-    <row r="103" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B103" s="27" t="s">
         <v>5</v>
       </c>
@@ -31213,7 +31266,7 @@
       <c r="T103" s="40"/>
       <c r="U103" s="40"/>
     </row>
-    <row r="104" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B104" s="27" t="s">
         <v>5</v>
       </c>
@@ -31826,11 +31879,11 @@
   <dimension ref="A6:BE97"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="7" ySplit="7" topLeftCell="AR39" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="7" topLeftCell="H8" activePane="bottomRight" state="frozen"/>
       <selection activeCell="J19" sqref="J19"/>
       <selection pane="topRight" activeCell="J19" sqref="J19"/>
       <selection pane="bottomLeft" activeCell="J19" sqref="J19"/>
-      <selection pane="bottomRight" activeCell="BE39" sqref="BE39"/>
+      <selection pane="bottomRight" activeCell="G99" sqref="G99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -35931,7 +35984,7 @@
       <c r="BD38" s="7"/>
       <c r="BE38" s="7"/>
     </row>
-    <row r="39" spans="1:57" ht="77.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:57" ht="77.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="42" t="str">
         <f>+VLOOKUP(D39,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0012</v>
@@ -36087,7 +36140,7 @@
         <v>1571</v>
       </c>
     </row>
-    <row r="40" spans="1:57" ht="61" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:57" ht="61" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="str">
         <f>+VLOOKUP(D40,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0003</v>
@@ -36212,7 +36265,7 @@
         <v>1483</v>
       </c>
     </row>
-    <row r="41" spans="1:57" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:57" ht="29" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="str">
         <f>+VLOOKUP(D41,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0003</v>
@@ -36313,7 +36366,7 @@
       <c r="BD41" s="7"/>
       <c r="BE41" s="7"/>
     </row>
-    <row r="42" spans="1:57" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:57" ht="24" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="str">
         <f>+VLOOKUP(D42,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0003</v>
@@ -39194,7 +39247,7 @@
       <c r="BD66" s="7"/>
       <c r="BE66" s="7"/>
     </row>
-    <row r="67" spans="1:57" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:57" ht="24" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="str">
         <f>+VLOOKUP(D67,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0003</v>
@@ -39295,7 +39348,7 @@
       <c r="BD67" s="7"/>
       <c r="BE67" s="7"/>
     </row>
-    <row r="68" spans="1:57" ht="85" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:57" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="str">
         <f>+VLOOKUP(D68,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0003</v>
@@ -39415,7 +39468,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="69" spans="1:57" ht="91" hidden="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:57" ht="91" x14ac:dyDescent="0.35">
       <c r="A69" s="42" t="str">
         <f>+VLOOKUP(D69,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0003</v>
@@ -39540,7 +39593,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="70" spans="1:57" ht="65" hidden="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:57" ht="65" x14ac:dyDescent="0.35">
       <c r="A70" s="42" t="str">
         <f>+VLOOKUP(D70,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0003</v>
@@ -39663,7 +39716,7 @@
       </c>
       <c r="BE70" s="7"/>
     </row>
-    <row r="71" spans="1:57" ht="52" hidden="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:57" ht="52" x14ac:dyDescent="0.35">
       <c r="A71" s="42" t="str">
         <f>+VLOOKUP(D71,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0003</v>
@@ -39786,7 +39839,7 @@
       </c>
       <c r="BE71" s="7"/>
     </row>
-    <row r="72" spans="1:57" ht="65" hidden="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:57" ht="65" x14ac:dyDescent="0.35">
       <c r="A72" s="42" t="str">
         <f>+VLOOKUP(D72,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0003</v>
@@ -39909,7 +39962,7 @@
       </c>
       <c r="BE72" s="7"/>
     </row>
-    <row r="73" spans="1:57" ht="78" hidden="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:57" ht="78" x14ac:dyDescent="0.35">
       <c r="A73" s="42" t="str">
         <f>+VLOOKUP(D73,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0003</v>
@@ -40032,7 +40085,7 @@
       </c>
       <c r="BE73" s="7"/>
     </row>
-    <row r="74" spans="1:57" ht="78" hidden="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:57" ht="78" x14ac:dyDescent="0.35">
       <c r="A74" s="42" t="str">
         <f>+VLOOKUP(D74,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0003</v>
@@ -40506,7 +40559,7 @@
       <c r="BD77" s="7"/>
       <c r="BE77" s="7"/>
     </row>
-    <row r="78" spans="1:57" ht="26" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:57" ht="26" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="42" t="str">
         <f>+VLOOKUP(D78,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0003</v>
@@ -40607,7 +40660,7 @@
       <c r="BD78" s="7"/>
       <c r="BE78" s="7"/>
     </row>
-    <row r="79" spans="1:57" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:57" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="42" t="str">
         <f>+VLOOKUP(D79,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0003</v>

--- a/Monitoreo DI.xlsx
+++ b/Monitoreo DI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karen\Dropbox\DI Monitoreo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ED9E5FF-C811-4745-B3B6-3F8175C8DB24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B41A3619-A3CE-44D1-B74C-133426AA335F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="833" firstSheet="2" activeTab="2" xr2:uid="{F0BF9B96-FFF4-4E12-841F-9553B6E1990E}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="833" firstSheet="2" activeTab="12" xr2:uid="{F0BF9B96-FFF4-4E12-841F-9553B6E1990E}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA`S" sheetId="1" r:id="rId1"/>
@@ -124,7 +124,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6625" uniqueCount="1637">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6682" uniqueCount="1662">
   <si>
     <t>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/DATASALUD.svg</t>
   </si>
@@ -5857,9 +5857,6 @@
     <t>Está la información lista, falta definir cómo presentarla, porque es más bien texto.</t>
   </si>
   <si>
-    <t>Avance del cáncer cervicouterino (2011-2018)</t>
-  </si>
-  <si>
     <t>Salud 24/7</t>
   </si>
   <si>
@@ -5939,32 +5936,6 @@
   </si>
   <si>
     <t>#empresas #comuna #economia #comercio #trabajadores #dependientes #trabajo #territorio #desarrollo #tamaño #grandes #mediana #pequeñas #micro #pymes #empleo #poblacion #contribuyente #rubro #sin #venta</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Empresas registradas en el SII </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">es una herramienta que presenta información de empresas activas a nivel nacional, regional y comunal. Incluye información respecto al número de trabajadores dependientes, número de empresas, tamaño de cada empresa y población de cada territorio asociado. </t>
-    </r>
-  </si>
-  <si>
-    <t>Servicio de Impuestos Internos</t>
   </si>
   <si>
     <t>SII - Estadísticas de empresas</t>
@@ -6053,9 +6024,6 @@
     <t>AGROSTAT - Incendios Forestales</t>
   </si>
   <si>
-    <t>AGROSTAT - Estadísticas de Incendios Forestales</t>
-  </si>
-  <si>
     <t>https://app.powerbi.com/view?r=eyJrIjoiYzA5ZGEzNGUtYWRmNS00ZmJhLWFhNWItYmU1OGViNDVhNzk2IiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9</t>
   </si>
   <si>
@@ -6071,12 +6039,6 @@
     <t>Publicado. Faltaría Integrar a Odoo. Ficha lista, falta actualizarla en shopify.</t>
   </si>
   <si>
-    <t>Instituto Nacional de Estadisticas - Censo 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Instituto Nacional de Estadística Guatemala </t>
-  </si>
-  <si>
     <t>22 Comunidades Lingüísticas de Guatemala</t>
   </si>
   <si>
@@ -6087,9 +6049,6 @@
   </si>
   <si>
     <t>Departamento de Estadística e Información de Salud (DEIS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FARMANET, </t>
   </si>
   <si>
     <t xml:space="preserve">#nacimientos #defunciones #edad #sexo #hombre #mujer #recien #nacido #madre #proporcion #porcentaje </t>
@@ -6501,6 +6460,221 @@
   <si>
     <t>Plataforma de Análisis y Monitoreo del Clima</t>
   </si>
+  <si>
+    <t xml:space="preserve">En el periodo  comprendido entre los años 2010 y 2020 se han producido 10.843 incendios forestales en la región de La Araucanía, estimandose un promedio de 16,6 ha afectadas por incendio. De esta superficie 72.185 ha corresponde a Vegetación Natural y 66.475 ha a plantaciones forestales. </t>
+  </si>
+  <si>
+    <t>YA TIENE</t>
+  </si>
+  <si>
+    <t>Información general y geolocalización de centros de atención de urgencia ambulatoria y hospitalaria,  y de las farmacias de turno. La información entregada se basa en los datos obtenidos desde la pagina web del DEIS, Ministerio de Salud Chile: https://deis.minsal.cl/</t>
+  </si>
+  <si>
+    <t>Causas y consecuencias de los incendios forestales en Chile. Región de la Araucanía</t>
+  </si>
+  <si>
+    <t>Resultados históricos Papanicolau (2011-2018)</t>
+  </si>
+  <si>
+    <t>El Ranking de Gestión Municipal aborda los principales temas de gestión municipal, medidos a través de 31 indicadores clasificados en 6 índices: participación ciudadana, información a la ciudadanía, servicios públicos, gestión administrativa, financiera y estratégica. La información presentada se basa en los datos entregados por la Secretaría de Planificación y Programación de la Presidencia de Guatemala www.segeplan.gob.gt</t>
+  </si>
+  <si>
+    <t>Todos los departamentos de Honduras</t>
+  </si>
+  <si>
+    <t>Desktop/Laptop, Tablet</t>
+  </si>
+  <si>
+    <t>Diaria</t>
+  </si>
+  <si>
+    <t>Mapas, tableros interactivos, gráficos, glosario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Te imaginas tener al alcance de tu mano datos climáticos provenientes de imágenes satelitales integradas fácilmente en una plataforma flexible y accesible desde cualquier lugar? A través de esta herramienta podrás construir tus propios análisis automatizados, aplicando tecnologías de procesamiento derivadas de imágenes de detección remota. Diseñada para tomadores de decisiones en diferentes rubros como agricultura, ganadería, gestión de riesgos naturales, planificación territorial, entre otros. </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">La </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Plataforma de Análisis y Monitoreo del Clima</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> permite emplear tecnologías de inteligencia artificial para extraer información referentes a precipitación, temperatura, evapotranspiración, humedad relativa, viento, entre otros, generando análisis y reportes valiosos desde diferentes imágenes satelitales para distintas escalas temporales y espaciales. Está construida con una serie de algoritmos especializados que la convierten en una plataforma confiable y completamente autónoma para recibir, procesar y analizar variables climáticas derivadas de imágenes procesadas 24/7.  </t>
+    </r>
+  </si>
+  <si>
+    <t>¿Necesitas generar alertas de fuego georeferenciadas en tiempo real o analizar diferentes series de tiempo histórico sobre recurrencia de incendios forestales y quemas agrícolas? Con esta plataforma podrás cuantificar y geoespacializar un período histórico de incendios y por supuesto monitorear la presencia de un incendio en tiempo real. Herramienta fundamental para tomadores de decisiones que deben definir objetivos y metas de planificación sobre incendios y paisajes, así como políticas nacionales o regionales sobre manejo de incendios forestales y estrategias de restauración de bosques saludables.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">La </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Plataforma de Análisis y Monitoreo de focos de Fuego</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> es una herramienta para el monitoreo y la planificación del manejo de incendios en diferentes ecosistemas. Con esta herramienta podrás conocer los regímenes históricos de incendios y las condiciones de la vegetación.</t>
+    </r>
+  </si>
+  <si>
+    <t>#incendios #quema #temperatura #alerta #area #quemada #foco #fuego #indice #vegetacion #elevacion #pendiente #fecha</t>
+  </si>
+  <si>
+    <t>Instituto Nacional de Estadisticas (INE) - Censo 2018 / Academia de Lenguas Mayas de Guatemala (ALMG)</t>
+  </si>
+  <si>
+    <t>Instituto Nacional de Estadisticas (INE) - Censo 2018</t>
+  </si>
+  <si>
+    <t>Instituto Nacional de Estadística (INE) Guatemala / Academia de Lenguas Mayas de Guatemala (ALMG)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Instituto Nacional de Estadística (INE) Guatemala </t>
+  </si>
+  <si>
+    <r>
+      <t>La</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Plataforma de Análisis y Monitoreo del Clima</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> es una herramienta que permite el procesamiento de datos climáticos en tiempo real e histórico y brinda una solución única para la obtención de datos referentes a precipitación, temperatura, evapotranspiración, humedad relativa, viento, entre otros. Con esta herramienta podrás desarrollar modelos y análisis climáticos para diferentes escalas territoriales y temporales.
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>La</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Plataforma de Análisis y Monitoreo de focos de Fuego</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> utiliza algoritmos asociados a índices de vegetación sensible a la quema de la vegetación para crear umbrales dinámicos, permitiendo así el mapeo de áreas quemadas mediante imágenes satelitales. Con esta herramienta se puede identificar la fecha en la cual ocurrió el incendio o la quema y además generar una serie de reportes históricos para diferentes intervalos de tiempo, obteniendo datos relacionados con la temperatura y área del fuego.
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Earth Data - NASA - U.S. Geological Survey</t>
+  </si>
+  <si>
+    <t>Climate Hazards Center - UC Santa Barbara - Earth Data - NASA - U.S. Geological Survey - GES DISC -  NOAA</t>
+  </si>
+  <si>
+    <t>chc.ucsb.edu
+lpdaac.usgs.gov
+disc.gsfc.nasa.gov
+ncdc.noaa.gov</t>
+  </si>
+  <si>
+    <t>earthdata.nasa.gov
+lpdaac.usgs.gov</t>
+  </si>
+  <si>
+    <t>#clima #ETP #temperatura #precipitacion #humedad #relativa #velocidad #viento #elevacion #pendiente #escenarios #climaticos #nubosidad #dinamica #pronostico #evapotranspiracion #potencial #fecha</t>
+  </si>
+  <si>
+    <t>Acumulado a 2019</t>
+  </si>
+  <si>
+    <t>Servicio de Impuestos Internos (SII)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Registro de Empresas </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">es una herramienta que presenta información de empresas activas a nivel nacional, regional y comunal. Incluye información respecto al número de trabajadores dependientes, número de empresas, tamaño de cada empresa y población de cada territorio asociado. </t>
+    </r>
+  </si>
+  <si>
+    <t>Del total de empresas regitradas en el SII, más de la mitad corresponde a microempresas, alcanzando las 274.587 empresas, que tan sólo en la región metropolitana dan empleo a más de 225.000 personas.  
+En este Regitro de Empresas podrás conocer la distribución de empresas según su clasificación, así como la proporción de empleados contratados, para diferentes escalas territoriales. Información basada en los datos entregados en: https://homer.sii.cl/</t>
+  </si>
+  <si>
+    <t>FARMANET - Departamento de Estadística e Información de Salud (DEIS)</t>
+  </si>
+  <si>
+    <t>Sin actualizaciones. En el mes de octubre se lanza nueva versión del producto.</t>
+  </si>
 </sst>
 </file>
 
@@ -6510,7 +6684,7 @@
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
     <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6656,6 +6830,13 @@
     <font>
       <sz val="9"/>
       <color rgb="FF00B0F0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -6982,7 +7163,7 @@
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="205">
+  <cellXfs count="209">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -7539,9 +7720,6 @@
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -7550,6 +7728,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
@@ -7557,194 +7750,6 @@
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="214">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="7" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF7030A0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="7" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF7030A0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="7" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF7030A0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="7" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF7030A0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -10276,6 +10281,194 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="2" tint="-0.749961851863155"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF7030A0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="2" tint="-0.749961851863155"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF7030A0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="2" tint="-0.749961851863155"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF7030A0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="2" tint="-0.749961851863155"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF7030A0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -13531,7 +13724,7 @@
 
 <file path=xl/slicers/slicer2.xml><?xml version="1.0" encoding="utf-8"?>
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
-  <slicer name="Data" xr10:uid="{DC5B16C7-0AA8-4789-BE46-CC500A0CE2D1}" cache="SegmentaciónDeDatos_Data" caption="Data" columnCount="2" rowHeight="234950"/>
+  <slicer name="Data" xr10:uid="{DC5B16C7-0AA8-4789-BE46-CC500A0CE2D1}" cache="SegmentaciónDeDatos_Data" caption="Data" startItem="2" columnCount="2" rowHeight="234950"/>
   <slicer name="Estado" xr10:uid="{B5CDA16E-1F84-4290-AEF3-96C65DB4DD5A}" cache="SegmentaciónDeDatos_Estado" caption="Estado" columnCount="2" rowHeight="234950"/>
   <slicer name="Responsable Desarrollo" xr10:uid="{5F85B909-3D60-4494-A859-CB65DDAD43F0}" cache="SegmentaciónDeDatos_Responsable_Desarrollo" caption="Responsable Desarrollo" columnCount="3" rowHeight="234950"/>
   <slicer name="Responsable Información" xr10:uid="{1509BA93-0D1C-489B-BEEE-3640ADE75D86}" cache="SegmentaciónDeDatos_Responsable_Información" caption="Responsable Información" columnCount="4" rowHeight="234950"/>
@@ -13574,7 +13767,7 @@
 
 <file path=xl/slicers/slicer7.xml><?xml version="1.0" encoding="utf-8"?>
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
-  <slicer name="Data 2" xr10:uid="{80951101-2A2B-4B15-9E33-78D3A7E8B5B0}" cache="SegmentaciónDeDatos_Data2" caption="Data" startItem="4" columnCount="2" style="SlicerStyleDark5" rowHeight="234950"/>
+  <slicer name="Data 2" xr10:uid="{80951101-2A2B-4B15-9E33-78D3A7E8B5B0}" cache="SegmentaciónDeDatos_Data2" caption="Data" startItem="14" columnCount="2" style="SlicerStyleDark5" rowHeight="234950"/>
   <slicer name="País" xr10:uid="{75A217B5-277A-4B68-8268-AEA4271B985B}" cache="SegmentaciónDeDatos_País" caption="País" style="SlicerStyleDark5" rowHeight="234950"/>
   <slicer name="Estado 2" xr10:uid="{271E2C58-B673-4F76-A62E-46B7337EB1E5}" cache="SegmentaciónDeDatos_Estado2" caption="Estado" style="SlicerStyleDark6" rowHeight="234950"/>
   <slicer name="Avance [0-100%]" xr10:uid="{3E416F9C-0DF4-4E82-9BCC-0ABC5F831734}" cache="SegmentaciónDeDatos_Avance__0_100" caption="Avance [0-100%]" columnCount="3" style="SlicerStyleDark5" rowHeight="234950"/>
@@ -13609,87 +13802,93 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{07333795-F402-425E-9AC7-1C17203C211E}" name="BORRADOR_PRODUCTOS" displayName="BORRADOR_PRODUCTOS" ref="B11:U116" totalsRowShown="0" headerRowDxfId="45" tableBorderDxfId="44">
-  <autoFilter ref="B11:U116" xr:uid="{488C7ADA-DF10-4033-BE01-B6478A789716}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{07333795-F402-425E-9AC7-1C17203C211E}" name="BORRADOR_PRODUCTOS" displayName="BORRADOR_PRODUCTOS" ref="B11:U116" totalsRowShown="0" headerRowDxfId="21" tableBorderDxfId="20">
+  <autoFilter ref="B11:U116" xr:uid="{488C7ADA-DF10-4033-BE01-B6478A789716}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="DATARIESGO"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B12:U64">
     <sortCondition ref="B12:B64"/>
     <sortCondition ref="D12:D64"/>
   </sortState>
   <tableColumns count="20">
-    <tableColumn id="1" xr3:uid="{229DCB04-6969-4E62-A149-FB9E3CAE5BF4}" name="Data" dataDxfId="43"/>
-    <tableColumn id="2" xr3:uid="{CD34A55D-D0AD-4B52-8194-AFDE7E5C6050}" name="Producto Previos" dataDxfId="42"/>
-    <tableColumn id="3" xr3:uid="{4029C438-04CA-46F0-B968-E3D862055C27}" name="Secuencia (dentro DATA)" dataDxfId="41"/>
-    <tableColumn id="4" xr3:uid="{9842277F-498F-4399-B9E9-AE2739193ABA}" name="País" dataDxfId="40"/>
-    <tableColumn id="5" xr3:uid="{ED853D5F-1B7C-4052-B0FE-5337CC52FC4D}" name="Integrado en PRODUCTOS? [SI/NO]" dataDxfId="39"/>
-    <tableColumn id="15" xr3:uid="{8D63376D-2407-4CF9-A0F9-4552C9649833}" name="id_producto" dataDxfId="38"/>
-    <tableColumn id="6" xr3:uid="{14D31B75-8E88-42FB-BB27-6BB36C1418D0}" name="Prioridad [1-9]" dataDxfId="37"/>
-    <tableColumn id="7" xr3:uid="{679658E8-A980-4528-82C7-F19E24336030}" name="Estado" dataDxfId="36"/>
-    <tableColumn id="8" xr3:uid="{2EF6A42B-DFA0-4FE7-A1E1-2E79F580EB12}" name="Avance [0-100%]" dataDxfId="35" dataCellStyle="Porcentaje"/>
-    <tableColumn id="9" xr3:uid="{40541782-CDD5-4622-B1C1-C97D63A0C9AA}" name="Responsable Desarrollo" dataDxfId="34"/>
-    <tableColumn id="10" xr3:uid="{3B543DE3-BF65-4BD9-9932-28271C56E4C6}" name="Responsable Información" dataDxfId="33"/>
-    <tableColumn id="16" xr3:uid="{394FD602-B6E0-4BBA-A4D5-D38FD9373C7C}" name="Tecnología" dataDxfId="32"/>
-    <tableColumn id="11" xr3:uid="{DAB3B04F-F977-4413-A23F-4094B552D30E}" name="Tareas/Elementos / Observaciones" dataDxfId="31"/>
-    <tableColumn id="17" xr3:uid="{7A213F94-93FA-435F-9C96-175D8DD787F5}" name="BD " dataDxfId="30"/>
-    <tableColumn id="18" xr3:uid="{59E5F4A3-0FF3-4774-967F-4A177D031C00}" name="Plataforma" dataDxfId="29"/>
-    <tableColumn id="19" xr3:uid="{36C4BF2F-DF1D-4D05-A90F-79F125B03FD2}" name="Control Calidad" dataDxfId="28"/>
-    <tableColumn id="21" xr3:uid="{3BE542C7-8C82-454D-A6C1-7F2AAB4343DE}" name="Odoo" dataDxfId="27"/>
-    <tableColumn id="20" xr3:uid="{C1FC94FF-E933-4906-94F4-ED73D29773EE}" name="Shopify" dataDxfId="26"/>
-    <tableColumn id="13" xr3:uid="{BBACA7B7-AF7E-4714-A44E-1572587CA1A4}" name="Fecha estimada" dataDxfId="25"/>
-    <tableColumn id="14" xr3:uid="{3D3E6850-E86A-4D4E-99C6-7FEB6D12B271}" name="Fecha Actualización [de esta info]" dataDxfId="24"/>
+    <tableColumn id="1" xr3:uid="{229DCB04-6969-4E62-A149-FB9E3CAE5BF4}" name="Data" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{CD34A55D-D0AD-4B52-8194-AFDE7E5C6050}" name="Producto Previos" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{4029C438-04CA-46F0-B968-E3D862055C27}" name="Secuencia (dentro DATA)" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{9842277F-498F-4399-B9E9-AE2739193ABA}" name="País" dataDxfId="16"/>
+    <tableColumn id="5" xr3:uid="{ED853D5F-1B7C-4052-B0FE-5337CC52FC4D}" name="Integrado en PRODUCTOS? [SI/NO]" dataDxfId="15"/>
+    <tableColumn id="15" xr3:uid="{8D63376D-2407-4CF9-A0F9-4552C9649833}" name="id_producto" dataDxfId="14"/>
+    <tableColumn id="6" xr3:uid="{14D31B75-8E88-42FB-BB27-6BB36C1418D0}" name="Prioridad [1-9]" dataDxfId="13"/>
+    <tableColumn id="7" xr3:uid="{679658E8-A980-4528-82C7-F19E24336030}" name="Estado" dataDxfId="12"/>
+    <tableColumn id="8" xr3:uid="{2EF6A42B-DFA0-4FE7-A1E1-2E79F580EB12}" name="Avance [0-100%]" dataDxfId="11" dataCellStyle="Porcentaje"/>
+    <tableColumn id="9" xr3:uid="{40541782-CDD5-4622-B1C1-C97D63A0C9AA}" name="Responsable Desarrollo" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{3B543DE3-BF65-4BD9-9932-28271C56E4C6}" name="Responsable Información" dataDxfId="9"/>
+    <tableColumn id="16" xr3:uid="{394FD602-B6E0-4BBA-A4D5-D38FD9373C7C}" name="Tecnología" dataDxfId="8"/>
+    <tableColumn id="11" xr3:uid="{DAB3B04F-F977-4413-A23F-4094B552D30E}" name="Tareas/Elementos / Observaciones" dataDxfId="7"/>
+    <tableColumn id="17" xr3:uid="{7A213F94-93FA-435F-9C96-175D8DD787F5}" name="BD " dataDxfId="6"/>
+    <tableColumn id="18" xr3:uid="{59E5F4A3-0FF3-4774-967F-4A177D031C00}" name="Plataforma" dataDxfId="5"/>
+    <tableColumn id="19" xr3:uid="{36C4BF2F-DF1D-4D05-A90F-79F125B03FD2}" name="Control Calidad" dataDxfId="4"/>
+    <tableColumn id="21" xr3:uid="{3BE542C7-8C82-454D-A6C1-7F2AAB4343DE}" name="Odoo" dataDxfId="3"/>
+    <tableColumn id="20" xr3:uid="{C1FC94FF-E933-4906-94F4-ED73D29773EE}" name="Shopify" dataDxfId="2"/>
+    <tableColumn id="13" xr3:uid="{BBACA7B7-AF7E-4714-A44E-1572587CA1A4}" name="Fecha estimada" dataDxfId="1"/>
+    <tableColumn id="14" xr3:uid="{3D3E6850-E86A-4D4E-99C6-7FEB6D12B271}" name="Fecha Actualización [de esta info]" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B0304927-521B-4559-963B-3C591C746F11}" name="PRODUCTOS" displayName="PRODUCTOS" ref="A7:BF99" totalsRowShown="0" headerRowDxfId="200">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B0304927-521B-4559-963B-3C591C746F11}" name="PRODUCTOS" displayName="PRODUCTOS" ref="A7:BF99" totalsRowShown="0" headerRowDxfId="176">
   <autoFilter ref="A7:BF99" xr:uid="{B45D9B6D-7E6E-4374-A7A8-688EAA2C002B}"/>
   <tableColumns count="58">
-    <tableColumn id="1" xr3:uid="{01CFB9DB-FBAD-4A9E-9D8F-5FB3EB42A9EB}" name="id_data" dataDxfId="199" totalsRowDxfId="198">
+    <tableColumn id="1" xr3:uid="{01CFB9DB-FBAD-4A9E-9D8F-5FB3EB42A9EB}" name="id_data" dataDxfId="175" totalsRowDxfId="174">
       <calculatedColumnFormula>+VLOOKUP(D8,'DATA`S'!$B$8:$C$34,2,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="31" xr3:uid="{296D6B07-CE01-4CBF-8413-B4A08E3AF372}" name="id_pais" dataDxfId="197" totalsRowDxfId="196">
+    <tableColumn id="31" xr3:uid="{296D6B07-CE01-4CBF-8413-B4A08E3AF372}" name="id_pais" dataDxfId="173" totalsRowDxfId="172">
       <calculatedColumnFormula>VLOOKUP(PRODUCTOS[[#This Row],[País]],PAISES!$B$4:$C$12,2,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{07061539-DFF5-4A11-BADD-2A240074A56A}" name="Corr_Producto" dataDxfId="195" totalsRowDxfId="194"/>
-    <tableColumn id="3" xr3:uid="{56D80777-3871-4DBF-8856-DFDA54440D55}" name="Data" dataDxfId="193" totalsRowDxfId="192"/>
-    <tableColumn id="27" xr3:uid="{0BD20D97-CBB4-4212-9EB7-3F3B3FA483E6}" name="País" dataDxfId="191" totalsRowDxfId="190"/>
-    <tableColumn id="4" xr3:uid="{73D49374-8912-4C27-A2AF-E0476A8E9AEE}" name="id_producto" dataDxfId="189">
+    <tableColumn id="2" xr3:uid="{07061539-DFF5-4A11-BADD-2A240074A56A}" name="Corr_Producto" dataDxfId="171" totalsRowDxfId="170"/>
+    <tableColumn id="3" xr3:uid="{56D80777-3871-4DBF-8856-DFDA54440D55}" name="Data" dataDxfId="169" totalsRowDxfId="168"/>
+    <tableColumn id="27" xr3:uid="{0BD20D97-CBB4-4212-9EB7-3F3B3FA483E6}" name="País" dataDxfId="167" totalsRowDxfId="166"/>
+    <tableColumn id="4" xr3:uid="{73D49374-8912-4C27-A2AF-E0476A8E9AEE}" name="id_producto" dataDxfId="165">
       <calculatedColumnFormula>A8&amp;"-"&amp;B8&amp;"-"&amp;C8</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{71534AA1-DF8C-466C-AAA8-87DA9F119341}" name="Producto asociado " dataDxfId="188" totalsRowDxfId="187"/>
-    <tableColumn id="26" xr3:uid="{8B686EE2-348B-48C2-990B-424A8FB284BC}" name="Nombre comercial" dataDxfId="186" totalsRowDxfId="185"/>
-    <tableColumn id="57" xr3:uid="{1B134745-3C22-4CD1-BDF0-E9AFDB76FA7C}" name="Párrafo portada producto" dataDxfId="184" totalsRowDxfId="183"/>
-    <tableColumn id="6" xr3:uid="{75779DBD-8A91-4D7A-8A36-000CEDC599B6}" name="Estado" dataDxfId="182" totalsRowDxfId="181">
+    <tableColumn id="5" xr3:uid="{71534AA1-DF8C-466C-AAA8-87DA9F119341}" name="Producto asociado " dataDxfId="164" totalsRowDxfId="163"/>
+    <tableColumn id="26" xr3:uid="{8B686EE2-348B-48C2-990B-424A8FB284BC}" name="Nombre comercial" dataDxfId="162" totalsRowDxfId="161"/>
+    <tableColumn id="57" xr3:uid="{1B134745-3C22-4CD1-BDF0-E9AFDB76FA7C}" name="Párrafo portada producto" dataDxfId="160" totalsRowDxfId="159"/>
+    <tableColumn id="6" xr3:uid="{75779DBD-8A91-4D7A-8A36-000CEDC599B6}" name="Estado" dataDxfId="158" totalsRowDxfId="157">
       <calculatedColumnFormula>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$J$116,3,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="25" xr3:uid="{E03A0489-5A50-4DA9-A8DF-999E6DC669EA}" name="Avance" dataDxfId="180" totalsRowDxfId="179" dataCellStyle="Porcentaje" totalsRowCellStyle="Porcentaje">
+    <tableColumn id="25" xr3:uid="{E03A0489-5A50-4DA9-A8DF-999E6DC669EA}" name="Avance" dataDxfId="156" totalsRowDxfId="155" dataCellStyle="Porcentaje" totalsRowCellStyle="Porcentaje">
       <calculatedColumnFormula>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$J$116,4,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{2699BB10-9D24-4629-8F45-4A2526A4D39A}" name="Responsable Desarrollo" dataDxfId="178" totalsRowDxfId="177"/>
-    <tableColumn id="8" xr3:uid="{69F4BEA1-A9B4-4421-A0EE-47BCAF12AAB2}" name="Responsable Información" dataDxfId="176" totalsRowDxfId="175"/>
-    <tableColumn id="10" xr3:uid="{03C8A422-EE9B-494A-A440-9110009A358E}" name="Tecnología" dataDxfId="174" totalsRowDxfId="173">
+    <tableColumn id="7" xr3:uid="{2699BB10-9D24-4629-8F45-4A2526A4D39A}" name="Responsable Desarrollo" dataDxfId="154" totalsRowDxfId="153"/>
+    <tableColumn id="8" xr3:uid="{69F4BEA1-A9B4-4421-A0EE-47BCAF12AAB2}" name="Responsable Información" dataDxfId="152" totalsRowDxfId="151"/>
+    <tableColumn id="10" xr3:uid="{03C8A422-EE9B-494A-A440-9110009A358E}" name="Tecnología" dataDxfId="150" totalsRowDxfId="149">
       <calculatedColumnFormula>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$S$116,7,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{1A081205-19B8-4238-8F9E-1836061C2D4F}" name="Host " dataDxfId="172" totalsRowDxfId="171"/>
-    <tableColumn id="12" xr3:uid="{6BCD6CB8-BA53-40A7-9F90-7EBA78E345DA}" name="Link Odoo" dataDxfId="170" totalsRowDxfId="169"/>
-    <tableColumn id="13" xr3:uid="{502BD7B7-DD01-471A-8E5E-C527F983E20E}" name="Fecha Publicación" dataDxfId="168" totalsRowDxfId="167"/>
-    <tableColumn id="15" xr3:uid="{00014923-35F8-4A24-9B8B-A626BE90EC3E}" name="Escala " dataDxfId="166" totalsRowDxfId="165"/>
-    <tableColumn id="16" xr3:uid="{D32995C9-2CA4-4BD7-A181-0CE6434624DC}" name="Periodo" dataDxfId="164" totalsRowDxfId="163"/>
-    <tableColumn id="17" xr3:uid="{5F683DA7-34DC-43D1-A154-FB5C17AB82E4}" name="Actualizaciones" dataDxfId="162" totalsRowDxfId="161"/>
-    <tableColumn id="18" xr3:uid="{D0F7DA38-1DAE-48DF-8725-440804E511ED}" name="Tipo Producto" dataDxfId="160" totalsRowDxfId="159"/>
-    <tableColumn id="19" xr3:uid="{6345440E-6C11-4DE3-9F30-57AA749130A3}" name="Fuentes " dataDxfId="158" totalsRowDxfId="157"/>
-    <tableColumn id="20" xr3:uid="{06F6F5BE-A8B5-450A-B890-E5272AC160CB}" name="Ref principal " dataDxfId="156" totalsRowDxfId="155"/>
-    <tableColumn id="21" xr3:uid="{F22EE5BC-B966-49EB-A843-F1384A77D7A0}" name="Competencia o material vinculado " dataDxfId="154" totalsRowDxfId="153"/>
+    <tableColumn id="11" xr3:uid="{1A081205-19B8-4238-8F9E-1836061C2D4F}" name="Host " dataDxfId="148" totalsRowDxfId="147"/>
+    <tableColumn id="12" xr3:uid="{6BCD6CB8-BA53-40A7-9F90-7EBA78E345DA}" name="Link Odoo" dataDxfId="146" totalsRowDxfId="145"/>
+    <tableColumn id="13" xr3:uid="{502BD7B7-DD01-471A-8E5E-C527F983E20E}" name="Fecha Publicación" dataDxfId="144" totalsRowDxfId="143"/>
+    <tableColumn id="15" xr3:uid="{00014923-35F8-4A24-9B8B-A626BE90EC3E}" name="Escala " dataDxfId="142" totalsRowDxfId="141"/>
+    <tableColumn id="16" xr3:uid="{D32995C9-2CA4-4BD7-A181-0CE6434624DC}" name="Periodo" dataDxfId="140" totalsRowDxfId="139"/>
+    <tableColumn id="17" xr3:uid="{5F683DA7-34DC-43D1-A154-FB5C17AB82E4}" name="Actualizaciones" dataDxfId="138" totalsRowDxfId="137"/>
+    <tableColumn id="18" xr3:uid="{D0F7DA38-1DAE-48DF-8725-440804E511ED}" name="Tipo Producto" dataDxfId="136" totalsRowDxfId="135"/>
+    <tableColumn id="19" xr3:uid="{6345440E-6C11-4DE3-9F30-57AA749130A3}" name="Fuentes " dataDxfId="134" totalsRowDxfId="133"/>
+    <tableColumn id="20" xr3:uid="{06F6F5BE-A8B5-450A-B890-E5272AC160CB}" name="Ref principal " dataDxfId="132" totalsRowDxfId="131"/>
+    <tableColumn id="21" xr3:uid="{F22EE5BC-B966-49EB-A843-F1384A77D7A0}" name="Competencia o material vinculado " dataDxfId="130" totalsRowDxfId="129"/>
     <tableColumn id="22" xr3:uid="{E445C8DD-86CC-41A9-9E49-D3492783FCB1}" name="Vistas"/>
     <tableColumn id="23" xr3:uid="{DBAFBD3B-B406-46F5-B2E9-B69F6F70645B}" name="Repositorio Dropbox"/>
     <tableColumn id="24" xr3:uid="{629986D1-249B-44FE-82F1-FCA6183BF20E}" name="Link Logo"/>
-    <tableColumn id="28" xr3:uid="{4F7861D7-1E20-4E49-BAAB-9731305CDBE5}" name="Observaciones" dataDxfId="152" totalsRowDxfId="151"/>
-    <tableColumn id="29" xr3:uid="{B82AF5FC-FE01-4F10-8B3A-A6B205199D0A}" name="Miniatura" dataDxfId="150" totalsRowDxfId="149"/>
+    <tableColumn id="28" xr3:uid="{4F7861D7-1E20-4E49-BAAB-9731305CDBE5}" name="Observaciones" dataDxfId="128" totalsRowDxfId="127"/>
+    <tableColumn id="29" xr3:uid="{B82AF5FC-FE01-4F10-8B3A-A6B205199D0A}" name="Miniatura" dataDxfId="126" totalsRowDxfId="125"/>
     <tableColumn id="37" xr3:uid="{447BFD0A-721F-47C8-9615-3D9B196F979F}" name="PORTADA SHOPIFY"/>
     <tableColumn id="38" xr3:uid="{95D4D5AF-6660-4044-A5A8-E516ADA5D063}" name="Párrafo enganche"/>
     <tableColumn id="39" xr3:uid="{2963E916-25CA-4C30-A173-915A5CD940D3}" name="Variante_1"/>
-    <tableColumn id="40" xr3:uid="{50FEFE18-B7AA-4094-B4D1-D7296380363B}" name="Precio_1 (USD)" dataDxfId="148"/>
+    <tableColumn id="40" xr3:uid="{50FEFE18-B7AA-4094-B4D1-D7296380363B}" name="Precio_1 (USD)" dataDxfId="124"/>
     <tableColumn id="41" xr3:uid="{9CECDB40-D2E7-44AF-BA17-FB2CD006F0D3}" name="Variante_2"/>
     <tableColumn id="42" xr3:uid="{449802E5-0F23-40E3-AC14-547C4516D33C}" name="Precio_2 (USD)"/>
     <tableColumn id="43" xr3:uid="{A11B456F-7DEA-431F-9CA5-03E3B83EB3CF}" name="Variante_3"/>
@@ -13697,17 +13896,17 @@
     <tableColumn id="45" xr3:uid="{BC545BB3-5EA2-4491-9699-2DCF67AFDBD1}" name="Variable_filtro1"/>
     <tableColumn id="46" xr3:uid="{1BCBD3DF-B9B9-4135-B455-2CFAF2B188C1}" name="Variable_filtro2"/>
     <tableColumn id="47" xr3:uid="{02D860F3-1C9D-4DCC-B854-0E0B78380C60}" name="Variable_filtro3"/>
-    <tableColumn id="30" xr3:uid="{3C2CC3B0-4545-4E5C-B8E5-AAD05CDD3A41}" name="Descripción (Indicar qué permite ver o hacer el producto) 2" dataDxfId="147"/>
+    <tableColumn id="30" xr3:uid="{3C2CC3B0-4545-4E5C-B8E5-AAD05CDD3A41}" name="Descripción (Indicar qué permite ver o hacer el producto) 2" dataDxfId="123"/>
     <tableColumn id="32" xr3:uid="{2F0B4ACB-2081-4369-9020-F04ABE62B6AD}" name="CAR_Tipo_Prod"/>
     <tableColumn id="33" xr3:uid="{8277A5C4-DDE4-4268-B9A2-D39560C50C97}" name="CAR_Var1_Disponible"/>
     <tableColumn id="14" xr3:uid="{8D937ABF-3B4D-40B9-8BBE-860FDDE831DB}" name="CAR_Var2_Disponible"/>
     <tableColumn id="9" xr3:uid="{A912298A-2AE3-4676-B089-13388A70E0CC}" name="CAR_Var3_Disponible"/>
-    <tableColumn id="34" xr3:uid="{2EAEC5EE-D01B-4781-A499-32811E9E50DF}" name="CAR_Periodo" dataDxfId="146"/>
+    <tableColumn id="34" xr3:uid="{2EAEC5EE-D01B-4781-A499-32811E9E50DF}" name="CAR_Periodo" dataDxfId="122"/>
     <tableColumn id="35" xr3:uid="{89972549-6CAE-40EF-8DDE-4E5FB11CDCFB}" name="CAR_Proveedor"/>
-    <tableColumn id="36" xr3:uid="{94687206-A22A-469D-92B1-A6635B8A1CB3}" name="CAR_Colección" dataDxfId="145">
+    <tableColumn id="36" xr3:uid="{94687206-A22A-469D-92B1-A6635B8A1CB3}" name="CAR_Colección" dataDxfId="121">
       <calculatedColumnFormula>PRODUCTOS[[#This Row],[Data]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="48" xr3:uid="{431A4A68-8223-41E1-99C1-4F515A267188}" name="ESP_Tecnología" dataDxfId="144">
+    <tableColumn id="48" xr3:uid="{431A4A68-8223-41E1-99C1-4F515A267188}" name="ESP_Tecnología" dataDxfId="120">
       <calculatedColumnFormula>PRODUCTOS[[#This Row],[Tecnología]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="49" xr3:uid="{A570E531-D39D-48A2-BCC8-8E0BA5937958}" name="ESP_Incluye"/>
@@ -13731,7 +13930,7 @@
     <tableColumn id="1" xr3:uid="{69819873-BFDD-4D0F-83ED-7D2504DFDA31}" name="Data"/>
     <tableColumn id="2" xr3:uid="{70760145-B5A6-4F27-A738-A1EBE3D8A954}" name="Producto"/>
     <tableColumn id="3" xr3:uid="{585C0D49-B625-41C4-8893-45B93A4BE8CC}" name="Sección"/>
-    <tableColumn id="4" xr3:uid="{10EF7F87-DEF0-4028-9C31-E3E45FB50589}" name="Tema" dataDxfId="143"/>
+    <tableColumn id="4" xr3:uid="{10EF7F87-DEF0-4028-9C31-E3E45FB50589}" name="Tema" dataDxfId="119"/>
     <tableColumn id="5" xr3:uid="{28D3851F-C206-422F-98B1-973F48082A17}" name="Verificador"/>
     <tableColumn id="6" xr3:uid="{71EF3903-87DB-422F-904D-B86468D3F2A8}" name="Variables"/>
     <tableColumn id="7" xr3:uid="{09ED368A-F77F-44FE-80CB-14C859399091}" name="ID_VAR"/>
@@ -13755,156 +13954,156 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{2A3DFF5F-BB66-464A-9045-49B0328E9E76}" name="Tabla10" displayName="Tabla10" ref="B7:I221" totalsRowShown="0" headerRowDxfId="142" dataDxfId="141">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{2A3DFF5F-BB66-464A-9045-49B0328E9E76}" name="Tabla10" displayName="Tabla10" ref="B7:I221" totalsRowShown="0" headerRowDxfId="118" dataDxfId="117">
   <autoFilter ref="B7:I221" xr:uid="{54E86758-179E-494E-9D22-024745EA2489}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{AE352613-BE77-4F50-A26C-CDFA69B4E703}" name="Data" dataDxfId="140"/>
-    <tableColumn id="2" xr3:uid="{FB99AEF8-BF89-4789-90CC-B8C3024883BE}" name="Estado" dataDxfId="139"/>
-    <tableColumn id="3" xr3:uid="{B15F5D46-093A-497F-970F-4E17CA63A563}" name="Fecha Actualización " dataDxfId="138"/>
-    <tableColumn id="4" xr3:uid="{7EA45E0E-7020-43C1-AD03-9A178CD7430B}" name="Responsable" dataDxfId="137"/>
-    <tableColumn id="8" xr3:uid="{CD6D1E9C-AD67-41FD-BB45-272D5CED1007}" name="Tema" dataDxfId="136"/>
-    <tableColumn id="5" xr3:uid="{2AC1CC8A-E5DB-4A3A-BEE8-6538DDAA69E7}" name="Observación " dataDxfId="135"/>
-    <tableColumn id="6" xr3:uid="{C98B1913-4D31-48AA-9995-A47CE0EA1C1E}" name="Acción" dataDxfId="134"/>
-    <tableColumn id="7" xr3:uid="{FE3D67C6-9FBF-4881-B186-7BE50BE75AE3}" name="Monitoreo" dataDxfId="133"/>
+    <tableColumn id="1" xr3:uid="{AE352613-BE77-4F50-A26C-CDFA69B4E703}" name="Data" dataDxfId="116"/>
+    <tableColumn id="2" xr3:uid="{FB99AEF8-BF89-4789-90CC-B8C3024883BE}" name="Estado" dataDxfId="115"/>
+    <tableColumn id="3" xr3:uid="{B15F5D46-093A-497F-970F-4E17CA63A563}" name="Fecha Actualización " dataDxfId="114"/>
+    <tableColumn id="4" xr3:uid="{7EA45E0E-7020-43C1-AD03-9A178CD7430B}" name="Responsable" dataDxfId="113"/>
+    <tableColumn id="8" xr3:uid="{CD6D1E9C-AD67-41FD-BB45-272D5CED1007}" name="Tema" dataDxfId="112"/>
+    <tableColumn id="5" xr3:uid="{2AC1CC8A-E5DB-4A3A-BEE8-6538DDAA69E7}" name="Observación " dataDxfId="111"/>
+    <tableColumn id="6" xr3:uid="{C98B1913-4D31-48AA-9995-A47CE0EA1C1E}" name="Acción" dataDxfId="110"/>
+    <tableColumn id="7" xr3:uid="{FE3D67C6-9FBF-4881-B186-7BE50BE75AE3}" name="Monitoreo" dataDxfId="109"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{F79A991F-1A6F-4232-A4CD-E26026F59FD2}" name="Tabla1" displayName="Tabla1" ref="A9:M53" totalsRowShown="0" headerRowDxfId="132" dataDxfId="131">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{F79A991F-1A6F-4232-A4CD-E26026F59FD2}" name="Tabla1" displayName="Tabla1" ref="A9:M53" totalsRowShown="0" headerRowDxfId="108" dataDxfId="107">
   <autoFilter ref="A9:M53" xr:uid="{2573F5B0-EE83-49B6-AF2E-FA541AB2D0A7}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{01DC2308-9C99-4EEE-82DB-DC6B48F1F8E3}" name="N°" dataDxfId="130"/>
-    <tableColumn id="2" xr3:uid="{F3B4997E-B2A4-4EB5-AF03-1C32EC201E29}" name="Tema Investigación " dataDxfId="129"/>
-    <tableColumn id="3" xr3:uid="{2ED8CCEC-CAF8-463E-AB90-B3689E282F52}" name="Responsables " dataDxfId="128"/>
-    <tableColumn id="5" xr3:uid="{A45DAC7C-0BE8-484E-8902-C84794C6E4E6}" name="Fecha inicio" dataDxfId="127"/>
+    <tableColumn id="1" xr3:uid="{01DC2308-9C99-4EEE-82DB-DC6B48F1F8E3}" name="N°" dataDxfId="106"/>
+    <tableColumn id="2" xr3:uid="{F3B4997E-B2A4-4EB5-AF03-1C32EC201E29}" name="Tema Investigación " dataDxfId="105"/>
+    <tableColumn id="3" xr3:uid="{2ED8CCEC-CAF8-463E-AB90-B3689E282F52}" name="Responsables " dataDxfId="104"/>
+    <tableColumn id="5" xr3:uid="{A45DAC7C-0BE8-484E-8902-C84794C6E4E6}" name="Fecha inicio" dataDxfId="103"/>
     <tableColumn id="4" xr3:uid="{1DFD24D3-150A-4A18-8D2B-471C5E615C4A}" name="Estado"/>
-    <tableColumn id="7" xr3:uid="{A5E888F3-954C-4454-ABBF-0CB322AC2892}" name="Fecha Termino" dataDxfId="126"/>
-    <tableColumn id="8" xr3:uid="{DC2FD273-C50C-4DC5-BCAE-F4707F0CC4FD}" name="Chile" dataDxfId="125"/>
-    <tableColumn id="9" xr3:uid="{DC0F9138-A833-4513-8446-6D9A0BE8DC03}" name="Panamá " dataDxfId="124"/>
-    <tableColumn id="10" xr3:uid="{1C354151-0542-4839-A312-82A4762672B3}" name="Guatemala" dataDxfId="123"/>
-    <tableColumn id="11" xr3:uid="{B44F5A38-555A-4E07-BD14-45F877391CC6}" name="Honduras" dataDxfId="122"/>
-    <tableColumn id="12" xr3:uid="{E43EB3EC-0D6D-42B8-A156-EA2EF365B7B3}" name="El Salvador" dataDxfId="121"/>
-    <tableColumn id="6" xr3:uid="{9ED27B35-B472-416C-B394-C3447A132041}" name="Link 1" dataDxfId="120"/>
-    <tableColumn id="13" xr3:uid="{0813E4B9-E868-4B0E-A181-67DEE49699BC}" name="Link 2" dataDxfId="119"/>
+    <tableColumn id="7" xr3:uid="{A5E888F3-954C-4454-ABBF-0CB322AC2892}" name="Fecha Termino" dataDxfId="102"/>
+    <tableColumn id="8" xr3:uid="{DC2FD273-C50C-4DC5-BCAE-F4707F0CC4FD}" name="Chile" dataDxfId="101"/>
+    <tableColumn id="9" xr3:uid="{DC0F9138-A833-4513-8446-6D9A0BE8DC03}" name="Panamá " dataDxfId="100"/>
+    <tableColumn id="10" xr3:uid="{1C354151-0542-4839-A312-82A4762672B3}" name="Guatemala" dataDxfId="99"/>
+    <tableColumn id="11" xr3:uid="{B44F5A38-555A-4E07-BD14-45F877391CC6}" name="Honduras" dataDxfId="98"/>
+    <tableColumn id="12" xr3:uid="{E43EB3EC-0D6D-42B8-A156-EA2EF365B7B3}" name="El Salvador" dataDxfId="97"/>
+    <tableColumn id="6" xr3:uid="{9ED27B35-B472-416C-B394-C3447A132041}" name="Link 1" dataDxfId="96"/>
+    <tableColumn id="13" xr3:uid="{0813E4B9-E868-4B0E-A181-67DEE49699BC}" name="Link 2" dataDxfId="95"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{E94DB916-DE89-4F64-9EF8-AFB72BA8FF61}" name="Tabla14" displayName="Tabla14" ref="A12:I91" totalsRowShown="0" headerRowDxfId="118" dataDxfId="117">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{E94DB916-DE89-4F64-9EF8-AFB72BA8FF61}" name="Tabla14" displayName="Tabla14" ref="A12:I91" totalsRowShown="0" headerRowDxfId="94" dataDxfId="93">
   <autoFilter ref="A12:I91" xr:uid="{14629A1E-D5D5-412C-8FAB-488411430C85}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{7299EEE0-40CF-4EF5-8F0C-C1FFA863E5B5}" name="N°" dataDxfId="116"/>
-    <tableColumn id="2" xr3:uid="{9E84EC16-0161-44D0-9CB9-123C0428ADAD}" name="Tema/institución Investigación " dataDxfId="115"/>
-    <tableColumn id="3" xr3:uid="{76853A8B-3945-4590-AB61-F2892D4BDEF9}" name="Responsable" dataDxfId="114"/>
-    <tableColumn id="5" xr3:uid="{F7339DE0-8C86-4469-9258-ED935FDEFA77}" name="Fecha inicio" dataDxfId="113"/>
-    <tableColumn id="6" xr3:uid="{1434B0D6-C669-403A-970D-962B797CA9A9}" name="Fecha avance" dataDxfId="112"/>
-    <tableColumn id="7" xr3:uid="{B968D1D9-84E8-493C-9491-88D890E8453F}" name="Fecha Termino" dataDxfId="111"/>
-    <tableColumn id="8" xr3:uid="{914D3775-FE9D-4F06-9643-2FF0DC094A44}" name="Comentario" dataDxfId="110"/>
-    <tableColumn id="4" xr3:uid="{447DB363-0F58-4053-9903-C5B73E99B8F7}" name="Acción" dataDxfId="109"/>
-    <tableColumn id="9" xr3:uid="{FAD7DF30-EA13-48D4-85BE-33B82685C836}" name="Seguimiento" dataDxfId="108"/>
+    <tableColumn id="1" xr3:uid="{7299EEE0-40CF-4EF5-8F0C-C1FFA863E5B5}" name="N°" dataDxfId="92"/>
+    <tableColumn id="2" xr3:uid="{9E84EC16-0161-44D0-9CB9-123C0428ADAD}" name="Tema/institución Investigación " dataDxfId="91"/>
+    <tableColumn id="3" xr3:uid="{76853A8B-3945-4590-AB61-F2892D4BDEF9}" name="Responsable" dataDxfId="90"/>
+    <tableColumn id="5" xr3:uid="{F7339DE0-8C86-4469-9258-ED935FDEFA77}" name="Fecha inicio" dataDxfId="89"/>
+    <tableColumn id="6" xr3:uid="{1434B0D6-C669-403A-970D-962B797CA9A9}" name="Fecha avance" dataDxfId="88"/>
+    <tableColumn id="7" xr3:uid="{B968D1D9-84E8-493C-9491-88D890E8453F}" name="Fecha Termino" dataDxfId="87"/>
+    <tableColumn id="8" xr3:uid="{914D3775-FE9D-4F06-9643-2FF0DC094A44}" name="Comentario" dataDxfId="86"/>
+    <tableColumn id="4" xr3:uid="{447DB363-0F58-4053-9903-C5B73E99B8F7}" name="Acción" dataDxfId="85"/>
+    <tableColumn id="9" xr3:uid="{FAD7DF30-EA13-48D4-85BE-33B82685C836}" name="Seguimiento" dataDxfId="84"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{065B9CF9-E4C7-46B6-A6AB-AE4727F44BAE}" name="DETALLE_PRODUCTO" displayName="DETALLE_PRODUCTO" ref="B8:L88" totalsRowShown="0" headerRowDxfId="107" dataDxfId="106">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{065B9CF9-E4C7-46B6-A6AB-AE4727F44BAE}" name="DETALLE_PRODUCTO" displayName="DETALLE_PRODUCTO" ref="B8:L88" totalsRowShown="0" headerRowDxfId="83" dataDxfId="82">
   <autoFilter ref="B8:L88" xr:uid="{B19E98DB-D5A2-4B79-98FB-79403A46B576}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{53D02E25-6272-402F-ABD7-44B8E0C71D87}" name="Data" dataDxfId="105"/>
-    <tableColumn id="8" xr3:uid="{EC4D90DB-631D-4228-A704-DD698C8FDA74}" name="id_producto" dataDxfId="104"/>
-    <tableColumn id="2" xr3:uid="{8BB7EEC5-6570-41F8-9A07-5AAEA8522606}" name="Plazo Producto" dataDxfId="103"/>
-    <tableColumn id="3" xr3:uid="{8CB3D480-A20D-43D6-A036-A52F2B756492}" name="Producto" dataDxfId="102"/>
-    <tableColumn id="4" xr3:uid="{A37F897B-BDC4-49DB-9D73-0B585928FBCF}" name="Secciones" dataDxfId="101"/>
-    <tableColumn id="5" xr3:uid="{52913CC1-5A92-42A3-9DE0-3B6AB5FF68D3}" name="Sub-secciones" dataDxfId="100"/>
-    <tableColumn id="6" xr3:uid="{AA418FB7-7169-4105-9A7B-952204D6B07D}" name="Variables" dataDxfId="99"/>
-    <tableColumn id="7" xr3:uid="{9CFF7943-E7AB-407C-A8B2-A61784C0D377}" name="Fuente" dataDxfId="98"/>
-    <tableColumn id="9" xr3:uid="{E0A15B94-D546-4F86-877E-4ECCBE8390C9}" name="Situación Variable" dataDxfId="97"/>
-    <tableColumn id="10" xr3:uid="{766CAFFF-49CC-4F0A-A3FA-AA09276E3B90}" name="Fecha Actualización" dataDxfId="96"/>
-    <tableColumn id="11" xr3:uid="{8FEDBB30-0CE4-44B9-B885-55B24F35F89F}" name="Observaciones" dataDxfId="95"/>
+    <tableColumn id="1" xr3:uid="{53D02E25-6272-402F-ABD7-44B8E0C71D87}" name="Data" dataDxfId="81"/>
+    <tableColumn id="8" xr3:uid="{EC4D90DB-631D-4228-A704-DD698C8FDA74}" name="id_producto" dataDxfId="80"/>
+    <tableColumn id="2" xr3:uid="{8BB7EEC5-6570-41F8-9A07-5AAEA8522606}" name="Plazo Producto" dataDxfId="79"/>
+    <tableColumn id="3" xr3:uid="{8CB3D480-A20D-43D6-A036-A52F2B756492}" name="Producto" dataDxfId="78"/>
+    <tableColumn id="4" xr3:uid="{A37F897B-BDC4-49DB-9D73-0B585928FBCF}" name="Secciones" dataDxfId="77"/>
+    <tableColumn id="5" xr3:uid="{52913CC1-5A92-42A3-9DE0-3B6AB5FF68D3}" name="Sub-secciones" dataDxfId="76"/>
+    <tableColumn id="6" xr3:uid="{AA418FB7-7169-4105-9A7B-952204D6B07D}" name="Variables" dataDxfId="75"/>
+    <tableColumn id="7" xr3:uid="{9CFF7943-E7AB-407C-A8B2-A61784C0D377}" name="Fuente" dataDxfId="74"/>
+    <tableColumn id="9" xr3:uid="{E0A15B94-D546-4F86-877E-4ECCBE8390C9}" name="Situación Variable" dataDxfId="73"/>
+    <tableColumn id="10" xr3:uid="{766CAFFF-49CC-4F0A-A3FA-AA09276E3B90}" name="Fecha Actualización" dataDxfId="72"/>
+    <tableColumn id="11" xr3:uid="{8FEDBB30-0CE4-44B9-B885-55B24F35F89F}" name="Observaciones" dataDxfId="71"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{8903E000-6268-4700-8DED-A61277FDDF6A}" name="SHOPIFY" displayName="SHOPIFY" ref="A7:AX82" totalsRowShown="0" headerRowDxfId="94">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{8903E000-6268-4700-8DED-A61277FDDF6A}" name="SHOPIFY" displayName="SHOPIFY" ref="A7:AX82" totalsRowShown="0" headerRowDxfId="70">
   <autoFilter ref="A7:AX82" xr:uid="{8E7BE500-FD82-4AF8-9786-CF4905281DB3}"/>
   <tableColumns count="50">
-    <tableColumn id="1" xr3:uid="{97B30EC8-C107-4A29-BFE9-64B671A010DD}" name="id_data" dataDxfId="93">
+    <tableColumn id="1" xr3:uid="{97B30EC8-C107-4A29-BFE9-64B671A010DD}" name="id_data" dataDxfId="69">
       <calculatedColumnFormula>PRODUCTOS[[#This Row],[id_data]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{D4210DF6-B71C-4CEA-B273-A001CC99D71D}" name="Corr_Producto" dataDxfId="92"/>
-    <tableColumn id="3" xr3:uid="{3A3C3A45-DC12-420E-B4A9-B6FC4AB09680}" name="Data" dataDxfId="91"/>
-    <tableColumn id="4" xr3:uid="{F589E312-6F04-441B-BD92-57D8AF605B91}" name="id_producto" dataDxfId="90">
+    <tableColumn id="2" xr3:uid="{D4210DF6-B71C-4CEA-B273-A001CC99D71D}" name="Corr_Producto" dataDxfId="68"/>
+    <tableColumn id="3" xr3:uid="{3A3C3A45-DC12-420E-B4A9-B6FC4AB09680}" name="Data" dataDxfId="67"/>
+    <tableColumn id="4" xr3:uid="{F589E312-6F04-441B-BD92-57D8AF605B91}" name="id_producto" dataDxfId="66">
       <calculatedColumnFormula>+A8&amp;"-"&amp;B8</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{8673061C-EC24-4EF4-81F6-F73CCCED37A8}" name="Producto asociado " dataDxfId="89"/>
-    <tableColumn id="32" xr3:uid="{BB6CBD3F-A1DC-4006-8ED6-2EDD0372776F}" name="Nombre comercial" dataDxfId="88">
+    <tableColumn id="5" xr3:uid="{8673061C-EC24-4EF4-81F6-F73CCCED37A8}" name="Producto asociado " dataDxfId="65"/>
+    <tableColumn id="32" xr3:uid="{BB6CBD3F-A1DC-4006-8ED6-2EDD0372776F}" name="Nombre comercial" dataDxfId="64">
       <calculatedColumnFormula>PRODUCTOS[[#This Row],[Nombre comercial]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="47" xr3:uid="{1BF29101-CC46-4386-87BF-FB5000527CC1}" name="Variante" dataDxfId="87">
+    <tableColumn id="47" xr3:uid="{1BF29101-CC46-4386-87BF-FB5000527CC1}" name="Variante" dataDxfId="63">
       <calculatedColumnFormula>#REF!</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="46" xr3:uid="{971E696E-617D-42F5-AD13-6C98573AB151}" name="Corr_variante" dataDxfId="86">
+    <tableColumn id="46" xr3:uid="{971E696E-617D-42F5-AD13-6C98573AB151}" name="Corr_variante" dataDxfId="62">
       <calculatedColumnFormula>#REF!</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{8623108B-5216-4DE8-A078-C2EA5007B662}" name="id_prod_var" dataDxfId="85">
+    <tableColumn id="20" xr3:uid="{8623108B-5216-4DE8-A078-C2EA5007B662}" name="id_prod_var" dataDxfId="61">
       <calculatedColumnFormula>#REF!</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{F158BFCF-29BB-4A21-85DD-EC1A577268A9}" name="Estado" dataDxfId="84"/>
-    <tableColumn id="21" xr3:uid="{F5606F96-2B4C-4028-BAFD-98E68F248BB6}" name="Avance" dataDxfId="83" dataCellStyle="Porcentaje"/>
-    <tableColumn id="7" xr3:uid="{F996455F-A80C-45DE-824E-AA15DC67B89F}" name="Responsable Desarrollo" dataDxfId="82">
+    <tableColumn id="6" xr3:uid="{F158BFCF-29BB-4A21-85DD-EC1A577268A9}" name="Estado" dataDxfId="60"/>
+    <tableColumn id="21" xr3:uid="{F5606F96-2B4C-4028-BAFD-98E68F248BB6}" name="Avance" dataDxfId="59" dataCellStyle="Porcentaje"/>
+    <tableColumn id="7" xr3:uid="{F996455F-A80C-45DE-824E-AA15DC67B89F}" name="Responsable Desarrollo" dataDxfId="58">
       <calculatedColumnFormula>PRODUCTOS[[#This Row],[Responsable Desarrollo]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{8243748E-EFCB-4AEF-AE13-DEB22DE5398A}" name="Responsable Información" dataDxfId="81">
+    <tableColumn id="8" xr3:uid="{8243748E-EFCB-4AEF-AE13-DEB22DE5398A}" name="Responsable Información" dataDxfId="57">
       <calculatedColumnFormula>PRODUCTOS[[#This Row],[Responsable Información]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{1B0EF15B-CCC6-4071-9C39-986D237DCBFD}" name="PORTADA SHOPIFY" dataDxfId="80"/>
-    <tableColumn id="25" xr3:uid="{DE283954-0E54-4788-A6B7-64B3FABE5655}" name="Párrafo enganche" dataDxfId="79"/>
-    <tableColumn id="31" xr3:uid="{69B5166B-7DB7-4B2A-BDDB-51BC1CDC9E13}" name="Variante_1" dataDxfId="78"/>
-    <tableColumn id="30" xr3:uid="{FD2BFBD3-7364-4A40-82AD-5ED8F1EC60C8}" name="Precio_1" dataDxfId="77"/>
-    <tableColumn id="27" xr3:uid="{7BAA5845-FEF8-4AF0-A034-4502EA6425FB}" name="Variante_2" dataDxfId="76"/>
-    <tableColumn id="26" xr3:uid="{055AC0B8-B715-4865-A615-F93F51BDB937}" name="Precio_2" dataDxfId="75"/>
-    <tableColumn id="34" xr3:uid="{E986E95A-C830-4C89-88DC-A69F64460E34}" name="Variante_3" dataDxfId="74"/>
-    <tableColumn id="33" xr3:uid="{15105E85-D580-466D-8DEA-A21111029F6E}" name="Precio_3" dataDxfId="73"/>
-    <tableColumn id="50" xr3:uid="{86C9CDBF-0B44-4420-A48E-6FF93F44FE71}" name="Variable_filtro1" dataDxfId="72"/>
-    <tableColumn id="49" xr3:uid="{29F0FFEC-DA2B-4599-9D83-29AA5C05A4F0}" name="Variable_filtro2" dataDxfId="71"/>
-    <tableColumn id="48" xr3:uid="{4B1206D9-C4A0-496A-A7B2-086AF0122968}" name="Variable_filtro3" dataDxfId="70"/>
-    <tableColumn id="9" xr3:uid="{EE306381-1575-4475-A9CE-5592A93932BB}" name="Descripción (Indicar qué permite ver o hacer el producto) " dataDxfId="69"/>
-    <tableColumn id="35" xr3:uid="{C39FDC20-ABE5-4151-B056-F4B5E12D47DD}" name="CAR_Tipo_Prod" dataDxfId="68"/>
-    <tableColumn id="36" xr3:uid="{C8D4ECC0-DE7A-41BF-A6E9-9964E26F4261}" name="CAR_Var1_Disponible" dataDxfId="67"/>
-    <tableColumn id="39" xr3:uid="{87F44B21-0148-4ECE-9BC5-6D8A4C1030F3}" name="CAR_Periodo" dataDxfId="66"/>
-    <tableColumn id="37" xr3:uid="{DB23C32C-B4CE-4982-8D0A-F32C01C6CF98}" name="CAR_Proveedor" dataDxfId="65"/>
-    <tableColumn id="38" xr3:uid="{887C31F6-B5D9-48A2-AC60-3BBFDA8C2D93}" name="CAR_Colección" dataDxfId="64">
+    <tableColumn id="19" xr3:uid="{1B0EF15B-CCC6-4071-9C39-986D237DCBFD}" name="PORTADA SHOPIFY" dataDxfId="56"/>
+    <tableColumn id="25" xr3:uid="{DE283954-0E54-4788-A6B7-64B3FABE5655}" name="Párrafo enganche" dataDxfId="55"/>
+    <tableColumn id="31" xr3:uid="{69B5166B-7DB7-4B2A-BDDB-51BC1CDC9E13}" name="Variante_1" dataDxfId="54"/>
+    <tableColumn id="30" xr3:uid="{FD2BFBD3-7364-4A40-82AD-5ED8F1EC60C8}" name="Precio_1" dataDxfId="53"/>
+    <tableColumn id="27" xr3:uid="{7BAA5845-FEF8-4AF0-A034-4502EA6425FB}" name="Variante_2" dataDxfId="52"/>
+    <tableColumn id="26" xr3:uid="{055AC0B8-B715-4865-A615-F93F51BDB937}" name="Precio_2" dataDxfId="51"/>
+    <tableColumn id="34" xr3:uid="{E986E95A-C830-4C89-88DC-A69F64460E34}" name="Variante_3" dataDxfId="50"/>
+    <tableColumn id="33" xr3:uid="{15105E85-D580-466D-8DEA-A21111029F6E}" name="Precio_3" dataDxfId="49"/>
+    <tableColumn id="50" xr3:uid="{86C9CDBF-0B44-4420-A48E-6FF93F44FE71}" name="Variable_filtro1" dataDxfId="48"/>
+    <tableColumn id="49" xr3:uid="{29F0FFEC-DA2B-4599-9D83-29AA5C05A4F0}" name="Variable_filtro2" dataDxfId="47"/>
+    <tableColumn id="48" xr3:uid="{4B1206D9-C4A0-496A-A7B2-086AF0122968}" name="Variable_filtro3" dataDxfId="46"/>
+    <tableColumn id="9" xr3:uid="{EE306381-1575-4475-A9CE-5592A93932BB}" name="Descripción (Indicar qué permite ver o hacer el producto) " dataDxfId="45"/>
+    <tableColumn id="35" xr3:uid="{C39FDC20-ABE5-4151-B056-F4B5E12D47DD}" name="CAR_Tipo_Prod" dataDxfId="44"/>
+    <tableColumn id="36" xr3:uid="{C8D4ECC0-DE7A-41BF-A6E9-9964E26F4261}" name="CAR_Var1_Disponible" dataDxfId="43"/>
+    <tableColumn id="39" xr3:uid="{87F44B21-0148-4ECE-9BC5-6D8A4C1030F3}" name="CAR_Periodo" dataDxfId="42"/>
+    <tableColumn id="37" xr3:uid="{DB23C32C-B4CE-4982-8D0A-F32C01C6CF98}" name="CAR_Proveedor" dataDxfId="41"/>
+    <tableColumn id="38" xr3:uid="{887C31F6-B5D9-48A2-AC60-3BBFDA8C2D93}" name="CAR_Colección" dataDxfId="40">
       <calculatedColumnFormula>SHOPIFY[[#This Row],[Data]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{465FFD71-9838-46F8-96D9-04071B46AADF}" name="ESP_Tecnología" dataDxfId="63">
+    <tableColumn id="10" xr3:uid="{465FFD71-9838-46F8-96D9-04071B46AADF}" name="ESP_Tecnología" dataDxfId="39">
       <calculatedColumnFormula>PRODUCTOS[[#This Row],[Tecnología]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{EC2BE421-D8F5-4218-AF58-90E90B893031}" name="Host " dataDxfId="62"/>
-    <tableColumn id="12" xr3:uid="{E79C574B-B7A1-469C-8F8F-2D0CFAE51341}" name="Link Odoo" dataDxfId="61"/>
-    <tableColumn id="13" xr3:uid="{3809FE9C-54F9-4CF7-B339-2E0041642249}" name="Fecha Publicación" dataDxfId="60"/>
-    <tableColumn id="14" xr3:uid="{F596F3F4-DDEC-4196-A3BB-82BA12090401}" name="País" dataDxfId="59"/>
-    <tableColumn id="15" xr3:uid="{8ABA9F49-20E7-4D44-969F-61983CB570CF}" name="Escala " dataDxfId="58"/>
-    <tableColumn id="16" xr3:uid="{96768B2C-E9AB-4A4C-B2EA-54B345E4B2EE}" name="ESP_Periodo" dataDxfId="57"/>
-    <tableColumn id="40" xr3:uid="{B886925D-5342-4EF0-BEC7-231A532CD384}" name="ESP_Incluye" dataDxfId="56"/>
-    <tableColumn id="41" xr3:uid="{3B13D200-0F79-4222-81F3-6523101D8224}" name="ESP_Uso_Disp." dataDxfId="55"/>
-    <tableColumn id="42" xr3:uid="{36761705-B510-456F-B13C-7C1F1691A844}" name="ESP_Fuentes " dataDxfId="54"/>
-    <tableColumn id="43" xr3:uid="{51F4D077-A0BB-4F59-B19A-FA245554DE68}" name="ACC_Recibirás" dataDxfId="53"/>
-    <tableColumn id="44" xr3:uid="{5291A2DA-9FCC-47E6-8092-612F754EE474}" name="ACC_Licencia_uso" dataDxfId="52"/>
-    <tableColumn id="17" xr3:uid="{77D650B5-1F6E-4D9B-91EE-AFD5F57BC1C1}" name="ACC_Actualizaciones" dataDxfId="51"/>
-    <tableColumn id="45" xr3:uid="{9AD5E5EE-A8BD-4739-AE89-A1B8EC4723F5}" name="ACC_N°_usuarios" dataDxfId="50"/>
-    <tableColumn id="18" xr3:uid="{AC3AE441-67FC-4118-9DEB-4484BC70FA5A}" name="Etiquetas" dataDxfId="49"/>
-    <tableColumn id="22" xr3:uid="{0EAB21ED-E5E2-4B44-8E8C-DA03632B81CB}" name="Vistas" dataDxfId="48"/>
+    <tableColumn id="11" xr3:uid="{EC2BE421-D8F5-4218-AF58-90E90B893031}" name="Host " dataDxfId="38"/>
+    <tableColumn id="12" xr3:uid="{E79C574B-B7A1-469C-8F8F-2D0CFAE51341}" name="Link Odoo" dataDxfId="37"/>
+    <tableColumn id="13" xr3:uid="{3809FE9C-54F9-4CF7-B339-2E0041642249}" name="Fecha Publicación" dataDxfId="36"/>
+    <tableColumn id="14" xr3:uid="{F596F3F4-DDEC-4196-A3BB-82BA12090401}" name="País" dataDxfId="35"/>
+    <tableColumn id="15" xr3:uid="{8ABA9F49-20E7-4D44-969F-61983CB570CF}" name="Escala " dataDxfId="34"/>
+    <tableColumn id="16" xr3:uid="{96768B2C-E9AB-4A4C-B2EA-54B345E4B2EE}" name="ESP_Periodo" dataDxfId="33"/>
+    <tableColumn id="40" xr3:uid="{B886925D-5342-4EF0-BEC7-231A532CD384}" name="ESP_Incluye" dataDxfId="32"/>
+    <tableColumn id="41" xr3:uid="{3B13D200-0F79-4222-81F3-6523101D8224}" name="ESP_Uso_Disp." dataDxfId="31"/>
+    <tableColumn id="42" xr3:uid="{36761705-B510-456F-B13C-7C1F1691A844}" name="ESP_Fuentes " dataDxfId="30"/>
+    <tableColumn id="43" xr3:uid="{51F4D077-A0BB-4F59-B19A-FA245554DE68}" name="ACC_Recibirás" dataDxfId="29"/>
+    <tableColumn id="44" xr3:uid="{5291A2DA-9FCC-47E6-8092-612F754EE474}" name="ACC_Licencia_uso" dataDxfId="28"/>
+    <tableColumn id="17" xr3:uid="{77D650B5-1F6E-4D9B-91EE-AFD5F57BC1C1}" name="ACC_Actualizaciones" dataDxfId="27"/>
+    <tableColumn id="45" xr3:uid="{9AD5E5EE-A8BD-4739-AE89-A1B8EC4723F5}" name="ACC_N°_usuarios" dataDxfId="26"/>
+    <tableColumn id="18" xr3:uid="{AC3AE441-67FC-4118-9DEB-4484BC70FA5A}" name="Etiquetas" dataDxfId="25"/>
+    <tableColumn id="22" xr3:uid="{0EAB21ED-E5E2-4B44-8E8C-DA03632B81CB}" name="Vistas" dataDxfId="24"/>
     <tableColumn id="23" xr3:uid="{4146A4AA-B422-4A23-AFC0-891AE3F78FEE}" name="Repositorio Dropbox"/>
     <tableColumn id="24" xr3:uid="{44B7EB22-51ED-4A59-9AAA-14197F95E149}" name="Link Logo"/>
-    <tableColumn id="28" xr3:uid="{4352BE36-B76B-41FB-8592-7009FF2F8409}" name="Observaciones" dataDxfId="47"/>
-    <tableColumn id="29" xr3:uid="{2127F871-F5E7-448D-8C26-8CF290798729}" name="Miniatura" dataDxfId="46"/>
+    <tableColumn id="28" xr3:uid="{4352BE36-B76B-41FB-8592-7009FF2F8409}" name="Observaciones" dataDxfId="23"/>
+    <tableColumn id="29" xr3:uid="{2127F871-F5E7-448D-8C26-8CF290798729}" name="Miniatura" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -14336,7 +14535,7 @@
         <v>123</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>1618</v>
+        <v>1611</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="46" t="s">
@@ -14604,7 +14803,7 @@
         <v>139</v>
       </c>
       <c r="G19" s="186" t="s">
-        <v>1619</v>
+        <v>1612</v>
       </c>
       <c r="H19" s="7"/>
       <c r="I19" s="46" t="s">
@@ -15442,7 +15641,7 @@
       </c>
       <c r="F30" s="60"/>
       <c r="G30" s="53" t="s">
-        <v>1558</v>
+        <v>1555</v>
       </c>
       <c r="H30" s="110"/>
     </row>
@@ -15464,10 +15663,10 @@
       </c>
       <c r="F31" s="60"/>
       <c r="G31" s="20" t="s">
-        <v>1559</v>
+        <v>1556</v>
       </c>
       <c r="H31" s="110" t="s">
-        <v>1560</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="32" spans="1:8" s="56" customFormat="1" x14ac:dyDescent="0.3">
@@ -22093,7 +22292,7 @@
       </c>
       <c r="F30" s="7" t="str">
         <f>PRODUCTOS[[#This Row],[Nombre comercial]]</f>
-        <v>Avance del cáncer cervicouterino (2011-2018)</v>
+        <v>Resultados históricos Papanicolau (2011-2018)</v>
       </c>
       <c r="G30" s="7" t="e">
         <f>#REF!</f>
@@ -27588,10 +27787,10 @@
   </sheetPr>
   <dimension ref="B2:AA116"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="11" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="11" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I8" sqref="I8"/>
-      <selection pane="bottomLeft" activeCell="U117" sqref="U117"/>
+      <selection pane="bottomLeft" activeCell="K125" sqref="K125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -27621,168 +27820,168 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="W2" s="201" t="s">
-        <v>1620</v>
-      </c>
-      <c r="X2" s="201" t="s">
+      <c r="W2" s="200" t="s">
+        <v>1613</v>
+      </c>
+      <c r="X2" s="200" t="s">
         <v>1473</v>
       </c>
-      <c r="Y2" s="201" t="s">
+      <c r="Y2" s="200" t="s">
         <v>1474</v>
       </c>
-      <c r="Z2" s="201" t="s">
+      <c r="Z2" s="200" t="s">
         <v>1333</v>
       </c>
-      <c r="AA2" s="201" t="s">
+      <c r="AA2" s="200" t="s">
         <v>1475</v>
       </c>
     </row>
     <row r="3" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="V3" s="202" t="s">
+      <c r="V3" s="201" t="s">
         <v>1511</v>
       </c>
-      <c r="W3" s="202">
+      <c r="W3" s="201">
         <f>COUNTIF(BORRADOR_PRODUCTOS[[BD ]],"En proceso")</f>
         <v>9</v>
       </c>
-      <c r="X3" s="202">
+      <c r="X3" s="201">
         <f>COUNTIF(BORRADOR_PRODUCTOS[Plataforma],"En proceso")</f>
         <v>7</v>
       </c>
-      <c r="Y3" s="202">
+      <c r="Y3" s="201">
         <f>COUNTIF(BORRADOR_PRODUCTOS[Control Calidad],"En proceso")</f>
         <v>19</v>
       </c>
-      <c r="Z3" s="202">
+      <c r="Z3" s="201">
         <f>COUNTIF(BORRADOR_PRODUCTOS[Odoo],"En proceso")</f>
         <v>0</v>
       </c>
-      <c r="AA3" s="202">
+      <c r="AA3" s="201">
         <f>COUNTIF(BORRADOR_PRODUCTOS[Shopify],"En proceso")</f>
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="V4" s="202" t="s">
+      <c r="V4" s="201" t="s">
         <v>1513</v>
       </c>
-      <c r="W4" s="202">
+      <c r="W4" s="201">
         <f>COUNTIF(BORRADOR_PRODUCTOS[[BD ]],"En pausa")</f>
         <v>0</v>
       </c>
-      <c r="X4" s="202">
+      <c r="X4" s="201">
         <f>COUNTIF(BORRADOR_PRODUCTOS[Plataforma],"En pausa")</f>
         <v>0</v>
       </c>
-      <c r="Y4" s="202">
+      <c r="Y4" s="201">
         <f>COUNTIF(BORRADOR_PRODUCTOS[Control Calidad],"En pausa")</f>
         <v>5</v>
       </c>
-      <c r="Z4" s="202">
+      <c r="Z4" s="201">
         <f>COUNTIF(BORRADOR_PRODUCTOS[Odoo],"En pausa")</f>
         <v>0</v>
       </c>
-      <c r="AA4" s="202">
+      <c r="AA4" s="201">
         <f>COUNTIF(BORRADOR_PRODUCTOS[Shopify],"En pausa")</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="V5" s="202" t="s">
-        <v>1597</v>
-      </c>
-      <c r="W5" s="202">
+      <c r="V5" s="201" t="s">
+        <v>1590</v>
+      </c>
+      <c r="W5" s="201">
         <f>COUNTIF(BORRADOR_PRODUCTOS[[BD ]],"Caída")</f>
         <v>0</v>
       </c>
-      <c r="X5" s="202">
+      <c r="X5" s="201">
         <f>COUNTIF(BORRADOR_PRODUCTOS[Plataforma],"Caída")</f>
         <v>5</v>
       </c>
-      <c r="Y5" s="202">
+      <c r="Y5" s="201">
         <f>COUNTIF(BORRADOR_PRODUCTOS[Control Calidad],"Caída")</f>
         <v>0</v>
       </c>
-      <c r="Z5" s="202">
+      <c r="Z5" s="201">
         <f>COUNTIF(BORRADOR_PRODUCTOS[Odoo],"Caída")</f>
         <v>0</v>
       </c>
-      <c r="AA5" s="202">
+      <c r="AA5" s="201">
         <f>COUNTIF(BORRADOR_PRODUCTOS[Shopify],"Caída")</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="V6" s="202" t="s">
-        <v>1529</v>
-      </c>
-      <c r="W6" s="202">
+      <c r="V6" s="201" t="s">
+        <v>1528</v>
+      </c>
+      <c r="W6" s="201">
         <f>COUNTIF(BORRADOR_PRODUCTOS[[BD ]],"Pendiente")</f>
         <v>0</v>
       </c>
-      <c r="X6" s="202">
+      <c r="X6" s="201">
         <f>COUNTIF(BORRADOR_PRODUCTOS[Plataforma],"Pendiente")</f>
         <v>0</v>
       </c>
-      <c r="Y6" s="202">
+      <c r="Y6" s="201">
         <f>COUNTIF(BORRADOR_PRODUCTOS[Control Calidad],"Pendiente")</f>
         <v>0</v>
       </c>
-      <c r="Z6" s="202">
+      <c r="Z6" s="201">
         <f>COUNTIF(BORRADOR_PRODUCTOS[Odoo],"Pendiente")</f>
         <v>8</v>
       </c>
-      <c r="AA6" s="202">
+      <c r="AA6" s="201">
         <f>COUNTIF(BORRADOR_PRODUCTOS[Shopify],"Pendiente")</f>
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="V7" s="202" t="s">
+      <c r="V7" s="201" t="s">
         <v>1139</v>
       </c>
-      <c r="W7" s="202">
+      <c r="W7" s="201">
         <f>COUNTIF(BORRADOR_PRODUCTOS[[BD ]],"Lista")</f>
         <v>32</v>
       </c>
-      <c r="X7" s="202">
+      <c r="X7" s="201">
         <f>COUNTIF(BORRADOR_PRODUCTOS[Plataforma],"Lista")</f>
         <v>22</v>
       </c>
-      <c r="Y7" s="202">
+      <c r="Y7" s="201">
         <f>COUNTIF(BORRADOR_PRODUCTOS[Control Calidad],"Lista")</f>
         <v>0</v>
       </c>
-      <c r="Z7" s="202">
+      <c r="Z7" s="201">
         <f>COUNTIF(BORRADOR_PRODUCTOS[Odoo],"Lista")</f>
         <v>0</v>
       </c>
-      <c r="AA7" s="202">
+      <c r="AA7" s="201">
         <f>COUNTIF(BORRADOR_PRODUCTOS[Shopify],"Lista")</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="V8" s="202" t="s">
-        <v>1621</v>
-      </c>
-      <c r="W8" s="202">
+      <c r="V8" s="201" t="s">
+        <v>1614</v>
+      </c>
+      <c r="W8" s="201">
         <f>COUNTIF(BORRADOR_PRODUCTOS[[BD ]],"")</f>
         <v>64</v>
       </c>
-      <c r="X8" s="202">
+      <c r="X8" s="201">
         <f>COUNTIF(BORRADOR_PRODUCTOS[Plataforma],"")</f>
         <v>71</v>
       </c>
-      <c r="Y8" s="202">
+      <c r="Y8" s="201">
         <f>COUNTIF(BORRADOR_PRODUCTOS[Control Calidad],"")</f>
         <v>77</v>
       </c>
-      <c r="Z8" s="202">
+      <c r="Z8" s="201">
         <f>COUNTIF(BORRADOR_PRODUCTOS[Odoo],"")</f>
         <v>97</v>
       </c>
-      <c r="AA8" s="202">
+      <c r="AA8" s="201">
         <f>COUNTIF(BORRADOR_PRODUCTOS[Shopify],"")</f>
         <v>88</v>
       </c>
@@ -27849,7 +28048,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="12" spans="2:27" ht="24" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:27" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B12" s="27" t="s">
         <v>5</v>
       </c>
@@ -27902,7 +28101,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="13" spans="2:27" ht="24" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:27" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B13" s="27" t="s">
         <v>5</v>
       </c>
@@ -27951,7 +28150,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="14" spans="2:27" ht="24" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:27" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B14" s="27" t="s">
         <v>5</v>
       </c>
@@ -28000,12 +28199,12 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="15" spans="2:27" ht="24" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:27" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B15" s="27" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="107" t="s">
-        <v>1561</v>
+        <v>1558</v>
       </c>
       <c r="D15" s="23">
         <v>4</v>
@@ -28051,7 +28250,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="16" spans="2:27" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:27" ht="20.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="27" t="s">
         <v>5</v>
       </c>
@@ -28100,7 +28299,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="17" spans="2:21" ht="24" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:21" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B17" s="27" t="s">
         <v>4</v>
       </c>
@@ -28157,7 +28356,7 @@
         <v>44160</v>
       </c>
     </row>
-    <row r="18" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="B18" s="27" t="s">
         <v>4</v>
       </c>
@@ -28203,7 +28402,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="B19" s="27" t="s">
         <v>4</v>
       </c>
@@ -28249,7 +28448,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="B20" s="27" t="s">
         <v>4</v>
       </c>
@@ -28298,7 +28497,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="B21" s="27" t="s">
         <v>18</v>
       </c>
@@ -28353,7 +28552,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="22" spans="2:21" ht="24" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:21" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B22" s="27" t="s">
         <v>18</v>
       </c>
@@ -28399,7 +28598,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="23" spans="2:21" ht="24" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:21" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B23" s="27" t="s">
         <v>18</v>
       </c>
@@ -28445,7 +28644,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="24" spans="2:21" ht="24" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:21" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B24" s="27" t="s">
         <v>18</v>
       </c>
@@ -28491,7 +28690,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="25" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="B25" s="27" t="s">
         <v>11</v>
       </c>
@@ -28540,7 +28739,7 @@
         <v>1511</v>
       </c>
       <c r="R25" s="24" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="S25" s="24" t="s">
         <v>1511</v>
@@ -28550,7 +28749,7 @@
         <v>44167</v>
       </c>
     </row>
-    <row r="26" spans="2:21" ht="24" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:21" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B26" s="27" t="s">
         <v>11</v>
       </c>
@@ -28603,7 +28802,7 @@
         <v>44167</v>
       </c>
     </row>
-    <row r="27" spans="2:21" ht="24" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:21" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B27" s="27" t="s">
         <v>11</v>
       </c>
@@ -28656,7 +28855,7 @@
         <v>44167</v>
       </c>
     </row>
-    <row r="28" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="B28" s="27" t="s">
         <v>11</v>
       </c>
@@ -28704,7 +28903,7 @@
         <v>44167</v>
       </c>
     </row>
-    <row r="29" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="B29" s="27" t="s">
         <v>11</v>
       </c>
@@ -28752,7 +28951,7 @@
         <v>44167</v>
       </c>
     </row>
-    <row r="30" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="B30" s="27" t="s">
         <v>11</v>
       </c>
@@ -28798,7 +28997,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="31" spans="2:21" ht="24" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:21" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B31" s="27" t="s">
         <v>9</v>
       </c>
@@ -28845,17 +29044,17 @@
       </c>
       <c r="Q31" s="24"/>
       <c r="R31" s="24" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="S31" s="24" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="T31" s="28"/>
       <c r="U31" s="28">
         <v>44167</v>
       </c>
     </row>
-    <row r="32" spans="2:21" ht="24" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:21" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B32" s="27" t="s">
         <v>846</v>
       </c>
@@ -28906,7 +29105,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="33" spans="2:21" ht="36" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:21" ht="36" hidden="1" x14ac:dyDescent="0.35">
       <c r="B33" s="27" t="s">
         <v>8</v>
       </c>
@@ -28955,7 +29154,7 @@
         <v>1511</v>
       </c>
       <c r="R33" s="24" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="S33" s="24" t="s">
         <v>1511</v>
@@ -28965,7 +29164,7 @@
         <v>44167</v>
       </c>
     </row>
-    <row r="34" spans="2:21" ht="36" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:21" ht="36" hidden="1" x14ac:dyDescent="0.35">
       <c r="B34" s="27" t="s">
         <v>8</v>
       </c>
@@ -29011,7 +29210,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="B35" s="27" t="s">
         <v>8</v>
       </c>
@@ -29057,7 +29256,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="36" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="B36" s="27" t="s">
         <v>8</v>
       </c>
@@ -29103,7 +29302,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="37" spans="2:21" ht="24" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:21" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B37" s="27" t="s">
         <v>28</v>
       </c>
@@ -29160,7 +29359,7 @@
         <v>44167</v>
       </c>
     </row>
-    <row r="38" spans="2:21" ht="36" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:21" ht="36" hidden="1" x14ac:dyDescent="0.35">
       <c r="B38" s="27" t="s">
         <v>28</v>
       </c>
@@ -29209,7 +29408,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="39" spans="2:21" ht="24" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:21" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B39" s="27" t="s">
         <v>6</v>
       </c>
@@ -29260,7 +29459,7 @@
         <v>44167</v>
       </c>
     </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="B40" s="27" t="s">
         <v>6</v>
       </c>
@@ -29309,7 +29508,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="41" spans="2:21" ht="24" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:21" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B41" s="27" t="s">
         <v>6</v>
       </c>
@@ -29360,7 +29559,7 @@
         <v>44167</v>
       </c>
     </row>
-    <row r="42" spans="2:21" ht="24" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:21" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B42" s="27" t="s">
         <v>6</v>
       </c>
@@ -29552,7 +29751,7 @@
         <v>189</v>
       </c>
       <c r="N45" s="24" t="s">
-        <v>1573</v>
+        <v>1569</v>
       </c>
       <c r="O45" s="24" t="s">
         <v>1510</v>
@@ -29564,7 +29763,7 @@
         <v>1511</v>
       </c>
       <c r="R45" s="24" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="S45" s="24" t="s">
         <v>1511</v>
@@ -29870,7 +30069,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="52" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="B52" s="27" t="s">
         <v>3</v>
       </c>
@@ -29919,7 +30118,7 @@
         <v>44168</v>
       </c>
     </row>
-    <row r="53" spans="2:21" ht="48" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:21" ht="48" hidden="1" x14ac:dyDescent="0.35">
       <c r="B53" s="128" t="s">
         <v>3</v>
       </c>
@@ -29976,7 +30175,7 @@
         <v>44168</v>
       </c>
     </row>
-    <row r="54" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="B54" s="27" t="s">
         <v>3</v>
       </c>
@@ -30033,7 +30232,7 @@
         <v>44168</v>
       </c>
     </row>
-    <row r="55" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="B55" s="27" t="s">
         <v>3</v>
       </c>
@@ -30082,7 +30281,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="56" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="B56" s="27" t="s">
         <v>3</v>
       </c>
@@ -30131,7 +30330,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="57" spans="2:21" ht="24" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:21" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B57" s="27" t="s">
         <v>3</v>
       </c>
@@ -30180,7 +30379,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="58" spans="2:21" ht="24" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:21" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B58" s="27" t="s">
         <v>3</v>
       </c>
@@ -30229,7 +30428,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="59" spans="2:21" ht="24" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:21" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B59" s="27" t="s">
         <v>827</v>
       </c>
@@ -30278,7 +30477,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="60" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="B60" s="27" t="s">
         <v>10</v>
       </c>
@@ -30300,7 +30499,7 @@
       </c>
       <c r="H60" s="23"/>
       <c r="I60" s="29" t="s">
-        <v>1597</v>
+        <v>1590</v>
       </c>
       <c r="J60" s="25">
         <v>0.5</v>
@@ -30321,7 +30520,7 @@
         <v>1510</v>
       </c>
       <c r="P60" s="24" t="s">
-        <v>1597</v>
+        <v>1590</v>
       </c>
       <c r="Q60" s="24" t="s">
         <v>1513</v>
@@ -30335,7 +30534,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="61" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="B61" s="27" t="s">
         <v>10</v>
       </c>
@@ -30357,7 +30556,7 @@
       </c>
       <c r="H61" s="23"/>
       <c r="I61" s="29" t="s">
-        <v>1597</v>
+        <v>1590</v>
       </c>
       <c r="J61" s="25">
         <v>0.5</v>
@@ -30378,7 +30577,7 @@
         <v>1510</v>
       </c>
       <c r="P61" s="24" t="s">
-        <v>1597</v>
+        <v>1590</v>
       </c>
       <c r="Q61" s="24" t="s">
         <v>1513</v>
@@ -30392,7 +30591,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="62" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="B62" s="27" t="s">
         <v>10</v>
       </c>
@@ -30414,7 +30613,7 @@
       </c>
       <c r="H62" s="23"/>
       <c r="I62" s="29" t="s">
-        <v>1597</v>
+        <v>1590</v>
       </c>
       <c r="J62" s="25">
         <v>0.5</v>
@@ -30435,7 +30634,7 @@
         <v>1510</v>
       </c>
       <c r="P62" s="24" t="s">
-        <v>1597</v>
+        <v>1590</v>
       </c>
       <c r="Q62" s="24" t="s">
         <v>1513</v>
@@ -30449,7 +30648,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="63" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="B63" s="27" t="s">
         <v>10</v>
       </c>
@@ -30471,7 +30670,7 @@
       </c>
       <c r="H63" s="23"/>
       <c r="I63" s="29" t="s">
-        <v>1597</v>
+        <v>1590</v>
       </c>
       <c r="J63" s="25">
         <v>0.5</v>
@@ -30492,7 +30691,7 @@
         <v>1510</v>
       </c>
       <c r="P63" s="24" t="s">
-        <v>1597</v>
+        <v>1590</v>
       </c>
       <c r="Q63" s="24" t="s">
         <v>1513</v>
@@ -30506,7 +30705,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="64" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="B64" s="27" t="s">
         <v>10</v>
       </c>
@@ -30528,7 +30727,7 @@
       </c>
       <c r="H64" s="23"/>
       <c r="I64" s="29" t="s">
-        <v>1597</v>
+        <v>1590</v>
       </c>
       <c r="J64" s="25">
         <v>0.5</v>
@@ -30549,21 +30748,21 @@
         <v>1510</v>
       </c>
       <c r="P64" s="24" t="s">
-        <v>1597</v>
+        <v>1590</v>
       </c>
       <c r="Q64" s="24" t="s">
         <v>1513</v>
       </c>
       <c r="R64" s="24"/>
       <c r="S64" s="24" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="T64" s="28"/>
       <c r="U64" s="28">
         <v>44133</v>
       </c>
     </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="B65" s="27" t="s">
         <v>12</v>
       </c>
@@ -30616,7 +30815,7 @@
         <v>44168</v>
       </c>
     </row>
-    <row r="66" spans="2:21" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:21" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B66" s="27" t="s">
         <v>12</v>
       </c>
@@ -30652,7 +30851,7 @@
       <c r="T66" s="28"/>
       <c r="U66" s="28"/>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="B67" s="27" t="s">
         <v>15</v>
       </c>
@@ -30689,7 +30888,7 @@
       <c r="T67" s="28"/>
       <c r="U67" s="28"/>
     </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="B68" s="27" t="s">
         <v>15</v>
       </c>
@@ -30728,7 +30927,7 @@
       <c r="T68" s="28"/>
       <c r="U68" s="28"/>
     </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="B69" s="27" t="s">
         <v>9</v>
       </c>
@@ -30766,7 +30965,7 @@
       <c r="T69" s="28"/>
       <c r="U69" s="28"/>
     </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="B70" s="27" t="s">
         <v>9</v>
       </c>
@@ -30804,7 +31003,7 @@
       <c r="T70" s="28"/>
       <c r="U70" s="28"/>
     </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="B71" s="27" t="s">
         <v>9</v>
       </c>
@@ -30840,7 +31039,7 @@
       <c r="T71" s="28"/>
       <c r="U71" s="28"/>
     </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="B72" s="27" t="s">
         <v>831</v>
       </c>
@@ -30887,7 +31086,7 @@
         <v>1511</v>
       </c>
       <c r="R72" s="24" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="S72" s="24" t="s">
         <v>1511</v>
@@ -30897,7 +31096,7 @@
         <v>44168</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="B73" s="27" t="s">
         <v>831</v>
       </c>
@@ -30938,7 +31137,7 @@
       <c r="T73" s="28"/>
       <c r="U73" s="28"/>
     </row>
-    <row r="74" spans="2:21" ht="24" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:21" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B74" s="27" t="s">
         <v>7</v>
       </c>
@@ -30979,7 +31178,7 @@
       <c r="T74" s="28"/>
       <c r="U74" s="28"/>
     </row>
-    <row r="75" spans="2:21" ht="24" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:21" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B75" s="27" t="s">
         <v>7</v>
       </c>
@@ -31020,7 +31219,7 @@
       <c r="T75" s="28"/>
       <c r="U75" s="28"/>
     </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="B76" s="27" t="s">
         <v>832</v>
       </c>
@@ -31063,7 +31262,7 @@
       <c r="T76" s="28"/>
       <c r="U76" s="28"/>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="B77" s="27" t="s">
         <v>832</v>
       </c>
@@ -31103,7 +31302,7 @@
       <c r="T77" s="28"/>
       <c r="U77" s="28"/>
     </row>
-    <row r="78" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="B78" s="27" t="s">
         <v>668</v>
       </c>
@@ -31139,7 +31338,7 @@
       <c r="T78" s="28"/>
       <c r="U78" s="28"/>
     </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="B79" s="27" t="s">
         <v>668</v>
       </c>
@@ -31173,7 +31372,7 @@
       <c r="T79" s="28"/>
       <c r="U79" s="28"/>
     </row>
-    <row r="80" spans="2:21" ht="24" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:21" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B80" s="27" t="s">
         <v>1093</v>
       </c>
@@ -31220,7 +31419,7 @@
         <v>1511</v>
       </c>
       <c r="R80" s="24" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="S80" s="24" t="s">
         <v>1511</v>
@@ -31230,7 +31429,7 @@
         <v>44168</v>
       </c>
     </row>
-    <row r="81" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="B81" s="27" t="s">
         <v>845</v>
       </c>
@@ -31267,7 +31466,7 @@
       <c r="T81" s="28"/>
       <c r="U81" s="28"/>
     </row>
-    <row r="82" spans="2:21" ht="24" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:21" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B82" s="27" t="s">
         <v>846</v>
       </c>
@@ -31318,7 +31517,7 @@
         <v>44168</v>
       </c>
     </row>
-    <row r="83" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="B83" s="27" t="s">
         <v>924</v>
       </c>
@@ -31359,7 +31558,7 @@
       <c r="T83" s="40"/>
       <c r="U83" s="40"/>
     </row>
-    <row r="84" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="B84" s="27" t="s">
         <v>924</v>
       </c>
@@ -31400,7 +31599,7 @@
       <c r="T84" s="40"/>
       <c r="U84" s="40"/>
     </row>
-    <row r="85" spans="2:21" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:21" ht="28" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B85" s="27" t="s">
         <v>924</v>
       </c>
@@ -31441,7 +31640,7 @@
       <c r="T85" s="40"/>
       <c r="U85" s="40"/>
     </row>
-    <row r="86" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="B86" s="27" t="s">
         <v>924</v>
       </c>
@@ -31482,7 +31681,7 @@
       <c r="T86" s="40"/>
       <c r="U86" s="40"/>
     </row>
-    <row r="87" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="B87" s="27" t="s">
         <v>831</v>
       </c>
@@ -31500,7 +31699,7 @@
       </c>
       <c r="H87" s="23"/>
       <c r="I87" s="29" t="s">
-        <v>1598</v>
+        <v>1591</v>
       </c>
       <c r="J87" s="25"/>
       <c r="K87" s="24" t="s">
@@ -31519,7 +31718,7 @@
       <c r="T87" s="40"/>
       <c r="U87" s="40"/>
     </row>
-    <row r="88" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="B88" s="27" t="s">
         <v>14</v>
       </c>
@@ -31537,7 +31736,7 @@
       </c>
       <c r="H88" s="23"/>
       <c r="I88" s="29" t="s">
-        <v>1598</v>
+        <v>1591</v>
       </c>
       <c r="J88" s="25"/>
       <c r="K88" s="24"/>
@@ -31552,7 +31751,7 @@
       <c r="T88" s="40"/>
       <c r="U88" s="40"/>
     </row>
-    <row r="89" spans="2:21" ht="24" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:21" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B89" s="27" t="s">
         <v>4</v>
       </c>
@@ -31570,7 +31769,7 @@
       </c>
       <c r="H89" s="23"/>
       <c r="I89" s="29" t="s">
-        <v>1598</v>
+        <v>1591</v>
       </c>
       <c r="J89" s="25"/>
       <c r="K89" s="24"/>
@@ -31587,7 +31786,7 @@
       <c r="T89" s="40"/>
       <c r="U89" s="40"/>
     </row>
-    <row r="90" spans="2:21" ht="24" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:21" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B90" s="27" t="s">
         <v>4</v>
       </c>
@@ -31607,7 +31806,7 @@
       </c>
       <c r="H90" s="23"/>
       <c r="I90" s="29" t="s">
-        <v>1598</v>
+        <v>1591</v>
       </c>
       <c r="J90" s="25"/>
       <c r="K90" s="24"/>
@@ -31624,7 +31823,7 @@
       <c r="T90" s="40"/>
       <c r="U90" s="40"/>
     </row>
-    <row r="91" spans="2:21" ht="24" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:21" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B91" s="27" t="s">
         <v>4</v>
       </c>
@@ -31654,7 +31853,7 @@
         <v>99</v>
       </c>
       <c r="M91" s="26" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="N91" s="24" t="s">
         <v>1515</v>
@@ -31667,7 +31866,7 @@
       <c r="T91" s="40"/>
       <c r="U91" s="40"/>
     </row>
-    <row r="92" spans="2:21" ht="24" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:21" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B92" s="27" t="s">
         <v>4</v>
       </c>
@@ -31685,7 +31884,7 @@
       </c>
       <c r="H92" s="23"/>
       <c r="I92" s="29" t="s">
-        <v>1598</v>
+        <v>1591</v>
       </c>
       <c r="J92" s="25"/>
       <c r="K92" s="24"/>
@@ -31702,12 +31901,12 @@
       <c r="T92" s="40"/>
       <c r="U92" s="40"/>
     </row>
-    <row r="93" spans="2:21" ht="24" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:21" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B93" s="27" t="s">
         <v>5</v>
       </c>
       <c r="C93" s="24" t="s">
-        <v>1562</v>
+        <v>1559</v>
       </c>
       <c r="D93" s="23"/>
       <c r="E93" s="23" t="s">
@@ -31741,7 +31940,7 @@
       <c r="T93" s="40"/>
       <c r="U93" s="40"/>
     </row>
-    <row r="94" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="B94" s="27" t="s">
         <v>5</v>
       </c>
@@ -31780,7 +31979,7 @@
       <c r="T94" s="40"/>
       <c r="U94" s="40"/>
     </row>
-    <row r="95" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="B95" s="27" t="s">
         <v>5</v>
       </c>
@@ -31819,7 +32018,7 @@
       <c r="T95" s="40"/>
       <c r="U95" s="40"/>
     </row>
-    <row r="96" spans="2:21" ht="24" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:21" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B96" s="27" t="s">
         <v>5</v>
       </c>
@@ -31858,7 +32057,7 @@
       <c r="T96" s="40"/>
       <c r="U96" s="40"/>
     </row>
-    <row r="97" spans="2:21" ht="24" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:21" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B97" s="27" t="s">
         <v>5</v>
       </c>
@@ -31897,7 +32096,7 @@
       <c r="T97" s="40"/>
       <c r="U97" s="40"/>
     </row>
-    <row r="98" spans="2:21" ht="24" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:21" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B98" s="27" t="s">
         <v>5</v>
       </c>
@@ -31936,7 +32135,7 @@
       <c r="T98" s="40"/>
       <c r="U98" s="40"/>
     </row>
-    <row r="99" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="B99" s="128" t="s">
         <v>3</v>
       </c>
@@ -31973,7 +32172,7 @@
       <c r="T99" s="40"/>
       <c r="U99" s="40"/>
     </row>
-    <row r="100" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="B100" s="27" t="s">
         <v>3</v>
       </c>
@@ -32020,7 +32219,7 @@
         <v>44168</v>
       </c>
     </row>
-    <row r="101" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="B101" s="27" t="s">
         <v>6</v>
       </c>
@@ -32050,7 +32249,7 @@
       </c>
       <c r="L101" s="24"/>
       <c r="M101" s="187" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="N101" s="24" t="s">
         <v>1514</v>
@@ -32071,7 +32270,7 @@
         <v>44167</v>
       </c>
     </row>
-    <row r="102" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="B102" s="27" t="s">
         <v>6</v>
       </c>
@@ -32110,12 +32309,12 @@
       <c r="T102" s="40"/>
       <c r="U102" s="40"/>
     </row>
-    <row r="103" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="B103" s="27" t="s">
         <v>5</v>
       </c>
       <c r="C103" s="24" t="s">
-        <v>1563</v>
+        <v>1560</v>
       </c>
       <c r="D103" s="23"/>
       <c r="E103" s="23" t="s">
@@ -32149,12 +32348,12 @@
       <c r="T103" s="40"/>
       <c r="U103" s="40"/>
     </row>
-    <row r="104" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="B104" s="27" t="s">
         <v>5</v>
       </c>
       <c r="C104" s="43" t="s">
-        <v>1564</v>
+        <v>1561</v>
       </c>
       <c r="D104" s="23"/>
       <c r="E104" s="23" t="s">
@@ -32188,7 +32387,7 @@
       <c r="T104" s="40"/>
       <c r="U104" s="40"/>
     </row>
-    <row r="105" spans="2:21" ht="24" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:21" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B105" s="27" t="s">
         <v>6</v>
       </c>
@@ -32227,7 +32426,7 @@
       <c r="T105" s="40"/>
       <c r="U105" s="40"/>
     </row>
-    <row r="106" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="B106" s="27" t="s">
         <v>6</v>
       </c>
@@ -32266,7 +32465,7 @@
       <c r="T106" s="40"/>
       <c r="U106" s="40"/>
     </row>
-    <row r="107" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="B107" s="27" t="s">
         <v>6</v>
       </c>
@@ -32305,7 +32504,7 @@
       <c r="T107" s="40"/>
       <c r="U107" s="40"/>
     </row>
-    <row r="108" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="B108" s="27" t="s">
         <v>831</v>
       </c>
@@ -32350,7 +32549,7 @@
         <v>1511</v>
       </c>
       <c r="R108" s="24" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="S108" s="24" t="s">
         <v>1511</v>
@@ -32360,7 +32559,7 @@
         <v>44168</v>
       </c>
     </row>
-    <row r="109" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="B109" s="27" t="s">
         <v>831</v>
       </c>
@@ -32405,7 +32604,7 @@
         <v>1511</v>
       </c>
       <c r="R109" s="24" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="S109" s="24" t="s">
         <v>1511</v>
@@ -32415,7 +32614,7 @@
         <v>44168</v>
       </c>
     </row>
-    <row r="110" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="B110" s="27" t="s">
         <v>3</v>
       </c>
@@ -32462,7 +32661,7 @@
         <v>44168</v>
       </c>
     </row>
-    <row r="111" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="B111" s="27" t="s">
         <v>3</v>
       </c>
@@ -32509,7 +32708,7 @@
         <v>44168</v>
       </c>
     </row>
-    <row r="112" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="B112" s="27" t="s">
         <v>3</v>
       </c>
@@ -32556,7 +32755,7 @@
         <v>44168</v>
       </c>
     </row>
-    <row r="113" spans="2:21" ht="29" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="B113" s="27" t="s">
         <v>1426</v>
       </c>
@@ -32605,12 +32804,12 @@
         <v>44168</v>
       </c>
     </row>
-    <row r="114" spans="2:21" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:21" ht="28" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B114" s="27" t="s">
         <v>5</v>
       </c>
       <c r="C114" s="24" t="s">
-        <v>1565</v>
+        <v>1562</v>
       </c>
       <c r="D114" s="23"/>
       <c r="E114" s="23" t="s">
@@ -32661,7 +32860,7 @@
         <v>13</v>
       </c>
       <c r="C115" s="24" t="s">
-        <v>1628</v>
+        <v>1621</v>
       </c>
       <c r="D115" s="23"/>
       <c r="E115" s="23" t="s">
@@ -32691,7 +32890,7 @@
         <v>751</v>
       </c>
       <c r="N115" s="24" t="s">
-        <v>1633</v>
+        <v>1626</v>
       </c>
       <c r="O115" s="24" t="s">
         <v>1510</v>
@@ -32709,7 +32908,7 @@
         <v>44169</v>
       </c>
     </row>
-    <row r="116" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="116" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="B116" s="27" t="s">
         <v>14</v>
       </c>
@@ -32744,7 +32943,7 @@
         <v>751</v>
       </c>
       <c r="N116" s="24" t="s">
-        <v>1633</v>
+        <v>1626</v>
       </c>
       <c r="O116" s="24" t="s">
         <v>1510</v>
@@ -32870,12 +33069,12 @@
   </sheetPr>
   <dimension ref="A6:BF99"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="7" ySplit="7" topLeftCell="H92" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="7" ySplit="7" topLeftCell="Y14" activePane="bottomRight" state="frozen"/>
       <selection activeCell="J19" sqref="J19"/>
       <selection pane="topRight" activeCell="J19" sqref="J19"/>
       <selection pane="bottomLeft" activeCell="J19" sqref="J19"/>
-      <selection pane="bottomRight" activeCell="H100" sqref="H100"/>
+      <selection pane="bottomRight" activeCell="AE60" sqref="AE60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -32912,7 +33111,7 @@
     <col min="41" max="41" width="45.6328125" customWidth="1"/>
     <col min="42" max="42" width="12.81640625" customWidth="1"/>
     <col min="43" max="45" width="26.6328125" customWidth="1"/>
-    <col min="46" max="46" width="10.90625" style="5"/>
+    <col min="46" max="46" width="12.81640625" style="5" customWidth="1"/>
     <col min="48" max="48" width="20.453125" customWidth="1"/>
     <col min="49" max="49" width="12.1796875" customWidth="1"/>
     <col min="51" max="51" width="22.36328125" customWidth="1"/>
@@ -32949,7 +33148,7 @@
         <v>963</v>
       </c>
       <c r="I7" s="189" t="s">
-        <v>1570</v>
+        <v>1566</v>
       </c>
       <c r="J7" s="14" t="s">
         <v>92</v>
@@ -33081,7 +33280,7 @@
         <v>866</v>
       </c>
       <c r="BA7" s="117" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="BB7" s="119" t="s">
         <v>867</v>
@@ -33190,7 +33389,7 @@
         <v>Mapa de Femicidios en Chile (2010-2020)</v>
       </c>
       <c r="AE8" s="7" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="AF8" s="7" t="s">
         <v>194</v>
@@ -33620,7 +33819,7 @@
         <v>1261</v>
       </c>
       <c r="AO11" s="19" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="AP11" s="7"/>
       <c r="AQ11" s="7"/>
@@ -33955,7 +34154,7 @@
         <v>0</v>
       </c>
       <c r="AE14" s="7" t="s">
-        <v>1603</v>
+        <v>1596</v>
       </c>
       <c r="AF14" s="7" t="s">
         <v>194</v>
@@ -33996,7 +34195,7 @@
         <v>1261</v>
       </c>
       <c r="AT14" s="191" t="s">
-        <v>1553</v>
+        <v>1550</v>
       </c>
       <c r="AU14" s="7" t="s">
         <v>872</v>
@@ -34010,23 +34209,23 @@
         <v>INFOGRAM</v>
       </c>
       <c r="AX14" s="7" t="s">
-        <v>1590</v>
+        <v>1583</v>
       </c>
       <c r="AY14" s="7" t="s">
         <v>956</v>
       </c>
       <c r="AZ14" s="7" t="s">
-        <v>1591</v>
+        <v>1584</v>
       </c>
       <c r="BA14" s="7" t="s">
-        <v>1592</v>
+        <v>1585</v>
       </c>
       <c r="BB14" s="100"/>
       <c r="BC14" s="100"/>
       <c r="BD14" s="100"/>
       <c r="BE14" s="100"/>
       <c r="BF14" s="7" t="s">
-        <v>1554</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="15" spans="1:58" ht="70" customHeight="1" x14ac:dyDescent="0.35">
@@ -34108,7 +34307,7 @@
         <v>0</v>
       </c>
       <c r="AE15" s="7" t="s">
-        <v>1604</v>
+        <v>1597</v>
       </c>
       <c r="AF15" s="7" t="s">
         <v>194</v>
@@ -34137,7 +34336,7 @@
         <v>1166</v>
       </c>
       <c r="AP15" s="7" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="AQ15" s="7" t="s">
         <v>193</v>
@@ -34167,17 +34366,17 @@
         <v>956</v>
       </c>
       <c r="AZ15" s="7" t="s">
-        <v>1588</v>
+        <v>1581</v>
       </c>
       <c r="BA15" s="7" t="s">
-        <v>1587</v>
+        <v>1580</v>
       </c>
       <c r="BB15" s="100"/>
       <c r="BC15" s="100"/>
       <c r="BD15" s="100"/>
       <c r="BE15" s="100"/>
       <c r="BF15" s="7" t="s">
-        <v>1589</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="16" spans="1:58" ht="55.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -34602,7 +34801,7 @@
         <v>Instrumentos de Planificación Territorial (IPT)</v>
       </c>
       <c r="AE19" s="7" t="s">
-        <v>1606</v>
+        <v>1599</v>
       </c>
       <c r="AF19" s="19" t="s">
         <v>194</v>
@@ -34635,7 +34834,7 @@
         <v>1317</v>
       </c>
       <c r="AT19" s="193" t="s">
-        <v>1595</v>
+        <v>1588</v>
       </c>
       <c r="AU19" s="7" t="s">
         <v>872</v>
@@ -34649,7 +34848,7 @@
         <v>POWER BI</v>
       </c>
       <c r="AX19" s="7" t="s">
-        <v>1593</v>
+        <v>1586</v>
       </c>
       <c r="AY19" s="7" t="s">
         <v>956</v>
@@ -34671,7 +34870,7 @@
         <v>1</v>
       </c>
       <c r="BF19" s="7" t="s">
-        <v>1594</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="20" spans="1:58" ht="29" x14ac:dyDescent="0.35">
@@ -34740,7 +34939,7 @@
         <v>Cobertura de Centros de Educación</v>
       </c>
       <c r="AE20" s="7" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="AF20" s="19" t="s">
         <v>194</v>
@@ -34758,10 +34957,10 @@
       <c r="AM20" s="165"/>
       <c r="AN20" s="165"/>
       <c r="AO20" s="19" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="AP20" s="7" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="AQ20" s="7" t="s">
         <v>193</v>
@@ -34773,7 +34972,7 @@
         <v>1317</v>
       </c>
       <c r="AT20" s="191" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="AU20" s="7" t="s">
         <v>872</v>
@@ -34787,31 +34986,31 @@
         <v>ARCGISONLINE</v>
       </c>
       <c r="AX20" s="7" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="AY20" s="7" t="s">
         <v>956</v>
       </c>
       <c r="AZ20" s="7" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="BA20" s="7" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="BB20" s="7" t="s">
         <v>874</v>
       </c>
       <c r="BC20" s="7" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="BD20" s="7" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="BE20" s="7">
         <v>1</v>
       </c>
       <c r="BF20" s="7" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="21" spans="1:58" ht="95.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -34840,7 +35039,7 @@
         <v>216</v>
       </c>
       <c r="H21" s="99" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="I21" s="99"/>
       <c r="J21" s="2" t="str">
@@ -34883,7 +35082,7 @@
         <v>Ranking Comunal de Establecimientos Educacionales</v>
       </c>
       <c r="AE21" s="7" t="s">
-        <v>1607</v>
+        <v>1600</v>
       </c>
       <c r="AF21" s="19" t="s">
         <v>194</v>
@@ -34915,8 +35114,8 @@
       <c r="AS21" s="19" t="s">
         <v>1317</v>
       </c>
-      <c r="AT21" s="39">
-        <v>2018</v>
+      <c r="AT21" s="39" t="s">
+        <v>1550</v>
       </c>
       <c r="AU21" s="7" t="s">
         <v>872</v>
@@ -34936,10 +35135,10 @@
         <v>956</v>
       </c>
       <c r="AZ21" s="7" t="s">
+        <v>1538</v>
+      </c>
+      <c r="BA21" s="7" t="s">
         <v>1539</v>
-      </c>
-      <c r="BA21" s="7" t="s">
-        <v>1540</v>
       </c>
       <c r="BB21" s="7" t="s">
         <v>874</v>
@@ -34948,13 +35147,13 @@
         <v>875</v>
       </c>
       <c r="BD21" s="19" t="s">
-        <v>205</v>
+        <v>1500</v>
       </c>
       <c r="BE21" s="7">
         <v>1</v>
       </c>
       <c r="BF21" s="7" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="22" spans="1:58" ht="80.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -35023,28 +35222,28 @@
         <v>Calidad de la Educación</v>
       </c>
       <c r="AE22" s="7" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="AF22" s="7" t="s">
         <v>194</v>
       </c>
       <c r="AG22" s="121"/>
       <c r="AH22" s="7" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="AI22" s="7"/>
       <c r="AJ22" s="7" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="AK22" s="7"/>
       <c r="AL22" s="7"/>
       <c r="AM22" s="7"/>
       <c r="AN22" s="7"/>
       <c r="AO22" s="186" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="AP22" s="7" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="AQ22" s="7" t="s">
         <v>193</v>
@@ -35052,7 +35251,7 @@
       <c r="AR22" s="7"/>
       <c r="AS22" s="7"/>
       <c r="AT22" s="194" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="AU22" s="7" t="s">
         <v>872</v>
@@ -35066,25 +35265,25 @@
         <v>POWER BI</v>
       </c>
       <c r="AX22" s="7" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="AY22" s="7" t="s">
         <v>956</v>
       </c>
       <c r="AZ22" s="100" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="BA22" s="100" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="BB22" s="7" t="s">
         <v>874</v>
       </c>
       <c r="BC22" s="100" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="BD22" s="100" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="BE22" s="7">
         <v>1</v>
@@ -35119,10 +35318,10 @@
         <v>816</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>1552</v>
+        <v>1549</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>1600</v>
+        <v>1593</v>
       </c>
       <c r="J23" s="2" t="str">
         <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$J$114,3,0)</f>
@@ -35164,7 +35363,7 @@
         <v>Evaluación de Programas e Instituciones del servicio público (1997-2020).</v>
       </c>
       <c r="AE23" s="7" t="s">
-        <v>1548</v>
+        <v>1545</v>
       </c>
       <c r="AF23" s="19" t="s">
         <v>194</v>
@@ -35190,7 +35389,7 @@
         <v>1261</v>
       </c>
       <c r="AO23" s="19" t="s">
-        <v>1549</v>
+        <v>1546</v>
       </c>
       <c r="AP23" s="7" t="s">
         <v>1152</v>
@@ -35219,16 +35418,16 @@
         <v>POWER BI</v>
       </c>
       <c r="AX23" s="7" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="AY23" s="7" t="s">
         <v>956</v>
       </c>
       <c r="AZ23" s="101" t="s">
-        <v>1551</v>
+        <v>1548</v>
       </c>
       <c r="BA23" s="101" t="s">
-        <v>1550</v>
+        <v>1547</v>
       </c>
       <c r="BB23" s="7" t="s">
         <v>874</v>
@@ -35271,11 +35470,11 @@
       <c r="G24" s="2" t="s">
         <v>1332</v>
       </c>
-      <c r="H24" s="200" t="s">
-        <v>1601</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>1599</v>
+      <c r="H24" s="207" t="s">
+        <v>1594</v>
+      </c>
+      <c r="I24" s="205" t="s">
+        <v>1592</v>
       </c>
       <c r="J24" s="2" t="str">
         <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$J$114,3,0)</f>
@@ -35317,7 +35516,7 @@
         <v>Inventario de Gases de Efecto Invernadero en Chile (1990-2016)</v>
       </c>
       <c r="AE24" s="7" t="s">
-        <v>1608</v>
+        <v>1601</v>
       </c>
       <c r="AF24" s="19" t="s">
         <v>194</v>
@@ -35346,7 +35545,7 @@
         <v>1503</v>
       </c>
       <c r="AP24" s="182" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="AQ24" s="7" t="s">
         <v>193</v>
@@ -35372,16 +35571,16 @@
         <v>POWER BI</v>
       </c>
       <c r="AX24" s="7" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="AY24" s="7" t="s">
         <v>956</v>
       </c>
       <c r="AZ24" s="7" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="BA24" s="7" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="BB24" s="7" t="s">
         <v>874</v>
@@ -35693,7 +35892,7 @@
         <v>1261</v>
       </c>
       <c r="AO27" s="183" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="AP27" s="7" t="s">
         <v>953</v>
@@ -35722,29 +35921,29 @@
         <v>Por definir</v>
       </c>
       <c r="AX27" s="7" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="AY27" s="7" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="AZ27" s="7" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="BA27" s="7"/>
       <c r="BB27" s="7" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="BC27" s="7" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="BD27" s="7" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="BE27" s="7" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="BF27" s="7" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="28" spans="1:58" ht="43.5" x14ac:dyDescent="0.35">
@@ -35974,10 +36173,12 @@
       <c r="G30" s="99" t="s">
         <v>760</v>
       </c>
-      <c r="H30" s="99" t="s">
-        <v>1516</v>
-      </c>
-      <c r="I30" s="99"/>
+      <c r="H30" s="98" t="s">
+        <v>1634</v>
+      </c>
+      <c r="I30" s="99" t="s">
+        <v>1631</v>
+      </c>
       <c r="J30" s="2" t="str">
         <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$J$114,3,0)</f>
         <v>Listo</v>
@@ -36015,10 +36216,10 @@
       <c r="AC30" s="38"/>
       <c r="AD30" s="7" t="str">
         <f>PRODUCTOS[[#This Row],[Nombre comercial]]</f>
-        <v>Avance del cáncer cervicouterino (2011-2018)</v>
+        <v>Resultados históricos Papanicolau (2011-2018)</v>
       </c>
       <c r="AE30" s="7" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="AF30" s="7" t="s">
         <v>194</v>
@@ -36043,7 +36244,7 @@
         <v>1505</v>
       </c>
       <c r="AP30" s="182" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="AQ30" s="7" t="s">
         <v>193</v>
@@ -36069,7 +36270,7 @@
         <v>POWER BI</v>
       </c>
       <c r="AX30" s="7" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="AY30" s="7" t="s">
         <v>956</v>
@@ -36078,7 +36279,7 @@
         <v>1509</v>
       </c>
       <c r="BA30" s="7" t="s">
-        <v>1579</v>
+        <v>1573</v>
       </c>
       <c r="BB30" s="7" t="s">
         <v>874</v>
@@ -36192,14 +36393,14 @@
         <v>1509</v>
       </c>
       <c r="BA31" s="7" t="s">
-        <v>1579</v>
+        <v>1573</v>
       </c>
       <c r="BB31" s="7"/>
       <c r="BC31" s="7"/>
       <c r="BD31" s="7"/>
       <c r="BE31" s="7"/>
       <c r="BF31" s="7" t="s">
-        <v>1581</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="32" spans="1:58" ht="72.5" x14ac:dyDescent="0.35">
@@ -36228,9 +36429,11 @@
         <v>1197</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>1517</v>
-      </c>
-      <c r="I32" s="2"/>
+        <v>1516</v>
+      </c>
+      <c r="I32" s="205" t="s">
+        <v>1632</v>
+      </c>
       <c r="J32" s="2" t="str">
         <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$J$114,3,0)</f>
         <v>En Desarrollo</v>
@@ -36271,7 +36474,7 @@
         <v>Salud 24/7</v>
       </c>
       <c r="AE32" s="7" t="s">
-        <v>1610</v>
+        <v>1603</v>
       </c>
       <c r="AF32" s="7" t="s">
         <v>194</v>
@@ -36293,10 +36496,10 @@
         <v>1261</v>
       </c>
       <c r="AO32" s="19" t="s">
-        <v>1609</v>
+        <v>1602</v>
       </c>
       <c r="AP32" s="100" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="AQ32" s="7" t="s">
         <v>193</v>
@@ -36322,7 +36525,7 @@
         <v>ARCGIS-POWER BI</v>
       </c>
       <c r="AX32" s="7" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="AY32" s="7" t="s">
         <v>956</v>
@@ -36330,8 +36533,8 @@
       <c r="AZ32" s="7" t="s">
         <v>1509</v>
       </c>
-      <c r="BA32" s="100" t="s">
-        <v>1580</v>
+      <c r="BA32" s="101" t="s">
+        <v>1660</v>
       </c>
       <c r="BB32" s="7" t="s">
         <v>874</v>
@@ -36346,7 +36549,7 @@
         <v>1</v>
       </c>
       <c r="BF32" s="7" t="s">
-        <v>1582</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="33" spans="1:58" ht="143" x14ac:dyDescent="0.35">
@@ -36375,9 +36578,11 @@
         <v>943</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>1519</v>
-      </c>
-      <c r="I33" s="2"/>
+        <v>1518</v>
+      </c>
+      <c r="I33" s="206" t="s">
+        <v>1631</v>
+      </c>
       <c r="J33" s="2" t="str">
         <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$J$114,3,0)</f>
         <v>En Desarrollo</v>
@@ -36418,7 +36623,7 @@
         <v>Mapa Pueblos y  Comunidades Lingüisticas  de Guatemala</v>
       </c>
       <c r="AE33" s="7" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="AF33" s="7" t="s">
         <v>194</v>
@@ -36443,7 +36648,7 @@
         <v>1484</v>
       </c>
       <c r="AP33" s="7" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="AQ33" s="7" t="s">
         <v>765</v>
@@ -36469,16 +36674,16 @@
         <v>POWER BI</v>
       </c>
       <c r="AX33" s="7" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="AY33" s="7" t="s">
         <v>956</v>
       </c>
       <c r="AZ33" s="7" t="s">
-        <v>1575</v>
+        <v>1647</v>
       </c>
       <c r="BA33" s="7" t="s">
-        <v>1574</v>
+        <v>1645</v>
       </c>
       <c r="BB33" s="7" t="s">
         <v>874</v>
@@ -36522,7 +36727,7 @@
         <v>944</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="I34" s="2"/>
       <c r="J34" s="2" t="str">
@@ -36700,7 +36905,7 @@
       <c r="BE35" s="7"/>
       <c r="BF35" s="7"/>
     </row>
-    <row r="36" spans="1:58" ht="78" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:58" ht="145" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="str">
         <f>+VLOOKUP(D36,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0007</v>
@@ -36726,9 +36931,11 @@
         <v>922</v>
       </c>
       <c r="H36" s="99" t="s">
-        <v>1622</v>
-      </c>
-      <c r="I36" s="98"/>
+        <v>1615</v>
+      </c>
+      <c r="I36" s="205" t="s">
+        <v>1659</v>
+      </c>
       <c r="J36" s="2" t="str">
         <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$J$114,3,0)</f>
         <v>Listo</v>
@@ -36759,7 +36966,7 @@
       <c r="V36" s="2"/>
       <c r="W36" s="3"/>
       <c r="X36" s="7"/>
-      <c r="Y36" s="130" t="s">
+      <c r="Y36" s="14" t="s">
         <v>178</v>
       </c>
       <c r="AB36" s="7"/>
@@ -36768,8 +36975,8 @@
         <f>PRODUCTOS[[#This Row],[Nombre comercial]]</f>
         <v>Registro de Empresas</v>
       </c>
-      <c r="AE36" s="133" t="s">
-        <v>1547</v>
+      <c r="AE36" s="14" t="s">
+        <v>1544</v>
       </c>
       <c r="AF36" s="19" t="s">
         <v>194</v>
@@ -36791,10 +36998,10 @@
         <v>1261</v>
       </c>
       <c r="AO36" s="19" t="s">
-        <v>1544</v>
+        <v>1658</v>
       </c>
       <c r="AP36" s="7" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="AQ36" s="7" t="s">
         <v>193</v>
@@ -36805,8 +37012,8 @@
       <c r="AS36" s="19" t="s">
         <v>1261</v>
       </c>
-      <c r="AT36" s="195" t="s">
-        <v>1526</v>
+      <c r="AT36" s="208" t="s">
+        <v>1656</v>
       </c>
       <c r="AU36" s="7" t="s">
         <v>872</v>
@@ -36826,10 +37033,10 @@
         <v>956</v>
       </c>
       <c r="AZ36" s="101" t="s">
-        <v>1545</v>
-      </c>
-      <c r="BA36" s="100" t="s">
-        <v>1546</v>
+        <v>1657</v>
+      </c>
+      <c r="BA36" s="101" t="s">
+        <v>1543</v>
       </c>
       <c r="BB36" s="7" t="s">
         <v>874</v>
@@ -36837,17 +37044,17 @@
       <c r="BC36" s="7" t="s">
         <v>875</v>
       </c>
-      <c r="BD36" s="100" t="s">
-        <v>1154</v>
+      <c r="BD36" s="101" t="s">
+        <v>1661</v>
       </c>
       <c r="BE36" s="7">
         <v>1</v>
       </c>
       <c r="BF36" s="7" t="s">
-        <v>1543</v>
-      </c>
-    </row>
-    <row r="37" spans="1:58" ht="104" x14ac:dyDescent="0.35">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="37" spans="1:58" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A37" s="42" t="str">
         <f>+VLOOKUP(D37,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0004</v>
@@ -36875,7 +37082,9 @@
       <c r="H37" s="2" t="s">
         <v>1132</v>
       </c>
-      <c r="I37" s="2"/>
+      <c r="I37" s="205" t="s">
+        <v>1635</v>
+      </c>
       <c r="J37" s="2" t="str">
         <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$J$114,3,0)</f>
         <v>Listo</v>
@@ -36916,7 +37125,7 @@
         <v>Métricas e índices para la gestión municipal</v>
       </c>
       <c r="AE37" s="7" t="s">
-        <v>1605</v>
+        <v>1598</v>
       </c>
       <c r="AF37" s="19" t="s">
         <v>194</v>
@@ -36969,10 +37178,10 @@
         <v>956</v>
       </c>
       <c r="AZ37" s="101" t="s">
-        <v>1555</v>
+        <v>1552</v>
       </c>
       <c r="BA37" s="101" t="s">
-        <v>1556</v>
+        <v>1553</v>
       </c>
       <c r="BB37" s="7" t="s">
         <v>874</v>
@@ -36987,7 +37196,7 @@
         <v>1</v>
       </c>
       <c r="BF37" s="7" t="s">
-        <v>1557</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="38" spans="1:58" ht="24" x14ac:dyDescent="0.35">
@@ -37118,7 +37327,9 @@
       <c r="H39" s="2" t="s">
         <v>1229</v>
       </c>
-      <c r="I39" s="2"/>
+      <c r="I39" s="206" t="s">
+        <v>1631</v>
+      </c>
       <c r="J39" s="2" t="str">
         <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$J$114,3,0)</f>
         <v>Listo</v>
@@ -37163,7 +37374,7 @@
         <v>Mapa de Femicidios en Chile (2020)</v>
       </c>
       <c r="AE39" s="7" t="s">
-        <v>1602</v>
+        <v>1595</v>
       </c>
       <c r="AF39" s="19" t="s">
         <v>194</v>
@@ -37244,7 +37455,7 @@
         <v>1</v>
       </c>
       <c r="BF39" s="7" t="s">
-        <v>1571</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="40" spans="1:58" ht="61" customHeight="1" x14ac:dyDescent="0.35">
@@ -37498,7 +37709,7 @@
         <v>0003-02-00035</v>
       </c>
       <c r="G42" s="98" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
@@ -37850,10 +38061,10 @@
         <v>Índice de Calidad de Vida Urbana - Comparación 2017-2018-2019</v>
       </c>
       <c r="AE45" s="100" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="AF45" s="19" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="AG45" s="163"/>
       <c r="AH45" s="19" t="s">
@@ -37911,10 +38122,10 @@
         <v>956</v>
       </c>
       <c r="AZ45" s="100" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="BA45" s="100" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="BB45" s="7" t="s">
         <v>874</v>
@@ -38101,7 +38312,7 @@
         <v>Salvaguardas de la Cooperación Internacional</v>
       </c>
       <c r="AE47" s="7" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="AF47" s="7" t="s">
         <v>833</v>
@@ -38158,13 +38369,13 @@
         <v>POWER BI</v>
       </c>
       <c r="AX47" s="7" t="s">
-        <v>1583</v>
+        <v>1576</v>
       </c>
       <c r="AY47" s="7" t="s">
         <v>956</v>
       </c>
       <c r="AZ47" s="7" t="s">
-        <v>1584</v>
+        <v>1577</v>
       </c>
       <c r="BA47" s="100"/>
       <c r="BB47" s="7" t="s">
@@ -38174,13 +38385,13 @@
         <v>875</v>
       </c>
       <c r="BD47" s="7" t="s">
-        <v>1586</v>
+        <v>1579</v>
       </c>
       <c r="BE47" s="7">
         <v>1</v>
       </c>
       <c r="BF47" s="7" t="s">
-        <v>1585</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="48" spans="1:58" ht="83" customHeight="1" x14ac:dyDescent="0.35">
@@ -38249,10 +38460,10 @@
         <v>Índice de Calidad de Vida Urbana - Detalle 2018</v>
       </c>
       <c r="AE48" s="7" t="s">
-        <v>1611</v>
+        <v>1604</v>
       </c>
       <c r="AF48" s="19" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="AG48" s="163"/>
       <c r="AH48" s="19" t="s">
@@ -38278,7 +38489,7 @@
         <v>1411</v>
       </c>
       <c r="AP48" s="182" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="AQ48" s="7" t="s">
         <v>1117</v>
@@ -38310,10 +38521,10 @@
         <v>956</v>
       </c>
       <c r="AZ48" s="100" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="BA48" s="100" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="BB48" s="7" t="s">
         <v>874</v>
@@ -38397,10 +38608,10 @@
         <v>Índice de Calidad de Vida Urbana - Detalle 2019</v>
       </c>
       <c r="AE49" s="100" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="AF49" s="19" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="AG49" s="163"/>
       <c r="AH49" s="19" t="s">
@@ -38426,7 +38637,7 @@
         <v>1412</v>
       </c>
       <c r="AP49" s="182" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="AQ49" s="7" t="s">
         <v>1117</v>
@@ -38458,10 +38669,10 @@
         <v>956</v>
       </c>
       <c r="AZ49" s="100" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="BA49" s="100" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="BB49" s="7" t="s">
         <v>874</v>
@@ -38548,7 +38759,7 @@
         <v>Avance del COVID-19</v>
       </c>
       <c r="AE50" s="7" t="s">
-        <v>1612</v>
+        <v>1605</v>
       </c>
       <c r="AF50" s="19" t="s">
         <v>194</v>
@@ -38605,7 +38816,7 @@
         <v>POWER BI</v>
       </c>
       <c r="AX50" s="19" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="AY50" s="7" t="s">
         <v>956</v>
@@ -38614,7 +38825,7 @@
         <v>1420</v>
       </c>
       <c r="BA50" s="19" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="BB50" s="7" t="s">
         <v>874</v>
@@ -38699,7 +38910,7 @@
         <v>Avance del COVID-19</v>
       </c>
       <c r="AE51" s="7" t="s">
-        <v>1614</v>
+        <v>1607</v>
       </c>
       <c r="AF51" s="19" t="s">
         <v>194</v>
@@ -38756,7 +38967,7 @@
         <v>POWER BI</v>
       </c>
       <c r="AX51" s="19" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="AY51" s="7" t="s">
         <v>956</v>
@@ -38765,7 +38976,7 @@
         <v>1421</v>
       </c>
       <c r="BA51" s="19" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="BB51" s="7" t="s">
         <v>874</v>
@@ -38807,7 +39018,7 @@
         <v>909</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="I52" s="2"/>
       <c r="J52" s="2" t="str">
@@ -39049,7 +39260,7 @@
         <v>0</v>
       </c>
       <c r="AE54" s="7" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="AF54" s="7"/>
       <c r="AG54" s="122"/>
@@ -39456,10 +39667,10 @@
         <v>Índice de Calidad de Vida Urbana - Detalle 2017</v>
       </c>
       <c r="AE58" s="7" t="s">
-        <v>1613</v>
+        <v>1606</v>
       </c>
       <c r="AF58" s="19" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="AG58" s="163"/>
       <c r="AH58" s="19" t="s">
@@ -39485,7 +39696,7 @@
         <v>1415</v>
       </c>
       <c r="AP58" s="182" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="AQ58" s="7" t="s">
         <v>1117</v>
@@ -39517,10 +39728,10 @@
         <v>956</v>
       </c>
       <c r="AZ58" s="100" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="BA58" s="100" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="BB58" s="7" t="s">
         <v>874</v>
@@ -39607,10 +39818,10 @@
         <v>Calidad de Viviendas Urbanas</v>
       </c>
       <c r="AE59" s="100" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="AF59" s="19" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="AG59" s="163"/>
       <c r="AH59" s="19" t="s">
@@ -39636,7 +39847,7 @@
         <v>1488</v>
       </c>
       <c r="AP59" s="7" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="AQ59" s="7" t="s">
         <v>1117</v>
@@ -39648,7 +39859,7 @@
         <v>1261</v>
       </c>
       <c r="AT59" s="195" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="AU59" s="7" t="s">
         <v>872</v>
@@ -39668,10 +39879,10 @@
         <v>956</v>
       </c>
       <c r="AZ59" s="100" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="BA59" s="100" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="BB59" s="7" t="s">
         <v>874</v>
@@ -39686,7 +39897,7 @@
         <v>1</v>
       </c>
       <c r="BF59" s="7" t="s">
-        <v>1596</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="60" spans="1:58" ht="73.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -39760,7 +39971,7 @@
         <v>Evolución Delitos de Mayor Connotación Social (2008-2020)</v>
       </c>
       <c r="AE60" s="133" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="AF60" s="19" t="s">
         <v>194</v>
@@ -39785,7 +39996,7 @@
         <v>1416</v>
       </c>
       <c r="AP60" s="182" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="AQ60" s="19" t="s">
         <v>193</v>
@@ -39811,16 +40022,16 @@
         <v>POWER BI</v>
       </c>
       <c r="AX60" s="7" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="AY60" s="7" t="s">
         <v>956</v>
       </c>
       <c r="AZ60" s="101" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="BA60" s="101" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="BB60" s="7" t="s">
         <v>874</v>
@@ -39829,13 +40040,13 @@
         <v>875</v>
       </c>
       <c r="BD60" s="7" t="s">
-        <v>1572</v>
+        <v>1568</v>
       </c>
       <c r="BE60" s="7">
         <v>1</v>
       </c>
       <c r="BF60" s="7" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="61" spans="1:58" ht="24" x14ac:dyDescent="0.35">
@@ -41481,7 +41692,7 @@
         <v>Avance del COVID-19</v>
       </c>
       <c r="AE75" s="7" t="s">
-        <v>1615</v>
+        <v>1608</v>
       </c>
       <c r="AF75" s="19" t="s">
         <v>194</v>
@@ -41538,7 +41749,7 @@
         <v>POWER BI</v>
       </c>
       <c r="AX75" s="19" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="AY75" s="7" t="s">
         <v>956</v>
@@ -41547,7 +41758,7 @@
         <v>1420</v>
       </c>
       <c r="BA75" s="7" t="s">
-        <v>1579</v>
+        <v>1573</v>
       </c>
       <c r="BB75" s="7" t="s">
         <v>874</v>
@@ -41741,7 +41952,7 @@
       <c r="AN77" s="7"/>
       <c r="AO77" s="164"/>
       <c r="AP77" s="182" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="AQ77" s="7"/>
       <c r="AR77" s="7"/>
@@ -42696,7 +42907,7 @@
       <c r="BE86" s="7"/>
       <c r="BF86" s="7"/>
     </row>
-    <row r="87" spans="1:58" ht="24.5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:58" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A87" s="42" t="str">
         <f>+VLOOKUP(D87,'DATA`S'!$B$8:$C$34,2,0)</f>
         <v>0001</v>
@@ -42722,9 +42933,11 @@
         <v>1198</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>1523</v>
-      </c>
-      <c r="I87" s="2"/>
+        <v>1522</v>
+      </c>
+      <c r="I87" s="205" t="s">
+        <v>1632</v>
+      </c>
       <c r="J87" s="2" t="str">
         <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$J$114,3,0)</f>
         <v>No Iniciado</v>
@@ -43001,7 +43214,7 @@
         <v>Avance del COVID-19</v>
       </c>
       <c r="AE90" s="7" t="s">
-        <v>1616</v>
+        <v>1609</v>
       </c>
       <c r="AF90" s="56" t="s">
         <v>194</v>
@@ -43058,7 +43271,7 @@
         <v>POWER BI</v>
       </c>
       <c r="AX90" s="19" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="AY90" s="14" t="s">
         <v>956</v>
@@ -43067,7 +43280,7 @@
         <v>1419</v>
       </c>
       <c r="BA90" s="68" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="BB90" s="7" t="s">
         <v>874</v>
@@ -43162,7 +43375,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="92" spans="1:58" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:58" ht="143" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="42" t="str">
         <f>+VLOOKUP(D92,'DATA`S'!$B$8:$C$34,2,0)</f>
         <v>0018</v>
@@ -43187,8 +43400,12 @@
       <c r="G92" s="2" t="s">
         <v>817</v>
       </c>
-      <c r="H92" s="2"/>
-      <c r="I92" s="2"/>
+      <c r="H92" s="2" t="s">
+        <v>1549</v>
+      </c>
+      <c r="I92" s="205" t="s">
+        <v>1593</v>
+      </c>
       <c r="J92" s="2" t="str">
         <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$J$114,3,0)</f>
         <v>En Desarrollo</v>
@@ -43221,9 +43438,9 @@
       <c r="X92" s="7"/>
       <c r="AB92" s="7"/>
       <c r="AC92" s="13"/>
-      <c r="AD92" s="7">
+      <c r="AD92" s="7" t="str">
         <f>PRODUCTOS[[#This Row],[Nombre comercial]]</f>
-        <v>0</v>
+        <v>Evaluación de Programas e Instituciones del servicio público (1997-2020).</v>
       </c>
       <c r="AG92" s="123"/>
       <c r="AO92" s="47"/>
@@ -43267,7 +43484,9 @@
       <c r="H93" s="2" t="s">
         <v>1194</v>
       </c>
-      <c r="I93" s="2"/>
+      <c r="I93" s="206" t="s">
+        <v>1631</v>
+      </c>
       <c r="J93" s="2" t="str">
         <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$J$114,3,0)</f>
         <v>En Desarrollo</v>
@@ -43310,7 +43529,7 @@
         <v>Pueblos de Guatemala</v>
       </c>
       <c r="AE93" s="16" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="AF93" s="16" t="s">
         <v>194</v>
@@ -43335,7 +43554,7 @@
         <v>1498</v>
       </c>
       <c r="AP93" s="16" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="AQ93" s="19" t="s">
         <v>765</v>
@@ -43361,16 +43580,16 @@
         <v>POWER BI</v>
       </c>
       <c r="AX93" s="14" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="AY93" s="14" t="s">
         <v>956</v>
       </c>
       <c r="AZ93" s="7" t="s">
-        <v>1575</v>
+        <v>1648</v>
       </c>
       <c r="BA93" s="7" t="s">
-        <v>1574</v>
+        <v>1646</v>
       </c>
       <c r="BB93" s="16" t="s">
         <v>874</v>
@@ -43385,7 +43604,7 @@
         <v>1</v>
       </c>
       <c r="BF93" s="7" t="s">
-        <v>1578</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="94" spans="1:58" s="16" customFormat="1" ht="138" customHeight="1" x14ac:dyDescent="0.35">
@@ -43414,9 +43633,11 @@
         <v>1309</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>1524</v>
-      </c>
-      <c r="I94" s="2"/>
+        <v>1523</v>
+      </c>
+      <c r="I94" s="206" t="s">
+        <v>1631</v>
+      </c>
       <c r="J94" s="2" t="str">
         <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$J$114,3,0)</f>
         <v>En Desarrollo</v>
@@ -43459,10 +43680,10 @@
         <v>Comunidad Lingüística</v>
       </c>
       <c r="AE94" s="16" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="AF94" s="14" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="AG94" s="197"/>
       <c r="AH94" s="16" t="s">
@@ -43484,10 +43705,10 @@
         <v>1499</v>
       </c>
       <c r="AP94" s="16" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="AQ94" s="16" t="s">
-        <v>1576</v>
+        <v>1570</v>
       </c>
       <c r="AR94" s="16" t="s">
         <v>765</v>
@@ -43510,16 +43731,16 @@
         <v>POWER BI</v>
       </c>
       <c r="AX94" s="14" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="AY94" s="14" t="s">
         <v>956</v>
       </c>
       <c r="AZ94" s="7" t="s">
-        <v>1575</v>
+        <v>1647</v>
       </c>
       <c r="BA94" s="7" t="s">
-        <v>1574</v>
+        <v>1645</v>
       </c>
       <c r="BB94" s="16" t="s">
         <v>874</v>
@@ -43530,11 +43751,11 @@
       <c r="BD94" s="16" t="s">
         <v>1500</v>
       </c>
-      <c r="BE94" s="16">
+      <c r="BE94" s="10">
         <v>1</v>
       </c>
       <c r="BF94" s="14" t="s">
-        <v>1577</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="95" spans="1:58" ht="24.5" x14ac:dyDescent="0.35">
@@ -43614,6 +43835,7 @@
         <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
         <v>ARCGISONLINE</v>
       </c>
+      <c r="BE95" s="5"/>
     </row>
     <row r="96" spans="1:58" ht="87" x14ac:dyDescent="0.35">
       <c r="A96" s="42" t="str">
@@ -43641,9 +43863,11 @@
         <v>1441</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>1525</v>
-      </c>
-      <c r="I96" s="2"/>
+        <v>1524</v>
+      </c>
+      <c r="I96" s="206" t="s">
+        <v>1631</v>
+      </c>
       <c r="J96" s="2" t="str">
         <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$J$114,3,0)</f>
         <v>Publicado</v>
@@ -43684,12 +43908,12 @@
         <v>Impactos del Huracán ETA en Honduras</v>
       </c>
       <c r="AE96" s="61" t="s">
-        <v>1617</v>
+        <v>1610</v>
       </c>
       <c r="AF96" s="16" t="s">
         <v>194</v>
       </c>
-      <c r="AG96" s="203">
+      <c r="AG96" s="202">
         <v>0</v>
       </c>
       <c r="AH96" s="16" t="s">
@@ -43741,16 +43965,16 @@
         <v>ARCGIS-POWER BI</v>
       </c>
       <c r="AX96" s="14" t="s">
-        <v>1593</v>
+        <v>1586</v>
       </c>
       <c r="AY96" s="14" t="s">
         <v>956</v>
       </c>
-      <c r="AZ96" s="204" t="s">
-        <v>1627</v>
+      <c r="AZ96" s="203" t="s">
+        <v>1620</v>
       </c>
       <c r="BA96" s="170" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="BB96" s="16" t="s">
         <v>874</v>
@@ -43759,13 +43983,13 @@
         <v>875</v>
       </c>
       <c r="BD96" s="170" t="s">
-        <v>1526</v>
-      </c>
-      <c r="BE96" s="16">
+        <v>1525</v>
+      </c>
+      <c r="BE96" s="10">
         <v>1</v>
       </c>
       <c r="BF96" s="14" t="s">
-        <v>1626</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="97" spans="1:58" ht="101.5" x14ac:dyDescent="0.35">
@@ -43778,7 +44002,7 @@
         <v>01</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>1566</v>
+        <v>1563</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>5</v>
@@ -43791,12 +44015,14 @@
         <v>0003-01-00090</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>1567</v>
-      </c>
-      <c r="H97" s="2" t="s">
-        <v>1568</v>
-      </c>
-      <c r="I97" s="2"/>
+        <v>1564</v>
+      </c>
+      <c r="H97" s="204" t="s">
+        <v>1633</v>
+      </c>
+      <c r="I97" s="205" t="s">
+        <v>1630</v>
+      </c>
       <c r="J97" s="2" t="str">
         <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$J$116,3,0)</f>
         <v>En Desarrollo</v>
@@ -43827,7 +44053,7 @@
       <c r="W97" s="7"/>
       <c r="X97" s="7"/>
       <c r="Y97" s="7" t="s">
-        <v>1569</v>
+        <v>1565</v>
       </c>
       <c r="Z97" s="7"/>
       <c r="AA97" s="19"/>
@@ -43835,10 +44061,10 @@
       <c r="AC97" s="7"/>
       <c r="AD97" s="7" t="str">
         <f>PRODUCTOS[[#This Row],[Nombre comercial]]</f>
-        <v>AGROSTAT - Estadísticas de Incendios Forestales</v>
+        <v>Causas y consecuencias de los incendios forestales en Chile. Región de la Araucanía</v>
       </c>
       <c r="AE97" s="7" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="AF97" s="191" t="s">
         <v>1148</v>
@@ -43864,10 +44090,10 @@
         <v>1261</v>
       </c>
       <c r="AO97" s="7" t="s">
-        <v>1625</v>
+        <v>1618</v>
       </c>
       <c r="AP97" s="7" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="AQ97" s="7" t="s">
         <v>1403</v>
@@ -43893,16 +44119,16 @@
         <v>POWER BI</v>
       </c>
       <c r="AX97" s="7" t="s">
-        <v>1623</v>
+        <v>1616</v>
       </c>
       <c r="AY97" s="7" t="s">
         <v>956</v>
       </c>
-      <c r="AZ97" s="129" t="s">
-        <v>1526</v>
-      </c>
-      <c r="BA97" s="129" t="s">
-        <v>1526</v>
+      <c r="AZ97" s="170" t="s">
+        <v>1525</v>
+      </c>
+      <c r="BA97" s="170" t="s">
+        <v>1525</v>
       </c>
       <c r="BB97" s="7" t="s">
         <v>874</v>
@@ -43910,17 +44136,17 @@
       <c r="BC97" s="7" t="s">
         <v>875</v>
       </c>
-      <c r="BD97" s="129" t="s">
-        <v>1526</v>
-      </c>
-      <c r="BE97" s="7">
+      <c r="BD97" s="170" t="s">
+        <v>1525</v>
+      </c>
+      <c r="BE97" s="191">
         <v>1</v>
       </c>
       <c r="BF97" s="130" t="s">
-        <v>1624</v>
-      </c>
-    </row>
-    <row r="98" spans="1:58" ht="29" x14ac:dyDescent="0.35">
+        <v>1617</v>
+      </c>
+    </row>
+    <row r="98" spans="1:58" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A98" s="42" t="str">
         <f>+VLOOKUP(D98,'DATA`S'!$B$8:$C$34,2,0)</f>
         <v>0012</v>
@@ -43930,7 +44156,7 @@
         <v>04</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>1629</v>
+        <v>1622</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>13</v>
@@ -43943,12 +44169,14 @@
         <v>0012-04-00091</v>
       </c>
       <c r="G98" s="2" t="s">
+        <v>1621</v>
+      </c>
+      <c r="H98" s="2" t="s">
         <v>1628</v>
       </c>
-      <c r="H98" s="2" t="s">
-        <v>1635</v>
-      </c>
-      <c r="I98" s="2"/>
+      <c r="I98" s="205" t="s">
+        <v>1643</v>
+      </c>
       <c r="J98" s="2" t="str">
         <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$J$116,3,0)</f>
         <v>Listo</v>
@@ -43957,8 +44185,14 @@
         <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$J$115,4,0)</f>
         <v>0.9</v>
       </c>
-      <c r="L98" s="2"/>
-      <c r="M98" s="2"/>
+      <c r="L98" s="2" t="str">
+        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$K$118,5,0)</f>
+        <v>Efraín</v>
+      </c>
+      <c r="M98" s="2" t="str">
+        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$L$118,6,0)</f>
+        <v>Efraín</v>
+      </c>
       <c r="N98" s="42" t="str">
         <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$S$115,7,0)</f>
         <v>GEE</v>
@@ -43973,26 +44207,95 @@
       <c r="V98" s="2"/>
       <c r="W98" s="3"/>
       <c r="X98" s="7"/>
-      <c r="Y98" s="130" t="s">
-        <v>1632</v>
+      <c r="Y98" s="171" t="s">
+        <v>1625</v>
       </c>
       <c r="AB98" s="7"/>
       <c r="AC98" s="13"/>
-      <c r="AG98" s="123"/>
-      <c r="AO98" s="47"/>
-      <c r="AT98" s="5" t="s">
-        <v>1630</v>
-      </c>
-      <c r="AV98" s="126" t="str">
+      <c r="AD98" s="7" t="str">
+        <f>PRODUCTOS[[#This Row],[Nombre comercial]]</f>
+        <v>Plataforma de Análisis y Monitoreo de focos de Fuego</v>
+      </c>
+      <c r="AE98" s="14" t="s">
+        <v>1642</v>
+      </c>
+      <c r="AF98" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="AG98" s="197"/>
+      <c r="AH98" s="14" t="s">
+        <v>1408</v>
+      </c>
+      <c r="AI98" s="170"/>
+      <c r="AJ98" s="7" t="s">
+        <v>1261</v>
+      </c>
+      <c r="AK98" s="7" t="s">
+        <v>1261</v>
+      </c>
+      <c r="AL98" s="199"/>
+      <c r="AM98" s="199"/>
+      <c r="AN98" s="16" t="s">
+        <v>1261</v>
+      </c>
+      <c r="AO98" s="61" t="s">
+        <v>1650</v>
+      </c>
+      <c r="AP98" s="16" t="s">
+        <v>1152</v>
+      </c>
+      <c r="AQ98" s="16" t="s">
+        <v>834</v>
+      </c>
+      <c r="AR98" s="14" t="s">
+        <v>1636</v>
+      </c>
+      <c r="AS98" s="16" t="s">
+        <v>1261</v>
+      </c>
+      <c r="AT98" s="10" t="s">
+        <v>1623</v>
+      </c>
+      <c r="AU98" s="16" t="s">
+        <v>872</v>
+      </c>
+      <c r="AV98" s="190" t="str">
         <f>PRODUCTOS[[#This Row],[Data]]</f>
         <v>DATARIESGO</v>
       </c>
-      <c r="AW98" s="126" t="str">
+      <c r="AW98" s="190" t="str">
         <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
         <v>GEE</v>
       </c>
-    </row>
-    <row r="99" spans="1:58" ht="29" x14ac:dyDescent="0.35">
+      <c r="AX98" s="14" t="s">
+        <v>873</v>
+      </c>
+      <c r="AY98" s="16" t="s">
+        <v>1637</v>
+      </c>
+      <c r="AZ98" s="203" t="s">
+        <v>1651</v>
+      </c>
+      <c r="BA98" s="110" t="s">
+        <v>1654</v>
+      </c>
+      <c r="BB98" s="16" t="s">
+        <v>874</v>
+      </c>
+      <c r="BC98" s="16" t="s">
+        <v>875</v>
+      </c>
+      <c r="BD98" s="16" t="s">
+        <v>1638</v>
+      </c>
+      <c r="BE98" s="10">
+        <v>1</v>
+      </c>
+      <c r="BF98" s="14" t="s">
+        <v>1644</v>
+      </c>
+    </row>
+    <row r="99" spans="1:58" ht="145" x14ac:dyDescent="0.35">
       <c r="A99" s="42" t="str">
         <f>+VLOOKUP(D99,'DATA`S'!$B$8:$C$34,2,0)</f>
         <v>0013</v>
@@ -44002,7 +44305,7 @@
         <v>04</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>1631</v>
+        <v>1624</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>14</v>
@@ -44018,9 +44321,11 @@
         <v>14</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>1636</v>
-      </c>
-      <c r="I99" s="2"/>
+        <v>1629</v>
+      </c>
+      <c r="I99" s="205" t="s">
+        <v>1649</v>
+      </c>
       <c r="J99" s="2" t="str">
         <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$J$116,3,0)</f>
         <v>Listo</v>
@@ -44029,8 +44334,14 @@
         <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$J$116,4,0)</f>
         <v>0.9</v>
       </c>
-      <c r="L99" s="2"/>
-      <c r="M99" s="2"/>
+      <c r="L99" s="2" t="str">
+        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$K$118,5,0)</f>
+        <v>Efraín</v>
+      </c>
+      <c r="M99" s="2" t="str">
+        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$L$118,6,0)</f>
+        <v>Efraín</v>
+      </c>
       <c r="N99" s="42" t="str">
         <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$S$116,7,0)</f>
         <v>GEE</v>
@@ -44045,41 +44356,113 @@
       <c r="V99" s="2"/>
       <c r="W99" s="3"/>
       <c r="X99" s="7"/>
-      <c r="Y99" s="130" t="s">
-        <v>1634</v>
+      <c r="Y99" s="171" t="s">
+        <v>1627</v>
       </c>
       <c r="AB99" s="7"/>
       <c r="AC99" s="13"/>
-      <c r="AG99" s="123"/>
-      <c r="AO99" s="47"/>
-      <c r="AV99" s="126" t="str">
+      <c r="AD99" s="7" t="str">
+        <f>PRODUCTOS[[#This Row],[Nombre comercial]]</f>
+        <v>Plataforma de Análisis y Monitoreo del Clima</v>
+      </c>
+      <c r="AE99" s="14" t="s">
+        <v>1640</v>
+      </c>
+      <c r="AF99" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="AG99" s="197"/>
+      <c r="AH99" s="14" t="s">
+        <v>1408</v>
+      </c>
+      <c r="AI99" s="170"/>
+      <c r="AJ99" s="7" t="s">
+        <v>1261</v>
+      </c>
+      <c r="AK99" s="7" t="s">
+        <v>1261</v>
+      </c>
+      <c r="AL99" s="199"/>
+      <c r="AM99" s="199"/>
+      <c r="AN99" s="16" t="s">
+        <v>1261</v>
+      </c>
+      <c r="AO99" s="61" t="s">
+        <v>1641</v>
+      </c>
+      <c r="AP99" s="16" t="s">
+        <v>1152</v>
+      </c>
+      <c r="AQ99" s="16" t="s">
+        <v>834</v>
+      </c>
+      <c r="AR99" s="14" t="s">
+        <v>1636</v>
+      </c>
+      <c r="AS99" s="16" t="s">
+        <v>1261</v>
+      </c>
+      <c r="AT99" s="10" t="s">
+        <v>1623</v>
+      </c>
+      <c r="AU99" s="16" t="s">
+        <v>872</v>
+      </c>
+      <c r="AV99" s="190" t="str">
         <f>PRODUCTOS[[#This Row],[Data]]</f>
         <v>DATACLIMA</v>
       </c>
-      <c r="AW99" s="126" t="str">
+      <c r="AW99" s="190" t="str">
         <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
         <v>GEE</v>
+      </c>
+      <c r="AX99" s="14" t="s">
+        <v>1639</v>
+      </c>
+      <c r="AY99" s="16" t="s">
+        <v>1637</v>
+      </c>
+      <c r="AZ99" s="203" t="s">
+        <v>1652</v>
+      </c>
+      <c r="BA99" s="110" t="s">
+        <v>1653</v>
+      </c>
+      <c r="BB99" s="16" t="s">
+        <v>874</v>
+      </c>
+      <c r="BC99" s="16" t="s">
+        <v>875</v>
+      </c>
+      <c r="BD99" s="16" t="s">
+        <v>1638</v>
+      </c>
+      <c r="BE99" s="10">
+        <v>1</v>
+      </c>
+      <c r="BF99" s="14" t="s">
+        <v>1655</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="J8:J96">
-    <cfRule type="containsText" dxfId="23" priority="21" operator="containsText" text="Caída">
+    <cfRule type="containsText" dxfId="200" priority="21" operator="containsText" text="Caída">
       <formula>NOT(ISERROR(SEARCH("Caída",J8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="22" operator="containsText" text="Publicado">
+    <cfRule type="containsText" dxfId="199" priority="22" operator="containsText" text="Publicado">
       <formula>NOT(ISERROR(SEARCH("Publicado",J8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="23" operator="containsText" text="En pausa">
+    <cfRule type="containsText" dxfId="198" priority="23" operator="containsText" text="En pausa">
       <formula>NOT(ISERROR(SEARCH("En pausa",J8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="24" operator="containsText" text="No Iniciado">
+    <cfRule type="containsText" dxfId="197" priority="24" operator="containsText" text="No Iniciado">
       <formula>NOT(ISERROR(SEARCH("No Iniciado",J8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="25" operator="containsText" text="Listo">
+    <cfRule type="containsText" dxfId="196" priority="25" operator="containsText" text="Listo">
       <formula>NOT(ISERROR(SEARCH("Listo",J8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="30" operator="containsText" text="En Desarrollo">
+    <cfRule type="containsText" dxfId="195" priority="30" operator="containsText" text="En Desarrollo">
       <formula>NOT(ISERROR(SEARCH("En Desarrollo",J8)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -44096,22 +44479,22 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J97">
-    <cfRule type="containsText" dxfId="17" priority="14" operator="containsText" text="Caída">
+    <cfRule type="containsText" dxfId="194" priority="14" operator="containsText" text="Caída">
       <formula>NOT(ISERROR(SEARCH("Caída",J97)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="15" operator="containsText" text="Publicado">
+    <cfRule type="containsText" dxfId="193" priority="15" operator="containsText" text="Publicado">
       <formula>NOT(ISERROR(SEARCH("Publicado",J97)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="16" operator="containsText" text="En pausa">
+    <cfRule type="containsText" dxfId="192" priority="16" operator="containsText" text="En pausa">
       <formula>NOT(ISERROR(SEARCH("En pausa",J97)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="17" operator="containsText" text="No Iniciado">
+    <cfRule type="containsText" dxfId="191" priority="17" operator="containsText" text="No Iniciado">
       <formula>NOT(ISERROR(SEARCH("No Iniciado",J97)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="18" operator="containsText" text="Listo">
+    <cfRule type="containsText" dxfId="190" priority="18" operator="containsText" text="Listo">
       <formula>NOT(ISERROR(SEARCH("Listo",J97)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="19" operator="containsText" text="En Desarrollo">
+    <cfRule type="containsText" dxfId="189" priority="19" operator="containsText" text="En Desarrollo">
       <formula>NOT(ISERROR(SEARCH("En Desarrollo",J97)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -44128,42 +44511,42 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J98">
-    <cfRule type="containsText" dxfId="11" priority="7" operator="containsText" text="Caída">
+    <cfRule type="containsText" dxfId="188" priority="7" operator="containsText" text="Caída">
       <formula>NOT(ISERROR(SEARCH("Caída",J98)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="8" operator="containsText" text="Publicado">
+    <cfRule type="containsText" dxfId="187" priority="8" operator="containsText" text="Publicado">
       <formula>NOT(ISERROR(SEARCH("Publicado",J98)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="En pausa">
+    <cfRule type="containsText" dxfId="186" priority="9" operator="containsText" text="En pausa">
       <formula>NOT(ISERROR(SEARCH("En pausa",J98)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="10" operator="containsText" text="No Iniciado">
+    <cfRule type="containsText" dxfId="185" priority="10" operator="containsText" text="No Iniciado">
       <formula>NOT(ISERROR(SEARCH("No Iniciado",J98)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="11" operator="containsText" text="Listo">
+    <cfRule type="containsText" dxfId="184" priority="11" operator="containsText" text="Listo">
       <formula>NOT(ISERROR(SEARCH("Listo",J98)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="12" operator="containsText" text="En Desarrollo">
+    <cfRule type="containsText" dxfId="183" priority="12" operator="containsText" text="En Desarrollo">
       <formula>NOT(ISERROR(SEARCH("En Desarrollo",J98)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J99">
-    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="Caída">
+    <cfRule type="containsText" dxfId="182" priority="1" operator="containsText" text="Caída">
       <formula>NOT(ISERROR(SEARCH("Caída",J99)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="Publicado">
+    <cfRule type="containsText" dxfId="181" priority="2" operator="containsText" text="Publicado">
       <formula>NOT(ISERROR(SEARCH("Publicado",J99)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="En pausa">
+    <cfRule type="containsText" dxfId="180" priority="3" operator="containsText" text="En pausa">
       <formula>NOT(ISERROR(SEARCH("En pausa",J99)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="No Iniciado">
+    <cfRule type="containsText" dxfId="179" priority="4" operator="containsText" text="No Iniciado">
       <formula>NOT(ISERROR(SEARCH("No Iniciado",J99)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="Listo">
+    <cfRule type="containsText" dxfId="178" priority="5" operator="containsText" text="Listo">
       <formula>NOT(ISERROR(SEARCH("Listo",J99)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="6" operator="containsText" text="En Desarrollo">
+    <cfRule type="containsText" dxfId="177" priority="6" operator="containsText" text="En Desarrollo">
       <formula>NOT(ISERROR(SEARCH("En Desarrollo",J99)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -44188,17 +44571,19 @@
     <hyperlink ref="AA14" r:id="rId18" xr:uid="{A4F2A365-3E22-4C17-9DEB-D4F21C6307B2}"/>
     <hyperlink ref="Y23" r:id="rId19" xr:uid="{69B14F5D-26A5-44E9-9EF8-580323DF3213}"/>
     <hyperlink ref="Y97" r:id="rId20" xr:uid="{141D1361-0BBF-43CB-A66A-360C3FE0F9C5}"/>
+    <hyperlink ref="Y98" r:id="rId21" xr:uid="{18D4A6CF-F73E-49D0-88CB-6F6F30B4826F}"/>
+    <hyperlink ref="Y99" r:id="rId22" xr:uid="{41761420-051A-4ACE-BD06-08D0BA5F3E14}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId21"/>
-  <drawing r:id="rId22"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId23"/>
+  <drawing r:id="rId24"/>
   <tableParts count="1">
-    <tablePart r:id="rId23"/>
+    <tablePart r:id="rId25"/>
   </tableParts>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{3A4CF648-6AED-40f4-86FF-DC5316D8AED3}">
       <x14:slicerList xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-        <x14:slicer r:id="rId24"/>
+        <x14:slicer r:id="rId26"/>
       </x14:slicerList>
     </ext>
   </extLst>

--- a/Monitoreo DI.xlsx
+++ b/Monitoreo DI.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karen\Dropbox\DI Monitoreo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karen\Dropbox\DI Monitoreo II\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B41A3619-A3CE-44D1-B74C-133426AA335F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA3C5813-D576-4605-A946-5682FF674782}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="833" firstSheet="2" activeTab="12" xr2:uid="{F0BF9B96-FFF4-4E12-841F-9553B6E1990E}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="833" firstSheet="2" activeTab="2" xr2:uid="{F0BF9B96-FFF4-4E12-841F-9553B6E1990E}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA`S" sheetId="1" r:id="rId1"/>
@@ -124,7 +124,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6682" uniqueCount="1662">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6682" uniqueCount="1663">
   <si>
     <t>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/DATASALUD.svg</t>
   </si>
@@ -6674,6 +6674,9 @@
   </si>
   <si>
     <t>Sin actualizaciones. En el mes de octubre se lanza nueva versión del producto.</t>
+  </si>
+  <si>
+    <t>Sistema de Información Digital para Control de Operaciones (SIDCO) - Corporación Nacional Forestal (CONAF)</t>
   </si>
 </sst>
 </file>
@@ -7163,7 +7166,7 @@
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="209">
+  <cellXfs count="210">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -7742,6 +7745,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -13724,7 +13730,7 @@
 
 <file path=xl/slicers/slicer2.xml><?xml version="1.0" encoding="utf-8"?>
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
-  <slicer name="Data" xr10:uid="{DC5B16C7-0AA8-4789-BE46-CC500A0CE2D1}" cache="SegmentaciónDeDatos_Data" caption="Data" startItem="2" columnCount="2" rowHeight="234950"/>
+  <slicer name="Data" xr10:uid="{DC5B16C7-0AA8-4789-BE46-CC500A0CE2D1}" cache="SegmentaciónDeDatos_Data" caption="Data" columnCount="2" rowHeight="234950"/>
   <slicer name="Estado" xr10:uid="{B5CDA16E-1F84-4290-AEF3-96C65DB4DD5A}" cache="SegmentaciónDeDatos_Estado" caption="Estado" columnCount="2" rowHeight="234950"/>
   <slicer name="Responsable Desarrollo" xr10:uid="{5F85B909-3D60-4494-A859-CB65DDAD43F0}" cache="SegmentaciónDeDatos_Responsable_Desarrollo" caption="Responsable Desarrollo" columnCount="3" rowHeight="234950"/>
   <slicer name="Responsable Información" xr10:uid="{1509BA93-0D1C-489B-BEEE-3640ADE75D86}" cache="SegmentaciónDeDatos_Responsable_Información" caption="Responsable Información" columnCount="4" rowHeight="234950"/>
@@ -13842,7 +13848,13 @@
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B0304927-521B-4559-963B-3C591C746F11}" name="PRODUCTOS" displayName="PRODUCTOS" ref="A7:BF99" totalsRowShown="0" headerRowDxfId="176">
-  <autoFilter ref="A7:BF99" xr:uid="{B45D9B6D-7E6E-4374-A7A8-688EAA2C002B}"/>
+  <autoFilter ref="A7:BF99" xr:uid="{B45D9B6D-7E6E-4374-A7A8-688EAA2C002B}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="DATAAGRO"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="58">
     <tableColumn id="1" xr3:uid="{01CFB9DB-FBAD-4A9E-9D8F-5FB3EB42A9EB}" name="id_data" dataDxfId="175" totalsRowDxfId="174">
       <calculatedColumnFormula>+VLOOKUP(D8,'DATA`S'!$B$8:$C$34,2,0)</calculatedColumnFormula>
@@ -27787,10 +27799,10 @@
   </sheetPr>
   <dimension ref="B2:AA116"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="11" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I8" sqref="I8"/>
-      <selection pane="bottomLeft" activeCell="K125" sqref="K125"/>
+      <selection pane="bottomLeft" activeCell="F120" sqref="F120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -33069,12 +33081,12 @@
   </sheetPr>
   <dimension ref="A6:BF99"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="7" ySplit="7" topLeftCell="Y14" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="7" ySplit="7" topLeftCell="Y67" activePane="bottomRight" state="frozen"/>
       <selection activeCell="J19" sqref="J19"/>
       <selection pane="topRight" activeCell="J19" sqref="J19"/>
       <selection pane="bottomLeft" activeCell="J19" sqref="J19"/>
-      <selection pane="bottomRight" activeCell="AE60" sqref="AE60"/>
+      <selection pane="bottomRight" activeCell="AD97" sqref="AD97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -33115,7 +33127,7 @@
     <col min="48" max="48" width="20.453125" customWidth="1"/>
     <col min="49" max="49" width="12.1796875" customWidth="1"/>
     <col min="51" max="51" width="22.36328125" customWidth="1"/>
-    <col min="52" max="52" width="16.1796875" customWidth="1"/>
+    <col min="52" max="52" width="20.1796875" customWidth="1"/>
     <col min="53" max="53" width="22.90625" customWidth="1"/>
     <col min="56" max="56" width="15.1796875" customWidth="1"/>
     <col min="58" max="58" width="32.6328125" customWidth="1"/>
@@ -33298,7 +33310,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="8" spans="1:58" ht="93" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:58" ht="93" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="str">
         <f>+VLOOKUP(D8,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0012</v>
@@ -33467,7 +33479,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="9" spans="1:58" ht="115.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:58" ht="115.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="str">
         <f>+VLOOKUP(D9,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0012</v>
@@ -33583,7 +33595,7 @@
       </c>
       <c r="BF9" s="7"/>
     </row>
-    <row r="10" spans="1:58" ht="78" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:58" ht="78" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="str">
         <f>+VLOOKUP(D10,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0012</v>
@@ -33725,7 +33737,7 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="11" spans="1:58" ht="63" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:58" ht="63" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="str">
         <f>+VLOOKUP(D11,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0012</v>
@@ -33857,7 +33869,7 @@
       </c>
       <c r="BF11" s="7"/>
     </row>
-    <row r="12" spans="1:58" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:58" ht="52.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="str">
         <f>+VLOOKUP(D12,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0012</v>
@@ -33965,7 +33977,7 @@
       <c r="BE12" s="7"/>
       <c r="BF12" s="7"/>
     </row>
-    <row r="13" spans="1:58" ht="63" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:58" ht="63" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="str">
         <f>+VLOOKUP(D13,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0012</v>
@@ -34073,7 +34085,7 @@
       <c r="BE13" s="7"/>
       <c r="BF13" s="7"/>
     </row>
-    <row r="14" spans="1:58" ht="78" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:58" ht="78" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="str">
         <f>+VLOOKUP(D14,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0008</v>
@@ -34228,7 +34240,7 @@
         <v>1551</v>
       </c>
     </row>
-    <row r="15" spans="1:58" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:58" ht="70" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="str">
         <f>+VLOOKUP(D15,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0022</v>
@@ -34379,7 +34391,7 @@
         <v>1582</v>
       </c>
     </row>
-    <row r="16" spans="1:58" ht="55.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:58" ht="55.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="str">
         <f>+VLOOKUP(D16,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0012</v>
@@ -34485,7 +34497,7 @@
       <c r="BE16" s="7"/>
       <c r="BF16" s="7"/>
     </row>
-    <row r="17" spans="1:58" ht="58" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:58" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="str">
         <f>+VLOOKUP(D17,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0004</v>
@@ -34614,7 +34626,7 @@
       </c>
       <c r="BF17" s="131"/>
     </row>
-    <row r="18" spans="1:58" ht="48" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:58" ht="48" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="str">
         <f>+VLOOKUP(D18,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0004</v>
@@ -34732,7 +34744,7 @@
       </c>
       <c r="BF18" s="131"/>
     </row>
-    <row r="19" spans="1:58" ht="87" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:58" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="str">
         <f>+VLOOKUP(D19,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0011</v>
@@ -34873,7 +34885,7 @@
         <v>1587</v>
       </c>
     </row>
-    <row r="20" spans="1:58" ht="29" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:58" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="str">
         <f>+VLOOKUP(D20,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0010</v>
@@ -35013,7 +35025,7 @@
         <v>1541</v>
       </c>
     </row>
-    <row r="21" spans="1:58" ht="95.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:58" ht="95.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="str">
         <f>+VLOOKUP(D21,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0010</v>
@@ -35156,7 +35168,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="22" spans="1:58" ht="80.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:58" ht="80.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="str">
         <f>+VLOOKUP(D22,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0010</v>
@@ -35292,7 +35304,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="23" spans="1:58" ht="149.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:58" ht="149.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="42" t="str">
         <f>+VLOOKUP(D23,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0018</v>
@@ -35445,7 +35457,7 @@
         <v>1407</v>
       </c>
     </row>
-    <row r="24" spans="1:58" ht="143" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:58" ht="143" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="str">
         <f>+VLOOKUP(D24,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0002</v>
@@ -35598,7 +35610,7 @@
         <v>1507</v>
       </c>
     </row>
-    <row r="25" spans="1:58" ht="29" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:58" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="str">
         <f>+VLOOKUP(D25,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0002</v>
@@ -35698,7 +35710,7 @@
       <c r="BE25" s="7"/>
       <c r="BF25" s="7"/>
     </row>
-    <row r="26" spans="1:58" ht="29" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:58" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="str">
         <f>+VLOOKUP(D26,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0002</v>
@@ -35800,7 +35812,7 @@
       <c r="BE26" s="7"/>
       <c r="BF26" s="7"/>
     </row>
-    <row r="27" spans="1:58" ht="48" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:58" ht="48" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="str">
         <f>+VLOOKUP(D27,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0002</v>
@@ -35946,7 +35958,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="28" spans="1:58" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:58" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="str">
         <f>+VLOOKUP(D28,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0002</v>
@@ -36046,7 +36058,7 @@
       <c r="BE28" s="7"/>
       <c r="BF28" s="7"/>
     </row>
-    <row r="29" spans="1:58" ht="24" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:58" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="str">
         <f>+VLOOKUP(D29,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0002</v>
@@ -36148,7 +36160,7 @@
       <c r="BE29" s="7"/>
       <c r="BF29" s="7"/>
     </row>
-    <row r="30" spans="1:58" ht="104" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:58" ht="104" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="str">
         <f>+VLOOKUP(D30,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0001</v>
@@ -36297,7 +36309,7 @@
         <v>1506</v>
       </c>
     </row>
-    <row r="31" spans="1:58" ht="36" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:58" ht="36" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="str">
         <f>+VLOOKUP(D31,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0001</v>
@@ -36403,7 +36415,7 @@
         <v>1574</v>
       </c>
     </row>
-    <row r="32" spans="1:58" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:58" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="str">
         <f>+VLOOKUP(D32,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0001</v>
@@ -36552,7 +36564,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="33" spans="1:58" ht="143" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:58" ht="143" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" s="42" t="str">
         <f>+VLOOKUP(D33,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0019</v>
@@ -36701,7 +36713,7 @@
         <v>1501</v>
       </c>
     </row>
-    <row r="34" spans="1:58" ht="29" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:58" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" s="42" t="str">
         <f>+VLOOKUP(D34,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0019</v>
@@ -36803,7 +36815,7 @@
       <c r="BE34" s="7"/>
       <c r="BF34" s="7"/>
     </row>
-    <row r="35" spans="1:58" ht="29" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:58" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" s="42" t="str">
         <f>+VLOOKUP(D35,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0004</v>
@@ -36905,7 +36917,7 @@
       <c r="BE35" s="7"/>
       <c r="BF35" s="7"/>
     </row>
-    <row r="36" spans="1:58" ht="145" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:58" ht="145" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="str">
         <f>+VLOOKUP(D36,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0007</v>
@@ -37054,7 +37066,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="37" spans="1:58" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:58" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" s="42" t="str">
         <f>+VLOOKUP(D37,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0004</v>
@@ -37199,7 +37211,7 @@
         <v>1554</v>
       </c>
     </row>
-    <row r="38" spans="1:58" ht="24" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:58" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" s="42" t="str">
         <f>+VLOOKUP(D38,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0021</v>
@@ -37299,7 +37311,7 @@
       <c r="BE38" s="7"/>
       <c r="BF38" s="7"/>
     </row>
-    <row r="39" spans="1:58" ht="77.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:58" ht="77.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="42" t="str">
         <f>+VLOOKUP(D39,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0012</v>
@@ -37792,7 +37804,7 @@
       <c r="BE42" s="7"/>
       <c r="BF42" s="7"/>
     </row>
-    <row r="43" spans="1:58" ht="24" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:58" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" s="42" t="str">
         <f>+VLOOKUP(D43,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0014</v>
@@ -37892,7 +37904,7 @@
       <c r="BE43" s="7"/>
       <c r="BF43" s="7"/>
     </row>
-    <row r="44" spans="1:58" ht="24" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:58" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" s="42" t="str">
         <f>+VLOOKUP(D44,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0014</v>
@@ -37992,7 +38004,7 @@
       <c r="BE44" s="7"/>
       <c r="BF44" s="7"/>
     </row>
-    <row r="45" spans="1:58" ht="104" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:58" ht="104" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" s="42" t="str">
         <f>+VLOOKUP(D45,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0009</v>
@@ -38143,7 +38155,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="46" spans="1:58" ht="29" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:58" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" s="42" t="str">
         <f>+VLOOKUP(D46,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0013</v>
@@ -38243,7 +38255,7 @@
       <c r="BE46" s="7"/>
       <c r="BF46" s="7"/>
     </row>
-    <row r="47" spans="1:58" ht="168" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:58" ht="168" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="str">
         <f>+VLOOKUP(D47,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0005</v>
@@ -38394,7 +38406,7 @@
         <v>1578</v>
       </c>
     </row>
-    <row r="48" spans="1:58" ht="83" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:58" ht="83" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="42" t="str">
         <f>+VLOOKUP(D48,'DATA`S'!$B$8:$C$34,2,0)</f>
         <v>0009</v>
@@ -38542,7 +38554,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="49" spans="1:58" ht="87.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:58" ht="87.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="42" t="str">
         <f>+VLOOKUP(D49,'DATA`S'!$B$8:$C$34,2,0)</f>
         <v>0009</v>
@@ -38690,7 +38702,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="50" spans="1:58" ht="78" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:58" ht="78" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" s="42" t="str">
         <f>+VLOOKUP(D50,'DATA`S'!$B$8:$C$34,2,0)</f>
         <v>0001</v>
@@ -38841,7 +38853,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="51" spans="1:58" ht="78" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:58" ht="78" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" s="42" t="str">
         <f>+VLOOKUP(D51,'DATA`S'!$B$8:$C$34,2,0)</f>
         <v>0001</v>
@@ -38992,7 +39004,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="52" spans="1:58" ht="29" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:58" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="str">
         <f>+VLOOKUP(D52,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0019</v>
@@ -39094,7 +39106,7 @@
       <c r="BE52" s="7"/>
       <c r="BF52" s="7"/>
     </row>
-    <row r="53" spans="1:58" ht="24" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:58" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="str">
         <f>+VLOOKUP(D53,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0017</v>
@@ -39196,7 +39208,7 @@
       <c r="BE53" s="7"/>
       <c r="BF53" s="7"/>
     </row>
-    <row r="54" spans="1:58" ht="24" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:58" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" s="42" t="str">
         <f>+VLOOKUP(D54,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0012</v>
@@ -39298,7 +39310,7 @@
       <c r="BE54" s="7"/>
       <c r="BF54" s="7"/>
     </row>
-    <row r="55" spans="1:58" ht="24" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:58" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55" s="42" t="str">
         <f>+VLOOKUP(D55,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0022</v>
@@ -39398,7 +39410,7 @@
       <c r="BE55" s="7"/>
       <c r="BF55" s="7"/>
     </row>
-    <row r="56" spans="1:58" ht="24" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:58" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" s="42" t="str">
         <f>+VLOOKUP(D56,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0023</v>
@@ -39498,7 +39510,7 @@
       <c r="BE56" s="7"/>
       <c r="BF56" s="7"/>
     </row>
-    <row r="57" spans="1:58" ht="24" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:58" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" s="42" t="str">
         <f>+VLOOKUP(D57,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0024</v>
@@ -39598,7 +39610,7 @@
       <c r="BE57" s="7"/>
       <c r="BF57" s="7"/>
     </row>
-    <row r="58" spans="1:58" ht="89.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:58" ht="89.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="42" t="str">
         <f>+VLOOKUP(D58,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0009</v>
@@ -39749,7 +39761,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="59" spans="1:58" ht="87" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:58" ht="87" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="42" t="str">
         <f>+VLOOKUP(D59,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0009</v>
@@ -39900,7 +39912,7 @@
         <v>1589</v>
       </c>
     </row>
-    <row r="60" spans="1:58" ht="73.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:58" ht="73.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="42" t="str">
         <f>+VLOOKUP(D60,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0016</v>
@@ -40049,7 +40061,7 @@
         <v>1535</v>
       </c>
     </row>
-    <row r="61" spans="1:58" ht="24" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:58" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61" s="42" t="str">
         <f>+VLOOKUP(D61,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0020</v>
@@ -40149,7 +40161,7 @@
       <c r="BE61" s="7"/>
       <c r="BF61" s="7"/>
     </row>
-    <row r="62" spans="1:58" ht="24" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:58" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62" s="42" t="str">
         <f>+VLOOKUP(D62,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0020</v>
@@ -40249,7 +40261,7 @@
       <c r="BE62" s="7"/>
       <c r="BF62" s="7"/>
     </row>
-    <row r="63" spans="1:58" ht="29" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:58" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63" s="42" t="str">
         <f>+VLOOKUP(D63,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0020</v>
@@ -40349,7 +40361,7 @@
       <c r="BE63" s="7"/>
       <c r="BF63" s="7"/>
     </row>
-    <row r="64" spans="1:58" ht="24" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:58" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="str">
         <f>+VLOOKUP(D64,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0020</v>
@@ -40449,7 +40461,7 @@
       <c r="BE64" s="7"/>
       <c r="BF64" s="7"/>
     </row>
-    <row r="65" spans="1:58" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:58" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="str">
         <f>+VLOOKUP(D65,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0006</v>
@@ -40553,7 +40565,7 @@
       <c r="BE65" s="7"/>
       <c r="BF65" s="7"/>
     </row>
-    <row r="66" spans="1:58" ht="91" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:58" ht="91" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="str">
         <f>+VLOOKUP(D66,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0006</v>
@@ -41623,7 +41635,7 @@
       </c>
       <c r="BF74" s="7"/>
     </row>
-    <row r="75" spans="1:58" ht="78" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:58" ht="78" hidden="1" x14ac:dyDescent="0.35">
       <c r="A75" s="42" t="str">
         <f>+VLOOKUP(D75,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0001</v>
@@ -41774,7 +41786,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="76" spans="1:58" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:58" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="42" t="str">
         <f>+VLOOKUP(D76,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0001</v>
@@ -41874,7 +41886,7 @@
       <c r="BE76" s="7"/>
       <c r="BF76" s="7"/>
     </row>
-    <row r="77" spans="1:58" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:58" ht="32.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="42" t="str">
         <f>+VLOOKUP(D77,'DATA`S'!$B$8:$C$33,2,0)</f>
         <v>0004</v>
@@ -42185,7 +42197,7 @@
       <c r="BE79" s="7"/>
       <c r="BF79" s="7"/>
     </row>
-    <row r="80" spans="1:58" ht="24" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:58" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="A80" s="42" t="str">
         <f>+VLOOKUP(D80,'DATA`S'!$B$8:$C$34,2,0)</f>
         <v>0004</v>
@@ -42289,7 +42301,7 @@
       <c r="BE80" s="7"/>
       <c r="BF80" s="7"/>
     </row>
-    <row r="81" spans="1:58" ht="24" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:58" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="A81" s="42" t="str">
         <f>+VLOOKUP(D81,'DATA`S'!$B$8:$C$34,2,0)</f>
         <v>0004</v>
@@ -42391,7 +42403,7 @@
       <c r="BE81" s="7"/>
       <c r="BF81" s="7"/>
     </row>
-    <row r="82" spans="1:58" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:58" ht="29.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="42" t="str">
         <f>+VLOOKUP(D82,'DATA`S'!$B$8:$C$34,2,0)</f>
         <v>0004</v>
@@ -42493,7 +42505,7 @@
       <c r="BE82" s="7"/>
       <c r="BF82" s="7"/>
     </row>
-    <row r="83" spans="1:58" ht="24" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:58" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="A83" s="42" t="str">
         <f>+VLOOKUP(D83,'DATA`S'!$B$8:$C$34,2,0)</f>
         <v>0004</v>
@@ -42597,7 +42609,7 @@
       <c r="BE83" s="7"/>
       <c r="BF83" s="7"/>
     </row>
-    <row r="84" spans="1:58" ht="24" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:58" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="A84" s="42" t="str">
         <f>+VLOOKUP(D84,'DATA`S'!$B$8:$C$34,2,0)</f>
         <v>0004</v>
@@ -42699,7 +42711,7 @@
       <c r="BE84" s="7"/>
       <c r="BF84" s="7"/>
     </row>
-    <row r="85" spans="1:58" ht="24" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:58" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="A85" s="42" t="str">
         <f>+VLOOKUP(D85,'DATA`S'!$B$8:$C$34,2,0)</f>
         <v>0004</v>
@@ -42803,7 +42815,7 @@
       <c r="BE85" s="7"/>
       <c r="BF85" s="7"/>
     </row>
-    <row r="86" spans="1:58" ht="24" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:58" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="A86" s="42" t="str">
         <f>+VLOOKUP(D86,'DATA`S'!$B$8:$C$34,2,0)</f>
         <v>0004</v>
@@ -42907,7 +42919,7 @@
       <c r="BE86" s="7"/>
       <c r="BF86" s="7"/>
     </row>
-    <row r="87" spans="1:58" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:58" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A87" s="42" t="str">
         <f>+VLOOKUP(D87,'DATA`S'!$B$8:$C$34,2,0)</f>
         <v>0001</v>
@@ -42991,7 +43003,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="88" spans="1:58" ht="24.5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:58" ht="24.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A88" s="42" t="str">
         <f>+VLOOKUP(D88,'DATA`S'!$B$8:$C$34,2,0)</f>
         <v>0001</v>
@@ -43068,7 +43080,7 @@
         <v>POWER BI</v>
       </c>
     </row>
-    <row r="89" spans="1:58" ht="24.5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:58" ht="24.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A89" s="42" t="str">
         <f>+VLOOKUP(D89,'DATA`S'!$B$8:$C$34,2,0)</f>
         <v>0001</v>
@@ -43145,7 +43157,7 @@
         <v>POWER BI</v>
       </c>
     </row>
-    <row r="90" spans="1:58" ht="78" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:58" ht="78" hidden="1" x14ac:dyDescent="0.35">
       <c r="A90" s="42" t="str">
         <f>+VLOOKUP(D90,'DATA`S'!$B$8:$C$34,2,0)</f>
         <v>0001</v>
@@ -43296,7 +43308,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="91" spans="1:58" ht="24.5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:58" ht="24.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A91" s="42" t="str">
         <f>+VLOOKUP(D91,'DATA`S'!$B$8:$C$34,2,0)</f>
         <v>0017</v>
@@ -43375,7 +43387,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="92" spans="1:58" ht="143" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:58" ht="143" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="42" t="str">
         <f>+VLOOKUP(D92,'DATA`S'!$B$8:$C$34,2,0)</f>
         <v>0018</v>
@@ -43456,7 +43468,7 @@
         <v>POWER BI</v>
       </c>
     </row>
-    <row r="93" spans="1:58" s="16" customFormat="1" ht="111.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:58" s="16" customFormat="1" ht="111.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" s="42" t="str">
         <f>+VLOOKUP(D93,'DATA`S'!$B$8:$C$34,2,0)</f>
         <v>0019</v>
@@ -43607,7 +43619,7 @@
         <v>1572</v>
       </c>
     </row>
-    <row r="94" spans="1:58" s="16" customFormat="1" ht="138" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:58" s="16" customFormat="1" ht="138" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" s="42" t="str">
         <f>+VLOOKUP(D94,'DATA`S'!$B$8:$C$34,2,0)</f>
         <v>0019</v>
@@ -43758,7 +43770,7 @@
         <v>1571</v>
       </c>
     </row>
-    <row r="95" spans="1:58" ht="24.5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:58" ht="24.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A95" s="42" t="str">
         <f>+VLOOKUP(D95,'DATA`S'!$B$8:$C$34,2,0)</f>
         <v>0001</v>
@@ -43837,7 +43849,7 @@
       </c>
       <c r="BE95" s="5"/>
     </row>
-    <row r="96" spans="1:58" ht="87" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:58" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A96" s="42" t="str">
         <f>+VLOOKUP(D96,'DATA`S'!$B$8:$C$34,2,0)</f>
         <v>0026</v>
@@ -44063,7 +44075,7 @@
         <f>PRODUCTOS[[#This Row],[Nombre comercial]]</f>
         <v>Causas y consecuencias de los incendios forestales en Chile. Región de la Araucanía</v>
       </c>
-      <c r="AE97" s="7" t="s">
+      <c r="AE97" s="100" t="s">
         <v>1528</v>
       </c>
       <c r="AF97" s="191" t="s">
@@ -44092,8 +44104,8 @@
       <c r="AO97" s="7" t="s">
         <v>1618</v>
       </c>
-      <c r="AP97" s="7" t="s">
-        <v>1525</v>
+      <c r="AP97" s="209" t="s">
+        <v>1152</v>
       </c>
       <c r="AQ97" s="7" t="s">
         <v>1403</v>
@@ -44124,11 +44136,11 @@
       <c r="AY97" s="7" t="s">
         <v>956</v>
       </c>
-      <c r="AZ97" s="170" t="s">
-        <v>1525</v>
-      </c>
-      <c r="BA97" s="170" t="s">
-        <v>1525</v>
+      <c r="AZ97" s="35" t="s">
+        <v>1662</v>
+      </c>
+      <c r="BA97" s="35" t="s">
+        <v>1662</v>
       </c>
       <c r="BB97" s="7" t="s">
         <v>874</v>
@@ -44146,7 +44158,7 @@
         <v>1617</v>
       </c>
     </row>
-    <row r="98" spans="1:58" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:58" ht="159.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A98" s="42" t="str">
         <f>+VLOOKUP(D98,'DATA`S'!$B$8:$C$34,2,0)</f>
         <v>0012</v>
@@ -44295,7 +44307,7 @@
         <v>1644</v>
       </c>
     </row>
-    <row r="99" spans="1:58" ht="145" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:58" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A99" s="42" t="str">
         <f>+VLOOKUP(D99,'DATA`S'!$B$8:$C$34,2,0)</f>
         <v>0013</v>

--- a/Monitoreo DI.xlsx
+++ b/Monitoreo DI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karen\Dropbox\DI Monitoreo II\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CD587B0-9762-4DCF-9762-C5E853FCEB3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7AD123E-FC05-4A1C-8FAF-AD3184B34112}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="833" activeTab="2" xr2:uid="{F0BF9B96-FFF4-4E12-841F-9553B6E1990E}"/>
   </bookViews>
@@ -124,7 +124,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6685" uniqueCount="1687">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6687" uniqueCount="1687">
   <si>
     <t>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/DATASALUD.svg</t>
   </si>
@@ -7121,7 +7121,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -7248,13 +7248,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="211">
+  <cellXfs count="214">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -7838,6 +7849,15 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
@@ -11084,13 +11104,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:rowOff>10795</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>768509</xdr:colOff>
+      <xdr:colOff>771684</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>425903</xdr:rowOff>
+      <xdr:rowOff>429078</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
       <mc:Choice Requires="sle15">
@@ -11162,13 +11182,13 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>763746</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>30208</xdr:rowOff>
+      <xdr:rowOff>27033</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>288131</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>353785</xdr:rowOff>
+      <xdr:rowOff>350610</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
       <mc:Choice Requires="sle15">
@@ -11238,13 +11258,13 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1608932</xdr:colOff>
+      <xdr:colOff>1612107</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>74568</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1323068</xdr:colOff>
+      <xdr:colOff>1326243</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>340179</xdr:rowOff>
     </xdr:to>
@@ -11316,15 +11336,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1536496</xdr:colOff>
+      <xdr:colOff>1533321</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>54429</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>752475</xdr:colOff>
+      <xdr:colOff>749300</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>370568</xdr:rowOff>
+      <xdr:rowOff>373743</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
       <mc:Choice Requires="sle15">
@@ -11394,15 +11414,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>334734</xdr:colOff>
+      <xdr:colOff>331559</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>48078</xdr:rowOff>
+      <xdr:rowOff>44903</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>2412545</xdr:colOff>
+      <xdr:colOff>2409370</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>408214</xdr:rowOff>
+      <xdr:rowOff>411389</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
       <mc:Choice Requires="sle15">
@@ -11472,13 +11492,13 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>37</xdr:col>
-      <xdr:colOff>217261</xdr:colOff>
+      <xdr:colOff>220436</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>40</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
+      <xdr:colOff>311150</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>326573</xdr:rowOff>
     </xdr:to>
@@ -13819,7 +13839,7 @@
 
 <file path=xl/slicers/slicer2.xml><?xml version="1.0" encoding="utf-8"?>
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
-  <slicer name="Data" xr10:uid="{DC5B16C7-0AA8-4789-BE46-CC500A0CE2D1}" cache="SegmentaciónDeDatos_Data" caption="Data" columnCount="2" rowHeight="234950"/>
+  <slicer name="Data" xr10:uid="{DC5B16C7-0AA8-4789-BE46-CC500A0CE2D1}" cache="SegmentaciónDeDatos_Data" caption="Data" startItem="10" columnCount="2" rowHeight="234950"/>
   <slicer name="Estado" xr10:uid="{B5CDA16E-1F84-4290-AEF3-96C65DB4DD5A}" cache="SegmentaciónDeDatos_Estado" caption="Estado" columnCount="2" rowHeight="234950"/>
   <slicer name="Responsable Desarrollo" xr10:uid="{5F85B909-3D60-4494-A859-CB65DDAD43F0}" cache="SegmentaciónDeDatos_Responsable_Desarrollo" caption="Responsable Desarrollo" columnCount="3" rowHeight="234950"/>
   <slicer name="Responsable Información" xr10:uid="{1509BA93-0D1C-489B-BEEE-3640ADE75D86}" cache="SegmentaciónDeDatos_Responsable_Información" caption="Responsable Información" columnCount="4" rowHeight="234950"/>
@@ -13901,7 +13921,7 @@
   <autoFilter ref="B11:U116" xr:uid="{488C7ADA-DF10-4033-BE01-B6478A789716}">
     <filterColumn colId="0">
       <filters>
-        <filter val="DATAAGRO"/>
+        <filter val="DATADELITO"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -13937,13 +13957,7 @@
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B0304927-521B-4559-963B-3C591C746F11}" name="PRODUCTOS" displayName="PRODUCTOS" ref="A7:BF99" totalsRowShown="0" headerRowDxfId="176">
-  <autoFilter ref="A7:BF99" xr:uid="{B45D9B6D-7E6E-4374-A7A8-688EAA2C002B}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="DATACLIMA"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A7:BF99" xr:uid="{B45D9B6D-7E6E-4374-A7A8-688EAA2C002B}"/>
   <tableColumns count="58">
     <tableColumn id="1" xr3:uid="{01CFB9DB-FBAD-4A9E-9D8F-5FB3EB42A9EB}" name="id_data" dataDxfId="175" totalsRowDxfId="174">
       <calculatedColumnFormula>+VLOOKUP(D8,'DATA`S'!$B$8:$C$35,2,0)</calculatedColumnFormula>
@@ -14510,7 +14524,7 @@
   <dimension ref="B5:K35"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -27909,7 +27923,7 @@
     <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="11" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I8" sqref="I8"/>
-      <selection pane="bottomLeft" activeCell="F127" sqref="F127"/>
+      <selection pane="bottomLeft" activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -28167,7 +28181,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="12" spans="2:27" ht="24" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:27" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B12" s="27" t="s">
         <v>5</v>
       </c>
@@ -28220,7 +28234,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="13" spans="2:27" ht="24" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:27" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B13" s="27" t="s">
         <v>5</v>
       </c>
@@ -28269,7 +28283,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="14" spans="2:27" ht="24" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:27" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B14" s="27" t="s">
         <v>5</v>
       </c>
@@ -28318,7 +28332,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="15" spans="2:27" ht="24" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:27" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B15" s="27" t="s">
         <v>5</v>
       </c>
@@ -28369,7 +28383,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="16" spans="2:27" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:27" ht="20.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="27" t="s">
         <v>5</v>
       </c>
@@ -28616,7 +28630,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="21" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B21" s="27" t="s">
         <v>18</v>
       </c>
@@ -28671,7 +28685,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="22" spans="2:21" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:21" ht="24" x14ac:dyDescent="0.35">
       <c r="B22" s="27" t="s">
         <v>18</v>
       </c>
@@ -28717,7 +28731,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="23" spans="2:21" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:21" ht="24" x14ac:dyDescent="0.35">
       <c r="B23" s="27" t="s">
         <v>18</v>
       </c>
@@ -28763,7 +28777,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="24" spans="2:21" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:21" ht="24" x14ac:dyDescent="0.35">
       <c r="B24" s="27" t="s">
         <v>18</v>
       </c>
@@ -32020,7 +32034,7 @@
       <c r="T92" s="40"/>
       <c r="U92" s="40"/>
     </row>
-    <row r="93" spans="2:21" ht="24" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:21" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B93" s="27" t="s">
         <v>5</v>
       </c>
@@ -32059,7 +32073,7 @@
       <c r="T93" s="40"/>
       <c r="U93" s="40"/>
     </row>
-    <row r="94" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="B94" s="27" t="s">
         <v>5</v>
       </c>
@@ -32098,7 +32112,7 @@
       <c r="T94" s="40"/>
       <c r="U94" s="40"/>
     </row>
-    <row r="95" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="B95" s="27" t="s">
         <v>5</v>
       </c>
@@ -32137,7 +32151,7 @@
       <c r="T95" s="40"/>
       <c r="U95" s="40"/>
     </row>
-    <row r="96" spans="2:21" ht="24" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:21" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B96" s="27" t="s">
         <v>5</v>
       </c>
@@ -32176,7 +32190,7 @@
       <c r="T96" s="40"/>
       <c r="U96" s="40"/>
     </row>
-    <row r="97" spans="2:21" ht="24" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:21" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B97" s="27" t="s">
         <v>5</v>
       </c>
@@ -32215,7 +32229,7 @@
       <c r="T97" s="40"/>
       <c r="U97" s="40"/>
     </row>
-    <row r="98" spans="2:21" ht="24" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:21" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B98" s="27" t="s">
         <v>5</v>
       </c>
@@ -32428,7 +32442,7 @@
       <c r="T102" s="40"/>
       <c r="U102" s="40"/>
     </row>
-    <row r="103" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="B103" s="27" t="s">
         <v>5</v>
       </c>
@@ -32467,7 +32481,7 @@
       <c r="T103" s="40"/>
       <c r="U103" s="40"/>
     </row>
-    <row r="104" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="B104" s="27" t="s">
         <v>5</v>
       </c>
@@ -32923,7 +32937,7 @@
         <v>44168</v>
       </c>
     </row>
-    <row r="114" spans="2:21" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:21" ht="28" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B114" s="27" t="s">
         <v>1677</v>
       </c>
@@ -33106,7 +33120,7 @@
   <dimension ref="B4:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -33186,14 +33200,14 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A6:BF99"/>
+  <dimension ref="A6:BF125"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="7" ySplit="7" topLeftCell="H8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="7" topLeftCell="AD95" activePane="bottomRight" state="frozen"/>
       <selection activeCell="J19" sqref="J19"/>
       <selection pane="topRight" activeCell="J19" sqref="J19"/>
       <selection pane="bottomLeft" activeCell="J19" sqref="J19"/>
-      <selection pane="bottomRight" activeCell="AD99" sqref="AD99"/>
+      <selection pane="bottomRight" activeCell="AE99" sqref="AE99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -33417,7 +33431,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="8" spans="1:58" ht="93" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:58" ht="93" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="str">
         <f>+VLOOKUP(D8,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0012</v>
@@ -33586,7 +33600,7 @@
         <v>1682</v>
       </c>
     </row>
-    <row r="9" spans="1:58" ht="115.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:58" ht="115.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="str">
         <f>+VLOOKUP(D9,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0012</v>
@@ -33702,7 +33716,7 @@
       </c>
       <c r="BF9" s="7"/>
     </row>
-    <row r="10" spans="1:58" ht="78" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:58" ht="78" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="str">
         <f>+VLOOKUP(D10,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0012</v>
@@ -33844,7 +33858,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="11" spans="1:58" ht="63" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:58" ht="63" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="str">
         <f>+VLOOKUP(D11,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0012</v>
@@ -33976,7 +33990,7 @@
       </c>
       <c r="BF11" s="7"/>
     </row>
-    <row r="12" spans="1:58" ht="52.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:58" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="str">
         <f>+VLOOKUP(D12,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0012</v>
@@ -34084,7 +34098,7 @@
       <c r="BE12" s="7"/>
       <c r="BF12" s="7"/>
     </row>
-    <row r="13" spans="1:58" ht="63" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:58" ht="63" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="str">
         <f>+VLOOKUP(D13,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0012</v>
@@ -34192,7 +34206,7 @@
       <c r="BE13" s="7"/>
       <c r="BF13" s="7"/>
     </row>
-    <row r="14" spans="1:58" ht="78" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:58" ht="78" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="str">
         <f>+VLOOKUP(D14,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0008</v>
@@ -34347,7 +34361,7 @@
         <v>1522</v>
       </c>
     </row>
-    <row r="15" spans="1:58" ht="70" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:58" ht="70" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="str">
         <f>+VLOOKUP(D15,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0022</v>
@@ -34498,7 +34512,7 @@
         <v>1552</v>
       </c>
     </row>
-    <row r="16" spans="1:58" ht="55.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:58" ht="55.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="str">
         <f>+VLOOKUP(D16,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0012</v>
@@ -34604,7 +34618,7 @@
       <c r="BE16" s="7"/>
       <c r="BF16" s="7"/>
     </row>
-    <row r="17" spans="1:58" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:58" ht="58" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="str">
         <f>+VLOOKUP(D17,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0004</v>
@@ -34733,7 +34747,7 @@
       </c>
       <c r="BF17" s="131"/>
     </row>
-    <row r="18" spans="1:58" ht="48" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:58" ht="48" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="str">
         <f>+VLOOKUP(D18,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0004</v>
@@ -34851,7 +34865,7 @@
       </c>
       <c r="BF18" s="131"/>
     </row>
-    <row r="19" spans="1:58" ht="87" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:58" ht="87" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="str">
         <f>+VLOOKUP(D19,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0011</v>
@@ -34931,12 +34945,14 @@
       </c>
       <c r="AI19" s="164"/>
       <c r="AJ19" s="19" t="s">
-        <v>1141</v>
-      </c>
-      <c r="AK19" s="164"/>
+        <v>1248</v>
+      </c>
+      <c r="AK19" s="19" t="s">
+        <v>1248</v>
+      </c>
       <c r="AL19" s="165"/>
       <c r="AM19" s="165"/>
-      <c r="AN19" s="165"/>
+      <c r="AN19" s="186"/>
       <c r="AO19" s="19" t="s">
         <v>1384</v>
       </c>
@@ -34992,7 +35008,7 @@
         <v>1557</v>
       </c>
     </row>
-    <row r="20" spans="1:58" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:58" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="str">
         <f>+VLOOKUP(D20,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0010</v>
@@ -35132,7 +35148,7 @@
         <v>1513</v>
       </c>
     </row>
-    <row r="21" spans="1:58" ht="95.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:58" ht="95.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="str">
         <f>+VLOOKUP(D21,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0010</v>
@@ -35275,7 +35291,7 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="22" spans="1:58" ht="80.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:58" ht="80.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="str">
         <f>+VLOOKUP(D22,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0010</v>
@@ -35411,7 +35427,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="23" spans="1:58" ht="149.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:58" ht="149.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="42" t="str">
         <f>+VLOOKUP(D23,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0018</v>
@@ -35564,7 +35580,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="24" spans="1:58" ht="143" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:58" ht="143" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="str">
         <f>+VLOOKUP(D24,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0002</v>
@@ -35717,7 +35733,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="25" spans="1:58" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:58" ht="29" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="str">
         <f>+VLOOKUP(D25,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0002</v>
@@ -35817,7 +35833,7 @@
       <c r="BE25" s="7"/>
       <c r="BF25" s="7"/>
     </row>
-    <row r="26" spans="1:58" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:58" ht="29" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="str">
         <f>+VLOOKUP(D26,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0002</v>
@@ -35919,7 +35935,7 @@
       <c r="BE26" s="7"/>
       <c r="BF26" s="7"/>
     </row>
-    <row r="27" spans="1:58" ht="48" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:58" ht="48" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="str">
         <f>+VLOOKUP(D27,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0002</v>
@@ -36065,7 +36081,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="28" spans="1:58" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:58" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="str">
         <f>+VLOOKUP(D28,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0002</v>
@@ -36165,7 +36181,7 @@
       <c r="BE28" s="7"/>
       <c r="BF28" s="7"/>
     </row>
-    <row r="29" spans="1:58" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:58" ht="24" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="str">
         <f>+VLOOKUP(D29,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0002</v>
@@ -36267,7 +36283,7 @@
       <c r="BE29" s="7"/>
       <c r="BF29" s="7"/>
     </row>
-    <row r="30" spans="1:58" ht="104" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:58" ht="104" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="str">
         <f>+VLOOKUP(D30,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0001</v>
@@ -36416,7 +36432,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="31" spans="1:58" ht="36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:58" ht="36" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="str">
         <f>+VLOOKUP(D31,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0001</v>
@@ -36522,7 +36538,7 @@
         <v>1544</v>
       </c>
     </row>
-    <row r="32" spans="1:58" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:58" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="str">
         <f>+VLOOKUP(D32,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0001</v>
@@ -36671,7 +36687,7 @@
         <v>1545</v>
       </c>
     </row>
-    <row r="33" spa